--- a/controller/src/main/resources/jxls_templates/jingneijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingneijingsuanshu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="30" windowWidth="14520" windowHeight="10965" tabRatio="778"/>
+    <workbookView xWindow="-420" yWindow="36" windowWidth="14520" windowHeight="10968" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="出差精算合計" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="LSIソリューション開発グループ">設定!$C$11:$E$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$U$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$U$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">公务电话费!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定!$A$1:$J$32</definedName>
     <definedName name="SYJH">#REF!</definedName>
@@ -51,6 +51,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
+    <author>DONG</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -109,11 +110,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList3" lastCell="D19")</t>
+          <t>jx:image(src="wfList3" lastCell="C21")</t>
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,11 +125,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList4" lastCell="H19")</t>
+          <t>jx:image(src="wfList3" lastCell="E21")</t>
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0">
+    <comment ref="F19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +140,18 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="userim" lastCell="J19")</t>
+          <t>jx:image(src="userim" lastCell="G21")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -154,7 +166,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList1" lastCell="R19")</t>
+          <t>jx:image(src="wfList1" lastCell="R21")</t>
         </r>
       </text>
     </comment>
@@ -169,7 +181,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList2" lastCell="T19")</t>
+          <t>jx:image(src="wfList2" lastCell="T21")</t>
         </r>
       </text>
     </comment>
@@ -794,7 +806,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -953,6 +965,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -986,7 +1005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1430,36 +1449,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1618,6 +1607,70 @@
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1631,7 +1684,7 @@
     </xf>
     <xf numFmtId="6" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1658,7 +1711,7 @@
     <xf numFmtId="40" fontId="15" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="16" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="16" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,12 +1778,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1750,7 +1797,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1762,7 +1809,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1770,7 +1817,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1778,23 +1825,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="40" fontId="20" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="40" fontId="20" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1802,215 +1849,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2025,6 +1868,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2046,14 +1892,248 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2063,46 +2143,28 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2688,1542 +2750,1521 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16:T16"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="1.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="1.75" style="25" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="2.375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="1.625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="2.125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="25" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="25" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="25" customWidth="1"/>
-    <col min="13" max="13" width="3.125" style="25" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="25" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="25" customWidth="1"/>
-    <col min="16" max="16" width="1.875" style="25" customWidth="1"/>
-    <col min="17" max="17" width="3" style="25" customWidth="1"/>
-    <col min="18" max="18" width="7.125" style="25" customWidth="1"/>
-    <col min="19" max="19" width="2.75" style="25" customWidth="1"/>
-    <col min="20" max="20" width="8.625" style="25" customWidth="1"/>
-    <col min="21" max="21" width="3" style="25" customWidth="1"/>
+    <col min="1" max="21" width="5.77734375" style="25" customWidth="1"/>
     <col min="22" max="47" width="9" style="25" customWidth="1"/>
     <col min="48" max="247" width="9" style="25"/>
-    <col min="248" max="248" width="1.625" style="25" customWidth="1"/>
-    <col min="249" max="249" width="1.75" style="25" customWidth="1"/>
-    <col min="250" max="250" width="7.375" style="25" customWidth="1"/>
-    <col min="251" max="251" width="4.125" style="25" customWidth="1"/>
-    <col min="252" max="252" width="2.375" style="25" customWidth="1"/>
+    <col min="248" max="248" width="1.6640625" style="25" customWidth="1"/>
+    <col min="249" max="249" width="1.77734375" style="25" customWidth="1"/>
+    <col min="250" max="250" width="7.33203125" style="25" customWidth="1"/>
+    <col min="251" max="251" width="4.109375" style="25" customWidth="1"/>
+    <col min="252" max="252" width="2.33203125" style="25" customWidth="1"/>
     <col min="253" max="253" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="254" max="254" width="2.125" style="25" customWidth="1"/>
-    <col min="255" max="255" width="2.625" style="25" customWidth="1"/>
+    <col min="254" max="254" width="2.109375" style="25" customWidth="1"/>
+    <col min="255" max="255" width="2.6640625" style="25" customWidth="1"/>
     <col min="256" max="256" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="257" max="257" width="9.25" style="25" customWidth="1"/>
-    <col min="258" max="258" width="12.25" style="25" customWidth="1"/>
-    <col min="259" max="259" width="9.125" style="25" customWidth="1"/>
-    <col min="260" max="260" width="3.125" style="25" customWidth="1"/>
-    <col min="261" max="261" width="5.625" style="25" customWidth="1"/>
-    <col min="262" max="262" width="6.5" style="25" customWidth="1"/>
+    <col min="257" max="257" width="9.21875" style="25" customWidth="1"/>
+    <col min="258" max="258" width="12.21875" style="25" customWidth="1"/>
+    <col min="259" max="259" width="9.109375" style="25" customWidth="1"/>
+    <col min="260" max="260" width="3.109375" style="25" customWidth="1"/>
+    <col min="261" max="261" width="5.6640625" style="25" customWidth="1"/>
+    <col min="262" max="262" width="6.44140625" style="25" customWidth="1"/>
     <col min="263" max="263" width="1" style="25" customWidth="1"/>
     <col min="264" max="264" width="3" style="25" customWidth="1"/>
-    <col min="265" max="265" width="7.125" style="25" customWidth="1"/>
-    <col min="266" max="266" width="2.75" style="25" customWidth="1"/>
-    <col min="267" max="267" width="8.625" style="25" customWidth="1"/>
+    <col min="265" max="265" width="7.109375" style="25" customWidth="1"/>
+    <col min="266" max="266" width="2.77734375" style="25" customWidth="1"/>
+    <col min="267" max="267" width="8.6640625" style="25" customWidth="1"/>
     <col min="268" max="278" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="279" max="303" width="9" style="25" customWidth="1"/>
     <col min="304" max="503" width="9" style="25"/>
-    <col min="504" max="504" width="1.625" style="25" customWidth="1"/>
-    <col min="505" max="505" width="1.75" style="25" customWidth="1"/>
-    <col min="506" max="506" width="7.375" style="25" customWidth="1"/>
-    <col min="507" max="507" width="4.125" style="25" customWidth="1"/>
-    <col min="508" max="508" width="2.375" style="25" customWidth="1"/>
+    <col min="504" max="504" width="1.6640625" style="25" customWidth="1"/>
+    <col min="505" max="505" width="1.77734375" style="25" customWidth="1"/>
+    <col min="506" max="506" width="7.33203125" style="25" customWidth="1"/>
+    <col min="507" max="507" width="4.109375" style="25" customWidth="1"/>
+    <col min="508" max="508" width="2.33203125" style="25" customWidth="1"/>
     <col min="509" max="509" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="510" max="510" width="2.125" style="25" customWidth="1"/>
-    <col min="511" max="511" width="2.625" style="25" customWidth="1"/>
+    <col min="510" max="510" width="2.109375" style="25" customWidth="1"/>
+    <col min="511" max="511" width="2.6640625" style="25" customWidth="1"/>
     <col min="512" max="512" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="513" max="513" width="9.25" style="25" customWidth="1"/>
-    <col min="514" max="514" width="12.25" style="25" customWidth="1"/>
-    <col min="515" max="515" width="9.125" style="25" customWidth="1"/>
-    <col min="516" max="516" width="3.125" style="25" customWidth="1"/>
-    <col min="517" max="517" width="5.625" style="25" customWidth="1"/>
-    <col min="518" max="518" width="6.5" style="25" customWidth="1"/>
+    <col min="513" max="513" width="9.21875" style="25" customWidth="1"/>
+    <col min="514" max="514" width="12.21875" style="25" customWidth="1"/>
+    <col min="515" max="515" width="9.109375" style="25" customWidth="1"/>
+    <col min="516" max="516" width="3.109375" style="25" customWidth="1"/>
+    <col min="517" max="517" width="5.6640625" style="25" customWidth="1"/>
+    <col min="518" max="518" width="6.44140625" style="25" customWidth="1"/>
     <col min="519" max="519" width="1" style="25" customWidth="1"/>
     <col min="520" max="520" width="3" style="25" customWidth="1"/>
-    <col min="521" max="521" width="7.125" style="25" customWidth="1"/>
-    <col min="522" max="522" width="2.75" style="25" customWidth="1"/>
-    <col min="523" max="523" width="8.625" style="25" customWidth="1"/>
+    <col min="521" max="521" width="7.109375" style="25" customWidth="1"/>
+    <col min="522" max="522" width="2.77734375" style="25" customWidth="1"/>
+    <col min="523" max="523" width="8.6640625" style="25" customWidth="1"/>
     <col min="524" max="534" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="535" max="559" width="9" style="25" customWidth="1"/>
     <col min="560" max="759" width="9" style="25"/>
-    <col min="760" max="760" width="1.625" style="25" customWidth="1"/>
-    <col min="761" max="761" width="1.75" style="25" customWidth="1"/>
-    <col min="762" max="762" width="7.375" style="25" customWidth="1"/>
-    <col min="763" max="763" width="4.125" style="25" customWidth="1"/>
-    <col min="764" max="764" width="2.375" style="25" customWidth="1"/>
+    <col min="760" max="760" width="1.6640625" style="25" customWidth="1"/>
+    <col min="761" max="761" width="1.77734375" style="25" customWidth="1"/>
+    <col min="762" max="762" width="7.33203125" style="25" customWidth="1"/>
+    <col min="763" max="763" width="4.109375" style="25" customWidth="1"/>
+    <col min="764" max="764" width="2.33203125" style="25" customWidth="1"/>
     <col min="765" max="765" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="766" max="766" width="2.125" style="25" customWidth="1"/>
-    <col min="767" max="767" width="2.625" style="25" customWidth="1"/>
+    <col min="766" max="766" width="2.109375" style="25" customWidth="1"/>
+    <col min="767" max="767" width="2.6640625" style="25" customWidth="1"/>
     <col min="768" max="768" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="769" max="769" width="9.25" style="25" customWidth="1"/>
-    <col min="770" max="770" width="12.25" style="25" customWidth="1"/>
-    <col min="771" max="771" width="9.125" style="25" customWidth="1"/>
-    <col min="772" max="772" width="3.125" style="25" customWidth="1"/>
-    <col min="773" max="773" width="5.625" style="25" customWidth="1"/>
-    <col min="774" max="774" width="6.5" style="25" customWidth="1"/>
+    <col min="769" max="769" width="9.21875" style="25" customWidth="1"/>
+    <col min="770" max="770" width="12.21875" style="25" customWidth="1"/>
+    <col min="771" max="771" width="9.109375" style="25" customWidth="1"/>
+    <col min="772" max="772" width="3.109375" style="25" customWidth="1"/>
+    <col min="773" max="773" width="5.6640625" style="25" customWidth="1"/>
+    <col min="774" max="774" width="6.44140625" style="25" customWidth="1"/>
     <col min="775" max="775" width="1" style="25" customWidth="1"/>
     <col min="776" max="776" width="3" style="25" customWidth="1"/>
-    <col min="777" max="777" width="7.125" style="25" customWidth="1"/>
-    <col min="778" max="778" width="2.75" style="25" customWidth="1"/>
-    <col min="779" max="779" width="8.625" style="25" customWidth="1"/>
+    <col min="777" max="777" width="7.109375" style="25" customWidth="1"/>
+    <col min="778" max="778" width="2.77734375" style="25" customWidth="1"/>
+    <col min="779" max="779" width="8.6640625" style="25" customWidth="1"/>
     <col min="780" max="790" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="791" max="815" width="9" style="25" customWidth="1"/>
     <col min="816" max="1015" width="9" style="25"/>
-    <col min="1016" max="1016" width="1.625" style="25" customWidth="1"/>
-    <col min="1017" max="1017" width="1.75" style="25" customWidth="1"/>
-    <col min="1018" max="1018" width="7.375" style="25" customWidth="1"/>
-    <col min="1019" max="1019" width="4.125" style="25" customWidth="1"/>
-    <col min="1020" max="1020" width="2.375" style="25" customWidth="1"/>
+    <col min="1016" max="1016" width="1.6640625" style="25" customWidth="1"/>
+    <col min="1017" max="1017" width="1.77734375" style="25" customWidth="1"/>
+    <col min="1018" max="1018" width="7.33203125" style="25" customWidth="1"/>
+    <col min="1019" max="1019" width="4.109375" style="25" customWidth="1"/>
+    <col min="1020" max="1020" width="2.33203125" style="25" customWidth="1"/>
     <col min="1021" max="1021" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1022" max="1022" width="2.125" style="25" customWidth="1"/>
-    <col min="1023" max="1023" width="2.625" style="25" customWidth="1"/>
+    <col min="1022" max="1022" width="2.109375" style="25" customWidth="1"/>
+    <col min="1023" max="1023" width="2.6640625" style="25" customWidth="1"/>
     <col min="1024" max="1024" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1025" max="1025" width="9.25" style="25" customWidth="1"/>
-    <col min="1026" max="1026" width="12.25" style="25" customWidth="1"/>
-    <col min="1027" max="1027" width="9.125" style="25" customWidth="1"/>
-    <col min="1028" max="1028" width="3.125" style="25" customWidth="1"/>
-    <col min="1029" max="1029" width="5.625" style="25" customWidth="1"/>
-    <col min="1030" max="1030" width="6.5" style="25" customWidth="1"/>
+    <col min="1025" max="1025" width="9.21875" style="25" customWidth="1"/>
+    <col min="1026" max="1026" width="12.21875" style="25" customWidth="1"/>
+    <col min="1027" max="1027" width="9.109375" style="25" customWidth="1"/>
+    <col min="1028" max="1028" width="3.109375" style="25" customWidth="1"/>
+    <col min="1029" max="1029" width="5.6640625" style="25" customWidth="1"/>
+    <col min="1030" max="1030" width="6.44140625" style="25" customWidth="1"/>
     <col min="1031" max="1031" width="1" style="25" customWidth="1"/>
     <col min="1032" max="1032" width="3" style="25" customWidth="1"/>
-    <col min="1033" max="1033" width="7.125" style="25" customWidth="1"/>
-    <col min="1034" max="1034" width="2.75" style="25" customWidth="1"/>
-    <col min="1035" max="1035" width="8.625" style="25" customWidth="1"/>
+    <col min="1033" max="1033" width="7.109375" style="25" customWidth="1"/>
+    <col min="1034" max="1034" width="2.77734375" style="25" customWidth="1"/>
+    <col min="1035" max="1035" width="8.6640625" style="25" customWidth="1"/>
     <col min="1036" max="1046" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="1047" max="1071" width="9" style="25" customWidth="1"/>
     <col min="1072" max="1271" width="9" style="25"/>
-    <col min="1272" max="1272" width="1.625" style="25" customWidth="1"/>
-    <col min="1273" max="1273" width="1.75" style="25" customWidth="1"/>
-    <col min="1274" max="1274" width="7.375" style="25" customWidth="1"/>
-    <col min="1275" max="1275" width="4.125" style="25" customWidth="1"/>
-    <col min="1276" max="1276" width="2.375" style="25" customWidth="1"/>
+    <col min="1272" max="1272" width="1.6640625" style="25" customWidth="1"/>
+    <col min="1273" max="1273" width="1.77734375" style="25" customWidth="1"/>
+    <col min="1274" max="1274" width="7.33203125" style="25" customWidth="1"/>
+    <col min="1275" max="1275" width="4.109375" style="25" customWidth="1"/>
+    <col min="1276" max="1276" width="2.33203125" style="25" customWidth="1"/>
     <col min="1277" max="1277" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1278" max="1278" width="2.125" style="25" customWidth="1"/>
-    <col min="1279" max="1279" width="2.625" style="25" customWidth="1"/>
+    <col min="1278" max="1278" width="2.109375" style="25" customWidth="1"/>
+    <col min="1279" max="1279" width="2.6640625" style="25" customWidth="1"/>
     <col min="1280" max="1280" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1281" max="1281" width="9.25" style="25" customWidth="1"/>
-    <col min="1282" max="1282" width="12.25" style="25" customWidth="1"/>
-    <col min="1283" max="1283" width="9.125" style="25" customWidth="1"/>
-    <col min="1284" max="1284" width="3.125" style="25" customWidth="1"/>
-    <col min="1285" max="1285" width="5.625" style="25" customWidth="1"/>
-    <col min="1286" max="1286" width="6.5" style="25" customWidth="1"/>
+    <col min="1281" max="1281" width="9.21875" style="25" customWidth="1"/>
+    <col min="1282" max="1282" width="12.21875" style="25" customWidth="1"/>
+    <col min="1283" max="1283" width="9.109375" style="25" customWidth="1"/>
+    <col min="1284" max="1284" width="3.109375" style="25" customWidth="1"/>
+    <col min="1285" max="1285" width="5.6640625" style="25" customWidth="1"/>
+    <col min="1286" max="1286" width="6.44140625" style="25" customWidth="1"/>
     <col min="1287" max="1287" width="1" style="25" customWidth="1"/>
     <col min="1288" max="1288" width="3" style="25" customWidth="1"/>
-    <col min="1289" max="1289" width="7.125" style="25" customWidth="1"/>
-    <col min="1290" max="1290" width="2.75" style="25" customWidth="1"/>
-    <col min="1291" max="1291" width="8.625" style="25" customWidth="1"/>
+    <col min="1289" max="1289" width="7.109375" style="25" customWidth="1"/>
+    <col min="1290" max="1290" width="2.77734375" style="25" customWidth="1"/>
+    <col min="1291" max="1291" width="8.6640625" style="25" customWidth="1"/>
     <col min="1292" max="1302" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="1303" max="1327" width="9" style="25" customWidth="1"/>
     <col min="1328" max="1527" width="9" style="25"/>
-    <col min="1528" max="1528" width="1.625" style="25" customWidth="1"/>
-    <col min="1529" max="1529" width="1.75" style="25" customWidth="1"/>
-    <col min="1530" max="1530" width="7.375" style="25" customWidth="1"/>
-    <col min="1531" max="1531" width="4.125" style="25" customWidth="1"/>
-    <col min="1532" max="1532" width="2.375" style="25" customWidth="1"/>
+    <col min="1528" max="1528" width="1.6640625" style="25" customWidth="1"/>
+    <col min="1529" max="1529" width="1.77734375" style="25" customWidth="1"/>
+    <col min="1530" max="1530" width="7.33203125" style="25" customWidth="1"/>
+    <col min="1531" max="1531" width="4.109375" style="25" customWidth="1"/>
+    <col min="1532" max="1532" width="2.33203125" style="25" customWidth="1"/>
     <col min="1533" max="1533" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1534" max="1534" width="2.125" style="25" customWidth="1"/>
-    <col min="1535" max="1535" width="2.625" style="25" customWidth="1"/>
+    <col min="1534" max="1534" width="2.109375" style="25" customWidth="1"/>
+    <col min="1535" max="1535" width="2.6640625" style="25" customWidth="1"/>
     <col min="1536" max="1536" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1537" max="1537" width="9.25" style="25" customWidth="1"/>
-    <col min="1538" max="1538" width="12.25" style="25" customWidth="1"/>
-    <col min="1539" max="1539" width="9.125" style="25" customWidth="1"/>
-    <col min="1540" max="1540" width="3.125" style="25" customWidth="1"/>
-    <col min="1541" max="1541" width="5.625" style="25" customWidth="1"/>
-    <col min="1542" max="1542" width="6.5" style="25" customWidth="1"/>
+    <col min="1537" max="1537" width="9.21875" style="25" customWidth="1"/>
+    <col min="1538" max="1538" width="12.21875" style="25" customWidth="1"/>
+    <col min="1539" max="1539" width="9.109375" style="25" customWidth="1"/>
+    <col min="1540" max="1540" width="3.109375" style="25" customWidth="1"/>
+    <col min="1541" max="1541" width="5.6640625" style="25" customWidth="1"/>
+    <col min="1542" max="1542" width="6.44140625" style="25" customWidth="1"/>
     <col min="1543" max="1543" width="1" style="25" customWidth="1"/>
     <col min="1544" max="1544" width="3" style="25" customWidth="1"/>
-    <col min="1545" max="1545" width="7.125" style="25" customWidth="1"/>
-    <col min="1546" max="1546" width="2.75" style="25" customWidth="1"/>
-    <col min="1547" max="1547" width="8.625" style="25" customWidth="1"/>
+    <col min="1545" max="1545" width="7.109375" style="25" customWidth="1"/>
+    <col min="1546" max="1546" width="2.77734375" style="25" customWidth="1"/>
+    <col min="1547" max="1547" width="8.6640625" style="25" customWidth="1"/>
     <col min="1548" max="1558" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="1559" max="1583" width="9" style="25" customWidth="1"/>
     <col min="1584" max="1783" width="9" style="25"/>
-    <col min="1784" max="1784" width="1.625" style="25" customWidth="1"/>
-    <col min="1785" max="1785" width="1.75" style="25" customWidth="1"/>
-    <col min="1786" max="1786" width="7.375" style="25" customWidth="1"/>
-    <col min="1787" max="1787" width="4.125" style="25" customWidth="1"/>
-    <col min="1788" max="1788" width="2.375" style="25" customWidth="1"/>
+    <col min="1784" max="1784" width="1.6640625" style="25" customWidth="1"/>
+    <col min="1785" max="1785" width="1.77734375" style="25" customWidth="1"/>
+    <col min="1786" max="1786" width="7.33203125" style="25" customWidth="1"/>
+    <col min="1787" max="1787" width="4.109375" style="25" customWidth="1"/>
+    <col min="1788" max="1788" width="2.33203125" style="25" customWidth="1"/>
     <col min="1789" max="1789" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1790" max="1790" width="2.125" style="25" customWidth="1"/>
-    <col min="1791" max="1791" width="2.625" style="25" customWidth="1"/>
+    <col min="1790" max="1790" width="2.109375" style="25" customWidth="1"/>
+    <col min="1791" max="1791" width="2.6640625" style="25" customWidth="1"/>
     <col min="1792" max="1792" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1793" max="1793" width="9.25" style="25" customWidth="1"/>
-    <col min="1794" max="1794" width="12.25" style="25" customWidth="1"/>
-    <col min="1795" max="1795" width="9.125" style="25" customWidth="1"/>
-    <col min="1796" max="1796" width="3.125" style="25" customWidth="1"/>
-    <col min="1797" max="1797" width="5.625" style="25" customWidth="1"/>
-    <col min="1798" max="1798" width="6.5" style="25" customWidth="1"/>
+    <col min="1793" max="1793" width="9.21875" style="25" customWidth="1"/>
+    <col min="1794" max="1794" width="12.21875" style="25" customWidth="1"/>
+    <col min="1795" max="1795" width="9.109375" style="25" customWidth="1"/>
+    <col min="1796" max="1796" width="3.109375" style="25" customWidth="1"/>
+    <col min="1797" max="1797" width="5.6640625" style="25" customWidth="1"/>
+    <col min="1798" max="1798" width="6.44140625" style="25" customWidth="1"/>
     <col min="1799" max="1799" width="1" style="25" customWidth="1"/>
     <col min="1800" max="1800" width="3" style="25" customWidth="1"/>
-    <col min="1801" max="1801" width="7.125" style="25" customWidth="1"/>
-    <col min="1802" max="1802" width="2.75" style="25" customWidth="1"/>
-    <col min="1803" max="1803" width="8.625" style="25" customWidth="1"/>
+    <col min="1801" max="1801" width="7.109375" style="25" customWidth="1"/>
+    <col min="1802" max="1802" width="2.77734375" style="25" customWidth="1"/>
+    <col min="1803" max="1803" width="8.6640625" style="25" customWidth="1"/>
     <col min="1804" max="1814" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="1815" max="1839" width="9" style="25" customWidth="1"/>
     <col min="1840" max="2039" width="9" style="25"/>
-    <col min="2040" max="2040" width="1.625" style="25" customWidth="1"/>
-    <col min="2041" max="2041" width="1.75" style="25" customWidth="1"/>
-    <col min="2042" max="2042" width="7.375" style="25" customWidth="1"/>
-    <col min="2043" max="2043" width="4.125" style="25" customWidth="1"/>
-    <col min="2044" max="2044" width="2.375" style="25" customWidth="1"/>
+    <col min="2040" max="2040" width="1.6640625" style="25" customWidth="1"/>
+    <col min="2041" max="2041" width="1.77734375" style="25" customWidth="1"/>
+    <col min="2042" max="2042" width="7.33203125" style="25" customWidth="1"/>
+    <col min="2043" max="2043" width="4.109375" style="25" customWidth="1"/>
+    <col min="2044" max="2044" width="2.33203125" style="25" customWidth="1"/>
     <col min="2045" max="2045" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2046" max="2046" width="2.125" style="25" customWidth="1"/>
-    <col min="2047" max="2047" width="2.625" style="25" customWidth="1"/>
+    <col min="2046" max="2046" width="2.109375" style="25" customWidth="1"/>
+    <col min="2047" max="2047" width="2.6640625" style="25" customWidth="1"/>
     <col min="2048" max="2048" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2049" max="2049" width="9.25" style="25" customWidth="1"/>
-    <col min="2050" max="2050" width="12.25" style="25" customWidth="1"/>
-    <col min="2051" max="2051" width="9.125" style="25" customWidth="1"/>
-    <col min="2052" max="2052" width="3.125" style="25" customWidth="1"/>
-    <col min="2053" max="2053" width="5.625" style="25" customWidth="1"/>
-    <col min="2054" max="2054" width="6.5" style="25" customWidth="1"/>
+    <col min="2049" max="2049" width="9.21875" style="25" customWidth="1"/>
+    <col min="2050" max="2050" width="12.21875" style="25" customWidth="1"/>
+    <col min="2051" max="2051" width="9.109375" style="25" customWidth="1"/>
+    <col min="2052" max="2052" width="3.109375" style="25" customWidth="1"/>
+    <col min="2053" max="2053" width="5.6640625" style="25" customWidth="1"/>
+    <col min="2054" max="2054" width="6.44140625" style="25" customWidth="1"/>
     <col min="2055" max="2055" width="1" style="25" customWidth="1"/>
     <col min="2056" max="2056" width="3" style="25" customWidth="1"/>
-    <col min="2057" max="2057" width="7.125" style="25" customWidth="1"/>
-    <col min="2058" max="2058" width="2.75" style="25" customWidth="1"/>
-    <col min="2059" max="2059" width="8.625" style="25" customWidth="1"/>
+    <col min="2057" max="2057" width="7.109375" style="25" customWidth="1"/>
+    <col min="2058" max="2058" width="2.77734375" style="25" customWidth="1"/>
+    <col min="2059" max="2059" width="8.6640625" style="25" customWidth="1"/>
     <col min="2060" max="2070" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="2071" max="2095" width="9" style="25" customWidth="1"/>
     <col min="2096" max="2295" width="9" style="25"/>
-    <col min="2296" max="2296" width="1.625" style="25" customWidth="1"/>
-    <col min="2297" max="2297" width="1.75" style="25" customWidth="1"/>
-    <col min="2298" max="2298" width="7.375" style="25" customWidth="1"/>
-    <col min="2299" max="2299" width="4.125" style="25" customWidth="1"/>
-    <col min="2300" max="2300" width="2.375" style="25" customWidth="1"/>
+    <col min="2296" max="2296" width="1.6640625" style="25" customWidth="1"/>
+    <col min="2297" max="2297" width="1.77734375" style="25" customWidth="1"/>
+    <col min="2298" max="2298" width="7.33203125" style="25" customWidth="1"/>
+    <col min="2299" max="2299" width="4.109375" style="25" customWidth="1"/>
+    <col min="2300" max="2300" width="2.33203125" style="25" customWidth="1"/>
     <col min="2301" max="2301" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2302" max="2302" width="2.125" style="25" customWidth="1"/>
-    <col min="2303" max="2303" width="2.625" style="25" customWidth="1"/>
+    <col min="2302" max="2302" width="2.109375" style="25" customWidth="1"/>
+    <col min="2303" max="2303" width="2.6640625" style="25" customWidth="1"/>
     <col min="2304" max="2304" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2305" max="2305" width="9.25" style="25" customWidth="1"/>
-    <col min="2306" max="2306" width="12.25" style="25" customWidth="1"/>
-    <col min="2307" max="2307" width="9.125" style="25" customWidth="1"/>
-    <col min="2308" max="2308" width="3.125" style="25" customWidth="1"/>
-    <col min="2309" max="2309" width="5.625" style="25" customWidth="1"/>
-    <col min="2310" max="2310" width="6.5" style="25" customWidth="1"/>
+    <col min="2305" max="2305" width="9.21875" style="25" customWidth="1"/>
+    <col min="2306" max="2306" width="12.21875" style="25" customWidth="1"/>
+    <col min="2307" max="2307" width="9.109375" style="25" customWidth="1"/>
+    <col min="2308" max="2308" width="3.109375" style="25" customWidth="1"/>
+    <col min="2309" max="2309" width="5.6640625" style="25" customWidth="1"/>
+    <col min="2310" max="2310" width="6.44140625" style="25" customWidth="1"/>
     <col min="2311" max="2311" width="1" style="25" customWidth="1"/>
     <col min="2312" max="2312" width="3" style="25" customWidth="1"/>
-    <col min="2313" max="2313" width="7.125" style="25" customWidth="1"/>
-    <col min="2314" max="2314" width="2.75" style="25" customWidth="1"/>
-    <col min="2315" max="2315" width="8.625" style="25" customWidth="1"/>
+    <col min="2313" max="2313" width="7.109375" style="25" customWidth="1"/>
+    <col min="2314" max="2314" width="2.77734375" style="25" customWidth="1"/>
+    <col min="2315" max="2315" width="8.6640625" style="25" customWidth="1"/>
     <col min="2316" max="2326" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="2327" max="2351" width="9" style="25" customWidth="1"/>
     <col min="2352" max="2551" width="9" style="25"/>
-    <col min="2552" max="2552" width="1.625" style="25" customWidth="1"/>
-    <col min="2553" max="2553" width="1.75" style="25" customWidth="1"/>
-    <col min="2554" max="2554" width="7.375" style="25" customWidth="1"/>
-    <col min="2555" max="2555" width="4.125" style="25" customWidth="1"/>
-    <col min="2556" max="2556" width="2.375" style="25" customWidth="1"/>
+    <col min="2552" max="2552" width="1.6640625" style="25" customWidth="1"/>
+    <col min="2553" max="2553" width="1.77734375" style="25" customWidth="1"/>
+    <col min="2554" max="2554" width="7.33203125" style="25" customWidth="1"/>
+    <col min="2555" max="2555" width="4.109375" style="25" customWidth="1"/>
+    <col min="2556" max="2556" width="2.33203125" style="25" customWidth="1"/>
     <col min="2557" max="2557" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2558" max="2558" width="2.125" style="25" customWidth="1"/>
-    <col min="2559" max="2559" width="2.625" style="25" customWidth="1"/>
+    <col min="2558" max="2558" width="2.109375" style="25" customWidth="1"/>
+    <col min="2559" max="2559" width="2.6640625" style="25" customWidth="1"/>
     <col min="2560" max="2560" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2561" max="2561" width="9.25" style="25" customWidth="1"/>
-    <col min="2562" max="2562" width="12.25" style="25" customWidth="1"/>
-    <col min="2563" max="2563" width="9.125" style="25" customWidth="1"/>
-    <col min="2564" max="2564" width="3.125" style="25" customWidth="1"/>
-    <col min="2565" max="2565" width="5.625" style="25" customWidth="1"/>
-    <col min="2566" max="2566" width="6.5" style="25" customWidth="1"/>
+    <col min="2561" max="2561" width="9.21875" style="25" customWidth="1"/>
+    <col min="2562" max="2562" width="12.21875" style="25" customWidth="1"/>
+    <col min="2563" max="2563" width="9.109375" style="25" customWidth="1"/>
+    <col min="2564" max="2564" width="3.109375" style="25" customWidth="1"/>
+    <col min="2565" max="2565" width="5.6640625" style="25" customWidth="1"/>
+    <col min="2566" max="2566" width="6.44140625" style="25" customWidth="1"/>
     <col min="2567" max="2567" width="1" style="25" customWidth="1"/>
     <col min="2568" max="2568" width="3" style="25" customWidth="1"/>
-    <col min="2569" max="2569" width="7.125" style="25" customWidth="1"/>
-    <col min="2570" max="2570" width="2.75" style="25" customWidth="1"/>
-    <col min="2571" max="2571" width="8.625" style="25" customWidth="1"/>
+    <col min="2569" max="2569" width="7.109375" style="25" customWidth="1"/>
+    <col min="2570" max="2570" width="2.77734375" style="25" customWidth="1"/>
+    <col min="2571" max="2571" width="8.6640625" style="25" customWidth="1"/>
     <col min="2572" max="2582" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="2583" max="2607" width="9" style="25" customWidth="1"/>
     <col min="2608" max="2807" width="9" style="25"/>
-    <col min="2808" max="2808" width="1.625" style="25" customWidth="1"/>
-    <col min="2809" max="2809" width="1.75" style="25" customWidth="1"/>
-    <col min="2810" max="2810" width="7.375" style="25" customWidth="1"/>
-    <col min="2811" max="2811" width="4.125" style="25" customWidth="1"/>
-    <col min="2812" max="2812" width="2.375" style="25" customWidth="1"/>
+    <col min="2808" max="2808" width="1.6640625" style="25" customWidth="1"/>
+    <col min="2809" max="2809" width="1.77734375" style="25" customWidth="1"/>
+    <col min="2810" max="2810" width="7.33203125" style="25" customWidth="1"/>
+    <col min="2811" max="2811" width="4.109375" style="25" customWidth="1"/>
+    <col min="2812" max="2812" width="2.33203125" style="25" customWidth="1"/>
     <col min="2813" max="2813" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2814" max="2814" width="2.125" style="25" customWidth="1"/>
-    <col min="2815" max="2815" width="2.625" style="25" customWidth="1"/>
+    <col min="2814" max="2814" width="2.109375" style="25" customWidth="1"/>
+    <col min="2815" max="2815" width="2.6640625" style="25" customWidth="1"/>
     <col min="2816" max="2816" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2817" max="2817" width="9.25" style="25" customWidth="1"/>
-    <col min="2818" max="2818" width="12.25" style="25" customWidth="1"/>
-    <col min="2819" max="2819" width="9.125" style="25" customWidth="1"/>
-    <col min="2820" max="2820" width="3.125" style="25" customWidth="1"/>
-    <col min="2821" max="2821" width="5.625" style="25" customWidth="1"/>
-    <col min="2822" max="2822" width="6.5" style="25" customWidth="1"/>
+    <col min="2817" max="2817" width="9.21875" style="25" customWidth="1"/>
+    <col min="2818" max="2818" width="12.21875" style="25" customWidth="1"/>
+    <col min="2819" max="2819" width="9.109375" style="25" customWidth="1"/>
+    <col min="2820" max="2820" width="3.109375" style="25" customWidth="1"/>
+    <col min="2821" max="2821" width="5.6640625" style="25" customWidth="1"/>
+    <col min="2822" max="2822" width="6.44140625" style="25" customWidth="1"/>
     <col min="2823" max="2823" width="1" style="25" customWidth="1"/>
     <col min="2824" max="2824" width="3" style="25" customWidth="1"/>
-    <col min="2825" max="2825" width="7.125" style="25" customWidth="1"/>
-    <col min="2826" max="2826" width="2.75" style="25" customWidth="1"/>
-    <col min="2827" max="2827" width="8.625" style="25" customWidth="1"/>
+    <col min="2825" max="2825" width="7.109375" style="25" customWidth="1"/>
+    <col min="2826" max="2826" width="2.77734375" style="25" customWidth="1"/>
+    <col min="2827" max="2827" width="8.6640625" style="25" customWidth="1"/>
     <col min="2828" max="2838" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="2839" max="2863" width="9" style="25" customWidth="1"/>
     <col min="2864" max="3063" width="9" style="25"/>
-    <col min="3064" max="3064" width="1.625" style="25" customWidth="1"/>
-    <col min="3065" max="3065" width="1.75" style="25" customWidth="1"/>
-    <col min="3066" max="3066" width="7.375" style="25" customWidth="1"/>
-    <col min="3067" max="3067" width="4.125" style="25" customWidth="1"/>
-    <col min="3068" max="3068" width="2.375" style="25" customWidth="1"/>
+    <col min="3064" max="3064" width="1.6640625" style="25" customWidth="1"/>
+    <col min="3065" max="3065" width="1.77734375" style="25" customWidth="1"/>
+    <col min="3066" max="3066" width="7.33203125" style="25" customWidth="1"/>
+    <col min="3067" max="3067" width="4.109375" style="25" customWidth="1"/>
+    <col min="3068" max="3068" width="2.33203125" style="25" customWidth="1"/>
     <col min="3069" max="3069" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3070" max="3070" width="2.125" style="25" customWidth="1"/>
-    <col min="3071" max="3071" width="2.625" style="25" customWidth="1"/>
+    <col min="3070" max="3070" width="2.109375" style="25" customWidth="1"/>
+    <col min="3071" max="3071" width="2.6640625" style="25" customWidth="1"/>
     <col min="3072" max="3072" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3073" max="3073" width="9.25" style="25" customWidth="1"/>
-    <col min="3074" max="3074" width="12.25" style="25" customWidth="1"/>
-    <col min="3075" max="3075" width="9.125" style="25" customWidth="1"/>
-    <col min="3076" max="3076" width="3.125" style="25" customWidth="1"/>
-    <col min="3077" max="3077" width="5.625" style="25" customWidth="1"/>
-    <col min="3078" max="3078" width="6.5" style="25" customWidth="1"/>
+    <col min="3073" max="3073" width="9.21875" style="25" customWidth="1"/>
+    <col min="3074" max="3074" width="12.21875" style="25" customWidth="1"/>
+    <col min="3075" max="3075" width="9.109375" style="25" customWidth="1"/>
+    <col min="3076" max="3076" width="3.109375" style="25" customWidth="1"/>
+    <col min="3077" max="3077" width="5.6640625" style="25" customWidth="1"/>
+    <col min="3078" max="3078" width="6.44140625" style="25" customWidth="1"/>
     <col min="3079" max="3079" width="1" style="25" customWidth="1"/>
     <col min="3080" max="3080" width="3" style="25" customWidth="1"/>
-    <col min="3081" max="3081" width="7.125" style="25" customWidth="1"/>
-    <col min="3082" max="3082" width="2.75" style="25" customWidth="1"/>
-    <col min="3083" max="3083" width="8.625" style="25" customWidth="1"/>
+    <col min="3081" max="3081" width="7.109375" style="25" customWidth="1"/>
+    <col min="3082" max="3082" width="2.77734375" style="25" customWidth="1"/>
+    <col min="3083" max="3083" width="8.6640625" style="25" customWidth="1"/>
     <col min="3084" max="3094" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="3095" max="3119" width="9" style="25" customWidth="1"/>
     <col min="3120" max="3319" width="9" style="25"/>
-    <col min="3320" max="3320" width="1.625" style="25" customWidth="1"/>
-    <col min="3321" max="3321" width="1.75" style="25" customWidth="1"/>
-    <col min="3322" max="3322" width="7.375" style="25" customWidth="1"/>
-    <col min="3323" max="3323" width="4.125" style="25" customWidth="1"/>
-    <col min="3324" max="3324" width="2.375" style="25" customWidth="1"/>
+    <col min="3320" max="3320" width="1.6640625" style="25" customWidth="1"/>
+    <col min="3321" max="3321" width="1.77734375" style="25" customWidth="1"/>
+    <col min="3322" max="3322" width="7.33203125" style="25" customWidth="1"/>
+    <col min="3323" max="3323" width="4.109375" style="25" customWidth="1"/>
+    <col min="3324" max="3324" width="2.33203125" style="25" customWidth="1"/>
     <col min="3325" max="3325" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3326" max="3326" width="2.125" style="25" customWidth="1"/>
-    <col min="3327" max="3327" width="2.625" style="25" customWidth="1"/>
+    <col min="3326" max="3326" width="2.109375" style="25" customWidth="1"/>
+    <col min="3327" max="3327" width="2.6640625" style="25" customWidth="1"/>
     <col min="3328" max="3328" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3329" max="3329" width="9.25" style="25" customWidth="1"/>
-    <col min="3330" max="3330" width="12.25" style="25" customWidth="1"/>
-    <col min="3331" max="3331" width="9.125" style="25" customWidth="1"/>
-    <col min="3332" max="3332" width="3.125" style="25" customWidth="1"/>
-    <col min="3333" max="3333" width="5.625" style="25" customWidth="1"/>
-    <col min="3334" max="3334" width="6.5" style="25" customWidth="1"/>
+    <col min="3329" max="3329" width="9.21875" style="25" customWidth="1"/>
+    <col min="3330" max="3330" width="12.21875" style="25" customWidth="1"/>
+    <col min="3331" max="3331" width="9.109375" style="25" customWidth="1"/>
+    <col min="3332" max="3332" width="3.109375" style="25" customWidth="1"/>
+    <col min="3333" max="3333" width="5.6640625" style="25" customWidth="1"/>
+    <col min="3334" max="3334" width="6.44140625" style="25" customWidth="1"/>
     <col min="3335" max="3335" width="1" style="25" customWidth="1"/>
     <col min="3336" max="3336" width="3" style="25" customWidth="1"/>
-    <col min="3337" max="3337" width="7.125" style="25" customWidth="1"/>
-    <col min="3338" max="3338" width="2.75" style="25" customWidth="1"/>
-    <col min="3339" max="3339" width="8.625" style="25" customWidth="1"/>
+    <col min="3337" max="3337" width="7.109375" style="25" customWidth="1"/>
+    <col min="3338" max="3338" width="2.77734375" style="25" customWidth="1"/>
+    <col min="3339" max="3339" width="8.6640625" style="25" customWidth="1"/>
     <col min="3340" max="3350" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="3351" max="3375" width="9" style="25" customWidth="1"/>
     <col min="3376" max="3575" width="9" style="25"/>
-    <col min="3576" max="3576" width="1.625" style="25" customWidth="1"/>
-    <col min="3577" max="3577" width="1.75" style="25" customWidth="1"/>
-    <col min="3578" max="3578" width="7.375" style="25" customWidth="1"/>
-    <col min="3579" max="3579" width="4.125" style="25" customWidth="1"/>
-    <col min="3580" max="3580" width="2.375" style="25" customWidth="1"/>
+    <col min="3576" max="3576" width="1.6640625" style="25" customWidth="1"/>
+    <col min="3577" max="3577" width="1.77734375" style="25" customWidth="1"/>
+    <col min="3578" max="3578" width="7.33203125" style="25" customWidth="1"/>
+    <col min="3579" max="3579" width="4.109375" style="25" customWidth="1"/>
+    <col min="3580" max="3580" width="2.33203125" style="25" customWidth="1"/>
     <col min="3581" max="3581" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3582" max="3582" width="2.125" style="25" customWidth="1"/>
-    <col min="3583" max="3583" width="2.625" style="25" customWidth="1"/>
+    <col min="3582" max="3582" width="2.109375" style="25" customWidth="1"/>
+    <col min="3583" max="3583" width="2.6640625" style="25" customWidth="1"/>
     <col min="3584" max="3584" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3585" max="3585" width="9.25" style="25" customWidth="1"/>
-    <col min="3586" max="3586" width="12.25" style="25" customWidth="1"/>
-    <col min="3587" max="3587" width="9.125" style="25" customWidth="1"/>
-    <col min="3588" max="3588" width="3.125" style="25" customWidth="1"/>
-    <col min="3589" max="3589" width="5.625" style="25" customWidth="1"/>
-    <col min="3590" max="3590" width="6.5" style="25" customWidth="1"/>
+    <col min="3585" max="3585" width="9.21875" style="25" customWidth="1"/>
+    <col min="3586" max="3586" width="12.21875" style="25" customWidth="1"/>
+    <col min="3587" max="3587" width="9.109375" style="25" customWidth="1"/>
+    <col min="3588" max="3588" width="3.109375" style="25" customWidth="1"/>
+    <col min="3589" max="3589" width="5.6640625" style="25" customWidth="1"/>
+    <col min="3590" max="3590" width="6.44140625" style="25" customWidth="1"/>
     <col min="3591" max="3591" width="1" style="25" customWidth="1"/>
     <col min="3592" max="3592" width="3" style="25" customWidth="1"/>
-    <col min="3593" max="3593" width="7.125" style="25" customWidth="1"/>
-    <col min="3594" max="3594" width="2.75" style="25" customWidth="1"/>
-    <col min="3595" max="3595" width="8.625" style="25" customWidth="1"/>
+    <col min="3593" max="3593" width="7.109375" style="25" customWidth="1"/>
+    <col min="3594" max="3594" width="2.77734375" style="25" customWidth="1"/>
+    <col min="3595" max="3595" width="8.6640625" style="25" customWidth="1"/>
     <col min="3596" max="3606" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="3607" max="3631" width="9" style="25" customWidth="1"/>
     <col min="3632" max="3831" width="9" style="25"/>
-    <col min="3832" max="3832" width="1.625" style="25" customWidth="1"/>
-    <col min="3833" max="3833" width="1.75" style="25" customWidth="1"/>
-    <col min="3834" max="3834" width="7.375" style="25" customWidth="1"/>
-    <col min="3835" max="3835" width="4.125" style="25" customWidth="1"/>
-    <col min="3836" max="3836" width="2.375" style="25" customWidth="1"/>
+    <col min="3832" max="3832" width="1.6640625" style="25" customWidth="1"/>
+    <col min="3833" max="3833" width="1.77734375" style="25" customWidth="1"/>
+    <col min="3834" max="3834" width="7.33203125" style="25" customWidth="1"/>
+    <col min="3835" max="3835" width="4.109375" style="25" customWidth="1"/>
+    <col min="3836" max="3836" width="2.33203125" style="25" customWidth="1"/>
     <col min="3837" max="3837" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3838" max="3838" width="2.125" style="25" customWidth="1"/>
-    <col min="3839" max="3839" width="2.625" style="25" customWidth="1"/>
+    <col min="3838" max="3838" width="2.109375" style="25" customWidth="1"/>
+    <col min="3839" max="3839" width="2.6640625" style="25" customWidth="1"/>
     <col min="3840" max="3840" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3841" max="3841" width="9.25" style="25" customWidth="1"/>
-    <col min="3842" max="3842" width="12.25" style="25" customWidth="1"/>
-    <col min="3843" max="3843" width="9.125" style="25" customWidth="1"/>
-    <col min="3844" max="3844" width="3.125" style="25" customWidth="1"/>
-    <col min="3845" max="3845" width="5.625" style="25" customWidth="1"/>
-    <col min="3846" max="3846" width="6.5" style="25" customWidth="1"/>
+    <col min="3841" max="3841" width="9.21875" style="25" customWidth="1"/>
+    <col min="3842" max="3842" width="12.21875" style="25" customWidth="1"/>
+    <col min="3843" max="3843" width="9.109375" style="25" customWidth="1"/>
+    <col min="3844" max="3844" width="3.109375" style="25" customWidth="1"/>
+    <col min="3845" max="3845" width="5.6640625" style="25" customWidth="1"/>
+    <col min="3846" max="3846" width="6.44140625" style="25" customWidth="1"/>
     <col min="3847" max="3847" width="1" style="25" customWidth="1"/>
     <col min="3848" max="3848" width="3" style="25" customWidth="1"/>
-    <col min="3849" max="3849" width="7.125" style="25" customWidth="1"/>
-    <col min="3850" max="3850" width="2.75" style="25" customWidth="1"/>
-    <col min="3851" max="3851" width="8.625" style="25" customWidth="1"/>
+    <col min="3849" max="3849" width="7.109375" style="25" customWidth="1"/>
+    <col min="3850" max="3850" width="2.77734375" style="25" customWidth="1"/>
+    <col min="3851" max="3851" width="8.6640625" style="25" customWidth="1"/>
     <col min="3852" max="3862" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="3863" max="3887" width="9" style="25" customWidth="1"/>
     <col min="3888" max="4087" width="9" style="25"/>
-    <col min="4088" max="4088" width="1.625" style="25" customWidth="1"/>
-    <col min="4089" max="4089" width="1.75" style="25" customWidth="1"/>
-    <col min="4090" max="4090" width="7.375" style="25" customWidth="1"/>
-    <col min="4091" max="4091" width="4.125" style="25" customWidth="1"/>
-    <col min="4092" max="4092" width="2.375" style="25" customWidth="1"/>
+    <col min="4088" max="4088" width="1.6640625" style="25" customWidth="1"/>
+    <col min="4089" max="4089" width="1.77734375" style="25" customWidth="1"/>
+    <col min="4090" max="4090" width="7.33203125" style="25" customWidth="1"/>
+    <col min="4091" max="4091" width="4.109375" style="25" customWidth="1"/>
+    <col min="4092" max="4092" width="2.33203125" style="25" customWidth="1"/>
     <col min="4093" max="4093" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4094" max="4094" width="2.125" style="25" customWidth="1"/>
-    <col min="4095" max="4095" width="2.625" style="25" customWidth="1"/>
+    <col min="4094" max="4094" width="2.109375" style="25" customWidth="1"/>
+    <col min="4095" max="4095" width="2.6640625" style="25" customWidth="1"/>
     <col min="4096" max="4096" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4097" max="4097" width="9.25" style="25" customWidth="1"/>
-    <col min="4098" max="4098" width="12.25" style="25" customWidth="1"/>
-    <col min="4099" max="4099" width="9.125" style="25" customWidth="1"/>
-    <col min="4100" max="4100" width="3.125" style="25" customWidth="1"/>
-    <col min="4101" max="4101" width="5.625" style="25" customWidth="1"/>
-    <col min="4102" max="4102" width="6.5" style="25" customWidth="1"/>
+    <col min="4097" max="4097" width="9.21875" style="25" customWidth="1"/>
+    <col min="4098" max="4098" width="12.21875" style="25" customWidth="1"/>
+    <col min="4099" max="4099" width="9.109375" style="25" customWidth="1"/>
+    <col min="4100" max="4100" width="3.109375" style="25" customWidth="1"/>
+    <col min="4101" max="4101" width="5.6640625" style="25" customWidth="1"/>
+    <col min="4102" max="4102" width="6.44140625" style="25" customWidth="1"/>
     <col min="4103" max="4103" width="1" style="25" customWidth="1"/>
     <col min="4104" max="4104" width="3" style="25" customWidth="1"/>
-    <col min="4105" max="4105" width="7.125" style="25" customWidth="1"/>
-    <col min="4106" max="4106" width="2.75" style="25" customWidth="1"/>
-    <col min="4107" max="4107" width="8.625" style="25" customWidth="1"/>
+    <col min="4105" max="4105" width="7.109375" style="25" customWidth="1"/>
+    <col min="4106" max="4106" width="2.77734375" style="25" customWidth="1"/>
+    <col min="4107" max="4107" width="8.6640625" style="25" customWidth="1"/>
     <col min="4108" max="4118" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="4119" max="4143" width="9" style="25" customWidth="1"/>
     <col min="4144" max="4343" width="9" style="25"/>
-    <col min="4344" max="4344" width="1.625" style="25" customWidth="1"/>
-    <col min="4345" max="4345" width="1.75" style="25" customWidth="1"/>
-    <col min="4346" max="4346" width="7.375" style="25" customWidth="1"/>
-    <col min="4347" max="4347" width="4.125" style="25" customWidth="1"/>
-    <col min="4348" max="4348" width="2.375" style="25" customWidth="1"/>
+    <col min="4344" max="4344" width="1.6640625" style="25" customWidth="1"/>
+    <col min="4345" max="4345" width="1.77734375" style="25" customWidth="1"/>
+    <col min="4346" max="4346" width="7.33203125" style="25" customWidth="1"/>
+    <col min="4347" max="4347" width="4.109375" style="25" customWidth="1"/>
+    <col min="4348" max="4348" width="2.33203125" style="25" customWidth="1"/>
     <col min="4349" max="4349" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4350" max="4350" width="2.125" style="25" customWidth="1"/>
-    <col min="4351" max="4351" width="2.625" style="25" customWidth="1"/>
+    <col min="4350" max="4350" width="2.109375" style="25" customWidth="1"/>
+    <col min="4351" max="4351" width="2.6640625" style="25" customWidth="1"/>
     <col min="4352" max="4352" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4353" max="4353" width="9.25" style="25" customWidth="1"/>
-    <col min="4354" max="4354" width="12.25" style="25" customWidth="1"/>
-    <col min="4355" max="4355" width="9.125" style="25" customWidth="1"/>
-    <col min="4356" max="4356" width="3.125" style="25" customWidth="1"/>
-    <col min="4357" max="4357" width="5.625" style="25" customWidth="1"/>
-    <col min="4358" max="4358" width="6.5" style="25" customWidth="1"/>
+    <col min="4353" max="4353" width="9.21875" style="25" customWidth="1"/>
+    <col min="4354" max="4354" width="12.21875" style="25" customWidth="1"/>
+    <col min="4355" max="4355" width="9.109375" style="25" customWidth="1"/>
+    <col min="4356" max="4356" width="3.109375" style="25" customWidth="1"/>
+    <col min="4357" max="4357" width="5.6640625" style="25" customWidth="1"/>
+    <col min="4358" max="4358" width="6.44140625" style="25" customWidth="1"/>
     <col min="4359" max="4359" width="1" style="25" customWidth="1"/>
     <col min="4360" max="4360" width="3" style="25" customWidth="1"/>
-    <col min="4361" max="4361" width="7.125" style="25" customWidth="1"/>
-    <col min="4362" max="4362" width="2.75" style="25" customWidth="1"/>
-    <col min="4363" max="4363" width="8.625" style="25" customWidth="1"/>
+    <col min="4361" max="4361" width="7.109375" style="25" customWidth="1"/>
+    <col min="4362" max="4362" width="2.77734375" style="25" customWidth="1"/>
+    <col min="4363" max="4363" width="8.6640625" style="25" customWidth="1"/>
     <col min="4364" max="4374" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="4375" max="4399" width="9" style="25" customWidth="1"/>
     <col min="4400" max="4599" width="9" style="25"/>
-    <col min="4600" max="4600" width="1.625" style="25" customWidth="1"/>
-    <col min="4601" max="4601" width="1.75" style="25" customWidth="1"/>
-    <col min="4602" max="4602" width="7.375" style="25" customWidth="1"/>
-    <col min="4603" max="4603" width="4.125" style="25" customWidth="1"/>
-    <col min="4604" max="4604" width="2.375" style="25" customWidth="1"/>
+    <col min="4600" max="4600" width="1.6640625" style="25" customWidth="1"/>
+    <col min="4601" max="4601" width="1.77734375" style="25" customWidth="1"/>
+    <col min="4602" max="4602" width="7.33203125" style="25" customWidth="1"/>
+    <col min="4603" max="4603" width="4.109375" style="25" customWidth="1"/>
+    <col min="4604" max="4604" width="2.33203125" style="25" customWidth="1"/>
     <col min="4605" max="4605" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4606" max="4606" width="2.125" style="25" customWidth="1"/>
-    <col min="4607" max="4607" width="2.625" style="25" customWidth="1"/>
+    <col min="4606" max="4606" width="2.109375" style="25" customWidth="1"/>
+    <col min="4607" max="4607" width="2.6640625" style="25" customWidth="1"/>
     <col min="4608" max="4608" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4609" max="4609" width="9.25" style="25" customWidth="1"/>
-    <col min="4610" max="4610" width="12.25" style="25" customWidth="1"/>
-    <col min="4611" max="4611" width="9.125" style="25" customWidth="1"/>
-    <col min="4612" max="4612" width="3.125" style="25" customWidth="1"/>
-    <col min="4613" max="4613" width="5.625" style="25" customWidth="1"/>
-    <col min="4614" max="4614" width="6.5" style="25" customWidth="1"/>
+    <col min="4609" max="4609" width="9.21875" style="25" customWidth="1"/>
+    <col min="4610" max="4610" width="12.21875" style="25" customWidth="1"/>
+    <col min="4611" max="4611" width="9.109375" style="25" customWidth="1"/>
+    <col min="4612" max="4612" width="3.109375" style="25" customWidth="1"/>
+    <col min="4613" max="4613" width="5.6640625" style="25" customWidth="1"/>
+    <col min="4614" max="4614" width="6.44140625" style="25" customWidth="1"/>
     <col min="4615" max="4615" width="1" style="25" customWidth="1"/>
     <col min="4616" max="4616" width="3" style="25" customWidth="1"/>
-    <col min="4617" max="4617" width="7.125" style="25" customWidth="1"/>
-    <col min="4618" max="4618" width="2.75" style="25" customWidth="1"/>
-    <col min="4619" max="4619" width="8.625" style="25" customWidth="1"/>
+    <col min="4617" max="4617" width="7.109375" style="25" customWidth="1"/>
+    <col min="4618" max="4618" width="2.77734375" style="25" customWidth="1"/>
+    <col min="4619" max="4619" width="8.6640625" style="25" customWidth="1"/>
     <col min="4620" max="4630" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="4631" max="4655" width="9" style="25" customWidth="1"/>
     <col min="4656" max="4855" width="9" style="25"/>
-    <col min="4856" max="4856" width="1.625" style="25" customWidth="1"/>
-    <col min="4857" max="4857" width="1.75" style="25" customWidth="1"/>
-    <col min="4858" max="4858" width="7.375" style="25" customWidth="1"/>
-    <col min="4859" max="4859" width="4.125" style="25" customWidth="1"/>
-    <col min="4860" max="4860" width="2.375" style="25" customWidth="1"/>
+    <col min="4856" max="4856" width="1.6640625" style="25" customWidth="1"/>
+    <col min="4857" max="4857" width="1.77734375" style="25" customWidth="1"/>
+    <col min="4858" max="4858" width="7.33203125" style="25" customWidth="1"/>
+    <col min="4859" max="4859" width="4.109375" style="25" customWidth="1"/>
+    <col min="4860" max="4860" width="2.33203125" style="25" customWidth="1"/>
     <col min="4861" max="4861" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4862" max="4862" width="2.125" style="25" customWidth="1"/>
-    <col min="4863" max="4863" width="2.625" style="25" customWidth="1"/>
+    <col min="4862" max="4862" width="2.109375" style="25" customWidth="1"/>
+    <col min="4863" max="4863" width="2.6640625" style="25" customWidth="1"/>
     <col min="4864" max="4864" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4865" max="4865" width="9.25" style="25" customWidth="1"/>
-    <col min="4866" max="4866" width="12.25" style="25" customWidth="1"/>
-    <col min="4867" max="4867" width="9.125" style="25" customWidth="1"/>
-    <col min="4868" max="4868" width="3.125" style="25" customWidth="1"/>
-    <col min="4869" max="4869" width="5.625" style="25" customWidth="1"/>
-    <col min="4870" max="4870" width="6.5" style="25" customWidth="1"/>
+    <col min="4865" max="4865" width="9.21875" style="25" customWidth="1"/>
+    <col min="4866" max="4866" width="12.21875" style="25" customWidth="1"/>
+    <col min="4867" max="4867" width="9.109375" style="25" customWidth="1"/>
+    <col min="4868" max="4868" width="3.109375" style="25" customWidth="1"/>
+    <col min="4869" max="4869" width="5.6640625" style="25" customWidth="1"/>
+    <col min="4870" max="4870" width="6.44140625" style="25" customWidth="1"/>
     <col min="4871" max="4871" width="1" style="25" customWidth="1"/>
     <col min="4872" max="4872" width="3" style="25" customWidth="1"/>
-    <col min="4873" max="4873" width="7.125" style="25" customWidth="1"/>
-    <col min="4874" max="4874" width="2.75" style="25" customWidth="1"/>
-    <col min="4875" max="4875" width="8.625" style="25" customWidth="1"/>
+    <col min="4873" max="4873" width="7.109375" style="25" customWidth="1"/>
+    <col min="4874" max="4874" width="2.77734375" style="25" customWidth="1"/>
+    <col min="4875" max="4875" width="8.6640625" style="25" customWidth="1"/>
     <col min="4876" max="4886" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="4887" max="4911" width="9" style="25" customWidth="1"/>
     <col min="4912" max="5111" width="9" style="25"/>
-    <col min="5112" max="5112" width="1.625" style="25" customWidth="1"/>
-    <col min="5113" max="5113" width="1.75" style="25" customWidth="1"/>
-    <col min="5114" max="5114" width="7.375" style="25" customWidth="1"/>
-    <col min="5115" max="5115" width="4.125" style="25" customWidth="1"/>
-    <col min="5116" max="5116" width="2.375" style="25" customWidth="1"/>
+    <col min="5112" max="5112" width="1.6640625" style="25" customWidth="1"/>
+    <col min="5113" max="5113" width="1.77734375" style="25" customWidth="1"/>
+    <col min="5114" max="5114" width="7.33203125" style="25" customWidth="1"/>
+    <col min="5115" max="5115" width="4.109375" style="25" customWidth="1"/>
+    <col min="5116" max="5116" width="2.33203125" style="25" customWidth="1"/>
     <col min="5117" max="5117" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5118" max="5118" width="2.125" style="25" customWidth="1"/>
-    <col min="5119" max="5119" width="2.625" style="25" customWidth="1"/>
+    <col min="5118" max="5118" width="2.109375" style="25" customWidth="1"/>
+    <col min="5119" max="5119" width="2.6640625" style="25" customWidth="1"/>
     <col min="5120" max="5120" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5121" max="5121" width="9.25" style="25" customWidth="1"/>
-    <col min="5122" max="5122" width="12.25" style="25" customWidth="1"/>
-    <col min="5123" max="5123" width="9.125" style="25" customWidth="1"/>
-    <col min="5124" max="5124" width="3.125" style="25" customWidth="1"/>
-    <col min="5125" max="5125" width="5.625" style="25" customWidth="1"/>
-    <col min="5126" max="5126" width="6.5" style="25" customWidth="1"/>
+    <col min="5121" max="5121" width="9.21875" style="25" customWidth="1"/>
+    <col min="5122" max="5122" width="12.21875" style="25" customWidth="1"/>
+    <col min="5123" max="5123" width="9.109375" style="25" customWidth="1"/>
+    <col min="5124" max="5124" width="3.109375" style="25" customWidth="1"/>
+    <col min="5125" max="5125" width="5.6640625" style="25" customWidth="1"/>
+    <col min="5126" max="5126" width="6.44140625" style="25" customWidth="1"/>
     <col min="5127" max="5127" width="1" style="25" customWidth="1"/>
     <col min="5128" max="5128" width="3" style="25" customWidth="1"/>
-    <col min="5129" max="5129" width="7.125" style="25" customWidth="1"/>
-    <col min="5130" max="5130" width="2.75" style="25" customWidth="1"/>
-    <col min="5131" max="5131" width="8.625" style="25" customWidth="1"/>
+    <col min="5129" max="5129" width="7.109375" style="25" customWidth="1"/>
+    <col min="5130" max="5130" width="2.77734375" style="25" customWidth="1"/>
+    <col min="5131" max="5131" width="8.6640625" style="25" customWidth="1"/>
     <col min="5132" max="5142" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="5143" max="5167" width="9" style="25" customWidth="1"/>
     <col min="5168" max="5367" width="9" style="25"/>
-    <col min="5368" max="5368" width="1.625" style="25" customWidth="1"/>
-    <col min="5369" max="5369" width="1.75" style="25" customWidth="1"/>
-    <col min="5370" max="5370" width="7.375" style="25" customWidth="1"/>
-    <col min="5371" max="5371" width="4.125" style="25" customWidth="1"/>
-    <col min="5372" max="5372" width="2.375" style="25" customWidth="1"/>
+    <col min="5368" max="5368" width="1.6640625" style="25" customWidth="1"/>
+    <col min="5369" max="5369" width="1.77734375" style="25" customWidth="1"/>
+    <col min="5370" max="5370" width="7.33203125" style="25" customWidth="1"/>
+    <col min="5371" max="5371" width="4.109375" style="25" customWidth="1"/>
+    <col min="5372" max="5372" width="2.33203125" style="25" customWidth="1"/>
     <col min="5373" max="5373" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5374" max="5374" width="2.125" style="25" customWidth="1"/>
-    <col min="5375" max="5375" width="2.625" style="25" customWidth="1"/>
+    <col min="5374" max="5374" width="2.109375" style="25" customWidth="1"/>
+    <col min="5375" max="5375" width="2.6640625" style="25" customWidth="1"/>
     <col min="5376" max="5376" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5377" max="5377" width="9.25" style="25" customWidth="1"/>
-    <col min="5378" max="5378" width="12.25" style="25" customWidth="1"/>
-    <col min="5379" max="5379" width="9.125" style="25" customWidth="1"/>
-    <col min="5380" max="5380" width="3.125" style="25" customWidth="1"/>
-    <col min="5381" max="5381" width="5.625" style="25" customWidth="1"/>
-    <col min="5382" max="5382" width="6.5" style="25" customWidth="1"/>
+    <col min="5377" max="5377" width="9.21875" style="25" customWidth="1"/>
+    <col min="5378" max="5378" width="12.21875" style="25" customWidth="1"/>
+    <col min="5379" max="5379" width="9.109375" style="25" customWidth="1"/>
+    <col min="5380" max="5380" width="3.109375" style="25" customWidth="1"/>
+    <col min="5381" max="5381" width="5.6640625" style="25" customWidth="1"/>
+    <col min="5382" max="5382" width="6.44140625" style="25" customWidth="1"/>
     <col min="5383" max="5383" width="1" style="25" customWidth="1"/>
     <col min="5384" max="5384" width="3" style="25" customWidth="1"/>
-    <col min="5385" max="5385" width="7.125" style="25" customWidth="1"/>
-    <col min="5386" max="5386" width="2.75" style="25" customWidth="1"/>
-    <col min="5387" max="5387" width="8.625" style="25" customWidth="1"/>
+    <col min="5385" max="5385" width="7.109375" style="25" customWidth="1"/>
+    <col min="5386" max="5386" width="2.77734375" style="25" customWidth="1"/>
+    <col min="5387" max="5387" width="8.6640625" style="25" customWidth="1"/>
     <col min="5388" max="5398" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="5399" max="5423" width="9" style="25" customWidth="1"/>
     <col min="5424" max="5623" width="9" style="25"/>
-    <col min="5624" max="5624" width="1.625" style="25" customWidth="1"/>
-    <col min="5625" max="5625" width="1.75" style="25" customWidth="1"/>
-    <col min="5626" max="5626" width="7.375" style="25" customWidth="1"/>
-    <col min="5627" max="5627" width="4.125" style="25" customWidth="1"/>
-    <col min="5628" max="5628" width="2.375" style="25" customWidth="1"/>
+    <col min="5624" max="5624" width="1.6640625" style="25" customWidth="1"/>
+    <col min="5625" max="5625" width="1.77734375" style="25" customWidth="1"/>
+    <col min="5626" max="5626" width="7.33203125" style="25" customWidth="1"/>
+    <col min="5627" max="5627" width="4.109375" style="25" customWidth="1"/>
+    <col min="5628" max="5628" width="2.33203125" style="25" customWidth="1"/>
     <col min="5629" max="5629" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5630" max="5630" width="2.125" style="25" customWidth="1"/>
-    <col min="5631" max="5631" width="2.625" style="25" customWidth="1"/>
+    <col min="5630" max="5630" width="2.109375" style="25" customWidth="1"/>
+    <col min="5631" max="5631" width="2.6640625" style="25" customWidth="1"/>
     <col min="5632" max="5632" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5633" max="5633" width="9.25" style="25" customWidth="1"/>
-    <col min="5634" max="5634" width="12.25" style="25" customWidth="1"/>
-    <col min="5635" max="5635" width="9.125" style="25" customWidth="1"/>
-    <col min="5636" max="5636" width="3.125" style="25" customWidth="1"/>
-    <col min="5637" max="5637" width="5.625" style="25" customWidth="1"/>
-    <col min="5638" max="5638" width="6.5" style="25" customWidth="1"/>
+    <col min="5633" max="5633" width="9.21875" style="25" customWidth="1"/>
+    <col min="5634" max="5634" width="12.21875" style="25" customWidth="1"/>
+    <col min="5635" max="5635" width="9.109375" style="25" customWidth="1"/>
+    <col min="5636" max="5636" width="3.109375" style="25" customWidth="1"/>
+    <col min="5637" max="5637" width="5.6640625" style="25" customWidth="1"/>
+    <col min="5638" max="5638" width="6.44140625" style="25" customWidth="1"/>
     <col min="5639" max="5639" width="1" style="25" customWidth="1"/>
     <col min="5640" max="5640" width="3" style="25" customWidth="1"/>
-    <col min="5641" max="5641" width="7.125" style="25" customWidth="1"/>
-    <col min="5642" max="5642" width="2.75" style="25" customWidth="1"/>
-    <col min="5643" max="5643" width="8.625" style="25" customWidth="1"/>
+    <col min="5641" max="5641" width="7.109375" style="25" customWidth="1"/>
+    <col min="5642" max="5642" width="2.77734375" style="25" customWidth="1"/>
+    <col min="5643" max="5643" width="8.6640625" style="25" customWidth="1"/>
     <col min="5644" max="5654" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="5655" max="5679" width="9" style="25" customWidth="1"/>
     <col min="5680" max="5879" width="9" style="25"/>
-    <col min="5880" max="5880" width="1.625" style="25" customWidth="1"/>
-    <col min="5881" max="5881" width="1.75" style="25" customWidth="1"/>
-    <col min="5882" max="5882" width="7.375" style="25" customWidth="1"/>
-    <col min="5883" max="5883" width="4.125" style="25" customWidth="1"/>
-    <col min="5884" max="5884" width="2.375" style="25" customWidth="1"/>
+    <col min="5880" max="5880" width="1.6640625" style="25" customWidth="1"/>
+    <col min="5881" max="5881" width="1.77734375" style="25" customWidth="1"/>
+    <col min="5882" max="5882" width="7.33203125" style="25" customWidth="1"/>
+    <col min="5883" max="5883" width="4.109375" style="25" customWidth="1"/>
+    <col min="5884" max="5884" width="2.33203125" style="25" customWidth="1"/>
     <col min="5885" max="5885" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5886" max="5886" width="2.125" style="25" customWidth="1"/>
-    <col min="5887" max="5887" width="2.625" style="25" customWidth="1"/>
+    <col min="5886" max="5886" width="2.109375" style="25" customWidth="1"/>
+    <col min="5887" max="5887" width="2.6640625" style="25" customWidth="1"/>
     <col min="5888" max="5888" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5889" max="5889" width="9.25" style="25" customWidth="1"/>
-    <col min="5890" max="5890" width="12.25" style="25" customWidth="1"/>
-    <col min="5891" max="5891" width="9.125" style="25" customWidth="1"/>
-    <col min="5892" max="5892" width="3.125" style="25" customWidth="1"/>
-    <col min="5893" max="5893" width="5.625" style="25" customWidth="1"/>
-    <col min="5894" max="5894" width="6.5" style="25" customWidth="1"/>
+    <col min="5889" max="5889" width="9.21875" style="25" customWidth="1"/>
+    <col min="5890" max="5890" width="12.21875" style="25" customWidth="1"/>
+    <col min="5891" max="5891" width="9.109375" style="25" customWidth="1"/>
+    <col min="5892" max="5892" width="3.109375" style="25" customWidth="1"/>
+    <col min="5893" max="5893" width="5.6640625" style="25" customWidth="1"/>
+    <col min="5894" max="5894" width="6.44140625" style="25" customWidth="1"/>
     <col min="5895" max="5895" width="1" style="25" customWidth="1"/>
     <col min="5896" max="5896" width="3" style="25" customWidth="1"/>
-    <col min="5897" max="5897" width="7.125" style="25" customWidth="1"/>
-    <col min="5898" max="5898" width="2.75" style="25" customWidth="1"/>
-    <col min="5899" max="5899" width="8.625" style="25" customWidth="1"/>
+    <col min="5897" max="5897" width="7.109375" style="25" customWidth="1"/>
+    <col min="5898" max="5898" width="2.77734375" style="25" customWidth="1"/>
+    <col min="5899" max="5899" width="8.6640625" style="25" customWidth="1"/>
     <col min="5900" max="5910" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="5911" max="5935" width="9" style="25" customWidth="1"/>
     <col min="5936" max="6135" width="9" style="25"/>
-    <col min="6136" max="6136" width="1.625" style="25" customWidth="1"/>
-    <col min="6137" max="6137" width="1.75" style="25" customWidth="1"/>
-    <col min="6138" max="6138" width="7.375" style="25" customWidth="1"/>
-    <col min="6139" max="6139" width="4.125" style="25" customWidth="1"/>
-    <col min="6140" max="6140" width="2.375" style="25" customWidth="1"/>
+    <col min="6136" max="6136" width="1.6640625" style="25" customWidth="1"/>
+    <col min="6137" max="6137" width="1.77734375" style="25" customWidth="1"/>
+    <col min="6138" max="6138" width="7.33203125" style="25" customWidth="1"/>
+    <col min="6139" max="6139" width="4.109375" style="25" customWidth="1"/>
+    <col min="6140" max="6140" width="2.33203125" style="25" customWidth="1"/>
     <col min="6141" max="6141" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6142" max="6142" width="2.125" style="25" customWidth="1"/>
-    <col min="6143" max="6143" width="2.625" style="25" customWidth="1"/>
+    <col min="6142" max="6142" width="2.109375" style="25" customWidth="1"/>
+    <col min="6143" max="6143" width="2.6640625" style="25" customWidth="1"/>
     <col min="6144" max="6144" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6145" max="6145" width="9.25" style="25" customWidth="1"/>
-    <col min="6146" max="6146" width="12.25" style="25" customWidth="1"/>
-    <col min="6147" max="6147" width="9.125" style="25" customWidth="1"/>
-    <col min="6148" max="6148" width="3.125" style="25" customWidth="1"/>
-    <col min="6149" max="6149" width="5.625" style="25" customWidth="1"/>
-    <col min="6150" max="6150" width="6.5" style="25" customWidth="1"/>
+    <col min="6145" max="6145" width="9.21875" style="25" customWidth="1"/>
+    <col min="6146" max="6146" width="12.21875" style="25" customWidth="1"/>
+    <col min="6147" max="6147" width="9.109375" style="25" customWidth="1"/>
+    <col min="6148" max="6148" width="3.109375" style="25" customWidth="1"/>
+    <col min="6149" max="6149" width="5.6640625" style="25" customWidth="1"/>
+    <col min="6150" max="6150" width="6.44140625" style="25" customWidth="1"/>
     <col min="6151" max="6151" width="1" style="25" customWidth="1"/>
     <col min="6152" max="6152" width="3" style="25" customWidth="1"/>
-    <col min="6153" max="6153" width="7.125" style="25" customWidth="1"/>
-    <col min="6154" max="6154" width="2.75" style="25" customWidth="1"/>
-    <col min="6155" max="6155" width="8.625" style="25" customWidth="1"/>
+    <col min="6153" max="6153" width="7.109375" style="25" customWidth="1"/>
+    <col min="6154" max="6154" width="2.77734375" style="25" customWidth="1"/>
+    <col min="6155" max="6155" width="8.6640625" style="25" customWidth="1"/>
     <col min="6156" max="6166" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="6167" max="6191" width="9" style="25" customWidth="1"/>
     <col min="6192" max="6391" width="9" style="25"/>
-    <col min="6392" max="6392" width="1.625" style="25" customWidth="1"/>
-    <col min="6393" max="6393" width="1.75" style="25" customWidth="1"/>
-    <col min="6394" max="6394" width="7.375" style="25" customWidth="1"/>
-    <col min="6395" max="6395" width="4.125" style="25" customWidth="1"/>
-    <col min="6396" max="6396" width="2.375" style="25" customWidth="1"/>
+    <col min="6392" max="6392" width="1.6640625" style="25" customWidth="1"/>
+    <col min="6393" max="6393" width="1.77734375" style="25" customWidth="1"/>
+    <col min="6394" max="6394" width="7.33203125" style="25" customWidth="1"/>
+    <col min="6395" max="6395" width="4.109375" style="25" customWidth="1"/>
+    <col min="6396" max="6396" width="2.33203125" style="25" customWidth="1"/>
     <col min="6397" max="6397" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6398" max="6398" width="2.125" style="25" customWidth="1"/>
-    <col min="6399" max="6399" width="2.625" style="25" customWidth="1"/>
+    <col min="6398" max="6398" width="2.109375" style="25" customWidth="1"/>
+    <col min="6399" max="6399" width="2.6640625" style="25" customWidth="1"/>
     <col min="6400" max="6400" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6401" max="6401" width="9.25" style="25" customWidth="1"/>
-    <col min="6402" max="6402" width="12.25" style="25" customWidth="1"/>
-    <col min="6403" max="6403" width="9.125" style="25" customWidth="1"/>
-    <col min="6404" max="6404" width="3.125" style="25" customWidth="1"/>
-    <col min="6405" max="6405" width="5.625" style="25" customWidth="1"/>
-    <col min="6406" max="6406" width="6.5" style="25" customWidth="1"/>
+    <col min="6401" max="6401" width="9.21875" style="25" customWidth="1"/>
+    <col min="6402" max="6402" width="12.21875" style="25" customWidth="1"/>
+    <col min="6403" max="6403" width="9.109375" style="25" customWidth="1"/>
+    <col min="6404" max="6404" width="3.109375" style="25" customWidth="1"/>
+    <col min="6405" max="6405" width="5.6640625" style="25" customWidth="1"/>
+    <col min="6406" max="6406" width="6.44140625" style="25" customWidth="1"/>
     <col min="6407" max="6407" width="1" style="25" customWidth="1"/>
     <col min="6408" max="6408" width="3" style="25" customWidth="1"/>
-    <col min="6409" max="6409" width="7.125" style="25" customWidth="1"/>
-    <col min="6410" max="6410" width="2.75" style="25" customWidth="1"/>
-    <col min="6411" max="6411" width="8.625" style="25" customWidth="1"/>
+    <col min="6409" max="6409" width="7.109375" style="25" customWidth="1"/>
+    <col min="6410" max="6410" width="2.77734375" style="25" customWidth="1"/>
+    <col min="6411" max="6411" width="8.6640625" style="25" customWidth="1"/>
     <col min="6412" max="6422" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="6423" max="6447" width="9" style="25" customWidth="1"/>
     <col min="6448" max="6647" width="9" style="25"/>
-    <col min="6648" max="6648" width="1.625" style="25" customWidth="1"/>
-    <col min="6649" max="6649" width="1.75" style="25" customWidth="1"/>
-    <col min="6650" max="6650" width="7.375" style="25" customWidth="1"/>
-    <col min="6651" max="6651" width="4.125" style="25" customWidth="1"/>
-    <col min="6652" max="6652" width="2.375" style="25" customWidth="1"/>
+    <col min="6648" max="6648" width="1.6640625" style="25" customWidth="1"/>
+    <col min="6649" max="6649" width="1.77734375" style="25" customWidth="1"/>
+    <col min="6650" max="6650" width="7.33203125" style="25" customWidth="1"/>
+    <col min="6651" max="6651" width="4.109375" style="25" customWidth="1"/>
+    <col min="6652" max="6652" width="2.33203125" style="25" customWidth="1"/>
     <col min="6653" max="6653" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6654" max="6654" width="2.125" style="25" customWidth="1"/>
-    <col min="6655" max="6655" width="2.625" style="25" customWidth="1"/>
+    <col min="6654" max="6654" width="2.109375" style="25" customWidth="1"/>
+    <col min="6655" max="6655" width="2.6640625" style="25" customWidth="1"/>
     <col min="6656" max="6656" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6657" max="6657" width="9.25" style="25" customWidth="1"/>
-    <col min="6658" max="6658" width="12.25" style="25" customWidth="1"/>
-    <col min="6659" max="6659" width="9.125" style="25" customWidth="1"/>
-    <col min="6660" max="6660" width="3.125" style="25" customWidth="1"/>
-    <col min="6661" max="6661" width="5.625" style="25" customWidth="1"/>
-    <col min="6662" max="6662" width="6.5" style="25" customWidth="1"/>
+    <col min="6657" max="6657" width="9.21875" style="25" customWidth="1"/>
+    <col min="6658" max="6658" width="12.21875" style="25" customWidth="1"/>
+    <col min="6659" max="6659" width="9.109375" style="25" customWidth="1"/>
+    <col min="6660" max="6660" width="3.109375" style="25" customWidth="1"/>
+    <col min="6661" max="6661" width="5.6640625" style="25" customWidth="1"/>
+    <col min="6662" max="6662" width="6.44140625" style="25" customWidth="1"/>
     <col min="6663" max="6663" width="1" style="25" customWidth="1"/>
     <col min="6664" max="6664" width="3" style="25" customWidth="1"/>
-    <col min="6665" max="6665" width="7.125" style="25" customWidth="1"/>
-    <col min="6666" max="6666" width="2.75" style="25" customWidth="1"/>
-    <col min="6667" max="6667" width="8.625" style="25" customWidth="1"/>
+    <col min="6665" max="6665" width="7.109375" style="25" customWidth="1"/>
+    <col min="6666" max="6666" width="2.77734375" style="25" customWidth="1"/>
+    <col min="6667" max="6667" width="8.6640625" style="25" customWidth="1"/>
     <col min="6668" max="6678" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="6679" max="6703" width="9" style="25" customWidth="1"/>
     <col min="6704" max="6903" width="9" style="25"/>
-    <col min="6904" max="6904" width="1.625" style="25" customWidth="1"/>
-    <col min="6905" max="6905" width="1.75" style="25" customWidth="1"/>
-    <col min="6906" max="6906" width="7.375" style="25" customWidth="1"/>
-    <col min="6907" max="6907" width="4.125" style="25" customWidth="1"/>
-    <col min="6908" max="6908" width="2.375" style="25" customWidth="1"/>
+    <col min="6904" max="6904" width="1.6640625" style="25" customWidth="1"/>
+    <col min="6905" max="6905" width="1.77734375" style="25" customWidth="1"/>
+    <col min="6906" max="6906" width="7.33203125" style="25" customWidth="1"/>
+    <col min="6907" max="6907" width="4.109375" style="25" customWidth="1"/>
+    <col min="6908" max="6908" width="2.33203125" style="25" customWidth="1"/>
     <col min="6909" max="6909" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6910" max="6910" width="2.125" style="25" customWidth="1"/>
-    <col min="6911" max="6911" width="2.625" style="25" customWidth="1"/>
+    <col min="6910" max="6910" width="2.109375" style="25" customWidth="1"/>
+    <col min="6911" max="6911" width="2.6640625" style="25" customWidth="1"/>
     <col min="6912" max="6912" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6913" max="6913" width="9.25" style="25" customWidth="1"/>
-    <col min="6914" max="6914" width="12.25" style="25" customWidth="1"/>
-    <col min="6915" max="6915" width="9.125" style="25" customWidth="1"/>
-    <col min="6916" max="6916" width="3.125" style="25" customWidth="1"/>
-    <col min="6917" max="6917" width="5.625" style="25" customWidth="1"/>
-    <col min="6918" max="6918" width="6.5" style="25" customWidth="1"/>
+    <col min="6913" max="6913" width="9.21875" style="25" customWidth="1"/>
+    <col min="6914" max="6914" width="12.21875" style="25" customWidth="1"/>
+    <col min="6915" max="6915" width="9.109375" style="25" customWidth="1"/>
+    <col min="6916" max="6916" width="3.109375" style="25" customWidth="1"/>
+    <col min="6917" max="6917" width="5.6640625" style="25" customWidth="1"/>
+    <col min="6918" max="6918" width="6.44140625" style="25" customWidth="1"/>
     <col min="6919" max="6919" width="1" style="25" customWidth="1"/>
     <col min="6920" max="6920" width="3" style="25" customWidth="1"/>
-    <col min="6921" max="6921" width="7.125" style="25" customWidth="1"/>
-    <col min="6922" max="6922" width="2.75" style="25" customWidth="1"/>
-    <col min="6923" max="6923" width="8.625" style="25" customWidth="1"/>
+    <col min="6921" max="6921" width="7.109375" style="25" customWidth="1"/>
+    <col min="6922" max="6922" width="2.77734375" style="25" customWidth="1"/>
+    <col min="6923" max="6923" width="8.6640625" style="25" customWidth="1"/>
     <col min="6924" max="6934" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="6935" max="6959" width="9" style="25" customWidth="1"/>
     <col min="6960" max="7159" width="9" style="25"/>
-    <col min="7160" max="7160" width="1.625" style="25" customWidth="1"/>
-    <col min="7161" max="7161" width="1.75" style="25" customWidth="1"/>
-    <col min="7162" max="7162" width="7.375" style="25" customWidth="1"/>
-    <col min="7163" max="7163" width="4.125" style="25" customWidth="1"/>
-    <col min="7164" max="7164" width="2.375" style="25" customWidth="1"/>
+    <col min="7160" max="7160" width="1.6640625" style="25" customWidth="1"/>
+    <col min="7161" max="7161" width="1.77734375" style="25" customWidth="1"/>
+    <col min="7162" max="7162" width="7.33203125" style="25" customWidth="1"/>
+    <col min="7163" max="7163" width="4.109375" style="25" customWidth="1"/>
+    <col min="7164" max="7164" width="2.33203125" style="25" customWidth="1"/>
     <col min="7165" max="7165" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7166" max="7166" width="2.125" style="25" customWidth="1"/>
-    <col min="7167" max="7167" width="2.625" style="25" customWidth="1"/>
+    <col min="7166" max="7166" width="2.109375" style="25" customWidth="1"/>
+    <col min="7167" max="7167" width="2.6640625" style="25" customWidth="1"/>
     <col min="7168" max="7168" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7169" max="7169" width="9.25" style="25" customWidth="1"/>
-    <col min="7170" max="7170" width="12.25" style="25" customWidth="1"/>
-    <col min="7171" max="7171" width="9.125" style="25" customWidth="1"/>
-    <col min="7172" max="7172" width="3.125" style="25" customWidth="1"/>
-    <col min="7173" max="7173" width="5.625" style="25" customWidth="1"/>
-    <col min="7174" max="7174" width="6.5" style="25" customWidth="1"/>
+    <col min="7169" max="7169" width="9.21875" style="25" customWidth="1"/>
+    <col min="7170" max="7170" width="12.21875" style="25" customWidth="1"/>
+    <col min="7171" max="7171" width="9.109375" style="25" customWidth="1"/>
+    <col min="7172" max="7172" width="3.109375" style="25" customWidth="1"/>
+    <col min="7173" max="7173" width="5.6640625" style="25" customWidth="1"/>
+    <col min="7174" max="7174" width="6.44140625" style="25" customWidth="1"/>
     <col min="7175" max="7175" width="1" style="25" customWidth="1"/>
     <col min="7176" max="7176" width="3" style="25" customWidth="1"/>
-    <col min="7177" max="7177" width="7.125" style="25" customWidth="1"/>
-    <col min="7178" max="7178" width="2.75" style="25" customWidth="1"/>
-    <col min="7179" max="7179" width="8.625" style="25" customWidth="1"/>
+    <col min="7177" max="7177" width="7.109375" style="25" customWidth="1"/>
+    <col min="7178" max="7178" width="2.77734375" style="25" customWidth="1"/>
+    <col min="7179" max="7179" width="8.6640625" style="25" customWidth="1"/>
     <col min="7180" max="7190" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="7191" max="7215" width="9" style="25" customWidth="1"/>
     <col min="7216" max="7415" width="9" style="25"/>
-    <col min="7416" max="7416" width="1.625" style="25" customWidth="1"/>
-    <col min="7417" max="7417" width="1.75" style="25" customWidth="1"/>
-    <col min="7418" max="7418" width="7.375" style="25" customWidth="1"/>
-    <col min="7419" max="7419" width="4.125" style="25" customWidth="1"/>
-    <col min="7420" max="7420" width="2.375" style="25" customWidth="1"/>
+    <col min="7416" max="7416" width="1.6640625" style="25" customWidth="1"/>
+    <col min="7417" max="7417" width="1.77734375" style="25" customWidth="1"/>
+    <col min="7418" max="7418" width="7.33203125" style="25" customWidth="1"/>
+    <col min="7419" max="7419" width="4.109375" style="25" customWidth="1"/>
+    <col min="7420" max="7420" width="2.33203125" style="25" customWidth="1"/>
     <col min="7421" max="7421" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7422" max="7422" width="2.125" style="25" customWidth="1"/>
-    <col min="7423" max="7423" width="2.625" style="25" customWidth="1"/>
+    <col min="7422" max="7422" width="2.109375" style="25" customWidth="1"/>
+    <col min="7423" max="7423" width="2.6640625" style="25" customWidth="1"/>
     <col min="7424" max="7424" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7425" max="7425" width="9.25" style="25" customWidth="1"/>
-    <col min="7426" max="7426" width="12.25" style="25" customWidth="1"/>
-    <col min="7427" max="7427" width="9.125" style="25" customWidth="1"/>
-    <col min="7428" max="7428" width="3.125" style="25" customWidth="1"/>
-    <col min="7429" max="7429" width="5.625" style="25" customWidth="1"/>
-    <col min="7430" max="7430" width="6.5" style="25" customWidth="1"/>
+    <col min="7425" max="7425" width="9.21875" style="25" customWidth="1"/>
+    <col min="7426" max="7426" width="12.21875" style="25" customWidth="1"/>
+    <col min="7427" max="7427" width="9.109375" style="25" customWidth="1"/>
+    <col min="7428" max="7428" width="3.109375" style="25" customWidth="1"/>
+    <col min="7429" max="7429" width="5.6640625" style="25" customWidth="1"/>
+    <col min="7430" max="7430" width="6.44140625" style="25" customWidth="1"/>
     <col min="7431" max="7431" width="1" style="25" customWidth="1"/>
     <col min="7432" max="7432" width="3" style="25" customWidth="1"/>
-    <col min="7433" max="7433" width="7.125" style="25" customWidth="1"/>
-    <col min="7434" max="7434" width="2.75" style="25" customWidth="1"/>
-    <col min="7435" max="7435" width="8.625" style="25" customWidth="1"/>
+    <col min="7433" max="7433" width="7.109375" style="25" customWidth="1"/>
+    <col min="7434" max="7434" width="2.77734375" style="25" customWidth="1"/>
+    <col min="7435" max="7435" width="8.6640625" style="25" customWidth="1"/>
     <col min="7436" max="7446" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="7447" max="7471" width="9" style="25" customWidth="1"/>
     <col min="7472" max="7671" width="9" style="25"/>
-    <col min="7672" max="7672" width="1.625" style="25" customWidth="1"/>
-    <col min="7673" max="7673" width="1.75" style="25" customWidth="1"/>
-    <col min="7674" max="7674" width="7.375" style="25" customWidth="1"/>
-    <col min="7675" max="7675" width="4.125" style="25" customWidth="1"/>
-    <col min="7676" max="7676" width="2.375" style="25" customWidth="1"/>
+    <col min="7672" max="7672" width="1.6640625" style="25" customWidth="1"/>
+    <col min="7673" max="7673" width="1.77734375" style="25" customWidth="1"/>
+    <col min="7674" max="7674" width="7.33203125" style="25" customWidth="1"/>
+    <col min="7675" max="7675" width="4.109375" style="25" customWidth="1"/>
+    <col min="7676" max="7676" width="2.33203125" style="25" customWidth="1"/>
     <col min="7677" max="7677" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7678" max="7678" width="2.125" style="25" customWidth="1"/>
-    <col min="7679" max="7679" width="2.625" style="25" customWidth="1"/>
+    <col min="7678" max="7678" width="2.109375" style="25" customWidth="1"/>
+    <col min="7679" max="7679" width="2.6640625" style="25" customWidth="1"/>
     <col min="7680" max="7680" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7681" max="7681" width="9.25" style="25" customWidth="1"/>
-    <col min="7682" max="7682" width="12.25" style="25" customWidth="1"/>
-    <col min="7683" max="7683" width="9.125" style="25" customWidth="1"/>
-    <col min="7684" max="7684" width="3.125" style="25" customWidth="1"/>
-    <col min="7685" max="7685" width="5.625" style="25" customWidth="1"/>
-    <col min="7686" max="7686" width="6.5" style="25" customWidth="1"/>
+    <col min="7681" max="7681" width="9.21875" style="25" customWidth="1"/>
+    <col min="7682" max="7682" width="12.21875" style="25" customWidth="1"/>
+    <col min="7683" max="7683" width="9.109375" style="25" customWidth="1"/>
+    <col min="7684" max="7684" width="3.109375" style="25" customWidth="1"/>
+    <col min="7685" max="7685" width="5.6640625" style="25" customWidth="1"/>
+    <col min="7686" max="7686" width="6.44140625" style="25" customWidth="1"/>
     <col min="7687" max="7687" width="1" style="25" customWidth="1"/>
     <col min="7688" max="7688" width="3" style="25" customWidth="1"/>
-    <col min="7689" max="7689" width="7.125" style="25" customWidth="1"/>
-    <col min="7690" max="7690" width="2.75" style="25" customWidth="1"/>
-    <col min="7691" max="7691" width="8.625" style="25" customWidth="1"/>
+    <col min="7689" max="7689" width="7.109375" style="25" customWidth="1"/>
+    <col min="7690" max="7690" width="2.77734375" style="25" customWidth="1"/>
+    <col min="7691" max="7691" width="8.6640625" style="25" customWidth="1"/>
     <col min="7692" max="7702" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="7703" max="7727" width="9" style="25" customWidth="1"/>
     <col min="7728" max="7927" width="9" style="25"/>
-    <col min="7928" max="7928" width="1.625" style="25" customWidth="1"/>
-    <col min="7929" max="7929" width="1.75" style="25" customWidth="1"/>
-    <col min="7930" max="7930" width="7.375" style="25" customWidth="1"/>
-    <col min="7931" max="7931" width="4.125" style="25" customWidth="1"/>
-    <col min="7932" max="7932" width="2.375" style="25" customWidth="1"/>
+    <col min="7928" max="7928" width="1.6640625" style="25" customWidth="1"/>
+    <col min="7929" max="7929" width="1.77734375" style="25" customWidth="1"/>
+    <col min="7930" max="7930" width="7.33203125" style="25" customWidth="1"/>
+    <col min="7931" max="7931" width="4.109375" style="25" customWidth="1"/>
+    <col min="7932" max="7932" width="2.33203125" style="25" customWidth="1"/>
     <col min="7933" max="7933" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7934" max="7934" width="2.125" style="25" customWidth="1"/>
-    <col min="7935" max="7935" width="2.625" style="25" customWidth="1"/>
+    <col min="7934" max="7934" width="2.109375" style="25" customWidth="1"/>
+    <col min="7935" max="7935" width="2.6640625" style="25" customWidth="1"/>
     <col min="7936" max="7936" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7937" max="7937" width="9.25" style="25" customWidth="1"/>
-    <col min="7938" max="7938" width="12.25" style="25" customWidth="1"/>
-    <col min="7939" max="7939" width="9.125" style="25" customWidth="1"/>
-    <col min="7940" max="7940" width="3.125" style="25" customWidth="1"/>
-    <col min="7941" max="7941" width="5.625" style="25" customWidth="1"/>
-    <col min="7942" max="7942" width="6.5" style="25" customWidth="1"/>
+    <col min="7937" max="7937" width="9.21875" style="25" customWidth="1"/>
+    <col min="7938" max="7938" width="12.21875" style="25" customWidth="1"/>
+    <col min="7939" max="7939" width="9.109375" style="25" customWidth="1"/>
+    <col min="7940" max="7940" width="3.109375" style="25" customWidth="1"/>
+    <col min="7941" max="7941" width="5.6640625" style="25" customWidth="1"/>
+    <col min="7942" max="7942" width="6.44140625" style="25" customWidth="1"/>
     <col min="7943" max="7943" width="1" style="25" customWidth="1"/>
     <col min="7944" max="7944" width="3" style="25" customWidth="1"/>
-    <col min="7945" max="7945" width="7.125" style="25" customWidth="1"/>
-    <col min="7946" max="7946" width="2.75" style="25" customWidth="1"/>
-    <col min="7947" max="7947" width="8.625" style="25" customWidth="1"/>
+    <col min="7945" max="7945" width="7.109375" style="25" customWidth="1"/>
+    <col min="7946" max="7946" width="2.77734375" style="25" customWidth="1"/>
+    <col min="7947" max="7947" width="8.6640625" style="25" customWidth="1"/>
     <col min="7948" max="7958" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="7959" max="7983" width="9" style="25" customWidth="1"/>
     <col min="7984" max="8183" width="9" style="25"/>
-    <col min="8184" max="8184" width="1.625" style="25" customWidth="1"/>
-    <col min="8185" max="8185" width="1.75" style="25" customWidth="1"/>
-    <col min="8186" max="8186" width="7.375" style="25" customWidth="1"/>
-    <col min="8187" max="8187" width="4.125" style="25" customWidth="1"/>
-    <col min="8188" max="8188" width="2.375" style="25" customWidth="1"/>
+    <col min="8184" max="8184" width="1.6640625" style="25" customWidth="1"/>
+    <col min="8185" max="8185" width="1.77734375" style="25" customWidth="1"/>
+    <col min="8186" max="8186" width="7.33203125" style="25" customWidth="1"/>
+    <col min="8187" max="8187" width="4.109375" style="25" customWidth="1"/>
+    <col min="8188" max="8188" width="2.33203125" style="25" customWidth="1"/>
     <col min="8189" max="8189" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8190" max="8190" width="2.125" style="25" customWidth="1"/>
-    <col min="8191" max="8191" width="2.625" style="25" customWidth="1"/>
+    <col min="8190" max="8190" width="2.109375" style="25" customWidth="1"/>
+    <col min="8191" max="8191" width="2.6640625" style="25" customWidth="1"/>
     <col min="8192" max="8192" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8193" max="8193" width="9.25" style="25" customWidth="1"/>
-    <col min="8194" max="8194" width="12.25" style="25" customWidth="1"/>
-    <col min="8195" max="8195" width="9.125" style="25" customWidth="1"/>
-    <col min="8196" max="8196" width="3.125" style="25" customWidth="1"/>
-    <col min="8197" max="8197" width="5.625" style="25" customWidth="1"/>
-    <col min="8198" max="8198" width="6.5" style="25" customWidth="1"/>
+    <col min="8193" max="8193" width="9.21875" style="25" customWidth="1"/>
+    <col min="8194" max="8194" width="12.21875" style="25" customWidth="1"/>
+    <col min="8195" max="8195" width="9.109375" style="25" customWidth="1"/>
+    <col min="8196" max="8196" width="3.109375" style="25" customWidth="1"/>
+    <col min="8197" max="8197" width="5.6640625" style="25" customWidth="1"/>
+    <col min="8198" max="8198" width="6.44140625" style="25" customWidth="1"/>
     <col min="8199" max="8199" width="1" style="25" customWidth="1"/>
     <col min="8200" max="8200" width="3" style="25" customWidth="1"/>
-    <col min="8201" max="8201" width="7.125" style="25" customWidth="1"/>
-    <col min="8202" max="8202" width="2.75" style="25" customWidth="1"/>
-    <col min="8203" max="8203" width="8.625" style="25" customWidth="1"/>
+    <col min="8201" max="8201" width="7.109375" style="25" customWidth="1"/>
+    <col min="8202" max="8202" width="2.77734375" style="25" customWidth="1"/>
+    <col min="8203" max="8203" width="8.6640625" style="25" customWidth="1"/>
     <col min="8204" max="8214" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="8215" max="8239" width="9" style="25" customWidth="1"/>
     <col min="8240" max="8439" width="9" style="25"/>
-    <col min="8440" max="8440" width="1.625" style="25" customWidth="1"/>
-    <col min="8441" max="8441" width="1.75" style="25" customWidth="1"/>
-    <col min="8442" max="8442" width="7.375" style="25" customWidth="1"/>
-    <col min="8443" max="8443" width="4.125" style="25" customWidth="1"/>
-    <col min="8444" max="8444" width="2.375" style="25" customWidth="1"/>
+    <col min="8440" max="8440" width="1.6640625" style="25" customWidth="1"/>
+    <col min="8441" max="8441" width="1.77734375" style="25" customWidth="1"/>
+    <col min="8442" max="8442" width="7.33203125" style="25" customWidth="1"/>
+    <col min="8443" max="8443" width="4.109375" style="25" customWidth="1"/>
+    <col min="8444" max="8444" width="2.33203125" style="25" customWidth="1"/>
     <col min="8445" max="8445" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8446" max="8446" width="2.125" style="25" customWidth="1"/>
-    <col min="8447" max="8447" width="2.625" style="25" customWidth="1"/>
+    <col min="8446" max="8446" width="2.109375" style="25" customWidth="1"/>
+    <col min="8447" max="8447" width="2.6640625" style="25" customWidth="1"/>
     <col min="8448" max="8448" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8449" max="8449" width="9.25" style="25" customWidth="1"/>
-    <col min="8450" max="8450" width="12.25" style="25" customWidth="1"/>
-    <col min="8451" max="8451" width="9.125" style="25" customWidth="1"/>
-    <col min="8452" max="8452" width="3.125" style="25" customWidth="1"/>
-    <col min="8453" max="8453" width="5.625" style="25" customWidth="1"/>
-    <col min="8454" max="8454" width="6.5" style="25" customWidth="1"/>
+    <col min="8449" max="8449" width="9.21875" style="25" customWidth="1"/>
+    <col min="8450" max="8450" width="12.21875" style="25" customWidth="1"/>
+    <col min="8451" max="8451" width="9.109375" style="25" customWidth="1"/>
+    <col min="8452" max="8452" width="3.109375" style="25" customWidth="1"/>
+    <col min="8453" max="8453" width="5.6640625" style="25" customWidth="1"/>
+    <col min="8454" max="8454" width="6.44140625" style="25" customWidth="1"/>
     <col min="8455" max="8455" width="1" style="25" customWidth="1"/>
     <col min="8456" max="8456" width="3" style="25" customWidth="1"/>
-    <col min="8457" max="8457" width="7.125" style="25" customWidth="1"/>
-    <col min="8458" max="8458" width="2.75" style="25" customWidth="1"/>
-    <col min="8459" max="8459" width="8.625" style="25" customWidth="1"/>
+    <col min="8457" max="8457" width="7.109375" style="25" customWidth="1"/>
+    <col min="8458" max="8458" width="2.77734375" style="25" customWidth="1"/>
+    <col min="8459" max="8459" width="8.6640625" style="25" customWidth="1"/>
     <col min="8460" max="8470" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="8471" max="8495" width="9" style="25" customWidth="1"/>
     <col min="8496" max="8695" width="9" style="25"/>
-    <col min="8696" max="8696" width="1.625" style="25" customWidth="1"/>
-    <col min="8697" max="8697" width="1.75" style="25" customWidth="1"/>
-    <col min="8698" max="8698" width="7.375" style="25" customWidth="1"/>
-    <col min="8699" max="8699" width="4.125" style="25" customWidth="1"/>
-    <col min="8700" max="8700" width="2.375" style="25" customWidth="1"/>
+    <col min="8696" max="8696" width="1.6640625" style="25" customWidth="1"/>
+    <col min="8697" max="8697" width="1.77734375" style="25" customWidth="1"/>
+    <col min="8698" max="8698" width="7.33203125" style="25" customWidth="1"/>
+    <col min="8699" max="8699" width="4.109375" style="25" customWidth="1"/>
+    <col min="8700" max="8700" width="2.33203125" style="25" customWidth="1"/>
     <col min="8701" max="8701" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8702" max="8702" width="2.125" style="25" customWidth="1"/>
-    <col min="8703" max="8703" width="2.625" style="25" customWidth="1"/>
+    <col min="8702" max="8702" width="2.109375" style="25" customWidth="1"/>
+    <col min="8703" max="8703" width="2.6640625" style="25" customWidth="1"/>
     <col min="8704" max="8704" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8705" max="8705" width="9.25" style="25" customWidth="1"/>
-    <col min="8706" max="8706" width="12.25" style="25" customWidth="1"/>
-    <col min="8707" max="8707" width="9.125" style="25" customWidth="1"/>
-    <col min="8708" max="8708" width="3.125" style="25" customWidth="1"/>
-    <col min="8709" max="8709" width="5.625" style="25" customWidth="1"/>
-    <col min="8710" max="8710" width="6.5" style="25" customWidth="1"/>
+    <col min="8705" max="8705" width="9.21875" style="25" customWidth="1"/>
+    <col min="8706" max="8706" width="12.21875" style="25" customWidth="1"/>
+    <col min="8707" max="8707" width="9.109375" style="25" customWidth="1"/>
+    <col min="8708" max="8708" width="3.109375" style="25" customWidth="1"/>
+    <col min="8709" max="8709" width="5.6640625" style="25" customWidth="1"/>
+    <col min="8710" max="8710" width="6.44140625" style="25" customWidth="1"/>
     <col min="8711" max="8711" width="1" style="25" customWidth="1"/>
     <col min="8712" max="8712" width="3" style="25" customWidth="1"/>
-    <col min="8713" max="8713" width="7.125" style="25" customWidth="1"/>
-    <col min="8714" max="8714" width="2.75" style="25" customWidth="1"/>
-    <col min="8715" max="8715" width="8.625" style="25" customWidth="1"/>
+    <col min="8713" max="8713" width="7.109375" style="25" customWidth="1"/>
+    <col min="8714" max="8714" width="2.77734375" style="25" customWidth="1"/>
+    <col min="8715" max="8715" width="8.6640625" style="25" customWidth="1"/>
     <col min="8716" max="8726" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="8727" max="8751" width="9" style="25" customWidth="1"/>
     <col min="8752" max="8951" width="9" style="25"/>
-    <col min="8952" max="8952" width="1.625" style="25" customWidth="1"/>
-    <col min="8953" max="8953" width="1.75" style="25" customWidth="1"/>
-    <col min="8954" max="8954" width="7.375" style="25" customWidth="1"/>
-    <col min="8955" max="8955" width="4.125" style="25" customWidth="1"/>
-    <col min="8956" max="8956" width="2.375" style="25" customWidth="1"/>
+    <col min="8952" max="8952" width="1.6640625" style="25" customWidth="1"/>
+    <col min="8953" max="8953" width="1.77734375" style="25" customWidth="1"/>
+    <col min="8954" max="8954" width="7.33203125" style="25" customWidth="1"/>
+    <col min="8955" max="8955" width="4.109375" style="25" customWidth="1"/>
+    <col min="8956" max="8956" width="2.33203125" style="25" customWidth="1"/>
     <col min="8957" max="8957" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8958" max="8958" width="2.125" style="25" customWidth="1"/>
-    <col min="8959" max="8959" width="2.625" style="25" customWidth="1"/>
+    <col min="8958" max="8958" width="2.109375" style="25" customWidth="1"/>
+    <col min="8959" max="8959" width="2.6640625" style="25" customWidth="1"/>
     <col min="8960" max="8960" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8961" max="8961" width="9.25" style="25" customWidth="1"/>
-    <col min="8962" max="8962" width="12.25" style="25" customWidth="1"/>
-    <col min="8963" max="8963" width="9.125" style="25" customWidth="1"/>
-    <col min="8964" max="8964" width="3.125" style="25" customWidth="1"/>
-    <col min="8965" max="8965" width="5.625" style="25" customWidth="1"/>
-    <col min="8966" max="8966" width="6.5" style="25" customWidth="1"/>
+    <col min="8961" max="8961" width="9.21875" style="25" customWidth="1"/>
+    <col min="8962" max="8962" width="12.21875" style="25" customWidth="1"/>
+    <col min="8963" max="8963" width="9.109375" style="25" customWidth="1"/>
+    <col min="8964" max="8964" width="3.109375" style="25" customWidth="1"/>
+    <col min="8965" max="8965" width="5.6640625" style="25" customWidth="1"/>
+    <col min="8966" max="8966" width="6.44140625" style="25" customWidth="1"/>
     <col min="8967" max="8967" width="1" style="25" customWidth="1"/>
     <col min="8968" max="8968" width="3" style="25" customWidth="1"/>
-    <col min="8969" max="8969" width="7.125" style="25" customWidth="1"/>
-    <col min="8970" max="8970" width="2.75" style="25" customWidth="1"/>
-    <col min="8971" max="8971" width="8.625" style="25" customWidth="1"/>
+    <col min="8969" max="8969" width="7.109375" style="25" customWidth="1"/>
+    <col min="8970" max="8970" width="2.77734375" style="25" customWidth="1"/>
+    <col min="8971" max="8971" width="8.6640625" style="25" customWidth="1"/>
     <col min="8972" max="8982" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="8983" max="9007" width="9" style="25" customWidth="1"/>
     <col min="9008" max="9207" width="9" style="25"/>
-    <col min="9208" max="9208" width="1.625" style="25" customWidth="1"/>
-    <col min="9209" max="9209" width="1.75" style="25" customWidth="1"/>
-    <col min="9210" max="9210" width="7.375" style="25" customWidth="1"/>
-    <col min="9211" max="9211" width="4.125" style="25" customWidth="1"/>
-    <col min="9212" max="9212" width="2.375" style="25" customWidth="1"/>
+    <col min="9208" max="9208" width="1.6640625" style="25" customWidth="1"/>
+    <col min="9209" max="9209" width="1.77734375" style="25" customWidth="1"/>
+    <col min="9210" max="9210" width="7.33203125" style="25" customWidth="1"/>
+    <col min="9211" max="9211" width="4.109375" style="25" customWidth="1"/>
+    <col min="9212" max="9212" width="2.33203125" style="25" customWidth="1"/>
     <col min="9213" max="9213" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9214" max="9214" width="2.125" style="25" customWidth="1"/>
-    <col min="9215" max="9215" width="2.625" style="25" customWidth="1"/>
+    <col min="9214" max="9214" width="2.109375" style="25" customWidth="1"/>
+    <col min="9215" max="9215" width="2.6640625" style="25" customWidth="1"/>
     <col min="9216" max="9216" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9217" max="9217" width="9.25" style="25" customWidth="1"/>
-    <col min="9218" max="9218" width="12.25" style="25" customWidth="1"/>
-    <col min="9219" max="9219" width="9.125" style="25" customWidth="1"/>
-    <col min="9220" max="9220" width="3.125" style="25" customWidth="1"/>
-    <col min="9221" max="9221" width="5.625" style="25" customWidth="1"/>
-    <col min="9222" max="9222" width="6.5" style="25" customWidth="1"/>
+    <col min="9217" max="9217" width="9.21875" style="25" customWidth="1"/>
+    <col min="9218" max="9218" width="12.21875" style="25" customWidth="1"/>
+    <col min="9219" max="9219" width="9.109375" style="25" customWidth="1"/>
+    <col min="9220" max="9220" width="3.109375" style="25" customWidth="1"/>
+    <col min="9221" max="9221" width="5.6640625" style="25" customWidth="1"/>
+    <col min="9222" max="9222" width="6.44140625" style="25" customWidth="1"/>
     <col min="9223" max="9223" width="1" style="25" customWidth="1"/>
     <col min="9224" max="9224" width="3" style="25" customWidth="1"/>
-    <col min="9225" max="9225" width="7.125" style="25" customWidth="1"/>
-    <col min="9226" max="9226" width="2.75" style="25" customWidth="1"/>
-    <col min="9227" max="9227" width="8.625" style="25" customWidth="1"/>
+    <col min="9225" max="9225" width="7.109375" style="25" customWidth="1"/>
+    <col min="9226" max="9226" width="2.77734375" style="25" customWidth="1"/>
+    <col min="9227" max="9227" width="8.6640625" style="25" customWidth="1"/>
     <col min="9228" max="9238" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="9239" max="9263" width="9" style="25" customWidth="1"/>
     <col min="9264" max="9463" width="9" style="25"/>
-    <col min="9464" max="9464" width="1.625" style="25" customWidth="1"/>
-    <col min="9465" max="9465" width="1.75" style="25" customWidth="1"/>
-    <col min="9466" max="9466" width="7.375" style="25" customWidth="1"/>
-    <col min="9467" max="9467" width="4.125" style="25" customWidth="1"/>
-    <col min="9468" max="9468" width="2.375" style="25" customWidth="1"/>
+    <col min="9464" max="9464" width="1.6640625" style="25" customWidth="1"/>
+    <col min="9465" max="9465" width="1.77734375" style="25" customWidth="1"/>
+    <col min="9466" max="9466" width="7.33203125" style="25" customWidth="1"/>
+    <col min="9467" max="9467" width="4.109375" style="25" customWidth="1"/>
+    <col min="9468" max="9468" width="2.33203125" style="25" customWidth="1"/>
     <col min="9469" max="9469" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9470" max="9470" width="2.125" style="25" customWidth="1"/>
-    <col min="9471" max="9471" width="2.625" style="25" customWidth="1"/>
+    <col min="9470" max="9470" width="2.109375" style="25" customWidth="1"/>
+    <col min="9471" max="9471" width="2.6640625" style="25" customWidth="1"/>
     <col min="9472" max="9472" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9473" max="9473" width="9.25" style="25" customWidth="1"/>
-    <col min="9474" max="9474" width="12.25" style="25" customWidth="1"/>
-    <col min="9475" max="9475" width="9.125" style="25" customWidth="1"/>
-    <col min="9476" max="9476" width="3.125" style="25" customWidth="1"/>
-    <col min="9477" max="9477" width="5.625" style="25" customWidth="1"/>
-    <col min="9478" max="9478" width="6.5" style="25" customWidth="1"/>
+    <col min="9473" max="9473" width="9.21875" style="25" customWidth="1"/>
+    <col min="9474" max="9474" width="12.21875" style="25" customWidth="1"/>
+    <col min="9475" max="9475" width="9.109375" style="25" customWidth="1"/>
+    <col min="9476" max="9476" width="3.109375" style="25" customWidth="1"/>
+    <col min="9477" max="9477" width="5.6640625" style="25" customWidth="1"/>
+    <col min="9478" max="9478" width="6.44140625" style="25" customWidth="1"/>
     <col min="9479" max="9479" width="1" style="25" customWidth="1"/>
     <col min="9480" max="9480" width="3" style="25" customWidth="1"/>
-    <col min="9481" max="9481" width="7.125" style="25" customWidth="1"/>
-    <col min="9482" max="9482" width="2.75" style="25" customWidth="1"/>
-    <col min="9483" max="9483" width="8.625" style="25" customWidth="1"/>
+    <col min="9481" max="9481" width="7.109375" style="25" customWidth="1"/>
+    <col min="9482" max="9482" width="2.77734375" style="25" customWidth="1"/>
+    <col min="9483" max="9483" width="8.6640625" style="25" customWidth="1"/>
     <col min="9484" max="9494" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="9495" max="9519" width="9" style="25" customWidth="1"/>
     <col min="9520" max="9719" width="9" style="25"/>
-    <col min="9720" max="9720" width="1.625" style="25" customWidth="1"/>
-    <col min="9721" max="9721" width="1.75" style="25" customWidth="1"/>
-    <col min="9722" max="9722" width="7.375" style="25" customWidth="1"/>
-    <col min="9723" max="9723" width="4.125" style="25" customWidth="1"/>
-    <col min="9724" max="9724" width="2.375" style="25" customWidth="1"/>
+    <col min="9720" max="9720" width="1.6640625" style="25" customWidth="1"/>
+    <col min="9721" max="9721" width="1.77734375" style="25" customWidth="1"/>
+    <col min="9722" max="9722" width="7.33203125" style="25" customWidth="1"/>
+    <col min="9723" max="9723" width="4.109375" style="25" customWidth="1"/>
+    <col min="9724" max="9724" width="2.33203125" style="25" customWidth="1"/>
     <col min="9725" max="9725" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9726" max="9726" width="2.125" style="25" customWidth="1"/>
-    <col min="9727" max="9727" width="2.625" style="25" customWidth="1"/>
+    <col min="9726" max="9726" width="2.109375" style="25" customWidth="1"/>
+    <col min="9727" max="9727" width="2.6640625" style="25" customWidth="1"/>
     <col min="9728" max="9728" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9729" max="9729" width="9.25" style="25" customWidth="1"/>
-    <col min="9730" max="9730" width="12.25" style="25" customWidth="1"/>
-    <col min="9731" max="9731" width="9.125" style="25" customWidth="1"/>
-    <col min="9732" max="9732" width="3.125" style="25" customWidth="1"/>
-    <col min="9733" max="9733" width="5.625" style="25" customWidth="1"/>
-    <col min="9734" max="9734" width="6.5" style="25" customWidth="1"/>
+    <col min="9729" max="9729" width="9.21875" style="25" customWidth="1"/>
+    <col min="9730" max="9730" width="12.21875" style="25" customWidth="1"/>
+    <col min="9731" max="9731" width="9.109375" style="25" customWidth="1"/>
+    <col min="9732" max="9732" width="3.109375" style="25" customWidth="1"/>
+    <col min="9733" max="9733" width="5.6640625" style="25" customWidth="1"/>
+    <col min="9734" max="9734" width="6.44140625" style="25" customWidth="1"/>
     <col min="9735" max="9735" width="1" style="25" customWidth="1"/>
     <col min="9736" max="9736" width="3" style="25" customWidth="1"/>
-    <col min="9737" max="9737" width="7.125" style="25" customWidth="1"/>
-    <col min="9738" max="9738" width="2.75" style="25" customWidth="1"/>
-    <col min="9739" max="9739" width="8.625" style="25" customWidth="1"/>
+    <col min="9737" max="9737" width="7.109375" style="25" customWidth="1"/>
+    <col min="9738" max="9738" width="2.77734375" style="25" customWidth="1"/>
+    <col min="9739" max="9739" width="8.6640625" style="25" customWidth="1"/>
     <col min="9740" max="9750" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="9751" max="9775" width="9" style="25" customWidth="1"/>
     <col min="9776" max="9975" width="9" style="25"/>
-    <col min="9976" max="9976" width="1.625" style="25" customWidth="1"/>
-    <col min="9977" max="9977" width="1.75" style="25" customWidth="1"/>
-    <col min="9978" max="9978" width="7.375" style="25" customWidth="1"/>
-    <col min="9979" max="9979" width="4.125" style="25" customWidth="1"/>
-    <col min="9980" max="9980" width="2.375" style="25" customWidth="1"/>
+    <col min="9976" max="9976" width="1.6640625" style="25" customWidth="1"/>
+    <col min="9977" max="9977" width="1.77734375" style="25" customWidth="1"/>
+    <col min="9978" max="9978" width="7.33203125" style="25" customWidth="1"/>
+    <col min="9979" max="9979" width="4.109375" style="25" customWidth="1"/>
+    <col min="9980" max="9980" width="2.33203125" style="25" customWidth="1"/>
     <col min="9981" max="9981" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9982" max="9982" width="2.125" style="25" customWidth="1"/>
-    <col min="9983" max="9983" width="2.625" style="25" customWidth="1"/>
+    <col min="9982" max="9982" width="2.109375" style="25" customWidth="1"/>
+    <col min="9983" max="9983" width="2.6640625" style="25" customWidth="1"/>
     <col min="9984" max="9984" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9985" max="9985" width="9.25" style="25" customWidth="1"/>
-    <col min="9986" max="9986" width="12.25" style="25" customWidth="1"/>
-    <col min="9987" max="9987" width="9.125" style="25" customWidth="1"/>
-    <col min="9988" max="9988" width="3.125" style="25" customWidth="1"/>
-    <col min="9989" max="9989" width="5.625" style="25" customWidth="1"/>
-    <col min="9990" max="9990" width="6.5" style="25" customWidth="1"/>
+    <col min="9985" max="9985" width="9.21875" style="25" customWidth="1"/>
+    <col min="9986" max="9986" width="12.21875" style="25" customWidth="1"/>
+    <col min="9987" max="9987" width="9.109375" style="25" customWidth="1"/>
+    <col min="9988" max="9988" width="3.109375" style="25" customWidth="1"/>
+    <col min="9989" max="9989" width="5.6640625" style="25" customWidth="1"/>
+    <col min="9990" max="9990" width="6.44140625" style="25" customWidth="1"/>
     <col min="9991" max="9991" width="1" style="25" customWidth="1"/>
     <col min="9992" max="9992" width="3" style="25" customWidth="1"/>
-    <col min="9993" max="9993" width="7.125" style="25" customWidth="1"/>
-    <col min="9994" max="9994" width="2.75" style="25" customWidth="1"/>
-    <col min="9995" max="9995" width="8.625" style="25" customWidth="1"/>
+    <col min="9993" max="9993" width="7.109375" style="25" customWidth="1"/>
+    <col min="9994" max="9994" width="2.77734375" style="25" customWidth="1"/>
+    <col min="9995" max="9995" width="8.6640625" style="25" customWidth="1"/>
     <col min="9996" max="10006" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="10007" max="10031" width="9" style="25" customWidth="1"/>
     <col min="10032" max="10231" width="9" style="25"/>
-    <col min="10232" max="10232" width="1.625" style="25" customWidth="1"/>
-    <col min="10233" max="10233" width="1.75" style="25" customWidth="1"/>
-    <col min="10234" max="10234" width="7.375" style="25" customWidth="1"/>
-    <col min="10235" max="10235" width="4.125" style="25" customWidth="1"/>
-    <col min="10236" max="10236" width="2.375" style="25" customWidth="1"/>
+    <col min="10232" max="10232" width="1.6640625" style="25" customWidth="1"/>
+    <col min="10233" max="10233" width="1.77734375" style="25" customWidth="1"/>
+    <col min="10234" max="10234" width="7.33203125" style="25" customWidth="1"/>
+    <col min="10235" max="10235" width="4.109375" style="25" customWidth="1"/>
+    <col min="10236" max="10236" width="2.33203125" style="25" customWidth="1"/>
     <col min="10237" max="10237" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10238" max="10238" width="2.125" style="25" customWidth="1"/>
-    <col min="10239" max="10239" width="2.625" style="25" customWidth="1"/>
+    <col min="10238" max="10238" width="2.109375" style="25" customWidth="1"/>
+    <col min="10239" max="10239" width="2.6640625" style="25" customWidth="1"/>
     <col min="10240" max="10240" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10241" max="10241" width="9.25" style="25" customWidth="1"/>
-    <col min="10242" max="10242" width="12.25" style="25" customWidth="1"/>
-    <col min="10243" max="10243" width="9.125" style="25" customWidth="1"/>
-    <col min="10244" max="10244" width="3.125" style="25" customWidth="1"/>
-    <col min="10245" max="10245" width="5.625" style="25" customWidth="1"/>
-    <col min="10246" max="10246" width="6.5" style="25" customWidth="1"/>
+    <col min="10241" max="10241" width="9.21875" style="25" customWidth="1"/>
+    <col min="10242" max="10242" width="12.21875" style="25" customWidth="1"/>
+    <col min="10243" max="10243" width="9.109375" style="25" customWidth="1"/>
+    <col min="10244" max="10244" width="3.109375" style="25" customWidth="1"/>
+    <col min="10245" max="10245" width="5.6640625" style="25" customWidth="1"/>
+    <col min="10246" max="10246" width="6.44140625" style="25" customWidth="1"/>
     <col min="10247" max="10247" width="1" style="25" customWidth="1"/>
     <col min="10248" max="10248" width="3" style="25" customWidth="1"/>
-    <col min="10249" max="10249" width="7.125" style="25" customWidth="1"/>
-    <col min="10250" max="10250" width="2.75" style="25" customWidth="1"/>
-    <col min="10251" max="10251" width="8.625" style="25" customWidth="1"/>
+    <col min="10249" max="10249" width="7.109375" style="25" customWidth="1"/>
+    <col min="10250" max="10250" width="2.77734375" style="25" customWidth="1"/>
+    <col min="10251" max="10251" width="8.6640625" style="25" customWidth="1"/>
     <col min="10252" max="10262" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="10263" max="10287" width="9" style="25" customWidth="1"/>
     <col min="10288" max="10487" width="9" style="25"/>
-    <col min="10488" max="10488" width="1.625" style="25" customWidth="1"/>
-    <col min="10489" max="10489" width="1.75" style="25" customWidth="1"/>
-    <col min="10490" max="10490" width="7.375" style="25" customWidth="1"/>
-    <col min="10491" max="10491" width="4.125" style="25" customWidth="1"/>
-    <col min="10492" max="10492" width="2.375" style="25" customWidth="1"/>
+    <col min="10488" max="10488" width="1.6640625" style="25" customWidth="1"/>
+    <col min="10489" max="10489" width="1.77734375" style="25" customWidth="1"/>
+    <col min="10490" max="10490" width="7.33203125" style="25" customWidth="1"/>
+    <col min="10491" max="10491" width="4.109375" style="25" customWidth="1"/>
+    <col min="10492" max="10492" width="2.33203125" style="25" customWidth="1"/>
     <col min="10493" max="10493" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10494" max="10494" width="2.125" style="25" customWidth="1"/>
-    <col min="10495" max="10495" width="2.625" style="25" customWidth="1"/>
+    <col min="10494" max="10494" width="2.109375" style="25" customWidth="1"/>
+    <col min="10495" max="10495" width="2.6640625" style="25" customWidth="1"/>
     <col min="10496" max="10496" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10497" max="10497" width="9.25" style="25" customWidth="1"/>
-    <col min="10498" max="10498" width="12.25" style="25" customWidth="1"/>
-    <col min="10499" max="10499" width="9.125" style="25" customWidth="1"/>
-    <col min="10500" max="10500" width="3.125" style="25" customWidth="1"/>
-    <col min="10501" max="10501" width="5.625" style="25" customWidth="1"/>
-    <col min="10502" max="10502" width="6.5" style="25" customWidth="1"/>
+    <col min="10497" max="10497" width="9.21875" style="25" customWidth="1"/>
+    <col min="10498" max="10498" width="12.21875" style="25" customWidth="1"/>
+    <col min="10499" max="10499" width="9.109375" style="25" customWidth="1"/>
+    <col min="10500" max="10500" width="3.109375" style="25" customWidth="1"/>
+    <col min="10501" max="10501" width="5.6640625" style="25" customWidth="1"/>
+    <col min="10502" max="10502" width="6.44140625" style="25" customWidth="1"/>
     <col min="10503" max="10503" width="1" style="25" customWidth="1"/>
     <col min="10504" max="10504" width="3" style="25" customWidth="1"/>
-    <col min="10505" max="10505" width="7.125" style="25" customWidth="1"/>
-    <col min="10506" max="10506" width="2.75" style="25" customWidth="1"/>
-    <col min="10507" max="10507" width="8.625" style="25" customWidth="1"/>
+    <col min="10505" max="10505" width="7.109375" style="25" customWidth="1"/>
+    <col min="10506" max="10506" width="2.77734375" style="25" customWidth="1"/>
+    <col min="10507" max="10507" width="8.6640625" style="25" customWidth="1"/>
     <col min="10508" max="10518" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="10519" max="10543" width="9" style="25" customWidth="1"/>
     <col min="10544" max="10743" width="9" style="25"/>
-    <col min="10744" max="10744" width="1.625" style="25" customWidth="1"/>
-    <col min="10745" max="10745" width="1.75" style="25" customWidth="1"/>
-    <col min="10746" max="10746" width="7.375" style="25" customWidth="1"/>
-    <col min="10747" max="10747" width="4.125" style="25" customWidth="1"/>
-    <col min="10748" max="10748" width="2.375" style="25" customWidth="1"/>
+    <col min="10744" max="10744" width="1.6640625" style="25" customWidth="1"/>
+    <col min="10745" max="10745" width="1.77734375" style="25" customWidth="1"/>
+    <col min="10746" max="10746" width="7.33203125" style="25" customWidth="1"/>
+    <col min="10747" max="10747" width="4.109375" style="25" customWidth="1"/>
+    <col min="10748" max="10748" width="2.33203125" style="25" customWidth="1"/>
     <col min="10749" max="10749" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10750" max="10750" width="2.125" style="25" customWidth="1"/>
-    <col min="10751" max="10751" width="2.625" style="25" customWidth="1"/>
+    <col min="10750" max="10750" width="2.109375" style="25" customWidth="1"/>
+    <col min="10751" max="10751" width="2.6640625" style="25" customWidth="1"/>
     <col min="10752" max="10752" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10753" max="10753" width="9.25" style="25" customWidth="1"/>
-    <col min="10754" max="10754" width="12.25" style="25" customWidth="1"/>
-    <col min="10755" max="10755" width="9.125" style="25" customWidth="1"/>
-    <col min="10756" max="10756" width="3.125" style="25" customWidth="1"/>
-    <col min="10757" max="10757" width="5.625" style="25" customWidth="1"/>
-    <col min="10758" max="10758" width="6.5" style="25" customWidth="1"/>
+    <col min="10753" max="10753" width="9.21875" style="25" customWidth="1"/>
+    <col min="10754" max="10754" width="12.21875" style="25" customWidth="1"/>
+    <col min="10755" max="10755" width="9.109375" style="25" customWidth="1"/>
+    <col min="10756" max="10756" width="3.109375" style="25" customWidth="1"/>
+    <col min="10757" max="10757" width="5.6640625" style="25" customWidth="1"/>
+    <col min="10758" max="10758" width="6.44140625" style="25" customWidth="1"/>
     <col min="10759" max="10759" width="1" style="25" customWidth="1"/>
     <col min="10760" max="10760" width="3" style="25" customWidth="1"/>
-    <col min="10761" max="10761" width="7.125" style="25" customWidth="1"/>
-    <col min="10762" max="10762" width="2.75" style="25" customWidth="1"/>
-    <col min="10763" max="10763" width="8.625" style="25" customWidth="1"/>
+    <col min="10761" max="10761" width="7.109375" style="25" customWidth="1"/>
+    <col min="10762" max="10762" width="2.77734375" style="25" customWidth="1"/>
+    <col min="10763" max="10763" width="8.6640625" style="25" customWidth="1"/>
     <col min="10764" max="10774" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="10775" max="10799" width="9" style="25" customWidth="1"/>
     <col min="10800" max="10999" width="9" style="25"/>
-    <col min="11000" max="11000" width="1.625" style="25" customWidth="1"/>
-    <col min="11001" max="11001" width="1.75" style="25" customWidth="1"/>
-    <col min="11002" max="11002" width="7.375" style="25" customWidth="1"/>
-    <col min="11003" max="11003" width="4.125" style="25" customWidth="1"/>
-    <col min="11004" max="11004" width="2.375" style="25" customWidth="1"/>
+    <col min="11000" max="11000" width="1.6640625" style="25" customWidth="1"/>
+    <col min="11001" max="11001" width="1.77734375" style="25" customWidth="1"/>
+    <col min="11002" max="11002" width="7.33203125" style="25" customWidth="1"/>
+    <col min="11003" max="11003" width="4.109375" style="25" customWidth="1"/>
+    <col min="11004" max="11004" width="2.33203125" style="25" customWidth="1"/>
     <col min="11005" max="11005" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11006" max="11006" width="2.125" style="25" customWidth="1"/>
-    <col min="11007" max="11007" width="2.625" style="25" customWidth="1"/>
+    <col min="11006" max="11006" width="2.109375" style="25" customWidth="1"/>
+    <col min="11007" max="11007" width="2.6640625" style="25" customWidth="1"/>
     <col min="11008" max="11008" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11009" max="11009" width="9.25" style="25" customWidth="1"/>
-    <col min="11010" max="11010" width="12.25" style="25" customWidth="1"/>
-    <col min="11011" max="11011" width="9.125" style="25" customWidth="1"/>
-    <col min="11012" max="11012" width="3.125" style="25" customWidth="1"/>
-    <col min="11013" max="11013" width="5.625" style="25" customWidth="1"/>
-    <col min="11014" max="11014" width="6.5" style="25" customWidth="1"/>
+    <col min="11009" max="11009" width="9.21875" style="25" customWidth="1"/>
+    <col min="11010" max="11010" width="12.21875" style="25" customWidth="1"/>
+    <col min="11011" max="11011" width="9.109375" style="25" customWidth="1"/>
+    <col min="11012" max="11012" width="3.109375" style="25" customWidth="1"/>
+    <col min="11013" max="11013" width="5.6640625" style="25" customWidth="1"/>
+    <col min="11014" max="11014" width="6.44140625" style="25" customWidth="1"/>
     <col min="11015" max="11015" width="1" style="25" customWidth="1"/>
     <col min="11016" max="11016" width="3" style="25" customWidth="1"/>
-    <col min="11017" max="11017" width="7.125" style="25" customWidth="1"/>
-    <col min="11018" max="11018" width="2.75" style="25" customWidth="1"/>
-    <col min="11019" max="11019" width="8.625" style="25" customWidth="1"/>
+    <col min="11017" max="11017" width="7.109375" style="25" customWidth="1"/>
+    <col min="11018" max="11018" width="2.77734375" style="25" customWidth="1"/>
+    <col min="11019" max="11019" width="8.6640625" style="25" customWidth="1"/>
     <col min="11020" max="11030" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="11031" max="11055" width="9" style="25" customWidth="1"/>
     <col min="11056" max="11255" width="9" style="25"/>
-    <col min="11256" max="11256" width="1.625" style="25" customWidth="1"/>
-    <col min="11257" max="11257" width="1.75" style="25" customWidth="1"/>
-    <col min="11258" max="11258" width="7.375" style="25" customWidth="1"/>
-    <col min="11259" max="11259" width="4.125" style="25" customWidth="1"/>
-    <col min="11260" max="11260" width="2.375" style="25" customWidth="1"/>
+    <col min="11256" max="11256" width="1.6640625" style="25" customWidth="1"/>
+    <col min="11257" max="11257" width="1.77734375" style="25" customWidth="1"/>
+    <col min="11258" max="11258" width="7.33203125" style="25" customWidth="1"/>
+    <col min="11259" max="11259" width="4.109375" style="25" customWidth="1"/>
+    <col min="11260" max="11260" width="2.33203125" style="25" customWidth="1"/>
     <col min="11261" max="11261" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11262" max="11262" width="2.125" style="25" customWidth="1"/>
-    <col min="11263" max="11263" width="2.625" style="25" customWidth="1"/>
+    <col min="11262" max="11262" width="2.109375" style="25" customWidth="1"/>
+    <col min="11263" max="11263" width="2.6640625" style="25" customWidth="1"/>
     <col min="11264" max="11264" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11265" max="11265" width="9.25" style="25" customWidth="1"/>
-    <col min="11266" max="11266" width="12.25" style="25" customWidth="1"/>
-    <col min="11267" max="11267" width="9.125" style="25" customWidth="1"/>
-    <col min="11268" max="11268" width="3.125" style="25" customWidth="1"/>
-    <col min="11269" max="11269" width="5.625" style="25" customWidth="1"/>
-    <col min="11270" max="11270" width="6.5" style="25" customWidth="1"/>
+    <col min="11265" max="11265" width="9.21875" style="25" customWidth="1"/>
+    <col min="11266" max="11266" width="12.21875" style="25" customWidth="1"/>
+    <col min="11267" max="11267" width="9.109375" style="25" customWidth="1"/>
+    <col min="11268" max="11268" width="3.109375" style="25" customWidth="1"/>
+    <col min="11269" max="11269" width="5.6640625" style="25" customWidth="1"/>
+    <col min="11270" max="11270" width="6.44140625" style="25" customWidth="1"/>
     <col min="11271" max="11271" width="1" style="25" customWidth="1"/>
     <col min="11272" max="11272" width="3" style="25" customWidth="1"/>
-    <col min="11273" max="11273" width="7.125" style="25" customWidth="1"/>
-    <col min="11274" max="11274" width="2.75" style="25" customWidth="1"/>
-    <col min="11275" max="11275" width="8.625" style="25" customWidth="1"/>
+    <col min="11273" max="11273" width="7.109375" style="25" customWidth="1"/>
+    <col min="11274" max="11274" width="2.77734375" style="25" customWidth="1"/>
+    <col min="11275" max="11275" width="8.6640625" style="25" customWidth="1"/>
     <col min="11276" max="11286" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="11287" max="11311" width="9" style="25" customWidth="1"/>
     <col min="11312" max="11511" width="9" style="25"/>
-    <col min="11512" max="11512" width="1.625" style="25" customWidth="1"/>
-    <col min="11513" max="11513" width="1.75" style="25" customWidth="1"/>
-    <col min="11514" max="11514" width="7.375" style="25" customWidth="1"/>
-    <col min="11515" max="11515" width="4.125" style="25" customWidth="1"/>
-    <col min="11516" max="11516" width="2.375" style="25" customWidth="1"/>
+    <col min="11512" max="11512" width="1.6640625" style="25" customWidth="1"/>
+    <col min="11513" max="11513" width="1.77734375" style="25" customWidth="1"/>
+    <col min="11514" max="11514" width="7.33203125" style="25" customWidth="1"/>
+    <col min="11515" max="11515" width="4.109375" style="25" customWidth="1"/>
+    <col min="11516" max="11516" width="2.33203125" style="25" customWidth="1"/>
     <col min="11517" max="11517" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11518" max="11518" width="2.125" style="25" customWidth="1"/>
-    <col min="11519" max="11519" width="2.625" style="25" customWidth="1"/>
+    <col min="11518" max="11518" width="2.109375" style="25" customWidth="1"/>
+    <col min="11519" max="11519" width="2.6640625" style="25" customWidth="1"/>
     <col min="11520" max="11520" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11521" max="11521" width="9.25" style="25" customWidth="1"/>
-    <col min="11522" max="11522" width="12.25" style="25" customWidth="1"/>
-    <col min="11523" max="11523" width="9.125" style="25" customWidth="1"/>
-    <col min="11524" max="11524" width="3.125" style="25" customWidth="1"/>
-    <col min="11525" max="11525" width="5.625" style="25" customWidth="1"/>
-    <col min="11526" max="11526" width="6.5" style="25" customWidth="1"/>
+    <col min="11521" max="11521" width="9.21875" style="25" customWidth="1"/>
+    <col min="11522" max="11522" width="12.21875" style="25" customWidth="1"/>
+    <col min="11523" max="11523" width="9.109375" style="25" customWidth="1"/>
+    <col min="11524" max="11524" width="3.109375" style="25" customWidth="1"/>
+    <col min="11525" max="11525" width="5.6640625" style="25" customWidth="1"/>
+    <col min="11526" max="11526" width="6.44140625" style="25" customWidth="1"/>
     <col min="11527" max="11527" width="1" style="25" customWidth="1"/>
     <col min="11528" max="11528" width="3" style="25" customWidth="1"/>
-    <col min="11529" max="11529" width="7.125" style="25" customWidth="1"/>
-    <col min="11530" max="11530" width="2.75" style="25" customWidth="1"/>
-    <col min="11531" max="11531" width="8.625" style="25" customWidth="1"/>
+    <col min="11529" max="11529" width="7.109375" style="25" customWidth="1"/>
+    <col min="11530" max="11530" width="2.77734375" style="25" customWidth="1"/>
+    <col min="11531" max="11531" width="8.6640625" style="25" customWidth="1"/>
     <col min="11532" max="11542" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="11543" max="11567" width="9" style="25" customWidth="1"/>
     <col min="11568" max="11767" width="9" style="25"/>
-    <col min="11768" max="11768" width="1.625" style="25" customWidth="1"/>
-    <col min="11769" max="11769" width="1.75" style="25" customWidth="1"/>
-    <col min="11770" max="11770" width="7.375" style="25" customWidth="1"/>
-    <col min="11771" max="11771" width="4.125" style="25" customWidth="1"/>
-    <col min="11772" max="11772" width="2.375" style="25" customWidth="1"/>
+    <col min="11768" max="11768" width="1.6640625" style="25" customWidth="1"/>
+    <col min="11769" max="11769" width="1.77734375" style="25" customWidth="1"/>
+    <col min="11770" max="11770" width="7.33203125" style="25" customWidth="1"/>
+    <col min="11771" max="11771" width="4.109375" style="25" customWidth="1"/>
+    <col min="11772" max="11772" width="2.33203125" style="25" customWidth="1"/>
     <col min="11773" max="11773" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11774" max="11774" width="2.125" style="25" customWidth="1"/>
-    <col min="11775" max="11775" width="2.625" style="25" customWidth="1"/>
+    <col min="11774" max="11774" width="2.109375" style="25" customWidth="1"/>
+    <col min="11775" max="11775" width="2.6640625" style="25" customWidth="1"/>
     <col min="11776" max="11776" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11777" max="11777" width="9.25" style="25" customWidth="1"/>
-    <col min="11778" max="11778" width="12.25" style="25" customWidth="1"/>
-    <col min="11779" max="11779" width="9.125" style="25" customWidth="1"/>
-    <col min="11780" max="11780" width="3.125" style="25" customWidth="1"/>
-    <col min="11781" max="11781" width="5.625" style="25" customWidth="1"/>
-    <col min="11782" max="11782" width="6.5" style="25" customWidth="1"/>
+    <col min="11777" max="11777" width="9.21875" style="25" customWidth="1"/>
+    <col min="11778" max="11778" width="12.21875" style="25" customWidth="1"/>
+    <col min="11779" max="11779" width="9.109375" style="25" customWidth="1"/>
+    <col min="11780" max="11780" width="3.109375" style="25" customWidth="1"/>
+    <col min="11781" max="11781" width="5.6640625" style="25" customWidth="1"/>
+    <col min="11782" max="11782" width="6.44140625" style="25" customWidth="1"/>
     <col min="11783" max="11783" width="1" style="25" customWidth="1"/>
     <col min="11784" max="11784" width="3" style="25" customWidth="1"/>
-    <col min="11785" max="11785" width="7.125" style="25" customWidth="1"/>
-    <col min="11786" max="11786" width="2.75" style="25" customWidth="1"/>
-    <col min="11787" max="11787" width="8.625" style="25" customWidth="1"/>
+    <col min="11785" max="11785" width="7.109375" style="25" customWidth="1"/>
+    <col min="11786" max="11786" width="2.77734375" style="25" customWidth="1"/>
+    <col min="11787" max="11787" width="8.6640625" style="25" customWidth="1"/>
     <col min="11788" max="11798" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="11799" max="11823" width="9" style="25" customWidth="1"/>
     <col min="11824" max="12023" width="9" style="25"/>
-    <col min="12024" max="12024" width="1.625" style="25" customWidth="1"/>
-    <col min="12025" max="12025" width="1.75" style="25" customWidth="1"/>
-    <col min="12026" max="12026" width="7.375" style="25" customWidth="1"/>
-    <col min="12027" max="12027" width="4.125" style="25" customWidth="1"/>
-    <col min="12028" max="12028" width="2.375" style="25" customWidth="1"/>
+    <col min="12024" max="12024" width="1.6640625" style="25" customWidth="1"/>
+    <col min="12025" max="12025" width="1.77734375" style="25" customWidth="1"/>
+    <col min="12026" max="12026" width="7.33203125" style="25" customWidth="1"/>
+    <col min="12027" max="12027" width="4.109375" style="25" customWidth="1"/>
+    <col min="12028" max="12028" width="2.33203125" style="25" customWidth="1"/>
     <col min="12029" max="12029" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12030" max="12030" width="2.125" style="25" customWidth="1"/>
-    <col min="12031" max="12031" width="2.625" style="25" customWidth="1"/>
+    <col min="12030" max="12030" width="2.109375" style="25" customWidth="1"/>
+    <col min="12031" max="12031" width="2.6640625" style="25" customWidth="1"/>
     <col min="12032" max="12032" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12033" max="12033" width="9.25" style="25" customWidth="1"/>
-    <col min="12034" max="12034" width="12.25" style="25" customWidth="1"/>
-    <col min="12035" max="12035" width="9.125" style="25" customWidth="1"/>
-    <col min="12036" max="12036" width="3.125" style="25" customWidth="1"/>
-    <col min="12037" max="12037" width="5.625" style="25" customWidth="1"/>
-    <col min="12038" max="12038" width="6.5" style="25" customWidth="1"/>
+    <col min="12033" max="12033" width="9.21875" style="25" customWidth="1"/>
+    <col min="12034" max="12034" width="12.21875" style="25" customWidth="1"/>
+    <col min="12035" max="12035" width="9.109375" style="25" customWidth="1"/>
+    <col min="12036" max="12036" width="3.109375" style="25" customWidth="1"/>
+    <col min="12037" max="12037" width="5.6640625" style="25" customWidth="1"/>
+    <col min="12038" max="12038" width="6.44140625" style="25" customWidth="1"/>
     <col min="12039" max="12039" width="1" style="25" customWidth="1"/>
     <col min="12040" max="12040" width="3" style="25" customWidth="1"/>
-    <col min="12041" max="12041" width="7.125" style="25" customWidth="1"/>
-    <col min="12042" max="12042" width="2.75" style="25" customWidth="1"/>
-    <col min="12043" max="12043" width="8.625" style="25" customWidth="1"/>
+    <col min="12041" max="12041" width="7.109375" style="25" customWidth="1"/>
+    <col min="12042" max="12042" width="2.77734375" style="25" customWidth="1"/>
+    <col min="12043" max="12043" width="8.6640625" style="25" customWidth="1"/>
     <col min="12044" max="12054" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="12055" max="12079" width="9" style="25" customWidth="1"/>
     <col min="12080" max="12279" width="9" style="25"/>
-    <col min="12280" max="12280" width="1.625" style="25" customWidth="1"/>
-    <col min="12281" max="12281" width="1.75" style="25" customWidth="1"/>
-    <col min="12282" max="12282" width="7.375" style="25" customWidth="1"/>
-    <col min="12283" max="12283" width="4.125" style="25" customWidth="1"/>
-    <col min="12284" max="12284" width="2.375" style="25" customWidth="1"/>
+    <col min="12280" max="12280" width="1.6640625" style="25" customWidth="1"/>
+    <col min="12281" max="12281" width="1.77734375" style="25" customWidth="1"/>
+    <col min="12282" max="12282" width="7.33203125" style="25" customWidth="1"/>
+    <col min="12283" max="12283" width="4.109375" style="25" customWidth="1"/>
+    <col min="12284" max="12284" width="2.33203125" style="25" customWidth="1"/>
     <col min="12285" max="12285" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12286" max="12286" width="2.125" style="25" customWidth="1"/>
-    <col min="12287" max="12287" width="2.625" style="25" customWidth="1"/>
+    <col min="12286" max="12286" width="2.109375" style="25" customWidth="1"/>
+    <col min="12287" max="12287" width="2.6640625" style="25" customWidth="1"/>
     <col min="12288" max="12288" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12289" max="12289" width="9.25" style="25" customWidth="1"/>
-    <col min="12290" max="12290" width="12.25" style="25" customWidth="1"/>
-    <col min="12291" max="12291" width="9.125" style="25" customWidth="1"/>
-    <col min="12292" max="12292" width="3.125" style="25" customWidth="1"/>
-    <col min="12293" max="12293" width="5.625" style="25" customWidth="1"/>
-    <col min="12294" max="12294" width="6.5" style="25" customWidth="1"/>
+    <col min="12289" max="12289" width="9.21875" style="25" customWidth="1"/>
+    <col min="12290" max="12290" width="12.21875" style="25" customWidth="1"/>
+    <col min="12291" max="12291" width="9.109375" style="25" customWidth="1"/>
+    <col min="12292" max="12292" width="3.109375" style="25" customWidth="1"/>
+    <col min="12293" max="12293" width="5.6640625" style="25" customWidth="1"/>
+    <col min="12294" max="12294" width="6.44140625" style="25" customWidth="1"/>
     <col min="12295" max="12295" width="1" style="25" customWidth="1"/>
     <col min="12296" max="12296" width="3" style="25" customWidth="1"/>
-    <col min="12297" max="12297" width="7.125" style="25" customWidth="1"/>
-    <col min="12298" max="12298" width="2.75" style="25" customWidth="1"/>
-    <col min="12299" max="12299" width="8.625" style="25" customWidth="1"/>
+    <col min="12297" max="12297" width="7.109375" style="25" customWidth="1"/>
+    <col min="12298" max="12298" width="2.77734375" style="25" customWidth="1"/>
+    <col min="12299" max="12299" width="8.6640625" style="25" customWidth="1"/>
     <col min="12300" max="12310" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="12311" max="12335" width="9" style="25" customWidth="1"/>
     <col min="12336" max="12535" width="9" style="25"/>
-    <col min="12536" max="12536" width="1.625" style="25" customWidth="1"/>
-    <col min="12537" max="12537" width="1.75" style="25" customWidth="1"/>
-    <col min="12538" max="12538" width="7.375" style="25" customWidth="1"/>
-    <col min="12539" max="12539" width="4.125" style="25" customWidth="1"/>
-    <col min="12540" max="12540" width="2.375" style="25" customWidth="1"/>
+    <col min="12536" max="12536" width="1.6640625" style="25" customWidth="1"/>
+    <col min="12537" max="12537" width="1.77734375" style="25" customWidth="1"/>
+    <col min="12538" max="12538" width="7.33203125" style="25" customWidth="1"/>
+    <col min="12539" max="12539" width="4.109375" style="25" customWidth="1"/>
+    <col min="12540" max="12540" width="2.33203125" style="25" customWidth="1"/>
     <col min="12541" max="12541" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12542" max="12542" width="2.125" style="25" customWidth="1"/>
-    <col min="12543" max="12543" width="2.625" style="25" customWidth="1"/>
+    <col min="12542" max="12542" width="2.109375" style="25" customWidth="1"/>
+    <col min="12543" max="12543" width="2.6640625" style="25" customWidth="1"/>
     <col min="12544" max="12544" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12545" max="12545" width="9.25" style="25" customWidth="1"/>
-    <col min="12546" max="12546" width="12.25" style="25" customWidth="1"/>
-    <col min="12547" max="12547" width="9.125" style="25" customWidth="1"/>
-    <col min="12548" max="12548" width="3.125" style="25" customWidth="1"/>
-    <col min="12549" max="12549" width="5.625" style="25" customWidth="1"/>
-    <col min="12550" max="12550" width="6.5" style="25" customWidth="1"/>
+    <col min="12545" max="12545" width="9.21875" style="25" customWidth="1"/>
+    <col min="12546" max="12546" width="12.21875" style="25" customWidth="1"/>
+    <col min="12547" max="12547" width="9.109375" style="25" customWidth="1"/>
+    <col min="12548" max="12548" width="3.109375" style="25" customWidth="1"/>
+    <col min="12549" max="12549" width="5.6640625" style="25" customWidth="1"/>
+    <col min="12550" max="12550" width="6.44140625" style="25" customWidth="1"/>
     <col min="12551" max="12551" width="1" style="25" customWidth="1"/>
     <col min="12552" max="12552" width="3" style="25" customWidth="1"/>
-    <col min="12553" max="12553" width="7.125" style="25" customWidth="1"/>
-    <col min="12554" max="12554" width="2.75" style="25" customWidth="1"/>
-    <col min="12555" max="12555" width="8.625" style="25" customWidth="1"/>
+    <col min="12553" max="12553" width="7.109375" style="25" customWidth="1"/>
+    <col min="12554" max="12554" width="2.77734375" style="25" customWidth="1"/>
+    <col min="12555" max="12555" width="8.6640625" style="25" customWidth="1"/>
     <col min="12556" max="12566" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="12567" max="12591" width="9" style="25" customWidth="1"/>
     <col min="12592" max="12791" width="9" style="25"/>
-    <col min="12792" max="12792" width="1.625" style="25" customWidth="1"/>
-    <col min="12793" max="12793" width="1.75" style="25" customWidth="1"/>
-    <col min="12794" max="12794" width="7.375" style="25" customWidth="1"/>
-    <col min="12795" max="12795" width="4.125" style="25" customWidth="1"/>
-    <col min="12796" max="12796" width="2.375" style="25" customWidth="1"/>
+    <col min="12792" max="12792" width="1.6640625" style="25" customWidth="1"/>
+    <col min="12793" max="12793" width="1.77734375" style="25" customWidth="1"/>
+    <col min="12794" max="12794" width="7.33203125" style="25" customWidth="1"/>
+    <col min="12795" max="12795" width="4.109375" style="25" customWidth="1"/>
+    <col min="12796" max="12796" width="2.33203125" style="25" customWidth="1"/>
     <col min="12797" max="12797" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12798" max="12798" width="2.125" style="25" customWidth="1"/>
-    <col min="12799" max="12799" width="2.625" style="25" customWidth="1"/>
+    <col min="12798" max="12798" width="2.109375" style="25" customWidth="1"/>
+    <col min="12799" max="12799" width="2.6640625" style="25" customWidth="1"/>
     <col min="12800" max="12800" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12801" max="12801" width="9.25" style="25" customWidth="1"/>
-    <col min="12802" max="12802" width="12.25" style="25" customWidth="1"/>
-    <col min="12803" max="12803" width="9.125" style="25" customWidth="1"/>
-    <col min="12804" max="12804" width="3.125" style="25" customWidth="1"/>
-    <col min="12805" max="12805" width="5.625" style="25" customWidth="1"/>
-    <col min="12806" max="12806" width="6.5" style="25" customWidth="1"/>
+    <col min="12801" max="12801" width="9.21875" style="25" customWidth="1"/>
+    <col min="12802" max="12802" width="12.21875" style="25" customWidth="1"/>
+    <col min="12803" max="12803" width="9.109375" style="25" customWidth="1"/>
+    <col min="12804" max="12804" width="3.109375" style="25" customWidth="1"/>
+    <col min="12805" max="12805" width="5.6640625" style="25" customWidth="1"/>
+    <col min="12806" max="12806" width="6.44140625" style="25" customWidth="1"/>
     <col min="12807" max="12807" width="1" style="25" customWidth="1"/>
     <col min="12808" max="12808" width="3" style="25" customWidth="1"/>
-    <col min="12809" max="12809" width="7.125" style="25" customWidth="1"/>
-    <col min="12810" max="12810" width="2.75" style="25" customWidth="1"/>
-    <col min="12811" max="12811" width="8.625" style="25" customWidth="1"/>
+    <col min="12809" max="12809" width="7.109375" style="25" customWidth="1"/>
+    <col min="12810" max="12810" width="2.77734375" style="25" customWidth="1"/>
+    <col min="12811" max="12811" width="8.6640625" style="25" customWidth="1"/>
     <col min="12812" max="12822" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="12823" max="12847" width="9" style="25" customWidth="1"/>
     <col min="12848" max="13047" width="9" style="25"/>
-    <col min="13048" max="13048" width="1.625" style="25" customWidth="1"/>
-    <col min="13049" max="13049" width="1.75" style="25" customWidth="1"/>
-    <col min="13050" max="13050" width="7.375" style="25" customWidth="1"/>
-    <col min="13051" max="13051" width="4.125" style="25" customWidth="1"/>
-    <col min="13052" max="13052" width="2.375" style="25" customWidth="1"/>
+    <col min="13048" max="13048" width="1.6640625" style="25" customWidth="1"/>
+    <col min="13049" max="13049" width="1.77734375" style="25" customWidth="1"/>
+    <col min="13050" max="13050" width="7.33203125" style="25" customWidth="1"/>
+    <col min="13051" max="13051" width="4.109375" style="25" customWidth="1"/>
+    <col min="13052" max="13052" width="2.33203125" style="25" customWidth="1"/>
     <col min="13053" max="13053" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13054" max="13054" width="2.125" style="25" customWidth="1"/>
-    <col min="13055" max="13055" width="2.625" style="25" customWidth="1"/>
+    <col min="13054" max="13054" width="2.109375" style="25" customWidth="1"/>
+    <col min="13055" max="13055" width="2.6640625" style="25" customWidth="1"/>
     <col min="13056" max="13056" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13057" max="13057" width="9.25" style="25" customWidth="1"/>
-    <col min="13058" max="13058" width="12.25" style="25" customWidth="1"/>
-    <col min="13059" max="13059" width="9.125" style="25" customWidth="1"/>
-    <col min="13060" max="13060" width="3.125" style="25" customWidth="1"/>
-    <col min="13061" max="13061" width="5.625" style="25" customWidth="1"/>
-    <col min="13062" max="13062" width="6.5" style="25" customWidth="1"/>
+    <col min="13057" max="13057" width="9.21875" style="25" customWidth="1"/>
+    <col min="13058" max="13058" width="12.21875" style="25" customWidth="1"/>
+    <col min="13059" max="13059" width="9.109375" style="25" customWidth="1"/>
+    <col min="13060" max="13060" width="3.109375" style="25" customWidth="1"/>
+    <col min="13061" max="13061" width="5.6640625" style="25" customWidth="1"/>
+    <col min="13062" max="13062" width="6.44140625" style="25" customWidth="1"/>
     <col min="13063" max="13063" width="1" style="25" customWidth="1"/>
     <col min="13064" max="13064" width="3" style="25" customWidth="1"/>
-    <col min="13065" max="13065" width="7.125" style="25" customWidth="1"/>
-    <col min="13066" max="13066" width="2.75" style="25" customWidth="1"/>
-    <col min="13067" max="13067" width="8.625" style="25" customWidth="1"/>
+    <col min="13065" max="13065" width="7.109375" style="25" customWidth="1"/>
+    <col min="13066" max="13066" width="2.77734375" style="25" customWidth="1"/>
+    <col min="13067" max="13067" width="8.6640625" style="25" customWidth="1"/>
     <col min="13068" max="13078" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="13079" max="13103" width="9" style="25" customWidth="1"/>
     <col min="13104" max="13303" width="9" style="25"/>
-    <col min="13304" max="13304" width="1.625" style="25" customWidth="1"/>
-    <col min="13305" max="13305" width="1.75" style="25" customWidth="1"/>
-    <col min="13306" max="13306" width="7.375" style="25" customWidth="1"/>
-    <col min="13307" max="13307" width="4.125" style="25" customWidth="1"/>
-    <col min="13308" max="13308" width="2.375" style="25" customWidth="1"/>
+    <col min="13304" max="13304" width="1.6640625" style="25" customWidth="1"/>
+    <col min="13305" max="13305" width="1.77734375" style="25" customWidth="1"/>
+    <col min="13306" max="13306" width="7.33203125" style="25" customWidth="1"/>
+    <col min="13307" max="13307" width="4.109375" style="25" customWidth="1"/>
+    <col min="13308" max="13308" width="2.33203125" style="25" customWidth="1"/>
     <col min="13309" max="13309" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13310" max="13310" width="2.125" style="25" customWidth="1"/>
-    <col min="13311" max="13311" width="2.625" style="25" customWidth="1"/>
+    <col min="13310" max="13310" width="2.109375" style="25" customWidth="1"/>
+    <col min="13311" max="13311" width="2.6640625" style="25" customWidth="1"/>
     <col min="13312" max="13312" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13313" max="13313" width="9.25" style="25" customWidth="1"/>
-    <col min="13314" max="13314" width="12.25" style="25" customWidth="1"/>
-    <col min="13315" max="13315" width="9.125" style="25" customWidth="1"/>
-    <col min="13316" max="13316" width="3.125" style="25" customWidth="1"/>
-    <col min="13317" max="13317" width="5.625" style="25" customWidth="1"/>
-    <col min="13318" max="13318" width="6.5" style="25" customWidth="1"/>
+    <col min="13313" max="13313" width="9.21875" style="25" customWidth="1"/>
+    <col min="13314" max="13314" width="12.21875" style="25" customWidth="1"/>
+    <col min="13315" max="13315" width="9.109375" style="25" customWidth="1"/>
+    <col min="13316" max="13316" width="3.109375" style="25" customWidth="1"/>
+    <col min="13317" max="13317" width="5.6640625" style="25" customWidth="1"/>
+    <col min="13318" max="13318" width="6.44140625" style="25" customWidth="1"/>
     <col min="13319" max="13319" width="1" style="25" customWidth="1"/>
     <col min="13320" max="13320" width="3" style="25" customWidth="1"/>
-    <col min="13321" max="13321" width="7.125" style="25" customWidth="1"/>
-    <col min="13322" max="13322" width="2.75" style="25" customWidth="1"/>
-    <col min="13323" max="13323" width="8.625" style="25" customWidth="1"/>
+    <col min="13321" max="13321" width="7.109375" style="25" customWidth="1"/>
+    <col min="13322" max="13322" width="2.77734375" style="25" customWidth="1"/>
+    <col min="13323" max="13323" width="8.6640625" style="25" customWidth="1"/>
     <col min="13324" max="13334" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="13335" max="13359" width="9" style="25" customWidth="1"/>
     <col min="13360" max="13559" width="9" style="25"/>
-    <col min="13560" max="13560" width="1.625" style="25" customWidth="1"/>
-    <col min="13561" max="13561" width="1.75" style="25" customWidth="1"/>
-    <col min="13562" max="13562" width="7.375" style="25" customWidth="1"/>
-    <col min="13563" max="13563" width="4.125" style="25" customWidth="1"/>
-    <col min="13564" max="13564" width="2.375" style="25" customWidth="1"/>
+    <col min="13560" max="13560" width="1.6640625" style="25" customWidth="1"/>
+    <col min="13561" max="13561" width="1.77734375" style="25" customWidth="1"/>
+    <col min="13562" max="13562" width="7.33203125" style="25" customWidth="1"/>
+    <col min="13563" max="13563" width="4.109375" style="25" customWidth="1"/>
+    <col min="13564" max="13564" width="2.33203125" style="25" customWidth="1"/>
     <col min="13565" max="13565" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13566" max="13566" width="2.125" style="25" customWidth="1"/>
-    <col min="13567" max="13567" width="2.625" style="25" customWidth="1"/>
+    <col min="13566" max="13566" width="2.109375" style="25" customWidth="1"/>
+    <col min="13567" max="13567" width="2.6640625" style="25" customWidth="1"/>
     <col min="13568" max="13568" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13569" max="13569" width="9.25" style="25" customWidth="1"/>
-    <col min="13570" max="13570" width="12.25" style="25" customWidth="1"/>
-    <col min="13571" max="13571" width="9.125" style="25" customWidth="1"/>
-    <col min="13572" max="13572" width="3.125" style="25" customWidth="1"/>
-    <col min="13573" max="13573" width="5.625" style="25" customWidth="1"/>
-    <col min="13574" max="13574" width="6.5" style="25" customWidth="1"/>
+    <col min="13569" max="13569" width="9.21875" style="25" customWidth="1"/>
+    <col min="13570" max="13570" width="12.21875" style="25" customWidth="1"/>
+    <col min="13571" max="13571" width="9.109375" style="25" customWidth="1"/>
+    <col min="13572" max="13572" width="3.109375" style="25" customWidth="1"/>
+    <col min="13573" max="13573" width="5.6640625" style="25" customWidth="1"/>
+    <col min="13574" max="13574" width="6.44140625" style="25" customWidth="1"/>
     <col min="13575" max="13575" width="1" style="25" customWidth="1"/>
     <col min="13576" max="13576" width="3" style="25" customWidth="1"/>
-    <col min="13577" max="13577" width="7.125" style="25" customWidth="1"/>
-    <col min="13578" max="13578" width="2.75" style="25" customWidth="1"/>
-    <col min="13579" max="13579" width="8.625" style="25" customWidth="1"/>
+    <col min="13577" max="13577" width="7.109375" style="25" customWidth="1"/>
+    <col min="13578" max="13578" width="2.77734375" style="25" customWidth="1"/>
+    <col min="13579" max="13579" width="8.6640625" style="25" customWidth="1"/>
     <col min="13580" max="13590" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="13591" max="13615" width="9" style="25" customWidth="1"/>
     <col min="13616" max="13815" width="9" style="25"/>
-    <col min="13816" max="13816" width="1.625" style="25" customWidth="1"/>
-    <col min="13817" max="13817" width="1.75" style="25" customWidth="1"/>
-    <col min="13818" max="13818" width="7.375" style="25" customWidth="1"/>
-    <col min="13819" max="13819" width="4.125" style="25" customWidth="1"/>
-    <col min="13820" max="13820" width="2.375" style="25" customWidth="1"/>
+    <col min="13816" max="13816" width="1.6640625" style="25" customWidth="1"/>
+    <col min="13817" max="13817" width="1.77734375" style="25" customWidth="1"/>
+    <col min="13818" max="13818" width="7.33203125" style="25" customWidth="1"/>
+    <col min="13819" max="13819" width="4.109375" style="25" customWidth="1"/>
+    <col min="13820" max="13820" width="2.33203125" style="25" customWidth="1"/>
     <col min="13821" max="13821" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13822" max="13822" width="2.125" style="25" customWidth="1"/>
-    <col min="13823" max="13823" width="2.625" style="25" customWidth="1"/>
+    <col min="13822" max="13822" width="2.109375" style="25" customWidth="1"/>
+    <col min="13823" max="13823" width="2.6640625" style="25" customWidth="1"/>
     <col min="13824" max="13824" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13825" max="13825" width="9.25" style="25" customWidth="1"/>
-    <col min="13826" max="13826" width="12.25" style="25" customWidth="1"/>
-    <col min="13827" max="13827" width="9.125" style="25" customWidth="1"/>
-    <col min="13828" max="13828" width="3.125" style="25" customWidth="1"/>
-    <col min="13829" max="13829" width="5.625" style="25" customWidth="1"/>
-    <col min="13830" max="13830" width="6.5" style="25" customWidth="1"/>
+    <col min="13825" max="13825" width="9.21875" style="25" customWidth="1"/>
+    <col min="13826" max="13826" width="12.21875" style="25" customWidth="1"/>
+    <col min="13827" max="13827" width="9.109375" style="25" customWidth="1"/>
+    <col min="13828" max="13828" width="3.109375" style="25" customWidth="1"/>
+    <col min="13829" max="13829" width="5.6640625" style="25" customWidth="1"/>
+    <col min="13830" max="13830" width="6.44140625" style="25" customWidth="1"/>
     <col min="13831" max="13831" width="1" style="25" customWidth="1"/>
     <col min="13832" max="13832" width="3" style="25" customWidth="1"/>
-    <col min="13833" max="13833" width="7.125" style="25" customWidth="1"/>
-    <col min="13834" max="13834" width="2.75" style="25" customWidth="1"/>
-    <col min="13835" max="13835" width="8.625" style="25" customWidth="1"/>
+    <col min="13833" max="13833" width="7.109375" style="25" customWidth="1"/>
+    <col min="13834" max="13834" width="2.77734375" style="25" customWidth="1"/>
+    <col min="13835" max="13835" width="8.6640625" style="25" customWidth="1"/>
     <col min="13836" max="13846" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="13847" max="13871" width="9" style="25" customWidth="1"/>
     <col min="13872" max="14071" width="9" style="25"/>
-    <col min="14072" max="14072" width="1.625" style="25" customWidth="1"/>
-    <col min="14073" max="14073" width="1.75" style="25" customWidth="1"/>
-    <col min="14074" max="14074" width="7.375" style="25" customWidth="1"/>
-    <col min="14075" max="14075" width="4.125" style="25" customWidth="1"/>
-    <col min="14076" max="14076" width="2.375" style="25" customWidth="1"/>
+    <col min="14072" max="14072" width="1.6640625" style="25" customWidth="1"/>
+    <col min="14073" max="14073" width="1.77734375" style="25" customWidth="1"/>
+    <col min="14074" max="14074" width="7.33203125" style="25" customWidth="1"/>
+    <col min="14075" max="14075" width="4.109375" style="25" customWidth="1"/>
+    <col min="14076" max="14076" width="2.33203125" style="25" customWidth="1"/>
     <col min="14077" max="14077" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14078" max="14078" width="2.125" style="25" customWidth="1"/>
-    <col min="14079" max="14079" width="2.625" style="25" customWidth="1"/>
+    <col min="14078" max="14078" width="2.109375" style="25" customWidth="1"/>
+    <col min="14079" max="14079" width="2.6640625" style="25" customWidth="1"/>
     <col min="14080" max="14080" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14081" max="14081" width="9.25" style="25" customWidth="1"/>
-    <col min="14082" max="14082" width="12.25" style="25" customWidth="1"/>
-    <col min="14083" max="14083" width="9.125" style="25" customWidth="1"/>
-    <col min="14084" max="14084" width="3.125" style="25" customWidth="1"/>
-    <col min="14085" max="14085" width="5.625" style="25" customWidth="1"/>
-    <col min="14086" max="14086" width="6.5" style="25" customWidth="1"/>
+    <col min="14081" max="14081" width="9.21875" style="25" customWidth="1"/>
+    <col min="14082" max="14082" width="12.21875" style="25" customWidth="1"/>
+    <col min="14083" max="14083" width="9.109375" style="25" customWidth="1"/>
+    <col min="14084" max="14084" width="3.109375" style="25" customWidth="1"/>
+    <col min="14085" max="14085" width="5.6640625" style="25" customWidth="1"/>
+    <col min="14086" max="14086" width="6.44140625" style="25" customWidth="1"/>
     <col min="14087" max="14087" width="1" style="25" customWidth="1"/>
     <col min="14088" max="14088" width="3" style="25" customWidth="1"/>
-    <col min="14089" max="14089" width="7.125" style="25" customWidth="1"/>
-    <col min="14090" max="14090" width="2.75" style="25" customWidth="1"/>
-    <col min="14091" max="14091" width="8.625" style="25" customWidth="1"/>
+    <col min="14089" max="14089" width="7.109375" style="25" customWidth="1"/>
+    <col min="14090" max="14090" width="2.77734375" style="25" customWidth="1"/>
+    <col min="14091" max="14091" width="8.6640625" style="25" customWidth="1"/>
     <col min="14092" max="14102" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="14103" max="14127" width="9" style="25" customWidth="1"/>
     <col min="14128" max="14327" width="9" style="25"/>
-    <col min="14328" max="14328" width="1.625" style="25" customWidth="1"/>
-    <col min="14329" max="14329" width="1.75" style="25" customWidth="1"/>
-    <col min="14330" max="14330" width="7.375" style="25" customWidth="1"/>
-    <col min="14331" max="14331" width="4.125" style="25" customWidth="1"/>
-    <col min="14332" max="14332" width="2.375" style="25" customWidth="1"/>
+    <col min="14328" max="14328" width="1.6640625" style="25" customWidth="1"/>
+    <col min="14329" max="14329" width="1.77734375" style="25" customWidth="1"/>
+    <col min="14330" max="14330" width="7.33203125" style="25" customWidth="1"/>
+    <col min="14331" max="14331" width="4.109375" style="25" customWidth="1"/>
+    <col min="14332" max="14332" width="2.33203125" style="25" customWidth="1"/>
     <col min="14333" max="14333" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14334" max="14334" width="2.125" style="25" customWidth="1"/>
-    <col min="14335" max="14335" width="2.625" style="25" customWidth="1"/>
+    <col min="14334" max="14334" width="2.109375" style="25" customWidth="1"/>
+    <col min="14335" max="14335" width="2.6640625" style="25" customWidth="1"/>
     <col min="14336" max="14336" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14337" max="14337" width="9.25" style="25" customWidth="1"/>
-    <col min="14338" max="14338" width="12.25" style="25" customWidth="1"/>
-    <col min="14339" max="14339" width="9.125" style="25" customWidth="1"/>
-    <col min="14340" max="14340" width="3.125" style="25" customWidth="1"/>
-    <col min="14341" max="14341" width="5.625" style="25" customWidth="1"/>
-    <col min="14342" max="14342" width="6.5" style="25" customWidth="1"/>
+    <col min="14337" max="14337" width="9.21875" style="25" customWidth="1"/>
+    <col min="14338" max="14338" width="12.21875" style="25" customWidth="1"/>
+    <col min="14339" max="14339" width="9.109375" style="25" customWidth="1"/>
+    <col min="14340" max="14340" width="3.109375" style="25" customWidth="1"/>
+    <col min="14341" max="14341" width="5.6640625" style="25" customWidth="1"/>
+    <col min="14342" max="14342" width="6.44140625" style="25" customWidth="1"/>
     <col min="14343" max="14343" width="1" style="25" customWidth="1"/>
     <col min="14344" max="14344" width="3" style="25" customWidth="1"/>
-    <col min="14345" max="14345" width="7.125" style="25" customWidth="1"/>
-    <col min="14346" max="14346" width="2.75" style="25" customWidth="1"/>
-    <col min="14347" max="14347" width="8.625" style="25" customWidth="1"/>
+    <col min="14345" max="14345" width="7.109375" style="25" customWidth="1"/>
+    <col min="14346" max="14346" width="2.77734375" style="25" customWidth="1"/>
+    <col min="14347" max="14347" width="8.6640625" style="25" customWidth="1"/>
     <col min="14348" max="14358" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="14359" max="14383" width="9" style="25" customWidth="1"/>
     <col min="14384" max="14583" width="9" style="25"/>
-    <col min="14584" max="14584" width="1.625" style="25" customWidth="1"/>
-    <col min="14585" max="14585" width="1.75" style="25" customWidth="1"/>
-    <col min="14586" max="14586" width="7.375" style="25" customWidth="1"/>
-    <col min="14587" max="14587" width="4.125" style="25" customWidth="1"/>
-    <col min="14588" max="14588" width="2.375" style="25" customWidth="1"/>
+    <col min="14584" max="14584" width="1.6640625" style="25" customWidth="1"/>
+    <col min="14585" max="14585" width="1.77734375" style="25" customWidth="1"/>
+    <col min="14586" max="14586" width="7.33203125" style="25" customWidth="1"/>
+    <col min="14587" max="14587" width="4.109375" style="25" customWidth="1"/>
+    <col min="14588" max="14588" width="2.33203125" style="25" customWidth="1"/>
     <col min="14589" max="14589" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14590" max="14590" width="2.125" style="25" customWidth="1"/>
-    <col min="14591" max="14591" width="2.625" style="25" customWidth="1"/>
+    <col min="14590" max="14590" width="2.109375" style="25" customWidth="1"/>
+    <col min="14591" max="14591" width="2.6640625" style="25" customWidth="1"/>
     <col min="14592" max="14592" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14593" max="14593" width="9.25" style="25" customWidth="1"/>
-    <col min="14594" max="14594" width="12.25" style="25" customWidth="1"/>
-    <col min="14595" max="14595" width="9.125" style="25" customWidth="1"/>
-    <col min="14596" max="14596" width="3.125" style="25" customWidth="1"/>
-    <col min="14597" max="14597" width="5.625" style="25" customWidth="1"/>
-    <col min="14598" max="14598" width="6.5" style="25" customWidth="1"/>
+    <col min="14593" max="14593" width="9.21875" style="25" customWidth="1"/>
+    <col min="14594" max="14594" width="12.21875" style="25" customWidth="1"/>
+    <col min="14595" max="14595" width="9.109375" style="25" customWidth="1"/>
+    <col min="14596" max="14596" width="3.109375" style="25" customWidth="1"/>
+    <col min="14597" max="14597" width="5.6640625" style="25" customWidth="1"/>
+    <col min="14598" max="14598" width="6.44140625" style="25" customWidth="1"/>
     <col min="14599" max="14599" width="1" style="25" customWidth="1"/>
     <col min="14600" max="14600" width="3" style="25" customWidth="1"/>
-    <col min="14601" max="14601" width="7.125" style="25" customWidth="1"/>
-    <col min="14602" max="14602" width="2.75" style="25" customWidth="1"/>
-    <col min="14603" max="14603" width="8.625" style="25" customWidth="1"/>
+    <col min="14601" max="14601" width="7.109375" style="25" customWidth="1"/>
+    <col min="14602" max="14602" width="2.77734375" style="25" customWidth="1"/>
+    <col min="14603" max="14603" width="8.6640625" style="25" customWidth="1"/>
     <col min="14604" max="14614" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="14615" max="14639" width="9" style="25" customWidth="1"/>
     <col min="14640" max="14839" width="9" style="25"/>
-    <col min="14840" max="14840" width="1.625" style="25" customWidth="1"/>
-    <col min="14841" max="14841" width="1.75" style="25" customWidth="1"/>
-    <col min="14842" max="14842" width="7.375" style="25" customWidth="1"/>
-    <col min="14843" max="14843" width="4.125" style="25" customWidth="1"/>
-    <col min="14844" max="14844" width="2.375" style="25" customWidth="1"/>
+    <col min="14840" max="14840" width="1.6640625" style="25" customWidth="1"/>
+    <col min="14841" max="14841" width="1.77734375" style="25" customWidth="1"/>
+    <col min="14842" max="14842" width="7.33203125" style="25" customWidth="1"/>
+    <col min="14843" max="14843" width="4.109375" style="25" customWidth="1"/>
+    <col min="14844" max="14844" width="2.33203125" style="25" customWidth="1"/>
     <col min="14845" max="14845" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14846" max="14846" width="2.125" style="25" customWidth="1"/>
-    <col min="14847" max="14847" width="2.625" style="25" customWidth="1"/>
+    <col min="14846" max="14846" width="2.109375" style="25" customWidth="1"/>
+    <col min="14847" max="14847" width="2.6640625" style="25" customWidth="1"/>
     <col min="14848" max="14848" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14849" max="14849" width="9.25" style="25" customWidth="1"/>
-    <col min="14850" max="14850" width="12.25" style="25" customWidth="1"/>
-    <col min="14851" max="14851" width="9.125" style="25" customWidth="1"/>
-    <col min="14852" max="14852" width="3.125" style="25" customWidth="1"/>
-    <col min="14853" max="14853" width="5.625" style="25" customWidth="1"/>
-    <col min="14854" max="14854" width="6.5" style="25" customWidth="1"/>
+    <col min="14849" max="14849" width="9.21875" style="25" customWidth="1"/>
+    <col min="14850" max="14850" width="12.21875" style="25" customWidth="1"/>
+    <col min="14851" max="14851" width="9.109375" style="25" customWidth="1"/>
+    <col min="14852" max="14852" width="3.109375" style="25" customWidth="1"/>
+    <col min="14853" max="14853" width="5.6640625" style="25" customWidth="1"/>
+    <col min="14854" max="14854" width="6.44140625" style="25" customWidth="1"/>
     <col min="14855" max="14855" width="1" style="25" customWidth="1"/>
     <col min="14856" max="14856" width="3" style="25" customWidth="1"/>
-    <col min="14857" max="14857" width="7.125" style="25" customWidth="1"/>
-    <col min="14858" max="14858" width="2.75" style="25" customWidth="1"/>
-    <col min="14859" max="14859" width="8.625" style="25" customWidth="1"/>
+    <col min="14857" max="14857" width="7.109375" style="25" customWidth="1"/>
+    <col min="14858" max="14858" width="2.77734375" style="25" customWidth="1"/>
+    <col min="14859" max="14859" width="8.6640625" style="25" customWidth="1"/>
     <col min="14860" max="14870" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="14871" max="14895" width="9" style="25" customWidth="1"/>
     <col min="14896" max="15095" width="9" style="25"/>
-    <col min="15096" max="15096" width="1.625" style="25" customWidth="1"/>
-    <col min="15097" max="15097" width="1.75" style="25" customWidth="1"/>
-    <col min="15098" max="15098" width="7.375" style="25" customWidth="1"/>
-    <col min="15099" max="15099" width="4.125" style="25" customWidth="1"/>
-    <col min="15100" max="15100" width="2.375" style="25" customWidth="1"/>
+    <col min="15096" max="15096" width="1.6640625" style="25" customWidth="1"/>
+    <col min="15097" max="15097" width="1.77734375" style="25" customWidth="1"/>
+    <col min="15098" max="15098" width="7.33203125" style="25" customWidth="1"/>
+    <col min="15099" max="15099" width="4.109375" style="25" customWidth="1"/>
+    <col min="15100" max="15100" width="2.33203125" style="25" customWidth="1"/>
     <col min="15101" max="15101" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15102" max="15102" width="2.125" style="25" customWidth="1"/>
-    <col min="15103" max="15103" width="2.625" style="25" customWidth="1"/>
+    <col min="15102" max="15102" width="2.109375" style="25" customWidth="1"/>
+    <col min="15103" max="15103" width="2.6640625" style="25" customWidth="1"/>
     <col min="15104" max="15104" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15105" max="15105" width="9.25" style="25" customWidth="1"/>
-    <col min="15106" max="15106" width="12.25" style="25" customWidth="1"/>
-    <col min="15107" max="15107" width="9.125" style="25" customWidth="1"/>
-    <col min="15108" max="15108" width="3.125" style="25" customWidth="1"/>
-    <col min="15109" max="15109" width="5.625" style="25" customWidth="1"/>
-    <col min="15110" max="15110" width="6.5" style="25" customWidth="1"/>
+    <col min="15105" max="15105" width="9.21875" style="25" customWidth="1"/>
+    <col min="15106" max="15106" width="12.21875" style="25" customWidth="1"/>
+    <col min="15107" max="15107" width="9.109375" style="25" customWidth="1"/>
+    <col min="15108" max="15108" width="3.109375" style="25" customWidth="1"/>
+    <col min="15109" max="15109" width="5.6640625" style="25" customWidth="1"/>
+    <col min="15110" max="15110" width="6.44140625" style="25" customWidth="1"/>
     <col min="15111" max="15111" width="1" style="25" customWidth="1"/>
     <col min="15112" max="15112" width="3" style="25" customWidth="1"/>
-    <col min="15113" max="15113" width="7.125" style="25" customWidth="1"/>
-    <col min="15114" max="15114" width="2.75" style="25" customWidth="1"/>
-    <col min="15115" max="15115" width="8.625" style="25" customWidth="1"/>
+    <col min="15113" max="15113" width="7.109375" style="25" customWidth="1"/>
+    <col min="15114" max="15114" width="2.77734375" style="25" customWidth="1"/>
+    <col min="15115" max="15115" width="8.6640625" style="25" customWidth="1"/>
     <col min="15116" max="15126" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="15127" max="15151" width="9" style="25" customWidth="1"/>
     <col min="15152" max="15351" width="9" style="25"/>
-    <col min="15352" max="15352" width="1.625" style="25" customWidth="1"/>
-    <col min="15353" max="15353" width="1.75" style="25" customWidth="1"/>
-    <col min="15354" max="15354" width="7.375" style="25" customWidth="1"/>
-    <col min="15355" max="15355" width="4.125" style="25" customWidth="1"/>
-    <col min="15356" max="15356" width="2.375" style="25" customWidth="1"/>
+    <col min="15352" max="15352" width="1.6640625" style="25" customWidth="1"/>
+    <col min="15353" max="15353" width="1.77734375" style="25" customWidth="1"/>
+    <col min="15354" max="15354" width="7.33203125" style="25" customWidth="1"/>
+    <col min="15355" max="15355" width="4.109375" style="25" customWidth="1"/>
+    <col min="15356" max="15356" width="2.33203125" style="25" customWidth="1"/>
     <col min="15357" max="15357" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15358" max="15358" width="2.125" style="25" customWidth="1"/>
-    <col min="15359" max="15359" width="2.625" style="25" customWidth="1"/>
+    <col min="15358" max="15358" width="2.109375" style="25" customWidth="1"/>
+    <col min="15359" max="15359" width="2.6640625" style="25" customWidth="1"/>
     <col min="15360" max="15360" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15361" max="15361" width="9.25" style="25" customWidth="1"/>
-    <col min="15362" max="15362" width="12.25" style="25" customWidth="1"/>
-    <col min="15363" max="15363" width="9.125" style="25" customWidth="1"/>
-    <col min="15364" max="15364" width="3.125" style="25" customWidth="1"/>
-    <col min="15365" max="15365" width="5.625" style="25" customWidth="1"/>
-    <col min="15366" max="15366" width="6.5" style="25" customWidth="1"/>
+    <col min="15361" max="15361" width="9.21875" style="25" customWidth="1"/>
+    <col min="15362" max="15362" width="12.21875" style="25" customWidth="1"/>
+    <col min="15363" max="15363" width="9.109375" style="25" customWidth="1"/>
+    <col min="15364" max="15364" width="3.109375" style="25" customWidth="1"/>
+    <col min="15365" max="15365" width="5.6640625" style="25" customWidth="1"/>
+    <col min="15366" max="15366" width="6.44140625" style="25" customWidth="1"/>
     <col min="15367" max="15367" width="1" style="25" customWidth="1"/>
     <col min="15368" max="15368" width="3" style="25" customWidth="1"/>
-    <col min="15369" max="15369" width="7.125" style="25" customWidth="1"/>
-    <col min="15370" max="15370" width="2.75" style="25" customWidth="1"/>
-    <col min="15371" max="15371" width="8.625" style="25" customWidth="1"/>
+    <col min="15369" max="15369" width="7.109375" style="25" customWidth="1"/>
+    <col min="15370" max="15370" width="2.77734375" style="25" customWidth="1"/>
+    <col min="15371" max="15371" width="8.6640625" style="25" customWidth="1"/>
     <col min="15372" max="15382" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="15383" max="15407" width="9" style="25" customWidth="1"/>
     <col min="15408" max="15607" width="9" style="25"/>
-    <col min="15608" max="15608" width="1.625" style="25" customWidth="1"/>
-    <col min="15609" max="15609" width="1.75" style="25" customWidth="1"/>
-    <col min="15610" max="15610" width="7.375" style="25" customWidth="1"/>
-    <col min="15611" max="15611" width="4.125" style="25" customWidth="1"/>
-    <col min="15612" max="15612" width="2.375" style="25" customWidth="1"/>
+    <col min="15608" max="15608" width="1.6640625" style="25" customWidth="1"/>
+    <col min="15609" max="15609" width="1.77734375" style="25" customWidth="1"/>
+    <col min="15610" max="15610" width="7.33203125" style="25" customWidth="1"/>
+    <col min="15611" max="15611" width="4.109375" style="25" customWidth="1"/>
+    <col min="15612" max="15612" width="2.33203125" style="25" customWidth="1"/>
     <col min="15613" max="15613" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15614" max="15614" width="2.125" style="25" customWidth="1"/>
-    <col min="15615" max="15615" width="2.625" style="25" customWidth="1"/>
+    <col min="15614" max="15614" width="2.109375" style="25" customWidth="1"/>
+    <col min="15615" max="15615" width="2.6640625" style="25" customWidth="1"/>
     <col min="15616" max="15616" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15617" max="15617" width="9.25" style="25" customWidth="1"/>
-    <col min="15618" max="15618" width="12.25" style="25" customWidth="1"/>
-    <col min="15619" max="15619" width="9.125" style="25" customWidth="1"/>
-    <col min="15620" max="15620" width="3.125" style="25" customWidth="1"/>
-    <col min="15621" max="15621" width="5.625" style="25" customWidth="1"/>
-    <col min="15622" max="15622" width="6.5" style="25" customWidth="1"/>
+    <col min="15617" max="15617" width="9.21875" style="25" customWidth="1"/>
+    <col min="15618" max="15618" width="12.21875" style="25" customWidth="1"/>
+    <col min="15619" max="15619" width="9.109375" style="25" customWidth="1"/>
+    <col min="15620" max="15620" width="3.109375" style="25" customWidth="1"/>
+    <col min="15621" max="15621" width="5.6640625" style="25" customWidth="1"/>
+    <col min="15622" max="15622" width="6.44140625" style="25" customWidth="1"/>
     <col min="15623" max="15623" width="1" style="25" customWidth="1"/>
     <col min="15624" max="15624" width="3" style="25" customWidth="1"/>
-    <col min="15625" max="15625" width="7.125" style="25" customWidth="1"/>
-    <col min="15626" max="15626" width="2.75" style="25" customWidth="1"/>
-    <col min="15627" max="15627" width="8.625" style="25" customWidth="1"/>
+    <col min="15625" max="15625" width="7.109375" style="25" customWidth="1"/>
+    <col min="15626" max="15626" width="2.77734375" style="25" customWidth="1"/>
+    <col min="15627" max="15627" width="8.6640625" style="25" customWidth="1"/>
     <col min="15628" max="15638" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="15639" max="15663" width="9" style="25" customWidth="1"/>
     <col min="15664" max="15863" width="9" style="25"/>
-    <col min="15864" max="15864" width="1.625" style="25" customWidth="1"/>
-    <col min="15865" max="15865" width="1.75" style="25" customWidth="1"/>
-    <col min="15866" max="15866" width="7.375" style="25" customWidth="1"/>
-    <col min="15867" max="15867" width="4.125" style="25" customWidth="1"/>
-    <col min="15868" max="15868" width="2.375" style="25" customWidth="1"/>
+    <col min="15864" max="15864" width="1.6640625" style="25" customWidth="1"/>
+    <col min="15865" max="15865" width="1.77734375" style="25" customWidth="1"/>
+    <col min="15866" max="15866" width="7.33203125" style="25" customWidth="1"/>
+    <col min="15867" max="15867" width="4.109375" style="25" customWidth="1"/>
+    <col min="15868" max="15868" width="2.33203125" style="25" customWidth="1"/>
     <col min="15869" max="15869" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15870" max="15870" width="2.125" style="25" customWidth="1"/>
-    <col min="15871" max="15871" width="2.625" style="25" customWidth="1"/>
+    <col min="15870" max="15870" width="2.109375" style="25" customWidth="1"/>
+    <col min="15871" max="15871" width="2.6640625" style="25" customWidth="1"/>
     <col min="15872" max="15872" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15873" max="15873" width="9.25" style="25" customWidth="1"/>
-    <col min="15874" max="15874" width="12.25" style="25" customWidth="1"/>
-    <col min="15875" max="15875" width="9.125" style="25" customWidth="1"/>
-    <col min="15876" max="15876" width="3.125" style="25" customWidth="1"/>
-    <col min="15877" max="15877" width="5.625" style="25" customWidth="1"/>
-    <col min="15878" max="15878" width="6.5" style="25" customWidth="1"/>
+    <col min="15873" max="15873" width="9.21875" style="25" customWidth="1"/>
+    <col min="15874" max="15874" width="12.21875" style="25" customWidth="1"/>
+    <col min="15875" max="15875" width="9.109375" style="25" customWidth="1"/>
+    <col min="15876" max="15876" width="3.109375" style="25" customWidth="1"/>
+    <col min="15877" max="15877" width="5.6640625" style="25" customWidth="1"/>
+    <col min="15878" max="15878" width="6.44140625" style="25" customWidth="1"/>
     <col min="15879" max="15879" width="1" style="25" customWidth="1"/>
     <col min="15880" max="15880" width="3" style="25" customWidth="1"/>
-    <col min="15881" max="15881" width="7.125" style="25" customWidth="1"/>
-    <col min="15882" max="15882" width="2.75" style="25" customWidth="1"/>
-    <col min="15883" max="15883" width="8.625" style="25" customWidth="1"/>
+    <col min="15881" max="15881" width="7.109375" style="25" customWidth="1"/>
+    <col min="15882" max="15882" width="2.77734375" style="25" customWidth="1"/>
+    <col min="15883" max="15883" width="8.6640625" style="25" customWidth="1"/>
     <col min="15884" max="15894" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="15895" max="15919" width="9" style="25" customWidth="1"/>
     <col min="15920" max="16119" width="9" style="25"/>
-    <col min="16120" max="16120" width="1.625" style="25" customWidth="1"/>
-    <col min="16121" max="16121" width="1.75" style="25" customWidth="1"/>
-    <col min="16122" max="16122" width="7.375" style="25" customWidth="1"/>
-    <col min="16123" max="16123" width="4.125" style="25" customWidth="1"/>
-    <col min="16124" max="16124" width="2.375" style="25" customWidth="1"/>
+    <col min="16120" max="16120" width="1.6640625" style="25" customWidth="1"/>
+    <col min="16121" max="16121" width="1.77734375" style="25" customWidth="1"/>
+    <col min="16122" max="16122" width="7.33203125" style="25" customWidth="1"/>
+    <col min="16123" max="16123" width="4.109375" style="25" customWidth="1"/>
+    <col min="16124" max="16124" width="2.33203125" style="25" customWidth="1"/>
     <col min="16125" max="16125" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="16126" max="16126" width="2.125" style="25" customWidth="1"/>
-    <col min="16127" max="16127" width="2.625" style="25" customWidth="1"/>
+    <col min="16126" max="16126" width="2.109375" style="25" customWidth="1"/>
+    <col min="16127" max="16127" width="2.6640625" style="25" customWidth="1"/>
     <col min="16128" max="16128" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="16129" max="16129" width="9.25" style="25" customWidth="1"/>
-    <col min="16130" max="16130" width="12.25" style="25" customWidth="1"/>
-    <col min="16131" max="16131" width="9.125" style="25" customWidth="1"/>
-    <col min="16132" max="16132" width="3.125" style="25" customWidth="1"/>
-    <col min="16133" max="16133" width="5.625" style="25" customWidth="1"/>
-    <col min="16134" max="16134" width="6.5" style="25" customWidth="1"/>
+    <col min="16129" max="16129" width="9.21875" style="25" customWidth="1"/>
+    <col min="16130" max="16130" width="12.21875" style="25" customWidth="1"/>
+    <col min="16131" max="16131" width="9.109375" style="25" customWidth="1"/>
+    <col min="16132" max="16132" width="3.109375" style="25" customWidth="1"/>
+    <col min="16133" max="16133" width="5.6640625" style="25" customWidth="1"/>
+    <col min="16134" max="16134" width="6.44140625" style="25" customWidth="1"/>
     <col min="16135" max="16135" width="1" style="25" customWidth="1"/>
     <col min="16136" max="16136" width="3" style="25" customWidth="1"/>
-    <col min="16137" max="16137" width="7.125" style="25" customWidth="1"/>
-    <col min="16138" max="16138" width="2.75" style="25" customWidth="1"/>
-    <col min="16139" max="16139" width="8.625" style="25" customWidth="1"/>
+    <col min="16137" max="16137" width="7.109375" style="25" customWidth="1"/>
+    <col min="16138" max="16138" width="2.77734375" style="25" customWidth="1"/>
+    <col min="16139" max="16139" width="8.6640625" style="25" customWidth="1"/>
     <col min="16140" max="16150" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="16151" max="16175" width="9" style="25" customWidth="1"/>
     <col min="16176" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="37.5" customHeight="1">
-      <c r="B1" s="123" t="s">
+    <row r="1" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B1" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-    </row>
-    <row r="2" spans="1:35" ht="27.95" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+    </row>
+    <row r="2" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="124" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="58" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>129</v>
       </c>
       <c r="L2" s="26"/>
       <c r="M2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="125" t="s">
+      <c r="O2" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
       <c r="W2" s="30"/>
       <c r="X2" s="30"/>
       <c r="Y2" s="30"/>
@@ -4238,141 +4279,117 @@
       <c r="AH2" s="27"/>
       <c r="AI2" s="27"/>
     </row>
-    <row r="3" spans="1:35" ht="27.95" customHeight="1">
-      <c r="B3" s="126" t="s">
+    <row r="3" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="26"/>
-      <c r="O3" s="128" t="s">
+      <c r="O3" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="129" t="s">
+      <c r="S3" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="T3" s="129"/>
+      <c r="T3" s="76"/>
       <c r="U3" s="29"/>
       <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
       <c r="AE3" s="30"/>
       <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
       <c r="AH3" s="30"/>
       <c r="AI3" s="30"/>
     </row>
-    <row r="4" spans="1:35" ht="27.95" customHeight="1">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="127" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="134" t="s">
+      <c r="M4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="135"/>
-      <c r="O4" s="139" t="e">
+      <c r="N4" s="66"/>
+      <c r="O4" s="70" t="e">
         <f>RIGHT(S3,10)-LEFT(O3,10)+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="130" t="s">
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="130"/>
-      <c r="T4" s="59"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="57"/>
       <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
       <c r="AE4" s="30"/>
       <c r="AF4" s="30"/>
       <c r="AG4" s="30"/>
       <c r="AH4" s="30"/>
       <c r="AI4" s="30"/>
     </row>
-    <row r="5" spans="1:35" ht="25.5" customHeight="1">
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B5" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="136" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="138" t="s">
+      <c r="M5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="138"/>
-      <c r="O5" s="131" t="s">
+      <c r="N5" s="69"/>
+      <c r="O5" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
       <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
       <c r="AF5" s="30"/>
       <c r="AG5" s="30"/>
       <c r="AH5" s="30"/>
       <c r="AI5" s="30"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1">
+    <row r="6" spans="1:35" ht="19.95" customHeight="1">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -4393,20 +4410,13 @@
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
       <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
       <c r="AF6" s="30"/>
       <c r="AG6" s="30"/>
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
     </row>
-    <row r="7" spans="1:35" ht="18.75" customHeight="1">
+    <row r="7" spans="1:35" ht="19.95" customHeight="1">
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -4418,18 +4428,18 @@
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133" t="s">
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="140"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="71"/>
       <c r="W7" s="36"/>
       <c r="X7" s="36"/>
       <c r="Y7" s="36"/>
@@ -4444,7 +4454,7 @@
       <c r="AH7" s="30"/>
       <c r="AI7" s="30"/>
     </row>
-    <row r="8" spans="1:35" ht="22.5" customHeight="1">
+    <row r="8" spans="1:35" ht="19.95" customHeight="1">
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -4456,16 +4466,16 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="114" t="s">
+      <c r="M8" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="116"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="79"/>
       <c r="W8" s="36"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
@@ -4480,26 +4490,26 @@
       <c r="AH8" s="30"/>
       <c r="AI8" s="30"/>
     </row>
-    <row r="9" spans="1:35" ht="11.25" customHeight="1">
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
+    <row r="9" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
       <c r="V9" s="37"/>
       <c r="W9" s="30"/>
       <c r="X9" s="30"/>
@@ -4515,34 +4525,34 @@
       <c r="AH9" s="30"/>
       <c r="AI9" s="30"/>
     </row>
-    <row r="10" spans="1:35" ht="18" customHeight="1">
-      <c r="B10" s="101" t="s">
+    <row r="10" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B10" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="105" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="74" t="s">
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74" t="s">
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="75"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="101"/>
       <c r="V10" s="37"/>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
@@ -4558,32 +4568,32 @@
       <c r="AH10" s="30"/>
       <c r="AI10" s="30"/>
     </row>
-    <row r="11" spans="1:35" ht="26.25" customHeight="1">
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="108" t="s">
+    <row r="11" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="117" t="s">
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="118"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="120" t="s">
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="122"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="86"/>
       <c r="V11" s="37"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="36"/>
@@ -4595,26 +4605,26 @@
       <c r="AH11" s="36"/>
       <c r="AI11" s="36"/>
     </row>
-    <row r="12" spans="1:35" ht="17.25" customHeight="1">
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
+    <row r="12" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
       <c r="V12" s="37"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
@@ -4626,34 +4636,34 @@
       <c r="AH12" s="30"/>
       <c r="AI12" s="30"/>
     </row>
-    <row r="13" spans="1:35" ht="38.1" customHeight="1">
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98" t="s">
+    <row r="13" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="113" t="s">
+      <c r="K13" s="91"/>
+      <c r="L13" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="M13" s="112"/>
-      <c r="N13" s="111" t="s">
+      <c r="M13" s="106"/>
+      <c r="N13" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="98" t="s">
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="95"/>
-      <c r="T13" s="100"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="92"/>
       <c r="V13" s="37"/>
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
@@ -4665,217 +4675,255 @@
       <c r="AH13" s="30"/>
       <c r="AI13" s="30"/>
     </row>
-    <row r="14" spans="1:35" ht="25.5" customHeight="1">
-      <c r="B14" s="65" t="s">
+    <row r="14" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B14" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="83" t="s">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="87" t="s">
+      <c r="K14" s="125"/>
+      <c r="L14" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="88"/>
-      <c r="N14" s="89" t="s">
+      <c r="M14" s="129"/>
+      <c r="N14" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="60" t="s">
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="S14" s="60"/>
-      <c r="T14" s="61"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="111"/>
       <c r="V14" s="37"/>
     </row>
-    <row r="15" spans="1:35" ht="23.25" customHeight="1">
-      <c r="B15" s="68" t="s">
+    <row r="15" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B15" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="85" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="91" t="s">
+      <c r="K15" s="127"/>
+      <c r="L15" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="92"/>
-      <c r="N15" s="93" t="s">
+      <c r="M15" s="133"/>
+      <c r="N15" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="60" t="s">
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="S15" s="60"/>
-      <c r="T15" s="61"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="111"/>
       <c r="V15" s="37"/>
     </row>
-    <row r="16" spans="1:35" ht="27.75" customHeight="1">
-      <c r="B16" s="79" t="s">
+    <row r="16" spans="1:35" ht="19.95" customHeight="1">
+      <c r="B16" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="62">
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="112">
         <f>SUM(M14:Q15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="63"/>
-      <c r="N16" s="62" t="s">
+      <c r="M16" s="113"/>
+      <c r="N16" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="60" t="s">
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="S16" s="60"/>
-      <c r="T16" s="61"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="111"/>
       <c r="V16" s="37"/>
     </row>
-    <row r="17" spans="2:22" ht="17.25" customHeight="1">
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
+    <row r="17" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
       <c r="V17" s="37"/>
     </row>
-    <row r="18" spans="2:22" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="73" t="s">
+    <row r="18" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B18" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74" t="s">
+      <c r="C18" s="87"/>
+      <c r="D18" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39" t="s">
+      <c r="E18" s="153"/>
+      <c r="F18" s="153" t="s">
         <v>62</v>
       </c>
+      <c r="G18" s="153"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
       <c r="P18" s="35"/>
-      <c r="Q18" s="73" t="s">
+      <c r="Q18" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74" t="s">
+      <c r="R18" s="94"/>
+      <c r="S18" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="T18" s="75"/>
+      <c r="T18" s="155"/>
       <c r="V18" s="37"/>
     </row>
-    <row r="19" spans="2:22" ht="45" customHeight="1">
-      <c r="B19" s="77"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="40"/>
+    <row r="19" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B19" s="115"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
       <c r="P19" s="38"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="72"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
       <c r="V19" s="37"/>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B20" s="154"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="153"/>
       <c r="V20" s="37"/>
     </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B21" s="159"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="V21" s="37"/>
+    </row>
+    <row r="22" spans="2:22" ht="19.95" customHeight="1">
+      <c r="V22" s="37"/>
+    </row>
+    <row r="23" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="V21" s="37"/>
-    </row>
-    <row r="22" spans="2:22" ht="15" customHeight="1">
-      <c r="D22" s="25" t="s">
+      <c r="V23" s="37"/>
+    </row>
+    <row r="24" spans="2:22" ht="19.95" customHeight="1">
+      <c r="D24" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="V22" s="37"/>
-    </row>
-    <row r="23" spans="2:22" ht="15" customHeight="1">
-      <c r="D23" s="25" t="s">
+      <c r="V24" s="37"/>
+    </row>
+    <row r="25" spans="2:22" ht="19.95" customHeight="1">
+      <c r="D25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="V23" s="37"/>
-    </row>
-    <row r="24" spans="2:22" ht="15" customHeight="1">
-      <c r="D24" s="25" t="s">
+      <c r="V25" s="37"/>
+    </row>
+    <row r="26" spans="2:22" ht="19.95" customHeight="1">
+      <c r="D26" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="V24" s="37"/>
-    </row>
-    <row r="25" spans="2:22" ht="15" customHeight="1">
-      <c r="D25" s="25" t="s">
+      <c r="V26" s="37"/>
+    </row>
+    <row r="27" spans="2:22" ht="19.95" customHeight="1">
+      <c r="D27" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="V25" s="37"/>
-    </row>
-    <row r="26" spans="2:22" ht="15" customHeight="1">
-      <c r="V26" s="37"/>
-    </row>
-    <row r="27" spans="2:22">
       <c r="V27" s="37"/>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" ht="19.95" customHeight="1">
       <c r="V28" s="37"/>
     </row>
     <row r="29" spans="2:22">
@@ -4890,52 +4938,23 @@
     <row r="32" spans="2:22">
       <c r="V32" s="37"/>
     </row>
+    <row r="33" spans="22:22">
+      <c r="V33" s="37"/>
+    </row>
+    <row r="34" spans="22:22">
+      <c r="V34" s="37"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
-  <mergeCells count="58">
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="B9:T9"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:R19"/>
+  <mergeCells count="59">
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="S19:T21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G21"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="N16:Q16"/>
     <mergeCell ref="B14:I14"/>
@@ -4951,24 +4970,60 @@
     <mergeCell ref="N14:Q14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="P7:T7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVC983038:WVJ983038 WLG983038:WLN983038 WBK983038:WBR983038 VRO983038:VRV983038 VHS983038:VHZ983038 UXW983038:UYD983038 UOA983038:UOH983038 UEE983038:UEL983038 TUI983038:TUP983038 TKM983038:TKT983038 TAQ983038:TAX983038 SQU983038:SRB983038 SGY983038:SHF983038 RXC983038:RXJ983038 RNG983038:RNN983038 RDK983038:RDR983038 QTO983038:QTV983038 QJS983038:QJZ983038 PZW983038:QAD983038 PQA983038:PQH983038 PGE983038:PGL983038 OWI983038:OWP983038 OMM983038:OMT983038 OCQ983038:OCX983038 NSU983038:NTB983038 NIY983038:NJF983038 MZC983038:MZJ983038 MPG983038:MPN983038 MFK983038:MFR983038 LVO983038:LVV983038 LLS983038:LLZ983038 LBW983038:LCD983038 KSA983038:KSH983038 KIE983038:KIL983038 JYI983038:JYP983038 JOM983038:JOT983038 JEQ983038:JEX983038 IUU983038:IVB983038 IKY983038:ILF983038 IBC983038:IBJ983038 HRG983038:HRN983038 HHK983038:HHR983038 GXO983038:GXV983038 GNS983038:GNZ983038 GDW983038:GED983038 FUA983038:FUH983038 FKE983038:FKL983038 FAI983038:FAP983038 EQM983038:EQT983038 EGQ983038:EGX983038 DWU983038:DXB983038 DMY983038:DNF983038 DDC983038:DDJ983038 CTG983038:CTN983038 CJK983038:CJR983038 BZO983038:BZV983038 BPS983038:BPZ983038 BFW983038:BGD983038 AWA983038:AWH983038 AME983038:AML983038 ACI983038:ACP983038 SM983038:ST983038 IQ983038:IX983038 E983038:K983038 WVC917502:WVJ917502 WLG917502:WLN917502 WBK917502:WBR917502 VRO917502:VRV917502 VHS917502:VHZ917502 UXW917502:UYD917502 UOA917502:UOH917502 UEE917502:UEL917502 TUI917502:TUP917502 TKM917502:TKT917502 TAQ917502:TAX917502 SQU917502:SRB917502 SGY917502:SHF917502 RXC917502:RXJ917502 RNG917502:RNN917502 RDK917502:RDR917502 QTO917502:QTV917502 QJS917502:QJZ917502 PZW917502:QAD917502 PQA917502:PQH917502 PGE917502:PGL917502 OWI917502:OWP917502 OMM917502:OMT917502 OCQ917502:OCX917502 NSU917502:NTB917502 NIY917502:NJF917502 MZC917502:MZJ917502 MPG917502:MPN917502 MFK917502:MFR917502 LVO917502:LVV917502 LLS917502:LLZ917502 LBW917502:LCD917502 KSA917502:KSH917502 KIE917502:KIL917502 JYI917502:JYP917502 JOM917502:JOT917502 JEQ917502:JEX917502 IUU917502:IVB917502 IKY917502:ILF917502 IBC917502:IBJ917502 HRG917502:HRN917502 HHK917502:HHR917502 GXO917502:GXV917502 GNS917502:GNZ917502 GDW917502:GED917502 FUA917502:FUH917502 FKE917502:FKL917502 FAI917502:FAP917502 EQM917502:EQT917502 EGQ917502:EGX917502 DWU917502:DXB917502 DMY917502:DNF917502 DDC917502:DDJ917502 CTG917502:CTN917502 CJK917502:CJR917502 BZO917502:BZV917502 BPS917502:BPZ917502 BFW917502:BGD917502 AWA917502:AWH917502 AME917502:AML917502 ACI917502:ACP917502 SM917502:ST917502 IQ917502:IX917502 E917502:K917502 WVC851966:WVJ851966 WLG851966:WLN851966 WBK851966:WBR851966 VRO851966:VRV851966 VHS851966:VHZ851966 UXW851966:UYD851966 UOA851966:UOH851966 UEE851966:UEL851966 TUI851966:TUP851966 TKM851966:TKT851966 TAQ851966:TAX851966 SQU851966:SRB851966 SGY851966:SHF851966 RXC851966:RXJ851966 RNG851966:RNN851966 RDK851966:RDR851966 QTO851966:QTV851966 QJS851966:QJZ851966 PZW851966:QAD851966 PQA851966:PQH851966 PGE851966:PGL851966 OWI851966:OWP851966 OMM851966:OMT851966 OCQ851966:OCX851966 NSU851966:NTB851966 NIY851966:NJF851966 MZC851966:MZJ851966 MPG851966:MPN851966 MFK851966:MFR851966 LVO851966:LVV851966 LLS851966:LLZ851966 LBW851966:LCD851966 KSA851966:KSH851966 KIE851966:KIL851966 JYI851966:JYP851966 JOM851966:JOT851966 JEQ851966:JEX851966 IUU851966:IVB851966 IKY851966:ILF851966 IBC851966:IBJ851966 HRG851966:HRN851966 HHK851966:HHR851966 GXO851966:GXV851966 GNS851966:GNZ851966 GDW851966:GED851966 FUA851966:FUH851966 FKE851966:FKL851966 FAI851966:FAP851966 EQM851966:EQT851966 EGQ851966:EGX851966 DWU851966:DXB851966 DMY851966:DNF851966 DDC851966:DDJ851966 CTG851966:CTN851966 CJK851966:CJR851966 BZO851966:BZV851966 BPS851966:BPZ851966 BFW851966:BGD851966 AWA851966:AWH851966 AME851966:AML851966 ACI851966:ACP851966 SM851966:ST851966 IQ851966:IX851966 E851966:K851966 WVC786430:WVJ786430 WLG786430:WLN786430 WBK786430:WBR786430 VRO786430:VRV786430 VHS786430:VHZ786430 UXW786430:UYD786430 UOA786430:UOH786430 UEE786430:UEL786430 TUI786430:TUP786430 TKM786430:TKT786430 TAQ786430:TAX786430 SQU786430:SRB786430 SGY786430:SHF786430 RXC786430:RXJ786430 RNG786430:RNN786430 RDK786430:RDR786430 QTO786430:QTV786430 QJS786430:QJZ786430 PZW786430:QAD786430 PQA786430:PQH786430 PGE786430:PGL786430 OWI786430:OWP786430 OMM786430:OMT786430 OCQ786430:OCX786430 NSU786430:NTB786430 NIY786430:NJF786430 MZC786430:MZJ786430 MPG786430:MPN786430 MFK786430:MFR786430 LVO786430:LVV786430 LLS786430:LLZ786430 LBW786430:LCD786430 KSA786430:KSH786430 KIE786430:KIL786430 JYI786430:JYP786430 JOM786430:JOT786430 JEQ786430:JEX786430 IUU786430:IVB786430 IKY786430:ILF786430 IBC786430:IBJ786430 HRG786430:HRN786430 HHK786430:HHR786430 GXO786430:GXV786430 GNS786430:GNZ786430 GDW786430:GED786430 FUA786430:FUH786430 FKE786430:FKL786430 FAI786430:FAP786430 EQM786430:EQT786430 EGQ786430:EGX786430 DWU786430:DXB786430 DMY786430:DNF786430 DDC786430:DDJ786430 CTG786430:CTN786430 CJK786430:CJR786430 BZO786430:BZV786430 BPS786430:BPZ786430 BFW786430:BGD786430 AWA786430:AWH786430 AME786430:AML786430 ACI786430:ACP786430 SM786430:ST786430 IQ786430:IX786430 E786430:K786430 WVC720894:WVJ720894 WLG720894:WLN720894 WBK720894:WBR720894 VRO720894:VRV720894 VHS720894:VHZ720894 UXW720894:UYD720894 UOA720894:UOH720894 UEE720894:UEL720894 TUI720894:TUP720894 TKM720894:TKT720894 TAQ720894:TAX720894 SQU720894:SRB720894 SGY720894:SHF720894 RXC720894:RXJ720894 RNG720894:RNN720894 RDK720894:RDR720894 QTO720894:QTV720894 QJS720894:QJZ720894 PZW720894:QAD720894 PQA720894:PQH720894 PGE720894:PGL720894 OWI720894:OWP720894 OMM720894:OMT720894 OCQ720894:OCX720894 NSU720894:NTB720894 NIY720894:NJF720894 MZC720894:MZJ720894 MPG720894:MPN720894 MFK720894:MFR720894 LVO720894:LVV720894 LLS720894:LLZ720894 LBW720894:LCD720894 KSA720894:KSH720894 KIE720894:KIL720894 JYI720894:JYP720894 JOM720894:JOT720894 JEQ720894:JEX720894 IUU720894:IVB720894 IKY720894:ILF720894 IBC720894:IBJ720894 HRG720894:HRN720894 HHK720894:HHR720894 GXO720894:GXV720894 GNS720894:GNZ720894 GDW720894:GED720894 FUA720894:FUH720894 FKE720894:FKL720894 FAI720894:FAP720894 EQM720894:EQT720894 EGQ720894:EGX720894 DWU720894:DXB720894 DMY720894:DNF720894 DDC720894:DDJ720894 CTG720894:CTN720894 CJK720894:CJR720894 BZO720894:BZV720894 BPS720894:BPZ720894 BFW720894:BGD720894 AWA720894:AWH720894 AME720894:AML720894 ACI720894:ACP720894 SM720894:ST720894 IQ720894:IX720894 E720894:K720894 WVC655358:WVJ655358 WLG655358:WLN655358 WBK655358:WBR655358 VRO655358:VRV655358 VHS655358:VHZ655358 UXW655358:UYD655358 UOA655358:UOH655358 UEE655358:UEL655358 TUI655358:TUP655358 TKM655358:TKT655358 TAQ655358:TAX655358 SQU655358:SRB655358 SGY655358:SHF655358 RXC655358:RXJ655358 RNG655358:RNN655358 RDK655358:RDR655358 QTO655358:QTV655358 QJS655358:QJZ655358 PZW655358:QAD655358 PQA655358:PQH655358 PGE655358:PGL655358 OWI655358:OWP655358 OMM655358:OMT655358 OCQ655358:OCX655358 NSU655358:NTB655358 NIY655358:NJF655358 MZC655358:MZJ655358 MPG655358:MPN655358 MFK655358:MFR655358 LVO655358:LVV655358 LLS655358:LLZ655358 LBW655358:LCD655358 KSA655358:KSH655358 KIE655358:KIL655358 JYI655358:JYP655358 JOM655358:JOT655358 JEQ655358:JEX655358 IUU655358:IVB655358 IKY655358:ILF655358 IBC655358:IBJ655358 HRG655358:HRN655358 HHK655358:HHR655358 GXO655358:GXV655358 GNS655358:GNZ655358 GDW655358:GED655358 FUA655358:FUH655358 FKE655358:FKL655358 FAI655358:FAP655358 EQM655358:EQT655358 EGQ655358:EGX655358 DWU655358:DXB655358 DMY655358:DNF655358 DDC655358:DDJ655358 CTG655358:CTN655358 CJK655358:CJR655358 BZO655358:BZV655358 BPS655358:BPZ655358 BFW655358:BGD655358 AWA655358:AWH655358 AME655358:AML655358 ACI655358:ACP655358 SM655358:ST655358 IQ655358:IX655358 E655358:K655358 WVC589822:WVJ589822 WLG589822:WLN589822 WBK589822:WBR589822 VRO589822:VRV589822 VHS589822:VHZ589822 UXW589822:UYD589822 UOA589822:UOH589822 UEE589822:UEL589822 TUI589822:TUP589822 TKM589822:TKT589822 TAQ589822:TAX589822 SQU589822:SRB589822 SGY589822:SHF589822 RXC589822:RXJ589822 RNG589822:RNN589822 RDK589822:RDR589822 QTO589822:QTV589822 QJS589822:QJZ589822 PZW589822:QAD589822 PQA589822:PQH589822 PGE589822:PGL589822 OWI589822:OWP589822 OMM589822:OMT589822 OCQ589822:OCX589822 NSU589822:NTB589822 NIY589822:NJF589822 MZC589822:MZJ589822 MPG589822:MPN589822 MFK589822:MFR589822 LVO589822:LVV589822 LLS589822:LLZ589822 LBW589822:LCD589822 KSA589822:KSH589822 KIE589822:KIL589822 JYI589822:JYP589822 JOM589822:JOT589822 JEQ589822:JEX589822 IUU589822:IVB589822 IKY589822:ILF589822 IBC589822:IBJ589822 HRG589822:HRN589822 HHK589822:HHR589822 GXO589822:GXV589822 GNS589822:GNZ589822 GDW589822:GED589822 FUA589822:FUH589822 FKE589822:FKL589822 FAI589822:FAP589822 EQM589822:EQT589822 EGQ589822:EGX589822 DWU589822:DXB589822 DMY589822:DNF589822 DDC589822:DDJ589822 CTG589822:CTN589822 CJK589822:CJR589822 BZO589822:BZV589822 BPS589822:BPZ589822 BFW589822:BGD589822 AWA589822:AWH589822 AME589822:AML589822 ACI589822:ACP589822 SM589822:ST589822 IQ589822:IX589822 E589822:K589822 WVC524286:WVJ524286 WLG524286:WLN524286 WBK524286:WBR524286 VRO524286:VRV524286 VHS524286:VHZ524286 UXW524286:UYD524286 UOA524286:UOH524286 UEE524286:UEL524286 TUI524286:TUP524286 TKM524286:TKT524286 TAQ524286:TAX524286 SQU524286:SRB524286 SGY524286:SHF524286 RXC524286:RXJ524286 RNG524286:RNN524286 RDK524286:RDR524286 QTO524286:QTV524286 QJS524286:QJZ524286 PZW524286:QAD524286 PQA524286:PQH524286 PGE524286:PGL524286 OWI524286:OWP524286 OMM524286:OMT524286 OCQ524286:OCX524286 NSU524286:NTB524286 NIY524286:NJF524286 MZC524286:MZJ524286 MPG524286:MPN524286 MFK524286:MFR524286 LVO524286:LVV524286 LLS524286:LLZ524286 LBW524286:LCD524286 KSA524286:KSH524286 KIE524286:KIL524286 JYI524286:JYP524286 JOM524286:JOT524286 JEQ524286:JEX524286 IUU524286:IVB524286 IKY524286:ILF524286 IBC524286:IBJ524286 HRG524286:HRN524286 HHK524286:HHR524286 GXO524286:GXV524286 GNS524286:GNZ524286 GDW524286:GED524286 FUA524286:FUH524286 FKE524286:FKL524286 FAI524286:FAP524286 EQM524286:EQT524286 EGQ524286:EGX524286 DWU524286:DXB524286 DMY524286:DNF524286 DDC524286:DDJ524286 CTG524286:CTN524286 CJK524286:CJR524286 BZO524286:BZV524286 BPS524286:BPZ524286 BFW524286:BGD524286 AWA524286:AWH524286 AME524286:AML524286 ACI524286:ACP524286 SM524286:ST524286 IQ524286:IX524286 E524286:K524286 WVC458750:WVJ458750 WLG458750:WLN458750 WBK458750:WBR458750 VRO458750:VRV458750 VHS458750:VHZ458750 UXW458750:UYD458750 UOA458750:UOH458750 UEE458750:UEL458750 TUI458750:TUP458750 TKM458750:TKT458750 TAQ458750:TAX458750 SQU458750:SRB458750 SGY458750:SHF458750 RXC458750:RXJ458750 RNG458750:RNN458750 RDK458750:RDR458750 QTO458750:QTV458750 QJS458750:QJZ458750 PZW458750:QAD458750 PQA458750:PQH458750 PGE458750:PGL458750 OWI458750:OWP458750 OMM458750:OMT458750 OCQ458750:OCX458750 NSU458750:NTB458750 NIY458750:NJF458750 MZC458750:MZJ458750 MPG458750:MPN458750 MFK458750:MFR458750 LVO458750:LVV458750 LLS458750:LLZ458750 LBW458750:LCD458750 KSA458750:KSH458750 KIE458750:KIL458750 JYI458750:JYP458750 JOM458750:JOT458750 JEQ458750:JEX458750 IUU458750:IVB458750 IKY458750:ILF458750 IBC458750:IBJ458750 HRG458750:HRN458750 HHK458750:HHR458750 GXO458750:GXV458750 GNS458750:GNZ458750 GDW458750:GED458750 FUA458750:FUH458750 FKE458750:FKL458750 FAI458750:FAP458750 EQM458750:EQT458750 EGQ458750:EGX458750 DWU458750:DXB458750 DMY458750:DNF458750 DDC458750:DDJ458750 CTG458750:CTN458750 CJK458750:CJR458750 BZO458750:BZV458750 BPS458750:BPZ458750 BFW458750:BGD458750 AWA458750:AWH458750 AME458750:AML458750 ACI458750:ACP458750 SM458750:ST458750 IQ458750:IX458750 E458750:K458750 WVC393214:WVJ393214 WLG393214:WLN393214 WBK393214:WBR393214 VRO393214:VRV393214 VHS393214:VHZ393214 UXW393214:UYD393214 UOA393214:UOH393214 UEE393214:UEL393214 TUI393214:TUP393214 TKM393214:TKT393214 TAQ393214:TAX393214 SQU393214:SRB393214 SGY393214:SHF393214 RXC393214:RXJ393214 RNG393214:RNN393214 RDK393214:RDR393214 QTO393214:QTV393214 QJS393214:QJZ393214 PZW393214:QAD393214 PQA393214:PQH393214 PGE393214:PGL393214 OWI393214:OWP393214 OMM393214:OMT393214 OCQ393214:OCX393214 NSU393214:NTB393214 NIY393214:NJF393214 MZC393214:MZJ393214 MPG393214:MPN393214 MFK393214:MFR393214 LVO393214:LVV393214 LLS393214:LLZ393214 LBW393214:LCD393214 KSA393214:KSH393214 KIE393214:KIL393214 JYI393214:JYP393214 JOM393214:JOT393214 JEQ393214:JEX393214 IUU393214:IVB393214 IKY393214:ILF393214 IBC393214:IBJ393214 HRG393214:HRN393214 HHK393214:HHR393214 GXO393214:GXV393214 GNS393214:GNZ393214 GDW393214:GED393214 FUA393214:FUH393214 FKE393214:FKL393214 FAI393214:FAP393214 EQM393214:EQT393214 EGQ393214:EGX393214 DWU393214:DXB393214 DMY393214:DNF393214 DDC393214:DDJ393214 CTG393214:CTN393214 CJK393214:CJR393214 BZO393214:BZV393214 BPS393214:BPZ393214 BFW393214:BGD393214 AWA393214:AWH393214 AME393214:AML393214 ACI393214:ACP393214 SM393214:ST393214 IQ393214:IX393214 E393214:K393214 WVC327678:WVJ327678 WLG327678:WLN327678 WBK327678:WBR327678 VRO327678:VRV327678 VHS327678:VHZ327678 UXW327678:UYD327678 UOA327678:UOH327678 UEE327678:UEL327678 TUI327678:TUP327678 TKM327678:TKT327678 TAQ327678:TAX327678 SQU327678:SRB327678 SGY327678:SHF327678 RXC327678:RXJ327678 RNG327678:RNN327678 RDK327678:RDR327678 QTO327678:QTV327678 QJS327678:QJZ327678 PZW327678:QAD327678 PQA327678:PQH327678 PGE327678:PGL327678 OWI327678:OWP327678 OMM327678:OMT327678 OCQ327678:OCX327678 NSU327678:NTB327678 NIY327678:NJF327678 MZC327678:MZJ327678 MPG327678:MPN327678 MFK327678:MFR327678 LVO327678:LVV327678 LLS327678:LLZ327678 LBW327678:LCD327678 KSA327678:KSH327678 KIE327678:KIL327678 JYI327678:JYP327678 JOM327678:JOT327678 JEQ327678:JEX327678 IUU327678:IVB327678 IKY327678:ILF327678 IBC327678:IBJ327678 HRG327678:HRN327678 HHK327678:HHR327678 GXO327678:GXV327678 GNS327678:GNZ327678 GDW327678:GED327678 FUA327678:FUH327678 FKE327678:FKL327678 FAI327678:FAP327678 EQM327678:EQT327678 EGQ327678:EGX327678 DWU327678:DXB327678 DMY327678:DNF327678 DDC327678:DDJ327678 CTG327678:CTN327678 CJK327678:CJR327678 BZO327678:BZV327678 BPS327678:BPZ327678 BFW327678:BGD327678 AWA327678:AWH327678 AME327678:AML327678 ACI327678:ACP327678 SM327678:ST327678 IQ327678:IX327678 E327678:K327678 WVC262142:WVJ262142 WLG262142:WLN262142 WBK262142:WBR262142 VRO262142:VRV262142 VHS262142:VHZ262142 UXW262142:UYD262142 UOA262142:UOH262142 UEE262142:UEL262142 TUI262142:TUP262142 TKM262142:TKT262142 TAQ262142:TAX262142 SQU262142:SRB262142 SGY262142:SHF262142 RXC262142:RXJ262142 RNG262142:RNN262142 RDK262142:RDR262142 QTO262142:QTV262142 QJS262142:QJZ262142 PZW262142:QAD262142 PQA262142:PQH262142 PGE262142:PGL262142 OWI262142:OWP262142 OMM262142:OMT262142 OCQ262142:OCX262142 NSU262142:NTB262142 NIY262142:NJF262142 MZC262142:MZJ262142 MPG262142:MPN262142 MFK262142:MFR262142 LVO262142:LVV262142 LLS262142:LLZ262142 LBW262142:LCD262142 KSA262142:KSH262142 KIE262142:KIL262142 JYI262142:JYP262142 JOM262142:JOT262142 JEQ262142:JEX262142 IUU262142:IVB262142 IKY262142:ILF262142 IBC262142:IBJ262142 HRG262142:HRN262142 HHK262142:HHR262142 GXO262142:GXV262142 GNS262142:GNZ262142 GDW262142:GED262142 FUA262142:FUH262142 FKE262142:FKL262142 FAI262142:FAP262142 EQM262142:EQT262142 EGQ262142:EGX262142 DWU262142:DXB262142 DMY262142:DNF262142 DDC262142:DDJ262142 CTG262142:CTN262142 CJK262142:CJR262142 BZO262142:BZV262142 BPS262142:BPZ262142 BFW262142:BGD262142 AWA262142:AWH262142 AME262142:AML262142 ACI262142:ACP262142 SM262142:ST262142 IQ262142:IX262142 E262142:K262142 WVC196606:WVJ196606 WLG196606:WLN196606 WBK196606:WBR196606 VRO196606:VRV196606 VHS196606:VHZ196606 UXW196606:UYD196606 UOA196606:UOH196606 UEE196606:UEL196606 TUI196606:TUP196606 TKM196606:TKT196606 TAQ196606:TAX196606 SQU196606:SRB196606 SGY196606:SHF196606 RXC196606:RXJ196606 RNG196606:RNN196606 RDK196606:RDR196606 QTO196606:QTV196606 QJS196606:QJZ196606 PZW196606:QAD196606 PQA196606:PQH196606 PGE196606:PGL196606 OWI196606:OWP196606 OMM196606:OMT196606 OCQ196606:OCX196606 NSU196606:NTB196606 NIY196606:NJF196606 MZC196606:MZJ196606 MPG196606:MPN196606 MFK196606:MFR196606 LVO196606:LVV196606 LLS196606:LLZ196606 LBW196606:LCD196606 KSA196606:KSH196606 KIE196606:KIL196606 JYI196606:JYP196606 JOM196606:JOT196606 JEQ196606:JEX196606 IUU196606:IVB196606 IKY196606:ILF196606 IBC196606:IBJ196606 HRG196606:HRN196606 HHK196606:HHR196606 GXO196606:GXV196606 GNS196606:GNZ196606 GDW196606:GED196606 FUA196606:FUH196606 FKE196606:FKL196606 FAI196606:FAP196606 EQM196606:EQT196606 EGQ196606:EGX196606 DWU196606:DXB196606 DMY196606:DNF196606 DDC196606:DDJ196606 CTG196606:CTN196606 CJK196606:CJR196606 BZO196606:BZV196606 BPS196606:BPZ196606 BFW196606:BGD196606 AWA196606:AWH196606 AME196606:AML196606 ACI196606:ACP196606 SM196606:ST196606 IQ196606:IX196606 E196606:K196606 WVC131070:WVJ131070 WLG131070:WLN131070 WBK131070:WBR131070 VRO131070:VRV131070 VHS131070:VHZ131070 UXW131070:UYD131070 UOA131070:UOH131070 UEE131070:UEL131070 TUI131070:TUP131070 TKM131070:TKT131070 TAQ131070:TAX131070 SQU131070:SRB131070 SGY131070:SHF131070 RXC131070:RXJ131070 RNG131070:RNN131070 RDK131070:RDR131070 QTO131070:QTV131070 QJS131070:QJZ131070 PZW131070:QAD131070 PQA131070:PQH131070 PGE131070:PGL131070 OWI131070:OWP131070 OMM131070:OMT131070 OCQ131070:OCX131070 NSU131070:NTB131070 NIY131070:NJF131070 MZC131070:MZJ131070 MPG131070:MPN131070 MFK131070:MFR131070 LVO131070:LVV131070 LLS131070:LLZ131070 LBW131070:LCD131070 KSA131070:KSH131070 KIE131070:KIL131070 JYI131070:JYP131070 JOM131070:JOT131070 JEQ131070:JEX131070 IUU131070:IVB131070 IKY131070:ILF131070 IBC131070:IBJ131070 HRG131070:HRN131070 HHK131070:HHR131070 GXO131070:GXV131070 GNS131070:GNZ131070 GDW131070:GED131070 FUA131070:FUH131070 FKE131070:FKL131070 FAI131070:FAP131070 EQM131070:EQT131070 EGQ131070:EGX131070 DWU131070:DXB131070 DMY131070:DNF131070 DDC131070:DDJ131070 CTG131070:CTN131070 CJK131070:CJR131070 BZO131070:BZV131070 BPS131070:BPZ131070 BFW131070:BGD131070 AWA131070:AWH131070 AME131070:AML131070 ACI131070:ACP131070 SM131070:ST131070 IQ131070:IX131070 E131070:K131070 WVC65534:WVJ65534 WLG65534:WLN65534 WBK65534:WBR65534 VRO65534:VRV65534 VHS65534:VHZ65534 UXW65534:UYD65534 UOA65534:UOH65534 UEE65534:UEL65534 TUI65534:TUP65534 TKM65534:TKT65534 TAQ65534:TAX65534 SQU65534:SRB65534 SGY65534:SHF65534 RXC65534:RXJ65534 RNG65534:RNN65534 RDK65534:RDR65534 QTO65534:QTV65534 QJS65534:QJZ65534 PZW65534:QAD65534 PQA65534:PQH65534 PGE65534:PGL65534 OWI65534:OWP65534 OMM65534:OMT65534 OCQ65534:OCX65534 NSU65534:NTB65534 NIY65534:NJF65534 MZC65534:MZJ65534 MPG65534:MPN65534 MFK65534:MFR65534 LVO65534:LVV65534 LLS65534:LLZ65534 LBW65534:LCD65534 KSA65534:KSH65534 KIE65534:KIL65534 JYI65534:JYP65534 JOM65534:JOT65534 JEQ65534:JEX65534 IUU65534:IVB65534 IKY65534:ILF65534 IBC65534:IBJ65534 HRG65534:HRN65534 HHK65534:HHR65534 GXO65534:GXV65534 GNS65534:GNZ65534 GDW65534:GED65534 FUA65534:FUH65534 FKE65534:FKL65534 FAI65534:FAP65534 EQM65534:EQT65534 EGQ65534:EGX65534 DWU65534:DXB65534 DMY65534:DNF65534 DDC65534:DDJ65534 CTG65534:CTN65534 CJK65534:CJR65534 BZO65534:BZV65534 BPS65534:BPZ65534 BFW65534:BGD65534 AWA65534:AWH65534 AME65534:AML65534 ACI65534:ACP65534 SM65534:ST65534 IQ65534:IX65534 E65534:K65534 WVC4:WVJ4 WLG4:WLN4 WBK4:WBR4 VRO4:VRV4 VHS4:VHZ4 UXW4:UYD4 UOA4:UOH4 UEE4:UEL4 TUI4:TUP4 TKM4:TKT4 TAQ4:TAX4 SQU4:SRB4 SGY4:SHF4 RXC4:RXJ4 RNG4:RNN4 RDK4:RDR4 QTO4:QTV4 QJS4:QJZ4 PZW4:QAD4 PQA4:PQH4 PGE4:PGL4 OWI4:OWP4 OMM4:OMT4 OCQ4:OCX4 NSU4:NTB4 NIY4:NJF4 MZC4:MZJ4 MPG4:MPN4 MFK4:MFR4 LVO4:LVV4 LLS4:LLZ4 LBW4:LCD4 KSA4:KSH4 KIE4:KIL4 JYI4:JYP4 JOM4:JOT4 JEQ4:JEX4 IUU4:IVB4 IKY4:ILF4 IBC4:IBJ4 HRG4:HRN4 HHK4:HHR4 GXO4:GXV4 GNS4:GNZ4 GDW4:GED4 FUA4:FUH4 FKE4:FKL4 FAI4:FAP4 EQM4:EQT4 EGQ4:EGX4 DWU4:DXB4 DMY4:DNF4 DDC4:DDJ4 CTG4:CTN4 CJK4:CJR4 BZO4:BZV4 BPS4:BPZ4 BFW4:BGD4 AWA4:AWH4 AME4:AML4 ACI4:ACP4 SM4:ST4 IQ4:IX4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVC983040:WVJ983040 WLG983040:WLN983040 WBK983040:WBR983040 VRO983040:VRV983040 VHS983040:VHZ983040 UXW983040:UYD983040 UOA983040:UOH983040 UEE983040:UEL983040 TUI983040:TUP983040 TKM983040:TKT983040 TAQ983040:TAX983040 SQU983040:SRB983040 SGY983040:SHF983040 RXC983040:RXJ983040 RNG983040:RNN983040 RDK983040:RDR983040 QTO983040:QTV983040 QJS983040:QJZ983040 PZW983040:QAD983040 PQA983040:PQH983040 PGE983040:PGL983040 OWI983040:OWP983040 OMM983040:OMT983040 OCQ983040:OCX983040 NSU983040:NTB983040 NIY983040:NJF983040 MZC983040:MZJ983040 MPG983040:MPN983040 MFK983040:MFR983040 LVO983040:LVV983040 LLS983040:LLZ983040 LBW983040:LCD983040 KSA983040:KSH983040 KIE983040:KIL983040 JYI983040:JYP983040 JOM983040:JOT983040 JEQ983040:JEX983040 IUU983040:IVB983040 IKY983040:ILF983040 IBC983040:IBJ983040 HRG983040:HRN983040 HHK983040:HHR983040 GXO983040:GXV983040 GNS983040:GNZ983040 GDW983040:GED983040 FUA983040:FUH983040 FKE983040:FKL983040 FAI983040:FAP983040 EQM983040:EQT983040 EGQ983040:EGX983040 DWU983040:DXB983040 DMY983040:DNF983040 DDC983040:DDJ983040 CTG983040:CTN983040 CJK983040:CJR983040 BZO983040:BZV983040 BPS983040:BPZ983040 BFW983040:BGD983040 AWA983040:AWH983040 AME983040:AML983040 ACI983040:ACP983040 SM983040:ST983040 IQ983040:IX983040 E983040:K983040 WVC917504:WVJ917504 WLG917504:WLN917504 WBK917504:WBR917504 VRO917504:VRV917504 VHS917504:VHZ917504 UXW917504:UYD917504 UOA917504:UOH917504 UEE917504:UEL917504 TUI917504:TUP917504 TKM917504:TKT917504 TAQ917504:TAX917504 SQU917504:SRB917504 SGY917504:SHF917504 RXC917504:RXJ917504 RNG917504:RNN917504 RDK917504:RDR917504 QTO917504:QTV917504 QJS917504:QJZ917504 PZW917504:QAD917504 PQA917504:PQH917504 PGE917504:PGL917504 OWI917504:OWP917504 OMM917504:OMT917504 OCQ917504:OCX917504 NSU917504:NTB917504 NIY917504:NJF917504 MZC917504:MZJ917504 MPG917504:MPN917504 MFK917504:MFR917504 LVO917504:LVV917504 LLS917504:LLZ917504 LBW917504:LCD917504 KSA917504:KSH917504 KIE917504:KIL917504 JYI917504:JYP917504 JOM917504:JOT917504 JEQ917504:JEX917504 IUU917504:IVB917504 IKY917504:ILF917504 IBC917504:IBJ917504 HRG917504:HRN917504 HHK917504:HHR917504 GXO917504:GXV917504 GNS917504:GNZ917504 GDW917504:GED917504 FUA917504:FUH917504 FKE917504:FKL917504 FAI917504:FAP917504 EQM917504:EQT917504 EGQ917504:EGX917504 DWU917504:DXB917504 DMY917504:DNF917504 DDC917504:DDJ917504 CTG917504:CTN917504 CJK917504:CJR917504 BZO917504:BZV917504 BPS917504:BPZ917504 BFW917504:BGD917504 AWA917504:AWH917504 AME917504:AML917504 ACI917504:ACP917504 SM917504:ST917504 IQ917504:IX917504 E917504:K917504 WVC851968:WVJ851968 WLG851968:WLN851968 WBK851968:WBR851968 VRO851968:VRV851968 VHS851968:VHZ851968 UXW851968:UYD851968 UOA851968:UOH851968 UEE851968:UEL851968 TUI851968:TUP851968 TKM851968:TKT851968 TAQ851968:TAX851968 SQU851968:SRB851968 SGY851968:SHF851968 RXC851968:RXJ851968 RNG851968:RNN851968 RDK851968:RDR851968 QTO851968:QTV851968 QJS851968:QJZ851968 PZW851968:QAD851968 PQA851968:PQH851968 PGE851968:PGL851968 OWI851968:OWP851968 OMM851968:OMT851968 OCQ851968:OCX851968 NSU851968:NTB851968 NIY851968:NJF851968 MZC851968:MZJ851968 MPG851968:MPN851968 MFK851968:MFR851968 LVO851968:LVV851968 LLS851968:LLZ851968 LBW851968:LCD851968 KSA851968:KSH851968 KIE851968:KIL851968 JYI851968:JYP851968 JOM851968:JOT851968 JEQ851968:JEX851968 IUU851968:IVB851968 IKY851968:ILF851968 IBC851968:IBJ851968 HRG851968:HRN851968 HHK851968:HHR851968 GXO851968:GXV851968 GNS851968:GNZ851968 GDW851968:GED851968 FUA851968:FUH851968 FKE851968:FKL851968 FAI851968:FAP851968 EQM851968:EQT851968 EGQ851968:EGX851968 DWU851968:DXB851968 DMY851968:DNF851968 DDC851968:DDJ851968 CTG851968:CTN851968 CJK851968:CJR851968 BZO851968:BZV851968 BPS851968:BPZ851968 BFW851968:BGD851968 AWA851968:AWH851968 AME851968:AML851968 ACI851968:ACP851968 SM851968:ST851968 IQ851968:IX851968 E851968:K851968 WVC786432:WVJ786432 WLG786432:WLN786432 WBK786432:WBR786432 VRO786432:VRV786432 VHS786432:VHZ786432 UXW786432:UYD786432 UOA786432:UOH786432 UEE786432:UEL786432 TUI786432:TUP786432 TKM786432:TKT786432 TAQ786432:TAX786432 SQU786432:SRB786432 SGY786432:SHF786432 RXC786432:RXJ786432 RNG786432:RNN786432 RDK786432:RDR786432 QTO786432:QTV786432 QJS786432:QJZ786432 PZW786432:QAD786432 PQA786432:PQH786432 PGE786432:PGL786432 OWI786432:OWP786432 OMM786432:OMT786432 OCQ786432:OCX786432 NSU786432:NTB786432 NIY786432:NJF786432 MZC786432:MZJ786432 MPG786432:MPN786432 MFK786432:MFR786432 LVO786432:LVV786432 LLS786432:LLZ786432 LBW786432:LCD786432 KSA786432:KSH786432 KIE786432:KIL786432 JYI786432:JYP786432 JOM786432:JOT786432 JEQ786432:JEX786432 IUU786432:IVB786432 IKY786432:ILF786432 IBC786432:IBJ786432 HRG786432:HRN786432 HHK786432:HHR786432 GXO786432:GXV786432 GNS786432:GNZ786432 GDW786432:GED786432 FUA786432:FUH786432 FKE786432:FKL786432 FAI786432:FAP786432 EQM786432:EQT786432 EGQ786432:EGX786432 DWU786432:DXB786432 DMY786432:DNF786432 DDC786432:DDJ786432 CTG786432:CTN786432 CJK786432:CJR786432 BZO786432:BZV786432 BPS786432:BPZ786432 BFW786432:BGD786432 AWA786432:AWH786432 AME786432:AML786432 ACI786432:ACP786432 SM786432:ST786432 IQ786432:IX786432 E786432:K786432 WVC720896:WVJ720896 WLG720896:WLN720896 WBK720896:WBR720896 VRO720896:VRV720896 VHS720896:VHZ720896 UXW720896:UYD720896 UOA720896:UOH720896 UEE720896:UEL720896 TUI720896:TUP720896 TKM720896:TKT720896 TAQ720896:TAX720896 SQU720896:SRB720896 SGY720896:SHF720896 RXC720896:RXJ720896 RNG720896:RNN720896 RDK720896:RDR720896 QTO720896:QTV720896 QJS720896:QJZ720896 PZW720896:QAD720896 PQA720896:PQH720896 PGE720896:PGL720896 OWI720896:OWP720896 OMM720896:OMT720896 OCQ720896:OCX720896 NSU720896:NTB720896 NIY720896:NJF720896 MZC720896:MZJ720896 MPG720896:MPN720896 MFK720896:MFR720896 LVO720896:LVV720896 LLS720896:LLZ720896 LBW720896:LCD720896 KSA720896:KSH720896 KIE720896:KIL720896 JYI720896:JYP720896 JOM720896:JOT720896 JEQ720896:JEX720896 IUU720896:IVB720896 IKY720896:ILF720896 IBC720896:IBJ720896 HRG720896:HRN720896 HHK720896:HHR720896 GXO720896:GXV720896 GNS720896:GNZ720896 GDW720896:GED720896 FUA720896:FUH720896 FKE720896:FKL720896 FAI720896:FAP720896 EQM720896:EQT720896 EGQ720896:EGX720896 DWU720896:DXB720896 DMY720896:DNF720896 DDC720896:DDJ720896 CTG720896:CTN720896 CJK720896:CJR720896 BZO720896:BZV720896 BPS720896:BPZ720896 BFW720896:BGD720896 AWA720896:AWH720896 AME720896:AML720896 ACI720896:ACP720896 SM720896:ST720896 IQ720896:IX720896 E720896:K720896 WVC655360:WVJ655360 WLG655360:WLN655360 WBK655360:WBR655360 VRO655360:VRV655360 VHS655360:VHZ655360 UXW655360:UYD655360 UOA655360:UOH655360 UEE655360:UEL655360 TUI655360:TUP655360 TKM655360:TKT655360 TAQ655360:TAX655360 SQU655360:SRB655360 SGY655360:SHF655360 RXC655360:RXJ655360 RNG655360:RNN655360 RDK655360:RDR655360 QTO655360:QTV655360 QJS655360:QJZ655360 PZW655360:QAD655360 PQA655360:PQH655360 PGE655360:PGL655360 OWI655360:OWP655360 OMM655360:OMT655360 OCQ655360:OCX655360 NSU655360:NTB655360 NIY655360:NJF655360 MZC655360:MZJ655360 MPG655360:MPN655360 MFK655360:MFR655360 LVO655360:LVV655360 LLS655360:LLZ655360 LBW655360:LCD655360 KSA655360:KSH655360 KIE655360:KIL655360 JYI655360:JYP655360 JOM655360:JOT655360 JEQ655360:JEX655360 IUU655360:IVB655360 IKY655360:ILF655360 IBC655360:IBJ655360 HRG655360:HRN655360 HHK655360:HHR655360 GXO655360:GXV655360 GNS655360:GNZ655360 GDW655360:GED655360 FUA655360:FUH655360 FKE655360:FKL655360 FAI655360:FAP655360 EQM655360:EQT655360 EGQ655360:EGX655360 DWU655360:DXB655360 DMY655360:DNF655360 DDC655360:DDJ655360 CTG655360:CTN655360 CJK655360:CJR655360 BZO655360:BZV655360 BPS655360:BPZ655360 BFW655360:BGD655360 AWA655360:AWH655360 AME655360:AML655360 ACI655360:ACP655360 SM655360:ST655360 IQ655360:IX655360 E655360:K655360 WVC589824:WVJ589824 WLG589824:WLN589824 WBK589824:WBR589824 VRO589824:VRV589824 VHS589824:VHZ589824 UXW589824:UYD589824 UOA589824:UOH589824 UEE589824:UEL589824 TUI589824:TUP589824 TKM589824:TKT589824 TAQ589824:TAX589824 SQU589824:SRB589824 SGY589824:SHF589824 RXC589824:RXJ589824 RNG589824:RNN589824 RDK589824:RDR589824 QTO589824:QTV589824 QJS589824:QJZ589824 PZW589824:QAD589824 PQA589824:PQH589824 PGE589824:PGL589824 OWI589824:OWP589824 OMM589824:OMT589824 OCQ589824:OCX589824 NSU589824:NTB589824 NIY589824:NJF589824 MZC589824:MZJ589824 MPG589824:MPN589824 MFK589824:MFR589824 LVO589824:LVV589824 LLS589824:LLZ589824 LBW589824:LCD589824 KSA589824:KSH589824 KIE589824:KIL589824 JYI589824:JYP589824 JOM589824:JOT589824 JEQ589824:JEX589824 IUU589824:IVB589824 IKY589824:ILF589824 IBC589824:IBJ589824 HRG589824:HRN589824 HHK589824:HHR589824 GXO589824:GXV589824 GNS589824:GNZ589824 GDW589824:GED589824 FUA589824:FUH589824 FKE589824:FKL589824 FAI589824:FAP589824 EQM589824:EQT589824 EGQ589824:EGX589824 DWU589824:DXB589824 DMY589824:DNF589824 DDC589824:DDJ589824 CTG589824:CTN589824 CJK589824:CJR589824 BZO589824:BZV589824 BPS589824:BPZ589824 BFW589824:BGD589824 AWA589824:AWH589824 AME589824:AML589824 ACI589824:ACP589824 SM589824:ST589824 IQ589824:IX589824 E589824:K589824 WVC524288:WVJ524288 WLG524288:WLN524288 WBK524288:WBR524288 VRO524288:VRV524288 VHS524288:VHZ524288 UXW524288:UYD524288 UOA524288:UOH524288 UEE524288:UEL524288 TUI524288:TUP524288 TKM524288:TKT524288 TAQ524288:TAX524288 SQU524288:SRB524288 SGY524288:SHF524288 RXC524288:RXJ524288 RNG524288:RNN524288 RDK524288:RDR524288 QTO524288:QTV524288 QJS524288:QJZ524288 PZW524288:QAD524288 PQA524288:PQH524288 PGE524288:PGL524288 OWI524288:OWP524288 OMM524288:OMT524288 OCQ524288:OCX524288 NSU524288:NTB524288 NIY524288:NJF524288 MZC524288:MZJ524288 MPG524288:MPN524288 MFK524288:MFR524288 LVO524288:LVV524288 LLS524288:LLZ524288 LBW524288:LCD524288 KSA524288:KSH524288 KIE524288:KIL524288 JYI524288:JYP524288 JOM524288:JOT524288 JEQ524288:JEX524288 IUU524288:IVB524288 IKY524288:ILF524288 IBC524288:IBJ524288 HRG524288:HRN524288 HHK524288:HHR524288 GXO524288:GXV524288 GNS524288:GNZ524288 GDW524288:GED524288 FUA524288:FUH524288 FKE524288:FKL524288 FAI524288:FAP524288 EQM524288:EQT524288 EGQ524288:EGX524288 DWU524288:DXB524288 DMY524288:DNF524288 DDC524288:DDJ524288 CTG524288:CTN524288 CJK524288:CJR524288 BZO524288:BZV524288 BPS524288:BPZ524288 BFW524288:BGD524288 AWA524288:AWH524288 AME524288:AML524288 ACI524288:ACP524288 SM524288:ST524288 IQ524288:IX524288 E524288:K524288 WVC458752:WVJ458752 WLG458752:WLN458752 WBK458752:WBR458752 VRO458752:VRV458752 VHS458752:VHZ458752 UXW458752:UYD458752 UOA458752:UOH458752 UEE458752:UEL458752 TUI458752:TUP458752 TKM458752:TKT458752 TAQ458752:TAX458752 SQU458752:SRB458752 SGY458752:SHF458752 RXC458752:RXJ458752 RNG458752:RNN458752 RDK458752:RDR458752 QTO458752:QTV458752 QJS458752:QJZ458752 PZW458752:QAD458752 PQA458752:PQH458752 PGE458752:PGL458752 OWI458752:OWP458752 OMM458752:OMT458752 OCQ458752:OCX458752 NSU458752:NTB458752 NIY458752:NJF458752 MZC458752:MZJ458752 MPG458752:MPN458752 MFK458752:MFR458752 LVO458752:LVV458752 LLS458752:LLZ458752 LBW458752:LCD458752 KSA458752:KSH458752 KIE458752:KIL458752 JYI458752:JYP458752 JOM458752:JOT458752 JEQ458752:JEX458752 IUU458752:IVB458752 IKY458752:ILF458752 IBC458752:IBJ458752 HRG458752:HRN458752 HHK458752:HHR458752 GXO458752:GXV458752 GNS458752:GNZ458752 GDW458752:GED458752 FUA458752:FUH458752 FKE458752:FKL458752 FAI458752:FAP458752 EQM458752:EQT458752 EGQ458752:EGX458752 DWU458752:DXB458752 DMY458752:DNF458752 DDC458752:DDJ458752 CTG458752:CTN458752 CJK458752:CJR458752 BZO458752:BZV458752 BPS458752:BPZ458752 BFW458752:BGD458752 AWA458752:AWH458752 AME458752:AML458752 ACI458752:ACP458752 SM458752:ST458752 IQ458752:IX458752 E458752:K458752 WVC393216:WVJ393216 WLG393216:WLN393216 WBK393216:WBR393216 VRO393216:VRV393216 VHS393216:VHZ393216 UXW393216:UYD393216 UOA393216:UOH393216 UEE393216:UEL393216 TUI393216:TUP393216 TKM393216:TKT393216 TAQ393216:TAX393216 SQU393216:SRB393216 SGY393216:SHF393216 RXC393216:RXJ393216 RNG393216:RNN393216 RDK393216:RDR393216 QTO393216:QTV393216 QJS393216:QJZ393216 PZW393216:QAD393216 PQA393216:PQH393216 PGE393216:PGL393216 OWI393216:OWP393216 OMM393216:OMT393216 OCQ393216:OCX393216 NSU393216:NTB393216 NIY393216:NJF393216 MZC393216:MZJ393216 MPG393216:MPN393216 MFK393216:MFR393216 LVO393216:LVV393216 LLS393216:LLZ393216 LBW393216:LCD393216 KSA393216:KSH393216 KIE393216:KIL393216 JYI393216:JYP393216 JOM393216:JOT393216 JEQ393216:JEX393216 IUU393216:IVB393216 IKY393216:ILF393216 IBC393216:IBJ393216 HRG393216:HRN393216 HHK393216:HHR393216 GXO393216:GXV393216 GNS393216:GNZ393216 GDW393216:GED393216 FUA393216:FUH393216 FKE393216:FKL393216 FAI393216:FAP393216 EQM393216:EQT393216 EGQ393216:EGX393216 DWU393216:DXB393216 DMY393216:DNF393216 DDC393216:DDJ393216 CTG393216:CTN393216 CJK393216:CJR393216 BZO393216:BZV393216 BPS393216:BPZ393216 BFW393216:BGD393216 AWA393216:AWH393216 AME393216:AML393216 ACI393216:ACP393216 SM393216:ST393216 IQ393216:IX393216 E393216:K393216 WVC327680:WVJ327680 WLG327680:WLN327680 WBK327680:WBR327680 VRO327680:VRV327680 VHS327680:VHZ327680 UXW327680:UYD327680 UOA327680:UOH327680 UEE327680:UEL327680 TUI327680:TUP327680 TKM327680:TKT327680 TAQ327680:TAX327680 SQU327680:SRB327680 SGY327680:SHF327680 RXC327680:RXJ327680 RNG327680:RNN327680 RDK327680:RDR327680 QTO327680:QTV327680 QJS327680:QJZ327680 PZW327680:QAD327680 PQA327680:PQH327680 PGE327680:PGL327680 OWI327680:OWP327680 OMM327680:OMT327680 OCQ327680:OCX327680 NSU327680:NTB327680 NIY327680:NJF327680 MZC327680:MZJ327680 MPG327680:MPN327680 MFK327680:MFR327680 LVO327680:LVV327680 LLS327680:LLZ327680 LBW327680:LCD327680 KSA327680:KSH327680 KIE327680:KIL327680 JYI327680:JYP327680 JOM327680:JOT327680 JEQ327680:JEX327680 IUU327680:IVB327680 IKY327680:ILF327680 IBC327680:IBJ327680 HRG327680:HRN327680 HHK327680:HHR327680 GXO327680:GXV327680 GNS327680:GNZ327680 GDW327680:GED327680 FUA327680:FUH327680 FKE327680:FKL327680 FAI327680:FAP327680 EQM327680:EQT327680 EGQ327680:EGX327680 DWU327680:DXB327680 DMY327680:DNF327680 DDC327680:DDJ327680 CTG327680:CTN327680 CJK327680:CJR327680 BZO327680:BZV327680 BPS327680:BPZ327680 BFW327680:BGD327680 AWA327680:AWH327680 AME327680:AML327680 ACI327680:ACP327680 SM327680:ST327680 IQ327680:IX327680 E327680:K327680 WVC262144:WVJ262144 WLG262144:WLN262144 WBK262144:WBR262144 VRO262144:VRV262144 VHS262144:VHZ262144 UXW262144:UYD262144 UOA262144:UOH262144 UEE262144:UEL262144 TUI262144:TUP262144 TKM262144:TKT262144 TAQ262144:TAX262144 SQU262144:SRB262144 SGY262144:SHF262144 RXC262144:RXJ262144 RNG262144:RNN262144 RDK262144:RDR262144 QTO262144:QTV262144 QJS262144:QJZ262144 PZW262144:QAD262144 PQA262144:PQH262144 PGE262144:PGL262144 OWI262144:OWP262144 OMM262144:OMT262144 OCQ262144:OCX262144 NSU262144:NTB262144 NIY262144:NJF262144 MZC262144:MZJ262144 MPG262144:MPN262144 MFK262144:MFR262144 LVO262144:LVV262144 LLS262144:LLZ262144 LBW262144:LCD262144 KSA262144:KSH262144 KIE262144:KIL262144 JYI262144:JYP262144 JOM262144:JOT262144 JEQ262144:JEX262144 IUU262144:IVB262144 IKY262144:ILF262144 IBC262144:IBJ262144 HRG262144:HRN262144 HHK262144:HHR262144 GXO262144:GXV262144 GNS262144:GNZ262144 GDW262144:GED262144 FUA262144:FUH262144 FKE262144:FKL262144 FAI262144:FAP262144 EQM262144:EQT262144 EGQ262144:EGX262144 DWU262144:DXB262144 DMY262144:DNF262144 DDC262144:DDJ262144 CTG262144:CTN262144 CJK262144:CJR262144 BZO262144:BZV262144 BPS262144:BPZ262144 BFW262144:BGD262144 AWA262144:AWH262144 AME262144:AML262144 ACI262144:ACP262144 SM262144:ST262144 IQ262144:IX262144 E262144:K262144 WVC196608:WVJ196608 WLG196608:WLN196608 WBK196608:WBR196608 VRO196608:VRV196608 VHS196608:VHZ196608 UXW196608:UYD196608 UOA196608:UOH196608 UEE196608:UEL196608 TUI196608:TUP196608 TKM196608:TKT196608 TAQ196608:TAX196608 SQU196608:SRB196608 SGY196608:SHF196608 RXC196608:RXJ196608 RNG196608:RNN196608 RDK196608:RDR196608 QTO196608:QTV196608 QJS196608:QJZ196608 PZW196608:QAD196608 PQA196608:PQH196608 PGE196608:PGL196608 OWI196608:OWP196608 OMM196608:OMT196608 OCQ196608:OCX196608 NSU196608:NTB196608 NIY196608:NJF196608 MZC196608:MZJ196608 MPG196608:MPN196608 MFK196608:MFR196608 LVO196608:LVV196608 LLS196608:LLZ196608 LBW196608:LCD196608 KSA196608:KSH196608 KIE196608:KIL196608 JYI196608:JYP196608 JOM196608:JOT196608 JEQ196608:JEX196608 IUU196608:IVB196608 IKY196608:ILF196608 IBC196608:IBJ196608 HRG196608:HRN196608 HHK196608:HHR196608 GXO196608:GXV196608 GNS196608:GNZ196608 GDW196608:GED196608 FUA196608:FUH196608 FKE196608:FKL196608 FAI196608:FAP196608 EQM196608:EQT196608 EGQ196608:EGX196608 DWU196608:DXB196608 DMY196608:DNF196608 DDC196608:DDJ196608 CTG196608:CTN196608 CJK196608:CJR196608 BZO196608:BZV196608 BPS196608:BPZ196608 BFW196608:BGD196608 AWA196608:AWH196608 AME196608:AML196608 ACI196608:ACP196608 SM196608:ST196608 IQ196608:IX196608 E196608:K196608 WVC131072:WVJ131072 WLG131072:WLN131072 WBK131072:WBR131072 VRO131072:VRV131072 VHS131072:VHZ131072 UXW131072:UYD131072 UOA131072:UOH131072 UEE131072:UEL131072 TUI131072:TUP131072 TKM131072:TKT131072 TAQ131072:TAX131072 SQU131072:SRB131072 SGY131072:SHF131072 RXC131072:RXJ131072 RNG131072:RNN131072 RDK131072:RDR131072 QTO131072:QTV131072 QJS131072:QJZ131072 PZW131072:QAD131072 PQA131072:PQH131072 PGE131072:PGL131072 OWI131072:OWP131072 OMM131072:OMT131072 OCQ131072:OCX131072 NSU131072:NTB131072 NIY131072:NJF131072 MZC131072:MZJ131072 MPG131072:MPN131072 MFK131072:MFR131072 LVO131072:LVV131072 LLS131072:LLZ131072 LBW131072:LCD131072 KSA131072:KSH131072 KIE131072:KIL131072 JYI131072:JYP131072 JOM131072:JOT131072 JEQ131072:JEX131072 IUU131072:IVB131072 IKY131072:ILF131072 IBC131072:IBJ131072 HRG131072:HRN131072 HHK131072:HHR131072 GXO131072:GXV131072 GNS131072:GNZ131072 GDW131072:GED131072 FUA131072:FUH131072 FKE131072:FKL131072 FAI131072:FAP131072 EQM131072:EQT131072 EGQ131072:EGX131072 DWU131072:DXB131072 DMY131072:DNF131072 DDC131072:DDJ131072 CTG131072:CTN131072 CJK131072:CJR131072 BZO131072:BZV131072 BPS131072:BPZ131072 BFW131072:BGD131072 AWA131072:AWH131072 AME131072:AML131072 ACI131072:ACP131072 SM131072:ST131072 IQ131072:IX131072 E131072:K131072 WVC65536:WVJ65536 WLG65536:WLN65536 WBK65536:WBR65536 VRO65536:VRV65536 VHS65536:VHZ65536 UXW65536:UYD65536 UOA65536:UOH65536 UEE65536:UEL65536 TUI65536:TUP65536 TKM65536:TKT65536 TAQ65536:TAX65536 SQU65536:SRB65536 SGY65536:SHF65536 RXC65536:RXJ65536 RNG65536:RNN65536 RDK65536:RDR65536 QTO65536:QTV65536 QJS65536:QJZ65536 PZW65536:QAD65536 PQA65536:PQH65536 PGE65536:PGL65536 OWI65536:OWP65536 OMM65536:OMT65536 OCQ65536:OCX65536 NSU65536:NTB65536 NIY65536:NJF65536 MZC65536:MZJ65536 MPG65536:MPN65536 MFK65536:MFR65536 LVO65536:LVV65536 LLS65536:LLZ65536 LBW65536:LCD65536 KSA65536:KSH65536 KIE65536:KIL65536 JYI65536:JYP65536 JOM65536:JOT65536 JEQ65536:JEX65536 IUU65536:IVB65536 IKY65536:ILF65536 IBC65536:IBJ65536 HRG65536:HRN65536 HHK65536:HHR65536 GXO65536:GXV65536 GNS65536:GNZ65536 GDW65536:GED65536 FUA65536:FUH65536 FKE65536:FKL65536 FAI65536:FAP65536 EQM65536:EQT65536 EGQ65536:EGX65536 DWU65536:DXB65536 DMY65536:DNF65536 DDC65536:DDJ65536 CTG65536:CTN65536 CJK65536:CJR65536 BZO65536:BZV65536 BPS65536:BPZ65536 BFW65536:BGD65536 AWA65536:AWH65536 AME65536:AML65536 ACI65536:ACP65536 SM65536:ST65536 IQ65536:IX65536 E65536:K65536 WVC4:WVJ4 WLG4:WLN4 WBK4:WBR4 VRO4:VRV4 VHS4:VHZ4 UXW4:UYD4 UOA4:UOH4 UEE4:UEL4 TUI4:TUP4 TKM4:TKT4 TAQ4:TAX4 SQU4:SRB4 SGY4:SHF4 RXC4:RXJ4 RNG4:RNN4 RDK4:RDR4 QTO4:QTV4 QJS4:QJZ4 PZW4:QAD4 PQA4:PQH4 PGE4:PGL4 OWI4:OWP4 OMM4:OMT4 OCQ4:OCX4 NSU4:NTB4 NIY4:NJF4 MZC4:MZJ4 MPG4:MPN4 MFK4:MFR4 LVO4:LVV4 LLS4:LLZ4 LBW4:LCD4 KSA4:KSH4 KIE4:KIL4 JYI4:JYP4 JOM4:JOT4 JEQ4:JEX4 IUU4:IVB4 IKY4:ILF4 IBC4:IBJ4 HRG4:HRN4 HHK4:HHR4 GXO4:GXV4 GNS4:GNZ4 GDW4:GED4 FUA4:FUH4 FKE4:FKL4 FAI4:FAP4 EQM4:EQT4 EGQ4:EGX4 DWU4:DXB4 DMY4:DNF4 DDC4:DDJ4 CTG4:CTN4 CJK4:CJR4 BZO4:BZV4 BPS4:BPZ4 BFW4:BGD4 AWA4:AWH4 AME4:AML4 ACI4:ACP4 SM4:ST4 IQ4:IX4">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVH983040:WVH983042 F6 SS6:SU6 ACO6:ACQ6 AMK6:AMM6 AWG6:AWI6 BGC6:BGE6 BPY6:BQA6 BZU6:BZW6 CJQ6:CJS6 CTM6:CTO6 DDI6:DDK6 DNE6:DNG6 DXA6:DXC6 EGW6:EGY6 EQS6:EQU6 FAO6:FAQ6 FKK6:FKM6 FUG6:FUI6 GEC6:GEE6 GNY6:GOA6 GXU6:GXW6 HHQ6:HHS6 HRM6:HRO6 IBI6:IBK6 ILE6:ILG6 IVA6:IVC6 JEW6:JEY6 JOS6:JOU6 JYO6:JYQ6 KIK6:KIM6 KSG6:KSI6 LCC6:LCE6 LLY6:LMA6 LVU6:LVW6 MFQ6:MFS6 MPM6:MPO6 MZI6:MZK6 NJE6:NJG6 NTA6:NTC6 OCW6:OCY6 OMS6:OMU6 OWO6:OWQ6 PGK6:PGM6 PQG6:PQI6 QAC6:QAE6 QJY6:QKA6 QTU6:QTW6 RDQ6:RDS6 RNM6:RNO6 RXI6:RXK6 SHE6:SHG6 SRA6:SRC6 TAW6:TAY6 TKS6:TKU6 TUO6:TUQ6 UEK6:UEM6 UOG6:UOI6 UYC6:UYE6 VHY6:VIA6 VRU6:VRW6 WBQ6:WBS6 WLM6:WLO6 WVI6:WVK6 H65536:L65536 IW65536:IY65536 SS65536:SU65536 ACO65536:ACQ65536 AMK65536:AMM65536 AWG65536:AWI65536 BGC65536:BGE65536 BPY65536:BQA65536 BZU65536:BZW65536 CJQ65536:CJS65536 CTM65536:CTO65536 DDI65536:DDK65536 DNE65536:DNG65536 DXA65536:DXC65536 EGW65536:EGY65536 EQS65536:EQU65536 FAO65536:FAQ65536 FKK65536:FKM65536 FUG65536:FUI65536 GEC65536:GEE65536 GNY65536:GOA65536 GXU65536:GXW65536 HHQ65536:HHS65536 HRM65536:HRO65536 IBI65536:IBK65536 ILE65536:ILG65536 IVA65536:IVC65536 JEW65536:JEY65536 JOS65536:JOU65536 JYO65536:JYQ65536 KIK65536:KIM65536 KSG65536:KSI65536 LCC65536:LCE65536 LLY65536:LMA65536 LVU65536:LVW65536 MFQ65536:MFS65536 MPM65536:MPO65536 MZI65536:MZK65536 NJE65536:NJG65536 NTA65536:NTC65536 OCW65536:OCY65536 OMS65536:OMU65536 OWO65536:OWQ65536 PGK65536:PGM65536 PQG65536:PQI65536 QAC65536:QAE65536 QJY65536:QKA65536 QTU65536:QTW65536 RDQ65536:RDS65536 RNM65536:RNO65536 RXI65536:RXK65536 SHE65536:SHG65536 SRA65536:SRC65536 TAW65536:TAY65536 TKS65536:TKU65536 TUO65536:TUQ65536 UEK65536:UEM65536 UOG65536:UOI65536 UYC65536:UYE65536 VHY65536:VIA65536 VRU65536:VRW65536 WBQ65536:WBS65536 WLM65536:WLO65536 WVI65536:WVK65536 H131072:L131072 IW131072:IY131072 SS131072:SU131072 ACO131072:ACQ131072 AMK131072:AMM131072 AWG131072:AWI131072 BGC131072:BGE131072 BPY131072:BQA131072 BZU131072:BZW131072 CJQ131072:CJS131072 CTM131072:CTO131072 DDI131072:DDK131072 DNE131072:DNG131072 DXA131072:DXC131072 EGW131072:EGY131072 EQS131072:EQU131072 FAO131072:FAQ131072 FKK131072:FKM131072 FUG131072:FUI131072 GEC131072:GEE131072 GNY131072:GOA131072 GXU131072:GXW131072 HHQ131072:HHS131072 HRM131072:HRO131072 IBI131072:IBK131072 ILE131072:ILG131072 IVA131072:IVC131072 JEW131072:JEY131072 JOS131072:JOU131072 JYO131072:JYQ131072 KIK131072:KIM131072 KSG131072:KSI131072 LCC131072:LCE131072 LLY131072:LMA131072 LVU131072:LVW131072 MFQ131072:MFS131072 MPM131072:MPO131072 MZI131072:MZK131072 NJE131072:NJG131072 NTA131072:NTC131072 OCW131072:OCY131072 OMS131072:OMU131072 OWO131072:OWQ131072 PGK131072:PGM131072 PQG131072:PQI131072 QAC131072:QAE131072 QJY131072:QKA131072 QTU131072:QTW131072 RDQ131072:RDS131072 RNM131072:RNO131072 RXI131072:RXK131072 SHE131072:SHG131072 SRA131072:SRC131072 TAW131072:TAY131072 TKS131072:TKU131072 TUO131072:TUQ131072 UEK131072:UEM131072 UOG131072:UOI131072 UYC131072:UYE131072 VHY131072:VIA131072 VRU131072:VRW131072 WBQ131072:WBS131072 WLM131072:WLO131072 WVI131072:WVK131072 H196608:L196608 IW196608:IY196608 SS196608:SU196608 ACO196608:ACQ196608 AMK196608:AMM196608 AWG196608:AWI196608 BGC196608:BGE196608 BPY196608:BQA196608 BZU196608:BZW196608 CJQ196608:CJS196608 CTM196608:CTO196608 DDI196608:DDK196608 DNE196608:DNG196608 DXA196608:DXC196608 EGW196608:EGY196608 EQS196608:EQU196608 FAO196608:FAQ196608 FKK196608:FKM196608 FUG196608:FUI196608 GEC196608:GEE196608 GNY196608:GOA196608 GXU196608:GXW196608 HHQ196608:HHS196608 HRM196608:HRO196608 IBI196608:IBK196608 ILE196608:ILG196608 IVA196608:IVC196608 JEW196608:JEY196608 JOS196608:JOU196608 JYO196608:JYQ196608 KIK196608:KIM196608 KSG196608:KSI196608 LCC196608:LCE196608 LLY196608:LMA196608 LVU196608:LVW196608 MFQ196608:MFS196608 MPM196608:MPO196608 MZI196608:MZK196608 NJE196608:NJG196608 NTA196608:NTC196608 OCW196608:OCY196608 OMS196608:OMU196608 OWO196608:OWQ196608 PGK196608:PGM196608 PQG196608:PQI196608 QAC196608:QAE196608 QJY196608:QKA196608 QTU196608:QTW196608 RDQ196608:RDS196608 RNM196608:RNO196608 RXI196608:RXK196608 SHE196608:SHG196608 SRA196608:SRC196608 TAW196608:TAY196608 TKS196608:TKU196608 TUO196608:TUQ196608 UEK196608:UEM196608 UOG196608:UOI196608 UYC196608:UYE196608 VHY196608:VIA196608 VRU196608:VRW196608 WBQ196608:WBS196608 WLM196608:WLO196608 WVI196608:WVK196608 H262144:L262144 IW262144:IY262144 SS262144:SU262144 ACO262144:ACQ262144 AMK262144:AMM262144 AWG262144:AWI262144 BGC262144:BGE262144 BPY262144:BQA262144 BZU262144:BZW262144 CJQ262144:CJS262144 CTM262144:CTO262144 DDI262144:DDK262144 DNE262144:DNG262144 DXA262144:DXC262144 EGW262144:EGY262144 EQS262144:EQU262144 FAO262144:FAQ262144 FKK262144:FKM262144 FUG262144:FUI262144 GEC262144:GEE262144 GNY262144:GOA262144 GXU262144:GXW262144 HHQ262144:HHS262144 HRM262144:HRO262144 IBI262144:IBK262144 ILE262144:ILG262144 IVA262144:IVC262144 JEW262144:JEY262144 JOS262144:JOU262144 JYO262144:JYQ262144 KIK262144:KIM262144 KSG262144:KSI262144 LCC262144:LCE262144 LLY262144:LMA262144 LVU262144:LVW262144 MFQ262144:MFS262144 MPM262144:MPO262144 MZI262144:MZK262144 NJE262144:NJG262144 NTA262144:NTC262144 OCW262144:OCY262144 OMS262144:OMU262144 OWO262144:OWQ262144 PGK262144:PGM262144 PQG262144:PQI262144 QAC262144:QAE262144 QJY262144:QKA262144 QTU262144:QTW262144 RDQ262144:RDS262144 RNM262144:RNO262144 RXI262144:RXK262144 SHE262144:SHG262144 SRA262144:SRC262144 TAW262144:TAY262144 TKS262144:TKU262144 TUO262144:TUQ262144 UEK262144:UEM262144 UOG262144:UOI262144 UYC262144:UYE262144 VHY262144:VIA262144 VRU262144:VRW262144 WBQ262144:WBS262144 WLM262144:WLO262144 WVI262144:WVK262144 H327680:L327680 IW327680:IY327680 SS327680:SU327680 ACO327680:ACQ327680 AMK327680:AMM327680 AWG327680:AWI327680 BGC327680:BGE327680 BPY327680:BQA327680 BZU327680:BZW327680 CJQ327680:CJS327680 CTM327680:CTO327680 DDI327680:DDK327680 DNE327680:DNG327680 DXA327680:DXC327680 EGW327680:EGY327680 EQS327680:EQU327680 FAO327680:FAQ327680 FKK327680:FKM327680 FUG327680:FUI327680 GEC327680:GEE327680 GNY327680:GOA327680 GXU327680:GXW327680 HHQ327680:HHS327680 HRM327680:HRO327680 IBI327680:IBK327680 ILE327680:ILG327680 IVA327680:IVC327680 JEW327680:JEY327680 JOS327680:JOU327680 JYO327680:JYQ327680 KIK327680:KIM327680 KSG327680:KSI327680 LCC327680:LCE327680 LLY327680:LMA327680 LVU327680:LVW327680 MFQ327680:MFS327680 MPM327680:MPO327680 MZI327680:MZK327680 NJE327680:NJG327680 NTA327680:NTC327680 OCW327680:OCY327680 OMS327680:OMU327680 OWO327680:OWQ327680 PGK327680:PGM327680 PQG327680:PQI327680 QAC327680:QAE327680 QJY327680:QKA327680 QTU327680:QTW327680 RDQ327680:RDS327680 RNM327680:RNO327680 RXI327680:RXK327680 SHE327680:SHG327680 SRA327680:SRC327680 TAW327680:TAY327680 TKS327680:TKU327680 TUO327680:TUQ327680 UEK327680:UEM327680 UOG327680:UOI327680 UYC327680:UYE327680 VHY327680:VIA327680 VRU327680:VRW327680 WBQ327680:WBS327680 WLM327680:WLO327680 WVI327680:WVK327680 H393216:L393216 IW393216:IY393216 SS393216:SU393216 ACO393216:ACQ393216 AMK393216:AMM393216 AWG393216:AWI393216 BGC393216:BGE393216 BPY393216:BQA393216 BZU393216:BZW393216 CJQ393216:CJS393216 CTM393216:CTO393216 DDI393216:DDK393216 DNE393216:DNG393216 DXA393216:DXC393216 EGW393216:EGY393216 EQS393216:EQU393216 FAO393216:FAQ393216 FKK393216:FKM393216 FUG393216:FUI393216 GEC393216:GEE393216 GNY393216:GOA393216 GXU393216:GXW393216 HHQ393216:HHS393216 HRM393216:HRO393216 IBI393216:IBK393216 ILE393216:ILG393216 IVA393216:IVC393216 JEW393216:JEY393216 JOS393216:JOU393216 JYO393216:JYQ393216 KIK393216:KIM393216 KSG393216:KSI393216 LCC393216:LCE393216 LLY393216:LMA393216 LVU393216:LVW393216 MFQ393216:MFS393216 MPM393216:MPO393216 MZI393216:MZK393216 NJE393216:NJG393216 NTA393216:NTC393216 OCW393216:OCY393216 OMS393216:OMU393216 OWO393216:OWQ393216 PGK393216:PGM393216 PQG393216:PQI393216 QAC393216:QAE393216 QJY393216:QKA393216 QTU393216:QTW393216 RDQ393216:RDS393216 RNM393216:RNO393216 RXI393216:RXK393216 SHE393216:SHG393216 SRA393216:SRC393216 TAW393216:TAY393216 TKS393216:TKU393216 TUO393216:TUQ393216 UEK393216:UEM393216 UOG393216:UOI393216 UYC393216:UYE393216 VHY393216:VIA393216 VRU393216:VRW393216 WBQ393216:WBS393216 WLM393216:WLO393216 WVI393216:WVK393216 H458752:L458752 IW458752:IY458752 SS458752:SU458752 ACO458752:ACQ458752 AMK458752:AMM458752 AWG458752:AWI458752 BGC458752:BGE458752 BPY458752:BQA458752 BZU458752:BZW458752 CJQ458752:CJS458752 CTM458752:CTO458752 DDI458752:DDK458752 DNE458752:DNG458752 DXA458752:DXC458752 EGW458752:EGY458752 EQS458752:EQU458752 FAO458752:FAQ458752 FKK458752:FKM458752 FUG458752:FUI458752 GEC458752:GEE458752 GNY458752:GOA458752 GXU458752:GXW458752 HHQ458752:HHS458752 HRM458752:HRO458752 IBI458752:IBK458752 ILE458752:ILG458752 IVA458752:IVC458752 JEW458752:JEY458752 JOS458752:JOU458752 JYO458752:JYQ458752 KIK458752:KIM458752 KSG458752:KSI458752 LCC458752:LCE458752 LLY458752:LMA458752 LVU458752:LVW458752 MFQ458752:MFS458752 MPM458752:MPO458752 MZI458752:MZK458752 NJE458752:NJG458752 NTA458752:NTC458752 OCW458752:OCY458752 OMS458752:OMU458752 OWO458752:OWQ458752 PGK458752:PGM458752 PQG458752:PQI458752 QAC458752:QAE458752 QJY458752:QKA458752 QTU458752:QTW458752 RDQ458752:RDS458752 RNM458752:RNO458752 RXI458752:RXK458752 SHE458752:SHG458752 SRA458752:SRC458752 TAW458752:TAY458752 TKS458752:TKU458752 TUO458752:TUQ458752 UEK458752:UEM458752 UOG458752:UOI458752 UYC458752:UYE458752 VHY458752:VIA458752 VRU458752:VRW458752 WBQ458752:WBS458752 WLM458752:WLO458752 WVI458752:WVK458752 H524288:L524288 IW524288:IY524288 SS524288:SU524288 ACO524288:ACQ524288 AMK524288:AMM524288 AWG524288:AWI524288 BGC524288:BGE524288 BPY524288:BQA524288 BZU524288:BZW524288 CJQ524288:CJS524288 CTM524288:CTO524288 DDI524288:DDK524288 DNE524288:DNG524288 DXA524288:DXC524288 EGW524288:EGY524288 EQS524288:EQU524288 FAO524288:FAQ524288 FKK524288:FKM524288 FUG524288:FUI524288 GEC524288:GEE524288 GNY524288:GOA524288 GXU524288:GXW524288 HHQ524288:HHS524288 HRM524288:HRO524288 IBI524288:IBK524288 ILE524288:ILG524288 IVA524288:IVC524288 JEW524288:JEY524288 JOS524288:JOU524288 JYO524288:JYQ524288 KIK524288:KIM524288 KSG524288:KSI524288 LCC524288:LCE524288 LLY524288:LMA524288 LVU524288:LVW524288 MFQ524288:MFS524288 MPM524288:MPO524288 MZI524288:MZK524288 NJE524288:NJG524288 NTA524288:NTC524288 OCW524288:OCY524288 OMS524288:OMU524288 OWO524288:OWQ524288 PGK524288:PGM524288 PQG524288:PQI524288 QAC524288:QAE524288 QJY524288:QKA524288 QTU524288:QTW524288 RDQ524288:RDS524288 RNM524288:RNO524288 RXI524288:RXK524288 SHE524288:SHG524288 SRA524288:SRC524288 TAW524288:TAY524288 TKS524288:TKU524288 TUO524288:TUQ524288 UEK524288:UEM524288 UOG524288:UOI524288 UYC524288:UYE524288 VHY524288:VIA524288 VRU524288:VRW524288 WBQ524288:WBS524288 WLM524288:WLO524288 WVI524288:WVK524288 H589824:L589824 IW589824:IY589824 SS589824:SU589824 ACO589824:ACQ589824 AMK589824:AMM589824 AWG589824:AWI589824 BGC589824:BGE589824 BPY589824:BQA589824 BZU589824:BZW589824 CJQ589824:CJS589824 CTM589824:CTO589824 DDI589824:DDK589824 DNE589824:DNG589824 DXA589824:DXC589824 EGW589824:EGY589824 EQS589824:EQU589824 FAO589824:FAQ589824 FKK589824:FKM589824 FUG589824:FUI589824 GEC589824:GEE589824 GNY589824:GOA589824 GXU589824:GXW589824 HHQ589824:HHS589824 HRM589824:HRO589824 IBI589824:IBK589824 ILE589824:ILG589824 IVA589824:IVC589824 JEW589824:JEY589824 JOS589824:JOU589824 JYO589824:JYQ589824 KIK589824:KIM589824 KSG589824:KSI589824 LCC589824:LCE589824 LLY589824:LMA589824 LVU589824:LVW589824 MFQ589824:MFS589824 MPM589824:MPO589824 MZI589824:MZK589824 NJE589824:NJG589824 NTA589824:NTC589824 OCW589824:OCY589824 OMS589824:OMU589824 OWO589824:OWQ589824 PGK589824:PGM589824 PQG589824:PQI589824 QAC589824:QAE589824 QJY589824:QKA589824 QTU589824:QTW589824 RDQ589824:RDS589824 RNM589824:RNO589824 RXI589824:RXK589824 SHE589824:SHG589824 SRA589824:SRC589824 TAW589824:TAY589824 TKS589824:TKU589824 TUO589824:TUQ589824 UEK589824:UEM589824 UOG589824:UOI589824 UYC589824:UYE589824 VHY589824:VIA589824 VRU589824:VRW589824 WBQ589824:WBS589824 WLM589824:WLO589824 WVI589824:WVK589824 H655360:L655360 IW655360:IY655360 SS655360:SU655360 ACO655360:ACQ655360 AMK655360:AMM655360 AWG655360:AWI655360 BGC655360:BGE655360 BPY655360:BQA655360 BZU655360:BZW655360 CJQ655360:CJS655360 CTM655360:CTO655360 DDI655360:DDK655360 DNE655360:DNG655360 DXA655360:DXC655360 EGW655360:EGY655360 EQS655360:EQU655360 FAO655360:FAQ655360 FKK655360:FKM655360 FUG655360:FUI655360 GEC655360:GEE655360 GNY655360:GOA655360 GXU655360:GXW655360 HHQ655360:HHS655360 HRM655360:HRO655360 IBI655360:IBK655360 ILE655360:ILG655360 IVA655360:IVC655360 JEW655360:JEY655360 JOS655360:JOU655360 JYO655360:JYQ655360 KIK655360:KIM655360 KSG655360:KSI655360 LCC655360:LCE655360 LLY655360:LMA655360 LVU655360:LVW655360 MFQ655360:MFS655360 MPM655360:MPO655360 MZI655360:MZK655360 NJE655360:NJG655360 NTA655360:NTC655360 OCW655360:OCY655360 OMS655360:OMU655360 OWO655360:OWQ655360 PGK655360:PGM655360 PQG655360:PQI655360 QAC655360:QAE655360 QJY655360:QKA655360 QTU655360:QTW655360 RDQ655360:RDS655360 RNM655360:RNO655360 RXI655360:RXK655360 SHE655360:SHG655360 SRA655360:SRC655360 TAW655360:TAY655360 TKS655360:TKU655360 TUO655360:TUQ655360 UEK655360:UEM655360 UOG655360:UOI655360 UYC655360:UYE655360 VHY655360:VIA655360 VRU655360:VRW655360 WBQ655360:WBS655360 WLM655360:WLO655360 WVI655360:WVK655360 H720896:L720896 IW720896:IY720896 SS720896:SU720896 ACO720896:ACQ720896 AMK720896:AMM720896 AWG720896:AWI720896 BGC720896:BGE720896 BPY720896:BQA720896 BZU720896:BZW720896 CJQ720896:CJS720896 CTM720896:CTO720896 DDI720896:DDK720896 DNE720896:DNG720896 DXA720896:DXC720896 EGW720896:EGY720896 EQS720896:EQU720896 FAO720896:FAQ720896 FKK720896:FKM720896 FUG720896:FUI720896 GEC720896:GEE720896 GNY720896:GOA720896 GXU720896:GXW720896 HHQ720896:HHS720896 HRM720896:HRO720896 IBI720896:IBK720896 ILE720896:ILG720896 IVA720896:IVC720896 JEW720896:JEY720896 JOS720896:JOU720896 JYO720896:JYQ720896 KIK720896:KIM720896 KSG720896:KSI720896 LCC720896:LCE720896 LLY720896:LMA720896 LVU720896:LVW720896 MFQ720896:MFS720896 MPM720896:MPO720896 MZI720896:MZK720896 NJE720896:NJG720896 NTA720896:NTC720896 OCW720896:OCY720896 OMS720896:OMU720896 OWO720896:OWQ720896 PGK720896:PGM720896 PQG720896:PQI720896 QAC720896:QAE720896 QJY720896:QKA720896 QTU720896:QTW720896 RDQ720896:RDS720896 RNM720896:RNO720896 RXI720896:RXK720896 SHE720896:SHG720896 SRA720896:SRC720896 TAW720896:TAY720896 TKS720896:TKU720896 TUO720896:TUQ720896 UEK720896:UEM720896 UOG720896:UOI720896 UYC720896:UYE720896 VHY720896:VIA720896 VRU720896:VRW720896 WBQ720896:WBS720896 WLM720896:WLO720896 WVI720896:WVK720896 H786432:L786432 IW786432:IY786432 SS786432:SU786432 ACO786432:ACQ786432 AMK786432:AMM786432 AWG786432:AWI786432 BGC786432:BGE786432 BPY786432:BQA786432 BZU786432:BZW786432 CJQ786432:CJS786432 CTM786432:CTO786432 DDI786432:DDK786432 DNE786432:DNG786432 DXA786432:DXC786432 EGW786432:EGY786432 EQS786432:EQU786432 FAO786432:FAQ786432 FKK786432:FKM786432 FUG786432:FUI786432 GEC786432:GEE786432 GNY786432:GOA786432 GXU786432:GXW786432 HHQ786432:HHS786432 HRM786432:HRO786432 IBI786432:IBK786432 ILE786432:ILG786432 IVA786432:IVC786432 JEW786432:JEY786432 JOS786432:JOU786432 JYO786432:JYQ786432 KIK786432:KIM786432 KSG786432:KSI786432 LCC786432:LCE786432 LLY786432:LMA786432 LVU786432:LVW786432 MFQ786432:MFS786432 MPM786432:MPO786432 MZI786432:MZK786432 NJE786432:NJG786432 NTA786432:NTC786432 OCW786432:OCY786432 OMS786432:OMU786432 OWO786432:OWQ786432 PGK786432:PGM786432 PQG786432:PQI786432 QAC786432:QAE786432 QJY786432:QKA786432 QTU786432:QTW786432 RDQ786432:RDS786432 RNM786432:RNO786432 RXI786432:RXK786432 SHE786432:SHG786432 SRA786432:SRC786432 TAW786432:TAY786432 TKS786432:TKU786432 TUO786432:TUQ786432 UEK786432:UEM786432 UOG786432:UOI786432 UYC786432:UYE786432 VHY786432:VIA786432 VRU786432:VRW786432 WBQ786432:WBS786432 WLM786432:WLO786432 WVI786432:WVK786432 H851968:L851968 IW851968:IY851968 SS851968:SU851968 ACO851968:ACQ851968 AMK851968:AMM851968 AWG851968:AWI851968 BGC851968:BGE851968 BPY851968:BQA851968 BZU851968:BZW851968 CJQ851968:CJS851968 CTM851968:CTO851968 DDI851968:DDK851968 DNE851968:DNG851968 DXA851968:DXC851968 EGW851968:EGY851968 EQS851968:EQU851968 FAO851968:FAQ851968 FKK851968:FKM851968 FUG851968:FUI851968 GEC851968:GEE851968 GNY851968:GOA851968 GXU851968:GXW851968 HHQ851968:HHS851968 HRM851968:HRO851968 IBI851968:IBK851968 ILE851968:ILG851968 IVA851968:IVC851968 JEW851968:JEY851968 JOS851968:JOU851968 JYO851968:JYQ851968 KIK851968:KIM851968 KSG851968:KSI851968 LCC851968:LCE851968 LLY851968:LMA851968 LVU851968:LVW851968 MFQ851968:MFS851968 MPM851968:MPO851968 MZI851968:MZK851968 NJE851968:NJG851968 NTA851968:NTC851968 OCW851968:OCY851968 OMS851968:OMU851968 OWO851968:OWQ851968 PGK851968:PGM851968 PQG851968:PQI851968 QAC851968:QAE851968 QJY851968:QKA851968 QTU851968:QTW851968 RDQ851968:RDS851968 RNM851968:RNO851968 RXI851968:RXK851968 SHE851968:SHG851968 SRA851968:SRC851968 TAW851968:TAY851968 TKS851968:TKU851968 TUO851968:TUQ851968 UEK851968:UEM851968 UOG851968:UOI851968 UYC851968:UYE851968 VHY851968:VIA851968 VRU851968:VRW851968 WBQ851968:WBS851968 WLM851968:WLO851968 WVI851968:WVK851968 H917504:L917504 IW917504:IY917504 SS917504:SU917504 ACO917504:ACQ917504 AMK917504:AMM917504 AWG917504:AWI917504 BGC917504:BGE917504 BPY917504:BQA917504 BZU917504:BZW917504 CJQ917504:CJS917504 CTM917504:CTO917504 DDI917504:DDK917504 DNE917504:DNG917504 DXA917504:DXC917504 EGW917504:EGY917504 EQS917504:EQU917504 FAO917504:FAQ917504 FKK917504:FKM917504 FUG917504:FUI917504 GEC917504:GEE917504 GNY917504:GOA917504 GXU917504:GXW917504 HHQ917504:HHS917504 HRM917504:HRO917504 IBI917504:IBK917504 ILE917504:ILG917504 IVA917504:IVC917504 JEW917504:JEY917504 JOS917504:JOU917504 JYO917504:JYQ917504 KIK917504:KIM917504 KSG917504:KSI917504 LCC917504:LCE917504 LLY917504:LMA917504 LVU917504:LVW917504 MFQ917504:MFS917504 MPM917504:MPO917504 MZI917504:MZK917504 NJE917504:NJG917504 NTA917504:NTC917504 OCW917504:OCY917504 OMS917504:OMU917504 OWO917504:OWQ917504 PGK917504:PGM917504 PQG917504:PQI917504 QAC917504:QAE917504 QJY917504:QKA917504 QTU917504:QTW917504 RDQ917504:RDS917504 RNM917504:RNO917504 RXI917504:RXK917504 SHE917504:SHG917504 SRA917504:SRC917504 TAW917504:TAY917504 TKS917504:TKU917504 TUO917504:TUQ917504 UEK917504:UEM917504 UOG917504:UOI917504 UYC917504:UYE917504 VHY917504:VIA917504 VRU917504:VRW917504 WBQ917504:WBS917504 WLM917504:WLO917504 WVI917504:WVK917504 H983040:L983040 IW983040:IY983040 SS983040:SU983040 ACO983040:ACQ983040 AMK983040:AMM983040 AWG983040:AWI983040 BGC983040:BGE983040 BPY983040:BQA983040 BZU983040:BZW983040 CJQ983040:CJS983040 CTM983040:CTO983040 DDI983040:DDK983040 DNE983040:DNG983040 DXA983040:DXC983040 EGW983040:EGY983040 EQS983040:EQU983040 FAO983040:FAQ983040 FKK983040:FKM983040 FUG983040:FUI983040 GEC983040:GEE983040 GNY983040:GOA983040 GXU983040:GXW983040 HHQ983040:HHS983040 HRM983040:HRO983040 IBI983040:IBK983040 ILE983040:ILG983040 IVA983040:IVC983040 JEW983040:JEY983040 JOS983040:JOU983040 JYO983040:JYQ983040 KIK983040:KIM983040 KSG983040:KSI983040 LCC983040:LCE983040 LLY983040:LMA983040 LVU983040:LVW983040 MFQ983040:MFS983040 MPM983040:MPO983040 MZI983040:MZK983040 NJE983040:NJG983040 NTA983040:NTC983040 OCW983040:OCY983040 OMS983040:OMU983040 OWO983040:OWQ983040 PGK983040:PGM983040 PQG983040:PQI983040 QAC983040:QAE983040 QJY983040:QKA983040 QTU983040:QTW983040 RDQ983040:RDS983040 RNM983040:RNO983040 RXI983040:RXK983040 SHE983040:SHG983040 SRA983040:SRC983040 TAW983040:TAY983040 TKS983040:TKU983040 TUO983040:TUQ983040 UEK983040:UEM983040 UOG983040:UOI983040 UYC983040:UYE983040 VHY983040:VIA983040 VRU983040:VRW983040 WBQ983040:WBS983040 WLM983040:WLO983040 WVI983040:WVK983040 IW6:IY6 IQ6:IR6 SM6:SN6 ACI6:ACJ6 AME6:AMF6 AWA6:AWB6 BFW6:BFX6 BPS6:BPT6 BZO6:BZP6 CJK6:CJL6 CTG6:CTH6 DDC6:DDD6 DMY6:DMZ6 DWU6:DWV6 EGQ6:EGR6 EQM6:EQN6 FAI6:FAJ6 FKE6:FKF6 FUA6:FUB6 GDW6:GDX6 GNS6:GNT6 GXO6:GXP6 HHK6:HHL6 HRG6:HRH6 IBC6:IBD6 IKY6:IKZ6 IUU6:IUV6 JEQ6:JER6 JOM6:JON6 JYI6:JYJ6 KIE6:KIF6 KSA6:KSB6 LBW6:LBX6 LLS6:LLT6 LVO6:LVP6 MFK6:MFL6 MPG6:MPH6 MZC6:MZD6 NIY6:NIZ6 NSU6:NSV6 OCQ6:OCR6 OMM6:OMN6 OWI6:OWJ6 PGE6:PGF6 PQA6:PQB6 PZW6:PZX6 QJS6:QJT6 QTO6:QTP6 RDK6:RDL6 RNG6:RNH6 RXC6:RXD6 SGY6:SGZ6 SQU6:SQV6 TAQ6:TAR6 TKM6:TKN6 TUI6:TUJ6 UEE6:UEF6 UOA6:UOB6 UXW6:UXX6 VHS6:VHT6 VRO6:VRP6 WBK6:WBL6 WLG6:WLH6 WVC6:WVD6 E65536:F65536 IQ65536:IR65536 SM65536:SN65536 ACI65536:ACJ65536 AME65536:AMF65536 AWA65536:AWB65536 BFW65536:BFX65536 BPS65536:BPT65536 BZO65536:BZP65536 CJK65536:CJL65536 CTG65536:CTH65536 DDC65536:DDD65536 DMY65536:DMZ65536 DWU65536:DWV65536 EGQ65536:EGR65536 EQM65536:EQN65536 FAI65536:FAJ65536 FKE65536:FKF65536 FUA65536:FUB65536 GDW65536:GDX65536 GNS65536:GNT65536 GXO65536:GXP65536 HHK65536:HHL65536 HRG65536:HRH65536 IBC65536:IBD65536 IKY65536:IKZ65536 IUU65536:IUV65536 JEQ65536:JER65536 JOM65536:JON65536 JYI65536:JYJ65536 KIE65536:KIF65536 KSA65536:KSB65536 LBW65536:LBX65536 LLS65536:LLT65536 LVO65536:LVP65536 MFK65536:MFL65536 MPG65536:MPH65536 MZC65536:MZD65536 NIY65536:NIZ65536 NSU65536:NSV65536 OCQ65536:OCR65536 OMM65536:OMN65536 OWI65536:OWJ65536 PGE65536:PGF65536 PQA65536:PQB65536 PZW65536:PZX65536 QJS65536:QJT65536 QTO65536:QTP65536 RDK65536:RDL65536 RNG65536:RNH65536 RXC65536:RXD65536 SGY65536:SGZ65536 SQU65536:SQV65536 TAQ65536:TAR65536 TKM65536:TKN65536 TUI65536:TUJ65536 UEE65536:UEF65536 UOA65536:UOB65536 UXW65536:UXX65536 VHS65536:VHT65536 VRO65536:VRP65536 WBK65536:WBL65536 WLG65536:WLH65536 WVC65536:WVD65536 E131072:F131072 IQ131072:IR131072 SM131072:SN131072 ACI131072:ACJ131072 AME131072:AMF131072 AWA131072:AWB131072 BFW131072:BFX131072 BPS131072:BPT131072 BZO131072:BZP131072 CJK131072:CJL131072 CTG131072:CTH131072 DDC131072:DDD131072 DMY131072:DMZ131072 DWU131072:DWV131072 EGQ131072:EGR131072 EQM131072:EQN131072 FAI131072:FAJ131072 FKE131072:FKF131072 FUA131072:FUB131072 GDW131072:GDX131072 GNS131072:GNT131072 GXO131072:GXP131072 HHK131072:HHL131072 HRG131072:HRH131072 IBC131072:IBD131072 IKY131072:IKZ131072 IUU131072:IUV131072 JEQ131072:JER131072 JOM131072:JON131072 JYI131072:JYJ131072 KIE131072:KIF131072 KSA131072:KSB131072 LBW131072:LBX131072 LLS131072:LLT131072 LVO131072:LVP131072 MFK131072:MFL131072 MPG131072:MPH131072 MZC131072:MZD131072 NIY131072:NIZ131072 NSU131072:NSV131072 OCQ131072:OCR131072 OMM131072:OMN131072 OWI131072:OWJ131072 PGE131072:PGF131072 PQA131072:PQB131072 PZW131072:PZX131072 QJS131072:QJT131072 QTO131072:QTP131072 RDK131072:RDL131072 RNG131072:RNH131072 RXC131072:RXD131072 SGY131072:SGZ131072 SQU131072:SQV131072 TAQ131072:TAR131072 TKM131072:TKN131072 TUI131072:TUJ131072 UEE131072:UEF131072 UOA131072:UOB131072 UXW131072:UXX131072 VHS131072:VHT131072 VRO131072:VRP131072 WBK131072:WBL131072 WLG131072:WLH131072 WVC131072:WVD131072 E196608:F196608 IQ196608:IR196608 SM196608:SN196608 ACI196608:ACJ196608 AME196608:AMF196608 AWA196608:AWB196608 BFW196608:BFX196608 BPS196608:BPT196608 BZO196608:BZP196608 CJK196608:CJL196608 CTG196608:CTH196608 DDC196608:DDD196608 DMY196608:DMZ196608 DWU196608:DWV196608 EGQ196608:EGR196608 EQM196608:EQN196608 FAI196608:FAJ196608 FKE196608:FKF196608 FUA196608:FUB196608 GDW196608:GDX196608 GNS196608:GNT196608 GXO196608:GXP196608 HHK196608:HHL196608 HRG196608:HRH196608 IBC196608:IBD196608 IKY196608:IKZ196608 IUU196608:IUV196608 JEQ196608:JER196608 JOM196608:JON196608 JYI196608:JYJ196608 KIE196608:KIF196608 KSA196608:KSB196608 LBW196608:LBX196608 LLS196608:LLT196608 LVO196608:LVP196608 MFK196608:MFL196608 MPG196608:MPH196608 MZC196608:MZD196608 NIY196608:NIZ196608 NSU196608:NSV196608 OCQ196608:OCR196608 OMM196608:OMN196608 OWI196608:OWJ196608 PGE196608:PGF196608 PQA196608:PQB196608 PZW196608:PZX196608 QJS196608:QJT196608 QTO196608:QTP196608 RDK196608:RDL196608 RNG196608:RNH196608 RXC196608:RXD196608 SGY196608:SGZ196608 SQU196608:SQV196608 TAQ196608:TAR196608 TKM196608:TKN196608 TUI196608:TUJ196608 UEE196608:UEF196608 UOA196608:UOB196608 UXW196608:UXX196608 VHS196608:VHT196608 VRO196608:VRP196608 WBK196608:WBL196608 WLG196608:WLH196608 WVC196608:WVD196608 E262144:F262144 IQ262144:IR262144 SM262144:SN262144 ACI262144:ACJ262144 AME262144:AMF262144 AWA262144:AWB262144 BFW262144:BFX262144 BPS262144:BPT262144 BZO262144:BZP262144 CJK262144:CJL262144 CTG262144:CTH262144 DDC262144:DDD262144 DMY262144:DMZ262144 DWU262144:DWV262144 EGQ262144:EGR262144 EQM262144:EQN262144 FAI262144:FAJ262144 FKE262144:FKF262144 FUA262144:FUB262144 GDW262144:GDX262144 GNS262144:GNT262144 GXO262144:GXP262144 HHK262144:HHL262144 HRG262144:HRH262144 IBC262144:IBD262144 IKY262144:IKZ262144 IUU262144:IUV262144 JEQ262144:JER262144 JOM262144:JON262144 JYI262144:JYJ262144 KIE262144:KIF262144 KSA262144:KSB262144 LBW262144:LBX262144 LLS262144:LLT262144 LVO262144:LVP262144 MFK262144:MFL262144 MPG262144:MPH262144 MZC262144:MZD262144 NIY262144:NIZ262144 NSU262144:NSV262144 OCQ262144:OCR262144 OMM262144:OMN262144 OWI262144:OWJ262144 PGE262144:PGF262144 PQA262144:PQB262144 PZW262144:PZX262144 QJS262144:QJT262144 QTO262144:QTP262144 RDK262144:RDL262144 RNG262144:RNH262144 RXC262144:RXD262144 SGY262144:SGZ262144 SQU262144:SQV262144 TAQ262144:TAR262144 TKM262144:TKN262144 TUI262144:TUJ262144 UEE262144:UEF262144 UOA262144:UOB262144 UXW262144:UXX262144 VHS262144:VHT262144 VRO262144:VRP262144 WBK262144:WBL262144 WLG262144:WLH262144 WVC262144:WVD262144 E327680:F327680 IQ327680:IR327680 SM327680:SN327680 ACI327680:ACJ327680 AME327680:AMF327680 AWA327680:AWB327680 BFW327680:BFX327680 BPS327680:BPT327680 BZO327680:BZP327680 CJK327680:CJL327680 CTG327680:CTH327680 DDC327680:DDD327680 DMY327680:DMZ327680 DWU327680:DWV327680 EGQ327680:EGR327680 EQM327680:EQN327680 FAI327680:FAJ327680 FKE327680:FKF327680 FUA327680:FUB327680 GDW327680:GDX327680 GNS327680:GNT327680 GXO327680:GXP327680 HHK327680:HHL327680 HRG327680:HRH327680 IBC327680:IBD327680 IKY327680:IKZ327680 IUU327680:IUV327680 JEQ327680:JER327680 JOM327680:JON327680 JYI327680:JYJ327680 KIE327680:KIF327680 KSA327680:KSB327680 LBW327680:LBX327680 LLS327680:LLT327680 LVO327680:LVP327680 MFK327680:MFL327680 MPG327680:MPH327680 MZC327680:MZD327680 NIY327680:NIZ327680 NSU327680:NSV327680 OCQ327680:OCR327680 OMM327680:OMN327680 OWI327680:OWJ327680 PGE327680:PGF327680 PQA327680:PQB327680 PZW327680:PZX327680 QJS327680:QJT327680 QTO327680:QTP327680 RDK327680:RDL327680 RNG327680:RNH327680 RXC327680:RXD327680 SGY327680:SGZ327680 SQU327680:SQV327680 TAQ327680:TAR327680 TKM327680:TKN327680 TUI327680:TUJ327680 UEE327680:UEF327680 UOA327680:UOB327680 UXW327680:UXX327680 VHS327680:VHT327680 VRO327680:VRP327680 WBK327680:WBL327680 WLG327680:WLH327680 WVC327680:WVD327680 E393216:F393216 IQ393216:IR393216 SM393216:SN393216 ACI393216:ACJ393216 AME393216:AMF393216 AWA393216:AWB393216 BFW393216:BFX393216 BPS393216:BPT393216 BZO393216:BZP393216 CJK393216:CJL393216 CTG393216:CTH393216 DDC393216:DDD393216 DMY393216:DMZ393216 DWU393216:DWV393216 EGQ393216:EGR393216 EQM393216:EQN393216 FAI393216:FAJ393216 FKE393216:FKF393216 FUA393216:FUB393216 GDW393216:GDX393216 GNS393216:GNT393216 GXO393216:GXP393216 HHK393216:HHL393216 HRG393216:HRH393216 IBC393216:IBD393216 IKY393216:IKZ393216 IUU393216:IUV393216 JEQ393216:JER393216 JOM393216:JON393216 JYI393216:JYJ393216 KIE393216:KIF393216 KSA393216:KSB393216 LBW393216:LBX393216 LLS393216:LLT393216 LVO393216:LVP393216 MFK393216:MFL393216 MPG393216:MPH393216 MZC393216:MZD393216 NIY393216:NIZ393216 NSU393216:NSV393216 OCQ393216:OCR393216 OMM393216:OMN393216 OWI393216:OWJ393216 PGE393216:PGF393216 PQA393216:PQB393216 PZW393216:PZX393216 QJS393216:QJT393216 QTO393216:QTP393216 RDK393216:RDL393216 RNG393216:RNH393216 RXC393216:RXD393216 SGY393216:SGZ393216 SQU393216:SQV393216 TAQ393216:TAR393216 TKM393216:TKN393216 TUI393216:TUJ393216 UEE393216:UEF393216 UOA393216:UOB393216 UXW393216:UXX393216 VHS393216:VHT393216 VRO393216:VRP393216 WBK393216:WBL393216 WLG393216:WLH393216 WVC393216:WVD393216 E458752:F458752 IQ458752:IR458752 SM458752:SN458752 ACI458752:ACJ458752 AME458752:AMF458752 AWA458752:AWB458752 BFW458752:BFX458752 BPS458752:BPT458752 BZO458752:BZP458752 CJK458752:CJL458752 CTG458752:CTH458752 DDC458752:DDD458752 DMY458752:DMZ458752 DWU458752:DWV458752 EGQ458752:EGR458752 EQM458752:EQN458752 FAI458752:FAJ458752 FKE458752:FKF458752 FUA458752:FUB458752 GDW458752:GDX458752 GNS458752:GNT458752 GXO458752:GXP458752 HHK458752:HHL458752 HRG458752:HRH458752 IBC458752:IBD458752 IKY458752:IKZ458752 IUU458752:IUV458752 JEQ458752:JER458752 JOM458752:JON458752 JYI458752:JYJ458752 KIE458752:KIF458752 KSA458752:KSB458752 LBW458752:LBX458752 LLS458752:LLT458752 LVO458752:LVP458752 MFK458752:MFL458752 MPG458752:MPH458752 MZC458752:MZD458752 NIY458752:NIZ458752 NSU458752:NSV458752 OCQ458752:OCR458752 OMM458752:OMN458752 OWI458752:OWJ458752 PGE458752:PGF458752 PQA458752:PQB458752 PZW458752:PZX458752 QJS458752:QJT458752 QTO458752:QTP458752 RDK458752:RDL458752 RNG458752:RNH458752 RXC458752:RXD458752 SGY458752:SGZ458752 SQU458752:SQV458752 TAQ458752:TAR458752 TKM458752:TKN458752 TUI458752:TUJ458752 UEE458752:UEF458752 UOA458752:UOB458752 UXW458752:UXX458752 VHS458752:VHT458752 VRO458752:VRP458752 WBK458752:WBL458752 WLG458752:WLH458752 WVC458752:WVD458752 E524288:F524288 IQ524288:IR524288 SM524288:SN524288 ACI524288:ACJ524288 AME524288:AMF524288 AWA524288:AWB524288 BFW524288:BFX524288 BPS524288:BPT524288 BZO524288:BZP524288 CJK524288:CJL524288 CTG524288:CTH524288 DDC524288:DDD524288 DMY524288:DMZ524288 DWU524288:DWV524288 EGQ524288:EGR524288 EQM524288:EQN524288 FAI524288:FAJ524288 FKE524288:FKF524288 FUA524288:FUB524288 GDW524288:GDX524288 GNS524288:GNT524288 GXO524288:GXP524288 HHK524288:HHL524288 HRG524288:HRH524288 IBC524288:IBD524288 IKY524288:IKZ524288 IUU524288:IUV524288 JEQ524288:JER524288 JOM524288:JON524288 JYI524288:JYJ524288 KIE524288:KIF524288 KSA524288:KSB524288 LBW524288:LBX524288 LLS524288:LLT524288 LVO524288:LVP524288 MFK524288:MFL524288 MPG524288:MPH524288 MZC524288:MZD524288 NIY524288:NIZ524288 NSU524288:NSV524288 OCQ524288:OCR524288 OMM524288:OMN524288 OWI524288:OWJ524288 PGE524288:PGF524288 PQA524288:PQB524288 PZW524288:PZX524288 QJS524288:QJT524288 QTO524288:QTP524288 RDK524288:RDL524288 RNG524288:RNH524288 RXC524288:RXD524288 SGY524288:SGZ524288 SQU524288:SQV524288 TAQ524288:TAR524288 TKM524288:TKN524288 TUI524288:TUJ524288 UEE524288:UEF524288 UOA524288:UOB524288 UXW524288:UXX524288 VHS524288:VHT524288 VRO524288:VRP524288 WBK524288:WBL524288 WLG524288:WLH524288 WVC524288:WVD524288 E589824:F589824 IQ589824:IR589824 SM589824:SN589824 ACI589824:ACJ589824 AME589824:AMF589824 AWA589824:AWB589824 BFW589824:BFX589824 BPS589824:BPT589824 BZO589824:BZP589824 CJK589824:CJL589824 CTG589824:CTH589824 DDC589824:DDD589824 DMY589824:DMZ589824 DWU589824:DWV589824 EGQ589824:EGR589824 EQM589824:EQN589824 FAI589824:FAJ589824 FKE589824:FKF589824 FUA589824:FUB589824 GDW589824:GDX589824 GNS589824:GNT589824 GXO589824:GXP589824 HHK589824:HHL589824 HRG589824:HRH589824 IBC589824:IBD589824 IKY589824:IKZ589824 IUU589824:IUV589824 JEQ589824:JER589824 JOM589824:JON589824 JYI589824:JYJ589824 KIE589824:KIF589824 KSA589824:KSB589824 LBW589824:LBX589824 LLS589824:LLT589824 LVO589824:LVP589824 MFK589824:MFL589824 MPG589824:MPH589824 MZC589824:MZD589824 NIY589824:NIZ589824 NSU589824:NSV589824 OCQ589824:OCR589824 OMM589824:OMN589824 OWI589824:OWJ589824 PGE589824:PGF589824 PQA589824:PQB589824 PZW589824:PZX589824 QJS589824:QJT589824 QTO589824:QTP589824 RDK589824:RDL589824 RNG589824:RNH589824 RXC589824:RXD589824 SGY589824:SGZ589824 SQU589824:SQV589824 TAQ589824:TAR589824 TKM589824:TKN589824 TUI589824:TUJ589824 UEE589824:UEF589824 UOA589824:UOB589824 UXW589824:UXX589824 VHS589824:VHT589824 VRO589824:VRP589824 WBK589824:WBL589824 WLG589824:WLH589824 WVC589824:WVD589824 E655360:F655360 IQ655360:IR655360 SM655360:SN655360 ACI655360:ACJ655360 AME655360:AMF655360 AWA655360:AWB655360 BFW655360:BFX655360 BPS655360:BPT655360 BZO655360:BZP655360 CJK655360:CJL655360 CTG655360:CTH655360 DDC655360:DDD655360 DMY655360:DMZ655360 DWU655360:DWV655360 EGQ655360:EGR655360 EQM655360:EQN655360 FAI655360:FAJ655360 FKE655360:FKF655360 FUA655360:FUB655360 GDW655360:GDX655360 GNS655360:GNT655360 GXO655360:GXP655360 HHK655360:HHL655360 HRG655360:HRH655360 IBC655360:IBD655360 IKY655360:IKZ655360 IUU655360:IUV655360 JEQ655360:JER655360 JOM655360:JON655360 JYI655360:JYJ655360 KIE655360:KIF655360 KSA655360:KSB655360 LBW655360:LBX655360 LLS655360:LLT655360 LVO655360:LVP655360 MFK655360:MFL655360 MPG655360:MPH655360 MZC655360:MZD655360 NIY655360:NIZ655360 NSU655360:NSV655360 OCQ655360:OCR655360 OMM655360:OMN655360 OWI655360:OWJ655360 PGE655360:PGF655360 PQA655360:PQB655360 PZW655360:PZX655360 QJS655360:QJT655360 QTO655360:QTP655360 RDK655360:RDL655360 RNG655360:RNH655360 RXC655360:RXD655360 SGY655360:SGZ655360 SQU655360:SQV655360 TAQ655360:TAR655360 TKM655360:TKN655360 TUI655360:TUJ655360 UEE655360:UEF655360 UOA655360:UOB655360 UXW655360:UXX655360 VHS655360:VHT655360 VRO655360:VRP655360 WBK655360:WBL655360 WLG655360:WLH655360 WVC655360:WVD655360 E720896:F720896 IQ720896:IR720896 SM720896:SN720896 ACI720896:ACJ720896 AME720896:AMF720896 AWA720896:AWB720896 BFW720896:BFX720896 BPS720896:BPT720896 BZO720896:BZP720896 CJK720896:CJL720896 CTG720896:CTH720896 DDC720896:DDD720896 DMY720896:DMZ720896 DWU720896:DWV720896 EGQ720896:EGR720896 EQM720896:EQN720896 FAI720896:FAJ720896 FKE720896:FKF720896 FUA720896:FUB720896 GDW720896:GDX720896 GNS720896:GNT720896 GXO720896:GXP720896 HHK720896:HHL720896 HRG720896:HRH720896 IBC720896:IBD720896 IKY720896:IKZ720896 IUU720896:IUV720896 JEQ720896:JER720896 JOM720896:JON720896 JYI720896:JYJ720896 KIE720896:KIF720896 KSA720896:KSB720896 LBW720896:LBX720896 LLS720896:LLT720896 LVO720896:LVP720896 MFK720896:MFL720896 MPG720896:MPH720896 MZC720896:MZD720896 NIY720896:NIZ720896 NSU720896:NSV720896 OCQ720896:OCR720896 OMM720896:OMN720896 OWI720896:OWJ720896 PGE720896:PGF720896 PQA720896:PQB720896 PZW720896:PZX720896 QJS720896:QJT720896 QTO720896:QTP720896 RDK720896:RDL720896 RNG720896:RNH720896 RXC720896:RXD720896 SGY720896:SGZ720896 SQU720896:SQV720896 TAQ720896:TAR720896 TKM720896:TKN720896 TUI720896:TUJ720896 UEE720896:UEF720896 UOA720896:UOB720896 UXW720896:UXX720896 VHS720896:VHT720896 VRO720896:VRP720896 WBK720896:WBL720896 WLG720896:WLH720896 WVC720896:WVD720896 E786432:F786432 IQ786432:IR786432 SM786432:SN786432 ACI786432:ACJ786432 AME786432:AMF786432 AWA786432:AWB786432 BFW786432:BFX786432 BPS786432:BPT786432 BZO786432:BZP786432 CJK786432:CJL786432 CTG786432:CTH786432 DDC786432:DDD786432 DMY786432:DMZ786432 DWU786432:DWV786432 EGQ786432:EGR786432 EQM786432:EQN786432 FAI786432:FAJ786432 FKE786432:FKF786432 FUA786432:FUB786432 GDW786432:GDX786432 GNS786432:GNT786432 GXO786432:GXP786432 HHK786432:HHL786432 HRG786432:HRH786432 IBC786432:IBD786432 IKY786432:IKZ786432 IUU786432:IUV786432 JEQ786432:JER786432 JOM786432:JON786432 JYI786432:JYJ786432 KIE786432:KIF786432 KSA786432:KSB786432 LBW786432:LBX786432 LLS786432:LLT786432 LVO786432:LVP786432 MFK786432:MFL786432 MPG786432:MPH786432 MZC786432:MZD786432 NIY786432:NIZ786432 NSU786432:NSV786432 OCQ786432:OCR786432 OMM786432:OMN786432 OWI786432:OWJ786432 PGE786432:PGF786432 PQA786432:PQB786432 PZW786432:PZX786432 QJS786432:QJT786432 QTO786432:QTP786432 RDK786432:RDL786432 RNG786432:RNH786432 RXC786432:RXD786432 SGY786432:SGZ786432 SQU786432:SQV786432 TAQ786432:TAR786432 TKM786432:TKN786432 TUI786432:TUJ786432 UEE786432:UEF786432 UOA786432:UOB786432 UXW786432:UXX786432 VHS786432:VHT786432 VRO786432:VRP786432 WBK786432:WBL786432 WLG786432:WLH786432 WVC786432:WVD786432 E851968:F851968 IQ851968:IR851968 SM851968:SN851968 ACI851968:ACJ851968 AME851968:AMF851968 AWA851968:AWB851968 BFW851968:BFX851968 BPS851968:BPT851968 BZO851968:BZP851968 CJK851968:CJL851968 CTG851968:CTH851968 DDC851968:DDD851968 DMY851968:DMZ851968 DWU851968:DWV851968 EGQ851968:EGR851968 EQM851968:EQN851968 FAI851968:FAJ851968 FKE851968:FKF851968 FUA851968:FUB851968 GDW851968:GDX851968 GNS851968:GNT851968 GXO851968:GXP851968 HHK851968:HHL851968 HRG851968:HRH851968 IBC851968:IBD851968 IKY851968:IKZ851968 IUU851968:IUV851968 JEQ851968:JER851968 JOM851968:JON851968 JYI851968:JYJ851968 KIE851968:KIF851968 KSA851968:KSB851968 LBW851968:LBX851968 LLS851968:LLT851968 LVO851968:LVP851968 MFK851968:MFL851968 MPG851968:MPH851968 MZC851968:MZD851968 NIY851968:NIZ851968 NSU851968:NSV851968 OCQ851968:OCR851968 OMM851968:OMN851968 OWI851968:OWJ851968 PGE851968:PGF851968 PQA851968:PQB851968 PZW851968:PZX851968 QJS851968:QJT851968 QTO851968:QTP851968 RDK851968:RDL851968 RNG851968:RNH851968 RXC851968:RXD851968 SGY851968:SGZ851968 SQU851968:SQV851968 TAQ851968:TAR851968 TKM851968:TKN851968 TUI851968:TUJ851968 UEE851968:UEF851968 UOA851968:UOB851968 UXW851968:UXX851968 VHS851968:VHT851968 VRO851968:VRP851968 WBK851968:WBL851968 WLG851968:WLH851968 WVC851968:WVD851968 E917504:F917504 IQ917504:IR917504 SM917504:SN917504 ACI917504:ACJ917504 AME917504:AMF917504 AWA917504:AWB917504 BFW917504:BFX917504 BPS917504:BPT917504 BZO917504:BZP917504 CJK917504:CJL917504 CTG917504:CTH917504 DDC917504:DDD917504 DMY917504:DMZ917504 DWU917504:DWV917504 EGQ917504:EGR917504 EQM917504:EQN917504 FAI917504:FAJ917504 FKE917504:FKF917504 FUA917504:FUB917504 GDW917504:GDX917504 GNS917504:GNT917504 GXO917504:GXP917504 HHK917504:HHL917504 HRG917504:HRH917504 IBC917504:IBD917504 IKY917504:IKZ917504 IUU917504:IUV917504 JEQ917504:JER917504 JOM917504:JON917504 JYI917504:JYJ917504 KIE917504:KIF917504 KSA917504:KSB917504 LBW917504:LBX917504 LLS917504:LLT917504 LVO917504:LVP917504 MFK917504:MFL917504 MPG917504:MPH917504 MZC917504:MZD917504 NIY917504:NIZ917504 NSU917504:NSV917504 OCQ917504:OCR917504 OMM917504:OMN917504 OWI917504:OWJ917504 PGE917504:PGF917504 PQA917504:PQB917504 PZW917504:PZX917504 QJS917504:QJT917504 QTO917504:QTP917504 RDK917504:RDL917504 RNG917504:RNH917504 RXC917504:RXD917504 SGY917504:SGZ917504 SQU917504:SQV917504 TAQ917504:TAR917504 TKM917504:TKN917504 TUI917504:TUJ917504 UEE917504:UEF917504 UOA917504:UOB917504 UXW917504:UXX917504 VHS917504:VHT917504 VRO917504:VRP917504 WBK917504:WBL917504 WLG917504:WLH917504 WVC917504:WVD917504 E983040:F983040 IQ983040:IR983040 SM983040:SN983040 ACI983040:ACJ983040 AME983040:AMF983040 AWA983040:AWB983040 BFW983040:BFX983040 BPS983040:BPT983040 BZO983040:BZP983040 CJK983040:CJL983040 CTG983040:CTH983040 DDC983040:DDD983040 DMY983040:DMZ983040 DWU983040:DWV983040 EGQ983040:EGR983040 EQM983040:EQN983040 FAI983040:FAJ983040 FKE983040:FKF983040 FUA983040:FUB983040 GDW983040:GDX983040 GNS983040:GNT983040 GXO983040:GXP983040 HHK983040:HHL983040 HRG983040:HRH983040 IBC983040:IBD983040 IKY983040:IKZ983040 IUU983040:IUV983040 JEQ983040:JER983040 JOM983040:JON983040 JYI983040:JYJ983040 KIE983040:KIF983040 KSA983040:KSB983040 LBW983040:LBX983040 LLS983040:LLT983040 LVO983040:LVP983040 MFK983040:MFL983040 MPG983040:MPH983040 MZC983040:MZD983040 NIY983040:NIZ983040 NSU983040:NSV983040 OCQ983040:OCR983040 OMM983040:OMN983040 OWI983040:OWJ983040 PGE983040:PGF983040 PQA983040:PQB983040 PZW983040:PZX983040 QJS983040:QJT983040 QTO983040:QTP983040 RDK983040:RDL983040 RNG983040:RNH983040 RXC983040:RXD983040 SGY983040:SGZ983040 SQU983040:SQV983040 TAQ983040:TAR983040 TKM983040:TKN983040 TUI983040:TUJ983040 UEE983040:UEF983040 UOA983040:UOB983040 UXW983040:UXX983040 VHS983040:VHT983040 VRO983040:VRP983040 WBK983040:WBL983040 WLG983040:WLH983040 WVC983040:WVD983040 G6:G8 IS6:IS8 SO6:SO8 ACK6:ACK8 AMG6:AMG8 AWC6:AWC8 BFY6:BFY8 BPU6:BPU8 BZQ6:BZQ8 CJM6:CJM8 CTI6:CTI8 DDE6:DDE8 DNA6:DNA8 DWW6:DWW8 EGS6:EGS8 EQO6:EQO8 FAK6:FAK8 FKG6:FKG8 FUC6:FUC8 GDY6:GDY8 GNU6:GNU8 GXQ6:GXQ8 HHM6:HHM8 HRI6:HRI8 IBE6:IBE8 ILA6:ILA8 IUW6:IUW8 JES6:JES8 JOO6:JOO8 JYK6:JYK8 KIG6:KIG8 KSC6:KSC8 LBY6:LBY8 LLU6:LLU8 LVQ6:LVQ8 MFM6:MFM8 MPI6:MPI8 MZE6:MZE8 NJA6:NJA8 NSW6:NSW8 OCS6:OCS8 OMO6:OMO8 OWK6:OWK8 PGG6:PGG8 PQC6:PQC8 PZY6:PZY8 QJU6:QJU8 QTQ6:QTQ8 RDM6:RDM8 RNI6:RNI8 RXE6:RXE8 SHA6:SHA8 SQW6:SQW8 TAS6:TAS8 TKO6:TKO8 TUK6:TUK8 UEG6:UEG8 UOC6:UOC8 UXY6:UXY8 VHU6:VHU8 VRQ6:VRQ8 WBM6:WBM8 WLI6:WLI8 WVE6:WVE8 G65536:G65538 IS65536:IS65538 SO65536:SO65538 ACK65536:ACK65538 AMG65536:AMG65538 AWC65536:AWC65538 BFY65536:BFY65538 BPU65536:BPU65538 BZQ65536:BZQ65538 CJM65536:CJM65538 CTI65536:CTI65538 DDE65536:DDE65538 DNA65536:DNA65538 DWW65536:DWW65538 EGS65536:EGS65538 EQO65536:EQO65538 FAK65536:FAK65538 FKG65536:FKG65538 FUC65536:FUC65538 GDY65536:GDY65538 GNU65536:GNU65538 GXQ65536:GXQ65538 HHM65536:HHM65538 HRI65536:HRI65538 IBE65536:IBE65538 ILA65536:ILA65538 IUW65536:IUW65538 JES65536:JES65538 JOO65536:JOO65538 JYK65536:JYK65538 KIG65536:KIG65538 KSC65536:KSC65538 LBY65536:LBY65538 LLU65536:LLU65538 LVQ65536:LVQ65538 MFM65536:MFM65538 MPI65536:MPI65538 MZE65536:MZE65538 NJA65536:NJA65538 NSW65536:NSW65538 OCS65536:OCS65538 OMO65536:OMO65538 OWK65536:OWK65538 PGG65536:PGG65538 PQC65536:PQC65538 PZY65536:PZY65538 QJU65536:QJU65538 QTQ65536:QTQ65538 RDM65536:RDM65538 RNI65536:RNI65538 RXE65536:RXE65538 SHA65536:SHA65538 SQW65536:SQW65538 TAS65536:TAS65538 TKO65536:TKO65538 TUK65536:TUK65538 UEG65536:UEG65538 UOC65536:UOC65538 UXY65536:UXY65538 VHU65536:VHU65538 VRQ65536:VRQ65538 WBM65536:WBM65538 WLI65536:WLI65538 WVE65536:WVE65538 G131072:G131074 IS131072:IS131074 SO131072:SO131074 ACK131072:ACK131074 AMG131072:AMG131074 AWC131072:AWC131074 BFY131072:BFY131074 BPU131072:BPU131074 BZQ131072:BZQ131074 CJM131072:CJM131074 CTI131072:CTI131074 DDE131072:DDE131074 DNA131072:DNA131074 DWW131072:DWW131074 EGS131072:EGS131074 EQO131072:EQO131074 FAK131072:FAK131074 FKG131072:FKG131074 FUC131072:FUC131074 GDY131072:GDY131074 GNU131072:GNU131074 GXQ131072:GXQ131074 HHM131072:HHM131074 HRI131072:HRI131074 IBE131072:IBE131074 ILA131072:ILA131074 IUW131072:IUW131074 JES131072:JES131074 JOO131072:JOO131074 JYK131072:JYK131074 KIG131072:KIG131074 KSC131072:KSC131074 LBY131072:LBY131074 LLU131072:LLU131074 LVQ131072:LVQ131074 MFM131072:MFM131074 MPI131072:MPI131074 MZE131072:MZE131074 NJA131072:NJA131074 NSW131072:NSW131074 OCS131072:OCS131074 OMO131072:OMO131074 OWK131072:OWK131074 PGG131072:PGG131074 PQC131072:PQC131074 PZY131072:PZY131074 QJU131072:QJU131074 QTQ131072:QTQ131074 RDM131072:RDM131074 RNI131072:RNI131074 RXE131072:RXE131074 SHA131072:SHA131074 SQW131072:SQW131074 TAS131072:TAS131074 TKO131072:TKO131074 TUK131072:TUK131074 UEG131072:UEG131074 UOC131072:UOC131074 UXY131072:UXY131074 VHU131072:VHU131074 VRQ131072:VRQ131074 WBM131072:WBM131074 WLI131072:WLI131074 WVE131072:WVE131074 G196608:G196610 IS196608:IS196610 SO196608:SO196610 ACK196608:ACK196610 AMG196608:AMG196610 AWC196608:AWC196610 BFY196608:BFY196610 BPU196608:BPU196610 BZQ196608:BZQ196610 CJM196608:CJM196610 CTI196608:CTI196610 DDE196608:DDE196610 DNA196608:DNA196610 DWW196608:DWW196610 EGS196608:EGS196610 EQO196608:EQO196610 FAK196608:FAK196610 FKG196608:FKG196610 FUC196608:FUC196610 GDY196608:GDY196610 GNU196608:GNU196610 GXQ196608:GXQ196610 HHM196608:HHM196610 HRI196608:HRI196610 IBE196608:IBE196610 ILA196608:ILA196610 IUW196608:IUW196610 JES196608:JES196610 JOO196608:JOO196610 JYK196608:JYK196610 KIG196608:KIG196610 KSC196608:KSC196610 LBY196608:LBY196610 LLU196608:LLU196610 LVQ196608:LVQ196610 MFM196608:MFM196610 MPI196608:MPI196610 MZE196608:MZE196610 NJA196608:NJA196610 NSW196608:NSW196610 OCS196608:OCS196610 OMO196608:OMO196610 OWK196608:OWK196610 PGG196608:PGG196610 PQC196608:PQC196610 PZY196608:PZY196610 QJU196608:QJU196610 QTQ196608:QTQ196610 RDM196608:RDM196610 RNI196608:RNI196610 RXE196608:RXE196610 SHA196608:SHA196610 SQW196608:SQW196610 TAS196608:TAS196610 TKO196608:TKO196610 TUK196608:TUK196610 UEG196608:UEG196610 UOC196608:UOC196610 UXY196608:UXY196610 VHU196608:VHU196610 VRQ196608:VRQ196610 WBM196608:WBM196610 WLI196608:WLI196610 WVE196608:WVE196610 G262144:G262146 IS262144:IS262146 SO262144:SO262146 ACK262144:ACK262146 AMG262144:AMG262146 AWC262144:AWC262146 BFY262144:BFY262146 BPU262144:BPU262146 BZQ262144:BZQ262146 CJM262144:CJM262146 CTI262144:CTI262146 DDE262144:DDE262146 DNA262144:DNA262146 DWW262144:DWW262146 EGS262144:EGS262146 EQO262144:EQO262146 FAK262144:FAK262146 FKG262144:FKG262146 FUC262144:FUC262146 GDY262144:GDY262146 GNU262144:GNU262146 GXQ262144:GXQ262146 HHM262144:HHM262146 HRI262144:HRI262146 IBE262144:IBE262146 ILA262144:ILA262146 IUW262144:IUW262146 JES262144:JES262146 JOO262144:JOO262146 JYK262144:JYK262146 KIG262144:KIG262146 KSC262144:KSC262146 LBY262144:LBY262146 LLU262144:LLU262146 LVQ262144:LVQ262146 MFM262144:MFM262146 MPI262144:MPI262146 MZE262144:MZE262146 NJA262144:NJA262146 NSW262144:NSW262146 OCS262144:OCS262146 OMO262144:OMO262146 OWK262144:OWK262146 PGG262144:PGG262146 PQC262144:PQC262146 PZY262144:PZY262146 QJU262144:QJU262146 QTQ262144:QTQ262146 RDM262144:RDM262146 RNI262144:RNI262146 RXE262144:RXE262146 SHA262144:SHA262146 SQW262144:SQW262146 TAS262144:TAS262146 TKO262144:TKO262146 TUK262144:TUK262146 UEG262144:UEG262146 UOC262144:UOC262146 UXY262144:UXY262146 VHU262144:VHU262146 VRQ262144:VRQ262146 WBM262144:WBM262146 WLI262144:WLI262146 WVE262144:WVE262146 G327680:G327682 IS327680:IS327682 SO327680:SO327682 ACK327680:ACK327682 AMG327680:AMG327682 AWC327680:AWC327682 BFY327680:BFY327682 BPU327680:BPU327682 BZQ327680:BZQ327682 CJM327680:CJM327682 CTI327680:CTI327682 DDE327680:DDE327682 DNA327680:DNA327682 DWW327680:DWW327682 EGS327680:EGS327682 EQO327680:EQO327682 FAK327680:FAK327682 FKG327680:FKG327682 FUC327680:FUC327682 GDY327680:GDY327682 GNU327680:GNU327682 GXQ327680:GXQ327682 HHM327680:HHM327682 HRI327680:HRI327682 IBE327680:IBE327682 ILA327680:ILA327682 IUW327680:IUW327682 JES327680:JES327682 JOO327680:JOO327682 JYK327680:JYK327682 KIG327680:KIG327682 KSC327680:KSC327682 LBY327680:LBY327682 LLU327680:LLU327682 LVQ327680:LVQ327682 MFM327680:MFM327682 MPI327680:MPI327682 MZE327680:MZE327682 NJA327680:NJA327682 NSW327680:NSW327682 OCS327680:OCS327682 OMO327680:OMO327682 OWK327680:OWK327682 PGG327680:PGG327682 PQC327680:PQC327682 PZY327680:PZY327682 QJU327680:QJU327682 QTQ327680:QTQ327682 RDM327680:RDM327682 RNI327680:RNI327682 RXE327680:RXE327682 SHA327680:SHA327682 SQW327680:SQW327682 TAS327680:TAS327682 TKO327680:TKO327682 TUK327680:TUK327682 UEG327680:UEG327682 UOC327680:UOC327682 UXY327680:UXY327682 VHU327680:VHU327682 VRQ327680:VRQ327682 WBM327680:WBM327682 WLI327680:WLI327682 WVE327680:WVE327682 G393216:G393218 IS393216:IS393218 SO393216:SO393218 ACK393216:ACK393218 AMG393216:AMG393218 AWC393216:AWC393218 BFY393216:BFY393218 BPU393216:BPU393218 BZQ393216:BZQ393218 CJM393216:CJM393218 CTI393216:CTI393218 DDE393216:DDE393218 DNA393216:DNA393218 DWW393216:DWW393218 EGS393216:EGS393218 EQO393216:EQO393218 FAK393216:FAK393218 FKG393216:FKG393218 FUC393216:FUC393218 GDY393216:GDY393218 GNU393216:GNU393218 GXQ393216:GXQ393218 HHM393216:HHM393218 HRI393216:HRI393218 IBE393216:IBE393218 ILA393216:ILA393218 IUW393216:IUW393218 JES393216:JES393218 JOO393216:JOO393218 JYK393216:JYK393218 KIG393216:KIG393218 KSC393216:KSC393218 LBY393216:LBY393218 LLU393216:LLU393218 LVQ393216:LVQ393218 MFM393216:MFM393218 MPI393216:MPI393218 MZE393216:MZE393218 NJA393216:NJA393218 NSW393216:NSW393218 OCS393216:OCS393218 OMO393216:OMO393218 OWK393216:OWK393218 PGG393216:PGG393218 PQC393216:PQC393218 PZY393216:PZY393218 QJU393216:QJU393218 QTQ393216:QTQ393218 RDM393216:RDM393218 RNI393216:RNI393218 RXE393216:RXE393218 SHA393216:SHA393218 SQW393216:SQW393218 TAS393216:TAS393218 TKO393216:TKO393218 TUK393216:TUK393218 UEG393216:UEG393218 UOC393216:UOC393218 UXY393216:UXY393218 VHU393216:VHU393218 VRQ393216:VRQ393218 WBM393216:WBM393218 WLI393216:WLI393218 WVE393216:WVE393218 G458752:G458754 IS458752:IS458754 SO458752:SO458754 ACK458752:ACK458754 AMG458752:AMG458754 AWC458752:AWC458754 BFY458752:BFY458754 BPU458752:BPU458754 BZQ458752:BZQ458754 CJM458752:CJM458754 CTI458752:CTI458754 DDE458752:DDE458754 DNA458752:DNA458754 DWW458752:DWW458754 EGS458752:EGS458754 EQO458752:EQO458754 FAK458752:FAK458754 FKG458752:FKG458754 FUC458752:FUC458754 GDY458752:GDY458754 GNU458752:GNU458754 GXQ458752:GXQ458754 HHM458752:HHM458754 HRI458752:HRI458754 IBE458752:IBE458754 ILA458752:ILA458754 IUW458752:IUW458754 JES458752:JES458754 JOO458752:JOO458754 JYK458752:JYK458754 KIG458752:KIG458754 KSC458752:KSC458754 LBY458752:LBY458754 LLU458752:LLU458754 LVQ458752:LVQ458754 MFM458752:MFM458754 MPI458752:MPI458754 MZE458752:MZE458754 NJA458752:NJA458754 NSW458752:NSW458754 OCS458752:OCS458754 OMO458752:OMO458754 OWK458752:OWK458754 PGG458752:PGG458754 PQC458752:PQC458754 PZY458752:PZY458754 QJU458752:QJU458754 QTQ458752:QTQ458754 RDM458752:RDM458754 RNI458752:RNI458754 RXE458752:RXE458754 SHA458752:SHA458754 SQW458752:SQW458754 TAS458752:TAS458754 TKO458752:TKO458754 TUK458752:TUK458754 UEG458752:UEG458754 UOC458752:UOC458754 UXY458752:UXY458754 VHU458752:VHU458754 VRQ458752:VRQ458754 WBM458752:WBM458754 WLI458752:WLI458754 WVE458752:WVE458754 G524288:G524290 IS524288:IS524290 SO524288:SO524290 ACK524288:ACK524290 AMG524288:AMG524290 AWC524288:AWC524290 BFY524288:BFY524290 BPU524288:BPU524290 BZQ524288:BZQ524290 CJM524288:CJM524290 CTI524288:CTI524290 DDE524288:DDE524290 DNA524288:DNA524290 DWW524288:DWW524290 EGS524288:EGS524290 EQO524288:EQO524290 FAK524288:FAK524290 FKG524288:FKG524290 FUC524288:FUC524290 GDY524288:GDY524290 GNU524288:GNU524290 GXQ524288:GXQ524290 HHM524288:HHM524290 HRI524288:HRI524290 IBE524288:IBE524290 ILA524288:ILA524290 IUW524288:IUW524290 JES524288:JES524290 JOO524288:JOO524290 JYK524288:JYK524290 KIG524288:KIG524290 KSC524288:KSC524290 LBY524288:LBY524290 LLU524288:LLU524290 LVQ524288:LVQ524290 MFM524288:MFM524290 MPI524288:MPI524290 MZE524288:MZE524290 NJA524288:NJA524290 NSW524288:NSW524290 OCS524288:OCS524290 OMO524288:OMO524290 OWK524288:OWK524290 PGG524288:PGG524290 PQC524288:PQC524290 PZY524288:PZY524290 QJU524288:QJU524290 QTQ524288:QTQ524290 RDM524288:RDM524290 RNI524288:RNI524290 RXE524288:RXE524290 SHA524288:SHA524290 SQW524288:SQW524290 TAS524288:TAS524290 TKO524288:TKO524290 TUK524288:TUK524290 UEG524288:UEG524290 UOC524288:UOC524290 UXY524288:UXY524290 VHU524288:VHU524290 VRQ524288:VRQ524290 WBM524288:WBM524290 WLI524288:WLI524290 WVE524288:WVE524290 G589824:G589826 IS589824:IS589826 SO589824:SO589826 ACK589824:ACK589826 AMG589824:AMG589826 AWC589824:AWC589826 BFY589824:BFY589826 BPU589824:BPU589826 BZQ589824:BZQ589826 CJM589824:CJM589826 CTI589824:CTI589826 DDE589824:DDE589826 DNA589824:DNA589826 DWW589824:DWW589826 EGS589824:EGS589826 EQO589824:EQO589826 FAK589824:FAK589826 FKG589824:FKG589826 FUC589824:FUC589826 GDY589824:GDY589826 GNU589824:GNU589826 GXQ589824:GXQ589826 HHM589824:HHM589826 HRI589824:HRI589826 IBE589824:IBE589826 ILA589824:ILA589826 IUW589824:IUW589826 JES589824:JES589826 JOO589824:JOO589826 JYK589824:JYK589826 KIG589824:KIG589826 KSC589824:KSC589826 LBY589824:LBY589826 LLU589824:LLU589826 LVQ589824:LVQ589826 MFM589824:MFM589826 MPI589824:MPI589826 MZE589824:MZE589826 NJA589824:NJA589826 NSW589824:NSW589826 OCS589824:OCS589826 OMO589824:OMO589826 OWK589824:OWK589826 PGG589824:PGG589826 PQC589824:PQC589826 PZY589824:PZY589826 QJU589824:QJU589826 QTQ589824:QTQ589826 RDM589824:RDM589826 RNI589824:RNI589826 RXE589824:RXE589826 SHA589824:SHA589826 SQW589824:SQW589826 TAS589824:TAS589826 TKO589824:TKO589826 TUK589824:TUK589826 UEG589824:UEG589826 UOC589824:UOC589826 UXY589824:UXY589826 VHU589824:VHU589826 VRQ589824:VRQ589826 WBM589824:WBM589826 WLI589824:WLI589826 WVE589824:WVE589826 G655360:G655362 IS655360:IS655362 SO655360:SO655362 ACK655360:ACK655362 AMG655360:AMG655362 AWC655360:AWC655362 BFY655360:BFY655362 BPU655360:BPU655362 BZQ655360:BZQ655362 CJM655360:CJM655362 CTI655360:CTI655362 DDE655360:DDE655362 DNA655360:DNA655362 DWW655360:DWW655362 EGS655360:EGS655362 EQO655360:EQO655362 FAK655360:FAK655362 FKG655360:FKG655362 FUC655360:FUC655362 GDY655360:GDY655362 GNU655360:GNU655362 GXQ655360:GXQ655362 HHM655360:HHM655362 HRI655360:HRI655362 IBE655360:IBE655362 ILA655360:ILA655362 IUW655360:IUW655362 JES655360:JES655362 JOO655360:JOO655362 JYK655360:JYK655362 KIG655360:KIG655362 KSC655360:KSC655362 LBY655360:LBY655362 LLU655360:LLU655362 LVQ655360:LVQ655362 MFM655360:MFM655362 MPI655360:MPI655362 MZE655360:MZE655362 NJA655360:NJA655362 NSW655360:NSW655362 OCS655360:OCS655362 OMO655360:OMO655362 OWK655360:OWK655362 PGG655360:PGG655362 PQC655360:PQC655362 PZY655360:PZY655362 QJU655360:QJU655362 QTQ655360:QTQ655362 RDM655360:RDM655362 RNI655360:RNI655362 RXE655360:RXE655362 SHA655360:SHA655362 SQW655360:SQW655362 TAS655360:TAS655362 TKO655360:TKO655362 TUK655360:TUK655362 UEG655360:UEG655362 UOC655360:UOC655362 UXY655360:UXY655362 VHU655360:VHU655362 VRQ655360:VRQ655362 WBM655360:WBM655362 WLI655360:WLI655362 WVE655360:WVE655362 G720896:G720898 IS720896:IS720898 SO720896:SO720898 ACK720896:ACK720898 AMG720896:AMG720898 AWC720896:AWC720898 BFY720896:BFY720898 BPU720896:BPU720898 BZQ720896:BZQ720898 CJM720896:CJM720898 CTI720896:CTI720898 DDE720896:DDE720898 DNA720896:DNA720898 DWW720896:DWW720898 EGS720896:EGS720898 EQO720896:EQO720898 FAK720896:FAK720898 FKG720896:FKG720898 FUC720896:FUC720898 GDY720896:GDY720898 GNU720896:GNU720898 GXQ720896:GXQ720898 HHM720896:HHM720898 HRI720896:HRI720898 IBE720896:IBE720898 ILA720896:ILA720898 IUW720896:IUW720898 JES720896:JES720898 JOO720896:JOO720898 JYK720896:JYK720898 KIG720896:KIG720898 KSC720896:KSC720898 LBY720896:LBY720898 LLU720896:LLU720898 LVQ720896:LVQ720898 MFM720896:MFM720898 MPI720896:MPI720898 MZE720896:MZE720898 NJA720896:NJA720898 NSW720896:NSW720898 OCS720896:OCS720898 OMO720896:OMO720898 OWK720896:OWK720898 PGG720896:PGG720898 PQC720896:PQC720898 PZY720896:PZY720898 QJU720896:QJU720898 QTQ720896:QTQ720898 RDM720896:RDM720898 RNI720896:RNI720898 RXE720896:RXE720898 SHA720896:SHA720898 SQW720896:SQW720898 TAS720896:TAS720898 TKO720896:TKO720898 TUK720896:TUK720898 UEG720896:UEG720898 UOC720896:UOC720898 UXY720896:UXY720898 VHU720896:VHU720898 VRQ720896:VRQ720898 WBM720896:WBM720898 WLI720896:WLI720898 WVE720896:WVE720898 G786432:G786434 IS786432:IS786434 SO786432:SO786434 ACK786432:ACK786434 AMG786432:AMG786434 AWC786432:AWC786434 BFY786432:BFY786434 BPU786432:BPU786434 BZQ786432:BZQ786434 CJM786432:CJM786434 CTI786432:CTI786434 DDE786432:DDE786434 DNA786432:DNA786434 DWW786432:DWW786434 EGS786432:EGS786434 EQO786432:EQO786434 FAK786432:FAK786434 FKG786432:FKG786434 FUC786432:FUC786434 GDY786432:GDY786434 GNU786432:GNU786434 GXQ786432:GXQ786434 HHM786432:HHM786434 HRI786432:HRI786434 IBE786432:IBE786434 ILA786432:ILA786434 IUW786432:IUW786434 JES786432:JES786434 JOO786432:JOO786434 JYK786432:JYK786434 KIG786432:KIG786434 KSC786432:KSC786434 LBY786432:LBY786434 LLU786432:LLU786434 LVQ786432:LVQ786434 MFM786432:MFM786434 MPI786432:MPI786434 MZE786432:MZE786434 NJA786432:NJA786434 NSW786432:NSW786434 OCS786432:OCS786434 OMO786432:OMO786434 OWK786432:OWK786434 PGG786432:PGG786434 PQC786432:PQC786434 PZY786432:PZY786434 QJU786432:QJU786434 QTQ786432:QTQ786434 RDM786432:RDM786434 RNI786432:RNI786434 RXE786432:RXE786434 SHA786432:SHA786434 SQW786432:SQW786434 TAS786432:TAS786434 TKO786432:TKO786434 TUK786432:TUK786434 UEG786432:UEG786434 UOC786432:UOC786434 UXY786432:UXY786434 VHU786432:VHU786434 VRQ786432:VRQ786434 WBM786432:WBM786434 WLI786432:WLI786434 WVE786432:WVE786434 G851968:G851970 IS851968:IS851970 SO851968:SO851970 ACK851968:ACK851970 AMG851968:AMG851970 AWC851968:AWC851970 BFY851968:BFY851970 BPU851968:BPU851970 BZQ851968:BZQ851970 CJM851968:CJM851970 CTI851968:CTI851970 DDE851968:DDE851970 DNA851968:DNA851970 DWW851968:DWW851970 EGS851968:EGS851970 EQO851968:EQO851970 FAK851968:FAK851970 FKG851968:FKG851970 FUC851968:FUC851970 GDY851968:GDY851970 GNU851968:GNU851970 GXQ851968:GXQ851970 HHM851968:HHM851970 HRI851968:HRI851970 IBE851968:IBE851970 ILA851968:ILA851970 IUW851968:IUW851970 JES851968:JES851970 JOO851968:JOO851970 JYK851968:JYK851970 KIG851968:KIG851970 KSC851968:KSC851970 LBY851968:LBY851970 LLU851968:LLU851970 LVQ851968:LVQ851970 MFM851968:MFM851970 MPI851968:MPI851970 MZE851968:MZE851970 NJA851968:NJA851970 NSW851968:NSW851970 OCS851968:OCS851970 OMO851968:OMO851970 OWK851968:OWK851970 PGG851968:PGG851970 PQC851968:PQC851970 PZY851968:PZY851970 QJU851968:QJU851970 QTQ851968:QTQ851970 RDM851968:RDM851970 RNI851968:RNI851970 RXE851968:RXE851970 SHA851968:SHA851970 SQW851968:SQW851970 TAS851968:TAS851970 TKO851968:TKO851970 TUK851968:TUK851970 UEG851968:UEG851970 UOC851968:UOC851970 UXY851968:UXY851970 VHU851968:VHU851970 VRQ851968:VRQ851970 WBM851968:WBM851970 WLI851968:WLI851970 WVE851968:WVE851970 G917504:G917506 IS917504:IS917506 SO917504:SO917506 ACK917504:ACK917506 AMG917504:AMG917506 AWC917504:AWC917506 BFY917504:BFY917506 BPU917504:BPU917506 BZQ917504:BZQ917506 CJM917504:CJM917506 CTI917504:CTI917506 DDE917504:DDE917506 DNA917504:DNA917506 DWW917504:DWW917506 EGS917504:EGS917506 EQO917504:EQO917506 FAK917504:FAK917506 FKG917504:FKG917506 FUC917504:FUC917506 GDY917504:GDY917506 GNU917504:GNU917506 GXQ917504:GXQ917506 HHM917504:HHM917506 HRI917504:HRI917506 IBE917504:IBE917506 ILA917504:ILA917506 IUW917504:IUW917506 JES917504:JES917506 JOO917504:JOO917506 JYK917504:JYK917506 KIG917504:KIG917506 KSC917504:KSC917506 LBY917504:LBY917506 LLU917504:LLU917506 LVQ917504:LVQ917506 MFM917504:MFM917506 MPI917504:MPI917506 MZE917504:MZE917506 NJA917504:NJA917506 NSW917504:NSW917506 OCS917504:OCS917506 OMO917504:OMO917506 OWK917504:OWK917506 PGG917504:PGG917506 PQC917504:PQC917506 PZY917504:PZY917506 QJU917504:QJU917506 QTQ917504:QTQ917506 RDM917504:RDM917506 RNI917504:RNI917506 RXE917504:RXE917506 SHA917504:SHA917506 SQW917504:SQW917506 TAS917504:TAS917506 TKO917504:TKO917506 TUK917504:TUK917506 UEG917504:UEG917506 UOC917504:UOC917506 UXY917504:UXY917506 VHU917504:VHU917506 VRQ917504:VRQ917506 WBM917504:WBM917506 WLI917504:WLI917506 WVE917504:WVE917506 G983040:G983042 IS983040:IS983042 SO983040:SO983042 ACK983040:ACK983042 AMG983040:AMG983042 AWC983040:AWC983042 BFY983040:BFY983042 BPU983040:BPU983042 BZQ983040:BZQ983042 CJM983040:CJM983042 CTI983040:CTI983042 DDE983040:DDE983042 DNA983040:DNA983042 DWW983040:DWW983042 EGS983040:EGS983042 EQO983040:EQO983042 FAK983040:FAK983042 FKG983040:FKG983042 FUC983040:FUC983042 GDY983040:GDY983042 GNU983040:GNU983042 GXQ983040:GXQ983042 HHM983040:HHM983042 HRI983040:HRI983042 IBE983040:IBE983042 ILA983040:ILA983042 IUW983040:IUW983042 JES983040:JES983042 JOO983040:JOO983042 JYK983040:JYK983042 KIG983040:KIG983042 KSC983040:KSC983042 LBY983040:LBY983042 LLU983040:LLU983042 LVQ983040:LVQ983042 MFM983040:MFM983042 MPI983040:MPI983042 MZE983040:MZE983042 NJA983040:NJA983042 NSW983040:NSW983042 OCS983040:OCS983042 OMO983040:OMO983042 OWK983040:OWK983042 PGG983040:PGG983042 PQC983040:PQC983042 PZY983040:PZY983042 QJU983040:QJU983042 QTQ983040:QTQ983042 RDM983040:RDM983042 RNI983040:RNI983042 RXE983040:RXE983042 SHA983040:SHA983042 SQW983040:SQW983042 TAS983040:TAS983042 TKO983040:TKO983042 TUK983040:TUK983042 UEG983040:UEG983042 UOC983040:UOC983042 UXY983040:UXY983042 VHU983040:VHU983042 VRQ983040:VRQ983042 WBM983040:WBM983042 WLI983040:WLI983042 WVE983040:WVE983042 H6:L6 IT6:IU6 SP6:SQ6 ACL6:ACM6 AMH6:AMI6 AWD6:AWE6 BFZ6:BGA6 BPV6:BPW6 BZR6:BZS6 CJN6:CJO6 CTJ6:CTK6 DDF6:DDG6 DNB6:DNC6 DWX6:DWY6 EGT6:EGU6 EQP6:EQQ6 FAL6:FAM6 FKH6:FKI6 FUD6:FUE6 GDZ6:GEA6 GNV6:GNW6 GXR6:GXS6 HHN6:HHO6 HRJ6:HRK6 IBF6:IBG6 ILB6:ILC6 IUX6:IUY6 JET6:JEU6 JOP6:JOQ6 JYL6:JYM6 KIH6:KII6 KSD6:KSE6 LBZ6:LCA6 LLV6:LLW6 LVR6:LVS6 MFN6:MFO6 MPJ6:MPK6 MZF6:MZG6 NJB6:NJC6 NSX6:NSY6 OCT6:OCU6 OMP6:OMQ6 OWL6:OWM6 PGH6:PGI6 PQD6:PQE6 PZZ6:QAA6 QJV6:QJW6 QTR6:QTS6 RDN6:RDO6 RNJ6:RNK6 RXF6:RXG6 SHB6:SHC6 SQX6:SQY6 TAT6:TAU6 TKP6:TKQ6 TUL6:TUM6 UEH6:UEI6 UOD6:UOE6 UXZ6:UYA6 VHV6:VHW6 VRR6:VRS6 WBN6:WBO6 WLJ6:WLK6 WVF6:WVG6 IT65536:IU65536 SP65536:SQ65536 ACL65536:ACM65536 AMH65536:AMI65536 AWD65536:AWE65536 BFZ65536:BGA65536 BPV65536:BPW65536 BZR65536:BZS65536 CJN65536:CJO65536 CTJ65536:CTK65536 DDF65536:DDG65536 DNB65536:DNC65536 DWX65536:DWY65536 EGT65536:EGU65536 EQP65536:EQQ65536 FAL65536:FAM65536 FKH65536:FKI65536 FUD65536:FUE65536 GDZ65536:GEA65536 GNV65536:GNW65536 GXR65536:GXS65536 HHN65536:HHO65536 HRJ65536:HRK65536 IBF65536:IBG65536 ILB65536:ILC65536 IUX65536:IUY65536 JET65536:JEU65536 JOP65536:JOQ65536 JYL65536:JYM65536 KIH65536:KII65536 KSD65536:KSE65536 LBZ65536:LCA65536 LLV65536:LLW65536 LVR65536:LVS65536 MFN65536:MFO65536 MPJ65536:MPK65536 MZF65536:MZG65536 NJB65536:NJC65536 NSX65536:NSY65536 OCT65536:OCU65536 OMP65536:OMQ65536 OWL65536:OWM65536 PGH65536:PGI65536 PQD65536:PQE65536 PZZ65536:QAA65536 QJV65536:QJW65536 QTR65536:QTS65536 RDN65536:RDO65536 RNJ65536:RNK65536 RXF65536:RXG65536 SHB65536:SHC65536 SQX65536:SQY65536 TAT65536:TAU65536 TKP65536:TKQ65536 TUL65536:TUM65536 UEH65536:UEI65536 UOD65536:UOE65536 UXZ65536:UYA65536 VHV65536:VHW65536 VRR65536:VRS65536 WBN65536:WBO65536 WLJ65536:WLK65536 WVF65536:WVG65536 IT131072:IU131072 SP131072:SQ131072 ACL131072:ACM131072 AMH131072:AMI131072 AWD131072:AWE131072 BFZ131072:BGA131072 BPV131072:BPW131072 BZR131072:BZS131072 CJN131072:CJO131072 CTJ131072:CTK131072 DDF131072:DDG131072 DNB131072:DNC131072 DWX131072:DWY131072 EGT131072:EGU131072 EQP131072:EQQ131072 FAL131072:FAM131072 FKH131072:FKI131072 FUD131072:FUE131072 GDZ131072:GEA131072 GNV131072:GNW131072 GXR131072:GXS131072 HHN131072:HHO131072 HRJ131072:HRK131072 IBF131072:IBG131072 ILB131072:ILC131072 IUX131072:IUY131072 JET131072:JEU131072 JOP131072:JOQ131072 JYL131072:JYM131072 KIH131072:KII131072 KSD131072:KSE131072 LBZ131072:LCA131072 LLV131072:LLW131072 LVR131072:LVS131072 MFN131072:MFO131072 MPJ131072:MPK131072 MZF131072:MZG131072 NJB131072:NJC131072 NSX131072:NSY131072 OCT131072:OCU131072 OMP131072:OMQ131072 OWL131072:OWM131072 PGH131072:PGI131072 PQD131072:PQE131072 PZZ131072:QAA131072 QJV131072:QJW131072 QTR131072:QTS131072 RDN131072:RDO131072 RNJ131072:RNK131072 RXF131072:RXG131072 SHB131072:SHC131072 SQX131072:SQY131072 TAT131072:TAU131072 TKP131072:TKQ131072 TUL131072:TUM131072 UEH131072:UEI131072 UOD131072:UOE131072 UXZ131072:UYA131072 VHV131072:VHW131072 VRR131072:VRS131072 WBN131072:WBO131072 WLJ131072:WLK131072 WVF131072:WVG131072 IT196608:IU196608 SP196608:SQ196608 ACL196608:ACM196608 AMH196608:AMI196608 AWD196608:AWE196608 BFZ196608:BGA196608 BPV196608:BPW196608 BZR196608:BZS196608 CJN196608:CJO196608 CTJ196608:CTK196608 DDF196608:DDG196608 DNB196608:DNC196608 DWX196608:DWY196608 EGT196608:EGU196608 EQP196608:EQQ196608 FAL196608:FAM196608 FKH196608:FKI196608 FUD196608:FUE196608 GDZ196608:GEA196608 GNV196608:GNW196608 GXR196608:GXS196608 HHN196608:HHO196608 HRJ196608:HRK196608 IBF196608:IBG196608 ILB196608:ILC196608 IUX196608:IUY196608 JET196608:JEU196608 JOP196608:JOQ196608 JYL196608:JYM196608 KIH196608:KII196608 KSD196608:KSE196608 LBZ196608:LCA196608 LLV196608:LLW196608 LVR196608:LVS196608 MFN196608:MFO196608 MPJ196608:MPK196608 MZF196608:MZG196608 NJB196608:NJC196608 NSX196608:NSY196608 OCT196608:OCU196608 OMP196608:OMQ196608 OWL196608:OWM196608 PGH196608:PGI196608 PQD196608:PQE196608 PZZ196608:QAA196608 QJV196608:QJW196608 QTR196608:QTS196608 RDN196608:RDO196608 RNJ196608:RNK196608 RXF196608:RXG196608 SHB196608:SHC196608 SQX196608:SQY196608 TAT196608:TAU196608 TKP196608:TKQ196608 TUL196608:TUM196608 UEH196608:UEI196608 UOD196608:UOE196608 UXZ196608:UYA196608 VHV196608:VHW196608 VRR196608:VRS196608 WBN196608:WBO196608 WLJ196608:WLK196608 WVF196608:WVG196608 IT262144:IU262144 SP262144:SQ262144 ACL262144:ACM262144 AMH262144:AMI262144 AWD262144:AWE262144 BFZ262144:BGA262144 BPV262144:BPW262144 BZR262144:BZS262144 CJN262144:CJO262144 CTJ262144:CTK262144 DDF262144:DDG262144 DNB262144:DNC262144 DWX262144:DWY262144 EGT262144:EGU262144 EQP262144:EQQ262144 FAL262144:FAM262144 FKH262144:FKI262144 FUD262144:FUE262144 GDZ262144:GEA262144 GNV262144:GNW262144 GXR262144:GXS262144 HHN262144:HHO262144 HRJ262144:HRK262144 IBF262144:IBG262144 ILB262144:ILC262144 IUX262144:IUY262144 JET262144:JEU262144 JOP262144:JOQ262144 JYL262144:JYM262144 KIH262144:KII262144 KSD262144:KSE262144 LBZ262144:LCA262144 LLV262144:LLW262144 LVR262144:LVS262144 MFN262144:MFO262144 MPJ262144:MPK262144 MZF262144:MZG262144 NJB262144:NJC262144 NSX262144:NSY262144 OCT262144:OCU262144 OMP262144:OMQ262144 OWL262144:OWM262144 PGH262144:PGI262144 PQD262144:PQE262144 PZZ262144:QAA262144 QJV262144:QJW262144 QTR262144:QTS262144 RDN262144:RDO262144 RNJ262144:RNK262144 RXF262144:RXG262144 SHB262144:SHC262144 SQX262144:SQY262144 TAT262144:TAU262144 TKP262144:TKQ262144 TUL262144:TUM262144 UEH262144:UEI262144 UOD262144:UOE262144 UXZ262144:UYA262144 VHV262144:VHW262144 VRR262144:VRS262144 WBN262144:WBO262144 WLJ262144:WLK262144 WVF262144:WVG262144 IT327680:IU327680 SP327680:SQ327680 ACL327680:ACM327680 AMH327680:AMI327680 AWD327680:AWE327680 BFZ327680:BGA327680 BPV327680:BPW327680 BZR327680:BZS327680 CJN327680:CJO327680 CTJ327680:CTK327680 DDF327680:DDG327680 DNB327680:DNC327680 DWX327680:DWY327680 EGT327680:EGU327680 EQP327680:EQQ327680 FAL327680:FAM327680 FKH327680:FKI327680 FUD327680:FUE327680 GDZ327680:GEA327680 GNV327680:GNW327680 GXR327680:GXS327680 HHN327680:HHO327680 HRJ327680:HRK327680 IBF327680:IBG327680 ILB327680:ILC327680 IUX327680:IUY327680 JET327680:JEU327680 JOP327680:JOQ327680 JYL327680:JYM327680 KIH327680:KII327680 KSD327680:KSE327680 LBZ327680:LCA327680 LLV327680:LLW327680 LVR327680:LVS327680 MFN327680:MFO327680 MPJ327680:MPK327680 MZF327680:MZG327680 NJB327680:NJC327680 NSX327680:NSY327680 OCT327680:OCU327680 OMP327680:OMQ327680 OWL327680:OWM327680 PGH327680:PGI327680 PQD327680:PQE327680 PZZ327680:QAA327680 QJV327680:QJW327680 QTR327680:QTS327680 RDN327680:RDO327680 RNJ327680:RNK327680 RXF327680:RXG327680 SHB327680:SHC327680 SQX327680:SQY327680 TAT327680:TAU327680 TKP327680:TKQ327680 TUL327680:TUM327680 UEH327680:UEI327680 UOD327680:UOE327680 UXZ327680:UYA327680 VHV327680:VHW327680 VRR327680:VRS327680 WBN327680:WBO327680 WLJ327680:WLK327680 WVF327680:WVG327680 IT393216:IU393216 SP393216:SQ393216 ACL393216:ACM393216 AMH393216:AMI393216 AWD393216:AWE393216 BFZ393216:BGA393216 BPV393216:BPW393216 BZR393216:BZS393216 CJN393216:CJO393216 CTJ393216:CTK393216 DDF393216:DDG393216 DNB393216:DNC393216 DWX393216:DWY393216 EGT393216:EGU393216 EQP393216:EQQ393216 FAL393216:FAM393216 FKH393216:FKI393216 FUD393216:FUE393216 GDZ393216:GEA393216 GNV393216:GNW393216 GXR393216:GXS393216 HHN393216:HHO393216 HRJ393216:HRK393216 IBF393216:IBG393216 ILB393216:ILC393216 IUX393216:IUY393216 JET393216:JEU393216 JOP393216:JOQ393216 JYL393216:JYM393216 KIH393216:KII393216 KSD393216:KSE393216 LBZ393216:LCA393216 LLV393216:LLW393216 LVR393216:LVS393216 MFN393216:MFO393216 MPJ393216:MPK393216 MZF393216:MZG393216 NJB393216:NJC393216 NSX393216:NSY393216 OCT393216:OCU393216 OMP393216:OMQ393216 OWL393216:OWM393216 PGH393216:PGI393216 PQD393216:PQE393216 PZZ393216:QAA393216 QJV393216:QJW393216 QTR393216:QTS393216 RDN393216:RDO393216 RNJ393216:RNK393216 RXF393216:RXG393216 SHB393216:SHC393216 SQX393216:SQY393216 TAT393216:TAU393216 TKP393216:TKQ393216 TUL393216:TUM393216 UEH393216:UEI393216 UOD393216:UOE393216 UXZ393216:UYA393216 VHV393216:VHW393216 VRR393216:VRS393216 WBN393216:WBO393216 WLJ393216:WLK393216 WVF393216:WVG393216 IT458752:IU458752 SP458752:SQ458752 ACL458752:ACM458752 AMH458752:AMI458752 AWD458752:AWE458752 BFZ458752:BGA458752 BPV458752:BPW458752 BZR458752:BZS458752 CJN458752:CJO458752 CTJ458752:CTK458752 DDF458752:DDG458752 DNB458752:DNC458752 DWX458752:DWY458752 EGT458752:EGU458752 EQP458752:EQQ458752 FAL458752:FAM458752 FKH458752:FKI458752 FUD458752:FUE458752 GDZ458752:GEA458752 GNV458752:GNW458752 GXR458752:GXS458752 HHN458752:HHO458752 HRJ458752:HRK458752 IBF458752:IBG458752 ILB458752:ILC458752 IUX458752:IUY458752 JET458752:JEU458752 JOP458752:JOQ458752 JYL458752:JYM458752 KIH458752:KII458752 KSD458752:KSE458752 LBZ458752:LCA458752 LLV458752:LLW458752 LVR458752:LVS458752 MFN458752:MFO458752 MPJ458752:MPK458752 MZF458752:MZG458752 NJB458752:NJC458752 NSX458752:NSY458752 OCT458752:OCU458752 OMP458752:OMQ458752 OWL458752:OWM458752 PGH458752:PGI458752 PQD458752:PQE458752 PZZ458752:QAA458752 QJV458752:QJW458752 QTR458752:QTS458752 RDN458752:RDO458752 RNJ458752:RNK458752 RXF458752:RXG458752 SHB458752:SHC458752 SQX458752:SQY458752 TAT458752:TAU458752 TKP458752:TKQ458752 TUL458752:TUM458752 UEH458752:UEI458752 UOD458752:UOE458752 UXZ458752:UYA458752 VHV458752:VHW458752 VRR458752:VRS458752 WBN458752:WBO458752 WLJ458752:WLK458752 WVF458752:WVG458752 IT524288:IU524288 SP524288:SQ524288 ACL524288:ACM524288 AMH524288:AMI524288 AWD524288:AWE524288 BFZ524288:BGA524288 BPV524288:BPW524288 BZR524288:BZS524288 CJN524288:CJO524288 CTJ524288:CTK524288 DDF524288:DDG524288 DNB524288:DNC524288 DWX524288:DWY524288 EGT524288:EGU524288 EQP524288:EQQ524288 FAL524288:FAM524288 FKH524288:FKI524288 FUD524288:FUE524288 GDZ524288:GEA524288 GNV524288:GNW524288 GXR524288:GXS524288 HHN524288:HHO524288 HRJ524288:HRK524288 IBF524288:IBG524288 ILB524288:ILC524288 IUX524288:IUY524288 JET524288:JEU524288 JOP524288:JOQ524288 JYL524288:JYM524288 KIH524288:KII524288 KSD524288:KSE524288 LBZ524288:LCA524288 LLV524288:LLW524288 LVR524288:LVS524288 MFN524288:MFO524288 MPJ524288:MPK524288 MZF524288:MZG524288 NJB524288:NJC524288 NSX524288:NSY524288 OCT524288:OCU524288 OMP524288:OMQ524288 OWL524288:OWM524288 PGH524288:PGI524288 PQD524288:PQE524288 PZZ524288:QAA524288 QJV524288:QJW524288 QTR524288:QTS524288 RDN524288:RDO524288 RNJ524288:RNK524288 RXF524288:RXG524288 SHB524288:SHC524288 SQX524288:SQY524288 TAT524288:TAU524288 TKP524288:TKQ524288 TUL524288:TUM524288 UEH524288:UEI524288 UOD524288:UOE524288 UXZ524288:UYA524288 VHV524288:VHW524288 VRR524288:VRS524288 WBN524288:WBO524288 WLJ524288:WLK524288 WVF524288:WVG524288 IT589824:IU589824 SP589824:SQ589824 ACL589824:ACM589824 AMH589824:AMI589824 AWD589824:AWE589824 BFZ589824:BGA589824 BPV589824:BPW589824 BZR589824:BZS589824 CJN589824:CJO589824 CTJ589824:CTK589824 DDF589824:DDG589824 DNB589824:DNC589824 DWX589824:DWY589824 EGT589824:EGU589824 EQP589824:EQQ589824 FAL589824:FAM589824 FKH589824:FKI589824 FUD589824:FUE589824 GDZ589824:GEA589824 GNV589824:GNW589824 GXR589824:GXS589824 HHN589824:HHO589824 HRJ589824:HRK589824 IBF589824:IBG589824 ILB589824:ILC589824 IUX589824:IUY589824 JET589824:JEU589824 JOP589824:JOQ589824 JYL589824:JYM589824 KIH589824:KII589824 KSD589824:KSE589824 LBZ589824:LCA589824 LLV589824:LLW589824 LVR589824:LVS589824 MFN589824:MFO589824 MPJ589824:MPK589824 MZF589824:MZG589824 NJB589824:NJC589824 NSX589824:NSY589824 OCT589824:OCU589824 OMP589824:OMQ589824 OWL589824:OWM589824 PGH589824:PGI589824 PQD589824:PQE589824 PZZ589824:QAA589824 QJV589824:QJW589824 QTR589824:QTS589824 RDN589824:RDO589824 RNJ589824:RNK589824 RXF589824:RXG589824 SHB589824:SHC589824 SQX589824:SQY589824 TAT589824:TAU589824 TKP589824:TKQ589824 TUL589824:TUM589824 UEH589824:UEI589824 UOD589824:UOE589824 UXZ589824:UYA589824 VHV589824:VHW589824 VRR589824:VRS589824 WBN589824:WBO589824 WLJ589824:WLK589824 WVF589824:WVG589824 IT655360:IU655360 SP655360:SQ655360 ACL655360:ACM655360 AMH655360:AMI655360 AWD655360:AWE655360 BFZ655360:BGA655360 BPV655360:BPW655360 BZR655360:BZS655360 CJN655360:CJO655360 CTJ655360:CTK655360 DDF655360:DDG655360 DNB655360:DNC655360 DWX655360:DWY655360 EGT655360:EGU655360 EQP655360:EQQ655360 FAL655360:FAM655360 FKH655360:FKI655360 FUD655360:FUE655360 GDZ655360:GEA655360 GNV655360:GNW655360 GXR655360:GXS655360 HHN655360:HHO655360 HRJ655360:HRK655360 IBF655360:IBG655360 ILB655360:ILC655360 IUX655360:IUY655360 JET655360:JEU655360 JOP655360:JOQ655360 JYL655360:JYM655360 KIH655360:KII655360 KSD655360:KSE655360 LBZ655360:LCA655360 LLV655360:LLW655360 LVR655360:LVS655360 MFN655360:MFO655360 MPJ655360:MPK655360 MZF655360:MZG655360 NJB655360:NJC655360 NSX655360:NSY655360 OCT655360:OCU655360 OMP655360:OMQ655360 OWL655360:OWM655360 PGH655360:PGI655360 PQD655360:PQE655360 PZZ655360:QAA655360 QJV655360:QJW655360 QTR655360:QTS655360 RDN655360:RDO655360 RNJ655360:RNK655360 RXF655360:RXG655360 SHB655360:SHC655360 SQX655360:SQY655360 TAT655360:TAU655360 TKP655360:TKQ655360 TUL655360:TUM655360 UEH655360:UEI655360 UOD655360:UOE655360 UXZ655360:UYA655360 VHV655360:VHW655360 VRR655360:VRS655360 WBN655360:WBO655360 WLJ655360:WLK655360 WVF655360:WVG655360 IT720896:IU720896 SP720896:SQ720896 ACL720896:ACM720896 AMH720896:AMI720896 AWD720896:AWE720896 BFZ720896:BGA720896 BPV720896:BPW720896 BZR720896:BZS720896 CJN720896:CJO720896 CTJ720896:CTK720896 DDF720896:DDG720896 DNB720896:DNC720896 DWX720896:DWY720896 EGT720896:EGU720896 EQP720896:EQQ720896 FAL720896:FAM720896 FKH720896:FKI720896 FUD720896:FUE720896 GDZ720896:GEA720896 GNV720896:GNW720896 GXR720896:GXS720896 HHN720896:HHO720896 HRJ720896:HRK720896 IBF720896:IBG720896 ILB720896:ILC720896 IUX720896:IUY720896 JET720896:JEU720896 JOP720896:JOQ720896 JYL720896:JYM720896 KIH720896:KII720896 KSD720896:KSE720896 LBZ720896:LCA720896 LLV720896:LLW720896 LVR720896:LVS720896 MFN720896:MFO720896 MPJ720896:MPK720896 MZF720896:MZG720896 NJB720896:NJC720896 NSX720896:NSY720896 OCT720896:OCU720896 OMP720896:OMQ720896 OWL720896:OWM720896 PGH720896:PGI720896 PQD720896:PQE720896 PZZ720896:QAA720896 QJV720896:QJW720896 QTR720896:QTS720896 RDN720896:RDO720896 RNJ720896:RNK720896 RXF720896:RXG720896 SHB720896:SHC720896 SQX720896:SQY720896 TAT720896:TAU720896 TKP720896:TKQ720896 TUL720896:TUM720896 UEH720896:UEI720896 UOD720896:UOE720896 UXZ720896:UYA720896 VHV720896:VHW720896 VRR720896:VRS720896 WBN720896:WBO720896 WLJ720896:WLK720896 WVF720896:WVG720896 IT786432:IU786432 SP786432:SQ786432 ACL786432:ACM786432 AMH786432:AMI786432 AWD786432:AWE786432 BFZ786432:BGA786432 BPV786432:BPW786432 BZR786432:BZS786432 CJN786432:CJO786432 CTJ786432:CTK786432 DDF786432:DDG786432 DNB786432:DNC786432 DWX786432:DWY786432 EGT786432:EGU786432 EQP786432:EQQ786432 FAL786432:FAM786432 FKH786432:FKI786432 FUD786432:FUE786432 GDZ786432:GEA786432 GNV786432:GNW786432 GXR786432:GXS786432 HHN786432:HHO786432 HRJ786432:HRK786432 IBF786432:IBG786432 ILB786432:ILC786432 IUX786432:IUY786432 JET786432:JEU786432 JOP786432:JOQ786432 JYL786432:JYM786432 KIH786432:KII786432 KSD786432:KSE786432 LBZ786432:LCA786432 LLV786432:LLW786432 LVR786432:LVS786432 MFN786432:MFO786432 MPJ786432:MPK786432 MZF786432:MZG786432 NJB786432:NJC786432 NSX786432:NSY786432 OCT786432:OCU786432 OMP786432:OMQ786432 OWL786432:OWM786432 PGH786432:PGI786432 PQD786432:PQE786432 PZZ786432:QAA786432 QJV786432:QJW786432 QTR786432:QTS786432 RDN786432:RDO786432 RNJ786432:RNK786432 RXF786432:RXG786432 SHB786432:SHC786432 SQX786432:SQY786432 TAT786432:TAU786432 TKP786432:TKQ786432 TUL786432:TUM786432 UEH786432:UEI786432 UOD786432:UOE786432 UXZ786432:UYA786432 VHV786432:VHW786432 VRR786432:VRS786432 WBN786432:WBO786432 WLJ786432:WLK786432 WVF786432:WVG786432 IT851968:IU851968 SP851968:SQ851968 ACL851968:ACM851968 AMH851968:AMI851968 AWD851968:AWE851968 BFZ851968:BGA851968 BPV851968:BPW851968 BZR851968:BZS851968 CJN851968:CJO851968 CTJ851968:CTK851968 DDF851968:DDG851968 DNB851968:DNC851968 DWX851968:DWY851968 EGT851968:EGU851968 EQP851968:EQQ851968 FAL851968:FAM851968 FKH851968:FKI851968 FUD851968:FUE851968 GDZ851968:GEA851968 GNV851968:GNW851968 GXR851968:GXS851968 HHN851968:HHO851968 HRJ851968:HRK851968 IBF851968:IBG851968 ILB851968:ILC851968 IUX851968:IUY851968 JET851968:JEU851968 JOP851968:JOQ851968 JYL851968:JYM851968 KIH851968:KII851968 KSD851968:KSE851968 LBZ851968:LCA851968 LLV851968:LLW851968 LVR851968:LVS851968 MFN851968:MFO851968 MPJ851968:MPK851968 MZF851968:MZG851968 NJB851968:NJC851968 NSX851968:NSY851968 OCT851968:OCU851968 OMP851968:OMQ851968 OWL851968:OWM851968 PGH851968:PGI851968 PQD851968:PQE851968 PZZ851968:QAA851968 QJV851968:QJW851968 QTR851968:QTS851968 RDN851968:RDO851968 RNJ851968:RNK851968 RXF851968:RXG851968 SHB851968:SHC851968 SQX851968:SQY851968 TAT851968:TAU851968 TKP851968:TKQ851968 TUL851968:TUM851968 UEH851968:UEI851968 UOD851968:UOE851968 UXZ851968:UYA851968 VHV851968:VHW851968 VRR851968:VRS851968 WBN851968:WBO851968 WLJ851968:WLK851968 WVF851968:WVG851968 IT917504:IU917504 SP917504:SQ917504 ACL917504:ACM917504 AMH917504:AMI917504 AWD917504:AWE917504 BFZ917504:BGA917504 BPV917504:BPW917504 BZR917504:BZS917504 CJN917504:CJO917504 CTJ917504:CTK917504 DDF917504:DDG917504 DNB917504:DNC917504 DWX917504:DWY917504 EGT917504:EGU917504 EQP917504:EQQ917504 FAL917504:FAM917504 FKH917504:FKI917504 FUD917504:FUE917504 GDZ917504:GEA917504 GNV917504:GNW917504 GXR917504:GXS917504 HHN917504:HHO917504 HRJ917504:HRK917504 IBF917504:IBG917504 ILB917504:ILC917504 IUX917504:IUY917504 JET917504:JEU917504 JOP917504:JOQ917504 JYL917504:JYM917504 KIH917504:KII917504 KSD917504:KSE917504 LBZ917504:LCA917504 LLV917504:LLW917504 LVR917504:LVS917504 MFN917504:MFO917504 MPJ917504:MPK917504 MZF917504:MZG917504 NJB917504:NJC917504 NSX917504:NSY917504 OCT917504:OCU917504 OMP917504:OMQ917504 OWL917504:OWM917504 PGH917504:PGI917504 PQD917504:PQE917504 PZZ917504:QAA917504 QJV917504:QJW917504 QTR917504:QTS917504 RDN917504:RDO917504 RNJ917504:RNK917504 RXF917504:RXG917504 SHB917504:SHC917504 SQX917504:SQY917504 TAT917504:TAU917504 TKP917504:TKQ917504 TUL917504:TUM917504 UEH917504:UEI917504 UOD917504:UOE917504 UXZ917504:UYA917504 VHV917504:VHW917504 VRR917504:VRS917504 WBN917504:WBO917504 WLJ917504:WLK917504 WVF917504:WVG917504 IT983040:IU983040 SP983040:SQ983040 ACL983040:ACM983040 AMH983040:AMI983040 AWD983040:AWE983040 BFZ983040:BGA983040 BPV983040:BPW983040 BZR983040:BZS983040 CJN983040:CJO983040 CTJ983040:CTK983040 DDF983040:DDG983040 DNB983040:DNC983040 DWX983040:DWY983040 EGT983040:EGU983040 EQP983040:EQQ983040 FAL983040:FAM983040 FKH983040:FKI983040 FUD983040:FUE983040 GDZ983040:GEA983040 GNV983040:GNW983040 GXR983040:GXS983040 HHN983040:HHO983040 HRJ983040:HRK983040 IBF983040:IBG983040 ILB983040:ILC983040 IUX983040:IUY983040 JET983040:JEU983040 JOP983040:JOQ983040 JYL983040:JYM983040 KIH983040:KII983040 KSD983040:KSE983040 LBZ983040:LCA983040 LLV983040:LLW983040 LVR983040:LVS983040 MFN983040:MFO983040 MPJ983040:MPK983040 MZF983040:MZG983040 NJB983040:NJC983040 NSX983040:NSY983040 OCT983040:OCU983040 OMP983040:OMQ983040 OWL983040:OWM983040 PGH983040:PGI983040 PQD983040:PQE983040 PZZ983040:QAA983040 QJV983040:QJW983040 QTR983040:QTS983040 RDN983040:RDO983040 RNJ983040:RNK983040 RXF983040:RXG983040 SHB983040:SHC983040 SQX983040:SQY983040 TAT983040:TAU983040 TKP983040:TKQ983040 TUL983040:TUM983040 UEH983040:UEI983040 UOD983040:UOE983040 UXZ983040:UYA983040 VHV983040:VHW983040 VRR983040:VRS983040 WBN983040:WBO983040 WLJ983040:WLK983040 WVF983040:WVG983040 IV6:IV8 SR6:SR8 ACN6:ACN8 AMJ6:AMJ8 AWF6:AWF8 BGB6:BGB8 BPX6:BPX8 BZT6:BZT8 CJP6:CJP8 CTL6:CTL8 DDH6:DDH8 DND6:DND8 DWZ6:DWZ8 EGV6:EGV8 EQR6:EQR8 FAN6:FAN8 FKJ6:FKJ8 FUF6:FUF8 GEB6:GEB8 GNX6:GNX8 GXT6:GXT8 HHP6:HHP8 HRL6:HRL8 IBH6:IBH8 ILD6:ILD8 IUZ6:IUZ8 JEV6:JEV8 JOR6:JOR8 JYN6:JYN8 KIJ6:KIJ8 KSF6:KSF8 LCB6:LCB8 LLX6:LLX8 LVT6:LVT8 MFP6:MFP8 MPL6:MPL8 MZH6:MZH8 NJD6:NJD8 NSZ6:NSZ8 OCV6:OCV8 OMR6:OMR8 OWN6:OWN8 PGJ6:PGJ8 PQF6:PQF8 QAB6:QAB8 QJX6:QJX8 QTT6:QTT8 RDP6:RDP8 RNL6:RNL8 RXH6:RXH8 SHD6:SHD8 SQZ6:SQZ8 TAV6:TAV8 TKR6:TKR8 TUN6:TUN8 UEJ6:UEJ8 UOF6:UOF8 UYB6:UYB8 VHX6:VHX8 VRT6:VRT8 WBP6:WBP8 WLL6:WLL8 WVH6:WVH8 IV65536:IV65538 SR65536:SR65538 ACN65536:ACN65538 AMJ65536:AMJ65538 AWF65536:AWF65538 BGB65536:BGB65538 BPX65536:BPX65538 BZT65536:BZT65538 CJP65536:CJP65538 CTL65536:CTL65538 DDH65536:DDH65538 DND65536:DND65538 DWZ65536:DWZ65538 EGV65536:EGV65538 EQR65536:EQR65538 FAN65536:FAN65538 FKJ65536:FKJ65538 FUF65536:FUF65538 GEB65536:GEB65538 GNX65536:GNX65538 GXT65536:GXT65538 HHP65536:HHP65538 HRL65536:HRL65538 IBH65536:IBH65538 ILD65536:ILD65538 IUZ65536:IUZ65538 JEV65536:JEV65538 JOR65536:JOR65538 JYN65536:JYN65538 KIJ65536:KIJ65538 KSF65536:KSF65538 LCB65536:LCB65538 LLX65536:LLX65538 LVT65536:LVT65538 MFP65536:MFP65538 MPL65536:MPL65538 MZH65536:MZH65538 NJD65536:NJD65538 NSZ65536:NSZ65538 OCV65536:OCV65538 OMR65536:OMR65538 OWN65536:OWN65538 PGJ65536:PGJ65538 PQF65536:PQF65538 QAB65536:QAB65538 QJX65536:QJX65538 QTT65536:QTT65538 RDP65536:RDP65538 RNL65536:RNL65538 RXH65536:RXH65538 SHD65536:SHD65538 SQZ65536:SQZ65538 TAV65536:TAV65538 TKR65536:TKR65538 TUN65536:TUN65538 UEJ65536:UEJ65538 UOF65536:UOF65538 UYB65536:UYB65538 VHX65536:VHX65538 VRT65536:VRT65538 WBP65536:WBP65538 WLL65536:WLL65538 WVH65536:WVH65538 IV131072:IV131074 SR131072:SR131074 ACN131072:ACN131074 AMJ131072:AMJ131074 AWF131072:AWF131074 BGB131072:BGB131074 BPX131072:BPX131074 BZT131072:BZT131074 CJP131072:CJP131074 CTL131072:CTL131074 DDH131072:DDH131074 DND131072:DND131074 DWZ131072:DWZ131074 EGV131072:EGV131074 EQR131072:EQR131074 FAN131072:FAN131074 FKJ131072:FKJ131074 FUF131072:FUF131074 GEB131072:GEB131074 GNX131072:GNX131074 GXT131072:GXT131074 HHP131072:HHP131074 HRL131072:HRL131074 IBH131072:IBH131074 ILD131072:ILD131074 IUZ131072:IUZ131074 JEV131072:JEV131074 JOR131072:JOR131074 JYN131072:JYN131074 KIJ131072:KIJ131074 KSF131072:KSF131074 LCB131072:LCB131074 LLX131072:LLX131074 LVT131072:LVT131074 MFP131072:MFP131074 MPL131072:MPL131074 MZH131072:MZH131074 NJD131072:NJD131074 NSZ131072:NSZ131074 OCV131072:OCV131074 OMR131072:OMR131074 OWN131072:OWN131074 PGJ131072:PGJ131074 PQF131072:PQF131074 QAB131072:QAB131074 QJX131072:QJX131074 QTT131072:QTT131074 RDP131072:RDP131074 RNL131072:RNL131074 RXH131072:RXH131074 SHD131072:SHD131074 SQZ131072:SQZ131074 TAV131072:TAV131074 TKR131072:TKR131074 TUN131072:TUN131074 UEJ131072:UEJ131074 UOF131072:UOF131074 UYB131072:UYB131074 VHX131072:VHX131074 VRT131072:VRT131074 WBP131072:WBP131074 WLL131072:WLL131074 WVH131072:WVH131074 IV196608:IV196610 SR196608:SR196610 ACN196608:ACN196610 AMJ196608:AMJ196610 AWF196608:AWF196610 BGB196608:BGB196610 BPX196608:BPX196610 BZT196608:BZT196610 CJP196608:CJP196610 CTL196608:CTL196610 DDH196608:DDH196610 DND196608:DND196610 DWZ196608:DWZ196610 EGV196608:EGV196610 EQR196608:EQR196610 FAN196608:FAN196610 FKJ196608:FKJ196610 FUF196608:FUF196610 GEB196608:GEB196610 GNX196608:GNX196610 GXT196608:GXT196610 HHP196608:HHP196610 HRL196608:HRL196610 IBH196608:IBH196610 ILD196608:ILD196610 IUZ196608:IUZ196610 JEV196608:JEV196610 JOR196608:JOR196610 JYN196608:JYN196610 KIJ196608:KIJ196610 KSF196608:KSF196610 LCB196608:LCB196610 LLX196608:LLX196610 LVT196608:LVT196610 MFP196608:MFP196610 MPL196608:MPL196610 MZH196608:MZH196610 NJD196608:NJD196610 NSZ196608:NSZ196610 OCV196608:OCV196610 OMR196608:OMR196610 OWN196608:OWN196610 PGJ196608:PGJ196610 PQF196608:PQF196610 QAB196608:QAB196610 QJX196608:QJX196610 QTT196608:QTT196610 RDP196608:RDP196610 RNL196608:RNL196610 RXH196608:RXH196610 SHD196608:SHD196610 SQZ196608:SQZ196610 TAV196608:TAV196610 TKR196608:TKR196610 TUN196608:TUN196610 UEJ196608:UEJ196610 UOF196608:UOF196610 UYB196608:UYB196610 VHX196608:VHX196610 VRT196608:VRT196610 WBP196608:WBP196610 WLL196608:WLL196610 WVH196608:WVH196610 IV262144:IV262146 SR262144:SR262146 ACN262144:ACN262146 AMJ262144:AMJ262146 AWF262144:AWF262146 BGB262144:BGB262146 BPX262144:BPX262146 BZT262144:BZT262146 CJP262144:CJP262146 CTL262144:CTL262146 DDH262144:DDH262146 DND262144:DND262146 DWZ262144:DWZ262146 EGV262144:EGV262146 EQR262144:EQR262146 FAN262144:FAN262146 FKJ262144:FKJ262146 FUF262144:FUF262146 GEB262144:GEB262146 GNX262144:GNX262146 GXT262144:GXT262146 HHP262144:HHP262146 HRL262144:HRL262146 IBH262144:IBH262146 ILD262144:ILD262146 IUZ262144:IUZ262146 JEV262144:JEV262146 JOR262144:JOR262146 JYN262144:JYN262146 KIJ262144:KIJ262146 KSF262144:KSF262146 LCB262144:LCB262146 LLX262144:LLX262146 LVT262144:LVT262146 MFP262144:MFP262146 MPL262144:MPL262146 MZH262144:MZH262146 NJD262144:NJD262146 NSZ262144:NSZ262146 OCV262144:OCV262146 OMR262144:OMR262146 OWN262144:OWN262146 PGJ262144:PGJ262146 PQF262144:PQF262146 QAB262144:QAB262146 QJX262144:QJX262146 QTT262144:QTT262146 RDP262144:RDP262146 RNL262144:RNL262146 RXH262144:RXH262146 SHD262144:SHD262146 SQZ262144:SQZ262146 TAV262144:TAV262146 TKR262144:TKR262146 TUN262144:TUN262146 UEJ262144:UEJ262146 UOF262144:UOF262146 UYB262144:UYB262146 VHX262144:VHX262146 VRT262144:VRT262146 WBP262144:WBP262146 WLL262144:WLL262146 WVH262144:WVH262146 IV327680:IV327682 SR327680:SR327682 ACN327680:ACN327682 AMJ327680:AMJ327682 AWF327680:AWF327682 BGB327680:BGB327682 BPX327680:BPX327682 BZT327680:BZT327682 CJP327680:CJP327682 CTL327680:CTL327682 DDH327680:DDH327682 DND327680:DND327682 DWZ327680:DWZ327682 EGV327680:EGV327682 EQR327680:EQR327682 FAN327680:FAN327682 FKJ327680:FKJ327682 FUF327680:FUF327682 GEB327680:GEB327682 GNX327680:GNX327682 GXT327680:GXT327682 HHP327680:HHP327682 HRL327680:HRL327682 IBH327680:IBH327682 ILD327680:ILD327682 IUZ327680:IUZ327682 JEV327680:JEV327682 JOR327680:JOR327682 JYN327680:JYN327682 KIJ327680:KIJ327682 KSF327680:KSF327682 LCB327680:LCB327682 LLX327680:LLX327682 LVT327680:LVT327682 MFP327680:MFP327682 MPL327680:MPL327682 MZH327680:MZH327682 NJD327680:NJD327682 NSZ327680:NSZ327682 OCV327680:OCV327682 OMR327680:OMR327682 OWN327680:OWN327682 PGJ327680:PGJ327682 PQF327680:PQF327682 QAB327680:QAB327682 QJX327680:QJX327682 QTT327680:QTT327682 RDP327680:RDP327682 RNL327680:RNL327682 RXH327680:RXH327682 SHD327680:SHD327682 SQZ327680:SQZ327682 TAV327680:TAV327682 TKR327680:TKR327682 TUN327680:TUN327682 UEJ327680:UEJ327682 UOF327680:UOF327682 UYB327680:UYB327682 VHX327680:VHX327682 VRT327680:VRT327682 WBP327680:WBP327682 WLL327680:WLL327682 WVH327680:WVH327682 IV393216:IV393218 SR393216:SR393218 ACN393216:ACN393218 AMJ393216:AMJ393218 AWF393216:AWF393218 BGB393216:BGB393218 BPX393216:BPX393218 BZT393216:BZT393218 CJP393216:CJP393218 CTL393216:CTL393218 DDH393216:DDH393218 DND393216:DND393218 DWZ393216:DWZ393218 EGV393216:EGV393218 EQR393216:EQR393218 FAN393216:FAN393218 FKJ393216:FKJ393218 FUF393216:FUF393218 GEB393216:GEB393218 GNX393216:GNX393218 GXT393216:GXT393218 HHP393216:HHP393218 HRL393216:HRL393218 IBH393216:IBH393218 ILD393216:ILD393218 IUZ393216:IUZ393218 JEV393216:JEV393218 JOR393216:JOR393218 JYN393216:JYN393218 KIJ393216:KIJ393218 KSF393216:KSF393218 LCB393216:LCB393218 LLX393216:LLX393218 LVT393216:LVT393218 MFP393216:MFP393218 MPL393216:MPL393218 MZH393216:MZH393218 NJD393216:NJD393218 NSZ393216:NSZ393218 OCV393216:OCV393218 OMR393216:OMR393218 OWN393216:OWN393218 PGJ393216:PGJ393218 PQF393216:PQF393218 QAB393216:QAB393218 QJX393216:QJX393218 QTT393216:QTT393218 RDP393216:RDP393218 RNL393216:RNL393218 RXH393216:RXH393218 SHD393216:SHD393218 SQZ393216:SQZ393218 TAV393216:TAV393218 TKR393216:TKR393218 TUN393216:TUN393218 UEJ393216:UEJ393218 UOF393216:UOF393218 UYB393216:UYB393218 VHX393216:VHX393218 VRT393216:VRT393218 WBP393216:WBP393218 WLL393216:WLL393218 WVH393216:WVH393218 IV458752:IV458754 SR458752:SR458754 ACN458752:ACN458754 AMJ458752:AMJ458754 AWF458752:AWF458754 BGB458752:BGB458754 BPX458752:BPX458754 BZT458752:BZT458754 CJP458752:CJP458754 CTL458752:CTL458754 DDH458752:DDH458754 DND458752:DND458754 DWZ458752:DWZ458754 EGV458752:EGV458754 EQR458752:EQR458754 FAN458752:FAN458754 FKJ458752:FKJ458754 FUF458752:FUF458754 GEB458752:GEB458754 GNX458752:GNX458754 GXT458752:GXT458754 HHP458752:HHP458754 HRL458752:HRL458754 IBH458752:IBH458754 ILD458752:ILD458754 IUZ458752:IUZ458754 JEV458752:JEV458754 JOR458752:JOR458754 JYN458752:JYN458754 KIJ458752:KIJ458754 KSF458752:KSF458754 LCB458752:LCB458754 LLX458752:LLX458754 LVT458752:LVT458754 MFP458752:MFP458754 MPL458752:MPL458754 MZH458752:MZH458754 NJD458752:NJD458754 NSZ458752:NSZ458754 OCV458752:OCV458754 OMR458752:OMR458754 OWN458752:OWN458754 PGJ458752:PGJ458754 PQF458752:PQF458754 QAB458752:QAB458754 QJX458752:QJX458754 QTT458752:QTT458754 RDP458752:RDP458754 RNL458752:RNL458754 RXH458752:RXH458754 SHD458752:SHD458754 SQZ458752:SQZ458754 TAV458752:TAV458754 TKR458752:TKR458754 TUN458752:TUN458754 UEJ458752:UEJ458754 UOF458752:UOF458754 UYB458752:UYB458754 VHX458752:VHX458754 VRT458752:VRT458754 WBP458752:WBP458754 WLL458752:WLL458754 WVH458752:WVH458754 IV524288:IV524290 SR524288:SR524290 ACN524288:ACN524290 AMJ524288:AMJ524290 AWF524288:AWF524290 BGB524288:BGB524290 BPX524288:BPX524290 BZT524288:BZT524290 CJP524288:CJP524290 CTL524288:CTL524290 DDH524288:DDH524290 DND524288:DND524290 DWZ524288:DWZ524290 EGV524288:EGV524290 EQR524288:EQR524290 FAN524288:FAN524290 FKJ524288:FKJ524290 FUF524288:FUF524290 GEB524288:GEB524290 GNX524288:GNX524290 GXT524288:GXT524290 HHP524288:HHP524290 HRL524288:HRL524290 IBH524288:IBH524290 ILD524288:ILD524290 IUZ524288:IUZ524290 JEV524288:JEV524290 JOR524288:JOR524290 JYN524288:JYN524290 KIJ524288:KIJ524290 KSF524288:KSF524290 LCB524288:LCB524290 LLX524288:LLX524290 LVT524288:LVT524290 MFP524288:MFP524290 MPL524288:MPL524290 MZH524288:MZH524290 NJD524288:NJD524290 NSZ524288:NSZ524290 OCV524288:OCV524290 OMR524288:OMR524290 OWN524288:OWN524290 PGJ524288:PGJ524290 PQF524288:PQF524290 QAB524288:QAB524290 QJX524288:QJX524290 QTT524288:QTT524290 RDP524288:RDP524290 RNL524288:RNL524290 RXH524288:RXH524290 SHD524288:SHD524290 SQZ524288:SQZ524290 TAV524288:TAV524290 TKR524288:TKR524290 TUN524288:TUN524290 UEJ524288:UEJ524290 UOF524288:UOF524290 UYB524288:UYB524290 VHX524288:VHX524290 VRT524288:VRT524290 WBP524288:WBP524290 WLL524288:WLL524290 WVH524288:WVH524290 IV589824:IV589826 SR589824:SR589826 ACN589824:ACN589826 AMJ589824:AMJ589826 AWF589824:AWF589826 BGB589824:BGB589826 BPX589824:BPX589826 BZT589824:BZT589826 CJP589824:CJP589826 CTL589824:CTL589826 DDH589824:DDH589826 DND589824:DND589826 DWZ589824:DWZ589826 EGV589824:EGV589826 EQR589824:EQR589826 FAN589824:FAN589826 FKJ589824:FKJ589826 FUF589824:FUF589826 GEB589824:GEB589826 GNX589824:GNX589826 GXT589824:GXT589826 HHP589824:HHP589826 HRL589824:HRL589826 IBH589824:IBH589826 ILD589824:ILD589826 IUZ589824:IUZ589826 JEV589824:JEV589826 JOR589824:JOR589826 JYN589824:JYN589826 KIJ589824:KIJ589826 KSF589824:KSF589826 LCB589824:LCB589826 LLX589824:LLX589826 LVT589824:LVT589826 MFP589824:MFP589826 MPL589824:MPL589826 MZH589824:MZH589826 NJD589824:NJD589826 NSZ589824:NSZ589826 OCV589824:OCV589826 OMR589824:OMR589826 OWN589824:OWN589826 PGJ589824:PGJ589826 PQF589824:PQF589826 QAB589824:QAB589826 QJX589824:QJX589826 QTT589824:QTT589826 RDP589824:RDP589826 RNL589824:RNL589826 RXH589824:RXH589826 SHD589824:SHD589826 SQZ589824:SQZ589826 TAV589824:TAV589826 TKR589824:TKR589826 TUN589824:TUN589826 UEJ589824:UEJ589826 UOF589824:UOF589826 UYB589824:UYB589826 VHX589824:VHX589826 VRT589824:VRT589826 WBP589824:WBP589826 WLL589824:WLL589826 WVH589824:WVH589826 IV655360:IV655362 SR655360:SR655362 ACN655360:ACN655362 AMJ655360:AMJ655362 AWF655360:AWF655362 BGB655360:BGB655362 BPX655360:BPX655362 BZT655360:BZT655362 CJP655360:CJP655362 CTL655360:CTL655362 DDH655360:DDH655362 DND655360:DND655362 DWZ655360:DWZ655362 EGV655360:EGV655362 EQR655360:EQR655362 FAN655360:FAN655362 FKJ655360:FKJ655362 FUF655360:FUF655362 GEB655360:GEB655362 GNX655360:GNX655362 GXT655360:GXT655362 HHP655360:HHP655362 HRL655360:HRL655362 IBH655360:IBH655362 ILD655360:ILD655362 IUZ655360:IUZ655362 JEV655360:JEV655362 JOR655360:JOR655362 JYN655360:JYN655362 KIJ655360:KIJ655362 KSF655360:KSF655362 LCB655360:LCB655362 LLX655360:LLX655362 LVT655360:LVT655362 MFP655360:MFP655362 MPL655360:MPL655362 MZH655360:MZH655362 NJD655360:NJD655362 NSZ655360:NSZ655362 OCV655360:OCV655362 OMR655360:OMR655362 OWN655360:OWN655362 PGJ655360:PGJ655362 PQF655360:PQF655362 QAB655360:QAB655362 QJX655360:QJX655362 QTT655360:QTT655362 RDP655360:RDP655362 RNL655360:RNL655362 RXH655360:RXH655362 SHD655360:SHD655362 SQZ655360:SQZ655362 TAV655360:TAV655362 TKR655360:TKR655362 TUN655360:TUN655362 UEJ655360:UEJ655362 UOF655360:UOF655362 UYB655360:UYB655362 VHX655360:VHX655362 VRT655360:VRT655362 WBP655360:WBP655362 WLL655360:WLL655362 WVH655360:WVH655362 IV720896:IV720898 SR720896:SR720898 ACN720896:ACN720898 AMJ720896:AMJ720898 AWF720896:AWF720898 BGB720896:BGB720898 BPX720896:BPX720898 BZT720896:BZT720898 CJP720896:CJP720898 CTL720896:CTL720898 DDH720896:DDH720898 DND720896:DND720898 DWZ720896:DWZ720898 EGV720896:EGV720898 EQR720896:EQR720898 FAN720896:FAN720898 FKJ720896:FKJ720898 FUF720896:FUF720898 GEB720896:GEB720898 GNX720896:GNX720898 GXT720896:GXT720898 HHP720896:HHP720898 HRL720896:HRL720898 IBH720896:IBH720898 ILD720896:ILD720898 IUZ720896:IUZ720898 JEV720896:JEV720898 JOR720896:JOR720898 JYN720896:JYN720898 KIJ720896:KIJ720898 KSF720896:KSF720898 LCB720896:LCB720898 LLX720896:LLX720898 LVT720896:LVT720898 MFP720896:MFP720898 MPL720896:MPL720898 MZH720896:MZH720898 NJD720896:NJD720898 NSZ720896:NSZ720898 OCV720896:OCV720898 OMR720896:OMR720898 OWN720896:OWN720898 PGJ720896:PGJ720898 PQF720896:PQF720898 QAB720896:QAB720898 QJX720896:QJX720898 QTT720896:QTT720898 RDP720896:RDP720898 RNL720896:RNL720898 RXH720896:RXH720898 SHD720896:SHD720898 SQZ720896:SQZ720898 TAV720896:TAV720898 TKR720896:TKR720898 TUN720896:TUN720898 UEJ720896:UEJ720898 UOF720896:UOF720898 UYB720896:UYB720898 VHX720896:VHX720898 VRT720896:VRT720898 WBP720896:WBP720898 WLL720896:WLL720898 WVH720896:WVH720898 IV786432:IV786434 SR786432:SR786434 ACN786432:ACN786434 AMJ786432:AMJ786434 AWF786432:AWF786434 BGB786432:BGB786434 BPX786432:BPX786434 BZT786432:BZT786434 CJP786432:CJP786434 CTL786432:CTL786434 DDH786432:DDH786434 DND786432:DND786434 DWZ786432:DWZ786434 EGV786432:EGV786434 EQR786432:EQR786434 FAN786432:FAN786434 FKJ786432:FKJ786434 FUF786432:FUF786434 GEB786432:GEB786434 GNX786432:GNX786434 GXT786432:GXT786434 HHP786432:HHP786434 HRL786432:HRL786434 IBH786432:IBH786434 ILD786432:ILD786434 IUZ786432:IUZ786434 JEV786432:JEV786434 JOR786432:JOR786434 JYN786432:JYN786434 KIJ786432:KIJ786434 KSF786432:KSF786434 LCB786432:LCB786434 LLX786432:LLX786434 LVT786432:LVT786434 MFP786432:MFP786434 MPL786432:MPL786434 MZH786432:MZH786434 NJD786432:NJD786434 NSZ786432:NSZ786434 OCV786432:OCV786434 OMR786432:OMR786434 OWN786432:OWN786434 PGJ786432:PGJ786434 PQF786432:PQF786434 QAB786432:QAB786434 QJX786432:QJX786434 QTT786432:QTT786434 RDP786432:RDP786434 RNL786432:RNL786434 RXH786432:RXH786434 SHD786432:SHD786434 SQZ786432:SQZ786434 TAV786432:TAV786434 TKR786432:TKR786434 TUN786432:TUN786434 UEJ786432:UEJ786434 UOF786432:UOF786434 UYB786432:UYB786434 VHX786432:VHX786434 VRT786432:VRT786434 WBP786432:WBP786434 WLL786432:WLL786434 WVH786432:WVH786434 IV851968:IV851970 SR851968:SR851970 ACN851968:ACN851970 AMJ851968:AMJ851970 AWF851968:AWF851970 BGB851968:BGB851970 BPX851968:BPX851970 BZT851968:BZT851970 CJP851968:CJP851970 CTL851968:CTL851970 DDH851968:DDH851970 DND851968:DND851970 DWZ851968:DWZ851970 EGV851968:EGV851970 EQR851968:EQR851970 FAN851968:FAN851970 FKJ851968:FKJ851970 FUF851968:FUF851970 GEB851968:GEB851970 GNX851968:GNX851970 GXT851968:GXT851970 HHP851968:HHP851970 HRL851968:HRL851970 IBH851968:IBH851970 ILD851968:ILD851970 IUZ851968:IUZ851970 JEV851968:JEV851970 JOR851968:JOR851970 JYN851968:JYN851970 KIJ851968:KIJ851970 KSF851968:KSF851970 LCB851968:LCB851970 LLX851968:LLX851970 LVT851968:LVT851970 MFP851968:MFP851970 MPL851968:MPL851970 MZH851968:MZH851970 NJD851968:NJD851970 NSZ851968:NSZ851970 OCV851968:OCV851970 OMR851968:OMR851970 OWN851968:OWN851970 PGJ851968:PGJ851970 PQF851968:PQF851970 QAB851968:QAB851970 QJX851968:QJX851970 QTT851968:QTT851970 RDP851968:RDP851970 RNL851968:RNL851970 RXH851968:RXH851970 SHD851968:SHD851970 SQZ851968:SQZ851970 TAV851968:TAV851970 TKR851968:TKR851970 TUN851968:TUN851970 UEJ851968:UEJ851970 UOF851968:UOF851970 UYB851968:UYB851970 VHX851968:VHX851970 VRT851968:VRT851970 WBP851968:WBP851970 WLL851968:WLL851970 WVH851968:WVH851970 IV917504:IV917506 SR917504:SR917506 ACN917504:ACN917506 AMJ917504:AMJ917506 AWF917504:AWF917506 BGB917504:BGB917506 BPX917504:BPX917506 BZT917504:BZT917506 CJP917504:CJP917506 CTL917504:CTL917506 DDH917504:DDH917506 DND917504:DND917506 DWZ917504:DWZ917506 EGV917504:EGV917506 EQR917504:EQR917506 FAN917504:FAN917506 FKJ917504:FKJ917506 FUF917504:FUF917506 GEB917504:GEB917506 GNX917504:GNX917506 GXT917504:GXT917506 HHP917504:HHP917506 HRL917504:HRL917506 IBH917504:IBH917506 ILD917504:ILD917506 IUZ917504:IUZ917506 JEV917504:JEV917506 JOR917504:JOR917506 JYN917504:JYN917506 KIJ917504:KIJ917506 KSF917504:KSF917506 LCB917504:LCB917506 LLX917504:LLX917506 LVT917504:LVT917506 MFP917504:MFP917506 MPL917504:MPL917506 MZH917504:MZH917506 NJD917504:NJD917506 NSZ917504:NSZ917506 OCV917504:OCV917506 OMR917504:OMR917506 OWN917504:OWN917506 PGJ917504:PGJ917506 PQF917504:PQF917506 QAB917504:QAB917506 QJX917504:QJX917506 QTT917504:QTT917506 RDP917504:RDP917506 RNL917504:RNL917506 RXH917504:RXH917506 SHD917504:SHD917506 SQZ917504:SQZ917506 TAV917504:TAV917506 TKR917504:TKR917506 TUN917504:TUN917506 UEJ917504:UEJ917506 UOF917504:UOF917506 UYB917504:UYB917506 VHX917504:VHX917506 VRT917504:VRT917506 WBP917504:WBP917506 WLL917504:WLL917506 WVH917504:WVH917506 IV983040:IV983042 SR983040:SR983042 ACN983040:ACN983042 AMJ983040:AMJ983042 AWF983040:AWF983042 BGB983040:BGB983042 BPX983040:BPX983042 BZT983040:BZT983042 CJP983040:CJP983042 CTL983040:CTL983042 DDH983040:DDH983042 DND983040:DND983042 DWZ983040:DWZ983042 EGV983040:EGV983042 EQR983040:EQR983042 FAN983040:FAN983042 FKJ983040:FKJ983042 FUF983040:FUF983042 GEB983040:GEB983042 GNX983040:GNX983042 GXT983040:GXT983042 HHP983040:HHP983042 HRL983040:HRL983042 IBH983040:IBH983042 ILD983040:ILD983042 IUZ983040:IUZ983042 JEV983040:JEV983042 JOR983040:JOR983042 JYN983040:JYN983042 KIJ983040:KIJ983042 KSF983040:KSF983042 LCB983040:LCB983042 LLX983040:LLX983042 LVT983040:LVT983042 MFP983040:MFP983042 MPL983040:MPL983042 MZH983040:MZH983042 NJD983040:NJD983042 NSZ983040:NSZ983042 OCV983040:OCV983042 OMR983040:OMR983042 OWN983040:OWN983042 PGJ983040:PGJ983042 PQF983040:PQF983042 QAB983040:QAB983042 QJX983040:QJX983042 QTT983040:QTT983042 RDP983040:RDP983042 RNL983040:RNL983042 RXH983040:RXH983042 SHD983040:SHD983042 SQZ983040:SQZ983042 TAV983040:TAV983042 TKR983040:TKR983042 TUN983040:TUN983042 UEJ983040:UEJ983042 UOF983040:UOF983042 UYB983040:UYB983042 VHX983040:VHX983042 VRT983040:VRT983042 WBP983040:WBP983042 WLL983040:WLL983042">
-      <formula1>INDIRECT($E$5)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:J5 WVC983041:WVJ983041 E983041:K983041 E917505:K917505 E851969:K851969 E786433:K786433 E720897:K720897 E655361:K655361 E589825:K589825 E524289:K524289 E458753:K458753 E393217:K393217 E327681:K327681 E262145:K262145 E196609:K196609 E131073:K131073 E65537:K65537 IQ5:IX5 SM5:ST5 ACI5:ACP5 AME5:AML5 AWA5:AWH5 BFW5:BGD5 BPS5:BPZ5 BZO5:BZV5 CJK5:CJR5 CTG5:CTN5 DDC5:DDJ5 DMY5:DNF5 DWU5:DXB5 EGQ5:EGX5 EQM5:EQT5 FAI5:FAP5 FKE5:FKL5 FUA5:FUH5 GDW5:GED5 GNS5:GNZ5 GXO5:GXV5 HHK5:HHR5 HRG5:HRN5 IBC5:IBJ5 IKY5:ILF5 IUU5:IVB5 JEQ5:JEX5 JOM5:JOT5 JYI5:JYP5 KIE5:KIL5 KSA5:KSH5 LBW5:LCD5 LLS5:LLZ5 LVO5:LVV5 MFK5:MFR5 MPG5:MPN5 MZC5:MZJ5 NIY5:NJF5 NSU5:NTB5 OCQ5:OCX5 OMM5:OMT5 OWI5:OWP5 PGE5:PGL5 PQA5:PQH5 PZW5:QAD5 QJS5:QJZ5 QTO5:QTV5 RDK5:RDR5 RNG5:RNN5 RXC5:RXJ5 SGY5:SHF5 SQU5:SRB5 TAQ5:TAX5 TKM5:TKT5 TUI5:TUP5 UEE5:UEL5 UOA5:UOH5 UXW5:UYD5 VHS5:VHZ5 VRO5:VRV5 WBK5:WBR5 WLG5:WLN5 WVC5:WVJ5 IQ65537:IX65537 SM65537:ST65537 ACI65537:ACP65537 AME65537:AML65537 AWA65537:AWH65537 BFW65537:BGD65537 BPS65537:BPZ65537 BZO65537:BZV65537 CJK65537:CJR65537 CTG65537:CTN65537 DDC65537:DDJ65537 DMY65537:DNF65537 DWU65537:DXB65537 EGQ65537:EGX65537 EQM65537:EQT65537 FAI65537:FAP65537 FKE65537:FKL65537 FUA65537:FUH65537 GDW65537:GED65537 GNS65537:GNZ65537 GXO65537:GXV65537 HHK65537:HHR65537 HRG65537:HRN65537 IBC65537:IBJ65537 IKY65537:ILF65537 IUU65537:IVB65537 JEQ65537:JEX65537 JOM65537:JOT65537 JYI65537:JYP65537 KIE65537:KIL65537 KSA65537:KSH65537 LBW65537:LCD65537 LLS65537:LLZ65537 LVO65537:LVV65537 MFK65537:MFR65537 MPG65537:MPN65537 MZC65537:MZJ65537 NIY65537:NJF65537 NSU65537:NTB65537 OCQ65537:OCX65537 OMM65537:OMT65537 OWI65537:OWP65537 PGE65537:PGL65537 PQA65537:PQH65537 PZW65537:QAD65537 QJS65537:QJZ65537 QTO65537:QTV65537 RDK65537:RDR65537 RNG65537:RNN65537 RXC65537:RXJ65537 SGY65537:SHF65537 SQU65537:SRB65537 TAQ65537:TAX65537 TKM65537:TKT65537 TUI65537:TUP65537 UEE65537:UEL65537 UOA65537:UOH65537 UXW65537:UYD65537 VHS65537:VHZ65537 VRO65537:VRV65537 WBK65537:WBR65537 WLG65537:WLN65537 WVC65537:WVJ65537 IQ131073:IX131073 SM131073:ST131073 ACI131073:ACP131073 AME131073:AML131073 AWA131073:AWH131073 BFW131073:BGD131073 BPS131073:BPZ131073 BZO131073:BZV131073 CJK131073:CJR131073 CTG131073:CTN131073 DDC131073:DDJ131073 DMY131073:DNF131073 DWU131073:DXB131073 EGQ131073:EGX131073 EQM131073:EQT131073 FAI131073:FAP131073 FKE131073:FKL131073 FUA131073:FUH131073 GDW131073:GED131073 GNS131073:GNZ131073 GXO131073:GXV131073 HHK131073:HHR131073 HRG131073:HRN131073 IBC131073:IBJ131073 IKY131073:ILF131073 IUU131073:IVB131073 JEQ131073:JEX131073 JOM131073:JOT131073 JYI131073:JYP131073 KIE131073:KIL131073 KSA131073:KSH131073 LBW131073:LCD131073 LLS131073:LLZ131073 LVO131073:LVV131073 MFK131073:MFR131073 MPG131073:MPN131073 MZC131073:MZJ131073 NIY131073:NJF131073 NSU131073:NTB131073 OCQ131073:OCX131073 OMM131073:OMT131073 OWI131073:OWP131073 PGE131073:PGL131073 PQA131073:PQH131073 PZW131073:QAD131073 QJS131073:QJZ131073 QTO131073:QTV131073 RDK131073:RDR131073 RNG131073:RNN131073 RXC131073:RXJ131073 SGY131073:SHF131073 SQU131073:SRB131073 TAQ131073:TAX131073 TKM131073:TKT131073 TUI131073:TUP131073 UEE131073:UEL131073 UOA131073:UOH131073 UXW131073:UYD131073 VHS131073:VHZ131073 VRO131073:VRV131073 WBK131073:WBR131073 WLG131073:WLN131073 WVC131073:WVJ131073 IQ196609:IX196609 SM196609:ST196609 ACI196609:ACP196609 AME196609:AML196609 AWA196609:AWH196609 BFW196609:BGD196609 BPS196609:BPZ196609 BZO196609:BZV196609 CJK196609:CJR196609 CTG196609:CTN196609 DDC196609:DDJ196609 DMY196609:DNF196609 DWU196609:DXB196609 EGQ196609:EGX196609 EQM196609:EQT196609 FAI196609:FAP196609 FKE196609:FKL196609 FUA196609:FUH196609 GDW196609:GED196609 GNS196609:GNZ196609 GXO196609:GXV196609 HHK196609:HHR196609 HRG196609:HRN196609 IBC196609:IBJ196609 IKY196609:ILF196609 IUU196609:IVB196609 JEQ196609:JEX196609 JOM196609:JOT196609 JYI196609:JYP196609 KIE196609:KIL196609 KSA196609:KSH196609 LBW196609:LCD196609 LLS196609:LLZ196609 LVO196609:LVV196609 MFK196609:MFR196609 MPG196609:MPN196609 MZC196609:MZJ196609 NIY196609:NJF196609 NSU196609:NTB196609 OCQ196609:OCX196609 OMM196609:OMT196609 OWI196609:OWP196609 PGE196609:PGL196609 PQA196609:PQH196609 PZW196609:QAD196609 QJS196609:QJZ196609 QTO196609:QTV196609 RDK196609:RDR196609 RNG196609:RNN196609 RXC196609:RXJ196609 SGY196609:SHF196609 SQU196609:SRB196609 TAQ196609:TAX196609 TKM196609:TKT196609 TUI196609:TUP196609 UEE196609:UEL196609 UOA196609:UOH196609 UXW196609:UYD196609 VHS196609:VHZ196609 VRO196609:VRV196609 WBK196609:WBR196609 WLG196609:WLN196609 WVC196609:WVJ196609 IQ262145:IX262145 SM262145:ST262145 ACI262145:ACP262145 AME262145:AML262145 AWA262145:AWH262145 BFW262145:BGD262145 BPS262145:BPZ262145 BZO262145:BZV262145 CJK262145:CJR262145 CTG262145:CTN262145 DDC262145:DDJ262145 DMY262145:DNF262145 DWU262145:DXB262145 EGQ262145:EGX262145 EQM262145:EQT262145 FAI262145:FAP262145 FKE262145:FKL262145 FUA262145:FUH262145 GDW262145:GED262145 GNS262145:GNZ262145 GXO262145:GXV262145 HHK262145:HHR262145 HRG262145:HRN262145 IBC262145:IBJ262145 IKY262145:ILF262145 IUU262145:IVB262145 JEQ262145:JEX262145 JOM262145:JOT262145 JYI262145:JYP262145 KIE262145:KIL262145 KSA262145:KSH262145 LBW262145:LCD262145 LLS262145:LLZ262145 LVO262145:LVV262145 MFK262145:MFR262145 MPG262145:MPN262145 MZC262145:MZJ262145 NIY262145:NJF262145 NSU262145:NTB262145 OCQ262145:OCX262145 OMM262145:OMT262145 OWI262145:OWP262145 PGE262145:PGL262145 PQA262145:PQH262145 PZW262145:QAD262145 QJS262145:QJZ262145 QTO262145:QTV262145 RDK262145:RDR262145 RNG262145:RNN262145 RXC262145:RXJ262145 SGY262145:SHF262145 SQU262145:SRB262145 TAQ262145:TAX262145 TKM262145:TKT262145 TUI262145:TUP262145 UEE262145:UEL262145 UOA262145:UOH262145 UXW262145:UYD262145 VHS262145:VHZ262145 VRO262145:VRV262145 WBK262145:WBR262145 WLG262145:WLN262145 WVC262145:WVJ262145 IQ327681:IX327681 SM327681:ST327681 ACI327681:ACP327681 AME327681:AML327681 AWA327681:AWH327681 BFW327681:BGD327681 BPS327681:BPZ327681 BZO327681:BZV327681 CJK327681:CJR327681 CTG327681:CTN327681 DDC327681:DDJ327681 DMY327681:DNF327681 DWU327681:DXB327681 EGQ327681:EGX327681 EQM327681:EQT327681 FAI327681:FAP327681 FKE327681:FKL327681 FUA327681:FUH327681 GDW327681:GED327681 GNS327681:GNZ327681 GXO327681:GXV327681 HHK327681:HHR327681 HRG327681:HRN327681 IBC327681:IBJ327681 IKY327681:ILF327681 IUU327681:IVB327681 JEQ327681:JEX327681 JOM327681:JOT327681 JYI327681:JYP327681 KIE327681:KIL327681 KSA327681:KSH327681 LBW327681:LCD327681 LLS327681:LLZ327681 LVO327681:LVV327681 MFK327681:MFR327681 MPG327681:MPN327681 MZC327681:MZJ327681 NIY327681:NJF327681 NSU327681:NTB327681 OCQ327681:OCX327681 OMM327681:OMT327681 OWI327681:OWP327681 PGE327681:PGL327681 PQA327681:PQH327681 PZW327681:QAD327681 QJS327681:QJZ327681 QTO327681:QTV327681 RDK327681:RDR327681 RNG327681:RNN327681 RXC327681:RXJ327681 SGY327681:SHF327681 SQU327681:SRB327681 TAQ327681:TAX327681 TKM327681:TKT327681 TUI327681:TUP327681 UEE327681:UEL327681 UOA327681:UOH327681 UXW327681:UYD327681 VHS327681:VHZ327681 VRO327681:VRV327681 WBK327681:WBR327681 WLG327681:WLN327681 WVC327681:WVJ327681 IQ393217:IX393217 SM393217:ST393217 ACI393217:ACP393217 AME393217:AML393217 AWA393217:AWH393217 BFW393217:BGD393217 BPS393217:BPZ393217 BZO393217:BZV393217 CJK393217:CJR393217 CTG393217:CTN393217 DDC393217:DDJ393217 DMY393217:DNF393217 DWU393217:DXB393217 EGQ393217:EGX393217 EQM393217:EQT393217 FAI393217:FAP393217 FKE393217:FKL393217 FUA393217:FUH393217 GDW393217:GED393217 GNS393217:GNZ393217 GXO393217:GXV393217 HHK393217:HHR393217 HRG393217:HRN393217 IBC393217:IBJ393217 IKY393217:ILF393217 IUU393217:IVB393217 JEQ393217:JEX393217 JOM393217:JOT393217 JYI393217:JYP393217 KIE393217:KIL393217 KSA393217:KSH393217 LBW393217:LCD393217 LLS393217:LLZ393217 LVO393217:LVV393217 MFK393217:MFR393217 MPG393217:MPN393217 MZC393217:MZJ393217 NIY393217:NJF393217 NSU393217:NTB393217 OCQ393217:OCX393217 OMM393217:OMT393217 OWI393217:OWP393217 PGE393217:PGL393217 PQA393217:PQH393217 PZW393217:QAD393217 QJS393217:QJZ393217 QTO393217:QTV393217 RDK393217:RDR393217 RNG393217:RNN393217 RXC393217:RXJ393217 SGY393217:SHF393217 SQU393217:SRB393217 TAQ393217:TAX393217 TKM393217:TKT393217 TUI393217:TUP393217 UEE393217:UEL393217 UOA393217:UOH393217 UXW393217:UYD393217 VHS393217:VHZ393217 VRO393217:VRV393217 WBK393217:WBR393217 WLG393217:WLN393217 WVC393217:WVJ393217 IQ458753:IX458753 SM458753:ST458753 ACI458753:ACP458753 AME458753:AML458753 AWA458753:AWH458753 BFW458753:BGD458753 BPS458753:BPZ458753 BZO458753:BZV458753 CJK458753:CJR458753 CTG458753:CTN458753 DDC458753:DDJ458753 DMY458753:DNF458753 DWU458753:DXB458753 EGQ458753:EGX458753 EQM458753:EQT458753 FAI458753:FAP458753 FKE458753:FKL458753 FUA458753:FUH458753 GDW458753:GED458753 GNS458753:GNZ458753 GXO458753:GXV458753 HHK458753:HHR458753 HRG458753:HRN458753 IBC458753:IBJ458753 IKY458753:ILF458753 IUU458753:IVB458753 JEQ458753:JEX458753 JOM458753:JOT458753 JYI458753:JYP458753 KIE458753:KIL458753 KSA458753:KSH458753 LBW458753:LCD458753 LLS458753:LLZ458753 LVO458753:LVV458753 MFK458753:MFR458753 MPG458753:MPN458753 MZC458753:MZJ458753 NIY458753:NJF458753 NSU458753:NTB458753 OCQ458753:OCX458753 OMM458753:OMT458753 OWI458753:OWP458753 PGE458753:PGL458753 PQA458753:PQH458753 PZW458753:QAD458753 QJS458753:QJZ458753 QTO458753:QTV458753 RDK458753:RDR458753 RNG458753:RNN458753 RXC458753:RXJ458753 SGY458753:SHF458753 SQU458753:SRB458753 TAQ458753:TAX458753 TKM458753:TKT458753 TUI458753:TUP458753 UEE458753:UEL458753 UOA458753:UOH458753 UXW458753:UYD458753 VHS458753:VHZ458753 VRO458753:VRV458753 WBK458753:WBR458753 WLG458753:WLN458753 WVC458753:WVJ458753 IQ524289:IX524289 SM524289:ST524289 ACI524289:ACP524289 AME524289:AML524289 AWA524289:AWH524289 BFW524289:BGD524289 BPS524289:BPZ524289 BZO524289:BZV524289 CJK524289:CJR524289 CTG524289:CTN524289 DDC524289:DDJ524289 DMY524289:DNF524289 DWU524289:DXB524289 EGQ524289:EGX524289 EQM524289:EQT524289 FAI524289:FAP524289 FKE524289:FKL524289 FUA524289:FUH524289 GDW524289:GED524289 GNS524289:GNZ524289 GXO524289:GXV524289 HHK524289:HHR524289 HRG524289:HRN524289 IBC524289:IBJ524289 IKY524289:ILF524289 IUU524289:IVB524289 JEQ524289:JEX524289 JOM524289:JOT524289 JYI524289:JYP524289 KIE524289:KIL524289 KSA524289:KSH524289 LBW524289:LCD524289 LLS524289:LLZ524289 LVO524289:LVV524289 MFK524289:MFR524289 MPG524289:MPN524289 MZC524289:MZJ524289 NIY524289:NJF524289 NSU524289:NTB524289 OCQ524289:OCX524289 OMM524289:OMT524289 OWI524289:OWP524289 PGE524289:PGL524289 PQA524289:PQH524289 PZW524289:QAD524289 QJS524289:QJZ524289 QTO524289:QTV524289 RDK524289:RDR524289 RNG524289:RNN524289 RXC524289:RXJ524289 SGY524289:SHF524289 SQU524289:SRB524289 TAQ524289:TAX524289 TKM524289:TKT524289 TUI524289:TUP524289 UEE524289:UEL524289 UOA524289:UOH524289 UXW524289:UYD524289 VHS524289:VHZ524289 VRO524289:VRV524289 WBK524289:WBR524289 WLG524289:WLN524289 WVC524289:WVJ524289 IQ589825:IX589825 SM589825:ST589825 ACI589825:ACP589825 AME589825:AML589825 AWA589825:AWH589825 BFW589825:BGD589825 BPS589825:BPZ589825 BZO589825:BZV589825 CJK589825:CJR589825 CTG589825:CTN589825 DDC589825:DDJ589825 DMY589825:DNF589825 DWU589825:DXB589825 EGQ589825:EGX589825 EQM589825:EQT589825 FAI589825:FAP589825 FKE589825:FKL589825 FUA589825:FUH589825 GDW589825:GED589825 GNS589825:GNZ589825 GXO589825:GXV589825 HHK589825:HHR589825 HRG589825:HRN589825 IBC589825:IBJ589825 IKY589825:ILF589825 IUU589825:IVB589825 JEQ589825:JEX589825 JOM589825:JOT589825 JYI589825:JYP589825 KIE589825:KIL589825 KSA589825:KSH589825 LBW589825:LCD589825 LLS589825:LLZ589825 LVO589825:LVV589825 MFK589825:MFR589825 MPG589825:MPN589825 MZC589825:MZJ589825 NIY589825:NJF589825 NSU589825:NTB589825 OCQ589825:OCX589825 OMM589825:OMT589825 OWI589825:OWP589825 PGE589825:PGL589825 PQA589825:PQH589825 PZW589825:QAD589825 QJS589825:QJZ589825 QTO589825:QTV589825 RDK589825:RDR589825 RNG589825:RNN589825 RXC589825:RXJ589825 SGY589825:SHF589825 SQU589825:SRB589825 TAQ589825:TAX589825 TKM589825:TKT589825 TUI589825:TUP589825 UEE589825:UEL589825 UOA589825:UOH589825 UXW589825:UYD589825 VHS589825:VHZ589825 VRO589825:VRV589825 WBK589825:WBR589825 WLG589825:WLN589825 WVC589825:WVJ589825 IQ655361:IX655361 SM655361:ST655361 ACI655361:ACP655361 AME655361:AML655361 AWA655361:AWH655361 BFW655361:BGD655361 BPS655361:BPZ655361 BZO655361:BZV655361 CJK655361:CJR655361 CTG655361:CTN655361 DDC655361:DDJ655361 DMY655361:DNF655361 DWU655361:DXB655361 EGQ655361:EGX655361 EQM655361:EQT655361 FAI655361:FAP655361 FKE655361:FKL655361 FUA655361:FUH655361 GDW655361:GED655361 GNS655361:GNZ655361 GXO655361:GXV655361 HHK655361:HHR655361 HRG655361:HRN655361 IBC655361:IBJ655361 IKY655361:ILF655361 IUU655361:IVB655361 JEQ655361:JEX655361 JOM655361:JOT655361 JYI655361:JYP655361 KIE655361:KIL655361 KSA655361:KSH655361 LBW655361:LCD655361 LLS655361:LLZ655361 LVO655361:LVV655361 MFK655361:MFR655361 MPG655361:MPN655361 MZC655361:MZJ655361 NIY655361:NJF655361 NSU655361:NTB655361 OCQ655361:OCX655361 OMM655361:OMT655361 OWI655361:OWP655361 PGE655361:PGL655361 PQA655361:PQH655361 PZW655361:QAD655361 QJS655361:QJZ655361 QTO655361:QTV655361 RDK655361:RDR655361 RNG655361:RNN655361 RXC655361:RXJ655361 SGY655361:SHF655361 SQU655361:SRB655361 TAQ655361:TAX655361 TKM655361:TKT655361 TUI655361:TUP655361 UEE655361:UEL655361 UOA655361:UOH655361 UXW655361:UYD655361 VHS655361:VHZ655361 VRO655361:VRV655361 WBK655361:WBR655361 WLG655361:WLN655361 WVC655361:WVJ655361 IQ720897:IX720897 SM720897:ST720897 ACI720897:ACP720897 AME720897:AML720897 AWA720897:AWH720897 BFW720897:BGD720897 BPS720897:BPZ720897 BZO720897:BZV720897 CJK720897:CJR720897 CTG720897:CTN720897 DDC720897:DDJ720897 DMY720897:DNF720897 DWU720897:DXB720897 EGQ720897:EGX720897 EQM720897:EQT720897 FAI720897:FAP720897 FKE720897:FKL720897 FUA720897:FUH720897 GDW720897:GED720897 GNS720897:GNZ720897 GXO720897:GXV720897 HHK720897:HHR720897 HRG720897:HRN720897 IBC720897:IBJ720897 IKY720897:ILF720897 IUU720897:IVB720897 JEQ720897:JEX720897 JOM720897:JOT720897 JYI720897:JYP720897 KIE720897:KIL720897 KSA720897:KSH720897 LBW720897:LCD720897 LLS720897:LLZ720897 LVO720897:LVV720897 MFK720897:MFR720897 MPG720897:MPN720897 MZC720897:MZJ720897 NIY720897:NJF720897 NSU720897:NTB720897 OCQ720897:OCX720897 OMM720897:OMT720897 OWI720897:OWP720897 PGE720897:PGL720897 PQA720897:PQH720897 PZW720897:QAD720897 QJS720897:QJZ720897 QTO720897:QTV720897 RDK720897:RDR720897 RNG720897:RNN720897 RXC720897:RXJ720897 SGY720897:SHF720897 SQU720897:SRB720897 TAQ720897:TAX720897 TKM720897:TKT720897 TUI720897:TUP720897 UEE720897:UEL720897 UOA720897:UOH720897 UXW720897:UYD720897 VHS720897:VHZ720897 VRO720897:VRV720897 WBK720897:WBR720897 WLG720897:WLN720897 WVC720897:WVJ720897 IQ786433:IX786433 SM786433:ST786433 ACI786433:ACP786433 AME786433:AML786433 AWA786433:AWH786433 BFW786433:BGD786433 BPS786433:BPZ786433 BZO786433:BZV786433 CJK786433:CJR786433 CTG786433:CTN786433 DDC786433:DDJ786433 DMY786433:DNF786433 DWU786433:DXB786433 EGQ786433:EGX786433 EQM786433:EQT786433 FAI786433:FAP786433 FKE786433:FKL786433 FUA786433:FUH786433 GDW786433:GED786433 GNS786433:GNZ786433 GXO786433:GXV786433 HHK786433:HHR786433 HRG786433:HRN786433 IBC786433:IBJ786433 IKY786433:ILF786433 IUU786433:IVB786433 JEQ786433:JEX786433 JOM786433:JOT786433 JYI786433:JYP786433 KIE786433:KIL786433 KSA786433:KSH786433 LBW786433:LCD786433 LLS786433:LLZ786433 LVO786433:LVV786433 MFK786433:MFR786433 MPG786433:MPN786433 MZC786433:MZJ786433 NIY786433:NJF786433 NSU786433:NTB786433 OCQ786433:OCX786433 OMM786433:OMT786433 OWI786433:OWP786433 PGE786433:PGL786433 PQA786433:PQH786433 PZW786433:QAD786433 QJS786433:QJZ786433 QTO786433:QTV786433 RDK786433:RDR786433 RNG786433:RNN786433 RXC786433:RXJ786433 SGY786433:SHF786433 SQU786433:SRB786433 TAQ786433:TAX786433 TKM786433:TKT786433 TUI786433:TUP786433 UEE786433:UEL786433 UOA786433:UOH786433 UXW786433:UYD786433 VHS786433:VHZ786433 VRO786433:VRV786433 WBK786433:WBR786433 WLG786433:WLN786433 WVC786433:WVJ786433 IQ851969:IX851969 SM851969:ST851969 ACI851969:ACP851969 AME851969:AML851969 AWA851969:AWH851969 BFW851969:BGD851969 BPS851969:BPZ851969 BZO851969:BZV851969 CJK851969:CJR851969 CTG851969:CTN851969 DDC851969:DDJ851969 DMY851969:DNF851969 DWU851969:DXB851969 EGQ851969:EGX851969 EQM851969:EQT851969 FAI851969:FAP851969 FKE851969:FKL851969 FUA851969:FUH851969 GDW851969:GED851969 GNS851969:GNZ851969 GXO851969:GXV851969 HHK851969:HHR851969 HRG851969:HRN851969 IBC851969:IBJ851969 IKY851969:ILF851969 IUU851969:IVB851969 JEQ851969:JEX851969 JOM851969:JOT851969 JYI851969:JYP851969 KIE851969:KIL851969 KSA851969:KSH851969 LBW851969:LCD851969 LLS851969:LLZ851969 LVO851969:LVV851969 MFK851969:MFR851969 MPG851969:MPN851969 MZC851969:MZJ851969 NIY851969:NJF851969 NSU851969:NTB851969 OCQ851969:OCX851969 OMM851969:OMT851969 OWI851969:OWP851969 PGE851969:PGL851969 PQA851969:PQH851969 PZW851969:QAD851969 QJS851969:QJZ851969 QTO851969:QTV851969 RDK851969:RDR851969 RNG851969:RNN851969 RXC851969:RXJ851969 SGY851969:SHF851969 SQU851969:SRB851969 TAQ851969:TAX851969 TKM851969:TKT851969 TUI851969:TUP851969 UEE851969:UEL851969 UOA851969:UOH851969 UXW851969:UYD851969 VHS851969:VHZ851969 VRO851969:VRV851969 WBK851969:WBR851969 WLG851969:WLN851969 WVC851969:WVJ851969 IQ917505:IX917505 SM917505:ST917505 ACI917505:ACP917505 AME917505:AML917505 AWA917505:AWH917505 BFW917505:BGD917505 BPS917505:BPZ917505 BZO917505:BZV917505 CJK917505:CJR917505 CTG917505:CTN917505 DDC917505:DDJ917505 DMY917505:DNF917505 DWU917505:DXB917505 EGQ917505:EGX917505 EQM917505:EQT917505 FAI917505:FAP917505 FKE917505:FKL917505 FUA917505:FUH917505 GDW917505:GED917505 GNS917505:GNZ917505 GXO917505:GXV917505 HHK917505:HHR917505 HRG917505:HRN917505 IBC917505:IBJ917505 IKY917505:ILF917505 IUU917505:IVB917505 JEQ917505:JEX917505 JOM917505:JOT917505 JYI917505:JYP917505 KIE917505:KIL917505 KSA917505:KSH917505 LBW917505:LCD917505 LLS917505:LLZ917505 LVO917505:LVV917505 MFK917505:MFR917505 MPG917505:MPN917505 MZC917505:MZJ917505 NIY917505:NJF917505 NSU917505:NTB917505 OCQ917505:OCX917505 OMM917505:OMT917505 OWI917505:OWP917505 PGE917505:PGL917505 PQA917505:PQH917505 PZW917505:QAD917505 QJS917505:QJZ917505 QTO917505:QTV917505 RDK917505:RDR917505 RNG917505:RNN917505 RXC917505:RXJ917505 SGY917505:SHF917505 SQU917505:SRB917505 TAQ917505:TAX917505 TKM917505:TKT917505 TUI917505:TUP917505 UEE917505:UEL917505 UOA917505:UOH917505 UXW917505:UYD917505 VHS917505:VHZ917505 VRO917505:VRV917505 WBK917505:WBR917505 WLG917505:WLN917505 WVC917505:WVJ917505 IQ983041:IX983041 SM983041:ST983041 ACI983041:ACP983041 AME983041:AML983041 AWA983041:AWH983041 BFW983041:BGD983041 BPS983041:BPZ983041 BZO983041:BZV983041 CJK983041:CJR983041 CTG983041:CTN983041 DDC983041:DDJ983041 DMY983041:DNF983041 DWU983041:DXB983041 EGQ983041:EGX983041 EQM983041:EQT983041 FAI983041:FAP983041 FKE983041:FKL983041 FUA983041:FUH983041 GDW983041:GED983041 GNS983041:GNZ983041 GXO983041:GXV983041 HHK983041:HHR983041 HRG983041:HRN983041 IBC983041:IBJ983041 IKY983041:ILF983041 IUU983041:IVB983041 JEQ983041:JEX983041 JOM983041:JOT983041 JYI983041:JYP983041 KIE983041:KIL983041 KSA983041:KSH983041 LBW983041:LCD983041 LLS983041:LLZ983041 LVO983041:LVV983041 MFK983041:MFR983041 MPG983041:MPN983041 MZC983041:MZJ983041 NIY983041:NJF983041 NSU983041:NTB983041 OCQ983041:OCX983041 OMM983041:OMT983041 OWI983041:OWP983041 PGE983041:PGL983041 PQA983041:PQH983041 PZW983041:QAD983041 QJS983041:QJZ983041 QTO983041:QTV983041 RDK983041:RDR983041 RNG983041:RNN983041 RXC983041:RXJ983041 SGY983041:SHF983041 SQU983041:SRB983041 TAQ983041:TAX983041 TKM983041:TKT983041 TUI983041:TUP983041 UEE983041:UEL983041 UOA983041:UOH983041 UXW983041:UYD983041 VHS983041:VHZ983041 VRO983041:VRV983041 WBK983041:WBR983041 WLG983041:WLN983041">
+      <formula1>INDIRECT($D$4)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVC983039:WVJ983039 E5:K5 E983039:K983039 E917503:K917503 E851967:K851967 E786431:K786431 E720895:K720895 E655359:K655359 E589823:K589823 E524287:K524287 E458751:K458751 E393215:K393215 E327679:K327679 E262143:K262143 E196607:K196607 E131071:K131071 E65535:K65535 IQ5:IX5 SM5:ST5 ACI5:ACP5 AME5:AML5 AWA5:AWH5 BFW5:BGD5 BPS5:BPZ5 BZO5:BZV5 CJK5:CJR5 CTG5:CTN5 DDC5:DDJ5 DMY5:DNF5 DWU5:DXB5 EGQ5:EGX5 EQM5:EQT5 FAI5:FAP5 FKE5:FKL5 FUA5:FUH5 GDW5:GED5 GNS5:GNZ5 GXO5:GXV5 HHK5:HHR5 HRG5:HRN5 IBC5:IBJ5 IKY5:ILF5 IUU5:IVB5 JEQ5:JEX5 JOM5:JOT5 JYI5:JYP5 KIE5:KIL5 KSA5:KSH5 LBW5:LCD5 LLS5:LLZ5 LVO5:LVV5 MFK5:MFR5 MPG5:MPN5 MZC5:MZJ5 NIY5:NJF5 NSU5:NTB5 OCQ5:OCX5 OMM5:OMT5 OWI5:OWP5 PGE5:PGL5 PQA5:PQH5 PZW5:QAD5 QJS5:QJZ5 QTO5:QTV5 RDK5:RDR5 RNG5:RNN5 RXC5:RXJ5 SGY5:SHF5 SQU5:SRB5 TAQ5:TAX5 TKM5:TKT5 TUI5:TUP5 UEE5:UEL5 UOA5:UOH5 UXW5:UYD5 VHS5:VHZ5 VRO5:VRV5 WBK5:WBR5 WLG5:WLN5 WVC5:WVJ5 IQ65535:IX65535 SM65535:ST65535 ACI65535:ACP65535 AME65535:AML65535 AWA65535:AWH65535 BFW65535:BGD65535 BPS65535:BPZ65535 BZO65535:BZV65535 CJK65535:CJR65535 CTG65535:CTN65535 DDC65535:DDJ65535 DMY65535:DNF65535 DWU65535:DXB65535 EGQ65535:EGX65535 EQM65535:EQT65535 FAI65535:FAP65535 FKE65535:FKL65535 FUA65535:FUH65535 GDW65535:GED65535 GNS65535:GNZ65535 GXO65535:GXV65535 HHK65535:HHR65535 HRG65535:HRN65535 IBC65535:IBJ65535 IKY65535:ILF65535 IUU65535:IVB65535 JEQ65535:JEX65535 JOM65535:JOT65535 JYI65535:JYP65535 KIE65535:KIL65535 KSA65535:KSH65535 LBW65535:LCD65535 LLS65535:LLZ65535 LVO65535:LVV65535 MFK65535:MFR65535 MPG65535:MPN65535 MZC65535:MZJ65535 NIY65535:NJF65535 NSU65535:NTB65535 OCQ65535:OCX65535 OMM65535:OMT65535 OWI65535:OWP65535 PGE65535:PGL65535 PQA65535:PQH65535 PZW65535:QAD65535 QJS65535:QJZ65535 QTO65535:QTV65535 RDK65535:RDR65535 RNG65535:RNN65535 RXC65535:RXJ65535 SGY65535:SHF65535 SQU65535:SRB65535 TAQ65535:TAX65535 TKM65535:TKT65535 TUI65535:TUP65535 UEE65535:UEL65535 UOA65535:UOH65535 UXW65535:UYD65535 VHS65535:VHZ65535 VRO65535:VRV65535 WBK65535:WBR65535 WLG65535:WLN65535 WVC65535:WVJ65535 IQ131071:IX131071 SM131071:ST131071 ACI131071:ACP131071 AME131071:AML131071 AWA131071:AWH131071 BFW131071:BGD131071 BPS131071:BPZ131071 BZO131071:BZV131071 CJK131071:CJR131071 CTG131071:CTN131071 DDC131071:DDJ131071 DMY131071:DNF131071 DWU131071:DXB131071 EGQ131071:EGX131071 EQM131071:EQT131071 FAI131071:FAP131071 FKE131071:FKL131071 FUA131071:FUH131071 GDW131071:GED131071 GNS131071:GNZ131071 GXO131071:GXV131071 HHK131071:HHR131071 HRG131071:HRN131071 IBC131071:IBJ131071 IKY131071:ILF131071 IUU131071:IVB131071 JEQ131071:JEX131071 JOM131071:JOT131071 JYI131071:JYP131071 KIE131071:KIL131071 KSA131071:KSH131071 LBW131071:LCD131071 LLS131071:LLZ131071 LVO131071:LVV131071 MFK131071:MFR131071 MPG131071:MPN131071 MZC131071:MZJ131071 NIY131071:NJF131071 NSU131071:NTB131071 OCQ131071:OCX131071 OMM131071:OMT131071 OWI131071:OWP131071 PGE131071:PGL131071 PQA131071:PQH131071 PZW131071:QAD131071 QJS131071:QJZ131071 QTO131071:QTV131071 RDK131071:RDR131071 RNG131071:RNN131071 RXC131071:RXJ131071 SGY131071:SHF131071 SQU131071:SRB131071 TAQ131071:TAX131071 TKM131071:TKT131071 TUI131071:TUP131071 UEE131071:UEL131071 UOA131071:UOH131071 UXW131071:UYD131071 VHS131071:VHZ131071 VRO131071:VRV131071 WBK131071:WBR131071 WLG131071:WLN131071 WVC131071:WVJ131071 IQ196607:IX196607 SM196607:ST196607 ACI196607:ACP196607 AME196607:AML196607 AWA196607:AWH196607 BFW196607:BGD196607 BPS196607:BPZ196607 BZO196607:BZV196607 CJK196607:CJR196607 CTG196607:CTN196607 DDC196607:DDJ196607 DMY196607:DNF196607 DWU196607:DXB196607 EGQ196607:EGX196607 EQM196607:EQT196607 FAI196607:FAP196607 FKE196607:FKL196607 FUA196607:FUH196607 GDW196607:GED196607 GNS196607:GNZ196607 GXO196607:GXV196607 HHK196607:HHR196607 HRG196607:HRN196607 IBC196607:IBJ196607 IKY196607:ILF196607 IUU196607:IVB196607 JEQ196607:JEX196607 JOM196607:JOT196607 JYI196607:JYP196607 KIE196607:KIL196607 KSA196607:KSH196607 LBW196607:LCD196607 LLS196607:LLZ196607 LVO196607:LVV196607 MFK196607:MFR196607 MPG196607:MPN196607 MZC196607:MZJ196607 NIY196607:NJF196607 NSU196607:NTB196607 OCQ196607:OCX196607 OMM196607:OMT196607 OWI196607:OWP196607 PGE196607:PGL196607 PQA196607:PQH196607 PZW196607:QAD196607 QJS196607:QJZ196607 QTO196607:QTV196607 RDK196607:RDR196607 RNG196607:RNN196607 RXC196607:RXJ196607 SGY196607:SHF196607 SQU196607:SRB196607 TAQ196607:TAX196607 TKM196607:TKT196607 TUI196607:TUP196607 UEE196607:UEL196607 UOA196607:UOH196607 UXW196607:UYD196607 VHS196607:VHZ196607 VRO196607:VRV196607 WBK196607:WBR196607 WLG196607:WLN196607 WVC196607:WVJ196607 IQ262143:IX262143 SM262143:ST262143 ACI262143:ACP262143 AME262143:AML262143 AWA262143:AWH262143 BFW262143:BGD262143 BPS262143:BPZ262143 BZO262143:BZV262143 CJK262143:CJR262143 CTG262143:CTN262143 DDC262143:DDJ262143 DMY262143:DNF262143 DWU262143:DXB262143 EGQ262143:EGX262143 EQM262143:EQT262143 FAI262143:FAP262143 FKE262143:FKL262143 FUA262143:FUH262143 GDW262143:GED262143 GNS262143:GNZ262143 GXO262143:GXV262143 HHK262143:HHR262143 HRG262143:HRN262143 IBC262143:IBJ262143 IKY262143:ILF262143 IUU262143:IVB262143 JEQ262143:JEX262143 JOM262143:JOT262143 JYI262143:JYP262143 KIE262143:KIL262143 KSA262143:KSH262143 LBW262143:LCD262143 LLS262143:LLZ262143 LVO262143:LVV262143 MFK262143:MFR262143 MPG262143:MPN262143 MZC262143:MZJ262143 NIY262143:NJF262143 NSU262143:NTB262143 OCQ262143:OCX262143 OMM262143:OMT262143 OWI262143:OWP262143 PGE262143:PGL262143 PQA262143:PQH262143 PZW262143:QAD262143 QJS262143:QJZ262143 QTO262143:QTV262143 RDK262143:RDR262143 RNG262143:RNN262143 RXC262143:RXJ262143 SGY262143:SHF262143 SQU262143:SRB262143 TAQ262143:TAX262143 TKM262143:TKT262143 TUI262143:TUP262143 UEE262143:UEL262143 UOA262143:UOH262143 UXW262143:UYD262143 VHS262143:VHZ262143 VRO262143:VRV262143 WBK262143:WBR262143 WLG262143:WLN262143 WVC262143:WVJ262143 IQ327679:IX327679 SM327679:ST327679 ACI327679:ACP327679 AME327679:AML327679 AWA327679:AWH327679 BFW327679:BGD327679 BPS327679:BPZ327679 BZO327679:BZV327679 CJK327679:CJR327679 CTG327679:CTN327679 DDC327679:DDJ327679 DMY327679:DNF327679 DWU327679:DXB327679 EGQ327679:EGX327679 EQM327679:EQT327679 FAI327679:FAP327679 FKE327679:FKL327679 FUA327679:FUH327679 GDW327679:GED327679 GNS327679:GNZ327679 GXO327679:GXV327679 HHK327679:HHR327679 HRG327679:HRN327679 IBC327679:IBJ327679 IKY327679:ILF327679 IUU327679:IVB327679 JEQ327679:JEX327679 JOM327679:JOT327679 JYI327679:JYP327679 KIE327679:KIL327679 KSA327679:KSH327679 LBW327679:LCD327679 LLS327679:LLZ327679 LVO327679:LVV327679 MFK327679:MFR327679 MPG327679:MPN327679 MZC327679:MZJ327679 NIY327679:NJF327679 NSU327679:NTB327679 OCQ327679:OCX327679 OMM327679:OMT327679 OWI327679:OWP327679 PGE327679:PGL327679 PQA327679:PQH327679 PZW327679:QAD327679 QJS327679:QJZ327679 QTO327679:QTV327679 RDK327679:RDR327679 RNG327679:RNN327679 RXC327679:RXJ327679 SGY327679:SHF327679 SQU327679:SRB327679 TAQ327679:TAX327679 TKM327679:TKT327679 TUI327679:TUP327679 UEE327679:UEL327679 UOA327679:UOH327679 UXW327679:UYD327679 VHS327679:VHZ327679 VRO327679:VRV327679 WBK327679:WBR327679 WLG327679:WLN327679 WVC327679:WVJ327679 IQ393215:IX393215 SM393215:ST393215 ACI393215:ACP393215 AME393215:AML393215 AWA393215:AWH393215 BFW393215:BGD393215 BPS393215:BPZ393215 BZO393215:BZV393215 CJK393215:CJR393215 CTG393215:CTN393215 DDC393215:DDJ393215 DMY393215:DNF393215 DWU393215:DXB393215 EGQ393215:EGX393215 EQM393215:EQT393215 FAI393215:FAP393215 FKE393215:FKL393215 FUA393215:FUH393215 GDW393215:GED393215 GNS393215:GNZ393215 GXO393215:GXV393215 HHK393215:HHR393215 HRG393215:HRN393215 IBC393215:IBJ393215 IKY393215:ILF393215 IUU393215:IVB393215 JEQ393215:JEX393215 JOM393215:JOT393215 JYI393215:JYP393215 KIE393215:KIL393215 KSA393215:KSH393215 LBW393215:LCD393215 LLS393215:LLZ393215 LVO393215:LVV393215 MFK393215:MFR393215 MPG393215:MPN393215 MZC393215:MZJ393215 NIY393215:NJF393215 NSU393215:NTB393215 OCQ393215:OCX393215 OMM393215:OMT393215 OWI393215:OWP393215 PGE393215:PGL393215 PQA393215:PQH393215 PZW393215:QAD393215 QJS393215:QJZ393215 QTO393215:QTV393215 RDK393215:RDR393215 RNG393215:RNN393215 RXC393215:RXJ393215 SGY393215:SHF393215 SQU393215:SRB393215 TAQ393215:TAX393215 TKM393215:TKT393215 TUI393215:TUP393215 UEE393215:UEL393215 UOA393215:UOH393215 UXW393215:UYD393215 VHS393215:VHZ393215 VRO393215:VRV393215 WBK393215:WBR393215 WLG393215:WLN393215 WVC393215:WVJ393215 IQ458751:IX458751 SM458751:ST458751 ACI458751:ACP458751 AME458751:AML458751 AWA458751:AWH458751 BFW458751:BGD458751 BPS458751:BPZ458751 BZO458751:BZV458751 CJK458751:CJR458751 CTG458751:CTN458751 DDC458751:DDJ458751 DMY458751:DNF458751 DWU458751:DXB458751 EGQ458751:EGX458751 EQM458751:EQT458751 FAI458751:FAP458751 FKE458751:FKL458751 FUA458751:FUH458751 GDW458751:GED458751 GNS458751:GNZ458751 GXO458751:GXV458751 HHK458751:HHR458751 HRG458751:HRN458751 IBC458751:IBJ458751 IKY458751:ILF458751 IUU458751:IVB458751 JEQ458751:JEX458751 JOM458751:JOT458751 JYI458751:JYP458751 KIE458751:KIL458751 KSA458751:KSH458751 LBW458751:LCD458751 LLS458751:LLZ458751 LVO458751:LVV458751 MFK458751:MFR458751 MPG458751:MPN458751 MZC458751:MZJ458751 NIY458751:NJF458751 NSU458751:NTB458751 OCQ458751:OCX458751 OMM458751:OMT458751 OWI458751:OWP458751 PGE458751:PGL458751 PQA458751:PQH458751 PZW458751:QAD458751 QJS458751:QJZ458751 QTO458751:QTV458751 RDK458751:RDR458751 RNG458751:RNN458751 RXC458751:RXJ458751 SGY458751:SHF458751 SQU458751:SRB458751 TAQ458751:TAX458751 TKM458751:TKT458751 TUI458751:TUP458751 UEE458751:UEL458751 UOA458751:UOH458751 UXW458751:UYD458751 VHS458751:VHZ458751 VRO458751:VRV458751 WBK458751:WBR458751 WLG458751:WLN458751 WVC458751:WVJ458751 IQ524287:IX524287 SM524287:ST524287 ACI524287:ACP524287 AME524287:AML524287 AWA524287:AWH524287 BFW524287:BGD524287 BPS524287:BPZ524287 BZO524287:BZV524287 CJK524287:CJR524287 CTG524287:CTN524287 DDC524287:DDJ524287 DMY524287:DNF524287 DWU524287:DXB524287 EGQ524287:EGX524287 EQM524287:EQT524287 FAI524287:FAP524287 FKE524287:FKL524287 FUA524287:FUH524287 GDW524287:GED524287 GNS524287:GNZ524287 GXO524287:GXV524287 HHK524287:HHR524287 HRG524287:HRN524287 IBC524287:IBJ524287 IKY524287:ILF524287 IUU524287:IVB524287 JEQ524287:JEX524287 JOM524287:JOT524287 JYI524287:JYP524287 KIE524287:KIL524287 KSA524287:KSH524287 LBW524287:LCD524287 LLS524287:LLZ524287 LVO524287:LVV524287 MFK524287:MFR524287 MPG524287:MPN524287 MZC524287:MZJ524287 NIY524287:NJF524287 NSU524287:NTB524287 OCQ524287:OCX524287 OMM524287:OMT524287 OWI524287:OWP524287 PGE524287:PGL524287 PQA524287:PQH524287 PZW524287:QAD524287 QJS524287:QJZ524287 QTO524287:QTV524287 RDK524287:RDR524287 RNG524287:RNN524287 RXC524287:RXJ524287 SGY524287:SHF524287 SQU524287:SRB524287 TAQ524287:TAX524287 TKM524287:TKT524287 TUI524287:TUP524287 UEE524287:UEL524287 UOA524287:UOH524287 UXW524287:UYD524287 VHS524287:VHZ524287 VRO524287:VRV524287 WBK524287:WBR524287 WLG524287:WLN524287 WVC524287:WVJ524287 IQ589823:IX589823 SM589823:ST589823 ACI589823:ACP589823 AME589823:AML589823 AWA589823:AWH589823 BFW589823:BGD589823 BPS589823:BPZ589823 BZO589823:BZV589823 CJK589823:CJR589823 CTG589823:CTN589823 DDC589823:DDJ589823 DMY589823:DNF589823 DWU589823:DXB589823 EGQ589823:EGX589823 EQM589823:EQT589823 FAI589823:FAP589823 FKE589823:FKL589823 FUA589823:FUH589823 GDW589823:GED589823 GNS589823:GNZ589823 GXO589823:GXV589823 HHK589823:HHR589823 HRG589823:HRN589823 IBC589823:IBJ589823 IKY589823:ILF589823 IUU589823:IVB589823 JEQ589823:JEX589823 JOM589823:JOT589823 JYI589823:JYP589823 KIE589823:KIL589823 KSA589823:KSH589823 LBW589823:LCD589823 LLS589823:LLZ589823 LVO589823:LVV589823 MFK589823:MFR589823 MPG589823:MPN589823 MZC589823:MZJ589823 NIY589823:NJF589823 NSU589823:NTB589823 OCQ589823:OCX589823 OMM589823:OMT589823 OWI589823:OWP589823 PGE589823:PGL589823 PQA589823:PQH589823 PZW589823:QAD589823 QJS589823:QJZ589823 QTO589823:QTV589823 RDK589823:RDR589823 RNG589823:RNN589823 RXC589823:RXJ589823 SGY589823:SHF589823 SQU589823:SRB589823 TAQ589823:TAX589823 TKM589823:TKT589823 TUI589823:TUP589823 UEE589823:UEL589823 UOA589823:UOH589823 UXW589823:UYD589823 VHS589823:VHZ589823 VRO589823:VRV589823 WBK589823:WBR589823 WLG589823:WLN589823 WVC589823:WVJ589823 IQ655359:IX655359 SM655359:ST655359 ACI655359:ACP655359 AME655359:AML655359 AWA655359:AWH655359 BFW655359:BGD655359 BPS655359:BPZ655359 BZO655359:BZV655359 CJK655359:CJR655359 CTG655359:CTN655359 DDC655359:DDJ655359 DMY655359:DNF655359 DWU655359:DXB655359 EGQ655359:EGX655359 EQM655359:EQT655359 FAI655359:FAP655359 FKE655359:FKL655359 FUA655359:FUH655359 GDW655359:GED655359 GNS655359:GNZ655359 GXO655359:GXV655359 HHK655359:HHR655359 HRG655359:HRN655359 IBC655359:IBJ655359 IKY655359:ILF655359 IUU655359:IVB655359 JEQ655359:JEX655359 JOM655359:JOT655359 JYI655359:JYP655359 KIE655359:KIL655359 KSA655359:KSH655359 LBW655359:LCD655359 LLS655359:LLZ655359 LVO655359:LVV655359 MFK655359:MFR655359 MPG655359:MPN655359 MZC655359:MZJ655359 NIY655359:NJF655359 NSU655359:NTB655359 OCQ655359:OCX655359 OMM655359:OMT655359 OWI655359:OWP655359 PGE655359:PGL655359 PQA655359:PQH655359 PZW655359:QAD655359 QJS655359:QJZ655359 QTO655359:QTV655359 RDK655359:RDR655359 RNG655359:RNN655359 RXC655359:RXJ655359 SGY655359:SHF655359 SQU655359:SRB655359 TAQ655359:TAX655359 TKM655359:TKT655359 TUI655359:TUP655359 UEE655359:UEL655359 UOA655359:UOH655359 UXW655359:UYD655359 VHS655359:VHZ655359 VRO655359:VRV655359 WBK655359:WBR655359 WLG655359:WLN655359 WVC655359:WVJ655359 IQ720895:IX720895 SM720895:ST720895 ACI720895:ACP720895 AME720895:AML720895 AWA720895:AWH720895 BFW720895:BGD720895 BPS720895:BPZ720895 BZO720895:BZV720895 CJK720895:CJR720895 CTG720895:CTN720895 DDC720895:DDJ720895 DMY720895:DNF720895 DWU720895:DXB720895 EGQ720895:EGX720895 EQM720895:EQT720895 FAI720895:FAP720895 FKE720895:FKL720895 FUA720895:FUH720895 GDW720895:GED720895 GNS720895:GNZ720895 GXO720895:GXV720895 HHK720895:HHR720895 HRG720895:HRN720895 IBC720895:IBJ720895 IKY720895:ILF720895 IUU720895:IVB720895 JEQ720895:JEX720895 JOM720895:JOT720895 JYI720895:JYP720895 KIE720895:KIL720895 KSA720895:KSH720895 LBW720895:LCD720895 LLS720895:LLZ720895 LVO720895:LVV720895 MFK720895:MFR720895 MPG720895:MPN720895 MZC720895:MZJ720895 NIY720895:NJF720895 NSU720895:NTB720895 OCQ720895:OCX720895 OMM720895:OMT720895 OWI720895:OWP720895 PGE720895:PGL720895 PQA720895:PQH720895 PZW720895:QAD720895 QJS720895:QJZ720895 QTO720895:QTV720895 RDK720895:RDR720895 RNG720895:RNN720895 RXC720895:RXJ720895 SGY720895:SHF720895 SQU720895:SRB720895 TAQ720895:TAX720895 TKM720895:TKT720895 TUI720895:TUP720895 UEE720895:UEL720895 UOA720895:UOH720895 UXW720895:UYD720895 VHS720895:VHZ720895 VRO720895:VRV720895 WBK720895:WBR720895 WLG720895:WLN720895 WVC720895:WVJ720895 IQ786431:IX786431 SM786431:ST786431 ACI786431:ACP786431 AME786431:AML786431 AWA786431:AWH786431 BFW786431:BGD786431 BPS786431:BPZ786431 BZO786431:BZV786431 CJK786431:CJR786431 CTG786431:CTN786431 DDC786431:DDJ786431 DMY786431:DNF786431 DWU786431:DXB786431 EGQ786431:EGX786431 EQM786431:EQT786431 FAI786431:FAP786431 FKE786431:FKL786431 FUA786431:FUH786431 GDW786431:GED786431 GNS786431:GNZ786431 GXO786431:GXV786431 HHK786431:HHR786431 HRG786431:HRN786431 IBC786431:IBJ786431 IKY786431:ILF786431 IUU786431:IVB786431 JEQ786431:JEX786431 JOM786431:JOT786431 JYI786431:JYP786431 KIE786431:KIL786431 KSA786431:KSH786431 LBW786431:LCD786431 LLS786431:LLZ786431 LVO786431:LVV786431 MFK786431:MFR786431 MPG786431:MPN786431 MZC786431:MZJ786431 NIY786431:NJF786431 NSU786431:NTB786431 OCQ786431:OCX786431 OMM786431:OMT786431 OWI786431:OWP786431 PGE786431:PGL786431 PQA786431:PQH786431 PZW786431:QAD786431 QJS786431:QJZ786431 QTO786431:QTV786431 RDK786431:RDR786431 RNG786431:RNN786431 RXC786431:RXJ786431 SGY786431:SHF786431 SQU786431:SRB786431 TAQ786431:TAX786431 TKM786431:TKT786431 TUI786431:TUP786431 UEE786431:UEL786431 UOA786431:UOH786431 UXW786431:UYD786431 VHS786431:VHZ786431 VRO786431:VRV786431 WBK786431:WBR786431 WLG786431:WLN786431 WVC786431:WVJ786431 IQ851967:IX851967 SM851967:ST851967 ACI851967:ACP851967 AME851967:AML851967 AWA851967:AWH851967 BFW851967:BGD851967 BPS851967:BPZ851967 BZO851967:BZV851967 CJK851967:CJR851967 CTG851967:CTN851967 DDC851967:DDJ851967 DMY851967:DNF851967 DWU851967:DXB851967 EGQ851967:EGX851967 EQM851967:EQT851967 FAI851967:FAP851967 FKE851967:FKL851967 FUA851967:FUH851967 GDW851967:GED851967 GNS851967:GNZ851967 GXO851967:GXV851967 HHK851967:HHR851967 HRG851967:HRN851967 IBC851967:IBJ851967 IKY851967:ILF851967 IUU851967:IVB851967 JEQ851967:JEX851967 JOM851967:JOT851967 JYI851967:JYP851967 KIE851967:KIL851967 KSA851967:KSH851967 LBW851967:LCD851967 LLS851967:LLZ851967 LVO851967:LVV851967 MFK851967:MFR851967 MPG851967:MPN851967 MZC851967:MZJ851967 NIY851967:NJF851967 NSU851967:NTB851967 OCQ851967:OCX851967 OMM851967:OMT851967 OWI851967:OWP851967 PGE851967:PGL851967 PQA851967:PQH851967 PZW851967:QAD851967 QJS851967:QJZ851967 QTO851967:QTV851967 RDK851967:RDR851967 RNG851967:RNN851967 RXC851967:RXJ851967 SGY851967:SHF851967 SQU851967:SRB851967 TAQ851967:TAX851967 TKM851967:TKT851967 TUI851967:TUP851967 UEE851967:UEL851967 UOA851967:UOH851967 UXW851967:UYD851967 VHS851967:VHZ851967 VRO851967:VRV851967 WBK851967:WBR851967 WLG851967:WLN851967 WVC851967:WVJ851967 IQ917503:IX917503 SM917503:ST917503 ACI917503:ACP917503 AME917503:AML917503 AWA917503:AWH917503 BFW917503:BGD917503 BPS917503:BPZ917503 BZO917503:BZV917503 CJK917503:CJR917503 CTG917503:CTN917503 DDC917503:DDJ917503 DMY917503:DNF917503 DWU917503:DXB917503 EGQ917503:EGX917503 EQM917503:EQT917503 FAI917503:FAP917503 FKE917503:FKL917503 FUA917503:FUH917503 GDW917503:GED917503 GNS917503:GNZ917503 GXO917503:GXV917503 HHK917503:HHR917503 HRG917503:HRN917503 IBC917503:IBJ917503 IKY917503:ILF917503 IUU917503:IVB917503 JEQ917503:JEX917503 JOM917503:JOT917503 JYI917503:JYP917503 KIE917503:KIL917503 KSA917503:KSH917503 LBW917503:LCD917503 LLS917503:LLZ917503 LVO917503:LVV917503 MFK917503:MFR917503 MPG917503:MPN917503 MZC917503:MZJ917503 NIY917503:NJF917503 NSU917503:NTB917503 OCQ917503:OCX917503 OMM917503:OMT917503 OWI917503:OWP917503 PGE917503:PGL917503 PQA917503:PQH917503 PZW917503:QAD917503 QJS917503:QJZ917503 QTO917503:QTV917503 RDK917503:RDR917503 RNG917503:RNN917503 RXC917503:RXJ917503 SGY917503:SHF917503 SQU917503:SRB917503 TAQ917503:TAX917503 TKM917503:TKT917503 TUI917503:TUP917503 UEE917503:UEL917503 UOA917503:UOH917503 UXW917503:UYD917503 VHS917503:VHZ917503 VRO917503:VRV917503 WBK917503:WBR917503 WLG917503:WLN917503 WVC917503:WVJ917503 IQ983039:IX983039 SM983039:ST983039 ACI983039:ACP983039 AME983039:AML983039 AWA983039:AWH983039 BFW983039:BGD983039 BPS983039:BPZ983039 BZO983039:BZV983039 CJK983039:CJR983039 CTG983039:CTN983039 DDC983039:DDJ983039 DMY983039:DNF983039 DWU983039:DXB983039 EGQ983039:EGX983039 EQM983039:EQT983039 FAI983039:FAP983039 FKE983039:FKL983039 FUA983039:FUH983039 GDW983039:GED983039 GNS983039:GNZ983039 GXO983039:GXV983039 HHK983039:HHR983039 HRG983039:HRN983039 IBC983039:IBJ983039 IKY983039:ILF983039 IUU983039:IVB983039 JEQ983039:JEX983039 JOM983039:JOT983039 JYI983039:JYP983039 KIE983039:KIL983039 KSA983039:KSH983039 LBW983039:LCD983039 LLS983039:LLZ983039 LVO983039:LVV983039 MFK983039:MFR983039 MPG983039:MPN983039 MZC983039:MZJ983039 NIY983039:NJF983039 NSU983039:NTB983039 OCQ983039:OCX983039 OMM983039:OMT983039 OWI983039:OWP983039 PGE983039:PGL983039 PQA983039:PQH983039 PZW983039:QAD983039 QJS983039:QJZ983039 QTO983039:QTV983039 RDK983039:RDR983039 RNG983039:RNN983039 RXC983039:RXJ983039 SGY983039:SHF983039 SQU983039:SRB983039 TAQ983039:TAX983039 TKM983039:TKT983039 TUI983039:TUP983039 UEE983039:UEL983039 UOA983039:UOH983039 UXW983039:UYD983039 VHS983039:VHZ983039 VRO983039:VRV983039 WBK983039:WBR983039 WLG983039:WLN983039">
-      <formula1>INDIRECT($E$4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:J4">
+      <formula1>部門</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:K4">
-      <formula1>部門</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVH983042:WVH983044 F6 SS6:SU6 ACO6:ACQ6 AMK6:AMM6 AWG6:AWI6 BGC6:BGE6 BPY6:BQA6 BZU6:BZW6 CJQ6:CJS6 CTM6:CTO6 DDI6:DDK6 DNE6:DNG6 DXA6:DXC6 EGW6:EGY6 EQS6:EQU6 FAO6:FAQ6 FKK6:FKM6 FUG6:FUI6 GEC6:GEE6 GNY6:GOA6 GXU6:GXW6 HHQ6:HHS6 HRM6:HRO6 IBI6:IBK6 ILE6:ILG6 IVA6:IVC6 JEW6:JEY6 JOS6:JOU6 JYO6:JYQ6 KIK6:KIM6 KSG6:KSI6 LCC6:LCE6 LLY6:LMA6 LVU6:LVW6 MFQ6:MFS6 MPM6:MPO6 MZI6:MZK6 NJE6:NJG6 NTA6:NTC6 OCW6:OCY6 OMS6:OMU6 OWO6:OWQ6 PGK6:PGM6 PQG6:PQI6 QAC6:QAE6 QJY6:QKA6 QTU6:QTW6 RDQ6:RDS6 RNM6:RNO6 RXI6:RXK6 SHE6:SHG6 SRA6:SRC6 TAW6:TAY6 TKS6:TKU6 TUO6:TUQ6 UEK6:UEM6 UOG6:UOI6 UYC6:UYE6 VHY6:VIA6 VRU6:VRW6 WBQ6:WBS6 WLM6:WLO6 WVI6:WVK6 H65538:L65538 IW65538:IY65538 SS65538:SU65538 ACO65538:ACQ65538 AMK65538:AMM65538 AWG65538:AWI65538 BGC65538:BGE65538 BPY65538:BQA65538 BZU65538:BZW65538 CJQ65538:CJS65538 CTM65538:CTO65538 DDI65538:DDK65538 DNE65538:DNG65538 DXA65538:DXC65538 EGW65538:EGY65538 EQS65538:EQU65538 FAO65538:FAQ65538 FKK65538:FKM65538 FUG65538:FUI65538 GEC65538:GEE65538 GNY65538:GOA65538 GXU65538:GXW65538 HHQ65538:HHS65538 HRM65538:HRO65538 IBI65538:IBK65538 ILE65538:ILG65538 IVA65538:IVC65538 JEW65538:JEY65538 JOS65538:JOU65538 JYO65538:JYQ65538 KIK65538:KIM65538 KSG65538:KSI65538 LCC65538:LCE65538 LLY65538:LMA65538 LVU65538:LVW65538 MFQ65538:MFS65538 MPM65538:MPO65538 MZI65538:MZK65538 NJE65538:NJG65538 NTA65538:NTC65538 OCW65538:OCY65538 OMS65538:OMU65538 OWO65538:OWQ65538 PGK65538:PGM65538 PQG65538:PQI65538 QAC65538:QAE65538 QJY65538:QKA65538 QTU65538:QTW65538 RDQ65538:RDS65538 RNM65538:RNO65538 RXI65538:RXK65538 SHE65538:SHG65538 SRA65538:SRC65538 TAW65538:TAY65538 TKS65538:TKU65538 TUO65538:TUQ65538 UEK65538:UEM65538 UOG65538:UOI65538 UYC65538:UYE65538 VHY65538:VIA65538 VRU65538:VRW65538 WBQ65538:WBS65538 WLM65538:WLO65538 WVI65538:WVK65538 H131074:L131074 IW131074:IY131074 SS131074:SU131074 ACO131074:ACQ131074 AMK131074:AMM131074 AWG131074:AWI131074 BGC131074:BGE131074 BPY131074:BQA131074 BZU131074:BZW131074 CJQ131074:CJS131074 CTM131074:CTO131074 DDI131074:DDK131074 DNE131074:DNG131074 DXA131074:DXC131074 EGW131074:EGY131074 EQS131074:EQU131074 FAO131074:FAQ131074 FKK131074:FKM131074 FUG131074:FUI131074 GEC131074:GEE131074 GNY131074:GOA131074 GXU131074:GXW131074 HHQ131074:HHS131074 HRM131074:HRO131074 IBI131074:IBK131074 ILE131074:ILG131074 IVA131074:IVC131074 JEW131074:JEY131074 JOS131074:JOU131074 JYO131074:JYQ131074 KIK131074:KIM131074 KSG131074:KSI131074 LCC131074:LCE131074 LLY131074:LMA131074 LVU131074:LVW131074 MFQ131074:MFS131074 MPM131074:MPO131074 MZI131074:MZK131074 NJE131074:NJG131074 NTA131074:NTC131074 OCW131074:OCY131074 OMS131074:OMU131074 OWO131074:OWQ131074 PGK131074:PGM131074 PQG131074:PQI131074 QAC131074:QAE131074 QJY131074:QKA131074 QTU131074:QTW131074 RDQ131074:RDS131074 RNM131074:RNO131074 RXI131074:RXK131074 SHE131074:SHG131074 SRA131074:SRC131074 TAW131074:TAY131074 TKS131074:TKU131074 TUO131074:TUQ131074 UEK131074:UEM131074 UOG131074:UOI131074 UYC131074:UYE131074 VHY131074:VIA131074 VRU131074:VRW131074 WBQ131074:WBS131074 WLM131074:WLO131074 WVI131074:WVK131074 H196610:L196610 IW196610:IY196610 SS196610:SU196610 ACO196610:ACQ196610 AMK196610:AMM196610 AWG196610:AWI196610 BGC196610:BGE196610 BPY196610:BQA196610 BZU196610:BZW196610 CJQ196610:CJS196610 CTM196610:CTO196610 DDI196610:DDK196610 DNE196610:DNG196610 DXA196610:DXC196610 EGW196610:EGY196610 EQS196610:EQU196610 FAO196610:FAQ196610 FKK196610:FKM196610 FUG196610:FUI196610 GEC196610:GEE196610 GNY196610:GOA196610 GXU196610:GXW196610 HHQ196610:HHS196610 HRM196610:HRO196610 IBI196610:IBK196610 ILE196610:ILG196610 IVA196610:IVC196610 JEW196610:JEY196610 JOS196610:JOU196610 JYO196610:JYQ196610 KIK196610:KIM196610 KSG196610:KSI196610 LCC196610:LCE196610 LLY196610:LMA196610 LVU196610:LVW196610 MFQ196610:MFS196610 MPM196610:MPO196610 MZI196610:MZK196610 NJE196610:NJG196610 NTA196610:NTC196610 OCW196610:OCY196610 OMS196610:OMU196610 OWO196610:OWQ196610 PGK196610:PGM196610 PQG196610:PQI196610 QAC196610:QAE196610 QJY196610:QKA196610 QTU196610:QTW196610 RDQ196610:RDS196610 RNM196610:RNO196610 RXI196610:RXK196610 SHE196610:SHG196610 SRA196610:SRC196610 TAW196610:TAY196610 TKS196610:TKU196610 TUO196610:TUQ196610 UEK196610:UEM196610 UOG196610:UOI196610 UYC196610:UYE196610 VHY196610:VIA196610 VRU196610:VRW196610 WBQ196610:WBS196610 WLM196610:WLO196610 WVI196610:WVK196610 H262146:L262146 IW262146:IY262146 SS262146:SU262146 ACO262146:ACQ262146 AMK262146:AMM262146 AWG262146:AWI262146 BGC262146:BGE262146 BPY262146:BQA262146 BZU262146:BZW262146 CJQ262146:CJS262146 CTM262146:CTO262146 DDI262146:DDK262146 DNE262146:DNG262146 DXA262146:DXC262146 EGW262146:EGY262146 EQS262146:EQU262146 FAO262146:FAQ262146 FKK262146:FKM262146 FUG262146:FUI262146 GEC262146:GEE262146 GNY262146:GOA262146 GXU262146:GXW262146 HHQ262146:HHS262146 HRM262146:HRO262146 IBI262146:IBK262146 ILE262146:ILG262146 IVA262146:IVC262146 JEW262146:JEY262146 JOS262146:JOU262146 JYO262146:JYQ262146 KIK262146:KIM262146 KSG262146:KSI262146 LCC262146:LCE262146 LLY262146:LMA262146 LVU262146:LVW262146 MFQ262146:MFS262146 MPM262146:MPO262146 MZI262146:MZK262146 NJE262146:NJG262146 NTA262146:NTC262146 OCW262146:OCY262146 OMS262146:OMU262146 OWO262146:OWQ262146 PGK262146:PGM262146 PQG262146:PQI262146 QAC262146:QAE262146 QJY262146:QKA262146 QTU262146:QTW262146 RDQ262146:RDS262146 RNM262146:RNO262146 RXI262146:RXK262146 SHE262146:SHG262146 SRA262146:SRC262146 TAW262146:TAY262146 TKS262146:TKU262146 TUO262146:TUQ262146 UEK262146:UEM262146 UOG262146:UOI262146 UYC262146:UYE262146 VHY262146:VIA262146 VRU262146:VRW262146 WBQ262146:WBS262146 WLM262146:WLO262146 WVI262146:WVK262146 H327682:L327682 IW327682:IY327682 SS327682:SU327682 ACO327682:ACQ327682 AMK327682:AMM327682 AWG327682:AWI327682 BGC327682:BGE327682 BPY327682:BQA327682 BZU327682:BZW327682 CJQ327682:CJS327682 CTM327682:CTO327682 DDI327682:DDK327682 DNE327682:DNG327682 DXA327682:DXC327682 EGW327682:EGY327682 EQS327682:EQU327682 FAO327682:FAQ327682 FKK327682:FKM327682 FUG327682:FUI327682 GEC327682:GEE327682 GNY327682:GOA327682 GXU327682:GXW327682 HHQ327682:HHS327682 HRM327682:HRO327682 IBI327682:IBK327682 ILE327682:ILG327682 IVA327682:IVC327682 JEW327682:JEY327682 JOS327682:JOU327682 JYO327682:JYQ327682 KIK327682:KIM327682 KSG327682:KSI327682 LCC327682:LCE327682 LLY327682:LMA327682 LVU327682:LVW327682 MFQ327682:MFS327682 MPM327682:MPO327682 MZI327682:MZK327682 NJE327682:NJG327682 NTA327682:NTC327682 OCW327682:OCY327682 OMS327682:OMU327682 OWO327682:OWQ327682 PGK327682:PGM327682 PQG327682:PQI327682 QAC327682:QAE327682 QJY327682:QKA327682 QTU327682:QTW327682 RDQ327682:RDS327682 RNM327682:RNO327682 RXI327682:RXK327682 SHE327682:SHG327682 SRA327682:SRC327682 TAW327682:TAY327682 TKS327682:TKU327682 TUO327682:TUQ327682 UEK327682:UEM327682 UOG327682:UOI327682 UYC327682:UYE327682 VHY327682:VIA327682 VRU327682:VRW327682 WBQ327682:WBS327682 WLM327682:WLO327682 WVI327682:WVK327682 H393218:L393218 IW393218:IY393218 SS393218:SU393218 ACO393218:ACQ393218 AMK393218:AMM393218 AWG393218:AWI393218 BGC393218:BGE393218 BPY393218:BQA393218 BZU393218:BZW393218 CJQ393218:CJS393218 CTM393218:CTO393218 DDI393218:DDK393218 DNE393218:DNG393218 DXA393218:DXC393218 EGW393218:EGY393218 EQS393218:EQU393218 FAO393218:FAQ393218 FKK393218:FKM393218 FUG393218:FUI393218 GEC393218:GEE393218 GNY393218:GOA393218 GXU393218:GXW393218 HHQ393218:HHS393218 HRM393218:HRO393218 IBI393218:IBK393218 ILE393218:ILG393218 IVA393218:IVC393218 JEW393218:JEY393218 JOS393218:JOU393218 JYO393218:JYQ393218 KIK393218:KIM393218 KSG393218:KSI393218 LCC393218:LCE393218 LLY393218:LMA393218 LVU393218:LVW393218 MFQ393218:MFS393218 MPM393218:MPO393218 MZI393218:MZK393218 NJE393218:NJG393218 NTA393218:NTC393218 OCW393218:OCY393218 OMS393218:OMU393218 OWO393218:OWQ393218 PGK393218:PGM393218 PQG393218:PQI393218 QAC393218:QAE393218 QJY393218:QKA393218 QTU393218:QTW393218 RDQ393218:RDS393218 RNM393218:RNO393218 RXI393218:RXK393218 SHE393218:SHG393218 SRA393218:SRC393218 TAW393218:TAY393218 TKS393218:TKU393218 TUO393218:TUQ393218 UEK393218:UEM393218 UOG393218:UOI393218 UYC393218:UYE393218 VHY393218:VIA393218 VRU393218:VRW393218 WBQ393218:WBS393218 WLM393218:WLO393218 WVI393218:WVK393218 H458754:L458754 IW458754:IY458754 SS458754:SU458754 ACO458754:ACQ458754 AMK458754:AMM458754 AWG458754:AWI458754 BGC458754:BGE458754 BPY458754:BQA458754 BZU458754:BZW458754 CJQ458754:CJS458754 CTM458754:CTO458754 DDI458754:DDK458754 DNE458754:DNG458754 DXA458754:DXC458754 EGW458754:EGY458754 EQS458754:EQU458754 FAO458754:FAQ458754 FKK458754:FKM458754 FUG458754:FUI458754 GEC458754:GEE458754 GNY458754:GOA458754 GXU458754:GXW458754 HHQ458754:HHS458754 HRM458754:HRO458754 IBI458754:IBK458754 ILE458754:ILG458754 IVA458754:IVC458754 JEW458754:JEY458754 JOS458754:JOU458754 JYO458754:JYQ458754 KIK458754:KIM458754 KSG458754:KSI458754 LCC458754:LCE458754 LLY458754:LMA458754 LVU458754:LVW458754 MFQ458754:MFS458754 MPM458754:MPO458754 MZI458754:MZK458754 NJE458754:NJG458754 NTA458754:NTC458754 OCW458754:OCY458754 OMS458754:OMU458754 OWO458754:OWQ458754 PGK458754:PGM458754 PQG458754:PQI458754 QAC458754:QAE458754 QJY458754:QKA458754 QTU458754:QTW458754 RDQ458754:RDS458754 RNM458754:RNO458754 RXI458754:RXK458754 SHE458754:SHG458754 SRA458754:SRC458754 TAW458754:TAY458754 TKS458754:TKU458754 TUO458754:TUQ458754 UEK458754:UEM458754 UOG458754:UOI458754 UYC458754:UYE458754 VHY458754:VIA458754 VRU458754:VRW458754 WBQ458754:WBS458754 WLM458754:WLO458754 WVI458754:WVK458754 H524290:L524290 IW524290:IY524290 SS524290:SU524290 ACO524290:ACQ524290 AMK524290:AMM524290 AWG524290:AWI524290 BGC524290:BGE524290 BPY524290:BQA524290 BZU524290:BZW524290 CJQ524290:CJS524290 CTM524290:CTO524290 DDI524290:DDK524290 DNE524290:DNG524290 DXA524290:DXC524290 EGW524290:EGY524290 EQS524290:EQU524290 FAO524290:FAQ524290 FKK524290:FKM524290 FUG524290:FUI524290 GEC524290:GEE524290 GNY524290:GOA524290 GXU524290:GXW524290 HHQ524290:HHS524290 HRM524290:HRO524290 IBI524290:IBK524290 ILE524290:ILG524290 IVA524290:IVC524290 JEW524290:JEY524290 JOS524290:JOU524290 JYO524290:JYQ524290 KIK524290:KIM524290 KSG524290:KSI524290 LCC524290:LCE524290 LLY524290:LMA524290 LVU524290:LVW524290 MFQ524290:MFS524290 MPM524290:MPO524290 MZI524290:MZK524290 NJE524290:NJG524290 NTA524290:NTC524290 OCW524290:OCY524290 OMS524290:OMU524290 OWO524290:OWQ524290 PGK524290:PGM524290 PQG524290:PQI524290 QAC524290:QAE524290 QJY524290:QKA524290 QTU524290:QTW524290 RDQ524290:RDS524290 RNM524290:RNO524290 RXI524290:RXK524290 SHE524290:SHG524290 SRA524290:SRC524290 TAW524290:TAY524290 TKS524290:TKU524290 TUO524290:TUQ524290 UEK524290:UEM524290 UOG524290:UOI524290 UYC524290:UYE524290 VHY524290:VIA524290 VRU524290:VRW524290 WBQ524290:WBS524290 WLM524290:WLO524290 WVI524290:WVK524290 H589826:L589826 IW589826:IY589826 SS589826:SU589826 ACO589826:ACQ589826 AMK589826:AMM589826 AWG589826:AWI589826 BGC589826:BGE589826 BPY589826:BQA589826 BZU589826:BZW589826 CJQ589826:CJS589826 CTM589826:CTO589826 DDI589826:DDK589826 DNE589826:DNG589826 DXA589826:DXC589826 EGW589826:EGY589826 EQS589826:EQU589826 FAO589826:FAQ589826 FKK589826:FKM589826 FUG589826:FUI589826 GEC589826:GEE589826 GNY589826:GOA589826 GXU589826:GXW589826 HHQ589826:HHS589826 HRM589826:HRO589826 IBI589826:IBK589826 ILE589826:ILG589826 IVA589826:IVC589826 JEW589826:JEY589826 JOS589826:JOU589826 JYO589826:JYQ589826 KIK589826:KIM589826 KSG589826:KSI589826 LCC589826:LCE589826 LLY589826:LMA589826 LVU589826:LVW589826 MFQ589826:MFS589826 MPM589826:MPO589826 MZI589826:MZK589826 NJE589826:NJG589826 NTA589826:NTC589826 OCW589826:OCY589826 OMS589826:OMU589826 OWO589826:OWQ589826 PGK589826:PGM589826 PQG589826:PQI589826 QAC589826:QAE589826 QJY589826:QKA589826 QTU589826:QTW589826 RDQ589826:RDS589826 RNM589826:RNO589826 RXI589826:RXK589826 SHE589826:SHG589826 SRA589826:SRC589826 TAW589826:TAY589826 TKS589826:TKU589826 TUO589826:TUQ589826 UEK589826:UEM589826 UOG589826:UOI589826 UYC589826:UYE589826 VHY589826:VIA589826 VRU589826:VRW589826 WBQ589826:WBS589826 WLM589826:WLO589826 WVI589826:WVK589826 H655362:L655362 IW655362:IY655362 SS655362:SU655362 ACO655362:ACQ655362 AMK655362:AMM655362 AWG655362:AWI655362 BGC655362:BGE655362 BPY655362:BQA655362 BZU655362:BZW655362 CJQ655362:CJS655362 CTM655362:CTO655362 DDI655362:DDK655362 DNE655362:DNG655362 DXA655362:DXC655362 EGW655362:EGY655362 EQS655362:EQU655362 FAO655362:FAQ655362 FKK655362:FKM655362 FUG655362:FUI655362 GEC655362:GEE655362 GNY655362:GOA655362 GXU655362:GXW655362 HHQ655362:HHS655362 HRM655362:HRO655362 IBI655362:IBK655362 ILE655362:ILG655362 IVA655362:IVC655362 JEW655362:JEY655362 JOS655362:JOU655362 JYO655362:JYQ655362 KIK655362:KIM655362 KSG655362:KSI655362 LCC655362:LCE655362 LLY655362:LMA655362 LVU655362:LVW655362 MFQ655362:MFS655362 MPM655362:MPO655362 MZI655362:MZK655362 NJE655362:NJG655362 NTA655362:NTC655362 OCW655362:OCY655362 OMS655362:OMU655362 OWO655362:OWQ655362 PGK655362:PGM655362 PQG655362:PQI655362 QAC655362:QAE655362 QJY655362:QKA655362 QTU655362:QTW655362 RDQ655362:RDS655362 RNM655362:RNO655362 RXI655362:RXK655362 SHE655362:SHG655362 SRA655362:SRC655362 TAW655362:TAY655362 TKS655362:TKU655362 TUO655362:TUQ655362 UEK655362:UEM655362 UOG655362:UOI655362 UYC655362:UYE655362 VHY655362:VIA655362 VRU655362:VRW655362 WBQ655362:WBS655362 WLM655362:WLO655362 WVI655362:WVK655362 H720898:L720898 IW720898:IY720898 SS720898:SU720898 ACO720898:ACQ720898 AMK720898:AMM720898 AWG720898:AWI720898 BGC720898:BGE720898 BPY720898:BQA720898 BZU720898:BZW720898 CJQ720898:CJS720898 CTM720898:CTO720898 DDI720898:DDK720898 DNE720898:DNG720898 DXA720898:DXC720898 EGW720898:EGY720898 EQS720898:EQU720898 FAO720898:FAQ720898 FKK720898:FKM720898 FUG720898:FUI720898 GEC720898:GEE720898 GNY720898:GOA720898 GXU720898:GXW720898 HHQ720898:HHS720898 HRM720898:HRO720898 IBI720898:IBK720898 ILE720898:ILG720898 IVA720898:IVC720898 JEW720898:JEY720898 JOS720898:JOU720898 JYO720898:JYQ720898 KIK720898:KIM720898 KSG720898:KSI720898 LCC720898:LCE720898 LLY720898:LMA720898 LVU720898:LVW720898 MFQ720898:MFS720898 MPM720898:MPO720898 MZI720898:MZK720898 NJE720898:NJG720898 NTA720898:NTC720898 OCW720898:OCY720898 OMS720898:OMU720898 OWO720898:OWQ720898 PGK720898:PGM720898 PQG720898:PQI720898 QAC720898:QAE720898 QJY720898:QKA720898 QTU720898:QTW720898 RDQ720898:RDS720898 RNM720898:RNO720898 RXI720898:RXK720898 SHE720898:SHG720898 SRA720898:SRC720898 TAW720898:TAY720898 TKS720898:TKU720898 TUO720898:TUQ720898 UEK720898:UEM720898 UOG720898:UOI720898 UYC720898:UYE720898 VHY720898:VIA720898 VRU720898:VRW720898 WBQ720898:WBS720898 WLM720898:WLO720898 WVI720898:WVK720898 H786434:L786434 IW786434:IY786434 SS786434:SU786434 ACO786434:ACQ786434 AMK786434:AMM786434 AWG786434:AWI786434 BGC786434:BGE786434 BPY786434:BQA786434 BZU786434:BZW786434 CJQ786434:CJS786434 CTM786434:CTO786434 DDI786434:DDK786434 DNE786434:DNG786434 DXA786434:DXC786434 EGW786434:EGY786434 EQS786434:EQU786434 FAO786434:FAQ786434 FKK786434:FKM786434 FUG786434:FUI786434 GEC786434:GEE786434 GNY786434:GOA786434 GXU786434:GXW786434 HHQ786434:HHS786434 HRM786434:HRO786434 IBI786434:IBK786434 ILE786434:ILG786434 IVA786434:IVC786434 JEW786434:JEY786434 JOS786434:JOU786434 JYO786434:JYQ786434 KIK786434:KIM786434 KSG786434:KSI786434 LCC786434:LCE786434 LLY786434:LMA786434 LVU786434:LVW786434 MFQ786434:MFS786434 MPM786434:MPO786434 MZI786434:MZK786434 NJE786434:NJG786434 NTA786434:NTC786434 OCW786434:OCY786434 OMS786434:OMU786434 OWO786434:OWQ786434 PGK786434:PGM786434 PQG786434:PQI786434 QAC786434:QAE786434 QJY786434:QKA786434 QTU786434:QTW786434 RDQ786434:RDS786434 RNM786434:RNO786434 RXI786434:RXK786434 SHE786434:SHG786434 SRA786434:SRC786434 TAW786434:TAY786434 TKS786434:TKU786434 TUO786434:TUQ786434 UEK786434:UEM786434 UOG786434:UOI786434 UYC786434:UYE786434 VHY786434:VIA786434 VRU786434:VRW786434 WBQ786434:WBS786434 WLM786434:WLO786434 WVI786434:WVK786434 H851970:L851970 IW851970:IY851970 SS851970:SU851970 ACO851970:ACQ851970 AMK851970:AMM851970 AWG851970:AWI851970 BGC851970:BGE851970 BPY851970:BQA851970 BZU851970:BZW851970 CJQ851970:CJS851970 CTM851970:CTO851970 DDI851970:DDK851970 DNE851970:DNG851970 DXA851970:DXC851970 EGW851970:EGY851970 EQS851970:EQU851970 FAO851970:FAQ851970 FKK851970:FKM851970 FUG851970:FUI851970 GEC851970:GEE851970 GNY851970:GOA851970 GXU851970:GXW851970 HHQ851970:HHS851970 HRM851970:HRO851970 IBI851970:IBK851970 ILE851970:ILG851970 IVA851970:IVC851970 JEW851970:JEY851970 JOS851970:JOU851970 JYO851970:JYQ851970 KIK851970:KIM851970 KSG851970:KSI851970 LCC851970:LCE851970 LLY851970:LMA851970 LVU851970:LVW851970 MFQ851970:MFS851970 MPM851970:MPO851970 MZI851970:MZK851970 NJE851970:NJG851970 NTA851970:NTC851970 OCW851970:OCY851970 OMS851970:OMU851970 OWO851970:OWQ851970 PGK851970:PGM851970 PQG851970:PQI851970 QAC851970:QAE851970 QJY851970:QKA851970 QTU851970:QTW851970 RDQ851970:RDS851970 RNM851970:RNO851970 RXI851970:RXK851970 SHE851970:SHG851970 SRA851970:SRC851970 TAW851970:TAY851970 TKS851970:TKU851970 TUO851970:TUQ851970 UEK851970:UEM851970 UOG851970:UOI851970 UYC851970:UYE851970 VHY851970:VIA851970 VRU851970:VRW851970 WBQ851970:WBS851970 WLM851970:WLO851970 WVI851970:WVK851970 H917506:L917506 IW917506:IY917506 SS917506:SU917506 ACO917506:ACQ917506 AMK917506:AMM917506 AWG917506:AWI917506 BGC917506:BGE917506 BPY917506:BQA917506 BZU917506:BZW917506 CJQ917506:CJS917506 CTM917506:CTO917506 DDI917506:DDK917506 DNE917506:DNG917506 DXA917506:DXC917506 EGW917506:EGY917506 EQS917506:EQU917506 FAO917506:FAQ917506 FKK917506:FKM917506 FUG917506:FUI917506 GEC917506:GEE917506 GNY917506:GOA917506 GXU917506:GXW917506 HHQ917506:HHS917506 HRM917506:HRO917506 IBI917506:IBK917506 ILE917506:ILG917506 IVA917506:IVC917506 JEW917506:JEY917506 JOS917506:JOU917506 JYO917506:JYQ917506 KIK917506:KIM917506 KSG917506:KSI917506 LCC917506:LCE917506 LLY917506:LMA917506 LVU917506:LVW917506 MFQ917506:MFS917506 MPM917506:MPO917506 MZI917506:MZK917506 NJE917506:NJG917506 NTA917506:NTC917506 OCW917506:OCY917506 OMS917506:OMU917506 OWO917506:OWQ917506 PGK917506:PGM917506 PQG917506:PQI917506 QAC917506:QAE917506 QJY917506:QKA917506 QTU917506:QTW917506 RDQ917506:RDS917506 RNM917506:RNO917506 RXI917506:RXK917506 SHE917506:SHG917506 SRA917506:SRC917506 TAW917506:TAY917506 TKS917506:TKU917506 TUO917506:TUQ917506 UEK917506:UEM917506 UOG917506:UOI917506 UYC917506:UYE917506 VHY917506:VIA917506 VRU917506:VRW917506 WBQ917506:WBS917506 WLM917506:WLO917506 WVI917506:WVK917506 H983042:L983042 IW983042:IY983042 SS983042:SU983042 ACO983042:ACQ983042 AMK983042:AMM983042 AWG983042:AWI983042 BGC983042:BGE983042 BPY983042:BQA983042 BZU983042:BZW983042 CJQ983042:CJS983042 CTM983042:CTO983042 DDI983042:DDK983042 DNE983042:DNG983042 DXA983042:DXC983042 EGW983042:EGY983042 EQS983042:EQU983042 FAO983042:FAQ983042 FKK983042:FKM983042 FUG983042:FUI983042 GEC983042:GEE983042 GNY983042:GOA983042 GXU983042:GXW983042 HHQ983042:HHS983042 HRM983042:HRO983042 IBI983042:IBK983042 ILE983042:ILG983042 IVA983042:IVC983042 JEW983042:JEY983042 JOS983042:JOU983042 JYO983042:JYQ983042 KIK983042:KIM983042 KSG983042:KSI983042 LCC983042:LCE983042 LLY983042:LMA983042 LVU983042:LVW983042 MFQ983042:MFS983042 MPM983042:MPO983042 MZI983042:MZK983042 NJE983042:NJG983042 NTA983042:NTC983042 OCW983042:OCY983042 OMS983042:OMU983042 OWO983042:OWQ983042 PGK983042:PGM983042 PQG983042:PQI983042 QAC983042:QAE983042 QJY983042:QKA983042 QTU983042:QTW983042 RDQ983042:RDS983042 RNM983042:RNO983042 RXI983042:RXK983042 SHE983042:SHG983042 SRA983042:SRC983042 TAW983042:TAY983042 TKS983042:TKU983042 TUO983042:TUQ983042 UEK983042:UEM983042 UOG983042:UOI983042 UYC983042:UYE983042 VHY983042:VIA983042 VRU983042:VRW983042 WBQ983042:WBS983042 WLM983042:WLO983042 WVI983042:WVK983042 IW6:IY6 IQ6:IR6 SM6:SN6 ACI6:ACJ6 AME6:AMF6 AWA6:AWB6 BFW6:BFX6 BPS6:BPT6 BZO6:BZP6 CJK6:CJL6 CTG6:CTH6 DDC6:DDD6 DMY6:DMZ6 DWU6:DWV6 EGQ6:EGR6 EQM6:EQN6 FAI6:FAJ6 FKE6:FKF6 FUA6:FUB6 GDW6:GDX6 GNS6:GNT6 GXO6:GXP6 HHK6:HHL6 HRG6:HRH6 IBC6:IBD6 IKY6:IKZ6 IUU6:IUV6 JEQ6:JER6 JOM6:JON6 JYI6:JYJ6 KIE6:KIF6 KSA6:KSB6 LBW6:LBX6 LLS6:LLT6 LVO6:LVP6 MFK6:MFL6 MPG6:MPH6 MZC6:MZD6 NIY6:NIZ6 NSU6:NSV6 OCQ6:OCR6 OMM6:OMN6 OWI6:OWJ6 PGE6:PGF6 PQA6:PQB6 PZW6:PZX6 QJS6:QJT6 QTO6:QTP6 RDK6:RDL6 RNG6:RNH6 RXC6:RXD6 SGY6:SGZ6 SQU6:SQV6 TAQ6:TAR6 TKM6:TKN6 TUI6:TUJ6 UEE6:UEF6 UOA6:UOB6 UXW6:UXX6 VHS6:VHT6 VRO6:VRP6 WBK6:WBL6 WLG6:WLH6 WVC6:WVD6 E65538:F65538 IQ65538:IR65538 SM65538:SN65538 ACI65538:ACJ65538 AME65538:AMF65538 AWA65538:AWB65538 BFW65538:BFX65538 BPS65538:BPT65538 BZO65538:BZP65538 CJK65538:CJL65538 CTG65538:CTH65538 DDC65538:DDD65538 DMY65538:DMZ65538 DWU65538:DWV65538 EGQ65538:EGR65538 EQM65538:EQN65538 FAI65538:FAJ65538 FKE65538:FKF65538 FUA65538:FUB65538 GDW65538:GDX65538 GNS65538:GNT65538 GXO65538:GXP65538 HHK65538:HHL65538 HRG65538:HRH65538 IBC65538:IBD65538 IKY65538:IKZ65538 IUU65538:IUV65538 JEQ65538:JER65538 JOM65538:JON65538 JYI65538:JYJ65538 KIE65538:KIF65538 KSA65538:KSB65538 LBW65538:LBX65538 LLS65538:LLT65538 LVO65538:LVP65538 MFK65538:MFL65538 MPG65538:MPH65538 MZC65538:MZD65538 NIY65538:NIZ65538 NSU65538:NSV65538 OCQ65538:OCR65538 OMM65538:OMN65538 OWI65538:OWJ65538 PGE65538:PGF65538 PQA65538:PQB65538 PZW65538:PZX65538 QJS65538:QJT65538 QTO65538:QTP65538 RDK65538:RDL65538 RNG65538:RNH65538 RXC65538:RXD65538 SGY65538:SGZ65538 SQU65538:SQV65538 TAQ65538:TAR65538 TKM65538:TKN65538 TUI65538:TUJ65538 UEE65538:UEF65538 UOA65538:UOB65538 UXW65538:UXX65538 VHS65538:VHT65538 VRO65538:VRP65538 WBK65538:WBL65538 WLG65538:WLH65538 WVC65538:WVD65538 E131074:F131074 IQ131074:IR131074 SM131074:SN131074 ACI131074:ACJ131074 AME131074:AMF131074 AWA131074:AWB131074 BFW131074:BFX131074 BPS131074:BPT131074 BZO131074:BZP131074 CJK131074:CJL131074 CTG131074:CTH131074 DDC131074:DDD131074 DMY131074:DMZ131074 DWU131074:DWV131074 EGQ131074:EGR131074 EQM131074:EQN131074 FAI131074:FAJ131074 FKE131074:FKF131074 FUA131074:FUB131074 GDW131074:GDX131074 GNS131074:GNT131074 GXO131074:GXP131074 HHK131074:HHL131074 HRG131074:HRH131074 IBC131074:IBD131074 IKY131074:IKZ131074 IUU131074:IUV131074 JEQ131074:JER131074 JOM131074:JON131074 JYI131074:JYJ131074 KIE131074:KIF131074 KSA131074:KSB131074 LBW131074:LBX131074 LLS131074:LLT131074 LVO131074:LVP131074 MFK131074:MFL131074 MPG131074:MPH131074 MZC131074:MZD131074 NIY131074:NIZ131074 NSU131074:NSV131074 OCQ131074:OCR131074 OMM131074:OMN131074 OWI131074:OWJ131074 PGE131074:PGF131074 PQA131074:PQB131074 PZW131074:PZX131074 QJS131074:QJT131074 QTO131074:QTP131074 RDK131074:RDL131074 RNG131074:RNH131074 RXC131074:RXD131074 SGY131074:SGZ131074 SQU131074:SQV131074 TAQ131074:TAR131074 TKM131074:TKN131074 TUI131074:TUJ131074 UEE131074:UEF131074 UOA131074:UOB131074 UXW131074:UXX131074 VHS131074:VHT131074 VRO131074:VRP131074 WBK131074:WBL131074 WLG131074:WLH131074 WVC131074:WVD131074 E196610:F196610 IQ196610:IR196610 SM196610:SN196610 ACI196610:ACJ196610 AME196610:AMF196610 AWA196610:AWB196610 BFW196610:BFX196610 BPS196610:BPT196610 BZO196610:BZP196610 CJK196610:CJL196610 CTG196610:CTH196610 DDC196610:DDD196610 DMY196610:DMZ196610 DWU196610:DWV196610 EGQ196610:EGR196610 EQM196610:EQN196610 FAI196610:FAJ196610 FKE196610:FKF196610 FUA196610:FUB196610 GDW196610:GDX196610 GNS196610:GNT196610 GXO196610:GXP196610 HHK196610:HHL196610 HRG196610:HRH196610 IBC196610:IBD196610 IKY196610:IKZ196610 IUU196610:IUV196610 JEQ196610:JER196610 JOM196610:JON196610 JYI196610:JYJ196610 KIE196610:KIF196610 KSA196610:KSB196610 LBW196610:LBX196610 LLS196610:LLT196610 LVO196610:LVP196610 MFK196610:MFL196610 MPG196610:MPH196610 MZC196610:MZD196610 NIY196610:NIZ196610 NSU196610:NSV196610 OCQ196610:OCR196610 OMM196610:OMN196610 OWI196610:OWJ196610 PGE196610:PGF196610 PQA196610:PQB196610 PZW196610:PZX196610 QJS196610:QJT196610 QTO196610:QTP196610 RDK196610:RDL196610 RNG196610:RNH196610 RXC196610:RXD196610 SGY196610:SGZ196610 SQU196610:SQV196610 TAQ196610:TAR196610 TKM196610:TKN196610 TUI196610:TUJ196610 UEE196610:UEF196610 UOA196610:UOB196610 UXW196610:UXX196610 VHS196610:VHT196610 VRO196610:VRP196610 WBK196610:WBL196610 WLG196610:WLH196610 WVC196610:WVD196610 E262146:F262146 IQ262146:IR262146 SM262146:SN262146 ACI262146:ACJ262146 AME262146:AMF262146 AWA262146:AWB262146 BFW262146:BFX262146 BPS262146:BPT262146 BZO262146:BZP262146 CJK262146:CJL262146 CTG262146:CTH262146 DDC262146:DDD262146 DMY262146:DMZ262146 DWU262146:DWV262146 EGQ262146:EGR262146 EQM262146:EQN262146 FAI262146:FAJ262146 FKE262146:FKF262146 FUA262146:FUB262146 GDW262146:GDX262146 GNS262146:GNT262146 GXO262146:GXP262146 HHK262146:HHL262146 HRG262146:HRH262146 IBC262146:IBD262146 IKY262146:IKZ262146 IUU262146:IUV262146 JEQ262146:JER262146 JOM262146:JON262146 JYI262146:JYJ262146 KIE262146:KIF262146 KSA262146:KSB262146 LBW262146:LBX262146 LLS262146:LLT262146 LVO262146:LVP262146 MFK262146:MFL262146 MPG262146:MPH262146 MZC262146:MZD262146 NIY262146:NIZ262146 NSU262146:NSV262146 OCQ262146:OCR262146 OMM262146:OMN262146 OWI262146:OWJ262146 PGE262146:PGF262146 PQA262146:PQB262146 PZW262146:PZX262146 QJS262146:QJT262146 QTO262146:QTP262146 RDK262146:RDL262146 RNG262146:RNH262146 RXC262146:RXD262146 SGY262146:SGZ262146 SQU262146:SQV262146 TAQ262146:TAR262146 TKM262146:TKN262146 TUI262146:TUJ262146 UEE262146:UEF262146 UOA262146:UOB262146 UXW262146:UXX262146 VHS262146:VHT262146 VRO262146:VRP262146 WBK262146:WBL262146 WLG262146:WLH262146 WVC262146:WVD262146 E327682:F327682 IQ327682:IR327682 SM327682:SN327682 ACI327682:ACJ327682 AME327682:AMF327682 AWA327682:AWB327682 BFW327682:BFX327682 BPS327682:BPT327682 BZO327682:BZP327682 CJK327682:CJL327682 CTG327682:CTH327682 DDC327682:DDD327682 DMY327682:DMZ327682 DWU327682:DWV327682 EGQ327682:EGR327682 EQM327682:EQN327682 FAI327682:FAJ327682 FKE327682:FKF327682 FUA327682:FUB327682 GDW327682:GDX327682 GNS327682:GNT327682 GXO327682:GXP327682 HHK327682:HHL327682 HRG327682:HRH327682 IBC327682:IBD327682 IKY327682:IKZ327682 IUU327682:IUV327682 JEQ327682:JER327682 JOM327682:JON327682 JYI327682:JYJ327682 KIE327682:KIF327682 KSA327682:KSB327682 LBW327682:LBX327682 LLS327682:LLT327682 LVO327682:LVP327682 MFK327682:MFL327682 MPG327682:MPH327682 MZC327682:MZD327682 NIY327682:NIZ327682 NSU327682:NSV327682 OCQ327682:OCR327682 OMM327682:OMN327682 OWI327682:OWJ327682 PGE327682:PGF327682 PQA327682:PQB327682 PZW327682:PZX327682 QJS327682:QJT327682 QTO327682:QTP327682 RDK327682:RDL327682 RNG327682:RNH327682 RXC327682:RXD327682 SGY327682:SGZ327682 SQU327682:SQV327682 TAQ327682:TAR327682 TKM327682:TKN327682 TUI327682:TUJ327682 UEE327682:UEF327682 UOA327682:UOB327682 UXW327682:UXX327682 VHS327682:VHT327682 VRO327682:VRP327682 WBK327682:WBL327682 WLG327682:WLH327682 WVC327682:WVD327682 E393218:F393218 IQ393218:IR393218 SM393218:SN393218 ACI393218:ACJ393218 AME393218:AMF393218 AWA393218:AWB393218 BFW393218:BFX393218 BPS393218:BPT393218 BZO393218:BZP393218 CJK393218:CJL393218 CTG393218:CTH393218 DDC393218:DDD393218 DMY393218:DMZ393218 DWU393218:DWV393218 EGQ393218:EGR393218 EQM393218:EQN393218 FAI393218:FAJ393218 FKE393218:FKF393218 FUA393218:FUB393218 GDW393218:GDX393218 GNS393218:GNT393218 GXO393218:GXP393218 HHK393218:HHL393218 HRG393218:HRH393218 IBC393218:IBD393218 IKY393218:IKZ393218 IUU393218:IUV393218 JEQ393218:JER393218 JOM393218:JON393218 JYI393218:JYJ393218 KIE393218:KIF393218 KSA393218:KSB393218 LBW393218:LBX393218 LLS393218:LLT393218 LVO393218:LVP393218 MFK393218:MFL393218 MPG393218:MPH393218 MZC393218:MZD393218 NIY393218:NIZ393218 NSU393218:NSV393218 OCQ393218:OCR393218 OMM393218:OMN393218 OWI393218:OWJ393218 PGE393218:PGF393218 PQA393218:PQB393218 PZW393218:PZX393218 QJS393218:QJT393218 QTO393218:QTP393218 RDK393218:RDL393218 RNG393218:RNH393218 RXC393218:RXD393218 SGY393218:SGZ393218 SQU393218:SQV393218 TAQ393218:TAR393218 TKM393218:TKN393218 TUI393218:TUJ393218 UEE393218:UEF393218 UOA393218:UOB393218 UXW393218:UXX393218 VHS393218:VHT393218 VRO393218:VRP393218 WBK393218:WBL393218 WLG393218:WLH393218 WVC393218:WVD393218 E458754:F458754 IQ458754:IR458754 SM458754:SN458754 ACI458754:ACJ458754 AME458754:AMF458754 AWA458754:AWB458754 BFW458754:BFX458754 BPS458754:BPT458754 BZO458754:BZP458754 CJK458754:CJL458754 CTG458754:CTH458754 DDC458754:DDD458754 DMY458754:DMZ458754 DWU458754:DWV458754 EGQ458754:EGR458754 EQM458754:EQN458754 FAI458754:FAJ458754 FKE458754:FKF458754 FUA458754:FUB458754 GDW458754:GDX458754 GNS458754:GNT458754 GXO458754:GXP458754 HHK458754:HHL458754 HRG458754:HRH458754 IBC458754:IBD458754 IKY458754:IKZ458754 IUU458754:IUV458754 JEQ458754:JER458754 JOM458754:JON458754 JYI458754:JYJ458754 KIE458754:KIF458754 KSA458754:KSB458754 LBW458754:LBX458754 LLS458754:LLT458754 LVO458754:LVP458754 MFK458754:MFL458754 MPG458754:MPH458754 MZC458754:MZD458754 NIY458754:NIZ458754 NSU458754:NSV458754 OCQ458754:OCR458754 OMM458754:OMN458754 OWI458754:OWJ458754 PGE458754:PGF458754 PQA458754:PQB458754 PZW458754:PZX458754 QJS458754:QJT458754 QTO458754:QTP458754 RDK458754:RDL458754 RNG458754:RNH458754 RXC458754:RXD458754 SGY458754:SGZ458754 SQU458754:SQV458754 TAQ458754:TAR458754 TKM458754:TKN458754 TUI458754:TUJ458754 UEE458754:UEF458754 UOA458754:UOB458754 UXW458754:UXX458754 VHS458754:VHT458754 VRO458754:VRP458754 WBK458754:WBL458754 WLG458754:WLH458754 WVC458754:WVD458754 E524290:F524290 IQ524290:IR524290 SM524290:SN524290 ACI524290:ACJ524290 AME524290:AMF524290 AWA524290:AWB524290 BFW524290:BFX524290 BPS524290:BPT524290 BZO524290:BZP524290 CJK524290:CJL524290 CTG524290:CTH524290 DDC524290:DDD524290 DMY524290:DMZ524290 DWU524290:DWV524290 EGQ524290:EGR524290 EQM524290:EQN524290 FAI524290:FAJ524290 FKE524290:FKF524290 FUA524290:FUB524290 GDW524290:GDX524290 GNS524290:GNT524290 GXO524290:GXP524290 HHK524290:HHL524290 HRG524290:HRH524290 IBC524290:IBD524290 IKY524290:IKZ524290 IUU524290:IUV524290 JEQ524290:JER524290 JOM524290:JON524290 JYI524290:JYJ524290 KIE524290:KIF524290 KSA524290:KSB524290 LBW524290:LBX524290 LLS524290:LLT524290 LVO524290:LVP524290 MFK524290:MFL524290 MPG524290:MPH524290 MZC524290:MZD524290 NIY524290:NIZ524290 NSU524290:NSV524290 OCQ524290:OCR524290 OMM524290:OMN524290 OWI524290:OWJ524290 PGE524290:PGF524290 PQA524290:PQB524290 PZW524290:PZX524290 QJS524290:QJT524290 QTO524290:QTP524290 RDK524290:RDL524290 RNG524290:RNH524290 RXC524290:RXD524290 SGY524290:SGZ524290 SQU524290:SQV524290 TAQ524290:TAR524290 TKM524290:TKN524290 TUI524290:TUJ524290 UEE524290:UEF524290 UOA524290:UOB524290 UXW524290:UXX524290 VHS524290:VHT524290 VRO524290:VRP524290 WBK524290:WBL524290 WLG524290:WLH524290 WVC524290:WVD524290 E589826:F589826 IQ589826:IR589826 SM589826:SN589826 ACI589826:ACJ589826 AME589826:AMF589826 AWA589826:AWB589826 BFW589826:BFX589826 BPS589826:BPT589826 BZO589826:BZP589826 CJK589826:CJL589826 CTG589826:CTH589826 DDC589826:DDD589826 DMY589826:DMZ589826 DWU589826:DWV589826 EGQ589826:EGR589826 EQM589826:EQN589826 FAI589826:FAJ589826 FKE589826:FKF589826 FUA589826:FUB589826 GDW589826:GDX589826 GNS589826:GNT589826 GXO589826:GXP589826 HHK589826:HHL589826 HRG589826:HRH589826 IBC589826:IBD589826 IKY589826:IKZ589826 IUU589826:IUV589826 JEQ589826:JER589826 JOM589826:JON589826 JYI589826:JYJ589826 KIE589826:KIF589826 KSA589826:KSB589826 LBW589826:LBX589826 LLS589826:LLT589826 LVO589826:LVP589826 MFK589826:MFL589826 MPG589826:MPH589826 MZC589826:MZD589826 NIY589826:NIZ589826 NSU589826:NSV589826 OCQ589826:OCR589826 OMM589826:OMN589826 OWI589826:OWJ589826 PGE589826:PGF589826 PQA589826:PQB589826 PZW589826:PZX589826 QJS589826:QJT589826 QTO589826:QTP589826 RDK589826:RDL589826 RNG589826:RNH589826 RXC589826:RXD589826 SGY589826:SGZ589826 SQU589826:SQV589826 TAQ589826:TAR589826 TKM589826:TKN589826 TUI589826:TUJ589826 UEE589826:UEF589826 UOA589826:UOB589826 UXW589826:UXX589826 VHS589826:VHT589826 VRO589826:VRP589826 WBK589826:WBL589826 WLG589826:WLH589826 WVC589826:WVD589826 E655362:F655362 IQ655362:IR655362 SM655362:SN655362 ACI655362:ACJ655362 AME655362:AMF655362 AWA655362:AWB655362 BFW655362:BFX655362 BPS655362:BPT655362 BZO655362:BZP655362 CJK655362:CJL655362 CTG655362:CTH655362 DDC655362:DDD655362 DMY655362:DMZ655362 DWU655362:DWV655362 EGQ655362:EGR655362 EQM655362:EQN655362 FAI655362:FAJ655362 FKE655362:FKF655362 FUA655362:FUB655362 GDW655362:GDX655362 GNS655362:GNT655362 GXO655362:GXP655362 HHK655362:HHL655362 HRG655362:HRH655362 IBC655362:IBD655362 IKY655362:IKZ655362 IUU655362:IUV655362 JEQ655362:JER655362 JOM655362:JON655362 JYI655362:JYJ655362 KIE655362:KIF655362 KSA655362:KSB655362 LBW655362:LBX655362 LLS655362:LLT655362 LVO655362:LVP655362 MFK655362:MFL655362 MPG655362:MPH655362 MZC655362:MZD655362 NIY655362:NIZ655362 NSU655362:NSV655362 OCQ655362:OCR655362 OMM655362:OMN655362 OWI655362:OWJ655362 PGE655362:PGF655362 PQA655362:PQB655362 PZW655362:PZX655362 QJS655362:QJT655362 QTO655362:QTP655362 RDK655362:RDL655362 RNG655362:RNH655362 RXC655362:RXD655362 SGY655362:SGZ655362 SQU655362:SQV655362 TAQ655362:TAR655362 TKM655362:TKN655362 TUI655362:TUJ655362 UEE655362:UEF655362 UOA655362:UOB655362 UXW655362:UXX655362 VHS655362:VHT655362 VRO655362:VRP655362 WBK655362:WBL655362 WLG655362:WLH655362 WVC655362:WVD655362 E720898:F720898 IQ720898:IR720898 SM720898:SN720898 ACI720898:ACJ720898 AME720898:AMF720898 AWA720898:AWB720898 BFW720898:BFX720898 BPS720898:BPT720898 BZO720898:BZP720898 CJK720898:CJL720898 CTG720898:CTH720898 DDC720898:DDD720898 DMY720898:DMZ720898 DWU720898:DWV720898 EGQ720898:EGR720898 EQM720898:EQN720898 FAI720898:FAJ720898 FKE720898:FKF720898 FUA720898:FUB720898 GDW720898:GDX720898 GNS720898:GNT720898 GXO720898:GXP720898 HHK720898:HHL720898 HRG720898:HRH720898 IBC720898:IBD720898 IKY720898:IKZ720898 IUU720898:IUV720898 JEQ720898:JER720898 JOM720898:JON720898 JYI720898:JYJ720898 KIE720898:KIF720898 KSA720898:KSB720898 LBW720898:LBX720898 LLS720898:LLT720898 LVO720898:LVP720898 MFK720898:MFL720898 MPG720898:MPH720898 MZC720898:MZD720898 NIY720898:NIZ720898 NSU720898:NSV720898 OCQ720898:OCR720898 OMM720898:OMN720898 OWI720898:OWJ720898 PGE720898:PGF720898 PQA720898:PQB720898 PZW720898:PZX720898 QJS720898:QJT720898 QTO720898:QTP720898 RDK720898:RDL720898 RNG720898:RNH720898 RXC720898:RXD720898 SGY720898:SGZ720898 SQU720898:SQV720898 TAQ720898:TAR720898 TKM720898:TKN720898 TUI720898:TUJ720898 UEE720898:UEF720898 UOA720898:UOB720898 UXW720898:UXX720898 VHS720898:VHT720898 VRO720898:VRP720898 WBK720898:WBL720898 WLG720898:WLH720898 WVC720898:WVD720898 E786434:F786434 IQ786434:IR786434 SM786434:SN786434 ACI786434:ACJ786434 AME786434:AMF786434 AWA786434:AWB786434 BFW786434:BFX786434 BPS786434:BPT786434 BZO786434:BZP786434 CJK786434:CJL786434 CTG786434:CTH786434 DDC786434:DDD786434 DMY786434:DMZ786434 DWU786434:DWV786434 EGQ786434:EGR786434 EQM786434:EQN786434 FAI786434:FAJ786434 FKE786434:FKF786434 FUA786434:FUB786434 GDW786434:GDX786434 GNS786434:GNT786434 GXO786434:GXP786434 HHK786434:HHL786434 HRG786434:HRH786434 IBC786434:IBD786434 IKY786434:IKZ786434 IUU786434:IUV786434 JEQ786434:JER786434 JOM786434:JON786434 JYI786434:JYJ786434 KIE786434:KIF786434 KSA786434:KSB786434 LBW786434:LBX786434 LLS786434:LLT786434 LVO786434:LVP786434 MFK786434:MFL786434 MPG786434:MPH786434 MZC786434:MZD786434 NIY786434:NIZ786434 NSU786434:NSV786434 OCQ786434:OCR786434 OMM786434:OMN786434 OWI786434:OWJ786434 PGE786434:PGF786434 PQA786434:PQB786434 PZW786434:PZX786434 QJS786434:QJT786434 QTO786434:QTP786434 RDK786434:RDL786434 RNG786434:RNH786434 RXC786434:RXD786434 SGY786434:SGZ786434 SQU786434:SQV786434 TAQ786434:TAR786434 TKM786434:TKN786434 TUI786434:TUJ786434 UEE786434:UEF786434 UOA786434:UOB786434 UXW786434:UXX786434 VHS786434:VHT786434 VRO786434:VRP786434 WBK786434:WBL786434 WLG786434:WLH786434 WVC786434:WVD786434 E851970:F851970 IQ851970:IR851970 SM851970:SN851970 ACI851970:ACJ851970 AME851970:AMF851970 AWA851970:AWB851970 BFW851970:BFX851970 BPS851970:BPT851970 BZO851970:BZP851970 CJK851970:CJL851970 CTG851970:CTH851970 DDC851970:DDD851970 DMY851970:DMZ851970 DWU851970:DWV851970 EGQ851970:EGR851970 EQM851970:EQN851970 FAI851970:FAJ851970 FKE851970:FKF851970 FUA851970:FUB851970 GDW851970:GDX851970 GNS851970:GNT851970 GXO851970:GXP851970 HHK851970:HHL851970 HRG851970:HRH851970 IBC851970:IBD851970 IKY851970:IKZ851970 IUU851970:IUV851970 JEQ851970:JER851970 JOM851970:JON851970 JYI851970:JYJ851970 KIE851970:KIF851970 KSA851970:KSB851970 LBW851970:LBX851970 LLS851970:LLT851970 LVO851970:LVP851970 MFK851970:MFL851970 MPG851970:MPH851970 MZC851970:MZD851970 NIY851970:NIZ851970 NSU851970:NSV851970 OCQ851970:OCR851970 OMM851970:OMN851970 OWI851970:OWJ851970 PGE851970:PGF851970 PQA851970:PQB851970 PZW851970:PZX851970 QJS851970:QJT851970 QTO851970:QTP851970 RDK851970:RDL851970 RNG851970:RNH851970 RXC851970:RXD851970 SGY851970:SGZ851970 SQU851970:SQV851970 TAQ851970:TAR851970 TKM851970:TKN851970 TUI851970:TUJ851970 UEE851970:UEF851970 UOA851970:UOB851970 UXW851970:UXX851970 VHS851970:VHT851970 VRO851970:VRP851970 WBK851970:WBL851970 WLG851970:WLH851970 WVC851970:WVD851970 E917506:F917506 IQ917506:IR917506 SM917506:SN917506 ACI917506:ACJ917506 AME917506:AMF917506 AWA917506:AWB917506 BFW917506:BFX917506 BPS917506:BPT917506 BZO917506:BZP917506 CJK917506:CJL917506 CTG917506:CTH917506 DDC917506:DDD917506 DMY917506:DMZ917506 DWU917506:DWV917506 EGQ917506:EGR917506 EQM917506:EQN917506 FAI917506:FAJ917506 FKE917506:FKF917506 FUA917506:FUB917506 GDW917506:GDX917506 GNS917506:GNT917506 GXO917506:GXP917506 HHK917506:HHL917506 HRG917506:HRH917506 IBC917506:IBD917506 IKY917506:IKZ917506 IUU917506:IUV917506 JEQ917506:JER917506 JOM917506:JON917506 JYI917506:JYJ917506 KIE917506:KIF917506 KSA917506:KSB917506 LBW917506:LBX917506 LLS917506:LLT917506 LVO917506:LVP917506 MFK917506:MFL917506 MPG917506:MPH917506 MZC917506:MZD917506 NIY917506:NIZ917506 NSU917506:NSV917506 OCQ917506:OCR917506 OMM917506:OMN917506 OWI917506:OWJ917506 PGE917506:PGF917506 PQA917506:PQB917506 PZW917506:PZX917506 QJS917506:QJT917506 QTO917506:QTP917506 RDK917506:RDL917506 RNG917506:RNH917506 RXC917506:RXD917506 SGY917506:SGZ917506 SQU917506:SQV917506 TAQ917506:TAR917506 TKM917506:TKN917506 TUI917506:TUJ917506 UEE917506:UEF917506 UOA917506:UOB917506 UXW917506:UXX917506 VHS917506:VHT917506 VRO917506:VRP917506 WBK917506:WBL917506 WLG917506:WLH917506 WVC917506:WVD917506 E983042:F983042 IQ983042:IR983042 SM983042:SN983042 ACI983042:ACJ983042 AME983042:AMF983042 AWA983042:AWB983042 BFW983042:BFX983042 BPS983042:BPT983042 BZO983042:BZP983042 CJK983042:CJL983042 CTG983042:CTH983042 DDC983042:DDD983042 DMY983042:DMZ983042 DWU983042:DWV983042 EGQ983042:EGR983042 EQM983042:EQN983042 FAI983042:FAJ983042 FKE983042:FKF983042 FUA983042:FUB983042 GDW983042:GDX983042 GNS983042:GNT983042 GXO983042:GXP983042 HHK983042:HHL983042 HRG983042:HRH983042 IBC983042:IBD983042 IKY983042:IKZ983042 IUU983042:IUV983042 JEQ983042:JER983042 JOM983042:JON983042 JYI983042:JYJ983042 KIE983042:KIF983042 KSA983042:KSB983042 LBW983042:LBX983042 LLS983042:LLT983042 LVO983042:LVP983042 MFK983042:MFL983042 MPG983042:MPH983042 MZC983042:MZD983042 NIY983042:NIZ983042 NSU983042:NSV983042 OCQ983042:OCR983042 OMM983042:OMN983042 OWI983042:OWJ983042 PGE983042:PGF983042 PQA983042:PQB983042 PZW983042:PZX983042 QJS983042:QJT983042 QTO983042:QTP983042 RDK983042:RDL983042 RNG983042:RNH983042 RXC983042:RXD983042 SGY983042:SGZ983042 SQU983042:SQV983042 TAQ983042:TAR983042 TKM983042:TKN983042 TUI983042:TUJ983042 UEE983042:UEF983042 UOA983042:UOB983042 UXW983042:UXX983042 VHS983042:VHT983042 VRO983042:VRP983042 WBK983042:WBL983042 WLG983042:WLH983042 WVC983042:WVD983042 G6:G8 IS6:IS8 SO6:SO8 ACK6:ACK8 AMG6:AMG8 AWC6:AWC8 BFY6:BFY8 BPU6:BPU8 BZQ6:BZQ8 CJM6:CJM8 CTI6:CTI8 DDE6:DDE8 DNA6:DNA8 DWW6:DWW8 EGS6:EGS8 EQO6:EQO8 FAK6:FAK8 FKG6:FKG8 FUC6:FUC8 GDY6:GDY8 GNU6:GNU8 GXQ6:GXQ8 HHM6:HHM8 HRI6:HRI8 IBE6:IBE8 ILA6:ILA8 IUW6:IUW8 JES6:JES8 JOO6:JOO8 JYK6:JYK8 KIG6:KIG8 KSC6:KSC8 LBY6:LBY8 LLU6:LLU8 LVQ6:LVQ8 MFM6:MFM8 MPI6:MPI8 MZE6:MZE8 NJA6:NJA8 NSW6:NSW8 OCS6:OCS8 OMO6:OMO8 OWK6:OWK8 PGG6:PGG8 PQC6:PQC8 PZY6:PZY8 QJU6:QJU8 QTQ6:QTQ8 RDM6:RDM8 RNI6:RNI8 RXE6:RXE8 SHA6:SHA8 SQW6:SQW8 TAS6:TAS8 TKO6:TKO8 TUK6:TUK8 UEG6:UEG8 UOC6:UOC8 UXY6:UXY8 VHU6:VHU8 VRQ6:VRQ8 WBM6:WBM8 WLI6:WLI8 WVE6:WVE8 G65538:G65540 IS65538:IS65540 SO65538:SO65540 ACK65538:ACK65540 AMG65538:AMG65540 AWC65538:AWC65540 BFY65538:BFY65540 BPU65538:BPU65540 BZQ65538:BZQ65540 CJM65538:CJM65540 CTI65538:CTI65540 DDE65538:DDE65540 DNA65538:DNA65540 DWW65538:DWW65540 EGS65538:EGS65540 EQO65538:EQO65540 FAK65538:FAK65540 FKG65538:FKG65540 FUC65538:FUC65540 GDY65538:GDY65540 GNU65538:GNU65540 GXQ65538:GXQ65540 HHM65538:HHM65540 HRI65538:HRI65540 IBE65538:IBE65540 ILA65538:ILA65540 IUW65538:IUW65540 JES65538:JES65540 JOO65538:JOO65540 JYK65538:JYK65540 KIG65538:KIG65540 KSC65538:KSC65540 LBY65538:LBY65540 LLU65538:LLU65540 LVQ65538:LVQ65540 MFM65538:MFM65540 MPI65538:MPI65540 MZE65538:MZE65540 NJA65538:NJA65540 NSW65538:NSW65540 OCS65538:OCS65540 OMO65538:OMO65540 OWK65538:OWK65540 PGG65538:PGG65540 PQC65538:PQC65540 PZY65538:PZY65540 QJU65538:QJU65540 QTQ65538:QTQ65540 RDM65538:RDM65540 RNI65538:RNI65540 RXE65538:RXE65540 SHA65538:SHA65540 SQW65538:SQW65540 TAS65538:TAS65540 TKO65538:TKO65540 TUK65538:TUK65540 UEG65538:UEG65540 UOC65538:UOC65540 UXY65538:UXY65540 VHU65538:VHU65540 VRQ65538:VRQ65540 WBM65538:WBM65540 WLI65538:WLI65540 WVE65538:WVE65540 G131074:G131076 IS131074:IS131076 SO131074:SO131076 ACK131074:ACK131076 AMG131074:AMG131076 AWC131074:AWC131076 BFY131074:BFY131076 BPU131074:BPU131076 BZQ131074:BZQ131076 CJM131074:CJM131076 CTI131074:CTI131076 DDE131074:DDE131076 DNA131074:DNA131076 DWW131074:DWW131076 EGS131074:EGS131076 EQO131074:EQO131076 FAK131074:FAK131076 FKG131074:FKG131076 FUC131074:FUC131076 GDY131074:GDY131076 GNU131074:GNU131076 GXQ131074:GXQ131076 HHM131074:HHM131076 HRI131074:HRI131076 IBE131074:IBE131076 ILA131074:ILA131076 IUW131074:IUW131076 JES131074:JES131076 JOO131074:JOO131076 JYK131074:JYK131076 KIG131074:KIG131076 KSC131074:KSC131076 LBY131074:LBY131076 LLU131074:LLU131076 LVQ131074:LVQ131076 MFM131074:MFM131076 MPI131074:MPI131076 MZE131074:MZE131076 NJA131074:NJA131076 NSW131074:NSW131076 OCS131074:OCS131076 OMO131074:OMO131076 OWK131074:OWK131076 PGG131074:PGG131076 PQC131074:PQC131076 PZY131074:PZY131076 QJU131074:QJU131076 QTQ131074:QTQ131076 RDM131074:RDM131076 RNI131074:RNI131076 RXE131074:RXE131076 SHA131074:SHA131076 SQW131074:SQW131076 TAS131074:TAS131076 TKO131074:TKO131076 TUK131074:TUK131076 UEG131074:UEG131076 UOC131074:UOC131076 UXY131074:UXY131076 VHU131074:VHU131076 VRQ131074:VRQ131076 WBM131074:WBM131076 WLI131074:WLI131076 WVE131074:WVE131076 G196610:G196612 IS196610:IS196612 SO196610:SO196612 ACK196610:ACK196612 AMG196610:AMG196612 AWC196610:AWC196612 BFY196610:BFY196612 BPU196610:BPU196612 BZQ196610:BZQ196612 CJM196610:CJM196612 CTI196610:CTI196612 DDE196610:DDE196612 DNA196610:DNA196612 DWW196610:DWW196612 EGS196610:EGS196612 EQO196610:EQO196612 FAK196610:FAK196612 FKG196610:FKG196612 FUC196610:FUC196612 GDY196610:GDY196612 GNU196610:GNU196612 GXQ196610:GXQ196612 HHM196610:HHM196612 HRI196610:HRI196612 IBE196610:IBE196612 ILA196610:ILA196612 IUW196610:IUW196612 JES196610:JES196612 JOO196610:JOO196612 JYK196610:JYK196612 KIG196610:KIG196612 KSC196610:KSC196612 LBY196610:LBY196612 LLU196610:LLU196612 LVQ196610:LVQ196612 MFM196610:MFM196612 MPI196610:MPI196612 MZE196610:MZE196612 NJA196610:NJA196612 NSW196610:NSW196612 OCS196610:OCS196612 OMO196610:OMO196612 OWK196610:OWK196612 PGG196610:PGG196612 PQC196610:PQC196612 PZY196610:PZY196612 QJU196610:QJU196612 QTQ196610:QTQ196612 RDM196610:RDM196612 RNI196610:RNI196612 RXE196610:RXE196612 SHA196610:SHA196612 SQW196610:SQW196612 TAS196610:TAS196612 TKO196610:TKO196612 TUK196610:TUK196612 UEG196610:UEG196612 UOC196610:UOC196612 UXY196610:UXY196612 VHU196610:VHU196612 VRQ196610:VRQ196612 WBM196610:WBM196612 WLI196610:WLI196612 WVE196610:WVE196612 G262146:G262148 IS262146:IS262148 SO262146:SO262148 ACK262146:ACK262148 AMG262146:AMG262148 AWC262146:AWC262148 BFY262146:BFY262148 BPU262146:BPU262148 BZQ262146:BZQ262148 CJM262146:CJM262148 CTI262146:CTI262148 DDE262146:DDE262148 DNA262146:DNA262148 DWW262146:DWW262148 EGS262146:EGS262148 EQO262146:EQO262148 FAK262146:FAK262148 FKG262146:FKG262148 FUC262146:FUC262148 GDY262146:GDY262148 GNU262146:GNU262148 GXQ262146:GXQ262148 HHM262146:HHM262148 HRI262146:HRI262148 IBE262146:IBE262148 ILA262146:ILA262148 IUW262146:IUW262148 JES262146:JES262148 JOO262146:JOO262148 JYK262146:JYK262148 KIG262146:KIG262148 KSC262146:KSC262148 LBY262146:LBY262148 LLU262146:LLU262148 LVQ262146:LVQ262148 MFM262146:MFM262148 MPI262146:MPI262148 MZE262146:MZE262148 NJA262146:NJA262148 NSW262146:NSW262148 OCS262146:OCS262148 OMO262146:OMO262148 OWK262146:OWK262148 PGG262146:PGG262148 PQC262146:PQC262148 PZY262146:PZY262148 QJU262146:QJU262148 QTQ262146:QTQ262148 RDM262146:RDM262148 RNI262146:RNI262148 RXE262146:RXE262148 SHA262146:SHA262148 SQW262146:SQW262148 TAS262146:TAS262148 TKO262146:TKO262148 TUK262146:TUK262148 UEG262146:UEG262148 UOC262146:UOC262148 UXY262146:UXY262148 VHU262146:VHU262148 VRQ262146:VRQ262148 WBM262146:WBM262148 WLI262146:WLI262148 WVE262146:WVE262148 G327682:G327684 IS327682:IS327684 SO327682:SO327684 ACK327682:ACK327684 AMG327682:AMG327684 AWC327682:AWC327684 BFY327682:BFY327684 BPU327682:BPU327684 BZQ327682:BZQ327684 CJM327682:CJM327684 CTI327682:CTI327684 DDE327682:DDE327684 DNA327682:DNA327684 DWW327682:DWW327684 EGS327682:EGS327684 EQO327682:EQO327684 FAK327682:FAK327684 FKG327682:FKG327684 FUC327682:FUC327684 GDY327682:GDY327684 GNU327682:GNU327684 GXQ327682:GXQ327684 HHM327682:HHM327684 HRI327682:HRI327684 IBE327682:IBE327684 ILA327682:ILA327684 IUW327682:IUW327684 JES327682:JES327684 JOO327682:JOO327684 JYK327682:JYK327684 KIG327682:KIG327684 KSC327682:KSC327684 LBY327682:LBY327684 LLU327682:LLU327684 LVQ327682:LVQ327684 MFM327682:MFM327684 MPI327682:MPI327684 MZE327682:MZE327684 NJA327682:NJA327684 NSW327682:NSW327684 OCS327682:OCS327684 OMO327682:OMO327684 OWK327682:OWK327684 PGG327682:PGG327684 PQC327682:PQC327684 PZY327682:PZY327684 QJU327682:QJU327684 QTQ327682:QTQ327684 RDM327682:RDM327684 RNI327682:RNI327684 RXE327682:RXE327684 SHA327682:SHA327684 SQW327682:SQW327684 TAS327682:TAS327684 TKO327682:TKO327684 TUK327682:TUK327684 UEG327682:UEG327684 UOC327682:UOC327684 UXY327682:UXY327684 VHU327682:VHU327684 VRQ327682:VRQ327684 WBM327682:WBM327684 WLI327682:WLI327684 WVE327682:WVE327684 G393218:G393220 IS393218:IS393220 SO393218:SO393220 ACK393218:ACK393220 AMG393218:AMG393220 AWC393218:AWC393220 BFY393218:BFY393220 BPU393218:BPU393220 BZQ393218:BZQ393220 CJM393218:CJM393220 CTI393218:CTI393220 DDE393218:DDE393220 DNA393218:DNA393220 DWW393218:DWW393220 EGS393218:EGS393220 EQO393218:EQO393220 FAK393218:FAK393220 FKG393218:FKG393220 FUC393218:FUC393220 GDY393218:GDY393220 GNU393218:GNU393220 GXQ393218:GXQ393220 HHM393218:HHM393220 HRI393218:HRI393220 IBE393218:IBE393220 ILA393218:ILA393220 IUW393218:IUW393220 JES393218:JES393220 JOO393218:JOO393220 JYK393218:JYK393220 KIG393218:KIG393220 KSC393218:KSC393220 LBY393218:LBY393220 LLU393218:LLU393220 LVQ393218:LVQ393220 MFM393218:MFM393220 MPI393218:MPI393220 MZE393218:MZE393220 NJA393218:NJA393220 NSW393218:NSW393220 OCS393218:OCS393220 OMO393218:OMO393220 OWK393218:OWK393220 PGG393218:PGG393220 PQC393218:PQC393220 PZY393218:PZY393220 QJU393218:QJU393220 QTQ393218:QTQ393220 RDM393218:RDM393220 RNI393218:RNI393220 RXE393218:RXE393220 SHA393218:SHA393220 SQW393218:SQW393220 TAS393218:TAS393220 TKO393218:TKO393220 TUK393218:TUK393220 UEG393218:UEG393220 UOC393218:UOC393220 UXY393218:UXY393220 VHU393218:VHU393220 VRQ393218:VRQ393220 WBM393218:WBM393220 WLI393218:WLI393220 WVE393218:WVE393220 G458754:G458756 IS458754:IS458756 SO458754:SO458756 ACK458754:ACK458756 AMG458754:AMG458756 AWC458754:AWC458756 BFY458754:BFY458756 BPU458754:BPU458756 BZQ458754:BZQ458756 CJM458754:CJM458756 CTI458754:CTI458756 DDE458754:DDE458756 DNA458754:DNA458756 DWW458754:DWW458756 EGS458754:EGS458756 EQO458754:EQO458756 FAK458754:FAK458756 FKG458754:FKG458756 FUC458754:FUC458756 GDY458754:GDY458756 GNU458754:GNU458756 GXQ458754:GXQ458756 HHM458754:HHM458756 HRI458754:HRI458756 IBE458754:IBE458756 ILA458754:ILA458756 IUW458754:IUW458756 JES458754:JES458756 JOO458754:JOO458756 JYK458754:JYK458756 KIG458754:KIG458756 KSC458754:KSC458756 LBY458754:LBY458756 LLU458754:LLU458756 LVQ458754:LVQ458756 MFM458754:MFM458756 MPI458754:MPI458756 MZE458754:MZE458756 NJA458754:NJA458756 NSW458754:NSW458756 OCS458754:OCS458756 OMO458754:OMO458756 OWK458754:OWK458756 PGG458754:PGG458756 PQC458754:PQC458756 PZY458754:PZY458756 QJU458754:QJU458756 QTQ458754:QTQ458756 RDM458754:RDM458756 RNI458754:RNI458756 RXE458754:RXE458756 SHA458754:SHA458756 SQW458754:SQW458756 TAS458754:TAS458756 TKO458754:TKO458756 TUK458754:TUK458756 UEG458754:UEG458756 UOC458754:UOC458756 UXY458754:UXY458756 VHU458754:VHU458756 VRQ458754:VRQ458756 WBM458754:WBM458756 WLI458754:WLI458756 WVE458754:WVE458756 G524290:G524292 IS524290:IS524292 SO524290:SO524292 ACK524290:ACK524292 AMG524290:AMG524292 AWC524290:AWC524292 BFY524290:BFY524292 BPU524290:BPU524292 BZQ524290:BZQ524292 CJM524290:CJM524292 CTI524290:CTI524292 DDE524290:DDE524292 DNA524290:DNA524292 DWW524290:DWW524292 EGS524290:EGS524292 EQO524290:EQO524292 FAK524290:FAK524292 FKG524290:FKG524292 FUC524290:FUC524292 GDY524290:GDY524292 GNU524290:GNU524292 GXQ524290:GXQ524292 HHM524290:HHM524292 HRI524290:HRI524292 IBE524290:IBE524292 ILA524290:ILA524292 IUW524290:IUW524292 JES524290:JES524292 JOO524290:JOO524292 JYK524290:JYK524292 KIG524290:KIG524292 KSC524290:KSC524292 LBY524290:LBY524292 LLU524290:LLU524292 LVQ524290:LVQ524292 MFM524290:MFM524292 MPI524290:MPI524292 MZE524290:MZE524292 NJA524290:NJA524292 NSW524290:NSW524292 OCS524290:OCS524292 OMO524290:OMO524292 OWK524290:OWK524292 PGG524290:PGG524292 PQC524290:PQC524292 PZY524290:PZY524292 QJU524290:QJU524292 QTQ524290:QTQ524292 RDM524290:RDM524292 RNI524290:RNI524292 RXE524290:RXE524292 SHA524290:SHA524292 SQW524290:SQW524292 TAS524290:TAS524292 TKO524290:TKO524292 TUK524290:TUK524292 UEG524290:UEG524292 UOC524290:UOC524292 UXY524290:UXY524292 VHU524290:VHU524292 VRQ524290:VRQ524292 WBM524290:WBM524292 WLI524290:WLI524292 WVE524290:WVE524292 G589826:G589828 IS589826:IS589828 SO589826:SO589828 ACK589826:ACK589828 AMG589826:AMG589828 AWC589826:AWC589828 BFY589826:BFY589828 BPU589826:BPU589828 BZQ589826:BZQ589828 CJM589826:CJM589828 CTI589826:CTI589828 DDE589826:DDE589828 DNA589826:DNA589828 DWW589826:DWW589828 EGS589826:EGS589828 EQO589826:EQO589828 FAK589826:FAK589828 FKG589826:FKG589828 FUC589826:FUC589828 GDY589826:GDY589828 GNU589826:GNU589828 GXQ589826:GXQ589828 HHM589826:HHM589828 HRI589826:HRI589828 IBE589826:IBE589828 ILA589826:ILA589828 IUW589826:IUW589828 JES589826:JES589828 JOO589826:JOO589828 JYK589826:JYK589828 KIG589826:KIG589828 KSC589826:KSC589828 LBY589826:LBY589828 LLU589826:LLU589828 LVQ589826:LVQ589828 MFM589826:MFM589828 MPI589826:MPI589828 MZE589826:MZE589828 NJA589826:NJA589828 NSW589826:NSW589828 OCS589826:OCS589828 OMO589826:OMO589828 OWK589826:OWK589828 PGG589826:PGG589828 PQC589826:PQC589828 PZY589826:PZY589828 QJU589826:QJU589828 QTQ589826:QTQ589828 RDM589826:RDM589828 RNI589826:RNI589828 RXE589826:RXE589828 SHA589826:SHA589828 SQW589826:SQW589828 TAS589826:TAS589828 TKO589826:TKO589828 TUK589826:TUK589828 UEG589826:UEG589828 UOC589826:UOC589828 UXY589826:UXY589828 VHU589826:VHU589828 VRQ589826:VRQ589828 WBM589826:WBM589828 WLI589826:WLI589828 WVE589826:WVE589828 G655362:G655364 IS655362:IS655364 SO655362:SO655364 ACK655362:ACK655364 AMG655362:AMG655364 AWC655362:AWC655364 BFY655362:BFY655364 BPU655362:BPU655364 BZQ655362:BZQ655364 CJM655362:CJM655364 CTI655362:CTI655364 DDE655362:DDE655364 DNA655362:DNA655364 DWW655362:DWW655364 EGS655362:EGS655364 EQO655362:EQO655364 FAK655362:FAK655364 FKG655362:FKG655364 FUC655362:FUC655364 GDY655362:GDY655364 GNU655362:GNU655364 GXQ655362:GXQ655364 HHM655362:HHM655364 HRI655362:HRI655364 IBE655362:IBE655364 ILA655362:ILA655364 IUW655362:IUW655364 JES655362:JES655364 JOO655362:JOO655364 JYK655362:JYK655364 KIG655362:KIG655364 KSC655362:KSC655364 LBY655362:LBY655364 LLU655362:LLU655364 LVQ655362:LVQ655364 MFM655362:MFM655364 MPI655362:MPI655364 MZE655362:MZE655364 NJA655362:NJA655364 NSW655362:NSW655364 OCS655362:OCS655364 OMO655362:OMO655364 OWK655362:OWK655364 PGG655362:PGG655364 PQC655362:PQC655364 PZY655362:PZY655364 QJU655362:QJU655364 QTQ655362:QTQ655364 RDM655362:RDM655364 RNI655362:RNI655364 RXE655362:RXE655364 SHA655362:SHA655364 SQW655362:SQW655364 TAS655362:TAS655364 TKO655362:TKO655364 TUK655362:TUK655364 UEG655362:UEG655364 UOC655362:UOC655364 UXY655362:UXY655364 VHU655362:VHU655364 VRQ655362:VRQ655364 WBM655362:WBM655364 WLI655362:WLI655364 WVE655362:WVE655364 G720898:G720900 IS720898:IS720900 SO720898:SO720900 ACK720898:ACK720900 AMG720898:AMG720900 AWC720898:AWC720900 BFY720898:BFY720900 BPU720898:BPU720900 BZQ720898:BZQ720900 CJM720898:CJM720900 CTI720898:CTI720900 DDE720898:DDE720900 DNA720898:DNA720900 DWW720898:DWW720900 EGS720898:EGS720900 EQO720898:EQO720900 FAK720898:FAK720900 FKG720898:FKG720900 FUC720898:FUC720900 GDY720898:GDY720900 GNU720898:GNU720900 GXQ720898:GXQ720900 HHM720898:HHM720900 HRI720898:HRI720900 IBE720898:IBE720900 ILA720898:ILA720900 IUW720898:IUW720900 JES720898:JES720900 JOO720898:JOO720900 JYK720898:JYK720900 KIG720898:KIG720900 KSC720898:KSC720900 LBY720898:LBY720900 LLU720898:LLU720900 LVQ720898:LVQ720900 MFM720898:MFM720900 MPI720898:MPI720900 MZE720898:MZE720900 NJA720898:NJA720900 NSW720898:NSW720900 OCS720898:OCS720900 OMO720898:OMO720900 OWK720898:OWK720900 PGG720898:PGG720900 PQC720898:PQC720900 PZY720898:PZY720900 QJU720898:QJU720900 QTQ720898:QTQ720900 RDM720898:RDM720900 RNI720898:RNI720900 RXE720898:RXE720900 SHA720898:SHA720900 SQW720898:SQW720900 TAS720898:TAS720900 TKO720898:TKO720900 TUK720898:TUK720900 UEG720898:UEG720900 UOC720898:UOC720900 UXY720898:UXY720900 VHU720898:VHU720900 VRQ720898:VRQ720900 WBM720898:WBM720900 WLI720898:WLI720900 WVE720898:WVE720900 G786434:G786436 IS786434:IS786436 SO786434:SO786436 ACK786434:ACK786436 AMG786434:AMG786436 AWC786434:AWC786436 BFY786434:BFY786436 BPU786434:BPU786436 BZQ786434:BZQ786436 CJM786434:CJM786436 CTI786434:CTI786436 DDE786434:DDE786436 DNA786434:DNA786436 DWW786434:DWW786436 EGS786434:EGS786436 EQO786434:EQO786436 FAK786434:FAK786436 FKG786434:FKG786436 FUC786434:FUC786436 GDY786434:GDY786436 GNU786434:GNU786436 GXQ786434:GXQ786436 HHM786434:HHM786436 HRI786434:HRI786436 IBE786434:IBE786436 ILA786434:ILA786436 IUW786434:IUW786436 JES786434:JES786436 JOO786434:JOO786436 JYK786434:JYK786436 KIG786434:KIG786436 KSC786434:KSC786436 LBY786434:LBY786436 LLU786434:LLU786436 LVQ786434:LVQ786436 MFM786434:MFM786436 MPI786434:MPI786436 MZE786434:MZE786436 NJA786434:NJA786436 NSW786434:NSW786436 OCS786434:OCS786436 OMO786434:OMO786436 OWK786434:OWK786436 PGG786434:PGG786436 PQC786434:PQC786436 PZY786434:PZY786436 QJU786434:QJU786436 QTQ786434:QTQ786436 RDM786434:RDM786436 RNI786434:RNI786436 RXE786434:RXE786436 SHA786434:SHA786436 SQW786434:SQW786436 TAS786434:TAS786436 TKO786434:TKO786436 TUK786434:TUK786436 UEG786434:UEG786436 UOC786434:UOC786436 UXY786434:UXY786436 VHU786434:VHU786436 VRQ786434:VRQ786436 WBM786434:WBM786436 WLI786434:WLI786436 WVE786434:WVE786436 G851970:G851972 IS851970:IS851972 SO851970:SO851972 ACK851970:ACK851972 AMG851970:AMG851972 AWC851970:AWC851972 BFY851970:BFY851972 BPU851970:BPU851972 BZQ851970:BZQ851972 CJM851970:CJM851972 CTI851970:CTI851972 DDE851970:DDE851972 DNA851970:DNA851972 DWW851970:DWW851972 EGS851970:EGS851972 EQO851970:EQO851972 FAK851970:FAK851972 FKG851970:FKG851972 FUC851970:FUC851972 GDY851970:GDY851972 GNU851970:GNU851972 GXQ851970:GXQ851972 HHM851970:HHM851972 HRI851970:HRI851972 IBE851970:IBE851972 ILA851970:ILA851972 IUW851970:IUW851972 JES851970:JES851972 JOO851970:JOO851972 JYK851970:JYK851972 KIG851970:KIG851972 KSC851970:KSC851972 LBY851970:LBY851972 LLU851970:LLU851972 LVQ851970:LVQ851972 MFM851970:MFM851972 MPI851970:MPI851972 MZE851970:MZE851972 NJA851970:NJA851972 NSW851970:NSW851972 OCS851970:OCS851972 OMO851970:OMO851972 OWK851970:OWK851972 PGG851970:PGG851972 PQC851970:PQC851972 PZY851970:PZY851972 QJU851970:QJU851972 QTQ851970:QTQ851972 RDM851970:RDM851972 RNI851970:RNI851972 RXE851970:RXE851972 SHA851970:SHA851972 SQW851970:SQW851972 TAS851970:TAS851972 TKO851970:TKO851972 TUK851970:TUK851972 UEG851970:UEG851972 UOC851970:UOC851972 UXY851970:UXY851972 VHU851970:VHU851972 VRQ851970:VRQ851972 WBM851970:WBM851972 WLI851970:WLI851972 WVE851970:WVE851972 G917506:G917508 IS917506:IS917508 SO917506:SO917508 ACK917506:ACK917508 AMG917506:AMG917508 AWC917506:AWC917508 BFY917506:BFY917508 BPU917506:BPU917508 BZQ917506:BZQ917508 CJM917506:CJM917508 CTI917506:CTI917508 DDE917506:DDE917508 DNA917506:DNA917508 DWW917506:DWW917508 EGS917506:EGS917508 EQO917506:EQO917508 FAK917506:FAK917508 FKG917506:FKG917508 FUC917506:FUC917508 GDY917506:GDY917508 GNU917506:GNU917508 GXQ917506:GXQ917508 HHM917506:HHM917508 HRI917506:HRI917508 IBE917506:IBE917508 ILA917506:ILA917508 IUW917506:IUW917508 JES917506:JES917508 JOO917506:JOO917508 JYK917506:JYK917508 KIG917506:KIG917508 KSC917506:KSC917508 LBY917506:LBY917508 LLU917506:LLU917508 LVQ917506:LVQ917508 MFM917506:MFM917508 MPI917506:MPI917508 MZE917506:MZE917508 NJA917506:NJA917508 NSW917506:NSW917508 OCS917506:OCS917508 OMO917506:OMO917508 OWK917506:OWK917508 PGG917506:PGG917508 PQC917506:PQC917508 PZY917506:PZY917508 QJU917506:QJU917508 QTQ917506:QTQ917508 RDM917506:RDM917508 RNI917506:RNI917508 RXE917506:RXE917508 SHA917506:SHA917508 SQW917506:SQW917508 TAS917506:TAS917508 TKO917506:TKO917508 TUK917506:TUK917508 UEG917506:UEG917508 UOC917506:UOC917508 UXY917506:UXY917508 VHU917506:VHU917508 VRQ917506:VRQ917508 WBM917506:WBM917508 WLI917506:WLI917508 WVE917506:WVE917508 G983042:G983044 IS983042:IS983044 SO983042:SO983044 ACK983042:ACK983044 AMG983042:AMG983044 AWC983042:AWC983044 BFY983042:BFY983044 BPU983042:BPU983044 BZQ983042:BZQ983044 CJM983042:CJM983044 CTI983042:CTI983044 DDE983042:DDE983044 DNA983042:DNA983044 DWW983042:DWW983044 EGS983042:EGS983044 EQO983042:EQO983044 FAK983042:FAK983044 FKG983042:FKG983044 FUC983042:FUC983044 GDY983042:GDY983044 GNU983042:GNU983044 GXQ983042:GXQ983044 HHM983042:HHM983044 HRI983042:HRI983044 IBE983042:IBE983044 ILA983042:ILA983044 IUW983042:IUW983044 JES983042:JES983044 JOO983042:JOO983044 JYK983042:JYK983044 KIG983042:KIG983044 KSC983042:KSC983044 LBY983042:LBY983044 LLU983042:LLU983044 LVQ983042:LVQ983044 MFM983042:MFM983044 MPI983042:MPI983044 MZE983042:MZE983044 NJA983042:NJA983044 NSW983042:NSW983044 OCS983042:OCS983044 OMO983042:OMO983044 OWK983042:OWK983044 PGG983042:PGG983044 PQC983042:PQC983044 PZY983042:PZY983044 QJU983042:QJU983044 QTQ983042:QTQ983044 RDM983042:RDM983044 RNI983042:RNI983044 RXE983042:RXE983044 SHA983042:SHA983044 SQW983042:SQW983044 TAS983042:TAS983044 TKO983042:TKO983044 TUK983042:TUK983044 UEG983042:UEG983044 UOC983042:UOC983044 UXY983042:UXY983044 VHU983042:VHU983044 VRQ983042:VRQ983044 WBM983042:WBM983044 WLI983042:WLI983044 WVE983042:WVE983044 H6:L6 IT6:IU6 SP6:SQ6 ACL6:ACM6 AMH6:AMI6 AWD6:AWE6 BFZ6:BGA6 BPV6:BPW6 BZR6:BZS6 CJN6:CJO6 CTJ6:CTK6 DDF6:DDG6 DNB6:DNC6 DWX6:DWY6 EGT6:EGU6 EQP6:EQQ6 FAL6:FAM6 FKH6:FKI6 FUD6:FUE6 GDZ6:GEA6 GNV6:GNW6 GXR6:GXS6 HHN6:HHO6 HRJ6:HRK6 IBF6:IBG6 ILB6:ILC6 IUX6:IUY6 JET6:JEU6 JOP6:JOQ6 JYL6:JYM6 KIH6:KII6 KSD6:KSE6 LBZ6:LCA6 LLV6:LLW6 LVR6:LVS6 MFN6:MFO6 MPJ6:MPK6 MZF6:MZG6 NJB6:NJC6 NSX6:NSY6 OCT6:OCU6 OMP6:OMQ6 OWL6:OWM6 PGH6:PGI6 PQD6:PQE6 PZZ6:QAA6 QJV6:QJW6 QTR6:QTS6 RDN6:RDO6 RNJ6:RNK6 RXF6:RXG6 SHB6:SHC6 SQX6:SQY6 TAT6:TAU6 TKP6:TKQ6 TUL6:TUM6 UEH6:UEI6 UOD6:UOE6 UXZ6:UYA6 VHV6:VHW6 VRR6:VRS6 WBN6:WBO6 WLJ6:WLK6 WVF6:WVG6 IT65538:IU65538 SP65538:SQ65538 ACL65538:ACM65538 AMH65538:AMI65538 AWD65538:AWE65538 BFZ65538:BGA65538 BPV65538:BPW65538 BZR65538:BZS65538 CJN65538:CJO65538 CTJ65538:CTK65538 DDF65538:DDG65538 DNB65538:DNC65538 DWX65538:DWY65538 EGT65538:EGU65538 EQP65538:EQQ65538 FAL65538:FAM65538 FKH65538:FKI65538 FUD65538:FUE65538 GDZ65538:GEA65538 GNV65538:GNW65538 GXR65538:GXS65538 HHN65538:HHO65538 HRJ65538:HRK65538 IBF65538:IBG65538 ILB65538:ILC65538 IUX65538:IUY65538 JET65538:JEU65538 JOP65538:JOQ65538 JYL65538:JYM65538 KIH65538:KII65538 KSD65538:KSE65538 LBZ65538:LCA65538 LLV65538:LLW65538 LVR65538:LVS65538 MFN65538:MFO65538 MPJ65538:MPK65538 MZF65538:MZG65538 NJB65538:NJC65538 NSX65538:NSY65538 OCT65538:OCU65538 OMP65538:OMQ65538 OWL65538:OWM65538 PGH65538:PGI65538 PQD65538:PQE65538 PZZ65538:QAA65538 QJV65538:QJW65538 QTR65538:QTS65538 RDN65538:RDO65538 RNJ65538:RNK65538 RXF65538:RXG65538 SHB65538:SHC65538 SQX65538:SQY65538 TAT65538:TAU65538 TKP65538:TKQ65538 TUL65538:TUM65538 UEH65538:UEI65538 UOD65538:UOE65538 UXZ65538:UYA65538 VHV65538:VHW65538 VRR65538:VRS65538 WBN65538:WBO65538 WLJ65538:WLK65538 WVF65538:WVG65538 IT131074:IU131074 SP131074:SQ131074 ACL131074:ACM131074 AMH131074:AMI131074 AWD131074:AWE131074 BFZ131074:BGA131074 BPV131074:BPW131074 BZR131074:BZS131074 CJN131074:CJO131074 CTJ131074:CTK131074 DDF131074:DDG131074 DNB131074:DNC131074 DWX131074:DWY131074 EGT131074:EGU131074 EQP131074:EQQ131074 FAL131074:FAM131074 FKH131074:FKI131074 FUD131074:FUE131074 GDZ131074:GEA131074 GNV131074:GNW131074 GXR131074:GXS131074 HHN131074:HHO131074 HRJ131074:HRK131074 IBF131074:IBG131074 ILB131074:ILC131074 IUX131074:IUY131074 JET131074:JEU131074 JOP131074:JOQ131074 JYL131074:JYM131074 KIH131074:KII131074 KSD131074:KSE131074 LBZ131074:LCA131074 LLV131074:LLW131074 LVR131074:LVS131074 MFN131074:MFO131074 MPJ131074:MPK131074 MZF131074:MZG131074 NJB131074:NJC131074 NSX131074:NSY131074 OCT131074:OCU131074 OMP131074:OMQ131074 OWL131074:OWM131074 PGH131074:PGI131074 PQD131074:PQE131074 PZZ131074:QAA131074 QJV131074:QJW131074 QTR131074:QTS131074 RDN131074:RDO131074 RNJ131074:RNK131074 RXF131074:RXG131074 SHB131074:SHC131074 SQX131074:SQY131074 TAT131074:TAU131074 TKP131074:TKQ131074 TUL131074:TUM131074 UEH131074:UEI131074 UOD131074:UOE131074 UXZ131074:UYA131074 VHV131074:VHW131074 VRR131074:VRS131074 WBN131074:WBO131074 WLJ131074:WLK131074 WVF131074:WVG131074 IT196610:IU196610 SP196610:SQ196610 ACL196610:ACM196610 AMH196610:AMI196610 AWD196610:AWE196610 BFZ196610:BGA196610 BPV196610:BPW196610 BZR196610:BZS196610 CJN196610:CJO196610 CTJ196610:CTK196610 DDF196610:DDG196610 DNB196610:DNC196610 DWX196610:DWY196610 EGT196610:EGU196610 EQP196610:EQQ196610 FAL196610:FAM196610 FKH196610:FKI196610 FUD196610:FUE196610 GDZ196610:GEA196610 GNV196610:GNW196610 GXR196610:GXS196610 HHN196610:HHO196610 HRJ196610:HRK196610 IBF196610:IBG196610 ILB196610:ILC196610 IUX196610:IUY196610 JET196610:JEU196610 JOP196610:JOQ196610 JYL196610:JYM196610 KIH196610:KII196610 KSD196610:KSE196610 LBZ196610:LCA196610 LLV196610:LLW196610 LVR196610:LVS196610 MFN196610:MFO196610 MPJ196610:MPK196610 MZF196610:MZG196610 NJB196610:NJC196610 NSX196610:NSY196610 OCT196610:OCU196610 OMP196610:OMQ196610 OWL196610:OWM196610 PGH196610:PGI196610 PQD196610:PQE196610 PZZ196610:QAA196610 QJV196610:QJW196610 QTR196610:QTS196610 RDN196610:RDO196610 RNJ196610:RNK196610 RXF196610:RXG196610 SHB196610:SHC196610 SQX196610:SQY196610 TAT196610:TAU196610 TKP196610:TKQ196610 TUL196610:TUM196610 UEH196610:UEI196610 UOD196610:UOE196610 UXZ196610:UYA196610 VHV196610:VHW196610 VRR196610:VRS196610 WBN196610:WBO196610 WLJ196610:WLK196610 WVF196610:WVG196610 IT262146:IU262146 SP262146:SQ262146 ACL262146:ACM262146 AMH262146:AMI262146 AWD262146:AWE262146 BFZ262146:BGA262146 BPV262146:BPW262146 BZR262146:BZS262146 CJN262146:CJO262146 CTJ262146:CTK262146 DDF262146:DDG262146 DNB262146:DNC262146 DWX262146:DWY262146 EGT262146:EGU262146 EQP262146:EQQ262146 FAL262146:FAM262146 FKH262146:FKI262146 FUD262146:FUE262146 GDZ262146:GEA262146 GNV262146:GNW262146 GXR262146:GXS262146 HHN262146:HHO262146 HRJ262146:HRK262146 IBF262146:IBG262146 ILB262146:ILC262146 IUX262146:IUY262146 JET262146:JEU262146 JOP262146:JOQ262146 JYL262146:JYM262146 KIH262146:KII262146 KSD262146:KSE262146 LBZ262146:LCA262146 LLV262146:LLW262146 LVR262146:LVS262146 MFN262146:MFO262146 MPJ262146:MPK262146 MZF262146:MZG262146 NJB262146:NJC262146 NSX262146:NSY262146 OCT262146:OCU262146 OMP262146:OMQ262146 OWL262146:OWM262146 PGH262146:PGI262146 PQD262146:PQE262146 PZZ262146:QAA262146 QJV262146:QJW262146 QTR262146:QTS262146 RDN262146:RDO262146 RNJ262146:RNK262146 RXF262146:RXG262146 SHB262146:SHC262146 SQX262146:SQY262146 TAT262146:TAU262146 TKP262146:TKQ262146 TUL262146:TUM262146 UEH262146:UEI262146 UOD262146:UOE262146 UXZ262146:UYA262146 VHV262146:VHW262146 VRR262146:VRS262146 WBN262146:WBO262146 WLJ262146:WLK262146 WVF262146:WVG262146 IT327682:IU327682 SP327682:SQ327682 ACL327682:ACM327682 AMH327682:AMI327682 AWD327682:AWE327682 BFZ327682:BGA327682 BPV327682:BPW327682 BZR327682:BZS327682 CJN327682:CJO327682 CTJ327682:CTK327682 DDF327682:DDG327682 DNB327682:DNC327682 DWX327682:DWY327682 EGT327682:EGU327682 EQP327682:EQQ327682 FAL327682:FAM327682 FKH327682:FKI327682 FUD327682:FUE327682 GDZ327682:GEA327682 GNV327682:GNW327682 GXR327682:GXS327682 HHN327682:HHO327682 HRJ327682:HRK327682 IBF327682:IBG327682 ILB327682:ILC327682 IUX327682:IUY327682 JET327682:JEU327682 JOP327682:JOQ327682 JYL327682:JYM327682 KIH327682:KII327682 KSD327682:KSE327682 LBZ327682:LCA327682 LLV327682:LLW327682 LVR327682:LVS327682 MFN327682:MFO327682 MPJ327682:MPK327682 MZF327682:MZG327682 NJB327682:NJC327682 NSX327682:NSY327682 OCT327682:OCU327682 OMP327682:OMQ327682 OWL327682:OWM327682 PGH327682:PGI327682 PQD327682:PQE327682 PZZ327682:QAA327682 QJV327682:QJW327682 QTR327682:QTS327682 RDN327682:RDO327682 RNJ327682:RNK327682 RXF327682:RXG327682 SHB327682:SHC327682 SQX327682:SQY327682 TAT327682:TAU327682 TKP327682:TKQ327682 TUL327682:TUM327682 UEH327682:UEI327682 UOD327682:UOE327682 UXZ327682:UYA327682 VHV327682:VHW327682 VRR327682:VRS327682 WBN327682:WBO327682 WLJ327682:WLK327682 WVF327682:WVG327682 IT393218:IU393218 SP393218:SQ393218 ACL393218:ACM393218 AMH393218:AMI393218 AWD393218:AWE393218 BFZ393218:BGA393218 BPV393218:BPW393218 BZR393218:BZS393218 CJN393218:CJO393218 CTJ393218:CTK393218 DDF393218:DDG393218 DNB393218:DNC393218 DWX393218:DWY393218 EGT393218:EGU393218 EQP393218:EQQ393218 FAL393218:FAM393218 FKH393218:FKI393218 FUD393218:FUE393218 GDZ393218:GEA393218 GNV393218:GNW393218 GXR393218:GXS393218 HHN393218:HHO393218 HRJ393218:HRK393218 IBF393218:IBG393218 ILB393218:ILC393218 IUX393218:IUY393218 JET393218:JEU393218 JOP393218:JOQ393218 JYL393218:JYM393218 KIH393218:KII393218 KSD393218:KSE393218 LBZ393218:LCA393218 LLV393218:LLW393218 LVR393218:LVS393218 MFN393218:MFO393218 MPJ393218:MPK393218 MZF393218:MZG393218 NJB393218:NJC393218 NSX393218:NSY393218 OCT393218:OCU393218 OMP393218:OMQ393218 OWL393218:OWM393218 PGH393218:PGI393218 PQD393218:PQE393218 PZZ393218:QAA393218 QJV393218:QJW393218 QTR393218:QTS393218 RDN393218:RDO393218 RNJ393218:RNK393218 RXF393218:RXG393218 SHB393218:SHC393218 SQX393218:SQY393218 TAT393218:TAU393218 TKP393218:TKQ393218 TUL393218:TUM393218 UEH393218:UEI393218 UOD393218:UOE393218 UXZ393218:UYA393218 VHV393218:VHW393218 VRR393218:VRS393218 WBN393218:WBO393218 WLJ393218:WLK393218 WVF393218:WVG393218 IT458754:IU458754 SP458754:SQ458754 ACL458754:ACM458754 AMH458754:AMI458754 AWD458754:AWE458754 BFZ458754:BGA458754 BPV458754:BPW458754 BZR458754:BZS458754 CJN458754:CJO458754 CTJ458754:CTK458754 DDF458754:DDG458754 DNB458754:DNC458754 DWX458754:DWY458754 EGT458754:EGU458754 EQP458754:EQQ458754 FAL458754:FAM458754 FKH458754:FKI458754 FUD458754:FUE458754 GDZ458754:GEA458754 GNV458754:GNW458754 GXR458754:GXS458754 HHN458754:HHO458754 HRJ458754:HRK458754 IBF458754:IBG458754 ILB458754:ILC458754 IUX458754:IUY458754 JET458754:JEU458754 JOP458754:JOQ458754 JYL458754:JYM458754 KIH458754:KII458754 KSD458754:KSE458754 LBZ458754:LCA458754 LLV458754:LLW458754 LVR458754:LVS458754 MFN458754:MFO458754 MPJ458754:MPK458754 MZF458754:MZG458754 NJB458754:NJC458754 NSX458754:NSY458754 OCT458754:OCU458754 OMP458754:OMQ458754 OWL458754:OWM458754 PGH458754:PGI458754 PQD458754:PQE458754 PZZ458754:QAA458754 QJV458754:QJW458754 QTR458754:QTS458754 RDN458754:RDO458754 RNJ458754:RNK458754 RXF458754:RXG458754 SHB458754:SHC458754 SQX458754:SQY458754 TAT458754:TAU458754 TKP458754:TKQ458754 TUL458754:TUM458754 UEH458754:UEI458754 UOD458754:UOE458754 UXZ458754:UYA458754 VHV458754:VHW458754 VRR458754:VRS458754 WBN458754:WBO458754 WLJ458754:WLK458754 WVF458754:WVG458754 IT524290:IU524290 SP524290:SQ524290 ACL524290:ACM524290 AMH524290:AMI524290 AWD524290:AWE524290 BFZ524290:BGA524290 BPV524290:BPW524290 BZR524290:BZS524290 CJN524290:CJO524290 CTJ524290:CTK524290 DDF524290:DDG524290 DNB524290:DNC524290 DWX524290:DWY524290 EGT524290:EGU524290 EQP524290:EQQ524290 FAL524290:FAM524290 FKH524290:FKI524290 FUD524290:FUE524290 GDZ524290:GEA524290 GNV524290:GNW524290 GXR524290:GXS524290 HHN524290:HHO524290 HRJ524290:HRK524290 IBF524290:IBG524290 ILB524290:ILC524290 IUX524290:IUY524290 JET524290:JEU524290 JOP524290:JOQ524290 JYL524290:JYM524290 KIH524290:KII524290 KSD524290:KSE524290 LBZ524290:LCA524290 LLV524290:LLW524290 LVR524290:LVS524290 MFN524290:MFO524290 MPJ524290:MPK524290 MZF524290:MZG524290 NJB524290:NJC524290 NSX524290:NSY524290 OCT524290:OCU524290 OMP524290:OMQ524290 OWL524290:OWM524290 PGH524290:PGI524290 PQD524290:PQE524290 PZZ524290:QAA524290 QJV524290:QJW524290 QTR524290:QTS524290 RDN524290:RDO524290 RNJ524290:RNK524290 RXF524290:RXG524290 SHB524290:SHC524290 SQX524290:SQY524290 TAT524290:TAU524290 TKP524290:TKQ524290 TUL524290:TUM524290 UEH524290:UEI524290 UOD524290:UOE524290 UXZ524290:UYA524290 VHV524290:VHW524290 VRR524290:VRS524290 WBN524290:WBO524290 WLJ524290:WLK524290 WVF524290:WVG524290 IT589826:IU589826 SP589826:SQ589826 ACL589826:ACM589826 AMH589826:AMI589826 AWD589826:AWE589826 BFZ589826:BGA589826 BPV589826:BPW589826 BZR589826:BZS589826 CJN589826:CJO589826 CTJ589826:CTK589826 DDF589826:DDG589826 DNB589826:DNC589826 DWX589826:DWY589826 EGT589826:EGU589826 EQP589826:EQQ589826 FAL589826:FAM589826 FKH589826:FKI589826 FUD589826:FUE589826 GDZ589826:GEA589826 GNV589826:GNW589826 GXR589826:GXS589826 HHN589826:HHO589826 HRJ589826:HRK589826 IBF589826:IBG589826 ILB589826:ILC589826 IUX589826:IUY589826 JET589826:JEU589826 JOP589826:JOQ589826 JYL589826:JYM589826 KIH589826:KII589826 KSD589826:KSE589826 LBZ589826:LCA589826 LLV589826:LLW589826 LVR589826:LVS589826 MFN589826:MFO589826 MPJ589826:MPK589826 MZF589826:MZG589826 NJB589826:NJC589826 NSX589826:NSY589826 OCT589826:OCU589826 OMP589826:OMQ589826 OWL589826:OWM589826 PGH589826:PGI589826 PQD589826:PQE589826 PZZ589826:QAA589826 QJV589826:QJW589826 QTR589826:QTS589826 RDN589826:RDO589826 RNJ589826:RNK589826 RXF589826:RXG589826 SHB589826:SHC589826 SQX589826:SQY589826 TAT589826:TAU589826 TKP589826:TKQ589826 TUL589826:TUM589826 UEH589826:UEI589826 UOD589826:UOE589826 UXZ589826:UYA589826 VHV589826:VHW589826 VRR589826:VRS589826 WBN589826:WBO589826 WLJ589826:WLK589826 WVF589826:WVG589826 IT655362:IU655362 SP655362:SQ655362 ACL655362:ACM655362 AMH655362:AMI655362 AWD655362:AWE655362 BFZ655362:BGA655362 BPV655362:BPW655362 BZR655362:BZS655362 CJN655362:CJO655362 CTJ655362:CTK655362 DDF655362:DDG655362 DNB655362:DNC655362 DWX655362:DWY655362 EGT655362:EGU655362 EQP655362:EQQ655362 FAL655362:FAM655362 FKH655362:FKI655362 FUD655362:FUE655362 GDZ655362:GEA655362 GNV655362:GNW655362 GXR655362:GXS655362 HHN655362:HHO655362 HRJ655362:HRK655362 IBF655362:IBG655362 ILB655362:ILC655362 IUX655362:IUY655362 JET655362:JEU655362 JOP655362:JOQ655362 JYL655362:JYM655362 KIH655362:KII655362 KSD655362:KSE655362 LBZ655362:LCA655362 LLV655362:LLW655362 LVR655362:LVS655362 MFN655362:MFO655362 MPJ655362:MPK655362 MZF655362:MZG655362 NJB655362:NJC655362 NSX655362:NSY655362 OCT655362:OCU655362 OMP655362:OMQ655362 OWL655362:OWM655362 PGH655362:PGI655362 PQD655362:PQE655362 PZZ655362:QAA655362 QJV655362:QJW655362 QTR655362:QTS655362 RDN655362:RDO655362 RNJ655362:RNK655362 RXF655362:RXG655362 SHB655362:SHC655362 SQX655362:SQY655362 TAT655362:TAU655362 TKP655362:TKQ655362 TUL655362:TUM655362 UEH655362:UEI655362 UOD655362:UOE655362 UXZ655362:UYA655362 VHV655362:VHW655362 VRR655362:VRS655362 WBN655362:WBO655362 WLJ655362:WLK655362 WVF655362:WVG655362 IT720898:IU720898 SP720898:SQ720898 ACL720898:ACM720898 AMH720898:AMI720898 AWD720898:AWE720898 BFZ720898:BGA720898 BPV720898:BPW720898 BZR720898:BZS720898 CJN720898:CJO720898 CTJ720898:CTK720898 DDF720898:DDG720898 DNB720898:DNC720898 DWX720898:DWY720898 EGT720898:EGU720898 EQP720898:EQQ720898 FAL720898:FAM720898 FKH720898:FKI720898 FUD720898:FUE720898 GDZ720898:GEA720898 GNV720898:GNW720898 GXR720898:GXS720898 HHN720898:HHO720898 HRJ720898:HRK720898 IBF720898:IBG720898 ILB720898:ILC720898 IUX720898:IUY720898 JET720898:JEU720898 JOP720898:JOQ720898 JYL720898:JYM720898 KIH720898:KII720898 KSD720898:KSE720898 LBZ720898:LCA720898 LLV720898:LLW720898 LVR720898:LVS720898 MFN720898:MFO720898 MPJ720898:MPK720898 MZF720898:MZG720898 NJB720898:NJC720898 NSX720898:NSY720898 OCT720898:OCU720898 OMP720898:OMQ720898 OWL720898:OWM720898 PGH720898:PGI720898 PQD720898:PQE720898 PZZ720898:QAA720898 QJV720898:QJW720898 QTR720898:QTS720898 RDN720898:RDO720898 RNJ720898:RNK720898 RXF720898:RXG720898 SHB720898:SHC720898 SQX720898:SQY720898 TAT720898:TAU720898 TKP720898:TKQ720898 TUL720898:TUM720898 UEH720898:UEI720898 UOD720898:UOE720898 UXZ720898:UYA720898 VHV720898:VHW720898 VRR720898:VRS720898 WBN720898:WBO720898 WLJ720898:WLK720898 WVF720898:WVG720898 IT786434:IU786434 SP786434:SQ786434 ACL786434:ACM786434 AMH786434:AMI786434 AWD786434:AWE786434 BFZ786434:BGA786434 BPV786434:BPW786434 BZR786434:BZS786434 CJN786434:CJO786434 CTJ786434:CTK786434 DDF786434:DDG786434 DNB786434:DNC786434 DWX786434:DWY786434 EGT786434:EGU786434 EQP786434:EQQ786434 FAL786434:FAM786434 FKH786434:FKI786434 FUD786434:FUE786434 GDZ786434:GEA786434 GNV786434:GNW786434 GXR786434:GXS786434 HHN786434:HHO786434 HRJ786434:HRK786434 IBF786434:IBG786434 ILB786434:ILC786434 IUX786434:IUY786434 JET786434:JEU786434 JOP786434:JOQ786434 JYL786434:JYM786434 KIH786434:KII786434 KSD786434:KSE786434 LBZ786434:LCA786434 LLV786434:LLW786434 LVR786434:LVS786434 MFN786434:MFO786434 MPJ786434:MPK786434 MZF786434:MZG786434 NJB786434:NJC786434 NSX786434:NSY786434 OCT786434:OCU786434 OMP786434:OMQ786434 OWL786434:OWM786434 PGH786434:PGI786434 PQD786434:PQE786434 PZZ786434:QAA786434 QJV786434:QJW786434 QTR786434:QTS786434 RDN786434:RDO786434 RNJ786434:RNK786434 RXF786434:RXG786434 SHB786434:SHC786434 SQX786434:SQY786434 TAT786434:TAU786434 TKP786434:TKQ786434 TUL786434:TUM786434 UEH786434:UEI786434 UOD786434:UOE786434 UXZ786434:UYA786434 VHV786434:VHW786434 VRR786434:VRS786434 WBN786434:WBO786434 WLJ786434:WLK786434 WVF786434:WVG786434 IT851970:IU851970 SP851970:SQ851970 ACL851970:ACM851970 AMH851970:AMI851970 AWD851970:AWE851970 BFZ851970:BGA851970 BPV851970:BPW851970 BZR851970:BZS851970 CJN851970:CJO851970 CTJ851970:CTK851970 DDF851970:DDG851970 DNB851970:DNC851970 DWX851970:DWY851970 EGT851970:EGU851970 EQP851970:EQQ851970 FAL851970:FAM851970 FKH851970:FKI851970 FUD851970:FUE851970 GDZ851970:GEA851970 GNV851970:GNW851970 GXR851970:GXS851970 HHN851970:HHO851970 HRJ851970:HRK851970 IBF851970:IBG851970 ILB851970:ILC851970 IUX851970:IUY851970 JET851970:JEU851970 JOP851970:JOQ851970 JYL851970:JYM851970 KIH851970:KII851970 KSD851970:KSE851970 LBZ851970:LCA851970 LLV851970:LLW851970 LVR851970:LVS851970 MFN851970:MFO851970 MPJ851970:MPK851970 MZF851970:MZG851970 NJB851970:NJC851970 NSX851970:NSY851970 OCT851970:OCU851970 OMP851970:OMQ851970 OWL851970:OWM851970 PGH851970:PGI851970 PQD851970:PQE851970 PZZ851970:QAA851970 QJV851970:QJW851970 QTR851970:QTS851970 RDN851970:RDO851970 RNJ851970:RNK851970 RXF851970:RXG851970 SHB851970:SHC851970 SQX851970:SQY851970 TAT851970:TAU851970 TKP851970:TKQ851970 TUL851970:TUM851970 UEH851970:UEI851970 UOD851970:UOE851970 UXZ851970:UYA851970 VHV851970:VHW851970 VRR851970:VRS851970 WBN851970:WBO851970 WLJ851970:WLK851970 WVF851970:WVG851970 IT917506:IU917506 SP917506:SQ917506 ACL917506:ACM917506 AMH917506:AMI917506 AWD917506:AWE917506 BFZ917506:BGA917506 BPV917506:BPW917506 BZR917506:BZS917506 CJN917506:CJO917506 CTJ917506:CTK917506 DDF917506:DDG917506 DNB917506:DNC917506 DWX917506:DWY917506 EGT917506:EGU917506 EQP917506:EQQ917506 FAL917506:FAM917506 FKH917506:FKI917506 FUD917506:FUE917506 GDZ917506:GEA917506 GNV917506:GNW917506 GXR917506:GXS917506 HHN917506:HHO917506 HRJ917506:HRK917506 IBF917506:IBG917506 ILB917506:ILC917506 IUX917506:IUY917506 JET917506:JEU917506 JOP917506:JOQ917506 JYL917506:JYM917506 KIH917506:KII917506 KSD917506:KSE917506 LBZ917506:LCA917506 LLV917506:LLW917506 LVR917506:LVS917506 MFN917506:MFO917506 MPJ917506:MPK917506 MZF917506:MZG917506 NJB917506:NJC917506 NSX917506:NSY917506 OCT917506:OCU917506 OMP917506:OMQ917506 OWL917506:OWM917506 PGH917506:PGI917506 PQD917506:PQE917506 PZZ917506:QAA917506 QJV917506:QJW917506 QTR917506:QTS917506 RDN917506:RDO917506 RNJ917506:RNK917506 RXF917506:RXG917506 SHB917506:SHC917506 SQX917506:SQY917506 TAT917506:TAU917506 TKP917506:TKQ917506 TUL917506:TUM917506 UEH917506:UEI917506 UOD917506:UOE917506 UXZ917506:UYA917506 VHV917506:VHW917506 VRR917506:VRS917506 WBN917506:WBO917506 WLJ917506:WLK917506 WVF917506:WVG917506 IT983042:IU983042 SP983042:SQ983042 ACL983042:ACM983042 AMH983042:AMI983042 AWD983042:AWE983042 BFZ983042:BGA983042 BPV983042:BPW983042 BZR983042:BZS983042 CJN983042:CJO983042 CTJ983042:CTK983042 DDF983042:DDG983042 DNB983042:DNC983042 DWX983042:DWY983042 EGT983042:EGU983042 EQP983042:EQQ983042 FAL983042:FAM983042 FKH983042:FKI983042 FUD983042:FUE983042 GDZ983042:GEA983042 GNV983042:GNW983042 GXR983042:GXS983042 HHN983042:HHO983042 HRJ983042:HRK983042 IBF983042:IBG983042 ILB983042:ILC983042 IUX983042:IUY983042 JET983042:JEU983042 JOP983042:JOQ983042 JYL983042:JYM983042 KIH983042:KII983042 KSD983042:KSE983042 LBZ983042:LCA983042 LLV983042:LLW983042 LVR983042:LVS983042 MFN983042:MFO983042 MPJ983042:MPK983042 MZF983042:MZG983042 NJB983042:NJC983042 NSX983042:NSY983042 OCT983042:OCU983042 OMP983042:OMQ983042 OWL983042:OWM983042 PGH983042:PGI983042 PQD983042:PQE983042 PZZ983042:QAA983042 QJV983042:QJW983042 QTR983042:QTS983042 RDN983042:RDO983042 RNJ983042:RNK983042 RXF983042:RXG983042 SHB983042:SHC983042 SQX983042:SQY983042 TAT983042:TAU983042 TKP983042:TKQ983042 TUL983042:TUM983042 UEH983042:UEI983042 UOD983042:UOE983042 UXZ983042:UYA983042 VHV983042:VHW983042 VRR983042:VRS983042 WBN983042:WBO983042 WLJ983042:WLK983042 WVF983042:WVG983042 IV6:IV8 SR6:SR8 ACN6:ACN8 AMJ6:AMJ8 AWF6:AWF8 BGB6:BGB8 BPX6:BPX8 BZT6:BZT8 CJP6:CJP8 CTL6:CTL8 DDH6:DDH8 DND6:DND8 DWZ6:DWZ8 EGV6:EGV8 EQR6:EQR8 FAN6:FAN8 FKJ6:FKJ8 FUF6:FUF8 GEB6:GEB8 GNX6:GNX8 GXT6:GXT8 HHP6:HHP8 HRL6:HRL8 IBH6:IBH8 ILD6:ILD8 IUZ6:IUZ8 JEV6:JEV8 JOR6:JOR8 JYN6:JYN8 KIJ6:KIJ8 KSF6:KSF8 LCB6:LCB8 LLX6:LLX8 LVT6:LVT8 MFP6:MFP8 MPL6:MPL8 MZH6:MZH8 NJD6:NJD8 NSZ6:NSZ8 OCV6:OCV8 OMR6:OMR8 OWN6:OWN8 PGJ6:PGJ8 PQF6:PQF8 QAB6:QAB8 QJX6:QJX8 QTT6:QTT8 RDP6:RDP8 RNL6:RNL8 RXH6:RXH8 SHD6:SHD8 SQZ6:SQZ8 TAV6:TAV8 TKR6:TKR8 TUN6:TUN8 UEJ6:UEJ8 UOF6:UOF8 UYB6:UYB8 VHX6:VHX8 VRT6:VRT8 WBP6:WBP8 WLL6:WLL8 WVH6:WVH8 IV65538:IV65540 SR65538:SR65540 ACN65538:ACN65540 AMJ65538:AMJ65540 AWF65538:AWF65540 BGB65538:BGB65540 BPX65538:BPX65540 BZT65538:BZT65540 CJP65538:CJP65540 CTL65538:CTL65540 DDH65538:DDH65540 DND65538:DND65540 DWZ65538:DWZ65540 EGV65538:EGV65540 EQR65538:EQR65540 FAN65538:FAN65540 FKJ65538:FKJ65540 FUF65538:FUF65540 GEB65538:GEB65540 GNX65538:GNX65540 GXT65538:GXT65540 HHP65538:HHP65540 HRL65538:HRL65540 IBH65538:IBH65540 ILD65538:ILD65540 IUZ65538:IUZ65540 JEV65538:JEV65540 JOR65538:JOR65540 JYN65538:JYN65540 KIJ65538:KIJ65540 KSF65538:KSF65540 LCB65538:LCB65540 LLX65538:LLX65540 LVT65538:LVT65540 MFP65538:MFP65540 MPL65538:MPL65540 MZH65538:MZH65540 NJD65538:NJD65540 NSZ65538:NSZ65540 OCV65538:OCV65540 OMR65538:OMR65540 OWN65538:OWN65540 PGJ65538:PGJ65540 PQF65538:PQF65540 QAB65538:QAB65540 QJX65538:QJX65540 QTT65538:QTT65540 RDP65538:RDP65540 RNL65538:RNL65540 RXH65538:RXH65540 SHD65538:SHD65540 SQZ65538:SQZ65540 TAV65538:TAV65540 TKR65538:TKR65540 TUN65538:TUN65540 UEJ65538:UEJ65540 UOF65538:UOF65540 UYB65538:UYB65540 VHX65538:VHX65540 VRT65538:VRT65540 WBP65538:WBP65540 WLL65538:WLL65540 WVH65538:WVH65540 IV131074:IV131076 SR131074:SR131076 ACN131074:ACN131076 AMJ131074:AMJ131076 AWF131074:AWF131076 BGB131074:BGB131076 BPX131074:BPX131076 BZT131074:BZT131076 CJP131074:CJP131076 CTL131074:CTL131076 DDH131074:DDH131076 DND131074:DND131076 DWZ131074:DWZ131076 EGV131074:EGV131076 EQR131074:EQR131076 FAN131074:FAN131076 FKJ131074:FKJ131076 FUF131074:FUF131076 GEB131074:GEB131076 GNX131074:GNX131076 GXT131074:GXT131076 HHP131074:HHP131076 HRL131074:HRL131076 IBH131074:IBH131076 ILD131074:ILD131076 IUZ131074:IUZ131076 JEV131074:JEV131076 JOR131074:JOR131076 JYN131074:JYN131076 KIJ131074:KIJ131076 KSF131074:KSF131076 LCB131074:LCB131076 LLX131074:LLX131076 LVT131074:LVT131076 MFP131074:MFP131076 MPL131074:MPL131076 MZH131074:MZH131076 NJD131074:NJD131076 NSZ131074:NSZ131076 OCV131074:OCV131076 OMR131074:OMR131076 OWN131074:OWN131076 PGJ131074:PGJ131076 PQF131074:PQF131076 QAB131074:QAB131076 QJX131074:QJX131076 QTT131074:QTT131076 RDP131074:RDP131076 RNL131074:RNL131076 RXH131074:RXH131076 SHD131074:SHD131076 SQZ131074:SQZ131076 TAV131074:TAV131076 TKR131074:TKR131076 TUN131074:TUN131076 UEJ131074:UEJ131076 UOF131074:UOF131076 UYB131074:UYB131076 VHX131074:VHX131076 VRT131074:VRT131076 WBP131074:WBP131076 WLL131074:WLL131076 WVH131074:WVH131076 IV196610:IV196612 SR196610:SR196612 ACN196610:ACN196612 AMJ196610:AMJ196612 AWF196610:AWF196612 BGB196610:BGB196612 BPX196610:BPX196612 BZT196610:BZT196612 CJP196610:CJP196612 CTL196610:CTL196612 DDH196610:DDH196612 DND196610:DND196612 DWZ196610:DWZ196612 EGV196610:EGV196612 EQR196610:EQR196612 FAN196610:FAN196612 FKJ196610:FKJ196612 FUF196610:FUF196612 GEB196610:GEB196612 GNX196610:GNX196612 GXT196610:GXT196612 HHP196610:HHP196612 HRL196610:HRL196612 IBH196610:IBH196612 ILD196610:ILD196612 IUZ196610:IUZ196612 JEV196610:JEV196612 JOR196610:JOR196612 JYN196610:JYN196612 KIJ196610:KIJ196612 KSF196610:KSF196612 LCB196610:LCB196612 LLX196610:LLX196612 LVT196610:LVT196612 MFP196610:MFP196612 MPL196610:MPL196612 MZH196610:MZH196612 NJD196610:NJD196612 NSZ196610:NSZ196612 OCV196610:OCV196612 OMR196610:OMR196612 OWN196610:OWN196612 PGJ196610:PGJ196612 PQF196610:PQF196612 QAB196610:QAB196612 QJX196610:QJX196612 QTT196610:QTT196612 RDP196610:RDP196612 RNL196610:RNL196612 RXH196610:RXH196612 SHD196610:SHD196612 SQZ196610:SQZ196612 TAV196610:TAV196612 TKR196610:TKR196612 TUN196610:TUN196612 UEJ196610:UEJ196612 UOF196610:UOF196612 UYB196610:UYB196612 VHX196610:VHX196612 VRT196610:VRT196612 WBP196610:WBP196612 WLL196610:WLL196612 WVH196610:WVH196612 IV262146:IV262148 SR262146:SR262148 ACN262146:ACN262148 AMJ262146:AMJ262148 AWF262146:AWF262148 BGB262146:BGB262148 BPX262146:BPX262148 BZT262146:BZT262148 CJP262146:CJP262148 CTL262146:CTL262148 DDH262146:DDH262148 DND262146:DND262148 DWZ262146:DWZ262148 EGV262146:EGV262148 EQR262146:EQR262148 FAN262146:FAN262148 FKJ262146:FKJ262148 FUF262146:FUF262148 GEB262146:GEB262148 GNX262146:GNX262148 GXT262146:GXT262148 HHP262146:HHP262148 HRL262146:HRL262148 IBH262146:IBH262148 ILD262146:ILD262148 IUZ262146:IUZ262148 JEV262146:JEV262148 JOR262146:JOR262148 JYN262146:JYN262148 KIJ262146:KIJ262148 KSF262146:KSF262148 LCB262146:LCB262148 LLX262146:LLX262148 LVT262146:LVT262148 MFP262146:MFP262148 MPL262146:MPL262148 MZH262146:MZH262148 NJD262146:NJD262148 NSZ262146:NSZ262148 OCV262146:OCV262148 OMR262146:OMR262148 OWN262146:OWN262148 PGJ262146:PGJ262148 PQF262146:PQF262148 QAB262146:QAB262148 QJX262146:QJX262148 QTT262146:QTT262148 RDP262146:RDP262148 RNL262146:RNL262148 RXH262146:RXH262148 SHD262146:SHD262148 SQZ262146:SQZ262148 TAV262146:TAV262148 TKR262146:TKR262148 TUN262146:TUN262148 UEJ262146:UEJ262148 UOF262146:UOF262148 UYB262146:UYB262148 VHX262146:VHX262148 VRT262146:VRT262148 WBP262146:WBP262148 WLL262146:WLL262148 WVH262146:WVH262148 IV327682:IV327684 SR327682:SR327684 ACN327682:ACN327684 AMJ327682:AMJ327684 AWF327682:AWF327684 BGB327682:BGB327684 BPX327682:BPX327684 BZT327682:BZT327684 CJP327682:CJP327684 CTL327682:CTL327684 DDH327682:DDH327684 DND327682:DND327684 DWZ327682:DWZ327684 EGV327682:EGV327684 EQR327682:EQR327684 FAN327682:FAN327684 FKJ327682:FKJ327684 FUF327682:FUF327684 GEB327682:GEB327684 GNX327682:GNX327684 GXT327682:GXT327684 HHP327682:HHP327684 HRL327682:HRL327684 IBH327682:IBH327684 ILD327682:ILD327684 IUZ327682:IUZ327684 JEV327682:JEV327684 JOR327682:JOR327684 JYN327682:JYN327684 KIJ327682:KIJ327684 KSF327682:KSF327684 LCB327682:LCB327684 LLX327682:LLX327684 LVT327682:LVT327684 MFP327682:MFP327684 MPL327682:MPL327684 MZH327682:MZH327684 NJD327682:NJD327684 NSZ327682:NSZ327684 OCV327682:OCV327684 OMR327682:OMR327684 OWN327682:OWN327684 PGJ327682:PGJ327684 PQF327682:PQF327684 QAB327682:QAB327684 QJX327682:QJX327684 QTT327682:QTT327684 RDP327682:RDP327684 RNL327682:RNL327684 RXH327682:RXH327684 SHD327682:SHD327684 SQZ327682:SQZ327684 TAV327682:TAV327684 TKR327682:TKR327684 TUN327682:TUN327684 UEJ327682:UEJ327684 UOF327682:UOF327684 UYB327682:UYB327684 VHX327682:VHX327684 VRT327682:VRT327684 WBP327682:WBP327684 WLL327682:WLL327684 WVH327682:WVH327684 IV393218:IV393220 SR393218:SR393220 ACN393218:ACN393220 AMJ393218:AMJ393220 AWF393218:AWF393220 BGB393218:BGB393220 BPX393218:BPX393220 BZT393218:BZT393220 CJP393218:CJP393220 CTL393218:CTL393220 DDH393218:DDH393220 DND393218:DND393220 DWZ393218:DWZ393220 EGV393218:EGV393220 EQR393218:EQR393220 FAN393218:FAN393220 FKJ393218:FKJ393220 FUF393218:FUF393220 GEB393218:GEB393220 GNX393218:GNX393220 GXT393218:GXT393220 HHP393218:HHP393220 HRL393218:HRL393220 IBH393218:IBH393220 ILD393218:ILD393220 IUZ393218:IUZ393220 JEV393218:JEV393220 JOR393218:JOR393220 JYN393218:JYN393220 KIJ393218:KIJ393220 KSF393218:KSF393220 LCB393218:LCB393220 LLX393218:LLX393220 LVT393218:LVT393220 MFP393218:MFP393220 MPL393218:MPL393220 MZH393218:MZH393220 NJD393218:NJD393220 NSZ393218:NSZ393220 OCV393218:OCV393220 OMR393218:OMR393220 OWN393218:OWN393220 PGJ393218:PGJ393220 PQF393218:PQF393220 QAB393218:QAB393220 QJX393218:QJX393220 QTT393218:QTT393220 RDP393218:RDP393220 RNL393218:RNL393220 RXH393218:RXH393220 SHD393218:SHD393220 SQZ393218:SQZ393220 TAV393218:TAV393220 TKR393218:TKR393220 TUN393218:TUN393220 UEJ393218:UEJ393220 UOF393218:UOF393220 UYB393218:UYB393220 VHX393218:VHX393220 VRT393218:VRT393220 WBP393218:WBP393220 WLL393218:WLL393220 WVH393218:WVH393220 IV458754:IV458756 SR458754:SR458756 ACN458754:ACN458756 AMJ458754:AMJ458756 AWF458754:AWF458756 BGB458754:BGB458756 BPX458754:BPX458756 BZT458754:BZT458756 CJP458754:CJP458756 CTL458754:CTL458756 DDH458754:DDH458756 DND458754:DND458756 DWZ458754:DWZ458756 EGV458754:EGV458756 EQR458754:EQR458756 FAN458754:FAN458756 FKJ458754:FKJ458756 FUF458754:FUF458756 GEB458754:GEB458756 GNX458754:GNX458756 GXT458754:GXT458756 HHP458754:HHP458756 HRL458754:HRL458756 IBH458754:IBH458756 ILD458754:ILD458756 IUZ458754:IUZ458756 JEV458754:JEV458756 JOR458754:JOR458756 JYN458754:JYN458756 KIJ458754:KIJ458756 KSF458754:KSF458756 LCB458754:LCB458756 LLX458754:LLX458756 LVT458754:LVT458756 MFP458754:MFP458756 MPL458754:MPL458756 MZH458754:MZH458756 NJD458754:NJD458756 NSZ458754:NSZ458756 OCV458754:OCV458756 OMR458754:OMR458756 OWN458754:OWN458756 PGJ458754:PGJ458756 PQF458754:PQF458756 QAB458754:QAB458756 QJX458754:QJX458756 QTT458754:QTT458756 RDP458754:RDP458756 RNL458754:RNL458756 RXH458754:RXH458756 SHD458754:SHD458756 SQZ458754:SQZ458756 TAV458754:TAV458756 TKR458754:TKR458756 TUN458754:TUN458756 UEJ458754:UEJ458756 UOF458754:UOF458756 UYB458754:UYB458756 VHX458754:VHX458756 VRT458754:VRT458756 WBP458754:WBP458756 WLL458754:WLL458756 WVH458754:WVH458756 IV524290:IV524292 SR524290:SR524292 ACN524290:ACN524292 AMJ524290:AMJ524292 AWF524290:AWF524292 BGB524290:BGB524292 BPX524290:BPX524292 BZT524290:BZT524292 CJP524290:CJP524292 CTL524290:CTL524292 DDH524290:DDH524292 DND524290:DND524292 DWZ524290:DWZ524292 EGV524290:EGV524292 EQR524290:EQR524292 FAN524290:FAN524292 FKJ524290:FKJ524292 FUF524290:FUF524292 GEB524290:GEB524292 GNX524290:GNX524292 GXT524290:GXT524292 HHP524290:HHP524292 HRL524290:HRL524292 IBH524290:IBH524292 ILD524290:ILD524292 IUZ524290:IUZ524292 JEV524290:JEV524292 JOR524290:JOR524292 JYN524290:JYN524292 KIJ524290:KIJ524292 KSF524290:KSF524292 LCB524290:LCB524292 LLX524290:LLX524292 LVT524290:LVT524292 MFP524290:MFP524292 MPL524290:MPL524292 MZH524290:MZH524292 NJD524290:NJD524292 NSZ524290:NSZ524292 OCV524290:OCV524292 OMR524290:OMR524292 OWN524290:OWN524292 PGJ524290:PGJ524292 PQF524290:PQF524292 QAB524290:QAB524292 QJX524290:QJX524292 QTT524290:QTT524292 RDP524290:RDP524292 RNL524290:RNL524292 RXH524290:RXH524292 SHD524290:SHD524292 SQZ524290:SQZ524292 TAV524290:TAV524292 TKR524290:TKR524292 TUN524290:TUN524292 UEJ524290:UEJ524292 UOF524290:UOF524292 UYB524290:UYB524292 VHX524290:VHX524292 VRT524290:VRT524292 WBP524290:WBP524292 WLL524290:WLL524292 WVH524290:WVH524292 IV589826:IV589828 SR589826:SR589828 ACN589826:ACN589828 AMJ589826:AMJ589828 AWF589826:AWF589828 BGB589826:BGB589828 BPX589826:BPX589828 BZT589826:BZT589828 CJP589826:CJP589828 CTL589826:CTL589828 DDH589826:DDH589828 DND589826:DND589828 DWZ589826:DWZ589828 EGV589826:EGV589828 EQR589826:EQR589828 FAN589826:FAN589828 FKJ589826:FKJ589828 FUF589826:FUF589828 GEB589826:GEB589828 GNX589826:GNX589828 GXT589826:GXT589828 HHP589826:HHP589828 HRL589826:HRL589828 IBH589826:IBH589828 ILD589826:ILD589828 IUZ589826:IUZ589828 JEV589826:JEV589828 JOR589826:JOR589828 JYN589826:JYN589828 KIJ589826:KIJ589828 KSF589826:KSF589828 LCB589826:LCB589828 LLX589826:LLX589828 LVT589826:LVT589828 MFP589826:MFP589828 MPL589826:MPL589828 MZH589826:MZH589828 NJD589826:NJD589828 NSZ589826:NSZ589828 OCV589826:OCV589828 OMR589826:OMR589828 OWN589826:OWN589828 PGJ589826:PGJ589828 PQF589826:PQF589828 QAB589826:QAB589828 QJX589826:QJX589828 QTT589826:QTT589828 RDP589826:RDP589828 RNL589826:RNL589828 RXH589826:RXH589828 SHD589826:SHD589828 SQZ589826:SQZ589828 TAV589826:TAV589828 TKR589826:TKR589828 TUN589826:TUN589828 UEJ589826:UEJ589828 UOF589826:UOF589828 UYB589826:UYB589828 VHX589826:VHX589828 VRT589826:VRT589828 WBP589826:WBP589828 WLL589826:WLL589828 WVH589826:WVH589828 IV655362:IV655364 SR655362:SR655364 ACN655362:ACN655364 AMJ655362:AMJ655364 AWF655362:AWF655364 BGB655362:BGB655364 BPX655362:BPX655364 BZT655362:BZT655364 CJP655362:CJP655364 CTL655362:CTL655364 DDH655362:DDH655364 DND655362:DND655364 DWZ655362:DWZ655364 EGV655362:EGV655364 EQR655362:EQR655364 FAN655362:FAN655364 FKJ655362:FKJ655364 FUF655362:FUF655364 GEB655362:GEB655364 GNX655362:GNX655364 GXT655362:GXT655364 HHP655362:HHP655364 HRL655362:HRL655364 IBH655362:IBH655364 ILD655362:ILD655364 IUZ655362:IUZ655364 JEV655362:JEV655364 JOR655362:JOR655364 JYN655362:JYN655364 KIJ655362:KIJ655364 KSF655362:KSF655364 LCB655362:LCB655364 LLX655362:LLX655364 LVT655362:LVT655364 MFP655362:MFP655364 MPL655362:MPL655364 MZH655362:MZH655364 NJD655362:NJD655364 NSZ655362:NSZ655364 OCV655362:OCV655364 OMR655362:OMR655364 OWN655362:OWN655364 PGJ655362:PGJ655364 PQF655362:PQF655364 QAB655362:QAB655364 QJX655362:QJX655364 QTT655362:QTT655364 RDP655362:RDP655364 RNL655362:RNL655364 RXH655362:RXH655364 SHD655362:SHD655364 SQZ655362:SQZ655364 TAV655362:TAV655364 TKR655362:TKR655364 TUN655362:TUN655364 UEJ655362:UEJ655364 UOF655362:UOF655364 UYB655362:UYB655364 VHX655362:VHX655364 VRT655362:VRT655364 WBP655362:WBP655364 WLL655362:WLL655364 WVH655362:WVH655364 IV720898:IV720900 SR720898:SR720900 ACN720898:ACN720900 AMJ720898:AMJ720900 AWF720898:AWF720900 BGB720898:BGB720900 BPX720898:BPX720900 BZT720898:BZT720900 CJP720898:CJP720900 CTL720898:CTL720900 DDH720898:DDH720900 DND720898:DND720900 DWZ720898:DWZ720900 EGV720898:EGV720900 EQR720898:EQR720900 FAN720898:FAN720900 FKJ720898:FKJ720900 FUF720898:FUF720900 GEB720898:GEB720900 GNX720898:GNX720900 GXT720898:GXT720900 HHP720898:HHP720900 HRL720898:HRL720900 IBH720898:IBH720900 ILD720898:ILD720900 IUZ720898:IUZ720900 JEV720898:JEV720900 JOR720898:JOR720900 JYN720898:JYN720900 KIJ720898:KIJ720900 KSF720898:KSF720900 LCB720898:LCB720900 LLX720898:LLX720900 LVT720898:LVT720900 MFP720898:MFP720900 MPL720898:MPL720900 MZH720898:MZH720900 NJD720898:NJD720900 NSZ720898:NSZ720900 OCV720898:OCV720900 OMR720898:OMR720900 OWN720898:OWN720900 PGJ720898:PGJ720900 PQF720898:PQF720900 QAB720898:QAB720900 QJX720898:QJX720900 QTT720898:QTT720900 RDP720898:RDP720900 RNL720898:RNL720900 RXH720898:RXH720900 SHD720898:SHD720900 SQZ720898:SQZ720900 TAV720898:TAV720900 TKR720898:TKR720900 TUN720898:TUN720900 UEJ720898:UEJ720900 UOF720898:UOF720900 UYB720898:UYB720900 VHX720898:VHX720900 VRT720898:VRT720900 WBP720898:WBP720900 WLL720898:WLL720900 WVH720898:WVH720900 IV786434:IV786436 SR786434:SR786436 ACN786434:ACN786436 AMJ786434:AMJ786436 AWF786434:AWF786436 BGB786434:BGB786436 BPX786434:BPX786436 BZT786434:BZT786436 CJP786434:CJP786436 CTL786434:CTL786436 DDH786434:DDH786436 DND786434:DND786436 DWZ786434:DWZ786436 EGV786434:EGV786436 EQR786434:EQR786436 FAN786434:FAN786436 FKJ786434:FKJ786436 FUF786434:FUF786436 GEB786434:GEB786436 GNX786434:GNX786436 GXT786434:GXT786436 HHP786434:HHP786436 HRL786434:HRL786436 IBH786434:IBH786436 ILD786434:ILD786436 IUZ786434:IUZ786436 JEV786434:JEV786436 JOR786434:JOR786436 JYN786434:JYN786436 KIJ786434:KIJ786436 KSF786434:KSF786436 LCB786434:LCB786436 LLX786434:LLX786436 LVT786434:LVT786436 MFP786434:MFP786436 MPL786434:MPL786436 MZH786434:MZH786436 NJD786434:NJD786436 NSZ786434:NSZ786436 OCV786434:OCV786436 OMR786434:OMR786436 OWN786434:OWN786436 PGJ786434:PGJ786436 PQF786434:PQF786436 QAB786434:QAB786436 QJX786434:QJX786436 QTT786434:QTT786436 RDP786434:RDP786436 RNL786434:RNL786436 RXH786434:RXH786436 SHD786434:SHD786436 SQZ786434:SQZ786436 TAV786434:TAV786436 TKR786434:TKR786436 TUN786434:TUN786436 UEJ786434:UEJ786436 UOF786434:UOF786436 UYB786434:UYB786436 VHX786434:VHX786436 VRT786434:VRT786436 WBP786434:WBP786436 WLL786434:WLL786436 WVH786434:WVH786436 IV851970:IV851972 SR851970:SR851972 ACN851970:ACN851972 AMJ851970:AMJ851972 AWF851970:AWF851972 BGB851970:BGB851972 BPX851970:BPX851972 BZT851970:BZT851972 CJP851970:CJP851972 CTL851970:CTL851972 DDH851970:DDH851972 DND851970:DND851972 DWZ851970:DWZ851972 EGV851970:EGV851972 EQR851970:EQR851972 FAN851970:FAN851972 FKJ851970:FKJ851972 FUF851970:FUF851972 GEB851970:GEB851972 GNX851970:GNX851972 GXT851970:GXT851972 HHP851970:HHP851972 HRL851970:HRL851972 IBH851970:IBH851972 ILD851970:ILD851972 IUZ851970:IUZ851972 JEV851970:JEV851972 JOR851970:JOR851972 JYN851970:JYN851972 KIJ851970:KIJ851972 KSF851970:KSF851972 LCB851970:LCB851972 LLX851970:LLX851972 LVT851970:LVT851972 MFP851970:MFP851972 MPL851970:MPL851972 MZH851970:MZH851972 NJD851970:NJD851972 NSZ851970:NSZ851972 OCV851970:OCV851972 OMR851970:OMR851972 OWN851970:OWN851972 PGJ851970:PGJ851972 PQF851970:PQF851972 QAB851970:QAB851972 QJX851970:QJX851972 QTT851970:QTT851972 RDP851970:RDP851972 RNL851970:RNL851972 RXH851970:RXH851972 SHD851970:SHD851972 SQZ851970:SQZ851972 TAV851970:TAV851972 TKR851970:TKR851972 TUN851970:TUN851972 UEJ851970:UEJ851972 UOF851970:UOF851972 UYB851970:UYB851972 VHX851970:VHX851972 VRT851970:VRT851972 WBP851970:WBP851972 WLL851970:WLL851972 WVH851970:WVH851972 IV917506:IV917508 SR917506:SR917508 ACN917506:ACN917508 AMJ917506:AMJ917508 AWF917506:AWF917508 BGB917506:BGB917508 BPX917506:BPX917508 BZT917506:BZT917508 CJP917506:CJP917508 CTL917506:CTL917508 DDH917506:DDH917508 DND917506:DND917508 DWZ917506:DWZ917508 EGV917506:EGV917508 EQR917506:EQR917508 FAN917506:FAN917508 FKJ917506:FKJ917508 FUF917506:FUF917508 GEB917506:GEB917508 GNX917506:GNX917508 GXT917506:GXT917508 HHP917506:HHP917508 HRL917506:HRL917508 IBH917506:IBH917508 ILD917506:ILD917508 IUZ917506:IUZ917508 JEV917506:JEV917508 JOR917506:JOR917508 JYN917506:JYN917508 KIJ917506:KIJ917508 KSF917506:KSF917508 LCB917506:LCB917508 LLX917506:LLX917508 LVT917506:LVT917508 MFP917506:MFP917508 MPL917506:MPL917508 MZH917506:MZH917508 NJD917506:NJD917508 NSZ917506:NSZ917508 OCV917506:OCV917508 OMR917506:OMR917508 OWN917506:OWN917508 PGJ917506:PGJ917508 PQF917506:PQF917508 QAB917506:QAB917508 QJX917506:QJX917508 QTT917506:QTT917508 RDP917506:RDP917508 RNL917506:RNL917508 RXH917506:RXH917508 SHD917506:SHD917508 SQZ917506:SQZ917508 TAV917506:TAV917508 TKR917506:TKR917508 TUN917506:TUN917508 UEJ917506:UEJ917508 UOF917506:UOF917508 UYB917506:UYB917508 VHX917506:VHX917508 VRT917506:VRT917508 WBP917506:WBP917508 WLL917506:WLL917508 WVH917506:WVH917508 IV983042:IV983044 SR983042:SR983044 ACN983042:ACN983044 AMJ983042:AMJ983044 AWF983042:AWF983044 BGB983042:BGB983044 BPX983042:BPX983044 BZT983042:BZT983044 CJP983042:CJP983044 CTL983042:CTL983044 DDH983042:DDH983044 DND983042:DND983044 DWZ983042:DWZ983044 EGV983042:EGV983044 EQR983042:EQR983044 FAN983042:FAN983044 FKJ983042:FKJ983044 FUF983042:FUF983044 GEB983042:GEB983044 GNX983042:GNX983044 GXT983042:GXT983044 HHP983042:HHP983044 HRL983042:HRL983044 IBH983042:IBH983044 ILD983042:ILD983044 IUZ983042:IUZ983044 JEV983042:JEV983044 JOR983042:JOR983044 JYN983042:JYN983044 KIJ983042:KIJ983044 KSF983042:KSF983044 LCB983042:LCB983044 LLX983042:LLX983044 LVT983042:LVT983044 MFP983042:MFP983044 MPL983042:MPL983044 MZH983042:MZH983044 NJD983042:NJD983044 NSZ983042:NSZ983044 OCV983042:OCV983044 OMR983042:OMR983044 OWN983042:OWN983044 PGJ983042:PGJ983044 PQF983042:PQF983044 QAB983042:QAB983044 QJX983042:QJX983044 QTT983042:QTT983044 RDP983042:RDP983044 RNL983042:RNL983044 RXH983042:RXH983044 SHD983042:SHD983044 SQZ983042:SQZ983044 TAV983042:TAV983044 TKR983042:TKR983044 TUN983042:TUN983044 UEJ983042:UEJ983044 UOF983042:UOF983044 UYB983042:UYB983044 VHX983042:VHX983044 VRT983042:VRT983044 WBP983042:WBP983044 WLL983042:WLL983044">
+      <formula1>INDIRECT($D$5)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -4994,851 +5049,851 @@
       <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" style="1" customWidth="1"/>
     <col min="10" max="257" width="9" style="1"/>
     <col min="258" max="258" width="12" style="1" customWidth="1"/>
-    <col min="259" max="259" width="11.375" style="1" customWidth="1"/>
-    <col min="260" max="260" width="15.5" style="1" customWidth="1"/>
-    <col min="261" max="261" width="15.125" style="1" customWidth="1"/>
-    <col min="262" max="262" width="12.625" style="1" customWidth="1"/>
-    <col min="263" max="263" width="11.875" style="1" customWidth="1"/>
-    <col min="264" max="264" width="9.625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="11.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="15.44140625" style="1" customWidth="1"/>
+    <col min="261" max="261" width="15.109375" style="1" customWidth="1"/>
+    <col min="262" max="262" width="12.6640625" style="1" customWidth="1"/>
+    <col min="263" max="263" width="11.88671875" style="1" customWidth="1"/>
+    <col min="264" max="264" width="9.6640625" style="1" customWidth="1"/>
     <col min="265" max="513" width="9" style="1"/>
     <col min="514" max="514" width="12" style="1" customWidth="1"/>
-    <col min="515" max="515" width="11.375" style="1" customWidth="1"/>
-    <col min="516" max="516" width="15.5" style="1" customWidth="1"/>
-    <col min="517" max="517" width="15.125" style="1" customWidth="1"/>
-    <col min="518" max="518" width="12.625" style="1" customWidth="1"/>
-    <col min="519" max="519" width="11.875" style="1" customWidth="1"/>
-    <col min="520" max="520" width="9.625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="11.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="15.44140625" style="1" customWidth="1"/>
+    <col min="517" max="517" width="15.109375" style="1" customWidth="1"/>
+    <col min="518" max="518" width="12.6640625" style="1" customWidth="1"/>
+    <col min="519" max="519" width="11.88671875" style="1" customWidth="1"/>
+    <col min="520" max="520" width="9.6640625" style="1" customWidth="1"/>
     <col min="521" max="769" width="9" style="1"/>
     <col min="770" max="770" width="12" style="1" customWidth="1"/>
-    <col min="771" max="771" width="11.375" style="1" customWidth="1"/>
-    <col min="772" max="772" width="15.5" style="1" customWidth="1"/>
-    <col min="773" max="773" width="15.125" style="1" customWidth="1"/>
-    <col min="774" max="774" width="12.625" style="1" customWidth="1"/>
-    <col min="775" max="775" width="11.875" style="1" customWidth="1"/>
-    <col min="776" max="776" width="9.625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="11.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="15.44140625" style="1" customWidth="1"/>
+    <col min="773" max="773" width="15.109375" style="1" customWidth="1"/>
+    <col min="774" max="774" width="12.6640625" style="1" customWidth="1"/>
+    <col min="775" max="775" width="11.88671875" style="1" customWidth="1"/>
+    <col min="776" max="776" width="9.6640625" style="1" customWidth="1"/>
     <col min="777" max="1025" width="9" style="1"/>
     <col min="1026" max="1026" width="12" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="11.375" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="15.5" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.125" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="12.625" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="11.875" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="9.625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.109375" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="9.6640625" style="1" customWidth="1"/>
     <col min="1033" max="1281" width="9" style="1"/>
     <col min="1282" max="1282" width="12" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="11.375" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="15.5" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.125" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="12.625" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="11.875" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="9.625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.109375" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="9.6640625" style="1" customWidth="1"/>
     <col min="1289" max="1537" width="9" style="1"/>
     <col min="1538" max="1538" width="12" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="11.375" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="15.5" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.125" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="12.625" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="11.875" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="9.625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.109375" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="9.6640625" style="1" customWidth="1"/>
     <col min="1545" max="1793" width="9" style="1"/>
     <col min="1794" max="1794" width="12" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="11.375" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="15.5" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.125" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="12.625" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="11.875" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="9.625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.109375" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="9.6640625" style="1" customWidth="1"/>
     <col min="1801" max="2049" width="9" style="1"/>
     <col min="2050" max="2050" width="12" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="11.375" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="15.5" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.125" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="12.625" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="11.875" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="9.625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.109375" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="9.6640625" style="1" customWidth="1"/>
     <col min="2057" max="2305" width="9" style="1"/>
     <col min="2306" max="2306" width="12" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="11.375" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="15.5" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.125" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="12.625" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="11.875" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="9.625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.109375" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="9.6640625" style="1" customWidth="1"/>
     <col min="2313" max="2561" width="9" style="1"/>
     <col min="2562" max="2562" width="12" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="11.375" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="15.5" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.125" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="12.625" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="11.875" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="9.625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.109375" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="9.6640625" style="1" customWidth="1"/>
     <col min="2569" max="2817" width="9" style="1"/>
     <col min="2818" max="2818" width="12" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="11.375" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="15.5" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.125" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="12.625" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="11.875" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="9.625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.109375" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="9.6640625" style="1" customWidth="1"/>
     <col min="2825" max="3073" width="9" style="1"/>
     <col min="3074" max="3074" width="12" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="11.375" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="15.5" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.125" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="12.625" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="11.875" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="9.625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.109375" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="9.6640625" style="1" customWidth="1"/>
     <col min="3081" max="3329" width="9" style="1"/>
     <col min="3330" max="3330" width="12" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="11.375" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="15.5" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.125" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="12.625" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="11.875" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="9.625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.109375" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="9.6640625" style="1" customWidth="1"/>
     <col min="3337" max="3585" width="9" style="1"/>
     <col min="3586" max="3586" width="12" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="11.375" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="15.5" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.125" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="12.625" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="11.875" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="9.625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.109375" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="9.6640625" style="1" customWidth="1"/>
     <col min="3593" max="3841" width="9" style="1"/>
     <col min="3842" max="3842" width="12" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="11.375" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="15.5" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.125" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="12.625" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="11.875" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="9.625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.109375" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="9.6640625" style="1" customWidth="1"/>
     <col min="3849" max="4097" width="9" style="1"/>
     <col min="4098" max="4098" width="12" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="11.375" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="15.5" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.125" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="12.625" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="11.875" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="9.625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.109375" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="9.6640625" style="1" customWidth="1"/>
     <col min="4105" max="4353" width="9" style="1"/>
     <col min="4354" max="4354" width="12" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="11.375" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="15.5" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.125" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="12.625" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="11.875" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="9.625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.109375" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="9.6640625" style="1" customWidth="1"/>
     <col min="4361" max="4609" width="9" style="1"/>
     <col min="4610" max="4610" width="12" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="11.375" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="15.5" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.125" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="12.625" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="11.875" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="9.625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.109375" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="9.6640625" style="1" customWidth="1"/>
     <col min="4617" max="4865" width="9" style="1"/>
     <col min="4866" max="4866" width="12" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="11.375" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="15.5" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.125" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="12.625" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="11.875" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="9.625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.109375" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="9.6640625" style="1" customWidth="1"/>
     <col min="4873" max="5121" width="9" style="1"/>
     <col min="5122" max="5122" width="12" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="11.375" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="15.5" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.125" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="12.625" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="11.875" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="9.625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.109375" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="9.6640625" style="1" customWidth="1"/>
     <col min="5129" max="5377" width="9" style="1"/>
     <col min="5378" max="5378" width="12" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="11.375" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="15.5" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.125" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="12.625" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="11.875" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="9.625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.109375" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="9.6640625" style="1" customWidth="1"/>
     <col min="5385" max="5633" width="9" style="1"/>
     <col min="5634" max="5634" width="12" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="11.375" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="15.5" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.125" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="12.625" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="11.875" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="9.625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.109375" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="9.6640625" style="1" customWidth="1"/>
     <col min="5641" max="5889" width="9" style="1"/>
     <col min="5890" max="5890" width="12" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="11.375" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="15.5" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.125" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="12.625" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="11.875" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="9.625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.109375" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="9.6640625" style="1" customWidth="1"/>
     <col min="5897" max="6145" width="9" style="1"/>
     <col min="6146" max="6146" width="12" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="11.375" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="15.5" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.125" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="12.625" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="11.875" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="9.625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.109375" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="9.6640625" style="1" customWidth="1"/>
     <col min="6153" max="6401" width="9" style="1"/>
     <col min="6402" max="6402" width="12" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="11.375" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="15.5" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.125" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="12.625" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="11.875" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="9.625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.109375" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="9.6640625" style="1" customWidth="1"/>
     <col min="6409" max="6657" width="9" style="1"/>
     <col min="6658" max="6658" width="12" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="11.375" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="15.5" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.125" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="12.625" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="11.875" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="9.625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.109375" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="9.6640625" style="1" customWidth="1"/>
     <col min="6665" max="6913" width="9" style="1"/>
     <col min="6914" max="6914" width="12" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="11.375" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="15.5" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.125" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="12.625" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="11.875" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="9.625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.109375" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="9.6640625" style="1" customWidth="1"/>
     <col min="6921" max="7169" width="9" style="1"/>
     <col min="7170" max="7170" width="12" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="11.375" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="15.5" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.125" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="12.625" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="11.875" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="9.625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.109375" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="9.6640625" style="1" customWidth="1"/>
     <col min="7177" max="7425" width="9" style="1"/>
     <col min="7426" max="7426" width="12" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="11.375" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="15.5" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.125" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="12.625" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="11.875" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="9.625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.109375" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="9.6640625" style="1" customWidth="1"/>
     <col min="7433" max="7681" width="9" style="1"/>
     <col min="7682" max="7682" width="12" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="11.375" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="15.5" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.125" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="12.625" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="11.875" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="9.625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.109375" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="9.6640625" style="1" customWidth="1"/>
     <col min="7689" max="7937" width="9" style="1"/>
     <col min="7938" max="7938" width="12" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="11.375" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="15.5" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.125" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="12.625" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="11.875" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="9.625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.109375" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="9.6640625" style="1" customWidth="1"/>
     <col min="7945" max="8193" width="9" style="1"/>
     <col min="8194" max="8194" width="12" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="11.375" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="15.5" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.125" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="12.625" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="11.875" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="9.625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.109375" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="9.6640625" style="1" customWidth="1"/>
     <col min="8201" max="8449" width="9" style="1"/>
     <col min="8450" max="8450" width="12" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="11.375" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="15.5" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.125" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="12.625" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="11.875" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="9.625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.109375" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="9.6640625" style="1" customWidth="1"/>
     <col min="8457" max="8705" width="9" style="1"/>
     <col min="8706" max="8706" width="12" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="11.375" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="15.5" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.125" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="12.625" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="11.875" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="9.625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.109375" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="9.6640625" style="1" customWidth="1"/>
     <col min="8713" max="8961" width="9" style="1"/>
     <col min="8962" max="8962" width="12" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="11.375" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="15.5" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.125" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="12.625" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="11.875" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="9.625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.109375" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="9.6640625" style="1" customWidth="1"/>
     <col min="8969" max="9217" width="9" style="1"/>
     <col min="9218" max="9218" width="12" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="11.375" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="15.5" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.125" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="12.625" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="11.875" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="9.625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.109375" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="9.6640625" style="1" customWidth="1"/>
     <col min="9225" max="9473" width="9" style="1"/>
     <col min="9474" max="9474" width="12" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="11.375" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="15.5" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.125" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="12.625" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="11.875" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="9.625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.109375" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="9.6640625" style="1" customWidth="1"/>
     <col min="9481" max="9729" width="9" style="1"/>
     <col min="9730" max="9730" width="12" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="11.375" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="15.5" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.125" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="12.625" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="11.875" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="9.625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.109375" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="9.6640625" style="1" customWidth="1"/>
     <col min="9737" max="9985" width="9" style="1"/>
     <col min="9986" max="9986" width="12" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="11.375" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="15.5" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.125" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="12.625" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="11.875" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="9.625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.109375" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="9.6640625" style="1" customWidth="1"/>
     <col min="9993" max="10241" width="9" style="1"/>
     <col min="10242" max="10242" width="12" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="11.375" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="15.5" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.125" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="12.625" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="11.875" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="9.625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="15.44140625" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.109375" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="9.6640625" style="1" customWidth="1"/>
     <col min="10249" max="10497" width="9" style="1"/>
     <col min="10498" max="10498" width="12" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="11.375" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="15.5" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.125" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="12.625" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="11.875" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="9.625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="15.44140625" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.109375" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="9.6640625" style="1" customWidth="1"/>
     <col min="10505" max="10753" width="9" style="1"/>
     <col min="10754" max="10754" width="12" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="11.375" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="15.5" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.125" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="12.625" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="11.875" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="9.625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="15.44140625" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.109375" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="9.6640625" style="1" customWidth="1"/>
     <col min="10761" max="11009" width="9" style="1"/>
     <col min="11010" max="11010" width="12" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="11.375" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="15.5" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.125" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="12.625" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="11.875" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="9.625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.109375" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="9.6640625" style="1" customWidth="1"/>
     <col min="11017" max="11265" width="9" style="1"/>
     <col min="11266" max="11266" width="12" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="11.375" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="15.5" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.125" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="12.625" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="11.875" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="9.625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.109375" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="9.6640625" style="1" customWidth="1"/>
     <col min="11273" max="11521" width="9" style="1"/>
     <col min="11522" max="11522" width="12" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="11.375" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="15.5" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.125" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="12.625" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="11.875" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="9.625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.109375" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="9.6640625" style="1" customWidth="1"/>
     <col min="11529" max="11777" width="9" style="1"/>
     <col min="11778" max="11778" width="12" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="11.375" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="15.5" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.125" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="12.625" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="11.875" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="9.625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.109375" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="9.6640625" style="1" customWidth="1"/>
     <col min="11785" max="12033" width="9" style="1"/>
     <col min="12034" max="12034" width="12" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="11.375" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="15.5" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.125" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="12.625" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="11.875" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="9.625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.109375" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="9.6640625" style="1" customWidth="1"/>
     <col min="12041" max="12289" width="9" style="1"/>
     <col min="12290" max="12290" width="12" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="11.375" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="15.5" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.125" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="12.625" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="11.875" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="9.625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.109375" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="9.6640625" style="1" customWidth="1"/>
     <col min="12297" max="12545" width="9" style="1"/>
     <col min="12546" max="12546" width="12" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="11.375" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="15.5" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.125" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="12.625" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="11.875" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="9.625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.109375" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="9.6640625" style="1" customWidth="1"/>
     <col min="12553" max="12801" width="9" style="1"/>
     <col min="12802" max="12802" width="12" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="11.375" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="15.5" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.125" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="12.625" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="11.875" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="9.625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.109375" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="9.6640625" style="1" customWidth="1"/>
     <col min="12809" max="13057" width="9" style="1"/>
     <col min="13058" max="13058" width="12" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="11.375" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="15.5" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.125" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="12.625" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="11.875" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="9.625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="15.44140625" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.109375" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="9.6640625" style="1" customWidth="1"/>
     <col min="13065" max="13313" width="9" style="1"/>
     <col min="13314" max="13314" width="12" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="11.375" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="15.5" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.125" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="12.625" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="11.875" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="9.625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="15.44140625" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.109375" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="9.6640625" style="1" customWidth="1"/>
     <col min="13321" max="13569" width="9" style="1"/>
     <col min="13570" max="13570" width="12" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="11.375" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="15.5" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.125" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="12.625" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="11.875" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="9.625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="15.44140625" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.109375" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="9.6640625" style="1" customWidth="1"/>
     <col min="13577" max="13825" width="9" style="1"/>
     <col min="13826" max="13826" width="12" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="11.375" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="15.5" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.125" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="12.625" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="11.875" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="9.625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="15.44140625" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.109375" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="9.6640625" style="1" customWidth="1"/>
     <col min="13833" max="14081" width="9" style="1"/>
     <col min="14082" max="14082" width="12" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="11.375" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="15.5" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.125" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="12.625" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="11.875" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="9.625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="15.44140625" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.109375" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="9.6640625" style="1" customWidth="1"/>
     <col min="14089" max="14337" width="9" style="1"/>
     <col min="14338" max="14338" width="12" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="11.375" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="15.5" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.125" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="12.625" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="11.875" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="9.625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="15.44140625" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.109375" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="9.6640625" style="1" customWidth="1"/>
     <col min="14345" max="14593" width="9" style="1"/>
     <col min="14594" max="14594" width="12" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="11.375" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="15.5" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.125" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="12.625" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="11.875" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="9.625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="15.44140625" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.109375" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="9.6640625" style="1" customWidth="1"/>
     <col min="14601" max="14849" width="9" style="1"/>
     <col min="14850" max="14850" width="12" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="11.375" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="15.5" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.125" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="12.625" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="11.875" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="9.625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="15.44140625" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.109375" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="9.6640625" style="1" customWidth="1"/>
     <col min="14857" max="15105" width="9" style="1"/>
     <col min="15106" max="15106" width="12" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="11.375" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="15.5" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.125" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="12.625" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="11.875" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="9.625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="15.44140625" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.109375" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="9.6640625" style="1" customWidth="1"/>
     <col min="15113" max="15361" width="9" style="1"/>
     <col min="15362" max="15362" width="12" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="11.375" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="15.5" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.125" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="12.625" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="11.875" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="9.625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="15.44140625" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.109375" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="9.6640625" style="1" customWidth="1"/>
     <col min="15369" max="15617" width="9" style="1"/>
     <col min="15618" max="15618" width="12" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="11.375" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="15.5" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.125" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="12.625" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="11.875" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="9.625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="15.44140625" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.109375" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="9.6640625" style="1" customWidth="1"/>
     <col min="15625" max="15873" width="9" style="1"/>
     <col min="15874" max="15874" width="12" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="11.375" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="15.5" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.125" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="12.625" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="11.875" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="9.625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="15.44140625" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.109375" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="9.6640625" style="1" customWidth="1"/>
     <col min="15881" max="16129" width="9" style="1"/>
     <col min="16130" max="16130" width="12" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="11.375" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="15.5" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.125" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="12.625" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="11.875" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="9.625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="15.44140625" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.109375" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="12.6640625" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="11.88671875" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="9.6640625" style="1" customWidth="1"/>
     <col min="16137" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-    </row>
-    <row r="2" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B2" s="152" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+    </row>
+    <row r="2" spans="2:8" ht="16.649999999999999" customHeight="1">
+      <c r="B2" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="154" t="s">
+      <c r="D2" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="154"/>
-      <c r="H2" s="156" t="s">
+      <c r="G2" s="138"/>
+      <c r="H2" s="140" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B3" s="153"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+    <row r="3" spans="2:8" ht="16.649999999999999" customHeight="1">
+      <c r="B3" s="137"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
       <c r="F3" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="157"/>
+      <c r="H3" s="141"/>
     </row>
     <row r="4" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B7" s="46"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="53"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B8" s="46"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="53"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B9" s="46"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="53"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B10" s="46"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="53"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B11" s="46"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="53"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="53"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="51"/>
     </row>
     <row r="13" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="53"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="53"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="53"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B16" s="46"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="53"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="51"/>
     </row>
     <row r="17" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B17" s="46"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="53"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B18" s="46"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="53"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="51"/>
     </row>
     <row r="19" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="53"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="51"/>
     </row>
     <row r="20" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B20" s="46"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="53"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B21" s="46"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="53"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="46"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="53"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B23" s="46"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="53"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B24" s="46"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="53"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B25" s="46"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="53"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B26" s="46"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="53"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B27" s="46"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="53"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51"/>
     </row>
     <row r="28" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B28" s="46"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="53"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="51"/>
     </row>
     <row r="29" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B29" s="46"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="53"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B30" s="46"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="53"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B31" s="46"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="53"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B32" s="46"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="53"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="51"/>
     </row>
     <row r="33" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B33" s="46"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="53"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="51"/>
     </row>
     <row r="34" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="55"/>
     </row>
     <row r="35" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B35" s="143" t="s">
+      <c r="B35" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
       <c r="F35" s="14">
         <f>SUM(F4:F34)</f>
         <v>0</v>
@@ -5852,28 +5907,6 @@
     <row r="36" spans="2:8" ht="6.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -5890,10 +5923,32 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -5909,1464 +5964,1464 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="35" width="9" style="3" customWidth="1"/>
     <col min="36" max="235" width="9" style="3"/>
-    <col min="236" max="236" width="1.625" style="3" customWidth="1"/>
-    <col min="237" max="237" width="1.75" style="3" customWidth="1"/>
-    <col min="238" max="238" width="7.375" style="3" customWidth="1"/>
-    <col min="239" max="239" width="4.125" style="3" customWidth="1"/>
-    <col min="240" max="240" width="2.375" style="3" customWidth="1"/>
+    <col min="236" max="236" width="1.6640625" style="3" customWidth="1"/>
+    <col min="237" max="237" width="1.77734375" style="3" customWidth="1"/>
+    <col min="238" max="238" width="7.33203125" style="3" customWidth="1"/>
+    <col min="239" max="239" width="4.109375" style="3" customWidth="1"/>
+    <col min="240" max="240" width="2.33203125" style="3" customWidth="1"/>
     <col min="241" max="241" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="2.125" style="3" customWidth="1"/>
-    <col min="243" max="243" width="2.625" style="3" customWidth="1"/>
+    <col min="242" max="242" width="2.109375" style="3" customWidth="1"/>
+    <col min="243" max="243" width="2.6640625" style="3" customWidth="1"/>
     <col min="244" max="244" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="245" max="245" width="9.25" style="3" customWidth="1"/>
-    <col min="246" max="246" width="12.25" style="3" customWidth="1"/>
-    <col min="247" max="247" width="9.125" style="3" customWidth="1"/>
-    <col min="248" max="248" width="3.125" style="3" customWidth="1"/>
-    <col min="249" max="249" width="5.625" style="3" customWidth="1"/>
-    <col min="250" max="250" width="6.5" style="3" customWidth="1"/>
+    <col min="245" max="245" width="9.21875" style="3" customWidth="1"/>
+    <col min="246" max="246" width="12.21875" style="3" customWidth="1"/>
+    <col min="247" max="247" width="9.109375" style="3" customWidth="1"/>
+    <col min="248" max="248" width="3.109375" style="3" customWidth="1"/>
+    <col min="249" max="249" width="5.6640625" style="3" customWidth="1"/>
+    <col min="250" max="250" width="6.44140625" style="3" customWidth="1"/>
     <col min="251" max="251" width="1" style="3" customWidth="1"/>
     <col min="252" max="252" width="3" style="3" customWidth="1"/>
-    <col min="253" max="253" width="7.125" style="3" customWidth="1"/>
-    <col min="254" max="254" width="2.75" style="3" customWidth="1"/>
-    <col min="255" max="255" width="8.625" style="3" customWidth="1"/>
+    <col min="253" max="253" width="7.109375" style="3" customWidth="1"/>
+    <col min="254" max="254" width="2.77734375" style="3" customWidth="1"/>
+    <col min="255" max="255" width="8.6640625" style="3" customWidth="1"/>
     <col min="256" max="266" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="267" max="291" width="9" style="3" customWidth="1"/>
     <col min="292" max="491" width="9" style="3"/>
-    <col min="492" max="492" width="1.625" style="3" customWidth="1"/>
-    <col min="493" max="493" width="1.75" style="3" customWidth="1"/>
-    <col min="494" max="494" width="7.375" style="3" customWidth="1"/>
-    <col min="495" max="495" width="4.125" style="3" customWidth="1"/>
-    <col min="496" max="496" width="2.375" style="3" customWidth="1"/>
+    <col min="492" max="492" width="1.6640625" style="3" customWidth="1"/>
+    <col min="493" max="493" width="1.77734375" style="3" customWidth="1"/>
+    <col min="494" max="494" width="7.33203125" style="3" customWidth="1"/>
+    <col min="495" max="495" width="4.109375" style="3" customWidth="1"/>
+    <col min="496" max="496" width="2.33203125" style="3" customWidth="1"/>
     <col min="497" max="497" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="498" max="498" width="2.125" style="3" customWidth="1"/>
-    <col min="499" max="499" width="2.625" style="3" customWidth="1"/>
+    <col min="498" max="498" width="2.109375" style="3" customWidth="1"/>
+    <col min="499" max="499" width="2.6640625" style="3" customWidth="1"/>
     <col min="500" max="500" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="501" max="501" width="9.25" style="3" customWidth="1"/>
-    <col min="502" max="502" width="12.25" style="3" customWidth="1"/>
-    <col min="503" max="503" width="9.125" style="3" customWidth="1"/>
-    <col min="504" max="504" width="3.125" style="3" customWidth="1"/>
-    <col min="505" max="505" width="5.625" style="3" customWidth="1"/>
-    <col min="506" max="506" width="6.5" style="3" customWidth="1"/>
+    <col min="501" max="501" width="9.21875" style="3" customWidth="1"/>
+    <col min="502" max="502" width="12.21875" style="3" customWidth="1"/>
+    <col min="503" max="503" width="9.109375" style="3" customWidth="1"/>
+    <col min="504" max="504" width="3.109375" style="3" customWidth="1"/>
+    <col min="505" max="505" width="5.6640625" style="3" customWidth="1"/>
+    <col min="506" max="506" width="6.44140625" style="3" customWidth="1"/>
     <col min="507" max="507" width="1" style="3" customWidth="1"/>
     <col min="508" max="508" width="3" style="3" customWidth="1"/>
-    <col min="509" max="509" width="7.125" style="3" customWidth="1"/>
-    <col min="510" max="510" width="2.75" style="3" customWidth="1"/>
-    <col min="511" max="511" width="8.625" style="3" customWidth="1"/>
+    <col min="509" max="509" width="7.109375" style="3" customWidth="1"/>
+    <col min="510" max="510" width="2.77734375" style="3" customWidth="1"/>
+    <col min="511" max="511" width="8.6640625" style="3" customWidth="1"/>
     <col min="512" max="522" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="523" max="547" width="9" style="3" customWidth="1"/>
     <col min="548" max="747" width="9" style="3"/>
-    <col min="748" max="748" width="1.625" style="3" customWidth="1"/>
-    <col min="749" max="749" width="1.75" style="3" customWidth="1"/>
-    <col min="750" max="750" width="7.375" style="3" customWidth="1"/>
-    <col min="751" max="751" width="4.125" style="3" customWidth="1"/>
-    <col min="752" max="752" width="2.375" style="3" customWidth="1"/>
+    <col min="748" max="748" width="1.6640625" style="3" customWidth="1"/>
+    <col min="749" max="749" width="1.77734375" style="3" customWidth="1"/>
+    <col min="750" max="750" width="7.33203125" style="3" customWidth="1"/>
+    <col min="751" max="751" width="4.109375" style="3" customWidth="1"/>
+    <col min="752" max="752" width="2.33203125" style="3" customWidth="1"/>
     <col min="753" max="753" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="754" max="754" width="2.125" style="3" customWidth="1"/>
-    <col min="755" max="755" width="2.625" style="3" customWidth="1"/>
+    <col min="754" max="754" width="2.109375" style="3" customWidth="1"/>
+    <col min="755" max="755" width="2.6640625" style="3" customWidth="1"/>
     <col min="756" max="756" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="757" max="757" width="9.25" style="3" customWidth="1"/>
-    <col min="758" max="758" width="12.25" style="3" customWidth="1"/>
-    <col min="759" max="759" width="9.125" style="3" customWidth="1"/>
-    <col min="760" max="760" width="3.125" style="3" customWidth="1"/>
-    <col min="761" max="761" width="5.625" style="3" customWidth="1"/>
-    <col min="762" max="762" width="6.5" style="3" customWidth="1"/>
+    <col min="757" max="757" width="9.21875" style="3" customWidth="1"/>
+    <col min="758" max="758" width="12.21875" style="3" customWidth="1"/>
+    <col min="759" max="759" width="9.109375" style="3" customWidth="1"/>
+    <col min="760" max="760" width="3.109375" style="3" customWidth="1"/>
+    <col min="761" max="761" width="5.6640625" style="3" customWidth="1"/>
+    <col min="762" max="762" width="6.44140625" style="3" customWidth="1"/>
     <col min="763" max="763" width="1" style="3" customWidth="1"/>
     <col min="764" max="764" width="3" style="3" customWidth="1"/>
-    <col min="765" max="765" width="7.125" style="3" customWidth="1"/>
-    <col min="766" max="766" width="2.75" style="3" customWidth="1"/>
-    <col min="767" max="767" width="8.625" style="3" customWidth="1"/>
+    <col min="765" max="765" width="7.109375" style="3" customWidth="1"/>
+    <col min="766" max="766" width="2.77734375" style="3" customWidth="1"/>
+    <col min="767" max="767" width="8.6640625" style="3" customWidth="1"/>
     <col min="768" max="778" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="779" max="803" width="9" style="3" customWidth="1"/>
     <col min="804" max="1003" width="9" style="3"/>
-    <col min="1004" max="1004" width="1.625" style="3" customWidth="1"/>
-    <col min="1005" max="1005" width="1.75" style="3" customWidth="1"/>
-    <col min="1006" max="1006" width="7.375" style="3" customWidth="1"/>
-    <col min="1007" max="1007" width="4.125" style="3" customWidth="1"/>
-    <col min="1008" max="1008" width="2.375" style="3" customWidth="1"/>
+    <col min="1004" max="1004" width="1.6640625" style="3" customWidth="1"/>
+    <col min="1005" max="1005" width="1.77734375" style="3" customWidth="1"/>
+    <col min="1006" max="1006" width="7.33203125" style="3" customWidth="1"/>
+    <col min="1007" max="1007" width="4.109375" style="3" customWidth="1"/>
+    <col min="1008" max="1008" width="2.33203125" style="3" customWidth="1"/>
     <col min="1009" max="1009" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1010" max="1010" width="2.125" style="3" customWidth="1"/>
-    <col min="1011" max="1011" width="2.625" style="3" customWidth="1"/>
+    <col min="1010" max="1010" width="2.109375" style="3" customWidth="1"/>
+    <col min="1011" max="1011" width="2.6640625" style="3" customWidth="1"/>
     <col min="1012" max="1012" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1013" max="1013" width="9.25" style="3" customWidth="1"/>
-    <col min="1014" max="1014" width="12.25" style="3" customWidth="1"/>
-    <col min="1015" max="1015" width="9.125" style="3" customWidth="1"/>
-    <col min="1016" max="1016" width="3.125" style="3" customWidth="1"/>
-    <col min="1017" max="1017" width="5.625" style="3" customWidth="1"/>
-    <col min="1018" max="1018" width="6.5" style="3" customWidth="1"/>
+    <col min="1013" max="1013" width="9.21875" style="3" customWidth="1"/>
+    <col min="1014" max="1014" width="12.21875" style="3" customWidth="1"/>
+    <col min="1015" max="1015" width="9.109375" style="3" customWidth="1"/>
+    <col min="1016" max="1016" width="3.109375" style="3" customWidth="1"/>
+    <col min="1017" max="1017" width="5.6640625" style="3" customWidth="1"/>
+    <col min="1018" max="1018" width="6.44140625" style="3" customWidth="1"/>
     <col min="1019" max="1019" width="1" style="3" customWidth="1"/>
     <col min="1020" max="1020" width="3" style="3" customWidth="1"/>
-    <col min="1021" max="1021" width="7.125" style="3" customWidth="1"/>
-    <col min="1022" max="1022" width="2.75" style="3" customWidth="1"/>
-    <col min="1023" max="1023" width="8.625" style="3" customWidth="1"/>
+    <col min="1021" max="1021" width="7.109375" style="3" customWidth="1"/>
+    <col min="1022" max="1022" width="2.77734375" style="3" customWidth="1"/>
+    <col min="1023" max="1023" width="8.6640625" style="3" customWidth="1"/>
     <col min="1024" max="1034" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="1035" max="1059" width="9" style="3" customWidth="1"/>
     <col min="1060" max="1259" width="9" style="3"/>
-    <col min="1260" max="1260" width="1.625" style="3" customWidth="1"/>
-    <col min="1261" max="1261" width="1.75" style="3" customWidth="1"/>
-    <col min="1262" max="1262" width="7.375" style="3" customWidth="1"/>
-    <col min="1263" max="1263" width="4.125" style="3" customWidth="1"/>
-    <col min="1264" max="1264" width="2.375" style="3" customWidth="1"/>
+    <col min="1260" max="1260" width="1.6640625" style="3" customWidth="1"/>
+    <col min="1261" max="1261" width="1.77734375" style="3" customWidth="1"/>
+    <col min="1262" max="1262" width="7.33203125" style="3" customWidth="1"/>
+    <col min="1263" max="1263" width="4.109375" style="3" customWidth="1"/>
+    <col min="1264" max="1264" width="2.33203125" style="3" customWidth="1"/>
     <col min="1265" max="1265" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1266" max="1266" width="2.125" style="3" customWidth="1"/>
-    <col min="1267" max="1267" width="2.625" style="3" customWidth="1"/>
+    <col min="1266" max="1266" width="2.109375" style="3" customWidth="1"/>
+    <col min="1267" max="1267" width="2.6640625" style="3" customWidth="1"/>
     <col min="1268" max="1268" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1269" max="1269" width="9.25" style="3" customWidth="1"/>
-    <col min="1270" max="1270" width="12.25" style="3" customWidth="1"/>
-    <col min="1271" max="1271" width="9.125" style="3" customWidth="1"/>
-    <col min="1272" max="1272" width="3.125" style="3" customWidth="1"/>
-    <col min="1273" max="1273" width="5.625" style="3" customWidth="1"/>
-    <col min="1274" max="1274" width="6.5" style="3" customWidth="1"/>
+    <col min="1269" max="1269" width="9.21875" style="3" customWidth="1"/>
+    <col min="1270" max="1270" width="12.21875" style="3" customWidth="1"/>
+    <col min="1271" max="1271" width="9.109375" style="3" customWidth="1"/>
+    <col min="1272" max="1272" width="3.109375" style="3" customWidth="1"/>
+    <col min="1273" max="1273" width="5.6640625" style="3" customWidth="1"/>
+    <col min="1274" max="1274" width="6.44140625" style="3" customWidth="1"/>
     <col min="1275" max="1275" width="1" style="3" customWidth="1"/>
     <col min="1276" max="1276" width="3" style="3" customWidth="1"/>
-    <col min="1277" max="1277" width="7.125" style="3" customWidth="1"/>
-    <col min="1278" max="1278" width="2.75" style="3" customWidth="1"/>
-    <col min="1279" max="1279" width="8.625" style="3" customWidth="1"/>
+    <col min="1277" max="1277" width="7.109375" style="3" customWidth="1"/>
+    <col min="1278" max="1278" width="2.77734375" style="3" customWidth="1"/>
+    <col min="1279" max="1279" width="8.6640625" style="3" customWidth="1"/>
     <col min="1280" max="1290" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="1291" max="1315" width="9" style="3" customWidth="1"/>
     <col min="1316" max="1515" width="9" style="3"/>
-    <col min="1516" max="1516" width="1.625" style="3" customWidth="1"/>
-    <col min="1517" max="1517" width="1.75" style="3" customWidth="1"/>
-    <col min="1518" max="1518" width="7.375" style="3" customWidth="1"/>
-    <col min="1519" max="1519" width="4.125" style="3" customWidth="1"/>
-    <col min="1520" max="1520" width="2.375" style="3" customWidth="1"/>
+    <col min="1516" max="1516" width="1.6640625" style="3" customWidth="1"/>
+    <col min="1517" max="1517" width="1.77734375" style="3" customWidth="1"/>
+    <col min="1518" max="1518" width="7.33203125" style="3" customWidth="1"/>
+    <col min="1519" max="1519" width="4.109375" style="3" customWidth="1"/>
+    <col min="1520" max="1520" width="2.33203125" style="3" customWidth="1"/>
     <col min="1521" max="1521" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1522" max="1522" width="2.125" style="3" customWidth="1"/>
-    <col min="1523" max="1523" width="2.625" style="3" customWidth="1"/>
+    <col min="1522" max="1522" width="2.109375" style="3" customWidth="1"/>
+    <col min="1523" max="1523" width="2.6640625" style="3" customWidth="1"/>
     <col min="1524" max="1524" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1525" max="1525" width="9.25" style="3" customWidth="1"/>
-    <col min="1526" max="1526" width="12.25" style="3" customWidth="1"/>
-    <col min="1527" max="1527" width="9.125" style="3" customWidth="1"/>
-    <col min="1528" max="1528" width="3.125" style="3" customWidth="1"/>
-    <col min="1529" max="1529" width="5.625" style="3" customWidth="1"/>
-    <col min="1530" max="1530" width="6.5" style="3" customWidth="1"/>
+    <col min="1525" max="1525" width="9.21875" style="3" customWidth="1"/>
+    <col min="1526" max="1526" width="12.21875" style="3" customWidth="1"/>
+    <col min="1527" max="1527" width="9.109375" style="3" customWidth="1"/>
+    <col min="1528" max="1528" width="3.109375" style="3" customWidth="1"/>
+    <col min="1529" max="1529" width="5.6640625" style="3" customWidth="1"/>
+    <col min="1530" max="1530" width="6.44140625" style="3" customWidth="1"/>
     <col min="1531" max="1531" width="1" style="3" customWidth="1"/>
     <col min="1532" max="1532" width="3" style="3" customWidth="1"/>
-    <col min="1533" max="1533" width="7.125" style="3" customWidth="1"/>
-    <col min="1534" max="1534" width="2.75" style="3" customWidth="1"/>
-    <col min="1535" max="1535" width="8.625" style="3" customWidth="1"/>
+    <col min="1533" max="1533" width="7.109375" style="3" customWidth="1"/>
+    <col min="1534" max="1534" width="2.77734375" style="3" customWidth="1"/>
+    <col min="1535" max="1535" width="8.6640625" style="3" customWidth="1"/>
     <col min="1536" max="1546" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="1547" max="1571" width="9" style="3" customWidth="1"/>
     <col min="1572" max="1771" width="9" style="3"/>
-    <col min="1772" max="1772" width="1.625" style="3" customWidth="1"/>
-    <col min="1773" max="1773" width="1.75" style="3" customWidth="1"/>
-    <col min="1774" max="1774" width="7.375" style="3" customWidth="1"/>
-    <col min="1775" max="1775" width="4.125" style="3" customWidth="1"/>
-    <col min="1776" max="1776" width="2.375" style="3" customWidth="1"/>
+    <col min="1772" max="1772" width="1.6640625" style="3" customWidth="1"/>
+    <col min="1773" max="1773" width="1.77734375" style="3" customWidth="1"/>
+    <col min="1774" max="1774" width="7.33203125" style="3" customWidth="1"/>
+    <col min="1775" max="1775" width="4.109375" style="3" customWidth="1"/>
+    <col min="1776" max="1776" width="2.33203125" style="3" customWidth="1"/>
     <col min="1777" max="1777" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1778" max="1778" width="2.125" style="3" customWidth="1"/>
-    <col min="1779" max="1779" width="2.625" style="3" customWidth="1"/>
+    <col min="1778" max="1778" width="2.109375" style="3" customWidth="1"/>
+    <col min="1779" max="1779" width="2.6640625" style="3" customWidth="1"/>
     <col min="1780" max="1780" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1781" max="1781" width="9.25" style="3" customWidth="1"/>
-    <col min="1782" max="1782" width="12.25" style="3" customWidth="1"/>
-    <col min="1783" max="1783" width="9.125" style="3" customWidth="1"/>
-    <col min="1784" max="1784" width="3.125" style="3" customWidth="1"/>
-    <col min="1785" max="1785" width="5.625" style="3" customWidth="1"/>
-    <col min="1786" max="1786" width="6.5" style="3" customWidth="1"/>
+    <col min="1781" max="1781" width="9.21875" style="3" customWidth="1"/>
+    <col min="1782" max="1782" width="12.21875" style="3" customWidth="1"/>
+    <col min="1783" max="1783" width="9.109375" style="3" customWidth="1"/>
+    <col min="1784" max="1784" width="3.109375" style="3" customWidth="1"/>
+    <col min="1785" max="1785" width="5.6640625" style="3" customWidth="1"/>
+    <col min="1786" max="1786" width="6.44140625" style="3" customWidth="1"/>
     <col min="1787" max="1787" width="1" style="3" customWidth="1"/>
     <col min="1788" max="1788" width="3" style="3" customWidth="1"/>
-    <col min="1789" max="1789" width="7.125" style="3" customWidth="1"/>
-    <col min="1790" max="1790" width="2.75" style="3" customWidth="1"/>
-    <col min="1791" max="1791" width="8.625" style="3" customWidth="1"/>
+    <col min="1789" max="1789" width="7.109375" style="3" customWidth="1"/>
+    <col min="1790" max="1790" width="2.77734375" style="3" customWidth="1"/>
+    <col min="1791" max="1791" width="8.6640625" style="3" customWidth="1"/>
     <col min="1792" max="1802" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="1803" max="1827" width="9" style="3" customWidth="1"/>
     <col min="1828" max="2027" width="9" style="3"/>
-    <col min="2028" max="2028" width="1.625" style="3" customWidth="1"/>
-    <col min="2029" max="2029" width="1.75" style="3" customWidth="1"/>
-    <col min="2030" max="2030" width="7.375" style="3" customWidth="1"/>
-    <col min="2031" max="2031" width="4.125" style="3" customWidth="1"/>
-    <col min="2032" max="2032" width="2.375" style="3" customWidth="1"/>
+    <col min="2028" max="2028" width="1.6640625" style="3" customWidth="1"/>
+    <col min="2029" max="2029" width="1.77734375" style="3" customWidth="1"/>
+    <col min="2030" max="2030" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2031" max="2031" width="4.109375" style="3" customWidth="1"/>
+    <col min="2032" max="2032" width="2.33203125" style="3" customWidth="1"/>
     <col min="2033" max="2033" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2034" max="2034" width="2.125" style="3" customWidth="1"/>
-    <col min="2035" max="2035" width="2.625" style="3" customWidth="1"/>
+    <col min="2034" max="2034" width="2.109375" style="3" customWidth="1"/>
+    <col min="2035" max="2035" width="2.6640625" style="3" customWidth="1"/>
     <col min="2036" max="2036" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2037" max="2037" width="9.25" style="3" customWidth="1"/>
-    <col min="2038" max="2038" width="12.25" style="3" customWidth="1"/>
-    <col min="2039" max="2039" width="9.125" style="3" customWidth="1"/>
-    <col min="2040" max="2040" width="3.125" style="3" customWidth="1"/>
-    <col min="2041" max="2041" width="5.625" style="3" customWidth="1"/>
-    <col min="2042" max="2042" width="6.5" style="3" customWidth="1"/>
+    <col min="2037" max="2037" width="9.21875" style="3" customWidth="1"/>
+    <col min="2038" max="2038" width="12.21875" style="3" customWidth="1"/>
+    <col min="2039" max="2039" width="9.109375" style="3" customWidth="1"/>
+    <col min="2040" max="2040" width="3.109375" style="3" customWidth="1"/>
+    <col min="2041" max="2041" width="5.6640625" style="3" customWidth="1"/>
+    <col min="2042" max="2042" width="6.44140625" style="3" customWidth="1"/>
     <col min="2043" max="2043" width="1" style="3" customWidth="1"/>
     <col min="2044" max="2044" width="3" style="3" customWidth="1"/>
-    <col min="2045" max="2045" width="7.125" style="3" customWidth="1"/>
-    <col min="2046" max="2046" width="2.75" style="3" customWidth="1"/>
-    <col min="2047" max="2047" width="8.625" style="3" customWidth="1"/>
+    <col min="2045" max="2045" width="7.109375" style="3" customWidth="1"/>
+    <col min="2046" max="2046" width="2.77734375" style="3" customWidth="1"/>
+    <col min="2047" max="2047" width="8.6640625" style="3" customWidth="1"/>
     <col min="2048" max="2058" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="2059" max="2083" width="9" style="3" customWidth="1"/>
     <col min="2084" max="2283" width="9" style="3"/>
-    <col min="2284" max="2284" width="1.625" style="3" customWidth="1"/>
-    <col min="2285" max="2285" width="1.75" style="3" customWidth="1"/>
-    <col min="2286" max="2286" width="7.375" style="3" customWidth="1"/>
-    <col min="2287" max="2287" width="4.125" style="3" customWidth="1"/>
-    <col min="2288" max="2288" width="2.375" style="3" customWidth="1"/>
+    <col min="2284" max="2284" width="1.6640625" style="3" customWidth="1"/>
+    <col min="2285" max="2285" width="1.77734375" style="3" customWidth="1"/>
+    <col min="2286" max="2286" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2287" max="2287" width="4.109375" style="3" customWidth="1"/>
+    <col min="2288" max="2288" width="2.33203125" style="3" customWidth="1"/>
     <col min="2289" max="2289" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2290" max="2290" width="2.125" style="3" customWidth="1"/>
-    <col min="2291" max="2291" width="2.625" style="3" customWidth="1"/>
+    <col min="2290" max="2290" width="2.109375" style="3" customWidth="1"/>
+    <col min="2291" max="2291" width="2.6640625" style="3" customWidth="1"/>
     <col min="2292" max="2292" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2293" max="2293" width="9.25" style="3" customWidth="1"/>
-    <col min="2294" max="2294" width="12.25" style="3" customWidth="1"/>
-    <col min="2295" max="2295" width="9.125" style="3" customWidth="1"/>
-    <col min="2296" max="2296" width="3.125" style="3" customWidth="1"/>
-    <col min="2297" max="2297" width="5.625" style="3" customWidth="1"/>
-    <col min="2298" max="2298" width="6.5" style="3" customWidth="1"/>
+    <col min="2293" max="2293" width="9.21875" style="3" customWidth="1"/>
+    <col min="2294" max="2294" width="12.21875" style="3" customWidth="1"/>
+    <col min="2295" max="2295" width="9.109375" style="3" customWidth="1"/>
+    <col min="2296" max="2296" width="3.109375" style="3" customWidth="1"/>
+    <col min="2297" max="2297" width="5.6640625" style="3" customWidth="1"/>
+    <col min="2298" max="2298" width="6.44140625" style="3" customWidth="1"/>
     <col min="2299" max="2299" width="1" style="3" customWidth="1"/>
     <col min="2300" max="2300" width="3" style="3" customWidth="1"/>
-    <col min="2301" max="2301" width="7.125" style="3" customWidth="1"/>
-    <col min="2302" max="2302" width="2.75" style="3" customWidth="1"/>
-    <col min="2303" max="2303" width="8.625" style="3" customWidth="1"/>
+    <col min="2301" max="2301" width="7.109375" style="3" customWidth="1"/>
+    <col min="2302" max="2302" width="2.77734375" style="3" customWidth="1"/>
+    <col min="2303" max="2303" width="8.6640625" style="3" customWidth="1"/>
     <col min="2304" max="2314" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="2315" max="2339" width="9" style="3" customWidth="1"/>
     <col min="2340" max="2539" width="9" style="3"/>
-    <col min="2540" max="2540" width="1.625" style="3" customWidth="1"/>
-    <col min="2541" max="2541" width="1.75" style="3" customWidth="1"/>
-    <col min="2542" max="2542" width="7.375" style="3" customWidth="1"/>
-    <col min="2543" max="2543" width="4.125" style="3" customWidth="1"/>
-    <col min="2544" max="2544" width="2.375" style="3" customWidth="1"/>
+    <col min="2540" max="2540" width="1.6640625" style="3" customWidth="1"/>
+    <col min="2541" max="2541" width="1.77734375" style="3" customWidth="1"/>
+    <col min="2542" max="2542" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2543" max="2543" width="4.109375" style="3" customWidth="1"/>
+    <col min="2544" max="2544" width="2.33203125" style="3" customWidth="1"/>
     <col min="2545" max="2545" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2546" max="2546" width="2.125" style="3" customWidth="1"/>
-    <col min="2547" max="2547" width="2.625" style="3" customWidth="1"/>
+    <col min="2546" max="2546" width="2.109375" style="3" customWidth="1"/>
+    <col min="2547" max="2547" width="2.6640625" style="3" customWidth="1"/>
     <col min="2548" max="2548" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2549" max="2549" width="9.25" style="3" customWidth="1"/>
-    <col min="2550" max="2550" width="12.25" style="3" customWidth="1"/>
-    <col min="2551" max="2551" width="9.125" style="3" customWidth="1"/>
-    <col min="2552" max="2552" width="3.125" style="3" customWidth="1"/>
-    <col min="2553" max="2553" width="5.625" style="3" customWidth="1"/>
-    <col min="2554" max="2554" width="6.5" style="3" customWidth="1"/>
+    <col min="2549" max="2549" width="9.21875" style="3" customWidth="1"/>
+    <col min="2550" max="2550" width="12.21875" style="3" customWidth="1"/>
+    <col min="2551" max="2551" width="9.109375" style="3" customWidth="1"/>
+    <col min="2552" max="2552" width="3.109375" style="3" customWidth="1"/>
+    <col min="2553" max="2553" width="5.6640625" style="3" customWidth="1"/>
+    <col min="2554" max="2554" width="6.44140625" style="3" customWidth="1"/>
     <col min="2555" max="2555" width="1" style="3" customWidth="1"/>
     <col min="2556" max="2556" width="3" style="3" customWidth="1"/>
-    <col min="2557" max="2557" width="7.125" style="3" customWidth="1"/>
-    <col min="2558" max="2558" width="2.75" style="3" customWidth="1"/>
-    <col min="2559" max="2559" width="8.625" style="3" customWidth="1"/>
+    <col min="2557" max="2557" width="7.109375" style="3" customWidth="1"/>
+    <col min="2558" max="2558" width="2.77734375" style="3" customWidth="1"/>
+    <col min="2559" max="2559" width="8.6640625" style="3" customWidth="1"/>
     <col min="2560" max="2570" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="2571" max="2595" width="9" style="3" customWidth="1"/>
     <col min="2596" max="2795" width="9" style="3"/>
-    <col min="2796" max="2796" width="1.625" style="3" customWidth="1"/>
-    <col min="2797" max="2797" width="1.75" style="3" customWidth="1"/>
-    <col min="2798" max="2798" width="7.375" style="3" customWidth="1"/>
-    <col min="2799" max="2799" width="4.125" style="3" customWidth="1"/>
-    <col min="2800" max="2800" width="2.375" style="3" customWidth="1"/>
+    <col min="2796" max="2796" width="1.6640625" style="3" customWidth="1"/>
+    <col min="2797" max="2797" width="1.77734375" style="3" customWidth="1"/>
+    <col min="2798" max="2798" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2799" max="2799" width="4.109375" style="3" customWidth="1"/>
+    <col min="2800" max="2800" width="2.33203125" style="3" customWidth="1"/>
     <col min="2801" max="2801" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2802" max="2802" width="2.125" style="3" customWidth="1"/>
-    <col min="2803" max="2803" width="2.625" style="3" customWidth="1"/>
+    <col min="2802" max="2802" width="2.109375" style="3" customWidth="1"/>
+    <col min="2803" max="2803" width="2.6640625" style="3" customWidth="1"/>
     <col min="2804" max="2804" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2805" max="2805" width="9.25" style="3" customWidth="1"/>
-    <col min="2806" max="2806" width="12.25" style="3" customWidth="1"/>
-    <col min="2807" max="2807" width="9.125" style="3" customWidth="1"/>
-    <col min="2808" max="2808" width="3.125" style="3" customWidth="1"/>
-    <col min="2809" max="2809" width="5.625" style="3" customWidth="1"/>
-    <col min="2810" max="2810" width="6.5" style="3" customWidth="1"/>
+    <col min="2805" max="2805" width="9.21875" style="3" customWidth="1"/>
+    <col min="2806" max="2806" width="12.21875" style="3" customWidth="1"/>
+    <col min="2807" max="2807" width="9.109375" style="3" customWidth="1"/>
+    <col min="2808" max="2808" width="3.109375" style="3" customWidth="1"/>
+    <col min="2809" max="2809" width="5.6640625" style="3" customWidth="1"/>
+    <col min="2810" max="2810" width="6.44140625" style="3" customWidth="1"/>
     <col min="2811" max="2811" width="1" style="3" customWidth="1"/>
     <col min="2812" max="2812" width="3" style="3" customWidth="1"/>
-    <col min="2813" max="2813" width="7.125" style="3" customWidth="1"/>
-    <col min="2814" max="2814" width="2.75" style="3" customWidth="1"/>
-    <col min="2815" max="2815" width="8.625" style="3" customWidth="1"/>
+    <col min="2813" max="2813" width="7.109375" style="3" customWidth="1"/>
+    <col min="2814" max="2814" width="2.77734375" style="3" customWidth="1"/>
+    <col min="2815" max="2815" width="8.6640625" style="3" customWidth="1"/>
     <col min="2816" max="2826" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="2827" max="2851" width="9" style="3" customWidth="1"/>
     <col min="2852" max="3051" width="9" style="3"/>
-    <col min="3052" max="3052" width="1.625" style="3" customWidth="1"/>
-    <col min="3053" max="3053" width="1.75" style="3" customWidth="1"/>
-    <col min="3054" max="3054" width="7.375" style="3" customWidth="1"/>
-    <col min="3055" max="3055" width="4.125" style="3" customWidth="1"/>
-    <col min="3056" max="3056" width="2.375" style="3" customWidth="1"/>
+    <col min="3052" max="3052" width="1.6640625" style="3" customWidth="1"/>
+    <col min="3053" max="3053" width="1.77734375" style="3" customWidth="1"/>
+    <col min="3054" max="3054" width="7.33203125" style="3" customWidth="1"/>
+    <col min="3055" max="3055" width="4.109375" style="3" customWidth="1"/>
+    <col min="3056" max="3056" width="2.33203125" style="3" customWidth="1"/>
     <col min="3057" max="3057" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3058" max="3058" width="2.125" style="3" customWidth="1"/>
-    <col min="3059" max="3059" width="2.625" style="3" customWidth="1"/>
+    <col min="3058" max="3058" width="2.109375" style="3" customWidth="1"/>
+    <col min="3059" max="3059" width="2.6640625" style="3" customWidth="1"/>
     <col min="3060" max="3060" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3061" max="3061" width="9.25" style="3" customWidth="1"/>
-    <col min="3062" max="3062" width="12.25" style="3" customWidth="1"/>
-    <col min="3063" max="3063" width="9.125" style="3" customWidth="1"/>
-    <col min="3064" max="3064" width="3.125" style="3" customWidth="1"/>
-    <col min="3065" max="3065" width="5.625" style="3" customWidth="1"/>
-    <col min="3066" max="3066" width="6.5" style="3" customWidth="1"/>
+    <col min="3061" max="3061" width="9.21875" style="3" customWidth="1"/>
+    <col min="3062" max="3062" width="12.21875" style="3" customWidth="1"/>
+    <col min="3063" max="3063" width="9.109375" style="3" customWidth="1"/>
+    <col min="3064" max="3064" width="3.109375" style="3" customWidth="1"/>
+    <col min="3065" max="3065" width="5.6640625" style="3" customWidth="1"/>
+    <col min="3066" max="3066" width="6.44140625" style="3" customWidth="1"/>
     <col min="3067" max="3067" width="1" style="3" customWidth="1"/>
     <col min="3068" max="3068" width="3" style="3" customWidth="1"/>
-    <col min="3069" max="3069" width="7.125" style="3" customWidth="1"/>
-    <col min="3070" max="3070" width="2.75" style="3" customWidth="1"/>
-    <col min="3071" max="3071" width="8.625" style="3" customWidth="1"/>
+    <col min="3069" max="3069" width="7.109375" style="3" customWidth="1"/>
+    <col min="3070" max="3070" width="2.77734375" style="3" customWidth="1"/>
+    <col min="3071" max="3071" width="8.6640625" style="3" customWidth="1"/>
     <col min="3072" max="3082" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="3083" max="3107" width="9" style="3" customWidth="1"/>
     <col min="3108" max="3307" width="9" style="3"/>
-    <col min="3308" max="3308" width="1.625" style="3" customWidth="1"/>
-    <col min="3309" max="3309" width="1.75" style="3" customWidth="1"/>
-    <col min="3310" max="3310" width="7.375" style="3" customWidth="1"/>
-    <col min="3311" max="3311" width="4.125" style="3" customWidth="1"/>
-    <col min="3312" max="3312" width="2.375" style="3" customWidth="1"/>
+    <col min="3308" max="3308" width="1.6640625" style="3" customWidth="1"/>
+    <col min="3309" max="3309" width="1.77734375" style="3" customWidth="1"/>
+    <col min="3310" max="3310" width="7.33203125" style="3" customWidth="1"/>
+    <col min="3311" max="3311" width="4.109375" style="3" customWidth="1"/>
+    <col min="3312" max="3312" width="2.33203125" style="3" customWidth="1"/>
     <col min="3313" max="3313" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3314" max="3314" width="2.125" style="3" customWidth="1"/>
-    <col min="3315" max="3315" width="2.625" style="3" customWidth="1"/>
+    <col min="3314" max="3314" width="2.109375" style="3" customWidth="1"/>
+    <col min="3315" max="3315" width="2.6640625" style="3" customWidth="1"/>
     <col min="3316" max="3316" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3317" max="3317" width="9.25" style="3" customWidth="1"/>
-    <col min="3318" max="3318" width="12.25" style="3" customWidth="1"/>
-    <col min="3319" max="3319" width="9.125" style="3" customWidth="1"/>
-    <col min="3320" max="3320" width="3.125" style="3" customWidth="1"/>
-    <col min="3321" max="3321" width="5.625" style="3" customWidth="1"/>
-    <col min="3322" max="3322" width="6.5" style="3" customWidth="1"/>
+    <col min="3317" max="3317" width="9.21875" style="3" customWidth="1"/>
+    <col min="3318" max="3318" width="12.21875" style="3" customWidth="1"/>
+    <col min="3319" max="3319" width="9.109375" style="3" customWidth="1"/>
+    <col min="3320" max="3320" width="3.109375" style="3" customWidth="1"/>
+    <col min="3321" max="3321" width="5.6640625" style="3" customWidth="1"/>
+    <col min="3322" max="3322" width="6.44140625" style="3" customWidth="1"/>
     <col min="3323" max="3323" width="1" style="3" customWidth="1"/>
     <col min="3324" max="3324" width="3" style="3" customWidth="1"/>
-    <col min="3325" max="3325" width="7.125" style="3" customWidth="1"/>
-    <col min="3326" max="3326" width="2.75" style="3" customWidth="1"/>
-    <col min="3327" max="3327" width="8.625" style="3" customWidth="1"/>
+    <col min="3325" max="3325" width="7.109375" style="3" customWidth="1"/>
+    <col min="3326" max="3326" width="2.77734375" style="3" customWidth="1"/>
+    <col min="3327" max="3327" width="8.6640625" style="3" customWidth="1"/>
     <col min="3328" max="3338" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="3339" max="3363" width="9" style="3" customWidth="1"/>
     <col min="3364" max="3563" width="9" style="3"/>
-    <col min="3564" max="3564" width="1.625" style="3" customWidth="1"/>
-    <col min="3565" max="3565" width="1.75" style="3" customWidth="1"/>
-    <col min="3566" max="3566" width="7.375" style="3" customWidth="1"/>
-    <col min="3567" max="3567" width="4.125" style="3" customWidth="1"/>
-    <col min="3568" max="3568" width="2.375" style="3" customWidth="1"/>
+    <col min="3564" max="3564" width="1.6640625" style="3" customWidth="1"/>
+    <col min="3565" max="3565" width="1.77734375" style="3" customWidth="1"/>
+    <col min="3566" max="3566" width="7.33203125" style="3" customWidth="1"/>
+    <col min="3567" max="3567" width="4.109375" style="3" customWidth="1"/>
+    <col min="3568" max="3568" width="2.33203125" style="3" customWidth="1"/>
     <col min="3569" max="3569" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3570" max="3570" width="2.125" style="3" customWidth="1"/>
-    <col min="3571" max="3571" width="2.625" style="3" customWidth="1"/>
+    <col min="3570" max="3570" width="2.109375" style="3" customWidth="1"/>
+    <col min="3571" max="3571" width="2.6640625" style="3" customWidth="1"/>
     <col min="3572" max="3572" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3573" max="3573" width="9.25" style="3" customWidth="1"/>
-    <col min="3574" max="3574" width="12.25" style="3" customWidth="1"/>
-    <col min="3575" max="3575" width="9.125" style="3" customWidth="1"/>
-    <col min="3576" max="3576" width="3.125" style="3" customWidth="1"/>
-    <col min="3577" max="3577" width="5.625" style="3" customWidth="1"/>
-    <col min="3578" max="3578" width="6.5" style="3" customWidth="1"/>
+    <col min="3573" max="3573" width="9.21875" style="3" customWidth="1"/>
+    <col min="3574" max="3574" width="12.21875" style="3" customWidth="1"/>
+    <col min="3575" max="3575" width="9.109375" style="3" customWidth="1"/>
+    <col min="3576" max="3576" width="3.109375" style="3" customWidth="1"/>
+    <col min="3577" max="3577" width="5.6640625" style="3" customWidth="1"/>
+    <col min="3578" max="3578" width="6.44140625" style="3" customWidth="1"/>
     <col min="3579" max="3579" width="1" style="3" customWidth="1"/>
     <col min="3580" max="3580" width="3" style="3" customWidth="1"/>
-    <col min="3581" max="3581" width="7.125" style="3" customWidth="1"/>
-    <col min="3582" max="3582" width="2.75" style="3" customWidth="1"/>
-    <col min="3583" max="3583" width="8.625" style="3" customWidth="1"/>
+    <col min="3581" max="3581" width="7.109375" style="3" customWidth="1"/>
+    <col min="3582" max="3582" width="2.77734375" style="3" customWidth="1"/>
+    <col min="3583" max="3583" width="8.6640625" style="3" customWidth="1"/>
     <col min="3584" max="3594" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="3595" max="3619" width="9" style="3" customWidth="1"/>
     <col min="3620" max="3819" width="9" style="3"/>
-    <col min="3820" max="3820" width="1.625" style="3" customWidth="1"/>
-    <col min="3821" max="3821" width="1.75" style="3" customWidth="1"/>
-    <col min="3822" max="3822" width="7.375" style="3" customWidth="1"/>
-    <col min="3823" max="3823" width="4.125" style="3" customWidth="1"/>
-    <col min="3824" max="3824" width="2.375" style="3" customWidth="1"/>
+    <col min="3820" max="3820" width="1.6640625" style="3" customWidth="1"/>
+    <col min="3821" max="3821" width="1.77734375" style="3" customWidth="1"/>
+    <col min="3822" max="3822" width="7.33203125" style="3" customWidth="1"/>
+    <col min="3823" max="3823" width="4.109375" style="3" customWidth="1"/>
+    <col min="3824" max="3824" width="2.33203125" style="3" customWidth="1"/>
     <col min="3825" max="3825" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3826" max="3826" width="2.125" style="3" customWidth="1"/>
-    <col min="3827" max="3827" width="2.625" style="3" customWidth="1"/>
+    <col min="3826" max="3826" width="2.109375" style="3" customWidth="1"/>
+    <col min="3827" max="3827" width="2.6640625" style="3" customWidth="1"/>
     <col min="3828" max="3828" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3829" max="3829" width="9.25" style="3" customWidth="1"/>
-    <col min="3830" max="3830" width="12.25" style="3" customWidth="1"/>
-    <col min="3831" max="3831" width="9.125" style="3" customWidth="1"/>
-    <col min="3832" max="3832" width="3.125" style="3" customWidth="1"/>
-    <col min="3833" max="3833" width="5.625" style="3" customWidth="1"/>
-    <col min="3834" max="3834" width="6.5" style="3" customWidth="1"/>
+    <col min="3829" max="3829" width="9.21875" style="3" customWidth="1"/>
+    <col min="3830" max="3830" width="12.21875" style="3" customWidth="1"/>
+    <col min="3831" max="3831" width="9.109375" style="3" customWidth="1"/>
+    <col min="3832" max="3832" width="3.109375" style="3" customWidth="1"/>
+    <col min="3833" max="3833" width="5.6640625" style="3" customWidth="1"/>
+    <col min="3834" max="3834" width="6.44140625" style="3" customWidth="1"/>
     <col min="3835" max="3835" width="1" style="3" customWidth="1"/>
     <col min="3836" max="3836" width="3" style="3" customWidth="1"/>
-    <col min="3837" max="3837" width="7.125" style="3" customWidth="1"/>
-    <col min="3838" max="3838" width="2.75" style="3" customWidth="1"/>
-    <col min="3839" max="3839" width="8.625" style="3" customWidth="1"/>
+    <col min="3837" max="3837" width="7.109375" style="3" customWidth="1"/>
+    <col min="3838" max="3838" width="2.77734375" style="3" customWidth="1"/>
+    <col min="3839" max="3839" width="8.6640625" style="3" customWidth="1"/>
     <col min="3840" max="3850" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="3851" max="3875" width="9" style="3" customWidth="1"/>
     <col min="3876" max="4075" width="9" style="3"/>
-    <col min="4076" max="4076" width="1.625" style="3" customWidth="1"/>
-    <col min="4077" max="4077" width="1.75" style="3" customWidth="1"/>
-    <col min="4078" max="4078" width="7.375" style="3" customWidth="1"/>
-    <col min="4079" max="4079" width="4.125" style="3" customWidth="1"/>
-    <col min="4080" max="4080" width="2.375" style="3" customWidth="1"/>
+    <col min="4076" max="4076" width="1.6640625" style="3" customWidth="1"/>
+    <col min="4077" max="4077" width="1.77734375" style="3" customWidth="1"/>
+    <col min="4078" max="4078" width="7.33203125" style="3" customWidth="1"/>
+    <col min="4079" max="4079" width="4.109375" style="3" customWidth="1"/>
+    <col min="4080" max="4080" width="2.33203125" style="3" customWidth="1"/>
     <col min="4081" max="4081" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4082" max="4082" width="2.125" style="3" customWidth="1"/>
-    <col min="4083" max="4083" width="2.625" style="3" customWidth="1"/>
+    <col min="4082" max="4082" width="2.109375" style="3" customWidth="1"/>
+    <col min="4083" max="4083" width="2.6640625" style="3" customWidth="1"/>
     <col min="4084" max="4084" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4085" max="4085" width="9.25" style="3" customWidth="1"/>
-    <col min="4086" max="4086" width="12.25" style="3" customWidth="1"/>
-    <col min="4087" max="4087" width="9.125" style="3" customWidth="1"/>
-    <col min="4088" max="4088" width="3.125" style="3" customWidth="1"/>
-    <col min="4089" max="4089" width="5.625" style="3" customWidth="1"/>
-    <col min="4090" max="4090" width="6.5" style="3" customWidth="1"/>
+    <col min="4085" max="4085" width="9.21875" style="3" customWidth="1"/>
+    <col min="4086" max="4086" width="12.21875" style="3" customWidth="1"/>
+    <col min="4087" max="4087" width="9.109375" style="3" customWidth="1"/>
+    <col min="4088" max="4088" width="3.109375" style="3" customWidth="1"/>
+    <col min="4089" max="4089" width="5.6640625" style="3" customWidth="1"/>
+    <col min="4090" max="4090" width="6.44140625" style="3" customWidth="1"/>
     <col min="4091" max="4091" width="1" style="3" customWidth="1"/>
     <col min="4092" max="4092" width="3" style="3" customWidth="1"/>
-    <col min="4093" max="4093" width="7.125" style="3" customWidth="1"/>
-    <col min="4094" max="4094" width="2.75" style="3" customWidth="1"/>
-    <col min="4095" max="4095" width="8.625" style="3" customWidth="1"/>
+    <col min="4093" max="4093" width="7.109375" style="3" customWidth="1"/>
+    <col min="4094" max="4094" width="2.77734375" style="3" customWidth="1"/>
+    <col min="4095" max="4095" width="8.6640625" style="3" customWidth="1"/>
     <col min="4096" max="4106" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="4107" max="4131" width="9" style="3" customWidth="1"/>
     <col min="4132" max="4331" width="9" style="3"/>
-    <col min="4332" max="4332" width="1.625" style="3" customWidth="1"/>
-    <col min="4333" max="4333" width="1.75" style="3" customWidth="1"/>
-    <col min="4334" max="4334" width="7.375" style="3" customWidth="1"/>
-    <col min="4335" max="4335" width="4.125" style="3" customWidth="1"/>
-    <col min="4336" max="4336" width="2.375" style="3" customWidth="1"/>
+    <col min="4332" max="4332" width="1.6640625" style="3" customWidth="1"/>
+    <col min="4333" max="4333" width="1.77734375" style="3" customWidth="1"/>
+    <col min="4334" max="4334" width="7.33203125" style="3" customWidth="1"/>
+    <col min="4335" max="4335" width="4.109375" style="3" customWidth="1"/>
+    <col min="4336" max="4336" width="2.33203125" style="3" customWidth="1"/>
     <col min="4337" max="4337" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4338" max="4338" width="2.125" style="3" customWidth="1"/>
-    <col min="4339" max="4339" width="2.625" style="3" customWidth="1"/>
+    <col min="4338" max="4338" width="2.109375" style="3" customWidth="1"/>
+    <col min="4339" max="4339" width="2.6640625" style="3" customWidth="1"/>
     <col min="4340" max="4340" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4341" max="4341" width="9.25" style="3" customWidth="1"/>
-    <col min="4342" max="4342" width="12.25" style="3" customWidth="1"/>
-    <col min="4343" max="4343" width="9.125" style="3" customWidth="1"/>
-    <col min="4344" max="4344" width="3.125" style="3" customWidth="1"/>
-    <col min="4345" max="4345" width="5.625" style="3" customWidth="1"/>
-    <col min="4346" max="4346" width="6.5" style="3" customWidth="1"/>
+    <col min="4341" max="4341" width="9.21875" style="3" customWidth="1"/>
+    <col min="4342" max="4342" width="12.21875" style="3" customWidth="1"/>
+    <col min="4343" max="4343" width="9.109375" style="3" customWidth="1"/>
+    <col min="4344" max="4344" width="3.109375" style="3" customWidth="1"/>
+    <col min="4345" max="4345" width="5.6640625" style="3" customWidth="1"/>
+    <col min="4346" max="4346" width="6.44140625" style="3" customWidth="1"/>
     <col min="4347" max="4347" width="1" style="3" customWidth="1"/>
     <col min="4348" max="4348" width="3" style="3" customWidth="1"/>
-    <col min="4349" max="4349" width="7.125" style="3" customWidth="1"/>
-    <col min="4350" max="4350" width="2.75" style="3" customWidth="1"/>
-    <col min="4351" max="4351" width="8.625" style="3" customWidth="1"/>
+    <col min="4349" max="4349" width="7.109375" style="3" customWidth="1"/>
+    <col min="4350" max="4350" width="2.77734375" style="3" customWidth="1"/>
+    <col min="4351" max="4351" width="8.6640625" style="3" customWidth="1"/>
     <col min="4352" max="4362" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="4363" max="4387" width="9" style="3" customWidth="1"/>
     <col min="4388" max="4587" width="9" style="3"/>
-    <col min="4588" max="4588" width="1.625" style="3" customWidth="1"/>
-    <col min="4589" max="4589" width="1.75" style="3" customWidth="1"/>
-    <col min="4590" max="4590" width="7.375" style="3" customWidth="1"/>
-    <col min="4591" max="4591" width="4.125" style="3" customWidth="1"/>
-    <col min="4592" max="4592" width="2.375" style="3" customWidth="1"/>
+    <col min="4588" max="4588" width="1.6640625" style="3" customWidth="1"/>
+    <col min="4589" max="4589" width="1.77734375" style="3" customWidth="1"/>
+    <col min="4590" max="4590" width="7.33203125" style="3" customWidth="1"/>
+    <col min="4591" max="4591" width="4.109375" style="3" customWidth="1"/>
+    <col min="4592" max="4592" width="2.33203125" style="3" customWidth="1"/>
     <col min="4593" max="4593" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4594" max="4594" width="2.125" style="3" customWidth="1"/>
-    <col min="4595" max="4595" width="2.625" style="3" customWidth="1"/>
+    <col min="4594" max="4594" width="2.109375" style="3" customWidth="1"/>
+    <col min="4595" max="4595" width="2.6640625" style="3" customWidth="1"/>
     <col min="4596" max="4596" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4597" max="4597" width="9.25" style="3" customWidth="1"/>
-    <col min="4598" max="4598" width="12.25" style="3" customWidth="1"/>
-    <col min="4599" max="4599" width="9.125" style="3" customWidth="1"/>
-    <col min="4600" max="4600" width="3.125" style="3" customWidth="1"/>
-    <col min="4601" max="4601" width="5.625" style="3" customWidth="1"/>
-    <col min="4602" max="4602" width="6.5" style="3" customWidth="1"/>
+    <col min="4597" max="4597" width="9.21875" style="3" customWidth="1"/>
+    <col min="4598" max="4598" width="12.21875" style="3" customWidth="1"/>
+    <col min="4599" max="4599" width="9.109375" style="3" customWidth="1"/>
+    <col min="4600" max="4600" width="3.109375" style="3" customWidth="1"/>
+    <col min="4601" max="4601" width="5.6640625" style="3" customWidth="1"/>
+    <col min="4602" max="4602" width="6.44140625" style="3" customWidth="1"/>
     <col min="4603" max="4603" width="1" style="3" customWidth="1"/>
     <col min="4604" max="4604" width="3" style="3" customWidth="1"/>
-    <col min="4605" max="4605" width="7.125" style="3" customWidth="1"/>
-    <col min="4606" max="4606" width="2.75" style="3" customWidth="1"/>
-    <col min="4607" max="4607" width="8.625" style="3" customWidth="1"/>
+    <col min="4605" max="4605" width="7.109375" style="3" customWidth="1"/>
+    <col min="4606" max="4606" width="2.77734375" style="3" customWidth="1"/>
+    <col min="4607" max="4607" width="8.6640625" style="3" customWidth="1"/>
     <col min="4608" max="4618" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="4619" max="4643" width="9" style="3" customWidth="1"/>
     <col min="4644" max="4843" width="9" style="3"/>
-    <col min="4844" max="4844" width="1.625" style="3" customWidth="1"/>
-    <col min="4845" max="4845" width="1.75" style="3" customWidth="1"/>
-    <col min="4846" max="4846" width="7.375" style="3" customWidth="1"/>
-    <col min="4847" max="4847" width="4.125" style="3" customWidth="1"/>
-    <col min="4848" max="4848" width="2.375" style="3" customWidth="1"/>
+    <col min="4844" max="4844" width="1.6640625" style="3" customWidth="1"/>
+    <col min="4845" max="4845" width="1.77734375" style="3" customWidth="1"/>
+    <col min="4846" max="4846" width="7.33203125" style="3" customWidth="1"/>
+    <col min="4847" max="4847" width="4.109375" style="3" customWidth="1"/>
+    <col min="4848" max="4848" width="2.33203125" style="3" customWidth="1"/>
     <col min="4849" max="4849" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4850" max="4850" width="2.125" style="3" customWidth="1"/>
-    <col min="4851" max="4851" width="2.625" style="3" customWidth="1"/>
+    <col min="4850" max="4850" width="2.109375" style="3" customWidth="1"/>
+    <col min="4851" max="4851" width="2.6640625" style="3" customWidth="1"/>
     <col min="4852" max="4852" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4853" max="4853" width="9.25" style="3" customWidth="1"/>
-    <col min="4854" max="4854" width="12.25" style="3" customWidth="1"/>
-    <col min="4855" max="4855" width="9.125" style="3" customWidth="1"/>
-    <col min="4856" max="4856" width="3.125" style="3" customWidth="1"/>
-    <col min="4857" max="4857" width="5.625" style="3" customWidth="1"/>
-    <col min="4858" max="4858" width="6.5" style="3" customWidth="1"/>
+    <col min="4853" max="4853" width="9.21875" style="3" customWidth="1"/>
+    <col min="4854" max="4854" width="12.21875" style="3" customWidth="1"/>
+    <col min="4855" max="4855" width="9.109375" style="3" customWidth="1"/>
+    <col min="4856" max="4856" width="3.109375" style="3" customWidth="1"/>
+    <col min="4857" max="4857" width="5.6640625" style="3" customWidth="1"/>
+    <col min="4858" max="4858" width="6.44140625" style="3" customWidth="1"/>
     <col min="4859" max="4859" width="1" style="3" customWidth="1"/>
     <col min="4860" max="4860" width="3" style="3" customWidth="1"/>
-    <col min="4861" max="4861" width="7.125" style="3" customWidth="1"/>
-    <col min="4862" max="4862" width="2.75" style="3" customWidth="1"/>
-    <col min="4863" max="4863" width="8.625" style="3" customWidth="1"/>
+    <col min="4861" max="4861" width="7.109375" style="3" customWidth="1"/>
+    <col min="4862" max="4862" width="2.77734375" style="3" customWidth="1"/>
+    <col min="4863" max="4863" width="8.6640625" style="3" customWidth="1"/>
     <col min="4864" max="4874" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="4875" max="4899" width="9" style="3" customWidth="1"/>
     <col min="4900" max="5099" width="9" style="3"/>
-    <col min="5100" max="5100" width="1.625" style="3" customWidth="1"/>
-    <col min="5101" max="5101" width="1.75" style="3" customWidth="1"/>
-    <col min="5102" max="5102" width="7.375" style="3" customWidth="1"/>
-    <col min="5103" max="5103" width="4.125" style="3" customWidth="1"/>
-    <col min="5104" max="5104" width="2.375" style="3" customWidth="1"/>
+    <col min="5100" max="5100" width="1.6640625" style="3" customWidth="1"/>
+    <col min="5101" max="5101" width="1.77734375" style="3" customWidth="1"/>
+    <col min="5102" max="5102" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5103" max="5103" width="4.109375" style="3" customWidth="1"/>
+    <col min="5104" max="5104" width="2.33203125" style="3" customWidth="1"/>
     <col min="5105" max="5105" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5106" max="5106" width="2.125" style="3" customWidth="1"/>
-    <col min="5107" max="5107" width="2.625" style="3" customWidth="1"/>
+    <col min="5106" max="5106" width="2.109375" style="3" customWidth="1"/>
+    <col min="5107" max="5107" width="2.6640625" style="3" customWidth="1"/>
     <col min="5108" max="5108" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5109" max="5109" width="9.25" style="3" customWidth="1"/>
-    <col min="5110" max="5110" width="12.25" style="3" customWidth="1"/>
-    <col min="5111" max="5111" width="9.125" style="3" customWidth="1"/>
-    <col min="5112" max="5112" width="3.125" style="3" customWidth="1"/>
-    <col min="5113" max="5113" width="5.625" style="3" customWidth="1"/>
-    <col min="5114" max="5114" width="6.5" style="3" customWidth="1"/>
+    <col min="5109" max="5109" width="9.21875" style="3" customWidth="1"/>
+    <col min="5110" max="5110" width="12.21875" style="3" customWidth="1"/>
+    <col min="5111" max="5111" width="9.109375" style="3" customWidth="1"/>
+    <col min="5112" max="5112" width="3.109375" style="3" customWidth="1"/>
+    <col min="5113" max="5113" width="5.6640625" style="3" customWidth="1"/>
+    <col min="5114" max="5114" width="6.44140625" style="3" customWidth="1"/>
     <col min="5115" max="5115" width="1" style="3" customWidth="1"/>
     <col min="5116" max="5116" width="3" style="3" customWidth="1"/>
-    <col min="5117" max="5117" width="7.125" style="3" customWidth="1"/>
-    <col min="5118" max="5118" width="2.75" style="3" customWidth="1"/>
-    <col min="5119" max="5119" width="8.625" style="3" customWidth="1"/>
+    <col min="5117" max="5117" width="7.109375" style="3" customWidth="1"/>
+    <col min="5118" max="5118" width="2.77734375" style="3" customWidth="1"/>
+    <col min="5119" max="5119" width="8.6640625" style="3" customWidth="1"/>
     <col min="5120" max="5130" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="5131" max="5155" width="9" style="3" customWidth="1"/>
     <col min="5156" max="5355" width="9" style="3"/>
-    <col min="5356" max="5356" width="1.625" style="3" customWidth="1"/>
-    <col min="5357" max="5357" width="1.75" style="3" customWidth="1"/>
-    <col min="5358" max="5358" width="7.375" style="3" customWidth="1"/>
-    <col min="5359" max="5359" width="4.125" style="3" customWidth="1"/>
-    <col min="5360" max="5360" width="2.375" style="3" customWidth="1"/>
+    <col min="5356" max="5356" width="1.6640625" style="3" customWidth="1"/>
+    <col min="5357" max="5357" width="1.77734375" style="3" customWidth="1"/>
+    <col min="5358" max="5358" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5359" max="5359" width="4.109375" style="3" customWidth="1"/>
+    <col min="5360" max="5360" width="2.33203125" style="3" customWidth="1"/>
     <col min="5361" max="5361" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5362" max="5362" width="2.125" style="3" customWidth="1"/>
-    <col min="5363" max="5363" width="2.625" style="3" customWidth="1"/>
+    <col min="5362" max="5362" width="2.109375" style="3" customWidth="1"/>
+    <col min="5363" max="5363" width="2.6640625" style="3" customWidth="1"/>
     <col min="5364" max="5364" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5365" max="5365" width="9.25" style="3" customWidth="1"/>
-    <col min="5366" max="5366" width="12.25" style="3" customWidth="1"/>
-    <col min="5367" max="5367" width="9.125" style="3" customWidth="1"/>
-    <col min="5368" max="5368" width="3.125" style="3" customWidth="1"/>
-    <col min="5369" max="5369" width="5.625" style="3" customWidth="1"/>
-    <col min="5370" max="5370" width="6.5" style="3" customWidth="1"/>
+    <col min="5365" max="5365" width="9.21875" style="3" customWidth="1"/>
+    <col min="5366" max="5366" width="12.21875" style="3" customWidth="1"/>
+    <col min="5367" max="5367" width="9.109375" style="3" customWidth="1"/>
+    <col min="5368" max="5368" width="3.109375" style="3" customWidth="1"/>
+    <col min="5369" max="5369" width="5.6640625" style="3" customWidth="1"/>
+    <col min="5370" max="5370" width="6.44140625" style="3" customWidth="1"/>
     <col min="5371" max="5371" width="1" style="3" customWidth="1"/>
     <col min="5372" max="5372" width="3" style="3" customWidth="1"/>
-    <col min="5373" max="5373" width="7.125" style="3" customWidth="1"/>
-    <col min="5374" max="5374" width="2.75" style="3" customWidth="1"/>
-    <col min="5375" max="5375" width="8.625" style="3" customWidth="1"/>
+    <col min="5373" max="5373" width="7.109375" style="3" customWidth="1"/>
+    <col min="5374" max="5374" width="2.77734375" style="3" customWidth="1"/>
+    <col min="5375" max="5375" width="8.6640625" style="3" customWidth="1"/>
     <col min="5376" max="5386" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="5387" max="5411" width="9" style="3" customWidth="1"/>
     <col min="5412" max="5611" width="9" style="3"/>
-    <col min="5612" max="5612" width="1.625" style="3" customWidth="1"/>
-    <col min="5613" max="5613" width="1.75" style="3" customWidth="1"/>
-    <col min="5614" max="5614" width="7.375" style="3" customWidth="1"/>
-    <col min="5615" max="5615" width="4.125" style="3" customWidth="1"/>
-    <col min="5616" max="5616" width="2.375" style="3" customWidth="1"/>
+    <col min="5612" max="5612" width="1.6640625" style="3" customWidth="1"/>
+    <col min="5613" max="5613" width="1.77734375" style="3" customWidth="1"/>
+    <col min="5614" max="5614" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5615" max="5615" width="4.109375" style="3" customWidth="1"/>
+    <col min="5616" max="5616" width="2.33203125" style="3" customWidth="1"/>
     <col min="5617" max="5617" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5618" max="5618" width="2.125" style="3" customWidth="1"/>
-    <col min="5619" max="5619" width="2.625" style="3" customWidth="1"/>
+    <col min="5618" max="5618" width="2.109375" style="3" customWidth="1"/>
+    <col min="5619" max="5619" width="2.6640625" style="3" customWidth="1"/>
     <col min="5620" max="5620" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5621" max="5621" width="9.25" style="3" customWidth="1"/>
-    <col min="5622" max="5622" width="12.25" style="3" customWidth="1"/>
-    <col min="5623" max="5623" width="9.125" style="3" customWidth="1"/>
-    <col min="5624" max="5624" width="3.125" style="3" customWidth="1"/>
-    <col min="5625" max="5625" width="5.625" style="3" customWidth="1"/>
-    <col min="5626" max="5626" width="6.5" style="3" customWidth="1"/>
+    <col min="5621" max="5621" width="9.21875" style="3" customWidth="1"/>
+    <col min="5622" max="5622" width="12.21875" style="3" customWidth="1"/>
+    <col min="5623" max="5623" width="9.109375" style="3" customWidth="1"/>
+    <col min="5624" max="5624" width="3.109375" style="3" customWidth="1"/>
+    <col min="5625" max="5625" width="5.6640625" style="3" customWidth="1"/>
+    <col min="5626" max="5626" width="6.44140625" style="3" customWidth="1"/>
     <col min="5627" max="5627" width="1" style="3" customWidth="1"/>
     <col min="5628" max="5628" width="3" style="3" customWidth="1"/>
-    <col min="5629" max="5629" width="7.125" style="3" customWidth="1"/>
-    <col min="5630" max="5630" width="2.75" style="3" customWidth="1"/>
-    <col min="5631" max="5631" width="8.625" style="3" customWidth="1"/>
+    <col min="5629" max="5629" width="7.109375" style="3" customWidth="1"/>
+    <col min="5630" max="5630" width="2.77734375" style="3" customWidth="1"/>
+    <col min="5631" max="5631" width="8.6640625" style="3" customWidth="1"/>
     <col min="5632" max="5642" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="5643" max="5667" width="9" style="3" customWidth="1"/>
     <col min="5668" max="5867" width="9" style="3"/>
-    <col min="5868" max="5868" width="1.625" style="3" customWidth="1"/>
-    <col min="5869" max="5869" width="1.75" style="3" customWidth="1"/>
-    <col min="5870" max="5870" width="7.375" style="3" customWidth="1"/>
-    <col min="5871" max="5871" width="4.125" style="3" customWidth="1"/>
-    <col min="5872" max="5872" width="2.375" style="3" customWidth="1"/>
+    <col min="5868" max="5868" width="1.6640625" style="3" customWidth="1"/>
+    <col min="5869" max="5869" width="1.77734375" style="3" customWidth="1"/>
+    <col min="5870" max="5870" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5871" max="5871" width="4.109375" style="3" customWidth="1"/>
+    <col min="5872" max="5872" width="2.33203125" style="3" customWidth="1"/>
     <col min="5873" max="5873" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5874" max="5874" width="2.125" style="3" customWidth="1"/>
-    <col min="5875" max="5875" width="2.625" style="3" customWidth="1"/>
+    <col min="5874" max="5874" width="2.109375" style="3" customWidth="1"/>
+    <col min="5875" max="5875" width="2.6640625" style="3" customWidth="1"/>
     <col min="5876" max="5876" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5877" max="5877" width="9.25" style="3" customWidth="1"/>
-    <col min="5878" max="5878" width="12.25" style="3" customWidth="1"/>
-    <col min="5879" max="5879" width="9.125" style="3" customWidth="1"/>
-    <col min="5880" max="5880" width="3.125" style="3" customWidth="1"/>
-    <col min="5881" max="5881" width="5.625" style="3" customWidth="1"/>
-    <col min="5882" max="5882" width="6.5" style="3" customWidth="1"/>
+    <col min="5877" max="5877" width="9.21875" style="3" customWidth="1"/>
+    <col min="5878" max="5878" width="12.21875" style="3" customWidth="1"/>
+    <col min="5879" max="5879" width="9.109375" style="3" customWidth="1"/>
+    <col min="5880" max="5880" width="3.109375" style="3" customWidth="1"/>
+    <col min="5881" max="5881" width="5.6640625" style="3" customWidth="1"/>
+    <col min="5882" max="5882" width="6.44140625" style="3" customWidth="1"/>
     <col min="5883" max="5883" width="1" style="3" customWidth="1"/>
     <col min="5884" max="5884" width="3" style="3" customWidth="1"/>
-    <col min="5885" max="5885" width="7.125" style="3" customWidth="1"/>
-    <col min="5886" max="5886" width="2.75" style="3" customWidth="1"/>
-    <col min="5887" max="5887" width="8.625" style="3" customWidth="1"/>
+    <col min="5885" max="5885" width="7.109375" style="3" customWidth="1"/>
+    <col min="5886" max="5886" width="2.77734375" style="3" customWidth="1"/>
+    <col min="5887" max="5887" width="8.6640625" style="3" customWidth="1"/>
     <col min="5888" max="5898" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="5899" max="5923" width="9" style="3" customWidth="1"/>
     <col min="5924" max="6123" width="9" style="3"/>
-    <col min="6124" max="6124" width="1.625" style="3" customWidth="1"/>
-    <col min="6125" max="6125" width="1.75" style="3" customWidth="1"/>
-    <col min="6126" max="6126" width="7.375" style="3" customWidth="1"/>
-    <col min="6127" max="6127" width="4.125" style="3" customWidth="1"/>
-    <col min="6128" max="6128" width="2.375" style="3" customWidth="1"/>
+    <col min="6124" max="6124" width="1.6640625" style="3" customWidth="1"/>
+    <col min="6125" max="6125" width="1.77734375" style="3" customWidth="1"/>
+    <col min="6126" max="6126" width="7.33203125" style="3" customWidth="1"/>
+    <col min="6127" max="6127" width="4.109375" style="3" customWidth="1"/>
+    <col min="6128" max="6128" width="2.33203125" style="3" customWidth="1"/>
     <col min="6129" max="6129" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6130" max="6130" width="2.125" style="3" customWidth="1"/>
-    <col min="6131" max="6131" width="2.625" style="3" customWidth="1"/>
+    <col min="6130" max="6130" width="2.109375" style="3" customWidth="1"/>
+    <col min="6131" max="6131" width="2.6640625" style="3" customWidth="1"/>
     <col min="6132" max="6132" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6133" max="6133" width="9.25" style="3" customWidth="1"/>
-    <col min="6134" max="6134" width="12.25" style="3" customWidth="1"/>
-    <col min="6135" max="6135" width="9.125" style="3" customWidth="1"/>
-    <col min="6136" max="6136" width="3.125" style="3" customWidth="1"/>
-    <col min="6137" max="6137" width="5.625" style="3" customWidth="1"/>
-    <col min="6138" max="6138" width="6.5" style="3" customWidth="1"/>
+    <col min="6133" max="6133" width="9.21875" style="3" customWidth="1"/>
+    <col min="6134" max="6134" width="12.21875" style="3" customWidth="1"/>
+    <col min="6135" max="6135" width="9.109375" style="3" customWidth="1"/>
+    <col min="6136" max="6136" width="3.109375" style="3" customWidth="1"/>
+    <col min="6137" max="6137" width="5.6640625" style="3" customWidth="1"/>
+    <col min="6138" max="6138" width="6.44140625" style="3" customWidth="1"/>
     <col min="6139" max="6139" width="1" style="3" customWidth="1"/>
     <col min="6140" max="6140" width="3" style="3" customWidth="1"/>
-    <col min="6141" max="6141" width="7.125" style="3" customWidth="1"/>
-    <col min="6142" max="6142" width="2.75" style="3" customWidth="1"/>
-    <col min="6143" max="6143" width="8.625" style="3" customWidth="1"/>
+    <col min="6141" max="6141" width="7.109375" style="3" customWidth="1"/>
+    <col min="6142" max="6142" width="2.77734375" style="3" customWidth="1"/>
+    <col min="6143" max="6143" width="8.6640625" style="3" customWidth="1"/>
     <col min="6144" max="6154" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="6155" max="6179" width="9" style="3" customWidth="1"/>
     <col min="6180" max="6379" width="9" style="3"/>
-    <col min="6380" max="6380" width="1.625" style="3" customWidth="1"/>
-    <col min="6381" max="6381" width="1.75" style="3" customWidth="1"/>
-    <col min="6382" max="6382" width="7.375" style="3" customWidth="1"/>
-    <col min="6383" max="6383" width="4.125" style="3" customWidth="1"/>
-    <col min="6384" max="6384" width="2.375" style="3" customWidth="1"/>
+    <col min="6380" max="6380" width="1.6640625" style="3" customWidth="1"/>
+    <col min="6381" max="6381" width="1.77734375" style="3" customWidth="1"/>
+    <col min="6382" max="6382" width="7.33203125" style="3" customWidth="1"/>
+    <col min="6383" max="6383" width="4.109375" style="3" customWidth="1"/>
+    <col min="6384" max="6384" width="2.33203125" style="3" customWidth="1"/>
     <col min="6385" max="6385" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6386" max="6386" width="2.125" style="3" customWidth="1"/>
-    <col min="6387" max="6387" width="2.625" style="3" customWidth="1"/>
+    <col min="6386" max="6386" width="2.109375" style="3" customWidth="1"/>
+    <col min="6387" max="6387" width="2.6640625" style="3" customWidth="1"/>
     <col min="6388" max="6388" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6389" max="6389" width="9.25" style="3" customWidth="1"/>
-    <col min="6390" max="6390" width="12.25" style="3" customWidth="1"/>
-    <col min="6391" max="6391" width="9.125" style="3" customWidth="1"/>
-    <col min="6392" max="6392" width="3.125" style="3" customWidth="1"/>
-    <col min="6393" max="6393" width="5.625" style="3" customWidth="1"/>
-    <col min="6394" max="6394" width="6.5" style="3" customWidth="1"/>
+    <col min="6389" max="6389" width="9.21875" style="3" customWidth="1"/>
+    <col min="6390" max="6390" width="12.21875" style="3" customWidth="1"/>
+    <col min="6391" max="6391" width="9.109375" style="3" customWidth="1"/>
+    <col min="6392" max="6392" width="3.109375" style="3" customWidth="1"/>
+    <col min="6393" max="6393" width="5.6640625" style="3" customWidth="1"/>
+    <col min="6394" max="6394" width="6.44140625" style="3" customWidth="1"/>
     <col min="6395" max="6395" width="1" style="3" customWidth="1"/>
     <col min="6396" max="6396" width="3" style="3" customWidth="1"/>
-    <col min="6397" max="6397" width="7.125" style="3" customWidth="1"/>
-    <col min="6398" max="6398" width="2.75" style="3" customWidth="1"/>
-    <col min="6399" max="6399" width="8.625" style="3" customWidth="1"/>
+    <col min="6397" max="6397" width="7.109375" style="3" customWidth="1"/>
+    <col min="6398" max="6398" width="2.77734375" style="3" customWidth="1"/>
+    <col min="6399" max="6399" width="8.6640625" style="3" customWidth="1"/>
     <col min="6400" max="6410" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="6411" max="6435" width="9" style="3" customWidth="1"/>
     <col min="6436" max="6635" width="9" style="3"/>
-    <col min="6636" max="6636" width="1.625" style="3" customWidth="1"/>
-    <col min="6637" max="6637" width="1.75" style="3" customWidth="1"/>
-    <col min="6638" max="6638" width="7.375" style="3" customWidth="1"/>
-    <col min="6639" max="6639" width="4.125" style="3" customWidth="1"/>
-    <col min="6640" max="6640" width="2.375" style="3" customWidth="1"/>
+    <col min="6636" max="6636" width="1.6640625" style="3" customWidth="1"/>
+    <col min="6637" max="6637" width="1.77734375" style="3" customWidth="1"/>
+    <col min="6638" max="6638" width="7.33203125" style="3" customWidth="1"/>
+    <col min="6639" max="6639" width="4.109375" style="3" customWidth="1"/>
+    <col min="6640" max="6640" width="2.33203125" style="3" customWidth="1"/>
     <col min="6641" max="6641" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6642" max="6642" width="2.125" style="3" customWidth="1"/>
-    <col min="6643" max="6643" width="2.625" style="3" customWidth="1"/>
+    <col min="6642" max="6642" width="2.109375" style="3" customWidth="1"/>
+    <col min="6643" max="6643" width="2.6640625" style="3" customWidth="1"/>
     <col min="6644" max="6644" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6645" max="6645" width="9.25" style="3" customWidth="1"/>
-    <col min="6646" max="6646" width="12.25" style="3" customWidth="1"/>
-    <col min="6647" max="6647" width="9.125" style="3" customWidth="1"/>
-    <col min="6648" max="6648" width="3.125" style="3" customWidth="1"/>
-    <col min="6649" max="6649" width="5.625" style="3" customWidth="1"/>
-    <col min="6650" max="6650" width="6.5" style="3" customWidth="1"/>
+    <col min="6645" max="6645" width="9.21875" style="3" customWidth="1"/>
+    <col min="6646" max="6646" width="12.21875" style="3" customWidth="1"/>
+    <col min="6647" max="6647" width="9.109375" style="3" customWidth="1"/>
+    <col min="6648" max="6648" width="3.109375" style="3" customWidth="1"/>
+    <col min="6649" max="6649" width="5.6640625" style="3" customWidth="1"/>
+    <col min="6650" max="6650" width="6.44140625" style="3" customWidth="1"/>
     <col min="6651" max="6651" width="1" style="3" customWidth="1"/>
     <col min="6652" max="6652" width="3" style="3" customWidth="1"/>
-    <col min="6653" max="6653" width="7.125" style="3" customWidth="1"/>
-    <col min="6654" max="6654" width="2.75" style="3" customWidth="1"/>
-    <col min="6655" max="6655" width="8.625" style="3" customWidth="1"/>
+    <col min="6653" max="6653" width="7.109375" style="3" customWidth="1"/>
+    <col min="6654" max="6654" width="2.77734375" style="3" customWidth="1"/>
+    <col min="6655" max="6655" width="8.6640625" style="3" customWidth="1"/>
     <col min="6656" max="6666" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="6667" max="6691" width="9" style="3" customWidth="1"/>
     <col min="6692" max="6891" width="9" style="3"/>
-    <col min="6892" max="6892" width="1.625" style="3" customWidth="1"/>
-    <col min="6893" max="6893" width="1.75" style="3" customWidth="1"/>
-    <col min="6894" max="6894" width="7.375" style="3" customWidth="1"/>
-    <col min="6895" max="6895" width="4.125" style="3" customWidth="1"/>
-    <col min="6896" max="6896" width="2.375" style="3" customWidth="1"/>
+    <col min="6892" max="6892" width="1.6640625" style="3" customWidth="1"/>
+    <col min="6893" max="6893" width="1.77734375" style="3" customWidth="1"/>
+    <col min="6894" max="6894" width="7.33203125" style="3" customWidth="1"/>
+    <col min="6895" max="6895" width="4.109375" style="3" customWidth="1"/>
+    <col min="6896" max="6896" width="2.33203125" style="3" customWidth="1"/>
     <col min="6897" max="6897" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6898" max="6898" width="2.125" style="3" customWidth="1"/>
-    <col min="6899" max="6899" width="2.625" style="3" customWidth="1"/>
+    <col min="6898" max="6898" width="2.109375" style="3" customWidth="1"/>
+    <col min="6899" max="6899" width="2.6640625" style="3" customWidth="1"/>
     <col min="6900" max="6900" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6901" max="6901" width="9.25" style="3" customWidth="1"/>
-    <col min="6902" max="6902" width="12.25" style="3" customWidth="1"/>
-    <col min="6903" max="6903" width="9.125" style="3" customWidth="1"/>
-    <col min="6904" max="6904" width="3.125" style="3" customWidth="1"/>
-    <col min="6905" max="6905" width="5.625" style="3" customWidth="1"/>
-    <col min="6906" max="6906" width="6.5" style="3" customWidth="1"/>
+    <col min="6901" max="6901" width="9.21875" style="3" customWidth="1"/>
+    <col min="6902" max="6902" width="12.21875" style="3" customWidth="1"/>
+    <col min="6903" max="6903" width="9.109375" style="3" customWidth="1"/>
+    <col min="6904" max="6904" width="3.109375" style="3" customWidth="1"/>
+    <col min="6905" max="6905" width="5.6640625" style="3" customWidth="1"/>
+    <col min="6906" max="6906" width="6.44140625" style="3" customWidth="1"/>
     <col min="6907" max="6907" width="1" style="3" customWidth="1"/>
     <col min="6908" max="6908" width="3" style="3" customWidth="1"/>
-    <col min="6909" max="6909" width="7.125" style="3" customWidth="1"/>
-    <col min="6910" max="6910" width="2.75" style="3" customWidth="1"/>
-    <col min="6911" max="6911" width="8.625" style="3" customWidth="1"/>
+    <col min="6909" max="6909" width="7.109375" style="3" customWidth="1"/>
+    <col min="6910" max="6910" width="2.77734375" style="3" customWidth="1"/>
+    <col min="6911" max="6911" width="8.6640625" style="3" customWidth="1"/>
     <col min="6912" max="6922" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="6923" max="6947" width="9" style="3" customWidth="1"/>
     <col min="6948" max="7147" width="9" style="3"/>
-    <col min="7148" max="7148" width="1.625" style="3" customWidth="1"/>
-    <col min="7149" max="7149" width="1.75" style="3" customWidth="1"/>
-    <col min="7150" max="7150" width="7.375" style="3" customWidth="1"/>
-    <col min="7151" max="7151" width="4.125" style="3" customWidth="1"/>
-    <col min="7152" max="7152" width="2.375" style="3" customWidth="1"/>
+    <col min="7148" max="7148" width="1.6640625" style="3" customWidth="1"/>
+    <col min="7149" max="7149" width="1.77734375" style="3" customWidth="1"/>
+    <col min="7150" max="7150" width="7.33203125" style="3" customWidth="1"/>
+    <col min="7151" max="7151" width="4.109375" style="3" customWidth="1"/>
+    <col min="7152" max="7152" width="2.33203125" style="3" customWidth="1"/>
     <col min="7153" max="7153" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7154" max="7154" width="2.125" style="3" customWidth="1"/>
-    <col min="7155" max="7155" width="2.625" style="3" customWidth="1"/>
+    <col min="7154" max="7154" width="2.109375" style="3" customWidth="1"/>
+    <col min="7155" max="7155" width="2.6640625" style="3" customWidth="1"/>
     <col min="7156" max="7156" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7157" max="7157" width="9.25" style="3" customWidth="1"/>
-    <col min="7158" max="7158" width="12.25" style="3" customWidth="1"/>
-    <col min="7159" max="7159" width="9.125" style="3" customWidth="1"/>
-    <col min="7160" max="7160" width="3.125" style="3" customWidth="1"/>
-    <col min="7161" max="7161" width="5.625" style="3" customWidth="1"/>
-    <col min="7162" max="7162" width="6.5" style="3" customWidth="1"/>
+    <col min="7157" max="7157" width="9.21875" style="3" customWidth="1"/>
+    <col min="7158" max="7158" width="12.21875" style="3" customWidth="1"/>
+    <col min="7159" max="7159" width="9.109375" style="3" customWidth="1"/>
+    <col min="7160" max="7160" width="3.109375" style="3" customWidth="1"/>
+    <col min="7161" max="7161" width="5.6640625" style="3" customWidth="1"/>
+    <col min="7162" max="7162" width="6.44140625" style="3" customWidth="1"/>
     <col min="7163" max="7163" width="1" style="3" customWidth="1"/>
     <col min="7164" max="7164" width="3" style="3" customWidth="1"/>
-    <col min="7165" max="7165" width="7.125" style="3" customWidth="1"/>
-    <col min="7166" max="7166" width="2.75" style="3" customWidth="1"/>
-    <col min="7167" max="7167" width="8.625" style="3" customWidth="1"/>
+    <col min="7165" max="7165" width="7.109375" style="3" customWidth="1"/>
+    <col min="7166" max="7166" width="2.77734375" style="3" customWidth="1"/>
+    <col min="7167" max="7167" width="8.6640625" style="3" customWidth="1"/>
     <col min="7168" max="7178" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="7179" max="7203" width="9" style="3" customWidth="1"/>
     <col min="7204" max="7403" width="9" style="3"/>
-    <col min="7404" max="7404" width="1.625" style="3" customWidth="1"/>
-    <col min="7405" max="7405" width="1.75" style="3" customWidth="1"/>
-    <col min="7406" max="7406" width="7.375" style="3" customWidth="1"/>
-    <col min="7407" max="7407" width="4.125" style="3" customWidth="1"/>
-    <col min="7408" max="7408" width="2.375" style="3" customWidth="1"/>
+    <col min="7404" max="7404" width="1.6640625" style="3" customWidth="1"/>
+    <col min="7405" max="7405" width="1.77734375" style="3" customWidth="1"/>
+    <col min="7406" max="7406" width="7.33203125" style="3" customWidth="1"/>
+    <col min="7407" max="7407" width="4.109375" style="3" customWidth="1"/>
+    <col min="7408" max="7408" width="2.33203125" style="3" customWidth="1"/>
     <col min="7409" max="7409" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7410" max="7410" width="2.125" style="3" customWidth="1"/>
-    <col min="7411" max="7411" width="2.625" style="3" customWidth="1"/>
+    <col min="7410" max="7410" width="2.109375" style="3" customWidth="1"/>
+    <col min="7411" max="7411" width="2.6640625" style="3" customWidth="1"/>
     <col min="7412" max="7412" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7413" max="7413" width="9.25" style="3" customWidth="1"/>
-    <col min="7414" max="7414" width="12.25" style="3" customWidth="1"/>
-    <col min="7415" max="7415" width="9.125" style="3" customWidth="1"/>
-    <col min="7416" max="7416" width="3.125" style="3" customWidth="1"/>
-    <col min="7417" max="7417" width="5.625" style="3" customWidth="1"/>
-    <col min="7418" max="7418" width="6.5" style="3" customWidth="1"/>
+    <col min="7413" max="7413" width="9.21875" style="3" customWidth="1"/>
+    <col min="7414" max="7414" width="12.21875" style="3" customWidth="1"/>
+    <col min="7415" max="7415" width="9.109375" style="3" customWidth="1"/>
+    <col min="7416" max="7416" width="3.109375" style="3" customWidth="1"/>
+    <col min="7417" max="7417" width="5.6640625" style="3" customWidth="1"/>
+    <col min="7418" max="7418" width="6.44140625" style="3" customWidth="1"/>
     <col min="7419" max="7419" width="1" style="3" customWidth="1"/>
     <col min="7420" max="7420" width="3" style="3" customWidth="1"/>
-    <col min="7421" max="7421" width="7.125" style="3" customWidth="1"/>
-    <col min="7422" max="7422" width="2.75" style="3" customWidth="1"/>
-    <col min="7423" max="7423" width="8.625" style="3" customWidth="1"/>
+    <col min="7421" max="7421" width="7.109375" style="3" customWidth="1"/>
+    <col min="7422" max="7422" width="2.77734375" style="3" customWidth="1"/>
+    <col min="7423" max="7423" width="8.6640625" style="3" customWidth="1"/>
     <col min="7424" max="7434" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="7435" max="7459" width="9" style="3" customWidth="1"/>
     <col min="7460" max="7659" width="9" style="3"/>
-    <col min="7660" max="7660" width="1.625" style="3" customWidth="1"/>
-    <col min="7661" max="7661" width="1.75" style="3" customWidth="1"/>
-    <col min="7662" max="7662" width="7.375" style="3" customWidth="1"/>
-    <col min="7663" max="7663" width="4.125" style="3" customWidth="1"/>
-    <col min="7664" max="7664" width="2.375" style="3" customWidth="1"/>
+    <col min="7660" max="7660" width="1.6640625" style="3" customWidth="1"/>
+    <col min="7661" max="7661" width="1.77734375" style="3" customWidth="1"/>
+    <col min="7662" max="7662" width="7.33203125" style="3" customWidth="1"/>
+    <col min="7663" max="7663" width="4.109375" style="3" customWidth="1"/>
+    <col min="7664" max="7664" width="2.33203125" style="3" customWidth="1"/>
     <col min="7665" max="7665" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7666" max="7666" width="2.125" style="3" customWidth="1"/>
-    <col min="7667" max="7667" width="2.625" style="3" customWidth="1"/>
+    <col min="7666" max="7666" width="2.109375" style="3" customWidth="1"/>
+    <col min="7667" max="7667" width="2.6640625" style="3" customWidth="1"/>
     <col min="7668" max="7668" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7669" max="7669" width="9.25" style="3" customWidth="1"/>
-    <col min="7670" max="7670" width="12.25" style="3" customWidth="1"/>
-    <col min="7671" max="7671" width="9.125" style="3" customWidth="1"/>
-    <col min="7672" max="7672" width="3.125" style="3" customWidth="1"/>
-    <col min="7673" max="7673" width="5.625" style="3" customWidth="1"/>
-    <col min="7674" max="7674" width="6.5" style="3" customWidth="1"/>
+    <col min="7669" max="7669" width="9.21875" style="3" customWidth="1"/>
+    <col min="7670" max="7670" width="12.21875" style="3" customWidth="1"/>
+    <col min="7671" max="7671" width="9.109375" style="3" customWidth="1"/>
+    <col min="7672" max="7672" width="3.109375" style="3" customWidth="1"/>
+    <col min="7673" max="7673" width="5.6640625" style="3" customWidth="1"/>
+    <col min="7674" max="7674" width="6.44140625" style="3" customWidth="1"/>
     <col min="7675" max="7675" width="1" style="3" customWidth="1"/>
     <col min="7676" max="7676" width="3" style="3" customWidth="1"/>
-    <col min="7677" max="7677" width="7.125" style="3" customWidth="1"/>
-    <col min="7678" max="7678" width="2.75" style="3" customWidth="1"/>
-    <col min="7679" max="7679" width="8.625" style="3" customWidth="1"/>
+    <col min="7677" max="7677" width="7.109375" style="3" customWidth="1"/>
+    <col min="7678" max="7678" width="2.77734375" style="3" customWidth="1"/>
+    <col min="7679" max="7679" width="8.6640625" style="3" customWidth="1"/>
     <col min="7680" max="7690" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="7691" max="7715" width="9" style="3" customWidth="1"/>
     <col min="7716" max="7915" width="9" style="3"/>
-    <col min="7916" max="7916" width="1.625" style="3" customWidth="1"/>
-    <col min="7917" max="7917" width="1.75" style="3" customWidth="1"/>
-    <col min="7918" max="7918" width="7.375" style="3" customWidth="1"/>
-    <col min="7919" max="7919" width="4.125" style="3" customWidth="1"/>
-    <col min="7920" max="7920" width="2.375" style="3" customWidth="1"/>
+    <col min="7916" max="7916" width="1.6640625" style="3" customWidth="1"/>
+    <col min="7917" max="7917" width="1.77734375" style="3" customWidth="1"/>
+    <col min="7918" max="7918" width="7.33203125" style="3" customWidth="1"/>
+    <col min="7919" max="7919" width="4.109375" style="3" customWidth="1"/>
+    <col min="7920" max="7920" width="2.33203125" style="3" customWidth="1"/>
     <col min="7921" max="7921" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7922" max="7922" width="2.125" style="3" customWidth="1"/>
-    <col min="7923" max="7923" width="2.625" style="3" customWidth="1"/>
+    <col min="7922" max="7922" width="2.109375" style="3" customWidth="1"/>
+    <col min="7923" max="7923" width="2.6640625" style="3" customWidth="1"/>
     <col min="7924" max="7924" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7925" max="7925" width="9.25" style="3" customWidth="1"/>
-    <col min="7926" max="7926" width="12.25" style="3" customWidth="1"/>
-    <col min="7927" max="7927" width="9.125" style="3" customWidth="1"/>
-    <col min="7928" max="7928" width="3.125" style="3" customWidth="1"/>
-    <col min="7929" max="7929" width="5.625" style="3" customWidth="1"/>
-    <col min="7930" max="7930" width="6.5" style="3" customWidth="1"/>
+    <col min="7925" max="7925" width="9.21875" style="3" customWidth="1"/>
+    <col min="7926" max="7926" width="12.21875" style="3" customWidth="1"/>
+    <col min="7927" max="7927" width="9.109375" style="3" customWidth="1"/>
+    <col min="7928" max="7928" width="3.109375" style="3" customWidth="1"/>
+    <col min="7929" max="7929" width="5.6640625" style="3" customWidth="1"/>
+    <col min="7930" max="7930" width="6.44140625" style="3" customWidth="1"/>
     <col min="7931" max="7931" width="1" style="3" customWidth="1"/>
     <col min="7932" max="7932" width="3" style="3" customWidth="1"/>
-    <col min="7933" max="7933" width="7.125" style="3" customWidth="1"/>
-    <col min="7934" max="7934" width="2.75" style="3" customWidth="1"/>
-    <col min="7935" max="7935" width="8.625" style="3" customWidth="1"/>
+    <col min="7933" max="7933" width="7.109375" style="3" customWidth="1"/>
+    <col min="7934" max="7934" width="2.77734375" style="3" customWidth="1"/>
+    <col min="7935" max="7935" width="8.6640625" style="3" customWidth="1"/>
     <col min="7936" max="7946" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="7947" max="7971" width="9" style="3" customWidth="1"/>
     <col min="7972" max="8171" width="9" style="3"/>
-    <col min="8172" max="8172" width="1.625" style="3" customWidth="1"/>
-    <col min="8173" max="8173" width="1.75" style="3" customWidth="1"/>
-    <col min="8174" max="8174" width="7.375" style="3" customWidth="1"/>
-    <col min="8175" max="8175" width="4.125" style="3" customWidth="1"/>
-    <col min="8176" max="8176" width="2.375" style="3" customWidth="1"/>
+    <col min="8172" max="8172" width="1.6640625" style="3" customWidth="1"/>
+    <col min="8173" max="8173" width="1.77734375" style="3" customWidth="1"/>
+    <col min="8174" max="8174" width="7.33203125" style="3" customWidth="1"/>
+    <col min="8175" max="8175" width="4.109375" style="3" customWidth="1"/>
+    <col min="8176" max="8176" width="2.33203125" style="3" customWidth="1"/>
     <col min="8177" max="8177" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8178" max="8178" width="2.125" style="3" customWidth="1"/>
-    <col min="8179" max="8179" width="2.625" style="3" customWidth="1"/>
+    <col min="8178" max="8178" width="2.109375" style="3" customWidth="1"/>
+    <col min="8179" max="8179" width="2.6640625" style="3" customWidth="1"/>
     <col min="8180" max="8180" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8181" max="8181" width="9.25" style="3" customWidth="1"/>
-    <col min="8182" max="8182" width="12.25" style="3" customWidth="1"/>
-    <col min="8183" max="8183" width="9.125" style="3" customWidth="1"/>
-    <col min="8184" max="8184" width="3.125" style="3" customWidth="1"/>
-    <col min="8185" max="8185" width="5.625" style="3" customWidth="1"/>
-    <col min="8186" max="8186" width="6.5" style="3" customWidth="1"/>
+    <col min="8181" max="8181" width="9.21875" style="3" customWidth="1"/>
+    <col min="8182" max="8182" width="12.21875" style="3" customWidth="1"/>
+    <col min="8183" max="8183" width="9.109375" style="3" customWidth="1"/>
+    <col min="8184" max="8184" width="3.109375" style="3" customWidth="1"/>
+    <col min="8185" max="8185" width="5.6640625" style="3" customWidth="1"/>
+    <col min="8186" max="8186" width="6.44140625" style="3" customWidth="1"/>
     <col min="8187" max="8187" width="1" style="3" customWidth="1"/>
     <col min="8188" max="8188" width="3" style="3" customWidth="1"/>
-    <col min="8189" max="8189" width="7.125" style="3" customWidth="1"/>
-    <col min="8190" max="8190" width="2.75" style="3" customWidth="1"/>
-    <col min="8191" max="8191" width="8.625" style="3" customWidth="1"/>
+    <col min="8189" max="8189" width="7.109375" style="3" customWidth="1"/>
+    <col min="8190" max="8190" width="2.77734375" style="3" customWidth="1"/>
+    <col min="8191" max="8191" width="8.6640625" style="3" customWidth="1"/>
     <col min="8192" max="8202" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8203" max="8227" width="9" style="3" customWidth="1"/>
     <col min="8228" max="8427" width="9" style="3"/>
-    <col min="8428" max="8428" width="1.625" style="3" customWidth="1"/>
-    <col min="8429" max="8429" width="1.75" style="3" customWidth="1"/>
-    <col min="8430" max="8430" width="7.375" style="3" customWidth="1"/>
-    <col min="8431" max="8431" width="4.125" style="3" customWidth="1"/>
-    <col min="8432" max="8432" width="2.375" style="3" customWidth="1"/>
+    <col min="8428" max="8428" width="1.6640625" style="3" customWidth="1"/>
+    <col min="8429" max="8429" width="1.77734375" style="3" customWidth="1"/>
+    <col min="8430" max="8430" width="7.33203125" style="3" customWidth="1"/>
+    <col min="8431" max="8431" width="4.109375" style="3" customWidth="1"/>
+    <col min="8432" max="8432" width="2.33203125" style="3" customWidth="1"/>
     <col min="8433" max="8433" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8434" max="8434" width="2.125" style="3" customWidth="1"/>
-    <col min="8435" max="8435" width="2.625" style="3" customWidth="1"/>
+    <col min="8434" max="8434" width="2.109375" style="3" customWidth="1"/>
+    <col min="8435" max="8435" width="2.6640625" style="3" customWidth="1"/>
     <col min="8436" max="8436" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8437" max="8437" width="9.25" style="3" customWidth="1"/>
-    <col min="8438" max="8438" width="12.25" style="3" customWidth="1"/>
-    <col min="8439" max="8439" width="9.125" style="3" customWidth="1"/>
-    <col min="8440" max="8440" width="3.125" style="3" customWidth="1"/>
-    <col min="8441" max="8441" width="5.625" style="3" customWidth="1"/>
-    <col min="8442" max="8442" width="6.5" style="3" customWidth="1"/>
+    <col min="8437" max="8437" width="9.21875" style="3" customWidth="1"/>
+    <col min="8438" max="8438" width="12.21875" style="3" customWidth="1"/>
+    <col min="8439" max="8439" width="9.109375" style="3" customWidth="1"/>
+    <col min="8440" max="8440" width="3.109375" style="3" customWidth="1"/>
+    <col min="8441" max="8441" width="5.6640625" style="3" customWidth="1"/>
+    <col min="8442" max="8442" width="6.44140625" style="3" customWidth="1"/>
     <col min="8443" max="8443" width="1" style="3" customWidth="1"/>
     <col min="8444" max="8444" width="3" style="3" customWidth="1"/>
-    <col min="8445" max="8445" width="7.125" style="3" customWidth="1"/>
-    <col min="8446" max="8446" width="2.75" style="3" customWidth="1"/>
-    <col min="8447" max="8447" width="8.625" style="3" customWidth="1"/>
+    <col min="8445" max="8445" width="7.109375" style="3" customWidth="1"/>
+    <col min="8446" max="8446" width="2.77734375" style="3" customWidth="1"/>
+    <col min="8447" max="8447" width="8.6640625" style="3" customWidth="1"/>
     <col min="8448" max="8458" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8459" max="8483" width="9" style="3" customWidth="1"/>
     <col min="8484" max="8683" width="9" style="3"/>
-    <col min="8684" max="8684" width="1.625" style="3" customWidth="1"/>
-    <col min="8685" max="8685" width="1.75" style="3" customWidth="1"/>
-    <col min="8686" max="8686" width="7.375" style="3" customWidth="1"/>
-    <col min="8687" max="8687" width="4.125" style="3" customWidth="1"/>
-    <col min="8688" max="8688" width="2.375" style="3" customWidth="1"/>
+    <col min="8684" max="8684" width="1.6640625" style="3" customWidth="1"/>
+    <col min="8685" max="8685" width="1.77734375" style="3" customWidth="1"/>
+    <col min="8686" max="8686" width="7.33203125" style="3" customWidth="1"/>
+    <col min="8687" max="8687" width="4.109375" style="3" customWidth="1"/>
+    <col min="8688" max="8688" width="2.33203125" style="3" customWidth="1"/>
     <col min="8689" max="8689" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8690" max="8690" width="2.125" style="3" customWidth="1"/>
-    <col min="8691" max="8691" width="2.625" style="3" customWidth="1"/>
+    <col min="8690" max="8690" width="2.109375" style="3" customWidth="1"/>
+    <col min="8691" max="8691" width="2.6640625" style="3" customWidth="1"/>
     <col min="8692" max="8692" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8693" max="8693" width="9.25" style="3" customWidth="1"/>
-    <col min="8694" max="8694" width="12.25" style="3" customWidth="1"/>
-    <col min="8695" max="8695" width="9.125" style="3" customWidth="1"/>
-    <col min="8696" max="8696" width="3.125" style="3" customWidth="1"/>
-    <col min="8697" max="8697" width="5.625" style="3" customWidth="1"/>
-    <col min="8698" max="8698" width="6.5" style="3" customWidth="1"/>
+    <col min="8693" max="8693" width="9.21875" style="3" customWidth="1"/>
+    <col min="8694" max="8694" width="12.21875" style="3" customWidth="1"/>
+    <col min="8695" max="8695" width="9.109375" style="3" customWidth="1"/>
+    <col min="8696" max="8696" width="3.109375" style="3" customWidth="1"/>
+    <col min="8697" max="8697" width="5.6640625" style="3" customWidth="1"/>
+    <col min="8698" max="8698" width="6.44140625" style="3" customWidth="1"/>
     <col min="8699" max="8699" width="1" style="3" customWidth="1"/>
     <col min="8700" max="8700" width="3" style="3" customWidth="1"/>
-    <col min="8701" max="8701" width="7.125" style="3" customWidth="1"/>
-    <col min="8702" max="8702" width="2.75" style="3" customWidth="1"/>
-    <col min="8703" max="8703" width="8.625" style="3" customWidth="1"/>
+    <col min="8701" max="8701" width="7.109375" style="3" customWidth="1"/>
+    <col min="8702" max="8702" width="2.77734375" style="3" customWidth="1"/>
+    <col min="8703" max="8703" width="8.6640625" style="3" customWidth="1"/>
     <col min="8704" max="8714" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8715" max="8739" width="9" style="3" customWidth="1"/>
     <col min="8740" max="8939" width="9" style="3"/>
-    <col min="8940" max="8940" width="1.625" style="3" customWidth="1"/>
-    <col min="8941" max="8941" width="1.75" style="3" customWidth="1"/>
-    <col min="8942" max="8942" width="7.375" style="3" customWidth="1"/>
-    <col min="8943" max="8943" width="4.125" style="3" customWidth="1"/>
-    <col min="8944" max="8944" width="2.375" style="3" customWidth="1"/>
+    <col min="8940" max="8940" width="1.6640625" style="3" customWidth="1"/>
+    <col min="8941" max="8941" width="1.77734375" style="3" customWidth="1"/>
+    <col min="8942" max="8942" width="7.33203125" style="3" customWidth="1"/>
+    <col min="8943" max="8943" width="4.109375" style="3" customWidth="1"/>
+    <col min="8944" max="8944" width="2.33203125" style="3" customWidth="1"/>
     <col min="8945" max="8945" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8946" max="8946" width="2.125" style="3" customWidth="1"/>
-    <col min="8947" max="8947" width="2.625" style="3" customWidth="1"/>
+    <col min="8946" max="8946" width="2.109375" style="3" customWidth="1"/>
+    <col min="8947" max="8947" width="2.6640625" style="3" customWidth="1"/>
     <col min="8948" max="8948" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8949" max="8949" width="9.25" style="3" customWidth="1"/>
-    <col min="8950" max="8950" width="12.25" style="3" customWidth="1"/>
-    <col min="8951" max="8951" width="9.125" style="3" customWidth="1"/>
-    <col min="8952" max="8952" width="3.125" style="3" customWidth="1"/>
-    <col min="8953" max="8953" width="5.625" style="3" customWidth="1"/>
-    <col min="8954" max="8954" width="6.5" style="3" customWidth="1"/>
+    <col min="8949" max="8949" width="9.21875" style="3" customWidth="1"/>
+    <col min="8950" max="8950" width="12.21875" style="3" customWidth="1"/>
+    <col min="8951" max="8951" width="9.109375" style="3" customWidth="1"/>
+    <col min="8952" max="8952" width="3.109375" style="3" customWidth="1"/>
+    <col min="8953" max="8953" width="5.6640625" style="3" customWidth="1"/>
+    <col min="8954" max="8954" width="6.44140625" style="3" customWidth="1"/>
     <col min="8955" max="8955" width="1" style="3" customWidth="1"/>
     <col min="8956" max="8956" width="3" style="3" customWidth="1"/>
-    <col min="8957" max="8957" width="7.125" style="3" customWidth="1"/>
-    <col min="8958" max="8958" width="2.75" style="3" customWidth="1"/>
-    <col min="8959" max="8959" width="8.625" style="3" customWidth="1"/>
+    <col min="8957" max="8957" width="7.109375" style="3" customWidth="1"/>
+    <col min="8958" max="8958" width="2.77734375" style="3" customWidth="1"/>
+    <col min="8959" max="8959" width="8.6640625" style="3" customWidth="1"/>
     <col min="8960" max="8970" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8971" max="8995" width="9" style="3" customWidth="1"/>
     <col min="8996" max="9195" width="9" style="3"/>
-    <col min="9196" max="9196" width="1.625" style="3" customWidth="1"/>
-    <col min="9197" max="9197" width="1.75" style="3" customWidth="1"/>
-    <col min="9198" max="9198" width="7.375" style="3" customWidth="1"/>
-    <col min="9199" max="9199" width="4.125" style="3" customWidth="1"/>
-    <col min="9200" max="9200" width="2.375" style="3" customWidth="1"/>
+    <col min="9196" max="9196" width="1.6640625" style="3" customWidth="1"/>
+    <col min="9197" max="9197" width="1.77734375" style="3" customWidth="1"/>
+    <col min="9198" max="9198" width="7.33203125" style="3" customWidth="1"/>
+    <col min="9199" max="9199" width="4.109375" style="3" customWidth="1"/>
+    <col min="9200" max="9200" width="2.33203125" style="3" customWidth="1"/>
     <col min="9201" max="9201" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9202" max="9202" width="2.125" style="3" customWidth="1"/>
-    <col min="9203" max="9203" width="2.625" style="3" customWidth="1"/>
+    <col min="9202" max="9202" width="2.109375" style="3" customWidth="1"/>
+    <col min="9203" max="9203" width="2.6640625" style="3" customWidth="1"/>
     <col min="9204" max="9204" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9205" max="9205" width="9.25" style="3" customWidth="1"/>
-    <col min="9206" max="9206" width="12.25" style="3" customWidth="1"/>
-    <col min="9207" max="9207" width="9.125" style="3" customWidth="1"/>
-    <col min="9208" max="9208" width="3.125" style="3" customWidth="1"/>
-    <col min="9209" max="9209" width="5.625" style="3" customWidth="1"/>
-    <col min="9210" max="9210" width="6.5" style="3" customWidth="1"/>
+    <col min="9205" max="9205" width="9.21875" style="3" customWidth="1"/>
+    <col min="9206" max="9206" width="12.21875" style="3" customWidth="1"/>
+    <col min="9207" max="9207" width="9.109375" style="3" customWidth="1"/>
+    <col min="9208" max="9208" width="3.109375" style="3" customWidth="1"/>
+    <col min="9209" max="9209" width="5.6640625" style="3" customWidth="1"/>
+    <col min="9210" max="9210" width="6.44140625" style="3" customWidth="1"/>
     <col min="9211" max="9211" width="1" style="3" customWidth="1"/>
     <col min="9212" max="9212" width="3" style="3" customWidth="1"/>
-    <col min="9213" max="9213" width="7.125" style="3" customWidth="1"/>
-    <col min="9214" max="9214" width="2.75" style="3" customWidth="1"/>
-    <col min="9215" max="9215" width="8.625" style="3" customWidth="1"/>
+    <col min="9213" max="9213" width="7.109375" style="3" customWidth="1"/>
+    <col min="9214" max="9214" width="2.77734375" style="3" customWidth="1"/>
+    <col min="9215" max="9215" width="8.6640625" style="3" customWidth="1"/>
     <col min="9216" max="9226" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="9227" max="9251" width="9" style="3" customWidth="1"/>
     <col min="9252" max="9451" width="9" style="3"/>
-    <col min="9452" max="9452" width="1.625" style="3" customWidth="1"/>
-    <col min="9453" max="9453" width="1.75" style="3" customWidth="1"/>
-    <col min="9454" max="9454" width="7.375" style="3" customWidth="1"/>
-    <col min="9455" max="9455" width="4.125" style="3" customWidth="1"/>
-    <col min="9456" max="9456" width="2.375" style="3" customWidth="1"/>
+    <col min="9452" max="9452" width="1.6640625" style="3" customWidth="1"/>
+    <col min="9453" max="9453" width="1.77734375" style="3" customWidth="1"/>
+    <col min="9454" max="9454" width="7.33203125" style="3" customWidth="1"/>
+    <col min="9455" max="9455" width="4.109375" style="3" customWidth="1"/>
+    <col min="9456" max="9456" width="2.33203125" style="3" customWidth="1"/>
     <col min="9457" max="9457" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9458" max="9458" width="2.125" style="3" customWidth="1"/>
-    <col min="9459" max="9459" width="2.625" style="3" customWidth="1"/>
+    <col min="9458" max="9458" width="2.109375" style="3" customWidth="1"/>
+    <col min="9459" max="9459" width="2.6640625" style="3" customWidth="1"/>
     <col min="9460" max="9460" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9461" max="9461" width="9.25" style="3" customWidth="1"/>
-    <col min="9462" max="9462" width="12.25" style="3" customWidth="1"/>
-    <col min="9463" max="9463" width="9.125" style="3" customWidth="1"/>
-    <col min="9464" max="9464" width="3.125" style="3" customWidth="1"/>
-    <col min="9465" max="9465" width="5.625" style="3" customWidth="1"/>
-    <col min="9466" max="9466" width="6.5" style="3" customWidth="1"/>
+    <col min="9461" max="9461" width="9.21875" style="3" customWidth="1"/>
+    <col min="9462" max="9462" width="12.21875" style="3" customWidth="1"/>
+    <col min="9463" max="9463" width="9.109375" style="3" customWidth="1"/>
+    <col min="9464" max="9464" width="3.109375" style="3" customWidth="1"/>
+    <col min="9465" max="9465" width="5.6640625" style="3" customWidth="1"/>
+    <col min="9466" max="9466" width="6.44140625" style="3" customWidth="1"/>
     <col min="9467" max="9467" width="1" style="3" customWidth="1"/>
     <col min="9468" max="9468" width="3" style="3" customWidth="1"/>
-    <col min="9469" max="9469" width="7.125" style="3" customWidth="1"/>
-    <col min="9470" max="9470" width="2.75" style="3" customWidth="1"/>
-    <col min="9471" max="9471" width="8.625" style="3" customWidth="1"/>
+    <col min="9469" max="9469" width="7.109375" style="3" customWidth="1"/>
+    <col min="9470" max="9470" width="2.77734375" style="3" customWidth="1"/>
+    <col min="9471" max="9471" width="8.6640625" style="3" customWidth="1"/>
     <col min="9472" max="9482" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="9483" max="9507" width="9" style="3" customWidth="1"/>
     <col min="9508" max="9707" width="9" style="3"/>
-    <col min="9708" max="9708" width="1.625" style="3" customWidth="1"/>
-    <col min="9709" max="9709" width="1.75" style="3" customWidth="1"/>
-    <col min="9710" max="9710" width="7.375" style="3" customWidth="1"/>
-    <col min="9711" max="9711" width="4.125" style="3" customWidth="1"/>
-    <col min="9712" max="9712" width="2.375" style="3" customWidth="1"/>
+    <col min="9708" max="9708" width="1.6640625" style="3" customWidth="1"/>
+    <col min="9709" max="9709" width="1.77734375" style="3" customWidth="1"/>
+    <col min="9710" max="9710" width="7.33203125" style="3" customWidth="1"/>
+    <col min="9711" max="9711" width="4.109375" style="3" customWidth="1"/>
+    <col min="9712" max="9712" width="2.33203125" style="3" customWidth="1"/>
     <col min="9713" max="9713" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9714" max="9714" width="2.125" style="3" customWidth="1"/>
-    <col min="9715" max="9715" width="2.625" style="3" customWidth="1"/>
+    <col min="9714" max="9714" width="2.109375" style="3" customWidth="1"/>
+    <col min="9715" max="9715" width="2.6640625" style="3" customWidth="1"/>
     <col min="9716" max="9716" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9717" max="9717" width="9.25" style="3" customWidth="1"/>
-    <col min="9718" max="9718" width="12.25" style="3" customWidth="1"/>
-    <col min="9719" max="9719" width="9.125" style="3" customWidth="1"/>
-    <col min="9720" max="9720" width="3.125" style="3" customWidth="1"/>
-    <col min="9721" max="9721" width="5.625" style="3" customWidth="1"/>
-    <col min="9722" max="9722" width="6.5" style="3" customWidth="1"/>
+    <col min="9717" max="9717" width="9.21875" style="3" customWidth="1"/>
+    <col min="9718" max="9718" width="12.21875" style="3" customWidth="1"/>
+    <col min="9719" max="9719" width="9.109375" style="3" customWidth="1"/>
+    <col min="9720" max="9720" width="3.109375" style="3" customWidth="1"/>
+    <col min="9721" max="9721" width="5.6640625" style="3" customWidth="1"/>
+    <col min="9722" max="9722" width="6.44140625" style="3" customWidth="1"/>
     <col min="9723" max="9723" width="1" style="3" customWidth="1"/>
     <col min="9724" max="9724" width="3" style="3" customWidth="1"/>
-    <col min="9725" max="9725" width="7.125" style="3" customWidth="1"/>
-    <col min="9726" max="9726" width="2.75" style="3" customWidth="1"/>
-    <col min="9727" max="9727" width="8.625" style="3" customWidth="1"/>
+    <col min="9725" max="9725" width="7.109375" style="3" customWidth="1"/>
+    <col min="9726" max="9726" width="2.77734375" style="3" customWidth="1"/>
+    <col min="9727" max="9727" width="8.6640625" style="3" customWidth="1"/>
     <col min="9728" max="9738" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="9739" max="9763" width="9" style="3" customWidth="1"/>
     <col min="9764" max="9963" width="9" style="3"/>
-    <col min="9964" max="9964" width="1.625" style="3" customWidth="1"/>
-    <col min="9965" max="9965" width="1.75" style="3" customWidth="1"/>
-    <col min="9966" max="9966" width="7.375" style="3" customWidth="1"/>
-    <col min="9967" max="9967" width="4.125" style="3" customWidth="1"/>
-    <col min="9968" max="9968" width="2.375" style="3" customWidth="1"/>
+    <col min="9964" max="9964" width="1.6640625" style="3" customWidth="1"/>
+    <col min="9965" max="9965" width="1.77734375" style="3" customWidth="1"/>
+    <col min="9966" max="9966" width="7.33203125" style="3" customWidth="1"/>
+    <col min="9967" max="9967" width="4.109375" style="3" customWidth="1"/>
+    <col min="9968" max="9968" width="2.33203125" style="3" customWidth="1"/>
     <col min="9969" max="9969" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9970" max="9970" width="2.125" style="3" customWidth="1"/>
-    <col min="9971" max="9971" width="2.625" style="3" customWidth="1"/>
+    <col min="9970" max="9970" width="2.109375" style="3" customWidth="1"/>
+    <col min="9971" max="9971" width="2.6640625" style="3" customWidth="1"/>
     <col min="9972" max="9972" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9973" max="9973" width="9.25" style="3" customWidth="1"/>
-    <col min="9974" max="9974" width="12.25" style="3" customWidth="1"/>
-    <col min="9975" max="9975" width="9.125" style="3" customWidth="1"/>
-    <col min="9976" max="9976" width="3.125" style="3" customWidth="1"/>
-    <col min="9977" max="9977" width="5.625" style="3" customWidth="1"/>
-    <col min="9978" max="9978" width="6.5" style="3" customWidth="1"/>
+    <col min="9973" max="9973" width="9.21875" style="3" customWidth="1"/>
+    <col min="9974" max="9974" width="12.21875" style="3" customWidth="1"/>
+    <col min="9975" max="9975" width="9.109375" style="3" customWidth="1"/>
+    <col min="9976" max="9976" width="3.109375" style="3" customWidth="1"/>
+    <col min="9977" max="9977" width="5.6640625" style="3" customWidth="1"/>
+    <col min="9978" max="9978" width="6.44140625" style="3" customWidth="1"/>
     <col min="9979" max="9979" width="1" style="3" customWidth="1"/>
     <col min="9980" max="9980" width="3" style="3" customWidth="1"/>
-    <col min="9981" max="9981" width="7.125" style="3" customWidth="1"/>
-    <col min="9982" max="9982" width="2.75" style="3" customWidth="1"/>
-    <col min="9983" max="9983" width="8.625" style="3" customWidth="1"/>
+    <col min="9981" max="9981" width="7.109375" style="3" customWidth="1"/>
+    <col min="9982" max="9982" width="2.77734375" style="3" customWidth="1"/>
+    <col min="9983" max="9983" width="8.6640625" style="3" customWidth="1"/>
     <col min="9984" max="9994" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="9995" max="10019" width="9" style="3" customWidth="1"/>
     <col min="10020" max="10219" width="9" style="3"/>
-    <col min="10220" max="10220" width="1.625" style="3" customWidth="1"/>
-    <col min="10221" max="10221" width="1.75" style="3" customWidth="1"/>
-    <col min="10222" max="10222" width="7.375" style="3" customWidth="1"/>
-    <col min="10223" max="10223" width="4.125" style="3" customWidth="1"/>
-    <col min="10224" max="10224" width="2.375" style="3" customWidth="1"/>
+    <col min="10220" max="10220" width="1.6640625" style="3" customWidth="1"/>
+    <col min="10221" max="10221" width="1.77734375" style="3" customWidth="1"/>
+    <col min="10222" max="10222" width="7.33203125" style="3" customWidth="1"/>
+    <col min="10223" max="10223" width="4.109375" style="3" customWidth="1"/>
+    <col min="10224" max="10224" width="2.33203125" style="3" customWidth="1"/>
     <col min="10225" max="10225" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10226" max="10226" width="2.125" style="3" customWidth="1"/>
-    <col min="10227" max="10227" width="2.625" style="3" customWidth="1"/>
+    <col min="10226" max="10226" width="2.109375" style="3" customWidth="1"/>
+    <col min="10227" max="10227" width="2.6640625" style="3" customWidth="1"/>
     <col min="10228" max="10228" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10229" max="10229" width="9.25" style="3" customWidth="1"/>
-    <col min="10230" max="10230" width="12.25" style="3" customWidth="1"/>
-    <col min="10231" max="10231" width="9.125" style="3" customWidth="1"/>
-    <col min="10232" max="10232" width="3.125" style="3" customWidth="1"/>
-    <col min="10233" max="10233" width="5.625" style="3" customWidth="1"/>
-    <col min="10234" max="10234" width="6.5" style="3" customWidth="1"/>
+    <col min="10229" max="10229" width="9.21875" style="3" customWidth="1"/>
+    <col min="10230" max="10230" width="12.21875" style="3" customWidth="1"/>
+    <col min="10231" max="10231" width="9.109375" style="3" customWidth="1"/>
+    <col min="10232" max="10232" width="3.109375" style="3" customWidth="1"/>
+    <col min="10233" max="10233" width="5.6640625" style="3" customWidth="1"/>
+    <col min="10234" max="10234" width="6.44140625" style="3" customWidth="1"/>
     <col min="10235" max="10235" width="1" style="3" customWidth="1"/>
     <col min="10236" max="10236" width="3" style="3" customWidth="1"/>
-    <col min="10237" max="10237" width="7.125" style="3" customWidth="1"/>
-    <col min="10238" max="10238" width="2.75" style="3" customWidth="1"/>
-    <col min="10239" max="10239" width="8.625" style="3" customWidth="1"/>
+    <col min="10237" max="10237" width="7.109375" style="3" customWidth="1"/>
+    <col min="10238" max="10238" width="2.77734375" style="3" customWidth="1"/>
+    <col min="10239" max="10239" width="8.6640625" style="3" customWidth="1"/>
     <col min="10240" max="10250" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="10251" max="10275" width="9" style="3" customWidth="1"/>
     <col min="10276" max="10475" width="9" style="3"/>
-    <col min="10476" max="10476" width="1.625" style="3" customWidth="1"/>
-    <col min="10477" max="10477" width="1.75" style="3" customWidth="1"/>
-    <col min="10478" max="10478" width="7.375" style="3" customWidth="1"/>
-    <col min="10479" max="10479" width="4.125" style="3" customWidth="1"/>
-    <col min="10480" max="10480" width="2.375" style="3" customWidth="1"/>
+    <col min="10476" max="10476" width="1.6640625" style="3" customWidth="1"/>
+    <col min="10477" max="10477" width="1.77734375" style="3" customWidth="1"/>
+    <col min="10478" max="10478" width="7.33203125" style="3" customWidth="1"/>
+    <col min="10479" max="10479" width="4.109375" style="3" customWidth="1"/>
+    <col min="10480" max="10480" width="2.33203125" style="3" customWidth="1"/>
     <col min="10481" max="10481" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10482" max="10482" width="2.125" style="3" customWidth="1"/>
-    <col min="10483" max="10483" width="2.625" style="3" customWidth="1"/>
+    <col min="10482" max="10482" width="2.109375" style="3" customWidth="1"/>
+    <col min="10483" max="10483" width="2.6640625" style="3" customWidth="1"/>
     <col min="10484" max="10484" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10485" max="10485" width="9.25" style="3" customWidth="1"/>
-    <col min="10486" max="10486" width="12.25" style="3" customWidth="1"/>
-    <col min="10487" max="10487" width="9.125" style="3" customWidth="1"/>
-    <col min="10488" max="10488" width="3.125" style="3" customWidth="1"/>
-    <col min="10489" max="10489" width="5.625" style="3" customWidth="1"/>
-    <col min="10490" max="10490" width="6.5" style="3" customWidth="1"/>
+    <col min="10485" max="10485" width="9.21875" style="3" customWidth="1"/>
+    <col min="10486" max="10486" width="12.21875" style="3" customWidth="1"/>
+    <col min="10487" max="10487" width="9.109375" style="3" customWidth="1"/>
+    <col min="10488" max="10488" width="3.109375" style="3" customWidth="1"/>
+    <col min="10489" max="10489" width="5.6640625" style="3" customWidth="1"/>
+    <col min="10490" max="10490" width="6.44140625" style="3" customWidth="1"/>
     <col min="10491" max="10491" width="1" style="3" customWidth="1"/>
     <col min="10492" max="10492" width="3" style="3" customWidth="1"/>
-    <col min="10493" max="10493" width="7.125" style="3" customWidth="1"/>
-    <col min="10494" max="10494" width="2.75" style="3" customWidth="1"/>
-    <col min="10495" max="10495" width="8.625" style="3" customWidth="1"/>
+    <col min="10493" max="10493" width="7.109375" style="3" customWidth="1"/>
+    <col min="10494" max="10494" width="2.77734375" style="3" customWidth="1"/>
+    <col min="10495" max="10495" width="8.6640625" style="3" customWidth="1"/>
     <col min="10496" max="10506" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="10507" max="10531" width="9" style="3" customWidth="1"/>
     <col min="10532" max="10731" width="9" style="3"/>
-    <col min="10732" max="10732" width="1.625" style="3" customWidth="1"/>
-    <col min="10733" max="10733" width="1.75" style="3" customWidth="1"/>
-    <col min="10734" max="10734" width="7.375" style="3" customWidth="1"/>
-    <col min="10735" max="10735" width="4.125" style="3" customWidth="1"/>
-    <col min="10736" max="10736" width="2.375" style="3" customWidth="1"/>
+    <col min="10732" max="10732" width="1.6640625" style="3" customWidth="1"/>
+    <col min="10733" max="10733" width="1.77734375" style="3" customWidth="1"/>
+    <col min="10734" max="10734" width="7.33203125" style="3" customWidth="1"/>
+    <col min="10735" max="10735" width="4.109375" style="3" customWidth="1"/>
+    <col min="10736" max="10736" width="2.33203125" style="3" customWidth="1"/>
     <col min="10737" max="10737" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10738" max="10738" width="2.125" style="3" customWidth="1"/>
-    <col min="10739" max="10739" width="2.625" style="3" customWidth="1"/>
+    <col min="10738" max="10738" width="2.109375" style="3" customWidth="1"/>
+    <col min="10739" max="10739" width="2.6640625" style="3" customWidth="1"/>
     <col min="10740" max="10740" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10741" max="10741" width="9.25" style="3" customWidth="1"/>
-    <col min="10742" max="10742" width="12.25" style="3" customWidth="1"/>
-    <col min="10743" max="10743" width="9.125" style="3" customWidth="1"/>
-    <col min="10744" max="10744" width="3.125" style="3" customWidth="1"/>
-    <col min="10745" max="10745" width="5.625" style="3" customWidth="1"/>
-    <col min="10746" max="10746" width="6.5" style="3" customWidth="1"/>
+    <col min="10741" max="10741" width="9.21875" style="3" customWidth="1"/>
+    <col min="10742" max="10742" width="12.21875" style="3" customWidth="1"/>
+    <col min="10743" max="10743" width="9.109375" style="3" customWidth="1"/>
+    <col min="10744" max="10744" width="3.109375" style="3" customWidth="1"/>
+    <col min="10745" max="10745" width="5.6640625" style="3" customWidth="1"/>
+    <col min="10746" max="10746" width="6.44140625" style="3" customWidth="1"/>
     <col min="10747" max="10747" width="1" style="3" customWidth="1"/>
     <col min="10748" max="10748" width="3" style="3" customWidth="1"/>
-    <col min="10749" max="10749" width="7.125" style="3" customWidth="1"/>
-    <col min="10750" max="10750" width="2.75" style="3" customWidth="1"/>
-    <col min="10751" max="10751" width="8.625" style="3" customWidth="1"/>
+    <col min="10749" max="10749" width="7.109375" style="3" customWidth="1"/>
+    <col min="10750" max="10750" width="2.77734375" style="3" customWidth="1"/>
+    <col min="10751" max="10751" width="8.6640625" style="3" customWidth="1"/>
     <col min="10752" max="10762" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="10763" max="10787" width="9" style="3" customWidth="1"/>
     <col min="10788" max="10987" width="9" style="3"/>
-    <col min="10988" max="10988" width="1.625" style="3" customWidth="1"/>
-    <col min="10989" max="10989" width="1.75" style="3" customWidth="1"/>
-    <col min="10990" max="10990" width="7.375" style="3" customWidth="1"/>
-    <col min="10991" max="10991" width="4.125" style="3" customWidth="1"/>
-    <col min="10992" max="10992" width="2.375" style="3" customWidth="1"/>
+    <col min="10988" max="10988" width="1.6640625" style="3" customWidth="1"/>
+    <col min="10989" max="10989" width="1.77734375" style="3" customWidth="1"/>
+    <col min="10990" max="10990" width="7.33203125" style="3" customWidth="1"/>
+    <col min="10991" max="10991" width="4.109375" style="3" customWidth="1"/>
+    <col min="10992" max="10992" width="2.33203125" style="3" customWidth="1"/>
     <col min="10993" max="10993" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10994" max="10994" width="2.125" style="3" customWidth="1"/>
-    <col min="10995" max="10995" width="2.625" style="3" customWidth="1"/>
+    <col min="10994" max="10994" width="2.109375" style="3" customWidth="1"/>
+    <col min="10995" max="10995" width="2.6640625" style="3" customWidth="1"/>
     <col min="10996" max="10996" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10997" max="10997" width="9.25" style="3" customWidth="1"/>
-    <col min="10998" max="10998" width="12.25" style="3" customWidth="1"/>
-    <col min="10999" max="10999" width="9.125" style="3" customWidth="1"/>
-    <col min="11000" max="11000" width="3.125" style="3" customWidth="1"/>
-    <col min="11001" max="11001" width="5.625" style="3" customWidth="1"/>
-    <col min="11002" max="11002" width="6.5" style="3" customWidth="1"/>
+    <col min="10997" max="10997" width="9.21875" style="3" customWidth="1"/>
+    <col min="10998" max="10998" width="12.21875" style="3" customWidth="1"/>
+    <col min="10999" max="10999" width="9.109375" style="3" customWidth="1"/>
+    <col min="11000" max="11000" width="3.109375" style="3" customWidth="1"/>
+    <col min="11001" max="11001" width="5.6640625" style="3" customWidth="1"/>
+    <col min="11002" max="11002" width="6.44140625" style="3" customWidth="1"/>
     <col min="11003" max="11003" width="1" style="3" customWidth="1"/>
     <col min="11004" max="11004" width="3" style="3" customWidth="1"/>
-    <col min="11005" max="11005" width="7.125" style="3" customWidth="1"/>
-    <col min="11006" max="11006" width="2.75" style="3" customWidth="1"/>
-    <col min="11007" max="11007" width="8.625" style="3" customWidth="1"/>
+    <col min="11005" max="11005" width="7.109375" style="3" customWidth="1"/>
+    <col min="11006" max="11006" width="2.77734375" style="3" customWidth="1"/>
+    <col min="11007" max="11007" width="8.6640625" style="3" customWidth="1"/>
     <col min="11008" max="11018" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11019" max="11043" width="9" style="3" customWidth="1"/>
     <col min="11044" max="11243" width="9" style="3"/>
-    <col min="11244" max="11244" width="1.625" style="3" customWidth="1"/>
-    <col min="11245" max="11245" width="1.75" style="3" customWidth="1"/>
-    <col min="11246" max="11246" width="7.375" style="3" customWidth="1"/>
-    <col min="11247" max="11247" width="4.125" style="3" customWidth="1"/>
-    <col min="11248" max="11248" width="2.375" style="3" customWidth="1"/>
+    <col min="11244" max="11244" width="1.6640625" style="3" customWidth="1"/>
+    <col min="11245" max="11245" width="1.77734375" style="3" customWidth="1"/>
+    <col min="11246" max="11246" width="7.33203125" style="3" customWidth="1"/>
+    <col min="11247" max="11247" width="4.109375" style="3" customWidth="1"/>
+    <col min="11248" max="11248" width="2.33203125" style="3" customWidth="1"/>
     <col min="11249" max="11249" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11250" max="11250" width="2.125" style="3" customWidth="1"/>
-    <col min="11251" max="11251" width="2.625" style="3" customWidth="1"/>
+    <col min="11250" max="11250" width="2.109375" style="3" customWidth="1"/>
+    <col min="11251" max="11251" width="2.6640625" style="3" customWidth="1"/>
     <col min="11252" max="11252" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11253" max="11253" width="9.25" style="3" customWidth="1"/>
-    <col min="11254" max="11254" width="12.25" style="3" customWidth="1"/>
-    <col min="11255" max="11255" width="9.125" style="3" customWidth="1"/>
-    <col min="11256" max="11256" width="3.125" style="3" customWidth="1"/>
-    <col min="11257" max="11257" width="5.625" style="3" customWidth="1"/>
-    <col min="11258" max="11258" width="6.5" style="3" customWidth="1"/>
+    <col min="11253" max="11253" width="9.21875" style="3" customWidth="1"/>
+    <col min="11254" max="11254" width="12.21875" style="3" customWidth="1"/>
+    <col min="11255" max="11255" width="9.109375" style="3" customWidth="1"/>
+    <col min="11256" max="11256" width="3.109375" style="3" customWidth="1"/>
+    <col min="11257" max="11257" width="5.6640625" style="3" customWidth="1"/>
+    <col min="11258" max="11258" width="6.44140625" style="3" customWidth="1"/>
     <col min="11259" max="11259" width="1" style="3" customWidth="1"/>
     <col min="11260" max="11260" width="3" style="3" customWidth="1"/>
-    <col min="11261" max="11261" width="7.125" style="3" customWidth="1"/>
-    <col min="11262" max="11262" width="2.75" style="3" customWidth="1"/>
-    <col min="11263" max="11263" width="8.625" style="3" customWidth="1"/>
+    <col min="11261" max="11261" width="7.109375" style="3" customWidth="1"/>
+    <col min="11262" max="11262" width="2.77734375" style="3" customWidth="1"/>
+    <col min="11263" max="11263" width="8.6640625" style="3" customWidth="1"/>
     <col min="11264" max="11274" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11275" max="11299" width="9" style="3" customWidth="1"/>
     <col min="11300" max="11499" width="9" style="3"/>
-    <col min="11500" max="11500" width="1.625" style="3" customWidth="1"/>
-    <col min="11501" max="11501" width="1.75" style="3" customWidth="1"/>
-    <col min="11502" max="11502" width="7.375" style="3" customWidth="1"/>
-    <col min="11503" max="11503" width="4.125" style="3" customWidth="1"/>
-    <col min="11504" max="11504" width="2.375" style="3" customWidth="1"/>
+    <col min="11500" max="11500" width="1.6640625" style="3" customWidth="1"/>
+    <col min="11501" max="11501" width="1.77734375" style="3" customWidth="1"/>
+    <col min="11502" max="11502" width="7.33203125" style="3" customWidth="1"/>
+    <col min="11503" max="11503" width="4.109375" style="3" customWidth="1"/>
+    <col min="11504" max="11504" width="2.33203125" style="3" customWidth="1"/>
     <col min="11505" max="11505" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11506" max="11506" width="2.125" style="3" customWidth="1"/>
-    <col min="11507" max="11507" width="2.625" style="3" customWidth="1"/>
+    <col min="11506" max="11506" width="2.109375" style="3" customWidth="1"/>
+    <col min="11507" max="11507" width="2.6640625" style="3" customWidth="1"/>
     <col min="11508" max="11508" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11509" max="11509" width="9.25" style="3" customWidth="1"/>
-    <col min="11510" max="11510" width="12.25" style="3" customWidth="1"/>
-    <col min="11511" max="11511" width="9.125" style="3" customWidth="1"/>
-    <col min="11512" max="11512" width="3.125" style="3" customWidth="1"/>
-    <col min="11513" max="11513" width="5.625" style="3" customWidth="1"/>
-    <col min="11514" max="11514" width="6.5" style="3" customWidth="1"/>
+    <col min="11509" max="11509" width="9.21875" style="3" customWidth="1"/>
+    <col min="11510" max="11510" width="12.21875" style="3" customWidth="1"/>
+    <col min="11511" max="11511" width="9.109375" style="3" customWidth="1"/>
+    <col min="11512" max="11512" width="3.109375" style="3" customWidth="1"/>
+    <col min="11513" max="11513" width="5.6640625" style="3" customWidth="1"/>
+    <col min="11514" max="11514" width="6.44140625" style="3" customWidth="1"/>
     <col min="11515" max="11515" width="1" style="3" customWidth="1"/>
     <col min="11516" max="11516" width="3" style="3" customWidth="1"/>
-    <col min="11517" max="11517" width="7.125" style="3" customWidth="1"/>
-    <col min="11518" max="11518" width="2.75" style="3" customWidth="1"/>
-    <col min="11519" max="11519" width="8.625" style="3" customWidth="1"/>
+    <col min="11517" max="11517" width="7.109375" style="3" customWidth="1"/>
+    <col min="11518" max="11518" width="2.77734375" style="3" customWidth="1"/>
+    <col min="11519" max="11519" width="8.6640625" style="3" customWidth="1"/>
     <col min="11520" max="11530" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11531" max="11555" width="9" style="3" customWidth="1"/>
     <col min="11556" max="11755" width="9" style="3"/>
-    <col min="11756" max="11756" width="1.625" style="3" customWidth="1"/>
-    <col min="11757" max="11757" width="1.75" style="3" customWidth="1"/>
-    <col min="11758" max="11758" width="7.375" style="3" customWidth="1"/>
-    <col min="11759" max="11759" width="4.125" style="3" customWidth="1"/>
-    <col min="11760" max="11760" width="2.375" style="3" customWidth="1"/>
+    <col min="11756" max="11756" width="1.6640625" style="3" customWidth="1"/>
+    <col min="11757" max="11757" width="1.77734375" style="3" customWidth="1"/>
+    <col min="11758" max="11758" width="7.33203125" style="3" customWidth="1"/>
+    <col min="11759" max="11759" width="4.109375" style="3" customWidth="1"/>
+    <col min="11760" max="11760" width="2.33203125" style="3" customWidth="1"/>
     <col min="11761" max="11761" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11762" max="11762" width="2.125" style="3" customWidth="1"/>
-    <col min="11763" max="11763" width="2.625" style="3" customWidth="1"/>
+    <col min="11762" max="11762" width="2.109375" style="3" customWidth="1"/>
+    <col min="11763" max="11763" width="2.6640625" style="3" customWidth="1"/>
     <col min="11764" max="11764" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11765" max="11765" width="9.25" style="3" customWidth="1"/>
-    <col min="11766" max="11766" width="12.25" style="3" customWidth="1"/>
-    <col min="11767" max="11767" width="9.125" style="3" customWidth="1"/>
-    <col min="11768" max="11768" width="3.125" style="3" customWidth="1"/>
-    <col min="11769" max="11769" width="5.625" style="3" customWidth="1"/>
-    <col min="11770" max="11770" width="6.5" style="3" customWidth="1"/>
+    <col min="11765" max="11765" width="9.21875" style="3" customWidth="1"/>
+    <col min="11766" max="11766" width="12.21875" style="3" customWidth="1"/>
+    <col min="11767" max="11767" width="9.109375" style="3" customWidth="1"/>
+    <col min="11768" max="11768" width="3.109375" style="3" customWidth="1"/>
+    <col min="11769" max="11769" width="5.6640625" style="3" customWidth="1"/>
+    <col min="11770" max="11770" width="6.44140625" style="3" customWidth="1"/>
     <col min="11771" max="11771" width="1" style="3" customWidth="1"/>
     <col min="11772" max="11772" width="3" style="3" customWidth="1"/>
-    <col min="11773" max="11773" width="7.125" style="3" customWidth="1"/>
-    <col min="11774" max="11774" width="2.75" style="3" customWidth="1"/>
-    <col min="11775" max="11775" width="8.625" style="3" customWidth="1"/>
+    <col min="11773" max="11773" width="7.109375" style="3" customWidth="1"/>
+    <col min="11774" max="11774" width="2.77734375" style="3" customWidth="1"/>
+    <col min="11775" max="11775" width="8.6640625" style="3" customWidth="1"/>
     <col min="11776" max="11786" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11787" max="11811" width="9" style="3" customWidth="1"/>
     <col min="11812" max="12011" width="9" style="3"/>
-    <col min="12012" max="12012" width="1.625" style="3" customWidth="1"/>
-    <col min="12013" max="12013" width="1.75" style="3" customWidth="1"/>
-    <col min="12014" max="12014" width="7.375" style="3" customWidth="1"/>
-    <col min="12015" max="12015" width="4.125" style="3" customWidth="1"/>
-    <col min="12016" max="12016" width="2.375" style="3" customWidth="1"/>
+    <col min="12012" max="12012" width="1.6640625" style="3" customWidth="1"/>
+    <col min="12013" max="12013" width="1.77734375" style="3" customWidth="1"/>
+    <col min="12014" max="12014" width="7.33203125" style="3" customWidth="1"/>
+    <col min="12015" max="12015" width="4.109375" style="3" customWidth="1"/>
+    <col min="12016" max="12016" width="2.33203125" style="3" customWidth="1"/>
     <col min="12017" max="12017" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12018" max="12018" width="2.125" style="3" customWidth="1"/>
-    <col min="12019" max="12019" width="2.625" style="3" customWidth="1"/>
+    <col min="12018" max="12018" width="2.109375" style="3" customWidth="1"/>
+    <col min="12019" max="12019" width="2.6640625" style="3" customWidth="1"/>
     <col min="12020" max="12020" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12021" max="12021" width="9.25" style="3" customWidth="1"/>
-    <col min="12022" max="12022" width="12.25" style="3" customWidth="1"/>
-    <col min="12023" max="12023" width="9.125" style="3" customWidth="1"/>
-    <col min="12024" max="12024" width="3.125" style="3" customWidth="1"/>
-    <col min="12025" max="12025" width="5.625" style="3" customWidth="1"/>
-    <col min="12026" max="12026" width="6.5" style="3" customWidth="1"/>
+    <col min="12021" max="12021" width="9.21875" style="3" customWidth="1"/>
+    <col min="12022" max="12022" width="12.21875" style="3" customWidth="1"/>
+    <col min="12023" max="12023" width="9.109375" style="3" customWidth="1"/>
+    <col min="12024" max="12024" width="3.109375" style="3" customWidth="1"/>
+    <col min="12025" max="12025" width="5.6640625" style="3" customWidth="1"/>
+    <col min="12026" max="12026" width="6.44140625" style="3" customWidth="1"/>
     <col min="12027" max="12027" width="1" style="3" customWidth="1"/>
     <col min="12028" max="12028" width="3" style="3" customWidth="1"/>
-    <col min="12029" max="12029" width="7.125" style="3" customWidth="1"/>
-    <col min="12030" max="12030" width="2.75" style="3" customWidth="1"/>
-    <col min="12031" max="12031" width="8.625" style="3" customWidth="1"/>
+    <col min="12029" max="12029" width="7.109375" style="3" customWidth="1"/>
+    <col min="12030" max="12030" width="2.77734375" style="3" customWidth="1"/>
+    <col min="12031" max="12031" width="8.6640625" style="3" customWidth="1"/>
     <col min="12032" max="12042" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="12043" max="12067" width="9" style="3" customWidth="1"/>
     <col min="12068" max="12267" width="9" style="3"/>
-    <col min="12268" max="12268" width="1.625" style="3" customWidth="1"/>
-    <col min="12269" max="12269" width="1.75" style="3" customWidth="1"/>
-    <col min="12270" max="12270" width="7.375" style="3" customWidth="1"/>
-    <col min="12271" max="12271" width="4.125" style="3" customWidth="1"/>
-    <col min="12272" max="12272" width="2.375" style="3" customWidth="1"/>
+    <col min="12268" max="12268" width="1.6640625" style="3" customWidth="1"/>
+    <col min="12269" max="12269" width="1.77734375" style="3" customWidth="1"/>
+    <col min="12270" max="12270" width="7.33203125" style="3" customWidth="1"/>
+    <col min="12271" max="12271" width="4.109375" style="3" customWidth="1"/>
+    <col min="12272" max="12272" width="2.33203125" style="3" customWidth="1"/>
     <col min="12273" max="12273" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12274" max="12274" width="2.125" style="3" customWidth="1"/>
-    <col min="12275" max="12275" width="2.625" style="3" customWidth="1"/>
+    <col min="12274" max="12274" width="2.109375" style="3" customWidth="1"/>
+    <col min="12275" max="12275" width="2.6640625" style="3" customWidth="1"/>
     <col min="12276" max="12276" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12277" max="12277" width="9.25" style="3" customWidth="1"/>
-    <col min="12278" max="12278" width="12.25" style="3" customWidth="1"/>
-    <col min="12279" max="12279" width="9.125" style="3" customWidth="1"/>
-    <col min="12280" max="12280" width="3.125" style="3" customWidth="1"/>
-    <col min="12281" max="12281" width="5.625" style="3" customWidth="1"/>
-    <col min="12282" max="12282" width="6.5" style="3" customWidth="1"/>
+    <col min="12277" max="12277" width="9.21875" style="3" customWidth="1"/>
+    <col min="12278" max="12278" width="12.21875" style="3" customWidth="1"/>
+    <col min="12279" max="12279" width="9.109375" style="3" customWidth="1"/>
+    <col min="12280" max="12280" width="3.109375" style="3" customWidth="1"/>
+    <col min="12281" max="12281" width="5.6640625" style="3" customWidth="1"/>
+    <col min="12282" max="12282" width="6.44140625" style="3" customWidth="1"/>
     <col min="12283" max="12283" width="1" style="3" customWidth="1"/>
     <col min="12284" max="12284" width="3" style="3" customWidth="1"/>
-    <col min="12285" max="12285" width="7.125" style="3" customWidth="1"/>
-    <col min="12286" max="12286" width="2.75" style="3" customWidth="1"/>
-    <col min="12287" max="12287" width="8.625" style="3" customWidth="1"/>
+    <col min="12285" max="12285" width="7.109375" style="3" customWidth="1"/>
+    <col min="12286" max="12286" width="2.77734375" style="3" customWidth="1"/>
+    <col min="12287" max="12287" width="8.6640625" style="3" customWidth="1"/>
     <col min="12288" max="12298" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="12299" max="12323" width="9" style="3" customWidth="1"/>
     <col min="12324" max="12523" width="9" style="3"/>
-    <col min="12524" max="12524" width="1.625" style="3" customWidth="1"/>
-    <col min="12525" max="12525" width="1.75" style="3" customWidth="1"/>
-    <col min="12526" max="12526" width="7.375" style="3" customWidth="1"/>
-    <col min="12527" max="12527" width="4.125" style="3" customWidth="1"/>
-    <col min="12528" max="12528" width="2.375" style="3" customWidth="1"/>
+    <col min="12524" max="12524" width="1.6640625" style="3" customWidth="1"/>
+    <col min="12525" max="12525" width="1.77734375" style="3" customWidth="1"/>
+    <col min="12526" max="12526" width="7.33203125" style="3" customWidth="1"/>
+    <col min="12527" max="12527" width="4.109375" style="3" customWidth="1"/>
+    <col min="12528" max="12528" width="2.33203125" style="3" customWidth="1"/>
     <col min="12529" max="12529" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12530" max="12530" width="2.125" style="3" customWidth="1"/>
-    <col min="12531" max="12531" width="2.625" style="3" customWidth="1"/>
+    <col min="12530" max="12530" width="2.109375" style="3" customWidth="1"/>
+    <col min="12531" max="12531" width="2.6640625" style="3" customWidth="1"/>
     <col min="12532" max="12532" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12533" max="12533" width="9.25" style="3" customWidth="1"/>
-    <col min="12534" max="12534" width="12.25" style="3" customWidth="1"/>
-    <col min="12535" max="12535" width="9.125" style="3" customWidth="1"/>
-    <col min="12536" max="12536" width="3.125" style="3" customWidth="1"/>
-    <col min="12537" max="12537" width="5.625" style="3" customWidth="1"/>
-    <col min="12538" max="12538" width="6.5" style="3" customWidth="1"/>
+    <col min="12533" max="12533" width="9.21875" style="3" customWidth="1"/>
+    <col min="12534" max="12534" width="12.21875" style="3" customWidth="1"/>
+    <col min="12535" max="12535" width="9.109375" style="3" customWidth="1"/>
+    <col min="12536" max="12536" width="3.109375" style="3" customWidth="1"/>
+    <col min="12537" max="12537" width="5.6640625" style="3" customWidth="1"/>
+    <col min="12538" max="12538" width="6.44140625" style="3" customWidth="1"/>
     <col min="12539" max="12539" width="1" style="3" customWidth="1"/>
     <col min="12540" max="12540" width="3" style="3" customWidth="1"/>
-    <col min="12541" max="12541" width="7.125" style="3" customWidth="1"/>
-    <col min="12542" max="12542" width="2.75" style="3" customWidth="1"/>
-    <col min="12543" max="12543" width="8.625" style="3" customWidth="1"/>
+    <col min="12541" max="12541" width="7.109375" style="3" customWidth="1"/>
+    <col min="12542" max="12542" width="2.77734375" style="3" customWidth="1"/>
+    <col min="12543" max="12543" width="8.6640625" style="3" customWidth="1"/>
     <col min="12544" max="12554" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="12555" max="12579" width="9" style="3" customWidth="1"/>
     <col min="12580" max="12779" width="9" style="3"/>
-    <col min="12780" max="12780" width="1.625" style="3" customWidth="1"/>
-    <col min="12781" max="12781" width="1.75" style="3" customWidth="1"/>
-    <col min="12782" max="12782" width="7.375" style="3" customWidth="1"/>
-    <col min="12783" max="12783" width="4.125" style="3" customWidth="1"/>
-    <col min="12784" max="12784" width="2.375" style="3" customWidth="1"/>
+    <col min="12780" max="12780" width="1.6640625" style="3" customWidth="1"/>
+    <col min="12781" max="12781" width="1.77734375" style="3" customWidth="1"/>
+    <col min="12782" max="12782" width="7.33203125" style="3" customWidth="1"/>
+    <col min="12783" max="12783" width="4.109375" style="3" customWidth="1"/>
+    <col min="12784" max="12784" width="2.33203125" style="3" customWidth="1"/>
     <col min="12785" max="12785" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12786" max="12786" width="2.125" style="3" customWidth="1"/>
-    <col min="12787" max="12787" width="2.625" style="3" customWidth="1"/>
+    <col min="12786" max="12786" width="2.109375" style="3" customWidth="1"/>
+    <col min="12787" max="12787" width="2.6640625" style="3" customWidth="1"/>
     <col min="12788" max="12788" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12789" max="12789" width="9.25" style="3" customWidth="1"/>
-    <col min="12790" max="12790" width="12.25" style="3" customWidth="1"/>
-    <col min="12791" max="12791" width="9.125" style="3" customWidth="1"/>
-    <col min="12792" max="12792" width="3.125" style="3" customWidth="1"/>
-    <col min="12793" max="12793" width="5.625" style="3" customWidth="1"/>
-    <col min="12794" max="12794" width="6.5" style="3" customWidth="1"/>
+    <col min="12789" max="12789" width="9.21875" style="3" customWidth="1"/>
+    <col min="12790" max="12790" width="12.21875" style="3" customWidth="1"/>
+    <col min="12791" max="12791" width="9.109375" style="3" customWidth="1"/>
+    <col min="12792" max="12792" width="3.109375" style="3" customWidth="1"/>
+    <col min="12793" max="12793" width="5.6640625" style="3" customWidth="1"/>
+    <col min="12794" max="12794" width="6.44140625" style="3" customWidth="1"/>
     <col min="12795" max="12795" width="1" style="3" customWidth="1"/>
     <col min="12796" max="12796" width="3" style="3" customWidth="1"/>
-    <col min="12797" max="12797" width="7.125" style="3" customWidth="1"/>
-    <col min="12798" max="12798" width="2.75" style="3" customWidth="1"/>
-    <col min="12799" max="12799" width="8.625" style="3" customWidth="1"/>
+    <col min="12797" max="12797" width="7.109375" style="3" customWidth="1"/>
+    <col min="12798" max="12798" width="2.77734375" style="3" customWidth="1"/>
+    <col min="12799" max="12799" width="8.6640625" style="3" customWidth="1"/>
     <col min="12800" max="12810" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="12811" max="12835" width="9" style="3" customWidth="1"/>
     <col min="12836" max="13035" width="9" style="3"/>
-    <col min="13036" max="13036" width="1.625" style="3" customWidth="1"/>
-    <col min="13037" max="13037" width="1.75" style="3" customWidth="1"/>
-    <col min="13038" max="13038" width="7.375" style="3" customWidth="1"/>
-    <col min="13039" max="13039" width="4.125" style="3" customWidth="1"/>
-    <col min="13040" max="13040" width="2.375" style="3" customWidth="1"/>
+    <col min="13036" max="13036" width="1.6640625" style="3" customWidth="1"/>
+    <col min="13037" max="13037" width="1.77734375" style="3" customWidth="1"/>
+    <col min="13038" max="13038" width="7.33203125" style="3" customWidth="1"/>
+    <col min="13039" max="13039" width="4.109375" style="3" customWidth="1"/>
+    <col min="13040" max="13040" width="2.33203125" style="3" customWidth="1"/>
     <col min="13041" max="13041" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13042" max="13042" width="2.125" style="3" customWidth="1"/>
-    <col min="13043" max="13043" width="2.625" style="3" customWidth="1"/>
+    <col min="13042" max="13042" width="2.109375" style="3" customWidth="1"/>
+    <col min="13043" max="13043" width="2.6640625" style="3" customWidth="1"/>
     <col min="13044" max="13044" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13045" max="13045" width="9.25" style="3" customWidth="1"/>
-    <col min="13046" max="13046" width="12.25" style="3" customWidth="1"/>
-    <col min="13047" max="13047" width="9.125" style="3" customWidth="1"/>
-    <col min="13048" max="13048" width="3.125" style="3" customWidth="1"/>
-    <col min="13049" max="13049" width="5.625" style="3" customWidth="1"/>
-    <col min="13050" max="13050" width="6.5" style="3" customWidth="1"/>
+    <col min="13045" max="13045" width="9.21875" style="3" customWidth="1"/>
+    <col min="13046" max="13046" width="12.21875" style="3" customWidth="1"/>
+    <col min="13047" max="13047" width="9.109375" style="3" customWidth="1"/>
+    <col min="13048" max="13048" width="3.109375" style="3" customWidth="1"/>
+    <col min="13049" max="13049" width="5.6640625" style="3" customWidth="1"/>
+    <col min="13050" max="13050" width="6.44140625" style="3" customWidth="1"/>
     <col min="13051" max="13051" width="1" style="3" customWidth="1"/>
     <col min="13052" max="13052" width="3" style="3" customWidth="1"/>
-    <col min="13053" max="13053" width="7.125" style="3" customWidth="1"/>
-    <col min="13054" max="13054" width="2.75" style="3" customWidth="1"/>
-    <col min="13055" max="13055" width="8.625" style="3" customWidth="1"/>
+    <col min="13053" max="13053" width="7.109375" style="3" customWidth="1"/>
+    <col min="13054" max="13054" width="2.77734375" style="3" customWidth="1"/>
+    <col min="13055" max="13055" width="8.6640625" style="3" customWidth="1"/>
     <col min="13056" max="13066" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="13067" max="13091" width="9" style="3" customWidth="1"/>
     <col min="13092" max="13291" width="9" style="3"/>
-    <col min="13292" max="13292" width="1.625" style="3" customWidth="1"/>
-    <col min="13293" max="13293" width="1.75" style="3" customWidth="1"/>
-    <col min="13294" max="13294" width="7.375" style="3" customWidth="1"/>
-    <col min="13295" max="13295" width="4.125" style="3" customWidth="1"/>
-    <col min="13296" max="13296" width="2.375" style="3" customWidth="1"/>
+    <col min="13292" max="13292" width="1.6640625" style="3" customWidth="1"/>
+    <col min="13293" max="13293" width="1.77734375" style="3" customWidth="1"/>
+    <col min="13294" max="13294" width="7.33203125" style="3" customWidth="1"/>
+    <col min="13295" max="13295" width="4.109375" style="3" customWidth="1"/>
+    <col min="13296" max="13296" width="2.33203125" style="3" customWidth="1"/>
     <col min="13297" max="13297" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13298" max="13298" width="2.125" style="3" customWidth="1"/>
-    <col min="13299" max="13299" width="2.625" style="3" customWidth="1"/>
+    <col min="13298" max="13298" width="2.109375" style="3" customWidth="1"/>
+    <col min="13299" max="13299" width="2.6640625" style="3" customWidth="1"/>
     <col min="13300" max="13300" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13301" max="13301" width="9.25" style="3" customWidth="1"/>
-    <col min="13302" max="13302" width="12.25" style="3" customWidth="1"/>
-    <col min="13303" max="13303" width="9.125" style="3" customWidth="1"/>
-    <col min="13304" max="13304" width="3.125" style="3" customWidth="1"/>
-    <col min="13305" max="13305" width="5.625" style="3" customWidth="1"/>
-    <col min="13306" max="13306" width="6.5" style="3" customWidth="1"/>
+    <col min="13301" max="13301" width="9.21875" style="3" customWidth="1"/>
+    <col min="13302" max="13302" width="12.21875" style="3" customWidth="1"/>
+    <col min="13303" max="13303" width="9.109375" style="3" customWidth="1"/>
+    <col min="13304" max="13304" width="3.109375" style="3" customWidth="1"/>
+    <col min="13305" max="13305" width="5.6640625" style="3" customWidth="1"/>
+    <col min="13306" max="13306" width="6.44140625" style="3" customWidth="1"/>
     <col min="13307" max="13307" width="1" style="3" customWidth="1"/>
     <col min="13308" max="13308" width="3" style="3" customWidth="1"/>
-    <col min="13309" max="13309" width="7.125" style="3" customWidth="1"/>
-    <col min="13310" max="13310" width="2.75" style="3" customWidth="1"/>
-    <col min="13311" max="13311" width="8.625" style="3" customWidth="1"/>
+    <col min="13309" max="13309" width="7.109375" style="3" customWidth="1"/>
+    <col min="13310" max="13310" width="2.77734375" style="3" customWidth="1"/>
+    <col min="13311" max="13311" width="8.6640625" style="3" customWidth="1"/>
     <col min="13312" max="13322" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="13323" max="13347" width="9" style="3" customWidth="1"/>
     <col min="13348" max="13547" width="9" style="3"/>
-    <col min="13548" max="13548" width="1.625" style="3" customWidth="1"/>
-    <col min="13549" max="13549" width="1.75" style="3" customWidth="1"/>
-    <col min="13550" max="13550" width="7.375" style="3" customWidth="1"/>
-    <col min="13551" max="13551" width="4.125" style="3" customWidth="1"/>
-    <col min="13552" max="13552" width="2.375" style="3" customWidth="1"/>
+    <col min="13548" max="13548" width="1.6640625" style="3" customWidth="1"/>
+    <col min="13549" max="13549" width="1.77734375" style="3" customWidth="1"/>
+    <col min="13550" max="13550" width="7.33203125" style="3" customWidth="1"/>
+    <col min="13551" max="13551" width="4.109375" style="3" customWidth="1"/>
+    <col min="13552" max="13552" width="2.33203125" style="3" customWidth="1"/>
     <col min="13553" max="13553" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13554" max="13554" width="2.125" style="3" customWidth="1"/>
-    <col min="13555" max="13555" width="2.625" style="3" customWidth="1"/>
+    <col min="13554" max="13554" width="2.109375" style="3" customWidth="1"/>
+    <col min="13555" max="13555" width="2.6640625" style="3" customWidth="1"/>
     <col min="13556" max="13556" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13557" max="13557" width="9.25" style="3" customWidth="1"/>
-    <col min="13558" max="13558" width="12.25" style="3" customWidth="1"/>
-    <col min="13559" max="13559" width="9.125" style="3" customWidth="1"/>
-    <col min="13560" max="13560" width="3.125" style="3" customWidth="1"/>
-    <col min="13561" max="13561" width="5.625" style="3" customWidth="1"/>
-    <col min="13562" max="13562" width="6.5" style="3" customWidth="1"/>
+    <col min="13557" max="13557" width="9.21875" style="3" customWidth="1"/>
+    <col min="13558" max="13558" width="12.21875" style="3" customWidth="1"/>
+    <col min="13559" max="13559" width="9.109375" style="3" customWidth="1"/>
+    <col min="13560" max="13560" width="3.109375" style="3" customWidth="1"/>
+    <col min="13561" max="13561" width="5.6640625" style="3" customWidth="1"/>
+    <col min="13562" max="13562" width="6.44140625" style="3" customWidth="1"/>
     <col min="13563" max="13563" width="1" style="3" customWidth="1"/>
     <col min="13564" max="13564" width="3" style="3" customWidth="1"/>
-    <col min="13565" max="13565" width="7.125" style="3" customWidth="1"/>
-    <col min="13566" max="13566" width="2.75" style="3" customWidth="1"/>
-    <col min="13567" max="13567" width="8.625" style="3" customWidth="1"/>
+    <col min="13565" max="13565" width="7.109375" style="3" customWidth="1"/>
+    <col min="13566" max="13566" width="2.77734375" style="3" customWidth="1"/>
+    <col min="13567" max="13567" width="8.6640625" style="3" customWidth="1"/>
     <col min="13568" max="13578" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="13579" max="13603" width="9" style="3" customWidth="1"/>
     <col min="13604" max="13803" width="9" style="3"/>
-    <col min="13804" max="13804" width="1.625" style="3" customWidth="1"/>
-    <col min="13805" max="13805" width="1.75" style="3" customWidth="1"/>
-    <col min="13806" max="13806" width="7.375" style="3" customWidth="1"/>
-    <col min="13807" max="13807" width="4.125" style="3" customWidth="1"/>
-    <col min="13808" max="13808" width="2.375" style="3" customWidth="1"/>
+    <col min="13804" max="13804" width="1.6640625" style="3" customWidth="1"/>
+    <col min="13805" max="13805" width="1.77734375" style="3" customWidth="1"/>
+    <col min="13806" max="13806" width="7.33203125" style="3" customWidth="1"/>
+    <col min="13807" max="13807" width="4.109375" style="3" customWidth="1"/>
+    <col min="13808" max="13808" width="2.33203125" style="3" customWidth="1"/>
     <col min="13809" max="13809" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13810" max="13810" width="2.125" style="3" customWidth="1"/>
-    <col min="13811" max="13811" width="2.625" style="3" customWidth="1"/>
+    <col min="13810" max="13810" width="2.109375" style="3" customWidth="1"/>
+    <col min="13811" max="13811" width="2.6640625" style="3" customWidth="1"/>
     <col min="13812" max="13812" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13813" max="13813" width="9.25" style="3" customWidth="1"/>
-    <col min="13814" max="13814" width="12.25" style="3" customWidth="1"/>
-    <col min="13815" max="13815" width="9.125" style="3" customWidth="1"/>
-    <col min="13816" max="13816" width="3.125" style="3" customWidth="1"/>
-    <col min="13817" max="13817" width="5.625" style="3" customWidth="1"/>
-    <col min="13818" max="13818" width="6.5" style="3" customWidth="1"/>
+    <col min="13813" max="13813" width="9.21875" style="3" customWidth="1"/>
+    <col min="13814" max="13814" width="12.21875" style="3" customWidth="1"/>
+    <col min="13815" max="13815" width="9.109375" style="3" customWidth="1"/>
+    <col min="13816" max="13816" width="3.109375" style="3" customWidth="1"/>
+    <col min="13817" max="13817" width="5.6640625" style="3" customWidth="1"/>
+    <col min="13818" max="13818" width="6.44140625" style="3" customWidth="1"/>
     <col min="13819" max="13819" width="1" style="3" customWidth="1"/>
     <col min="13820" max="13820" width="3" style="3" customWidth="1"/>
-    <col min="13821" max="13821" width="7.125" style="3" customWidth="1"/>
-    <col min="13822" max="13822" width="2.75" style="3" customWidth="1"/>
-    <col min="13823" max="13823" width="8.625" style="3" customWidth="1"/>
+    <col min="13821" max="13821" width="7.109375" style="3" customWidth="1"/>
+    <col min="13822" max="13822" width="2.77734375" style="3" customWidth="1"/>
+    <col min="13823" max="13823" width="8.6640625" style="3" customWidth="1"/>
     <col min="13824" max="13834" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="13835" max="13859" width="9" style="3" customWidth="1"/>
     <col min="13860" max="14059" width="9" style="3"/>
-    <col min="14060" max="14060" width="1.625" style="3" customWidth="1"/>
-    <col min="14061" max="14061" width="1.75" style="3" customWidth="1"/>
-    <col min="14062" max="14062" width="7.375" style="3" customWidth="1"/>
-    <col min="14063" max="14063" width="4.125" style="3" customWidth="1"/>
-    <col min="14064" max="14064" width="2.375" style="3" customWidth="1"/>
+    <col min="14060" max="14060" width="1.6640625" style="3" customWidth="1"/>
+    <col min="14061" max="14061" width="1.77734375" style="3" customWidth="1"/>
+    <col min="14062" max="14062" width="7.33203125" style="3" customWidth="1"/>
+    <col min="14063" max="14063" width="4.109375" style="3" customWidth="1"/>
+    <col min="14064" max="14064" width="2.33203125" style="3" customWidth="1"/>
     <col min="14065" max="14065" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14066" max="14066" width="2.125" style="3" customWidth="1"/>
-    <col min="14067" max="14067" width="2.625" style="3" customWidth="1"/>
+    <col min="14066" max="14066" width="2.109375" style="3" customWidth="1"/>
+    <col min="14067" max="14067" width="2.6640625" style="3" customWidth="1"/>
     <col min="14068" max="14068" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14069" max="14069" width="9.25" style="3" customWidth="1"/>
-    <col min="14070" max="14070" width="12.25" style="3" customWidth="1"/>
-    <col min="14071" max="14071" width="9.125" style="3" customWidth="1"/>
-    <col min="14072" max="14072" width="3.125" style="3" customWidth="1"/>
-    <col min="14073" max="14073" width="5.625" style="3" customWidth="1"/>
-    <col min="14074" max="14074" width="6.5" style="3" customWidth="1"/>
+    <col min="14069" max="14069" width="9.21875" style="3" customWidth="1"/>
+    <col min="14070" max="14070" width="12.21875" style="3" customWidth="1"/>
+    <col min="14071" max="14071" width="9.109375" style="3" customWidth="1"/>
+    <col min="14072" max="14072" width="3.109375" style="3" customWidth="1"/>
+    <col min="14073" max="14073" width="5.6640625" style="3" customWidth="1"/>
+    <col min="14074" max="14074" width="6.44140625" style="3" customWidth="1"/>
     <col min="14075" max="14075" width="1" style="3" customWidth="1"/>
     <col min="14076" max="14076" width="3" style="3" customWidth="1"/>
-    <col min="14077" max="14077" width="7.125" style="3" customWidth="1"/>
-    <col min="14078" max="14078" width="2.75" style="3" customWidth="1"/>
-    <col min="14079" max="14079" width="8.625" style="3" customWidth="1"/>
+    <col min="14077" max="14077" width="7.109375" style="3" customWidth="1"/>
+    <col min="14078" max="14078" width="2.77734375" style="3" customWidth="1"/>
+    <col min="14079" max="14079" width="8.6640625" style="3" customWidth="1"/>
     <col min="14080" max="14090" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="14091" max="14115" width="9" style="3" customWidth="1"/>
     <col min="14116" max="14315" width="9" style="3"/>
-    <col min="14316" max="14316" width="1.625" style="3" customWidth="1"/>
-    <col min="14317" max="14317" width="1.75" style="3" customWidth="1"/>
-    <col min="14318" max="14318" width="7.375" style="3" customWidth="1"/>
-    <col min="14319" max="14319" width="4.125" style="3" customWidth="1"/>
-    <col min="14320" max="14320" width="2.375" style="3" customWidth="1"/>
+    <col min="14316" max="14316" width="1.6640625" style="3" customWidth="1"/>
+    <col min="14317" max="14317" width="1.77734375" style="3" customWidth="1"/>
+    <col min="14318" max="14318" width="7.33203125" style="3" customWidth="1"/>
+    <col min="14319" max="14319" width="4.109375" style="3" customWidth="1"/>
+    <col min="14320" max="14320" width="2.33203125" style="3" customWidth="1"/>
     <col min="14321" max="14321" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14322" max="14322" width="2.125" style="3" customWidth="1"/>
-    <col min="14323" max="14323" width="2.625" style="3" customWidth="1"/>
+    <col min="14322" max="14322" width="2.109375" style="3" customWidth="1"/>
+    <col min="14323" max="14323" width="2.6640625" style="3" customWidth="1"/>
     <col min="14324" max="14324" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14325" max="14325" width="9.25" style="3" customWidth="1"/>
-    <col min="14326" max="14326" width="12.25" style="3" customWidth="1"/>
-    <col min="14327" max="14327" width="9.125" style="3" customWidth="1"/>
-    <col min="14328" max="14328" width="3.125" style="3" customWidth="1"/>
-    <col min="14329" max="14329" width="5.625" style="3" customWidth="1"/>
-    <col min="14330" max="14330" width="6.5" style="3" customWidth="1"/>
+    <col min="14325" max="14325" width="9.21875" style="3" customWidth="1"/>
+    <col min="14326" max="14326" width="12.21875" style="3" customWidth="1"/>
+    <col min="14327" max="14327" width="9.109375" style="3" customWidth="1"/>
+    <col min="14328" max="14328" width="3.109375" style="3" customWidth="1"/>
+    <col min="14329" max="14329" width="5.6640625" style="3" customWidth="1"/>
+    <col min="14330" max="14330" width="6.44140625" style="3" customWidth="1"/>
     <col min="14331" max="14331" width="1" style="3" customWidth="1"/>
     <col min="14332" max="14332" width="3" style="3" customWidth="1"/>
-    <col min="14333" max="14333" width="7.125" style="3" customWidth="1"/>
-    <col min="14334" max="14334" width="2.75" style="3" customWidth="1"/>
-    <col min="14335" max="14335" width="8.625" style="3" customWidth="1"/>
+    <col min="14333" max="14333" width="7.109375" style="3" customWidth="1"/>
+    <col min="14334" max="14334" width="2.77734375" style="3" customWidth="1"/>
+    <col min="14335" max="14335" width="8.6640625" style="3" customWidth="1"/>
     <col min="14336" max="14346" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="14347" max="14371" width="9" style="3" customWidth="1"/>
     <col min="14372" max="14571" width="9" style="3"/>
-    <col min="14572" max="14572" width="1.625" style="3" customWidth="1"/>
-    <col min="14573" max="14573" width="1.75" style="3" customWidth="1"/>
-    <col min="14574" max="14574" width="7.375" style="3" customWidth="1"/>
-    <col min="14575" max="14575" width="4.125" style="3" customWidth="1"/>
-    <col min="14576" max="14576" width="2.375" style="3" customWidth="1"/>
+    <col min="14572" max="14572" width="1.6640625" style="3" customWidth="1"/>
+    <col min="14573" max="14573" width="1.77734375" style="3" customWidth="1"/>
+    <col min="14574" max="14574" width="7.33203125" style="3" customWidth="1"/>
+    <col min="14575" max="14575" width="4.109375" style="3" customWidth="1"/>
+    <col min="14576" max="14576" width="2.33203125" style="3" customWidth="1"/>
     <col min="14577" max="14577" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14578" max="14578" width="2.125" style="3" customWidth="1"/>
-    <col min="14579" max="14579" width="2.625" style="3" customWidth="1"/>
+    <col min="14578" max="14578" width="2.109375" style="3" customWidth="1"/>
+    <col min="14579" max="14579" width="2.6640625" style="3" customWidth="1"/>
     <col min="14580" max="14580" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14581" max="14581" width="9.25" style="3" customWidth="1"/>
-    <col min="14582" max="14582" width="12.25" style="3" customWidth="1"/>
-    <col min="14583" max="14583" width="9.125" style="3" customWidth="1"/>
-    <col min="14584" max="14584" width="3.125" style="3" customWidth="1"/>
-    <col min="14585" max="14585" width="5.625" style="3" customWidth="1"/>
-    <col min="14586" max="14586" width="6.5" style="3" customWidth="1"/>
+    <col min="14581" max="14581" width="9.21875" style="3" customWidth="1"/>
+    <col min="14582" max="14582" width="12.21875" style="3" customWidth="1"/>
+    <col min="14583" max="14583" width="9.109375" style="3" customWidth="1"/>
+    <col min="14584" max="14584" width="3.109375" style="3" customWidth="1"/>
+    <col min="14585" max="14585" width="5.6640625" style="3" customWidth="1"/>
+    <col min="14586" max="14586" width="6.44140625" style="3" customWidth="1"/>
     <col min="14587" max="14587" width="1" style="3" customWidth="1"/>
     <col min="14588" max="14588" width="3" style="3" customWidth="1"/>
-    <col min="14589" max="14589" width="7.125" style="3" customWidth="1"/>
-    <col min="14590" max="14590" width="2.75" style="3" customWidth="1"/>
-    <col min="14591" max="14591" width="8.625" style="3" customWidth="1"/>
+    <col min="14589" max="14589" width="7.109375" style="3" customWidth="1"/>
+    <col min="14590" max="14590" width="2.77734375" style="3" customWidth="1"/>
+    <col min="14591" max="14591" width="8.6640625" style="3" customWidth="1"/>
     <col min="14592" max="14602" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="14603" max="14627" width="9" style="3" customWidth="1"/>
     <col min="14628" max="14827" width="9" style="3"/>
-    <col min="14828" max="14828" width="1.625" style="3" customWidth="1"/>
-    <col min="14829" max="14829" width="1.75" style="3" customWidth="1"/>
-    <col min="14830" max="14830" width="7.375" style="3" customWidth="1"/>
-    <col min="14831" max="14831" width="4.125" style="3" customWidth="1"/>
-    <col min="14832" max="14832" width="2.375" style="3" customWidth="1"/>
+    <col min="14828" max="14828" width="1.6640625" style="3" customWidth="1"/>
+    <col min="14829" max="14829" width="1.77734375" style="3" customWidth="1"/>
+    <col min="14830" max="14830" width="7.33203125" style="3" customWidth="1"/>
+    <col min="14831" max="14831" width="4.109375" style="3" customWidth="1"/>
+    <col min="14832" max="14832" width="2.33203125" style="3" customWidth="1"/>
     <col min="14833" max="14833" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14834" max="14834" width="2.125" style="3" customWidth="1"/>
-    <col min="14835" max="14835" width="2.625" style="3" customWidth="1"/>
+    <col min="14834" max="14834" width="2.109375" style="3" customWidth="1"/>
+    <col min="14835" max="14835" width="2.6640625" style="3" customWidth="1"/>
     <col min="14836" max="14836" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14837" max="14837" width="9.25" style="3" customWidth="1"/>
-    <col min="14838" max="14838" width="12.25" style="3" customWidth="1"/>
-    <col min="14839" max="14839" width="9.125" style="3" customWidth="1"/>
-    <col min="14840" max="14840" width="3.125" style="3" customWidth="1"/>
-    <col min="14841" max="14841" width="5.625" style="3" customWidth="1"/>
-    <col min="14842" max="14842" width="6.5" style="3" customWidth="1"/>
+    <col min="14837" max="14837" width="9.21875" style="3" customWidth="1"/>
+    <col min="14838" max="14838" width="12.21875" style="3" customWidth="1"/>
+    <col min="14839" max="14839" width="9.109375" style="3" customWidth="1"/>
+    <col min="14840" max="14840" width="3.109375" style="3" customWidth="1"/>
+    <col min="14841" max="14841" width="5.6640625" style="3" customWidth="1"/>
+    <col min="14842" max="14842" width="6.44140625" style="3" customWidth="1"/>
     <col min="14843" max="14843" width="1" style="3" customWidth="1"/>
     <col min="14844" max="14844" width="3" style="3" customWidth="1"/>
-    <col min="14845" max="14845" width="7.125" style="3" customWidth="1"/>
-    <col min="14846" max="14846" width="2.75" style="3" customWidth="1"/>
-    <col min="14847" max="14847" width="8.625" style="3" customWidth="1"/>
+    <col min="14845" max="14845" width="7.109375" style="3" customWidth="1"/>
+    <col min="14846" max="14846" width="2.77734375" style="3" customWidth="1"/>
+    <col min="14847" max="14847" width="8.6640625" style="3" customWidth="1"/>
     <col min="14848" max="14858" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="14859" max="14883" width="9" style="3" customWidth="1"/>
     <col min="14884" max="15083" width="9" style="3"/>
-    <col min="15084" max="15084" width="1.625" style="3" customWidth="1"/>
-    <col min="15085" max="15085" width="1.75" style="3" customWidth="1"/>
-    <col min="15086" max="15086" width="7.375" style="3" customWidth="1"/>
-    <col min="15087" max="15087" width="4.125" style="3" customWidth="1"/>
-    <col min="15088" max="15088" width="2.375" style="3" customWidth="1"/>
+    <col min="15084" max="15084" width="1.6640625" style="3" customWidth="1"/>
+    <col min="15085" max="15085" width="1.77734375" style="3" customWidth="1"/>
+    <col min="15086" max="15086" width="7.33203125" style="3" customWidth="1"/>
+    <col min="15087" max="15087" width="4.109375" style="3" customWidth="1"/>
+    <col min="15088" max="15088" width="2.33203125" style="3" customWidth="1"/>
     <col min="15089" max="15089" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15090" max="15090" width="2.125" style="3" customWidth="1"/>
-    <col min="15091" max="15091" width="2.625" style="3" customWidth="1"/>
+    <col min="15090" max="15090" width="2.109375" style="3" customWidth="1"/>
+    <col min="15091" max="15091" width="2.6640625" style="3" customWidth="1"/>
     <col min="15092" max="15092" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15093" max="15093" width="9.25" style="3" customWidth="1"/>
-    <col min="15094" max="15094" width="12.25" style="3" customWidth="1"/>
-    <col min="15095" max="15095" width="9.125" style="3" customWidth="1"/>
-    <col min="15096" max="15096" width="3.125" style="3" customWidth="1"/>
-    <col min="15097" max="15097" width="5.625" style="3" customWidth="1"/>
-    <col min="15098" max="15098" width="6.5" style="3" customWidth="1"/>
+    <col min="15093" max="15093" width="9.21875" style="3" customWidth="1"/>
+    <col min="15094" max="15094" width="12.21875" style="3" customWidth="1"/>
+    <col min="15095" max="15095" width="9.109375" style="3" customWidth="1"/>
+    <col min="15096" max="15096" width="3.109375" style="3" customWidth="1"/>
+    <col min="15097" max="15097" width="5.6640625" style="3" customWidth="1"/>
+    <col min="15098" max="15098" width="6.44140625" style="3" customWidth="1"/>
     <col min="15099" max="15099" width="1" style="3" customWidth="1"/>
     <col min="15100" max="15100" width="3" style="3" customWidth="1"/>
-    <col min="15101" max="15101" width="7.125" style="3" customWidth="1"/>
-    <col min="15102" max="15102" width="2.75" style="3" customWidth="1"/>
-    <col min="15103" max="15103" width="8.625" style="3" customWidth="1"/>
+    <col min="15101" max="15101" width="7.109375" style="3" customWidth="1"/>
+    <col min="15102" max="15102" width="2.77734375" style="3" customWidth="1"/>
+    <col min="15103" max="15103" width="8.6640625" style="3" customWidth="1"/>
     <col min="15104" max="15114" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15115" max="15139" width="9" style="3" customWidth="1"/>
     <col min="15140" max="15339" width="9" style="3"/>
-    <col min="15340" max="15340" width="1.625" style="3" customWidth="1"/>
-    <col min="15341" max="15341" width="1.75" style="3" customWidth="1"/>
-    <col min="15342" max="15342" width="7.375" style="3" customWidth="1"/>
-    <col min="15343" max="15343" width="4.125" style="3" customWidth="1"/>
-    <col min="15344" max="15344" width="2.375" style="3" customWidth="1"/>
+    <col min="15340" max="15340" width="1.6640625" style="3" customWidth="1"/>
+    <col min="15341" max="15341" width="1.77734375" style="3" customWidth="1"/>
+    <col min="15342" max="15342" width="7.33203125" style="3" customWidth="1"/>
+    <col min="15343" max="15343" width="4.109375" style="3" customWidth="1"/>
+    <col min="15344" max="15344" width="2.33203125" style="3" customWidth="1"/>
     <col min="15345" max="15345" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15346" max="15346" width="2.125" style="3" customWidth="1"/>
-    <col min="15347" max="15347" width="2.625" style="3" customWidth="1"/>
+    <col min="15346" max="15346" width="2.109375" style="3" customWidth="1"/>
+    <col min="15347" max="15347" width="2.6640625" style="3" customWidth="1"/>
     <col min="15348" max="15348" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15349" max="15349" width="9.25" style="3" customWidth="1"/>
-    <col min="15350" max="15350" width="12.25" style="3" customWidth="1"/>
-    <col min="15351" max="15351" width="9.125" style="3" customWidth="1"/>
-    <col min="15352" max="15352" width="3.125" style="3" customWidth="1"/>
-    <col min="15353" max="15353" width="5.625" style="3" customWidth="1"/>
-    <col min="15354" max="15354" width="6.5" style="3" customWidth="1"/>
+    <col min="15349" max="15349" width="9.21875" style="3" customWidth="1"/>
+    <col min="15350" max="15350" width="12.21875" style="3" customWidth="1"/>
+    <col min="15351" max="15351" width="9.109375" style="3" customWidth="1"/>
+    <col min="15352" max="15352" width="3.109375" style="3" customWidth="1"/>
+    <col min="15353" max="15353" width="5.6640625" style="3" customWidth="1"/>
+    <col min="15354" max="15354" width="6.44140625" style="3" customWidth="1"/>
     <col min="15355" max="15355" width="1" style="3" customWidth="1"/>
     <col min="15356" max="15356" width="3" style="3" customWidth="1"/>
-    <col min="15357" max="15357" width="7.125" style="3" customWidth="1"/>
-    <col min="15358" max="15358" width="2.75" style="3" customWidth="1"/>
-    <col min="15359" max="15359" width="8.625" style="3" customWidth="1"/>
+    <col min="15357" max="15357" width="7.109375" style="3" customWidth="1"/>
+    <col min="15358" max="15358" width="2.77734375" style="3" customWidth="1"/>
+    <col min="15359" max="15359" width="8.6640625" style="3" customWidth="1"/>
     <col min="15360" max="15370" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15371" max="15395" width="9" style="3" customWidth="1"/>
     <col min="15396" max="15595" width="9" style="3"/>
-    <col min="15596" max="15596" width="1.625" style="3" customWidth="1"/>
-    <col min="15597" max="15597" width="1.75" style="3" customWidth="1"/>
-    <col min="15598" max="15598" width="7.375" style="3" customWidth="1"/>
-    <col min="15599" max="15599" width="4.125" style="3" customWidth="1"/>
-    <col min="15600" max="15600" width="2.375" style="3" customWidth="1"/>
+    <col min="15596" max="15596" width="1.6640625" style="3" customWidth="1"/>
+    <col min="15597" max="15597" width="1.77734375" style="3" customWidth="1"/>
+    <col min="15598" max="15598" width="7.33203125" style="3" customWidth="1"/>
+    <col min="15599" max="15599" width="4.109375" style="3" customWidth="1"/>
+    <col min="15600" max="15600" width="2.33203125" style="3" customWidth="1"/>
     <col min="15601" max="15601" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15602" max="15602" width="2.125" style="3" customWidth="1"/>
-    <col min="15603" max="15603" width="2.625" style="3" customWidth="1"/>
+    <col min="15602" max="15602" width="2.109375" style="3" customWidth="1"/>
+    <col min="15603" max="15603" width="2.6640625" style="3" customWidth="1"/>
     <col min="15604" max="15604" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15605" max="15605" width="9.25" style="3" customWidth="1"/>
-    <col min="15606" max="15606" width="12.25" style="3" customWidth="1"/>
-    <col min="15607" max="15607" width="9.125" style="3" customWidth="1"/>
-    <col min="15608" max="15608" width="3.125" style="3" customWidth="1"/>
-    <col min="15609" max="15609" width="5.625" style="3" customWidth="1"/>
-    <col min="15610" max="15610" width="6.5" style="3" customWidth="1"/>
+    <col min="15605" max="15605" width="9.21875" style="3" customWidth="1"/>
+    <col min="15606" max="15606" width="12.21875" style="3" customWidth="1"/>
+    <col min="15607" max="15607" width="9.109375" style="3" customWidth="1"/>
+    <col min="15608" max="15608" width="3.109375" style="3" customWidth="1"/>
+    <col min="15609" max="15609" width="5.6640625" style="3" customWidth="1"/>
+    <col min="15610" max="15610" width="6.44140625" style="3" customWidth="1"/>
     <col min="15611" max="15611" width="1" style="3" customWidth="1"/>
     <col min="15612" max="15612" width="3" style="3" customWidth="1"/>
-    <col min="15613" max="15613" width="7.125" style="3" customWidth="1"/>
-    <col min="15614" max="15614" width="2.75" style="3" customWidth="1"/>
-    <col min="15615" max="15615" width="8.625" style="3" customWidth="1"/>
+    <col min="15613" max="15613" width="7.109375" style="3" customWidth="1"/>
+    <col min="15614" max="15614" width="2.77734375" style="3" customWidth="1"/>
+    <col min="15615" max="15615" width="8.6640625" style="3" customWidth="1"/>
     <col min="15616" max="15626" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15627" max="15651" width="9" style="3" customWidth="1"/>
     <col min="15652" max="15851" width="9" style="3"/>
-    <col min="15852" max="15852" width="1.625" style="3" customWidth="1"/>
-    <col min="15853" max="15853" width="1.75" style="3" customWidth="1"/>
-    <col min="15854" max="15854" width="7.375" style="3" customWidth="1"/>
-    <col min="15855" max="15855" width="4.125" style="3" customWidth="1"/>
-    <col min="15856" max="15856" width="2.375" style="3" customWidth="1"/>
+    <col min="15852" max="15852" width="1.6640625" style="3" customWidth="1"/>
+    <col min="15853" max="15853" width="1.77734375" style="3" customWidth="1"/>
+    <col min="15854" max="15854" width="7.33203125" style="3" customWidth="1"/>
+    <col min="15855" max="15855" width="4.109375" style="3" customWidth="1"/>
+    <col min="15856" max="15856" width="2.33203125" style="3" customWidth="1"/>
     <col min="15857" max="15857" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15858" max="15858" width="2.125" style="3" customWidth="1"/>
-    <col min="15859" max="15859" width="2.625" style="3" customWidth="1"/>
+    <col min="15858" max="15858" width="2.109375" style="3" customWidth="1"/>
+    <col min="15859" max="15859" width="2.6640625" style="3" customWidth="1"/>
     <col min="15860" max="15860" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15861" max="15861" width="9.25" style="3" customWidth="1"/>
-    <col min="15862" max="15862" width="12.25" style="3" customWidth="1"/>
-    <col min="15863" max="15863" width="9.125" style="3" customWidth="1"/>
-    <col min="15864" max="15864" width="3.125" style="3" customWidth="1"/>
-    <col min="15865" max="15865" width="5.625" style="3" customWidth="1"/>
-    <col min="15866" max="15866" width="6.5" style="3" customWidth="1"/>
+    <col min="15861" max="15861" width="9.21875" style="3" customWidth="1"/>
+    <col min="15862" max="15862" width="12.21875" style="3" customWidth="1"/>
+    <col min="15863" max="15863" width="9.109375" style="3" customWidth="1"/>
+    <col min="15864" max="15864" width="3.109375" style="3" customWidth="1"/>
+    <col min="15865" max="15865" width="5.6640625" style="3" customWidth="1"/>
+    <col min="15866" max="15866" width="6.44140625" style="3" customWidth="1"/>
     <col min="15867" max="15867" width="1" style="3" customWidth="1"/>
     <col min="15868" max="15868" width="3" style="3" customWidth="1"/>
-    <col min="15869" max="15869" width="7.125" style="3" customWidth="1"/>
-    <col min="15870" max="15870" width="2.75" style="3" customWidth="1"/>
-    <col min="15871" max="15871" width="8.625" style="3" customWidth="1"/>
+    <col min="15869" max="15869" width="7.109375" style="3" customWidth="1"/>
+    <col min="15870" max="15870" width="2.77734375" style="3" customWidth="1"/>
+    <col min="15871" max="15871" width="8.6640625" style="3" customWidth="1"/>
     <col min="15872" max="15882" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15883" max="15907" width="9" style="3" customWidth="1"/>
     <col min="15908" max="16107" width="9" style="3"/>
-    <col min="16108" max="16108" width="1.625" style="3" customWidth="1"/>
-    <col min="16109" max="16109" width="1.75" style="3" customWidth="1"/>
-    <col min="16110" max="16110" width="7.375" style="3" customWidth="1"/>
-    <col min="16111" max="16111" width="4.125" style="3" customWidth="1"/>
-    <col min="16112" max="16112" width="2.375" style="3" customWidth="1"/>
+    <col min="16108" max="16108" width="1.6640625" style="3" customWidth="1"/>
+    <col min="16109" max="16109" width="1.77734375" style="3" customWidth="1"/>
+    <col min="16110" max="16110" width="7.33203125" style="3" customWidth="1"/>
+    <col min="16111" max="16111" width="4.109375" style="3" customWidth="1"/>
+    <col min="16112" max="16112" width="2.33203125" style="3" customWidth="1"/>
     <col min="16113" max="16113" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="16114" max="16114" width="2.125" style="3" customWidth="1"/>
-    <col min="16115" max="16115" width="2.625" style="3" customWidth="1"/>
+    <col min="16114" max="16114" width="2.109375" style="3" customWidth="1"/>
+    <col min="16115" max="16115" width="2.6640625" style="3" customWidth="1"/>
     <col min="16116" max="16116" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="16117" max="16117" width="9.25" style="3" customWidth="1"/>
-    <col min="16118" max="16118" width="12.25" style="3" customWidth="1"/>
-    <col min="16119" max="16119" width="9.125" style="3" customWidth="1"/>
-    <col min="16120" max="16120" width="3.125" style="3" customWidth="1"/>
-    <col min="16121" max="16121" width="5.625" style="3" customWidth="1"/>
-    <col min="16122" max="16122" width="6.5" style="3" customWidth="1"/>
+    <col min="16117" max="16117" width="9.21875" style="3" customWidth="1"/>
+    <col min="16118" max="16118" width="12.21875" style="3" customWidth="1"/>
+    <col min="16119" max="16119" width="9.109375" style="3" customWidth="1"/>
+    <col min="16120" max="16120" width="3.109375" style="3" customWidth="1"/>
+    <col min="16121" max="16121" width="5.6640625" style="3" customWidth="1"/>
+    <col min="16122" max="16122" width="6.44140625" style="3" customWidth="1"/>
     <col min="16123" max="16123" width="1" style="3" customWidth="1"/>
     <col min="16124" max="16124" width="3" style="3" customWidth="1"/>
-    <col min="16125" max="16125" width="7.125" style="3" customWidth="1"/>
-    <col min="16126" max="16126" width="2.75" style="3" customWidth="1"/>
-    <col min="16127" max="16127" width="8.625" style="3" customWidth="1"/>
+    <col min="16125" max="16125" width="7.109375" style="3" customWidth="1"/>
+    <col min="16126" max="16126" width="2.77734375" style="3" customWidth="1"/>
+    <col min="16127" max="16127" width="8.6640625" style="3" customWidth="1"/>
     <col min="16128" max="16138" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="16139" max="16163" width="9" style="3" customWidth="1"/>
     <col min="16164" max="16384" width="9" style="3"/>
@@ -7629,7 +7684,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" ht="25.2">
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -7886,7 +7941,7 @@
       <c r="D21" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="39">
         <v>1</v>
       </c>
       <c r="F21" s="17" t="s">
@@ -7906,7 +7961,7 @@
       <c r="D22" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="39">
         <v>1</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -7926,7 +7981,7 @@
       <c r="D23" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="39">
         <v>0.5</v>
       </c>
       <c r="F23" s="21" t="s">
@@ -7946,7 +8001,7 @@
       <c r="D24" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="39">
         <v>1.5</v>
       </c>
       <c r="F24" s="17"/>
@@ -7961,7 +8016,7 @@
       <c r="D25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="39">
         <v>0.75</v>
       </c>
       <c r="H25" s="24">
@@ -7972,7 +8027,7 @@
       <c r="D26" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="39">
         <v>0.5</v>
       </c>
       <c r="H26" s="24">
@@ -7983,7 +8038,7 @@
       <c r="D27" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="39">
         <v>1</v>
       </c>
       <c r="H27" s="24">
@@ -7994,7 +8049,7 @@
       <c r="D28" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="39">
         <v>0.75</v>
       </c>
       <c r="H28" s="24">
@@ -8005,7 +8060,7 @@
       <c r="D29" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="39">
         <v>1.5</v>
       </c>
     </row>

--- a/controller/src/main/resources/jxls_templates/jingneijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingneijingsuanshu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="36" windowWidth="14520" windowHeight="10968" tabRatio="778"/>
+    <workbookView xWindow="-420" yWindow="30" windowWidth="14520" windowHeight="10965" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="出差精算合計" sheetId="10" r:id="rId1"/>
@@ -799,12 +799,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="179" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -853,6 +855,7 @@
     <font>
       <sz val="11"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -876,6 +879,7 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -888,6 +892,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -907,6 +912,7 @@
       <b/>
       <sz val="12"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -919,11 +925,13 @@
     <font>
       <sz val="14"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -935,12 +943,14 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1684,7 +1694,7 @@
     </xf>
     <xf numFmtId="6" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1855,6 +1865,210 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1868,9 +2082,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1892,286 +2103,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="通貨 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2753,1500 +2769,1500 @@
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="R15" sqref="R15:T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="21" width="5.77734375" style="25" customWidth="1"/>
+    <col min="1" max="21" width="5.75" style="25" customWidth="1"/>
     <col min="22" max="47" width="9" style="25" customWidth="1"/>
     <col min="48" max="247" width="9" style="25"/>
-    <col min="248" max="248" width="1.6640625" style="25" customWidth="1"/>
-    <col min="249" max="249" width="1.77734375" style="25" customWidth="1"/>
-    <col min="250" max="250" width="7.33203125" style="25" customWidth="1"/>
-    <col min="251" max="251" width="4.109375" style="25" customWidth="1"/>
-    <col min="252" max="252" width="2.33203125" style="25" customWidth="1"/>
+    <col min="248" max="248" width="1.625" style="25" customWidth="1"/>
+    <col min="249" max="249" width="1.75" style="25" customWidth="1"/>
+    <col min="250" max="250" width="7.375" style="25" customWidth="1"/>
+    <col min="251" max="251" width="4.125" style="25" customWidth="1"/>
+    <col min="252" max="252" width="2.375" style="25" customWidth="1"/>
     <col min="253" max="253" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="254" max="254" width="2.109375" style="25" customWidth="1"/>
-    <col min="255" max="255" width="2.6640625" style="25" customWidth="1"/>
+    <col min="254" max="254" width="2.125" style="25" customWidth="1"/>
+    <col min="255" max="255" width="2.625" style="25" customWidth="1"/>
     <col min="256" max="256" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="257" max="257" width="9.21875" style="25" customWidth="1"/>
-    <col min="258" max="258" width="12.21875" style="25" customWidth="1"/>
-    <col min="259" max="259" width="9.109375" style="25" customWidth="1"/>
-    <col min="260" max="260" width="3.109375" style="25" customWidth="1"/>
-    <col min="261" max="261" width="5.6640625" style="25" customWidth="1"/>
-    <col min="262" max="262" width="6.44140625" style="25" customWidth="1"/>
+    <col min="257" max="257" width="9.25" style="25" customWidth="1"/>
+    <col min="258" max="258" width="12.25" style="25" customWidth="1"/>
+    <col min="259" max="259" width="9.125" style="25" customWidth="1"/>
+    <col min="260" max="260" width="3.125" style="25" customWidth="1"/>
+    <col min="261" max="261" width="5.625" style="25" customWidth="1"/>
+    <col min="262" max="262" width="6.5" style="25" customWidth="1"/>
     <col min="263" max="263" width="1" style="25" customWidth="1"/>
     <col min="264" max="264" width="3" style="25" customWidth="1"/>
-    <col min="265" max="265" width="7.109375" style="25" customWidth="1"/>
-    <col min="266" max="266" width="2.77734375" style="25" customWidth="1"/>
-    <col min="267" max="267" width="8.6640625" style="25" customWidth="1"/>
+    <col min="265" max="265" width="7.125" style="25" customWidth="1"/>
+    <col min="266" max="266" width="2.75" style="25" customWidth="1"/>
+    <col min="267" max="267" width="8.625" style="25" customWidth="1"/>
     <col min="268" max="278" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="279" max="303" width="9" style="25" customWidth="1"/>
     <col min="304" max="503" width="9" style="25"/>
-    <col min="504" max="504" width="1.6640625" style="25" customWidth="1"/>
-    <col min="505" max="505" width="1.77734375" style="25" customWidth="1"/>
-    <col min="506" max="506" width="7.33203125" style="25" customWidth="1"/>
-    <col min="507" max="507" width="4.109375" style="25" customWidth="1"/>
-    <col min="508" max="508" width="2.33203125" style="25" customWidth="1"/>
+    <col min="504" max="504" width="1.625" style="25" customWidth="1"/>
+    <col min="505" max="505" width="1.75" style="25" customWidth="1"/>
+    <col min="506" max="506" width="7.375" style="25" customWidth="1"/>
+    <col min="507" max="507" width="4.125" style="25" customWidth="1"/>
+    <col min="508" max="508" width="2.375" style="25" customWidth="1"/>
     <col min="509" max="509" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="510" max="510" width="2.109375" style="25" customWidth="1"/>
-    <col min="511" max="511" width="2.6640625" style="25" customWidth="1"/>
+    <col min="510" max="510" width="2.125" style="25" customWidth="1"/>
+    <col min="511" max="511" width="2.625" style="25" customWidth="1"/>
     <col min="512" max="512" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="513" max="513" width="9.21875" style="25" customWidth="1"/>
-    <col min="514" max="514" width="12.21875" style="25" customWidth="1"/>
-    <col min="515" max="515" width="9.109375" style="25" customWidth="1"/>
-    <col min="516" max="516" width="3.109375" style="25" customWidth="1"/>
-    <col min="517" max="517" width="5.6640625" style="25" customWidth="1"/>
-    <col min="518" max="518" width="6.44140625" style="25" customWidth="1"/>
+    <col min="513" max="513" width="9.25" style="25" customWidth="1"/>
+    <col min="514" max="514" width="12.25" style="25" customWidth="1"/>
+    <col min="515" max="515" width="9.125" style="25" customWidth="1"/>
+    <col min="516" max="516" width="3.125" style="25" customWidth="1"/>
+    <col min="517" max="517" width="5.625" style="25" customWidth="1"/>
+    <col min="518" max="518" width="6.5" style="25" customWidth="1"/>
     <col min="519" max="519" width="1" style="25" customWidth="1"/>
     <col min="520" max="520" width="3" style="25" customWidth="1"/>
-    <col min="521" max="521" width="7.109375" style="25" customWidth="1"/>
-    <col min="522" max="522" width="2.77734375" style="25" customWidth="1"/>
-    <col min="523" max="523" width="8.6640625" style="25" customWidth="1"/>
+    <col min="521" max="521" width="7.125" style="25" customWidth="1"/>
+    <col min="522" max="522" width="2.75" style="25" customWidth="1"/>
+    <col min="523" max="523" width="8.625" style="25" customWidth="1"/>
     <col min="524" max="534" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="535" max="559" width="9" style="25" customWidth="1"/>
     <col min="560" max="759" width="9" style="25"/>
-    <col min="760" max="760" width="1.6640625" style="25" customWidth="1"/>
-    <col min="761" max="761" width="1.77734375" style="25" customWidth="1"/>
-    <col min="762" max="762" width="7.33203125" style="25" customWidth="1"/>
-    <col min="763" max="763" width="4.109375" style="25" customWidth="1"/>
-    <col min="764" max="764" width="2.33203125" style="25" customWidth="1"/>
+    <col min="760" max="760" width="1.625" style="25" customWidth="1"/>
+    <col min="761" max="761" width="1.75" style="25" customWidth="1"/>
+    <col min="762" max="762" width="7.375" style="25" customWidth="1"/>
+    <col min="763" max="763" width="4.125" style="25" customWidth="1"/>
+    <col min="764" max="764" width="2.375" style="25" customWidth="1"/>
     <col min="765" max="765" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="766" max="766" width="2.109375" style="25" customWidth="1"/>
-    <col min="767" max="767" width="2.6640625" style="25" customWidth="1"/>
+    <col min="766" max="766" width="2.125" style="25" customWidth="1"/>
+    <col min="767" max="767" width="2.625" style="25" customWidth="1"/>
     <col min="768" max="768" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="769" max="769" width="9.21875" style="25" customWidth="1"/>
-    <col min="770" max="770" width="12.21875" style="25" customWidth="1"/>
-    <col min="771" max="771" width="9.109375" style="25" customWidth="1"/>
-    <col min="772" max="772" width="3.109375" style="25" customWidth="1"/>
-    <col min="773" max="773" width="5.6640625" style="25" customWidth="1"/>
-    <col min="774" max="774" width="6.44140625" style="25" customWidth="1"/>
+    <col min="769" max="769" width="9.25" style="25" customWidth="1"/>
+    <col min="770" max="770" width="12.25" style="25" customWidth="1"/>
+    <col min="771" max="771" width="9.125" style="25" customWidth="1"/>
+    <col min="772" max="772" width="3.125" style="25" customWidth="1"/>
+    <col min="773" max="773" width="5.625" style="25" customWidth="1"/>
+    <col min="774" max="774" width="6.5" style="25" customWidth="1"/>
     <col min="775" max="775" width="1" style="25" customWidth="1"/>
     <col min="776" max="776" width="3" style="25" customWidth="1"/>
-    <col min="777" max="777" width="7.109375" style="25" customWidth="1"/>
-    <col min="778" max="778" width="2.77734375" style="25" customWidth="1"/>
-    <col min="779" max="779" width="8.6640625" style="25" customWidth="1"/>
+    <col min="777" max="777" width="7.125" style="25" customWidth="1"/>
+    <col min="778" max="778" width="2.75" style="25" customWidth="1"/>
+    <col min="779" max="779" width="8.625" style="25" customWidth="1"/>
     <col min="780" max="790" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="791" max="815" width="9" style="25" customWidth="1"/>
     <col min="816" max="1015" width="9" style="25"/>
-    <col min="1016" max="1016" width="1.6640625" style="25" customWidth="1"/>
-    <col min="1017" max="1017" width="1.77734375" style="25" customWidth="1"/>
-    <col min="1018" max="1018" width="7.33203125" style="25" customWidth="1"/>
-    <col min="1019" max="1019" width="4.109375" style="25" customWidth="1"/>
-    <col min="1020" max="1020" width="2.33203125" style="25" customWidth="1"/>
+    <col min="1016" max="1016" width="1.625" style="25" customWidth="1"/>
+    <col min="1017" max="1017" width="1.75" style="25" customWidth="1"/>
+    <col min="1018" max="1018" width="7.375" style="25" customWidth="1"/>
+    <col min="1019" max="1019" width="4.125" style="25" customWidth="1"/>
+    <col min="1020" max="1020" width="2.375" style="25" customWidth="1"/>
     <col min="1021" max="1021" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1022" max="1022" width="2.109375" style="25" customWidth="1"/>
-    <col min="1023" max="1023" width="2.6640625" style="25" customWidth="1"/>
+    <col min="1022" max="1022" width="2.125" style="25" customWidth="1"/>
+    <col min="1023" max="1023" width="2.625" style="25" customWidth="1"/>
     <col min="1024" max="1024" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1025" max="1025" width="9.21875" style="25" customWidth="1"/>
-    <col min="1026" max="1026" width="12.21875" style="25" customWidth="1"/>
-    <col min="1027" max="1027" width="9.109375" style="25" customWidth="1"/>
-    <col min="1028" max="1028" width="3.109375" style="25" customWidth="1"/>
-    <col min="1029" max="1029" width="5.6640625" style="25" customWidth="1"/>
-    <col min="1030" max="1030" width="6.44140625" style="25" customWidth="1"/>
+    <col min="1025" max="1025" width="9.25" style="25" customWidth="1"/>
+    <col min="1026" max="1026" width="12.25" style="25" customWidth="1"/>
+    <col min="1027" max="1027" width="9.125" style="25" customWidth="1"/>
+    <col min="1028" max="1028" width="3.125" style="25" customWidth="1"/>
+    <col min="1029" max="1029" width="5.625" style="25" customWidth="1"/>
+    <col min="1030" max="1030" width="6.5" style="25" customWidth="1"/>
     <col min="1031" max="1031" width="1" style="25" customWidth="1"/>
     <col min="1032" max="1032" width="3" style="25" customWidth="1"/>
-    <col min="1033" max="1033" width="7.109375" style="25" customWidth="1"/>
-    <col min="1034" max="1034" width="2.77734375" style="25" customWidth="1"/>
-    <col min="1035" max="1035" width="8.6640625" style="25" customWidth="1"/>
+    <col min="1033" max="1033" width="7.125" style="25" customWidth="1"/>
+    <col min="1034" max="1034" width="2.75" style="25" customWidth="1"/>
+    <col min="1035" max="1035" width="8.625" style="25" customWidth="1"/>
     <col min="1036" max="1046" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="1047" max="1071" width="9" style="25" customWidth="1"/>
     <col min="1072" max="1271" width="9" style="25"/>
-    <col min="1272" max="1272" width="1.6640625" style="25" customWidth="1"/>
-    <col min="1273" max="1273" width="1.77734375" style="25" customWidth="1"/>
-    <col min="1274" max="1274" width="7.33203125" style="25" customWidth="1"/>
-    <col min="1275" max="1275" width="4.109375" style="25" customWidth="1"/>
-    <col min="1276" max="1276" width="2.33203125" style="25" customWidth="1"/>
+    <col min="1272" max="1272" width="1.625" style="25" customWidth="1"/>
+    <col min="1273" max="1273" width="1.75" style="25" customWidth="1"/>
+    <col min="1274" max="1274" width="7.375" style="25" customWidth="1"/>
+    <col min="1275" max="1275" width="4.125" style="25" customWidth="1"/>
+    <col min="1276" max="1276" width="2.375" style="25" customWidth="1"/>
     <col min="1277" max="1277" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1278" max="1278" width="2.109375" style="25" customWidth="1"/>
-    <col min="1279" max="1279" width="2.6640625" style="25" customWidth="1"/>
+    <col min="1278" max="1278" width="2.125" style="25" customWidth="1"/>
+    <col min="1279" max="1279" width="2.625" style="25" customWidth="1"/>
     <col min="1280" max="1280" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1281" max="1281" width="9.21875" style="25" customWidth="1"/>
-    <col min="1282" max="1282" width="12.21875" style="25" customWidth="1"/>
-    <col min="1283" max="1283" width="9.109375" style="25" customWidth="1"/>
-    <col min="1284" max="1284" width="3.109375" style="25" customWidth="1"/>
-    <col min="1285" max="1285" width="5.6640625" style="25" customWidth="1"/>
-    <col min="1286" max="1286" width="6.44140625" style="25" customWidth="1"/>
+    <col min="1281" max="1281" width="9.25" style="25" customWidth="1"/>
+    <col min="1282" max="1282" width="12.25" style="25" customWidth="1"/>
+    <col min="1283" max="1283" width="9.125" style="25" customWidth="1"/>
+    <col min="1284" max="1284" width="3.125" style="25" customWidth="1"/>
+    <col min="1285" max="1285" width="5.625" style="25" customWidth="1"/>
+    <col min="1286" max="1286" width="6.5" style="25" customWidth="1"/>
     <col min="1287" max="1287" width="1" style="25" customWidth="1"/>
     <col min="1288" max="1288" width="3" style="25" customWidth="1"/>
-    <col min="1289" max="1289" width="7.109375" style="25" customWidth="1"/>
-    <col min="1290" max="1290" width="2.77734375" style="25" customWidth="1"/>
-    <col min="1291" max="1291" width="8.6640625" style="25" customWidth="1"/>
+    <col min="1289" max="1289" width="7.125" style="25" customWidth="1"/>
+    <col min="1290" max="1290" width="2.75" style="25" customWidth="1"/>
+    <col min="1291" max="1291" width="8.625" style="25" customWidth="1"/>
     <col min="1292" max="1302" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="1303" max="1327" width="9" style="25" customWidth="1"/>
     <col min="1328" max="1527" width="9" style="25"/>
-    <col min="1528" max="1528" width="1.6640625" style="25" customWidth="1"/>
-    <col min="1529" max="1529" width="1.77734375" style="25" customWidth="1"/>
-    <col min="1530" max="1530" width="7.33203125" style="25" customWidth="1"/>
-    <col min="1531" max="1531" width="4.109375" style="25" customWidth="1"/>
-    <col min="1532" max="1532" width="2.33203125" style="25" customWidth="1"/>
+    <col min="1528" max="1528" width="1.625" style="25" customWidth="1"/>
+    <col min="1529" max="1529" width="1.75" style="25" customWidth="1"/>
+    <col min="1530" max="1530" width="7.375" style="25" customWidth="1"/>
+    <col min="1531" max="1531" width="4.125" style="25" customWidth="1"/>
+    <col min="1532" max="1532" width="2.375" style="25" customWidth="1"/>
     <col min="1533" max="1533" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1534" max="1534" width="2.109375" style="25" customWidth="1"/>
-    <col min="1535" max="1535" width="2.6640625" style="25" customWidth="1"/>
+    <col min="1534" max="1534" width="2.125" style="25" customWidth="1"/>
+    <col min="1535" max="1535" width="2.625" style="25" customWidth="1"/>
     <col min="1536" max="1536" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1537" max="1537" width="9.21875" style="25" customWidth="1"/>
-    <col min="1538" max="1538" width="12.21875" style="25" customWidth="1"/>
-    <col min="1539" max="1539" width="9.109375" style="25" customWidth="1"/>
-    <col min="1540" max="1540" width="3.109375" style="25" customWidth="1"/>
-    <col min="1541" max="1541" width="5.6640625" style="25" customWidth="1"/>
-    <col min="1542" max="1542" width="6.44140625" style="25" customWidth="1"/>
+    <col min="1537" max="1537" width="9.25" style="25" customWidth="1"/>
+    <col min="1538" max="1538" width="12.25" style="25" customWidth="1"/>
+    <col min="1539" max="1539" width="9.125" style="25" customWidth="1"/>
+    <col min="1540" max="1540" width="3.125" style="25" customWidth="1"/>
+    <col min="1541" max="1541" width="5.625" style="25" customWidth="1"/>
+    <col min="1542" max="1542" width="6.5" style="25" customWidth="1"/>
     <col min="1543" max="1543" width="1" style="25" customWidth="1"/>
     <col min="1544" max="1544" width="3" style="25" customWidth="1"/>
-    <col min="1545" max="1545" width="7.109375" style="25" customWidth="1"/>
-    <col min="1546" max="1546" width="2.77734375" style="25" customWidth="1"/>
-    <col min="1547" max="1547" width="8.6640625" style="25" customWidth="1"/>
+    <col min="1545" max="1545" width="7.125" style="25" customWidth="1"/>
+    <col min="1546" max="1546" width="2.75" style="25" customWidth="1"/>
+    <col min="1547" max="1547" width="8.625" style="25" customWidth="1"/>
     <col min="1548" max="1558" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="1559" max="1583" width="9" style="25" customWidth="1"/>
     <col min="1584" max="1783" width="9" style="25"/>
-    <col min="1784" max="1784" width="1.6640625" style="25" customWidth="1"/>
-    <col min="1785" max="1785" width="1.77734375" style="25" customWidth="1"/>
-    <col min="1786" max="1786" width="7.33203125" style="25" customWidth="1"/>
-    <col min="1787" max="1787" width="4.109375" style="25" customWidth="1"/>
-    <col min="1788" max="1788" width="2.33203125" style="25" customWidth="1"/>
+    <col min="1784" max="1784" width="1.625" style="25" customWidth="1"/>
+    <col min="1785" max="1785" width="1.75" style="25" customWidth="1"/>
+    <col min="1786" max="1786" width="7.375" style="25" customWidth="1"/>
+    <col min="1787" max="1787" width="4.125" style="25" customWidth="1"/>
+    <col min="1788" max="1788" width="2.375" style="25" customWidth="1"/>
     <col min="1789" max="1789" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1790" max="1790" width="2.109375" style="25" customWidth="1"/>
-    <col min="1791" max="1791" width="2.6640625" style="25" customWidth="1"/>
+    <col min="1790" max="1790" width="2.125" style="25" customWidth="1"/>
+    <col min="1791" max="1791" width="2.625" style="25" customWidth="1"/>
     <col min="1792" max="1792" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="1793" max="1793" width="9.21875" style="25" customWidth="1"/>
-    <col min="1794" max="1794" width="12.21875" style="25" customWidth="1"/>
-    <col min="1795" max="1795" width="9.109375" style="25" customWidth="1"/>
-    <col min="1796" max="1796" width="3.109375" style="25" customWidth="1"/>
-    <col min="1797" max="1797" width="5.6640625" style="25" customWidth="1"/>
-    <col min="1798" max="1798" width="6.44140625" style="25" customWidth="1"/>
+    <col min="1793" max="1793" width="9.25" style="25" customWidth="1"/>
+    <col min="1794" max="1794" width="12.25" style="25" customWidth="1"/>
+    <col min="1795" max="1795" width="9.125" style="25" customWidth="1"/>
+    <col min="1796" max="1796" width="3.125" style="25" customWidth="1"/>
+    <col min="1797" max="1797" width="5.625" style="25" customWidth="1"/>
+    <col min="1798" max="1798" width="6.5" style="25" customWidth="1"/>
     <col min="1799" max="1799" width="1" style="25" customWidth="1"/>
     <col min="1800" max="1800" width="3" style="25" customWidth="1"/>
-    <col min="1801" max="1801" width="7.109375" style="25" customWidth="1"/>
-    <col min="1802" max="1802" width="2.77734375" style="25" customWidth="1"/>
-    <col min="1803" max="1803" width="8.6640625" style="25" customWidth="1"/>
+    <col min="1801" max="1801" width="7.125" style="25" customWidth="1"/>
+    <col min="1802" max="1802" width="2.75" style="25" customWidth="1"/>
+    <col min="1803" max="1803" width="8.625" style="25" customWidth="1"/>
     <col min="1804" max="1814" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="1815" max="1839" width="9" style="25" customWidth="1"/>
     <col min="1840" max="2039" width="9" style="25"/>
-    <col min="2040" max="2040" width="1.6640625" style="25" customWidth="1"/>
-    <col min="2041" max="2041" width="1.77734375" style="25" customWidth="1"/>
-    <col min="2042" max="2042" width="7.33203125" style="25" customWidth="1"/>
-    <col min="2043" max="2043" width="4.109375" style="25" customWidth="1"/>
-    <col min="2044" max="2044" width="2.33203125" style="25" customWidth="1"/>
+    <col min="2040" max="2040" width="1.625" style="25" customWidth="1"/>
+    <col min="2041" max="2041" width="1.75" style="25" customWidth="1"/>
+    <col min="2042" max="2042" width="7.375" style="25" customWidth="1"/>
+    <col min="2043" max="2043" width="4.125" style="25" customWidth="1"/>
+    <col min="2044" max="2044" width="2.375" style="25" customWidth="1"/>
     <col min="2045" max="2045" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2046" max="2046" width="2.109375" style="25" customWidth="1"/>
-    <col min="2047" max="2047" width="2.6640625" style="25" customWidth="1"/>
+    <col min="2046" max="2046" width="2.125" style="25" customWidth="1"/>
+    <col min="2047" max="2047" width="2.625" style="25" customWidth="1"/>
     <col min="2048" max="2048" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2049" max="2049" width="9.21875" style="25" customWidth="1"/>
-    <col min="2050" max="2050" width="12.21875" style="25" customWidth="1"/>
-    <col min="2051" max="2051" width="9.109375" style="25" customWidth="1"/>
-    <col min="2052" max="2052" width="3.109375" style="25" customWidth="1"/>
-    <col min="2053" max="2053" width="5.6640625" style="25" customWidth="1"/>
-    <col min="2054" max="2054" width="6.44140625" style="25" customWidth="1"/>
+    <col min="2049" max="2049" width="9.25" style="25" customWidth="1"/>
+    <col min="2050" max="2050" width="12.25" style="25" customWidth="1"/>
+    <col min="2051" max="2051" width="9.125" style="25" customWidth="1"/>
+    <col min="2052" max="2052" width="3.125" style="25" customWidth="1"/>
+    <col min="2053" max="2053" width="5.625" style="25" customWidth="1"/>
+    <col min="2054" max="2054" width="6.5" style="25" customWidth="1"/>
     <col min="2055" max="2055" width="1" style="25" customWidth="1"/>
     <col min="2056" max="2056" width="3" style="25" customWidth="1"/>
-    <col min="2057" max="2057" width="7.109375" style="25" customWidth="1"/>
-    <col min="2058" max="2058" width="2.77734375" style="25" customWidth="1"/>
-    <col min="2059" max="2059" width="8.6640625" style="25" customWidth="1"/>
+    <col min="2057" max="2057" width="7.125" style="25" customWidth="1"/>
+    <col min="2058" max="2058" width="2.75" style="25" customWidth="1"/>
+    <col min="2059" max="2059" width="8.625" style="25" customWidth="1"/>
     <col min="2060" max="2070" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="2071" max="2095" width="9" style="25" customWidth="1"/>
     <col min="2096" max="2295" width="9" style="25"/>
-    <col min="2296" max="2296" width="1.6640625" style="25" customWidth="1"/>
-    <col min="2297" max="2297" width="1.77734375" style="25" customWidth="1"/>
-    <col min="2298" max="2298" width="7.33203125" style="25" customWidth="1"/>
-    <col min="2299" max="2299" width="4.109375" style="25" customWidth="1"/>
-    <col min="2300" max="2300" width="2.33203125" style="25" customWidth="1"/>
+    <col min="2296" max="2296" width="1.625" style="25" customWidth="1"/>
+    <col min="2297" max="2297" width="1.75" style="25" customWidth="1"/>
+    <col min="2298" max="2298" width="7.375" style="25" customWidth="1"/>
+    <col min="2299" max="2299" width="4.125" style="25" customWidth="1"/>
+    <col min="2300" max="2300" width="2.375" style="25" customWidth="1"/>
     <col min="2301" max="2301" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2302" max="2302" width="2.109375" style="25" customWidth="1"/>
-    <col min="2303" max="2303" width="2.6640625" style="25" customWidth="1"/>
+    <col min="2302" max="2302" width="2.125" style="25" customWidth="1"/>
+    <col min="2303" max="2303" width="2.625" style="25" customWidth="1"/>
     <col min="2304" max="2304" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2305" max="2305" width="9.21875" style="25" customWidth="1"/>
-    <col min="2306" max="2306" width="12.21875" style="25" customWidth="1"/>
-    <col min="2307" max="2307" width="9.109375" style="25" customWidth="1"/>
-    <col min="2308" max="2308" width="3.109375" style="25" customWidth="1"/>
-    <col min="2309" max="2309" width="5.6640625" style="25" customWidth="1"/>
-    <col min="2310" max="2310" width="6.44140625" style="25" customWidth="1"/>
+    <col min="2305" max="2305" width="9.25" style="25" customWidth="1"/>
+    <col min="2306" max="2306" width="12.25" style="25" customWidth="1"/>
+    <col min="2307" max="2307" width="9.125" style="25" customWidth="1"/>
+    <col min="2308" max="2308" width="3.125" style="25" customWidth="1"/>
+    <col min="2309" max="2309" width="5.625" style="25" customWidth="1"/>
+    <col min="2310" max="2310" width="6.5" style="25" customWidth="1"/>
     <col min="2311" max="2311" width="1" style="25" customWidth="1"/>
     <col min="2312" max="2312" width="3" style="25" customWidth="1"/>
-    <col min="2313" max="2313" width="7.109375" style="25" customWidth="1"/>
-    <col min="2314" max="2314" width="2.77734375" style="25" customWidth="1"/>
-    <col min="2315" max="2315" width="8.6640625" style="25" customWidth="1"/>
+    <col min="2313" max="2313" width="7.125" style="25" customWidth="1"/>
+    <col min="2314" max="2314" width="2.75" style="25" customWidth="1"/>
+    <col min="2315" max="2315" width="8.625" style="25" customWidth="1"/>
     <col min="2316" max="2326" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="2327" max="2351" width="9" style="25" customWidth="1"/>
     <col min="2352" max="2551" width="9" style="25"/>
-    <col min="2552" max="2552" width="1.6640625" style="25" customWidth="1"/>
-    <col min="2553" max="2553" width="1.77734375" style="25" customWidth="1"/>
-    <col min="2554" max="2554" width="7.33203125" style="25" customWidth="1"/>
-    <col min="2555" max="2555" width="4.109375" style="25" customWidth="1"/>
-    <col min="2556" max="2556" width="2.33203125" style="25" customWidth="1"/>
+    <col min="2552" max="2552" width="1.625" style="25" customWidth="1"/>
+    <col min="2553" max="2553" width="1.75" style="25" customWidth="1"/>
+    <col min="2554" max="2554" width="7.375" style="25" customWidth="1"/>
+    <col min="2555" max="2555" width="4.125" style="25" customWidth="1"/>
+    <col min="2556" max="2556" width="2.375" style="25" customWidth="1"/>
     <col min="2557" max="2557" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2558" max="2558" width="2.109375" style="25" customWidth="1"/>
-    <col min="2559" max="2559" width="2.6640625" style="25" customWidth="1"/>
+    <col min="2558" max="2558" width="2.125" style="25" customWidth="1"/>
+    <col min="2559" max="2559" width="2.625" style="25" customWidth="1"/>
     <col min="2560" max="2560" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2561" max="2561" width="9.21875" style="25" customWidth="1"/>
-    <col min="2562" max="2562" width="12.21875" style="25" customWidth="1"/>
-    <col min="2563" max="2563" width="9.109375" style="25" customWidth="1"/>
-    <col min="2564" max="2564" width="3.109375" style="25" customWidth="1"/>
-    <col min="2565" max="2565" width="5.6640625" style="25" customWidth="1"/>
-    <col min="2566" max="2566" width="6.44140625" style="25" customWidth="1"/>
+    <col min="2561" max="2561" width="9.25" style="25" customWidth="1"/>
+    <col min="2562" max="2562" width="12.25" style="25" customWidth="1"/>
+    <col min="2563" max="2563" width="9.125" style="25" customWidth="1"/>
+    <col min="2564" max="2564" width="3.125" style="25" customWidth="1"/>
+    <col min="2565" max="2565" width="5.625" style="25" customWidth="1"/>
+    <col min="2566" max="2566" width="6.5" style="25" customWidth="1"/>
     <col min="2567" max="2567" width="1" style="25" customWidth="1"/>
     <col min="2568" max="2568" width="3" style="25" customWidth="1"/>
-    <col min="2569" max="2569" width="7.109375" style="25" customWidth="1"/>
-    <col min="2570" max="2570" width="2.77734375" style="25" customWidth="1"/>
-    <col min="2571" max="2571" width="8.6640625" style="25" customWidth="1"/>
+    <col min="2569" max="2569" width="7.125" style="25" customWidth="1"/>
+    <col min="2570" max="2570" width="2.75" style="25" customWidth="1"/>
+    <col min="2571" max="2571" width="8.625" style="25" customWidth="1"/>
     <col min="2572" max="2582" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="2583" max="2607" width="9" style="25" customWidth="1"/>
     <col min="2608" max="2807" width="9" style="25"/>
-    <col min="2808" max="2808" width="1.6640625" style="25" customWidth="1"/>
-    <col min="2809" max="2809" width="1.77734375" style="25" customWidth="1"/>
-    <col min="2810" max="2810" width="7.33203125" style="25" customWidth="1"/>
-    <col min="2811" max="2811" width="4.109375" style="25" customWidth="1"/>
-    <col min="2812" max="2812" width="2.33203125" style="25" customWidth="1"/>
+    <col min="2808" max="2808" width="1.625" style="25" customWidth="1"/>
+    <col min="2809" max="2809" width="1.75" style="25" customWidth="1"/>
+    <col min="2810" max="2810" width="7.375" style="25" customWidth="1"/>
+    <col min="2811" max="2811" width="4.125" style="25" customWidth="1"/>
+    <col min="2812" max="2812" width="2.375" style="25" customWidth="1"/>
     <col min="2813" max="2813" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2814" max="2814" width="2.109375" style="25" customWidth="1"/>
-    <col min="2815" max="2815" width="2.6640625" style="25" customWidth="1"/>
+    <col min="2814" max="2814" width="2.125" style="25" customWidth="1"/>
+    <col min="2815" max="2815" width="2.625" style="25" customWidth="1"/>
     <col min="2816" max="2816" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="2817" max="2817" width="9.21875" style="25" customWidth="1"/>
-    <col min="2818" max="2818" width="12.21875" style="25" customWidth="1"/>
-    <col min="2819" max="2819" width="9.109375" style="25" customWidth="1"/>
-    <col min="2820" max="2820" width="3.109375" style="25" customWidth="1"/>
-    <col min="2821" max="2821" width="5.6640625" style="25" customWidth="1"/>
-    <col min="2822" max="2822" width="6.44140625" style="25" customWidth="1"/>
+    <col min="2817" max="2817" width="9.25" style="25" customWidth="1"/>
+    <col min="2818" max="2818" width="12.25" style="25" customWidth="1"/>
+    <col min="2819" max="2819" width="9.125" style="25" customWidth="1"/>
+    <col min="2820" max="2820" width="3.125" style="25" customWidth="1"/>
+    <col min="2821" max="2821" width="5.625" style="25" customWidth="1"/>
+    <col min="2822" max="2822" width="6.5" style="25" customWidth="1"/>
     <col min="2823" max="2823" width="1" style="25" customWidth="1"/>
     <col min="2824" max="2824" width="3" style="25" customWidth="1"/>
-    <col min="2825" max="2825" width="7.109375" style="25" customWidth="1"/>
-    <col min="2826" max="2826" width="2.77734375" style="25" customWidth="1"/>
-    <col min="2827" max="2827" width="8.6640625" style="25" customWidth="1"/>
+    <col min="2825" max="2825" width="7.125" style="25" customWidth="1"/>
+    <col min="2826" max="2826" width="2.75" style="25" customWidth="1"/>
+    <col min="2827" max="2827" width="8.625" style="25" customWidth="1"/>
     <col min="2828" max="2838" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="2839" max="2863" width="9" style="25" customWidth="1"/>
     <col min="2864" max="3063" width="9" style="25"/>
-    <col min="3064" max="3064" width="1.6640625" style="25" customWidth="1"/>
-    <col min="3065" max="3065" width="1.77734375" style="25" customWidth="1"/>
-    <col min="3066" max="3066" width="7.33203125" style="25" customWidth="1"/>
-    <col min="3067" max="3067" width="4.109375" style="25" customWidth="1"/>
-    <col min="3068" max="3068" width="2.33203125" style="25" customWidth="1"/>
+    <col min="3064" max="3064" width="1.625" style="25" customWidth="1"/>
+    <col min="3065" max="3065" width="1.75" style="25" customWidth="1"/>
+    <col min="3066" max="3066" width="7.375" style="25" customWidth="1"/>
+    <col min="3067" max="3067" width="4.125" style="25" customWidth="1"/>
+    <col min="3068" max="3068" width="2.375" style="25" customWidth="1"/>
     <col min="3069" max="3069" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3070" max="3070" width="2.109375" style="25" customWidth="1"/>
-    <col min="3071" max="3071" width="2.6640625" style="25" customWidth="1"/>
+    <col min="3070" max="3070" width="2.125" style="25" customWidth="1"/>
+    <col min="3071" max="3071" width="2.625" style="25" customWidth="1"/>
     <col min="3072" max="3072" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3073" max="3073" width="9.21875" style="25" customWidth="1"/>
-    <col min="3074" max="3074" width="12.21875" style="25" customWidth="1"/>
-    <col min="3075" max="3075" width="9.109375" style="25" customWidth="1"/>
-    <col min="3076" max="3076" width="3.109375" style="25" customWidth="1"/>
-    <col min="3077" max="3077" width="5.6640625" style="25" customWidth="1"/>
-    <col min="3078" max="3078" width="6.44140625" style="25" customWidth="1"/>
+    <col min="3073" max="3073" width="9.25" style="25" customWidth="1"/>
+    <col min="3074" max="3074" width="12.25" style="25" customWidth="1"/>
+    <col min="3075" max="3075" width="9.125" style="25" customWidth="1"/>
+    <col min="3076" max="3076" width="3.125" style="25" customWidth="1"/>
+    <col min="3077" max="3077" width="5.625" style="25" customWidth="1"/>
+    <col min="3078" max="3078" width="6.5" style="25" customWidth="1"/>
     <col min="3079" max="3079" width="1" style="25" customWidth="1"/>
     <col min="3080" max="3080" width="3" style="25" customWidth="1"/>
-    <col min="3081" max="3081" width="7.109375" style="25" customWidth="1"/>
-    <col min="3082" max="3082" width="2.77734375" style="25" customWidth="1"/>
-    <col min="3083" max="3083" width="8.6640625" style="25" customWidth="1"/>
+    <col min="3081" max="3081" width="7.125" style="25" customWidth="1"/>
+    <col min="3082" max="3082" width="2.75" style="25" customWidth="1"/>
+    <col min="3083" max="3083" width="8.625" style="25" customWidth="1"/>
     <col min="3084" max="3094" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="3095" max="3119" width="9" style="25" customWidth="1"/>
     <col min="3120" max="3319" width="9" style="25"/>
-    <col min="3320" max="3320" width="1.6640625" style="25" customWidth="1"/>
-    <col min="3321" max="3321" width="1.77734375" style="25" customWidth="1"/>
-    <col min="3322" max="3322" width="7.33203125" style="25" customWidth="1"/>
-    <col min="3323" max="3323" width="4.109375" style="25" customWidth="1"/>
-    <col min="3324" max="3324" width="2.33203125" style="25" customWidth="1"/>
+    <col min="3320" max="3320" width="1.625" style="25" customWidth="1"/>
+    <col min="3321" max="3321" width="1.75" style="25" customWidth="1"/>
+    <col min="3322" max="3322" width="7.375" style="25" customWidth="1"/>
+    <col min="3323" max="3323" width="4.125" style="25" customWidth="1"/>
+    <col min="3324" max="3324" width="2.375" style="25" customWidth="1"/>
     <col min="3325" max="3325" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3326" max="3326" width="2.109375" style="25" customWidth="1"/>
-    <col min="3327" max="3327" width="2.6640625" style="25" customWidth="1"/>
+    <col min="3326" max="3326" width="2.125" style="25" customWidth="1"/>
+    <col min="3327" max="3327" width="2.625" style="25" customWidth="1"/>
     <col min="3328" max="3328" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3329" max="3329" width="9.21875" style="25" customWidth="1"/>
-    <col min="3330" max="3330" width="12.21875" style="25" customWidth="1"/>
-    <col min="3331" max="3331" width="9.109375" style="25" customWidth="1"/>
-    <col min="3332" max="3332" width="3.109375" style="25" customWidth="1"/>
-    <col min="3333" max="3333" width="5.6640625" style="25" customWidth="1"/>
-    <col min="3334" max="3334" width="6.44140625" style="25" customWidth="1"/>
+    <col min="3329" max="3329" width="9.25" style="25" customWidth="1"/>
+    <col min="3330" max="3330" width="12.25" style="25" customWidth="1"/>
+    <col min="3331" max="3331" width="9.125" style="25" customWidth="1"/>
+    <col min="3332" max="3332" width="3.125" style="25" customWidth="1"/>
+    <col min="3333" max="3333" width="5.625" style="25" customWidth="1"/>
+    <col min="3334" max="3334" width="6.5" style="25" customWidth="1"/>
     <col min="3335" max="3335" width="1" style="25" customWidth="1"/>
     <col min="3336" max="3336" width="3" style="25" customWidth="1"/>
-    <col min="3337" max="3337" width="7.109375" style="25" customWidth="1"/>
-    <col min="3338" max="3338" width="2.77734375" style="25" customWidth="1"/>
-    <col min="3339" max="3339" width="8.6640625" style="25" customWidth="1"/>
+    <col min="3337" max="3337" width="7.125" style="25" customWidth="1"/>
+    <col min="3338" max="3338" width="2.75" style="25" customWidth="1"/>
+    <col min="3339" max="3339" width="8.625" style="25" customWidth="1"/>
     <col min="3340" max="3350" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="3351" max="3375" width="9" style="25" customWidth="1"/>
     <col min="3376" max="3575" width="9" style="25"/>
-    <col min="3576" max="3576" width="1.6640625" style="25" customWidth="1"/>
-    <col min="3577" max="3577" width="1.77734375" style="25" customWidth="1"/>
-    <col min="3578" max="3578" width="7.33203125" style="25" customWidth="1"/>
-    <col min="3579" max="3579" width="4.109375" style="25" customWidth="1"/>
-    <col min="3580" max="3580" width="2.33203125" style="25" customWidth="1"/>
+    <col min="3576" max="3576" width="1.625" style="25" customWidth="1"/>
+    <col min="3577" max="3577" width="1.75" style="25" customWidth="1"/>
+    <col min="3578" max="3578" width="7.375" style="25" customWidth="1"/>
+    <col min="3579" max="3579" width="4.125" style="25" customWidth="1"/>
+    <col min="3580" max="3580" width="2.375" style="25" customWidth="1"/>
     <col min="3581" max="3581" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3582" max="3582" width="2.109375" style="25" customWidth="1"/>
-    <col min="3583" max="3583" width="2.6640625" style="25" customWidth="1"/>
+    <col min="3582" max="3582" width="2.125" style="25" customWidth="1"/>
+    <col min="3583" max="3583" width="2.625" style="25" customWidth="1"/>
     <col min="3584" max="3584" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3585" max="3585" width="9.21875" style="25" customWidth="1"/>
-    <col min="3586" max="3586" width="12.21875" style="25" customWidth="1"/>
-    <col min="3587" max="3587" width="9.109375" style="25" customWidth="1"/>
-    <col min="3588" max="3588" width="3.109375" style="25" customWidth="1"/>
-    <col min="3589" max="3589" width="5.6640625" style="25" customWidth="1"/>
-    <col min="3590" max="3590" width="6.44140625" style="25" customWidth="1"/>
+    <col min="3585" max="3585" width="9.25" style="25" customWidth="1"/>
+    <col min="3586" max="3586" width="12.25" style="25" customWidth="1"/>
+    <col min="3587" max="3587" width="9.125" style="25" customWidth="1"/>
+    <col min="3588" max="3588" width="3.125" style="25" customWidth="1"/>
+    <col min="3589" max="3589" width="5.625" style="25" customWidth="1"/>
+    <col min="3590" max="3590" width="6.5" style="25" customWidth="1"/>
     <col min="3591" max="3591" width="1" style="25" customWidth="1"/>
     <col min="3592" max="3592" width="3" style="25" customWidth="1"/>
-    <col min="3593" max="3593" width="7.109375" style="25" customWidth="1"/>
-    <col min="3594" max="3594" width="2.77734375" style="25" customWidth="1"/>
-    <col min="3595" max="3595" width="8.6640625" style="25" customWidth="1"/>
+    <col min="3593" max="3593" width="7.125" style="25" customWidth="1"/>
+    <col min="3594" max="3594" width="2.75" style="25" customWidth="1"/>
+    <col min="3595" max="3595" width="8.625" style="25" customWidth="1"/>
     <col min="3596" max="3606" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="3607" max="3631" width="9" style="25" customWidth="1"/>
     <col min="3632" max="3831" width="9" style="25"/>
-    <col min="3832" max="3832" width="1.6640625" style="25" customWidth="1"/>
-    <col min="3833" max="3833" width="1.77734375" style="25" customWidth="1"/>
-    <col min="3834" max="3834" width="7.33203125" style="25" customWidth="1"/>
-    <col min="3835" max="3835" width="4.109375" style="25" customWidth="1"/>
-    <col min="3836" max="3836" width="2.33203125" style="25" customWidth="1"/>
+    <col min="3832" max="3832" width="1.625" style="25" customWidth="1"/>
+    <col min="3833" max="3833" width="1.75" style="25" customWidth="1"/>
+    <col min="3834" max="3834" width="7.375" style="25" customWidth="1"/>
+    <col min="3835" max="3835" width="4.125" style="25" customWidth="1"/>
+    <col min="3836" max="3836" width="2.375" style="25" customWidth="1"/>
     <col min="3837" max="3837" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3838" max="3838" width="2.109375" style="25" customWidth="1"/>
-    <col min="3839" max="3839" width="2.6640625" style="25" customWidth="1"/>
+    <col min="3838" max="3838" width="2.125" style="25" customWidth="1"/>
+    <col min="3839" max="3839" width="2.625" style="25" customWidth="1"/>
     <col min="3840" max="3840" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="3841" max="3841" width="9.21875" style="25" customWidth="1"/>
-    <col min="3842" max="3842" width="12.21875" style="25" customWidth="1"/>
-    <col min="3843" max="3843" width="9.109375" style="25" customWidth="1"/>
-    <col min="3844" max="3844" width="3.109375" style="25" customWidth="1"/>
-    <col min="3845" max="3845" width="5.6640625" style="25" customWidth="1"/>
-    <col min="3846" max="3846" width="6.44140625" style="25" customWidth="1"/>
+    <col min="3841" max="3841" width="9.25" style="25" customWidth="1"/>
+    <col min="3842" max="3842" width="12.25" style="25" customWidth="1"/>
+    <col min="3843" max="3843" width="9.125" style="25" customWidth="1"/>
+    <col min="3844" max="3844" width="3.125" style="25" customWidth="1"/>
+    <col min="3845" max="3845" width="5.625" style="25" customWidth="1"/>
+    <col min="3846" max="3846" width="6.5" style="25" customWidth="1"/>
     <col min="3847" max="3847" width="1" style="25" customWidth="1"/>
     <col min="3848" max="3848" width="3" style="25" customWidth="1"/>
-    <col min="3849" max="3849" width="7.109375" style="25" customWidth="1"/>
-    <col min="3850" max="3850" width="2.77734375" style="25" customWidth="1"/>
-    <col min="3851" max="3851" width="8.6640625" style="25" customWidth="1"/>
+    <col min="3849" max="3849" width="7.125" style="25" customWidth="1"/>
+    <col min="3850" max="3850" width="2.75" style="25" customWidth="1"/>
+    <col min="3851" max="3851" width="8.625" style="25" customWidth="1"/>
     <col min="3852" max="3862" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="3863" max="3887" width="9" style="25" customWidth="1"/>
     <col min="3888" max="4087" width="9" style="25"/>
-    <col min="4088" max="4088" width="1.6640625" style="25" customWidth="1"/>
-    <col min="4089" max="4089" width="1.77734375" style="25" customWidth="1"/>
-    <col min="4090" max="4090" width="7.33203125" style="25" customWidth="1"/>
-    <col min="4091" max="4091" width="4.109375" style="25" customWidth="1"/>
-    <col min="4092" max="4092" width="2.33203125" style="25" customWidth="1"/>
+    <col min="4088" max="4088" width="1.625" style="25" customWidth="1"/>
+    <col min="4089" max="4089" width="1.75" style="25" customWidth="1"/>
+    <col min="4090" max="4090" width="7.375" style="25" customWidth="1"/>
+    <col min="4091" max="4091" width="4.125" style="25" customWidth="1"/>
+    <col min="4092" max="4092" width="2.375" style="25" customWidth="1"/>
     <col min="4093" max="4093" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4094" max="4094" width="2.109375" style="25" customWidth="1"/>
-    <col min="4095" max="4095" width="2.6640625" style="25" customWidth="1"/>
+    <col min="4094" max="4094" width="2.125" style="25" customWidth="1"/>
+    <col min="4095" max="4095" width="2.625" style="25" customWidth="1"/>
     <col min="4096" max="4096" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4097" max="4097" width="9.21875" style="25" customWidth="1"/>
-    <col min="4098" max="4098" width="12.21875" style="25" customWidth="1"/>
-    <col min="4099" max="4099" width="9.109375" style="25" customWidth="1"/>
-    <col min="4100" max="4100" width="3.109375" style="25" customWidth="1"/>
-    <col min="4101" max="4101" width="5.6640625" style="25" customWidth="1"/>
-    <col min="4102" max="4102" width="6.44140625" style="25" customWidth="1"/>
+    <col min="4097" max="4097" width="9.25" style="25" customWidth="1"/>
+    <col min="4098" max="4098" width="12.25" style="25" customWidth="1"/>
+    <col min="4099" max="4099" width="9.125" style="25" customWidth="1"/>
+    <col min="4100" max="4100" width="3.125" style="25" customWidth="1"/>
+    <col min="4101" max="4101" width="5.625" style="25" customWidth="1"/>
+    <col min="4102" max="4102" width="6.5" style="25" customWidth="1"/>
     <col min="4103" max="4103" width="1" style="25" customWidth="1"/>
     <col min="4104" max="4104" width="3" style="25" customWidth="1"/>
-    <col min="4105" max="4105" width="7.109375" style="25" customWidth="1"/>
-    <col min="4106" max="4106" width="2.77734375" style="25" customWidth="1"/>
-    <col min="4107" max="4107" width="8.6640625" style="25" customWidth="1"/>
+    <col min="4105" max="4105" width="7.125" style="25" customWidth="1"/>
+    <col min="4106" max="4106" width="2.75" style="25" customWidth="1"/>
+    <col min="4107" max="4107" width="8.625" style="25" customWidth="1"/>
     <col min="4108" max="4118" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="4119" max="4143" width="9" style="25" customWidth="1"/>
     <col min="4144" max="4343" width="9" style="25"/>
-    <col min="4344" max="4344" width="1.6640625" style="25" customWidth="1"/>
-    <col min="4345" max="4345" width="1.77734375" style="25" customWidth="1"/>
-    <col min="4346" max="4346" width="7.33203125" style="25" customWidth="1"/>
-    <col min="4347" max="4347" width="4.109375" style="25" customWidth="1"/>
-    <col min="4348" max="4348" width="2.33203125" style="25" customWidth="1"/>
+    <col min="4344" max="4344" width="1.625" style="25" customWidth="1"/>
+    <col min="4345" max="4345" width="1.75" style="25" customWidth="1"/>
+    <col min="4346" max="4346" width="7.375" style="25" customWidth="1"/>
+    <col min="4347" max="4347" width="4.125" style="25" customWidth="1"/>
+    <col min="4348" max="4348" width="2.375" style="25" customWidth="1"/>
     <col min="4349" max="4349" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4350" max="4350" width="2.109375" style="25" customWidth="1"/>
-    <col min="4351" max="4351" width="2.6640625" style="25" customWidth="1"/>
+    <col min="4350" max="4350" width="2.125" style="25" customWidth="1"/>
+    <col min="4351" max="4351" width="2.625" style="25" customWidth="1"/>
     <col min="4352" max="4352" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4353" max="4353" width="9.21875" style="25" customWidth="1"/>
-    <col min="4354" max="4354" width="12.21875" style="25" customWidth="1"/>
-    <col min="4355" max="4355" width="9.109375" style="25" customWidth="1"/>
-    <col min="4356" max="4356" width="3.109375" style="25" customWidth="1"/>
-    <col min="4357" max="4357" width="5.6640625" style="25" customWidth="1"/>
-    <col min="4358" max="4358" width="6.44140625" style="25" customWidth="1"/>
+    <col min="4353" max="4353" width="9.25" style="25" customWidth="1"/>
+    <col min="4354" max="4354" width="12.25" style="25" customWidth="1"/>
+    <col min="4355" max="4355" width="9.125" style="25" customWidth="1"/>
+    <col min="4356" max="4356" width="3.125" style="25" customWidth="1"/>
+    <col min="4357" max="4357" width="5.625" style="25" customWidth="1"/>
+    <col min="4358" max="4358" width="6.5" style="25" customWidth="1"/>
     <col min="4359" max="4359" width="1" style="25" customWidth="1"/>
     <col min="4360" max="4360" width="3" style="25" customWidth="1"/>
-    <col min="4361" max="4361" width="7.109375" style="25" customWidth="1"/>
-    <col min="4362" max="4362" width="2.77734375" style="25" customWidth="1"/>
-    <col min="4363" max="4363" width="8.6640625" style="25" customWidth="1"/>
+    <col min="4361" max="4361" width="7.125" style="25" customWidth="1"/>
+    <col min="4362" max="4362" width="2.75" style="25" customWidth="1"/>
+    <col min="4363" max="4363" width="8.625" style="25" customWidth="1"/>
     <col min="4364" max="4374" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="4375" max="4399" width="9" style="25" customWidth="1"/>
     <col min="4400" max="4599" width="9" style="25"/>
-    <col min="4600" max="4600" width="1.6640625" style="25" customWidth="1"/>
-    <col min="4601" max="4601" width="1.77734375" style="25" customWidth="1"/>
-    <col min="4602" max="4602" width="7.33203125" style="25" customWidth="1"/>
-    <col min="4603" max="4603" width="4.109375" style="25" customWidth="1"/>
-    <col min="4604" max="4604" width="2.33203125" style="25" customWidth="1"/>
+    <col min="4600" max="4600" width="1.625" style="25" customWidth="1"/>
+    <col min="4601" max="4601" width="1.75" style="25" customWidth="1"/>
+    <col min="4602" max="4602" width="7.375" style="25" customWidth="1"/>
+    <col min="4603" max="4603" width="4.125" style="25" customWidth="1"/>
+    <col min="4604" max="4604" width="2.375" style="25" customWidth="1"/>
     <col min="4605" max="4605" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4606" max="4606" width="2.109375" style="25" customWidth="1"/>
-    <col min="4607" max="4607" width="2.6640625" style="25" customWidth="1"/>
+    <col min="4606" max="4606" width="2.125" style="25" customWidth="1"/>
+    <col min="4607" max="4607" width="2.625" style="25" customWidth="1"/>
     <col min="4608" max="4608" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4609" max="4609" width="9.21875" style="25" customWidth="1"/>
-    <col min="4610" max="4610" width="12.21875" style="25" customWidth="1"/>
-    <col min="4611" max="4611" width="9.109375" style="25" customWidth="1"/>
-    <col min="4612" max="4612" width="3.109375" style="25" customWidth="1"/>
-    <col min="4613" max="4613" width="5.6640625" style="25" customWidth="1"/>
-    <col min="4614" max="4614" width="6.44140625" style="25" customWidth="1"/>
+    <col min="4609" max="4609" width="9.25" style="25" customWidth="1"/>
+    <col min="4610" max="4610" width="12.25" style="25" customWidth="1"/>
+    <col min="4611" max="4611" width="9.125" style="25" customWidth="1"/>
+    <col min="4612" max="4612" width="3.125" style="25" customWidth="1"/>
+    <col min="4613" max="4613" width="5.625" style="25" customWidth="1"/>
+    <col min="4614" max="4614" width="6.5" style="25" customWidth="1"/>
     <col min="4615" max="4615" width="1" style="25" customWidth="1"/>
     <col min="4616" max="4616" width="3" style="25" customWidth="1"/>
-    <col min="4617" max="4617" width="7.109375" style="25" customWidth="1"/>
-    <col min="4618" max="4618" width="2.77734375" style="25" customWidth="1"/>
-    <col min="4619" max="4619" width="8.6640625" style="25" customWidth="1"/>
+    <col min="4617" max="4617" width="7.125" style="25" customWidth="1"/>
+    <col min="4618" max="4618" width="2.75" style="25" customWidth="1"/>
+    <col min="4619" max="4619" width="8.625" style="25" customWidth="1"/>
     <col min="4620" max="4630" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="4631" max="4655" width="9" style="25" customWidth="1"/>
     <col min="4656" max="4855" width="9" style="25"/>
-    <col min="4856" max="4856" width="1.6640625" style="25" customWidth="1"/>
-    <col min="4857" max="4857" width="1.77734375" style="25" customWidth="1"/>
-    <col min="4858" max="4858" width="7.33203125" style="25" customWidth="1"/>
-    <col min="4859" max="4859" width="4.109375" style="25" customWidth="1"/>
-    <col min="4860" max="4860" width="2.33203125" style="25" customWidth="1"/>
+    <col min="4856" max="4856" width="1.625" style="25" customWidth="1"/>
+    <col min="4857" max="4857" width="1.75" style="25" customWidth="1"/>
+    <col min="4858" max="4858" width="7.375" style="25" customWidth="1"/>
+    <col min="4859" max="4859" width="4.125" style="25" customWidth="1"/>
+    <col min="4860" max="4860" width="2.375" style="25" customWidth="1"/>
     <col min="4861" max="4861" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4862" max="4862" width="2.109375" style="25" customWidth="1"/>
-    <col min="4863" max="4863" width="2.6640625" style="25" customWidth="1"/>
+    <col min="4862" max="4862" width="2.125" style="25" customWidth="1"/>
+    <col min="4863" max="4863" width="2.625" style="25" customWidth="1"/>
     <col min="4864" max="4864" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="4865" max="4865" width="9.21875" style="25" customWidth="1"/>
-    <col min="4866" max="4866" width="12.21875" style="25" customWidth="1"/>
-    <col min="4867" max="4867" width="9.109375" style="25" customWidth="1"/>
-    <col min="4868" max="4868" width="3.109375" style="25" customWidth="1"/>
-    <col min="4869" max="4869" width="5.6640625" style="25" customWidth="1"/>
-    <col min="4870" max="4870" width="6.44140625" style="25" customWidth="1"/>
+    <col min="4865" max="4865" width="9.25" style="25" customWidth="1"/>
+    <col min="4866" max="4866" width="12.25" style="25" customWidth="1"/>
+    <col min="4867" max="4867" width="9.125" style="25" customWidth="1"/>
+    <col min="4868" max="4868" width="3.125" style="25" customWidth="1"/>
+    <col min="4869" max="4869" width="5.625" style="25" customWidth="1"/>
+    <col min="4870" max="4870" width="6.5" style="25" customWidth="1"/>
     <col min="4871" max="4871" width="1" style="25" customWidth="1"/>
     <col min="4872" max="4872" width="3" style="25" customWidth="1"/>
-    <col min="4873" max="4873" width="7.109375" style="25" customWidth="1"/>
-    <col min="4874" max="4874" width="2.77734375" style="25" customWidth="1"/>
-    <col min="4875" max="4875" width="8.6640625" style="25" customWidth="1"/>
+    <col min="4873" max="4873" width="7.125" style="25" customWidth="1"/>
+    <col min="4874" max="4874" width="2.75" style="25" customWidth="1"/>
+    <col min="4875" max="4875" width="8.625" style="25" customWidth="1"/>
     <col min="4876" max="4886" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="4887" max="4911" width="9" style="25" customWidth="1"/>
     <col min="4912" max="5111" width="9" style="25"/>
-    <col min="5112" max="5112" width="1.6640625" style="25" customWidth="1"/>
-    <col min="5113" max="5113" width="1.77734375" style="25" customWidth="1"/>
-    <col min="5114" max="5114" width="7.33203125" style="25" customWidth="1"/>
-    <col min="5115" max="5115" width="4.109375" style="25" customWidth="1"/>
-    <col min="5116" max="5116" width="2.33203125" style="25" customWidth="1"/>
+    <col min="5112" max="5112" width="1.625" style="25" customWidth="1"/>
+    <col min="5113" max="5113" width="1.75" style="25" customWidth="1"/>
+    <col min="5114" max="5114" width="7.375" style="25" customWidth="1"/>
+    <col min="5115" max="5115" width="4.125" style="25" customWidth="1"/>
+    <col min="5116" max="5116" width="2.375" style="25" customWidth="1"/>
     <col min="5117" max="5117" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5118" max="5118" width="2.109375" style="25" customWidth="1"/>
-    <col min="5119" max="5119" width="2.6640625" style="25" customWidth="1"/>
+    <col min="5118" max="5118" width="2.125" style="25" customWidth="1"/>
+    <col min="5119" max="5119" width="2.625" style="25" customWidth="1"/>
     <col min="5120" max="5120" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5121" max="5121" width="9.21875" style="25" customWidth="1"/>
-    <col min="5122" max="5122" width="12.21875" style="25" customWidth="1"/>
-    <col min="5123" max="5123" width="9.109375" style="25" customWidth="1"/>
-    <col min="5124" max="5124" width="3.109375" style="25" customWidth="1"/>
-    <col min="5125" max="5125" width="5.6640625" style="25" customWidth="1"/>
-    <col min="5126" max="5126" width="6.44140625" style="25" customWidth="1"/>
+    <col min="5121" max="5121" width="9.25" style="25" customWidth="1"/>
+    <col min="5122" max="5122" width="12.25" style="25" customWidth="1"/>
+    <col min="5123" max="5123" width="9.125" style="25" customWidth="1"/>
+    <col min="5124" max="5124" width="3.125" style="25" customWidth="1"/>
+    <col min="5125" max="5125" width="5.625" style="25" customWidth="1"/>
+    <col min="5126" max="5126" width="6.5" style="25" customWidth="1"/>
     <col min="5127" max="5127" width="1" style="25" customWidth="1"/>
     <col min="5128" max="5128" width="3" style="25" customWidth="1"/>
-    <col min="5129" max="5129" width="7.109375" style="25" customWidth="1"/>
-    <col min="5130" max="5130" width="2.77734375" style="25" customWidth="1"/>
-    <col min="5131" max="5131" width="8.6640625" style="25" customWidth="1"/>
+    <col min="5129" max="5129" width="7.125" style="25" customWidth="1"/>
+    <col min="5130" max="5130" width="2.75" style="25" customWidth="1"/>
+    <col min="5131" max="5131" width="8.625" style="25" customWidth="1"/>
     <col min="5132" max="5142" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="5143" max="5167" width="9" style="25" customWidth="1"/>
     <col min="5168" max="5367" width="9" style="25"/>
-    <col min="5368" max="5368" width="1.6640625" style="25" customWidth="1"/>
-    <col min="5369" max="5369" width="1.77734375" style="25" customWidth="1"/>
-    <col min="5370" max="5370" width="7.33203125" style="25" customWidth="1"/>
-    <col min="5371" max="5371" width="4.109375" style="25" customWidth="1"/>
-    <col min="5372" max="5372" width="2.33203125" style="25" customWidth="1"/>
+    <col min="5368" max="5368" width="1.625" style="25" customWidth="1"/>
+    <col min="5369" max="5369" width="1.75" style="25" customWidth="1"/>
+    <col min="5370" max="5370" width="7.375" style="25" customWidth="1"/>
+    <col min="5371" max="5371" width="4.125" style="25" customWidth="1"/>
+    <col min="5372" max="5372" width="2.375" style="25" customWidth="1"/>
     <col min="5373" max="5373" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5374" max="5374" width="2.109375" style="25" customWidth="1"/>
-    <col min="5375" max="5375" width="2.6640625" style="25" customWidth="1"/>
+    <col min="5374" max="5374" width="2.125" style="25" customWidth="1"/>
+    <col min="5375" max="5375" width="2.625" style="25" customWidth="1"/>
     <col min="5376" max="5376" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5377" max="5377" width="9.21875" style="25" customWidth="1"/>
-    <col min="5378" max="5378" width="12.21875" style="25" customWidth="1"/>
-    <col min="5379" max="5379" width="9.109375" style="25" customWidth="1"/>
-    <col min="5380" max="5380" width="3.109375" style="25" customWidth="1"/>
-    <col min="5381" max="5381" width="5.6640625" style="25" customWidth="1"/>
-    <col min="5382" max="5382" width="6.44140625" style="25" customWidth="1"/>
+    <col min="5377" max="5377" width="9.25" style="25" customWidth="1"/>
+    <col min="5378" max="5378" width="12.25" style="25" customWidth="1"/>
+    <col min="5379" max="5379" width="9.125" style="25" customWidth="1"/>
+    <col min="5380" max="5380" width="3.125" style="25" customWidth="1"/>
+    <col min="5381" max="5381" width="5.625" style="25" customWidth="1"/>
+    <col min="5382" max="5382" width="6.5" style="25" customWidth="1"/>
     <col min="5383" max="5383" width="1" style="25" customWidth="1"/>
     <col min="5384" max="5384" width="3" style="25" customWidth="1"/>
-    <col min="5385" max="5385" width="7.109375" style="25" customWidth="1"/>
-    <col min="5386" max="5386" width="2.77734375" style="25" customWidth="1"/>
-    <col min="5387" max="5387" width="8.6640625" style="25" customWidth="1"/>
+    <col min="5385" max="5385" width="7.125" style="25" customWidth="1"/>
+    <col min="5386" max="5386" width="2.75" style="25" customWidth="1"/>
+    <col min="5387" max="5387" width="8.625" style="25" customWidth="1"/>
     <col min="5388" max="5398" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="5399" max="5423" width="9" style="25" customWidth="1"/>
     <col min="5424" max="5623" width="9" style="25"/>
-    <col min="5624" max="5624" width="1.6640625" style="25" customWidth="1"/>
-    <col min="5625" max="5625" width="1.77734375" style="25" customWidth="1"/>
-    <col min="5626" max="5626" width="7.33203125" style="25" customWidth="1"/>
-    <col min="5627" max="5627" width="4.109375" style="25" customWidth="1"/>
-    <col min="5628" max="5628" width="2.33203125" style="25" customWidth="1"/>
+    <col min="5624" max="5624" width="1.625" style="25" customWidth="1"/>
+    <col min="5625" max="5625" width="1.75" style="25" customWidth="1"/>
+    <col min="5626" max="5626" width="7.375" style="25" customWidth="1"/>
+    <col min="5627" max="5627" width="4.125" style="25" customWidth="1"/>
+    <col min="5628" max="5628" width="2.375" style="25" customWidth="1"/>
     <col min="5629" max="5629" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5630" max="5630" width="2.109375" style="25" customWidth="1"/>
-    <col min="5631" max="5631" width="2.6640625" style="25" customWidth="1"/>
+    <col min="5630" max="5630" width="2.125" style="25" customWidth="1"/>
+    <col min="5631" max="5631" width="2.625" style="25" customWidth="1"/>
     <col min="5632" max="5632" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5633" max="5633" width="9.21875" style="25" customWidth="1"/>
-    <col min="5634" max="5634" width="12.21875" style="25" customWidth="1"/>
-    <col min="5635" max="5635" width="9.109375" style="25" customWidth="1"/>
-    <col min="5636" max="5636" width="3.109375" style="25" customWidth="1"/>
-    <col min="5637" max="5637" width="5.6640625" style="25" customWidth="1"/>
-    <col min="5638" max="5638" width="6.44140625" style="25" customWidth="1"/>
+    <col min="5633" max="5633" width="9.25" style="25" customWidth="1"/>
+    <col min="5634" max="5634" width="12.25" style="25" customWidth="1"/>
+    <col min="5635" max="5635" width="9.125" style="25" customWidth="1"/>
+    <col min="5636" max="5636" width="3.125" style="25" customWidth="1"/>
+    <col min="5637" max="5637" width="5.625" style="25" customWidth="1"/>
+    <col min="5638" max="5638" width="6.5" style="25" customWidth="1"/>
     <col min="5639" max="5639" width="1" style="25" customWidth="1"/>
     <col min="5640" max="5640" width="3" style="25" customWidth="1"/>
-    <col min="5641" max="5641" width="7.109375" style="25" customWidth="1"/>
-    <col min="5642" max="5642" width="2.77734375" style="25" customWidth="1"/>
-    <col min="5643" max="5643" width="8.6640625" style="25" customWidth="1"/>
+    <col min="5641" max="5641" width="7.125" style="25" customWidth="1"/>
+    <col min="5642" max="5642" width="2.75" style="25" customWidth="1"/>
+    <col min="5643" max="5643" width="8.625" style="25" customWidth="1"/>
     <col min="5644" max="5654" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="5655" max="5679" width="9" style="25" customWidth="1"/>
     <col min="5680" max="5879" width="9" style="25"/>
-    <col min="5880" max="5880" width="1.6640625" style="25" customWidth="1"/>
-    <col min="5881" max="5881" width="1.77734375" style="25" customWidth="1"/>
-    <col min="5882" max="5882" width="7.33203125" style="25" customWidth="1"/>
-    <col min="5883" max="5883" width="4.109375" style="25" customWidth="1"/>
-    <col min="5884" max="5884" width="2.33203125" style="25" customWidth="1"/>
+    <col min="5880" max="5880" width="1.625" style="25" customWidth="1"/>
+    <col min="5881" max="5881" width="1.75" style="25" customWidth="1"/>
+    <col min="5882" max="5882" width="7.375" style="25" customWidth="1"/>
+    <col min="5883" max="5883" width="4.125" style="25" customWidth="1"/>
+    <col min="5884" max="5884" width="2.375" style="25" customWidth="1"/>
     <col min="5885" max="5885" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5886" max="5886" width="2.109375" style="25" customWidth="1"/>
-    <col min="5887" max="5887" width="2.6640625" style="25" customWidth="1"/>
+    <col min="5886" max="5886" width="2.125" style="25" customWidth="1"/>
+    <col min="5887" max="5887" width="2.625" style="25" customWidth="1"/>
     <col min="5888" max="5888" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="5889" max="5889" width="9.21875" style="25" customWidth="1"/>
-    <col min="5890" max="5890" width="12.21875" style="25" customWidth="1"/>
-    <col min="5891" max="5891" width="9.109375" style="25" customWidth="1"/>
-    <col min="5892" max="5892" width="3.109375" style="25" customWidth="1"/>
-    <col min="5893" max="5893" width="5.6640625" style="25" customWidth="1"/>
-    <col min="5894" max="5894" width="6.44140625" style="25" customWidth="1"/>
+    <col min="5889" max="5889" width="9.25" style="25" customWidth="1"/>
+    <col min="5890" max="5890" width="12.25" style="25" customWidth="1"/>
+    <col min="5891" max="5891" width="9.125" style="25" customWidth="1"/>
+    <col min="5892" max="5892" width="3.125" style="25" customWidth="1"/>
+    <col min="5893" max="5893" width="5.625" style="25" customWidth="1"/>
+    <col min="5894" max="5894" width="6.5" style="25" customWidth="1"/>
     <col min="5895" max="5895" width="1" style="25" customWidth="1"/>
     <col min="5896" max="5896" width="3" style="25" customWidth="1"/>
-    <col min="5897" max="5897" width="7.109375" style="25" customWidth="1"/>
-    <col min="5898" max="5898" width="2.77734375" style="25" customWidth="1"/>
-    <col min="5899" max="5899" width="8.6640625" style="25" customWidth="1"/>
+    <col min="5897" max="5897" width="7.125" style="25" customWidth="1"/>
+    <col min="5898" max="5898" width="2.75" style="25" customWidth="1"/>
+    <col min="5899" max="5899" width="8.625" style="25" customWidth="1"/>
     <col min="5900" max="5910" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="5911" max="5935" width="9" style="25" customWidth="1"/>
     <col min="5936" max="6135" width="9" style="25"/>
-    <col min="6136" max="6136" width="1.6640625" style="25" customWidth="1"/>
-    <col min="6137" max="6137" width="1.77734375" style="25" customWidth="1"/>
-    <col min="6138" max="6138" width="7.33203125" style="25" customWidth="1"/>
-    <col min="6139" max="6139" width="4.109375" style="25" customWidth="1"/>
-    <col min="6140" max="6140" width="2.33203125" style="25" customWidth="1"/>
+    <col min="6136" max="6136" width="1.625" style="25" customWidth="1"/>
+    <col min="6137" max="6137" width="1.75" style="25" customWidth="1"/>
+    <col min="6138" max="6138" width="7.375" style="25" customWidth="1"/>
+    <col min="6139" max="6139" width="4.125" style="25" customWidth="1"/>
+    <col min="6140" max="6140" width="2.375" style="25" customWidth="1"/>
     <col min="6141" max="6141" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6142" max="6142" width="2.109375" style="25" customWidth="1"/>
-    <col min="6143" max="6143" width="2.6640625" style="25" customWidth="1"/>
+    <col min="6142" max="6142" width="2.125" style="25" customWidth="1"/>
+    <col min="6143" max="6143" width="2.625" style="25" customWidth="1"/>
     <col min="6144" max="6144" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6145" max="6145" width="9.21875" style="25" customWidth="1"/>
-    <col min="6146" max="6146" width="12.21875" style="25" customWidth="1"/>
-    <col min="6147" max="6147" width="9.109375" style="25" customWidth="1"/>
-    <col min="6148" max="6148" width="3.109375" style="25" customWidth="1"/>
-    <col min="6149" max="6149" width="5.6640625" style="25" customWidth="1"/>
-    <col min="6150" max="6150" width="6.44140625" style="25" customWidth="1"/>
+    <col min="6145" max="6145" width="9.25" style="25" customWidth="1"/>
+    <col min="6146" max="6146" width="12.25" style="25" customWidth="1"/>
+    <col min="6147" max="6147" width="9.125" style="25" customWidth="1"/>
+    <col min="6148" max="6148" width="3.125" style="25" customWidth="1"/>
+    <col min="6149" max="6149" width="5.625" style="25" customWidth="1"/>
+    <col min="6150" max="6150" width="6.5" style="25" customWidth="1"/>
     <col min="6151" max="6151" width="1" style="25" customWidth="1"/>
     <col min="6152" max="6152" width="3" style="25" customWidth="1"/>
-    <col min="6153" max="6153" width="7.109375" style="25" customWidth="1"/>
-    <col min="6154" max="6154" width="2.77734375" style="25" customWidth="1"/>
-    <col min="6155" max="6155" width="8.6640625" style="25" customWidth="1"/>
+    <col min="6153" max="6153" width="7.125" style="25" customWidth="1"/>
+    <col min="6154" max="6154" width="2.75" style="25" customWidth="1"/>
+    <col min="6155" max="6155" width="8.625" style="25" customWidth="1"/>
     <col min="6156" max="6166" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="6167" max="6191" width="9" style="25" customWidth="1"/>
     <col min="6192" max="6391" width="9" style="25"/>
-    <col min="6392" max="6392" width="1.6640625" style="25" customWidth="1"/>
-    <col min="6393" max="6393" width="1.77734375" style="25" customWidth="1"/>
-    <col min="6394" max="6394" width="7.33203125" style="25" customWidth="1"/>
-    <col min="6395" max="6395" width="4.109375" style="25" customWidth="1"/>
-    <col min="6396" max="6396" width="2.33203125" style="25" customWidth="1"/>
+    <col min="6392" max="6392" width="1.625" style="25" customWidth="1"/>
+    <col min="6393" max="6393" width="1.75" style="25" customWidth="1"/>
+    <col min="6394" max="6394" width="7.375" style="25" customWidth="1"/>
+    <col min="6395" max="6395" width="4.125" style="25" customWidth="1"/>
+    <col min="6396" max="6396" width="2.375" style="25" customWidth="1"/>
     <col min="6397" max="6397" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6398" max="6398" width="2.109375" style="25" customWidth="1"/>
-    <col min="6399" max="6399" width="2.6640625" style="25" customWidth="1"/>
+    <col min="6398" max="6398" width="2.125" style="25" customWidth="1"/>
+    <col min="6399" max="6399" width="2.625" style="25" customWidth="1"/>
     <col min="6400" max="6400" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6401" max="6401" width="9.21875" style="25" customWidth="1"/>
-    <col min="6402" max="6402" width="12.21875" style="25" customWidth="1"/>
-    <col min="6403" max="6403" width="9.109375" style="25" customWidth="1"/>
-    <col min="6404" max="6404" width="3.109375" style="25" customWidth="1"/>
-    <col min="6405" max="6405" width="5.6640625" style="25" customWidth="1"/>
-    <col min="6406" max="6406" width="6.44140625" style="25" customWidth="1"/>
+    <col min="6401" max="6401" width="9.25" style="25" customWidth="1"/>
+    <col min="6402" max="6402" width="12.25" style="25" customWidth="1"/>
+    <col min="6403" max="6403" width="9.125" style="25" customWidth="1"/>
+    <col min="6404" max="6404" width="3.125" style="25" customWidth="1"/>
+    <col min="6405" max="6405" width="5.625" style="25" customWidth="1"/>
+    <col min="6406" max="6406" width="6.5" style="25" customWidth="1"/>
     <col min="6407" max="6407" width="1" style="25" customWidth="1"/>
     <col min="6408" max="6408" width="3" style="25" customWidth="1"/>
-    <col min="6409" max="6409" width="7.109375" style="25" customWidth="1"/>
-    <col min="6410" max="6410" width="2.77734375" style="25" customWidth="1"/>
-    <col min="6411" max="6411" width="8.6640625" style="25" customWidth="1"/>
+    <col min="6409" max="6409" width="7.125" style="25" customWidth="1"/>
+    <col min="6410" max="6410" width="2.75" style="25" customWidth="1"/>
+    <col min="6411" max="6411" width="8.625" style="25" customWidth="1"/>
     <col min="6412" max="6422" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="6423" max="6447" width="9" style="25" customWidth="1"/>
     <col min="6448" max="6647" width="9" style="25"/>
-    <col min="6648" max="6648" width="1.6640625" style="25" customWidth="1"/>
-    <col min="6649" max="6649" width="1.77734375" style="25" customWidth="1"/>
-    <col min="6650" max="6650" width="7.33203125" style="25" customWidth="1"/>
-    <col min="6651" max="6651" width="4.109375" style="25" customWidth="1"/>
-    <col min="6652" max="6652" width="2.33203125" style="25" customWidth="1"/>
+    <col min="6648" max="6648" width="1.625" style="25" customWidth="1"/>
+    <col min="6649" max="6649" width="1.75" style="25" customWidth="1"/>
+    <col min="6650" max="6650" width="7.375" style="25" customWidth="1"/>
+    <col min="6651" max="6651" width="4.125" style="25" customWidth="1"/>
+    <col min="6652" max="6652" width="2.375" style="25" customWidth="1"/>
     <col min="6653" max="6653" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6654" max="6654" width="2.109375" style="25" customWidth="1"/>
-    <col min="6655" max="6655" width="2.6640625" style="25" customWidth="1"/>
+    <col min="6654" max="6654" width="2.125" style="25" customWidth="1"/>
+    <col min="6655" max="6655" width="2.625" style="25" customWidth="1"/>
     <col min="6656" max="6656" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6657" max="6657" width="9.21875" style="25" customWidth="1"/>
-    <col min="6658" max="6658" width="12.21875" style="25" customWidth="1"/>
-    <col min="6659" max="6659" width="9.109375" style="25" customWidth="1"/>
-    <col min="6660" max="6660" width="3.109375" style="25" customWidth="1"/>
-    <col min="6661" max="6661" width="5.6640625" style="25" customWidth="1"/>
-    <col min="6662" max="6662" width="6.44140625" style="25" customWidth="1"/>
+    <col min="6657" max="6657" width="9.25" style="25" customWidth="1"/>
+    <col min="6658" max="6658" width="12.25" style="25" customWidth="1"/>
+    <col min="6659" max="6659" width="9.125" style="25" customWidth="1"/>
+    <col min="6660" max="6660" width="3.125" style="25" customWidth="1"/>
+    <col min="6661" max="6661" width="5.625" style="25" customWidth="1"/>
+    <col min="6662" max="6662" width="6.5" style="25" customWidth="1"/>
     <col min="6663" max="6663" width="1" style="25" customWidth="1"/>
     <col min="6664" max="6664" width="3" style="25" customWidth="1"/>
-    <col min="6665" max="6665" width="7.109375" style="25" customWidth="1"/>
-    <col min="6666" max="6666" width="2.77734375" style="25" customWidth="1"/>
-    <col min="6667" max="6667" width="8.6640625" style="25" customWidth="1"/>
+    <col min="6665" max="6665" width="7.125" style="25" customWidth="1"/>
+    <col min="6666" max="6666" width="2.75" style="25" customWidth="1"/>
+    <col min="6667" max="6667" width="8.625" style="25" customWidth="1"/>
     <col min="6668" max="6678" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="6679" max="6703" width="9" style="25" customWidth="1"/>
     <col min="6704" max="6903" width="9" style="25"/>
-    <col min="6904" max="6904" width="1.6640625" style="25" customWidth="1"/>
-    <col min="6905" max="6905" width="1.77734375" style="25" customWidth="1"/>
-    <col min="6906" max="6906" width="7.33203125" style="25" customWidth="1"/>
-    <col min="6907" max="6907" width="4.109375" style="25" customWidth="1"/>
-    <col min="6908" max="6908" width="2.33203125" style="25" customWidth="1"/>
+    <col min="6904" max="6904" width="1.625" style="25" customWidth="1"/>
+    <col min="6905" max="6905" width="1.75" style="25" customWidth="1"/>
+    <col min="6906" max="6906" width="7.375" style="25" customWidth="1"/>
+    <col min="6907" max="6907" width="4.125" style="25" customWidth="1"/>
+    <col min="6908" max="6908" width="2.375" style="25" customWidth="1"/>
     <col min="6909" max="6909" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6910" max="6910" width="2.109375" style="25" customWidth="1"/>
-    <col min="6911" max="6911" width="2.6640625" style="25" customWidth="1"/>
+    <col min="6910" max="6910" width="2.125" style="25" customWidth="1"/>
+    <col min="6911" max="6911" width="2.625" style="25" customWidth="1"/>
     <col min="6912" max="6912" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="6913" max="6913" width="9.21875" style="25" customWidth="1"/>
-    <col min="6914" max="6914" width="12.21875" style="25" customWidth="1"/>
-    <col min="6915" max="6915" width="9.109375" style="25" customWidth="1"/>
-    <col min="6916" max="6916" width="3.109375" style="25" customWidth="1"/>
-    <col min="6917" max="6917" width="5.6640625" style="25" customWidth="1"/>
-    <col min="6918" max="6918" width="6.44140625" style="25" customWidth="1"/>
+    <col min="6913" max="6913" width="9.25" style="25" customWidth="1"/>
+    <col min="6914" max="6914" width="12.25" style="25" customWidth="1"/>
+    <col min="6915" max="6915" width="9.125" style="25" customWidth="1"/>
+    <col min="6916" max="6916" width="3.125" style="25" customWidth="1"/>
+    <col min="6917" max="6917" width="5.625" style="25" customWidth="1"/>
+    <col min="6918" max="6918" width="6.5" style="25" customWidth="1"/>
     <col min="6919" max="6919" width="1" style="25" customWidth="1"/>
     <col min="6920" max="6920" width="3" style="25" customWidth="1"/>
-    <col min="6921" max="6921" width="7.109375" style="25" customWidth="1"/>
-    <col min="6922" max="6922" width="2.77734375" style="25" customWidth="1"/>
-    <col min="6923" max="6923" width="8.6640625" style="25" customWidth="1"/>
+    <col min="6921" max="6921" width="7.125" style="25" customWidth="1"/>
+    <col min="6922" max="6922" width="2.75" style="25" customWidth="1"/>
+    <col min="6923" max="6923" width="8.625" style="25" customWidth="1"/>
     <col min="6924" max="6934" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="6935" max="6959" width="9" style="25" customWidth="1"/>
     <col min="6960" max="7159" width="9" style="25"/>
-    <col min="7160" max="7160" width="1.6640625" style="25" customWidth="1"/>
-    <col min="7161" max="7161" width="1.77734375" style="25" customWidth="1"/>
-    <col min="7162" max="7162" width="7.33203125" style="25" customWidth="1"/>
-    <col min="7163" max="7163" width="4.109375" style="25" customWidth="1"/>
-    <col min="7164" max="7164" width="2.33203125" style="25" customWidth="1"/>
+    <col min="7160" max="7160" width="1.625" style="25" customWidth="1"/>
+    <col min="7161" max="7161" width="1.75" style="25" customWidth="1"/>
+    <col min="7162" max="7162" width="7.375" style="25" customWidth="1"/>
+    <col min="7163" max="7163" width="4.125" style="25" customWidth="1"/>
+    <col min="7164" max="7164" width="2.375" style="25" customWidth="1"/>
     <col min="7165" max="7165" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7166" max="7166" width="2.109375" style="25" customWidth="1"/>
-    <col min="7167" max="7167" width="2.6640625" style="25" customWidth="1"/>
+    <col min="7166" max="7166" width="2.125" style="25" customWidth="1"/>
+    <col min="7167" max="7167" width="2.625" style="25" customWidth="1"/>
     <col min="7168" max="7168" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7169" max="7169" width="9.21875" style="25" customWidth="1"/>
-    <col min="7170" max="7170" width="12.21875" style="25" customWidth="1"/>
-    <col min="7171" max="7171" width="9.109375" style="25" customWidth="1"/>
-    <col min="7172" max="7172" width="3.109375" style="25" customWidth="1"/>
-    <col min="7173" max="7173" width="5.6640625" style="25" customWidth="1"/>
-    <col min="7174" max="7174" width="6.44140625" style="25" customWidth="1"/>
+    <col min="7169" max="7169" width="9.25" style="25" customWidth="1"/>
+    <col min="7170" max="7170" width="12.25" style="25" customWidth="1"/>
+    <col min="7171" max="7171" width="9.125" style="25" customWidth="1"/>
+    <col min="7172" max="7172" width="3.125" style="25" customWidth="1"/>
+    <col min="7173" max="7173" width="5.625" style="25" customWidth="1"/>
+    <col min="7174" max="7174" width="6.5" style="25" customWidth="1"/>
     <col min="7175" max="7175" width="1" style="25" customWidth="1"/>
     <col min="7176" max="7176" width="3" style="25" customWidth="1"/>
-    <col min="7177" max="7177" width="7.109375" style="25" customWidth="1"/>
-    <col min="7178" max="7178" width="2.77734375" style="25" customWidth="1"/>
-    <col min="7179" max="7179" width="8.6640625" style="25" customWidth="1"/>
+    <col min="7177" max="7177" width="7.125" style="25" customWidth="1"/>
+    <col min="7178" max="7178" width="2.75" style="25" customWidth="1"/>
+    <col min="7179" max="7179" width="8.625" style="25" customWidth="1"/>
     <col min="7180" max="7190" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="7191" max="7215" width="9" style="25" customWidth="1"/>
     <col min="7216" max="7415" width="9" style="25"/>
-    <col min="7416" max="7416" width="1.6640625" style="25" customWidth="1"/>
-    <col min="7417" max="7417" width="1.77734375" style="25" customWidth="1"/>
-    <col min="7418" max="7418" width="7.33203125" style="25" customWidth="1"/>
-    <col min="7419" max="7419" width="4.109375" style="25" customWidth="1"/>
-    <col min="7420" max="7420" width="2.33203125" style="25" customWidth="1"/>
+    <col min="7416" max="7416" width="1.625" style="25" customWidth="1"/>
+    <col min="7417" max="7417" width="1.75" style="25" customWidth="1"/>
+    <col min="7418" max="7418" width="7.375" style="25" customWidth="1"/>
+    <col min="7419" max="7419" width="4.125" style="25" customWidth="1"/>
+    <col min="7420" max="7420" width="2.375" style="25" customWidth="1"/>
     <col min="7421" max="7421" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7422" max="7422" width="2.109375" style="25" customWidth="1"/>
-    <col min="7423" max="7423" width="2.6640625" style="25" customWidth="1"/>
+    <col min="7422" max="7422" width="2.125" style="25" customWidth="1"/>
+    <col min="7423" max="7423" width="2.625" style="25" customWidth="1"/>
     <col min="7424" max="7424" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7425" max="7425" width="9.21875" style="25" customWidth="1"/>
-    <col min="7426" max="7426" width="12.21875" style="25" customWidth="1"/>
-    <col min="7427" max="7427" width="9.109375" style="25" customWidth="1"/>
-    <col min="7428" max="7428" width="3.109375" style="25" customWidth="1"/>
-    <col min="7429" max="7429" width="5.6640625" style="25" customWidth="1"/>
-    <col min="7430" max="7430" width="6.44140625" style="25" customWidth="1"/>
+    <col min="7425" max="7425" width="9.25" style="25" customWidth="1"/>
+    <col min="7426" max="7426" width="12.25" style="25" customWidth="1"/>
+    <col min="7427" max="7427" width="9.125" style="25" customWidth="1"/>
+    <col min="7428" max="7428" width="3.125" style="25" customWidth="1"/>
+    <col min="7429" max="7429" width="5.625" style="25" customWidth="1"/>
+    <col min="7430" max="7430" width="6.5" style="25" customWidth="1"/>
     <col min="7431" max="7431" width="1" style="25" customWidth="1"/>
     <col min="7432" max="7432" width="3" style="25" customWidth="1"/>
-    <col min="7433" max="7433" width="7.109375" style="25" customWidth="1"/>
-    <col min="7434" max="7434" width="2.77734375" style="25" customWidth="1"/>
-    <col min="7435" max="7435" width="8.6640625" style="25" customWidth="1"/>
+    <col min="7433" max="7433" width="7.125" style="25" customWidth="1"/>
+    <col min="7434" max="7434" width="2.75" style="25" customWidth="1"/>
+    <col min="7435" max="7435" width="8.625" style="25" customWidth="1"/>
     <col min="7436" max="7446" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="7447" max="7471" width="9" style="25" customWidth="1"/>
     <col min="7472" max="7671" width="9" style="25"/>
-    <col min="7672" max="7672" width="1.6640625" style="25" customWidth="1"/>
-    <col min="7673" max="7673" width="1.77734375" style="25" customWidth="1"/>
-    <col min="7674" max="7674" width="7.33203125" style="25" customWidth="1"/>
-    <col min="7675" max="7675" width="4.109375" style="25" customWidth="1"/>
-    <col min="7676" max="7676" width="2.33203125" style="25" customWidth="1"/>
+    <col min="7672" max="7672" width="1.625" style="25" customWidth="1"/>
+    <col min="7673" max="7673" width="1.75" style="25" customWidth="1"/>
+    <col min="7674" max="7674" width="7.375" style="25" customWidth="1"/>
+    <col min="7675" max="7675" width="4.125" style="25" customWidth="1"/>
+    <col min="7676" max="7676" width="2.375" style="25" customWidth="1"/>
     <col min="7677" max="7677" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7678" max="7678" width="2.109375" style="25" customWidth="1"/>
-    <col min="7679" max="7679" width="2.6640625" style="25" customWidth="1"/>
+    <col min="7678" max="7678" width="2.125" style="25" customWidth="1"/>
+    <col min="7679" max="7679" width="2.625" style="25" customWidth="1"/>
     <col min="7680" max="7680" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7681" max="7681" width="9.21875" style="25" customWidth="1"/>
-    <col min="7682" max="7682" width="12.21875" style="25" customWidth="1"/>
-    <col min="7683" max="7683" width="9.109375" style="25" customWidth="1"/>
-    <col min="7684" max="7684" width="3.109375" style="25" customWidth="1"/>
-    <col min="7685" max="7685" width="5.6640625" style="25" customWidth="1"/>
-    <col min="7686" max="7686" width="6.44140625" style="25" customWidth="1"/>
+    <col min="7681" max="7681" width="9.25" style="25" customWidth="1"/>
+    <col min="7682" max="7682" width="12.25" style="25" customWidth="1"/>
+    <col min="7683" max="7683" width="9.125" style="25" customWidth="1"/>
+    <col min="7684" max="7684" width="3.125" style="25" customWidth="1"/>
+    <col min="7685" max="7685" width="5.625" style="25" customWidth="1"/>
+    <col min="7686" max="7686" width="6.5" style="25" customWidth="1"/>
     <col min="7687" max="7687" width="1" style="25" customWidth="1"/>
     <col min="7688" max="7688" width="3" style="25" customWidth="1"/>
-    <col min="7689" max="7689" width="7.109375" style="25" customWidth="1"/>
-    <col min="7690" max="7690" width="2.77734375" style="25" customWidth="1"/>
-    <col min="7691" max="7691" width="8.6640625" style="25" customWidth="1"/>
+    <col min="7689" max="7689" width="7.125" style="25" customWidth="1"/>
+    <col min="7690" max="7690" width="2.75" style="25" customWidth="1"/>
+    <col min="7691" max="7691" width="8.625" style="25" customWidth="1"/>
     <col min="7692" max="7702" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="7703" max="7727" width="9" style="25" customWidth="1"/>
     <col min="7728" max="7927" width="9" style="25"/>
-    <col min="7928" max="7928" width="1.6640625" style="25" customWidth="1"/>
-    <col min="7929" max="7929" width="1.77734375" style="25" customWidth="1"/>
-    <col min="7930" max="7930" width="7.33203125" style="25" customWidth="1"/>
-    <col min="7931" max="7931" width="4.109375" style="25" customWidth="1"/>
-    <col min="7932" max="7932" width="2.33203125" style="25" customWidth="1"/>
+    <col min="7928" max="7928" width="1.625" style="25" customWidth="1"/>
+    <col min="7929" max="7929" width="1.75" style="25" customWidth="1"/>
+    <col min="7930" max="7930" width="7.375" style="25" customWidth="1"/>
+    <col min="7931" max="7931" width="4.125" style="25" customWidth="1"/>
+    <col min="7932" max="7932" width="2.375" style="25" customWidth="1"/>
     <col min="7933" max="7933" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7934" max="7934" width="2.109375" style="25" customWidth="1"/>
-    <col min="7935" max="7935" width="2.6640625" style="25" customWidth="1"/>
+    <col min="7934" max="7934" width="2.125" style="25" customWidth="1"/>
+    <col min="7935" max="7935" width="2.625" style="25" customWidth="1"/>
     <col min="7936" max="7936" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="7937" max="7937" width="9.21875" style="25" customWidth="1"/>
-    <col min="7938" max="7938" width="12.21875" style="25" customWidth="1"/>
-    <col min="7939" max="7939" width="9.109375" style="25" customWidth="1"/>
-    <col min="7940" max="7940" width="3.109375" style="25" customWidth="1"/>
-    <col min="7941" max="7941" width="5.6640625" style="25" customWidth="1"/>
-    <col min="7942" max="7942" width="6.44140625" style="25" customWidth="1"/>
+    <col min="7937" max="7937" width="9.25" style="25" customWidth="1"/>
+    <col min="7938" max="7938" width="12.25" style="25" customWidth="1"/>
+    <col min="7939" max="7939" width="9.125" style="25" customWidth="1"/>
+    <col min="7940" max="7940" width="3.125" style="25" customWidth="1"/>
+    <col min="7941" max="7941" width="5.625" style="25" customWidth="1"/>
+    <col min="7942" max="7942" width="6.5" style="25" customWidth="1"/>
     <col min="7943" max="7943" width="1" style="25" customWidth="1"/>
     <col min="7944" max="7944" width="3" style="25" customWidth="1"/>
-    <col min="7945" max="7945" width="7.109375" style="25" customWidth="1"/>
-    <col min="7946" max="7946" width="2.77734375" style="25" customWidth="1"/>
-    <col min="7947" max="7947" width="8.6640625" style="25" customWidth="1"/>
+    <col min="7945" max="7945" width="7.125" style="25" customWidth="1"/>
+    <col min="7946" max="7946" width="2.75" style="25" customWidth="1"/>
+    <col min="7947" max="7947" width="8.625" style="25" customWidth="1"/>
     <col min="7948" max="7958" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="7959" max="7983" width="9" style="25" customWidth="1"/>
     <col min="7984" max="8183" width="9" style="25"/>
-    <col min="8184" max="8184" width="1.6640625" style="25" customWidth="1"/>
-    <col min="8185" max="8185" width="1.77734375" style="25" customWidth="1"/>
-    <col min="8186" max="8186" width="7.33203125" style="25" customWidth="1"/>
-    <col min="8187" max="8187" width="4.109375" style="25" customWidth="1"/>
-    <col min="8188" max="8188" width="2.33203125" style="25" customWidth="1"/>
+    <col min="8184" max="8184" width="1.625" style="25" customWidth="1"/>
+    <col min="8185" max="8185" width="1.75" style="25" customWidth="1"/>
+    <col min="8186" max="8186" width="7.375" style="25" customWidth="1"/>
+    <col min="8187" max="8187" width="4.125" style="25" customWidth="1"/>
+    <col min="8188" max="8188" width="2.375" style="25" customWidth="1"/>
     <col min="8189" max="8189" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8190" max="8190" width="2.109375" style="25" customWidth="1"/>
-    <col min="8191" max="8191" width="2.6640625" style="25" customWidth="1"/>
+    <col min="8190" max="8190" width="2.125" style="25" customWidth="1"/>
+    <col min="8191" max="8191" width="2.625" style="25" customWidth="1"/>
     <col min="8192" max="8192" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8193" max="8193" width="9.21875" style="25" customWidth="1"/>
-    <col min="8194" max="8194" width="12.21875" style="25" customWidth="1"/>
-    <col min="8195" max="8195" width="9.109375" style="25" customWidth="1"/>
-    <col min="8196" max="8196" width="3.109375" style="25" customWidth="1"/>
-    <col min="8197" max="8197" width="5.6640625" style="25" customWidth="1"/>
-    <col min="8198" max="8198" width="6.44140625" style="25" customWidth="1"/>
+    <col min="8193" max="8193" width="9.25" style="25" customWidth="1"/>
+    <col min="8194" max="8194" width="12.25" style="25" customWidth="1"/>
+    <col min="8195" max="8195" width="9.125" style="25" customWidth="1"/>
+    <col min="8196" max="8196" width="3.125" style="25" customWidth="1"/>
+    <col min="8197" max="8197" width="5.625" style="25" customWidth="1"/>
+    <col min="8198" max="8198" width="6.5" style="25" customWidth="1"/>
     <col min="8199" max="8199" width="1" style="25" customWidth="1"/>
     <col min="8200" max="8200" width="3" style="25" customWidth="1"/>
-    <col min="8201" max="8201" width="7.109375" style="25" customWidth="1"/>
-    <col min="8202" max="8202" width="2.77734375" style="25" customWidth="1"/>
-    <col min="8203" max="8203" width="8.6640625" style="25" customWidth="1"/>
+    <col min="8201" max="8201" width="7.125" style="25" customWidth="1"/>
+    <col min="8202" max="8202" width="2.75" style="25" customWidth="1"/>
+    <col min="8203" max="8203" width="8.625" style="25" customWidth="1"/>
     <col min="8204" max="8214" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="8215" max="8239" width="9" style="25" customWidth="1"/>
     <col min="8240" max="8439" width="9" style="25"/>
-    <col min="8440" max="8440" width="1.6640625" style="25" customWidth="1"/>
-    <col min="8441" max="8441" width="1.77734375" style="25" customWidth="1"/>
-    <col min="8442" max="8442" width="7.33203125" style="25" customWidth="1"/>
-    <col min="8443" max="8443" width="4.109375" style="25" customWidth="1"/>
-    <col min="8444" max="8444" width="2.33203125" style="25" customWidth="1"/>
+    <col min="8440" max="8440" width="1.625" style="25" customWidth="1"/>
+    <col min="8441" max="8441" width="1.75" style="25" customWidth="1"/>
+    <col min="8442" max="8442" width="7.375" style="25" customWidth="1"/>
+    <col min="8443" max="8443" width="4.125" style="25" customWidth="1"/>
+    <col min="8444" max="8444" width="2.375" style="25" customWidth="1"/>
     <col min="8445" max="8445" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8446" max="8446" width="2.109375" style="25" customWidth="1"/>
-    <col min="8447" max="8447" width="2.6640625" style="25" customWidth="1"/>
+    <col min="8446" max="8446" width="2.125" style="25" customWidth="1"/>
+    <col min="8447" max="8447" width="2.625" style="25" customWidth="1"/>
     <col min="8448" max="8448" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8449" max="8449" width="9.21875" style="25" customWidth="1"/>
-    <col min="8450" max="8450" width="12.21875" style="25" customWidth="1"/>
-    <col min="8451" max="8451" width="9.109375" style="25" customWidth="1"/>
-    <col min="8452" max="8452" width="3.109375" style="25" customWidth="1"/>
-    <col min="8453" max="8453" width="5.6640625" style="25" customWidth="1"/>
-    <col min="8454" max="8454" width="6.44140625" style="25" customWidth="1"/>
+    <col min="8449" max="8449" width="9.25" style="25" customWidth="1"/>
+    <col min="8450" max="8450" width="12.25" style="25" customWidth="1"/>
+    <col min="8451" max="8451" width="9.125" style="25" customWidth="1"/>
+    <col min="8452" max="8452" width="3.125" style="25" customWidth="1"/>
+    <col min="8453" max="8453" width="5.625" style="25" customWidth="1"/>
+    <col min="8454" max="8454" width="6.5" style="25" customWidth="1"/>
     <col min="8455" max="8455" width="1" style="25" customWidth="1"/>
     <col min="8456" max="8456" width="3" style="25" customWidth="1"/>
-    <col min="8457" max="8457" width="7.109375" style="25" customWidth="1"/>
-    <col min="8458" max="8458" width="2.77734375" style="25" customWidth="1"/>
-    <col min="8459" max="8459" width="8.6640625" style="25" customWidth="1"/>
+    <col min="8457" max="8457" width="7.125" style="25" customWidth="1"/>
+    <col min="8458" max="8458" width="2.75" style="25" customWidth="1"/>
+    <col min="8459" max="8459" width="8.625" style="25" customWidth="1"/>
     <col min="8460" max="8470" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="8471" max="8495" width="9" style="25" customWidth="1"/>
     <col min="8496" max="8695" width="9" style="25"/>
-    <col min="8696" max="8696" width="1.6640625" style="25" customWidth="1"/>
-    <col min="8697" max="8697" width="1.77734375" style="25" customWidth="1"/>
-    <col min="8698" max="8698" width="7.33203125" style="25" customWidth="1"/>
-    <col min="8699" max="8699" width="4.109375" style="25" customWidth="1"/>
-    <col min="8700" max="8700" width="2.33203125" style="25" customWidth="1"/>
+    <col min="8696" max="8696" width="1.625" style="25" customWidth="1"/>
+    <col min="8697" max="8697" width="1.75" style="25" customWidth="1"/>
+    <col min="8698" max="8698" width="7.375" style="25" customWidth="1"/>
+    <col min="8699" max="8699" width="4.125" style="25" customWidth="1"/>
+    <col min="8700" max="8700" width="2.375" style="25" customWidth="1"/>
     <col min="8701" max="8701" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8702" max="8702" width="2.109375" style="25" customWidth="1"/>
-    <col min="8703" max="8703" width="2.6640625" style="25" customWidth="1"/>
+    <col min="8702" max="8702" width="2.125" style="25" customWidth="1"/>
+    <col min="8703" max="8703" width="2.625" style="25" customWidth="1"/>
     <col min="8704" max="8704" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8705" max="8705" width="9.21875" style="25" customWidth="1"/>
-    <col min="8706" max="8706" width="12.21875" style="25" customWidth="1"/>
-    <col min="8707" max="8707" width="9.109375" style="25" customWidth="1"/>
-    <col min="8708" max="8708" width="3.109375" style="25" customWidth="1"/>
-    <col min="8709" max="8709" width="5.6640625" style="25" customWidth="1"/>
-    <col min="8710" max="8710" width="6.44140625" style="25" customWidth="1"/>
+    <col min="8705" max="8705" width="9.25" style="25" customWidth="1"/>
+    <col min="8706" max="8706" width="12.25" style="25" customWidth="1"/>
+    <col min="8707" max="8707" width="9.125" style="25" customWidth="1"/>
+    <col min="8708" max="8708" width="3.125" style="25" customWidth="1"/>
+    <col min="8709" max="8709" width="5.625" style="25" customWidth="1"/>
+    <col min="8710" max="8710" width="6.5" style="25" customWidth="1"/>
     <col min="8711" max="8711" width="1" style="25" customWidth="1"/>
     <col min="8712" max="8712" width="3" style="25" customWidth="1"/>
-    <col min="8713" max="8713" width="7.109375" style="25" customWidth="1"/>
-    <col min="8714" max="8714" width="2.77734375" style="25" customWidth="1"/>
-    <col min="8715" max="8715" width="8.6640625" style="25" customWidth="1"/>
+    <col min="8713" max="8713" width="7.125" style="25" customWidth="1"/>
+    <col min="8714" max="8714" width="2.75" style="25" customWidth="1"/>
+    <col min="8715" max="8715" width="8.625" style="25" customWidth="1"/>
     <col min="8716" max="8726" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="8727" max="8751" width="9" style="25" customWidth="1"/>
     <col min="8752" max="8951" width="9" style="25"/>
-    <col min="8952" max="8952" width="1.6640625" style="25" customWidth="1"/>
-    <col min="8953" max="8953" width="1.77734375" style="25" customWidth="1"/>
-    <col min="8954" max="8954" width="7.33203125" style="25" customWidth="1"/>
-    <col min="8955" max="8955" width="4.109375" style="25" customWidth="1"/>
-    <col min="8956" max="8956" width="2.33203125" style="25" customWidth="1"/>
+    <col min="8952" max="8952" width="1.625" style="25" customWidth="1"/>
+    <col min="8953" max="8953" width="1.75" style="25" customWidth="1"/>
+    <col min="8954" max="8954" width="7.375" style="25" customWidth="1"/>
+    <col min="8955" max="8955" width="4.125" style="25" customWidth="1"/>
+    <col min="8956" max="8956" width="2.375" style="25" customWidth="1"/>
     <col min="8957" max="8957" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8958" max="8958" width="2.109375" style="25" customWidth="1"/>
-    <col min="8959" max="8959" width="2.6640625" style="25" customWidth="1"/>
+    <col min="8958" max="8958" width="2.125" style="25" customWidth="1"/>
+    <col min="8959" max="8959" width="2.625" style="25" customWidth="1"/>
     <col min="8960" max="8960" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="8961" max="8961" width="9.21875" style="25" customWidth="1"/>
-    <col min="8962" max="8962" width="12.21875" style="25" customWidth="1"/>
-    <col min="8963" max="8963" width="9.109375" style="25" customWidth="1"/>
-    <col min="8964" max="8964" width="3.109375" style="25" customWidth="1"/>
-    <col min="8965" max="8965" width="5.6640625" style="25" customWidth="1"/>
-    <col min="8966" max="8966" width="6.44140625" style="25" customWidth="1"/>
+    <col min="8961" max="8961" width="9.25" style="25" customWidth="1"/>
+    <col min="8962" max="8962" width="12.25" style="25" customWidth="1"/>
+    <col min="8963" max="8963" width="9.125" style="25" customWidth="1"/>
+    <col min="8964" max="8964" width="3.125" style="25" customWidth="1"/>
+    <col min="8965" max="8965" width="5.625" style="25" customWidth="1"/>
+    <col min="8966" max="8966" width="6.5" style="25" customWidth="1"/>
     <col min="8967" max="8967" width="1" style="25" customWidth="1"/>
     <col min="8968" max="8968" width="3" style="25" customWidth="1"/>
-    <col min="8969" max="8969" width="7.109375" style="25" customWidth="1"/>
-    <col min="8970" max="8970" width="2.77734375" style="25" customWidth="1"/>
-    <col min="8971" max="8971" width="8.6640625" style="25" customWidth="1"/>
+    <col min="8969" max="8969" width="7.125" style="25" customWidth="1"/>
+    <col min="8970" max="8970" width="2.75" style="25" customWidth="1"/>
+    <col min="8971" max="8971" width="8.625" style="25" customWidth="1"/>
     <col min="8972" max="8982" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="8983" max="9007" width="9" style="25" customWidth="1"/>
     <col min="9008" max="9207" width="9" style="25"/>
-    <col min="9208" max="9208" width="1.6640625" style="25" customWidth="1"/>
-    <col min="9209" max="9209" width="1.77734375" style="25" customWidth="1"/>
-    <col min="9210" max="9210" width="7.33203125" style="25" customWidth="1"/>
-    <col min="9211" max="9211" width="4.109375" style="25" customWidth="1"/>
-    <col min="9212" max="9212" width="2.33203125" style="25" customWidth="1"/>
+    <col min="9208" max="9208" width="1.625" style="25" customWidth="1"/>
+    <col min="9209" max="9209" width="1.75" style="25" customWidth="1"/>
+    <col min="9210" max="9210" width="7.375" style="25" customWidth="1"/>
+    <col min="9211" max="9211" width="4.125" style="25" customWidth="1"/>
+    <col min="9212" max="9212" width="2.375" style="25" customWidth="1"/>
     <col min="9213" max="9213" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9214" max="9214" width="2.109375" style="25" customWidth="1"/>
-    <col min="9215" max="9215" width="2.6640625" style="25" customWidth="1"/>
+    <col min="9214" max="9214" width="2.125" style="25" customWidth="1"/>
+    <col min="9215" max="9215" width="2.625" style="25" customWidth="1"/>
     <col min="9216" max="9216" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9217" max="9217" width="9.21875" style="25" customWidth="1"/>
-    <col min="9218" max="9218" width="12.21875" style="25" customWidth="1"/>
-    <col min="9219" max="9219" width="9.109375" style="25" customWidth="1"/>
-    <col min="9220" max="9220" width="3.109375" style="25" customWidth="1"/>
-    <col min="9221" max="9221" width="5.6640625" style="25" customWidth="1"/>
-    <col min="9222" max="9222" width="6.44140625" style="25" customWidth="1"/>
+    <col min="9217" max="9217" width="9.25" style="25" customWidth="1"/>
+    <col min="9218" max="9218" width="12.25" style="25" customWidth="1"/>
+    <col min="9219" max="9219" width="9.125" style="25" customWidth="1"/>
+    <col min="9220" max="9220" width="3.125" style="25" customWidth="1"/>
+    <col min="9221" max="9221" width="5.625" style="25" customWidth="1"/>
+    <col min="9222" max="9222" width="6.5" style="25" customWidth="1"/>
     <col min="9223" max="9223" width="1" style="25" customWidth="1"/>
     <col min="9224" max="9224" width="3" style="25" customWidth="1"/>
-    <col min="9225" max="9225" width="7.109375" style="25" customWidth="1"/>
-    <col min="9226" max="9226" width="2.77734375" style="25" customWidth="1"/>
-    <col min="9227" max="9227" width="8.6640625" style="25" customWidth="1"/>
+    <col min="9225" max="9225" width="7.125" style="25" customWidth="1"/>
+    <col min="9226" max="9226" width="2.75" style="25" customWidth="1"/>
+    <col min="9227" max="9227" width="8.625" style="25" customWidth="1"/>
     <col min="9228" max="9238" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="9239" max="9263" width="9" style="25" customWidth="1"/>
     <col min="9264" max="9463" width="9" style="25"/>
-    <col min="9464" max="9464" width="1.6640625" style="25" customWidth="1"/>
-    <col min="9465" max="9465" width="1.77734375" style="25" customWidth="1"/>
-    <col min="9466" max="9466" width="7.33203125" style="25" customWidth="1"/>
-    <col min="9467" max="9467" width="4.109375" style="25" customWidth="1"/>
-    <col min="9468" max="9468" width="2.33203125" style="25" customWidth="1"/>
+    <col min="9464" max="9464" width="1.625" style="25" customWidth="1"/>
+    <col min="9465" max="9465" width="1.75" style="25" customWidth="1"/>
+    <col min="9466" max="9466" width="7.375" style="25" customWidth="1"/>
+    <col min="9467" max="9467" width="4.125" style="25" customWidth="1"/>
+    <col min="9468" max="9468" width="2.375" style="25" customWidth="1"/>
     <col min="9469" max="9469" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9470" max="9470" width="2.109375" style="25" customWidth="1"/>
-    <col min="9471" max="9471" width="2.6640625" style="25" customWidth="1"/>
+    <col min="9470" max="9470" width="2.125" style="25" customWidth="1"/>
+    <col min="9471" max="9471" width="2.625" style="25" customWidth="1"/>
     <col min="9472" max="9472" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9473" max="9473" width="9.21875" style="25" customWidth="1"/>
-    <col min="9474" max="9474" width="12.21875" style="25" customWidth="1"/>
-    <col min="9475" max="9475" width="9.109375" style="25" customWidth="1"/>
-    <col min="9476" max="9476" width="3.109375" style="25" customWidth="1"/>
-    <col min="9477" max="9477" width="5.6640625" style="25" customWidth="1"/>
-    <col min="9478" max="9478" width="6.44140625" style="25" customWidth="1"/>
+    <col min="9473" max="9473" width="9.25" style="25" customWidth="1"/>
+    <col min="9474" max="9474" width="12.25" style="25" customWidth="1"/>
+    <col min="9475" max="9475" width="9.125" style="25" customWidth="1"/>
+    <col min="9476" max="9476" width="3.125" style="25" customWidth="1"/>
+    <col min="9477" max="9477" width="5.625" style="25" customWidth="1"/>
+    <col min="9478" max="9478" width="6.5" style="25" customWidth="1"/>
     <col min="9479" max="9479" width="1" style="25" customWidth="1"/>
     <col min="9480" max="9480" width="3" style="25" customWidth="1"/>
-    <col min="9481" max="9481" width="7.109375" style="25" customWidth="1"/>
-    <col min="9482" max="9482" width="2.77734375" style="25" customWidth="1"/>
-    <col min="9483" max="9483" width="8.6640625" style="25" customWidth="1"/>
+    <col min="9481" max="9481" width="7.125" style="25" customWidth="1"/>
+    <col min="9482" max="9482" width="2.75" style="25" customWidth="1"/>
+    <col min="9483" max="9483" width="8.625" style="25" customWidth="1"/>
     <col min="9484" max="9494" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="9495" max="9519" width="9" style="25" customWidth="1"/>
     <col min="9520" max="9719" width="9" style="25"/>
-    <col min="9720" max="9720" width="1.6640625" style="25" customWidth="1"/>
-    <col min="9721" max="9721" width="1.77734375" style="25" customWidth="1"/>
-    <col min="9722" max="9722" width="7.33203125" style="25" customWidth="1"/>
-    <col min="9723" max="9723" width="4.109375" style="25" customWidth="1"/>
-    <col min="9724" max="9724" width="2.33203125" style="25" customWidth="1"/>
+    <col min="9720" max="9720" width="1.625" style="25" customWidth="1"/>
+    <col min="9721" max="9721" width="1.75" style="25" customWidth="1"/>
+    <col min="9722" max="9722" width="7.375" style="25" customWidth="1"/>
+    <col min="9723" max="9723" width="4.125" style="25" customWidth="1"/>
+    <col min="9724" max="9724" width="2.375" style="25" customWidth="1"/>
     <col min="9725" max="9725" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9726" max="9726" width="2.109375" style="25" customWidth="1"/>
-    <col min="9727" max="9727" width="2.6640625" style="25" customWidth="1"/>
+    <col min="9726" max="9726" width="2.125" style="25" customWidth="1"/>
+    <col min="9727" max="9727" width="2.625" style="25" customWidth="1"/>
     <col min="9728" max="9728" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9729" max="9729" width="9.21875" style="25" customWidth="1"/>
-    <col min="9730" max="9730" width="12.21875" style="25" customWidth="1"/>
-    <col min="9731" max="9731" width="9.109375" style="25" customWidth="1"/>
-    <col min="9732" max="9732" width="3.109375" style="25" customWidth="1"/>
-    <col min="9733" max="9733" width="5.6640625" style="25" customWidth="1"/>
-    <col min="9734" max="9734" width="6.44140625" style="25" customWidth="1"/>
+    <col min="9729" max="9729" width="9.25" style="25" customWidth="1"/>
+    <col min="9730" max="9730" width="12.25" style="25" customWidth="1"/>
+    <col min="9731" max="9731" width="9.125" style="25" customWidth="1"/>
+    <col min="9732" max="9732" width="3.125" style="25" customWidth="1"/>
+    <col min="9733" max="9733" width="5.625" style="25" customWidth="1"/>
+    <col min="9734" max="9734" width="6.5" style="25" customWidth="1"/>
     <col min="9735" max="9735" width="1" style="25" customWidth="1"/>
     <col min="9736" max="9736" width="3" style="25" customWidth="1"/>
-    <col min="9737" max="9737" width="7.109375" style="25" customWidth="1"/>
-    <col min="9738" max="9738" width="2.77734375" style="25" customWidth="1"/>
-    <col min="9739" max="9739" width="8.6640625" style="25" customWidth="1"/>
+    <col min="9737" max="9737" width="7.125" style="25" customWidth="1"/>
+    <col min="9738" max="9738" width="2.75" style="25" customWidth="1"/>
+    <col min="9739" max="9739" width="8.625" style="25" customWidth="1"/>
     <col min="9740" max="9750" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="9751" max="9775" width="9" style="25" customWidth="1"/>
     <col min="9776" max="9975" width="9" style="25"/>
-    <col min="9976" max="9976" width="1.6640625" style="25" customWidth="1"/>
-    <col min="9977" max="9977" width="1.77734375" style="25" customWidth="1"/>
-    <col min="9978" max="9978" width="7.33203125" style="25" customWidth="1"/>
-    <col min="9979" max="9979" width="4.109375" style="25" customWidth="1"/>
-    <col min="9980" max="9980" width="2.33203125" style="25" customWidth="1"/>
+    <col min="9976" max="9976" width="1.625" style="25" customWidth="1"/>
+    <col min="9977" max="9977" width="1.75" style="25" customWidth="1"/>
+    <col min="9978" max="9978" width="7.375" style="25" customWidth="1"/>
+    <col min="9979" max="9979" width="4.125" style="25" customWidth="1"/>
+    <col min="9980" max="9980" width="2.375" style="25" customWidth="1"/>
     <col min="9981" max="9981" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9982" max="9982" width="2.109375" style="25" customWidth="1"/>
-    <col min="9983" max="9983" width="2.6640625" style="25" customWidth="1"/>
+    <col min="9982" max="9982" width="2.125" style="25" customWidth="1"/>
+    <col min="9983" max="9983" width="2.625" style="25" customWidth="1"/>
     <col min="9984" max="9984" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="9985" max="9985" width="9.21875" style="25" customWidth="1"/>
-    <col min="9986" max="9986" width="12.21875" style="25" customWidth="1"/>
-    <col min="9987" max="9987" width="9.109375" style="25" customWidth="1"/>
-    <col min="9988" max="9988" width="3.109375" style="25" customWidth="1"/>
-    <col min="9989" max="9989" width="5.6640625" style="25" customWidth="1"/>
-    <col min="9990" max="9990" width="6.44140625" style="25" customWidth="1"/>
+    <col min="9985" max="9985" width="9.25" style="25" customWidth="1"/>
+    <col min="9986" max="9986" width="12.25" style="25" customWidth="1"/>
+    <col min="9987" max="9987" width="9.125" style="25" customWidth="1"/>
+    <col min="9988" max="9988" width="3.125" style="25" customWidth="1"/>
+    <col min="9989" max="9989" width="5.625" style="25" customWidth="1"/>
+    <col min="9990" max="9990" width="6.5" style="25" customWidth="1"/>
     <col min="9991" max="9991" width="1" style="25" customWidth="1"/>
     <col min="9992" max="9992" width="3" style="25" customWidth="1"/>
-    <col min="9993" max="9993" width="7.109375" style="25" customWidth="1"/>
-    <col min="9994" max="9994" width="2.77734375" style="25" customWidth="1"/>
-    <col min="9995" max="9995" width="8.6640625" style="25" customWidth="1"/>
+    <col min="9993" max="9993" width="7.125" style="25" customWidth="1"/>
+    <col min="9994" max="9994" width="2.75" style="25" customWidth="1"/>
+    <col min="9995" max="9995" width="8.625" style="25" customWidth="1"/>
     <col min="9996" max="10006" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="10007" max="10031" width="9" style="25" customWidth="1"/>
     <col min="10032" max="10231" width="9" style="25"/>
-    <col min="10232" max="10232" width="1.6640625" style="25" customWidth="1"/>
-    <col min="10233" max="10233" width="1.77734375" style="25" customWidth="1"/>
-    <col min="10234" max="10234" width="7.33203125" style="25" customWidth="1"/>
-    <col min="10235" max="10235" width="4.109375" style="25" customWidth="1"/>
-    <col min="10236" max="10236" width="2.33203125" style="25" customWidth="1"/>
+    <col min="10232" max="10232" width="1.625" style="25" customWidth="1"/>
+    <col min="10233" max="10233" width="1.75" style="25" customWidth="1"/>
+    <col min="10234" max="10234" width="7.375" style="25" customWidth="1"/>
+    <col min="10235" max="10235" width="4.125" style="25" customWidth="1"/>
+    <col min="10236" max="10236" width="2.375" style="25" customWidth="1"/>
     <col min="10237" max="10237" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10238" max="10238" width="2.109375" style="25" customWidth="1"/>
-    <col min="10239" max="10239" width="2.6640625" style="25" customWidth="1"/>
+    <col min="10238" max="10238" width="2.125" style="25" customWidth="1"/>
+    <col min="10239" max="10239" width="2.625" style="25" customWidth="1"/>
     <col min="10240" max="10240" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10241" max="10241" width="9.21875" style="25" customWidth="1"/>
-    <col min="10242" max="10242" width="12.21875" style="25" customWidth="1"/>
-    <col min="10243" max="10243" width="9.109375" style="25" customWidth="1"/>
-    <col min="10244" max="10244" width="3.109375" style="25" customWidth="1"/>
-    <col min="10245" max="10245" width="5.6640625" style="25" customWidth="1"/>
-    <col min="10246" max="10246" width="6.44140625" style="25" customWidth="1"/>
+    <col min="10241" max="10241" width="9.25" style="25" customWidth="1"/>
+    <col min="10242" max="10242" width="12.25" style="25" customWidth="1"/>
+    <col min="10243" max="10243" width="9.125" style="25" customWidth="1"/>
+    <col min="10244" max="10244" width="3.125" style="25" customWidth="1"/>
+    <col min="10245" max="10245" width="5.625" style="25" customWidth="1"/>
+    <col min="10246" max="10246" width="6.5" style="25" customWidth="1"/>
     <col min="10247" max="10247" width="1" style="25" customWidth="1"/>
     <col min="10248" max="10248" width="3" style="25" customWidth="1"/>
-    <col min="10249" max="10249" width="7.109375" style="25" customWidth="1"/>
-    <col min="10250" max="10250" width="2.77734375" style="25" customWidth="1"/>
-    <col min="10251" max="10251" width="8.6640625" style="25" customWidth="1"/>
+    <col min="10249" max="10249" width="7.125" style="25" customWidth="1"/>
+    <col min="10250" max="10250" width="2.75" style="25" customWidth="1"/>
+    <col min="10251" max="10251" width="8.625" style="25" customWidth="1"/>
     <col min="10252" max="10262" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="10263" max="10287" width="9" style="25" customWidth="1"/>
     <col min="10288" max="10487" width="9" style="25"/>
-    <col min="10488" max="10488" width="1.6640625" style="25" customWidth="1"/>
-    <col min="10489" max="10489" width="1.77734375" style="25" customWidth="1"/>
-    <col min="10490" max="10490" width="7.33203125" style="25" customWidth="1"/>
-    <col min="10491" max="10491" width="4.109375" style="25" customWidth="1"/>
-    <col min="10492" max="10492" width="2.33203125" style="25" customWidth="1"/>
+    <col min="10488" max="10488" width="1.625" style="25" customWidth="1"/>
+    <col min="10489" max="10489" width="1.75" style="25" customWidth="1"/>
+    <col min="10490" max="10490" width="7.375" style="25" customWidth="1"/>
+    <col min="10491" max="10491" width="4.125" style="25" customWidth="1"/>
+    <col min="10492" max="10492" width="2.375" style="25" customWidth="1"/>
     <col min="10493" max="10493" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10494" max="10494" width="2.109375" style="25" customWidth="1"/>
-    <col min="10495" max="10495" width="2.6640625" style="25" customWidth="1"/>
+    <col min="10494" max="10494" width="2.125" style="25" customWidth="1"/>
+    <col min="10495" max="10495" width="2.625" style="25" customWidth="1"/>
     <col min="10496" max="10496" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10497" max="10497" width="9.21875" style="25" customWidth="1"/>
-    <col min="10498" max="10498" width="12.21875" style="25" customWidth="1"/>
-    <col min="10499" max="10499" width="9.109375" style="25" customWidth="1"/>
-    <col min="10500" max="10500" width="3.109375" style="25" customWidth="1"/>
-    <col min="10501" max="10501" width="5.6640625" style="25" customWidth="1"/>
-    <col min="10502" max="10502" width="6.44140625" style="25" customWidth="1"/>
+    <col min="10497" max="10497" width="9.25" style="25" customWidth="1"/>
+    <col min="10498" max="10498" width="12.25" style="25" customWidth="1"/>
+    <col min="10499" max="10499" width="9.125" style="25" customWidth="1"/>
+    <col min="10500" max="10500" width="3.125" style="25" customWidth="1"/>
+    <col min="10501" max="10501" width="5.625" style="25" customWidth="1"/>
+    <col min="10502" max="10502" width="6.5" style="25" customWidth="1"/>
     <col min="10503" max="10503" width="1" style="25" customWidth="1"/>
     <col min="10504" max="10504" width="3" style="25" customWidth="1"/>
-    <col min="10505" max="10505" width="7.109375" style="25" customWidth="1"/>
-    <col min="10506" max="10506" width="2.77734375" style="25" customWidth="1"/>
-    <col min="10507" max="10507" width="8.6640625" style="25" customWidth="1"/>
+    <col min="10505" max="10505" width="7.125" style="25" customWidth="1"/>
+    <col min="10506" max="10506" width="2.75" style="25" customWidth="1"/>
+    <col min="10507" max="10507" width="8.625" style="25" customWidth="1"/>
     <col min="10508" max="10518" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="10519" max="10543" width="9" style="25" customWidth="1"/>
     <col min="10544" max="10743" width="9" style="25"/>
-    <col min="10744" max="10744" width="1.6640625" style="25" customWidth="1"/>
-    <col min="10745" max="10745" width="1.77734375" style="25" customWidth="1"/>
-    <col min="10746" max="10746" width="7.33203125" style="25" customWidth="1"/>
-    <col min="10747" max="10747" width="4.109375" style="25" customWidth="1"/>
-    <col min="10748" max="10748" width="2.33203125" style="25" customWidth="1"/>
+    <col min="10744" max="10744" width="1.625" style="25" customWidth="1"/>
+    <col min="10745" max="10745" width="1.75" style="25" customWidth="1"/>
+    <col min="10746" max="10746" width="7.375" style="25" customWidth="1"/>
+    <col min="10747" max="10747" width="4.125" style="25" customWidth="1"/>
+    <col min="10748" max="10748" width="2.375" style="25" customWidth="1"/>
     <col min="10749" max="10749" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10750" max="10750" width="2.109375" style="25" customWidth="1"/>
-    <col min="10751" max="10751" width="2.6640625" style="25" customWidth="1"/>
+    <col min="10750" max="10750" width="2.125" style="25" customWidth="1"/>
+    <col min="10751" max="10751" width="2.625" style="25" customWidth="1"/>
     <col min="10752" max="10752" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="10753" max="10753" width="9.21875" style="25" customWidth="1"/>
-    <col min="10754" max="10754" width="12.21875" style="25" customWidth="1"/>
-    <col min="10755" max="10755" width="9.109375" style="25" customWidth="1"/>
-    <col min="10756" max="10756" width="3.109375" style="25" customWidth="1"/>
-    <col min="10757" max="10757" width="5.6640625" style="25" customWidth="1"/>
-    <col min="10758" max="10758" width="6.44140625" style="25" customWidth="1"/>
+    <col min="10753" max="10753" width="9.25" style="25" customWidth="1"/>
+    <col min="10754" max="10754" width="12.25" style="25" customWidth="1"/>
+    <col min="10755" max="10755" width="9.125" style="25" customWidth="1"/>
+    <col min="10756" max="10756" width="3.125" style="25" customWidth="1"/>
+    <col min="10757" max="10757" width="5.625" style="25" customWidth="1"/>
+    <col min="10758" max="10758" width="6.5" style="25" customWidth="1"/>
     <col min="10759" max="10759" width="1" style="25" customWidth="1"/>
     <col min="10760" max="10760" width="3" style="25" customWidth="1"/>
-    <col min="10761" max="10761" width="7.109375" style="25" customWidth="1"/>
-    <col min="10762" max="10762" width="2.77734375" style="25" customWidth="1"/>
-    <col min="10763" max="10763" width="8.6640625" style="25" customWidth="1"/>
+    <col min="10761" max="10761" width="7.125" style="25" customWidth="1"/>
+    <col min="10762" max="10762" width="2.75" style="25" customWidth="1"/>
+    <col min="10763" max="10763" width="8.625" style="25" customWidth="1"/>
     <col min="10764" max="10774" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="10775" max="10799" width="9" style="25" customWidth="1"/>
     <col min="10800" max="10999" width="9" style="25"/>
-    <col min="11000" max="11000" width="1.6640625" style="25" customWidth="1"/>
-    <col min="11001" max="11001" width="1.77734375" style="25" customWidth="1"/>
-    <col min="11002" max="11002" width="7.33203125" style="25" customWidth="1"/>
-    <col min="11003" max="11003" width="4.109375" style="25" customWidth="1"/>
-    <col min="11004" max="11004" width="2.33203125" style="25" customWidth="1"/>
+    <col min="11000" max="11000" width="1.625" style="25" customWidth="1"/>
+    <col min="11001" max="11001" width="1.75" style="25" customWidth="1"/>
+    <col min="11002" max="11002" width="7.375" style="25" customWidth="1"/>
+    <col min="11003" max="11003" width="4.125" style="25" customWidth="1"/>
+    <col min="11004" max="11004" width="2.375" style="25" customWidth="1"/>
     <col min="11005" max="11005" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11006" max="11006" width="2.109375" style="25" customWidth="1"/>
-    <col min="11007" max="11007" width="2.6640625" style="25" customWidth="1"/>
+    <col min="11006" max="11006" width="2.125" style="25" customWidth="1"/>
+    <col min="11007" max="11007" width="2.625" style="25" customWidth="1"/>
     <col min="11008" max="11008" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11009" max="11009" width="9.21875" style="25" customWidth="1"/>
-    <col min="11010" max="11010" width="12.21875" style="25" customWidth="1"/>
-    <col min="11011" max="11011" width="9.109375" style="25" customWidth="1"/>
-    <col min="11012" max="11012" width="3.109375" style="25" customWidth="1"/>
-    <col min="11013" max="11013" width="5.6640625" style="25" customWidth="1"/>
-    <col min="11014" max="11014" width="6.44140625" style="25" customWidth="1"/>
+    <col min="11009" max="11009" width="9.25" style="25" customWidth="1"/>
+    <col min="11010" max="11010" width="12.25" style="25" customWidth="1"/>
+    <col min="11011" max="11011" width="9.125" style="25" customWidth="1"/>
+    <col min="11012" max="11012" width="3.125" style="25" customWidth="1"/>
+    <col min="11013" max="11013" width="5.625" style="25" customWidth="1"/>
+    <col min="11014" max="11014" width="6.5" style="25" customWidth="1"/>
     <col min="11015" max="11015" width="1" style="25" customWidth="1"/>
     <col min="11016" max="11016" width="3" style="25" customWidth="1"/>
-    <col min="11017" max="11017" width="7.109375" style="25" customWidth="1"/>
-    <col min="11018" max="11018" width="2.77734375" style="25" customWidth="1"/>
-    <col min="11019" max="11019" width="8.6640625" style="25" customWidth="1"/>
+    <col min="11017" max="11017" width="7.125" style="25" customWidth="1"/>
+    <col min="11018" max="11018" width="2.75" style="25" customWidth="1"/>
+    <col min="11019" max="11019" width="8.625" style="25" customWidth="1"/>
     <col min="11020" max="11030" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="11031" max="11055" width="9" style="25" customWidth="1"/>
     <col min="11056" max="11255" width="9" style="25"/>
-    <col min="11256" max="11256" width="1.6640625" style="25" customWidth="1"/>
-    <col min="11257" max="11257" width="1.77734375" style="25" customWidth="1"/>
-    <col min="11258" max="11258" width="7.33203125" style="25" customWidth="1"/>
-    <col min="11259" max="11259" width="4.109375" style="25" customWidth="1"/>
-    <col min="11260" max="11260" width="2.33203125" style="25" customWidth="1"/>
+    <col min="11256" max="11256" width="1.625" style="25" customWidth="1"/>
+    <col min="11257" max="11257" width="1.75" style="25" customWidth="1"/>
+    <col min="11258" max="11258" width="7.375" style="25" customWidth="1"/>
+    <col min="11259" max="11259" width="4.125" style="25" customWidth="1"/>
+    <col min="11260" max="11260" width="2.375" style="25" customWidth="1"/>
     <col min="11261" max="11261" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11262" max="11262" width="2.109375" style="25" customWidth="1"/>
-    <col min="11263" max="11263" width="2.6640625" style="25" customWidth="1"/>
+    <col min="11262" max="11262" width="2.125" style="25" customWidth="1"/>
+    <col min="11263" max="11263" width="2.625" style="25" customWidth="1"/>
     <col min="11264" max="11264" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11265" max="11265" width="9.21875" style="25" customWidth="1"/>
-    <col min="11266" max="11266" width="12.21875" style="25" customWidth="1"/>
-    <col min="11267" max="11267" width="9.109375" style="25" customWidth="1"/>
-    <col min="11268" max="11268" width="3.109375" style="25" customWidth="1"/>
-    <col min="11269" max="11269" width="5.6640625" style="25" customWidth="1"/>
-    <col min="11270" max="11270" width="6.44140625" style="25" customWidth="1"/>
+    <col min="11265" max="11265" width="9.25" style="25" customWidth="1"/>
+    <col min="11266" max="11266" width="12.25" style="25" customWidth="1"/>
+    <col min="11267" max="11267" width="9.125" style="25" customWidth="1"/>
+    <col min="11268" max="11268" width="3.125" style="25" customWidth="1"/>
+    <col min="11269" max="11269" width="5.625" style="25" customWidth="1"/>
+    <col min="11270" max="11270" width="6.5" style="25" customWidth="1"/>
     <col min="11271" max="11271" width="1" style="25" customWidth="1"/>
     <col min="11272" max="11272" width="3" style="25" customWidth="1"/>
-    <col min="11273" max="11273" width="7.109375" style="25" customWidth="1"/>
-    <col min="11274" max="11274" width="2.77734375" style="25" customWidth="1"/>
-    <col min="11275" max="11275" width="8.6640625" style="25" customWidth="1"/>
+    <col min="11273" max="11273" width="7.125" style="25" customWidth="1"/>
+    <col min="11274" max="11274" width="2.75" style="25" customWidth="1"/>
+    <col min="11275" max="11275" width="8.625" style="25" customWidth="1"/>
     <col min="11276" max="11286" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="11287" max="11311" width="9" style="25" customWidth="1"/>
     <col min="11312" max="11511" width="9" style="25"/>
-    <col min="11512" max="11512" width="1.6640625" style="25" customWidth="1"/>
-    <col min="11513" max="11513" width="1.77734375" style="25" customWidth="1"/>
-    <col min="11514" max="11514" width="7.33203125" style="25" customWidth="1"/>
-    <col min="11515" max="11515" width="4.109375" style="25" customWidth="1"/>
-    <col min="11516" max="11516" width="2.33203125" style="25" customWidth="1"/>
+    <col min="11512" max="11512" width="1.625" style="25" customWidth="1"/>
+    <col min="11513" max="11513" width="1.75" style="25" customWidth="1"/>
+    <col min="11514" max="11514" width="7.375" style="25" customWidth="1"/>
+    <col min="11515" max="11515" width="4.125" style="25" customWidth="1"/>
+    <col min="11516" max="11516" width="2.375" style="25" customWidth="1"/>
     <col min="11517" max="11517" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11518" max="11518" width="2.109375" style="25" customWidth="1"/>
-    <col min="11519" max="11519" width="2.6640625" style="25" customWidth="1"/>
+    <col min="11518" max="11518" width="2.125" style="25" customWidth="1"/>
+    <col min="11519" max="11519" width="2.625" style="25" customWidth="1"/>
     <col min="11520" max="11520" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11521" max="11521" width="9.21875" style="25" customWidth="1"/>
-    <col min="11522" max="11522" width="12.21875" style="25" customWidth="1"/>
-    <col min="11523" max="11523" width="9.109375" style="25" customWidth="1"/>
-    <col min="11524" max="11524" width="3.109375" style="25" customWidth="1"/>
-    <col min="11525" max="11525" width="5.6640625" style="25" customWidth="1"/>
-    <col min="11526" max="11526" width="6.44140625" style="25" customWidth="1"/>
+    <col min="11521" max="11521" width="9.25" style="25" customWidth="1"/>
+    <col min="11522" max="11522" width="12.25" style="25" customWidth="1"/>
+    <col min="11523" max="11523" width="9.125" style="25" customWidth="1"/>
+    <col min="11524" max="11524" width="3.125" style="25" customWidth="1"/>
+    <col min="11525" max="11525" width="5.625" style="25" customWidth="1"/>
+    <col min="11526" max="11526" width="6.5" style="25" customWidth="1"/>
     <col min="11527" max="11527" width="1" style="25" customWidth="1"/>
     <col min="11528" max="11528" width="3" style="25" customWidth="1"/>
-    <col min="11529" max="11529" width="7.109375" style="25" customWidth="1"/>
-    <col min="11530" max="11530" width="2.77734375" style="25" customWidth="1"/>
-    <col min="11531" max="11531" width="8.6640625" style="25" customWidth="1"/>
+    <col min="11529" max="11529" width="7.125" style="25" customWidth="1"/>
+    <col min="11530" max="11530" width="2.75" style="25" customWidth="1"/>
+    <col min="11531" max="11531" width="8.625" style="25" customWidth="1"/>
     <col min="11532" max="11542" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="11543" max="11567" width="9" style="25" customWidth="1"/>
     <col min="11568" max="11767" width="9" style="25"/>
-    <col min="11768" max="11768" width="1.6640625" style="25" customWidth="1"/>
-    <col min="11769" max="11769" width="1.77734375" style="25" customWidth="1"/>
-    <col min="11770" max="11770" width="7.33203125" style="25" customWidth="1"/>
-    <col min="11771" max="11771" width="4.109375" style="25" customWidth="1"/>
-    <col min="11772" max="11772" width="2.33203125" style="25" customWidth="1"/>
+    <col min="11768" max="11768" width="1.625" style="25" customWidth="1"/>
+    <col min="11769" max="11769" width="1.75" style="25" customWidth="1"/>
+    <col min="11770" max="11770" width="7.375" style="25" customWidth="1"/>
+    <col min="11771" max="11771" width="4.125" style="25" customWidth="1"/>
+    <col min="11772" max="11772" width="2.375" style="25" customWidth="1"/>
     <col min="11773" max="11773" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11774" max="11774" width="2.109375" style="25" customWidth="1"/>
-    <col min="11775" max="11775" width="2.6640625" style="25" customWidth="1"/>
+    <col min="11774" max="11774" width="2.125" style="25" customWidth="1"/>
+    <col min="11775" max="11775" width="2.625" style="25" customWidth="1"/>
     <col min="11776" max="11776" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="11777" max="11777" width="9.21875" style="25" customWidth="1"/>
-    <col min="11778" max="11778" width="12.21875" style="25" customWidth="1"/>
-    <col min="11779" max="11779" width="9.109375" style="25" customWidth="1"/>
-    <col min="11780" max="11780" width="3.109375" style="25" customWidth="1"/>
-    <col min="11781" max="11781" width="5.6640625" style="25" customWidth="1"/>
-    <col min="11782" max="11782" width="6.44140625" style="25" customWidth="1"/>
+    <col min="11777" max="11777" width="9.25" style="25" customWidth="1"/>
+    <col min="11778" max="11778" width="12.25" style="25" customWidth="1"/>
+    <col min="11779" max="11779" width="9.125" style="25" customWidth="1"/>
+    <col min="11780" max="11780" width="3.125" style="25" customWidth="1"/>
+    <col min="11781" max="11781" width="5.625" style="25" customWidth="1"/>
+    <col min="11782" max="11782" width="6.5" style="25" customWidth="1"/>
     <col min="11783" max="11783" width="1" style="25" customWidth="1"/>
     <col min="11784" max="11784" width="3" style="25" customWidth="1"/>
-    <col min="11785" max="11785" width="7.109375" style="25" customWidth="1"/>
-    <col min="11786" max="11786" width="2.77734375" style="25" customWidth="1"/>
-    <col min="11787" max="11787" width="8.6640625" style="25" customWidth="1"/>
+    <col min="11785" max="11785" width="7.125" style="25" customWidth="1"/>
+    <col min="11786" max="11786" width="2.75" style="25" customWidth="1"/>
+    <col min="11787" max="11787" width="8.625" style="25" customWidth="1"/>
     <col min="11788" max="11798" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="11799" max="11823" width="9" style="25" customWidth="1"/>
     <col min="11824" max="12023" width="9" style="25"/>
-    <col min="12024" max="12024" width="1.6640625" style="25" customWidth="1"/>
-    <col min="12025" max="12025" width="1.77734375" style="25" customWidth="1"/>
-    <col min="12026" max="12026" width="7.33203125" style="25" customWidth="1"/>
-    <col min="12027" max="12027" width="4.109375" style="25" customWidth="1"/>
-    <col min="12028" max="12028" width="2.33203125" style="25" customWidth="1"/>
+    <col min="12024" max="12024" width="1.625" style="25" customWidth="1"/>
+    <col min="12025" max="12025" width="1.75" style="25" customWidth="1"/>
+    <col min="12026" max="12026" width="7.375" style="25" customWidth="1"/>
+    <col min="12027" max="12027" width="4.125" style="25" customWidth="1"/>
+    <col min="12028" max="12028" width="2.375" style="25" customWidth="1"/>
     <col min="12029" max="12029" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12030" max="12030" width="2.109375" style="25" customWidth="1"/>
-    <col min="12031" max="12031" width="2.6640625" style="25" customWidth="1"/>
+    <col min="12030" max="12030" width="2.125" style="25" customWidth="1"/>
+    <col min="12031" max="12031" width="2.625" style="25" customWidth="1"/>
     <col min="12032" max="12032" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12033" max="12033" width="9.21875" style="25" customWidth="1"/>
-    <col min="12034" max="12034" width="12.21875" style="25" customWidth="1"/>
-    <col min="12035" max="12035" width="9.109375" style="25" customWidth="1"/>
-    <col min="12036" max="12036" width="3.109375" style="25" customWidth="1"/>
-    <col min="12037" max="12037" width="5.6640625" style="25" customWidth="1"/>
-    <col min="12038" max="12038" width="6.44140625" style="25" customWidth="1"/>
+    <col min="12033" max="12033" width="9.25" style="25" customWidth="1"/>
+    <col min="12034" max="12034" width="12.25" style="25" customWidth="1"/>
+    <col min="12035" max="12035" width="9.125" style="25" customWidth="1"/>
+    <col min="12036" max="12036" width="3.125" style="25" customWidth="1"/>
+    <col min="12037" max="12037" width="5.625" style="25" customWidth="1"/>
+    <col min="12038" max="12038" width="6.5" style="25" customWidth="1"/>
     <col min="12039" max="12039" width="1" style="25" customWidth="1"/>
     <col min="12040" max="12040" width="3" style="25" customWidth="1"/>
-    <col min="12041" max="12041" width="7.109375" style="25" customWidth="1"/>
-    <col min="12042" max="12042" width="2.77734375" style="25" customWidth="1"/>
-    <col min="12043" max="12043" width="8.6640625" style="25" customWidth="1"/>
+    <col min="12041" max="12041" width="7.125" style="25" customWidth="1"/>
+    <col min="12042" max="12042" width="2.75" style="25" customWidth="1"/>
+    <col min="12043" max="12043" width="8.625" style="25" customWidth="1"/>
     <col min="12044" max="12054" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="12055" max="12079" width="9" style="25" customWidth="1"/>
     <col min="12080" max="12279" width="9" style="25"/>
-    <col min="12280" max="12280" width="1.6640625" style="25" customWidth="1"/>
-    <col min="12281" max="12281" width="1.77734375" style="25" customWidth="1"/>
-    <col min="12282" max="12282" width="7.33203125" style="25" customWidth="1"/>
-    <col min="12283" max="12283" width="4.109375" style="25" customWidth="1"/>
-    <col min="12284" max="12284" width="2.33203125" style="25" customWidth="1"/>
+    <col min="12280" max="12280" width="1.625" style="25" customWidth="1"/>
+    <col min="12281" max="12281" width="1.75" style="25" customWidth="1"/>
+    <col min="12282" max="12282" width="7.375" style="25" customWidth="1"/>
+    <col min="12283" max="12283" width="4.125" style="25" customWidth="1"/>
+    <col min="12284" max="12284" width="2.375" style="25" customWidth="1"/>
     <col min="12285" max="12285" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12286" max="12286" width="2.109375" style="25" customWidth="1"/>
-    <col min="12287" max="12287" width="2.6640625" style="25" customWidth="1"/>
+    <col min="12286" max="12286" width="2.125" style="25" customWidth="1"/>
+    <col min="12287" max="12287" width="2.625" style="25" customWidth="1"/>
     <col min="12288" max="12288" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12289" max="12289" width="9.21875" style="25" customWidth="1"/>
-    <col min="12290" max="12290" width="12.21875" style="25" customWidth="1"/>
-    <col min="12291" max="12291" width="9.109375" style="25" customWidth="1"/>
-    <col min="12292" max="12292" width="3.109375" style="25" customWidth="1"/>
-    <col min="12293" max="12293" width="5.6640625" style="25" customWidth="1"/>
-    <col min="12294" max="12294" width="6.44140625" style="25" customWidth="1"/>
+    <col min="12289" max="12289" width="9.25" style="25" customWidth="1"/>
+    <col min="12290" max="12290" width="12.25" style="25" customWidth="1"/>
+    <col min="12291" max="12291" width="9.125" style="25" customWidth="1"/>
+    <col min="12292" max="12292" width="3.125" style="25" customWidth="1"/>
+    <col min="12293" max="12293" width="5.625" style="25" customWidth="1"/>
+    <col min="12294" max="12294" width="6.5" style="25" customWidth="1"/>
     <col min="12295" max="12295" width="1" style="25" customWidth="1"/>
     <col min="12296" max="12296" width="3" style="25" customWidth="1"/>
-    <col min="12297" max="12297" width="7.109375" style="25" customWidth="1"/>
-    <col min="12298" max="12298" width="2.77734375" style="25" customWidth="1"/>
-    <col min="12299" max="12299" width="8.6640625" style="25" customWidth="1"/>
+    <col min="12297" max="12297" width="7.125" style="25" customWidth="1"/>
+    <col min="12298" max="12298" width="2.75" style="25" customWidth="1"/>
+    <col min="12299" max="12299" width="8.625" style="25" customWidth="1"/>
     <col min="12300" max="12310" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="12311" max="12335" width="9" style="25" customWidth="1"/>
     <col min="12336" max="12535" width="9" style="25"/>
-    <col min="12536" max="12536" width="1.6640625" style="25" customWidth="1"/>
-    <col min="12537" max="12537" width="1.77734375" style="25" customWidth="1"/>
-    <col min="12538" max="12538" width="7.33203125" style="25" customWidth="1"/>
-    <col min="12539" max="12539" width="4.109375" style="25" customWidth="1"/>
-    <col min="12540" max="12540" width="2.33203125" style="25" customWidth="1"/>
+    <col min="12536" max="12536" width="1.625" style="25" customWidth="1"/>
+    <col min="12537" max="12537" width="1.75" style="25" customWidth="1"/>
+    <col min="12538" max="12538" width="7.375" style="25" customWidth="1"/>
+    <col min="12539" max="12539" width="4.125" style="25" customWidth="1"/>
+    <col min="12540" max="12540" width="2.375" style="25" customWidth="1"/>
     <col min="12541" max="12541" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12542" max="12542" width="2.109375" style="25" customWidth="1"/>
-    <col min="12543" max="12543" width="2.6640625" style="25" customWidth="1"/>
+    <col min="12542" max="12542" width="2.125" style="25" customWidth="1"/>
+    <col min="12543" max="12543" width="2.625" style="25" customWidth="1"/>
     <col min="12544" max="12544" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12545" max="12545" width="9.21875" style="25" customWidth="1"/>
-    <col min="12546" max="12546" width="12.21875" style="25" customWidth="1"/>
-    <col min="12547" max="12547" width="9.109375" style="25" customWidth="1"/>
-    <col min="12548" max="12548" width="3.109375" style="25" customWidth="1"/>
-    <col min="12549" max="12549" width="5.6640625" style="25" customWidth="1"/>
-    <col min="12550" max="12550" width="6.44140625" style="25" customWidth="1"/>
+    <col min="12545" max="12545" width="9.25" style="25" customWidth="1"/>
+    <col min="12546" max="12546" width="12.25" style="25" customWidth="1"/>
+    <col min="12547" max="12547" width="9.125" style="25" customWidth="1"/>
+    <col min="12548" max="12548" width="3.125" style="25" customWidth="1"/>
+    <col min="12549" max="12549" width="5.625" style="25" customWidth="1"/>
+    <col min="12550" max="12550" width="6.5" style="25" customWidth="1"/>
     <col min="12551" max="12551" width="1" style="25" customWidth="1"/>
     <col min="12552" max="12552" width="3" style="25" customWidth="1"/>
-    <col min="12553" max="12553" width="7.109375" style="25" customWidth="1"/>
-    <col min="12554" max="12554" width="2.77734375" style="25" customWidth="1"/>
-    <col min="12555" max="12555" width="8.6640625" style="25" customWidth="1"/>
+    <col min="12553" max="12553" width="7.125" style="25" customWidth="1"/>
+    <col min="12554" max="12554" width="2.75" style="25" customWidth="1"/>
+    <col min="12555" max="12555" width="8.625" style="25" customWidth="1"/>
     <col min="12556" max="12566" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="12567" max="12591" width="9" style="25" customWidth="1"/>
     <col min="12592" max="12791" width="9" style="25"/>
-    <col min="12792" max="12792" width="1.6640625" style="25" customWidth="1"/>
-    <col min="12793" max="12793" width="1.77734375" style="25" customWidth="1"/>
-    <col min="12794" max="12794" width="7.33203125" style="25" customWidth="1"/>
-    <col min="12795" max="12795" width="4.109375" style="25" customWidth="1"/>
-    <col min="12796" max="12796" width="2.33203125" style="25" customWidth="1"/>
+    <col min="12792" max="12792" width="1.625" style="25" customWidth="1"/>
+    <col min="12793" max="12793" width="1.75" style="25" customWidth="1"/>
+    <col min="12794" max="12794" width="7.375" style="25" customWidth="1"/>
+    <col min="12795" max="12795" width="4.125" style="25" customWidth="1"/>
+    <col min="12796" max="12796" width="2.375" style="25" customWidth="1"/>
     <col min="12797" max="12797" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12798" max="12798" width="2.109375" style="25" customWidth="1"/>
-    <col min="12799" max="12799" width="2.6640625" style="25" customWidth="1"/>
+    <col min="12798" max="12798" width="2.125" style="25" customWidth="1"/>
+    <col min="12799" max="12799" width="2.625" style="25" customWidth="1"/>
     <col min="12800" max="12800" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12801" max="12801" width="9.21875" style="25" customWidth="1"/>
-    <col min="12802" max="12802" width="12.21875" style="25" customWidth="1"/>
-    <col min="12803" max="12803" width="9.109375" style="25" customWidth="1"/>
-    <col min="12804" max="12804" width="3.109375" style="25" customWidth="1"/>
-    <col min="12805" max="12805" width="5.6640625" style="25" customWidth="1"/>
-    <col min="12806" max="12806" width="6.44140625" style="25" customWidth="1"/>
+    <col min="12801" max="12801" width="9.25" style="25" customWidth="1"/>
+    <col min="12802" max="12802" width="12.25" style="25" customWidth="1"/>
+    <col min="12803" max="12803" width="9.125" style="25" customWidth="1"/>
+    <col min="12804" max="12804" width="3.125" style="25" customWidth="1"/>
+    <col min="12805" max="12805" width="5.625" style="25" customWidth="1"/>
+    <col min="12806" max="12806" width="6.5" style="25" customWidth="1"/>
     <col min="12807" max="12807" width="1" style="25" customWidth="1"/>
     <col min="12808" max="12808" width="3" style="25" customWidth="1"/>
-    <col min="12809" max="12809" width="7.109375" style="25" customWidth="1"/>
-    <col min="12810" max="12810" width="2.77734375" style="25" customWidth="1"/>
-    <col min="12811" max="12811" width="8.6640625" style="25" customWidth="1"/>
+    <col min="12809" max="12809" width="7.125" style="25" customWidth="1"/>
+    <col min="12810" max="12810" width="2.75" style="25" customWidth="1"/>
+    <col min="12811" max="12811" width="8.625" style="25" customWidth="1"/>
     <col min="12812" max="12822" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="12823" max="12847" width="9" style="25" customWidth="1"/>
     <col min="12848" max="13047" width="9" style="25"/>
-    <col min="13048" max="13048" width="1.6640625" style="25" customWidth="1"/>
-    <col min="13049" max="13049" width="1.77734375" style="25" customWidth="1"/>
-    <col min="13050" max="13050" width="7.33203125" style="25" customWidth="1"/>
-    <col min="13051" max="13051" width="4.109375" style="25" customWidth="1"/>
-    <col min="13052" max="13052" width="2.33203125" style="25" customWidth="1"/>
+    <col min="13048" max="13048" width="1.625" style="25" customWidth="1"/>
+    <col min="13049" max="13049" width="1.75" style="25" customWidth="1"/>
+    <col min="13050" max="13050" width="7.375" style="25" customWidth="1"/>
+    <col min="13051" max="13051" width="4.125" style="25" customWidth="1"/>
+    <col min="13052" max="13052" width="2.375" style="25" customWidth="1"/>
     <col min="13053" max="13053" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13054" max="13054" width="2.109375" style="25" customWidth="1"/>
-    <col min="13055" max="13055" width="2.6640625" style="25" customWidth="1"/>
+    <col min="13054" max="13054" width="2.125" style="25" customWidth="1"/>
+    <col min="13055" max="13055" width="2.625" style="25" customWidth="1"/>
     <col min="13056" max="13056" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13057" max="13057" width="9.21875" style="25" customWidth="1"/>
-    <col min="13058" max="13058" width="12.21875" style="25" customWidth="1"/>
-    <col min="13059" max="13059" width="9.109375" style="25" customWidth="1"/>
-    <col min="13060" max="13060" width="3.109375" style="25" customWidth="1"/>
-    <col min="13061" max="13061" width="5.6640625" style="25" customWidth="1"/>
-    <col min="13062" max="13062" width="6.44140625" style="25" customWidth="1"/>
+    <col min="13057" max="13057" width="9.25" style="25" customWidth="1"/>
+    <col min="13058" max="13058" width="12.25" style="25" customWidth="1"/>
+    <col min="13059" max="13059" width="9.125" style="25" customWidth="1"/>
+    <col min="13060" max="13060" width="3.125" style="25" customWidth="1"/>
+    <col min="13061" max="13061" width="5.625" style="25" customWidth="1"/>
+    <col min="13062" max="13062" width="6.5" style="25" customWidth="1"/>
     <col min="13063" max="13063" width="1" style="25" customWidth="1"/>
     <col min="13064" max="13064" width="3" style="25" customWidth="1"/>
-    <col min="13065" max="13065" width="7.109375" style="25" customWidth="1"/>
-    <col min="13066" max="13066" width="2.77734375" style="25" customWidth="1"/>
-    <col min="13067" max="13067" width="8.6640625" style="25" customWidth="1"/>
+    <col min="13065" max="13065" width="7.125" style="25" customWidth="1"/>
+    <col min="13066" max="13066" width="2.75" style="25" customWidth="1"/>
+    <col min="13067" max="13067" width="8.625" style="25" customWidth="1"/>
     <col min="13068" max="13078" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="13079" max="13103" width="9" style="25" customWidth="1"/>
     <col min="13104" max="13303" width="9" style="25"/>
-    <col min="13304" max="13304" width="1.6640625" style="25" customWidth="1"/>
-    <col min="13305" max="13305" width="1.77734375" style="25" customWidth="1"/>
-    <col min="13306" max="13306" width="7.33203125" style="25" customWidth="1"/>
-    <col min="13307" max="13307" width="4.109375" style="25" customWidth="1"/>
-    <col min="13308" max="13308" width="2.33203125" style="25" customWidth="1"/>
+    <col min="13304" max="13304" width="1.625" style="25" customWidth="1"/>
+    <col min="13305" max="13305" width="1.75" style="25" customWidth="1"/>
+    <col min="13306" max="13306" width="7.375" style="25" customWidth="1"/>
+    <col min="13307" max="13307" width="4.125" style="25" customWidth="1"/>
+    <col min="13308" max="13308" width="2.375" style="25" customWidth="1"/>
     <col min="13309" max="13309" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13310" max="13310" width="2.109375" style="25" customWidth="1"/>
-    <col min="13311" max="13311" width="2.6640625" style="25" customWidth="1"/>
+    <col min="13310" max="13310" width="2.125" style="25" customWidth="1"/>
+    <col min="13311" max="13311" width="2.625" style="25" customWidth="1"/>
     <col min="13312" max="13312" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13313" max="13313" width="9.21875" style="25" customWidth="1"/>
-    <col min="13314" max="13314" width="12.21875" style="25" customWidth="1"/>
-    <col min="13315" max="13315" width="9.109375" style="25" customWidth="1"/>
-    <col min="13316" max="13316" width="3.109375" style="25" customWidth="1"/>
-    <col min="13317" max="13317" width="5.6640625" style="25" customWidth="1"/>
-    <col min="13318" max="13318" width="6.44140625" style="25" customWidth="1"/>
+    <col min="13313" max="13313" width="9.25" style="25" customWidth="1"/>
+    <col min="13314" max="13314" width="12.25" style="25" customWidth="1"/>
+    <col min="13315" max="13315" width="9.125" style="25" customWidth="1"/>
+    <col min="13316" max="13316" width="3.125" style="25" customWidth="1"/>
+    <col min="13317" max="13317" width="5.625" style="25" customWidth="1"/>
+    <col min="13318" max="13318" width="6.5" style="25" customWidth="1"/>
     <col min="13319" max="13319" width="1" style="25" customWidth="1"/>
     <col min="13320" max="13320" width="3" style="25" customWidth="1"/>
-    <col min="13321" max="13321" width="7.109375" style="25" customWidth="1"/>
-    <col min="13322" max="13322" width="2.77734375" style="25" customWidth="1"/>
-    <col min="13323" max="13323" width="8.6640625" style="25" customWidth="1"/>
+    <col min="13321" max="13321" width="7.125" style="25" customWidth="1"/>
+    <col min="13322" max="13322" width="2.75" style="25" customWidth="1"/>
+    <col min="13323" max="13323" width="8.625" style="25" customWidth="1"/>
     <col min="13324" max="13334" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="13335" max="13359" width="9" style="25" customWidth="1"/>
     <col min="13360" max="13559" width="9" style="25"/>
-    <col min="13560" max="13560" width="1.6640625" style="25" customWidth="1"/>
-    <col min="13561" max="13561" width="1.77734375" style="25" customWidth="1"/>
-    <col min="13562" max="13562" width="7.33203125" style="25" customWidth="1"/>
-    <col min="13563" max="13563" width="4.109375" style="25" customWidth="1"/>
-    <col min="13564" max="13564" width="2.33203125" style="25" customWidth="1"/>
+    <col min="13560" max="13560" width="1.625" style="25" customWidth="1"/>
+    <col min="13561" max="13561" width="1.75" style="25" customWidth="1"/>
+    <col min="13562" max="13562" width="7.375" style="25" customWidth="1"/>
+    <col min="13563" max="13563" width="4.125" style="25" customWidth="1"/>
+    <col min="13564" max="13564" width="2.375" style="25" customWidth="1"/>
     <col min="13565" max="13565" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13566" max="13566" width="2.109375" style="25" customWidth="1"/>
-    <col min="13567" max="13567" width="2.6640625" style="25" customWidth="1"/>
+    <col min="13566" max="13566" width="2.125" style="25" customWidth="1"/>
+    <col min="13567" max="13567" width="2.625" style="25" customWidth="1"/>
     <col min="13568" max="13568" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13569" max="13569" width="9.21875" style="25" customWidth="1"/>
-    <col min="13570" max="13570" width="12.21875" style="25" customWidth="1"/>
-    <col min="13571" max="13571" width="9.109375" style="25" customWidth="1"/>
-    <col min="13572" max="13572" width="3.109375" style="25" customWidth="1"/>
-    <col min="13573" max="13573" width="5.6640625" style="25" customWidth="1"/>
-    <col min="13574" max="13574" width="6.44140625" style="25" customWidth="1"/>
+    <col min="13569" max="13569" width="9.25" style="25" customWidth="1"/>
+    <col min="13570" max="13570" width="12.25" style="25" customWidth="1"/>
+    <col min="13571" max="13571" width="9.125" style="25" customWidth="1"/>
+    <col min="13572" max="13572" width="3.125" style="25" customWidth="1"/>
+    <col min="13573" max="13573" width="5.625" style="25" customWidth="1"/>
+    <col min="13574" max="13574" width="6.5" style="25" customWidth="1"/>
     <col min="13575" max="13575" width="1" style="25" customWidth="1"/>
     <col min="13576" max="13576" width="3" style="25" customWidth="1"/>
-    <col min="13577" max="13577" width="7.109375" style="25" customWidth="1"/>
-    <col min="13578" max="13578" width="2.77734375" style="25" customWidth="1"/>
-    <col min="13579" max="13579" width="8.6640625" style="25" customWidth="1"/>
+    <col min="13577" max="13577" width="7.125" style="25" customWidth="1"/>
+    <col min="13578" max="13578" width="2.75" style="25" customWidth="1"/>
+    <col min="13579" max="13579" width="8.625" style="25" customWidth="1"/>
     <col min="13580" max="13590" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="13591" max="13615" width="9" style="25" customWidth="1"/>
     <col min="13616" max="13815" width="9" style="25"/>
-    <col min="13816" max="13816" width="1.6640625" style="25" customWidth="1"/>
-    <col min="13817" max="13817" width="1.77734375" style="25" customWidth="1"/>
-    <col min="13818" max="13818" width="7.33203125" style="25" customWidth="1"/>
-    <col min="13819" max="13819" width="4.109375" style="25" customWidth="1"/>
-    <col min="13820" max="13820" width="2.33203125" style="25" customWidth="1"/>
+    <col min="13816" max="13816" width="1.625" style="25" customWidth="1"/>
+    <col min="13817" max="13817" width="1.75" style="25" customWidth="1"/>
+    <col min="13818" max="13818" width="7.375" style="25" customWidth="1"/>
+    <col min="13819" max="13819" width="4.125" style="25" customWidth="1"/>
+    <col min="13820" max="13820" width="2.375" style="25" customWidth="1"/>
     <col min="13821" max="13821" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13822" max="13822" width="2.109375" style="25" customWidth="1"/>
-    <col min="13823" max="13823" width="2.6640625" style="25" customWidth="1"/>
+    <col min="13822" max="13822" width="2.125" style="25" customWidth="1"/>
+    <col min="13823" max="13823" width="2.625" style="25" customWidth="1"/>
     <col min="13824" max="13824" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="13825" max="13825" width="9.21875" style="25" customWidth="1"/>
-    <col min="13826" max="13826" width="12.21875" style="25" customWidth="1"/>
-    <col min="13827" max="13827" width="9.109375" style="25" customWidth="1"/>
-    <col min="13828" max="13828" width="3.109375" style="25" customWidth="1"/>
-    <col min="13829" max="13829" width="5.6640625" style="25" customWidth="1"/>
-    <col min="13830" max="13830" width="6.44140625" style="25" customWidth="1"/>
+    <col min="13825" max="13825" width="9.25" style="25" customWidth="1"/>
+    <col min="13826" max="13826" width="12.25" style="25" customWidth="1"/>
+    <col min="13827" max="13827" width="9.125" style="25" customWidth="1"/>
+    <col min="13828" max="13828" width="3.125" style="25" customWidth="1"/>
+    <col min="13829" max="13829" width="5.625" style="25" customWidth="1"/>
+    <col min="13830" max="13830" width="6.5" style="25" customWidth="1"/>
     <col min="13831" max="13831" width="1" style="25" customWidth="1"/>
     <col min="13832" max="13832" width="3" style="25" customWidth="1"/>
-    <col min="13833" max="13833" width="7.109375" style="25" customWidth="1"/>
-    <col min="13834" max="13834" width="2.77734375" style="25" customWidth="1"/>
-    <col min="13835" max="13835" width="8.6640625" style="25" customWidth="1"/>
+    <col min="13833" max="13833" width="7.125" style="25" customWidth="1"/>
+    <col min="13834" max="13834" width="2.75" style="25" customWidth="1"/>
+    <col min="13835" max="13835" width="8.625" style="25" customWidth="1"/>
     <col min="13836" max="13846" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="13847" max="13871" width="9" style="25" customWidth="1"/>
     <col min="13872" max="14071" width="9" style="25"/>
-    <col min="14072" max="14072" width="1.6640625" style="25" customWidth="1"/>
-    <col min="14073" max="14073" width="1.77734375" style="25" customWidth="1"/>
-    <col min="14074" max="14074" width="7.33203125" style="25" customWidth="1"/>
-    <col min="14075" max="14075" width="4.109375" style="25" customWidth="1"/>
-    <col min="14076" max="14076" width="2.33203125" style="25" customWidth="1"/>
+    <col min="14072" max="14072" width="1.625" style="25" customWidth="1"/>
+    <col min="14073" max="14073" width="1.75" style="25" customWidth="1"/>
+    <col min="14074" max="14074" width="7.375" style="25" customWidth="1"/>
+    <col min="14075" max="14075" width="4.125" style="25" customWidth="1"/>
+    <col min="14076" max="14076" width="2.375" style="25" customWidth="1"/>
     <col min="14077" max="14077" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14078" max="14078" width="2.109375" style="25" customWidth="1"/>
-    <col min="14079" max="14079" width="2.6640625" style="25" customWidth="1"/>
+    <col min="14078" max="14078" width="2.125" style="25" customWidth="1"/>
+    <col min="14079" max="14079" width="2.625" style="25" customWidth="1"/>
     <col min="14080" max="14080" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14081" max="14081" width="9.21875" style="25" customWidth="1"/>
-    <col min="14082" max="14082" width="12.21875" style="25" customWidth="1"/>
-    <col min="14083" max="14083" width="9.109375" style="25" customWidth="1"/>
-    <col min="14084" max="14084" width="3.109375" style="25" customWidth="1"/>
-    <col min="14085" max="14085" width="5.6640625" style="25" customWidth="1"/>
-    <col min="14086" max="14086" width="6.44140625" style="25" customWidth="1"/>
+    <col min="14081" max="14081" width="9.25" style="25" customWidth="1"/>
+    <col min="14082" max="14082" width="12.25" style="25" customWidth="1"/>
+    <col min="14083" max="14083" width="9.125" style="25" customWidth="1"/>
+    <col min="14084" max="14084" width="3.125" style="25" customWidth="1"/>
+    <col min="14085" max="14085" width="5.625" style="25" customWidth="1"/>
+    <col min="14086" max="14086" width="6.5" style="25" customWidth="1"/>
     <col min="14087" max="14087" width="1" style="25" customWidth="1"/>
     <col min="14088" max="14088" width="3" style="25" customWidth="1"/>
-    <col min="14089" max="14089" width="7.109375" style="25" customWidth="1"/>
-    <col min="14090" max="14090" width="2.77734375" style="25" customWidth="1"/>
-    <col min="14091" max="14091" width="8.6640625" style="25" customWidth="1"/>
+    <col min="14089" max="14089" width="7.125" style="25" customWidth="1"/>
+    <col min="14090" max="14090" width="2.75" style="25" customWidth="1"/>
+    <col min="14091" max="14091" width="8.625" style="25" customWidth="1"/>
     <col min="14092" max="14102" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="14103" max="14127" width="9" style="25" customWidth="1"/>
     <col min="14128" max="14327" width="9" style="25"/>
-    <col min="14328" max="14328" width="1.6640625" style="25" customWidth="1"/>
-    <col min="14329" max="14329" width="1.77734375" style="25" customWidth="1"/>
-    <col min="14330" max="14330" width="7.33203125" style="25" customWidth="1"/>
-    <col min="14331" max="14331" width="4.109375" style="25" customWidth="1"/>
-    <col min="14332" max="14332" width="2.33203125" style="25" customWidth="1"/>
+    <col min="14328" max="14328" width="1.625" style="25" customWidth="1"/>
+    <col min="14329" max="14329" width="1.75" style="25" customWidth="1"/>
+    <col min="14330" max="14330" width="7.375" style="25" customWidth="1"/>
+    <col min="14331" max="14331" width="4.125" style="25" customWidth="1"/>
+    <col min="14332" max="14332" width="2.375" style="25" customWidth="1"/>
     <col min="14333" max="14333" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14334" max="14334" width="2.109375" style="25" customWidth="1"/>
-    <col min="14335" max="14335" width="2.6640625" style="25" customWidth="1"/>
+    <col min="14334" max="14334" width="2.125" style="25" customWidth="1"/>
+    <col min="14335" max="14335" width="2.625" style="25" customWidth="1"/>
     <col min="14336" max="14336" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14337" max="14337" width="9.21875" style="25" customWidth="1"/>
-    <col min="14338" max="14338" width="12.21875" style="25" customWidth="1"/>
-    <col min="14339" max="14339" width="9.109375" style="25" customWidth="1"/>
-    <col min="14340" max="14340" width="3.109375" style="25" customWidth="1"/>
-    <col min="14341" max="14341" width="5.6640625" style="25" customWidth="1"/>
-    <col min="14342" max="14342" width="6.44140625" style="25" customWidth="1"/>
+    <col min="14337" max="14337" width="9.25" style="25" customWidth="1"/>
+    <col min="14338" max="14338" width="12.25" style="25" customWidth="1"/>
+    <col min="14339" max="14339" width="9.125" style="25" customWidth="1"/>
+    <col min="14340" max="14340" width="3.125" style="25" customWidth="1"/>
+    <col min="14341" max="14341" width="5.625" style="25" customWidth="1"/>
+    <col min="14342" max="14342" width="6.5" style="25" customWidth="1"/>
     <col min="14343" max="14343" width="1" style="25" customWidth="1"/>
     <col min="14344" max="14344" width="3" style="25" customWidth="1"/>
-    <col min="14345" max="14345" width="7.109375" style="25" customWidth="1"/>
-    <col min="14346" max="14346" width="2.77734375" style="25" customWidth="1"/>
-    <col min="14347" max="14347" width="8.6640625" style="25" customWidth="1"/>
+    <col min="14345" max="14345" width="7.125" style="25" customWidth="1"/>
+    <col min="14346" max="14346" width="2.75" style="25" customWidth="1"/>
+    <col min="14347" max="14347" width="8.625" style="25" customWidth="1"/>
     <col min="14348" max="14358" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="14359" max="14383" width="9" style="25" customWidth="1"/>
     <col min="14384" max="14583" width="9" style="25"/>
-    <col min="14584" max="14584" width="1.6640625" style="25" customWidth="1"/>
-    <col min="14585" max="14585" width="1.77734375" style="25" customWidth="1"/>
-    <col min="14586" max="14586" width="7.33203125" style="25" customWidth="1"/>
-    <col min="14587" max="14587" width="4.109375" style="25" customWidth="1"/>
-    <col min="14588" max="14588" width="2.33203125" style="25" customWidth="1"/>
+    <col min="14584" max="14584" width="1.625" style="25" customWidth="1"/>
+    <col min="14585" max="14585" width="1.75" style="25" customWidth="1"/>
+    <col min="14586" max="14586" width="7.375" style="25" customWidth="1"/>
+    <col min="14587" max="14587" width="4.125" style="25" customWidth="1"/>
+    <col min="14588" max="14588" width="2.375" style="25" customWidth="1"/>
     <col min="14589" max="14589" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14590" max="14590" width="2.109375" style="25" customWidth="1"/>
-    <col min="14591" max="14591" width="2.6640625" style="25" customWidth="1"/>
+    <col min="14590" max="14590" width="2.125" style="25" customWidth="1"/>
+    <col min="14591" max="14591" width="2.625" style="25" customWidth="1"/>
     <col min="14592" max="14592" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14593" max="14593" width="9.21875" style="25" customWidth="1"/>
-    <col min="14594" max="14594" width="12.21875" style="25" customWidth="1"/>
-    <col min="14595" max="14595" width="9.109375" style="25" customWidth="1"/>
-    <col min="14596" max="14596" width="3.109375" style="25" customWidth="1"/>
-    <col min="14597" max="14597" width="5.6640625" style="25" customWidth="1"/>
-    <col min="14598" max="14598" width="6.44140625" style="25" customWidth="1"/>
+    <col min="14593" max="14593" width="9.25" style="25" customWidth="1"/>
+    <col min="14594" max="14594" width="12.25" style="25" customWidth="1"/>
+    <col min="14595" max="14595" width="9.125" style="25" customWidth="1"/>
+    <col min="14596" max="14596" width="3.125" style="25" customWidth="1"/>
+    <col min="14597" max="14597" width="5.625" style="25" customWidth="1"/>
+    <col min="14598" max="14598" width="6.5" style="25" customWidth="1"/>
     <col min="14599" max="14599" width="1" style="25" customWidth="1"/>
     <col min="14600" max="14600" width="3" style="25" customWidth="1"/>
-    <col min="14601" max="14601" width="7.109375" style="25" customWidth="1"/>
-    <col min="14602" max="14602" width="2.77734375" style="25" customWidth="1"/>
-    <col min="14603" max="14603" width="8.6640625" style="25" customWidth="1"/>
+    <col min="14601" max="14601" width="7.125" style="25" customWidth="1"/>
+    <col min="14602" max="14602" width="2.75" style="25" customWidth="1"/>
+    <col min="14603" max="14603" width="8.625" style="25" customWidth="1"/>
     <col min="14604" max="14614" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="14615" max="14639" width="9" style="25" customWidth="1"/>
     <col min="14640" max="14839" width="9" style="25"/>
-    <col min="14840" max="14840" width="1.6640625" style="25" customWidth="1"/>
-    <col min="14841" max="14841" width="1.77734375" style="25" customWidth="1"/>
-    <col min="14842" max="14842" width="7.33203125" style="25" customWidth="1"/>
-    <col min="14843" max="14843" width="4.109375" style="25" customWidth="1"/>
-    <col min="14844" max="14844" width="2.33203125" style="25" customWidth="1"/>
+    <col min="14840" max="14840" width="1.625" style="25" customWidth="1"/>
+    <col min="14841" max="14841" width="1.75" style="25" customWidth="1"/>
+    <col min="14842" max="14842" width="7.375" style="25" customWidth="1"/>
+    <col min="14843" max="14843" width="4.125" style="25" customWidth="1"/>
+    <col min="14844" max="14844" width="2.375" style="25" customWidth="1"/>
     <col min="14845" max="14845" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14846" max="14846" width="2.109375" style="25" customWidth="1"/>
-    <col min="14847" max="14847" width="2.6640625" style="25" customWidth="1"/>
+    <col min="14846" max="14846" width="2.125" style="25" customWidth="1"/>
+    <col min="14847" max="14847" width="2.625" style="25" customWidth="1"/>
     <col min="14848" max="14848" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="14849" max="14849" width="9.21875" style="25" customWidth="1"/>
-    <col min="14850" max="14850" width="12.21875" style="25" customWidth="1"/>
-    <col min="14851" max="14851" width="9.109375" style="25" customWidth="1"/>
-    <col min="14852" max="14852" width="3.109375" style="25" customWidth="1"/>
-    <col min="14853" max="14853" width="5.6640625" style="25" customWidth="1"/>
-    <col min="14854" max="14854" width="6.44140625" style="25" customWidth="1"/>
+    <col min="14849" max="14849" width="9.25" style="25" customWidth="1"/>
+    <col min="14850" max="14850" width="12.25" style="25" customWidth="1"/>
+    <col min="14851" max="14851" width="9.125" style="25" customWidth="1"/>
+    <col min="14852" max="14852" width="3.125" style="25" customWidth="1"/>
+    <col min="14853" max="14853" width="5.625" style="25" customWidth="1"/>
+    <col min="14854" max="14854" width="6.5" style="25" customWidth="1"/>
     <col min="14855" max="14855" width="1" style="25" customWidth="1"/>
     <col min="14856" max="14856" width="3" style="25" customWidth="1"/>
-    <col min="14857" max="14857" width="7.109375" style="25" customWidth="1"/>
-    <col min="14858" max="14858" width="2.77734375" style="25" customWidth="1"/>
-    <col min="14859" max="14859" width="8.6640625" style="25" customWidth="1"/>
+    <col min="14857" max="14857" width="7.125" style="25" customWidth="1"/>
+    <col min="14858" max="14858" width="2.75" style="25" customWidth="1"/>
+    <col min="14859" max="14859" width="8.625" style="25" customWidth="1"/>
     <col min="14860" max="14870" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="14871" max="14895" width="9" style="25" customWidth="1"/>
     <col min="14896" max="15095" width="9" style="25"/>
-    <col min="15096" max="15096" width="1.6640625" style="25" customWidth="1"/>
-    <col min="15097" max="15097" width="1.77734375" style="25" customWidth="1"/>
-    <col min="15098" max="15098" width="7.33203125" style="25" customWidth="1"/>
-    <col min="15099" max="15099" width="4.109375" style="25" customWidth="1"/>
-    <col min="15100" max="15100" width="2.33203125" style="25" customWidth="1"/>
+    <col min="15096" max="15096" width="1.625" style="25" customWidth="1"/>
+    <col min="15097" max="15097" width="1.75" style="25" customWidth="1"/>
+    <col min="15098" max="15098" width="7.375" style="25" customWidth="1"/>
+    <col min="15099" max="15099" width="4.125" style="25" customWidth="1"/>
+    <col min="15100" max="15100" width="2.375" style="25" customWidth="1"/>
     <col min="15101" max="15101" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15102" max="15102" width="2.109375" style="25" customWidth="1"/>
-    <col min="15103" max="15103" width="2.6640625" style="25" customWidth="1"/>
+    <col min="15102" max="15102" width="2.125" style="25" customWidth="1"/>
+    <col min="15103" max="15103" width="2.625" style="25" customWidth="1"/>
     <col min="15104" max="15104" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15105" max="15105" width="9.21875" style="25" customWidth="1"/>
-    <col min="15106" max="15106" width="12.21875" style="25" customWidth="1"/>
-    <col min="15107" max="15107" width="9.109375" style="25" customWidth="1"/>
-    <col min="15108" max="15108" width="3.109375" style="25" customWidth="1"/>
-    <col min="15109" max="15109" width="5.6640625" style="25" customWidth="1"/>
-    <col min="15110" max="15110" width="6.44140625" style="25" customWidth="1"/>
+    <col min="15105" max="15105" width="9.25" style="25" customWidth="1"/>
+    <col min="15106" max="15106" width="12.25" style="25" customWidth="1"/>
+    <col min="15107" max="15107" width="9.125" style="25" customWidth="1"/>
+    <col min="15108" max="15108" width="3.125" style="25" customWidth="1"/>
+    <col min="15109" max="15109" width="5.625" style="25" customWidth="1"/>
+    <col min="15110" max="15110" width="6.5" style="25" customWidth="1"/>
     <col min="15111" max="15111" width="1" style="25" customWidth="1"/>
     <col min="15112" max="15112" width="3" style="25" customWidth="1"/>
-    <col min="15113" max="15113" width="7.109375" style="25" customWidth="1"/>
-    <col min="15114" max="15114" width="2.77734375" style="25" customWidth="1"/>
-    <col min="15115" max="15115" width="8.6640625" style="25" customWidth="1"/>
+    <col min="15113" max="15113" width="7.125" style="25" customWidth="1"/>
+    <col min="15114" max="15114" width="2.75" style="25" customWidth="1"/>
+    <col min="15115" max="15115" width="8.625" style="25" customWidth="1"/>
     <col min="15116" max="15126" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="15127" max="15151" width="9" style="25" customWidth="1"/>
     <col min="15152" max="15351" width="9" style="25"/>
-    <col min="15352" max="15352" width="1.6640625" style="25" customWidth="1"/>
-    <col min="15353" max="15353" width="1.77734375" style="25" customWidth="1"/>
-    <col min="15354" max="15354" width="7.33203125" style="25" customWidth="1"/>
-    <col min="15355" max="15355" width="4.109375" style="25" customWidth="1"/>
-    <col min="15356" max="15356" width="2.33203125" style="25" customWidth="1"/>
+    <col min="15352" max="15352" width="1.625" style="25" customWidth="1"/>
+    <col min="15353" max="15353" width="1.75" style="25" customWidth="1"/>
+    <col min="15354" max="15354" width="7.375" style="25" customWidth="1"/>
+    <col min="15355" max="15355" width="4.125" style="25" customWidth="1"/>
+    <col min="15356" max="15356" width="2.375" style="25" customWidth="1"/>
     <col min="15357" max="15357" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15358" max="15358" width="2.109375" style="25" customWidth="1"/>
-    <col min="15359" max="15359" width="2.6640625" style="25" customWidth="1"/>
+    <col min="15358" max="15358" width="2.125" style="25" customWidth="1"/>
+    <col min="15359" max="15359" width="2.625" style="25" customWidth="1"/>
     <col min="15360" max="15360" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15361" max="15361" width="9.21875" style="25" customWidth="1"/>
-    <col min="15362" max="15362" width="12.21875" style="25" customWidth="1"/>
-    <col min="15363" max="15363" width="9.109375" style="25" customWidth="1"/>
-    <col min="15364" max="15364" width="3.109375" style="25" customWidth="1"/>
-    <col min="15365" max="15365" width="5.6640625" style="25" customWidth="1"/>
-    <col min="15366" max="15366" width="6.44140625" style="25" customWidth="1"/>
+    <col min="15361" max="15361" width="9.25" style="25" customWidth="1"/>
+    <col min="15362" max="15362" width="12.25" style="25" customWidth="1"/>
+    <col min="15363" max="15363" width="9.125" style="25" customWidth="1"/>
+    <col min="15364" max="15364" width="3.125" style="25" customWidth="1"/>
+    <col min="15365" max="15365" width="5.625" style="25" customWidth="1"/>
+    <col min="15366" max="15366" width="6.5" style="25" customWidth="1"/>
     <col min="15367" max="15367" width="1" style="25" customWidth="1"/>
     <col min="15368" max="15368" width="3" style="25" customWidth="1"/>
-    <col min="15369" max="15369" width="7.109375" style="25" customWidth="1"/>
-    <col min="15370" max="15370" width="2.77734375" style="25" customWidth="1"/>
-    <col min="15371" max="15371" width="8.6640625" style="25" customWidth="1"/>
+    <col min="15369" max="15369" width="7.125" style="25" customWidth="1"/>
+    <col min="15370" max="15370" width="2.75" style="25" customWidth="1"/>
+    <col min="15371" max="15371" width="8.625" style="25" customWidth="1"/>
     <col min="15372" max="15382" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="15383" max="15407" width="9" style="25" customWidth="1"/>
     <col min="15408" max="15607" width="9" style="25"/>
-    <col min="15608" max="15608" width="1.6640625" style="25" customWidth="1"/>
-    <col min="15609" max="15609" width="1.77734375" style="25" customWidth="1"/>
-    <col min="15610" max="15610" width="7.33203125" style="25" customWidth="1"/>
-    <col min="15611" max="15611" width="4.109375" style="25" customWidth="1"/>
-    <col min="15612" max="15612" width="2.33203125" style="25" customWidth="1"/>
+    <col min="15608" max="15608" width="1.625" style="25" customWidth="1"/>
+    <col min="15609" max="15609" width="1.75" style="25" customWidth="1"/>
+    <col min="15610" max="15610" width="7.375" style="25" customWidth="1"/>
+    <col min="15611" max="15611" width="4.125" style="25" customWidth="1"/>
+    <col min="15612" max="15612" width="2.375" style="25" customWidth="1"/>
     <col min="15613" max="15613" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15614" max="15614" width="2.109375" style="25" customWidth="1"/>
-    <col min="15615" max="15615" width="2.6640625" style="25" customWidth="1"/>
+    <col min="15614" max="15614" width="2.125" style="25" customWidth="1"/>
+    <col min="15615" max="15615" width="2.625" style="25" customWidth="1"/>
     <col min="15616" max="15616" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15617" max="15617" width="9.21875" style="25" customWidth="1"/>
-    <col min="15618" max="15618" width="12.21875" style="25" customWidth="1"/>
-    <col min="15619" max="15619" width="9.109375" style="25" customWidth="1"/>
-    <col min="15620" max="15620" width="3.109375" style="25" customWidth="1"/>
-    <col min="15621" max="15621" width="5.6640625" style="25" customWidth="1"/>
-    <col min="15622" max="15622" width="6.44140625" style="25" customWidth="1"/>
+    <col min="15617" max="15617" width="9.25" style="25" customWidth="1"/>
+    <col min="15618" max="15618" width="12.25" style="25" customWidth="1"/>
+    <col min="15619" max="15619" width="9.125" style="25" customWidth="1"/>
+    <col min="15620" max="15620" width="3.125" style="25" customWidth="1"/>
+    <col min="15621" max="15621" width="5.625" style="25" customWidth="1"/>
+    <col min="15622" max="15622" width="6.5" style="25" customWidth="1"/>
     <col min="15623" max="15623" width="1" style="25" customWidth="1"/>
     <col min="15624" max="15624" width="3" style="25" customWidth="1"/>
-    <col min="15625" max="15625" width="7.109375" style="25" customWidth="1"/>
-    <col min="15626" max="15626" width="2.77734375" style="25" customWidth="1"/>
-    <col min="15627" max="15627" width="8.6640625" style="25" customWidth="1"/>
+    <col min="15625" max="15625" width="7.125" style="25" customWidth="1"/>
+    <col min="15626" max="15626" width="2.75" style="25" customWidth="1"/>
+    <col min="15627" max="15627" width="8.625" style="25" customWidth="1"/>
     <col min="15628" max="15638" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="15639" max="15663" width="9" style="25" customWidth="1"/>
     <col min="15664" max="15863" width="9" style="25"/>
-    <col min="15864" max="15864" width="1.6640625" style="25" customWidth="1"/>
-    <col min="15865" max="15865" width="1.77734375" style="25" customWidth="1"/>
-    <col min="15866" max="15866" width="7.33203125" style="25" customWidth="1"/>
-    <col min="15867" max="15867" width="4.109375" style="25" customWidth="1"/>
-    <col min="15868" max="15868" width="2.33203125" style="25" customWidth="1"/>
+    <col min="15864" max="15864" width="1.625" style="25" customWidth="1"/>
+    <col min="15865" max="15865" width="1.75" style="25" customWidth="1"/>
+    <col min="15866" max="15866" width="7.375" style="25" customWidth="1"/>
+    <col min="15867" max="15867" width="4.125" style="25" customWidth="1"/>
+    <col min="15868" max="15868" width="2.375" style="25" customWidth="1"/>
     <col min="15869" max="15869" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15870" max="15870" width="2.109375" style="25" customWidth="1"/>
-    <col min="15871" max="15871" width="2.6640625" style="25" customWidth="1"/>
+    <col min="15870" max="15870" width="2.125" style="25" customWidth="1"/>
+    <col min="15871" max="15871" width="2.625" style="25" customWidth="1"/>
     <col min="15872" max="15872" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="15873" max="15873" width="9.21875" style="25" customWidth="1"/>
-    <col min="15874" max="15874" width="12.21875" style="25" customWidth="1"/>
-    <col min="15875" max="15875" width="9.109375" style="25" customWidth="1"/>
-    <col min="15876" max="15876" width="3.109375" style="25" customWidth="1"/>
-    <col min="15877" max="15877" width="5.6640625" style="25" customWidth="1"/>
-    <col min="15878" max="15878" width="6.44140625" style="25" customWidth="1"/>
+    <col min="15873" max="15873" width="9.25" style="25" customWidth="1"/>
+    <col min="15874" max="15874" width="12.25" style="25" customWidth="1"/>
+    <col min="15875" max="15875" width="9.125" style="25" customWidth="1"/>
+    <col min="15876" max="15876" width="3.125" style="25" customWidth="1"/>
+    <col min="15877" max="15877" width="5.625" style="25" customWidth="1"/>
+    <col min="15878" max="15878" width="6.5" style="25" customWidth="1"/>
     <col min="15879" max="15879" width="1" style="25" customWidth="1"/>
     <col min="15880" max="15880" width="3" style="25" customWidth="1"/>
-    <col min="15881" max="15881" width="7.109375" style="25" customWidth="1"/>
-    <col min="15882" max="15882" width="2.77734375" style="25" customWidth="1"/>
-    <col min="15883" max="15883" width="8.6640625" style="25" customWidth="1"/>
+    <col min="15881" max="15881" width="7.125" style="25" customWidth="1"/>
+    <col min="15882" max="15882" width="2.75" style="25" customWidth="1"/>
+    <col min="15883" max="15883" width="8.625" style="25" customWidth="1"/>
     <col min="15884" max="15894" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="15895" max="15919" width="9" style="25" customWidth="1"/>
     <col min="15920" max="16119" width="9" style="25"/>
-    <col min="16120" max="16120" width="1.6640625" style="25" customWidth="1"/>
-    <col min="16121" max="16121" width="1.77734375" style="25" customWidth="1"/>
-    <col min="16122" max="16122" width="7.33203125" style="25" customWidth="1"/>
-    <col min="16123" max="16123" width="4.109375" style="25" customWidth="1"/>
-    <col min="16124" max="16124" width="2.33203125" style="25" customWidth="1"/>
+    <col min="16120" max="16120" width="1.625" style="25" customWidth="1"/>
+    <col min="16121" max="16121" width="1.75" style="25" customWidth="1"/>
+    <col min="16122" max="16122" width="7.375" style="25" customWidth="1"/>
+    <col min="16123" max="16123" width="4.125" style="25" customWidth="1"/>
+    <col min="16124" max="16124" width="2.375" style="25" customWidth="1"/>
     <col min="16125" max="16125" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="16126" max="16126" width="2.109375" style="25" customWidth="1"/>
-    <col min="16127" max="16127" width="2.6640625" style="25" customWidth="1"/>
+    <col min="16126" max="16126" width="2.125" style="25" customWidth="1"/>
+    <col min="16127" max="16127" width="2.625" style="25" customWidth="1"/>
     <col min="16128" max="16128" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="16129" max="16129" width="9.21875" style="25" customWidth="1"/>
-    <col min="16130" max="16130" width="12.21875" style="25" customWidth="1"/>
-    <col min="16131" max="16131" width="9.109375" style="25" customWidth="1"/>
-    <col min="16132" max="16132" width="3.109375" style="25" customWidth="1"/>
-    <col min="16133" max="16133" width="5.6640625" style="25" customWidth="1"/>
-    <col min="16134" max="16134" width="6.44140625" style="25" customWidth="1"/>
+    <col min="16129" max="16129" width="9.25" style="25" customWidth="1"/>
+    <col min="16130" max="16130" width="12.25" style="25" customWidth="1"/>
+    <col min="16131" max="16131" width="9.125" style="25" customWidth="1"/>
+    <col min="16132" max="16132" width="3.125" style="25" customWidth="1"/>
+    <col min="16133" max="16133" width="5.625" style="25" customWidth="1"/>
+    <col min="16134" max="16134" width="6.5" style="25" customWidth="1"/>
     <col min="16135" max="16135" width="1" style="25" customWidth="1"/>
     <col min="16136" max="16136" width="3" style="25" customWidth="1"/>
-    <col min="16137" max="16137" width="7.109375" style="25" customWidth="1"/>
-    <col min="16138" max="16138" width="2.77734375" style="25" customWidth="1"/>
-    <col min="16139" max="16139" width="8.6640625" style="25" customWidth="1"/>
+    <col min="16137" max="16137" width="7.125" style="25" customWidth="1"/>
+    <col min="16138" max="16138" width="2.75" style="25" customWidth="1"/>
+    <col min="16139" max="16139" width="8.625" style="25" customWidth="1"/>
     <col min="16140" max="16150" width="0" style="25" hidden="1" customWidth="1"/>
     <col min="16151" max="16175" width="9" style="25" customWidth="1"/>
     <col min="16176" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="19.95" customHeight="1">
-      <c r="B1" s="72" t="s">
+    <row r="1" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B1" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-    </row>
-    <row r="2" spans="1:35" ht="19.95" customHeight="1">
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+    </row>
+    <row r="2" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="59"/>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
       <c r="I2" s="56" t="s">
         <v>122</v>
       </c>
@@ -4257,14 +4273,14 @@
       <c r="M2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="O2" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
       <c r="W2" s="30"/>
       <c r="X2" s="30"/>
       <c r="Y2" s="30"/>
@@ -4279,37 +4295,37 @@
       <c r="AH2" s="27"/>
       <c r="AI2" s="27"/>
     </row>
-    <row r="3" spans="1:35" ht="19.95" customHeight="1">
+    <row r="3" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="B3" s="59" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="26"/>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
       <c r="R3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="76" t="s">
+      <c r="S3" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="T3" s="76"/>
+      <c r="T3" s="158"/>
       <c r="U3" s="29"/>
       <c r="W3" s="30"/>
       <c r="AE3" s="30"/>
@@ -4318,35 +4334,35 @@
       <c r="AH3" s="30"/>
       <c r="AI3" s="30"/>
     </row>
-    <row r="4" spans="1:35" ht="19.95" customHeight="1">
+    <row r="4" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="B4" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="59"/>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="66"/>
-      <c r="O4" s="70" t="e">
+      <c r="N4" s="133"/>
+      <c r="O4" s="137" t="e">
         <f>RIGHT(S3,10)-LEFT(O3,10)+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="60" t="s">
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="60"/>
+      <c r="S4" s="128"/>
       <c r="T4" s="57"/>
       <c r="W4" s="36"/>
       <c r="AE4" s="30"/>
@@ -4355,33 +4371,33 @@
       <c r="AH4" s="30"/>
       <c r="AI4" s="30"/>
     </row>
-    <row r="5" spans="1:35" ht="19.95" customHeight="1">
+    <row r="5" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="B5" s="59" t="s">
         <v>125</v>
       </c>
       <c r="C5" s="59"/>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61" t="s">
+      <c r="N5" s="136"/>
+      <c r="O5" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
       <c r="W5" s="30"/>
       <c r="AE5" s="30"/>
       <c r="AF5" s="30"/>
@@ -4389,7 +4405,7 @@
       <c r="AH5" s="30"/>
       <c r="AI5" s="30"/>
     </row>
-    <row r="6" spans="1:35" ht="19.95" customHeight="1">
+    <row r="6" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -4416,7 +4432,7 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
     </row>
-    <row r="7" spans="1:35" ht="19.95" customHeight="1">
+    <row r="7" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -4428,18 +4444,18 @@
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63" t="s">
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="71"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="138"/>
       <c r="W7" s="36"/>
       <c r="X7" s="36"/>
       <c r="Y7" s="36"/>
@@ -4454,7 +4470,7 @@
       <c r="AH7" s="30"/>
       <c r="AI7" s="30"/>
     </row>
-    <row r="8" spans="1:35" ht="19.95" customHeight="1">
+    <row r="8" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -4466,16 +4482,16 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="77" t="s">
+      <c r="M8" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="79"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="118"/>
       <c r="W8" s="36"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
@@ -4490,26 +4506,26 @@
       <c r="AH8" s="30"/>
       <c r="AI8" s="30"/>
     </row>
-    <row r="9" spans="1:35" ht="19.95" customHeight="1">
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
+    <row r="9" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
       <c r="V9" s="37"/>
       <c r="W9" s="30"/>
       <c r="X9" s="30"/>
@@ -4525,34 +4541,34 @@
       <c r="AH9" s="30"/>
       <c r="AI9" s="30"/>
     </row>
-    <row r="10" spans="1:35" ht="19.95" customHeight="1">
-      <c r="B10" s="93" t="s">
+    <row r="10" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B10" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="97" t="s">
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100" t="s">
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100" t="s">
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="101"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="109"/>
       <c r="V10" s="37"/>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
@@ -4568,32 +4584,32 @@
       <c r="AH10" s="30"/>
       <c r="AI10" s="30"/>
     </row>
-    <row r="11" spans="1:35" ht="19.95" customHeight="1">
-      <c r="B11" s="95"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="102" t="s">
+    <row r="11" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="81" t="s">
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="84" t="s">
+      <c r="M11" s="120"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="86"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="124"/>
       <c r="V11" s="37"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="36"/>
@@ -4605,26 +4621,26 @@
       <c r="AH11" s="36"/>
       <c r="AI11" s="36"/>
     </row>
-    <row r="12" spans="1:35" ht="19.95" customHeight="1">
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
+    <row r="12" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
       <c r="V12" s="37"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
@@ -4636,34 +4652,34 @@
       <c r="AH12" s="30"/>
       <c r="AI12" s="30"/>
     </row>
-    <row r="13" spans="1:35" ht="19.95" customHeight="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90" t="s">
+    <row r="13" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="91"/>
-      <c r="L13" s="107" t="s">
+      <c r="K13" s="101"/>
+      <c r="L13" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="M13" s="106"/>
-      <c r="N13" s="105" t="s">
+      <c r="M13" s="114"/>
+      <c r="N13" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="90" t="s">
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="87"/>
-      <c r="T13" s="92"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="102"/>
       <c r="V13" s="37"/>
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
@@ -4675,184 +4691,184 @@
       <c r="AH13" s="30"/>
       <c r="AI13" s="30"/>
     </row>
-    <row r="14" spans="1:35" ht="19.95" customHeight="1">
-      <c r="B14" s="115" t="s">
+    <row r="14" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B14" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="124" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="125"/>
-      <c r="L14" s="128" t="s">
+      <c r="K14" s="84"/>
+      <c r="L14" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="129"/>
-      <c r="N14" s="130" t="s">
+      <c r="M14" s="88"/>
+      <c r="N14" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="110" t="s">
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="S14" s="110"/>
-      <c r="T14" s="111"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="70"/>
       <c r="V14" s="37"/>
     </row>
-    <row r="15" spans="1:35" ht="19.95" customHeight="1">
-      <c r="B15" s="117" t="s">
+    <row r="15" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B15" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="126" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="K15" s="127"/>
-      <c r="L15" s="132" t="s">
+      <c r="K15" s="86"/>
+      <c r="L15" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="133"/>
-      <c r="N15" s="134" t="s">
+      <c r="M15" s="92"/>
+      <c r="N15" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="110" t="s">
+      <c r="O15" s="159"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="S15" s="110"/>
-      <c r="T15" s="111"/>
+      <c r="S15" s="161"/>
+      <c r="T15" s="162"/>
       <c r="V15" s="37"/>
     </row>
-    <row r="16" spans="1:35" ht="19.95" customHeight="1">
-      <c r="B16" s="120" t="s">
+    <row r="16" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B16" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="112">
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="71">
         <f>SUM(M14:Q15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="113"/>
-      <c r="N16" s="112" t="s">
+      <c r="M16" s="72"/>
+      <c r="N16" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="110" t="s">
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="S16" s="110"/>
-      <c r="T16" s="111"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="70"/>
       <c r="V16" s="37"/>
     </row>
-    <row r="17" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
+    <row r="17" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
       <c r="V17" s="37"/>
     </row>
-    <row r="18" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B18" s="156" t="s">
+    <row r="18" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B18" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="153" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153" t="s">
+      <c r="E18" s="60"/>
+      <c r="F18" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="153"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
       <c r="P18" s="35"/>
-      <c r="Q18" s="93" t="s">
+      <c r="Q18" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94" t="s">
+      <c r="R18" s="95"/>
+      <c r="S18" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="T18" s="155"/>
+      <c r="T18" s="96"/>
       <c r="V18" s="37"/>
     </row>
-    <row r="19" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B19" s="115"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
+    <row r="19" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="58"/>
       <c r="I19" s="58"/>
       <c r="J19" s="58"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
       <c r="P19" s="38"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
       <c r="V19" s="37"/>
     </row>
-    <row r="20" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B20" s="154"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
+    <row r="20" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
@@ -4862,19 +4878,19 @@
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
       <c r="P20" s="58"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
       <c r="V20" s="37"/>
     </row>
-    <row r="21" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B21" s="159"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
+    <row r="21" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="58"/>
       <c r="I21" s="58"/>
       <c r="J21" s="58"/>
@@ -4884,46 +4900,46 @@
       <c r="N21" s="58"/>
       <c r="O21" s="58"/>
       <c r="P21" s="58"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
       <c r="V21" s="37"/>
     </row>
-    <row r="22" spans="2:22" ht="19.95" customHeight="1">
+    <row r="22" spans="2:22" ht="19.899999999999999" customHeight="1">
       <c r="V22" s="37"/>
     </row>
-    <row r="23" spans="2:22" ht="19.95" customHeight="1">
+    <row r="23" spans="2:22" ht="19.899999999999999" customHeight="1">
       <c r="B23" s="25" t="s">
         <v>64</v>
       </c>
       <c r="V23" s="37"/>
     </row>
-    <row r="24" spans="2:22" ht="19.95" customHeight="1">
+    <row r="24" spans="2:22" ht="19.899999999999999" customHeight="1">
       <c r="D24" s="25" t="s">
         <v>65</v>
       </c>
       <c r="V24" s="37"/>
     </row>
-    <row r="25" spans="2:22" ht="19.95" customHeight="1">
+    <row r="25" spans="2:22" ht="19.899999999999999" customHeight="1">
       <c r="D25" s="25" t="s">
         <v>66</v>
       </c>
       <c r="V25" s="37"/>
     </row>
-    <row r="26" spans="2:22" ht="19.95" customHeight="1">
+    <row r="26" spans="2:22" ht="19.899999999999999" customHeight="1">
       <c r="D26" s="25" t="s">
         <v>67</v>
       </c>
       <c r="V26" s="37"/>
     </row>
-    <row r="27" spans="2:22" ht="19.95" customHeight="1">
+    <row r="27" spans="2:22" ht="19.899999999999999" customHeight="1">
       <c r="D27" s="25" t="s">
         <v>78</v>
       </c>
       <c r="V27" s="37"/>
     </row>
-    <row r="28" spans="2:22" ht="19.95" customHeight="1">
+    <row r="28" spans="2:22" ht="19.899999999999999" customHeight="1">
       <c r="V28" s="37"/>
     </row>
     <row r="29" spans="2:22">
@@ -4947,14 +4963,42 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="59">
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="S19:T21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G21"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="N16:Q16"/>
     <mergeCell ref="B14:I14"/>
@@ -4970,42 +5014,14 @@
     <mergeCell ref="N14:Q14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="B9:T9"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="S19:T21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G21"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
@@ -5049,570 +5065,570 @@
       <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.625" style="1" customWidth="1"/>
     <col min="10" max="257" width="9" style="1"/>
     <col min="258" max="258" width="12" style="1" customWidth="1"/>
-    <col min="259" max="259" width="11.33203125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="15.44140625" style="1" customWidth="1"/>
-    <col min="261" max="261" width="15.109375" style="1" customWidth="1"/>
-    <col min="262" max="262" width="12.6640625" style="1" customWidth="1"/>
-    <col min="263" max="263" width="11.88671875" style="1" customWidth="1"/>
-    <col min="264" max="264" width="9.6640625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="11.375" style="1" customWidth="1"/>
+    <col min="260" max="260" width="15.5" style="1" customWidth="1"/>
+    <col min="261" max="261" width="15.125" style="1" customWidth="1"/>
+    <col min="262" max="262" width="12.625" style="1" customWidth="1"/>
+    <col min="263" max="263" width="11.875" style="1" customWidth="1"/>
+    <col min="264" max="264" width="9.625" style="1" customWidth="1"/>
     <col min="265" max="513" width="9" style="1"/>
     <col min="514" max="514" width="12" style="1" customWidth="1"/>
-    <col min="515" max="515" width="11.33203125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="15.44140625" style="1" customWidth="1"/>
-    <col min="517" max="517" width="15.109375" style="1" customWidth="1"/>
-    <col min="518" max="518" width="12.6640625" style="1" customWidth="1"/>
-    <col min="519" max="519" width="11.88671875" style="1" customWidth="1"/>
-    <col min="520" max="520" width="9.6640625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="11.375" style="1" customWidth="1"/>
+    <col min="516" max="516" width="15.5" style="1" customWidth="1"/>
+    <col min="517" max="517" width="15.125" style="1" customWidth="1"/>
+    <col min="518" max="518" width="12.625" style="1" customWidth="1"/>
+    <col min="519" max="519" width="11.875" style="1" customWidth="1"/>
+    <col min="520" max="520" width="9.625" style="1" customWidth="1"/>
     <col min="521" max="769" width="9" style="1"/>
     <col min="770" max="770" width="12" style="1" customWidth="1"/>
-    <col min="771" max="771" width="11.33203125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="15.44140625" style="1" customWidth="1"/>
-    <col min="773" max="773" width="15.109375" style="1" customWidth="1"/>
-    <col min="774" max="774" width="12.6640625" style="1" customWidth="1"/>
-    <col min="775" max="775" width="11.88671875" style="1" customWidth="1"/>
-    <col min="776" max="776" width="9.6640625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="11.375" style="1" customWidth="1"/>
+    <col min="772" max="772" width="15.5" style="1" customWidth="1"/>
+    <col min="773" max="773" width="15.125" style="1" customWidth="1"/>
+    <col min="774" max="774" width="12.625" style="1" customWidth="1"/>
+    <col min="775" max="775" width="11.875" style="1" customWidth="1"/>
+    <col min="776" max="776" width="9.625" style="1" customWidth="1"/>
     <col min="777" max="1025" width="9" style="1"/>
     <col min="1026" max="1026" width="12" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="11.33203125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="15.44140625" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.109375" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="12.6640625" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.375" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="15.5" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.125" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="12.625" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="11.875" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="9.625" style="1" customWidth="1"/>
     <col min="1033" max="1281" width="9" style="1"/>
     <col min="1282" max="1282" width="12" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="11.33203125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="15.44140625" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.109375" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="12.6640625" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.375" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="15.5" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.125" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="12.625" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="11.875" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="9.625" style="1" customWidth="1"/>
     <col min="1289" max="1537" width="9" style="1"/>
     <col min="1538" max="1538" width="12" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="11.33203125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="15.44140625" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.109375" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="12.6640625" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.375" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="15.5" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.125" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="12.625" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="11.875" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="9.625" style="1" customWidth="1"/>
     <col min="1545" max="1793" width="9" style="1"/>
     <col min="1794" max="1794" width="12" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="11.33203125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="15.44140625" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.109375" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="12.6640625" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.375" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="15.5" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.125" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="12.625" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="11.875" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="9.625" style="1" customWidth="1"/>
     <col min="1801" max="2049" width="9" style="1"/>
     <col min="2050" max="2050" width="12" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.109375" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.375" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="15.5" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.125" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="12.625" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="11.875" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="9.625" style="1" customWidth="1"/>
     <col min="2057" max="2305" width="9" style="1"/>
     <col min="2306" max="2306" width="12" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.109375" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.375" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="15.5" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.125" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="12.625" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="11.875" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="9.625" style="1" customWidth="1"/>
     <col min="2313" max="2561" width="9" style="1"/>
     <col min="2562" max="2562" width="12" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.109375" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.375" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="15.5" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.125" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="12.625" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="11.875" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="9.625" style="1" customWidth="1"/>
     <col min="2569" max="2817" width="9" style="1"/>
     <col min="2818" max="2818" width="12" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.109375" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.375" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="15.5" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.125" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="12.625" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="11.875" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="9.625" style="1" customWidth="1"/>
     <col min="2825" max="3073" width="9" style="1"/>
     <col min="3074" max="3074" width="12" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.109375" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.375" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="15.5" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.125" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="12.625" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="11.875" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="9.625" style="1" customWidth="1"/>
     <col min="3081" max="3329" width="9" style="1"/>
     <col min="3330" max="3330" width="12" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.109375" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.375" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="15.5" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.125" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="12.625" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="11.875" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="9.625" style="1" customWidth="1"/>
     <col min="3337" max="3585" width="9" style="1"/>
     <col min="3586" max="3586" width="12" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.109375" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.375" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="15.5" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.125" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="12.625" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="11.875" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="9.625" style="1" customWidth="1"/>
     <col min="3593" max="3841" width="9" style="1"/>
     <col min="3842" max="3842" width="12" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.109375" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.375" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="15.5" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.125" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="12.625" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="11.875" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="9.625" style="1" customWidth="1"/>
     <col min="3849" max="4097" width="9" style="1"/>
     <col min="4098" max="4098" width="12" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.109375" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.375" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="15.5" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.125" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="12.625" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="11.875" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="9.625" style="1" customWidth="1"/>
     <col min="4105" max="4353" width="9" style="1"/>
     <col min="4354" max="4354" width="12" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.109375" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.375" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="15.5" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.125" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="12.625" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="11.875" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="9.625" style="1" customWidth="1"/>
     <col min="4361" max="4609" width="9" style="1"/>
     <col min="4610" max="4610" width="12" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.109375" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.375" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="15.5" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.125" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="12.625" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="11.875" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="9.625" style="1" customWidth="1"/>
     <col min="4617" max="4865" width="9" style="1"/>
     <col min="4866" max="4866" width="12" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.109375" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.375" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="15.5" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.125" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="12.625" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="11.875" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="9.625" style="1" customWidth="1"/>
     <col min="4873" max="5121" width="9" style="1"/>
     <col min="5122" max="5122" width="12" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.109375" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.375" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="15.5" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.125" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="12.625" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="11.875" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="9.625" style="1" customWidth="1"/>
     <col min="5129" max="5377" width="9" style="1"/>
     <col min="5378" max="5378" width="12" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.109375" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.375" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="15.5" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.125" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="12.625" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="11.875" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="9.625" style="1" customWidth="1"/>
     <col min="5385" max="5633" width="9" style="1"/>
     <col min="5634" max="5634" width="12" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.109375" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.375" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="15.5" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.125" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="12.625" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="11.875" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="9.625" style="1" customWidth="1"/>
     <col min="5641" max="5889" width="9" style="1"/>
     <col min="5890" max="5890" width="12" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.109375" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.375" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="15.5" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.125" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="12.625" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="11.875" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="9.625" style="1" customWidth="1"/>
     <col min="5897" max="6145" width="9" style="1"/>
     <col min="6146" max="6146" width="12" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="15.44140625" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.109375" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.375" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="15.5" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.125" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="12.625" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="11.875" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="9.625" style="1" customWidth="1"/>
     <col min="6153" max="6401" width="9" style="1"/>
     <col min="6402" max="6402" width="12" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="15.44140625" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.109375" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.375" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="15.5" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.125" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="12.625" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="11.875" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="9.625" style="1" customWidth="1"/>
     <col min="6409" max="6657" width="9" style="1"/>
     <col min="6658" max="6658" width="12" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="15.44140625" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.109375" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.375" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="15.5" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.125" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="12.625" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="11.875" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="9.625" style="1" customWidth="1"/>
     <col min="6665" max="6913" width="9" style="1"/>
     <col min="6914" max="6914" width="12" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="15.44140625" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.109375" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.375" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="15.5" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.125" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="12.625" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="11.875" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="9.625" style="1" customWidth="1"/>
     <col min="6921" max="7169" width="9" style="1"/>
     <col min="7170" max="7170" width="12" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.109375" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.375" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="15.5" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.125" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="12.625" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="11.875" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="9.625" style="1" customWidth="1"/>
     <col min="7177" max="7425" width="9" style="1"/>
     <col min="7426" max="7426" width="12" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.109375" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.375" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="15.5" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.125" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="12.625" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="11.875" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="9.625" style="1" customWidth="1"/>
     <col min="7433" max="7681" width="9" style="1"/>
     <col min="7682" max="7682" width="12" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.109375" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.375" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="15.5" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.125" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="12.625" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="11.875" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="9.625" style="1" customWidth="1"/>
     <col min="7689" max="7937" width="9" style="1"/>
     <col min="7938" max="7938" width="12" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.109375" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.375" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="15.5" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.125" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="12.625" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="11.875" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="9.625" style="1" customWidth="1"/>
     <col min="7945" max="8193" width="9" style="1"/>
     <col min="8194" max="8194" width="12" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.109375" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.375" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="15.5" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.125" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="12.625" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="11.875" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="9.625" style="1" customWidth="1"/>
     <col min="8201" max="8449" width="9" style="1"/>
     <col min="8450" max="8450" width="12" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.109375" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.375" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="15.5" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.125" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="12.625" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="11.875" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="9.625" style="1" customWidth="1"/>
     <col min="8457" max="8705" width="9" style="1"/>
     <col min="8706" max="8706" width="12" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.109375" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.375" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="15.5" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.125" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="12.625" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="11.875" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="9.625" style="1" customWidth="1"/>
     <col min="8713" max="8961" width="9" style="1"/>
     <col min="8962" max="8962" width="12" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.109375" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.375" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="15.5" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.125" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="12.625" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="11.875" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="9.625" style="1" customWidth="1"/>
     <col min="8969" max="9217" width="9" style="1"/>
     <col min="9218" max="9218" width="12" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.109375" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.375" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="15.5" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.125" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="12.625" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="11.875" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="9.625" style="1" customWidth="1"/>
     <col min="9225" max="9473" width="9" style="1"/>
     <col min="9474" max="9474" width="12" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.109375" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.375" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="15.5" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.125" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="12.625" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="11.875" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="9.625" style="1" customWidth="1"/>
     <col min="9481" max="9729" width="9" style="1"/>
     <col min="9730" max="9730" width="12" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.109375" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.375" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="15.5" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.125" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="12.625" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="11.875" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="9.625" style="1" customWidth="1"/>
     <col min="9737" max="9985" width="9" style="1"/>
     <col min="9986" max="9986" width="12" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.109375" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.375" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="15.5" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.125" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="12.625" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="11.875" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="9.625" style="1" customWidth="1"/>
     <col min="9993" max="10241" width="9" style="1"/>
     <col min="10242" max="10242" width="12" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="11.33203125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="15.44140625" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.109375" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.375" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="15.5" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.125" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="12.625" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="11.875" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="9.625" style="1" customWidth="1"/>
     <col min="10249" max="10497" width="9" style="1"/>
     <col min="10498" max="10498" width="12" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="11.33203125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="15.44140625" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.109375" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.375" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="15.5" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.125" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="12.625" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="11.875" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="9.625" style="1" customWidth="1"/>
     <col min="10505" max="10753" width="9" style="1"/>
     <col min="10754" max="10754" width="12" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="11.33203125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="15.44140625" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.109375" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.375" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="15.5" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.125" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="12.625" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="11.875" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="9.625" style="1" customWidth="1"/>
     <col min="10761" max="11009" width="9" style="1"/>
     <col min="11010" max="11010" width="12" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.109375" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.375" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="15.5" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.125" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="12.625" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="11.875" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="9.625" style="1" customWidth="1"/>
     <col min="11017" max="11265" width="9" style="1"/>
     <col min="11266" max="11266" width="12" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.109375" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.375" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="15.5" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.125" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="12.625" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="11.875" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="9.625" style="1" customWidth="1"/>
     <col min="11273" max="11521" width="9" style="1"/>
     <col min="11522" max="11522" width="12" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.109375" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.375" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="15.5" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.125" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="12.625" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="11.875" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="9.625" style="1" customWidth="1"/>
     <col min="11529" max="11777" width="9" style="1"/>
     <col min="11778" max="11778" width="12" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.109375" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.375" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="15.5" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.125" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="12.625" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="11.875" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="9.625" style="1" customWidth="1"/>
     <col min="11785" max="12033" width="9" style="1"/>
     <col min="12034" max="12034" width="12" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="11.33203125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="15.44140625" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.109375" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.375" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="15.5" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.125" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="12.625" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="11.875" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="9.625" style="1" customWidth="1"/>
     <col min="12041" max="12289" width="9" style="1"/>
     <col min="12290" max="12290" width="12" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="11.33203125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="15.44140625" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.109375" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.375" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="15.5" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.125" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="12.625" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="11.875" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="9.625" style="1" customWidth="1"/>
     <col min="12297" max="12545" width="9" style="1"/>
     <col min="12546" max="12546" width="12" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="11.33203125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="15.44140625" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.109375" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.375" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="15.5" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.125" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="12.625" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="11.875" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="9.625" style="1" customWidth="1"/>
     <col min="12553" max="12801" width="9" style="1"/>
     <col min="12802" max="12802" width="12" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="11.33203125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="15.44140625" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.109375" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.375" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="15.5" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.125" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="12.625" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="11.875" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="9.625" style="1" customWidth="1"/>
     <col min="12809" max="13057" width="9" style="1"/>
     <col min="13058" max="13058" width="12" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="11.33203125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="15.44140625" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.109375" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.375" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="15.5" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.125" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="12.625" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="11.875" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="9.625" style="1" customWidth="1"/>
     <col min="13065" max="13313" width="9" style="1"/>
     <col min="13314" max="13314" width="12" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="11.33203125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="15.44140625" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.109375" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.375" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="15.5" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.125" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="12.625" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="11.875" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="9.625" style="1" customWidth="1"/>
     <col min="13321" max="13569" width="9" style="1"/>
     <col min="13570" max="13570" width="12" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="11.33203125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="15.44140625" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.109375" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.375" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="15.5" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.125" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="12.625" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="11.875" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="9.625" style="1" customWidth="1"/>
     <col min="13577" max="13825" width="9" style="1"/>
     <col min="13826" max="13826" width="12" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="11.33203125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="15.44140625" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.109375" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.375" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="15.5" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.125" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="12.625" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="11.875" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="9.625" style="1" customWidth="1"/>
     <col min="13833" max="14081" width="9" style="1"/>
     <col min="14082" max="14082" width="12" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="15.44140625" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.109375" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.375" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="15.5" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.125" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="12.625" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="11.875" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="9.625" style="1" customWidth="1"/>
     <col min="14089" max="14337" width="9" style="1"/>
     <col min="14338" max="14338" width="12" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="15.44140625" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.109375" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.375" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="15.5" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.125" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="12.625" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="11.875" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="9.625" style="1" customWidth="1"/>
     <col min="14345" max="14593" width="9" style="1"/>
     <col min="14594" max="14594" width="12" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="15.44140625" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.109375" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.375" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="15.5" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.125" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="12.625" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="11.875" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="9.625" style="1" customWidth="1"/>
     <col min="14601" max="14849" width="9" style="1"/>
     <col min="14850" max="14850" width="12" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="15.44140625" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.109375" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.375" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="15.5" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.125" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="12.625" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="11.875" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="9.625" style="1" customWidth="1"/>
     <col min="14857" max="15105" width="9" style="1"/>
     <col min="15106" max="15106" width="12" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="15.44140625" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.109375" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.375" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="15.5" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.125" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="12.625" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="11.875" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="9.625" style="1" customWidth="1"/>
     <col min="15113" max="15361" width="9" style="1"/>
     <col min="15362" max="15362" width="12" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="15.44140625" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.109375" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.375" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="15.5" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.125" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="12.625" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="11.875" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="9.625" style="1" customWidth="1"/>
     <col min="15369" max="15617" width="9" style="1"/>
     <col min="15618" max="15618" width="12" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="15.44140625" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.109375" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.375" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="15.5" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.125" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="12.625" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="11.875" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="9.625" style="1" customWidth="1"/>
     <col min="15625" max="15873" width="9" style="1"/>
     <col min="15874" max="15874" width="12" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="15.44140625" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.109375" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.375" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="15.5" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.125" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="12.625" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="11.875" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="9.625" style="1" customWidth="1"/>
     <col min="15881" max="16129" width="9" style="1"/>
     <col min="16130" max="16130" width="12" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="15.44140625" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.109375" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="12.6640625" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="11.88671875" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="9.6640625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.375" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="15.5" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.125" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="12.625" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="11.875" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="9.625" style="1" customWidth="1"/>
     <col min="16137" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-    </row>
-    <row r="2" spans="2:8" ht="16.649999999999999" customHeight="1">
-      <c r="B2" s="136" t="s">
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+    </row>
+    <row r="2" spans="2:8" ht="16.7" customHeight="1">
+      <c r="B2" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138" t="s">
+      <c r="E2" s="152"/>
+      <c r="F2" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="140" t="s">
+      <c r="G2" s="152"/>
+      <c r="H2" s="154" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16.649999999999999" customHeight="1">
-      <c r="B3" s="137"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+    <row r="3" spans="2:8" ht="16.7" customHeight="1">
+      <c r="B3" s="151"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
       <c r="F3" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="141"/>
+      <c r="H3" s="155"/>
     </row>
     <row r="4" spans="2:8" ht="23.25" customHeight="1">
       <c r="B4" s="40"/>
       <c r="C4" s="41"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="22"/>
       <c r="G4" s="42"/>
       <c r="H4" s="43"/>
@@ -5620,8 +5636,8 @@
     <row r="5" spans="2:8" ht="23.25" customHeight="1">
       <c r="B5" s="44"/>
       <c r="C5" s="45"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
@@ -5629,8 +5645,8 @@
     <row r="6" spans="2:8" ht="23.25" customHeight="1">
       <c r="B6" s="44"/>
       <c r="C6" s="45"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="149"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
       <c r="H6" s="49"/>
@@ -5638,8 +5654,8 @@
     <row r="7" spans="2:8" ht="23.25" customHeight="1">
       <c r="B7" s="44"/>
       <c r="C7" s="50"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="51"/>
@@ -5647,8 +5663,8 @@
     <row r="8" spans="2:8" ht="23.25" customHeight="1">
       <c r="B8" s="44"/>
       <c r="C8" s="50"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="51"/>
@@ -5656,8 +5672,8 @@
     <row r="9" spans="2:8" ht="23.25" customHeight="1">
       <c r="B9" s="44"/>
       <c r="C9" s="50"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="51"/>
@@ -5665,8 +5681,8 @@
     <row r="10" spans="2:8" ht="23.25" customHeight="1">
       <c r="B10" s="44"/>
       <c r="C10" s="50"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="51"/>
@@ -5674,8 +5690,8 @@
     <row r="11" spans="2:8" ht="23.25" customHeight="1">
       <c r="B11" s="44"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="51"/>
@@ -5683,8 +5699,8 @@
     <row r="12" spans="2:8" ht="23.25" customHeight="1">
       <c r="B12" s="44"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="51"/>
@@ -5692,8 +5708,8 @@
     <row r="13" spans="2:8" ht="23.25" customHeight="1">
       <c r="B13" s="44"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
       <c r="H13" s="51"/>
@@ -5701,8 +5717,8 @@
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
       <c r="B14" s="44"/>
       <c r="C14" s="50"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="51"/>
@@ -5710,8 +5726,8 @@
     <row r="15" spans="2:8" ht="23.25" customHeight="1">
       <c r="B15" s="44"/>
       <c r="C15" s="50"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="51"/>
@@ -5719,8 +5735,8 @@
     <row r="16" spans="2:8" ht="23.25" customHeight="1">
       <c r="B16" s="44"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="51"/>
@@ -5728,8 +5744,8 @@
     <row r="17" spans="2:8" ht="23.25" customHeight="1">
       <c r="B17" s="44"/>
       <c r="C17" s="50"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="51"/>
@@ -5737,8 +5753,8 @@
     <row r="18" spans="2:8" ht="23.25" customHeight="1">
       <c r="B18" s="44"/>
       <c r="C18" s="50"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="51"/>
@@ -5746,8 +5762,8 @@
     <row r="19" spans="2:8" ht="23.25" customHeight="1">
       <c r="B19" s="44"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="51"/>
@@ -5755,8 +5771,8 @@
     <row r="20" spans="2:8" ht="23.25" customHeight="1">
       <c r="B20" s="44"/>
       <c r="C20" s="50"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="51"/>
@@ -5764,8 +5780,8 @@
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
       <c r="B21" s="44"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="51"/>
@@ -5773,8 +5789,8 @@
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
       <c r="B22" s="44"/>
       <c r="C22" s="50"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="51"/>
@@ -5782,8 +5798,8 @@
     <row r="23" spans="2:8" ht="23.25" customHeight="1">
       <c r="B23" s="44"/>
       <c r="C23" s="50"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="51"/>
@@ -5791,8 +5807,8 @@
     <row r="24" spans="2:8" ht="23.25" customHeight="1">
       <c r="B24" s="44"/>
       <c r="C24" s="50"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="51"/>
@@ -5800,8 +5816,8 @@
     <row r="25" spans="2:8" ht="23.25" customHeight="1">
       <c r="B25" s="44"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="51"/>
@@ -5809,8 +5825,8 @@
     <row r="26" spans="2:8" ht="23.25" customHeight="1">
       <c r="B26" s="44"/>
       <c r="C26" s="50"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="51"/>
@@ -5818,8 +5834,8 @@
     <row r="27" spans="2:8" ht="23.25" customHeight="1">
       <c r="B27" s="44"/>
       <c r="C27" s="50"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="51"/>
@@ -5827,8 +5843,8 @@
     <row r="28" spans="2:8" ht="23.25" customHeight="1">
       <c r="B28" s="44"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="51"/>
@@ -5836,8 +5852,8 @@
     <row r="29" spans="2:8" ht="23.25" customHeight="1">
       <c r="B29" s="44"/>
       <c r="C29" s="50"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="51"/>
@@ -5845,8 +5861,8 @@
     <row r="30" spans="2:8" ht="23.25" customHeight="1">
       <c r="B30" s="44"/>
       <c r="C30" s="50"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="51"/>
@@ -5854,8 +5870,8 @@
     <row r="31" spans="2:8" ht="23.25" customHeight="1">
       <c r="B31" s="44"/>
       <c r="C31" s="50"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
       <c r="H31" s="51"/>
@@ -5863,8 +5879,8 @@
     <row r="32" spans="2:8" ht="23.25" customHeight="1">
       <c r="B32" s="44"/>
       <c r="C32" s="50"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
       <c r="F32" s="46"/>
       <c r="G32" s="46"/>
       <c r="H32" s="51"/>
@@ -5872,8 +5888,8 @@
     <row r="33" spans="2:8" ht="23.25" customHeight="1">
       <c r="B33" s="44"/>
       <c r="C33" s="50"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
       <c r="H33" s="51"/>
@@ -5881,19 +5897,19 @@
     <row r="34" spans="2:8" ht="23.25" customHeight="1">
       <c r="B34" s="52"/>
       <c r="C34" s="53"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
       <c r="H34" s="55"/>
     </row>
     <row r="35" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B35" s="150" t="s">
+      <c r="B35" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
       <c r="F35" s="14">
         <f>SUM(F4:F34)</f>
         <v>0</v>
@@ -5907,6 +5923,28 @@
     <row r="36" spans="2:8" ht="6.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -5923,32 +5961,10 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -5964,1464 +5980,1464 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="35" width="9" style="3" customWidth="1"/>
     <col min="36" max="235" width="9" style="3"/>
-    <col min="236" max="236" width="1.6640625" style="3" customWidth="1"/>
-    <col min="237" max="237" width="1.77734375" style="3" customWidth="1"/>
-    <col min="238" max="238" width="7.33203125" style="3" customWidth="1"/>
-    <col min="239" max="239" width="4.109375" style="3" customWidth="1"/>
-    <col min="240" max="240" width="2.33203125" style="3" customWidth="1"/>
+    <col min="236" max="236" width="1.625" style="3" customWidth="1"/>
+    <col min="237" max="237" width="1.75" style="3" customWidth="1"/>
+    <col min="238" max="238" width="7.375" style="3" customWidth="1"/>
+    <col min="239" max="239" width="4.125" style="3" customWidth="1"/>
+    <col min="240" max="240" width="2.375" style="3" customWidth="1"/>
     <col min="241" max="241" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="2.109375" style="3" customWidth="1"/>
-    <col min="243" max="243" width="2.6640625" style="3" customWidth="1"/>
+    <col min="242" max="242" width="2.125" style="3" customWidth="1"/>
+    <col min="243" max="243" width="2.625" style="3" customWidth="1"/>
     <col min="244" max="244" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="245" max="245" width="9.21875" style="3" customWidth="1"/>
-    <col min="246" max="246" width="12.21875" style="3" customWidth="1"/>
-    <col min="247" max="247" width="9.109375" style="3" customWidth="1"/>
-    <col min="248" max="248" width="3.109375" style="3" customWidth="1"/>
-    <col min="249" max="249" width="5.6640625" style="3" customWidth="1"/>
-    <col min="250" max="250" width="6.44140625" style="3" customWidth="1"/>
+    <col min="245" max="245" width="9.25" style="3" customWidth="1"/>
+    <col min="246" max="246" width="12.25" style="3" customWidth="1"/>
+    <col min="247" max="247" width="9.125" style="3" customWidth="1"/>
+    <col min="248" max="248" width="3.125" style="3" customWidth="1"/>
+    <col min="249" max="249" width="5.625" style="3" customWidth="1"/>
+    <col min="250" max="250" width="6.5" style="3" customWidth="1"/>
     <col min="251" max="251" width="1" style="3" customWidth="1"/>
     <col min="252" max="252" width="3" style="3" customWidth="1"/>
-    <col min="253" max="253" width="7.109375" style="3" customWidth="1"/>
-    <col min="254" max="254" width="2.77734375" style="3" customWidth="1"/>
-    <col min="255" max="255" width="8.6640625" style="3" customWidth="1"/>
+    <col min="253" max="253" width="7.125" style="3" customWidth="1"/>
+    <col min="254" max="254" width="2.75" style="3" customWidth="1"/>
+    <col min="255" max="255" width="8.625" style="3" customWidth="1"/>
     <col min="256" max="266" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="267" max="291" width="9" style="3" customWidth="1"/>
     <col min="292" max="491" width="9" style="3"/>
-    <col min="492" max="492" width="1.6640625" style="3" customWidth="1"/>
-    <col min="493" max="493" width="1.77734375" style="3" customWidth="1"/>
-    <col min="494" max="494" width="7.33203125" style="3" customWidth="1"/>
-    <col min="495" max="495" width="4.109375" style="3" customWidth="1"/>
-    <col min="496" max="496" width="2.33203125" style="3" customWidth="1"/>
+    <col min="492" max="492" width="1.625" style="3" customWidth="1"/>
+    <col min="493" max="493" width="1.75" style="3" customWidth="1"/>
+    <col min="494" max="494" width="7.375" style="3" customWidth="1"/>
+    <col min="495" max="495" width="4.125" style="3" customWidth="1"/>
+    <col min="496" max="496" width="2.375" style="3" customWidth="1"/>
     <col min="497" max="497" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="498" max="498" width="2.109375" style="3" customWidth="1"/>
-    <col min="499" max="499" width="2.6640625" style="3" customWidth="1"/>
+    <col min="498" max="498" width="2.125" style="3" customWidth="1"/>
+    <col min="499" max="499" width="2.625" style="3" customWidth="1"/>
     <col min="500" max="500" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="501" max="501" width="9.21875" style="3" customWidth="1"/>
-    <col min="502" max="502" width="12.21875" style="3" customWidth="1"/>
-    <col min="503" max="503" width="9.109375" style="3" customWidth="1"/>
-    <col min="504" max="504" width="3.109375" style="3" customWidth="1"/>
-    <col min="505" max="505" width="5.6640625" style="3" customWidth="1"/>
-    <col min="506" max="506" width="6.44140625" style="3" customWidth="1"/>
+    <col min="501" max="501" width="9.25" style="3" customWidth="1"/>
+    <col min="502" max="502" width="12.25" style="3" customWidth="1"/>
+    <col min="503" max="503" width="9.125" style="3" customWidth="1"/>
+    <col min="504" max="504" width="3.125" style="3" customWidth="1"/>
+    <col min="505" max="505" width="5.625" style="3" customWidth="1"/>
+    <col min="506" max="506" width="6.5" style="3" customWidth="1"/>
     <col min="507" max="507" width="1" style="3" customWidth="1"/>
     <col min="508" max="508" width="3" style="3" customWidth="1"/>
-    <col min="509" max="509" width="7.109375" style="3" customWidth="1"/>
-    <col min="510" max="510" width="2.77734375" style="3" customWidth="1"/>
-    <col min="511" max="511" width="8.6640625" style="3" customWidth="1"/>
+    <col min="509" max="509" width="7.125" style="3" customWidth="1"/>
+    <col min="510" max="510" width="2.75" style="3" customWidth="1"/>
+    <col min="511" max="511" width="8.625" style="3" customWidth="1"/>
     <col min="512" max="522" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="523" max="547" width="9" style="3" customWidth="1"/>
     <col min="548" max="747" width="9" style="3"/>
-    <col min="748" max="748" width="1.6640625" style="3" customWidth="1"/>
-    <col min="749" max="749" width="1.77734375" style="3" customWidth="1"/>
-    <col min="750" max="750" width="7.33203125" style="3" customWidth="1"/>
-    <col min="751" max="751" width="4.109375" style="3" customWidth="1"/>
-    <col min="752" max="752" width="2.33203125" style="3" customWidth="1"/>
+    <col min="748" max="748" width="1.625" style="3" customWidth="1"/>
+    <col min="749" max="749" width="1.75" style="3" customWidth="1"/>
+    <col min="750" max="750" width="7.375" style="3" customWidth="1"/>
+    <col min="751" max="751" width="4.125" style="3" customWidth="1"/>
+    <col min="752" max="752" width="2.375" style="3" customWidth="1"/>
     <col min="753" max="753" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="754" max="754" width="2.109375" style="3" customWidth="1"/>
-    <col min="755" max="755" width="2.6640625" style="3" customWidth="1"/>
+    <col min="754" max="754" width="2.125" style="3" customWidth="1"/>
+    <col min="755" max="755" width="2.625" style="3" customWidth="1"/>
     <col min="756" max="756" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="757" max="757" width="9.21875" style="3" customWidth="1"/>
-    <col min="758" max="758" width="12.21875" style="3" customWidth="1"/>
-    <col min="759" max="759" width="9.109375" style="3" customWidth="1"/>
-    <col min="760" max="760" width="3.109375" style="3" customWidth="1"/>
-    <col min="761" max="761" width="5.6640625" style="3" customWidth="1"/>
-    <col min="762" max="762" width="6.44140625" style="3" customWidth="1"/>
+    <col min="757" max="757" width="9.25" style="3" customWidth="1"/>
+    <col min="758" max="758" width="12.25" style="3" customWidth="1"/>
+    <col min="759" max="759" width="9.125" style="3" customWidth="1"/>
+    <col min="760" max="760" width="3.125" style="3" customWidth="1"/>
+    <col min="761" max="761" width="5.625" style="3" customWidth="1"/>
+    <col min="762" max="762" width="6.5" style="3" customWidth="1"/>
     <col min="763" max="763" width="1" style="3" customWidth="1"/>
     <col min="764" max="764" width="3" style="3" customWidth="1"/>
-    <col min="765" max="765" width="7.109375" style="3" customWidth="1"/>
-    <col min="766" max="766" width="2.77734375" style="3" customWidth="1"/>
-    <col min="767" max="767" width="8.6640625" style="3" customWidth="1"/>
+    <col min="765" max="765" width="7.125" style="3" customWidth="1"/>
+    <col min="766" max="766" width="2.75" style="3" customWidth="1"/>
+    <col min="767" max="767" width="8.625" style="3" customWidth="1"/>
     <col min="768" max="778" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="779" max="803" width="9" style="3" customWidth="1"/>
     <col min="804" max="1003" width="9" style="3"/>
-    <col min="1004" max="1004" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1005" max="1005" width="1.77734375" style="3" customWidth="1"/>
-    <col min="1006" max="1006" width="7.33203125" style="3" customWidth="1"/>
-    <col min="1007" max="1007" width="4.109375" style="3" customWidth="1"/>
-    <col min="1008" max="1008" width="2.33203125" style="3" customWidth="1"/>
+    <col min="1004" max="1004" width="1.625" style="3" customWidth="1"/>
+    <col min="1005" max="1005" width="1.75" style="3" customWidth="1"/>
+    <col min="1006" max="1006" width="7.375" style="3" customWidth="1"/>
+    <col min="1007" max="1007" width="4.125" style="3" customWidth="1"/>
+    <col min="1008" max="1008" width="2.375" style="3" customWidth="1"/>
     <col min="1009" max="1009" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1010" max="1010" width="2.109375" style="3" customWidth="1"/>
-    <col min="1011" max="1011" width="2.6640625" style="3" customWidth="1"/>
+    <col min="1010" max="1010" width="2.125" style="3" customWidth="1"/>
+    <col min="1011" max="1011" width="2.625" style="3" customWidth="1"/>
     <col min="1012" max="1012" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1013" max="1013" width="9.21875" style="3" customWidth="1"/>
-    <col min="1014" max="1014" width="12.21875" style="3" customWidth="1"/>
-    <col min="1015" max="1015" width="9.109375" style="3" customWidth="1"/>
-    <col min="1016" max="1016" width="3.109375" style="3" customWidth="1"/>
-    <col min="1017" max="1017" width="5.6640625" style="3" customWidth="1"/>
-    <col min="1018" max="1018" width="6.44140625" style="3" customWidth="1"/>
+    <col min="1013" max="1013" width="9.25" style="3" customWidth="1"/>
+    <col min="1014" max="1014" width="12.25" style="3" customWidth="1"/>
+    <col min="1015" max="1015" width="9.125" style="3" customWidth="1"/>
+    <col min="1016" max="1016" width="3.125" style="3" customWidth="1"/>
+    <col min="1017" max="1017" width="5.625" style="3" customWidth="1"/>
+    <col min="1018" max="1018" width="6.5" style="3" customWidth="1"/>
     <col min="1019" max="1019" width="1" style="3" customWidth="1"/>
     <col min="1020" max="1020" width="3" style="3" customWidth="1"/>
-    <col min="1021" max="1021" width="7.109375" style="3" customWidth="1"/>
-    <col min="1022" max="1022" width="2.77734375" style="3" customWidth="1"/>
-    <col min="1023" max="1023" width="8.6640625" style="3" customWidth="1"/>
+    <col min="1021" max="1021" width="7.125" style="3" customWidth="1"/>
+    <col min="1022" max="1022" width="2.75" style="3" customWidth="1"/>
+    <col min="1023" max="1023" width="8.625" style="3" customWidth="1"/>
     <col min="1024" max="1034" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="1035" max="1059" width="9" style="3" customWidth="1"/>
     <col min="1060" max="1259" width="9" style="3"/>
-    <col min="1260" max="1260" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1261" max="1261" width="1.77734375" style="3" customWidth="1"/>
-    <col min="1262" max="1262" width="7.33203125" style="3" customWidth="1"/>
-    <col min="1263" max="1263" width="4.109375" style="3" customWidth="1"/>
-    <col min="1264" max="1264" width="2.33203125" style="3" customWidth="1"/>
+    <col min="1260" max="1260" width="1.625" style="3" customWidth="1"/>
+    <col min="1261" max="1261" width="1.75" style="3" customWidth="1"/>
+    <col min="1262" max="1262" width="7.375" style="3" customWidth="1"/>
+    <col min="1263" max="1263" width="4.125" style="3" customWidth="1"/>
+    <col min="1264" max="1264" width="2.375" style="3" customWidth="1"/>
     <col min="1265" max="1265" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1266" max="1266" width="2.109375" style="3" customWidth="1"/>
-    <col min="1267" max="1267" width="2.6640625" style="3" customWidth="1"/>
+    <col min="1266" max="1266" width="2.125" style="3" customWidth="1"/>
+    <col min="1267" max="1267" width="2.625" style="3" customWidth="1"/>
     <col min="1268" max="1268" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1269" max="1269" width="9.21875" style="3" customWidth="1"/>
-    <col min="1270" max="1270" width="12.21875" style="3" customWidth="1"/>
-    <col min="1271" max="1271" width="9.109375" style="3" customWidth="1"/>
-    <col min="1272" max="1272" width="3.109375" style="3" customWidth="1"/>
-    <col min="1273" max="1273" width="5.6640625" style="3" customWidth="1"/>
-    <col min="1274" max="1274" width="6.44140625" style="3" customWidth="1"/>
+    <col min="1269" max="1269" width="9.25" style="3" customWidth="1"/>
+    <col min="1270" max="1270" width="12.25" style="3" customWidth="1"/>
+    <col min="1271" max="1271" width="9.125" style="3" customWidth="1"/>
+    <col min="1272" max="1272" width="3.125" style="3" customWidth="1"/>
+    <col min="1273" max="1273" width="5.625" style="3" customWidth="1"/>
+    <col min="1274" max="1274" width="6.5" style="3" customWidth="1"/>
     <col min="1275" max="1275" width="1" style="3" customWidth="1"/>
     <col min="1276" max="1276" width="3" style="3" customWidth="1"/>
-    <col min="1277" max="1277" width="7.109375" style="3" customWidth="1"/>
-    <col min="1278" max="1278" width="2.77734375" style="3" customWidth="1"/>
-    <col min="1279" max="1279" width="8.6640625" style="3" customWidth="1"/>
+    <col min="1277" max="1277" width="7.125" style="3" customWidth="1"/>
+    <col min="1278" max="1278" width="2.75" style="3" customWidth="1"/>
+    <col min="1279" max="1279" width="8.625" style="3" customWidth="1"/>
     <col min="1280" max="1290" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="1291" max="1315" width="9" style="3" customWidth="1"/>
     <col min="1316" max="1515" width="9" style="3"/>
-    <col min="1516" max="1516" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1517" max="1517" width="1.77734375" style="3" customWidth="1"/>
-    <col min="1518" max="1518" width="7.33203125" style="3" customWidth="1"/>
-    <col min="1519" max="1519" width="4.109375" style="3" customWidth="1"/>
-    <col min="1520" max="1520" width="2.33203125" style="3" customWidth="1"/>
+    <col min="1516" max="1516" width="1.625" style="3" customWidth="1"/>
+    <col min="1517" max="1517" width="1.75" style="3" customWidth="1"/>
+    <col min="1518" max="1518" width="7.375" style="3" customWidth="1"/>
+    <col min="1519" max="1519" width="4.125" style="3" customWidth="1"/>
+    <col min="1520" max="1520" width="2.375" style="3" customWidth="1"/>
     <col min="1521" max="1521" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1522" max="1522" width="2.109375" style="3" customWidth="1"/>
-    <col min="1523" max="1523" width="2.6640625" style="3" customWidth="1"/>
+    <col min="1522" max="1522" width="2.125" style="3" customWidth="1"/>
+    <col min="1523" max="1523" width="2.625" style="3" customWidth="1"/>
     <col min="1524" max="1524" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1525" max="1525" width="9.21875" style="3" customWidth="1"/>
-    <col min="1526" max="1526" width="12.21875" style="3" customWidth="1"/>
-    <col min="1527" max="1527" width="9.109375" style="3" customWidth="1"/>
-    <col min="1528" max="1528" width="3.109375" style="3" customWidth="1"/>
-    <col min="1529" max="1529" width="5.6640625" style="3" customWidth="1"/>
-    <col min="1530" max="1530" width="6.44140625" style="3" customWidth="1"/>
+    <col min="1525" max="1525" width="9.25" style="3" customWidth="1"/>
+    <col min="1526" max="1526" width="12.25" style="3" customWidth="1"/>
+    <col min="1527" max="1527" width="9.125" style="3" customWidth="1"/>
+    <col min="1528" max="1528" width="3.125" style="3" customWidth="1"/>
+    <col min="1529" max="1529" width="5.625" style="3" customWidth="1"/>
+    <col min="1530" max="1530" width="6.5" style="3" customWidth="1"/>
     <col min="1531" max="1531" width="1" style="3" customWidth="1"/>
     <col min="1532" max="1532" width="3" style="3" customWidth="1"/>
-    <col min="1533" max="1533" width="7.109375" style="3" customWidth="1"/>
-    <col min="1534" max="1534" width="2.77734375" style="3" customWidth="1"/>
-    <col min="1535" max="1535" width="8.6640625" style="3" customWidth="1"/>
+    <col min="1533" max="1533" width="7.125" style="3" customWidth="1"/>
+    <col min="1534" max="1534" width="2.75" style="3" customWidth="1"/>
+    <col min="1535" max="1535" width="8.625" style="3" customWidth="1"/>
     <col min="1536" max="1546" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="1547" max="1571" width="9" style="3" customWidth="1"/>
     <col min="1572" max="1771" width="9" style="3"/>
-    <col min="1772" max="1772" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1773" max="1773" width="1.77734375" style="3" customWidth="1"/>
-    <col min="1774" max="1774" width="7.33203125" style="3" customWidth="1"/>
-    <col min="1775" max="1775" width="4.109375" style="3" customWidth="1"/>
-    <col min="1776" max="1776" width="2.33203125" style="3" customWidth="1"/>
+    <col min="1772" max="1772" width="1.625" style="3" customWidth="1"/>
+    <col min="1773" max="1773" width="1.75" style="3" customWidth="1"/>
+    <col min="1774" max="1774" width="7.375" style="3" customWidth="1"/>
+    <col min="1775" max="1775" width="4.125" style="3" customWidth="1"/>
+    <col min="1776" max="1776" width="2.375" style="3" customWidth="1"/>
     <col min="1777" max="1777" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1778" max="1778" width="2.109375" style="3" customWidth="1"/>
-    <col min="1779" max="1779" width="2.6640625" style="3" customWidth="1"/>
+    <col min="1778" max="1778" width="2.125" style="3" customWidth="1"/>
+    <col min="1779" max="1779" width="2.625" style="3" customWidth="1"/>
     <col min="1780" max="1780" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="1781" max="1781" width="9.21875" style="3" customWidth="1"/>
-    <col min="1782" max="1782" width="12.21875" style="3" customWidth="1"/>
-    <col min="1783" max="1783" width="9.109375" style="3" customWidth="1"/>
-    <col min="1784" max="1784" width="3.109375" style="3" customWidth="1"/>
-    <col min="1785" max="1785" width="5.6640625" style="3" customWidth="1"/>
-    <col min="1786" max="1786" width="6.44140625" style="3" customWidth="1"/>
+    <col min="1781" max="1781" width="9.25" style="3" customWidth="1"/>
+    <col min="1782" max="1782" width="12.25" style="3" customWidth="1"/>
+    <col min="1783" max="1783" width="9.125" style="3" customWidth="1"/>
+    <col min="1784" max="1784" width="3.125" style="3" customWidth="1"/>
+    <col min="1785" max="1785" width="5.625" style="3" customWidth="1"/>
+    <col min="1786" max="1786" width="6.5" style="3" customWidth="1"/>
     <col min="1787" max="1787" width="1" style="3" customWidth="1"/>
     <col min="1788" max="1788" width="3" style="3" customWidth="1"/>
-    <col min="1789" max="1789" width="7.109375" style="3" customWidth="1"/>
-    <col min="1790" max="1790" width="2.77734375" style="3" customWidth="1"/>
-    <col min="1791" max="1791" width="8.6640625" style="3" customWidth="1"/>
+    <col min="1789" max="1789" width="7.125" style="3" customWidth="1"/>
+    <col min="1790" max="1790" width="2.75" style="3" customWidth="1"/>
+    <col min="1791" max="1791" width="8.625" style="3" customWidth="1"/>
     <col min="1792" max="1802" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="1803" max="1827" width="9" style="3" customWidth="1"/>
     <col min="1828" max="2027" width="9" style="3"/>
-    <col min="2028" max="2028" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2029" max="2029" width="1.77734375" style="3" customWidth="1"/>
-    <col min="2030" max="2030" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2031" max="2031" width="4.109375" style="3" customWidth="1"/>
-    <col min="2032" max="2032" width="2.33203125" style="3" customWidth="1"/>
+    <col min="2028" max="2028" width="1.625" style="3" customWidth="1"/>
+    <col min="2029" max="2029" width="1.75" style="3" customWidth="1"/>
+    <col min="2030" max="2030" width="7.375" style="3" customWidth="1"/>
+    <col min="2031" max="2031" width="4.125" style="3" customWidth="1"/>
+    <col min="2032" max="2032" width="2.375" style="3" customWidth="1"/>
     <col min="2033" max="2033" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2034" max="2034" width="2.109375" style="3" customWidth="1"/>
-    <col min="2035" max="2035" width="2.6640625" style="3" customWidth="1"/>
+    <col min="2034" max="2034" width="2.125" style="3" customWidth="1"/>
+    <col min="2035" max="2035" width="2.625" style="3" customWidth="1"/>
     <col min="2036" max="2036" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2037" max="2037" width="9.21875" style="3" customWidth="1"/>
-    <col min="2038" max="2038" width="12.21875" style="3" customWidth="1"/>
-    <col min="2039" max="2039" width="9.109375" style="3" customWidth="1"/>
-    <col min="2040" max="2040" width="3.109375" style="3" customWidth="1"/>
-    <col min="2041" max="2041" width="5.6640625" style="3" customWidth="1"/>
-    <col min="2042" max="2042" width="6.44140625" style="3" customWidth="1"/>
+    <col min="2037" max="2037" width="9.25" style="3" customWidth="1"/>
+    <col min="2038" max="2038" width="12.25" style="3" customWidth="1"/>
+    <col min="2039" max="2039" width="9.125" style="3" customWidth="1"/>
+    <col min="2040" max="2040" width="3.125" style="3" customWidth="1"/>
+    <col min="2041" max="2041" width="5.625" style="3" customWidth="1"/>
+    <col min="2042" max="2042" width="6.5" style="3" customWidth="1"/>
     <col min="2043" max="2043" width="1" style="3" customWidth="1"/>
     <col min="2044" max="2044" width="3" style="3" customWidth="1"/>
-    <col min="2045" max="2045" width="7.109375" style="3" customWidth="1"/>
-    <col min="2046" max="2046" width="2.77734375" style="3" customWidth="1"/>
-    <col min="2047" max="2047" width="8.6640625" style="3" customWidth="1"/>
+    <col min="2045" max="2045" width="7.125" style="3" customWidth="1"/>
+    <col min="2046" max="2046" width="2.75" style="3" customWidth="1"/>
+    <col min="2047" max="2047" width="8.625" style="3" customWidth="1"/>
     <col min="2048" max="2058" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="2059" max="2083" width="9" style="3" customWidth="1"/>
     <col min="2084" max="2283" width="9" style="3"/>
-    <col min="2284" max="2284" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2285" max="2285" width="1.77734375" style="3" customWidth="1"/>
-    <col min="2286" max="2286" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2287" max="2287" width="4.109375" style="3" customWidth="1"/>
-    <col min="2288" max="2288" width="2.33203125" style="3" customWidth="1"/>
+    <col min="2284" max="2284" width="1.625" style="3" customWidth="1"/>
+    <col min="2285" max="2285" width="1.75" style="3" customWidth="1"/>
+    <col min="2286" max="2286" width="7.375" style="3" customWidth="1"/>
+    <col min="2287" max="2287" width="4.125" style="3" customWidth="1"/>
+    <col min="2288" max="2288" width="2.375" style="3" customWidth="1"/>
     <col min="2289" max="2289" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2290" max="2290" width="2.109375" style="3" customWidth="1"/>
-    <col min="2291" max="2291" width="2.6640625" style="3" customWidth="1"/>
+    <col min="2290" max="2290" width="2.125" style="3" customWidth="1"/>
+    <col min="2291" max="2291" width="2.625" style="3" customWidth="1"/>
     <col min="2292" max="2292" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2293" max="2293" width="9.21875" style="3" customWidth="1"/>
-    <col min="2294" max="2294" width="12.21875" style="3" customWidth="1"/>
-    <col min="2295" max="2295" width="9.109375" style="3" customWidth="1"/>
-    <col min="2296" max="2296" width="3.109375" style="3" customWidth="1"/>
-    <col min="2297" max="2297" width="5.6640625" style="3" customWidth="1"/>
-    <col min="2298" max="2298" width="6.44140625" style="3" customWidth="1"/>
+    <col min="2293" max="2293" width="9.25" style="3" customWidth="1"/>
+    <col min="2294" max="2294" width="12.25" style="3" customWidth="1"/>
+    <col min="2295" max="2295" width="9.125" style="3" customWidth="1"/>
+    <col min="2296" max="2296" width="3.125" style="3" customWidth="1"/>
+    <col min="2297" max="2297" width="5.625" style="3" customWidth="1"/>
+    <col min="2298" max="2298" width="6.5" style="3" customWidth="1"/>
     <col min="2299" max="2299" width="1" style="3" customWidth="1"/>
     <col min="2300" max="2300" width="3" style="3" customWidth="1"/>
-    <col min="2301" max="2301" width="7.109375" style="3" customWidth="1"/>
-    <col min="2302" max="2302" width="2.77734375" style="3" customWidth="1"/>
-    <col min="2303" max="2303" width="8.6640625" style="3" customWidth="1"/>
+    <col min="2301" max="2301" width="7.125" style="3" customWidth="1"/>
+    <col min="2302" max="2302" width="2.75" style="3" customWidth="1"/>
+    <col min="2303" max="2303" width="8.625" style="3" customWidth="1"/>
     <col min="2304" max="2314" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="2315" max="2339" width="9" style="3" customWidth="1"/>
     <col min="2340" max="2539" width="9" style="3"/>
-    <col min="2540" max="2540" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2541" max="2541" width="1.77734375" style="3" customWidth="1"/>
-    <col min="2542" max="2542" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2543" max="2543" width="4.109375" style="3" customWidth="1"/>
-    <col min="2544" max="2544" width="2.33203125" style="3" customWidth="1"/>
+    <col min="2540" max="2540" width="1.625" style="3" customWidth="1"/>
+    <col min="2541" max="2541" width="1.75" style="3" customWidth="1"/>
+    <col min="2542" max="2542" width="7.375" style="3" customWidth="1"/>
+    <col min="2543" max="2543" width="4.125" style="3" customWidth="1"/>
+    <col min="2544" max="2544" width="2.375" style="3" customWidth="1"/>
     <col min="2545" max="2545" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2546" max="2546" width="2.109375" style="3" customWidth="1"/>
-    <col min="2547" max="2547" width="2.6640625" style="3" customWidth="1"/>
+    <col min="2546" max="2546" width="2.125" style="3" customWidth="1"/>
+    <col min="2547" max="2547" width="2.625" style="3" customWidth="1"/>
     <col min="2548" max="2548" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2549" max="2549" width="9.21875" style="3" customWidth="1"/>
-    <col min="2550" max="2550" width="12.21875" style="3" customWidth="1"/>
-    <col min="2551" max="2551" width="9.109375" style="3" customWidth="1"/>
-    <col min="2552" max="2552" width="3.109375" style="3" customWidth="1"/>
-    <col min="2553" max="2553" width="5.6640625" style="3" customWidth="1"/>
-    <col min="2554" max="2554" width="6.44140625" style="3" customWidth="1"/>
+    <col min="2549" max="2549" width="9.25" style="3" customWidth="1"/>
+    <col min="2550" max="2550" width="12.25" style="3" customWidth="1"/>
+    <col min="2551" max="2551" width="9.125" style="3" customWidth="1"/>
+    <col min="2552" max="2552" width="3.125" style="3" customWidth="1"/>
+    <col min="2553" max="2553" width="5.625" style="3" customWidth="1"/>
+    <col min="2554" max="2554" width="6.5" style="3" customWidth="1"/>
     <col min="2555" max="2555" width="1" style="3" customWidth="1"/>
     <col min="2556" max="2556" width="3" style="3" customWidth="1"/>
-    <col min="2557" max="2557" width="7.109375" style="3" customWidth="1"/>
-    <col min="2558" max="2558" width="2.77734375" style="3" customWidth="1"/>
-    <col min="2559" max="2559" width="8.6640625" style="3" customWidth="1"/>
+    <col min="2557" max="2557" width="7.125" style="3" customWidth="1"/>
+    <col min="2558" max="2558" width="2.75" style="3" customWidth="1"/>
+    <col min="2559" max="2559" width="8.625" style="3" customWidth="1"/>
     <col min="2560" max="2570" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="2571" max="2595" width="9" style="3" customWidth="1"/>
     <col min="2596" max="2795" width="9" style="3"/>
-    <col min="2796" max="2796" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2797" max="2797" width="1.77734375" style="3" customWidth="1"/>
-    <col min="2798" max="2798" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2799" max="2799" width="4.109375" style="3" customWidth="1"/>
-    <col min="2800" max="2800" width="2.33203125" style="3" customWidth="1"/>
+    <col min="2796" max="2796" width="1.625" style="3" customWidth="1"/>
+    <col min="2797" max="2797" width="1.75" style="3" customWidth="1"/>
+    <col min="2798" max="2798" width="7.375" style="3" customWidth="1"/>
+    <col min="2799" max="2799" width="4.125" style="3" customWidth="1"/>
+    <col min="2800" max="2800" width="2.375" style="3" customWidth="1"/>
     <col min="2801" max="2801" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2802" max="2802" width="2.109375" style="3" customWidth="1"/>
-    <col min="2803" max="2803" width="2.6640625" style="3" customWidth="1"/>
+    <col min="2802" max="2802" width="2.125" style="3" customWidth="1"/>
+    <col min="2803" max="2803" width="2.625" style="3" customWidth="1"/>
     <col min="2804" max="2804" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2805" max="2805" width="9.21875" style="3" customWidth="1"/>
-    <col min="2806" max="2806" width="12.21875" style="3" customWidth="1"/>
-    <col min="2807" max="2807" width="9.109375" style="3" customWidth="1"/>
-    <col min="2808" max="2808" width="3.109375" style="3" customWidth="1"/>
-    <col min="2809" max="2809" width="5.6640625" style="3" customWidth="1"/>
-    <col min="2810" max="2810" width="6.44140625" style="3" customWidth="1"/>
+    <col min="2805" max="2805" width="9.25" style="3" customWidth="1"/>
+    <col min="2806" max="2806" width="12.25" style="3" customWidth="1"/>
+    <col min="2807" max="2807" width="9.125" style="3" customWidth="1"/>
+    <col min="2808" max="2808" width="3.125" style="3" customWidth="1"/>
+    <col min="2809" max="2809" width="5.625" style="3" customWidth="1"/>
+    <col min="2810" max="2810" width="6.5" style="3" customWidth="1"/>
     <col min="2811" max="2811" width="1" style="3" customWidth="1"/>
     <col min="2812" max="2812" width="3" style="3" customWidth="1"/>
-    <col min="2813" max="2813" width="7.109375" style="3" customWidth="1"/>
-    <col min="2814" max="2814" width="2.77734375" style="3" customWidth="1"/>
-    <col min="2815" max="2815" width="8.6640625" style="3" customWidth="1"/>
+    <col min="2813" max="2813" width="7.125" style="3" customWidth="1"/>
+    <col min="2814" max="2814" width="2.75" style="3" customWidth="1"/>
+    <col min="2815" max="2815" width="8.625" style="3" customWidth="1"/>
     <col min="2816" max="2826" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="2827" max="2851" width="9" style="3" customWidth="1"/>
     <col min="2852" max="3051" width="9" style="3"/>
-    <col min="3052" max="3052" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3053" max="3053" width="1.77734375" style="3" customWidth="1"/>
-    <col min="3054" max="3054" width="7.33203125" style="3" customWidth="1"/>
-    <col min="3055" max="3055" width="4.109375" style="3" customWidth="1"/>
-    <col min="3056" max="3056" width="2.33203125" style="3" customWidth="1"/>
+    <col min="3052" max="3052" width="1.625" style="3" customWidth="1"/>
+    <col min="3053" max="3053" width="1.75" style="3" customWidth="1"/>
+    <col min="3054" max="3054" width="7.375" style="3" customWidth="1"/>
+    <col min="3055" max="3055" width="4.125" style="3" customWidth="1"/>
+    <col min="3056" max="3056" width="2.375" style="3" customWidth="1"/>
     <col min="3057" max="3057" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3058" max="3058" width="2.109375" style="3" customWidth="1"/>
-    <col min="3059" max="3059" width="2.6640625" style="3" customWidth="1"/>
+    <col min="3058" max="3058" width="2.125" style="3" customWidth="1"/>
+    <col min="3059" max="3059" width="2.625" style="3" customWidth="1"/>
     <col min="3060" max="3060" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3061" max="3061" width="9.21875" style="3" customWidth="1"/>
-    <col min="3062" max="3062" width="12.21875" style="3" customWidth="1"/>
-    <col min="3063" max="3063" width="9.109375" style="3" customWidth="1"/>
-    <col min="3064" max="3064" width="3.109375" style="3" customWidth="1"/>
-    <col min="3065" max="3065" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3066" max="3066" width="6.44140625" style="3" customWidth="1"/>
+    <col min="3061" max="3061" width="9.25" style="3" customWidth="1"/>
+    <col min="3062" max="3062" width="12.25" style="3" customWidth="1"/>
+    <col min="3063" max="3063" width="9.125" style="3" customWidth="1"/>
+    <col min="3064" max="3064" width="3.125" style="3" customWidth="1"/>
+    <col min="3065" max="3065" width="5.625" style="3" customWidth="1"/>
+    <col min="3066" max="3066" width="6.5" style="3" customWidth="1"/>
     <col min="3067" max="3067" width="1" style="3" customWidth="1"/>
     <col min="3068" max="3068" width="3" style="3" customWidth="1"/>
-    <col min="3069" max="3069" width="7.109375" style="3" customWidth="1"/>
-    <col min="3070" max="3070" width="2.77734375" style="3" customWidth="1"/>
-    <col min="3071" max="3071" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3069" max="3069" width="7.125" style="3" customWidth="1"/>
+    <col min="3070" max="3070" width="2.75" style="3" customWidth="1"/>
+    <col min="3071" max="3071" width="8.625" style="3" customWidth="1"/>
     <col min="3072" max="3082" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="3083" max="3107" width="9" style="3" customWidth="1"/>
     <col min="3108" max="3307" width="9" style="3"/>
-    <col min="3308" max="3308" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3309" max="3309" width="1.77734375" style="3" customWidth="1"/>
-    <col min="3310" max="3310" width="7.33203125" style="3" customWidth="1"/>
-    <col min="3311" max="3311" width="4.109375" style="3" customWidth="1"/>
-    <col min="3312" max="3312" width="2.33203125" style="3" customWidth="1"/>
+    <col min="3308" max="3308" width="1.625" style="3" customWidth="1"/>
+    <col min="3309" max="3309" width="1.75" style="3" customWidth="1"/>
+    <col min="3310" max="3310" width="7.375" style="3" customWidth="1"/>
+    <col min="3311" max="3311" width="4.125" style="3" customWidth="1"/>
+    <col min="3312" max="3312" width="2.375" style="3" customWidth="1"/>
     <col min="3313" max="3313" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3314" max="3314" width="2.109375" style="3" customWidth="1"/>
-    <col min="3315" max="3315" width="2.6640625" style="3" customWidth="1"/>
+    <col min="3314" max="3314" width="2.125" style="3" customWidth="1"/>
+    <col min="3315" max="3315" width="2.625" style="3" customWidth="1"/>
     <col min="3316" max="3316" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3317" max="3317" width="9.21875" style="3" customWidth="1"/>
-    <col min="3318" max="3318" width="12.21875" style="3" customWidth="1"/>
-    <col min="3319" max="3319" width="9.109375" style="3" customWidth="1"/>
-    <col min="3320" max="3320" width="3.109375" style="3" customWidth="1"/>
-    <col min="3321" max="3321" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3322" max="3322" width="6.44140625" style="3" customWidth="1"/>
+    <col min="3317" max="3317" width="9.25" style="3" customWidth="1"/>
+    <col min="3318" max="3318" width="12.25" style="3" customWidth="1"/>
+    <col min="3319" max="3319" width="9.125" style="3" customWidth="1"/>
+    <col min="3320" max="3320" width="3.125" style="3" customWidth="1"/>
+    <col min="3321" max="3321" width="5.625" style="3" customWidth="1"/>
+    <col min="3322" max="3322" width="6.5" style="3" customWidth="1"/>
     <col min="3323" max="3323" width="1" style="3" customWidth="1"/>
     <col min="3324" max="3324" width="3" style="3" customWidth="1"/>
-    <col min="3325" max="3325" width="7.109375" style="3" customWidth="1"/>
-    <col min="3326" max="3326" width="2.77734375" style="3" customWidth="1"/>
-    <col min="3327" max="3327" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3325" max="3325" width="7.125" style="3" customWidth="1"/>
+    <col min="3326" max="3326" width="2.75" style="3" customWidth="1"/>
+    <col min="3327" max="3327" width="8.625" style="3" customWidth="1"/>
     <col min="3328" max="3338" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="3339" max="3363" width="9" style="3" customWidth="1"/>
     <col min="3364" max="3563" width="9" style="3"/>
-    <col min="3564" max="3564" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3565" max="3565" width="1.77734375" style="3" customWidth="1"/>
-    <col min="3566" max="3566" width="7.33203125" style="3" customWidth="1"/>
-    <col min="3567" max="3567" width="4.109375" style="3" customWidth="1"/>
-    <col min="3568" max="3568" width="2.33203125" style="3" customWidth="1"/>
+    <col min="3564" max="3564" width="1.625" style="3" customWidth="1"/>
+    <col min="3565" max="3565" width="1.75" style="3" customWidth="1"/>
+    <col min="3566" max="3566" width="7.375" style="3" customWidth="1"/>
+    <col min="3567" max="3567" width="4.125" style="3" customWidth="1"/>
+    <col min="3568" max="3568" width="2.375" style="3" customWidth="1"/>
     <col min="3569" max="3569" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3570" max="3570" width="2.109375" style="3" customWidth="1"/>
-    <col min="3571" max="3571" width="2.6640625" style="3" customWidth="1"/>
+    <col min="3570" max="3570" width="2.125" style="3" customWidth="1"/>
+    <col min="3571" max="3571" width="2.625" style="3" customWidth="1"/>
     <col min="3572" max="3572" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3573" max="3573" width="9.21875" style="3" customWidth="1"/>
-    <col min="3574" max="3574" width="12.21875" style="3" customWidth="1"/>
-    <col min="3575" max="3575" width="9.109375" style="3" customWidth="1"/>
-    <col min="3576" max="3576" width="3.109375" style="3" customWidth="1"/>
-    <col min="3577" max="3577" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3578" max="3578" width="6.44140625" style="3" customWidth="1"/>
+    <col min="3573" max="3573" width="9.25" style="3" customWidth="1"/>
+    <col min="3574" max="3574" width="12.25" style="3" customWidth="1"/>
+    <col min="3575" max="3575" width="9.125" style="3" customWidth="1"/>
+    <col min="3576" max="3576" width="3.125" style="3" customWidth="1"/>
+    <col min="3577" max="3577" width="5.625" style="3" customWidth="1"/>
+    <col min="3578" max="3578" width="6.5" style="3" customWidth="1"/>
     <col min="3579" max="3579" width="1" style="3" customWidth="1"/>
     <col min="3580" max="3580" width="3" style="3" customWidth="1"/>
-    <col min="3581" max="3581" width="7.109375" style="3" customWidth="1"/>
-    <col min="3582" max="3582" width="2.77734375" style="3" customWidth="1"/>
-    <col min="3583" max="3583" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3581" max="3581" width="7.125" style="3" customWidth="1"/>
+    <col min="3582" max="3582" width="2.75" style="3" customWidth="1"/>
+    <col min="3583" max="3583" width="8.625" style="3" customWidth="1"/>
     <col min="3584" max="3594" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="3595" max="3619" width="9" style="3" customWidth="1"/>
     <col min="3620" max="3819" width="9" style="3"/>
-    <col min="3820" max="3820" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3821" max="3821" width="1.77734375" style="3" customWidth="1"/>
-    <col min="3822" max="3822" width="7.33203125" style="3" customWidth="1"/>
-    <col min="3823" max="3823" width="4.109375" style="3" customWidth="1"/>
-    <col min="3824" max="3824" width="2.33203125" style="3" customWidth="1"/>
+    <col min="3820" max="3820" width="1.625" style="3" customWidth="1"/>
+    <col min="3821" max="3821" width="1.75" style="3" customWidth="1"/>
+    <col min="3822" max="3822" width="7.375" style="3" customWidth="1"/>
+    <col min="3823" max="3823" width="4.125" style="3" customWidth="1"/>
+    <col min="3824" max="3824" width="2.375" style="3" customWidth="1"/>
     <col min="3825" max="3825" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3826" max="3826" width="2.109375" style="3" customWidth="1"/>
-    <col min="3827" max="3827" width="2.6640625" style="3" customWidth="1"/>
+    <col min="3826" max="3826" width="2.125" style="3" customWidth="1"/>
+    <col min="3827" max="3827" width="2.625" style="3" customWidth="1"/>
     <col min="3828" max="3828" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="3829" max="3829" width="9.21875" style="3" customWidth="1"/>
-    <col min="3830" max="3830" width="12.21875" style="3" customWidth="1"/>
-    <col min="3831" max="3831" width="9.109375" style="3" customWidth="1"/>
-    <col min="3832" max="3832" width="3.109375" style="3" customWidth="1"/>
-    <col min="3833" max="3833" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3834" max="3834" width="6.44140625" style="3" customWidth="1"/>
+    <col min="3829" max="3829" width="9.25" style="3" customWidth="1"/>
+    <col min="3830" max="3830" width="12.25" style="3" customWidth="1"/>
+    <col min="3831" max="3831" width="9.125" style="3" customWidth="1"/>
+    <col min="3832" max="3832" width="3.125" style="3" customWidth="1"/>
+    <col min="3833" max="3833" width="5.625" style="3" customWidth="1"/>
+    <col min="3834" max="3834" width="6.5" style="3" customWidth="1"/>
     <col min="3835" max="3835" width="1" style="3" customWidth="1"/>
     <col min="3836" max="3836" width="3" style="3" customWidth="1"/>
-    <col min="3837" max="3837" width="7.109375" style="3" customWidth="1"/>
-    <col min="3838" max="3838" width="2.77734375" style="3" customWidth="1"/>
-    <col min="3839" max="3839" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3837" max="3837" width="7.125" style="3" customWidth="1"/>
+    <col min="3838" max="3838" width="2.75" style="3" customWidth="1"/>
+    <col min="3839" max="3839" width="8.625" style="3" customWidth="1"/>
     <col min="3840" max="3850" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="3851" max="3875" width="9" style="3" customWidth="1"/>
     <col min="3876" max="4075" width="9" style="3"/>
-    <col min="4076" max="4076" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4077" max="4077" width="1.77734375" style="3" customWidth="1"/>
-    <col min="4078" max="4078" width="7.33203125" style="3" customWidth="1"/>
-    <col min="4079" max="4079" width="4.109375" style="3" customWidth="1"/>
-    <col min="4080" max="4080" width="2.33203125" style="3" customWidth="1"/>
+    <col min="4076" max="4076" width="1.625" style="3" customWidth="1"/>
+    <col min="4077" max="4077" width="1.75" style="3" customWidth="1"/>
+    <col min="4078" max="4078" width="7.375" style="3" customWidth="1"/>
+    <col min="4079" max="4079" width="4.125" style="3" customWidth="1"/>
+    <col min="4080" max="4080" width="2.375" style="3" customWidth="1"/>
     <col min="4081" max="4081" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4082" max="4082" width="2.109375" style="3" customWidth="1"/>
-    <col min="4083" max="4083" width="2.6640625" style="3" customWidth="1"/>
+    <col min="4082" max="4082" width="2.125" style="3" customWidth="1"/>
+    <col min="4083" max="4083" width="2.625" style="3" customWidth="1"/>
     <col min="4084" max="4084" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4085" max="4085" width="9.21875" style="3" customWidth="1"/>
-    <col min="4086" max="4086" width="12.21875" style="3" customWidth="1"/>
-    <col min="4087" max="4087" width="9.109375" style="3" customWidth="1"/>
-    <col min="4088" max="4088" width="3.109375" style="3" customWidth="1"/>
-    <col min="4089" max="4089" width="5.6640625" style="3" customWidth="1"/>
-    <col min="4090" max="4090" width="6.44140625" style="3" customWidth="1"/>
+    <col min="4085" max="4085" width="9.25" style="3" customWidth="1"/>
+    <col min="4086" max="4086" width="12.25" style="3" customWidth="1"/>
+    <col min="4087" max="4087" width="9.125" style="3" customWidth="1"/>
+    <col min="4088" max="4088" width="3.125" style="3" customWidth="1"/>
+    <col min="4089" max="4089" width="5.625" style="3" customWidth="1"/>
+    <col min="4090" max="4090" width="6.5" style="3" customWidth="1"/>
     <col min="4091" max="4091" width="1" style="3" customWidth="1"/>
     <col min="4092" max="4092" width="3" style="3" customWidth="1"/>
-    <col min="4093" max="4093" width="7.109375" style="3" customWidth="1"/>
-    <col min="4094" max="4094" width="2.77734375" style="3" customWidth="1"/>
-    <col min="4095" max="4095" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4093" max="4093" width="7.125" style="3" customWidth="1"/>
+    <col min="4094" max="4094" width="2.75" style="3" customWidth="1"/>
+    <col min="4095" max="4095" width="8.625" style="3" customWidth="1"/>
     <col min="4096" max="4106" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="4107" max="4131" width="9" style="3" customWidth="1"/>
     <col min="4132" max="4331" width="9" style="3"/>
-    <col min="4332" max="4332" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4333" max="4333" width="1.77734375" style="3" customWidth="1"/>
-    <col min="4334" max="4334" width="7.33203125" style="3" customWidth="1"/>
-    <col min="4335" max="4335" width="4.109375" style="3" customWidth="1"/>
-    <col min="4336" max="4336" width="2.33203125" style="3" customWidth="1"/>
+    <col min="4332" max="4332" width="1.625" style="3" customWidth="1"/>
+    <col min="4333" max="4333" width="1.75" style="3" customWidth="1"/>
+    <col min="4334" max="4334" width="7.375" style="3" customWidth="1"/>
+    <col min="4335" max="4335" width="4.125" style="3" customWidth="1"/>
+    <col min="4336" max="4336" width="2.375" style="3" customWidth="1"/>
     <col min="4337" max="4337" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4338" max="4338" width="2.109375" style="3" customWidth="1"/>
-    <col min="4339" max="4339" width="2.6640625" style="3" customWidth="1"/>
+    <col min="4338" max="4338" width="2.125" style="3" customWidth="1"/>
+    <col min="4339" max="4339" width="2.625" style="3" customWidth="1"/>
     <col min="4340" max="4340" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4341" max="4341" width="9.21875" style="3" customWidth="1"/>
-    <col min="4342" max="4342" width="12.21875" style="3" customWidth="1"/>
-    <col min="4343" max="4343" width="9.109375" style="3" customWidth="1"/>
-    <col min="4344" max="4344" width="3.109375" style="3" customWidth="1"/>
-    <col min="4345" max="4345" width="5.6640625" style="3" customWidth="1"/>
-    <col min="4346" max="4346" width="6.44140625" style="3" customWidth="1"/>
+    <col min="4341" max="4341" width="9.25" style="3" customWidth="1"/>
+    <col min="4342" max="4342" width="12.25" style="3" customWidth="1"/>
+    <col min="4343" max="4343" width="9.125" style="3" customWidth="1"/>
+    <col min="4344" max="4344" width="3.125" style="3" customWidth="1"/>
+    <col min="4345" max="4345" width="5.625" style="3" customWidth="1"/>
+    <col min="4346" max="4346" width="6.5" style="3" customWidth="1"/>
     <col min="4347" max="4347" width="1" style="3" customWidth="1"/>
     <col min="4348" max="4348" width="3" style="3" customWidth="1"/>
-    <col min="4349" max="4349" width="7.109375" style="3" customWidth="1"/>
-    <col min="4350" max="4350" width="2.77734375" style="3" customWidth="1"/>
-    <col min="4351" max="4351" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4349" max="4349" width="7.125" style="3" customWidth="1"/>
+    <col min="4350" max="4350" width="2.75" style="3" customWidth="1"/>
+    <col min="4351" max="4351" width="8.625" style="3" customWidth="1"/>
     <col min="4352" max="4362" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="4363" max="4387" width="9" style="3" customWidth="1"/>
     <col min="4388" max="4587" width="9" style="3"/>
-    <col min="4588" max="4588" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4589" max="4589" width="1.77734375" style="3" customWidth="1"/>
-    <col min="4590" max="4590" width="7.33203125" style="3" customWidth="1"/>
-    <col min="4591" max="4591" width="4.109375" style="3" customWidth="1"/>
-    <col min="4592" max="4592" width="2.33203125" style="3" customWidth="1"/>
+    <col min="4588" max="4588" width="1.625" style="3" customWidth="1"/>
+    <col min="4589" max="4589" width="1.75" style="3" customWidth="1"/>
+    <col min="4590" max="4590" width="7.375" style="3" customWidth="1"/>
+    <col min="4591" max="4591" width="4.125" style="3" customWidth="1"/>
+    <col min="4592" max="4592" width="2.375" style="3" customWidth="1"/>
     <col min="4593" max="4593" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4594" max="4594" width="2.109375" style="3" customWidth="1"/>
-    <col min="4595" max="4595" width="2.6640625" style="3" customWidth="1"/>
+    <col min="4594" max="4594" width="2.125" style="3" customWidth="1"/>
+    <col min="4595" max="4595" width="2.625" style="3" customWidth="1"/>
     <col min="4596" max="4596" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4597" max="4597" width="9.21875" style="3" customWidth="1"/>
-    <col min="4598" max="4598" width="12.21875" style="3" customWidth="1"/>
-    <col min="4599" max="4599" width="9.109375" style="3" customWidth="1"/>
-    <col min="4600" max="4600" width="3.109375" style="3" customWidth="1"/>
-    <col min="4601" max="4601" width="5.6640625" style="3" customWidth="1"/>
-    <col min="4602" max="4602" width="6.44140625" style="3" customWidth="1"/>
+    <col min="4597" max="4597" width="9.25" style="3" customWidth="1"/>
+    <col min="4598" max="4598" width="12.25" style="3" customWidth="1"/>
+    <col min="4599" max="4599" width="9.125" style="3" customWidth="1"/>
+    <col min="4600" max="4600" width="3.125" style="3" customWidth="1"/>
+    <col min="4601" max="4601" width="5.625" style="3" customWidth="1"/>
+    <col min="4602" max="4602" width="6.5" style="3" customWidth="1"/>
     <col min="4603" max="4603" width="1" style="3" customWidth="1"/>
     <col min="4604" max="4604" width="3" style="3" customWidth="1"/>
-    <col min="4605" max="4605" width="7.109375" style="3" customWidth="1"/>
-    <col min="4606" max="4606" width="2.77734375" style="3" customWidth="1"/>
-    <col min="4607" max="4607" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4605" max="4605" width="7.125" style="3" customWidth="1"/>
+    <col min="4606" max="4606" width="2.75" style="3" customWidth="1"/>
+    <col min="4607" max="4607" width="8.625" style="3" customWidth="1"/>
     <col min="4608" max="4618" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="4619" max="4643" width="9" style="3" customWidth="1"/>
     <col min="4644" max="4843" width="9" style="3"/>
-    <col min="4844" max="4844" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4845" max="4845" width="1.77734375" style="3" customWidth="1"/>
-    <col min="4846" max="4846" width="7.33203125" style="3" customWidth="1"/>
-    <col min="4847" max="4847" width="4.109375" style="3" customWidth="1"/>
-    <col min="4848" max="4848" width="2.33203125" style="3" customWidth="1"/>
+    <col min="4844" max="4844" width="1.625" style="3" customWidth="1"/>
+    <col min="4845" max="4845" width="1.75" style="3" customWidth="1"/>
+    <col min="4846" max="4846" width="7.375" style="3" customWidth="1"/>
+    <col min="4847" max="4847" width="4.125" style="3" customWidth="1"/>
+    <col min="4848" max="4848" width="2.375" style="3" customWidth="1"/>
     <col min="4849" max="4849" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4850" max="4850" width="2.109375" style="3" customWidth="1"/>
-    <col min="4851" max="4851" width="2.6640625" style="3" customWidth="1"/>
+    <col min="4850" max="4850" width="2.125" style="3" customWidth="1"/>
+    <col min="4851" max="4851" width="2.625" style="3" customWidth="1"/>
     <col min="4852" max="4852" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="4853" max="4853" width="9.21875" style="3" customWidth="1"/>
-    <col min="4854" max="4854" width="12.21875" style="3" customWidth="1"/>
-    <col min="4855" max="4855" width="9.109375" style="3" customWidth="1"/>
-    <col min="4856" max="4856" width="3.109375" style="3" customWidth="1"/>
-    <col min="4857" max="4857" width="5.6640625" style="3" customWidth="1"/>
-    <col min="4858" max="4858" width="6.44140625" style="3" customWidth="1"/>
+    <col min="4853" max="4853" width="9.25" style="3" customWidth="1"/>
+    <col min="4854" max="4854" width="12.25" style="3" customWidth="1"/>
+    <col min="4855" max="4855" width="9.125" style="3" customWidth="1"/>
+    <col min="4856" max="4856" width="3.125" style="3" customWidth="1"/>
+    <col min="4857" max="4857" width="5.625" style="3" customWidth="1"/>
+    <col min="4858" max="4858" width="6.5" style="3" customWidth="1"/>
     <col min="4859" max="4859" width="1" style="3" customWidth="1"/>
     <col min="4860" max="4860" width="3" style="3" customWidth="1"/>
-    <col min="4861" max="4861" width="7.109375" style="3" customWidth="1"/>
-    <col min="4862" max="4862" width="2.77734375" style="3" customWidth="1"/>
-    <col min="4863" max="4863" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4861" max="4861" width="7.125" style="3" customWidth="1"/>
+    <col min="4862" max="4862" width="2.75" style="3" customWidth="1"/>
+    <col min="4863" max="4863" width="8.625" style="3" customWidth="1"/>
     <col min="4864" max="4874" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="4875" max="4899" width="9" style="3" customWidth="1"/>
     <col min="4900" max="5099" width="9" style="3"/>
-    <col min="5100" max="5100" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5101" max="5101" width="1.77734375" style="3" customWidth="1"/>
-    <col min="5102" max="5102" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5103" max="5103" width="4.109375" style="3" customWidth="1"/>
-    <col min="5104" max="5104" width="2.33203125" style="3" customWidth="1"/>
+    <col min="5100" max="5100" width="1.625" style="3" customWidth="1"/>
+    <col min="5101" max="5101" width="1.75" style="3" customWidth="1"/>
+    <col min="5102" max="5102" width="7.375" style="3" customWidth="1"/>
+    <col min="5103" max="5103" width="4.125" style="3" customWidth="1"/>
+    <col min="5104" max="5104" width="2.375" style="3" customWidth="1"/>
     <col min="5105" max="5105" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5106" max="5106" width="2.109375" style="3" customWidth="1"/>
-    <col min="5107" max="5107" width="2.6640625" style="3" customWidth="1"/>
+    <col min="5106" max="5106" width="2.125" style="3" customWidth="1"/>
+    <col min="5107" max="5107" width="2.625" style="3" customWidth="1"/>
     <col min="5108" max="5108" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5109" max="5109" width="9.21875" style="3" customWidth="1"/>
-    <col min="5110" max="5110" width="12.21875" style="3" customWidth="1"/>
-    <col min="5111" max="5111" width="9.109375" style="3" customWidth="1"/>
-    <col min="5112" max="5112" width="3.109375" style="3" customWidth="1"/>
-    <col min="5113" max="5113" width="5.6640625" style="3" customWidth="1"/>
-    <col min="5114" max="5114" width="6.44140625" style="3" customWidth="1"/>
+    <col min="5109" max="5109" width="9.25" style="3" customWidth="1"/>
+    <col min="5110" max="5110" width="12.25" style="3" customWidth="1"/>
+    <col min="5111" max="5111" width="9.125" style="3" customWidth="1"/>
+    <col min="5112" max="5112" width="3.125" style="3" customWidth="1"/>
+    <col min="5113" max="5113" width="5.625" style="3" customWidth="1"/>
+    <col min="5114" max="5114" width="6.5" style="3" customWidth="1"/>
     <col min="5115" max="5115" width="1" style="3" customWidth="1"/>
     <col min="5116" max="5116" width="3" style="3" customWidth="1"/>
-    <col min="5117" max="5117" width="7.109375" style="3" customWidth="1"/>
-    <col min="5118" max="5118" width="2.77734375" style="3" customWidth="1"/>
-    <col min="5119" max="5119" width="8.6640625" style="3" customWidth="1"/>
+    <col min="5117" max="5117" width="7.125" style="3" customWidth="1"/>
+    <col min="5118" max="5118" width="2.75" style="3" customWidth="1"/>
+    <col min="5119" max="5119" width="8.625" style="3" customWidth="1"/>
     <col min="5120" max="5130" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="5131" max="5155" width="9" style="3" customWidth="1"/>
     <col min="5156" max="5355" width="9" style="3"/>
-    <col min="5356" max="5356" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5357" max="5357" width="1.77734375" style="3" customWidth="1"/>
-    <col min="5358" max="5358" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5359" max="5359" width="4.109375" style="3" customWidth="1"/>
-    <col min="5360" max="5360" width="2.33203125" style="3" customWidth="1"/>
+    <col min="5356" max="5356" width="1.625" style="3" customWidth="1"/>
+    <col min="5357" max="5357" width="1.75" style="3" customWidth="1"/>
+    <col min="5358" max="5358" width="7.375" style="3" customWidth="1"/>
+    <col min="5359" max="5359" width="4.125" style="3" customWidth="1"/>
+    <col min="5360" max="5360" width="2.375" style="3" customWidth="1"/>
     <col min="5361" max="5361" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5362" max="5362" width="2.109375" style="3" customWidth="1"/>
-    <col min="5363" max="5363" width="2.6640625" style="3" customWidth="1"/>
+    <col min="5362" max="5362" width="2.125" style="3" customWidth="1"/>
+    <col min="5363" max="5363" width="2.625" style="3" customWidth="1"/>
     <col min="5364" max="5364" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5365" max="5365" width="9.21875" style="3" customWidth="1"/>
-    <col min="5366" max="5366" width="12.21875" style="3" customWidth="1"/>
-    <col min="5367" max="5367" width="9.109375" style="3" customWidth="1"/>
-    <col min="5368" max="5368" width="3.109375" style="3" customWidth="1"/>
-    <col min="5369" max="5369" width="5.6640625" style="3" customWidth="1"/>
-    <col min="5370" max="5370" width="6.44140625" style="3" customWidth="1"/>
+    <col min="5365" max="5365" width="9.25" style="3" customWidth="1"/>
+    <col min="5366" max="5366" width="12.25" style="3" customWidth="1"/>
+    <col min="5367" max="5367" width="9.125" style="3" customWidth="1"/>
+    <col min="5368" max="5368" width="3.125" style="3" customWidth="1"/>
+    <col min="5369" max="5369" width="5.625" style="3" customWidth="1"/>
+    <col min="5370" max="5370" width="6.5" style="3" customWidth="1"/>
     <col min="5371" max="5371" width="1" style="3" customWidth="1"/>
     <col min="5372" max="5372" width="3" style="3" customWidth="1"/>
-    <col min="5373" max="5373" width="7.109375" style="3" customWidth="1"/>
-    <col min="5374" max="5374" width="2.77734375" style="3" customWidth="1"/>
-    <col min="5375" max="5375" width="8.6640625" style="3" customWidth="1"/>
+    <col min="5373" max="5373" width="7.125" style="3" customWidth="1"/>
+    <col min="5374" max="5374" width="2.75" style="3" customWidth="1"/>
+    <col min="5375" max="5375" width="8.625" style="3" customWidth="1"/>
     <col min="5376" max="5386" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="5387" max="5411" width="9" style="3" customWidth="1"/>
     <col min="5412" max="5611" width="9" style="3"/>
-    <col min="5612" max="5612" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5613" max="5613" width="1.77734375" style="3" customWidth="1"/>
-    <col min="5614" max="5614" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5615" max="5615" width="4.109375" style="3" customWidth="1"/>
-    <col min="5616" max="5616" width="2.33203125" style="3" customWidth="1"/>
+    <col min="5612" max="5612" width="1.625" style="3" customWidth="1"/>
+    <col min="5613" max="5613" width="1.75" style="3" customWidth="1"/>
+    <col min="5614" max="5614" width="7.375" style="3" customWidth="1"/>
+    <col min="5615" max="5615" width="4.125" style="3" customWidth="1"/>
+    <col min="5616" max="5616" width="2.375" style="3" customWidth="1"/>
     <col min="5617" max="5617" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5618" max="5618" width="2.109375" style="3" customWidth="1"/>
-    <col min="5619" max="5619" width="2.6640625" style="3" customWidth="1"/>
+    <col min="5618" max="5618" width="2.125" style="3" customWidth="1"/>
+    <col min="5619" max="5619" width="2.625" style="3" customWidth="1"/>
     <col min="5620" max="5620" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5621" max="5621" width="9.21875" style="3" customWidth="1"/>
-    <col min="5622" max="5622" width="12.21875" style="3" customWidth="1"/>
-    <col min="5623" max="5623" width="9.109375" style="3" customWidth="1"/>
-    <col min="5624" max="5624" width="3.109375" style="3" customWidth="1"/>
-    <col min="5625" max="5625" width="5.6640625" style="3" customWidth="1"/>
-    <col min="5626" max="5626" width="6.44140625" style="3" customWidth="1"/>
+    <col min="5621" max="5621" width="9.25" style="3" customWidth="1"/>
+    <col min="5622" max="5622" width="12.25" style="3" customWidth="1"/>
+    <col min="5623" max="5623" width="9.125" style="3" customWidth="1"/>
+    <col min="5624" max="5624" width="3.125" style="3" customWidth="1"/>
+    <col min="5625" max="5625" width="5.625" style="3" customWidth="1"/>
+    <col min="5626" max="5626" width="6.5" style="3" customWidth="1"/>
     <col min="5627" max="5627" width="1" style="3" customWidth="1"/>
     <col min="5628" max="5628" width="3" style="3" customWidth="1"/>
-    <col min="5629" max="5629" width="7.109375" style="3" customWidth="1"/>
-    <col min="5630" max="5630" width="2.77734375" style="3" customWidth="1"/>
-    <col min="5631" max="5631" width="8.6640625" style="3" customWidth="1"/>
+    <col min="5629" max="5629" width="7.125" style="3" customWidth="1"/>
+    <col min="5630" max="5630" width="2.75" style="3" customWidth="1"/>
+    <col min="5631" max="5631" width="8.625" style="3" customWidth="1"/>
     <col min="5632" max="5642" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="5643" max="5667" width="9" style="3" customWidth="1"/>
     <col min="5668" max="5867" width="9" style="3"/>
-    <col min="5868" max="5868" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5869" max="5869" width="1.77734375" style="3" customWidth="1"/>
-    <col min="5870" max="5870" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5871" max="5871" width="4.109375" style="3" customWidth="1"/>
-    <col min="5872" max="5872" width="2.33203125" style="3" customWidth="1"/>
+    <col min="5868" max="5868" width="1.625" style="3" customWidth="1"/>
+    <col min="5869" max="5869" width="1.75" style="3" customWidth="1"/>
+    <col min="5870" max="5870" width="7.375" style="3" customWidth="1"/>
+    <col min="5871" max="5871" width="4.125" style="3" customWidth="1"/>
+    <col min="5872" max="5872" width="2.375" style="3" customWidth="1"/>
     <col min="5873" max="5873" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5874" max="5874" width="2.109375" style="3" customWidth="1"/>
-    <col min="5875" max="5875" width="2.6640625" style="3" customWidth="1"/>
+    <col min="5874" max="5874" width="2.125" style="3" customWidth="1"/>
+    <col min="5875" max="5875" width="2.625" style="3" customWidth="1"/>
     <col min="5876" max="5876" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="5877" max="5877" width="9.21875" style="3" customWidth="1"/>
-    <col min="5878" max="5878" width="12.21875" style="3" customWidth="1"/>
-    <col min="5879" max="5879" width="9.109375" style="3" customWidth="1"/>
-    <col min="5880" max="5880" width="3.109375" style="3" customWidth="1"/>
-    <col min="5881" max="5881" width="5.6640625" style="3" customWidth="1"/>
-    <col min="5882" max="5882" width="6.44140625" style="3" customWidth="1"/>
+    <col min="5877" max="5877" width="9.25" style="3" customWidth="1"/>
+    <col min="5878" max="5878" width="12.25" style="3" customWidth="1"/>
+    <col min="5879" max="5879" width="9.125" style="3" customWidth="1"/>
+    <col min="5880" max="5880" width="3.125" style="3" customWidth="1"/>
+    <col min="5881" max="5881" width="5.625" style="3" customWidth="1"/>
+    <col min="5882" max="5882" width="6.5" style="3" customWidth="1"/>
     <col min="5883" max="5883" width="1" style="3" customWidth="1"/>
     <col min="5884" max="5884" width="3" style="3" customWidth="1"/>
-    <col min="5885" max="5885" width="7.109375" style="3" customWidth="1"/>
-    <col min="5886" max="5886" width="2.77734375" style="3" customWidth="1"/>
-    <col min="5887" max="5887" width="8.6640625" style="3" customWidth="1"/>
+    <col min="5885" max="5885" width="7.125" style="3" customWidth="1"/>
+    <col min="5886" max="5886" width="2.75" style="3" customWidth="1"/>
+    <col min="5887" max="5887" width="8.625" style="3" customWidth="1"/>
     <col min="5888" max="5898" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="5899" max="5923" width="9" style="3" customWidth="1"/>
     <col min="5924" max="6123" width="9" style="3"/>
-    <col min="6124" max="6124" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6125" max="6125" width="1.77734375" style="3" customWidth="1"/>
-    <col min="6126" max="6126" width="7.33203125" style="3" customWidth="1"/>
-    <col min="6127" max="6127" width="4.109375" style="3" customWidth="1"/>
-    <col min="6128" max="6128" width="2.33203125" style="3" customWidth="1"/>
+    <col min="6124" max="6124" width="1.625" style="3" customWidth="1"/>
+    <col min="6125" max="6125" width="1.75" style="3" customWidth="1"/>
+    <col min="6126" max="6126" width="7.375" style="3" customWidth="1"/>
+    <col min="6127" max="6127" width="4.125" style="3" customWidth="1"/>
+    <col min="6128" max="6128" width="2.375" style="3" customWidth="1"/>
     <col min="6129" max="6129" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6130" max="6130" width="2.109375" style="3" customWidth="1"/>
-    <col min="6131" max="6131" width="2.6640625" style="3" customWidth="1"/>
+    <col min="6130" max="6130" width="2.125" style="3" customWidth="1"/>
+    <col min="6131" max="6131" width="2.625" style="3" customWidth="1"/>
     <col min="6132" max="6132" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6133" max="6133" width="9.21875" style="3" customWidth="1"/>
-    <col min="6134" max="6134" width="12.21875" style="3" customWidth="1"/>
-    <col min="6135" max="6135" width="9.109375" style="3" customWidth="1"/>
-    <col min="6136" max="6136" width="3.109375" style="3" customWidth="1"/>
-    <col min="6137" max="6137" width="5.6640625" style="3" customWidth="1"/>
-    <col min="6138" max="6138" width="6.44140625" style="3" customWidth="1"/>
+    <col min="6133" max="6133" width="9.25" style="3" customWidth="1"/>
+    <col min="6134" max="6134" width="12.25" style="3" customWidth="1"/>
+    <col min="6135" max="6135" width="9.125" style="3" customWidth="1"/>
+    <col min="6136" max="6136" width="3.125" style="3" customWidth="1"/>
+    <col min="6137" max="6137" width="5.625" style="3" customWidth="1"/>
+    <col min="6138" max="6138" width="6.5" style="3" customWidth="1"/>
     <col min="6139" max="6139" width="1" style="3" customWidth="1"/>
     <col min="6140" max="6140" width="3" style="3" customWidth="1"/>
-    <col min="6141" max="6141" width="7.109375" style="3" customWidth="1"/>
-    <col min="6142" max="6142" width="2.77734375" style="3" customWidth="1"/>
-    <col min="6143" max="6143" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6141" max="6141" width="7.125" style="3" customWidth="1"/>
+    <col min="6142" max="6142" width="2.75" style="3" customWidth="1"/>
+    <col min="6143" max="6143" width="8.625" style="3" customWidth="1"/>
     <col min="6144" max="6154" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="6155" max="6179" width="9" style="3" customWidth="1"/>
     <col min="6180" max="6379" width="9" style="3"/>
-    <col min="6380" max="6380" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6381" max="6381" width="1.77734375" style="3" customWidth="1"/>
-    <col min="6382" max="6382" width="7.33203125" style="3" customWidth="1"/>
-    <col min="6383" max="6383" width="4.109375" style="3" customWidth="1"/>
-    <col min="6384" max="6384" width="2.33203125" style="3" customWidth="1"/>
+    <col min="6380" max="6380" width="1.625" style="3" customWidth="1"/>
+    <col min="6381" max="6381" width="1.75" style="3" customWidth="1"/>
+    <col min="6382" max="6382" width="7.375" style="3" customWidth="1"/>
+    <col min="6383" max="6383" width="4.125" style="3" customWidth="1"/>
+    <col min="6384" max="6384" width="2.375" style="3" customWidth="1"/>
     <col min="6385" max="6385" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6386" max="6386" width="2.109375" style="3" customWidth="1"/>
-    <col min="6387" max="6387" width="2.6640625" style="3" customWidth="1"/>
+    <col min="6386" max="6386" width="2.125" style="3" customWidth="1"/>
+    <col min="6387" max="6387" width="2.625" style="3" customWidth="1"/>
     <col min="6388" max="6388" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6389" max="6389" width="9.21875" style="3" customWidth="1"/>
-    <col min="6390" max="6390" width="12.21875" style="3" customWidth="1"/>
-    <col min="6391" max="6391" width="9.109375" style="3" customWidth="1"/>
-    <col min="6392" max="6392" width="3.109375" style="3" customWidth="1"/>
-    <col min="6393" max="6393" width="5.6640625" style="3" customWidth="1"/>
-    <col min="6394" max="6394" width="6.44140625" style="3" customWidth="1"/>
+    <col min="6389" max="6389" width="9.25" style="3" customWidth="1"/>
+    <col min="6390" max="6390" width="12.25" style="3" customWidth="1"/>
+    <col min="6391" max="6391" width="9.125" style="3" customWidth="1"/>
+    <col min="6392" max="6392" width="3.125" style="3" customWidth="1"/>
+    <col min="6393" max="6393" width="5.625" style="3" customWidth="1"/>
+    <col min="6394" max="6394" width="6.5" style="3" customWidth="1"/>
     <col min="6395" max="6395" width="1" style="3" customWidth="1"/>
     <col min="6396" max="6396" width="3" style="3" customWidth="1"/>
-    <col min="6397" max="6397" width="7.109375" style="3" customWidth="1"/>
-    <col min="6398" max="6398" width="2.77734375" style="3" customWidth="1"/>
-    <col min="6399" max="6399" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6397" max="6397" width="7.125" style="3" customWidth="1"/>
+    <col min="6398" max="6398" width="2.75" style="3" customWidth="1"/>
+    <col min="6399" max="6399" width="8.625" style="3" customWidth="1"/>
     <col min="6400" max="6410" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="6411" max="6435" width="9" style="3" customWidth="1"/>
     <col min="6436" max="6635" width="9" style="3"/>
-    <col min="6636" max="6636" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6637" max="6637" width="1.77734375" style="3" customWidth="1"/>
-    <col min="6638" max="6638" width="7.33203125" style="3" customWidth="1"/>
-    <col min="6639" max="6639" width="4.109375" style="3" customWidth="1"/>
-    <col min="6640" max="6640" width="2.33203125" style="3" customWidth="1"/>
+    <col min="6636" max="6636" width="1.625" style="3" customWidth="1"/>
+    <col min="6637" max="6637" width="1.75" style="3" customWidth="1"/>
+    <col min="6638" max="6638" width="7.375" style="3" customWidth="1"/>
+    <col min="6639" max="6639" width="4.125" style="3" customWidth="1"/>
+    <col min="6640" max="6640" width="2.375" style="3" customWidth="1"/>
     <col min="6641" max="6641" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6642" max="6642" width="2.109375" style="3" customWidth="1"/>
-    <col min="6643" max="6643" width="2.6640625" style="3" customWidth="1"/>
+    <col min="6642" max="6642" width="2.125" style="3" customWidth="1"/>
+    <col min="6643" max="6643" width="2.625" style="3" customWidth="1"/>
     <col min="6644" max="6644" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6645" max="6645" width="9.21875" style="3" customWidth="1"/>
-    <col min="6646" max="6646" width="12.21875" style="3" customWidth="1"/>
-    <col min="6647" max="6647" width="9.109375" style="3" customWidth="1"/>
-    <col min="6648" max="6648" width="3.109375" style="3" customWidth="1"/>
-    <col min="6649" max="6649" width="5.6640625" style="3" customWidth="1"/>
-    <col min="6650" max="6650" width="6.44140625" style="3" customWidth="1"/>
+    <col min="6645" max="6645" width="9.25" style="3" customWidth="1"/>
+    <col min="6646" max="6646" width="12.25" style="3" customWidth="1"/>
+    <col min="6647" max="6647" width="9.125" style="3" customWidth="1"/>
+    <col min="6648" max="6648" width="3.125" style="3" customWidth="1"/>
+    <col min="6649" max="6649" width="5.625" style="3" customWidth="1"/>
+    <col min="6650" max="6650" width="6.5" style="3" customWidth="1"/>
     <col min="6651" max="6651" width="1" style="3" customWidth="1"/>
     <col min="6652" max="6652" width="3" style="3" customWidth="1"/>
-    <col min="6653" max="6653" width="7.109375" style="3" customWidth="1"/>
-    <col min="6654" max="6654" width="2.77734375" style="3" customWidth="1"/>
-    <col min="6655" max="6655" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6653" max="6653" width="7.125" style="3" customWidth="1"/>
+    <col min="6654" max="6654" width="2.75" style="3" customWidth="1"/>
+    <col min="6655" max="6655" width="8.625" style="3" customWidth="1"/>
     <col min="6656" max="6666" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="6667" max="6691" width="9" style="3" customWidth="1"/>
     <col min="6692" max="6891" width="9" style="3"/>
-    <col min="6892" max="6892" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6893" max="6893" width="1.77734375" style="3" customWidth="1"/>
-    <col min="6894" max="6894" width="7.33203125" style="3" customWidth="1"/>
-    <col min="6895" max="6895" width="4.109375" style="3" customWidth="1"/>
-    <col min="6896" max="6896" width="2.33203125" style="3" customWidth="1"/>
+    <col min="6892" max="6892" width="1.625" style="3" customWidth="1"/>
+    <col min="6893" max="6893" width="1.75" style="3" customWidth="1"/>
+    <col min="6894" max="6894" width="7.375" style="3" customWidth="1"/>
+    <col min="6895" max="6895" width="4.125" style="3" customWidth="1"/>
+    <col min="6896" max="6896" width="2.375" style="3" customWidth="1"/>
     <col min="6897" max="6897" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6898" max="6898" width="2.109375" style="3" customWidth="1"/>
-    <col min="6899" max="6899" width="2.6640625" style="3" customWidth="1"/>
+    <col min="6898" max="6898" width="2.125" style="3" customWidth="1"/>
+    <col min="6899" max="6899" width="2.625" style="3" customWidth="1"/>
     <col min="6900" max="6900" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6901" max="6901" width="9.21875" style="3" customWidth="1"/>
-    <col min="6902" max="6902" width="12.21875" style="3" customWidth="1"/>
-    <col min="6903" max="6903" width="9.109375" style="3" customWidth="1"/>
-    <col min="6904" max="6904" width="3.109375" style="3" customWidth="1"/>
-    <col min="6905" max="6905" width="5.6640625" style="3" customWidth="1"/>
-    <col min="6906" max="6906" width="6.44140625" style="3" customWidth="1"/>
+    <col min="6901" max="6901" width="9.25" style="3" customWidth="1"/>
+    <col min="6902" max="6902" width="12.25" style="3" customWidth="1"/>
+    <col min="6903" max="6903" width="9.125" style="3" customWidth="1"/>
+    <col min="6904" max="6904" width="3.125" style="3" customWidth="1"/>
+    <col min="6905" max="6905" width="5.625" style="3" customWidth="1"/>
+    <col min="6906" max="6906" width="6.5" style="3" customWidth="1"/>
     <col min="6907" max="6907" width="1" style="3" customWidth="1"/>
     <col min="6908" max="6908" width="3" style="3" customWidth="1"/>
-    <col min="6909" max="6909" width="7.109375" style="3" customWidth="1"/>
-    <col min="6910" max="6910" width="2.77734375" style="3" customWidth="1"/>
-    <col min="6911" max="6911" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6909" max="6909" width="7.125" style="3" customWidth="1"/>
+    <col min="6910" max="6910" width="2.75" style="3" customWidth="1"/>
+    <col min="6911" max="6911" width="8.625" style="3" customWidth="1"/>
     <col min="6912" max="6922" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="6923" max="6947" width="9" style="3" customWidth="1"/>
     <col min="6948" max="7147" width="9" style="3"/>
-    <col min="7148" max="7148" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7149" max="7149" width="1.77734375" style="3" customWidth="1"/>
-    <col min="7150" max="7150" width="7.33203125" style="3" customWidth="1"/>
-    <col min="7151" max="7151" width="4.109375" style="3" customWidth="1"/>
-    <col min="7152" max="7152" width="2.33203125" style="3" customWidth="1"/>
+    <col min="7148" max="7148" width="1.625" style="3" customWidth="1"/>
+    <col min="7149" max="7149" width="1.75" style="3" customWidth="1"/>
+    <col min="7150" max="7150" width="7.375" style="3" customWidth="1"/>
+    <col min="7151" max="7151" width="4.125" style="3" customWidth="1"/>
+    <col min="7152" max="7152" width="2.375" style="3" customWidth="1"/>
     <col min="7153" max="7153" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7154" max="7154" width="2.109375" style="3" customWidth="1"/>
-    <col min="7155" max="7155" width="2.6640625" style="3" customWidth="1"/>
+    <col min="7154" max="7154" width="2.125" style="3" customWidth="1"/>
+    <col min="7155" max="7155" width="2.625" style="3" customWidth="1"/>
     <col min="7156" max="7156" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7157" max="7157" width="9.21875" style="3" customWidth="1"/>
-    <col min="7158" max="7158" width="12.21875" style="3" customWidth="1"/>
-    <col min="7159" max="7159" width="9.109375" style="3" customWidth="1"/>
-    <col min="7160" max="7160" width="3.109375" style="3" customWidth="1"/>
-    <col min="7161" max="7161" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7162" max="7162" width="6.44140625" style="3" customWidth="1"/>
+    <col min="7157" max="7157" width="9.25" style="3" customWidth="1"/>
+    <col min="7158" max="7158" width="12.25" style="3" customWidth="1"/>
+    <col min="7159" max="7159" width="9.125" style="3" customWidth="1"/>
+    <col min="7160" max="7160" width="3.125" style="3" customWidth="1"/>
+    <col min="7161" max="7161" width="5.625" style="3" customWidth="1"/>
+    <col min="7162" max="7162" width="6.5" style="3" customWidth="1"/>
     <col min="7163" max="7163" width="1" style="3" customWidth="1"/>
     <col min="7164" max="7164" width="3" style="3" customWidth="1"/>
-    <col min="7165" max="7165" width="7.109375" style="3" customWidth="1"/>
-    <col min="7166" max="7166" width="2.77734375" style="3" customWidth="1"/>
-    <col min="7167" max="7167" width="8.6640625" style="3" customWidth="1"/>
+    <col min="7165" max="7165" width="7.125" style="3" customWidth="1"/>
+    <col min="7166" max="7166" width="2.75" style="3" customWidth="1"/>
+    <col min="7167" max="7167" width="8.625" style="3" customWidth="1"/>
     <col min="7168" max="7178" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="7179" max="7203" width="9" style="3" customWidth="1"/>
     <col min="7204" max="7403" width="9" style="3"/>
-    <col min="7404" max="7404" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7405" max="7405" width="1.77734375" style="3" customWidth="1"/>
-    <col min="7406" max="7406" width="7.33203125" style="3" customWidth="1"/>
-    <col min="7407" max="7407" width="4.109375" style="3" customWidth="1"/>
-    <col min="7408" max="7408" width="2.33203125" style="3" customWidth="1"/>
+    <col min="7404" max="7404" width="1.625" style="3" customWidth="1"/>
+    <col min="7405" max="7405" width="1.75" style="3" customWidth="1"/>
+    <col min="7406" max="7406" width="7.375" style="3" customWidth="1"/>
+    <col min="7407" max="7407" width="4.125" style="3" customWidth="1"/>
+    <col min="7408" max="7408" width="2.375" style="3" customWidth="1"/>
     <col min="7409" max="7409" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7410" max="7410" width="2.109375" style="3" customWidth="1"/>
-    <col min="7411" max="7411" width="2.6640625" style="3" customWidth="1"/>
+    <col min="7410" max="7410" width="2.125" style="3" customWidth="1"/>
+    <col min="7411" max="7411" width="2.625" style="3" customWidth="1"/>
     <col min="7412" max="7412" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7413" max="7413" width="9.21875" style="3" customWidth="1"/>
-    <col min="7414" max="7414" width="12.21875" style="3" customWidth="1"/>
-    <col min="7415" max="7415" width="9.109375" style="3" customWidth="1"/>
-    <col min="7416" max="7416" width="3.109375" style="3" customWidth="1"/>
-    <col min="7417" max="7417" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7418" max="7418" width="6.44140625" style="3" customWidth="1"/>
+    <col min="7413" max="7413" width="9.25" style="3" customWidth="1"/>
+    <col min="7414" max="7414" width="12.25" style="3" customWidth="1"/>
+    <col min="7415" max="7415" width="9.125" style="3" customWidth="1"/>
+    <col min="7416" max="7416" width="3.125" style="3" customWidth="1"/>
+    <col min="7417" max="7417" width="5.625" style="3" customWidth="1"/>
+    <col min="7418" max="7418" width="6.5" style="3" customWidth="1"/>
     <col min="7419" max="7419" width="1" style="3" customWidth="1"/>
     <col min="7420" max="7420" width="3" style="3" customWidth="1"/>
-    <col min="7421" max="7421" width="7.109375" style="3" customWidth="1"/>
-    <col min="7422" max="7422" width="2.77734375" style="3" customWidth="1"/>
-    <col min="7423" max="7423" width="8.6640625" style="3" customWidth="1"/>
+    <col min="7421" max="7421" width="7.125" style="3" customWidth="1"/>
+    <col min="7422" max="7422" width="2.75" style="3" customWidth="1"/>
+    <col min="7423" max="7423" width="8.625" style="3" customWidth="1"/>
     <col min="7424" max="7434" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="7435" max="7459" width="9" style="3" customWidth="1"/>
     <col min="7460" max="7659" width="9" style="3"/>
-    <col min="7660" max="7660" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7661" max="7661" width="1.77734375" style="3" customWidth="1"/>
-    <col min="7662" max="7662" width="7.33203125" style="3" customWidth="1"/>
-    <col min="7663" max="7663" width="4.109375" style="3" customWidth="1"/>
-    <col min="7664" max="7664" width="2.33203125" style="3" customWidth="1"/>
+    <col min="7660" max="7660" width="1.625" style="3" customWidth="1"/>
+    <col min="7661" max="7661" width="1.75" style="3" customWidth="1"/>
+    <col min="7662" max="7662" width="7.375" style="3" customWidth="1"/>
+    <col min="7663" max="7663" width="4.125" style="3" customWidth="1"/>
+    <col min="7664" max="7664" width="2.375" style="3" customWidth="1"/>
     <col min="7665" max="7665" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7666" max="7666" width="2.109375" style="3" customWidth="1"/>
-    <col min="7667" max="7667" width="2.6640625" style="3" customWidth="1"/>
+    <col min="7666" max="7666" width="2.125" style="3" customWidth="1"/>
+    <col min="7667" max="7667" width="2.625" style="3" customWidth="1"/>
     <col min="7668" max="7668" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7669" max="7669" width="9.21875" style="3" customWidth="1"/>
-    <col min="7670" max="7670" width="12.21875" style="3" customWidth="1"/>
-    <col min="7671" max="7671" width="9.109375" style="3" customWidth="1"/>
-    <col min="7672" max="7672" width="3.109375" style="3" customWidth="1"/>
-    <col min="7673" max="7673" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7674" max="7674" width="6.44140625" style="3" customWidth="1"/>
+    <col min="7669" max="7669" width="9.25" style="3" customWidth="1"/>
+    <col min="7670" max="7670" width="12.25" style="3" customWidth="1"/>
+    <col min="7671" max="7671" width="9.125" style="3" customWidth="1"/>
+    <col min="7672" max="7672" width="3.125" style="3" customWidth="1"/>
+    <col min="7673" max="7673" width="5.625" style="3" customWidth="1"/>
+    <col min="7674" max="7674" width="6.5" style="3" customWidth="1"/>
     <col min="7675" max="7675" width="1" style="3" customWidth="1"/>
     <col min="7676" max="7676" width="3" style="3" customWidth="1"/>
-    <col min="7677" max="7677" width="7.109375" style="3" customWidth="1"/>
-    <col min="7678" max="7678" width="2.77734375" style="3" customWidth="1"/>
-    <col min="7679" max="7679" width="8.6640625" style="3" customWidth="1"/>
+    <col min="7677" max="7677" width="7.125" style="3" customWidth="1"/>
+    <col min="7678" max="7678" width="2.75" style="3" customWidth="1"/>
+    <col min="7679" max="7679" width="8.625" style="3" customWidth="1"/>
     <col min="7680" max="7690" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="7691" max="7715" width="9" style="3" customWidth="1"/>
     <col min="7716" max="7915" width="9" style="3"/>
-    <col min="7916" max="7916" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7917" max="7917" width="1.77734375" style="3" customWidth="1"/>
-    <col min="7918" max="7918" width="7.33203125" style="3" customWidth="1"/>
-    <col min="7919" max="7919" width="4.109375" style="3" customWidth="1"/>
-    <col min="7920" max="7920" width="2.33203125" style="3" customWidth="1"/>
+    <col min="7916" max="7916" width="1.625" style="3" customWidth="1"/>
+    <col min="7917" max="7917" width="1.75" style="3" customWidth="1"/>
+    <col min="7918" max="7918" width="7.375" style="3" customWidth="1"/>
+    <col min="7919" max="7919" width="4.125" style="3" customWidth="1"/>
+    <col min="7920" max="7920" width="2.375" style="3" customWidth="1"/>
     <col min="7921" max="7921" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7922" max="7922" width="2.109375" style="3" customWidth="1"/>
-    <col min="7923" max="7923" width="2.6640625" style="3" customWidth="1"/>
+    <col min="7922" max="7922" width="2.125" style="3" customWidth="1"/>
+    <col min="7923" max="7923" width="2.625" style="3" customWidth="1"/>
     <col min="7924" max="7924" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7925" max="7925" width="9.21875" style="3" customWidth="1"/>
-    <col min="7926" max="7926" width="12.21875" style="3" customWidth="1"/>
-    <col min="7927" max="7927" width="9.109375" style="3" customWidth="1"/>
-    <col min="7928" max="7928" width="3.109375" style="3" customWidth="1"/>
-    <col min="7929" max="7929" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7930" max="7930" width="6.44140625" style="3" customWidth="1"/>
+    <col min="7925" max="7925" width="9.25" style="3" customWidth="1"/>
+    <col min="7926" max="7926" width="12.25" style="3" customWidth="1"/>
+    <col min="7927" max="7927" width="9.125" style="3" customWidth="1"/>
+    <col min="7928" max="7928" width="3.125" style="3" customWidth="1"/>
+    <col min="7929" max="7929" width="5.625" style="3" customWidth="1"/>
+    <col min="7930" max="7930" width="6.5" style="3" customWidth="1"/>
     <col min="7931" max="7931" width="1" style="3" customWidth="1"/>
     <col min="7932" max="7932" width="3" style="3" customWidth="1"/>
-    <col min="7933" max="7933" width="7.109375" style="3" customWidth="1"/>
-    <col min="7934" max="7934" width="2.77734375" style="3" customWidth="1"/>
-    <col min="7935" max="7935" width="8.6640625" style="3" customWidth="1"/>
+    <col min="7933" max="7933" width="7.125" style="3" customWidth="1"/>
+    <col min="7934" max="7934" width="2.75" style="3" customWidth="1"/>
+    <col min="7935" max="7935" width="8.625" style="3" customWidth="1"/>
     <col min="7936" max="7946" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="7947" max="7971" width="9" style="3" customWidth="1"/>
     <col min="7972" max="8171" width="9" style="3"/>
-    <col min="8172" max="8172" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8173" max="8173" width="1.77734375" style="3" customWidth="1"/>
-    <col min="8174" max="8174" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8175" max="8175" width="4.109375" style="3" customWidth="1"/>
-    <col min="8176" max="8176" width="2.33203125" style="3" customWidth="1"/>
+    <col min="8172" max="8172" width="1.625" style="3" customWidth="1"/>
+    <col min="8173" max="8173" width="1.75" style="3" customWidth="1"/>
+    <col min="8174" max="8174" width="7.375" style="3" customWidth="1"/>
+    <col min="8175" max="8175" width="4.125" style="3" customWidth="1"/>
+    <col min="8176" max="8176" width="2.375" style="3" customWidth="1"/>
     <col min="8177" max="8177" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8178" max="8178" width="2.109375" style="3" customWidth="1"/>
-    <col min="8179" max="8179" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8178" max="8178" width="2.125" style="3" customWidth="1"/>
+    <col min="8179" max="8179" width="2.625" style="3" customWidth="1"/>
     <col min="8180" max="8180" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8181" max="8181" width="9.21875" style="3" customWidth="1"/>
-    <col min="8182" max="8182" width="12.21875" style="3" customWidth="1"/>
-    <col min="8183" max="8183" width="9.109375" style="3" customWidth="1"/>
-    <col min="8184" max="8184" width="3.109375" style="3" customWidth="1"/>
-    <col min="8185" max="8185" width="5.6640625" style="3" customWidth="1"/>
-    <col min="8186" max="8186" width="6.44140625" style="3" customWidth="1"/>
+    <col min="8181" max="8181" width="9.25" style="3" customWidth="1"/>
+    <col min="8182" max="8182" width="12.25" style="3" customWidth="1"/>
+    <col min="8183" max="8183" width="9.125" style="3" customWidth="1"/>
+    <col min="8184" max="8184" width="3.125" style="3" customWidth="1"/>
+    <col min="8185" max="8185" width="5.625" style="3" customWidth="1"/>
+    <col min="8186" max="8186" width="6.5" style="3" customWidth="1"/>
     <col min="8187" max="8187" width="1" style="3" customWidth="1"/>
     <col min="8188" max="8188" width="3" style="3" customWidth="1"/>
-    <col min="8189" max="8189" width="7.109375" style="3" customWidth="1"/>
-    <col min="8190" max="8190" width="2.77734375" style="3" customWidth="1"/>
-    <col min="8191" max="8191" width="8.6640625" style="3" customWidth="1"/>
+    <col min="8189" max="8189" width="7.125" style="3" customWidth="1"/>
+    <col min="8190" max="8190" width="2.75" style="3" customWidth="1"/>
+    <col min="8191" max="8191" width="8.625" style="3" customWidth="1"/>
     <col min="8192" max="8202" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8203" max="8227" width="9" style="3" customWidth="1"/>
     <col min="8228" max="8427" width="9" style="3"/>
-    <col min="8428" max="8428" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8429" max="8429" width="1.77734375" style="3" customWidth="1"/>
-    <col min="8430" max="8430" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8431" max="8431" width="4.109375" style="3" customWidth="1"/>
-    <col min="8432" max="8432" width="2.33203125" style="3" customWidth="1"/>
+    <col min="8428" max="8428" width="1.625" style="3" customWidth="1"/>
+    <col min="8429" max="8429" width="1.75" style="3" customWidth="1"/>
+    <col min="8430" max="8430" width="7.375" style="3" customWidth="1"/>
+    <col min="8431" max="8431" width="4.125" style="3" customWidth="1"/>
+    <col min="8432" max="8432" width="2.375" style="3" customWidth="1"/>
     <col min="8433" max="8433" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8434" max="8434" width="2.109375" style="3" customWidth="1"/>
-    <col min="8435" max="8435" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8434" max="8434" width="2.125" style="3" customWidth="1"/>
+    <col min="8435" max="8435" width="2.625" style="3" customWidth="1"/>
     <col min="8436" max="8436" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8437" max="8437" width="9.21875" style="3" customWidth="1"/>
-    <col min="8438" max="8438" width="12.21875" style="3" customWidth="1"/>
-    <col min="8439" max="8439" width="9.109375" style="3" customWidth="1"/>
-    <col min="8440" max="8440" width="3.109375" style="3" customWidth="1"/>
-    <col min="8441" max="8441" width="5.6640625" style="3" customWidth="1"/>
-    <col min="8442" max="8442" width="6.44140625" style="3" customWidth="1"/>
+    <col min="8437" max="8437" width="9.25" style="3" customWidth="1"/>
+    <col min="8438" max="8438" width="12.25" style="3" customWidth="1"/>
+    <col min="8439" max="8439" width="9.125" style="3" customWidth="1"/>
+    <col min="8440" max="8440" width="3.125" style="3" customWidth="1"/>
+    <col min="8441" max="8441" width="5.625" style="3" customWidth="1"/>
+    <col min="8442" max="8442" width="6.5" style="3" customWidth="1"/>
     <col min="8443" max="8443" width="1" style="3" customWidth="1"/>
     <col min="8444" max="8444" width="3" style="3" customWidth="1"/>
-    <col min="8445" max="8445" width="7.109375" style="3" customWidth="1"/>
-    <col min="8446" max="8446" width="2.77734375" style="3" customWidth="1"/>
-    <col min="8447" max="8447" width="8.6640625" style="3" customWidth="1"/>
+    <col min="8445" max="8445" width="7.125" style="3" customWidth="1"/>
+    <col min="8446" max="8446" width="2.75" style="3" customWidth="1"/>
+    <col min="8447" max="8447" width="8.625" style="3" customWidth="1"/>
     <col min="8448" max="8458" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8459" max="8483" width="9" style="3" customWidth="1"/>
     <col min="8484" max="8683" width="9" style="3"/>
-    <col min="8684" max="8684" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8685" max="8685" width="1.77734375" style="3" customWidth="1"/>
-    <col min="8686" max="8686" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8687" max="8687" width="4.109375" style="3" customWidth="1"/>
-    <col min="8688" max="8688" width="2.33203125" style="3" customWidth="1"/>
+    <col min="8684" max="8684" width="1.625" style="3" customWidth="1"/>
+    <col min="8685" max="8685" width="1.75" style="3" customWidth="1"/>
+    <col min="8686" max="8686" width="7.375" style="3" customWidth="1"/>
+    <col min="8687" max="8687" width="4.125" style="3" customWidth="1"/>
+    <col min="8688" max="8688" width="2.375" style="3" customWidth="1"/>
     <col min="8689" max="8689" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8690" max="8690" width="2.109375" style="3" customWidth="1"/>
-    <col min="8691" max="8691" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8690" max="8690" width="2.125" style="3" customWidth="1"/>
+    <col min="8691" max="8691" width="2.625" style="3" customWidth="1"/>
     <col min="8692" max="8692" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8693" max="8693" width="9.21875" style="3" customWidth="1"/>
-    <col min="8694" max="8694" width="12.21875" style="3" customWidth="1"/>
-    <col min="8695" max="8695" width="9.109375" style="3" customWidth="1"/>
-    <col min="8696" max="8696" width="3.109375" style="3" customWidth="1"/>
-    <col min="8697" max="8697" width="5.6640625" style="3" customWidth="1"/>
-    <col min="8698" max="8698" width="6.44140625" style="3" customWidth="1"/>
+    <col min="8693" max="8693" width="9.25" style="3" customWidth="1"/>
+    <col min="8694" max="8694" width="12.25" style="3" customWidth="1"/>
+    <col min="8695" max="8695" width="9.125" style="3" customWidth="1"/>
+    <col min="8696" max="8696" width="3.125" style="3" customWidth="1"/>
+    <col min="8697" max="8697" width="5.625" style="3" customWidth="1"/>
+    <col min="8698" max="8698" width="6.5" style="3" customWidth="1"/>
     <col min="8699" max="8699" width="1" style="3" customWidth="1"/>
     <col min="8700" max="8700" width="3" style="3" customWidth="1"/>
-    <col min="8701" max="8701" width="7.109375" style="3" customWidth="1"/>
-    <col min="8702" max="8702" width="2.77734375" style="3" customWidth="1"/>
-    <col min="8703" max="8703" width="8.6640625" style="3" customWidth="1"/>
+    <col min="8701" max="8701" width="7.125" style="3" customWidth="1"/>
+    <col min="8702" max="8702" width="2.75" style="3" customWidth="1"/>
+    <col min="8703" max="8703" width="8.625" style="3" customWidth="1"/>
     <col min="8704" max="8714" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8715" max="8739" width="9" style="3" customWidth="1"/>
     <col min="8740" max="8939" width="9" style="3"/>
-    <col min="8940" max="8940" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8941" max="8941" width="1.77734375" style="3" customWidth="1"/>
-    <col min="8942" max="8942" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8943" max="8943" width="4.109375" style="3" customWidth="1"/>
-    <col min="8944" max="8944" width="2.33203125" style="3" customWidth="1"/>
+    <col min="8940" max="8940" width="1.625" style="3" customWidth="1"/>
+    <col min="8941" max="8941" width="1.75" style="3" customWidth="1"/>
+    <col min="8942" max="8942" width="7.375" style="3" customWidth="1"/>
+    <col min="8943" max="8943" width="4.125" style="3" customWidth="1"/>
+    <col min="8944" max="8944" width="2.375" style="3" customWidth="1"/>
     <col min="8945" max="8945" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8946" max="8946" width="2.109375" style="3" customWidth="1"/>
-    <col min="8947" max="8947" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8946" max="8946" width="2.125" style="3" customWidth="1"/>
+    <col min="8947" max="8947" width="2.625" style="3" customWidth="1"/>
     <col min="8948" max="8948" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8949" max="8949" width="9.21875" style="3" customWidth="1"/>
-    <col min="8950" max="8950" width="12.21875" style="3" customWidth="1"/>
-    <col min="8951" max="8951" width="9.109375" style="3" customWidth="1"/>
-    <col min="8952" max="8952" width="3.109375" style="3" customWidth="1"/>
-    <col min="8953" max="8953" width="5.6640625" style="3" customWidth="1"/>
-    <col min="8954" max="8954" width="6.44140625" style="3" customWidth="1"/>
+    <col min="8949" max="8949" width="9.25" style="3" customWidth="1"/>
+    <col min="8950" max="8950" width="12.25" style="3" customWidth="1"/>
+    <col min="8951" max="8951" width="9.125" style="3" customWidth="1"/>
+    <col min="8952" max="8952" width="3.125" style="3" customWidth="1"/>
+    <col min="8953" max="8953" width="5.625" style="3" customWidth="1"/>
+    <col min="8954" max="8954" width="6.5" style="3" customWidth="1"/>
     <col min="8955" max="8955" width="1" style="3" customWidth="1"/>
     <col min="8956" max="8956" width="3" style="3" customWidth="1"/>
-    <col min="8957" max="8957" width="7.109375" style="3" customWidth="1"/>
-    <col min="8958" max="8958" width="2.77734375" style="3" customWidth="1"/>
-    <col min="8959" max="8959" width="8.6640625" style="3" customWidth="1"/>
+    <col min="8957" max="8957" width="7.125" style="3" customWidth="1"/>
+    <col min="8958" max="8958" width="2.75" style="3" customWidth="1"/>
+    <col min="8959" max="8959" width="8.625" style="3" customWidth="1"/>
     <col min="8960" max="8970" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8971" max="8995" width="9" style="3" customWidth="1"/>
     <col min="8996" max="9195" width="9" style="3"/>
-    <col min="9196" max="9196" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9197" max="9197" width="1.77734375" style="3" customWidth="1"/>
-    <col min="9198" max="9198" width="7.33203125" style="3" customWidth="1"/>
-    <col min="9199" max="9199" width="4.109375" style="3" customWidth="1"/>
-    <col min="9200" max="9200" width="2.33203125" style="3" customWidth="1"/>
+    <col min="9196" max="9196" width="1.625" style="3" customWidth="1"/>
+    <col min="9197" max="9197" width="1.75" style="3" customWidth="1"/>
+    <col min="9198" max="9198" width="7.375" style="3" customWidth="1"/>
+    <col min="9199" max="9199" width="4.125" style="3" customWidth="1"/>
+    <col min="9200" max="9200" width="2.375" style="3" customWidth="1"/>
     <col min="9201" max="9201" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9202" max="9202" width="2.109375" style="3" customWidth="1"/>
-    <col min="9203" max="9203" width="2.6640625" style="3" customWidth="1"/>
+    <col min="9202" max="9202" width="2.125" style="3" customWidth="1"/>
+    <col min="9203" max="9203" width="2.625" style="3" customWidth="1"/>
     <col min="9204" max="9204" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9205" max="9205" width="9.21875" style="3" customWidth="1"/>
-    <col min="9206" max="9206" width="12.21875" style="3" customWidth="1"/>
-    <col min="9207" max="9207" width="9.109375" style="3" customWidth="1"/>
-    <col min="9208" max="9208" width="3.109375" style="3" customWidth="1"/>
-    <col min="9209" max="9209" width="5.6640625" style="3" customWidth="1"/>
-    <col min="9210" max="9210" width="6.44140625" style="3" customWidth="1"/>
+    <col min="9205" max="9205" width="9.25" style="3" customWidth="1"/>
+    <col min="9206" max="9206" width="12.25" style="3" customWidth="1"/>
+    <col min="9207" max="9207" width="9.125" style="3" customWidth="1"/>
+    <col min="9208" max="9208" width="3.125" style="3" customWidth="1"/>
+    <col min="9209" max="9209" width="5.625" style="3" customWidth="1"/>
+    <col min="9210" max="9210" width="6.5" style="3" customWidth="1"/>
     <col min="9211" max="9211" width="1" style="3" customWidth="1"/>
     <col min="9212" max="9212" width="3" style="3" customWidth="1"/>
-    <col min="9213" max="9213" width="7.109375" style="3" customWidth="1"/>
-    <col min="9214" max="9214" width="2.77734375" style="3" customWidth="1"/>
-    <col min="9215" max="9215" width="8.6640625" style="3" customWidth="1"/>
+    <col min="9213" max="9213" width="7.125" style="3" customWidth="1"/>
+    <col min="9214" max="9214" width="2.75" style="3" customWidth="1"/>
+    <col min="9215" max="9215" width="8.625" style="3" customWidth="1"/>
     <col min="9216" max="9226" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="9227" max="9251" width="9" style="3" customWidth="1"/>
     <col min="9252" max="9451" width="9" style="3"/>
-    <col min="9452" max="9452" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9453" max="9453" width="1.77734375" style="3" customWidth="1"/>
-    <col min="9454" max="9454" width="7.33203125" style="3" customWidth="1"/>
-    <col min="9455" max="9455" width="4.109375" style="3" customWidth="1"/>
-    <col min="9456" max="9456" width="2.33203125" style="3" customWidth="1"/>
+    <col min="9452" max="9452" width="1.625" style="3" customWidth="1"/>
+    <col min="9453" max="9453" width="1.75" style="3" customWidth="1"/>
+    <col min="9454" max="9454" width="7.375" style="3" customWidth="1"/>
+    <col min="9455" max="9455" width="4.125" style="3" customWidth="1"/>
+    <col min="9456" max="9456" width="2.375" style="3" customWidth="1"/>
     <col min="9457" max="9457" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9458" max="9458" width="2.109375" style="3" customWidth="1"/>
-    <col min="9459" max="9459" width="2.6640625" style="3" customWidth="1"/>
+    <col min="9458" max="9458" width="2.125" style="3" customWidth="1"/>
+    <col min="9459" max="9459" width="2.625" style="3" customWidth="1"/>
     <col min="9460" max="9460" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9461" max="9461" width="9.21875" style="3" customWidth="1"/>
-    <col min="9462" max="9462" width="12.21875" style="3" customWidth="1"/>
-    <col min="9463" max="9463" width="9.109375" style="3" customWidth="1"/>
-    <col min="9464" max="9464" width="3.109375" style="3" customWidth="1"/>
-    <col min="9465" max="9465" width="5.6640625" style="3" customWidth="1"/>
-    <col min="9466" max="9466" width="6.44140625" style="3" customWidth="1"/>
+    <col min="9461" max="9461" width="9.25" style="3" customWidth="1"/>
+    <col min="9462" max="9462" width="12.25" style="3" customWidth="1"/>
+    <col min="9463" max="9463" width="9.125" style="3" customWidth="1"/>
+    <col min="9464" max="9464" width="3.125" style="3" customWidth="1"/>
+    <col min="9465" max="9465" width="5.625" style="3" customWidth="1"/>
+    <col min="9466" max="9466" width="6.5" style="3" customWidth="1"/>
     <col min="9467" max="9467" width="1" style="3" customWidth="1"/>
     <col min="9468" max="9468" width="3" style="3" customWidth="1"/>
-    <col min="9469" max="9469" width="7.109375" style="3" customWidth="1"/>
-    <col min="9470" max="9470" width="2.77734375" style="3" customWidth="1"/>
-    <col min="9471" max="9471" width="8.6640625" style="3" customWidth="1"/>
+    <col min="9469" max="9469" width="7.125" style="3" customWidth="1"/>
+    <col min="9470" max="9470" width="2.75" style="3" customWidth="1"/>
+    <col min="9471" max="9471" width="8.625" style="3" customWidth="1"/>
     <col min="9472" max="9482" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="9483" max="9507" width="9" style="3" customWidth="1"/>
     <col min="9508" max="9707" width="9" style="3"/>
-    <col min="9708" max="9708" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9709" max="9709" width="1.77734375" style="3" customWidth="1"/>
-    <col min="9710" max="9710" width="7.33203125" style="3" customWidth="1"/>
-    <col min="9711" max="9711" width="4.109375" style="3" customWidth="1"/>
-    <col min="9712" max="9712" width="2.33203125" style="3" customWidth="1"/>
+    <col min="9708" max="9708" width="1.625" style="3" customWidth="1"/>
+    <col min="9709" max="9709" width="1.75" style="3" customWidth="1"/>
+    <col min="9710" max="9710" width="7.375" style="3" customWidth="1"/>
+    <col min="9711" max="9711" width="4.125" style="3" customWidth="1"/>
+    <col min="9712" max="9712" width="2.375" style="3" customWidth="1"/>
     <col min="9713" max="9713" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9714" max="9714" width="2.109375" style="3" customWidth="1"/>
-    <col min="9715" max="9715" width="2.6640625" style="3" customWidth="1"/>
+    <col min="9714" max="9714" width="2.125" style="3" customWidth="1"/>
+    <col min="9715" max="9715" width="2.625" style="3" customWidth="1"/>
     <col min="9716" max="9716" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9717" max="9717" width="9.21875" style="3" customWidth="1"/>
-    <col min="9718" max="9718" width="12.21875" style="3" customWidth="1"/>
-    <col min="9719" max="9719" width="9.109375" style="3" customWidth="1"/>
-    <col min="9720" max="9720" width="3.109375" style="3" customWidth="1"/>
-    <col min="9721" max="9721" width="5.6640625" style="3" customWidth="1"/>
-    <col min="9722" max="9722" width="6.44140625" style="3" customWidth="1"/>
+    <col min="9717" max="9717" width="9.25" style="3" customWidth="1"/>
+    <col min="9718" max="9718" width="12.25" style="3" customWidth="1"/>
+    <col min="9719" max="9719" width="9.125" style="3" customWidth="1"/>
+    <col min="9720" max="9720" width="3.125" style="3" customWidth="1"/>
+    <col min="9721" max="9721" width="5.625" style="3" customWidth="1"/>
+    <col min="9722" max="9722" width="6.5" style="3" customWidth="1"/>
     <col min="9723" max="9723" width="1" style="3" customWidth="1"/>
     <col min="9724" max="9724" width="3" style="3" customWidth="1"/>
-    <col min="9725" max="9725" width="7.109375" style="3" customWidth="1"/>
-    <col min="9726" max="9726" width="2.77734375" style="3" customWidth="1"/>
-    <col min="9727" max="9727" width="8.6640625" style="3" customWidth="1"/>
+    <col min="9725" max="9725" width="7.125" style="3" customWidth="1"/>
+    <col min="9726" max="9726" width="2.75" style="3" customWidth="1"/>
+    <col min="9727" max="9727" width="8.625" style="3" customWidth="1"/>
     <col min="9728" max="9738" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="9739" max="9763" width="9" style="3" customWidth="1"/>
     <col min="9764" max="9963" width="9" style="3"/>
-    <col min="9964" max="9964" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9965" max="9965" width="1.77734375" style="3" customWidth="1"/>
-    <col min="9966" max="9966" width="7.33203125" style="3" customWidth="1"/>
-    <col min="9967" max="9967" width="4.109375" style="3" customWidth="1"/>
-    <col min="9968" max="9968" width="2.33203125" style="3" customWidth="1"/>
+    <col min="9964" max="9964" width="1.625" style="3" customWidth="1"/>
+    <col min="9965" max="9965" width="1.75" style="3" customWidth="1"/>
+    <col min="9966" max="9966" width="7.375" style="3" customWidth="1"/>
+    <col min="9967" max="9967" width="4.125" style="3" customWidth="1"/>
+    <col min="9968" max="9968" width="2.375" style="3" customWidth="1"/>
     <col min="9969" max="9969" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9970" max="9970" width="2.109375" style="3" customWidth="1"/>
-    <col min="9971" max="9971" width="2.6640625" style="3" customWidth="1"/>
+    <col min="9970" max="9970" width="2.125" style="3" customWidth="1"/>
+    <col min="9971" max="9971" width="2.625" style="3" customWidth="1"/>
     <col min="9972" max="9972" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="9973" max="9973" width="9.21875" style="3" customWidth="1"/>
-    <col min="9974" max="9974" width="12.21875" style="3" customWidth="1"/>
-    <col min="9975" max="9975" width="9.109375" style="3" customWidth="1"/>
-    <col min="9976" max="9976" width="3.109375" style="3" customWidth="1"/>
-    <col min="9977" max="9977" width="5.6640625" style="3" customWidth="1"/>
-    <col min="9978" max="9978" width="6.44140625" style="3" customWidth="1"/>
+    <col min="9973" max="9973" width="9.25" style="3" customWidth="1"/>
+    <col min="9974" max="9974" width="12.25" style="3" customWidth="1"/>
+    <col min="9975" max="9975" width="9.125" style="3" customWidth="1"/>
+    <col min="9976" max="9976" width="3.125" style="3" customWidth="1"/>
+    <col min="9977" max="9977" width="5.625" style="3" customWidth="1"/>
+    <col min="9978" max="9978" width="6.5" style="3" customWidth="1"/>
     <col min="9979" max="9979" width="1" style="3" customWidth="1"/>
     <col min="9980" max="9980" width="3" style="3" customWidth="1"/>
-    <col min="9981" max="9981" width="7.109375" style="3" customWidth="1"/>
-    <col min="9982" max="9982" width="2.77734375" style="3" customWidth="1"/>
-    <col min="9983" max="9983" width="8.6640625" style="3" customWidth="1"/>
+    <col min="9981" max="9981" width="7.125" style="3" customWidth="1"/>
+    <col min="9982" max="9982" width="2.75" style="3" customWidth="1"/>
+    <col min="9983" max="9983" width="8.625" style="3" customWidth="1"/>
     <col min="9984" max="9994" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="9995" max="10019" width="9" style="3" customWidth="1"/>
     <col min="10020" max="10219" width="9" style="3"/>
-    <col min="10220" max="10220" width="1.6640625" style="3" customWidth="1"/>
-    <col min="10221" max="10221" width="1.77734375" style="3" customWidth="1"/>
-    <col min="10222" max="10222" width="7.33203125" style="3" customWidth="1"/>
-    <col min="10223" max="10223" width="4.109375" style="3" customWidth="1"/>
-    <col min="10224" max="10224" width="2.33203125" style="3" customWidth="1"/>
+    <col min="10220" max="10220" width="1.625" style="3" customWidth="1"/>
+    <col min="10221" max="10221" width="1.75" style="3" customWidth="1"/>
+    <col min="10222" max="10222" width="7.375" style="3" customWidth="1"/>
+    <col min="10223" max="10223" width="4.125" style="3" customWidth="1"/>
+    <col min="10224" max="10224" width="2.375" style="3" customWidth="1"/>
     <col min="10225" max="10225" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10226" max="10226" width="2.109375" style="3" customWidth="1"/>
-    <col min="10227" max="10227" width="2.6640625" style="3" customWidth="1"/>
+    <col min="10226" max="10226" width="2.125" style="3" customWidth="1"/>
+    <col min="10227" max="10227" width="2.625" style="3" customWidth="1"/>
     <col min="10228" max="10228" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10229" max="10229" width="9.21875" style="3" customWidth="1"/>
-    <col min="10230" max="10230" width="12.21875" style="3" customWidth="1"/>
-    <col min="10231" max="10231" width="9.109375" style="3" customWidth="1"/>
-    <col min="10232" max="10232" width="3.109375" style="3" customWidth="1"/>
-    <col min="10233" max="10233" width="5.6640625" style="3" customWidth="1"/>
-    <col min="10234" max="10234" width="6.44140625" style="3" customWidth="1"/>
+    <col min="10229" max="10229" width="9.25" style="3" customWidth="1"/>
+    <col min="10230" max="10230" width="12.25" style="3" customWidth="1"/>
+    <col min="10231" max="10231" width="9.125" style="3" customWidth="1"/>
+    <col min="10232" max="10232" width="3.125" style="3" customWidth="1"/>
+    <col min="10233" max="10233" width="5.625" style="3" customWidth="1"/>
+    <col min="10234" max="10234" width="6.5" style="3" customWidth="1"/>
     <col min="10235" max="10235" width="1" style="3" customWidth="1"/>
     <col min="10236" max="10236" width="3" style="3" customWidth="1"/>
-    <col min="10237" max="10237" width="7.109375" style="3" customWidth="1"/>
-    <col min="10238" max="10238" width="2.77734375" style="3" customWidth="1"/>
-    <col min="10239" max="10239" width="8.6640625" style="3" customWidth="1"/>
+    <col min="10237" max="10237" width="7.125" style="3" customWidth="1"/>
+    <col min="10238" max="10238" width="2.75" style="3" customWidth="1"/>
+    <col min="10239" max="10239" width="8.625" style="3" customWidth="1"/>
     <col min="10240" max="10250" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="10251" max="10275" width="9" style="3" customWidth="1"/>
     <col min="10276" max="10475" width="9" style="3"/>
-    <col min="10476" max="10476" width="1.6640625" style="3" customWidth="1"/>
-    <col min="10477" max="10477" width="1.77734375" style="3" customWidth="1"/>
-    <col min="10478" max="10478" width="7.33203125" style="3" customWidth="1"/>
-    <col min="10479" max="10479" width="4.109375" style="3" customWidth="1"/>
-    <col min="10480" max="10480" width="2.33203125" style="3" customWidth="1"/>
+    <col min="10476" max="10476" width="1.625" style="3" customWidth="1"/>
+    <col min="10477" max="10477" width="1.75" style="3" customWidth="1"/>
+    <col min="10478" max="10478" width="7.375" style="3" customWidth="1"/>
+    <col min="10479" max="10479" width="4.125" style="3" customWidth="1"/>
+    <col min="10480" max="10480" width="2.375" style="3" customWidth="1"/>
     <col min="10481" max="10481" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10482" max="10482" width="2.109375" style="3" customWidth="1"/>
-    <col min="10483" max="10483" width="2.6640625" style="3" customWidth="1"/>
+    <col min="10482" max="10482" width="2.125" style="3" customWidth="1"/>
+    <col min="10483" max="10483" width="2.625" style="3" customWidth="1"/>
     <col min="10484" max="10484" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10485" max="10485" width="9.21875" style="3" customWidth="1"/>
-    <col min="10486" max="10486" width="12.21875" style="3" customWidth="1"/>
-    <col min="10487" max="10487" width="9.109375" style="3" customWidth="1"/>
-    <col min="10488" max="10488" width="3.109375" style="3" customWidth="1"/>
-    <col min="10489" max="10489" width="5.6640625" style="3" customWidth="1"/>
-    <col min="10490" max="10490" width="6.44140625" style="3" customWidth="1"/>
+    <col min="10485" max="10485" width="9.25" style="3" customWidth="1"/>
+    <col min="10486" max="10486" width="12.25" style="3" customWidth="1"/>
+    <col min="10487" max="10487" width="9.125" style="3" customWidth="1"/>
+    <col min="10488" max="10488" width="3.125" style="3" customWidth="1"/>
+    <col min="10489" max="10489" width="5.625" style="3" customWidth="1"/>
+    <col min="10490" max="10490" width="6.5" style="3" customWidth="1"/>
     <col min="10491" max="10491" width="1" style="3" customWidth="1"/>
     <col min="10492" max="10492" width="3" style="3" customWidth="1"/>
-    <col min="10493" max="10493" width="7.109375" style="3" customWidth="1"/>
-    <col min="10494" max="10494" width="2.77734375" style="3" customWidth="1"/>
-    <col min="10495" max="10495" width="8.6640625" style="3" customWidth="1"/>
+    <col min="10493" max="10493" width="7.125" style="3" customWidth="1"/>
+    <col min="10494" max="10494" width="2.75" style="3" customWidth="1"/>
+    <col min="10495" max="10495" width="8.625" style="3" customWidth="1"/>
     <col min="10496" max="10506" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="10507" max="10531" width="9" style="3" customWidth="1"/>
     <col min="10532" max="10731" width="9" style="3"/>
-    <col min="10732" max="10732" width="1.6640625" style="3" customWidth="1"/>
-    <col min="10733" max="10733" width="1.77734375" style="3" customWidth="1"/>
-    <col min="10734" max="10734" width="7.33203125" style="3" customWidth="1"/>
-    <col min="10735" max="10735" width="4.109375" style="3" customWidth="1"/>
-    <col min="10736" max="10736" width="2.33203125" style="3" customWidth="1"/>
+    <col min="10732" max="10732" width="1.625" style="3" customWidth="1"/>
+    <col min="10733" max="10733" width="1.75" style="3" customWidth="1"/>
+    <col min="10734" max="10734" width="7.375" style="3" customWidth="1"/>
+    <col min="10735" max="10735" width="4.125" style="3" customWidth="1"/>
+    <col min="10736" max="10736" width="2.375" style="3" customWidth="1"/>
     <col min="10737" max="10737" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10738" max="10738" width="2.109375" style="3" customWidth="1"/>
-    <col min="10739" max="10739" width="2.6640625" style="3" customWidth="1"/>
+    <col min="10738" max="10738" width="2.125" style="3" customWidth="1"/>
+    <col min="10739" max="10739" width="2.625" style="3" customWidth="1"/>
     <col min="10740" max="10740" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10741" max="10741" width="9.21875" style="3" customWidth="1"/>
-    <col min="10742" max="10742" width="12.21875" style="3" customWidth="1"/>
-    <col min="10743" max="10743" width="9.109375" style="3" customWidth="1"/>
-    <col min="10744" max="10744" width="3.109375" style="3" customWidth="1"/>
-    <col min="10745" max="10745" width="5.6640625" style="3" customWidth="1"/>
-    <col min="10746" max="10746" width="6.44140625" style="3" customWidth="1"/>
+    <col min="10741" max="10741" width="9.25" style="3" customWidth="1"/>
+    <col min="10742" max="10742" width="12.25" style="3" customWidth="1"/>
+    <col min="10743" max="10743" width="9.125" style="3" customWidth="1"/>
+    <col min="10744" max="10744" width="3.125" style="3" customWidth="1"/>
+    <col min="10745" max="10745" width="5.625" style="3" customWidth="1"/>
+    <col min="10746" max="10746" width="6.5" style="3" customWidth="1"/>
     <col min="10747" max="10747" width="1" style="3" customWidth="1"/>
     <col min="10748" max="10748" width="3" style="3" customWidth="1"/>
-    <col min="10749" max="10749" width="7.109375" style="3" customWidth="1"/>
-    <col min="10750" max="10750" width="2.77734375" style="3" customWidth="1"/>
-    <col min="10751" max="10751" width="8.6640625" style="3" customWidth="1"/>
+    <col min="10749" max="10749" width="7.125" style="3" customWidth="1"/>
+    <col min="10750" max="10750" width="2.75" style="3" customWidth="1"/>
+    <col min="10751" max="10751" width="8.625" style="3" customWidth="1"/>
     <col min="10752" max="10762" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="10763" max="10787" width="9" style="3" customWidth="1"/>
     <col min="10788" max="10987" width="9" style="3"/>
-    <col min="10988" max="10988" width="1.6640625" style="3" customWidth="1"/>
-    <col min="10989" max="10989" width="1.77734375" style="3" customWidth="1"/>
-    <col min="10990" max="10990" width="7.33203125" style="3" customWidth="1"/>
-    <col min="10991" max="10991" width="4.109375" style="3" customWidth="1"/>
-    <col min="10992" max="10992" width="2.33203125" style="3" customWidth="1"/>
+    <col min="10988" max="10988" width="1.625" style="3" customWidth="1"/>
+    <col min="10989" max="10989" width="1.75" style="3" customWidth="1"/>
+    <col min="10990" max="10990" width="7.375" style="3" customWidth="1"/>
+    <col min="10991" max="10991" width="4.125" style="3" customWidth="1"/>
+    <col min="10992" max="10992" width="2.375" style="3" customWidth="1"/>
     <col min="10993" max="10993" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10994" max="10994" width="2.109375" style="3" customWidth="1"/>
-    <col min="10995" max="10995" width="2.6640625" style="3" customWidth="1"/>
+    <col min="10994" max="10994" width="2.125" style="3" customWidth="1"/>
+    <col min="10995" max="10995" width="2.625" style="3" customWidth="1"/>
     <col min="10996" max="10996" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="10997" max="10997" width="9.21875" style="3" customWidth="1"/>
-    <col min="10998" max="10998" width="12.21875" style="3" customWidth="1"/>
-    <col min="10999" max="10999" width="9.109375" style="3" customWidth="1"/>
-    <col min="11000" max="11000" width="3.109375" style="3" customWidth="1"/>
-    <col min="11001" max="11001" width="5.6640625" style="3" customWidth="1"/>
-    <col min="11002" max="11002" width="6.44140625" style="3" customWidth="1"/>
+    <col min="10997" max="10997" width="9.25" style="3" customWidth="1"/>
+    <col min="10998" max="10998" width="12.25" style="3" customWidth="1"/>
+    <col min="10999" max="10999" width="9.125" style="3" customWidth="1"/>
+    <col min="11000" max="11000" width="3.125" style="3" customWidth="1"/>
+    <col min="11001" max="11001" width="5.625" style="3" customWidth="1"/>
+    <col min="11002" max="11002" width="6.5" style="3" customWidth="1"/>
     <col min="11003" max="11003" width="1" style="3" customWidth="1"/>
     <col min="11004" max="11004" width="3" style="3" customWidth="1"/>
-    <col min="11005" max="11005" width="7.109375" style="3" customWidth="1"/>
-    <col min="11006" max="11006" width="2.77734375" style="3" customWidth="1"/>
-    <col min="11007" max="11007" width="8.6640625" style="3" customWidth="1"/>
+    <col min="11005" max="11005" width="7.125" style="3" customWidth="1"/>
+    <col min="11006" max="11006" width="2.75" style="3" customWidth="1"/>
+    <col min="11007" max="11007" width="8.625" style="3" customWidth="1"/>
     <col min="11008" max="11018" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11019" max="11043" width="9" style="3" customWidth="1"/>
     <col min="11044" max="11243" width="9" style="3"/>
-    <col min="11244" max="11244" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11245" max="11245" width="1.77734375" style="3" customWidth="1"/>
-    <col min="11246" max="11246" width="7.33203125" style="3" customWidth="1"/>
-    <col min="11247" max="11247" width="4.109375" style="3" customWidth="1"/>
-    <col min="11248" max="11248" width="2.33203125" style="3" customWidth="1"/>
+    <col min="11244" max="11244" width="1.625" style="3" customWidth="1"/>
+    <col min="11245" max="11245" width="1.75" style="3" customWidth="1"/>
+    <col min="11246" max="11246" width="7.375" style="3" customWidth="1"/>
+    <col min="11247" max="11247" width="4.125" style="3" customWidth="1"/>
+    <col min="11248" max="11248" width="2.375" style="3" customWidth="1"/>
     <col min="11249" max="11249" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11250" max="11250" width="2.109375" style="3" customWidth="1"/>
-    <col min="11251" max="11251" width="2.6640625" style="3" customWidth="1"/>
+    <col min="11250" max="11250" width="2.125" style="3" customWidth="1"/>
+    <col min="11251" max="11251" width="2.625" style="3" customWidth="1"/>
     <col min="11252" max="11252" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11253" max="11253" width="9.21875" style="3" customWidth="1"/>
-    <col min="11254" max="11254" width="12.21875" style="3" customWidth="1"/>
-    <col min="11255" max="11255" width="9.109375" style="3" customWidth="1"/>
-    <col min="11256" max="11256" width="3.109375" style="3" customWidth="1"/>
-    <col min="11257" max="11257" width="5.6640625" style="3" customWidth="1"/>
-    <col min="11258" max="11258" width="6.44140625" style="3" customWidth="1"/>
+    <col min="11253" max="11253" width="9.25" style="3" customWidth="1"/>
+    <col min="11254" max="11254" width="12.25" style="3" customWidth="1"/>
+    <col min="11255" max="11255" width="9.125" style="3" customWidth="1"/>
+    <col min="11256" max="11256" width="3.125" style="3" customWidth="1"/>
+    <col min="11257" max="11257" width="5.625" style="3" customWidth="1"/>
+    <col min="11258" max="11258" width="6.5" style="3" customWidth="1"/>
     <col min="11259" max="11259" width="1" style="3" customWidth="1"/>
     <col min="11260" max="11260" width="3" style="3" customWidth="1"/>
-    <col min="11261" max="11261" width="7.109375" style="3" customWidth="1"/>
-    <col min="11262" max="11262" width="2.77734375" style="3" customWidth="1"/>
-    <col min="11263" max="11263" width="8.6640625" style="3" customWidth="1"/>
+    <col min="11261" max="11261" width="7.125" style="3" customWidth="1"/>
+    <col min="11262" max="11262" width="2.75" style="3" customWidth="1"/>
+    <col min="11263" max="11263" width="8.625" style="3" customWidth="1"/>
     <col min="11264" max="11274" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11275" max="11299" width="9" style="3" customWidth="1"/>
     <col min="11300" max="11499" width="9" style="3"/>
-    <col min="11500" max="11500" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11501" max="11501" width="1.77734375" style="3" customWidth="1"/>
-    <col min="11502" max="11502" width="7.33203125" style="3" customWidth="1"/>
-    <col min="11503" max="11503" width="4.109375" style="3" customWidth="1"/>
-    <col min="11504" max="11504" width="2.33203125" style="3" customWidth="1"/>
+    <col min="11500" max="11500" width="1.625" style="3" customWidth="1"/>
+    <col min="11501" max="11501" width="1.75" style="3" customWidth="1"/>
+    <col min="11502" max="11502" width="7.375" style="3" customWidth="1"/>
+    <col min="11503" max="11503" width="4.125" style="3" customWidth="1"/>
+    <col min="11504" max="11504" width="2.375" style="3" customWidth="1"/>
     <col min="11505" max="11505" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11506" max="11506" width="2.109375" style="3" customWidth="1"/>
-    <col min="11507" max="11507" width="2.6640625" style="3" customWidth="1"/>
+    <col min="11506" max="11506" width="2.125" style="3" customWidth="1"/>
+    <col min="11507" max="11507" width="2.625" style="3" customWidth="1"/>
     <col min="11508" max="11508" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11509" max="11509" width="9.21875" style="3" customWidth="1"/>
-    <col min="11510" max="11510" width="12.21875" style="3" customWidth="1"/>
-    <col min="11511" max="11511" width="9.109375" style="3" customWidth="1"/>
-    <col min="11512" max="11512" width="3.109375" style="3" customWidth="1"/>
-    <col min="11513" max="11513" width="5.6640625" style="3" customWidth="1"/>
-    <col min="11514" max="11514" width="6.44140625" style="3" customWidth="1"/>
+    <col min="11509" max="11509" width="9.25" style="3" customWidth="1"/>
+    <col min="11510" max="11510" width="12.25" style="3" customWidth="1"/>
+    <col min="11511" max="11511" width="9.125" style="3" customWidth="1"/>
+    <col min="11512" max="11512" width="3.125" style="3" customWidth="1"/>
+    <col min="11513" max="11513" width="5.625" style="3" customWidth="1"/>
+    <col min="11514" max="11514" width="6.5" style="3" customWidth="1"/>
     <col min="11515" max="11515" width="1" style="3" customWidth="1"/>
     <col min="11516" max="11516" width="3" style="3" customWidth="1"/>
-    <col min="11517" max="11517" width="7.109375" style="3" customWidth="1"/>
-    <col min="11518" max="11518" width="2.77734375" style="3" customWidth="1"/>
-    <col min="11519" max="11519" width="8.6640625" style="3" customWidth="1"/>
+    <col min="11517" max="11517" width="7.125" style="3" customWidth="1"/>
+    <col min="11518" max="11518" width="2.75" style="3" customWidth="1"/>
+    <col min="11519" max="11519" width="8.625" style="3" customWidth="1"/>
     <col min="11520" max="11530" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11531" max="11555" width="9" style="3" customWidth="1"/>
     <col min="11556" max="11755" width="9" style="3"/>
-    <col min="11756" max="11756" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11757" max="11757" width="1.77734375" style="3" customWidth="1"/>
-    <col min="11758" max="11758" width="7.33203125" style="3" customWidth="1"/>
-    <col min="11759" max="11759" width="4.109375" style="3" customWidth="1"/>
-    <col min="11760" max="11760" width="2.33203125" style="3" customWidth="1"/>
+    <col min="11756" max="11756" width="1.625" style="3" customWidth="1"/>
+    <col min="11757" max="11757" width="1.75" style="3" customWidth="1"/>
+    <col min="11758" max="11758" width="7.375" style="3" customWidth="1"/>
+    <col min="11759" max="11759" width="4.125" style="3" customWidth="1"/>
+    <col min="11760" max="11760" width="2.375" style="3" customWidth="1"/>
     <col min="11761" max="11761" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11762" max="11762" width="2.109375" style="3" customWidth="1"/>
-    <col min="11763" max="11763" width="2.6640625" style="3" customWidth="1"/>
+    <col min="11762" max="11762" width="2.125" style="3" customWidth="1"/>
+    <col min="11763" max="11763" width="2.625" style="3" customWidth="1"/>
     <col min="11764" max="11764" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11765" max="11765" width="9.21875" style="3" customWidth="1"/>
-    <col min="11766" max="11766" width="12.21875" style="3" customWidth="1"/>
-    <col min="11767" max="11767" width="9.109375" style="3" customWidth="1"/>
-    <col min="11768" max="11768" width="3.109375" style="3" customWidth="1"/>
-    <col min="11769" max="11769" width="5.6640625" style="3" customWidth="1"/>
-    <col min="11770" max="11770" width="6.44140625" style="3" customWidth="1"/>
+    <col min="11765" max="11765" width="9.25" style="3" customWidth="1"/>
+    <col min="11766" max="11766" width="12.25" style="3" customWidth="1"/>
+    <col min="11767" max="11767" width="9.125" style="3" customWidth="1"/>
+    <col min="11768" max="11768" width="3.125" style="3" customWidth="1"/>
+    <col min="11769" max="11769" width="5.625" style="3" customWidth="1"/>
+    <col min="11770" max="11770" width="6.5" style="3" customWidth="1"/>
     <col min="11771" max="11771" width="1" style="3" customWidth="1"/>
     <col min="11772" max="11772" width="3" style="3" customWidth="1"/>
-    <col min="11773" max="11773" width="7.109375" style="3" customWidth="1"/>
-    <col min="11774" max="11774" width="2.77734375" style="3" customWidth="1"/>
-    <col min="11775" max="11775" width="8.6640625" style="3" customWidth="1"/>
+    <col min="11773" max="11773" width="7.125" style="3" customWidth="1"/>
+    <col min="11774" max="11774" width="2.75" style="3" customWidth="1"/>
+    <col min="11775" max="11775" width="8.625" style="3" customWidth="1"/>
     <col min="11776" max="11786" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11787" max="11811" width="9" style="3" customWidth="1"/>
     <col min="11812" max="12011" width="9" style="3"/>
-    <col min="12012" max="12012" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12013" max="12013" width="1.77734375" style="3" customWidth="1"/>
-    <col min="12014" max="12014" width="7.33203125" style="3" customWidth="1"/>
-    <col min="12015" max="12015" width="4.109375" style="3" customWidth="1"/>
-    <col min="12016" max="12016" width="2.33203125" style="3" customWidth="1"/>
+    <col min="12012" max="12012" width="1.625" style="3" customWidth="1"/>
+    <col min="12013" max="12013" width="1.75" style="3" customWidth="1"/>
+    <col min="12014" max="12014" width="7.375" style="3" customWidth="1"/>
+    <col min="12015" max="12015" width="4.125" style="3" customWidth="1"/>
+    <col min="12016" max="12016" width="2.375" style="3" customWidth="1"/>
     <col min="12017" max="12017" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12018" max="12018" width="2.109375" style="3" customWidth="1"/>
-    <col min="12019" max="12019" width="2.6640625" style="3" customWidth="1"/>
+    <col min="12018" max="12018" width="2.125" style="3" customWidth="1"/>
+    <col min="12019" max="12019" width="2.625" style="3" customWidth="1"/>
     <col min="12020" max="12020" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12021" max="12021" width="9.21875" style="3" customWidth="1"/>
-    <col min="12022" max="12022" width="12.21875" style="3" customWidth="1"/>
-    <col min="12023" max="12023" width="9.109375" style="3" customWidth="1"/>
-    <col min="12024" max="12024" width="3.109375" style="3" customWidth="1"/>
-    <col min="12025" max="12025" width="5.6640625" style="3" customWidth="1"/>
-    <col min="12026" max="12026" width="6.44140625" style="3" customWidth="1"/>
+    <col min="12021" max="12021" width="9.25" style="3" customWidth="1"/>
+    <col min="12022" max="12022" width="12.25" style="3" customWidth="1"/>
+    <col min="12023" max="12023" width="9.125" style="3" customWidth="1"/>
+    <col min="12024" max="12024" width="3.125" style="3" customWidth="1"/>
+    <col min="12025" max="12025" width="5.625" style="3" customWidth="1"/>
+    <col min="12026" max="12026" width="6.5" style="3" customWidth="1"/>
     <col min="12027" max="12027" width="1" style="3" customWidth="1"/>
     <col min="12028" max="12028" width="3" style="3" customWidth="1"/>
-    <col min="12029" max="12029" width="7.109375" style="3" customWidth="1"/>
-    <col min="12030" max="12030" width="2.77734375" style="3" customWidth="1"/>
-    <col min="12031" max="12031" width="8.6640625" style="3" customWidth="1"/>
+    <col min="12029" max="12029" width="7.125" style="3" customWidth="1"/>
+    <col min="12030" max="12030" width="2.75" style="3" customWidth="1"/>
+    <col min="12031" max="12031" width="8.625" style="3" customWidth="1"/>
     <col min="12032" max="12042" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="12043" max="12067" width="9" style="3" customWidth="1"/>
     <col min="12068" max="12267" width="9" style="3"/>
-    <col min="12268" max="12268" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12269" max="12269" width="1.77734375" style="3" customWidth="1"/>
-    <col min="12270" max="12270" width="7.33203125" style="3" customWidth="1"/>
-    <col min="12271" max="12271" width="4.109375" style="3" customWidth="1"/>
-    <col min="12272" max="12272" width="2.33203125" style="3" customWidth="1"/>
+    <col min="12268" max="12268" width="1.625" style="3" customWidth="1"/>
+    <col min="12269" max="12269" width="1.75" style="3" customWidth="1"/>
+    <col min="12270" max="12270" width="7.375" style="3" customWidth="1"/>
+    <col min="12271" max="12271" width="4.125" style="3" customWidth="1"/>
+    <col min="12272" max="12272" width="2.375" style="3" customWidth="1"/>
     <col min="12273" max="12273" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12274" max="12274" width="2.109375" style="3" customWidth="1"/>
-    <col min="12275" max="12275" width="2.6640625" style="3" customWidth="1"/>
+    <col min="12274" max="12274" width="2.125" style="3" customWidth="1"/>
+    <col min="12275" max="12275" width="2.625" style="3" customWidth="1"/>
     <col min="12276" max="12276" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12277" max="12277" width="9.21875" style="3" customWidth="1"/>
-    <col min="12278" max="12278" width="12.21875" style="3" customWidth="1"/>
-    <col min="12279" max="12279" width="9.109375" style="3" customWidth="1"/>
-    <col min="12280" max="12280" width="3.109375" style="3" customWidth="1"/>
-    <col min="12281" max="12281" width="5.6640625" style="3" customWidth="1"/>
-    <col min="12282" max="12282" width="6.44140625" style="3" customWidth="1"/>
+    <col min="12277" max="12277" width="9.25" style="3" customWidth="1"/>
+    <col min="12278" max="12278" width="12.25" style="3" customWidth="1"/>
+    <col min="12279" max="12279" width="9.125" style="3" customWidth="1"/>
+    <col min="12280" max="12280" width="3.125" style="3" customWidth="1"/>
+    <col min="12281" max="12281" width="5.625" style="3" customWidth="1"/>
+    <col min="12282" max="12282" width="6.5" style="3" customWidth="1"/>
     <col min="12283" max="12283" width="1" style="3" customWidth="1"/>
     <col min="12284" max="12284" width="3" style="3" customWidth="1"/>
-    <col min="12285" max="12285" width="7.109375" style="3" customWidth="1"/>
-    <col min="12286" max="12286" width="2.77734375" style="3" customWidth="1"/>
-    <col min="12287" max="12287" width="8.6640625" style="3" customWidth="1"/>
+    <col min="12285" max="12285" width="7.125" style="3" customWidth="1"/>
+    <col min="12286" max="12286" width="2.75" style="3" customWidth="1"/>
+    <col min="12287" max="12287" width="8.625" style="3" customWidth="1"/>
     <col min="12288" max="12298" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="12299" max="12323" width="9" style="3" customWidth="1"/>
     <col min="12324" max="12523" width="9" style="3"/>
-    <col min="12524" max="12524" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12525" max="12525" width="1.77734375" style="3" customWidth="1"/>
-    <col min="12526" max="12526" width="7.33203125" style="3" customWidth="1"/>
-    <col min="12527" max="12527" width="4.109375" style="3" customWidth="1"/>
-    <col min="12528" max="12528" width="2.33203125" style="3" customWidth="1"/>
+    <col min="12524" max="12524" width="1.625" style="3" customWidth="1"/>
+    <col min="12525" max="12525" width="1.75" style="3" customWidth="1"/>
+    <col min="12526" max="12526" width="7.375" style="3" customWidth="1"/>
+    <col min="12527" max="12527" width="4.125" style="3" customWidth="1"/>
+    <col min="12528" max="12528" width="2.375" style="3" customWidth="1"/>
     <col min="12529" max="12529" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12530" max="12530" width="2.109375" style="3" customWidth="1"/>
-    <col min="12531" max="12531" width="2.6640625" style="3" customWidth="1"/>
+    <col min="12530" max="12530" width="2.125" style="3" customWidth="1"/>
+    <col min="12531" max="12531" width="2.625" style="3" customWidth="1"/>
     <col min="12532" max="12532" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12533" max="12533" width="9.21875" style="3" customWidth="1"/>
-    <col min="12534" max="12534" width="12.21875" style="3" customWidth="1"/>
-    <col min="12535" max="12535" width="9.109375" style="3" customWidth="1"/>
-    <col min="12536" max="12536" width="3.109375" style="3" customWidth="1"/>
-    <col min="12537" max="12537" width="5.6640625" style="3" customWidth="1"/>
-    <col min="12538" max="12538" width="6.44140625" style="3" customWidth="1"/>
+    <col min="12533" max="12533" width="9.25" style="3" customWidth="1"/>
+    <col min="12534" max="12534" width="12.25" style="3" customWidth="1"/>
+    <col min="12535" max="12535" width="9.125" style="3" customWidth="1"/>
+    <col min="12536" max="12536" width="3.125" style="3" customWidth="1"/>
+    <col min="12537" max="12537" width="5.625" style="3" customWidth="1"/>
+    <col min="12538" max="12538" width="6.5" style="3" customWidth="1"/>
     <col min="12539" max="12539" width="1" style="3" customWidth="1"/>
     <col min="12540" max="12540" width="3" style="3" customWidth="1"/>
-    <col min="12541" max="12541" width="7.109375" style="3" customWidth="1"/>
-    <col min="12542" max="12542" width="2.77734375" style="3" customWidth="1"/>
-    <col min="12543" max="12543" width="8.6640625" style="3" customWidth="1"/>
+    <col min="12541" max="12541" width="7.125" style="3" customWidth="1"/>
+    <col min="12542" max="12542" width="2.75" style="3" customWidth="1"/>
+    <col min="12543" max="12543" width="8.625" style="3" customWidth="1"/>
     <col min="12544" max="12554" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="12555" max="12579" width="9" style="3" customWidth="1"/>
     <col min="12580" max="12779" width="9" style="3"/>
-    <col min="12780" max="12780" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12781" max="12781" width="1.77734375" style="3" customWidth="1"/>
-    <col min="12782" max="12782" width="7.33203125" style="3" customWidth="1"/>
-    <col min="12783" max="12783" width="4.109375" style="3" customWidth="1"/>
-    <col min="12784" max="12784" width="2.33203125" style="3" customWidth="1"/>
+    <col min="12780" max="12780" width="1.625" style="3" customWidth="1"/>
+    <col min="12781" max="12781" width="1.75" style="3" customWidth="1"/>
+    <col min="12782" max="12782" width="7.375" style="3" customWidth="1"/>
+    <col min="12783" max="12783" width="4.125" style="3" customWidth="1"/>
+    <col min="12784" max="12784" width="2.375" style="3" customWidth="1"/>
     <col min="12785" max="12785" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12786" max="12786" width="2.109375" style="3" customWidth="1"/>
-    <col min="12787" max="12787" width="2.6640625" style="3" customWidth="1"/>
+    <col min="12786" max="12786" width="2.125" style="3" customWidth="1"/>
+    <col min="12787" max="12787" width="2.625" style="3" customWidth="1"/>
     <col min="12788" max="12788" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12789" max="12789" width="9.21875" style="3" customWidth="1"/>
-    <col min="12790" max="12790" width="12.21875" style="3" customWidth="1"/>
-    <col min="12791" max="12791" width="9.109375" style="3" customWidth="1"/>
-    <col min="12792" max="12792" width="3.109375" style="3" customWidth="1"/>
-    <col min="12793" max="12793" width="5.6640625" style="3" customWidth="1"/>
-    <col min="12794" max="12794" width="6.44140625" style="3" customWidth="1"/>
+    <col min="12789" max="12789" width="9.25" style="3" customWidth="1"/>
+    <col min="12790" max="12790" width="12.25" style="3" customWidth="1"/>
+    <col min="12791" max="12791" width="9.125" style="3" customWidth="1"/>
+    <col min="12792" max="12792" width="3.125" style="3" customWidth="1"/>
+    <col min="12793" max="12793" width="5.625" style="3" customWidth="1"/>
+    <col min="12794" max="12794" width="6.5" style="3" customWidth="1"/>
     <col min="12795" max="12795" width="1" style="3" customWidth="1"/>
     <col min="12796" max="12796" width="3" style="3" customWidth="1"/>
-    <col min="12797" max="12797" width="7.109375" style="3" customWidth="1"/>
-    <col min="12798" max="12798" width="2.77734375" style="3" customWidth="1"/>
-    <col min="12799" max="12799" width="8.6640625" style="3" customWidth="1"/>
+    <col min="12797" max="12797" width="7.125" style="3" customWidth="1"/>
+    <col min="12798" max="12798" width="2.75" style="3" customWidth="1"/>
+    <col min="12799" max="12799" width="8.625" style="3" customWidth="1"/>
     <col min="12800" max="12810" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="12811" max="12835" width="9" style="3" customWidth="1"/>
     <col min="12836" max="13035" width="9" style="3"/>
-    <col min="13036" max="13036" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13037" max="13037" width="1.77734375" style="3" customWidth="1"/>
-    <col min="13038" max="13038" width="7.33203125" style="3" customWidth="1"/>
-    <col min="13039" max="13039" width="4.109375" style="3" customWidth="1"/>
-    <col min="13040" max="13040" width="2.33203125" style="3" customWidth="1"/>
+    <col min="13036" max="13036" width="1.625" style="3" customWidth="1"/>
+    <col min="13037" max="13037" width="1.75" style="3" customWidth="1"/>
+    <col min="13038" max="13038" width="7.375" style="3" customWidth="1"/>
+    <col min="13039" max="13039" width="4.125" style="3" customWidth="1"/>
+    <col min="13040" max="13040" width="2.375" style="3" customWidth="1"/>
     <col min="13041" max="13041" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13042" max="13042" width="2.109375" style="3" customWidth="1"/>
-    <col min="13043" max="13043" width="2.6640625" style="3" customWidth="1"/>
+    <col min="13042" max="13042" width="2.125" style="3" customWidth="1"/>
+    <col min="13043" max="13043" width="2.625" style="3" customWidth="1"/>
     <col min="13044" max="13044" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13045" max="13045" width="9.21875" style="3" customWidth="1"/>
-    <col min="13046" max="13046" width="12.21875" style="3" customWidth="1"/>
-    <col min="13047" max="13047" width="9.109375" style="3" customWidth="1"/>
-    <col min="13048" max="13048" width="3.109375" style="3" customWidth="1"/>
-    <col min="13049" max="13049" width="5.6640625" style="3" customWidth="1"/>
-    <col min="13050" max="13050" width="6.44140625" style="3" customWidth="1"/>
+    <col min="13045" max="13045" width="9.25" style="3" customWidth="1"/>
+    <col min="13046" max="13046" width="12.25" style="3" customWidth="1"/>
+    <col min="13047" max="13047" width="9.125" style="3" customWidth="1"/>
+    <col min="13048" max="13048" width="3.125" style="3" customWidth="1"/>
+    <col min="13049" max="13049" width="5.625" style="3" customWidth="1"/>
+    <col min="13050" max="13050" width="6.5" style="3" customWidth="1"/>
     <col min="13051" max="13051" width="1" style="3" customWidth="1"/>
     <col min="13052" max="13052" width="3" style="3" customWidth="1"/>
-    <col min="13053" max="13053" width="7.109375" style="3" customWidth="1"/>
-    <col min="13054" max="13054" width="2.77734375" style="3" customWidth="1"/>
-    <col min="13055" max="13055" width="8.6640625" style="3" customWidth="1"/>
+    <col min="13053" max="13053" width="7.125" style="3" customWidth="1"/>
+    <col min="13054" max="13054" width="2.75" style="3" customWidth="1"/>
+    <col min="13055" max="13055" width="8.625" style="3" customWidth="1"/>
     <col min="13056" max="13066" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="13067" max="13091" width="9" style="3" customWidth="1"/>
     <col min="13092" max="13291" width="9" style="3"/>
-    <col min="13292" max="13292" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13293" max="13293" width="1.77734375" style="3" customWidth="1"/>
-    <col min="13294" max="13294" width="7.33203125" style="3" customWidth="1"/>
-    <col min="13295" max="13295" width="4.109375" style="3" customWidth="1"/>
-    <col min="13296" max="13296" width="2.33203125" style="3" customWidth="1"/>
+    <col min="13292" max="13292" width="1.625" style="3" customWidth="1"/>
+    <col min="13293" max="13293" width="1.75" style="3" customWidth="1"/>
+    <col min="13294" max="13294" width="7.375" style="3" customWidth="1"/>
+    <col min="13295" max="13295" width="4.125" style="3" customWidth="1"/>
+    <col min="13296" max="13296" width="2.375" style="3" customWidth="1"/>
     <col min="13297" max="13297" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13298" max="13298" width="2.109375" style="3" customWidth="1"/>
-    <col min="13299" max="13299" width="2.6640625" style="3" customWidth="1"/>
+    <col min="13298" max="13298" width="2.125" style="3" customWidth="1"/>
+    <col min="13299" max="13299" width="2.625" style="3" customWidth="1"/>
     <col min="13300" max="13300" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13301" max="13301" width="9.21875" style="3" customWidth="1"/>
-    <col min="13302" max="13302" width="12.21875" style="3" customWidth="1"/>
-    <col min="13303" max="13303" width="9.109375" style="3" customWidth="1"/>
-    <col min="13304" max="13304" width="3.109375" style="3" customWidth="1"/>
-    <col min="13305" max="13305" width="5.6640625" style="3" customWidth="1"/>
-    <col min="13306" max="13306" width="6.44140625" style="3" customWidth="1"/>
+    <col min="13301" max="13301" width="9.25" style="3" customWidth="1"/>
+    <col min="13302" max="13302" width="12.25" style="3" customWidth="1"/>
+    <col min="13303" max="13303" width="9.125" style="3" customWidth="1"/>
+    <col min="13304" max="13304" width="3.125" style="3" customWidth="1"/>
+    <col min="13305" max="13305" width="5.625" style="3" customWidth="1"/>
+    <col min="13306" max="13306" width="6.5" style="3" customWidth="1"/>
     <col min="13307" max="13307" width="1" style="3" customWidth="1"/>
     <col min="13308" max="13308" width="3" style="3" customWidth="1"/>
-    <col min="13309" max="13309" width="7.109375" style="3" customWidth="1"/>
-    <col min="13310" max="13310" width="2.77734375" style="3" customWidth="1"/>
-    <col min="13311" max="13311" width="8.6640625" style="3" customWidth="1"/>
+    <col min="13309" max="13309" width="7.125" style="3" customWidth="1"/>
+    <col min="13310" max="13310" width="2.75" style="3" customWidth="1"/>
+    <col min="13311" max="13311" width="8.625" style="3" customWidth="1"/>
     <col min="13312" max="13322" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="13323" max="13347" width="9" style="3" customWidth="1"/>
     <col min="13348" max="13547" width="9" style="3"/>
-    <col min="13548" max="13548" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13549" max="13549" width="1.77734375" style="3" customWidth="1"/>
-    <col min="13550" max="13550" width="7.33203125" style="3" customWidth="1"/>
-    <col min="13551" max="13551" width="4.109375" style="3" customWidth="1"/>
-    <col min="13552" max="13552" width="2.33203125" style="3" customWidth="1"/>
+    <col min="13548" max="13548" width="1.625" style="3" customWidth="1"/>
+    <col min="13549" max="13549" width="1.75" style="3" customWidth="1"/>
+    <col min="13550" max="13550" width="7.375" style="3" customWidth="1"/>
+    <col min="13551" max="13551" width="4.125" style="3" customWidth="1"/>
+    <col min="13552" max="13552" width="2.375" style="3" customWidth="1"/>
     <col min="13553" max="13553" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13554" max="13554" width="2.109375" style="3" customWidth="1"/>
-    <col min="13555" max="13555" width="2.6640625" style="3" customWidth="1"/>
+    <col min="13554" max="13554" width="2.125" style="3" customWidth="1"/>
+    <col min="13555" max="13555" width="2.625" style="3" customWidth="1"/>
     <col min="13556" max="13556" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13557" max="13557" width="9.21875" style="3" customWidth="1"/>
-    <col min="13558" max="13558" width="12.21875" style="3" customWidth="1"/>
-    <col min="13559" max="13559" width="9.109375" style="3" customWidth="1"/>
-    <col min="13560" max="13560" width="3.109375" style="3" customWidth="1"/>
-    <col min="13561" max="13561" width="5.6640625" style="3" customWidth="1"/>
-    <col min="13562" max="13562" width="6.44140625" style="3" customWidth="1"/>
+    <col min="13557" max="13557" width="9.25" style="3" customWidth="1"/>
+    <col min="13558" max="13558" width="12.25" style="3" customWidth="1"/>
+    <col min="13559" max="13559" width="9.125" style="3" customWidth="1"/>
+    <col min="13560" max="13560" width="3.125" style="3" customWidth="1"/>
+    <col min="13561" max="13561" width="5.625" style="3" customWidth="1"/>
+    <col min="13562" max="13562" width="6.5" style="3" customWidth="1"/>
     <col min="13563" max="13563" width="1" style="3" customWidth="1"/>
     <col min="13564" max="13564" width="3" style="3" customWidth="1"/>
-    <col min="13565" max="13565" width="7.109375" style="3" customWidth="1"/>
-    <col min="13566" max="13566" width="2.77734375" style="3" customWidth="1"/>
-    <col min="13567" max="13567" width="8.6640625" style="3" customWidth="1"/>
+    <col min="13565" max="13565" width="7.125" style="3" customWidth="1"/>
+    <col min="13566" max="13566" width="2.75" style="3" customWidth="1"/>
+    <col min="13567" max="13567" width="8.625" style="3" customWidth="1"/>
     <col min="13568" max="13578" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="13579" max="13603" width="9" style="3" customWidth="1"/>
     <col min="13604" max="13803" width="9" style="3"/>
-    <col min="13804" max="13804" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13805" max="13805" width="1.77734375" style="3" customWidth="1"/>
-    <col min="13806" max="13806" width="7.33203125" style="3" customWidth="1"/>
-    <col min="13807" max="13807" width="4.109375" style="3" customWidth="1"/>
-    <col min="13808" max="13808" width="2.33203125" style="3" customWidth="1"/>
+    <col min="13804" max="13804" width="1.625" style="3" customWidth="1"/>
+    <col min="13805" max="13805" width="1.75" style="3" customWidth="1"/>
+    <col min="13806" max="13806" width="7.375" style="3" customWidth="1"/>
+    <col min="13807" max="13807" width="4.125" style="3" customWidth="1"/>
+    <col min="13808" max="13808" width="2.375" style="3" customWidth="1"/>
     <col min="13809" max="13809" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13810" max="13810" width="2.109375" style="3" customWidth="1"/>
-    <col min="13811" max="13811" width="2.6640625" style="3" customWidth="1"/>
+    <col min="13810" max="13810" width="2.125" style="3" customWidth="1"/>
+    <col min="13811" max="13811" width="2.625" style="3" customWidth="1"/>
     <col min="13812" max="13812" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="13813" max="13813" width="9.21875" style="3" customWidth="1"/>
-    <col min="13814" max="13814" width="12.21875" style="3" customWidth="1"/>
-    <col min="13815" max="13815" width="9.109375" style="3" customWidth="1"/>
-    <col min="13816" max="13816" width="3.109375" style="3" customWidth="1"/>
-    <col min="13817" max="13817" width="5.6640625" style="3" customWidth="1"/>
-    <col min="13818" max="13818" width="6.44140625" style="3" customWidth="1"/>
+    <col min="13813" max="13813" width="9.25" style="3" customWidth="1"/>
+    <col min="13814" max="13814" width="12.25" style="3" customWidth="1"/>
+    <col min="13815" max="13815" width="9.125" style="3" customWidth="1"/>
+    <col min="13816" max="13816" width="3.125" style="3" customWidth="1"/>
+    <col min="13817" max="13817" width="5.625" style="3" customWidth="1"/>
+    <col min="13818" max="13818" width="6.5" style="3" customWidth="1"/>
     <col min="13819" max="13819" width="1" style="3" customWidth="1"/>
     <col min="13820" max="13820" width="3" style="3" customWidth="1"/>
-    <col min="13821" max="13821" width="7.109375" style="3" customWidth="1"/>
-    <col min="13822" max="13822" width="2.77734375" style="3" customWidth="1"/>
-    <col min="13823" max="13823" width="8.6640625" style="3" customWidth="1"/>
+    <col min="13821" max="13821" width="7.125" style="3" customWidth="1"/>
+    <col min="13822" max="13822" width="2.75" style="3" customWidth="1"/>
+    <col min="13823" max="13823" width="8.625" style="3" customWidth="1"/>
     <col min="13824" max="13834" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="13835" max="13859" width="9" style="3" customWidth="1"/>
     <col min="13860" max="14059" width="9" style="3"/>
-    <col min="14060" max="14060" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14061" max="14061" width="1.77734375" style="3" customWidth="1"/>
-    <col min="14062" max="14062" width="7.33203125" style="3" customWidth="1"/>
-    <col min="14063" max="14063" width="4.109375" style="3" customWidth="1"/>
-    <col min="14064" max="14064" width="2.33203125" style="3" customWidth="1"/>
+    <col min="14060" max="14060" width="1.625" style="3" customWidth="1"/>
+    <col min="14061" max="14061" width="1.75" style="3" customWidth="1"/>
+    <col min="14062" max="14062" width="7.375" style="3" customWidth="1"/>
+    <col min="14063" max="14063" width="4.125" style="3" customWidth="1"/>
+    <col min="14064" max="14064" width="2.375" style="3" customWidth="1"/>
     <col min="14065" max="14065" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14066" max="14066" width="2.109375" style="3" customWidth="1"/>
-    <col min="14067" max="14067" width="2.6640625" style="3" customWidth="1"/>
+    <col min="14066" max="14066" width="2.125" style="3" customWidth="1"/>
+    <col min="14067" max="14067" width="2.625" style="3" customWidth="1"/>
     <col min="14068" max="14068" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14069" max="14069" width="9.21875" style="3" customWidth="1"/>
-    <col min="14070" max="14070" width="12.21875" style="3" customWidth="1"/>
-    <col min="14071" max="14071" width="9.109375" style="3" customWidth="1"/>
-    <col min="14072" max="14072" width="3.109375" style="3" customWidth="1"/>
-    <col min="14073" max="14073" width="5.6640625" style="3" customWidth="1"/>
-    <col min="14074" max="14074" width="6.44140625" style="3" customWidth="1"/>
+    <col min="14069" max="14069" width="9.25" style="3" customWidth="1"/>
+    <col min="14070" max="14070" width="12.25" style="3" customWidth="1"/>
+    <col min="14071" max="14071" width="9.125" style="3" customWidth="1"/>
+    <col min="14072" max="14072" width="3.125" style="3" customWidth="1"/>
+    <col min="14073" max="14073" width="5.625" style="3" customWidth="1"/>
+    <col min="14074" max="14074" width="6.5" style="3" customWidth="1"/>
     <col min="14075" max="14075" width="1" style="3" customWidth="1"/>
     <col min="14076" max="14076" width="3" style="3" customWidth="1"/>
-    <col min="14077" max="14077" width="7.109375" style="3" customWidth="1"/>
-    <col min="14078" max="14078" width="2.77734375" style="3" customWidth="1"/>
-    <col min="14079" max="14079" width="8.6640625" style="3" customWidth="1"/>
+    <col min="14077" max="14077" width="7.125" style="3" customWidth="1"/>
+    <col min="14078" max="14078" width="2.75" style="3" customWidth="1"/>
+    <col min="14079" max="14079" width="8.625" style="3" customWidth="1"/>
     <col min="14080" max="14090" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="14091" max="14115" width="9" style="3" customWidth="1"/>
     <col min="14116" max="14315" width="9" style="3"/>
-    <col min="14316" max="14316" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14317" max="14317" width="1.77734375" style="3" customWidth="1"/>
-    <col min="14318" max="14318" width="7.33203125" style="3" customWidth="1"/>
-    <col min="14319" max="14319" width="4.109375" style="3" customWidth="1"/>
-    <col min="14320" max="14320" width="2.33203125" style="3" customWidth="1"/>
+    <col min="14316" max="14316" width="1.625" style="3" customWidth="1"/>
+    <col min="14317" max="14317" width="1.75" style="3" customWidth="1"/>
+    <col min="14318" max="14318" width="7.375" style="3" customWidth="1"/>
+    <col min="14319" max="14319" width="4.125" style="3" customWidth="1"/>
+    <col min="14320" max="14320" width="2.375" style="3" customWidth="1"/>
     <col min="14321" max="14321" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14322" max="14322" width="2.109375" style="3" customWidth="1"/>
-    <col min="14323" max="14323" width="2.6640625" style="3" customWidth="1"/>
+    <col min="14322" max="14322" width="2.125" style="3" customWidth="1"/>
+    <col min="14323" max="14323" width="2.625" style="3" customWidth="1"/>
     <col min="14324" max="14324" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14325" max="14325" width="9.21875" style="3" customWidth="1"/>
-    <col min="14326" max="14326" width="12.21875" style="3" customWidth="1"/>
-    <col min="14327" max="14327" width="9.109375" style="3" customWidth="1"/>
-    <col min="14328" max="14328" width="3.109375" style="3" customWidth="1"/>
-    <col min="14329" max="14329" width="5.6640625" style="3" customWidth="1"/>
-    <col min="14330" max="14330" width="6.44140625" style="3" customWidth="1"/>
+    <col min="14325" max="14325" width="9.25" style="3" customWidth="1"/>
+    <col min="14326" max="14326" width="12.25" style="3" customWidth="1"/>
+    <col min="14327" max="14327" width="9.125" style="3" customWidth="1"/>
+    <col min="14328" max="14328" width="3.125" style="3" customWidth="1"/>
+    <col min="14329" max="14329" width="5.625" style="3" customWidth="1"/>
+    <col min="14330" max="14330" width="6.5" style="3" customWidth="1"/>
     <col min="14331" max="14331" width="1" style="3" customWidth="1"/>
     <col min="14332" max="14332" width="3" style="3" customWidth="1"/>
-    <col min="14333" max="14333" width="7.109375" style="3" customWidth="1"/>
-    <col min="14334" max="14334" width="2.77734375" style="3" customWidth="1"/>
-    <col min="14335" max="14335" width="8.6640625" style="3" customWidth="1"/>
+    <col min="14333" max="14333" width="7.125" style="3" customWidth="1"/>
+    <col min="14334" max="14334" width="2.75" style="3" customWidth="1"/>
+    <col min="14335" max="14335" width="8.625" style="3" customWidth="1"/>
     <col min="14336" max="14346" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="14347" max="14371" width="9" style="3" customWidth="1"/>
     <col min="14372" max="14571" width="9" style="3"/>
-    <col min="14572" max="14572" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14573" max="14573" width="1.77734375" style="3" customWidth="1"/>
-    <col min="14574" max="14574" width="7.33203125" style="3" customWidth="1"/>
-    <col min="14575" max="14575" width="4.109375" style="3" customWidth="1"/>
-    <col min="14576" max="14576" width="2.33203125" style="3" customWidth="1"/>
+    <col min="14572" max="14572" width="1.625" style="3" customWidth="1"/>
+    <col min="14573" max="14573" width="1.75" style="3" customWidth="1"/>
+    <col min="14574" max="14574" width="7.375" style="3" customWidth="1"/>
+    <col min="14575" max="14575" width="4.125" style="3" customWidth="1"/>
+    <col min="14576" max="14576" width="2.375" style="3" customWidth="1"/>
     <col min="14577" max="14577" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14578" max="14578" width="2.109375" style="3" customWidth="1"/>
-    <col min="14579" max="14579" width="2.6640625" style="3" customWidth="1"/>
+    <col min="14578" max="14578" width="2.125" style="3" customWidth="1"/>
+    <col min="14579" max="14579" width="2.625" style="3" customWidth="1"/>
     <col min="14580" max="14580" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14581" max="14581" width="9.21875" style="3" customWidth="1"/>
-    <col min="14582" max="14582" width="12.21875" style="3" customWidth="1"/>
-    <col min="14583" max="14583" width="9.109375" style="3" customWidth="1"/>
-    <col min="14584" max="14584" width="3.109375" style="3" customWidth="1"/>
-    <col min="14585" max="14585" width="5.6640625" style="3" customWidth="1"/>
-    <col min="14586" max="14586" width="6.44140625" style="3" customWidth="1"/>
+    <col min="14581" max="14581" width="9.25" style="3" customWidth="1"/>
+    <col min="14582" max="14582" width="12.25" style="3" customWidth="1"/>
+    <col min="14583" max="14583" width="9.125" style="3" customWidth="1"/>
+    <col min="14584" max="14584" width="3.125" style="3" customWidth="1"/>
+    <col min="14585" max="14585" width="5.625" style="3" customWidth="1"/>
+    <col min="14586" max="14586" width="6.5" style="3" customWidth="1"/>
     <col min="14587" max="14587" width="1" style="3" customWidth="1"/>
     <col min="14588" max="14588" width="3" style="3" customWidth="1"/>
-    <col min="14589" max="14589" width="7.109375" style="3" customWidth="1"/>
-    <col min="14590" max="14590" width="2.77734375" style="3" customWidth="1"/>
-    <col min="14591" max="14591" width="8.6640625" style="3" customWidth="1"/>
+    <col min="14589" max="14589" width="7.125" style="3" customWidth="1"/>
+    <col min="14590" max="14590" width="2.75" style="3" customWidth="1"/>
+    <col min="14591" max="14591" width="8.625" style="3" customWidth="1"/>
     <col min="14592" max="14602" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="14603" max="14627" width="9" style="3" customWidth="1"/>
     <col min="14628" max="14827" width="9" style="3"/>
-    <col min="14828" max="14828" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14829" max="14829" width="1.77734375" style="3" customWidth="1"/>
-    <col min="14830" max="14830" width="7.33203125" style="3" customWidth="1"/>
-    <col min="14831" max="14831" width="4.109375" style="3" customWidth="1"/>
-    <col min="14832" max="14832" width="2.33203125" style="3" customWidth="1"/>
+    <col min="14828" max="14828" width="1.625" style="3" customWidth="1"/>
+    <col min="14829" max="14829" width="1.75" style="3" customWidth="1"/>
+    <col min="14830" max="14830" width="7.375" style="3" customWidth="1"/>
+    <col min="14831" max="14831" width="4.125" style="3" customWidth="1"/>
+    <col min="14832" max="14832" width="2.375" style="3" customWidth="1"/>
     <col min="14833" max="14833" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14834" max="14834" width="2.109375" style="3" customWidth="1"/>
-    <col min="14835" max="14835" width="2.6640625" style="3" customWidth="1"/>
+    <col min="14834" max="14834" width="2.125" style="3" customWidth="1"/>
+    <col min="14835" max="14835" width="2.625" style="3" customWidth="1"/>
     <col min="14836" max="14836" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14837" max="14837" width="9.21875" style="3" customWidth="1"/>
-    <col min="14838" max="14838" width="12.21875" style="3" customWidth="1"/>
-    <col min="14839" max="14839" width="9.109375" style="3" customWidth="1"/>
-    <col min="14840" max="14840" width="3.109375" style="3" customWidth="1"/>
-    <col min="14841" max="14841" width="5.6640625" style="3" customWidth="1"/>
-    <col min="14842" max="14842" width="6.44140625" style="3" customWidth="1"/>
+    <col min="14837" max="14837" width="9.25" style="3" customWidth="1"/>
+    <col min="14838" max="14838" width="12.25" style="3" customWidth="1"/>
+    <col min="14839" max="14839" width="9.125" style="3" customWidth="1"/>
+    <col min="14840" max="14840" width="3.125" style="3" customWidth="1"/>
+    <col min="14841" max="14841" width="5.625" style="3" customWidth="1"/>
+    <col min="14842" max="14842" width="6.5" style="3" customWidth="1"/>
     <col min="14843" max="14843" width="1" style="3" customWidth="1"/>
     <col min="14844" max="14844" width="3" style="3" customWidth="1"/>
-    <col min="14845" max="14845" width="7.109375" style="3" customWidth="1"/>
-    <col min="14846" max="14846" width="2.77734375" style="3" customWidth="1"/>
-    <col min="14847" max="14847" width="8.6640625" style="3" customWidth="1"/>
+    <col min="14845" max="14845" width="7.125" style="3" customWidth="1"/>
+    <col min="14846" max="14846" width="2.75" style="3" customWidth="1"/>
+    <col min="14847" max="14847" width="8.625" style="3" customWidth="1"/>
     <col min="14848" max="14858" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="14859" max="14883" width="9" style="3" customWidth="1"/>
     <col min="14884" max="15083" width="9" style="3"/>
-    <col min="15084" max="15084" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15085" max="15085" width="1.77734375" style="3" customWidth="1"/>
-    <col min="15086" max="15086" width="7.33203125" style="3" customWidth="1"/>
-    <col min="15087" max="15087" width="4.109375" style="3" customWidth="1"/>
-    <col min="15088" max="15088" width="2.33203125" style="3" customWidth="1"/>
+    <col min="15084" max="15084" width="1.625" style="3" customWidth="1"/>
+    <col min="15085" max="15085" width="1.75" style="3" customWidth="1"/>
+    <col min="15086" max="15086" width="7.375" style="3" customWidth="1"/>
+    <col min="15087" max="15087" width="4.125" style="3" customWidth="1"/>
+    <col min="15088" max="15088" width="2.375" style="3" customWidth="1"/>
     <col min="15089" max="15089" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15090" max="15090" width="2.109375" style="3" customWidth="1"/>
-    <col min="15091" max="15091" width="2.6640625" style="3" customWidth="1"/>
+    <col min="15090" max="15090" width="2.125" style="3" customWidth="1"/>
+    <col min="15091" max="15091" width="2.625" style="3" customWidth="1"/>
     <col min="15092" max="15092" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15093" max="15093" width="9.21875" style="3" customWidth="1"/>
-    <col min="15094" max="15094" width="12.21875" style="3" customWidth="1"/>
-    <col min="15095" max="15095" width="9.109375" style="3" customWidth="1"/>
-    <col min="15096" max="15096" width="3.109375" style="3" customWidth="1"/>
-    <col min="15097" max="15097" width="5.6640625" style="3" customWidth="1"/>
-    <col min="15098" max="15098" width="6.44140625" style="3" customWidth="1"/>
+    <col min="15093" max="15093" width="9.25" style="3" customWidth="1"/>
+    <col min="15094" max="15094" width="12.25" style="3" customWidth="1"/>
+    <col min="15095" max="15095" width="9.125" style="3" customWidth="1"/>
+    <col min="15096" max="15096" width="3.125" style="3" customWidth="1"/>
+    <col min="15097" max="15097" width="5.625" style="3" customWidth="1"/>
+    <col min="15098" max="15098" width="6.5" style="3" customWidth="1"/>
     <col min="15099" max="15099" width="1" style="3" customWidth="1"/>
     <col min="15100" max="15100" width="3" style="3" customWidth="1"/>
-    <col min="15101" max="15101" width="7.109375" style="3" customWidth="1"/>
-    <col min="15102" max="15102" width="2.77734375" style="3" customWidth="1"/>
-    <col min="15103" max="15103" width="8.6640625" style="3" customWidth="1"/>
+    <col min="15101" max="15101" width="7.125" style="3" customWidth="1"/>
+    <col min="15102" max="15102" width="2.75" style="3" customWidth="1"/>
+    <col min="15103" max="15103" width="8.625" style="3" customWidth="1"/>
     <col min="15104" max="15114" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15115" max="15139" width="9" style="3" customWidth="1"/>
     <col min="15140" max="15339" width="9" style="3"/>
-    <col min="15340" max="15340" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15341" max="15341" width="1.77734375" style="3" customWidth="1"/>
-    <col min="15342" max="15342" width="7.33203125" style="3" customWidth="1"/>
-    <col min="15343" max="15343" width="4.109375" style="3" customWidth="1"/>
-    <col min="15344" max="15344" width="2.33203125" style="3" customWidth="1"/>
+    <col min="15340" max="15340" width="1.625" style="3" customWidth="1"/>
+    <col min="15341" max="15341" width="1.75" style="3" customWidth="1"/>
+    <col min="15342" max="15342" width="7.375" style="3" customWidth="1"/>
+    <col min="15343" max="15343" width="4.125" style="3" customWidth="1"/>
+    <col min="15344" max="15344" width="2.375" style="3" customWidth="1"/>
     <col min="15345" max="15345" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15346" max="15346" width="2.109375" style="3" customWidth="1"/>
-    <col min="15347" max="15347" width="2.6640625" style="3" customWidth="1"/>
+    <col min="15346" max="15346" width="2.125" style="3" customWidth="1"/>
+    <col min="15347" max="15347" width="2.625" style="3" customWidth="1"/>
     <col min="15348" max="15348" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15349" max="15349" width="9.21875" style="3" customWidth="1"/>
-    <col min="15350" max="15350" width="12.21875" style="3" customWidth="1"/>
-    <col min="15351" max="15351" width="9.109375" style="3" customWidth="1"/>
-    <col min="15352" max="15352" width="3.109375" style="3" customWidth="1"/>
-    <col min="15353" max="15353" width="5.6640625" style="3" customWidth="1"/>
-    <col min="15354" max="15354" width="6.44140625" style="3" customWidth="1"/>
+    <col min="15349" max="15349" width="9.25" style="3" customWidth="1"/>
+    <col min="15350" max="15350" width="12.25" style="3" customWidth="1"/>
+    <col min="15351" max="15351" width="9.125" style="3" customWidth="1"/>
+    <col min="15352" max="15352" width="3.125" style="3" customWidth="1"/>
+    <col min="15353" max="15353" width="5.625" style="3" customWidth="1"/>
+    <col min="15354" max="15354" width="6.5" style="3" customWidth="1"/>
     <col min="15355" max="15355" width="1" style="3" customWidth="1"/>
     <col min="15356" max="15356" width="3" style="3" customWidth="1"/>
-    <col min="15357" max="15357" width="7.109375" style="3" customWidth="1"/>
-    <col min="15358" max="15358" width="2.77734375" style="3" customWidth="1"/>
-    <col min="15359" max="15359" width="8.6640625" style="3" customWidth="1"/>
+    <col min="15357" max="15357" width="7.125" style="3" customWidth="1"/>
+    <col min="15358" max="15358" width="2.75" style="3" customWidth="1"/>
+    <col min="15359" max="15359" width="8.625" style="3" customWidth="1"/>
     <col min="15360" max="15370" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15371" max="15395" width="9" style="3" customWidth="1"/>
     <col min="15396" max="15595" width="9" style="3"/>
-    <col min="15596" max="15596" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15597" max="15597" width="1.77734375" style="3" customWidth="1"/>
-    <col min="15598" max="15598" width="7.33203125" style="3" customWidth="1"/>
-    <col min="15599" max="15599" width="4.109375" style="3" customWidth="1"/>
-    <col min="15600" max="15600" width="2.33203125" style="3" customWidth="1"/>
+    <col min="15596" max="15596" width="1.625" style="3" customWidth="1"/>
+    <col min="15597" max="15597" width="1.75" style="3" customWidth="1"/>
+    <col min="15598" max="15598" width="7.375" style="3" customWidth="1"/>
+    <col min="15599" max="15599" width="4.125" style="3" customWidth="1"/>
+    <col min="15600" max="15600" width="2.375" style="3" customWidth="1"/>
     <col min="15601" max="15601" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15602" max="15602" width="2.109375" style="3" customWidth="1"/>
-    <col min="15603" max="15603" width="2.6640625" style="3" customWidth="1"/>
+    <col min="15602" max="15602" width="2.125" style="3" customWidth="1"/>
+    <col min="15603" max="15603" width="2.625" style="3" customWidth="1"/>
     <col min="15604" max="15604" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15605" max="15605" width="9.21875" style="3" customWidth="1"/>
-    <col min="15606" max="15606" width="12.21875" style="3" customWidth="1"/>
-    <col min="15607" max="15607" width="9.109375" style="3" customWidth="1"/>
-    <col min="15608" max="15608" width="3.109375" style="3" customWidth="1"/>
-    <col min="15609" max="15609" width="5.6640625" style="3" customWidth="1"/>
-    <col min="15610" max="15610" width="6.44140625" style="3" customWidth="1"/>
+    <col min="15605" max="15605" width="9.25" style="3" customWidth="1"/>
+    <col min="15606" max="15606" width="12.25" style="3" customWidth="1"/>
+    <col min="15607" max="15607" width="9.125" style="3" customWidth="1"/>
+    <col min="15608" max="15608" width="3.125" style="3" customWidth="1"/>
+    <col min="15609" max="15609" width="5.625" style="3" customWidth="1"/>
+    <col min="15610" max="15610" width="6.5" style="3" customWidth="1"/>
     <col min="15611" max="15611" width="1" style="3" customWidth="1"/>
     <col min="15612" max="15612" width="3" style="3" customWidth="1"/>
-    <col min="15613" max="15613" width="7.109375" style="3" customWidth="1"/>
-    <col min="15614" max="15614" width="2.77734375" style="3" customWidth="1"/>
-    <col min="15615" max="15615" width="8.6640625" style="3" customWidth="1"/>
+    <col min="15613" max="15613" width="7.125" style="3" customWidth="1"/>
+    <col min="15614" max="15614" width="2.75" style="3" customWidth="1"/>
+    <col min="15615" max="15615" width="8.625" style="3" customWidth="1"/>
     <col min="15616" max="15626" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15627" max="15651" width="9" style="3" customWidth="1"/>
     <col min="15652" max="15851" width="9" style="3"/>
-    <col min="15852" max="15852" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15853" max="15853" width="1.77734375" style="3" customWidth="1"/>
-    <col min="15854" max="15854" width="7.33203125" style="3" customWidth="1"/>
-    <col min="15855" max="15855" width="4.109375" style="3" customWidth="1"/>
-    <col min="15856" max="15856" width="2.33203125" style="3" customWidth="1"/>
+    <col min="15852" max="15852" width="1.625" style="3" customWidth="1"/>
+    <col min="15853" max="15853" width="1.75" style="3" customWidth="1"/>
+    <col min="15854" max="15854" width="7.375" style="3" customWidth="1"/>
+    <col min="15855" max="15855" width="4.125" style="3" customWidth="1"/>
+    <col min="15856" max="15856" width="2.375" style="3" customWidth="1"/>
     <col min="15857" max="15857" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15858" max="15858" width="2.109375" style="3" customWidth="1"/>
-    <col min="15859" max="15859" width="2.6640625" style="3" customWidth="1"/>
+    <col min="15858" max="15858" width="2.125" style="3" customWidth="1"/>
+    <col min="15859" max="15859" width="2.625" style="3" customWidth="1"/>
     <col min="15860" max="15860" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15861" max="15861" width="9.21875" style="3" customWidth="1"/>
-    <col min="15862" max="15862" width="12.21875" style="3" customWidth="1"/>
-    <col min="15863" max="15863" width="9.109375" style="3" customWidth="1"/>
-    <col min="15864" max="15864" width="3.109375" style="3" customWidth="1"/>
-    <col min="15865" max="15865" width="5.6640625" style="3" customWidth="1"/>
-    <col min="15866" max="15866" width="6.44140625" style="3" customWidth="1"/>
+    <col min="15861" max="15861" width="9.25" style="3" customWidth="1"/>
+    <col min="15862" max="15862" width="12.25" style="3" customWidth="1"/>
+    <col min="15863" max="15863" width="9.125" style="3" customWidth="1"/>
+    <col min="15864" max="15864" width="3.125" style="3" customWidth="1"/>
+    <col min="15865" max="15865" width="5.625" style="3" customWidth="1"/>
+    <col min="15866" max="15866" width="6.5" style="3" customWidth="1"/>
     <col min="15867" max="15867" width="1" style="3" customWidth="1"/>
     <col min="15868" max="15868" width="3" style="3" customWidth="1"/>
-    <col min="15869" max="15869" width="7.109375" style="3" customWidth="1"/>
-    <col min="15870" max="15870" width="2.77734375" style="3" customWidth="1"/>
-    <col min="15871" max="15871" width="8.6640625" style="3" customWidth="1"/>
+    <col min="15869" max="15869" width="7.125" style="3" customWidth="1"/>
+    <col min="15870" max="15870" width="2.75" style="3" customWidth="1"/>
+    <col min="15871" max="15871" width="8.625" style="3" customWidth="1"/>
     <col min="15872" max="15882" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15883" max="15907" width="9" style="3" customWidth="1"/>
     <col min="15908" max="16107" width="9" style="3"/>
-    <col min="16108" max="16108" width="1.6640625" style="3" customWidth="1"/>
-    <col min="16109" max="16109" width="1.77734375" style="3" customWidth="1"/>
-    <col min="16110" max="16110" width="7.33203125" style="3" customWidth="1"/>
-    <col min="16111" max="16111" width="4.109375" style="3" customWidth="1"/>
-    <col min="16112" max="16112" width="2.33203125" style="3" customWidth="1"/>
+    <col min="16108" max="16108" width="1.625" style="3" customWidth="1"/>
+    <col min="16109" max="16109" width="1.75" style="3" customWidth="1"/>
+    <col min="16110" max="16110" width="7.375" style="3" customWidth="1"/>
+    <col min="16111" max="16111" width="4.125" style="3" customWidth="1"/>
+    <col min="16112" max="16112" width="2.375" style="3" customWidth="1"/>
     <col min="16113" max="16113" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="16114" max="16114" width="2.109375" style="3" customWidth="1"/>
-    <col min="16115" max="16115" width="2.6640625" style="3" customWidth="1"/>
+    <col min="16114" max="16114" width="2.125" style="3" customWidth="1"/>
+    <col min="16115" max="16115" width="2.625" style="3" customWidth="1"/>
     <col min="16116" max="16116" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="16117" max="16117" width="9.21875" style="3" customWidth="1"/>
-    <col min="16118" max="16118" width="12.21875" style="3" customWidth="1"/>
-    <col min="16119" max="16119" width="9.109375" style="3" customWidth="1"/>
-    <col min="16120" max="16120" width="3.109375" style="3" customWidth="1"/>
-    <col min="16121" max="16121" width="5.6640625" style="3" customWidth="1"/>
-    <col min="16122" max="16122" width="6.44140625" style="3" customWidth="1"/>
+    <col min="16117" max="16117" width="9.25" style="3" customWidth="1"/>
+    <col min="16118" max="16118" width="12.25" style="3" customWidth="1"/>
+    <col min="16119" max="16119" width="9.125" style="3" customWidth="1"/>
+    <col min="16120" max="16120" width="3.125" style="3" customWidth="1"/>
+    <col min="16121" max="16121" width="5.625" style="3" customWidth="1"/>
+    <col min="16122" max="16122" width="6.5" style="3" customWidth="1"/>
     <col min="16123" max="16123" width="1" style="3" customWidth="1"/>
     <col min="16124" max="16124" width="3" style="3" customWidth="1"/>
-    <col min="16125" max="16125" width="7.109375" style="3" customWidth="1"/>
-    <col min="16126" max="16126" width="2.77734375" style="3" customWidth="1"/>
-    <col min="16127" max="16127" width="8.6640625" style="3" customWidth="1"/>
+    <col min="16125" max="16125" width="7.125" style="3" customWidth="1"/>
+    <col min="16126" max="16126" width="2.75" style="3" customWidth="1"/>
+    <col min="16127" max="16127" width="8.625" style="3" customWidth="1"/>
     <col min="16128" max="16138" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="16139" max="16163" width="9" style="3" customWidth="1"/>
     <col min="16164" max="16384" width="9" style="3"/>
@@ -7684,7 +7700,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="2:23" ht="25.2">
+    <row r="11" spans="2:23">
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>

--- a/controller/src/main/resources/jxls_templates/jingneijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingneijingsuanshu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,30 +18,30 @@
   </sheets>
   <definedNames>
     <definedName name="LSIソリューション開発グループ">設定!$C$11:$E$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">公务电话费!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$U$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">公务电话费!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定!$A$1:$J$32</definedName>
     <definedName name="SYJH">#REF!</definedName>
     <definedName name="アーキ推進室">設定!$C$15:$G$15</definedName>
     <definedName name="ソフトウェア開発力強化推進室">設定!$C$9:$D$9</definedName>
-    <definedName name="部門">設定!$B$3:$B$18</definedName>
-    <definedName name="財務推進室">設定!$C$4:$D$4</definedName>
-    <definedName name="産業システム開発グループ">設定!$C$17:$E$17</definedName>
-    <definedName name="車載LSI開発グループ">設定!$C$14:$G$14</definedName>
-    <definedName name="車載商品開発グループ">設定!$C$13:$G$13</definedName>
+    <definedName name="移动时间">設定!$D$21:$D$29</definedName>
+    <definedName name="快適機器開発グループ">設定!$C$6:$D$6</definedName>
+    <definedName name="開発企画推進室">設定!$C$5:$E$5</definedName>
     <definedName name="活动内容">設定!$B$21:$B$25</definedName>
     <definedName name="基盤技術応用グループ">設定!$C$7:$D$7</definedName>
     <definedName name="交通工具">設定!$C$21:$C$24</definedName>
-    <definedName name="開発企画推進室">設定!$C$5:$E$5</definedName>
-    <definedName name="快適機器開発グループ">設定!$C$6:$D$6</definedName>
-    <definedName name="设施类型">設定!$F$21:$F$23</definedName>
+    <definedName name="財務推進室">設定!$C$4:$D$4</definedName>
+    <definedName name="産業システム開発グループ">設定!$C$17:$E$17</definedName>
     <definedName name="社会システム開発グループ">設定!$C$18:$G$18</definedName>
-    <definedName name="移动时间">設定!$D$21:$D$29</definedName>
-    <definedName name="制御システム開発グループ">設定!$C$8:$D$8</definedName>
-    <definedName name="助成推進室">設定!$C$3:$H$3</definedName>
+    <definedName name="車載LSI開発グループ">設定!$C$14:$G$14</definedName>
+    <definedName name="車載商品開発グループ">設定!$C$13:$G$13</definedName>
     <definedName name="住空間·業務空間開発グループ">設定!$C$16:$G$16</definedName>
     <definedName name="住空間端末開発グループ">設定!$C$10:$E$10</definedName>
+    <definedName name="助成推進室">設定!$C$3:$H$3</definedName>
+    <definedName name="制御システム開発グループ">設定!$C$8:$D$8</definedName>
     <definedName name="組込基盤技術開発グループ">設定!$C$12:$E$12</definedName>
+    <definedName name="部門">設定!$B$3:$B$18</definedName>
+    <definedName name="设施类型">設定!$F$21:$F$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -702,10 +702,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>${eve.loanamount}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>${eve.totalpay}</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -792,6 +788,10 @@
   </si>
   <si>
     <t>${rmbflg}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${eve.loanamount}</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -799,14 +799,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="179" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -917,7 +915,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -1694,7 +1692,7 @@
     </xf>
     <xf numFmtId="6" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1865,210 +1863,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2082,6 +1876,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2103,10 +1900,220 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2120,74 +2127,59 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="通貨 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2768,9 +2760,7 @@
   </sheetPr>
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15:T15"/>
-    </sheetView>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4229,58 +4219,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
     </row>
     <row r="2" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="59"/>
-      <c r="D2" s="126" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
+      <c r="D2" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="56" t="s">
         <v>122</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L2" s="26"/>
       <c r="M2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="156" t="s">
-        <v>127</v>
-      </c>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
+      <c r="O2" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
       <c r="W2" s="30"/>
       <c r="X2" s="30"/>
       <c r="Y2" s="30"/>
@@ -4300,32 +4290,32 @@
         <v>2</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
+      <c r="D3" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="26"/>
-      <c r="O3" s="157" t="s">
+      <c r="O3" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="158" t="s">
+      <c r="S3" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="T3" s="158"/>
+      <c r="T3" s="76"/>
       <c r="U3" s="29"/>
       <c r="W3" s="30"/>
       <c r="AE3" s="30"/>
@@ -4339,30 +4329,30 @@
         <v>10</v>
       </c>
       <c r="C4" s="59"/>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="133"/>
-      <c r="O4" s="137" t="e">
+      <c r="N4" s="66"/>
+      <c r="O4" s="70" t="e">
         <f>RIGHT(S3,10)-LEFT(O3,10)+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="128" t="s">
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="128"/>
+      <c r="S4" s="60"/>
       <c r="T4" s="57"/>
       <c r="W4" s="36"/>
       <c r="AE4" s="30"/>
@@ -4373,31 +4363,31 @@
     </row>
     <row r="5" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="B5" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="134" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="136" t="s">
+      <c r="M5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="136"/>
-      <c r="O5" s="129" t="s">
-        <v>136</v>
-      </c>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
       <c r="W5" s="30"/>
       <c r="AE5" s="30"/>
       <c r="AF5" s="30"/>
@@ -4444,18 +4434,18 @@
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
-      <c r="M7" s="130" t="s">
+      <c r="M7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131" t="s">
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="138"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="71"/>
       <c r="W7" s="36"/>
       <c r="X7" s="36"/>
       <c r="Y7" s="36"/>
@@ -4482,16 +4472,16 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="116" t="s">
+      <c r="M8" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="118"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="79"/>
       <c r="W8" s="36"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
@@ -4507,25 +4497,25 @@
       <c r="AI8" s="30"/>
     </row>
     <row r="9" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
       <c r="V9" s="37"/>
       <c r="W9" s="30"/>
       <c r="X9" s="30"/>
@@ -4542,33 +4532,33 @@
       <c r="AI9" s="30"/>
     </row>
     <row r="10" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="105" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="108" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108" t="s">
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="109"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="95"/>
       <c r="V10" s="37"/>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
@@ -4585,31 +4575,31 @@
       <c r="AI10" s="30"/>
     </row>
     <row r="11" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="110" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="119" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="120"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="122" t="s">
-        <v>144</v>
-      </c>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="124"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="158" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="159"/>
+      <c r="T11" s="160"/>
       <c r="V11" s="37"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="36"/>
@@ -4622,25 +4612,25 @@
       <c r="AI11" s="36"/>
     </row>
     <row r="12" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
       <c r="V12" s="37"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
@@ -4653,33 +4643,33 @@
       <c r="AI12" s="30"/>
     </row>
     <row r="13" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="85"/>
+      <c r="L13" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="97"/>
+      <c r="N13" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="115" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" s="114"/>
-      <c r="N13" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="100" t="s">
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="62"/>
-      <c r="T13" s="102"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="86"/>
       <c r="V13" s="37"/>
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
@@ -4692,183 +4682,183 @@
       <c r="AI13" s="30"/>
     </row>
     <row r="14" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B14" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="83" t="s">
+      <c r="B14" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="121"/>
+      <c r="L14" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="87" t="s">
+      <c r="M14" s="125"/>
+      <c r="N14" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="88"/>
-      <c r="N14" s="89" t="s">
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="S14" s="147"/>
+      <c r="T14" s="148"/>
+      <c r="V14" s="37"/>
+    </row>
+    <row r="15" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B15" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="S14" s="69"/>
-      <c r="T14" s="70"/>
-      <c r="V14" s="37"/>
-    </row>
-    <row r="15" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B15" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="85" t="s">
+      <c r="K15" s="123"/>
+      <c r="L15" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="91" t="s">
+      <c r="M15" s="127"/>
+      <c r="N15" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="92"/>
-      <c r="N15" s="159" t="s">
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="147" t="s">
         <v>142</v>
       </c>
-      <c r="O15" s="159"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="161" t="s">
-        <v>143</v>
-      </c>
-      <c r="S15" s="161"/>
-      <c r="T15" s="162"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="148"/>
       <c r="V15" s="37"/>
     </row>
     <row r="16" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="71">
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="114">
         <f>SUM(M14:Q15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="72"/>
-      <c r="N16" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="69" t="s">
+      <c r="M16" s="115"/>
+      <c r="N16" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="S16" s="69"/>
-      <c r="T16" s="70"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="147" t="s">
+        <v>144</v>
+      </c>
+      <c r="S16" s="147"/>
+      <c r="T16" s="148"/>
       <c r="V16" s="37"/>
     </row>
     <row r="17" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
       <c r="V17" s="37"/>
     </row>
     <row r="18" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="60" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60" t="s">
+      <c r="E18" s="102"/>
+      <c r="F18" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="60"/>
+      <c r="G18" s="102"/>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
       <c r="P18" s="35"/>
-      <c r="Q18" s="94" t="s">
+      <c r="Q18" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95" t="s">
+      <c r="R18" s="88"/>
+      <c r="S18" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="T18" s="96"/>
+      <c r="T18" s="100"/>
       <c r="V18" s="37"/>
     </row>
     <row r="19" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="58"/>
       <c r="I19" s="58"/>
       <c r="J19" s="58"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="38"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
       <c r="V19" s="37"/>
     </row>
     <row r="20" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
@@ -4878,19 +4868,19 @@
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
       <c r="P20" s="58"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
       <c r="V20" s="37"/>
     </row>
     <row r="21" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="58"/>
       <c r="I21" s="58"/>
       <c r="J21" s="58"/>
@@ -4900,10 +4890,10 @@
       <c r="N21" s="58"/>
       <c r="O21" s="58"/>
       <c r="P21" s="58"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
       <c r="V21" s="37"/>
     </row>
     <row r="22" spans="2:22" ht="19.899999999999999" customHeight="1">
@@ -4963,42 +4953,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="59">
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="B9:T9"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="N19:O19"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="N16:Q16"/>
     <mergeCell ref="B14:I14"/>
@@ -5014,6 +4968,11 @@
     <mergeCell ref="N14:Q14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="Q19:R21"/>
     <mergeCell ref="S19:T21"/>
     <mergeCell ref="B18:C18"/>
@@ -5022,6 +4981,37 @@
     <mergeCell ref="D19:E21"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G21"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="P7:T7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
@@ -5582,53 +5572,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152" t="s">
+      <c r="E2" s="130"/>
+      <c r="F2" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="154" t="s">
+      <c r="G2" s="130"/>
+      <c r="H2" s="132" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B3" s="151"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
       <c r="F3" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="155"/>
+      <c r="H3" s="133"/>
     </row>
     <row r="4" spans="2:8" ht="23.25" customHeight="1">
       <c r="B4" s="40"/>
       <c r="C4" s="41"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="22"/>
       <c r="G4" s="42"/>
       <c r="H4" s="43"/>
@@ -5636,8 +5626,8 @@
     <row r="5" spans="2:8" ht="23.25" customHeight="1">
       <c r="B5" s="44"/>
       <c r="C5" s="45"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="147"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="138"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
@@ -5645,8 +5635,8 @@
     <row r="6" spans="2:8" ht="23.25" customHeight="1">
       <c r="B6" s="44"/>
       <c r="C6" s="45"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="149"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="140"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
       <c r="H6" s="49"/>
@@ -5654,8 +5644,8 @@
     <row r="7" spans="2:8" ht="23.25" customHeight="1">
       <c r="B7" s="44"/>
       <c r="C7" s="50"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="51"/>
@@ -5663,8 +5653,8 @@
     <row r="8" spans="2:8" ht="23.25" customHeight="1">
       <c r="B8" s="44"/>
       <c r="C8" s="50"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="51"/>
@@ -5672,8 +5662,8 @@
     <row r="9" spans="2:8" ht="23.25" customHeight="1">
       <c r="B9" s="44"/>
       <c r="C9" s="50"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="51"/>
@@ -5681,8 +5671,8 @@
     <row r="10" spans="2:8" ht="23.25" customHeight="1">
       <c r="B10" s="44"/>
       <c r="C10" s="50"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="51"/>
@@ -5690,8 +5680,8 @@
     <row r="11" spans="2:8" ht="23.25" customHeight="1">
       <c r="B11" s="44"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="51"/>
@@ -5699,8 +5689,8 @@
     <row r="12" spans="2:8" ht="23.25" customHeight="1">
       <c r="B12" s="44"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="51"/>
@@ -5708,8 +5698,8 @@
     <row r="13" spans="2:8" ht="23.25" customHeight="1">
       <c r="B13" s="44"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
       <c r="H13" s="51"/>
@@ -5717,8 +5707,8 @@
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
       <c r="B14" s="44"/>
       <c r="C14" s="50"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="51"/>
@@ -5726,8 +5716,8 @@
     <row r="15" spans="2:8" ht="23.25" customHeight="1">
       <c r="B15" s="44"/>
       <c r="C15" s="50"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="51"/>
@@ -5735,8 +5725,8 @@
     <row r="16" spans="2:8" ht="23.25" customHeight="1">
       <c r="B16" s="44"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="51"/>
@@ -5744,8 +5734,8 @@
     <row r="17" spans="2:8" ht="23.25" customHeight="1">
       <c r="B17" s="44"/>
       <c r="C17" s="50"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="51"/>
@@ -5753,8 +5743,8 @@
     <row r="18" spans="2:8" ht="23.25" customHeight="1">
       <c r="B18" s="44"/>
       <c r="C18" s="50"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="51"/>
@@ -5762,8 +5752,8 @@
     <row r="19" spans="2:8" ht="23.25" customHeight="1">
       <c r="B19" s="44"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="51"/>
@@ -5771,8 +5761,8 @@
     <row r="20" spans="2:8" ht="23.25" customHeight="1">
       <c r="B20" s="44"/>
       <c r="C20" s="50"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="51"/>
@@ -5780,8 +5770,8 @@
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
       <c r="B21" s="44"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="51"/>
@@ -5789,8 +5779,8 @@
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
       <c r="B22" s="44"/>
       <c r="C22" s="50"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="51"/>
@@ -5798,8 +5788,8 @@
     <row r="23" spans="2:8" ht="23.25" customHeight="1">
       <c r="B23" s="44"/>
       <c r="C23" s="50"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="51"/>
@@ -5807,8 +5797,8 @@
     <row r="24" spans="2:8" ht="23.25" customHeight="1">
       <c r="B24" s="44"/>
       <c r="C24" s="50"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="51"/>
@@ -5816,8 +5806,8 @@
     <row r="25" spans="2:8" ht="23.25" customHeight="1">
       <c r="B25" s="44"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="51"/>
@@ -5825,8 +5815,8 @@
     <row r="26" spans="2:8" ht="23.25" customHeight="1">
       <c r="B26" s="44"/>
       <c r="C26" s="50"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="51"/>
@@ -5834,8 +5824,8 @@
     <row r="27" spans="2:8" ht="23.25" customHeight="1">
       <c r="B27" s="44"/>
       <c r="C27" s="50"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="51"/>
@@ -5843,8 +5833,8 @@
     <row r="28" spans="2:8" ht="23.25" customHeight="1">
       <c r="B28" s="44"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="51"/>
@@ -5852,8 +5842,8 @@
     <row r="29" spans="2:8" ht="23.25" customHeight="1">
       <c r="B29" s="44"/>
       <c r="C29" s="50"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="51"/>
@@ -5861,8 +5851,8 @@
     <row r="30" spans="2:8" ht="23.25" customHeight="1">
       <c r="B30" s="44"/>
       <c r="C30" s="50"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="51"/>
@@ -5870,8 +5860,8 @@
     <row r="31" spans="2:8" ht="23.25" customHeight="1">
       <c r="B31" s="44"/>
       <c r="C31" s="50"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
       <c r="H31" s="51"/>
@@ -5879,8 +5869,8 @@
     <row r="32" spans="2:8" ht="23.25" customHeight="1">
       <c r="B32" s="44"/>
       <c r="C32" s="50"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
       <c r="F32" s="46"/>
       <c r="G32" s="46"/>
       <c r="H32" s="51"/>
@@ -5888,8 +5878,8 @@
     <row r="33" spans="2:8" ht="23.25" customHeight="1">
       <c r="B33" s="44"/>
       <c r="C33" s="50"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
       <c r="H33" s="51"/>
@@ -5897,19 +5887,19 @@
     <row r="34" spans="2:8" ht="23.25" customHeight="1">
       <c r="B34" s="52"/>
       <c r="C34" s="53"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
       <c r="H34" s="55"/>
     </row>
     <row r="35" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
       <c r="F35" s="14">
         <f>SUM(F4:F34)</f>
         <v>0</v>
@@ -5923,28 +5913,6 @@
     <row r="36" spans="2:8" ht="6.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -5961,10 +5929,32 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>

--- a/controller/src/main/resources/jxls_templates/jingneijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingneijingsuanshu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newtouch\SVN\07_P_FANS\05Dev\01Source\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="LSIソリューション開発グループ">設定!$C$11:$E$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">公务电话费!$A$1:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$U$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$U$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定!$A$1:$J$32</definedName>
     <definedName name="SYJH">#REF!</definedName>
     <definedName name="アーキ推進室">設定!$C$15:$G$15</definedName>
@@ -65,11 +65,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="T24")</t>
+          <t>jx:area(lastCell="T28")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,11 +80,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="tra", var="t", lastCell="T14")</t>
+          <t>jx:each(items="tra", var="t", lastCell="T16")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,11 +95,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="acc", var="a", lastCell="T15")</t>
+          <t>jx:each(items="acc", var="a", lastCell="T17")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,11 +110,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList3" lastCell="C21")</t>
+          <t>jx:image(src="wfList3" lastCell="C26")</t>
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="1" shapeId="0">
+    <comment ref="D24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,11 +125,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList3" lastCell="E21")</t>
+          <t>jx:image(src="wfList3" lastCell="E26")</t>
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="1" shapeId="0">
+    <comment ref="F24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="userim" lastCell="G21")</t>
+          <t>jx:image(src="userim" lastCell="G26")</t>
         </r>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q19" authorId="0" shapeId="0">
+    <comment ref="Q24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,11 +166,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList1" lastCell="R21")</t>
+          <t>jx:image(src="wfList1" lastCell="R26")</t>
         </r>
       </text>
     </comment>
-    <comment ref="S19" authorId="0" shapeId="0">
+    <comment ref="S24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList2" lastCell="T21")</t>
+          <t>jx:image(src="wfList2" lastCell="T26")</t>
         </r>
       </text>
     </comment>
@@ -216,11 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="147">
-  <si>
-    <t>出差者姓名:</t>
-    <phoneticPr fontId="9"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="151">
   <si>
     <t>报销日：</t>
     <phoneticPr fontId="9"/>
@@ -230,10 +226,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>出差日期</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>ADMN-100001-ADMN共通</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -257,20 +249,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>計</t>
-    <rPh sb="0" eb="1">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>日</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>见备注</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -444,10 +422,6 @@
   </si>
   <si>
     <t>SSD-170003-SSD03</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     支出总额</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -687,9 +661,6 @@
     <t>ISD-190002-PMRZ</t>
   </si>
   <si>
-    <t>${eve.groupid}</t>
-  </si>
-  <si>
     <t>${eve.startdate}</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -698,100 +669,144 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>财务编码</t>
+    <t>报销编号:</t>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>${eve.reimbursementdate}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${eve.userid}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${eve.personalcode}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${eve.place}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${tro}</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>${trr}</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>科目名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>人民币</t>
+  </si>
+  <si>
+    <t>科目编码</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>${eve.telephone}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${t.accountcode}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${t.subjectnumber}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${t.rmb}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${a.accountcode}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${a.subjectnumber}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${a.rmb}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${a.rmb}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${eve.balance}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${rmbflg}</t>
+  </si>
+  <si>
+    <t>${rmbflg}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${eve.loanamount}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>出差者姓名:</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>财务编码:</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>出差日期：</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>計：</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>${eve.datenumber}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>${eve.totalpay}</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>报销编号:</t>
+    <t>${eve.groupid}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${eve.invoiceno}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>预算单位</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     支出总额</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>${eve.invoiceno}</t>
-  </si>
-  <si>
-    <t>${eve.reimbursementdate}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${eve.userid}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${eve.personalcode}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${eve.place}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${tro}</t>
+    <t xml:space="preserve">     费用项目</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>${trr}</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>科目名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>人民币</t>
-  </si>
-  <si>
-    <t>科目编码</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>${eve.telephone}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${t.accountcode}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${t.subjectnumber}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${t.rmb}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${a.accountcode}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${a.subjectnumber}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${a.rmb}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${a.rmb}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${eve.balance}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${rmbflg}</t>
-  </si>
-  <si>
-    <t>${rmbflg}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${eve.loanamount}</t>
+    <t>-</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1013,7 +1028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1307,34 +1322,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="hair">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="hair">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <left style="hair">
         <color indexed="64"/>
@@ -1600,41 +1587,63 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="hair">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1643,28 +1652,6 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1677,6 +1664,19 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1692,7 +1692,7 @@
     </xf>
     <xf numFmtId="6" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1716,10 +1716,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="40" fontId="15" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="16" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="16" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1740,7 +1740,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="20" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="40" fontId="20" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1764,12 +1764,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1789,6 +1783,22 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="40" fontId="20" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1801,97 +1811,211 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="40" fontId="24" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="40" fontId="20" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="40" fontId="24" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="40" fontId="20" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="40" fontId="20" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1900,287 +2024,200 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="通貨 2" xfId="3"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="通貨 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2193,184 +2230,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1009650" y="3867150"/>
-          <a:ext cx="828675" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimSun"/>
-              <a:ea typeface="SimSun"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimSun"/>
-              <a:ea typeface="SimSun"/>
-            </a:rPr>
-            <a:t>地 区</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>276226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>459442</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="196103" y="4097432"/>
-          <a:ext cx="1036544" cy="183216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimSun"/>
-              <a:ea typeface="SimSun"/>
-            </a:rPr>
-            <a:t>费用项目</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2758,9 +2617,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4219,175 +4080,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B1" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
     </row>
     <row r="2" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+    </row>
+    <row r="3" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+    </row>
+    <row r="4" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B4" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26" t="s">
+      <c r="O4" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+    </row>
+    <row r="5" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-    </row>
-    <row r="3" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="75" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-    </row>
-    <row r="4" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B4" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="66"/>
-      <c r="O4" s="70" t="e">
-        <f>RIGHT(S3,10)-LEFT(O3,10)+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="60"/>
-      <c r="T4" s="57"/>
-      <c r="W4" s="36"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-    </row>
-    <row r="5" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B5" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="S5" s="131"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="29"/>
       <c r="W5" s="30"/>
       <c r="AE5" s="30"/>
       <c r="AF5" s="30"/>
@@ -4396,26 +4230,36 @@
       <c r="AI5" s="30"/>
     </row>
     <row r="6" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="W6" s="30"/>
+      <c r="B6" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="130"/>
+      <c r="O6" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+      <c r="W6" s="34"/>
       <c r="AE6" s="30"/>
       <c r="AF6" s="30"/>
       <c r="AG6" s="30"/>
@@ -4423,37 +4267,34 @@
       <c r="AI6" s="30"/>
     </row>
     <row r="7" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="71"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
+      <c r="B7" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="140" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="130"/>
+      <c r="O7" s="138" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
+      <c r="W7" s="30"/>
       <c r="AE7" s="30"/>
       <c r="AF7" s="30"/>
       <c r="AG7" s="30"/>
@@ -4464,32 +4305,23 @@
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="79"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="W8" s="30"/>
       <c r="AE8" s="30"/>
       <c r="AF8" s="30"/>
       <c r="AG8" s="30"/>
@@ -4497,30 +4329,33 @@
       <c r="AI8" s="30"/>
     </row>
     <row r="9" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="112"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
       <c r="AA9" s="30"/>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
@@ -4532,35 +4367,28 @@
       <c r="AI9" s="30"/>
     </row>
     <row r="10" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B10" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="95"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="30"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="101"/>
+      <c r="W10" s="34"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
       <c r="Z10" s="30"/>
@@ -4575,63 +4403,73 @@
       <c r="AI10" s="30"/>
     </row>
     <row r="11" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="154" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" s="155"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="158" t="s">
-        <v>143</v>
-      </c>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="159"/>
-      <c r="R11" s="159"/>
-      <c r="S11" s="159"/>
-      <c r="T11" s="160"/>
-      <c r="V11" s="37"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
     </row>
     <row r="12" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="V12" s="37"/>
+      <c r="B12" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="92"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
       <c r="AC12" s="30"/>
@@ -4643,389 +4481,545 @@
       <c r="AI12" s="30"/>
     </row>
     <row r="13" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="94"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="105"/>
+      <c r="V13" s="35"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+    </row>
+    <row r="14" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="V14" s="35"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+    </row>
+    <row r="15" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B15" s="168" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="81"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="84"/>
+      <c r="L15" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="97"/>
+      <c r="N15" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="81"/>
+      <c r="T15" s="85"/>
+      <c r="V15" s="35"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+    </row>
+    <row r="16" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B16" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="66"/>
+      <c r="L16" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="70"/>
+      <c r="N16" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="S16" s="59"/>
+      <c r="T16" s="60"/>
+      <c r="V16" s="35"/>
+    </row>
+    <row r="17" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B17" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="68"/>
+      <c r="L17" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="74"/>
+      <c r="N17" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="96" t="s">
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="S13" s="81"/>
-      <c r="T13" s="86"/>
-      <c r="V13" s="37"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-    </row>
-    <row r="14" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B14" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="120" t="s">
+      <c r="S17" s="59"/>
+      <c r="T17" s="60"/>
+      <c r="V17" s="35"/>
+    </row>
+    <row r="18" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="60"/>
+      <c r="V18" s="35"/>
+    </row>
+    <row r="19" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B19" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="60"/>
+      <c r="V19" s="35"/>
+    </row>
+    <row r="20" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B20" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="149"/>
+      <c r="V20" s="35"/>
+    </row>
+    <row r="21" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B21" s="168" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="152">
+        <f>SUM(M16:Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="153"/>
+      <c r="N21" s="154" t="s">
         <v>136</v>
       </c>
-      <c r="K14" s="121"/>
-      <c r="L14" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" s="125"/>
-      <c r="N14" s="145" t="s">
-        <v>138</v>
-      </c>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="147" t="s">
-        <v>138</v>
-      </c>
-      <c r="S14" s="147"/>
-      <c r="T14" s="148"/>
-      <c r="V14" s="37"/>
-    </row>
-    <row r="15" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B15" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="122" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" s="123"/>
-      <c r="L15" s="126" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" s="127"/>
-      <c r="N15" s="149" t="s">
-        <v>141</v>
-      </c>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="S15" s="147"/>
-      <c r="T15" s="148"/>
-      <c r="V15" s="37"/>
-    </row>
-    <row r="16" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B16" s="116" t="s">
+      <c r="O21" s="155"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="157" t="s">
+        <v>135</v>
+      </c>
+      <c r="S21" s="157"/>
+      <c r="T21" s="158"/>
+      <c r="V21" s="35"/>
+    </row>
+    <row r="22" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="V22" s="35"/>
+    </row>
+    <row r="23" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B23" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="92"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="159" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" s="92"/>
+      <c r="V23" s="35"/>
+    </row>
+    <row r="24" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B24" s="160"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="161"/>
+      <c r="T24" s="162"/>
+      <c r="V24" s="35"/>
+    </row>
+    <row r="25" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B25" s="160"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="161"/>
+      <c r="T25" s="162"/>
+      <c r="V25" s="35"/>
+    </row>
+    <row r="26" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="165"/>
+      <c r="V26" s="35"/>
+    </row>
+    <row r="27" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="V27" s="35"/>
+    </row>
+    <row r="28" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="V28" s="35"/>
+    </row>
+    <row r="29" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="114">
-        <f>SUM(M14:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="147" t="s">
-        <v>144</v>
-      </c>
-      <c r="S16" s="147"/>
-      <c r="T16" s="148"/>
-      <c r="V16" s="37"/>
-    </row>
-    <row r="17" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="V17" s="37"/>
-    </row>
-    <row r="18" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B18" s="103" t="s">
+      <c r="D29" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="102" t="s">
+      <c r="V29" s="35"/>
+    </row>
+    <row r="30" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="D30" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102" t="s">
+      <c r="V30" s="35"/>
+    </row>
+    <row r="31" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="D31" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="T18" s="100"/>
-      <c r="V18" s="37"/>
-    </row>
-    <row r="19" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="V19" s="37"/>
-    </row>
-    <row r="20" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="V20" s="37"/>
-    </row>
-    <row r="21" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="V21" s="37"/>
-    </row>
-    <row r="22" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="V22" s="37"/>
-    </row>
-    <row r="23" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B23" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="V23" s="37"/>
-    </row>
-    <row r="24" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="D24" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="V24" s="37"/>
-    </row>
-    <row r="25" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="D25" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="V25" s="37"/>
-    </row>
-    <row r="26" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="D26" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="V26" s="37"/>
-    </row>
-    <row r="27" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="D27" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="V27" s="37"/>
-    </row>
-    <row r="28" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="V28" s="37"/>
-    </row>
-    <row r="29" spans="2:22">
-      <c r="V29" s="37"/>
-    </row>
-    <row r="30" spans="2:22">
-      <c r="V30" s="37"/>
-    </row>
-    <row r="31" spans="2:22">
-      <c r="V31" s="37"/>
-    </row>
-    <row r="32" spans="2:22">
-      <c r="V32" s="37"/>
-    </row>
-    <row r="33" spans="22:22">
-      <c r="V33" s="37"/>
+      <c r="V31" s="35"/>
+    </row>
+    <row r="32" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="D32" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="V32" s="35"/>
+    </row>
+    <row r="33" spans="22:22" ht="19.899999999999999" customHeight="1">
+      <c r="V33" s="35"/>
     </row>
     <row r="34" spans="22:22">
-      <c r="V34" s="37"/>
+      <c r="V34" s="35"/>
+    </row>
+    <row r="35" spans="22:22">
+      <c r="V35" s="35"/>
+    </row>
+    <row r="36" spans="22:22">
+      <c r="V36" s="35"/>
+    </row>
+    <row r="37" spans="22:22">
+      <c r="V37" s="35"/>
+    </row>
+    <row r="38" spans="22:22">
+      <c r="V38" s="35"/>
+    </row>
+    <row r="39" spans="22:22">
+      <c r="V39" s="35"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
-  <mergeCells count="59">
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="R14:T14"/>
+  <mergeCells count="76">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="B11:T11"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="B14:T14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="R15:T15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="N15:Q15"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="S19:T21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G21"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="B9:T9"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="B22:T22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R26"/>
+    <mergeCell ref="S24:T26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E26"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G26"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVC983040:WVJ983040 WLG983040:WLN983040 WBK983040:WBR983040 VRO983040:VRV983040 VHS983040:VHZ983040 UXW983040:UYD983040 UOA983040:UOH983040 UEE983040:UEL983040 TUI983040:TUP983040 TKM983040:TKT983040 TAQ983040:TAX983040 SQU983040:SRB983040 SGY983040:SHF983040 RXC983040:RXJ983040 RNG983040:RNN983040 RDK983040:RDR983040 QTO983040:QTV983040 QJS983040:QJZ983040 PZW983040:QAD983040 PQA983040:PQH983040 PGE983040:PGL983040 OWI983040:OWP983040 OMM983040:OMT983040 OCQ983040:OCX983040 NSU983040:NTB983040 NIY983040:NJF983040 MZC983040:MZJ983040 MPG983040:MPN983040 MFK983040:MFR983040 LVO983040:LVV983040 LLS983040:LLZ983040 LBW983040:LCD983040 KSA983040:KSH983040 KIE983040:KIL983040 JYI983040:JYP983040 JOM983040:JOT983040 JEQ983040:JEX983040 IUU983040:IVB983040 IKY983040:ILF983040 IBC983040:IBJ983040 HRG983040:HRN983040 HHK983040:HHR983040 GXO983040:GXV983040 GNS983040:GNZ983040 GDW983040:GED983040 FUA983040:FUH983040 FKE983040:FKL983040 FAI983040:FAP983040 EQM983040:EQT983040 EGQ983040:EGX983040 DWU983040:DXB983040 DMY983040:DNF983040 DDC983040:DDJ983040 CTG983040:CTN983040 CJK983040:CJR983040 BZO983040:BZV983040 BPS983040:BPZ983040 BFW983040:BGD983040 AWA983040:AWH983040 AME983040:AML983040 ACI983040:ACP983040 SM983040:ST983040 IQ983040:IX983040 E983040:K983040 WVC917504:WVJ917504 WLG917504:WLN917504 WBK917504:WBR917504 VRO917504:VRV917504 VHS917504:VHZ917504 UXW917504:UYD917504 UOA917504:UOH917504 UEE917504:UEL917504 TUI917504:TUP917504 TKM917504:TKT917504 TAQ917504:TAX917504 SQU917504:SRB917504 SGY917504:SHF917504 RXC917504:RXJ917504 RNG917504:RNN917504 RDK917504:RDR917504 QTO917504:QTV917504 QJS917504:QJZ917504 PZW917504:QAD917504 PQA917504:PQH917504 PGE917504:PGL917504 OWI917504:OWP917504 OMM917504:OMT917504 OCQ917504:OCX917504 NSU917504:NTB917504 NIY917504:NJF917504 MZC917504:MZJ917504 MPG917504:MPN917504 MFK917504:MFR917504 LVO917504:LVV917504 LLS917504:LLZ917504 LBW917504:LCD917504 KSA917504:KSH917504 KIE917504:KIL917504 JYI917504:JYP917504 JOM917504:JOT917504 JEQ917504:JEX917504 IUU917504:IVB917504 IKY917504:ILF917504 IBC917504:IBJ917504 HRG917504:HRN917504 HHK917504:HHR917504 GXO917504:GXV917504 GNS917504:GNZ917504 GDW917504:GED917504 FUA917504:FUH917504 FKE917504:FKL917504 FAI917504:FAP917504 EQM917504:EQT917504 EGQ917504:EGX917504 DWU917504:DXB917504 DMY917504:DNF917504 DDC917504:DDJ917504 CTG917504:CTN917504 CJK917504:CJR917504 BZO917504:BZV917504 BPS917504:BPZ917504 BFW917504:BGD917504 AWA917504:AWH917504 AME917504:AML917504 ACI917504:ACP917504 SM917504:ST917504 IQ917504:IX917504 E917504:K917504 WVC851968:WVJ851968 WLG851968:WLN851968 WBK851968:WBR851968 VRO851968:VRV851968 VHS851968:VHZ851968 UXW851968:UYD851968 UOA851968:UOH851968 UEE851968:UEL851968 TUI851968:TUP851968 TKM851968:TKT851968 TAQ851968:TAX851968 SQU851968:SRB851968 SGY851968:SHF851968 RXC851968:RXJ851968 RNG851968:RNN851968 RDK851968:RDR851968 QTO851968:QTV851968 QJS851968:QJZ851968 PZW851968:QAD851968 PQA851968:PQH851968 PGE851968:PGL851968 OWI851968:OWP851968 OMM851968:OMT851968 OCQ851968:OCX851968 NSU851968:NTB851968 NIY851968:NJF851968 MZC851968:MZJ851968 MPG851968:MPN851968 MFK851968:MFR851968 LVO851968:LVV851968 LLS851968:LLZ851968 LBW851968:LCD851968 KSA851968:KSH851968 KIE851968:KIL851968 JYI851968:JYP851968 JOM851968:JOT851968 JEQ851968:JEX851968 IUU851968:IVB851968 IKY851968:ILF851968 IBC851968:IBJ851968 HRG851968:HRN851968 HHK851968:HHR851968 GXO851968:GXV851968 GNS851968:GNZ851968 GDW851968:GED851968 FUA851968:FUH851968 FKE851968:FKL851968 FAI851968:FAP851968 EQM851968:EQT851968 EGQ851968:EGX851968 DWU851968:DXB851968 DMY851968:DNF851968 DDC851968:DDJ851968 CTG851968:CTN851968 CJK851968:CJR851968 BZO851968:BZV851968 BPS851968:BPZ851968 BFW851968:BGD851968 AWA851968:AWH851968 AME851968:AML851968 ACI851968:ACP851968 SM851968:ST851968 IQ851968:IX851968 E851968:K851968 WVC786432:WVJ786432 WLG786432:WLN786432 WBK786432:WBR786432 VRO786432:VRV786432 VHS786432:VHZ786432 UXW786432:UYD786432 UOA786432:UOH786432 UEE786432:UEL786432 TUI786432:TUP786432 TKM786432:TKT786432 TAQ786432:TAX786432 SQU786432:SRB786432 SGY786432:SHF786432 RXC786432:RXJ786432 RNG786432:RNN786432 RDK786432:RDR786432 QTO786432:QTV786432 QJS786432:QJZ786432 PZW786432:QAD786432 PQA786432:PQH786432 PGE786432:PGL786432 OWI786432:OWP786432 OMM786432:OMT786432 OCQ786432:OCX786432 NSU786432:NTB786432 NIY786432:NJF786432 MZC786432:MZJ786432 MPG786432:MPN786432 MFK786432:MFR786432 LVO786432:LVV786432 LLS786432:LLZ786432 LBW786432:LCD786432 KSA786432:KSH786432 KIE786432:KIL786432 JYI786432:JYP786432 JOM786432:JOT786432 JEQ786432:JEX786432 IUU786432:IVB786432 IKY786432:ILF786432 IBC786432:IBJ786432 HRG786432:HRN786432 HHK786432:HHR786432 GXO786432:GXV786432 GNS786432:GNZ786432 GDW786432:GED786432 FUA786432:FUH786432 FKE786432:FKL786432 FAI786432:FAP786432 EQM786432:EQT786432 EGQ786432:EGX786432 DWU786432:DXB786432 DMY786432:DNF786432 DDC786432:DDJ786432 CTG786432:CTN786432 CJK786432:CJR786432 BZO786432:BZV786432 BPS786432:BPZ786432 BFW786432:BGD786432 AWA786432:AWH786432 AME786432:AML786432 ACI786432:ACP786432 SM786432:ST786432 IQ786432:IX786432 E786432:K786432 WVC720896:WVJ720896 WLG720896:WLN720896 WBK720896:WBR720896 VRO720896:VRV720896 VHS720896:VHZ720896 UXW720896:UYD720896 UOA720896:UOH720896 UEE720896:UEL720896 TUI720896:TUP720896 TKM720896:TKT720896 TAQ720896:TAX720896 SQU720896:SRB720896 SGY720896:SHF720896 RXC720896:RXJ720896 RNG720896:RNN720896 RDK720896:RDR720896 QTO720896:QTV720896 QJS720896:QJZ720896 PZW720896:QAD720896 PQA720896:PQH720896 PGE720896:PGL720896 OWI720896:OWP720896 OMM720896:OMT720896 OCQ720896:OCX720896 NSU720896:NTB720896 NIY720896:NJF720896 MZC720896:MZJ720896 MPG720896:MPN720896 MFK720896:MFR720896 LVO720896:LVV720896 LLS720896:LLZ720896 LBW720896:LCD720896 KSA720896:KSH720896 KIE720896:KIL720896 JYI720896:JYP720896 JOM720896:JOT720896 JEQ720896:JEX720896 IUU720896:IVB720896 IKY720896:ILF720896 IBC720896:IBJ720896 HRG720896:HRN720896 HHK720896:HHR720896 GXO720896:GXV720896 GNS720896:GNZ720896 GDW720896:GED720896 FUA720896:FUH720896 FKE720896:FKL720896 FAI720896:FAP720896 EQM720896:EQT720896 EGQ720896:EGX720896 DWU720896:DXB720896 DMY720896:DNF720896 DDC720896:DDJ720896 CTG720896:CTN720896 CJK720896:CJR720896 BZO720896:BZV720896 BPS720896:BPZ720896 BFW720896:BGD720896 AWA720896:AWH720896 AME720896:AML720896 ACI720896:ACP720896 SM720896:ST720896 IQ720896:IX720896 E720896:K720896 WVC655360:WVJ655360 WLG655360:WLN655360 WBK655360:WBR655360 VRO655360:VRV655360 VHS655360:VHZ655360 UXW655360:UYD655360 UOA655360:UOH655360 UEE655360:UEL655360 TUI655360:TUP655360 TKM655360:TKT655360 TAQ655360:TAX655360 SQU655360:SRB655360 SGY655360:SHF655360 RXC655360:RXJ655360 RNG655360:RNN655360 RDK655360:RDR655360 QTO655360:QTV655360 QJS655360:QJZ655360 PZW655360:QAD655360 PQA655360:PQH655360 PGE655360:PGL655360 OWI655360:OWP655360 OMM655360:OMT655360 OCQ655360:OCX655360 NSU655360:NTB655360 NIY655360:NJF655360 MZC655360:MZJ655360 MPG655360:MPN655360 MFK655360:MFR655360 LVO655360:LVV655360 LLS655360:LLZ655360 LBW655360:LCD655360 KSA655360:KSH655360 KIE655360:KIL655360 JYI655360:JYP655360 JOM655360:JOT655360 JEQ655360:JEX655360 IUU655360:IVB655360 IKY655360:ILF655360 IBC655360:IBJ655360 HRG655360:HRN655360 HHK655360:HHR655360 GXO655360:GXV655360 GNS655360:GNZ655360 GDW655360:GED655360 FUA655360:FUH655360 FKE655360:FKL655360 FAI655360:FAP655360 EQM655360:EQT655360 EGQ655360:EGX655360 DWU655360:DXB655360 DMY655360:DNF655360 DDC655360:DDJ655360 CTG655360:CTN655360 CJK655360:CJR655360 BZO655360:BZV655360 BPS655360:BPZ655360 BFW655360:BGD655360 AWA655360:AWH655360 AME655360:AML655360 ACI655360:ACP655360 SM655360:ST655360 IQ655360:IX655360 E655360:K655360 WVC589824:WVJ589824 WLG589824:WLN589824 WBK589824:WBR589824 VRO589824:VRV589824 VHS589824:VHZ589824 UXW589824:UYD589824 UOA589824:UOH589824 UEE589824:UEL589824 TUI589824:TUP589824 TKM589824:TKT589824 TAQ589824:TAX589824 SQU589824:SRB589824 SGY589824:SHF589824 RXC589824:RXJ589824 RNG589824:RNN589824 RDK589824:RDR589824 QTO589824:QTV589824 QJS589824:QJZ589824 PZW589824:QAD589824 PQA589824:PQH589824 PGE589824:PGL589824 OWI589824:OWP589824 OMM589824:OMT589824 OCQ589824:OCX589824 NSU589824:NTB589824 NIY589824:NJF589824 MZC589824:MZJ589824 MPG589824:MPN589824 MFK589824:MFR589824 LVO589824:LVV589824 LLS589824:LLZ589824 LBW589824:LCD589824 KSA589824:KSH589824 KIE589824:KIL589824 JYI589824:JYP589824 JOM589824:JOT589824 JEQ589824:JEX589824 IUU589824:IVB589824 IKY589824:ILF589824 IBC589824:IBJ589824 HRG589824:HRN589824 HHK589824:HHR589824 GXO589824:GXV589824 GNS589824:GNZ589824 GDW589824:GED589824 FUA589824:FUH589824 FKE589824:FKL589824 FAI589824:FAP589824 EQM589824:EQT589824 EGQ589824:EGX589824 DWU589824:DXB589824 DMY589824:DNF589824 DDC589824:DDJ589824 CTG589824:CTN589824 CJK589824:CJR589824 BZO589824:BZV589824 BPS589824:BPZ589824 BFW589824:BGD589824 AWA589824:AWH589824 AME589824:AML589824 ACI589824:ACP589824 SM589824:ST589824 IQ589824:IX589824 E589824:K589824 WVC524288:WVJ524288 WLG524288:WLN524288 WBK524288:WBR524288 VRO524288:VRV524288 VHS524288:VHZ524288 UXW524288:UYD524288 UOA524288:UOH524288 UEE524288:UEL524288 TUI524288:TUP524288 TKM524288:TKT524288 TAQ524288:TAX524288 SQU524288:SRB524288 SGY524288:SHF524288 RXC524288:RXJ524288 RNG524288:RNN524288 RDK524288:RDR524288 QTO524288:QTV524288 QJS524288:QJZ524288 PZW524288:QAD524288 PQA524288:PQH524288 PGE524288:PGL524288 OWI524288:OWP524288 OMM524288:OMT524288 OCQ524288:OCX524288 NSU524288:NTB524288 NIY524288:NJF524288 MZC524288:MZJ524288 MPG524288:MPN524288 MFK524288:MFR524288 LVO524288:LVV524288 LLS524288:LLZ524288 LBW524288:LCD524288 KSA524288:KSH524288 KIE524288:KIL524288 JYI524288:JYP524288 JOM524288:JOT524288 JEQ524288:JEX524288 IUU524288:IVB524288 IKY524288:ILF524288 IBC524288:IBJ524288 HRG524288:HRN524288 HHK524288:HHR524288 GXO524288:GXV524288 GNS524288:GNZ524288 GDW524288:GED524288 FUA524288:FUH524288 FKE524288:FKL524288 FAI524288:FAP524288 EQM524288:EQT524288 EGQ524288:EGX524288 DWU524288:DXB524288 DMY524288:DNF524288 DDC524288:DDJ524288 CTG524288:CTN524288 CJK524288:CJR524288 BZO524288:BZV524288 BPS524288:BPZ524288 BFW524288:BGD524288 AWA524288:AWH524288 AME524288:AML524288 ACI524288:ACP524288 SM524288:ST524288 IQ524288:IX524288 E524288:K524288 WVC458752:WVJ458752 WLG458752:WLN458752 WBK458752:WBR458752 VRO458752:VRV458752 VHS458752:VHZ458752 UXW458752:UYD458752 UOA458752:UOH458752 UEE458752:UEL458752 TUI458752:TUP458752 TKM458752:TKT458752 TAQ458752:TAX458752 SQU458752:SRB458752 SGY458752:SHF458752 RXC458752:RXJ458752 RNG458752:RNN458752 RDK458752:RDR458752 QTO458752:QTV458752 QJS458752:QJZ458752 PZW458752:QAD458752 PQA458752:PQH458752 PGE458752:PGL458752 OWI458752:OWP458752 OMM458752:OMT458752 OCQ458752:OCX458752 NSU458752:NTB458752 NIY458752:NJF458752 MZC458752:MZJ458752 MPG458752:MPN458752 MFK458752:MFR458752 LVO458752:LVV458752 LLS458752:LLZ458752 LBW458752:LCD458752 KSA458752:KSH458752 KIE458752:KIL458752 JYI458752:JYP458752 JOM458752:JOT458752 JEQ458752:JEX458752 IUU458752:IVB458752 IKY458752:ILF458752 IBC458752:IBJ458752 HRG458752:HRN458752 HHK458752:HHR458752 GXO458752:GXV458752 GNS458752:GNZ458752 GDW458752:GED458752 FUA458752:FUH458752 FKE458752:FKL458752 FAI458752:FAP458752 EQM458752:EQT458752 EGQ458752:EGX458752 DWU458752:DXB458752 DMY458752:DNF458752 DDC458752:DDJ458752 CTG458752:CTN458752 CJK458752:CJR458752 BZO458752:BZV458752 BPS458752:BPZ458752 BFW458752:BGD458752 AWA458752:AWH458752 AME458752:AML458752 ACI458752:ACP458752 SM458752:ST458752 IQ458752:IX458752 E458752:K458752 WVC393216:WVJ393216 WLG393216:WLN393216 WBK393216:WBR393216 VRO393216:VRV393216 VHS393216:VHZ393216 UXW393216:UYD393216 UOA393216:UOH393216 UEE393216:UEL393216 TUI393216:TUP393216 TKM393216:TKT393216 TAQ393216:TAX393216 SQU393216:SRB393216 SGY393216:SHF393216 RXC393216:RXJ393216 RNG393216:RNN393216 RDK393216:RDR393216 QTO393216:QTV393216 QJS393216:QJZ393216 PZW393216:QAD393216 PQA393216:PQH393216 PGE393216:PGL393216 OWI393216:OWP393216 OMM393216:OMT393216 OCQ393216:OCX393216 NSU393216:NTB393216 NIY393216:NJF393216 MZC393216:MZJ393216 MPG393216:MPN393216 MFK393216:MFR393216 LVO393216:LVV393216 LLS393216:LLZ393216 LBW393216:LCD393216 KSA393216:KSH393216 KIE393216:KIL393216 JYI393216:JYP393216 JOM393216:JOT393216 JEQ393216:JEX393216 IUU393216:IVB393216 IKY393216:ILF393216 IBC393216:IBJ393216 HRG393216:HRN393216 HHK393216:HHR393216 GXO393216:GXV393216 GNS393216:GNZ393216 GDW393216:GED393216 FUA393216:FUH393216 FKE393216:FKL393216 FAI393216:FAP393216 EQM393216:EQT393216 EGQ393216:EGX393216 DWU393216:DXB393216 DMY393216:DNF393216 DDC393216:DDJ393216 CTG393216:CTN393216 CJK393216:CJR393216 BZO393216:BZV393216 BPS393216:BPZ393216 BFW393216:BGD393216 AWA393216:AWH393216 AME393216:AML393216 ACI393216:ACP393216 SM393216:ST393216 IQ393216:IX393216 E393216:K393216 WVC327680:WVJ327680 WLG327680:WLN327680 WBK327680:WBR327680 VRO327680:VRV327680 VHS327680:VHZ327680 UXW327680:UYD327680 UOA327680:UOH327680 UEE327680:UEL327680 TUI327680:TUP327680 TKM327680:TKT327680 TAQ327680:TAX327680 SQU327680:SRB327680 SGY327680:SHF327680 RXC327680:RXJ327680 RNG327680:RNN327680 RDK327680:RDR327680 QTO327680:QTV327680 QJS327680:QJZ327680 PZW327680:QAD327680 PQA327680:PQH327680 PGE327680:PGL327680 OWI327680:OWP327680 OMM327680:OMT327680 OCQ327680:OCX327680 NSU327680:NTB327680 NIY327680:NJF327680 MZC327680:MZJ327680 MPG327680:MPN327680 MFK327680:MFR327680 LVO327680:LVV327680 LLS327680:LLZ327680 LBW327680:LCD327680 KSA327680:KSH327680 KIE327680:KIL327680 JYI327680:JYP327680 JOM327680:JOT327680 JEQ327680:JEX327680 IUU327680:IVB327680 IKY327680:ILF327680 IBC327680:IBJ327680 HRG327680:HRN327680 HHK327680:HHR327680 GXO327680:GXV327680 GNS327680:GNZ327680 GDW327680:GED327680 FUA327680:FUH327680 FKE327680:FKL327680 FAI327680:FAP327680 EQM327680:EQT327680 EGQ327680:EGX327680 DWU327680:DXB327680 DMY327680:DNF327680 DDC327680:DDJ327680 CTG327680:CTN327680 CJK327680:CJR327680 BZO327680:BZV327680 BPS327680:BPZ327680 BFW327680:BGD327680 AWA327680:AWH327680 AME327680:AML327680 ACI327680:ACP327680 SM327680:ST327680 IQ327680:IX327680 E327680:K327680 WVC262144:WVJ262144 WLG262144:WLN262144 WBK262144:WBR262144 VRO262144:VRV262144 VHS262144:VHZ262144 UXW262144:UYD262144 UOA262144:UOH262144 UEE262144:UEL262144 TUI262144:TUP262144 TKM262144:TKT262144 TAQ262144:TAX262144 SQU262144:SRB262144 SGY262144:SHF262144 RXC262144:RXJ262144 RNG262144:RNN262144 RDK262144:RDR262144 QTO262144:QTV262144 QJS262144:QJZ262144 PZW262144:QAD262144 PQA262144:PQH262144 PGE262144:PGL262144 OWI262144:OWP262144 OMM262144:OMT262144 OCQ262144:OCX262144 NSU262144:NTB262144 NIY262144:NJF262144 MZC262144:MZJ262144 MPG262144:MPN262144 MFK262144:MFR262144 LVO262144:LVV262144 LLS262144:LLZ262144 LBW262144:LCD262144 KSA262144:KSH262144 KIE262144:KIL262144 JYI262144:JYP262144 JOM262144:JOT262144 JEQ262144:JEX262144 IUU262144:IVB262144 IKY262144:ILF262144 IBC262144:IBJ262144 HRG262144:HRN262144 HHK262144:HHR262144 GXO262144:GXV262144 GNS262144:GNZ262144 GDW262144:GED262144 FUA262144:FUH262144 FKE262144:FKL262144 FAI262144:FAP262144 EQM262144:EQT262144 EGQ262144:EGX262144 DWU262144:DXB262144 DMY262144:DNF262144 DDC262144:DDJ262144 CTG262144:CTN262144 CJK262144:CJR262144 BZO262144:BZV262144 BPS262144:BPZ262144 BFW262144:BGD262144 AWA262144:AWH262144 AME262144:AML262144 ACI262144:ACP262144 SM262144:ST262144 IQ262144:IX262144 E262144:K262144 WVC196608:WVJ196608 WLG196608:WLN196608 WBK196608:WBR196608 VRO196608:VRV196608 VHS196608:VHZ196608 UXW196608:UYD196608 UOA196608:UOH196608 UEE196608:UEL196608 TUI196608:TUP196608 TKM196608:TKT196608 TAQ196608:TAX196608 SQU196608:SRB196608 SGY196608:SHF196608 RXC196608:RXJ196608 RNG196608:RNN196608 RDK196608:RDR196608 QTO196608:QTV196608 QJS196608:QJZ196608 PZW196608:QAD196608 PQA196608:PQH196608 PGE196608:PGL196608 OWI196608:OWP196608 OMM196608:OMT196608 OCQ196608:OCX196608 NSU196608:NTB196608 NIY196608:NJF196608 MZC196608:MZJ196608 MPG196608:MPN196608 MFK196608:MFR196608 LVO196608:LVV196608 LLS196608:LLZ196608 LBW196608:LCD196608 KSA196608:KSH196608 KIE196608:KIL196608 JYI196608:JYP196608 JOM196608:JOT196608 JEQ196608:JEX196608 IUU196608:IVB196608 IKY196608:ILF196608 IBC196608:IBJ196608 HRG196608:HRN196608 HHK196608:HHR196608 GXO196608:GXV196608 GNS196608:GNZ196608 GDW196608:GED196608 FUA196608:FUH196608 FKE196608:FKL196608 FAI196608:FAP196608 EQM196608:EQT196608 EGQ196608:EGX196608 DWU196608:DXB196608 DMY196608:DNF196608 DDC196608:DDJ196608 CTG196608:CTN196608 CJK196608:CJR196608 BZO196608:BZV196608 BPS196608:BPZ196608 BFW196608:BGD196608 AWA196608:AWH196608 AME196608:AML196608 ACI196608:ACP196608 SM196608:ST196608 IQ196608:IX196608 E196608:K196608 WVC131072:WVJ131072 WLG131072:WLN131072 WBK131072:WBR131072 VRO131072:VRV131072 VHS131072:VHZ131072 UXW131072:UYD131072 UOA131072:UOH131072 UEE131072:UEL131072 TUI131072:TUP131072 TKM131072:TKT131072 TAQ131072:TAX131072 SQU131072:SRB131072 SGY131072:SHF131072 RXC131072:RXJ131072 RNG131072:RNN131072 RDK131072:RDR131072 QTO131072:QTV131072 QJS131072:QJZ131072 PZW131072:QAD131072 PQA131072:PQH131072 PGE131072:PGL131072 OWI131072:OWP131072 OMM131072:OMT131072 OCQ131072:OCX131072 NSU131072:NTB131072 NIY131072:NJF131072 MZC131072:MZJ131072 MPG131072:MPN131072 MFK131072:MFR131072 LVO131072:LVV131072 LLS131072:LLZ131072 LBW131072:LCD131072 KSA131072:KSH131072 KIE131072:KIL131072 JYI131072:JYP131072 JOM131072:JOT131072 JEQ131072:JEX131072 IUU131072:IVB131072 IKY131072:ILF131072 IBC131072:IBJ131072 HRG131072:HRN131072 HHK131072:HHR131072 GXO131072:GXV131072 GNS131072:GNZ131072 GDW131072:GED131072 FUA131072:FUH131072 FKE131072:FKL131072 FAI131072:FAP131072 EQM131072:EQT131072 EGQ131072:EGX131072 DWU131072:DXB131072 DMY131072:DNF131072 DDC131072:DDJ131072 CTG131072:CTN131072 CJK131072:CJR131072 BZO131072:BZV131072 BPS131072:BPZ131072 BFW131072:BGD131072 AWA131072:AWH131072 AME131072:AML131072 ACI131072:ACP131072 SM131072:ST131072 IQ131072:IX131072 E131072:K131072 WVC65536:WVJ65536 WLG65536:WLN65536 WBK65536:WBR65536 VRO65536:VRV65536 VHS65536:VHZ65536 UXW65536:UYD65536 UOA65536:UOH65536 UEE65536:UEL65536 TUI65536:TUP65536 TKM65536:TKT65536 TAQ65536:TAX65536 SQU65536:SRB65536 SGY65536:SHF65536 RXC65536:RXJ65536 RNG65536:RNN65536 RDK65536:RDR65536 QTO65536:QTV65536 QJS65536:QJZ65536 PZW65536:QAD65536 PQA65536:PQH65536 PGE65536:PGL65536 OWI65536:OWP65536 OMM65536:OMT65536 OCQ65536:OCX65536 NSU65536:NTB65536 NIY65536:NJF65536 MZC65536:MZJ65536 MPG65536:MPN65536 MFK65536:MFR65536 LVO65536:LVV65536 LLS65536:LLZ65536 LBW65536:LCD65536 KSA65536:KSH65536 KIE65536:KIL65536 JYI65536:JYP65536 JOM65536:JOT65536 JEQ65536:JEX65536 IUU65536:IVB65536 IKY65536:ILF65536 IBC65536:IBJ65536 HRG65536:HRN65536 HHK65536:HHR65536 GXO65536:GXV65536 GNS65536:GNZ65536 GDW65536:GED65536 FUA65536:FUH65536 FKE65536:FKL65536 FAI65536:FAP65536 EQM65536:EQT65536 EGQ65536:EGX65536 DWU65536:DXB65536 DMY65536:DNF65536 DDC65536:DDJ65536 CTG65536:CTN65536 CJK65536:CJR65536 BZO65536:BZV65536 BPS65536:BPZ65536 BFW65536:BGD65536 AWA65536:AWH65536 AME65536:AML65536 ACI65536:ACP65536 SM65536:ST65536 IQ65536:IX65536 E65536:K65536 WVC4:WVJ4 WLG4:WLN4 WBK4:WBR4 VRO4:VRV4 VHS4:VHZ4 UXW4:UYD4 UOA4:UOH4 UEE4:UEL4 TUI4:TUP4 TKM4:TKT4 TAQ4:TAX4 SQU4:SRB4 SGY4:SHF4 RXC4:RXJ4 RNG4:RNN4 RDK4:RDR4 QTO4:QTV4 QJS4:QJZ4 PZW4:QAD4 PQA4:PQH4 PGE4:PGL4 OWI4:OWP4 OMM4:OMT4 OCQ4:OCX4 NSU4:NTB4 NIY4:NJF4 MZC4:MZJ4 MPG4:MPN4 MFK4:MFR4 LVO4:LVV4 LLS4:LLZ4 LBW4:LCD4 KSA4:KSH4 KIE4:KIL4 JYI4:JYP4 JOM4:JOT4 JEQ4:JEX4 IUU4:IVB4 IKY4:ILF4 IBC4:IBJ4 HRG4:HRN4 HHK4:HHR4 GXO4:GXV4 GNS4:GNZ4 GDW4:GED4 FUA4:FUH4 FKE4:FKL4 FAI4:FAP4 EQM4:EQT4 EGQ4:EGX4 DWU4:DXB4 DMY4:DNF4 DDC4:DDJ4 CTG4:CTN4 CJK4:CJR4 BZO4:BZV4 BPS4:BPZ4 BFW4:BGD4 AWA4:AWH4 AME4:AML4 ACI4:ACP4 SM4:ST4 IQ4:IX4">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVC983045:WVJ983045 WLG983045:WLN983045 WBK983045:WBR983045 VRO983045:VRV983045 VHS983045:VHZ983045 UXW983045:UYD983045 UOA983045:UOH983045 UEE983045:UEL983045 TUI983045:TUP983045 TKM983045:TKT983045 TAQ983045:TAX983045 SQU983045:SRB983045 SGY983045:SHF983045 RXC983045:RXJ983045 RNG983045:RNN983045 RDK983045:RDR983045 QTO983045:QTV983045 QJS983045:QJZ983045 PZW983045:QAD983045 PQA983045:PQH983045 PGE983045:PGL983045 OWI983045:OWP983045 OMM983045:OMT983045 OCQ983045:OCX983045 NSU983045:NTB983045 NIY983045:NJF983045 MZC983045:MZJ983045 MPG983045:MPN983045 MFK983045:MFR983045 LVO983045:LVV983045 LLS983045:LLZ983045 LBW983045:LCD983045 KSA983045:KSH983045 KIE983045:KIL983045 JYI983045:JYP983045 JOM983045:JOT983045 JEQ983045:JEX983045 IUU983045:IVB983045 IKY983045:ILF983045 IBC983045:IBJ983045 HRG983045:HRN983045 HHK983045:HHR983045 GXO983045:GXV983045 GNS983045:GNZ983045 GDW983045:GED983045 FUA983045:FUH983045 FKE983045:FKL983045 FAI983045:FAP983045 EQM983045:EQT983045 EGQ983045:EGX983045 DWU983045:DXB983045 DMY983045:DNF983045 DDC983045:DDJ983045 CTG983045:CTN983045 CJK983045:CJR983045 BZO983045:BZV983045 BPS983045:BPZ983045 BFW983045:BGD983045 AWA983045:AWH983045 AME983045:AML983045 ACI983045:ACP983045 SM983045:ST983045 IQ983045:IX983045 E983045:K983045 WVC917509:WVJ917509 WLG917509:WLN917509 WBK917509:WBR917509 VRO917509:VRV917509 VHS917509:VHZ917509 UXW917509:UYD917509 UOA917509:UOH917509 UEE917509:UEL917509 TUI917509:TUP917509 TKM917509:TKT917509 TAQ917509:TAX917509 SQU917509:SRB917509 SGY917509:SHF917509 RXC917509:RXJ917509 RNG917509:RNN917509 RDK917509:RDR917509 QTO917509:QTV917509 QJS917509:QJZ917509 PZW917509:QAD917509 PQA917509:PQH917509 PGE917509:PGL917509 OWI917509:OWP917509 OMM917509:OMT917509 OCQ917509:OCX917509 NSU917509:NTB917509 NIY917509:NJF917509 MZC917509:MZJ917509 MPG917509:MPN917509 MFK917509:MFR917509 LVO917509:LVV917509 LLS917509:LLZ917509 LBW917509:LCD917509 KSA917509:KSH917509 KIE917509:KIL917509 JYI917509:JYP917509 JOM917509:JOT917509 JEQ917509:JEX917509 IUU917509:IVB917509 IKY917509:ILF917509 IBC917509:IBJ917509 HRG917509:HRN917509 HHK917509:HHR917509 GXO917509:GXV917509 GNS917509:GNZ917509 GDW917509:GED917509 FUA917509:FUH917509 FKE917509:FKL917509 FAI917509:FAP917509 EQM917509:EQT917509 EGQ917509:EGX917509 DWU917509:DXB917509 DMY917509:DNF917509 DDC917509:DDJ917509 CTG917509:CTN917509 CJK917509:CJR917509 BZO917509:BZV917509 BPS917509:BPZ917509 BFW917509:BGD917509 AWA917509:AWH917509 AME917509:AML917509 ACI917509:ACP917509 SM917509:ST917509 IQ917509:IX917509 E917509:K917509 WVC851973:WVJ851973 WLG851973:WLN851973 WBK851973:WBR851973 VRO851973:VRV851973 VHS851973:VHZ851973 UXW851973:UYD851973 UOA851973:UOH851973 UEE851973:UEL851973 TUI851973:TUP851973 TKM851973:TKT851973 TAQ851973:TAX851973 SQU851973:SRB851973 SGY851973:SHF851973 RXC851973:RXJ851973 RNG851973:RNN851973 RDK851973:RDR851973 QTO851973:QTV851973 QJS851973:QJZ851973 PZW851973:QAD851973 PQA851973:PQH851973 PGE851973:PGL851973 OWI851973:OWP851973 OMM851973:OMT851973 OCQ851973:OCX851973 NSU851973:NTB851973 NIY851973:NJF851973 MZC851973:MZJ851973 MPG851973:MPN851973 MFK851973:MFR851973 LVO851973:LVV851973 LLS851973:LLZ851973 LBW851973:LCD851973 KSA851973:KSH851973 KIE851973:KIL851973 JYI851973:JYP851973 JOM851973:JOT851973 JEQ851973:JEX851973 IUU851973:IVB851973 IKY851973:ILF851973 IBC851973:IBJ851973 HRG851973:HRN851973 HHK851973:HHR851973 GXO851973:GXV851973 GNS851973:GNZ851973 GDW851973:GED851973 FUA851973:FUH851973 FKE851973:FKL851973 FAI851973:FAP851973 EQM851973:EQT851973 EGQ851973:EGX851973 DWU851973:DXB851973 DMY851973:DNF851973 DDC851973:DDJ851973 CTG851973:CTN851973 CJK851973:CJR851973 BZO851973:BZV851973 BPS851973:BPZ851973 BFW851973:BGD851973 AWA851973:AWH851973 AME851973:AML851973 ACI851973:ACP851973 SM851973:ST851973 IQ851973:IX851973 E851973:K851973 WVC786437:WVJ786437 WLG786437:WLN786437 WBK786437:WBR786437 VRO786437:VRV786437 VHS786437:VHZ786437 UXW786437:UYD786437 UOA786437:UOH786437 UEE786437:UEL786437 TUI786437:TUP786437 TKM786437:TKT786437 TAQ786437:TAX786437 SQU786437:SRB786437 SGY786437:SHF786437 RXC786437:RXJ786437 RNG786437:RNN786437 RDK786437:RDR786437 QTO786437:QTV786437 QJS786437:QJZ786437 PZW786437:QAD786437 PQA786437:PQH786437 PGE786437:PGL786437 OWI786437:OWP786437 OMM786437:OMT786437 OCQ786437:OCX786437 NSU786437:NTB786437 NIY786437:NJF786437 MZC786437:MZJ786437 MPG786437:MPN786437 MFK786437:MFR786437 LVO786437:LVV786437 LLS786437:LLZ786437 LBW786437:LCD786437 KSA786437:KSH786437 KIE786437:KIL786437 JYI786437:JYP786437 JOM786437:JOT786437 JEQ786437:JEX786437 IUU786437:IVB786437 IKY786437:ILF786437 IBC786437:IBJ786437 HRG786437:HRN786437 HHK786437:HHR786437 GXO786437:GXV786437 GNS786437:GNZ786437 GDW786437:GED786437 FUA786437:FUH786437 FKE786437:FKL786437 FAI786437:FAP786437 EQM786437:EQT786437 EGQ786437:EGX786437 DWU786437:DXB786437 DMY786437:DNF786437 DDC786437:DDJ786437 CTG786437:CTN786437 CJK786437:CJR786437 BZO786437:BZV786437 BPS786437:BPZ786437 BFW786437:BGD786437 AWA786437:AWH786437 AME786437:AML786437 ACI786437:ACP786437 SM786437:ST786437 IQ786437:IX786437 E786437:K786437 WVC720901:WVJ720901 WLG720901:WLN720901 WBK720901:WBR720901 VRO720901:VRV720901 VHS720901:VHZ720901 UXW720901:UYD720901 UOA720901:UOH720901 UEE720901:UEL720901 TUI720901:TUP720901 TKM720901:TKT720901 TAQ720901:TAX720901 SQU720901:SRB720901 SGY720901:SHF720901 RXC720901:RXJ720901 RNG720901:RNN720901 RDK720901:RDR720901 QTO720901:QTV720901 QJS720901:QJZ720901 PZW720901:QAD720901 PQA720901:PQH720901 PGE720901:PGL720901 OWI720901:OWP720901 OMM720901:OMT720901 OCQ720901:OCX720901 NSU720901:NTB720901 NIY720901:NJF720901 MZC720901:MZJ720901 MPG720901:MPN720901 MFK720901:MFR720901 LVO720901:LVV720901 LLS720901:LLZ720901 LBW720901:LCD720901 KSA720901:KSH720901 KIE720901:KIL720901 JYI720901:JYP720901 JOM720901:JOT720901 JEQ720901:JEX720901 IUU720901:IVB720901 IKY720901:ILF720901 IBC720901:IBJ720901 HRG720901:HRN720901 HHK720901:HHR720901 GXO720901:GXV720901 GNS720901:GNZ720901 GDW720901:GED720901 FUA720901:FUH720901 FKE720901:FKL720901 FAI720901:FAP720901 EQM720901:EQT720901 EGQ720901:EGX720901 DWU720901:DXB720901 DMY720901:DNF720901 DDC720901:DDJ720901 CTG720901:CTN720901 CJK720901:CJR720901 BZO720901:BZV720901 BPS720901:BPZ720901 BFW720901:BGD720901 AWA720901:AWH720901 AME720901:AML720901 ACI720901:ACP720901 SM720901:ST720901 IQ720901:IX720901 E720901:K720901 WVC655365:WVJ655365 WLG655365:WLN655365 WBK655365:WBR655365 VRO655365:VRV655365 VHS655365:VHZ655365 UXW655365:UYD655365 UOA655365:UOH655365 UEE655365:UEL655365 TUI655365:TUP655365 TKM655365:TKT655365 TAQ655365:TAX655365 SQU655365:SRB655365 SGY655365:SHF655365 RXC655365:RXJ655365 RNG655365:RNN655365 RDK655365:RDR655365 QTO655365:QTV655365 QJS655365:QJZ655365 PZW655365:QAD655365 PQA655365:PQH655365 PGE655365:PGL655365 OWI655365:OWP655365 OMM655365:OMT655365 OCQ655365:OCX655365 NSU655365:NTB655365 NIY655365:NJF655365 MZC655365:MZJ655365 MPG655365:MPN655365 MFK655365:MFR655365 LVO655365:LVV655365 LLS655365:LLZ655365 LBW655365:LCD655365 KSA655365:KSH655365 KIE655365:KIL655365 JYI655365:JYP655365 JOM655365:JOT655365 JEQ655365:JEX655365 IUU655365:IVB655365 IKY655365:ILF655365 IBC655365:IBJ655365 HRG655365:HRN655365 HHK655365:HHR655365 GXO655365:GXV655365 GNS655365:GNZ655365 GDW655365:GED655365 FUA655365:FUH655365 FKE655365:FKL655365 FAI655365:FAP655365 EQM655365:EQT655365 EGQ655365:EGX655365 DWU655365:DXB655365 DMY655365:DNF655365 DDC655365:DDJ655365 CTG655365:CTN655365 CJK655365:CJR655365 BZO655365:BZV655365 BPS655365:BPZ655365 BFW655365:BGD655365 AWA655365:AWH655365 AME655365:AML655365 ACI655365:ACP655365 SM655365:ST655365 IQ655365:IX655365 E655365:K655365 WVC589829:WVJ589829 WLG589829:WLN589829 WBK589829:WBR589829 VRO589829:VRV589829 VHS589829:VHZ589829 UXW589829:UYD589829 UOA589829:UOH589829 UEE589829:UEL589829 TUI589829:TUP589829 TKM589829:TKT589829 TAQ589829:TAX589829 SQU589829:SRB589829 SGY589829:SHF589829 RXC589829:RXJ589829 RNG589829:RNN589829 RDK589829:RDR589829 QTO589829:QTV589829 QJS589829:QJZ589829 PZW589829:QAD589829 PQA589829:PQH589829 PGE589829:PGL589829 OWI589829:OWP589829 OMM589829:OMT589829 OCQ589829:OCX589829 NSU589829:NTB589829 NIY589829:NJF589829 MZC589829:MZJ589829 MPG589829:MPN589829 MFK589829:MFR589829 LVO589829:LVV589829 LLS589829:LLZ589829 LBW589829:LCD589829 KSA589829:KSH589829 KIE589829:KIL589829 JYI589829:JYP589829 JOM589829:JOT589829 JEQ589829:JEX589829 IUU589829:IVB589829 IKY589829:ILF589829 IBC589829:IBJ589829 HRG589829:HRN589829 HHK589829:HHR589829 GXO589829:GXV589829 GNS589829:GNZ589829 GDW589829:GED589829 FUA589829:FUH589829 FKE589829:FKL589829 FAI589829:FAP589829 EQM589829:EQT589829 EGQ589829:EGX589829 DWU589829:DXB589829 DMY589829:DNF589829 DDC589829:DDJ589829 CTG589829:CTN589829 CJK589829:CJR589829 BZO589829:BZV589829 BPS589829:BPZ589829 BFW589829:BGD589829 AWA589829:AWH589829 AME589829:AML589829 ACI589829:ACP589829 SM589829:ST589829 IQ589829:IX589829 E589829:K589829 WVC524293:WVJ524293 WLG524293:WLN524293 WBK524293:WBR524293 VRO524293:VRV524293 VHS524293:VHZ524293 UXW524293:UYD524293 UOA524293:UOH524293 UEE524293:UEL524293 TUI524293:TUP524293 TKM524293:TKT524293 TAQ524293:TAX524293 SQU524293:SRB524293 SGY524293:SHF524293 RXC524293:RXJ524293 RNG524293:RNN524293 RDK524293:RDR524293 QTO524293:QTV524293 QJS524293:QJZ524293 PZW524293:QAD524293 PQA524293:PQH524293 PGE524293:PGL524293 OWI524293:OWP524293 OMM524293:OMT524293 OCQ524293:OCX524293 NSU524293:NTB524293 NIY524293:NJF524293 MZC524293:MZJ524293 MPG524293:MPN524293 MFK524293:MFR524293 LVO524293:LVV524293 LLS524293:LLZ524293 LBW524293:LCD524293 KSA524293:KSH524293 KIE524293:KIL524293 JYI524293:JYP524293 JOM524293:JOT524293 JEQ524293:JEX524293 IUU524293:IVB524293 IKY524293:ILF524293 IBC524293:IBJ524293 HRG524293:HRN524293 HHK524293:HHR524293 GXO524293:GXV524293 GNS524293:GNZ524293 GDW524293:GED524293 FUA524293:FUH524293 FKE524293:FKL524293 FAI524293:FAP524293 EQM524293:EQT524293 EGQ524293:EGX524293 DWU524293:DXB524293 DMY524293:DNF524293 DDC524293:DDJ524293 CTG524293:CTN524293 CJK524293:CJR524293 BZO524293:BZV524293 BPS524293:BPZ524293 BFW524293:BGD524293 AWA524293:AWH524293 AME524293:AML524293 ACI524293:ACP524293 SM524293:ST524293 IQ524293:IX524293 E524293:K524293 WVC458757:WVJ458757 WLG458757:WLN458757 WBK458757:WBR458757 VRO458757:VRV458757 VHS458757:VHZ458757 UXW458757:UYD458757 UOA458757:UOH458757 UEE458757:UEL458757 TUI458757:TUP458757 TKM458757:TKT458757 TAQ458757:TAX458757 SQU458757:SRB458757 SGY458757:SHF458757 RXC458757:RXJ458757 RNG458757:RNN458757 RDK458757:RDR458757 QTO458757:QTV458757 QJS458757:QJZ458757 PZW458757:QAD458757 PQA458757:PQH458757 PGE458757:PGL458757 OWI458757:OWP458757 OMM458757:OMT458757 OCQ458757:OCX458757 NSU458757:NTB458757 NIY458757:NJF458757 MZC458757:MZJ458757 MPG458757:MPN458757 MFK458757:MFR458757 LVO458757:LVV458757 LLS458757:LLZ458757 LBW458757:LCD458757 KSA458757:KSH458757 KIE458757:KIL458757 JYI458757:JYP458757 JOM458757:JOT458757 JEQ458757:JEX458757 IUU458757:IVB458757 IKY458757:ILF458757 IBC458757:IBJ458757 HRG458757:HRN458757 HHK458757:HHR458757 GXO458757:GXV458757 GNS458757:GNZ458757 GDW458757:GED458757 FUA458757:FUH458757 FKE458757:FKL458757 FAI458757:FAP458757 EQM458757:EQT458757 EGQ458757:EGX458757 DWU458757:DXB458757 DMY458757:DNF458757 DDC458757:DDJ458757 CTG458757:CTN458757 CJK458757:CJR458757 BZO458757:BZV458757 BPS458757:BPZ458757 BFW458757:BGD458757 AWA458757:AWH458757 AME458757:AML458757 ACI458757:ACP458757 SM458757:ST458757 IQ458757:IX458757 E458757:K458757 WVC393221:WVJ393221 WLG393221:WLN393221 WBK393221:WBR393221 VRO393221:VRV393221 VHS393221:VHZ393221 UXW393221:UYD393221 UOA393221:UOH393221 UEE393221:UEL393221 TUI393221:TUP393221 TKM393221:TKT393221 TAQ393221:TAX393221 SQU393221:SRB393221 SGY393221:SHF393221 RXC393221:RXJ393221 RNG393221:RNN393221 RDK393221:RDR393221 QTO393221:QTV393221 QJS393221:QJZ393221 PZW393221:QAD393221 PQA393221:PQH393221 PGE393221:PGL393221 OWI393221:OWP393221 OMM393221:OMT393221 OCQ393221:OCX393221 NSU393221:NTB393221 NIY393221:NJF393221 MZC393221:MZJ393221 MPG393221:MPN393221 MFK393221:MFR393221 LVO393221:LVV393221 LLS393221:LLZ393221 LBW393221:LCD393221 KSA393221:KSH393221 KIE393221:KIL393221 JYI393221:JYP393221 JOM393221:JOT393221 JEQ393221:JEX393221 IUU393221:IVB393221 IKY393221:ILF393221 IBC393221:IBJ393221 HRG393221:HRN393221 HHK393221:HHR393221 GXO393221:GXV393221 GNS393221:GNZ393221 GDW393221:GED393221 FUA393221:FUH393221 FKE393221:FKL393221 FAI393221:FAP393221 EQM393221:EQT393221 EGQ393221:EGX393221 DWU393221:DXB393221 DMY393221:DNF393221 DDC393221:DDJ393221 CTG393221:CTN393221 CJK393221:CJR393221 BZO393221:BZV393221 BPS393221:BPZ393221 BFW393221:BGD393221 AWA393221:AWH393221 AME393221:AML393221 ACI393221:ACP393221 SM393221:ST393221 IQ393221:IX393221 E393221:K393221 WVC327685:WVJ327685 WLG327685:WLN327685 WBK327685:WBR327685 VRO327685:VRV327685 VHS327685:VHZ327685 UXW327685:UYD327685 UOA327685:UOH327685 UEE327685:UEL327685 TUI327685:TUP327685 TKM327685:TKT327685 TAQ327685:TAX327685 SQU327685:SRB327685 SGY327685:SHF327685 RXC327685:RXJ327685 RNG327685:RNN327685 RDK327685:RDR327685 QTO327685:QTV327685 QJS327685:QJZ327685 PZW327685:QAD327685 PQA327685:PQH327685 PGE327685:PGL327685 OWI327685:OWP327685 OMM327685:OMT327685 OCQ327685:OCX327685 NSU327685:NTB327685 NIY327685:NJF327685 MZC327685:MZJ327685 MPG327685:MPN327685 MFK327685:MFR327685 LVO327685:LVV327685 LLS327685:LLZ327685 LBW327685:LCD327685 KSA327685:KSH327685 KIE327685:KIL327685 JYI327685:JYP327685 JOM327685:JOT327685 JEQ327685:JEX327685 IUU327685:IVB327685 IKY327685:ILF327685 IBC327685:IBJ327685 HRG327685:HRN327685 HHK327685:HHR327685 GXO327685:GXV327685 GNS327685:GNZ327685 GDW327685:GED327685 FUA327685:FUH327685 FKE327685:FKL327685 FAI327685:FAP327685 EQM327685:EQT327685 EGQ327685:EGX327685 DWU327685:DXB327685 DMY327685:DNF327685 DDC327685:DDJ327685 CTG327685:CTN327685 CJK327685:CJR327685 BZO327685:BZV327685 BPS327685:BPZ327685 BFW327685:BGD327685 AWA327685:AWH327685 AME327685:AML327685 ACI327685:ACP327685 SM327685:ST327685 IQ327685:IX327685 E327685:K327685 WVC262149:WVJ262149 WLG262149:WLN262149 WBK262149:WBR262149 VRO262149:VRV262149 VHS262149:VHZ262149 UXW262149:UYD262149 UOA262149:UOH262149 UEE262149:UEL262149 TUI262149:TUP262149 TKM262149:TKT262149 TAQ262149:TAX262149 SQU262149:SRB262149 SGY262149:SHF262149 RXC262149:RXJ262149 RNG262149:RNN262149 RDK262149:RDR262149 QTO262149:QTV262149 QJS262149:QJZ262149 PZW262149:QAD262149 PQA262149:PQH262149 PGE262149:PGL262149 OWI262149:OWP262149 OMM262149:OMT262149 OCQ262149:OCX262149 NSU262149:NTB262149 NIY262149:NJF262149 MZC262149:MZJ262149 MPG262149:MPN262149 MFK262149:MFR262149 LVO262149:LVV262149 LLS262149:LLZ262149 LBW262149:LCD262149 KSA262149:KSH262149 KIE262149:KIL262149 JYI262149:JYP262149 JOM262149:JOT262149 JEQ262149:JEX262149 IUU262149:IVB262149 IKY262149:ILF262149 IBC262149:IBJ262149 HRG262149:HRN262149 HHK262149:HHR262149 GXO262149:GXV262149 GNS262149:GNZ262149 GDW262149:GED262149 FUA262149:FUH262149 FKE262149:FKL262149 FAI262149:FAP262149 EQM262149:EQT262149 EGQ262149:EGX262149 DWU262149:DXB262149 DMY262149:DNF262149 DDC262149:DDJ262149 CTG262149:CTN262149 CJK262149:CJR262149 BZO262149:BZV262149 BPS262149:BPZ262149 BFW262149:BGD262149 AWA262149:AWH262149 AME262149:AML262149 ACI262149:ACP262149 SM262149:ST262149 IQ262149:IX262149 E262149:K262149 WVC196613:WVJ196613 WLG196613:WLN196613 WBK196613:WBR196613 VRO196613:VRV196613 VHS196613:VHZ196613 UXW196613:UYD196613 UOA196613:UOH196613 UEE196613:UEL196613 TUI196613:TUP196613 TKM196613:TKT196613 TAQ196613:TAX196613 SQU196613:SRB196613 SGY196613:SHF196613 RXC196613:RXJ196613 RNG196613:RNN196613 RDK196613:RDR196613 QTO196613:QTV196613 QJS196613:QJZ196613 PZW196613:QAD196613 PQA196613:PQH196613 PGE196613:PGL196613 OWI196613:OWP196613 OMM196613:OMT196613 OCQ196613:OCX196613 NSU196613:NTB196613 NIY196613:NJF196613 MZC196613:MZJ196613 MPG196613:MPN196613 MFK196613:MFR196613 LVO196613:LVV196613 LLS196613:LLZ196613 LBW196613:LCD196613 KSA196613:KSH196613 KIE196613:KIL196613 JYI196613:JYP196613 JOM196613:JOT196613 JEQ196613:JEX196613 IUU196613:IVB196613 IKY196613:ILF196613 IBC196613:IBJ196613 HRG196613:HRN196613 HHK196613:HHR196613 GXO196613:GXV196613 GNS196613:GNZ196613 GDW196613:GED196613 FUA196613:FUH196613 FKE196613:FKL196613 FAI196613:FAP196613 EQM196613:EQT196613 EGQ196613:EGX196613 DWU196613:DXB196613 DMY196613:DNF196613 DDC196613:DDJ196613 CTG196613:CTN196613 CJK196613:CJR196613 BZO196613:BZV196613 BPS196613:BPZ196613 BFW196613:BGD196613 AWA196613:AWH196613 AME196613:AML196613 ACI196613:ACP196613 SM196613:ST196613 IQ196613:IX196613 E196613:K196613 WVC131077:WVJ131077 WLG131077:WLN131077 WBK131077:WBR131077 VRO131077:VRV131077 VHS131077:VHZ131077 UXW131077:UYD131077 UOA131077:UOH131077 UEE131077:UEL131077 TUI131077:TUP131077 TKM131077:TKT131077 TAQ131077:TAX131077 SQU131077:SRB131077 SGY131077:SHF131077 RXC131077:RXJ131077 RNG131077:RNN131077 RDK131077:RDR131077 QTO131077:QTV131077 QJS131077:QJZ131077 PZW131077:QAD131077 PQA131077:PQH131077 PGE131077:PGL131077 OWI131077:OWP131077 OMM131077:OMT131077 OCQ131077:OCX131077 NSU131077:NTB131077 NIY131077:NJF131077 MZC131077:MZJ131077 MPG131077:MPN131077 MFK131077:MFR131077 LVO131077:LVV131077 LLS131077:LLZ131077 LBW131077:LCD131077 KSA131077:KSH131077 KIE131077:KIL131077 JYI131077:JYP131077 JOM131077:JOT131077 JEQ131077:JEX131077 IUU131077:IVB131077 IKY131077:ILF131077 IBC131077:IBJ131077 HRG131077:HRN131077 HHK131077:HHR131077 GXO131077:GXV131077 GNS131077:GNZ131077 GDW131077:GED131077 FUA131077:FUH131077 FKE131077:FKL131077 FAI131077:FAP131077 EQM131077:EQT131077 EGQ131077:EGX131077 DWU131077:DXB131077 DMY131077:DNF131077 DDC131077:DDJ131077 CTG131077:CTN131077 CJK131077:CJR131077 BZO131077:BZV131077 BPS131077:BPZ131077 BFW131077:BGD131077 AWA131077:AWH131077 AME131077:AML131077 ACI131077:ACP131077 SM131077:ST131077 IQ131077:IX131077 E131077:K131077 WVC65541:WVJ65541 WLG65541:WLN65541 WBK65541:WBR65541 VRO65541:VRV65541 VHS65541:VHZ65541 UXW65541:UYD65541 UOA65541:UOH65541 UEE65541:UEL65541 TUI65541:TUP65541 TKM65541:TKT65541 TAQ65541:TAX65541 SQU65541:SRB65541 SGY65541:SHF65541 RXC65541:RXJ65541 RNG65541:RNN65541 RDK65541:RDR65541 QTO65541:QTV65541 QJS65541:QJZ65541 PZW65541:QAD65541 PQA65541:PQH65541 PGE65541:PGL65541 OWI65541:OWP65541 OMM65541:OMT65541 OCQ65541:OCX65541 NSU65541:NTB65541 NIY65541:NJF65541 MZC65541:MZJ65541 MPG65541:MPN65541 MFK65541:MFR65541 LVO65541:LVV65541 LLS65541:LLZ65541 LBW65541:LCD65541 KSA65541:KSH65541 KIE65541:KIL65541 JYI65541:JYP65541 JOM65541:JOT65541 JEQ65541:JEX65541 IUU65541:IVB65541 IKY65541:ILF65541 IBC65541:IBJ65541 HRG65541:HRN65541 HHK65541:HHR65541 GXO65541:GXV65541 GNS65541:GNZ65541 GDW65541:GED65541 FUA65541:FUH65541 FKE65541:FKL65541 FAI65541:FAP65541 EQM65541:EQT65541 EGQ65541:EGX65541 DWU65541:DXB65541 DMY65541:DNF65541 DDC65541:DDJ65541 CTG65541:CTN65541 CJK65541:CJR65541 BZO65541:BZV65541 BPS65541:BPZ65541 BFW65541:BGD65541 AWA65541:AWH65541 AME65541:AML65541 ACI65541:ACP65541 SM65541:ST65541 IQ65541:IX65541 E65541:K65541 WVC6:WVJ6 WLG6:WLN6 WBK6:WBR6 VRO6:VRV6 VHS6:VHZ6 UXW6:UYD6 UOA6:UOH6 UEE6:UEL6 TUI6:TUP6 TKM6:TKT6 TAQ6:TAX6 SQU6:SRB6 SGY6:SHF6 RXC6:RXJ6 RNG6:RNN6 RDK6:RDR6 QTO6:QTV6 QJS6:QJZ6 PZW6:QAD6 PQA6:PQH6 PGE6:PGL6 OWI6:OWP6 OMM6:OMT6 OCQ6:OCX6 NSU6:NTB6 NIY6:NJF6 MZC6:MZJ6 MPG6:MPN6 MFK6:MFR6 LVO6:LVV6 LLS6:LLZ6 LBW6:LCD6 KSA6:KSH6 KIE6:KIL6 JYI6:JYP6 JOM6:JOT6 JEQ6:JEX6 IUU6:IVB6 IKY6:ILF6 IBC6:IBJ6 HRG6:HRN6 HHK6:HHR6 GXO6:GXV6 GNS6:GNZ6 GDW6:GED6 FUA6:FUH6 FKE6:FKL6 FAI6:FAP6 EQM6:EQT6 EGQ6:EGX6 DWU6:DXB6 DMY6:DNF6 DDC6:DDJ6 CTG6:CTN6 CJK6:CJR6 BZO6:BZV6 BPS6:BPZ6 BFW6:BGD6 AWA6:AWH6 AME6:AML6 ACI6:ACP6 SM6:ST6 IQ6:IX6">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:J5 WVC983041:WVJ983041 E983041:K983041 E917505:K917505 E851969:K851969 E786433:K786433 E720897:K720897 E655361:K655361 E589825:K589825 E524289:K524289 E458753:K458753 E393217:K393217 E327681:K327681 E262145:K262145 E196609:K196609 E131073:K131073 E65537:K65537 IQ5:IX5 SM5:ST5 ACI5:ACP5 AME5:AML5 AWA5:AWH5 BFW5:BGD5 BPS5:BPZ5 BZO5:BZV5 CJK5:CJR5 CTG5:CTN5 DDC5:DDJ5 DMY5:DNF5 DWU5:DXB5 EGQ5:EGX5 EQM5:EQT5 FAI5:FAP5 FKE5:FKL5 FUA5:FUH5 GDW5:GED5 GNS5:GNZ5 GXO5:GXV5 HHK5:HHR5 HRG5:HRN5 IBC5:IBJ5 IKY5:ILF5 IUU5:IVB5 JEQ5:JEX5 JOM5:JOT5 JYI5:JYP5 KIE5:KIL5 KSA5:KSH5 LBW5:LCD5 LLS5:LLZ5 LVO5:LVV5 MFK5:MFR5 MPG5:MPN5 MZC5:MZJ5 NIY5:NJF5 NSU5:NTB5 OCQ5:OCX5 OMM5:OMT5 OWI5:OWP5 PGE5:PGL5 PQA5:PQH5 PZW5:QAD5 QJS5:QJZ5 QTO5:QTV5 RDK5:RDR5 RNG5:RNN5 RXC5:RXJ5 SGY5:SHF5 SQU5:SRB5 TAQ5:TAX5 TKM5:TKT5 TUI5:TUP5 UEE5:UEL5 UOA5:UOH5 UXW5:UYD5 VHS5:VHZ5 VRO5:VRV5 WBK5:WBR5 WLG5:WLN5 WVC5:WVJ5 IQ65537:IX65537 SM65537:ST65537 ACI65537:ACP65537 AME65537:AML65537 AWA65537:AWH65537 BFW65537:BGD65537 BPS65537:BPZ65537 BZO65537:BZV65537 CJK65537:CJR65537 CTG65537:CTN65537 DDC65537:DDJ65537 DMY65537:DNF65537 DWU65537:DXB65537 EGQ65537:EGX65537 EQM65537:EQT65537 FAI65537:FAP65537 FKE65537:FKL65537 FUA65537:FUH65537 GDW65537:GED65537 GNS65537:GNZ65537 GXO65537:GXV65537 HHK65537:HHR65537 HRG65537:HRN65537 IBC65537:IBJ65537 IKY65537:ILF65537 IUU65537:IVB65537 JEQ65537:JEX65537 JOM65537:JOT65537 JYI65537:JYP65537 KIE65537:KIL65537 KSA65537:KSH65537 LBW65537:LCD65537 LLS65537:LLZ65537 LVO65537:LVV65537 MFK65537:MFR65537 MPG65537:MPN65537 MZC65537:MZJ65537 NIY65537:NJF65537 NSU65537:NTB65537 OCQ65537:OCX65537 OMM65537:OMT65537 OWI65537:OWP65537 PGE65537:PGL65537 PQA65537:PQH65537 PZW65537:QAD65537 QJS65537:QJZ65537 QTO65537:QTV65537 RDK65537:RDR65537 RNG65537:RNN65537 RXC65537:RXJ65537 SGY65537:SHF65537 SQU65537:SRB65537 TAQ65537:TAX65537 TKM65537:TKT65537 TUI65537:TUP65537 UEE65537:UEL65537 UOA65537:UOH65537 UXW65537:UYD65537 VHS65537:VHZ65537 VRO65537:VRV65537 WBK65537:WBR65537 WLG65537:WLN65537 WVC65537:WVJ65537 IQ131073:IX131073 SM131073:ST131073 ACI131073:ACP131073 AME131073:AML131073 AWA131073:AWH131073 BFW131073:BGD131073 BPS131073:BPZ131073 BZO131073:BZV131073 CJK131073:CJR131073 CTG131073:CTN131073 DDC131073:DDJ131073 DMY131073:DNF131073 DWU131073:DXB131073 EGQ131073:EGX131073 EQM131073:EQT131073 FAI131073:FAP131073 FKE131073:FKL131073 FUA131073:FUH131073 GDW131073:GED131073 GNS131073:GNZ131073 GXO131073:GXV131073 HHK131073:HHR131073 HRG131073:HRN131073 IBC131073:IBJ131073 IKY131073:ILF131073 IUU131073:IVB131073 JEQ131073:JEX131073 JOM131073:JOT131073 JYI131073:JYP131073 KIE131073:KIL131073 KSA131073:KSH131073 LBW131073:LCD131073 LLS131073:LLZ131073 LVO131073:LVV131073 MFK131073:MFR131073 MPG131073:MPN131073 MZC131073:MZJ131073 NIY131073:NJF131073 NSU131073:NTB131073 OCQ131073:OCX131073 OMM131073:OMT131073 OWI131073:OWP131073 PGE131073:PGL131073 PQA131073:PQH131073 PZW131073:QAD131073 QJS131073:QJZ131073 QTO131073:QTV131073 RDK131073:RDR131073 RNG131073:RNN131073 RXC131073:RXJ131073 SGY131073:SHF131073 SQU131073:SRB131073 TAQ131073:TAX131073 TKM131073:TKT131073 TUI131073:TUP131073 UEE131073:UEL131073 UOA131073:UOH131073 UXW131073:UYD131073 VHS131073:VHZ131073 VRO131073:VRV131073 WBK131073:WBR131073 WLG131073:WLN131073 WVC131073:WVJ131073 IQ196609:IX196609 SM196609:ST196609 ACI196609:ACP196609 AME196609:AML196609 AWA196609:AWH196609 BFW196609:BGD196609 BPS196609:BPZ196609 BZO196609:BZV196609 CJK196609:CJR196609 CTG196609:CTN196609 DDC196609:DDJ196609 DMY196609:DNF196609 DWU196609:DXB196609 EGQ196609:EGX196609 EQM196609:EQT196609 FAI196609:FAP196609 FKE196609:FKL196609 FUA196609:FUH196609 GDW196609:GED196609 GNS196609:GNZ196609 GXO196609:GXV196609 HHK196609:HHR196609 HRG196609:HRN196609 IBC196609:IBJ196609 IKY196609:ILF196609 IUU196609:IVB196609 JEQ196609:JEX196609 JOM196609:JOT196609 JYI196609:JYP196609 KIE196609:KIL196609 KSA196609:KSH196609 LBW196609:LCD196609 LLS196609:LLZ196609 LVO196609:LVV196609 MFK196609:MFR196609 MPG196609:MPN196609 MZC196609:MZJ196609 NIY196609:NJF196609 NSU196609:NTB196609 OCQ196609:OCX196609 OMM196609:OMT196609 OWI196609:OWP196609 PGE196609:PGL196609 PQA196609:PQH196609 PZW196609:QAD196609 QJS196609:QJZ196609 QTO196609:QTV196609 RDK196609:RDR196609 RNG196609:RNN196609 RXC196609:RXJ196609 SGY196609:SHF196609 SQU196609:SRB196609 TAQ196609:TAX196609 TKM196609:TKT196609 TUI196609:TUP196609 UEE196609:UEL196609 UOA196609:UOH196609 UXW196609:UYD196609 VHS196609:VHZ196609 VRO196609:VRV196609 WBK196609:WBR196609 WLG196609:WLN196609 WVC196609:WVJ196609 IQ262145:IX262145 SM262145:ST262145 ACI262145:ACP262145 AME262145:AML262145 AWA262145:AWH262145 BFW262145:BGD262145 BPS262145:BPZ262145 BZO262145:BZV262145 CJK262145:CJR262145 CTG262145:CTN262145 DDC262145:DDJ262145 DMY262145:DNF262145 DWU262145:DXB262145 EGQ262145:EGX262145 EQM262145:EQT262145 FAI262145:FAP262145 FKE262145:FKL262145 FUA262145:FUH262145 GDW262145:GED262145 GNS262145:GNZ262145 GXO262145:GXV262145 HHK262145:HHR262145 HRG262145:HRN262145 IBC262145:IBJ262145 IKY262145:ILF262145 IUU262145:IVB262145 JEQ262145:JEX262145 JOM262145:JOT262145 JYI262145:JYP262145 KIE262145:KIL262145 KSA262145:KSH262145 LBW262145:LCD262145 LLS262145:LLZ262145 LVO262145:LVV262145 MFK262145:MFR262145 MPG262145:MPN262145 MZC262145:MZJ262145 NIY262145:NJF262145 NSU262145:NTB262145 OCQ262145:OCX262145 OMM262145:OMT262145 OWI262145:OWP262145 PGE262145:PGL262145 PQA262145:PQH262145 PZW262145:QAD262145 QJS262145:QJZ262145 QTO262145:QTV262145 RDK262145:RDR262145 RNG262145:RNN262145 RXC262145:RXJ262145 SGY262145:SHF262145 SQU262145:SRB262145 TAQ262145:TAX262145 TKM262145:TKT262145 TUI262145:TUP262145 UEE262145:UEL262145 UOA262145:UOH262145 UXW262145:UYD262145 VHS262145:VHZ262145 VRO262145:VRV262145 WBK262145:WBR262145 WLG262145:WLN262145 WVC262145:WVJ262145 IQ327681:IX327681 SM327681:ST327681 ACI327681:ACP327681 AME327681:AML327681 AWA327681:AWH327681 BFW327681:BGD327681 BPS327681:BPZ327681 BZO327681:BZV327681 CJK327681:CJR327681 CTG327681:CTN327681 DDC327681:DDJ327681 DMY327681:DNF327681 DWU327681:DXB327681 EGQ327681:EGX327681 EQM327681:EQT327681 FAI327681:FAP327681 FKE327681:FKL327681 FUA327681:FUH327681 GDW327681:GED327681 GNS327681:GNZ327681 GXO327681:GXV327681 HHK327681:HHR327681 HRG327681:HRN327681 IBC327681:IBJ327681 IKY327681:ILF327681 IUU327681:IVB327681 JEQ327681:JEX327681 JOM327681:JOT327681 JYI327681:JYP327681 KIE327681:KIL327681 KSA327681:KSH327681 LBW327681:LCD327681 LLS327681:LLZ327681 LVO327681:LVV327681 MFK327681:MFR327681 MPG327681:MPN327681 MZC327681:MZJ327681 NIY327681:NJF327681 NSU327681:NTB327681 OCQ327681:OCX327681 OMM327681:OMT327681 OWI327681:OWP327681 PGE327681:PGL327681 PQA327681:PQH327681 PZW327681:QAD327681 QJS327681:QJZ327681 QTO327681:QTV327681 RDK327681:RDR327681 RNG327681:RNN327681 RXC327681:RXJ327681 SGY327681:SHF327681 SQU327681:SRB327681 TAQ327681:TAX327681 TKM327681:TKT327681 TUI327681:TUP327681 UEE327681:UEL327681 UOA327681:UOH327681 UXW327681:UYD327681 VHS327681:VHZ327681 VRO327681:VRV327681 WBK327681:WBR327681 WLG327681:WLN327681 WVC327681:WVJ327681 IQ393217:IX393217 SM393217:ST393217 ACI393217:ACP393217 AME393217:AML393217 AWA393217:AWH393217 BFW393217:BGD393217 BPS393217:BPZ393217 BZO393217:BZV393217 CJK393217:CJR393217 CTG393217:CTN393217 DDC393217:DDJ393217 DMY393217:DNF393217 DWU393217:DXB393217 EGQ393217:EGX393217 EQM393217:EQT393217 FAI393217:FAP393217 FKE393217:FKL393217 FUA393217:FUH393217 GDW393217:GED393217 GNS393217:GNZ393217 GXO393217:GXV393217 HHK393217:HHR393217 HRG393217:HRN393217 IBC393217:IBJ393217 IKY393217:ILF393217 IUU393217:IVB393217 JEQ393217:JEX393217 JOM393217:JOT393217 JYI393217:JYP393217 KIE393217:KIL393217 KSA393217:KSH393217 LBW393217:LCD393217 LLS393217:LLZ393217 LVO393217:LVV393217 MFK393217:MFR393217 MPG393217:MPN393217 MZC393217:MZJ393217 NIY393217:NJF393217 NSU393217:NTB393217 OCQ393217:OCX393217 OMM393217:OMT393217 OWI393217:OWP393217 PGE393217:PGL393217 PQA393217:PQH393217 PZW393217:QAD393217 QJS393217:QJZ393217 QTO393217:QTV393217 RDK393217:RDR393217 RNG393217:RNN393217 RXC393217:RXJ393217 SGY393217:SHF393217 SQU393217:SRB393217 TAQ393217:TAX393217 TKM393217:TKT393217 TUI393217:TUP393217 UEE393217:UEL393217 UOA393217:UOH393217 UXW393217:UYD393217 VHS393217:VHZ393217 VRO393217:VRV393217 WBK393217:WBR393217 WLG393217:WLN393217 WVC393217:WVJ393217 IQ458753:IX458753 SM458753:ST458753 ACI458753:ACP458753 AME458753:AML458753 AWA458753:AWH458753 BFW458753:BGD458753 BPS458753:BPZ458753 BZO458753:BZV458753 CJK458753:CJR458753 CTG458753:CTN458753 DDC458753:DDJ458753 DMY458753:DNF458753 DWU458753:DXB458753 EGQ458753:EGX458753 EQM458753:EQT458753 FAI458753:FAP458753 FKE458753:FKL458753 FUA458753:FUH458753 GDW458753:GED458753 GNS458753:GNZ458753 GXO458753:GXV458753 HHK458753:HHR458753 HRG458753:HRN458753 IBC458753:IBJ458753 IKY458753:ILF458753 IUU458753:IVB458753 JEQ458753:JEX458753 JOM458753:JOT458753 JYI458753:JYP458753 KIE458753:KIL458753 KSA458753:KSH458753 LBW458753:LCD458753 LLS458753:LLZ458753 LVO458753:LVV458753 MFK458753:MFR458753 MPG458753:MPN458753 MZC458753:MZJ458753 NIY458753:NJF458753 NSU458753:NTB458753 OCQ458753:OCX458753 OMM458753:OMT458753 OWI458753:OWP458753 PGE458753:PGL458753 PQA458753:PQH458753 PZW458753:QAD458753 QJS458753:QJZ458753 QTO458753:QTV458753 RDK458753:RDR458753 RNG458753:RNN458753 RXC458753:RXJ458753 SGY458753:SHF458753 SQU458753:SRB458753 TAQ458753:TAX458753 TKM458753:TKT458753 TUI458753:TUP458753 UEE458753:UEL458753 UOA458753:UOH458753 UXW458753:UYD458753 VHS458753:VHZ458753 VRO458753:VRV458753 WBK458753:WBR458753 WLG458753:WLN458753 WVC458753:WVJ458753 IQ524289:IX524289 SM524289:ST524289 ACI524289:ACP524289 AME524289:AML524289 AWA524289:AWH524289 BFW524289:BGD524289 BPS524289:BPZ524289 BZO524289:BZV524289 CJK524289:CJR524289 CTG524289:CTN524289 DDC524289:DDJ524289 DMY524289:DNF524289 DWU524289:DXB524289 EGQ524289:EGX524289 EQM524289:EQT524289 FAI524289:FAP524289 FKE524289:FKL524289 FUA524289:FUH524289 GDW524289:GED524289 GNS524289:GNZ524289 GXO524289:GXV524289 HHK524289:HHR524289 HRG524289:HRN524289 IBC524289:IBJ524289 IKY524289:ILF524289 IUU524289:IVB524289 JEQ524289:JEX524289 JOM524289:JOT524289 JYI524289:JYP524289 KIE524289:KIL524289 KSA524289:KSH524289 LBW524289:LCD524289 LLS524289:LLZ524289 LVO524289:LVV524289 MFK524289:MFR524289 MPG524289:MPN524289 MZC524289:MZJ524289 NIY524289:NJF524289 NSU524289:NTB524289 OCQ524289:OCX524289 OMM524289:OMT524289 OWI524289:OWP524289 PGE524289:PGL524289 PQA524289:PQH524289 PZW524289:QAD524289 QJS524289:QJZ524289 QTO524289:QTV524289 RDK524289:RDR524289 RNG524289:RNN524289 RXC524289:RXJ524289 SGY524289:SHF524289 SQU524289:SRB524289 TAQ524289:TAX524289 TKM524289:TKT524289 TUI524289:TUP524289 UEE524289:UEL524289 UOA524289:UOH524289 UXW524289:UYD524289 VHS524289:VHZ524289 VRO524289:VRV524289 WBK524289:WBR524289 WLG524289:WLN524289 WVC524289:WVJ524289 IQ589825:IX589825 SM589825:ST589825 ACI589825:ACP589825 AME589825:AML589825 AWA589825:AWH589825 BFW589825:BGD589825 BPS589825:BPZ589825 BZO589825:BZV589825 CJK589825:CJR589825 CTG589825:CTN589825 DDC589825:DDJ589825 DMY589825:DNF589825 DWU589825:DXB589825 EGQ589825:EGX589825 EQM589825:EQT589825 FAI589825:FAP589825 FKE589825:FKL589825 FUA589825:FUH589825 GDW589825:GED589825 GNS589825:GNZ589825 GXO589825:GXV589825 HHK589825:HHR589825 HRG589825:HRN589825 IBC589825:IBJ589825 IKY589825:ILF589825 IUU589825:IVB589825 JEQ589825:JEX589825 JOM589825:JOT589825 JYI589825:JYP589825 KIE589825:KIL589825 KSA589825:KSH589825 LBW589825:LCD589825 LLS589825:LLZ589825 LVO589825:LVV589825 MFK589825:MFR589825 MPG589825:MPN589825 MZC589825:MZJ589825 NIY589825:NJF589825 NSU589825:NTB589825 OCQ589825:OCX589825 OMM589825:OMT589825 OWI589825:OWP589825 PGE589825:PGL589825 PQA589825:PQH589825 PZW589825:QAD589825 QJS589825:QJZ589825 QTO589825:QTV589825 RDK589825:RDR589825 RNG589825:RNN589825 RXC589825:RXJ589825 SGY589825:SHF589825 SQU589825:SRB589825 TAQ589825:TAX589825 TKM589825:TKT589825 TUI589825:TUP589825 UEE589825:UEL589825 UOA589825:UOH589825 UXW589825:UYD589825 VHS589825:VHZ589825 VRO589825:VRV589825 WBK589825:WBR589825 WLG589825:WLN589825 WVC589825:WVJ589825 IQ655361:IX655361 SM655361:ST655361 ACI655361:ACP655361 AME655361:AML655361 AWA655361:AWH655361 BFW655361:BGD655361 BPS655361:BPZ655361 BZO655361:BZV655361 CJK655361:CJR655361 CTG655361:CTN655361 DDC655361:DDJ655361 DMY655361:DNF655361 DWU655361:DXB655361 EGQ655361:EGX655361 EQM655361:EQT655361 FAI655361:FAP655361 FKE655361:FKL655361 FUA655361:FUH655361 GDW655361:GED655361 GNS655361:GNZ655361 GXO655361:GXV655361 HHK655361:HHR655361 HRG655361:HRN655361 IBC655361:IBJ655361 IKY655361:ILF655361 IUU655361:IVB655361 JEQ655361:JEX655361 JOM655361:JOT655361 JYI655361:JYP655361 KIE655361:KIL655361 KSA655361:KSH655361 LBW655361:LCD655361 LLS655361:LLZ655361 LVO655361:LVV655361 MFK655361:MFR655361 MPG655361:MPN655361 MZC655361:MZJ655361 NIY655361:NJF655361 NSU655361:NTB655361 OCQ655361:OCX655361 OMM655361:OMT655361 OWI655361:OWP655361 PGE655361:PGL655361 PQA655361:PQH655361 PZW655361:QAD655361 QJS655361:QJZ655361 QTO655361:QTV655361 RDK655361:RDR655361 RNG655361:RNN655361 RXC655361:RXJ655361 SGY655361:SHF655361 SQU655361:SRB655361 TAQ655361:TAX655361 TKM655361:TKT655361 TUI655361:TUP655361 UEE655361:UEL655361 UOA655361:UOH655361 UXW655361:UYD655361 VHS655361:VHZ655361 VRO655361:VRV655361 WBK655361:WBR655361 WLG655361:WLN655361 WVC655361:WVJ655361 IQ720897:IX720897 SM720897:ST720897 ACI720897:ACP720897 AME720897:AML720897 AWA720897:AWH720897 BFW720897:BGD720897 BPS720897:BPZ720897 BZO720897:BZV720897 CJK720897:CJR720897 CTG720897:CTN720897 DDC720897:DDJ720897 DMY720897:DNF720897 DWU720897:DXB720897 EGQ720897:EGX720897 EQM720897:EQT720897 FAI720897:FAP720897 FKE720897:FKL720897 FUA720897:FUH720897 GDW720897:GED720897 GNS720897:GNZ720897 GXO720897:GXV720897 HHK720897:HHR720897 HRG720897:HRN720897 IBC720897:IBJ720897 IKY720897:ILF720897 IUU720897:IVB720897 JEQ720897:JEX720897 JOM720897:JOT720897 JYI720897:JYP720897 KIE720897:KIL720897 KSA720897:KSH720897 LBW720897:LCD720897 LLS720897:LLZ720897 LVO720897:LVV720897 MFK720897:MFR720897 MPG720897:MPN720897 MZC720897:MZJ720897 NIY720897:NJF720897 NSU720897:NTB720897 OCQ720897:OCX720897 OMM720897:OMT720897 OWI720897:OWP720897 PGE720897:PGL720897 PQA720897:PQH720897 PZW720897:QAD720897 QJS720897:QJZ720897 QTO720897:QTV720897 RDK720897:RDR720897 RNG720897:RNN720897 RXC720897:RXJ720897 SGY720897:SHF720897 SQU720897:SRB720897 TAQ720897:TAX720897 TKM720897:TKT720897 TUI720897:TUP720897 UEE720897:UEL720897 UOA720897:UOH720897 UXW720897:UYD720897 VHS720897:VHZ720897 VRO720897:VRV720897 WBK720897:WBR720897 WLG720897:WLN720897 WVC720897:WVJ720897 IQ786433:IX786433 SM786433:ST786433 ACI786433:ACP786433 AME786433:AML786433 AWA786433:AWH786433 BFW786433:BGD786433 BPS786433:BPZ786433 BZO786433:BZV786433 CJK786433:CJR786433 CTG786433:CTN786433 DDC786433:DDJ786433 DMY786433:DNF786433 DWU786433:DXB786433 EGQ786433:EGX786433 EQM786433:EQT786433 FAI786433:FAP786433 FKE786433:FKL786433 FUA786433:FUH786433 GDW786433:GED786433 GNS786433:GNZ786433 GXO786433:GXV786433 HHK786433:HHR786433 HRG786433:HRN786433 IBC786433:IBJ786433 IKY786433:ILF786433 IUU786433:IVB786433 JEQ786433:JEX786433 JOM786433:JOT786433 JYI786433:JYP786433 KIE786433:KIL786433 KSA786433:KSH786433 LBW786433:LCD786433 LLS786433:LLZ786433 LVO786433:LVV786433 MFK786433:MFR786433 MPG786433:MPN786433 MZC786433:MZJ786433 NIY786433:NJF786433 NSU786433:NTB786433 OCQ786433:OCX786433 OMM786433:OMT786433 OWI786433:OWP786433 PGE786433:PGL786433 PQA786433:PQH786433 PZW786433:QAD786433 QJS786433:QJZ786433 QTO786433:QTV786433 RDK786433:RDR786433 RNG786433:RNN786433 RXC786433:RXJ786433 SGY786433:SHF786433 SQU786433:SRB786433 TAQ786433:TAX786433 TKM786433:TKT786433 TUI786433:TUP786433 UEE786433:UEL786433 UOA786433:UOH786433 UXW786433:UYD786433 VHS786433:VHZ786433 VRO786433:VRV786433 WBK786433:WBR786433 WLG786433:WLN786433 WVC786433:WVJ786433 IQ851969:IX851969 SM851969:ST851969 ACI851969:ACP851969 AME851969:AML851969 AWA851969:AWH851969 BFW851969:BGD851969 BPS851969:BPZ851969 BZO851969:BZV851969 CJK851969:CJR851969 CTG851969:CTN851969 DDC851969:DDJ851969 DMY851969:DNF851969 DWU851969:DXB851969 EGQ851969:EGX851969 EQM851969:EQT851969 FAI851969:FAP851969 FKE851969:FKL851969 FUA851969:FUH851969 GDW851969:GED851969 GNS851969:GNZ851969 GXO851969:GXV851969 HHK851969:HHR851969 HRG851969:HRN851969 IBC851969:IBJ851969 IKY851969:ILF851969 IUU851969:IVB851969 JEQ851969:JEX851969 JOM851969:JOT851969 JYI851969:JYP851969 KIE851969:KIL851969 KSA851969:KSH851969 LBW851969:LCD851969 LLS851969:LLZ851969 LVO851969:LVV851969 MFK851969:MFR851969 MPG851969:MPN851969 MZC851969:MZJ851969 NIY851969:NJF851969 NSU851969:NTB851969 OCQ851969:OCX851969 OMM851969:OMT851969 OWI851969:OWP851969 PGE851969:PGL851969 PQA851969:PQH851969 PZW851969:QAD851969 QJS851969:QJZ851969 QTO851969:QTV851969 RDK851969:RDR851969 RNG851969:RNN851969 RXC851969:RXJ851969 SGY851969:SHF851969 SQU851969:SRB851969 TAQ851969:TAX851969 TKM851969:TKT851969 TUI851969:TUP851969 UEE851969:UEL851969 UOA851969:UOH851969 UXW851969:UYD851969 VHS851969:VHZ851969 VRO851969:VRV851969 WBK851969:WBR851969 WLG851969:WLN851969 WVC851969:WVJ851969 IQ917505:IX917505 SM917505:ST917505 ACI917505:ACP917505 AME917505:AML917505 AWA917505:AWH917505 BFW917505:BGD917505 BPS917505:BPZ917505 BZO917505:BZV917505 CJK917505:CJR917505 CTG917505:CTN917505 DDC917505:DDJ917505 DMY917505:DNF917505 DWU917505:DXB917505 EGQ917505:EGX917505 EQM917505:EQT917505 FAI917505:FAP917505 FKE917505:FKL917505 FUA917505:FUH917505 GDW917505:GED917505 GNS917505:GNZ917505 GXO917505:GXV917505 HHK917505:HHR917505 HRG917505:HRN917505 IBC917505:IBJ917505 IKY917505:ILF917505 IUU917505:IVB917505 JEQ917505:JEX917505 JOM917505:JOT917505 JYI917505:JYP917505 KIE917505:KIL917505 KSA917505:KSH917505 LBW917505:LCD917505 LLS917505:LLZ917505 LVO917505:LVV917505 MFK917505:MFR917505 MPG917505:MPN917505 MZC917505:MZJ917505 NIY917505:NJF917505 NSU917505:NTB917505 OCQ917505:OCX917505 OMM917505:OMT917505 OWI917505:OWP917505 PGE917505:PGL917505 PQA917505:PQH917505 PZW917505:QAD917505 QJS917505:QJZ917505 QTO917505:QTV917505 RDK917505:RDR917505 RNG917505:RNN917505 RXC917505:RXJ917505 SGY917505:SHF917505 SQU917505:SRB917505 TAQ917505:TAX917505 TKM917505:TKT917505 TUI917505:TUP917505 UEE917505:UEL917505 UOA917505:UOH917505 UXW917505:UYD917505 VHS917505:VHZ917505 VRO917505:VRV917505 WBK917505:WBR917505 WLG917505:WLN917505 WVC917505:WVJ917505 IQ983041:IX983041 SM983041:ST983041 ACI983041:ACP983041 AME983041:AML983041 AWA983041:AWH983041 BFW983041:BGD983041 BPS983041:BPZ983041 BZO983041:BZV983041 CJK983041:CJR983041 CTG983041:CTN983041 DDC983041:DDJ983041 DMY983041:DNF983041 DWU983041:DXB983041 EGQ983041:EGX983041 EQM983041:EQT983041 FAI983041:FAP983041 FKE983041:FKL983041 FUA983041:FUH983041 GDW983041:GED983041 GNS983041:GNZ983041 GXO983041:GXV983041 HHK983041:HHR983041 HRG983041:HRN983041 IBC983041:IBJ983041 IKY983041:ILF983041 IUU983041:IVB983041 JEQ983041:JEX983041 JOM983041:JOT983041 JYI983041:JYP983041 KIE983041:KIL983041 KSA983041:KSH983041 LBW983041:LCD983041 LLS983041:LLZ983041 LVO983041:LVV983041 MFK983041:MFR983041 MPG983041:MPN983041 MZC983041:MZJ983041 NIY983041:NJF983041 NSU983041:NTB983041 OCQ983041:OCX983041 OMM983041:OMT983041 OWI983041:OWP983041 PGE983041:PGL983041 PQA983041:PQH983041 PZW983041:QAD983041 QJS983041:QJZ983041 QTO983041:QTV983041 RDK983041:RDR983041 RNG983041:RNN983041 RXC983041:RXJ983041 SGY983041:SHF983041 SQU983041:SRB983041 TAQ983041:TAX983041 TKM983041:TKT983041 TUI983041:TUP983041 UEE983041:UEL983041 UOA983041:UOH983041 UXW983041:UYD983041 VHS983041:VHZ983041 VRO983041:VRV983041 WBK983041:WBR983041 WLG983041:WLN983041">
-      <formula1>INDIRECT($D$4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLG983046:WLN983046 WVC983046:WVJ983046 E983046:K983046 E917510:K917510 E851974:K851974 E786438:K786438 E720902:K720902 E655366:K655366 E589830:K589830 E524294:K524294 E458758:K458758 E393222:K393222 E327686:K327686 E262150:K262150 E196614:K196614 E131078:K131078 E65542:K65542 IQ7:IX7 SM7:ST7 ACI7:ACP7 AME7:AML7 AWA7:AWH7 BFW7:BGD7 BPS7:BPZ7 BZO7:BZV7 CJK7:CJR7 CTG7:CTN7 DDC7:DDJ7 DMY7:DNF7 DWU7:DXB7 EGQ7:EGX7 EQM7:EQT7 FAI7:FAP7 FKE7:FKL7 FUA7:FUH7 GDW7:GED7 GNS7:GNZ7 GXO7:GXV7 HHK7:HHR7 HRG7:HRN7 IBC7:IBJ7 IKY7:ILF7 IUU7:IVB7 JEQ7:JEX7 JOM7:JOT7 JYI7:JYP7 KIE7:KIL7 KSA7:KSH7 LBW7:LCD7 LLS7:LLZ7 LVO7:LVV7 MFK7:MFR7 MPG7:MPN7 MZC7:MZJ7 NIY7:NJF7 NSU7:NTB7 OCQ7:OCX7 OMM7:OMT7 OWI7:OWP7 PGE7:PGL7 PQA7:PQH7 PZW7:QAD7 QJS7:QJZ7 QTO7:QTV7 RDK7:RDR7 RNG7:RNN7 RXC7:RXJ7 SGY7:SHF7 SQU7:SRB7 TAQ7:TAX7 TKM7:TKT7 TUI7:TUP7 UEE7:UEL7 UOA7:UOH7 UXW7:UYD7 VHS7:VHZ7 VRO7:VRV7 WBK7:WBR7 WLG7:WLN7 WVC7:WVJ7 IQ65542:IX65542 SM65542:ST65542 ACI65542:ACP65542 AME65542:AML65542 AWA65542:AWH65542 BFW65542:BGD65542 BPS65542:BPZ65542 BZO65542:BZV65542 CJK65542:CJR65542 CTG65542:CTN65542 DDC65542:DDJ65542 DMY65542:DNF65542 DWU65542:DXB65542 EGQ65542:EGX65542 EQM65542:EQT65542 FAI65542:FAP65542 FKE65542:FKL65542 FUA65542:FUH65542 GDW65542:GED65542 GNS65542:GNZ65542 GXO65542:GXV65542 HHK65542:HHR65542 HRG65542:HRN65542 IBC65542:IBJ65542 IKY65542:ILF65542 IUU65542:IVB65542 JEQ65542:JEX65542 JOM65542:JOT65542 JYI65542:JYP65542 KIE65542:KIL65542 KSA65542:KSH65542 LBW65542:LCD65542 LLS65542:LLZ65542 LVO65542:LVV65542 MFK65542:MFR65542 MPG65542:MPN65542 MZC65542:MZJ65542 NIY65542:NJF65542 NSU65542:NTB65542 OCQ65542:OCX65542 OMM65542:OMT65542 OWI65542:OWP65542 PGE65542:PGL65542 PQA65542:PQH65542 PZW65542:QAD65542 QJS65542:QJZ65542 QTO65542:QTV65542 RDK65542:RDR65542 RNG65542:RNN65542 RXC65542:RXJ65542 SGY65542:SHF65542 SQU65542:SRB65542 TAQ65542:TAX65542 TKM65542:TKT65542 TUI65542:TUP65542 UEE65542:UEL65542 UOA65542:UOH65542 UXW65542:UYD65542 VHS65542:VHZ65542 VRO65542:VRV65542 WBK65542:WBR65542 WLG65542:WLN65542 WVC65542:WVJ65542 IQ131078:IX131078 SM131078:ST131078 ACI131078:ACP131078 AME131078:AML131078 AWA131078:AWH131078 BFW131078:BGD131078 BPS131078:BPZ131078 BZO131078:BZV131078 CJK131078:CJR131078 CTG131078:CTN131078 DDC131078:DDJ131078 DMY131078:DNF131078 DWU131078:DXB131078 EGQ131078:EGX131078 EQM131078:EQT131078 FAI131078:FAP131078 FKE131078:FKL131078 FUA131078:FUH131078 GDW131078:GED131078 GNS131078:GNZ131078 GXO131078:GXV131078 HHK131078:HHR131078 HRG131078:HRN131078 IBC131078:IBJ131078 IKY131078:ILF131078 IUU131078:IVB131078 JEQ131078:JEX131078 JOM131078:JOT131078 JYI131078:JYP131078 KIE131078:KIL131078 KSA131078:KSH131078 LBW131078:LCD131078 LLS131078:LLZ131078 LVO131078:LVV131078 MFK131078:MFR131078 MPG131078:MPN131078 MZC131078:MZJ131078 NIY131078:NJF131078 NSU131078:NTB131078 OCQ131078:OCX131078 OMM131078:OMT131078 OWI131078:OWP131078 PGE131078:PGL131078 PQA131078:PQH131078 PZW131078:QAD131078 QJS131078:QJZ131078 QTO131078:QTV131078 RDK131078:RDR131078 RNG131078:RNN131078 RXC131078:RXJ131078 SGY131078:SHF131078 SQU131078:SRB131078 TAQ131078:TAX131078 TKM131078:TKT131078 TUI131078:TUP131078 UEE131078:UEL131078 UOA131078:UOH131078 UXW131078:UYD131078 VHS131078:VHZ131078 VRO131078:VRV131078 WBK131078:WBR131078 WLG131078:WLN131078 WVC131078:WVJ131078 IQ196614:IX196614 SM196614:ST196614 ACI196614:ACP196614 AME196614:AML196614 AWA196614:AWH196614 BFW196614:BGD196614 BPS196614:BPZ196614 BZO196614:BZV196614 CJK196614:CJR196614 CTG196614:CTN196614 DDC196614:DDJ196614 DMY196614:DNF196614 DWU196614:DXB196614 EGQ196614:EGX196614 EQM196614:EQT196614 FAI196614:FAP196614 FKE196614:FKL196614 FUA196614:FUH196614 GDW196614:GED196614 GNS196614:GNZ196614 GXO196614:GXV196614 HHK196614:HHR196614 HRG196614:HRN196614 IBC196614:IBJ196614 IKY196614:ILF196614 IUU196614:IVB196614 JEQ196614:JEX196614 JOM196614:JOT196614 JYI196614:JYP196614 KIE196614:KIL196614 KSA196614:KSH196614 LBW196614:LCD196614 LLS196614:LLZ196614 LVO196614:LVV196614 MFK196614:MFR196614 MPG196614:MPN196614 MZC196614:MZJ196614 NIY196614:NJF196614 NSU196614:NTB196614 OCQ196614:OCX196614 OMM196614:OMT196614 OWI196614:OWP196614 PGE196614:PGL196614 PQA196614:PQH196614 PZW196614:QAD196614 QJS196614:QJZ196614 QTO196614:QTV196614 RDK196614:RDR196614 RNG196614:RNN196614 RXC196614:RXJ196614 SGY196614:SHF196614 SQU196614:SRB196614 TAQ196614:TAX196614 TKM196614:TKT196614 TUI196614:TUP196614 UEE196614:UEL196614 UOA196614:UOH196614 UXW196614:UYD196614 VHS196614:VHZ196614 VRO196614:VRV196614 WBK196614:WBR196614 WLG196614:WLN196614 WVC196614:WVJ196614 IQ262150:IX262150 SM262150:ST262150 ACI262150:ACP262150 AME262150:AML262150 AWA262150:AWH262150 BFW262150:BGD262150 BPS262150:BPZ262150 BZO262150:BZV262150 CJK262150:CJR262150 CTG262150:CTN262150 DDC262150:DDJ262150 DMY262150:DNF262150 DWU262150:DXB262150 EGQ262150:EGX262150 EQM262150:EQT262150 FAI262150:FAP262150 FKE262150:FKL262150 FUA262150:FUH262150 GDW262150:GED262150 GNS262150:GNZ262150 GXO262150:GXV262150 HHK262150:HHR262150 HRG262150:HRN262150 IBC262150:IBJ262150 IKY262150:ILF262150 IUU262150:IVB262150 JEQ262150:JEX262150 JOM262150:JOT262150 JYI262150:JYP262150 KIE262150:KIL262150 KSA262150:KSH262150 LBW262150:LCD262150 LLS262150:LLZ262150 LVO262150:LVV262150 MFK262150:MFR262150 MPG262150:MPN262150 MZC262150:MZJ262150 NIY262150:NJF262150 NSU262150:NTB262150 OCQ262150:OCX262150 OMM262150:OMT262150 OWI262150:OWP262150 PGE262150:PGL262150 PQA262150:PQH262150 PZW262150:QAD262150 QJS262150:QJZ262150 QTO262150:QTV262150 RDK262150:RDR262150 RNG262150:RNN262150 RXC262150:RXJ262150 SGY262150:SHF262150 SQU262150:SRB262150 TAQ262150:TAX262150 TKM262150:TKT262150 TUI262150:TUP262150 UEE262150:UEL262150 UOA262150:UOH262150 UXW262150:UYD262150 VHS262150:VHZ262150 VRO262150:VRV262150 WBK262150:WBR262150 WLG262150:WLN262150 WVC262150:WVJ262150 IQ327686:IX327686 SM327686:ST327686 ACI327686:ACP327686 AME327686:AML327686 AWA327686:AWH327686 BFW327686:BGD327686 BPS327686:BPZ327686 BZO327686:BZV327686 CJK327686:CJR327686 CTG327686:CTN327686 DDC327686:DDJ327686 DMY327686:DNF327686 DWU327686:DXB327686 EGQ327686:EGX327686 EQM327686:EQT327686 FAI327686:FAP327686 FKE327686:FKL327686 FUA327686:FUH327686 GDW327686:GED327686 GNS327686:GNZ327686 GXO327686:GXV327686 HHK327686:HHR327686 HRG327686:HRN327686 IBC327686:IBJ327686 IKY327686:ILF327686 IUU327686:IVB327686 JEQ327686:JEX327686 JOM327686:JOT327686 JYI327686:JYP327686 KIE327686:KIL327686 KSA327686:KSH327686 LBW327686:LCD327686 LLS327686:LLZ327686 LVO327686:LVV327686 MFK327686:MFR327686 MPG327686:MPN327686 MZC327686:MZJ327686 NIY327686:NJF327686 NSU327686:NTB327686 OCQ327686:OCX327686 OMM327686:OMT327686 OWI327686:OWP327686 PGE327686:PGL327686 PQA327686:PQH327686 PZW327686:QAD327686 QJS327686:QJZ327686 QTO327686:QTV327686 RDK327686:RDR327686 RNG327686:RNN327686 RXC327686:RXJ327686 SGY327686:SHF327686 SQU327686:SRB327686 TAQ327686:TAX327686 TKM327686:TKT327686 TUI327686:TUP327686 UEE327686:UEL327686 UOA327686:UOH327686 UXW327686:UYD327686 VHS327686:VHZ327686 VRO327686:VRV327686 WBK327686:WBR327686 WLG327686:WLN327686 WVC327686:WVJ327686 IQ393222:IX393222 SM393222:ST393222 ACI393222:ACP393222 AME393222:AML393222 AWA393222:AWH393222 BFW393222:BGD393222 BPS393222:BPZ393222 BZO393222:BZV393222 CJK393222:CJR393222 CTG393222:CTN393222 DDC393222:DDJ393222 DMY393222:DNF393222 DWU393222:DXB393222 EGQ393222:EGX393222 EQM393222:EQT393222 FAI393222:FAP393222 FKE393222:FKL393222 FUA393222:FUH393222 GDW393222:GED393222 GNS393222:GNZ393222 GXO393222:GXV393222 HHK393222:HHR393222 HRG393222:HRN393222 IBC393222:IBJ393222 IKY393222:ILF393222 IUU393222:IVB393222 JEQ393222:JEX393222 JOM393222:JOT393222 JYI393222:JYP393222 KIE393222:KIL393222 KSA393222:KSH393222 LBW393222:LCD393222 LLS393222:LLZ393222 LVO393222:LVV393222 MFK393222:MFR393222 MPG393222:MPN393222 MZC393222:MZJ393222 NIY393222:NJF393222 NSU393222:NTB393222 OCQ393222:OCX393222 OMM393222:OMT393222 OWI393222:OWP393222 PGE393222:PGL393222 PQA393222:PQH393222 PZW393222:QAD393222 QJS393222:QJZ393222 QTO393222:QTV393222 RDK393222:RDR393222 RNG393222:RNN393222 RXC393222:RXJ393222 SGY393222:SHF393222 SQU393222:SRB393222 TAQ393222:TAX393222 TKM393222:TKT393222 TUI393222:TUP393222 UEE393222:UEL393222 UOA393222:UOH393222 UXW393222:UYD393222 VHS393222:VHZ393222 VRO393222:VRV393222 WBK393222:WBR393222 WLG393222:WLN393222 WVC393222:WVJ393222 IQ458758:IX458758 SM458758:ST458758 ACI458758:ACP458758 AME458758:AML458758 AWA458758:AWH458758 BFW458758:BGD458758 BPS458758:BPZ458758 BZO458758:BZV458758 CJK458758:CJR458758 CTG458758:CTN458758 DDC458758:DDJ458758 DMY458758:DNF458758 DWU458758:DXB458758 EGQ458758:EGX458758 EQM458758:EQT458758 FAI458758:FAP458758 FKE458758:FKL458758 FUA458758:FUH458758 GDW458758:GED458758 GNS458758:GNZ458758 GXO458758:GXV458758 HHK458758:HHR458758 HRG458758:HRN458758 IBC458758:IBJ458758 IKY458758:ILF458758 IUU458758:IVB458758 JEQ458758:JEX458758 JOM458758:JOT458758 JYI458758:JYP458758 KIE458758:KIL458758 KSA458758:KSH458758 LBW458758:LCD458758 LLS458758:LLZ458758 LVO458758:LVV458758 MFK458758:MFR458758 MPG458758:MPN458758 MZC458758:MZJ458758 NIY458758:NJF458758 NSU458758:NTB458758 OCQ458758:OCX458758 OMM458758:OMT458758 OWI458758:OWP458758 PGE458758:PGL458758 PQA458758:PQH458758 PZW458758:QAD458758 QJS458758:QJZ458758 QTO458758:QTV458758 RDK458758:RDR458758 RNG458758:RNN458758 RXC458758:RXJ458758 SGY458758:SHF458758 SQU458758:SRB458758 TAQ458758:TAX458758 TKM458758:TKT458758 TUI458758:TUP458758 UEE458758:UEL458758 UOA458758:UOH458758 UXW458758:UYD458758 VHS458758:VHZ458758 VRO458758:VRV458758 WBK458758:WBR458758 WLG458758:WLN458758 WVC458758:WVJ458758 IQ524294:IX524294 SM524294:ST524294 ACI524294:ACP524294 AME524294:AML524294 AWA524294:AWH524294 BFW524294:BGD524294 BPS524294:BPZ524294 BZO524294:BZV524294 CJK524294:CJR524294 CTG524294:CTN524294 DDC524294:DDJ524294 DMY524294:DNF524294 DWU524294:DXB524294 EGQ524294:EGX524294 EQM524294:EQT524294 FAI524294:FAP524294 FKE524294:FKL524294 FUA524294:FUH524294 GDW524294:GED524294 GNS524294:GNZ524294 GXO524294:GXV524294 HHK524294:HHR524294 HRG524294:HRN524294 IBC524294:IBJ524294 IKY524294:ILF524294 IUU524294:IVB524294 JEQ524294:JEX524294 JOM524294:JOT524294 JYI524294:JYP524294 KIE524294:KIL524294 KSA524294:KSH524294 LBW524294:LCD524294 LLS524294:LLZ524294 LVO524294:LVV524294 MFK524294:MFR524294 MPG524294:MPN524294 MZC524294:MZJ524294 NIY524294:NJF524294 NSU524294:NTB524294 OCQ524294:OCX524294 OMM524294:OMT524294 OWI524294:OWP524294 PGE524294:PGL524294 PQA524294:PQH524294 PZW524294:QAD524294 QJS524294:QJZ524294 QTO524294:QTV524294 RDK524294:RDR524294 RNG524294:RNN524294 RXC524294:RXJ524294 SGY524294:SHF524294 SQU524294:SRB524294 TAQ524294:TAX524294 TKM524294:TKT524294 TUI524294:TUP524294 UEE524294:UEL524294 UOA524294:UOH524294 UXW524294:UYD524294 VHS524294:VHZ524294 VRO524294:VRV524294 WBK524294:WBR524294 WLG524294:WLN524294 WVC524294:WVJ524294 IQ589830:IX589830 SM589830:ST589830 ACI589830:ACP589830 AME589830:AML589830 AWA589830:AWH589830 BFW589830:BGD589830 BPS589830:BPZ589830 BZO589830:BZV589830 CJK589830:CJR589830 CTG589830:CTN589830 DDC589830:DDJ589830 DMY589830:DNF589830 DWU589830:DXB589830 EGQ589830:EGX589830 EQM589830:EQT589830 FAI589830:FAP589830 FKE589830:FKL589830 FUA589830:FUH589830 GDW589830:GED589830 GNS589830:GNZ589830 GXO589830:GXV589830 HHK589830:HHR589830 HRG589830:HRN589830 IBC589830:IBJ589830 IKY589830:ILF589830 IUU589830:IVB589830 JEQ589830:JEX589830 JOM589830:JOT589830 JYI589830:JYP589830 KIE589830:KIL589830 KSA589830:KSH589830 LBW589830:LCD589830 LLS589830:LLZ589830 LVO589830:LVV589830 MFK589830:MFR589830 MPG589830:MPN589830 MZC589830:MZJ589830 NIY589830:NJF589830 NSU589830:NTB589830 OCQ589830:OCX589830 OMM589830:OMT589830 OWI589830:OWP589830 PGE589830:PGL589830 PQA589830:PQH589830 PZW589830:QAD589830 QJS589830:QJZ589830 QTO589830:QTV589830 RDK589830:RDR589830 RNG589830:RNN589830 RXC589830:RXJ589830 SGY589830:SHF589830 SQU589830:SRB589830 TAQ589830:TAX589830 TKM589830:TKT589830 TUI589830:TUP589830 UEE589830:UEL589830 UOA589830:UOH589830 UXW589830:UYD589830 VHS589830:VHZ589830 VRO589830:VRV589830 WBK589830:WBR589830 WLG589830:WLN589830 WVC589830:WVJ589830 IQ655366:IX655366 SM655366:ST655366 ACI655366:ACP655366 AME655366:AML655366 AWA655366:AWH655366 BFW655366:BGD655366 BPS655366:BPZ655366 BZO655366:BZV655366 CJK655366:CJR655366 CTG655366:CTN655366 DDC655366:DDJ655366 DMY655366:DNF655366 DWU655366:DXB655366 EGQ655366:EGX655366 EQM655366:EQT655366 FAI655366:FAP655366 FKE655366:FKL655366 FUA655366:FUH655366 GDW655366:GED655366 GNS655366:GNZ655366 GXO655366:GXV655366 HHK655366:HHR655366 HRG655366:HRN655366 IBC655366:IBJ655366 IKY655366:ILF655366 IUU655366:IVB655366 JEQ655366:JEX655366 JOM655366:JOT655366 JYI655366:JYP655366 KIE655366:KIL655366 KSA655366:KSH655366 LBW655366:LCD655366 LLS655366:LLZ655366 LVO655366:LVV655366 MFK655366:MFR655366 MPG655366:MPN655366 MZC655366:MZJ655366 NIY655366:NJF655366 NSU655366:NTB655366 OCQ655366:OCX655366 OMM655366:OMT655366 OWI655366:OWP655366 PGE655366:PGL655366 PQA655366:PQH655366 PZW655366:QAD655366 QJS655366:QJZ655366 QTO655366:QTV655366 RDK655366:RDR655366 RNG655366:RNN655366 RXC655366:RXJ655366 SGY655366:SHF655366 SQU655366:SRB655366 TAQ655366:TAX655366 TKM655366:TKT655366 TUI655366:TUP655366 UEE655366:UEL655366 UOA655366:UOH655366 UXW655366:UYD655366 VHS655366:VHZ655366 VRO655366:VRV655366 WBK655366:WBR655366 WLG655366:WLN655366 WVC655366:WVJ655366 IQ720902:IX720902 SM720902:ST720902 ACI720902:ACP720902 AME720902:AML720902 AWA720902:AWH720902 BFW720902:BGD720902 BPS720902:BPZ720902 BZO720902:BZV720902 CJK720902:CJR720902 CTG720902:CTN720902 DDC720902:DDJ720902 DMY720902:DNF720902 DWU720902:DXB720902 EGQ720902:EGX720902 EQM720902:EQT720902 FAI720902:FAP720902 FKE720902:FKL720902 FUA720902:FUH720902 GDW720902:GED720902 GNS720902:GNZ720902 GXO720902:GXV720902 HHK720902:HHR720902 HRG720902:HRN720902 IBC720902:IBJ720902 IKY720902:ILF720902 IUU720902:IVB720902 JEQ720902:JEX720902 JOM720902:JOT720902 JYI720902:JYP720902 KIE720902:KIL720902 KSA720902:KSH720902 LBW720902:LCD720902 LLS720902:LLZ720902 LVO720902:LVV720902 MFK720902:MFR720902 MPG720902:MPN720902 MZC720902:MZJ720902 NIY720902:NJF720902 NSU720902:NTB720902 OCQ720902:OCX720902 OMM720902:OMT720902 OWI720902:OWP720902 PGE720902:PGL720902 PQA720902:PQH720902 PZW720902:QAD720902 QJS720902:QJZ720902 QTO720902:QTV720902 RDK720902:RDR720902 RNG720902:RNN720902 RXC720902:RXJ720902 SGY720902:SHF720902 SQU720902:SRB720902 TAQ720902:TAX720902 TKM720902:TKT720902 TUI720902:TUP720902 UEE720902:UEL720902 UOA720902:UOH720902 UXW720902:UYD720902 VHS720902:VHZ720902 VRO720902:VRV720902 WBK720902:WBR720902 WLG720902:WLN720902 WVC720902:WVJ720902 IQ786438:IX786438 SM786438:ST786438 ACI786438:ACP786438 AME786438:AML786438 AWA786438:AWH786438 BFW786438:BGD786438 BPS786438:BPZ786438 BZO786438:BZV786438 CJK786438:CJR786438 CTG786438:CTN786438 DDC786438:DDJ786438 DMY786438:DNF786438 DWU786438:DXB786438 EGQ786438:EGX786438 EQM786438:EQT786438 FAI786438:FAP786438 FKE786438:FKL786438 FUA786438:FUH786438 GDW786438:GED786438 GNS786438:GNZ786438 GXO786438:GXV786438 HHK786438:HHR786438 HRG786438:HRN786438 IBC786438:IBJ786438 IKY786438:ILF786438 IUU786438:IVB786438 JEQ786438:JEX786438 JOM786438:JOT786438 JYI786438:JYP786438 KIE786438:KIL786438 KSA786438:KSH786438 LBW786438:LCD786438 LLS786438:LLZ786438 LVO786438:LVV786438 MFK786438:MFR786438 MPG786438:MPN786438 MZC786438:MZJ786438 NIY786438:NJF786438 NSU786438:NTB786438 OCQ786438:OCX786438 OMM786438:OMT786438 OWI786438:OWP786438 PGE786438:PGL786438 PQA786438:PQH786438 PZW786438:QAD786438 QJS786438:QJZ786438 QTO786438:QTV786438 RDK786438:RDR786438 RNG786438:RNN786438 RXC786438:RXJ786438 SGY786438:SHF786438 SQU786438:SRB786438 TAQ786438:TAX786438 TKM786438:TKT786438 TUI786438:TUP786438 UEE786438:UEL786438 UOA786438:UOH786438 UXW786438:UYD786438 VHS786438:VHZ786438 VRO786438:VRV786438 WBK786438:WBR786438 WLG786438:WLN786438 WVC786438:WVJ786438 IQ851974:IX851974 SM851974:ST851974 ACI851974:ACP851974 AME851974:AML851974 AWA851974:AWH851974 BFW851974:BGD851974 BPS851974:BPZ851974 BZO851974:BZV851974 CJK851974:CJR851974 CTG851974:CTN851974 DDC851974:DDJ851974 DMY851974:DNF851974 DWU851974:DXB851974 EGQ851974:EGX851974 EQM851974:EQT851974 FAI851974:FAP851974 FKE851974:FKL851974 FUA851974:FUH851974 GDW851974:GED851974 GNS851974:GNZ851974 GXO851974:GXV851974 HHK851974:HHR851974 HRG851974:HRN851974 IBC851974:IBJ851974 IKY851974:ILF851974 IUU851974:IVB851974 JEQ851974:JEX851974 JOM851974:JOT851974 JYI851974:JYP851974 KIE851974:KIL851974 KSA851974:KSH851974 LBW851974:LCD851974 LLS851974:LLZ851974 LVO851974:LVV851974 MFK851974:MFR851974 MPG851974:MPN851974 MZC851974:MZJ851974 NIY851974:NJF851974 NSU851974:NTB851974 OCQ851974:OCX851974 OMM851974:OMT851974 OWI851974:OWP851974 PGE851974:PGL851974 PQA851974:PQH851974 PZW851974:QAD851974 QJS851974:QJZ851974 QTO851974:QTV851974 RDK851974:RDR851974 RNG851974:RNN851974 RXC851974:RXJ851974 SGY851974:SHF851974 SQU851974:SRB851974 TAQ851974:TAX851974 TKM851974:TKT851974 TUI851974:TUP851974 UEE851974:UEL851974 UOA851974:UOH851974 UXW851974:UYD851974 VHS851974:VHZ851974 VRO851974:VRV851974 WBK851974:WBR851974 WLG851974:WLN851974 WVC851974:WVJ851974 IQ917510:IX917510 SM917510:ST917510 ACI917510:ACP917510 AME917510:AML917510 AWA917510:AWH917510 BFW917510:BGD917510 BPS917510:BPZ917510 BZO917510:BZV917510 CJK917510:CJR917510 CTG917510:CTN917510 DDC917510:DDJ917510 DMY917510:DNF917510 DWU917510:DXB917510 EGQ917510:EGX917510 EQM917510:EQT917510 FAI917510:FAP917510 FKE917510:FKL917510 FUA917510:FUH917510 GDW917510:GED917510 GNS917510:GNZ917510 GXO917510:GXV917510 HHK917510:HHR917510 HRG917510:HRN917510 IBC917510:IBJ917510 IKY917510:ILF917510 IUU917510:IVB917510 JEQ917510:JEX917510 JOM917510:JOT917510 JYI917510:JYP917510 KIE917510:KIL917510 KSA917510:KSH917510 LBW917510:LCD917510 LLS917510:LLZ917510 LVO917510:LVV917510 MFK917510:MFR917510 MPG917510:MPN917510 MZC917510:MZJ917510 NIY917510:NJF917510 NSU917510:NTB917510 OCQ917510:OCX917510 OMM917510:OMT917510 OWI917510:OWP917510 PGE917510:PGL917510 PQA917510:PQH917510 PZW917510:QAD917510 QJS917510:QJZ917510 QTO917510:QTV917510 RDK917510:RDR917510 RNG917510:RNN917510 RXC917510:RXJ917510 SGY917510:SHF917510 SQU917510:SRB917510 TAQ917510:TAX917510 TKM917510:TKT917510 TUI917510:TUP917510 UEE917510:UEL917510 UOA917510:UOH917510 UXW917510:UYD917510 VHS917510:VHZ917510 VRO917510:VRV917510 WBK917510:WBR917510 WLG917510:WLN917510 WVC917510:WVJ917510 IQ983046:IX983046 SM983046:ST983046 ACI983046:ACP983046 AME983046:AML983046 AWA983046:AWH983046 BFW983046:BGD983046 BPS983046:BPZ983046 BZO983046:BZV983046 CJK983046:CJR983046 CTG983046:CTN983046 DDC983046:DDJ983046 DMY983046:DNF983046 DWU983046:DXB983046 EGQ983046:EGX983046 EQM983046:EQT983046 FAI983046:FAP983046 FKE983046:FKL983046 FUA983046:FUH983046 GDW983046:GED983046 GNS983046:GNZ983046 GXO983046:GXV983046 HHK983046:HHR983046 HRG983046:HRN983046 IBC983046:IBJ983046 IKY983046:ILF983046 IUU983046:IVB983046 JEQ983046:JEX983046 JOM983046:JOT983046 JYI983046:JYP983046 KIE983046:KIL983046 KSA983046:KSH983046 LBW983046:LCD983046 LLS983046:LLZ983046 LVO983046:LVV983046 MFK983046:MFR983046 MPG983046:MPN983046 MZC983046:MZJ983046 NIY983046:NJF983046 NSU983046:NTB983046 OCQ983046:OCX983046 OMM983046:OMT983046 OWI983046:OWP983046 PGE983046:PGL983046 PQA983046:PQH983046 PZW983046:QAD983046 QJS983046:QJZ983046 QTO983046:QTV983046 RDK983046:RDR983046 RNG983046:RNN983046 RXC983046:RXJ983046 SGY983046:SHF983046 SQU983046:SRB983046 TAQ983046:TAX983046 TKM983046:TKT983046 TUI983046:TUP983046 UEE983046:UEL983046 UOA983046:UOH983046 UXW983046:UYD983046 VHS983046:VHZ983046 VRO983046:VRV983046 WBK983046:WBR983046">
+      <formula1>INDIRECT($D$6)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:J4">
-      <formula1>部門</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVH983042:WVH983044 F6 SS6:SU6 ACO6:ACQ6 AMK6:AMM6 AWG6:AWI6 BGC6:BGE6 BPY6:BQA6 BZU6:BZW6 CJQ6:CJS6 CTM6:CTO6 DDI6:DDK6 DNE6:DNG6 DXA6:DXC6 EGW6:EGY6 EQS6:EQU6 FAO6:FAQ6 FKK6:FKM6 FUG6:FUI6 GEC6:GEE6 GNY6:GOA6 GXU6:GXW6 HHQ6:HHS6 HRM6:HRO6 IBI6:IBK6 ILE6:ILG6 IVA6:IVC6 JEW6:JEY6 JOS6:JOU6 JYO6:JYQ6 KIK6:KIM6 KSG6:KSI6 LCC6:LCE6 LLY6:LMA6 LVU6:LVW6 MFQ6:MFS6 MPM6:MPO6 MZI6:MZK6 NJE6:NJG6 NTA6:NTC6 OCW6:OCY6 OMS6:OMU6 OWO6:OWQ6 PGK6:PGM6 PQG6:PQI6 QAC6:QAE6 QJY6:QKA6 QTU6:QTW6 RDQ6:RDS6 RNM6:RNO6 RXI6:RXK6 SHE6:SHG6 SRA6:SRC6 TAW6:TAY6 TKS6:TKU6 TUO6:TUQ6 UEK6:UEM6 UOG6:UOI6 UYC6:UYE6 VHY6:VIA6 VRU6:VRW6 WBQ6:WBS6 WLM6:WLO6 WVI6:WVK6 H65538:L65538 IW65538:IY65538 SS65538:SU65538 ACO65538:ACQ65538 AMK65538:AMM65538 AWG65538:AWI65538 BGC65538:BGE65538 BPY65538:BQA65538 BZU65538:BZW65538 CJQ65538:CJS65538 CTM65538:CTO65538 DDI65538:DDK65538 DNE65538:DNG65538 DXA65538:DXC65538 EGW65538:EGY65538 EQS65538:EQU65538 FAO65538:FAQ65538 FKK65538:FKM65538 FUG65538:FUI65538 GEC65538:GEE65538 GNY65538:GOA65538 GXU65538:GXW65538 HHQ65538:HHS65538 HRM65538:HRO65538 IBI65538:IBK65538 ILE65538:ILG65538 IVA65538:IVC65538 JEW65538:JEY65538 JOS65538:JOU65538 JYO65538:JYQ65538 KIK65538:KIM65538 KSG65538:KSI65538 LCC65538:LCE65538 LLY65538:LMA65538 LVU65538:LVW65538 MFQ65538:MFS65538 MPM65538:MPO65538 MZI65538:MZK65538 NJE65538:NJG65538 NTA65538:NTC65538 OCW65538:OCY65538 OMS65538:OMU65538 OWO65538:OWQ65538 PGK65538:PGM65538 PQG65538:PQI65538 QAC65538:QAE65538 QJY65538:QKA65538 QTU65538:QTW65538 RDQ65538:RDS65538 RNM65538:RNO65538 RXI65538:RXK65538 SHE65538:SHG65538 SRA65538:SRC65538 TAW65538:TAY65538 TKS65538:TKU65538 TUO65538:TUQ65538 UEK65538:UEM65538 UOG65538:UOI65538 UYC65538:UYE65538 VHY65538:VIA65538 VRU65538:VRW65538 WBQ65538:WBS65538 WLM65538:WLO65538 WVI65538:WVK65538 H131074:L131074 IW131074:IY131074 SS131074:SU131074 ACO131074:ACQ131074 AMK131074:AMM131074 AWG131074:AWI131074 BGC131074:BGE131074 BPY131074:BQA131074 BZU131074:BZW131074 CJQ131074:CJS131074 CTM131074:CTO131074 DDI131074:DDK131074 DNE131074:DNG131074 DXA131074:DXC131074 EGW131074:EGY131074 EQS131074:EQU131074 FAO131074:FAQ131074 FKK131074:FKM131074 FUG131074:FUI131074 GEC131074:GEE131074 GNY131074:GOA131074 GXU131074:GXW131074 HHQ131074:HHS131074 HRM131074:HRO131074 IBI131074:IBK131074 ILE131074:ILG131074 IVA131074:IVC131074 JEW131074:JEY131074 JOS131074:JOU131074 JYO131074:JYQ131074 KIK131074:KIM131074 KSG131074:KSI131074 LCC131074:LCE131074 LLY131074:LMA131074 LVU131074:LVW131074 MFQ131074:MFS131074 MPM131074:MPO131074 MZI131074:MZK131074 NJE131074:NJG131074 NTA131074:NTC131074 OCW131074:OCY131074 OMS131074:OMU131074 OWO131074:OWQ131074 PGK131074:PGM131074 PQG131074:PQI131074 QAC131074:QAE131074 QJY131074:QKA131074 QTU131074:QTW131074 RDQ131074:RDS131074 RNM131074:RNO131074 RXI131074:RXK131074 SHE131074:SHG131074 SRA131074:SRC131074 TAW131074:TAY131074 TKS131074:TKU131074 TUO131074:TUQ131074 UEK131074:UEM131074 UOG131074:UOI131074 UYC131074:UYE131074 VHY131074:VIA131074 VRU131074:VRW131074 WBQ131074:WBS131074 WLM131074:WLO131074 WVI131074:WVK131074 H196610:L196610 IW196610:IY196610 SS196610:SU196610 ACO196610:ACQ196610 AMK196610:AMM196610 AWG196610:AWI196610 BGC196610:BGE196610 BPY196610:BQA196610 BZU196610:BZW196610 CJQ196610:CJS196610 CTM196610:CTO196610 DDI196610:DDK196610 DNE196610:DNG196610 DXA196610:DXC196610 EGW196610:EGY196610 EQS196610:EQU196610 FAO196610:FAQ196610 FKK196610:FKM196610 FUG196610:FUI196610 GEC196610:GEE196610 GNY196610:GOA196610 GXU196610:GXW196610 HHQ196610:HHS196610 HRM196610:HRO196610 IBI196610:IBK196610 ILE196610:ILG196610 IVA196610:IVC196610 JEW196610:JEY196610 JOS196610:JOU196610 JYO196610:JYQ196610 KIK196610:KIM196610 KSG196610:KSI196610 LCC196610:LCE196610 LLY196610:LMA196610 LVU196610:LVW196610 MFQ196610:MFS196610 MPM196610:MPO196610 MZI196610:MZK196610 NJE196610:NJG196610 NTA196610:NTC196610 OCW196610:OCY196610 OMS196610:OMU196610 OWO196610:OWQ196610 PGK196610:PGM196610 PQG196610:PQI196610 QAC196610:QAE196610 QJY196610:QKA196610 QTU196610:QTW196610 RDQ196610:RDS196610 RNM196610:RNO196610 RXI196610:RXK196610 SHE196610:SHG196610 SRA196610:SRC196610 TAW196610:TAY196610 TKS196610:TKU196610 TUO196610:TUQ196610 UEK196610:UEM196610 UOG196610:UOI196610 UYC196610:UYE196610 VHY196610:VIA196610 VRU196610:VRW196610 WBQ196610:WBS196610 WLM196610:WLO196610 WVI196610:WVK196610 H262146:L262146 IW262146:IY262146 SS262146:SU262146 ACO262146:ACQ262146 AMK262146:AMM262146 AWG262146:AWI262146 BGC262146:BGE262146 BPY262146:BQA262146 BZU262146:BZW262146 CJQ262146:CJS262146 CTM262146:CTO262146 DDI262146:DDK262146 DNE262146:DNG262146 DXA262146:DXC262146 EGW262146:EGY262146 EQS262146:EQU262146 FAO262146:FAQ262146 FKK262146:FKM262146 FUG262146:FUI262146 GEC262146:GEE262146 GNY262146:GOA262146 GXU262146:GXW262146 HHQ262146:HHS262146 HRM262146:HRO262146 IBI262146:IBK262146 ILE262146:ILG262146 IVA262146:IVC262146 JEW262146:JEY262146 JOS262146:JOU262146 JYO262146:JYQ262146 KIK262146:KIM262146 KSG262146:KSI262146 LCC262146:LCE262146 LLY262146:LMA262146 LVU262146:LVW262146 MFQ262146:MFS262146 MPM262146:MPO262146 MZI262146:MZK262146 NJE262146:NJG262146 NTA262146:NTC262146 OCW262146:OCY262146 OMS262146:OMU262146 OWO262146:OWQ262146 PGK262146:PGM262146 PQG262146:PQI262146 QAC262146:QAE262146 QJY262146:QKA262146 QTU262146:QTW262146 RDQ262146:RDS262146 RNM262146:RNO262146 RXI262146:RXK262146 SHE262146:SHG262146 SRA262146:SRC262146 TAW262146:TAY262146 TKS262146:TKU262146 TUO262146:TUQ262146 UEK262146:UEM262146 UOG262146:UOI262146 UYC262146:UYE262146 VHY262146:VIA262146 VRU262146:VRW262146 WBQ262146:WBS262146 WLM262146:WLO262146 WVI262146:WVK262146 H327682:L327682 IW327682:IY327682 SS327682:SU327682 ACO327682:ACQ327682 AMK327682:AMM327682 AWG327682:AWI327682 BGC327682:BGE327682 BPY327682:BQA327682 BZU327682:BZW327682 CJQ327682:CJS327682 CTM327682:CTO327682 DDI327682:DDK327682 DNE327682:DNG327682 DXA327682:DXC327682 EGW327682:EGY327682 EQS327682:EQU327682 FAO327682:FAQ327682 FKK327682:FKM327682 FUG327682:FUI327682 GEC327682:GEE327682 GNY327682:GOA327682 GXU327682:GXW327682 HHQ327682:HHS327682 HRM327682:HRO327682 IBI327682:IBK327682 ILE327682:ILG327682 IVA327682:IVC327682 JEW327682:JEY327682 JOS327682:JOU327682 JYO327682:JYQ327682 KIK327682:KIM327682 KSG327682:KSI327682 LCC327682:LCE327682 LLY327682:LMA327682 LVU327682:LVW327682 MFQ327682:MFS327682 MPM327682:MPO327682 MZI327682:MZK327682 NJE327682:NJG327682 NTA327682:NTC327682 OCW327682:OCY327682 OMS327682:OMU327682 OWO327682:OWQ327682 PGK327682:PGM327682 PQG327682:PQI327682 QAC327682:QAE327682 QJY327682:QKA327682 QTU327682:QTW327682 RDQ327682:RDS327682 RNM327682:RNO327682 RXI327682:RXK327682 SHE327682:SHG327682 SRA327682:SRC327682 TAW327682:TAY327682 TKS327682:TKU327682 TUO327682:TUQ327682 UEK327682:UEM327682 UOG327682:UOI327682 UYC327682:UYE327682 VHY327682:VIA327682 VRU327682:VRW327682 WBQ327682:WBS327682 WLM327682:WLO327682 WVI327682:WVK327682 H393218:L393218 IW393218:IY393218 SS393218:SU393218 ACO393218:ACQ393218 AMK393218:AMM393218 AWG393218:AWI393218 BGC393218:BGE393218 BPY393218:BQA393218 BZU393218:BZW393218 CJQ393218:CJS393218 CTM393218:CTO393218 DDI393218:DDK393218 DNE393218:DNG393218 DXA393218:DXC393218 EGW393218:EGY393218 EQS393218:EQU393218 FAO393218:FAQ393218 FKK393218:FKM393218 FUG393218:FUI393218 GEC393218:GEE393218 GNY393218:GOA393218 GXU393218:GXW393218 HHQ393218:HHS393218 HRM393218:HRO393218 IBI393218:IBK393218 ILE393218:ILG393218 IVA393218:IVC393218 JEW393218:JEY393218 JOS393218:JOU393218 JYO393218:JYQ393218 KIK393218:KIM393218 KSG393218:KSI393218 LCC393218:LCE393218 LLY393218:LMA393218 LVU393218:LVW393218 MFQ393218:MFS393218 MPM393218:MPO393218 MZI393218:MZK393218 NJE393218:NJG393218 NTA393218:NTC393218 OCW393218:OCY393218 OMS393218:OMU393218 OWO393218:OWQ393218 PGK393218:PGM393218 PQG393218:PQI393218 QAC393218:QAE393218 QJY393218:QKA393218 QTU393218:QTW393218 RDQ393218:RDS393218 RNM393218:RNO393218 RXI393218:RXK393218 SHE393218:SHG393218 SRA393218:SRC393218 TAW393218:TAY393218 TKS393218:TKU393218 TUO393218:TUQ393218 UEK393218:UEM393218 UOG393218:UOI393218 UYC393218:UYE393218 VHY393218:VIA393218 VRU393218:VRW393218 WBQ393218:WBS393218 WLM393218:WLO393218 WVI393218:WVK393218 H458754:L458754 IW458754:IY458754 SS458754:SU458754 ACO458754:ACQ458754 AMK458754:AMM458754 AWG458754:AWI458754 BGC458754:BGE458754 BPY458754:BQA458754 BZU458754:BZW458754 CJQ458754:CJS458754 CTM458754:CTO458754 DDI458754:DDK458754 DNE458754:DNG458754 DXA458754:DXC458754 EGW458754:EGY458754 EQS458754:EQU458754 FAO458754:FAQ458754 FKK458754:FKM458754 FUG458754:FUI458754 GEC458754:GEE458754 GNY458754:GOA458754 GXU458754:GXW458754 HHQ458754:HHS458754 HRM458754:HRO458754 IBI458754:IBK458754 ILE458754:ILG458754 IVA458754:IVC458754 JEW458754:JEY458754 JOS458754:JOU458754 JYO458754:JYQ458754 KIK458754:KIM458754 KSG458754:KSI458754 LCC458754:LCE458754 LLY458754:LMA458754 LVU458754:LVW458754 MFQ458754:MFS458754 MPM458754:MPO458754 MZI458754:MZK458754 NJE458754:NJG458754 NTA458754:NTC458754 OCW458754:OCY458754 OMS458754:OMU458754 OWO458754:OWQ458754 PGK458754:PGM458754 PQG458754:PQI458754 QAC458754:QAE458754 QJY458754:QKA458754 QTU458754:QTW458754 RDQ458754:RDS458754 RNM458754:RNO458754 RXI458754:RXK458754 SHE458754:SHG458754 SRA458754:SRC458754 TAW458754:TAY458754 TKS458754:TKU458754 TUO458754:TUQ458754 UEK458754:UEM458754 UOG458754:UOI458754 UYC458754:UYE458754 VHY458754:VIA458754 VRU458754:VRW458754 WBQ458754:WBS458754 WLM458754:WLO458754 WVI458754:WVK458754 H524290:L524290 IW524290:IY524290 SS524290:SU524290 ACO524290:ACQ524290 AMK524290:AMM524290 AWG524290:AWI524290 BGC524290:BGE524290 BPY524290:BQA524290 BZU524290:BZW524290 CJQ524290:CJS524290 CTM524290:CTO524290 DDI524290:DDK524290 DNE524290:DNG524290 DXA524290:DXC524290 EGW524290:EGY524290 EQS524290:EQU524290 FAO524290:FAQ524290 FKK524290:FKM524290 FUG524290:FUI524290 GEC524290:GEE524290 GNY524290:GOA524290 GXU524290:GXW524290 HHQ524290:HHS524290 HRM524290:HRO524290 IBI524290:IBK524290 ILE524290:ILG524290 IVA524290:IVC524290 JEW524290:JEY524290 JOS524290:JOU524290 JYO524290:JYQ524290 KIK524290:KIM524290 KSG524290:KSI524290 LCC524290:LCE524290 LLY524290:LMA524290 LVU524290:LVW524290 MFQ524290:MFS524290 MPM524290:MPO524290 MZI524290:MZK524290 NJE524290:NJG524290 NTA524290:NTC524290 OCW524290:OCY524290 OMS524290:OMU524290 OWO524290:OWQ524290 PGK524290:PGM524290 PQG524290:PQI524290 QAC524290:QAE524290 QJY524290:QKA524290 QTU524290:QTW524290 RDQ524290:RDS524290 RNM524290:RNO524290 RXI524290:RXK524290 SHE524290:SHG524290 SRA524290:SRC524290 TAW524290:TAY524290 TKS524290:TKU524290 TUO524290:TUQ524290 UEK524290:UEM524290 UOG524290:UOI524290 UYC524290:UYE524290 VHY524290:VIA524290 VRU524290:VRW524290 WBQ524290:WBS524290 WLM524290:WLO524290 WVI524290:WVK524290 H589826:L589826 IW589826:IY589826 SS589826:SU589826 ACO589826:ACQ589826 AMK589826:AMM589826 AWG589826:AWI589826 BGC589826:BGE589826 BPY589826:BQA589826 BZU589826:BZW589826 CJQ589826:CJS589826 CTM589826:CTO589826 DDI589826:DDK589826 DNE589826:DNG589826 DXA589826:DXC589826 EGW589826:EGY589826 EQS589826:EQU589826 FAO589826:FAQ589826 FKK589826:FKM589826 FUG589826:FUI589826 GEC589826:GEE589826 GNY589826:GOA589826 GXU589826:GXW589826 HHQ589826:HHS589826 HRM589826:HRO589826 IBI589826:IBK589826 ILE589826:ILG589826 IVA589826:IVC589826 JEW589826:JEY589826 JOS589826:JOU589826 JYO589826:JYQ589826 KIK589826:KIM589826 KSG589826:KSI589826 LCC589826:LCE589826 LLY589826:LMA589826 LVU589826:LVW589826 MFQ589826:MFS589826 MPM589826:MPO589826 MZI589826:MZK589826 NJE589826:NJG589826 NTA589826:NTC589826 OCW589826:OCY589826 OMS589826:OMU589826 OWO589826:OWQ589826 PGK589826:PGM589826 PQG589826:PQI589826 QAC589826:QAE589826 QJY589826:QKA589826 QTU589826:QTW589826 RDQ589826:RDS589826 RNM589826:RNO589826 RXI589826:RXK589826 SHE589826:SHG589826 SRA589826:SRC589826 TAW589826:TAY589826 TKS589826:TKU589826 TUO589826:TUQ589826 UEK589826:UEM589826 UOG589826:UOI589826 UYC589826:UYE589826 VHY589826:VIA589826 VRU589826:VRW589826 WBQ589826:WBS589826 WLM589826:WLO589826 WVI589826:WVK589826 H655362:L655362 IW655362:IY655362 SS655362:SU655362 ACO655362:ACQ655362 AMK655362:AMM655362 AWG655362:AWI655362 BGC655362:BGE655362 BPY655362:BQA655362 BZU655362:BZW655362 CJQ655362:CJS655362 CTM655362:CTO655362 DDI655362:DDK655362 DNE655362:DNG655362 DXA655362:DXC655362 EGW655362:EGY655362 EQS655362:EQU655362 FAO655362:FAQ655362 FKK655362:FKM655362 FUG655362:FUI655362 GEC655362:GEE655362 GNY655362:GOA655362 GXU655362:GXW655362 HHQ655362:HHS655362 HRM655362:HRO655362 IBI655362:IBK655362 ILE655362:ILG655362 IVA655362:IVC655362 JEW655362:JEY655362 JOS655362:JOU655362 JYO655362:JYQ655362 KIK655362:KIM655362 KSG655362:KSI655362 LCC655362:LCE655362 LLY655362:LMA655362 LVU655362:LVW655362 MFQ655362:MFS655362 MPM655362:MPO655362 MZI655362:MZK655362 NJE655362:NJG655362 NTA655362:NTC655362 OCW655362:OCY655362 OMS655362:OMU655362 OWO655362:OWQ655362 PGK655362:PGM655362 PQG655362:PQI655362 QAC655362:QAE655362 QJY655362:QKA655362 QTU655362:QTW655362 RDQ655362:RDS655362 RNM655362:RNO655362 RXI655362:RXK655362 SHE655362:SHG655362 SRA655362:SRC655362 TAW655362:TAY655362 TKS655362:TKU655362 TUO655362:TUQ655362 UEK655362:UEM655362 UOG655362:UOI655362 UYC655362:UYE655362 VHY655362:VIA655362 VRU655362:VRW655362 WBQ655362:WBS655362 WLM655362:WLO655362 WVI655362:WVK655362 H720898:L720898 IW720898:IY720898 SS720898:SU720898 ACO720898:ACQ720898 AMK720898:AMM720898 AWG720898:AWI720898 BGC720898:BGE720898 BPY720898:BQA720898 BZU720898:BZW720898 CJQ720898:CJS720898 CTM720898:CTO720898 DDI720898:DDK720898 DNE720898:DNG720898 DXA720898:DXC720898 EGW720898:EGY720898 EQS720898:EQU720898 FAO720898:FAQ720898 FKK720898:FKM720898 FUG720898:FUI720898 GEC720898:GEE720898 GNY720898:GOA720898 GXU720898:GXW720898 HHQ720898:HHS720898 HRM720898:HRO720898 IBI720898:IBK720898 ILE720898:ILG720898 IVA720898:IVC720898 JEW720898:JEY720898 JOS720898:JOU720898 JYO720898:JYQ720898 KIK720898:KIM720898 KSG720898:KSI720898 LCC720898:LCE720898 LLY720898:LMA720898 LVU720898:LVW720898 MFQ720898:MFS720898 MPM720898:MPO720898 MZI720898:MZK720898 NJE720898:NJG720898 NTA720898:NTC720898 OCW720898:OCY720898 OMS720898:OMU720898 OWO720898:OWQ720898 PGK720898:PGM720898 PQG720898:PQI720898 QAC720898:QAE720898 QJY720898:QKA720898 QTU720898:QTW720898 RDQ720898:RDS720898 RNM720898:RNO720898 RXI720898:RXK720898 SHE720898:SHG720898 SRA720898:SRC720898 TAW720898:TAY720898 TKS720898:TKU720898 TUO720898:TUQ720898 UEK720898:UEM720898 UOG720898:UOI720898 UYC720898:UYE720898 VHY720898:VIA720898 VRU720898:VRW720898 WBQ720898:WBS720898 WLM720898:WLO720898 WVI720898:WVK720898 H786434:L786434 IW786434:IY786434 SS786434:SU786434 ACO786434:ACQ786434 AMK786434:AMM786434 AWG786434:AWI786434 BGC786434:BGE786434 BPY786434:BQA786434 BZU786434:BZW786434 CJQ786434:CJS786434 CTM786434:CTO786434 DDI786434:DDK786434 DNE786434:DNG786434 DXA786434:DXC786434 EGW786434:EGY786434 EQS786434:EQU786434 FAO786434:FAQ786434 FKK786434:FKM786434 FUG786434:FUI786434 GEC786434:GEE786434 GNY786434:GOA786434 GXU786434:GXW786434 HHQ786434:HHS786434 HRM786434:HRO786434 IBI786434:IBK786434 ILE786434:ILG786434 IVA786434:IVC786434 JEW786434:JEY786434 JOS786434:JOU786434 JYO786434:JYQ786434 KIK786434:KIM786434 KSG786434:KSI786434 LCC786434:LCE786434 LLY786434:LMA786434 LVU786434:LVW786434 MFQ786434:MFS786434 MPM786434:MPO786434 MZI786434:MZK786434 NJE786434:NJG786434 NTA786434:NTC786434 OCW786434:OCY786434 OMS786434:OMU786434 OWO786434:OWQ786434 PGK786434:PGM786434 PQG786434:PQI786434 QAC786434:QAE786434 QJY786434:QKA786434 QTU786434:QTW786434 RDQ786434:RDS786434 RNM786434:RNO786434 RXI786434:RXK786434 SHE786434:SHG786434 SRA786434:SRC786434 TAW786434:TAY786434 TKS786434:TKU786434 TUO786434:TUQ786434 UEK786434:UEM786434 UOG786434:UOI786434 UYC786434:UYE786434 VHY786434:VIA786434 VRU786434:VRW786434 WBQ786434:WBS786434 WLM786434:WLO786434 WVI786434:WVK786434 H851970:L851970 IW851970:IY851970 SS851970:SU851970 ACO851970:ACQ851970 AMK851970:AMM851970 AWG851970:AWI851970 BGC851970:BGE851970 BPY851970:BQA851970 BZU851970:BZW851970 CJQ851970:CJS851970 CTM851970:CTO851970 DDI851970:DDK851970 DNE851970:DNG851970 DXA851970:DXC851970 EGW851970:EGY851970 EQS851970:EQU851970 FAO851970:FAQ851970 FKK851970:FKM851970 FUG851970:FUI851970 GEC851970:GEE851970 GNY851970:GOA851970 GXU851970:GXW851970 HHQ851970:HHS851970 HRM851970:HRO851970 IBI851970:IBK851970 ILE851970:ILG851970 IVA851970:IVC851970 JEW851970:JEY851970 JOS851970:JOU851970 JYO851970:JYQ851970 KIK851970:KIM851970 KSG851970:KSI851970 LCC851970:LCE851970 LLY851970:LMA851970 LVU851970:LVW851970 MFQ851970:MFS851970 MPM851970:MPO851970 MZI851970:MZK851970 NJE851970:NJG851970 NTA851970:NTC851970 OCW851970:OCY851970 OMS851970:OMU851970 OWO851970:OWQ851970 PGK851970:PGM851970 PQG851970:PQI851970 QAC851970:QAE851970 QJY851970:QKA851970 QTU851970:QTW851970 RDQ851970:RDS851970 RNM851970:RNO851970 RXI851970:RXK851970 SHE851970:SHG851970 SRA851970:SRC851970 TAW851970:TAY851970 TKS851970:TKU851970 TUO851970:TUQ851970 UEK851970:UEM851970 UOG851970:UOI851970 UYC851970:UYE851970 VHY851970:VIA851970 VRU851970:VRW851970 WBQ851970:WBS851970 WLM851970:WLO851970 WVI851970:WVK851970 H917506:L917506 IW917506:IY917506 SS917506:SU917506 ACO917506:ACQ917506 AMK917506:AMM917506 AWG917506:AWI917506 BGC917506:BGE917506 BPY917506:BQA917506 BZU917506:BZW917506 CJQ917506:CJS917506 CTM917506:CTO917506 DDI917506:DDK917506 DNE917506:DNG917506 DXA917506:DXC917506 EGW917506:EGY917506 EQS917506:EQU917506 FAO917506:FAQ917506 FKK917506:FKM917506 FUG917506:FUI917506 GEC917506:GEE917506 GNY917506:GOA917506 GXU917506:GXW917506 HHQ917506:HHS917506 HRM917506:HRO917506 IBI917506:IBK917506 ILE917506:ILG917506 IVA917506:IVC917506 JEW917506:JEY917506 JOS917506:JOU917506 JYO917506:JYQ917506 KIK917506:KIM917506 KSG917506:KSI917506 LCC917506:LCE917506 LLY917506:LMA917506 LVU917506:LVW917506 MFQ917506:MFS917506 MPM917506:MPO917506 MZI917506:MZK917506 NJE917506:NJG917506 NTA917506:NTC917506 OCW917506:OCY917506 OMS917506:OMU917506 OWO917506:OWQ917506 PGK917506:PGM917506 PQG917506:PQI917506 QAC917506:QAE917506 QJY917506:QKA917506 QTU917506:QTW917506 RDQ917506:RDS917506 RNM917506:RNO917506 RXI917506:RXK917506 SHE917506:SHG917506 SRA917506:SRC917506 TAW917506:TAY917506 TKS917506:TKU917506 TUO917506:TUQ917506 UEK917506:UEM917506 UOG917506:UOI917506 UYC917506:UYE917506 VHY917506:VIA917506 VRU917506:VRW917506 WBQ917506:WBS917506 WLM917506:WLO917506 WVI917506:WVK917506 H983042:L983042 IW983042:IY983042 SS983042:SU983042 ACO983042:ACQ983042 AMK983042:AMM983042 AWG983042:AWI983042 BGC983042:BGE983042 BPY983042:BQA983042 BZU983042:BZW983042 CJQ983042:CJS983042 CTM983042:CTO983042 DDI983042:DDK983042 DNE983042:DNG983042 DXA983042:DXC983042 EGW983042:EGY983042 EQS983042:EQU983042 FAO983042:FAQ983042 FKK983042:FKM983042 FUG983042:FUI983042 GEC983042:GEE983042 GNY983042:GOA983042 GXU983042:GXW983042 HHQ983042:HHS983042 HRM983042:HRO983042 IBI983042:IBK983042 ILE983042:ILG983042 IVA983042:IVC983042 JEW983042:JEY983042 JOS983042:JOU983042 JYO983042:JYQ983042 KIK983042:KIM983042 KSG983042:KSI983042 LCC983042:LCE983042 LLY983042:LMA983042 LVU983042:LVW983042 MFQ983042:MFS983042 MPM983042:MPO983042 MZI983042:MZK983042 NJE983042:NJG983042 NTA983042:NTC983042 OCW983042:OCY983042 OMS983042:OMU983042 OWO983042:OWQ983042 PGK983042:PGM983042 PQG983042:PQI983042 QAC983042:QAE983042 QJY983042:QKA983042 QTU983042:QTW983042 RDQ983042:RDS983042 RNM983042:RNO983042 RXI983042:RXK983042 SHE983042:SHG983042 SRA983042:SRC983042 TAW983042:TAY983042 TKS983042:TKU983042 TUO983042:TUQ983042 UEK983042:UEM983042 UOG983042:UOI983042 UYC983042:UYE983042 VHY983042:VIA983042 VRU983042:VRW983042 WBQ983042:WBS983042 WLM983042:WLO983042 WVI983042:WVK983042 IW6:IY6 IQ6:IR6 SM6:SN6 ACI6:ACJ6 AME6:AMF6 AWA6:AWB6 BFW6:BFX6 BPS6:BPT6 BZO6:BZP6 CJK6:CJL6 CTG6:CTH6 DDC6:DDD6 DMY6:DMZ6 DWU6:DWV6 EGQ6:EGR6 EQM6:EQN6 FAI6:FAJ6 FKE6:FKF6 FUA6:FUB6 GDW6:GDX6 GNS6:GNT6 GXO6:GXP6 HHK6:HHL6 HRG6:HRH6 IBC6:IBD6 IKY6:IKZ6 IUU6:IUV6 JEQ6:JER6 JOM6:JON6 JYI6:JYJ6 KIE6:KIF6 KSA6:KSB6 LBW6:LBX6 LLS6:LLT6 LVO6:LVP6 MFK6:MFL6 MPG6:MPH6 MZC6:MZD6 NIY6:NIZ6 NSU6:NSV6 OCQ6:OCR6 OMM6:OMN6 OWI6:OWJ6 PGE6:PGF6 PQA6:PQB6 PZW6:PZX6 QJS6:QJT6 QTO6:QTP6 RDK6:RDL6 RNG6:RNH6 RXC6:RXD6 SGY6:SGZ6 SQU6:SQV6 TAQ6:TAR6 TKM6:TKN6 TUI6:TUJ6 UEE6:UEF6 UOA6:UOB6 UXW6:UXX6 VHS6:VHT6 VRO6:VRP6 WBK6:WBL6 WLG6:WLH6 WVC6:WVD6 E65538:F65538 IQ65538:IR65538 SM65538:SN65538 ACI65538:ACJ65538 AME65538:AMF65538 AWA65538:AWB65538 BFW65538:BFX65538 BPS65538:BPT65538 BZO65538:BZP65538 CJK65538:CJL65538 CTG65538:CTH65538 DDC65538:DDD65538 DMY65538:DMZ65538 DWU65538:DWV65538 EGQ65538:EGR65538 EQM65538:EQN65538 FAI65538:FAJ65538 FKE65538:FKF65538 FUA65538:FUB65538 GDW65538:GDX65538 GNS65538:GNT65538 GXO65538:GXP65538 HHK65538:HHL65538 HRG65538:HRH65538 IBC65538:IBD65538 IKY65538:IKZ65538 IUU65538:IUV65538 JEQ65538:JER65538 JOM65538:JON65538 JYI65538:JYJ65538 KIE65538:KIF65538 KSA65538:KSB65538 LBW65538:LBX65538 LLS65538:LLT65538 LVO65538:LVP65538 MFK65538:MFL65538 MPG65538:MPH65538 MZC65538:MZD65538 NIY65538:NIZ65538 NSU65538:NSV65538 OCQ65538:OCR65538 OMM65538:OMN65538 OWI65538:OWJ65538 PGE65538:PGF65538 PQA65538:PQB65538 PZW65538:PZX65538 QJS65538:QJT65538 QTO65538:QTP65538 RDK65538:RDL65538 RNG65538:RNH65538 RXC65538:RXD65538 SGY65538:SGZ65538 SQU65538:SQV65538 TAQ65538:TAR65538 TKM65538:TKN65538 TUI65538:TUJ65538 UEE65538:UEF65538 UOA65538:UOB65538 UXW65538:UXX65538 VHS65538:VHT65538 VRO65538:VRP65538 WBK65538:WBL65538 WLG65538:WLH65538 WVC65538:WVD65538 E131074:F131074 IQ131074:IR131074 SM131074:SN131074 ACI131074:ACJ131074 AME131074:AMF131074 AWA131074:AWB131074 BFW131074:BFX131074 BPS131074:BPT131074 BZO131074:BZP131074 CJK131074:CJL131074 CTG131074:CTH131074 DDC131074:DDD131074 DMY131074:DMZ131074 DWU131074:DWV131074 EGQ131074:EGR131074 EQM131074:EQN131074 FAI131074:FAJ131074 FKE131074:FKF131074 FUA131074:FUB131074 GDW131074:GDX131074 GNS131074:GNT131074 GXO131074:GXP131074 HHK131074:HHL131074 HRG131074:HRH131074 IBC131074:IBD131074 IKY131074:IKZ131074 IUU131074:IUV131074 JEQ131074:JER131074 JOM131074:JON131074 JYI131074:JYJ131074 KIE131074:KIF131074 KSA131074:KSB131074 LBW131074:LBX131074 LLS131074:LLT131074 LVO131074:LVP131074 MFK131074:MFL131074 MPG131074:MPH131074 MZC131074:MZD131074 NIY131074:NIZ131074 NSU131074:NSV131074 OCQ131074:OCR131074 OMM131074:OMN131074 OWI131074:OWJ131074 PGE131074:PGF131074 PQA131074:PQB131074 PZW131074:PZX131074 QJS131074:QJT131074 QTO131074:QTP131074 RDK131074:RDL131074 RNG131074:RNH131074 RXC131074:RXD131074 SGY131074:SGZ131074 SQU131074:SQV131074 TAQ131074:TAR131074 TKM131074:TKN131074 TUI131074:TUJ131074 UEE131074:UEF131074 UOA131074:UOB131074 UXW131074:UXX131074 VHS131074:VHT131074 VRO131074:VRP131074 WBK131074:WBL131074 WLG131074:WLH131074 WVC131074:WVD131074 E196610:F196610 IQ196610:IR196610 SM196610:SN196610 ACI196610:ACJ196610 AME196610:AMF196610 AWA196610:AWB196610 BFW196610:BFX196610 BPS196610:BPT196610 BZO196610:BZP196610 CJK196610:CJL196610 CTG196610:CTH196610 DDC196610:DDD196610 DMY196610:DMZ196610 DWU196610:DWV196610 EGQ196610:EGR196610 EQM196610:EQN196610 FAI196610:FAJ196610 FKE196610:FKF196610 FUA196610:FUB196610 GDW196610:GDX196610 GNS196610:GNT196610 GXO196610:GXP196610 HHK196610:HHL196610 HRG196610:HRH196610 IBC196610:IBD196610 IKY196610:IKZ196610 IUU196610:IUV196610 JEQ196610:JER196610 JOM196610:JON196610 JYI196610:JYJ196610 KIE196610:KIF196610 KSA196610:KSB196610 LBW196610:LBX196610 LLS196610:LLT196610 LVO196610:LVP196610 MFK196610:MFL196610 MPG196610:MPH196610 MZC196610:MZD196610 NIY196610:NIZ196610 NSU196610:NSV196610 OCQ196610:OCR196610 OMM196610:OMN196610 OWI196610:OWJ196610 PGE196610:PGF196610 PQA196610:PQB196610 PZW196610:PZX196610 QJS196610:QJT196610 QTO196610:QTP196610 RDK196610:RDL196610 RNG196610:RNH196610 RXC196610:RXD196610 SGY196610:SGZ196610 SQU196610:SQV196610 TAQ196610:TAR196610 TKM196610:TKN196610 TUI196610:TUJ196610 UEE196610:UEF196610 UOA196610:UOB196610 UXW196610:UXX196610 VHS196610:VHT196610 VRO196610:VRP196610 WBK196610:WBL196610 WLG196610:WLH196610 WVC196610:WVD196610 E262146:F262146 IQ262146:IR262146 SM262146:SN262146 ACI262146:ACJ262146 AME262146:AMF262146 AWA262146:AWB262146 BFW262146:BFX262146 BPS262146:BPT262146 BZO262146:BZP262146 CJK262146:CJL262146 CTG262146:CTH262146 DDC262146:DDD262146 DMY262146:DMZ262146 DWU262146:DWV262146 EGQ262146:EGR262146 EQM262146:EQN262146 FAI262146:FAJ262146 FKE262146:FKF262146 FUA262146:FUB262146 GDW262146:GDX262146 GNS262146:GNT262146 GXO262146:GXP262146 HHK262146:HHL262146 HRG262146:HRH262146 IBC262146:IBD262146 IKY262146:IKZ262146 IUU262146:IUV262146 JEQ262146:JER262146 JOM262146:JON262146 JYI262146:JYJ262146 KIE262146:KIF262146 KSA262146:KSB262146 LBW262146:LBX262146 LLS262146:LLT262146 LVO262146:LVP262146 MFK262146:MFL262146 MPG262146:MPH262146 MZC262146:MZD262146 NIY262146:NIZ262146 NSU262146:NSV262146 OCQ262146:OCR262146 OMM262146:OMN262146 OWI262146:OWJ262146 PGE262146:PGF262146 PQA262146:PQB262146 PZW262146:PZX262146 QJS262146:QJT262146 QTO262146:QTP262146 RDK262146:RDL262146 RNG262146:RNH262146 RXC262146:RXD262146 SGY262146:SGZ262146 SQU262146:SQV262146 TAQ262146:TAR262146 TKM262146:TKN262146 TUI262146:TUJ262146 UEE262146:UEF262146 UOA262146:UOB262146 UXW262146:UXX262146 VHS262146:VHT262146 VRO262146:VRP262146 WBK262146:WBL262146 WLG262146:WLH262146 WVC262146:WVD262146 E327682:F327682 IQ327682:IR327682 SM327682:SN327682 ACI327682:ACJ327682 AME327682:AMF327682 AWA327682:AWB327682 BFW327682:BFX327682 BPS327682:BPT327682 BZO327682:BZP327682 CJK327682:CJL327682 CTG327682:CTH327682 DDC327682:DDD327682 DMY327682:DMZ327682 DWU327682:DWV327682 EGQ327682:EGR327682 EQM327682:EQN327682 FAI327682:FAJ327682 FKE327682:FKF327682 FUA327682:FUB327682 GDW327682:GDX327682 GNS327682:GNT327682 GXO327682:GXP327682 HHK327682:HHL327682 HRG327682:HRH327682 IBC327682:IBD327682 IKY327682:IKZ327682 IUU327682:IUV327682 JEQ327682:JER327682 JOM327682:JON327682 JYI327682:JYJ327682 KIE327682:KIF327682 KSA327682:KSB327682 LBW327682:LBX327682 LLS327682:LLT327682 LVO327682:LVP327682 MFK327682:MFL327682 MPG327682:MPH327682 MZC327682:MZD327682 NIY327682:NIZ327682 NSU327682:NSV327682 OCQ327682:OCR327682 OMM327682:OMN327682 OWI327682:OWJ327682 PGE327682:PGF327682 PQA327682:PQB327682 PZW327682:PZX327682 QJS327682:QJT327682 QTO327682:QTP327682 RDK327682:RDL327682 RNG327682:RNH327682 RXC327682:RXD327682 SGY327682:SGZ327682 SQU327682:SQV327682 TAQ327682:TAR327682 TKM327682:TKN327682 TUI327682:TUJ327682 UEE327682:UEF327682 UOA327682:UOB327682 UXW327682:UXX327682 VHS327682:VHT327682 VRO327682:VRP327682 WBK327682:WBL327682 WLG327682:WLH327682 WVC327682:WVD327682 E393218:F393218 IQ393218:IR393218 SM393218:SN393218 ACI393218:ACJ393218 AME393218:AMF393218 AWA393218:AWB393218 BFW393218:BFX393218 BPS393218:BPT393218 BZO393218:BZP393218 CJK393218:CJL393218 CTG393218:CTH393218 DDC393218:DDD393218 DMY393218:DMZ393218 DWU393218:DWV393218 EGQ393218:EGR393218 EQM393218:EQN393218 FAI393218:FAJ393218 FKE393218:FKF393218 FUA393218:FUB393218 GDW393218:GDX393218 GNS393218:GNT393218 GXO393218:GXP393218 HHK393218:HHL393218 HRG393218:HRH393218 IBC393218:IBD393218 IKY393218:IKZ393218 IUU393218:IUV393218 JEQ393218:JER393218 JOM393218:JON393218 JYI393218:JYJ393218 KIE393218:KIF393218 KSA393218:KSB393218 LBW393218:LBX393218 LLS393218:LLT393218 LVO393218:LVP393218 MFK393218:MFL393218 MPG393218:MPH393218 MZC393218:MZD393218 NIY393218:NIZ393218 NSU393218:NSV393218 OCQ393218:OCR393218 OMM393218:OMN393218 OWI393218:OWJ393218 PGE393218:PGF393218 PQA393218:PQB393218 PZW393218:PZX393218 QJS393218:QJT393218 QTO393218:QTP393218 RDK393218:RDL393218 RNG393218:RNH393218 RXC393218:RXD393218 SGY393218:SGZ393218 SQU393218:SQV393218 TAQ393218:TAR393218 TKM393218:TKN393218 TUI393218:TUJ393218 UEE393218:UEF393218 UOA393218:UOB393218 UXW393218:UXX393218 VHS393218:VHT393218 VRO393218:VRP393218 WBK393218:WBL393218 WLG393218:WLH393218 WVC393218:WVD393218 E458754:F458754 IQ458754:IR458754 SM458754:SN458754 ACI458754:ACJ458754 AME458754:AMF458754 AWA458754:AWB458754 BFW458754:BFX458754 BPS458754:BPT458754 BZO458754:BZP458754 CJK458754:CJL458754 CTG458754:CTH458754 DDC458754:DDD458754 DMY458754:DMZ458754 DWU458754:DWV458754 EGQ458754:EGR458754 EQM458754:EQN458754 FAI458754:FAJ458754 FKE458754:FKF458754 FUA458754:FUB458754 GDW458754:GDX458754 GNS458754:GNT458754 GXO458754:GXP458754 HHK458754:HHL458754 HRG458754:HRH458754 IBC458754:IBD458754 IKY458754:IKZ458754 IUU458754:IUV458754 JEQ458754:JER458754 JOM458754:JON458754 JYI458754:JYJ458754 KIE458754:KIF458754 KSA458754:KSB458754 LBW458754:LBX458754 LLS458754:LLT458754 LVO458754:LVP458754 MFK458754:MFL458754 MPG458754:MPH458754 MZC458754:MZD458754 NIY458754:NIZ458754 NSU458754:NSV458754 OCQ458754:OCR458754 OMM458754:OMN458754 OWI458754:OWJ458754 PGE458754:PGF458754 PQA458754:PQB458754 PZW458754:PZX458754 QJS458754:QJT458754 QTO458754:QTP458754 RDK458754:RDL458754 RNG458754:RNH458754 RXC458754:RXD458754 SGY458754:SGZ458754 SQU458754:SQV458754 TAQ458754:TAR458754 TKM458754:TKN458754 TUI458754:TUJ458754 UEE458754:UEF458754 UOA458754:UOB458754 UXW458754:UXX458754 VHS458754:VHT458754 VRO458754:VRP458754 WBK458754:WBL458754 WLG458754:WLH458754 WVC458754:WVD458754 E524290:F524290 IQ524290:IR524290 SM524290:SN524290 ACI524290:ACJ524290 AME524290:AMF524290 AWA524290:AWB524290 BFW524290:BFX524290 BPS524290:BPT524290 BZO524290:BZP524290 CJK524290:CJL524290 CTG524290:CTH524290 DDC524290:DDD524290 DMY524290:DMZ524290 DWU524290:DWV524290 EGQ524290:EGR524290 EQM524290:EQN524290 FAI524290:FAJ524290 FKE524290:FKF524290 FUA524290:FUB524290 GDW524290:GDX524290 GNS524290:GNT524290 GXO524290:GXP524290 HHK524290:HHL524290 HRG524290:HRH524290 IBC524290:IBD524290 IKY524290:IKZ524290 IUU524290:IUV524290 JEQ524290:JER524290 JOM524290:JON524290 JYI524290:JYJ524290 KIE524290:KIF524290 KSA524290:KSB524290 LBW524290:LBX524290 LLS524290:LLT524290 LVO524290:LVP524290 MFK524290:MFL524290 MPG524290:MPH524290 MZC524290:MZD524290 NIY524290:NIZ524290 NSU524290:NSV524290 OCQ524290:OCR524290 OMM524290:OMN524290 OWI524290:OWJ524290 PGE524290:PGF524290 PQA524290:PQB524290 PZW524290:PZX524290 QJS524290:QJT524290 QTO524290:QTP524290 RDK524290:RDL524290 RNG524290:RNH524290 RXC524290:RXD524290 SGY524290:SGZ524290 SQU524290:SQV524290 TAQ524290:TAR524290 TKM524290:TKN524290 TUI524290:TUJ524290 UEE524290:UEF524290 UOA524290:UOB524290 UXW524290:UXX524290 VHS524290:VHT524290 VRO524290:VRP524290 WBK524290:WBL524290 WLG524290:WLH524290 WVC524290:WVD524290 E589826:F589826 IQ589826:IR589826 SM589826:SN589826 ACI589826:ACJ589826 AME589826:AMF589826 AWA589826:AWB589826 BFW589826:BFX589826 BPS589826:BPT589826 BZO589826:BZP589826 CJK589826:CJL589826 CTG589826:CTH589826 DDC589826:DDD589826 DMY589826:DMZ589826 DWU589826:DWV589826 EGQ589826:EGR589826 EQM589826:EQN589826 FAI589826:FAJ589826 FKE589826:FKF589826 FUA589826:FUB589826 GDW589826:GDX589826 GNS589826:GNT589826 GXO589826:GXP589826 HHK589826:HHL589826 HRG589826:HRH589826 IBC589826:IBD589826 IKY589826:IKZ589826 IUU589826:IUV589826 JEQ589826:JER589826 JOM589826:JON589826 JYI589826:JYJ589826 KIE589826:KIF589826 KSA589826:KSB589826 LBW589826:LBX589826 LLS589826:LLT589826 LVO589826:LVP589826 MFK589826:MFL589826 MPG589826:MPH589826 MZC589826:MZD589826 NIY589826:NIZ589826 NSU589826:NSV589826 OCQ589826:OCR589826 OMM589826:OMN589826 OWI589826:OWJ589826 PGE589826:PGF589826 PQA589826:PQB589826 PZW589826:PZX589826 QJS589826:QJT589826 QTO589826:QTP589826 RDK589826:RDL589826 RNG589826:RNH589826 RXC589826:RXD589826 SGY589826:SGZ589826 SQU589826:SQV589826 TAQ589826:TAR589826 TKM589826:TKN589826 TUI589826:TUJ589826 UEE589826:UEF589826 UOA589826:UOB589826 UXW589826:UXX589826 VHS589826:VHT589826 VRO589826:VRP589826 WBK589826:WBL589826 WLG589826:WLH589826 WVC589826:WVD589826 E655362:F655362 IQ655362:IR655362 SM655362:SN655362 ACI655362:ACJ655362 AME655362:AMF655362 AWA655362:AWB655362 BFW655362:BFX655362 BPS655362:BPT655362 BZO655362:BZP655362 CJK655362:CJL655362 CTG655362:CTH655362 DDC655362:DDD655362 DMY655362:DMZ655362 DWU655362:DWV655362 EGQ655362:EGR655362 EQM655362:EQN655362 FAI655362:FAJ655362 FKE655362:FKF655362 FUA655362:FUB655362 GDW655362:GDX655362 GNS655362:GNT655362 GXO655362:GXP655362 HHK655362:HHL655362 HRG655362:HRH655362 IBC655362:IBD655362 IKY655362:IKZ655362 IUU655362:IUV655362 JEQ655362:JER655362 JOM655362:JON655362 JYI655362:JYJ655362 KIE655362:KIF655362 KSA655362:KSB655362 LBW655362:LBX655362 LLS655362:LLT655362 LVO655362:LVP655362 MFK655362:MFL655362 MPG655362:MPH655362 MZC655362:MZD655362 NIY655362:NIZ655362 NSU655362:NSV655362 OCQ655362:OCR655362 OMM655362:OMN655362 OWI655362:OWJ655362 PGE655362:PGF655362 PQA655362:PQB655362 PZW655362:PZX655362 QJS655362:QJT655362 QTO655362:QTP655362 RDK655362:RDL655362 RNG655362:RNH655362 RXC655362:RXD655362 SGY655362:SGZ655362 SQU655362:SQV655362 TAQ655362:TAR655362 TKM655362:TKN655362 TUI655362:TUJ655362 UEE655362:UEF655362 UOA655362:UOB655362 UXW655362:UXX655362 VHS655362:VHT655362 VRO655362:VRP655362 WBK655362:WBL655362 WLG655362:WLH655362 WVC655362:WVD655362 E720898:F720898 IQ720898:IR720898 SM720898:SN720898 ACI720898:ACJ720898 AME720898:AMF720898 AWA720898:AWB720898 BFW720898:BFX720898 BPS720898:BPT720898 BZO720898:BZP720898 CJK720898:CJL720898 CTG720898:CTH720898 DDC720898:DDD720898 DMY720898:DMZ720898 DWU720898:DWV720898 EGQ720898:EGR720898 EQM720898:EQN720898 FAI720898:FAJ720898 FKE720898:FKF720898 FUA720898:FUB720898 GDW720898:GDX720898 GNS720898:GNT720898 GXO720898:GXP720898 HHK720898:HHL720898 HRG720898:HRH720898 IBC720898:IBD720898 IKY720898:IKZ720898 IUU720898:IUV720898 JEQ720898:JER720898 JOM720898:JON720898 JYI720898:JYJ720898 KIE720898:KIF720898 KSA720898:KSB720898 LBW720898:LBX720898 LLS720898:LLT720898 LVO720898:LVP720898 MFK720898:MFL720898 MPG720898:MPH720898 MZC720898:MZD720898 NIY720898:NIZ720898 NSU720898:NSV720898 OCQ720898:OCR720898 OMM720898:OMN720898 OWI720898:OWJ720898 PGE720898:PGF720898 PQA720898:PQB720898 PZW720898:PZX720898 QJS720898:QJT720898 QTO720898:QTP720898 RDK720898:RDL720898 RNG720898:RNH720898 RXC720898:RXD720898 SGY720898:SGZ720898 SQU720898:SQV720898 TAQ720898:TAR720898 TKM720898:TKN720898 TUI720898:TUJ720898 UEE720898:UEF720898 UOA720898:UOB720898 UXW720898:UXX720898 VHS720898:VHT720898 VRO720898:VRP720898 WBK720898:WBL720898 WLG720898:WLH720898 WVC720898:WVD720898 E786434:F786434 IQ786434:IR786434 SM786434:SN786434 ACI786434:ACJ786434 AME786434:AMF786434 AWA786434:AWB786434 BFW786434:BFX786434 BPS786434:BPT786434 BZO786434:BZP786434 CJK786434:CJL786434 CTG786434:CTH786434 DDC786434:DDD786434 DMY786434:DMZ786434 DWU786434:DWV786434 EGQ786434:EGR786434 EQM786434:EQN786434 FAI786434:FAJ786434 FKE786434:FKF786434 FUA786434:FUB786434 GDW786434:GDX786434 GNS786434:GNT786434 GXO786434:GXP786434 HHK786434:HHL786434 HRG786434:HRH786434 IBC786434:IBD786434 IKY786434:IKZ786434 IUU786434:IUV786434 JEQ786434:JER786434 JOM786434:JON786434 JYI786434:JYJ786434 KIE786434:KIF786434 KSA786434:KSB786434 LBW786434:LBX786434 LLS786434:LLT786434 LVO786434:LVP786434 MFK786434:MFL786434 MPG786434:MPH786434 MZC786434:MZD786434 NIY786434:NIZ786434 NSU786434:NSV786434 OCQ786434:OCR786434 OMM786434:OMN786434 OWI786434:OWJ786434 PGE786434:PGF786434 PQA786434:PQB786434 PZW786434:PZX786434 QJS786434:QJT786434 QTO786434:QTP786434 RDK786434:RDL786434 RNG786434:RNH786434 RXC786434:RXD786434 SGY786434:SGZ786434 SQU786434:SQV786434 TAQ786434:TAR786434 TKM786434:TKN786434 TUI786434:TUJ786434 UEE786434:UEF786434 UOA786434:UOB786434 UXW786434:UXX786434 VHS786434:VHT786434 VRO786434:VRP786434 WBK786434:WBL786434 WLG786434:WLH786434 WVC786434:WVD786434 E851970:F851970 IQ851970:IR851970 SM851970:SN851970 ACI851970:ACJ851970 AME851970:AMF851970 AWA851970:AWB851970 BFW851970:BFX851970 BPS851970:BPT851970 BZO851970:BZP851970 CJK851970:CJL851970 CTG851970:CTH851970 DDC851970:DDD851970 DMY851970:DMZ851970 DWU851970:DWV851970 EGQ851970:EGR851970 EQM851970:EQN851970 FAI851970:FAJ851970 FKE851970:FKF851970 FUA851970:FUB851970 GDW851970:GDX851970 GNS851970:GNT851970 GXO851970:GXP851970 HHK851970:HHL851970 HRG851970:HRH851970 IBC851970:IBD851970 IKY851970:IKZ851970 IUU851970:IUV851970 JEQ851970:JER851970 JOM851970:JON851970 JYI851970:JYJ851970 KIE851970:KIF851970 KSA851970:KSB851970 LBW851970:LBX851970 LLS851970:LLT851970 LVO851970:LVP851970 MFK851970:MFL851970 MPG851970:MPH851970 MZC851970:MZD851970 NIY851970:NIZ851970 NSU851970:NSV851970 OCQ851970:OCR851970 OMM851970:OMN851970 OWI851970:OWJ851970 PGE851970:PGF851970 PQA851970:PQB851970 PZW851970:PZX851970 QJS851970:QJT851970 QTO851970:QTP851970 RDK851970:RDL851970 RNG851970:RNH851970 RXC851970:RXD851970 SGY851970:SGZ851970 SQU851970:SQV851970 TAQ851970:TAR851970 TKM851970:TKN851970 TUI851970:TUJ851970 UEE851970:UEF851970 UOA851970:UOB851970 UXW851970:UXX851970 VHS851970:VHT851970 VRO851970:VRP851970 WBK851970:WBL851970 WLG851970:WLH851970 WVC851970:WVD851970 E917506:F917506 IQ917506:IR917506 SM917506:SN917506 ACI917506:ACJ917506 AME917506:AMF917506 AWA917506:AWB917506 BFW917506:BFX917506 BPS917506:BPT917506 BZO917506:BZP917506 CJK917506:CJL917506 CTG917506:CTH917506 DDC917506:DDD917506 DMY917506:DMZ917506 DWU917506:DWV917506 EGQ917506:EGR917506 EQM917506:EQN917506 FAI917506:FAJ917506 FKE917506:FKF917506 FUA917506:FUB917506 GDW917506:GDX917506 GNS917506:GNT917506 GXO917506:GXP917506 HHK917506:HHL917506 HRG917506:HRH917506 IBC917506:IBD917506 IKY917506:IKZ917506 IUU917506:IUV917506 JEQ917506:JER917506 JOM917506:JON917506 JYI917506:JYJ917506 KIE917506:KIF917506 KSA917506:KSB917506 LBW917506:LBX917506 LLS917506:LLT917506 LVO917506:LVP917506 MFK917506:MFL917506 MPG917506:MPH917506 MZC917506:MZD917506 NIY917506:NIZ917506 NSU917506:NSV917506 OCQ917506:OCR917506 OMM917506:OMN917506 OWI917506:OWJ917506 PGE917506:PGF917506 PQA917506:PQB917506 PZW917506:PZX917506 QJS917506:QJT917506 QTO917506:QTP917506 RDK917506:RDL917506 RNG917506:RNH917506 RXC917506:RXD917506 SGY917506:SGZ917506 SQU917506:SQV917506 TAQ917506:TAR917506 TKM917506:TKN917506 TUI917506:TUJ917506 UEE917506:UEF917506 UOA917506:UOB917506 UXW917506:UXX917506 VHS917506:VHT917506 VRO917506:VRP917506 WBK917506:WBL917506 WLG917506:WLH917506 WVC917506:WVD917506 E983042:F983042 IQ983042:IR983042 SM983042:SN983042 ACI983042:ACJ983042 AME983042:AMF983042 AWA983042:AWB983042 BFW983042:BFX983042 BPS983042:BPT983042 BZO983042:BZP983042 CJK983042:CJL983042 CTG983042:CTH983042 DDC983042:DDD983042 DMY983042:DMZ983042 DWU983042:DWV983042 EGQ983042:EGR983042 EQM983042:EQN983042 FAI983042:FAJ983042 FKE983042:FKF983042 FUA983042:FUB983042 GDW983042:GDX983042 GNS983042:GNT983042 GXO983042:GXP983042 HHK983042:HHL983042 HRG983042:HRH983042 IBC983042:IBD983042 IKY983042:IKZ983042 IUU983042:IUV983042 JEQ983042:JER983042 JOM983042:JON983042 JYI983042:JYJ983042 KIE983042:KIF983042 KSA983042:KSB983042 LBW983042:LBX983042 LLS983042:LLT983042 LVO983042:LVP983042 MFK983042:MFL983042 MPG983042:MPH983042 MZC983042:MZD983042 NIY983042:NIZ983042 NSU983042:NSV983042 OCQ983042:OCR983042 OMM983042:OMN983042 OWI983042:OWJ983042 PGE983042:PGF983042 PQA983042:PQB983042 PZW983042:PZX983042 QJS983042:QJT983042 QTO983042:QTP983042 RDK983042:RDL983042 RNG983042:RNH983042 RXC983042:RXD983042 SGY983042:SGZ983042 SQU983042:SQV983042 TAQ983042:TAR983042 TKM983042:TKN983042 TUI983042:TUJ983042 UEE983042:UEF983042 UOA983042:UOB983042 UXW983042:UXX983042 VHS983042:VHT983042 VRO983042:VRP983042 WBK983042:WBL983042 WLG983042:WLH983042 WVC983042:WVD983042 G6:G8 IS6:IS8 SO6:SO8 ACK6:ACK8 AMG6:AMG8 AWC6:AWC8 BFY6:BFY8 BPU6:BPU8 BZQ6:BZQ8 CJM6:CJM8 CTI6:CTI8 DDE6:DDE8 DNA6:DNA8 DWW6:DWW8 EGS6:EGS8 EQO6:EQO8 FAK6:FAK8 FKG6:FKG8 FUC6:FUC8 GDY6:GDY8 GNU6:GNU8 GXQ6:GXQ8 HHM6:HHM8 HRI6:HRI8 IBE6:IBE8 ILA6:ILA8 IUW6:IUW8 JES6:JES8 JOO6:JOO8 JYK6:JYK8 KIG6:KIG8 KSC6:KSC8 LBY6:LBY8 LLU6:LLU8 LVQ6:LVQ8 MFM6:MFM8 MPI6:MPI8 MZE6:MZE8 NJA6:NJA8 NSW6:NSW8 OCS6:OCS8 OMO6:OMO8 OWK6:OWK8 PGG6:PGG8 PQC6:PQC8 PZY6:PZY8 QJU6:QJU8 QTQ6:QTQ8 RDM6:RDM8 RNI6:RNI8 RXE6:RXE8 SHA6:SHA8 SQW6:SQW8 TAS6:TAS8 TKO6:TKO8 TUK6:TUK8 UEG6:UEG8 UOC6:UOC8 UXY6:UXY8 VHU6:VHU8 VRQ6:VRQ8 WBM6:WBM8 WLI6:WLI8 WVE6:WVE8 G65538:G65540 IS65538:IS65540 SO65538:SO65540 ACK65538:ACK65540 AMG65538:AMG65540 AWC65538:AWC65540 BFY65538:BFY65540 BPU65538:BPU65540 BZQ65538:BZQ65540 CJM65538:CJM65540 CTI65538:CTI65540 DDE65538:DDE65540 DNA65538:DNA65540 DWW65538:DWW65540 EGS65538:EGS65540 EQO65538:EQO65540 FAK65538:FAK65540 FKG65538:FKG65540 FUC65538:FUC65540 GDY65538:GDY65540 GNU65538:GNU65540 GXQ65538:GXQ65540 HHM65538:HHM65540 HRI65538:HRI65540 IBE65538:IBE65540 ILA65538:ILA65540 IUW65538:IUW65540 JES65538:JES65540 JOO65538:JOO65540 JYK65538:JYK65540 KIG65538:KIG65540 KSC65538:KSC65540 LBY65538:LBY65540 LLU65538:LLU65540 LVQ65538:LVQ65540 MFM65538:MFM65540 MPI65538:MPI65540 MZE65538:MZE65540 NJA65538:NJA65540 NSW65538:NSW65540 OCS65538:OCS65540 OMO65538:OMO65540 OWK65538:OWK65540 PGG65538:PGG65540 PQC65538:PQC65540 PZY65538:PZY65540 QJU65538:QJU65540 QTQ65538:QTQ65540 RDM65538:RDM65540 RNI65538:RNI65540 RXE65538:RXE65540 SHA65538:SHA65540 SQW65538:SQW65540 TAS65538:TAS65540 TKO65538:TKO65540 TUK65538:TUK65540 UEG65538:UEG65540 UOC65538:UOC65540 UXY65538:UXY65540 VHU65538:VHU65540 VRQ65538:VRQ65540 WBM65538:WBM65540 WLI65538:WLI65540 WVE65538:WVE65540 G131074:G131076 IS131074:IS131076 SO131074:SO131076 ACK131074:ACK131076 AMG131074:AMG131076 AWC131074:AWC131076 BFY131074:BFY131076 BPU131074:BPU131076 BZQ131074:BZQ131076 CJM131074:CJM131076 CTI131074:CTI131076 DDE131074:DDE131076 DNA131074:DNA131076 DWW131074:DWW131076 EGS131074:EGS131076 EQO131074:EQO131076 FAK131074:FAK131076 FKG131074:FKG131076 FUC131074:FUC131076 GDY131074:GDY131076 GNU131074:GNU131076 GXQ131074:GXQ131076 HHM131074:HHM131076 HRI131074:HRI131076 IBE131074:IBE131076 ILA131074:ILA131076 IUW131074:IUW131076 JES131074:JES131076 JOO131074:JOO131076 JYK131074:JYK131076 KIG131074:KIG131076 KSC131074:KSC131076 LBY131074:LBY131076 LLU131074:LLU131076 LVQ131074:LVQ131076 MFM131074:MFM131076 MPI131074:MPI131076 MZE131074:MZE131076 NJA131074:NJA131076 NSW131074:NSW131076 OCS131074:OCS131076 OMO131074:OMO131076 OWK131074:OWK131076 PGG131074:PGG131076 PQC131074:PQC131076 PZY131074:PZY131076 QJU131074:QJU131076 QTQ131074:QTQ131076 RDM131074:RDM131076 RNI131074:RNI131076 RXE131074:RXE131076 SHA131074:SHA131076 SQW131074:SQW131076 TAS131074:TAS131076 TKO131074:TKO131076 TUK131074:TUK131076 UEG131074:UEG131076 UOC131074:UOC131076 UXY131074:UXY131076 VHU131074:VHU131076 VRQ131074:VRQ131076 WBM131074:WBM131076 WLI131074:WLI131076 WVE131074:WVE131076 G196610:G196612 IS196610:IS196612 SO196610:SO196612 ACK196610:ACK196612 AMG196610:AMG196612 AWC196610:AWC196612 BFY196610:BFY196612 BPU196610:BPU196612 BZQ196610:BZQ196612 CJM196610:CJM196612 CTI196610:CTI196612 DDE196610:DDE196612 DNA196610:DNA196612 DWW196610:DWW196612 EGS196610:EGS196612 EQO196610:EQO196612 FAK196610:FAK196612 FKG196610:FKG196612 FUC196610:FUC196612 GDY196610:GDY196612 GNU196610:GNU196612 GXQ196610:GXQ196612 HHM196610:HHM196612 HRI196610:HRI196612 IBE196610:IBE196612 ILA196610:ILA196612 IUW196610:IUW196612 JES196610:JES196612 JOO196610:JOO196612 JYK196610:JYK196612 KIG196610:KIG196612 KSC196610:KSC196612 LBY196610:LBY196612 LLU196610:LLU196612 LVQ196610:LVQ196612 MFM196610:MFM196612 MPI196610:MPI196612 MZE196610:MZE196612 NJA196610:NJA196612 NSW196610:NSW196612 OCS196610:OCS196612 OMO196610:OMO196612 OWK196610:OWK196612 PGG196610:PGG196612 PQC196610:PQC196612 PZY196610:PZY196612 QJU196610:QJU196612 QTQ196610:QTQ196612 RDM196610:RDM196612 RNI196610:RNI196612 RXE196610:RXE196612 SHA196610:SHA196612 SQW196610:SQW196612 TAS196610:TAS196612 TKO196610:TKO196612 TUK196610:TUK196612 UEG196610:UEG196612 UOC196610:UOC196612 UXY196610:UXY196612 VHU196610:VHU196612 VRQ196610:VRQ196612 WBM196610:WBM196612 WLI196610:WLI196612 WVE196610:WVE196612 G262146:G262148 IS262146:IS262148 SO262146:SO262148 ACK262146:ACK262148 AMG262146:AMG262148 AWC262146:AWC262148 BFY262146:BFY262148 BPU262146:BPU262148 BZQ262146:BZQ262148 CJM262146:CJM262148 CTI262146:CTI262148 DDE262146:DDE262148 DNA262146:DNA262148 DWW262146:DWW262148 EGS262146:EGS262148 EQO262146:EQO262148 FAK262146:FAK262148 FKG262146:FKG262148 FUC262146:FUC262148 GDY262146:GDY262148 GNU262146:GNU262148 GXQ262146:GXQ262148 HHM262146:HHM262148 HRI262146:HRI262148 IBE262146:IBE262148 ILA262146:ILA262148 IUW262146:IUW262148 JES262146:JES262148 JOO262146:JOO262148 JYK262146:JYK262148 KIG262146:KIG262148 KSC262146:KSC262148 LBY262146:LBY262148 LLU262146:LLU262148 LVQ262146:LVQ262148 MFM262146:MFM262148 MPI262146:MPI262148 MZE262146:MZE262148 NJA262146:NJA262148 NSW262146:NSW262148 OCS262146:OCS262148 OMO262146:OMO262148 OWK262146:OWK262148 PGG262146:PGG262148 PQC262146:PQC262148 PZY262146:PZY262148 QJU262146:QJU262148 QTQ262146:QTQ262148 RDM262146:RDM262148 RNI262146:RNI262148 RXE262146:RXE262148 SHA262146:SHA262148 SQW262146:SQW262148 TAS262146:TAS262148 TKO262146:TKO262148 TUK262146:TUK262148 UEG262146:UEG262148 UOC262146:UOC262148 UXY262146:UXY262148 VHU262146:VHU262148 VRQ262146:VRQ262148 WBM262146:WBM262148 WLI262146:WLI262148 WVE262146:WVE262148 G327682:G327684 IS327682:IS327684 SO327682:SO327684 ACK327682:ACK327684 AMG327682:AMG327684 AWC327682:AWC327684 BFY327682:BFY327684 BPU327682:BPU327684 BZQ327682:BZQ327684 CJM327682:CJM327684 CTI327682:CTI327684 DDE327682:DDE327684 DNA327682:DNA327684 DWW327682:DWW327684 EGS327682:EGS327684 EQO327682:EQO327684 FAK327682:FAK327684 FKG327682:FKG327684 FUC327682:FUC327684 GDY327682:GDY327684 GNU327682:GNU327684 GXQ327682:GXQ327684 HHM327682:HHM327684 HRI327682:HRI327684 IBE327682:IBE327684 ILA327682:ILA327684 IUW327682:IUW327684 JES327682:JES327684 JOO327682:JOO327684 JYK327682:JYK327684 KIG327682:KIG327684 KSC327682:KSC327684 LBY327682:LBY327684 LLU327682:LLU327684 LVQ327682:LVQ327684 MFM327682:MFM327684 MPI327682:MPI327684 MZE327682:MZE327684 NJA327682:NJA327684 NSW327682:NSW327684 OCS327682:OCS327684 OMO327682:OMO327684 OWK327682:OWK327684 PGG327682:PGG327684 PQC327682:PQC327684 PZY327682:PZY327684 QJU327682:QJU327684 QTQ327682:QTQ327684 RDM327682:RDM327684 RNI327682:RNI327684 RXE327682:RXE327684 SHA327682:SHA327684 SQW327682:SQW327684 TAS327682:TAS327684 TKO327682:TKO327684 TUK327682:TUK327684 UEG327682:UEG327684 UOC327682:UOC327684 UXY327682:UXY327684 VHU327682:VHU327684 VRQ327682:VRQ327684 WBM327682:WBM327684 WLI327682:WLI327684 WVE327682:WVE327684 G393218:G393220 IS393218:IS393220 SO393218:SO393220 ACK393218:ACK393220 AMG393218:AMG393220 AWC393218:AWC393220 BFY393218:BFY393220 BPU393218:BPU393220 BZQ393218:BZQ393220 CJM393218:CJM393220 CTI393218:CTI393220 DDE393218:DDE393220 DNA393218:DNA393220 DWW393218:DWW393220 EGS393218:EGS393220 EQO393218:EQO393220 FAK393218:FAK393220 FKG393218:FKG393220 FUC393218:FUC393220 GDY393218:GDY393220 GNU393218:GNU393220 GXQ393218:GXQ393220 HHM393218:HHM393220 HRI393218:HRI393220 IBE393218:IBE393220 ILA393218:ILA393220 IUW393218:IUW393220 JES393218:JES393220 JOO393218:JOO393220 JYK393218:JYK393220 KIG393218:KIG393220 KSC393218:KSC393220 LBY393218:LBY393220 LLU393218:LLU393220 LVQ393218:LVQ393220 MFM393218:MFM393220 MPI393218:MPI393220 MZE393218:MZE393220 NJA393218:NJA393220 NSW393218:NSW393220 OCS393218:OCS393220 OMO393218:OMO393220 OWK393218:OWK393220 PGG393218:PGG393220 PQC393218:PQC393220 PZY393218:PZY393220 QJU393218:QJU393220 QTQ393218:QTQ393220 RDM393218:RDM393220 RNI393218:RNI393220 RXE393218:RXE393220 SHA393218:SHA393220 SQW393218:SQW393220 TAS393218:TAS393220 TKO393218:TKO393220 TUK393218:TUK393220 UEG393218:UEG393220 UOC393218:UOC393220 UXY393218:UXY393220 VHU393218:VHU393220 VRQ393218:VRQ393220 WBM393218:WBM393220 WLI393218:WLI393220 WVE393218:WVE393220 G458754:G458756 IS458754:IS458756 SO458754:SO458756 ACK458754:ACK458756 AMG458754:AMG458756 AWC458754:AWC458756 BFY458754:BFY458756 BPU458754:BPU458756 BZQ458754:BZQ458756 CJM458754:CJM458756 CTI458754:CTI458756 DDE458754:DDE458756 DNA458754:DNA458756 DWW458754:DWW458756 EGS458754:EGS458756 EQO458754:EQO458756 FAK458754:FAK458756 FKG458754:FKG458756 FUC458754:FUC458756 GDY458754:GDY458756 GNU458754:GNU458756 GXQ458754:GXQ458756 HHM458754:HHM458756 HRI458754:HRI458756 IBE458754:IBE458756 ILA458754:ILA458756 IUW458754:IUW458756 JES458754:JES458756 JOO458754:JOO458756 JYK458754:JYK458756 KIG458754:KIG458756 KSC458754:KSC458756 LBY458754:LBY458756 LLU458754:LLU458756 LVQ458754:LVQ458756 MFM458754:MFM458756 MPI458754:MPI458756 MZE458754:MZE458756 NJA458754:NJA458756 NSW458754:NSW458756 OCS458754:OCS458756 OMO458754:OMO458756 OWK458754:OWK458756 PGG458754:PGG458756 PQC458754:PQC458756 PZY458754:PZY458756 QJU458754:QJU458756 QTQ458754:QTQ458756 RDM458754:RDM458756 RNI458754:RNI458756 RXE458754:RXE458756 SHA458754:SHA458756 SQW458754:SQW458756 TAS458754:TAS458756 TKO458754:TKO458756 TUK458754:TUK458756 UEG458754:UEG458756 UOC458754:UOC458756 UXY458754:UXY458756 VHU458754:VHU458756 VRQ458754:VRQ458756 WBM458754:WBM458756 WLI458754:WLI458756 WVE458754:WVE458756 G524290:G524292 IS524290:IS524292 SO524290:SO524292 ACK524290:ACK524292 AMG524290:AMG524292 AWC524290:AWC524292 BFY524290:BFY524292 BPU524290:BPU524292 BZQ524290:BZQ524292 CJM524290:CJM524292 CTI524290:CTI524292 DDE524290:DDE524292 DNA524290:DNA524292 DWW524290:DWW524292 EGS524290:EGS524292 EQO524290:EQO524292 FAK524290:FAK524292 FKG524290:FKG524292 FUC524290:FUC524292 GDY524290:GDY524292 GNU524290:GNU524292 GXQ524290:GXQ524292 HHM524290:HHM524292 HRI524290:HRI524292 IBE524290:IBE524292 ILA524290:ILA524292 IUW524290:IUW524292 JES524290:JES524292 JOO524290:JOO524292 JYK524290:JYK524292 KIG524290:KIG524292 KSC524290:KSC524292 LBY524290:LBY524292 LLU524290:LLU524292 LVQ524290:LVQ524292 MFM524290:MFM524292 MPI524290:MPI524292 MZE524290:MZE524292 NJA524290:NJA524292 NSW524290:NSW524292 OCS524290:OCS524292 OMO524290:OMO524292 OWK524290:OWK524292 PGG524290:PGG524292 PQC524290:PQC524292 PZY524290:PZY524292 QJU524290:QJU524292 QTQ524290:QTQ524292 RDM524290:RDM524292 RNI524290:RNI524292 RXE524290:RXE524292 SHA524290:SHA524292 SQW524290:SQW524292 TAS524290:TAS524292 TKO524290:TKO524292 TUK524290:TUK524292 UEG524290:UEG524292 UOC524290:UOC524292 UXY524290:UXY524292 VHU524290:VHU524292 VRQ524290:VRQ524292 WBM524290:WBM524292 WLI524290:WLI524292 WVE524290:WVE524292 G589826:G589828 IS589826:IS589828 SO589826:SO589828 ACK589826:ACK589828 AMG589826:AMG589828 AWC589826:AWC589828 BFY589826:BFY589828 BPU589826:BPU589828 BZQ589826:BZQ589828 CJM589826:CJM589828 CTI589826:CTI589828 DDE589826:DDE589828 DNA589826:DNA589828 DWW589826:DWW589828 EGS589826:EGS589828 EQO589826:EQO589828 FAK589826:FAK589828 FKG589826:FKG589828 FUC589826:FUC589828 GDY589826:GDY589828 GNU589826:GNU589828 GXQ589826:GXQ589828 HHM589826:HHM589828 HRI589826:HRI589828 IBE589826:IBE589828 ILA589826:ILA589828 IUW589826:IUW589828 JES589826:JES589828 JOO589826:JOO589828 JYK589826:JYK589828 KIG589826:KIG589828 KSC589826:KSC589828 LBY589826:LBY589828 LLU589826:LLU589828 LVQ589826:LVQ589828 MFM589826:MFM589828 MPI589826:MPI589828 MZE589826:MZE589828 NJA589826:NJA589828 NSW589826:NSW589828 OCS589826:OCS589828 OMO589826:OMO589828 OWK589826:OWK589828 PGG589826:PGG589828 PQC589826:PQC589828 PZY589826:PZY589828 QJU589826:QJU589828 QTQ589826:QTQ589828 RDM589826:RDM589828 RNI589826:RNI589828 RXE589826:RXE589828 SHA589826:SHA589828 SQW589826:SQW589828 TAS589826:TAS589828 TKO589826:TKO589828 TUK589826:TUK589828 UEG589826:UEG589828 UOC589826:UOC589828 UXY589826:UXY589828 VHU589826:VHU589828 VRQ589826:VRQ589828 WBM589826:WBM589828 WLI589826:WLI589828 WVE589826:WVE589828 G655362:G655364 IS655362:IS655364 SO655362:SO655364 ACK655362:ACK655364 AMG655362:AMG655364 AWC655362:AWC655364 BFY655362:BFY655364 BPU655362:BPU655364 BZQ655362:BZQ655364 CJM655362:CJM655364 CTI655362:CTI655364 DDE655362:DDE655364 DNA655362:DNA655364 DWW655362:DWW655364 EGS655362:EGS655364 EQO655362:EQO655364 FAK655362:FAK655364 FKG655362:FKG655364 FUC655362:FUC655364 GDY655362:GDY655364 GNU655362:GNU655364 GXQ655362:GXQ655364 HHM655362:HHM655364 HRI655362:HRI655364 IBE655362:IBE655364 ILA655362:ILA655364 IUW655362:IUW655364 JES655362:JES655364 JOO655362:JOO655364 JYK655362:JYK655364 KIG655362:KIG655364 KSC655362:KSC655364 LBY655362:LBY655364 LLU655362:LLU655364 LVQ655362:LVQ655364 MFM655362:MFM655364 MPI655362:MPI655364 MZE655362:MZE655364 NJA655362:NJA655364 NSW655362:NSW655364 OCS655362:OCS655364 OMO655362:OMO655364 OWK655362:OWK655364 PGG655362:PGG655364 PQC655362:PQC655364 PZY655362:PZY655364 QJU655362:QJU655364 QTQ655362:QTQ655364 RDM655362:RDM655364 RNI655362:RNI655364 RXE655362:RXE655364 SHA655362:SHA655364 SQW655362:SQW655364 TAS655362:TAS655364 TKO655362:TKO655364 TUK655362:TUK655364 UEG655362:UEG655364 UOC655362:UOC655364 UXY655362:UXY655364 VHU655362:VHU655364 VRQ655362:VRQ655364 WBM655362:WBM655364 WLI655362:WLI655364 WVE655362:WVE655364 G720898:G720900 IS720898:IS720900 SO720898:SO720900 ACK720898:ACK720900 AMG720898:AMG720900 AWC720898:AWC720900 BFY720898:BFY720900 BPU720898:BPU720900 BZQ720898:BZQ720900 CJM720898:CJM720900 CTI720898:CTI720900 DDE720898:DDE720900 DNA720898:DNA720900 DWW720898:DWW720900 EGS720898:EGS720900 EQO720898:EQO720900 FAK720898:FAK720900 FKG720898:FKG720900 FUC720898:FUC720900 GDY720898:GDY720900 GNU720898:GNU720900 GXQ720898:GXQ720900 HHM720898:HHM720900 HRI720898:HRI720900 IBE720898:IBE720900 ILA720898:ILA720900 IUW720898:IUW720900 JES720898:JES720900 JOO720898:JOO720900 JYK720898:JYK720900 KIG720898:KIG720900 KSC720898:KSC720900 LBY720898:LBY720900 LLU720898:LLU720900 LVQ720898:LVQ720900 MFM720898:MFM720900 MPI720898:MPI720900 MZE720898:MZE720900 NJA720898:NJA720900 NSW720898:NSW720900 OCS720898:OCS720900 OMO720898:OMO720900 OWK720898:OWK720900 PGG720898:PGG720900 PQC720898:PQC720900 PZY720898:PZY720900 QJU720898:QJU720900 QTQ720898:QTQ720900 RDM720898:RDM720900 RNI720898:RNI720900 RXE720898:RXE720900 SHA720898:SHA720900 SQW720898:SQW720900 TAS720898:TAS720900 TKO720898:TKO720900 TUK720898:TUK720900 UEG720898:UEG720900 UOC720898:UOC720900 UXY720898:UXY720900 VHU720898:VHU720900 VRQ720898:VRQ720900 WBM720898:WBM720900 WLI720898:WLI720900 WVE720898:WVE720900 G786434:G786436 IS786434:IS786436 SO786434:SO786436 ACK786434:ACK786436 AMG786434:AMG786436 AWC786434:AWC786436 BFY786434:BFY786436 BPU786434:BPU786436 BZQ786434:BZQ786436 CJM786434:CJM786436 CTI786434:CTI786436 DDE786434:DDE786436 DNA786434:DNA786436 DWW786434:DWW786436 EGS786434:EGS786436 EQO786434:EQO786436 FAK786434:FAK786436 FKG786434:FKG786436 FUC786434:FUC786436 GDY786434:GDY786436 GNU786434:GNU786436 GXQ786434:GXQ786436 HHM786434:HHM786436 HRI786434:HRI786436 IBE786434:IBE786436 ILA786434:ILA786436 IUW786434:IUW786436 JES786434:JES786436 JOO786434:JOO786436 JYK786434:JYK786436 KIG786434:KIG786436 KSC786434:KSC786436 LBY786434:LBY786436 LLU786434:LLU786436 LVQ786434:LVQ786436 MFM786434:MFM786436 MPI786434:MPI786436 MZE786434:MZE786436 NJA786434:NJA786436 NSW786434:NSW786436 OCS786434:OCS786436 OMO786434:OMO786436 OWK786434:OWK786436 PGG786434:PGG786436 PQC786434:PQC786436 PZY786434:PZY786436 QJU786434:QJU786436 QTQ786434:QTQ786436 RDM786434:RDM786436 RNI786434:RNI786436 RXE786434:RXE786436 SHA786434:SHA786436 SQW786434:SQW786436 TAS786434:TAS786436 TKO786434:TKO786436 TUK786434:TUK786436 UEG786434:UEG786436 UOC786434:UOC786436 UXY786434:UXY786436 VHU786434:VHU786436 VRQ786434:VRQ786436 WBM786434:WBM786436 WLI786434:WLI786436 WVE786434:WVE786436 G851970:G851972 IS851970:IS851972 SO851970:SO851972 ACK851970:ACK851972 AMG851970:AMG851972 AWC851970:AWC851972 BFY851970:BFY851972 BPU851970:BPU851972 BZQ851970:BZQ851972 CJM851970:CJM851972 CTI851970:CTI851972 DDE851970:DDE851972 DNA851970:DNA851972 DWW851970:DWW851972 EGS851970:EGS851972 EQO851970:EQO851972 FAK851970:FAK851972 FKG851970:FKG851972 FUC851970:FUC851972 GDY851970:GDY851972 GNU851970:GNU851972 GXQ851970:GXQ851972 HHM851970:HHM851972 HRI851970:HRI851972 IBE851970:IBE851972 ILA851970:ILA851972 IUW851970:IUW851972 JES851970:JES851972 JOO851970:JOO851972 JYK851970:JYK851972 KIG851970:KIG851972 KSC851970:KSC851972 LBY851970:LBY851972 LLU851970:LLU851972 LVQ851970:LVQ851972 MFM851970:MFM851972 MPI851970:MPI851972 MZE851970:MZE851972 NJA851970:NJA851972 NSW851970:NSW851972 OCS851970:OCS851972 OMO851970:OMO851972 OWK851970:OWK851972 PGG851970:PGG851972 PQC851970:PQC851972 PZY851970:PZY851972 QJU851970:QJU851972 QTQ851970:QTQ851972 RDM851970:RDM851972 RNI851970:RNI851972 RXE851970:RXE851972 SHA851970:SHA851972 SQW851970:SQW851972 TAS851970:TAS851972 TKO851970:TKO851972 TUK851970:TUK851972 UEG851970:UEG851972 UOC851970:UOC851972 UXY851970:UXY851972 VHU851970:VHU851972 VRQ851970:VRQ851972 WBM851970:WBM851972 WLI851970:WLI851972 WVE851970:WVE851972 G917506:G917508 IS917506:IS917508 SO917506:SO917508 ACK917506:ACK917508 AMG917506:AMG917508 AWC917506:AWC917508 BFY917506:BFY917508 BPU917506:BPU917508 BZQ917506:BZQ917508 CJM917506:CJM917508 CTI917506:CTI917508 DDE917506:DDE917508 DNA917506:DNA917508 DWW917506:DWW917508 EGS917506:EGS917508 EQO917506:EQO917508 FAK917506:FAK917508 FKG917506:FKG917508 FUC917506:FUC917508 GDY917506:GDY917508 GNU917506:GNU917508 GXQ917506:GXQ917508 HHM917506:HHM917508 HRI917506:HRI917508 IBE917506:IBE917508 ILA917506:ILA917508 IUW917506:IUW917508 JES917506:JES917508 JOO917506:JOO917508 JYK917506:JYK917508 KIG917506:KIG917508 KSC917506:KSC917508 LBY917506:LBY917508 LLU917506:LLU917508 LVQ917506:LVQ917508 MFM917506:MFM917508 MPI917506:MPI917508 MZE917506:MZE917508 NJA917506:NJA917508 NSW917506:NSW917508 OCS917506:OCS917508 OMO917506:OMO917508 OWK917506:OWK917508 PGG917506:PGG917508 PQC917506:PQC917508 PZY917506:PZY917508 QJU917506:QJU917508 QTQ917506:QTQ917508 RDM917506:RDM917508 RNI917506:RNI917508 RXE917506:RXE917508 SHA917506:SHA917508 SQW917506:SQW917508 TAS917506:TAS917508 TKO917506:TKO917508 TUK917506:TUK917508 UEG917506:UEG917508 UOC917506:UOC917508 UXY917506:UXY917508 VHU917506:VHU917508 VRQ917506:VRQ917508 WBM917506:WBM917508 WLI917506:WLI917508 WVE917506:WVE917508 G983042:G983044 IS983042:IS983044 SO983042:SO983044 ACK983042:ACK983044 AMG983042:AMG983044 AWC983042:AWC983044 BFY983042:BFY983044 BPU983042:BPU983044 BZQ983042:BZQ983044 CJM983042:CJM983044 CTI983042:CTI983044 DDE983042:DDE983044 DNA983042:DNA983044 DWW983042:DWW983044 EGS983042:EGS983044 EQO983042:EQO983044 FAK983042:FAK983044 FKG983042:FKG983044 FUC983042:FUC983044 GDY983042:GDY983044 GNU983042:GNU983044 GXQ983042:GXQ983044 HHM983042:HHM983044 HRI983042:HRI983044 IBE983042:IBE983044 ILA983042:ILA983044 IUW983042:IUW983044 JES983042:JES983044 JOO983042:JOO983044 JYK983042:JYK983044 KIG983042:KIG983044 KSC983042:KSC983044 LBY983042:LBY983044 LLU983042:LLU983044 LVQ983042:LVQ983044 MFM983042:MFM983044 MPI983042:MPI983044 MZE983042:MZE983044 NJA983042:NJA983044 NSW983042:NSW983044 OCS983042:OCS983044 OMO983042:OMO983044 OWK983042:OWK983044 PGG983042:PGG983044 PQC983042:PQC983044 PZY983042:PZY983044 QJU983042:QJU983044 QTQ983042:QTQ983044 RDM983042:RDM983044 RNI983042:RNI983044 RXE983042:RXE983044 SHA983042:SHA983044 SQW983042:SQW983044 TAS983042:TAS983044 TKO983042:TKO983044 TUK983042:TUK983044 UEG983042:UEG983044 UOC983042:UOC983044 UXY983042:UXY983044 VHU983042:VHU983044 VRQ983042:VRQ983044 WBM983042:WBM983044 WLI983042:WLI983044 WVE983042:WVE983044 H6:L6 IT6:IU6 SP6:SQ6 ACL6:ACM6 AMH6:AMI6 AWD6:AWE6 BFZ6:BGA6 BPV6:BPW6 BZR6:BZS6 CJN6:CJO6 CTJ6:CTK6 DDF6:DDG6 DNB6:DNC6 DWX6:DWY6 EGT6:EGU6 EQP6:EQQ6 FAL6:FAM6 FKH6:FKI6 FUD6:FUE6 GDZ6:GEA6 GNV6:GNW6 GXR6:GXS6 HHN6:HHO6 HRJ6:HRK6 IBF6:IBG6 ILB6:ILC6 IUX6:IUY6 JET6:JEU6 JOP6:JOQ6 JYL6:JYM6 KIH6:KII6 KSD6:KSE6 LBZ6:LCA6 LLV6:LLW6 LVR6:LVS6 MFN6:MFO6 MPJ6:MPK6 MZF6:MZG6 NJB6:NJC6 NSX6:NSY6 OCT6:OCU6 OMP6:OMQ6 OWL6:OWM6 PGH6:PGI6 PQD6:PQE6 PZZ6:QAA6 QJV6:QJW6 QTR6:QTS6 RDN6:RDO6 RNJ6:RNK6 RXF6:RXG6 SHB6:SHC6 SQX6:SQY6 TAT6:TAU6 TKP6:TKQ6 TUL6:TUM6 UEH6:UEI6 UOD6:UOE6 UXZ6:UYA6 VHV6:VHW6 VRR6:VRS6 WBN6:WBO6 WLJ6:WLK6 WVF6:WVG6 IT65538:IU65538 SP65538:SQ65538 ACL65538:ACM65538 AMH65538:AMI65538 AWD65538:AWE65538 BFZ65538:BGA65538 BPV65538:BPW65538 BZR65538:BZS65538 CJN65538:CJO65538 CTJ65538:CTK65538 DDF65538:DDG65538 DNB65538:DNC65538 DWX65538:DWY65538 EGT65538:EGU65538 EQP65538:EQQ65538 FAL65538:FAM65538 FKH65538:FKI65538 FUD65538:FUE65538 GDZ65538:GEA65538 GNV65538:GNW65538 GXR65538:GXS65538 HHN65538:HHO65538 HRJ65538:HRK65538 IBF65538:IBG65538 ILB65538:ILC65538 IUX65538:IUY65538 JET65538:JEU65538 JOP65538:JOQ65538 JYL65538:JYM65538 KIH65538:KII65538 KSD65538:KSE65538 LBZ65538:LCA65538 LLV65538:LLW65538 LVR65538:LVS65538 MFN65538:MFO65538 MPJ65538:MPK65538 MZF65538:MZG65538 NJB65538:NJC65538 NSX65538:NSY65538 OCT65538:OCU65538 OMP65538:OMQ65538 OWL65538:OWM65538 PGH65538:PGI65538 PQD65538:PQE65538 PZZ65538:QAA65538 QJV65538:QJW65538 QTR65538:QTS65538 RDN65538:RDO65538 RNJ65538:RNK65538 RXF65538:RXG65538 SHB65538:SHC65538 SQX65538:SQY65538 TAT65538:TAU65538 TKP65538:TKQ65538 TUL65538:TUM65538 UEH65538:UEI65538 UOD65538:UOE65538 UXZ65538:UYA65538 VHV65538:VHW65538 VRR65538:VRS65538 WBN65538:WBO65538 WLJ65538:WLK65538 WVF65538:WVG65538 IT131074:IU131074 SP131074:SQ131074 ACL131074:ACM131074 AMH131074:AMI131074 AWD131074:AWE131074 BFZ131074:BGA131074 BPV131074:BPW131074 BZR131074:BZS131074 CJN131074:CJO131074 CTJ131074:CTK131074 DDF131074:DDG131074 DNB131074:DNC131074 DWX131074:DWY131074 EGT131074:EGU131074 EQP131074:EQQ131074 FAL131074:FAM131074 FKH131074:FKI131074 FUD131074:FUE131074 GDZ131074:GEA131074 GNV131074:GNW131074 GXR131074:GXS131074 HHN131074:HHO131074 HRJ131074:HRK131074 IBF131074:IBG131074 ILB131074:ILC131074 IUX131074:IUY131074 JET131074:JEU131074 JOP131074:JOQ131074 JYL131074:JYM131074 KIH131074:KII131074 KSD131074:KSE131074 LBZ131074:LCA131074 LLV131074:LLW131074 LVR131074:LVS131074 MFN131074:MFO131074 MPJ131074:MPK131074 MZF131074:MZG131074 NJB131074:NJC131074 NSX131074:NSY131074 OCT131074:OCU131074 OMP131074:OMQ131074 OWL131074:OWM131074 PGH131074:PGI131074 PQD131074:PQE131074 PZZ131074:QAA131074 QJV131074:QJW131074 QTR131074:QTS131074 RDN131074:RDO131074 RNJ131074:RNK131074 RXF131074:RXG131074 SHB131074:SHC131074 SQX131074:SQY131074 TAT131074:TAU131074 TKP131074:TKQ131074 TUL131074:TUM131074 UEH131074:UEI131074 UOD131074:UOE131074 UXZ131074:UYA131074 VHV131074:VHW131074 VRR131074:VRS131074 WBN131074:WBO131074 WLJ131074:WLK131074 WVF131074:WVG131074 IT196610:IU196610 SP196610:SQ196610 ACL196610:ACM196610 AMH196610:AMI196610 AWD196610:AWE196610 BFZ196610:BGA196610 BPV196610:BPW196610 BZR196610:BZS196610 CJN196610:CJO196610 CTJ196610:CTK196610 DDF196610:DDG196610 DNB196610:DNC196610 DWX196610:DWY196610 EGT196610:EGU196610 EQP196610:EQQ196610 FAL196610:FAM196610 FKH196610:FKI196610 FUD196610:FUE196610 GDZ196610:GEA196610 GNV196610:GNW196610 GXR196610:GXS196610 HHN196610:HHO196610 HRJ196610:HRK196610 IBF196610:IBG196610 ILB196610:ILC196610 IUX196610:IUY196610 JET196610:JEU196610 JOP196610:JOQ196610 JYL196610:JYM196610 KIH196610:KII196610 KSD196610:KSE196610 LBZ196610:LCA196610 LLV196610:LLW196610 LVR196610:LVS196610 MFN196610:MFO196610 MPJ196610:MPK196610 MZF196610:MZG196610 NJB196610:NJC196610 NSX196610:NSY196610 OCT196610:OCU196610 OMP196610:OMQ196610 OWL196610:OWM196610 PGH196610:PGI196610 PQD196610:PQE196610 PZZ196610:QAA196610 QJV196610:QJW196610 QTR196610:QTS196610 RDN196610:RDO196610 RNJ196610:RNK196610 RXF196610:RXG196610 SHB196610:SHC196610 SQX196610:SQY196610 TAT196610:TAU196610 TKP196610:TKQ196610 TUL196610:TUM196610 UEH196610:UEI196610 UOD196610:UOE196610 UXZ196610:UYA196610 VHV196610:VHW196610 VRR196610:VRS196610 WBN196610:WBO196610 WLJ196610:WLK196610 WVF196610:WVG196610 IT262146:IU262146 SP262146:SQ262146 ACL262146:ACM262146 AMH262146:AMI262146 AWD262146:AWE262146 BFZ262146:BGA262146 BPV262146:BPW262146 BZR262146:BZS262146 CJN262146:CJO262146 CTJ262146:CTK262146 DDF262146:DDG262146 DNB262146:DNC262146 DWX262146:DWY262146 EGT262146:EGU262146 EQP262146:EQQ262146 FAL262146:FAM262146 FKH262146:FKI262146 FUD262146:FUE262146 GDZ262146:GEA262146 GNV262146:GNW262146 GXR262146:GXS262146 HHN262146:HHO262146 HRJ262146:HRK262146 IBF262146:IBG262146 ILB262146:ILC262146 IUX262146:IUY262146 JET262146:JEU262146 JOP262146:JOQ262146 JYL262146:JYM262146 KIH262146:KII262146 KSD262146:KSE262146 LBZ262146:LCA262146 LLV262146:LLW262146 LVR262146:LVS262146 MFN262146:MFO262146 MPJ262146:MPK262146 MZF262146:MZG262146 NJB262146:NJC262146 NSX262146:NSY262146 OCT262146:OCU262146 OMP262146:OMQ262146 OWL262146:OWM262146 PGH262146:PGI262146 PQD262146:PQE262146 PZZ262146:QAA262146 QJV262146:QJW262146 QTR262146:QTS262146 RDN262146:RDO262146 RNJ262146:RNK262146 RXF262146:RXG262146 SHB262146:SHC262146 SQX262146:SQY262146 TAT262146:TAU262146 TKP262146:TKQ262146 TUL262146:TUM262146 UEH262146:UEI262146 UOD262146:UOE262146 UXZ262146:UYA262146 VHV262146:VHW262146 VRR262146:VRS262146 WBN262146:WBO262146 WLJ262146:WLK262146 WVF262146:WVG262146 IT327682:IU327682 SP327682:SQ327682 ACL327682:ACM327682 AMH327682:AMI327682 AWD327682:AWE327682 BFZ327682:BGA327682 BPV327682:BPW327682 BZR327682:BZS327682 CJN327682:CJO327682 CTJ327682:CTK327682 DDF327682:DDG327682 DNB327682:DNC327682 DWX327682:DWY327682 EGT327682:EGU327682 EQP327682:EQQ327682 FAL327682:FAM327682 FKH327682:FKI327682 FUD327682:FUE327682 GDZ327682:GEA327682 GNV327682:GNW327682 GXR327682:GXS327682 HHN327682:HHO327682 HRJ327682:HRK327682 IBF327682:IBG327682 ILB327682:ILC327682 IUX327682:IUY327682 JET327682:JEU327682 JOP327682:JOQ327682 JYL327682:JYM327682 KIH327682:KII327682 KSD327682:KSE327682 LBZ327682:LCA327682 LLV327682:LLW327682 LVR327682:LVS327682 MFN327682:MFO327682 MPJ327682:MPK327682 MZF327682:MZG327682 NJB327682:NJC327682 NSX327682:NSY327682 OCT327682:OCU327682 OMP327682:OMQ327682 OWL327682:OWM327682 PGH327682:PGI327682 PQD327682:PQE327682 PZZ327682:QAA327682 QJV327682:QJW327682 QTR327682:QTS327682 RDN327682:RDO327682 RNJ327682:RNK327682 RXF327682:RXG327682 SHB327682:SHC327682 SQX327682:SQY327682 TAT327682:TAU327682 TKP327682:TKQ327682 TUL327682:TUM327682 UEH327682:UEI327682 UOD327682:UOE327682 UXZ327682:UYA327682 VHV327682:VHW327682 VRR327682:VRS327682 WBN327682:WBO327682 WLJ327682:WLK327682 WVF327682:WVG327682 IT393218:IU393218 SP393218:SQ393218 ACL393218:ACM393218 AMH393218:AMI393218 AWD393218:AWE393218 BFZ393218:BGA393218 BPV393218:BPW393218 BZR393218:BZS393218 CJN393218:CJO393218 CTJ393218:CTK393218 DDF393218:DDG393218 DNB393218:DNC393218 DWX393218:DWY393218 EGT393218:EGU393218 EQP393218:EQQ393218 FAL393218:FAM393218 FKH393218:FKI393218 FUD393218:FUE393218 GDZ393218:GEA393218 GNV393218:GNW393218 GXR393218:GXS393218 HHN393218:HHO393218 HRJ393218:HRK393218 IBF393218:IBG393218 ILB393218:ILC393218 IUX393218:IUY393218 JET393218:JEU393218 JOP393218:JOQ393218 JYL393218:JYM393218 KIH393218:KII393218 KSD393218:KSE393218 LBZ393218:LCA393218 LLV393218:LLW393218 LVR393218:LVS393218 MFN393218:MFO393218 MPJ393218:MPK393218 MZF393218:MZG393218 NJB393218:NJC393218 NSX393218:NSY393218 OCT393218:OCU393218 OMP393218:OMQ393218 OWL393218:OWM393218 PGH393218:PGI393218 PQD393218:PQE393218 PZZ393218:QAA393218 QJV393218:QJW393218 QTR393218:QTS393218 RDN393218:RDO393218 RNJ393218:RNK393218 RXF393218:RXG393218 SHB393218:SHC393218 SQX393218:SQY393218 TAT393218:TAU393218 TKP393218:TKQ393218 TUL393218:TUM393218 UEH393218:UEI393218 UOD393218:UOE393218 UXZ393218:UYA393218 VHV393218:VHW393218 VRR393218:VRS393218 WBN393218:WBO393218 WLJ393218:WLK393218 WVF393218:WVG393218 IT458754:IU458754 SP458754:SQ458754 ACL458754:ACM458754 AMH458754:AMI458754 AWD458754:AWE458754 BFZ458754:BGA458754 BPV458754:BPW458754 BZR458754:BZS458754 CJN458754:CJO458754 CTJ458754:CTK458754 DDF458754:DDG458754 DNB458754:DNC458754 DWX458754:DWY458754 EGT458754:EGU458754 EQP458754:EQQ458754 FAL458754:FAM458754 FKH458754:FKI458754 FUD458754:FUE458754 GDZ458754:GEA458754 GNV458754:GNW458754 GXR458754:GXS458754 HHN458754:HHO458754 HRJ458754:HRK458754 IBF458754:IBG458754 ILB458754:ILC458754 IUX458754:IUY458754 JET458754:JEU458754 JOP458754:JOQ458754 JYL458754:JYM458754 KIH458754:KII458754 KSD458754:KSE458754 LBZ458754:LCA458754 LLV458754:LLW458754 LVR458754:LVS458754 MFN458754:MFO458754 MPJ458754:MPK458754 MZF458754:MZG458754 NJB458754:NJC458754 NSX458754:NSY458754 OCT458754:OCU458754 OMP458754:OMQ458754 OWL458754:OWM458754 PGH458754:PGI458754 PQD458754:PQE458754 PZZ458754:QAA458754 QJV458754:QJW458754 QTR458754:QTS458754 RDN458754:RDO458754 RNJ458754:RNK458754 RXF458754:RXG458754 SHB458754:SHC458754 SQX458754:SQY458754 TAT458754:TAU458754 TKP458754:TKQ458754 TUL458754:TUM458754 UEH458754:UEI458754 UOD458754:UOE458754 UXZ458754:UYA458754 VHV458754:VHW458754 VRR458754:VRS458754 WBN458754:WBO458754 WLJ458754:WLK458754 WVF458754:WVG458754 IT524290:IU524290 SP524290:SQ524290 ACL524290:ACM524290 AMH524290:AMI524290 AWD524290:AWE524290 BFZ524290:BGA524290 BPV524290:BPW524290 BZR524290:BZS524290 CJN524290:CJO524290 CTJ524290:CTK524290 DDF524290:DDG524290 DNB524290:DNC524290 DWX524290:DWY524290 EGT524290:EGU524290 EQP524290:EQQ524290 FAL524290:FAM524290 FKH524290:FKI524290 FUD524290:FUE524290 GDZ524290:GEA524290 GNV524290:GNW524290 GXR524290:GXS524290 HHN524290:HHO524290 HRJ524290:HRK524290 IBF524290:IBG524290 ILB524290:ILC524290 IUX524290:IUY524290 JET524290:JEU524290 JOP524290:JOQ524290 JYL524290:JYM524290 KIH524290:KII524290 KSD524290:KSE524290 LBZ524290:LCA524290 LLV524290:LLW524290 LVR524290:LVS524290 MFN524290:MFO524290 MPJ524290:MPK524290 MZF524290:MZG524290 NJB524290:NJC524290 NSX524290:NSY524290 OCT524290:OCU524290 OMP524290:OMQ524290 OWL524290:OWM524290 PGH524290:PGI524290 PQD524290:PQE524290 PZZ524290:QAA524290 QJV524290:QJW524290 QTR524290:QTS524290 RDN524290:RDO524290 RNJ524290:RNK524290 RXF524290:RXG524290 SHB524290:SHC524290 SQX524290:SQY524290 TAT524290:TAU524290 TKP524290:TKQ524290 TUL524290:TUM524290 UEH524290:UEI524290 UOD524290:UOE524290 UXZ524290:UYA524290 VHV524290:VHW524290 VRR524290:VRS524290 WBN524290:WBO524290 WLJ524290:WLK524290 WVF524290:WVG524290 IT589826:IU589826 SP589826:SQ589826 ACL589826:ACM589826 AMH589826:AMI589826 AWD589826:AWE589826 BFZ589826:BGA589826 BPV589826:BPW589826 BZR589826:BZS589826 CJN589826:CJO589826 CTJ589826:CTK589826 DDF589826:DDG589826 DNB589826:DNC589826 DWX589826:DWY589826 EGT589826:EGU589826 EQP589826:EQQ589826 FAL589826:FAM589826 FKH589826:FKI589826 FUD589826:FUE589826 GDZ589826:GEA589826 GNV589826:GNW589826 GXR589826:GXS589826 HHN589826:HHO589826 HRJ589826:HRK589826 IBF589826:IBG589826 ILB589826:ILC589826 IUX589826:IUY589826 JET589826:JEU589826 JOP589826:JOQ589826 JYL589826:JYM589826 KIH589826:KII589826 KSD589826:KSE589826 LBZ589826:LCA589826 LLV589826:LLW589826 LVR589826:LVS589826 MFN589826:MFO589826 MPJ589826:MPK589826 MZF589826:MZG589826 NJB589826:NJC589826 NSX589826:NSY589826 OCT589826:OCU589826 OMP589826:OMQ589826 OWL589826:OWM589826 PGH589826:PGI589826 PQD589826:PQE589826 PZZ589826:QAA589826 QJV589826:QJW589826 QTR589826:QTS589826 RDN589826:RDO589826 RNJ589826:RNK589826 RXF589826:RXG589826 SHB589826:SHC589826 SQX589826:SQY589826 TAT589826:TAU589826 TKP589826:TKQ589826 TUL589826:TUM589826 UEH589826:UEI589826 UOD589826:UOE589826 UXZ589826:UYA589826 VHV589826:VHW589826 VRR589826:VRS589826 WBN589826:WBO589826 WLJ589826:WLK589826 WVF589826:WVG589826 IT655362:IU655362 SP655362:SQ655362 ACL655362:ACM655362 AMH655362:AMI655362 AWD655362:AWE655362 BFZ655362:BGA655362 BPV655362:BPW655362 BZR655362:BZS655362 CJN655362:CJO655362 CTJ655362:CTK655362 DDF655362:DDG655362 DNB655362:DNC655362 DWX655362:DWY655362 EGT655362:EGU655362 EQP655362:EQQ655362 FAL655362:FAM655362 FKH655362:FKI655362 FUD655362:FUE655362 GDZ655362:GEA655362 GNV655362:GNW655362 GXR655362:GXS655362 HHN655362:HHO655362 HRJ655362:HRK655362 IBF655362:IBG655362 ILB655362:ILC655362 IUX655362:IUY655362 JET655362:JEU655362 JOP655362:JOQ655362 JYL655362:JYM655362 KIH655362:KII655362 KSD655362:KSE655362 LBZ655362:LCA655362 LLV655362:LLW655362 LVR655362:LVS655362 MFN655362:MFO655362 MPJ655362:MPK655362 MZF655362:MZG655362 NJB655362:NJC655362 NSX655362:NSY655362 OCT655362:OCU655362 OMP655362:OMQ655362 OWL655362:OWM655362 PGH655362:PGI655362 PQD655362:PQE655362 PZZ655362:QAA655362 QJV655362:QJW655362 QTR655362:QTS655362 RDN655362:RDO655362 RNJ655362:RNK655362 RXF655362:RXG655362 SHB655362:SHC655362 SQX655362:SQY655362 TAT655362:TAU655362 TKP655362:TKQ655362 TUL655362:TUM655362 UEH655362:UEI655362 UOD655362:UOE655362 UXZ655362:UYA655362 VHV655362:VHW655362 VRR655362:VRS655362 WBN655362:WBO655362 WLJ655362:WLK655362 WVF655362:WVG655362 IT720898:IU720898 SP720898:SQ720898 ACL720898:ACM720898 AMH720898:AMI720898 AWD720898:AWE720898 BFZ720898:BGA720898 BPV720898:BPW720898 BZR720898:BZS720898 CJN720898:CJO720898 CTJ720898:CTK720898 DDF720898:DDG720898 DNB720898:DNC720898 DWX720898:DWY720898 EGT720898:EGU720898 EQP720898:EQQ720898 FAL720898:FAM720898 FKH720898:FKI720898 FUD720898:FUE720898 GDZ720898:GEA720898 GNV720898:GNW720898 GXR720898:GXS720898 HHN720898:HHO720898 HRJ720898:HRK720898 IBF720898:IBG720898 ILB720898:ILC720898 IUX720898:IUY720898 JET720898:JEU720898 JOP720898:JOQ720898 JYL720898:JYM720898 KIH720898:KII720898 KSD720898:KSE720898 LBZ720898:LCA720898 LLV720898:LLW720898 LVR720898:LVS720898 MFN720898:MFO720898 MPJ720898:MPK720898 MZF720898:MZG720898 NJB720898:NJC720898 NSX720898:NSY720898 OCT720898:OCU720898 OMP720898:OMQ720898 OWL720898:OWM720898 PGH720898:PGI720898 PQD720898:PQE720898 PZZ720898:QAA720898 QJV720898:QJW720898 QTR720898:QTS720898 RDN720898:RDO720898 RNJ720898:RNK720898 RXF720898:RXG720898 SHB720898:SHC720898 SQX720898:SQY720898 TAT720898:TAU720898 TKP720898:TKQ720898 TUL720898:TUM720898 UEH720898:UEI720898 UOD720898:UOE720898 UXZ720898:UYA720898 VHV720898:VHW720898 VRR720898:VRS720898 WBN720898:WBO720898 WLJ720898:WLK720898 WVF720898:WVG720898 IT786434:IU786434 SP786434:SQ786434 ACL786434:ACM786434 AMH786434:AMI786434 AWD786434:AWE786434 BFZ786434:BGA786434 BPV786434:BPW786434 BZR786434:BZS786434 CJN786434:CJO786434 CTJ786434:CTK786434 DDF786434:DDG786434 DNB786434:DNC786434 DWX786434:DWY786434 EGT786434:EGU786434 EQP786434:EQQ786434 FAL786434:FAM786434 FKH786434:FKI786434 FUD786434:FUE786434 GDZ786434:GEA786434 GNV786434:GNW786434 GXR786434:GXS786434 HHN786434:HHO786434 HRJ786434:HRK786434 IBF786434:IBG786434 ILB786434:ILC786434 IUX786434:IUY786434 JET786434:JEU786434 JOP786434:JOQ786434 JYL786434:JYM786434 KIH786434:KII786434 KSD786434:KSE786434 LBZ786434:LCA786434 LLV786434:LLW786434 LVR786434:LVS786434 MFN786434:MFO786434 MPJ786434:MPK786434 MZF786434:MZG786434 NJB786434:NJC786434 NSX786434:NSY786434 OCT786434:OCU786434 OMP786434:OMQ786434 OWL786434:OWM786434 PGH786434:PGI786434 PQD786434:PQE786434 PZZ786434:QAA786434 QJV786434:QJW786434 QTR786434:QTS786434 RDN786434:RDO786434 RNJ786434:RNK786434 RXF786434:RXG786434 SHB786434:SHC786434 SQX786434:SQY786434 TAT786434:TAU786434 TKP786434:TKQ786434 TUL786434:TUM786434 UEH786434:UEI786434 UOD786434:UOE786434 UXZ786434:UYA786434 VHV786434:VHW786434 VRR786434:VRS786434 WBN786434:WBO786434 WLJ786434:WLK786434 WVF786434:WVG786434 IT851970:IU851970 SP851970:SQ851970 ACL851970:ACM851970 AMH851970:AMI851970 AWD851970:AWE851970 BFZ851970:BGA851970 BPV851970:BPW851970 BZR851970:BZS851970 CJN851970:CJO851970 CTJ851970:CTK851970 DDF851970:DDG851970 DNB851970:DNC851970 DWX851970:DWY851970 EGT851970:EGU851970 EQP851970:EQQ851970 FAL851970:FAM851970 FKH851970:FKI851970 FUD851970:FUE851970 GDZ851970:GEA851970 GNV851970:GNW851970 GXR851970:GXS851970 HHN851970:HHO851970 HRJ851970:HRK851970 IBF851970:IBG851970 ILB851970:ILC851970 IUX851970:IUY851970 JET851970:JEU851970 JOP851970:JOQ851970 JYL851970:JYM851970 KIH851970:KII851970 KSD851970:KSE851970 LBZ851970:LCA851970 LLV851970:LLW851970 LVR851970:LVS851970 MFN851970:MFO851970 MPJ851970:MPK851970 MZF851970:MZG851970 NJB851970:NJC851970 NSX851970:NSY851970 OCT851970:OCU851970 OMP851970:OMQ851970 OWL851970:OWM851970 PGH851970:PGI851970 PQD851970:PQE851970 PZZ851970:QAA851970 QJV851970:QJW851970 QTR851970:QTS851970 RDN851970:RDO851970 RNJ851970:RNK851970 RXF851970:RXG851970 SHB851970:SHC851970 SQX851970:SQY851970 TAT851970:TAU851970 TKP851970:TKQ851970 TUL851970:TUM851970 UEH851970:UEI851970 UOD851970:UOE851970 UXZ851970:UYA851970 VHV851970:VHW851970 VRR851970:VRS851970 WBN851970:WBO851970 WLJ851970:WLK851970 WVF851970:WVG851970 IT917506:IU917506 SP917506:SQ917506 ACL917506:ACM917506 AMH917506:AMI917506 AWD917506:AWE917506 BFZ917506:BGA917506 BPV917506:BPW917506 BZR917506:BZS917506 CJN917506:CJO917506 CTJ917506:CTK917506 DDF917506:DDG917506 DNB917506:DNC917506 DWX917506:DWY917506 EGT917506:EGU917506 EQP917506:EQQ917506 FAL917506:FAM917506 FKH917506:FKI917506 FUD917506:FUE917506 GDZ917506:GEA917506 GNV917506:GNW917506 GXR917506:GXS917506 HHN917506:HHO917506 HRJ917506:HRK917506 IBF917506:IBG917506 ILB917506:ILC917506 IUX917506:IUY917506 JET917506:JEU917506 JOP917506:JOQ917506 JYL917506:JYM917506 KIH917506:KII917506 KSD917506:KSE917506 LBZ917506:LCA917506 LLV917506:LLW917506 LVR917506:LVS917506 MFN917506:MFO917506 MPJ917506:MPK917506 MZF917506:MZG917506 NJB917506:NJC917506 NSX917506:NSY917506 OCT917506:OCU917506 OMP917506:OMQ917506 OWL917506:OWM917506 PGH917506:PGI917506 PQD917506:PQE917506 PZZ917506:QAA917506 QJV917506:QJW917506 QTR917506:QTS917506 RDN917506:RDO917506 RNJ917506:RNK917506 RXF917506:RXG917506 SHB917506:SHC917506 SQX917506:SQY917506 TAT917506:TAU917506 TKP917506:TKQ917506 TUL917506:TUM917506 UEH917506:UEI917506 UOD917506:UOE917506 UXZ917506:UYA917506 VHV917506:VHW917506 VRR917506:VRS917506 WBN917506:WBO917506 WLJ917506:WLK917506 WVF917506:WVG917506 IT983042:IU983042 SP983042:SQ983042 ACL983042:ACM983042 AMH983042:AMI983042 AWD983042:AWE983042 BFZ983042:BGA983042 BPV983042:BPW983042 BZR983042:BZS983042 CJN983042:CJO983042 CTJ983042:CTK983042 DDF983042:DDG983042 DNB983042:DNC983042 DWX983042:DWY983042 EGT983042:EGU983042 EQP983042:EQQ983042 FAL983042:FAM983042 FKH983042:FKI983042 FUD983042:FUE983042 GDZ983042:GEA983042 GNV983042:GNW983042 GXR983042:GXS983042 HHN983042:HHO983042 HRJ983042:HRK983042 IBF983042:IBG983042 ILB983042:ILC983042 IUX983042:IUY983042 JET983042:JEU983042 JOP983042:JOQ983042 JYL983042:JYM983042 KIH983042:KII983042 KSD983042:KSE983042 LBZ983042:LCA983042 LLV983042:LLW983042 LVR983042:LVS983042 MFN983042:MFO983042 MPJ983042:MPK983042 MZF983042:MZG983042 NJB983042:NJC983042 NSX983042:NSY983042 OCT983042:OCU983042 OMP983042:OMQ983042 OWL983042:OWM983042 PGH983042:PGI983042 PQD983042:PQE983042 PZZ983042:QAA983042 QJV983042:QJW983042 QTR983042:QTS983042 RDN983042:RDO983042 RNJ983042:RNK983042 RXF983042:RXG983042 SHB983042:SHC983042 SQX983042:SQY983042 TAT983042:TAU983042 TKP983042:TKQ983042 TUL983042:TUM983042 UEH983042:UEI983042 UOD983042:UOE983042 UXZ983042:UYA983042 VHV983042:VHW983042 VRR983042:VRS983042 WBN983042:WBO983042 WLJ983042:WLK983042 WVF983042:WVG983042 IV6:IV8 SR6:SR8 ACN6:ACN8 AMJ6:AMJ8 AWF6:AWF8 BGB6:BGB8 BPX6:BPX8 BZT6:BZT8 CJP6:CJP8 CTL6:CTL8 DDH6:DDH8 DND6:DND8 DWZ6:DWZ8 EGV6:EGV8 EQR6:EQR8 FAN6:FAN8 FKJ6:FKJ8 FUF6:FUF8 GEB6:GEB8 GNX6:GNX8 GXT6:GXT8 HHP6:HHP8 HRL6:HRL8 IBH6:IBH8 ILD6:ILD8 IUZ6:IUZ8 JEV6:JEV8 JOR6:JOR8 JYN6:JYN8 KIJ6:KIJ8 KSF6:KSF8 LCB6:LCB8 LLX6:LLX8 LVT6:LVT8 MFP6:MFP8 MPL6:MPL8 MZH6:MZH8 NJD6:NJD8 NSZ6:NSZ8 OCV6:OCV8 OMR6:OMR8 OWN6:OWN8 PGJ6:PGJ8 PQF6:PQF8 QAB6:QAB8 QJX6:QJX8 QTT6:QTT8 RDP6:RDP8 RNL6:RNL8 RXH6:RXH8 SHD6:SHD8 SQZ6:SQZ8 TAV6:TAV8 TKR6:TKR8 TUN6:TUN8 UEJ6:UEJ8 UOF6:UOF8 UYB6:UYB8 VHX6:VHX8 VRT6:VRT8 WBP6:WBP8 WLL6:WLL8 WVH6:WVH8 IV65538:IV65540 SR65538:SR65540 ACN65538:ACN65540 AMJ65538:AMJ65540 AWF65538:AWF65540 BGB65538:BGB65540 BPX65538:BPX65540 BZT65538:BZT65540 CJP65538:CJP65540 CTL65538:CTL65540 DDH65538:DDH65540 DND65538:DND65540 DWZ65538:DWZ65540 EGV65538:EGV65540 EQR65538:EQR65540 FAN65538:FAN65540 FKJ65538:FKJ65540 FUF65538:FUF65540 GEB65538:GEB65540 GNX65538:GNX65540 GXT65538:GXT65540 HHP65538:HHP65540 HRL65538:HRL65540 IBH65538:IBH65540 ILD65538:ILD65540 IUZ65538:IUZ65540 JEV65538:JEV65540 JOR65538:JOR65540 JYN65538:JYN65540 KIJ65538:KIJ65540 KSF65538:KSF65540 LCB65538:LCB65540 LLX65538:LLX65540 LVT65538:LVT65540 MFP65538:MFP65540 MPL65538:MPL65540 MZH65538:MZH65540 NJD65538:NJD65540 NSZ65538:NSZ65540 OCV65538:OCV65540 OMR65538:OMR65540 OWN65538:OWN65540 PGJ65538:PGJ65540 PQF65538:PQF65540 QAB65538:QAB65540 QJX65538:QJX65540 QTT65538:QTT65540 RDP65538:RDP65540 RNL65538:RNL65540 RXH65538:RXH65540 SHD65538:SHD65540 SQZ65538:SQZ65540 TAV65538:TAV65540 TKR65538:TKR65540 TUN65538:TUN65540 UEJ65538:UEJ65540 UOF65538:UOF65540 UYB65538:UYB65540 VHX65538:VHX65540 VRT65538:VRT65540 WBP65538:WBP65540 WLL65538:WLL65540 WVH65538:WVH65540 IV131074:IV131076 SR131074:SR131076 ACN131074:ACN131076 AMJ131074:AMJ131076 AWF131074:AWF131076 BGB131074:BGB131076 BPX131074:BPX131076 BZT131074:BZT131076 CJP131074:CJP131076 CTL131074:CTL131076 DDH131074:DDH131076 DND131074:DND131076 DWZ131074:DWZ131076 EGV131074:EGV131076 EQR131074:EQR131076 FAN131074:FAN131076 FKJ131074:FKJ131076 FUF131074:FUF131076 GEB131074:GEB131076 GNX131074:GNX131076 GXT131074:GXT131076 HHP131074:HHP131076 HRL131074:HRL131076 IBH131074:IBH131076 ILD131074:ILD131076 IUZ131074:IUZ131076 JEV131074:JEV131076 JOR131074:JOR131076 JYN131074:JYN131076 KIJ131074:KIJ131076 KSF131074:KSF131076 LCB131074:LCB131076 LLX131074:LLX131076 LVT131074:LVT131076 MFP131074:MFP131076 MPL131074:MPL131076 MZH131074:MZH131076 NJD131074:NJD131076 NSZ131074:NSZ131076 OCV131074:OCV131076 OMR131074:OMR131076 OWN131074:OWN131076 PGJ131074:PGJ131076 PQF131074:PQF131076 QAB131074:QAB131076 QJX131074:QJX131076 QTT131074:QTT131076 RDP131074:RDP131076 RNL131074:RNL131076 RXH131074:RXH131076 SHD131074:SHD131076 SQZ131074:SQZ131076 TAV131074:TAV131076 TKR131074:TKR131076 TUN131074:TUN131076 UEJ131074:UEJ131076 UOF131074:UOF131076 UYB131074:UYB131076 VHX131074:VHX131076 VRT131074:VRT131076 WBP131074:WBP131076 WLL131074:WLL131076 WVH131074:WVH131076 IV196610:IV196612 SR196610:SR196612 ACN196610:ACN196612 AMJ196610:AMJ196612 AWF196610:AWF196612 BGB196610:BGB196612 BPX196610:BPX196612 BZT196610:BZT196612 CJP196610:CJP196612 CTL196610:CTL196612 DDH196610:DDH196612 DND196610:DND196612 DWZ196610:DWZ196612 EGV196610:EGV196612 EQR196610:EQR196612 FAN196610:FAN196612 FKJ196610:FKJ196612 FUF196610:FUF196612 GEB196610:GEB196612 GNX196610:GNX196612 GXT196610:GXT196612 HHP196610:HHP196612 HRL196610:HRL196612 IBH196610:IBH196612 ILD196610:ILD196612 IUZ196610:IUZ196612 JEV196610:JEV196612 JOR196610:JOR196612 JYN196610:JYN196612 KIJ196610:KIJ196612 KSF196610:KSF196612 LCB196610:LCB196612 LLX196610:LLX196612 LVT196610:LVT196612 MFP196610:MFP196612 MPL196610:MPL196612 MZH196610:MZH196612 NJD196610:NJD196612 NSZ196610:NSZ196612 OCV196610:OCV196612 OMR196610:OMR196612 OWN196610:OWN196612 PGJ196610:PGJ196612 PQF196610:PQF196612 QAB196610:QAB196612 QJX196610:QJX196612 QTT196610:QTT196612 RDP196610:RDP196612 RNL196610:RNL196612 RXH196610:RXH196612 SHD196610:SHD196612 SQZ196610:SQZ196612 TAV196610:TAV196612 TKR196610:TKR196612 TUN196610:TUN196612 UEJ196610:UEJ196612 UOF196610:UOF196612 UYB196610:UYB196612 VHX196610:VHX196612 VRT196610:VRT196612 WBP196610:WBP196612 WLL196610:WLL196612 WVH196610:WVH196612 IV262146:IV262148 SR262146:SR262148 ACN262146:ACN262148 AMJ262146:AMJ262148 AWF262146:AWF262148 BGB262146:BGB262148 BPX262146:BPX262148 BZT262146:BZT262148 CJP262146:CJP262148 CTL262146:CTL262148 DDH262146:DDH262148 DND262146:DND262148 DWZ262146:DWZ262148 EGV262146:EGV262148 EQR262146:EQR262148 FAN262146:FAN262148 FKJ262146:FKJ262148 FUF262146:FUF262148 GEB262146:GEB262148 GNX262146:GNX262148 GXT262146:GXT262148 HHP262146:HHP262148 HRL262146:HRL262148 IBH262146:IBH262148 ILD262146:ILD262148 IUZ262146:IUZ262148 JEV262146:JEV262148 JOR262146:JOR262148 JYN262146:JYN262148 KIJ262146:KIJ262148 KSF262146:KSF262148 LCB262146:LCB262148 LLX262146:LLX262148 LVT262146:LVT262148 MFP262146:MFP262148 MPL262146:MPL262148 MZH262146:MZH262148 NJD262146:NJD262148 NSZ262146:NSZ262148 OCV262146:OCV262148 OMR262146:OMR262148 OWN262146:OWN262148 PGJ262146:PGJ262148 PQF262146:PQF262148 QAB262146:QAB262148 QJX262146:QJX262148 QTT262146:QTT262148 RDP262146:RDP262148 RNL262146:RNL262148 RXH262146:RXH262148 SHD262146:SHD262148 SQZ262146:SQZ262148 TAV262146:TAV262148 TKR262146:TKR262148 TUN262146:TUN262148 UEJ262146:UEJ262148 UOF262146:UOF262148 UYB262146:UYB262148 VHX262146:VHX262148 VRT262146:VRT262148 WBP262146:WBP262148 WLL262146:WLL262148 WVH262146:WVH262148 IV327682:IV327684 SR327682:SR327684 ACN327682:ACN327684 AMJ327682:AMJ327684 AWF327682:AWF327684 BGB327682:BGB327684 BPX327682:BPX327684 BZT327682:BZT327684 CJP327682:CJP327684 CTL327682:CTL327684 DDH327682:DDH327684 DND327682:DND327684 DWZ327682:DWZ327684 EGV327682:EGV327684 EQR327682:EQR327684 FAN327682:FAN327684 FKJ327682:FKJ327684 FUF327682:FUF327684 GEB327682:GEB327684 GNX327682:GNX327684 GXT327682:GXT327684 HHP327682:HHP327684 HRL327682:HRL327684 IBH327682:IBH327684 ILD327682:ILD327684 IUZ327682:IUZ327684 JEV327682:JEV327684 JOR327682:JOR327684 JYN327682:JYN327684 KIJ327682:KIJ327684 KSF327682:KSF327684 LCB327682:LCB327684 LLX327682:LLX327684 LVT327682:LVT327684 MFP327682:MFP327684 MPL327682:MPL327684 MZH327682:MZH327684 NJD327682:NJD327684 NSZ327682:NSZ327684 OCV327682:OCV327684 OMR327682:OMR327684 OWN327682:OWN327684 PGJ327682:PGJ327684 PQF327682:PQF327684 QAB327682:QAB327684 QJX327682:QJX327684 QTT327682:QTT327684 RDP327682:RDP327684 RNL327682:RNL327684 RXH327682:RXH327684 SHD327682:SHD327684 SQZ327682:SQZ327684 TAV327682:TAV327684 TKR327682:TKR327684 TUN327682:TUN327684 UEJ327682:UEJ327684 UOF327682:UOF327684 UYB327682:UYB327684 VHX327682:VHX327684 VRT327682:VRT327684 WBP327682:WBP327684 WLL327682:WLL327684 WVH327682:WVH327684 IV393218:IV393220 SR393218:SR393220 ACN393218:ACN393220 AMJ393218:AMJ393220 AWF393218:AWF393220 BGB393218:BGB393220 BPX393218:BPX393220 BZT393218:BZT393220 CJP393218:CJP393220 CTL393218:CTL393220 DDH393218:DDH393220 DND393218:DND393220 DWZ393218:DWZ393220 EGV393218:EGV393220 EQR393218:EQR393220 FAN393218:FAN393220 FKJ393218:FKJ393220 FUF393218:FUF393220 GEB393218:GEB393220 GNX393218:GNX393220 GXT393218:GXT393220 HHP393218:HHP393220 HRL393218:HRL393220 IBH393218:IBH393220 ILD393218:ILD393220 IUZ393218:IUZ393220 JEV393218:JEV393220 JOR393218:JOR393220 JYN393218:JYN393220 KIJ393218:KIJ393220 KSF393218:KSF393220 LCB393218:LCB393220 LLX393218:LLX393220 LVT393218:LVT393220 MFP393218:MFP393220 MPL393218:MPL393220 MZH393218:MZH393220 NJD393218:NJD393220 NSZ393218:NSZ393220 OCV393218:OCV393220 OMR393218:OMR393220 OWN393218:OWN393220 PGJ393218:PGJ393220 PQF393218:PQF393220 QAB393218:QAB393220 QJX393218:QJX393220 QTT393218:QTT393220 RDP393218:RDP393220 RNL393218:RNL393220 RXH393218:RXH393220 SHD393218:SHD393220 SQZ393218:SQZ393220 TAV393218:TAV393220 TKR393218:TKR393220 TUN393218:TUN393220 UEJ393218:UEJ393220 UOF393218:UOF393220 UYB393218:UYB393220 VHX393218:VHX393220 VRT393218:VRT393220 WBP393218:WBP393220 WLL393218:WLL393220 WVH393218:WVH393220 IV458754:IV458756 SR458754:SR458756 ACN458754:ACN458756 AMJ458754:AMJ458756 AWF458754:AWF458756 BGB458754:BGB458756 BPX458754:BPX458756 BZT458754:BZT458756 CJP458754:CJP458756 CTL458754:CTL458756 DDH458754:DDH458756 DND458754:DND458756 DWZ458754:DWZ458756 EGV458754:EGV458756 EQR458754:EQR458756 FAN458754:FAN458756 FKJ458754:FKJ458756 FUF458754:FUF458756 GEB458754:GEB458756 GNX458754:GNX458756 GXT458754:GXT458756 HHP458754:HHP458756 HRL458754:HRL458756 IBH458754:IBH458756 ILD458754:ILD458756 IUZ458754:IUZ458756 JEV458754:JEV458756 JOR458754:JOR458756 JYN458754:JYN458756 KIJ458754:KIJ458756 KSF458754:KSF458756 LCB458754:LCB458756 LLX458754:LLX458756 LVT458754:LVT458756 MFP458754:MFP458756 MPL458754:MPL458756 MZH458754:MZH458756 NJD458754:NJD458756 NSZ458754:NSZ458756 OCV458754:OCV458756 OMR458754:OMR458756 OWN458754:OWN458756 PGJ458754:PGJ458756 PQF458754:PQF458756 QAB458754:QAB458756 QJX458754:QJX458756 QTT458754:QTT458756 RDP458754:RDP458756 RNL458754:RNL458756 RXH458754:RXH458756 SHD458754:SHD458756 SQZ458754:SQZ458756 TAV458754:TAV458756 TKR458754:TKR458756 TUN458754:TUN458756 UEJ458754:UEJ458756 UOF458754:UOF458756 UYB458754:UYB458756 VHX458754:VHX458756 VRT458754:VRT458756 WBP458754:WBP458756 WLL458754:WLL458756 WVH458754:WVH458756 IV524290:IV524292 SR524290:SR524292 ACN524290:ACN524292 AMJ524290:AMJ524292 AWF524290:AWF524292 BGB524290:BGB524292 BPX524290:BPX524292 BZT524290:BZT524292 CJP524290:CJP524292 CTL524290:CTL524292 DDH524290:DDH524292 DND524290:DND524292 DWZ524290:DWZ524292 EGV524290:EGV524292 EQR524290:EQR524292 FAN524290:FAN524292 FKJ524290:FKJ524292 FUF524290:FUF524292 GEB524290:GEB524292 GNX524290:GNX524292 GXT524290:GXT524292 HHP524290:HHP524292 HRL524290:HRL524292 IBH524290:IBH524292 ILD524290:ILD524292 IUZ524290:IUZ524292 JEV524290:JEV524292 JOR524290:JOR524292 JYN524290:JYN524292 KIJ524290:KIJ524292 KSF524290:KSF524292 LCB524290:LCB524292 LLX524290:LLX524292 LVT524290:LVT524292 MFP524290:MFP524292 MPL524290:MPL524292 MZH524290:MZH524292 NJD524290:NJD524292 NSZ524290:NSZ524292 OCV524290:OCV524292 OMR524290:OMR524292 OWN524290:OWN524292 PGJ524290:PGJ524292 PQF524290:PQF524292 QAB524290:QAB524292 QJX524290:QJX524292 QTT524290:QTT524292 RDP524290:RDP524292 RNL524290:RNL524292 RXH524290:RXH524292 SHD524290:SHD524292 SQZ524290:SQZ524292 TAV524290:TAV524292 TKR524290:TKR524292 TUN524290:TUN524292 UEJ524290:UEJ524292 UOF524290:UOF524292 UYB524290:UYB524292 VHX524290:VHX524292 VRT524290:VRT524292 WBP524290:WBP524292 WLL524290:WLL524292 WVH524290:WVH524292 IV589826:IV589828 SR589826:SR589828 ACN589826:ACN589828 AMJ589826:AMJ589828 AWF589826:AWF589828 BGB589826:BGB589828 BPX589826:BPX589828 BZT589826:BZT589828 CJP589826:CJP589828 CTL589826:CTL589828 DDH589826:DDH589828 DND589826:DND589828 DWZ589826:DWZ589828 EGV589826:EGV589828 EQR589826:EQR589828 FAN589826:FAN589828 FKJ589826:FKJ589828 FUF589826:FUF589828 GEB589826:GEB589828 GNX589826:GNX589828 GXT589826:GXT589828 HHP589826:HHP589828 HRL589826:HRL589828 IBH589826:IBH589828 ILD589826:ILD589828 IUZ589826:IUZ589828 JEV589826:JEV589828 JOR589826:JOR589828 JYN589826:JYN589828 KIJ589826:KIJ589828 KSF589826:KSF589828 LCB589826:LCB589828 LLX589826:LLX589828 LVT589826:LVT589828 MFP589826:MFP589828 MPL589826:MPL589828 MZH589826:MZH589828 NJD589826:NJD589828 NSZ589826:NSZ589828 OCV589826:OCV589828 OMR589826:OMR589828 OWN589826:OWN589828 PGJ589826:PGJ589828 PQF589826:PQF589828 QAB589826:QAB589828 QJX589826:QJX589828 QTT589826:QTT589828 RDP589826:RDP589828 RNL589826:RNL589828 RXH589826:RXH589828 SHD589826:SHD589828 SQZ589826:SQZ589828 TAV589826:TAV589828 TKR589826:TKR589828 TUN589826:TUN589828 UEJ589826:UEJ589828 UOF589826:UOF589828 UYB589826:UYB589828 VHX589826:VHX589828 VRT589826:VRT589828 WBP589826:WBP589828 WLL589826:WLL589828 WVH589826:WVH589828 IV655362:IV655364 SR655362:SR655364 ACN655362:ACN655364 AMJ655362:AMJ655364 AWF655362:AWF655364 BGB655362:BGB655364 BPX655362:BPX655364 BZT655362:BZT655364 CJP655362:CJP655364 CTL655362:CTL655364 DDH655362:DDH655364 DND655362:DND655364 DWZ655362:DWZ655364 EGV655362:EGV655364 EQR655362:EQR655364 FAN655362:FAN655364 FKJ655362:FKJ655364 FUF655362:FUF655364 GEB655362:GEB655364 GNX655362:GNX655364 GXT655362:GXT655364 HHP655362:HHP655364 HRL655362:HRL655364 IBH655362:IBH655364 ILD655362:ILD655364 IUZ655362:IUZ655364 JEV655362:JEV655364 JOR655362:JOR655364 JYN655362:JYN655364 KIJ655362:KIJ655364 KSF655362:KSF655364 LCB655362:LCB655364 LLX655362:LLX655364 LVT655362:LVT655364 MFP655362:MFP655364 MPL655362:MPL655364 MZH655362:MZH655364 NJD655362:NJD655364 NSZ655362:NSZ655364 OCV655362:OCV655364 OMR655362:OMR655364 OWN655362:OWN655364 PGJ655362:PGJ655364 PQF655362:PQF655364 QAB655362:QAB655364 QJX655362:QJX655364 QTT655362:QTT655364 RDP655362:RDP655364 RNL655362:RNL655364 RXH655362:RXH655364 SHD655362:SHD655364 SQZ655362:SQZ655364 TAV655362:TAV655364 TKR655362:TKR655364 TUN655362:TUN655364 UEJ655362:UEJ655364 UOF655362:UOF655364 UYB655362:UYB655364 VHX655362:VHX655364 VRT655362:VRT655364 WBP655362:WBP655364 WLL655362:WLL655364 WVH655362:WVH655364 IV720898:IV720900 SR720898:SR720900 ACN720898:ACN720900 AMJ720898:AMJ720900 AWF720898:AWF720900 BGB720898:BGB720900 BPX720898:BPX720900 BZT720898:BZT720900 CJP720898:CJP720900 CTL720898:CTL720900 DDH720898:DDH720900 DND720898:DND720900 DWZ720898:DWZ720900 EGV720898:EGV720900 EQR720898:EQR720900 FAN720898:FAN720900 FKJ720898:FKJ720900 FUF720898:FUF720900 GEB720898:GEB720900 GNX720898:GNX720900 GXT720898:GXT720900 HHP720898:HHP720900 HRL720898:HRL720900 IBH720898:IBH720900 ILD720898:ILD720900 IUZ720898:IUZ720900 JEV720898:JEV720900 JOR720898:JOR720900 JYN720898:JYN720900 KIJ720898:KIJ720900 KSF720898:KSF720900 LCB720898:LCB720900 LLX720898:LLX720900 LVT720898:LVT720900 MFP720898:MFP720900 MPL720898:MPL720900 MZH720898:MZH720900 NJD720898:NJD720900 NSZ720898:NSZ720900 OCV720898:OCV720900 OMR720898:OMR720900 OWN720898:OWN720900 PGJ720898:PGJ720900 PQF720898:PQF720900 QAB720898:QAB720900 QJX720898:QJX720900 QTT720898:QTT720900 RDP720898:RDP720900 RNL720898:RNL720900 RXH720898:RXH720900 SHD720898:SHD720900 SQZ720898:SQZ720900 TAV720898:TAV720900 TKR720898:TKR720900 TUN720898:TUN720900 UEJ720898:UEJ720900 UOF720898:UOF720900 UYB720898:UYB720900 VHX720898:VHX720900 VRT720898:VRT720900 WBP720898:WBP720900 WLL720898:WLL720900 WVH720898:WVH720900 IV786434:IV786436 SR786434:SR786436 ACN786434:ACN786436 AMJ786434:AMJ786436 AWF786434:AWF786436 BGB786434:BGB786436 BPX786434:BPX786436 BZT786434:BZT786436 CJP786434:CJP786436 CTL786434:CTL786436 DDH786434:DDH786436 DND786434:DND786436 DWZ786434:DWZ786436 EGV786434:EGV786436 EQR786434:EQR786436 FAN786434:FAN786436 FKJ786434:FKJ786436 FUF786434:FUF786436 GEB786434:GEB786436 GNX786434:GNX786436 GXT786434:GXT786436 HHP786434:HHP786436 HRL786434:HRL786436 IBH786434:IBH786436 ILD786434:ILD786436 IUZ786434:IUZ786436 JEV786434:JEV786436 JOR786434:JOR786436 JYN786434:JYN786436 KIJ786434:KIJ786436 KSF786434:KSF786436 LCB786434:LCB786436 LLX786434:LLX786436 LVT786434:LVT786436 MFP786434:MFP786436 MPL786434:MPL786436 MZH786434:MZH786436 NJD786434:NJD786436 NSZ786434:NSZ786436 OCV786434:OCV786436 OMR786434:OMR786436 OWN786434:OWN786436 PGJ786434:PGJ786436 PQF786434:PQF786436 QAB786434:QAB786436 QJX786434:QJX786436 QTT786434:QTT786436 RDP786434:RDP786436 RNL786434:RNL786436 RXH786434:RXH786436 SHD786434:SHD786436 SQZ786434:SQZ786436 TAV786434:TAV786436 TKR786434:TKR786436 TUN786434:TUN786436 UEJ786434:UEJ786436 UOF786434:UOF786436 UYB786434:UYB786436 VHX786434:VHX786436 VRT786434:VRT786436 WBP786434:WBP786436 WLL786434:WLL786436 WVH786434:WVH786436 IV851970:IV851972 SR851970:SR851972 ACN851970:ACN851972 AMJ851970:AMJ851972 AWF851970:AWF851972 BGB851970:BGB851972 BPX851970:BPX851972 BZT851970:BZT851972 CJP851970:CJP851972 CTL851970:CTL851972 DDH851970:DDH851972 DND851970:DND851972 DWZ851970:DWZ851972 EGV851970:EGV851972 EQR851970:EQR851972 FAN851970:FAN851972 FKJ851970:FKJ851972 FUF851970:FUF851972 GEB851970:GEB851972 GNX851970:GNX851972 GXT851970:GXT851972 HHP851970:HHP851972 HRL851970:HRL851972 IBH851970:IBH851972 ILD851970:ILD851972 IUZ851970:IUZ851972 JEV851970:JEV851972 JOR851970:JOR851972 JYN851970:JYN851972 KIJ851970:KIJ851972 KSF851970:KSF851972 LCB851970:LCB851972 LLX851970:LLX851972 LVT851970:LVT851972 MFP851970:MFP851972 MPL851970:MPL851972 MZH851970:MZH851972 NJD851970:NJD851972 NSZ851970:NSZ851972 OCV851970:OCV851972 OMR851970:OMR851972 OWN851970:OWN851972 PGJ851970:PGJ851972 PQF851970:PQF851972 QAB851970:QAB851972 QJX851970:QJX851972 QTT851970:QTT851972 RDP851970:RDP851972 RNL851970:RNL851972 RXH851970:RXH851972 SHD851970:SHD851972 SQZ851970:SQZ851972 TAV851970:TAV851972 TKR851970:TKR851972 TUN851970:TUN851972 UEJ851970:UEJ851972 UOF851970:UOF851972 UYB851970:UYB851972 VHX851970:VHX851972 VRT851970:VRT851972 WBP851970:WBP851972 WLL851970:WLL851972 WVH851970:WVH851972 IV917506:IV917508 SR917506:SR917508 ACN917506:ACN917508 AMJ917506:AMJ917508 AWF917506:AWF917508 BGB917506:BGB917508 BPX917506:BPX917508 BZT917506:BZT917508 CJP917506:CJP917508 CTL917506:CTL917508 DDH917506:DDH917508 DND917506:DND917508 DWZ917506:DWZ917508 EGV917506:EGV917508 EQR917506:EQR917508 FAN917506:FAN917508 FKJ917506:FKJ917508 FUF917506:FUF917508 GEB917506:GEB917508 GNX917506:GNX917508 GXT917506:GXT917508 HHP917506:HHP917508 HRL917506:HRL917508 IBH917506:IBH917508 ILD917506:ILD917508 IUZ917506:IUZ917508 JEV917506:JEV917508 JOR917506:JOR917508 JYN917506:JYN917508 KIJ917506:KIJ917508 KSF917506:KSF917508 LCB917506:LCB917508 LLX917506:LLX917508 LVT917506:LVT917508 MFP917506:MFP917508 MPL917506:MPL917508 MZH917506:MZH917508 NJD917506:NJD917508 NSZ917506:NSZ917508 OCV917506:OCV917508 OMR917506:OMR917508 OWN917506:OWN917508 PGJ917506:PGJ917508 PQF917506:PQF917508 QAB917506:QAB917508 QJX917506:QJX917508 QTT917506:QTT917508 RDP917506:RDP917508 RNL917506:RNL917508 RXH917506:RXH917508 SHD917506:SHD917508 SQZ917506:SQZ917508 TAV917506:TAV917508 TKR917506:TKR917508 TUN917506:TUN917508 UEJ917506:UEJ917508 UOF917506:UOF917508 UYB917506:UYB917508 VHX917506:VHX917508 VRT917506:VRT917508 WBP917506:WBP917508 WLL917506:WLL917508 WVH917506:WVH917508 IV983042:IV983044 SR983042:SR983044 ACN983042:ACN983044 AMJ983042:AMJ983044 AWF983042:AWF983044 BGB983042:BGB983044 BPX983042:BPX983044 BZT983042:BZT983044 CJP983042:CJP983044 CTL983042:CTL983044 DDH983042:DDH983044 DND983042:DND983044 DWZ983042:DWZ983044 EGV983042:EGV983044 EQR983042:EQR983044 FAN983042:FAN983044 FKJ983042:FKJ983044 FUF983042:FUF983044 GEB983042:GEB983044 GNX983042:GNX983044 GXT983042:GXT983044 HHP983042:HHP983044 HRL983042:HRL983044 IBH983042:IBH983044 ILD983042:ILD983044 IUZ983042:IUZ983044 JEV983042:JEV983044 JOR983042:JOR983044 JYN983042:JYN983044 KIJ983042:KIJ983044 KSF983042:KSF983044 LCB983042:LCB983044 LLX983042:LLX983044 LVT983042:LVT983044 MFP983042:MFP983044 MPL983042:MPL983044 MZH983042:MZH983044 NJD983042:NJD983044 NSZ983042:NSZ983044 OCV983042:OCV983044 OMR983042:OMR983044 OWN983042:OWN983044 PGJ983042:PGJ983044 PQF983042:PQF983044 QAB983042:QAB983044 QJX983042:QJX983044 QTT983042:QTT983044 RDP983042:RDP983044 RNL983042:RNL983044 RXH983042:RXH983044 SHD983042:SHD983044 SQZ983042:SQZ983044 TAV983042:TAV983044 TKR983042:TKR983044 TUN983042:TUN983044 UEJ983042:UEJ983044 UOF983042:UOF983044 UYB983042:UYB983044 VHX983042:VHX983044 VRT983042:VRT983044 WBP983042:WBP983044 WLL983042:WLL983044">
-      <formula1>INDIRECT($D$5)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVH983047:WVH983049 SS8:SU8 ACO8:ACQ8 AMK8:AMM8 AWG8:AWI8 BGC8:BGE8 BPY8:BQA8 BZU8:BZW8 CJQ8:CJS8 CTM8:CTO8 DDI8:DDK8 DNE8:DNG8 DXA8:DXC8 EGW8:EGY8 EQS8:EQU8 FAO8:FAQ8 FKK8:FKM8 FUG8:FUI8 GEC8:GEE8 GNY8:GOA8 GXU8:GXW8 HHQ8:HHS8 HRM8:HRO8 IBI8:IBK8 ILE8:ILG8 IVA8:IVC8 JEW8:JEY8 JOS8:JOU8 JYO8:JYQ8 KIK8:KIM8 KSG8:KSI8 LCC8:LCE8 LLY8:LMA8 LVU8:LVW8 MFQ8:MFS8 MPM8:MPO8 MZI8:MZK8 NJE8:NJG8 NTA8:NTC8 OCW8:OCY8 OMS8:OMU8 OWO8:OWQ8 PGK8:PGM8 PQG8:PQI8 QAC8:QAE8 QJY8:QKA8 QTU8:QTW8 RDQ8:RDS8 RNM8:RNO8 RXI8:RXK8 SHE8:SHG8 SRA8:SRC8 TAW8:TAY8 TKS8:TKU8 TUO8:TUQ8 UEK8:UEM8 UOG8:UOI8 UYC8:UYE8 VHY8:VIA8 VRU8:VRW8 WBQ8:WBS8 WLM8:WLO8 WVI8:WVK8 H65543:L65543 IW65543:IY65543 SS65543:SU65543 ACO65543:ACQ65543 AMK65543:AMM65543 AWG65543:AWI65543 BGC65543:BGE65543 BPY65543:BQA65543 BZU65543:BZW65543 CJQ65543:CJS65543 CTM65543:CTO65543 DDI65543:DDK65543 DNE65543:DNG65543 DXA65543:DXC65543 EGW65543:EGY65543 EQS65543:EQU65543 FAO65543:FAQ65543 FKK65543:FKM65543 FUG65543:FUI65543 GEC65543:GEE65543 GNY65543:GOA65543 GXU65543:GXW65543 HHQ65543:HHS65543 HRM65543:HRO65543 IBI65543:IBK65543 ILE65543:ILG65543 IVA65543:IVC65543 JEW65543:JEY65543 JOS65543:JOU65543 JYO65543:JYQ65543 KIK65543:KIM65543 KSG65543:KSI65543 LCC65543:LCE65543 LLY65543:LMA65543 LVU65543:LVW65543 MFQ65543:MFS65543 MPM65543:MPO65543 MZI65543:MZK65543 NJE65543:NJG65543 NTA65543:NTC65543 OCW65543:OCY65543 OMS65543:OMU65543 OWO65543:OWQ65543 PGK65543:PGM65543 PQG65543:PQI65543 QAC65543:QAE65543 QJY65543:QKA65543 QTU65543:QTW65543 RDQ65543:RDS65543 RNM65543:RNO65543 RXI65543:RXK65543 SHE65543:SHG65543 SRA65543:SRC65543 TAW65543:TAY65543 TKS65543:TKU65543 TUO65543:TUQ65543 UEK65543:UEM65543 UOG65543:UOI65543 UYC65543:UYE65543 VHY65543:VIA65543 VRU65543:VRW65543 WBQ65543:WBS65543 WLM65543:WLO65543 WVI65543:WVK65543 H131079:L131079 IW131079:IY131079 SS131079:SU131079 ACO131079:ACQ131079 AMK131079:AMM131079 AWG131079:AWI131079 BGC131079:BGE131079 BPY131079:BQA131079 BZU131079:BZW131079 CJQ131079:CJS131079 CTM131079:CTO131079 DDI131079:DDK131079 DNE131079:DNG131079 DXA131079:DXC131079 EGW131079:EGY131079 EQS131079:EQU131079 FAO131079:FAQ131079 FKK131079:FKM131079 FUG131079:FUI131079 GEC131079:GEE131079 GNY131079:GOA131079 GXU131079:GXW131079 HHQ131079:HHS131079 HRM131079:HRO131079 IBI131079:IBK131079 ILE131079:ILG131079 IVA131079:IVC131079 JEW131079:JEY131079 JOS131079:JOU131079 JYO131079:JYQ131079 KIK131079:KIM131079 KSG131079:KSI131079 LCC131079:LCE131079 LLY131079:LMA131079 LVU131079:LVW131079 MFQ131079:MFS131079 MPM131079:MPO131079 MZI131079:MZK131079 NJE131079:NJG131079 NTA131079:NTC131079 OCW131079:OCY131079 OMS131079:OMU131079 OWO131079:OWQ131079 PGK131079:PGM131079 PQG131079:PQI131079 QAC131079:QAE131079 QJY131079:QKA131079 QTU131079:QTW131079 RDQ131079:RDS131079 RNM131079:RNO131079 RXI131079:RXK131079 SHE131079:SHG131079 SRA131079:SRC131079 TAW131079:TAY131079 TKS131079:TKU131079 TUO131079:TUQ131079 UEK131079:UEM131079 UOG131079:UOI131079 UYC131079:UYE131079 VHY131079:VIA131079 VRU131079:VRW131079 WBQ131079:WBS131079 WLM131079:WLO131079 WVI131079:WVK131079 H196615:L196615 IW196615:IY196615 SS196615:SU196615 ACO196615:ACQ196615 AMK196615:AMM196615 AWG196615:AWI196615 BGC196615:BGE196615 BPY196615:BQA196615 BZU196615:BZW196615 CJQ196615:CJS196615 CTM196615:CTO196615 DDI196615:DDK196615 DNE196615:DNG196615 DXA196615:DXC196615 EGW196615:EGY196615 EQS196615:EQU196615 FAO196615:FAQ196615 FKK196615:FKM196615 FUG196615:FUI196615 GEC196615:GEE196615 GNY196615:GOA196615 GXU196615:GXW196615 HHQ196615:HHS196615 HRM196615:HRO196615 IBI196615:IBK196615 ILE196615:ILG196615 IVA196615:IVC196615 JEW196615:JEY196615 JOS196615:JOU196615 JYO196615:JYQ196615 KIK196615:KIM196615 KSG196615:KSI196615 LCC196615:LCE196615 LLY196615:LMA196615 LVU196615:LVW196615 MFQ196615:MFS196615 MPM196615:MPO196615 MZI196615:MZK196615 NJE196615:NJG196615 NTA196615:NTC196615 OCW196615:OCY196615 OMS196615:OMU196615 OWO196615:OWQ196615 PGK196615:PGM196615 PQG196615:PQI196615 QAC196615:QAE196615 QJY196615:QKA196615 QTU196615:QTW196615 RDQ196615:RDS196615 RNM196615:RNO196615 RXI196615:RXK196615 SHE196615:SHG196615 SRA196615:SRC196615 TAW196615:TAY196615 TKS196615:TKU196615 TUO196615:TUQ196615 UEK196615:UEM196615 UOG196615:UOI196615 UYC196615:UYE196615 VHY196615:VIA196615 VRU196615:VRW196615 WBQ196615:WBS196615 WLM196615:WLO196615 WVI196615:WVK196615 H262151:L262151 IW262151:IY262151 SS262151:SU262151 ACO262151:ACQ262151 AMK262151:AMM262151 AWG262151:AWI262151 BGC262151:BGE262151 BPY262151:BQA262151 BZU262151:BZW262151 CJQ262151:CJS262151 CTM262151:CTO262151 DDI262151:DDK262151 DNE262151:DNG262151 DXA262151:DXC262151 EGW262151:EGY262151 EQS262151:EQU262151 FAO262151:FAQ262151 FKK262151:FKM262151 FUG262151:FUI262151 GEC262151:GEE262151 GNY262151:GOA262151 GXU262151:GXW262151 HHQ262151:HHS262151 HRM262151:HRO262151 IBI262151:IBK262151 ILE262151:ILG262151 IVA262151:IVC262151 JEW262151:JEY262151 JOS262151:JOU262151 JYO262151:JYQ262151 KIK262151:KIM262151 KSG262151:KSI262151 LCC262151:LCE262151 LLY262151:LMA262151 LVU262151:LVW262151 MFQ262151:MFS262151 MPM262151:MPO262151 MZI262151:MZK262151 NJE262151:NJG262151 NTA262151:NTC262151 OCW262151:OCY262151 OMS262151:OMU262151 OWO262151:OWQ262151 PGK262151:PGM262151 PQG262151:PQI262151 QAC262151:QAE262151 QJY262151:QKA262151 QTU262151:QTW262151 RDQ262151:RDS262151 RNM262151:RNO262151 RXI262151:RXK262151 SHE262151:SHG262151 SRA262151:SRC262151 TAW262151:TAY262151 TKS262151:TKU262151 TUO262151:TUQ262151 UEK262151:UEM262151 UOG262151:UOI262151 UYC262151:UYE262151 VHY262151:VIA262151 VRU262151:VRW262151 WBQ262151:WBS262151 WLM262151:WLO262151 WVI262151:WVK262151 H327687:L327687 IW327687:IY327687 SS327687:SU327687 ACO327687:ACQ327687 AMK327687:AMM327687 AWG327687:AWI327687 BGC327687:BGE327687 BPY327687:BQA327687 BZU327687:BZW327687 CJQ327687:CJS327687 CTM327687:CTO327687 DDI327687:DDK327687 DNE327687:DNG327687 DXA327687:DXC327687 EGW327687:EGY327687 EQS327687:EQU327687 FAO327687:FAQ327687 FKK327687:FKM327687 FUG327687:FUI327687 GEC327687:GEE327687 GNY327687:GOA327687 GXU327687:GXW327687 HHQ327687:HHS327687 HRM327687:HRO327687 IBI327687:IBK327687 ILE327687:ILG327687 IVA327687:IVC327687 JEW327687:JEY327687 JOS327687:JOU327687 JYO327687:JYQ327687 KIK327687:KIM327687 KSG327687:KSI327687 LCC327687:LCE327687 LLY327687:LMA327687 LVU327687:LVW327687 MFQ327687:MFS327687 MPM327687:MPO327687 MZI327687:MZK327687 NJE327687:NJG327687 NTA327687:NTC327687 OCW327687:OCY327687 OMS327687:OMU327687 OWO327687:OWQ327687 PGK327687:PGM327687 PQG327687:PQI327687 QAC327687:QAE327687 QJY327687:QKA327687 QTU327687:QTW327687 RDQ327687:RDS327687 RNM327687:RNO327687 RXI327687:RXK327687 SHE327687:SHG327687 SRA327687:SRC327687 TAW327687:TAY327687 TKS327687:TKU327687 TUO327687:TUQ327687 UEK327687:UEM327687 UOG327687:UOI327687 UYC327687:UYE327687 VHY327687:VIA327687 VRU327687:VRW327687 WBQ327687:WBS327687 WLM327687:WLO327687 WVI327687:WVK327687 H393223:L393223 IW393223:IY393223 SS393223:SU393223 ACO393223:ACQ393223 AMK393223:AMM393223 AWG393223:AWI393223 BGC393223:BGE393223 BPY393223:BQA393223 BZU393223:BZW393223 CJQ393223:CJS393223 CTM393223:CTO393223 DDI393223:DDK393223 DNE393223:DNG393223 DXA393223:DXC393223 EGW393223:EGY393223 EQS393223:EQU393223 FAO393223:FAQ393223 FKK393223:FKM393223 FUG393223:FUI393223 GEC393223:GEE393223 GNY393223:GOA393223 GXU393223:GXW393223 HHQ393223:HHS393223 HRM393223:HRO393223 IBI393223:IBK393223 ILE393223:ILG393223 IVA393223:IVC393223 JEW393223:JEY393223 JOS393223:JOU393223 JYO393223:JYQ393223 KIK393223:KIM393223 KSG393223:KSI393223 LCC393223:LCE393223 LLY393223:LMA393223 LVU393223:LVW393223 MFQ393223:MFS393223 MPM393223:MPO393223 MZI393223:MZK393223 NJE393223:NJG393223 NTA393223:NTC393223 OCW393223:OCY393223 OMS393223:OMU393223 OWO393223:OWQ393223 PGK393223:PGM393223 PQG393223:PQI393223 QAC393223:QAE393223 QJY393223:QKA393223 QTU393223:QTW393223 RDQ393223:RDS393223 RNM393223:RNO393223 RXI393223:RXK393223 SHE393223:SHG393223 SRA393223:SRC393223 TAW393223:TAY393223 TKS393223:TKU393223 TUO393223:TUQ393223 UEK393223:UEM393223 UOG393223:UOI393223 UYC393223:UYE393223 VHY393223:VIA393223 VRU393223:VRW393223 WBQ393223:WBS393223 WLM393223:WLO393223 WVI393223:WVK393223 H458759:L458759 IW458759:IY458759 SS458759:SU458759 ACO458759:ACQ458759 AMK458759:AMM458759 AWG458759:AWI458759 BGC458759:BGE458759 BPY458759:BQA458759 BZU458759:BZW458759 CJQ458759:CJS458759 CTM458759:CTO458759 DDI458759:DDK458759 DNE458759:DNG458759 DXA458759:DXC458759 EGW458759:EGY458759 EQS458759:EQU458759 FAO458759:FAQ458759 FKK458759:FKM458759 FUG458759:FUI458759 GEC458759:GEE458759 GNY458759:GOA458759 GXU458759:GXW458759 HHQ458759:HHS458759 HRM458759:HRO458759 IBI458759:IBK458759 ILE458759:ILG458759 IVA458759:IVC458759 JEW458759:JEY458759 JOS458759:JOU458759 JYO458759:JYQ458759 KIK458759:KIM458759 KSG458759:KSI458759 LCC458759:LCE458759 LLY458759:LMA458759 LVU458759:LVW458759 MFQ458759:MFS458759 MPM458759:MPO458759 MZI458759:MZK458759 NJE458759:NJG458759 NTA458759:NTC458759 OCW458759:OCY458759 OMS458759:OMU458759 OWO458759:OWQ458759 PGK458759:PGM458759 PQG458759:PQI458759 QAC458759:QAE458759 QJY458759:QKA458759 QTU458759:QTW458759 RDQ458759:RDS458759 RNM458759:RNO458759 RXI458759:RXK458759 SHE458759:SHG458759 SRA458759:SRC458759 TAW458759:TAY458759 TKS458759:TKU458759 TUO458759:TUQ458759 UEK458759:UEM458759 UOG458759:UOI458759 UYC458759:UYE458759 VHY458759:VIA458759 VRU458759:VRW458759 WBQ458759:WBS458759 WLM458759:WLO458759 WVI458759:WVK458759 H524295:L524295 IW524295:IY524295 SS524295:SU524295 ACO524295:ACQ524295 AMK524295:AMM524295 AWG524295:AWI524295 BGC524295:BGE524295 BPY524295:BQA524295 BZU524295:BZW524295 CJQ524295:CJS524295 CTM524295:CTO524295 DDI524295:DDK524295 DNE524295:DNG524295 DXA524295:DXC524295 EGW524295:EGY524295 EQS524295:EQU524295 FAO524295:FAQ524295 FKK524295:FKM524295 FUG524295:FUI524295 GEC524295:GEE524295 GNY524295:GOA524295 GXU524295:GXW524295 HHQ524295:HHS524295 HRM524295:HRO524295 IBI524295:IBK524295 ILE524295:ILG524295 IVA524295:IVC524295 JEW524295:JEY524295 JOS524295:JOU524295 JYO524295:JYQ524295 KIK524295:KIM524295 KSG524295:KSI524295 LCC524295:LCE524295 LLY524295:LMA524295 LVU524295:LVW524295 MFQ524295:MFS524295 MPM524295:MPO524295 MZI524295:MZK524295 NJE524295:NJG524295 NTA524295:NTC524295 OCW524295:OCY524295 OMS524295:OMU524295 OWO524295:OWQ524295 PGK524295:PGM524295 PQG524295:PQI524295 QAC524295:QAE524295 QJY524295:QKA524295 QTU524295:QTW524295 RDQ524295:RDS524295 RNM524295:RNO524295 RXI524295:RXK524295 SHE524295:SHG524295 SRA524295:SRC524295 TAW524295:TAY524295 TKS524295:TKU524295 TUO524295:TUQ524295 UEK524295:UEM524295 UOG524295:UOI524295 UYC524295:UYE524295 VHY524295:VIA524295 VRU524295:VRW524295 WBQ524295:WBS524295 WLM524295:WLO524295 WVI524295:WVK524295 H589831:L589831 IW589831:IY589831 SS589831:SU589831 ACO589831:ACQ589831 AMK589831:AMM589831 AWG589831:AWI589831 BGC589831:BGE589831 BPY589831:BQA589831 BZU589831:BZW589831 CJQ589831:CJS589831 CTM589831:CTO589831 DDI589831:DDK589831 DNE589831:DNG589831 DXA589831:DXC589831 EGW589831:EGY589831 EQS589831:EQU589831 FAO589831:FAQ589831 FKK589831:FKM589831 FUG589831:FUI589831 GEC589831:GEE589831 GNY589831:GOA589831 GXU589831:GXW589831 HHQ589831:HHS589831 HRM589831:HRO589831 IBI589831:IBK589831 ILE589831:ILG589831 IVA589831:IVC589831 JEW589831:JEY589831 JOS589831:JOU589831 JYO589831:JYQ589831 KIK589831:KIM589831 KSG589831:KSI589831 LCC589831:LCE589831 LLY589831:LMA589831 LVU589831:LVW589831 MFQ589831:MFS589831 MPM589831:MPO589831 MZI589831:MZK589831 NJE589831:NJG589831 NTA589831:NTC589831 OCW589831:OCY589831 OMS589831:OMU589831 OWO589831:OWQ589831 PGK589831:PGM589831 PQG589831:PQI589831 QAC589831:QAE589831 QJY589831:QKA589831 QTU589831:QTW589831 RDQ589831:RDS589831 RNM589831:RNO589831 RXI589831:RXK589831 SHE589831:SHG589831 SRA589831:SRC589831 TAW589831:TAY589831 TKS589831:TKU589831 TUO589831:TUQ589831 UEK589831:UEM589831 UOG589831:UOI589831 UYC589831:UYE589831 VHY589831:VIA589831 VRU589831:VRW589831 WBQ589831:WBS589831 WLM589831:WLO589831 WVI589831:WVK589831 H655367:L655367 IW655367:IY655367 SS655367:SU655367 ACO655367:ACQ655367 AMK655367:AMM655367 AWG655367:AWI655367 BGC655367:BGE655367 BPY655367:BQA655367 BZU655367:BZW655367 CJQ655367:CJS655367 CTM655367:CTO655367 DDI655367:DDK655367 DNE655367:DNG655367 DXA655367:DXC655367 EGW655367:EGY655367 EQS655367:EQU655367 FAO655367:FAQ655367 FKK655367:FKM655367 FUG655367:FUI655367 GEC655367:GEE655367 GNY655367:GOA655367 GXU655367:GXW655367 HHQ655367:HHS655367 HRM655367:HRO655367 IBI655367:IBK655367 ILE655367:ILG655367 IVA655367:IVC655367 JEW655367:JEY655367 JOS655367:JOU655367 JYO655367:JYQ655367 KIK655367:KIM655367 KSG655367:KSI655367 LCC655367:LCE655367 LLY655367:LMA655367 LVU655367:LVW655367 MFQ655367:MFS655367 MPM655367:MPO655367 MZI655367:MZK655367 NJE655367:NJG655367 NTA655367:NTC655367 OCW655367:OCY655367 OMS655367:OMU655367 OWO655367:OWQ655367 PGK655367:PGM655367 PQG655367:PQI655367 QAC655367:QAE655367 QJY655367:QKA655367 QTU655367:QTW655367 RDQ655367:RDS655367 RNM655367:RNO655367 RXI655367:RXK655367 SHE655367:SHG655367 SRA655367:SRC655367 TAW655367:TAY655367 TKS655367:TKU655367 TUO655367:TUQ655367 UEK655367:UEM655367 UOG655367:UOI655367 UYC655367:UYE655367 VHY655367:VIA655367 VRU655367:VRW655367 WBQ655367:WBS655367 WLM655367:WLO655367 WVI655367:WVK655367 H720903:L720903 IW720903:IY720903 SS720903:SU720903 ACO720903:ACQ720903 AMK720903:AMM720903 AWG720903:AWI720903 BGC720903:BGE720903 BPY720903:BQA720903 BZU720903:BZW720903 CJQ720903:CJS720903 CTM720903:CTO720903 DDI720903:DDK720903 DNE720903:DNG720903 DXA720903:DXC720903 EGW720903:EGY720903 EQS720903:EQU720903 FAO720903:FAQ720903 FKK720903:FKM720903 FUG720903:FUI720903 GEC720903:GEE720903 GNY720903:GOA720903 GXU720903:GXW720903 HHQ720903:HHS720903 HRM720903:HRO720903 IBI720903:IBK720903 ILE720903:ILG720903 IVA720903:IVC720903 JEW720903:JEY720903 JOS720903:JOU720903 JYO720903:JYQ720903 KIK720903:KIM720903 KSG720903:KSI720903 LCC720903:LCE720903 LLY720903:LMA720903 LVU720903:LVW720903 MFQ720903:MFS720903 MPM720903:MPO720903 MZI720903:MZK720903 NJE720903:NJG720903 NTA720903:NTC720903 OCW720903:OCY720903 OMS720903:OMU720903 OWO720903:OWQ720903 PGK720903:PGM720903 PQG720903:PQI720903 QAC720903:QAE720903 QJY720903:QKA720903 QTU720903:QTW720903 RDQ720903:RDS720903 RNM720903:RNO720903 RXI720903:RXK720903 SHE720903:SHG720903 SRA720903:SRC720903 TAW720903:TAY720903 TKS720903:TKU720903 TUO720903:TUQ720903 UEK720903:UEM720903 UOG720903:UOI720903 UYC720903:UYE720903 VHY720903:VIA720903 VRU720903:VRW720903 WBQ720903:WBS720903 WLM720903:WLO720903 WVI720903:WVK720903 H786439:L786439 IW786439:IY786439 SS786439:SU786439 ACO786439:ACQ786439 AMK786439:AMM786439 AWG786439:AWI786439 BGC786439:BGE786439 BPY786439:BQA786439 BZU786439:BZW786439 CJQ786439:CJS786439 CTM786439:CTO786439 DDI786439:DDK786439 DNE786439:DNG786439 DXA786439:DXC786439 EGW786439:EGY786439 EQS786439:EQU786439 FAO786439:FAQ786439 FKK786439:FKM786439 FUG786439:FUI786439 GEC786439:GEE786439 GNY786439:GOA786439 GXU786439:GXW786439 HHQ786439:HHS786439 HRM786439:HRO786439 IBI786439:IBK786439 ILE786439:ILG786439 IVA786439:IVC786439 JEW786439:JEY786439 JOS786439:JOU786439 JYO786439:JYQ786439 KIK786439:KIM786439 KSG786439:KSI786439 LCC786439:LCE786439 LLY786439:LMA786439 LVU786439:LVW786439 MFQ786439:MFS786439 MPM786439:MPO786439 MZI786439:MZK786439 NJE786439:NJG786439 NTA786439:NTC786439 OCW786439:OCY786439 OMS786439:OMU786439 OWO786439:OWQ786439 PGK786439:PGM786439 PQG786439:PQI786439 QAC786439:QAE786439 QJY786439:QKA786439 QTU786439:QTW786439 RDQ786439:RDS786439 RNM786439:RNO786439 RXI786439:RXK786439 SHE786439:SHG786439 SRA786439:SRC786439 TAW786439:TAY786439 TKS786439:TKU786439 TUO786439:TUQ786439 UEK786439:UEM786439 UOG786439:UOI786439 UYC786439:UYE786439 VHY786439:VIA786439 VRU786439:VRW786439 WBQ786439:WBS786439 WLM786439:WLO786439 WVI786439:WVK786439 H851975:L851975 IW851975:IY851975 SS851975:SU851975 ACO851975:ACQ851975 AMK851975:AMM851975 AWG851975:AWI851975 BGC851975:BGE851975 BPY851975:BQA851975 BZU851975:BZW851975 CJQ851975:CJS851975 CTM851975:CTO851975 DDI851975:DDK851975 DNE851975:DNG851975 DXA851975:DXC851975 EGW851975:EGY851975 EQS851975:EQU851975 FAO851975:FAQ851975 FKK851975:FKM851975 FUG851975:FUI851975 GEC851975:GEE851975 GNY851975:GOA851975 GXU851975:GXW851975 HHQ851975:HHS851975 HRM851975:HRO851975 IBI851975:IBK851975 ILE851975:ILG851975 IVA851975:IVC851975 JEW851975:JEY851975 JOS851975:JOU851975 JYO851975:JYQ851975 KIK851975:KIM851975 KSG851975:KSI851975 LCC851975:LCE851975 LLY851975:LMA851975 LVU851975:LVW851975 MFQ851975:MFS851975 MPM851975:MPO851975 MZI851975:MZK851975 NJE851975:NJG851975 NTA851975:NTC851975 OCW851975:OCY851975 OMS851975:OMU851975 OWO851975:OWQ851975 PGK851975:PGM851975 PQG851975:PQI851975 QAC851975:QAE851975 QJY851975:QKA851975 QTU851975:QTW851975 RDQ851975:RDS851975 RNM851975:RNO851975 RXI851975:RXK851975 SHE851975:SHG851975 SRA851975:SRC851975 TAW851975:TAY851975 TKS851975:TKU851975 TUO851975:TUQ851975 UEK851975:UEM851975 UOG851975:UOI851975 UYC851975:UYE851975 VHY851975:VIA851975 VRU851975:VRW851975 WBQ851975:WBS851975 WLM851975:WLO851975 WVI851975:WVK851975 H917511:L917511 IW917511:IY917511 SS917511:SU917511 ACO917511:ACQ917511 AMK917511:AMM917511 AWG917511:AWI917511 BGC917511:BGE917511 BPY917511:BQA917511 BZU917511:BZW917511 CJQ917511:CJS917511 CTM917511:CTO917511 DDI917511:DDK917511 DNE917511:DNG917511 DXA917511:DXC917511 EGW917511:EGY917511 EQS917511:EQU917511 FAO917511:FAQ917511 FKK917511:FKM917511 FUG917511:FUI917511 GEC917511:GEE917511 GNY917511:GOA917511 GXU917511:GXW917511 HHQ917511:HHS917511 HRM917511:HRO917511 IBI917511:IBK917511 ILE917511:ILG917511 IVA917511:IVC917511 JEW917511:JEY917511 JOS917511:JOU917511 JYO917511:JYQ917511 KIK917511:KIM917511 KSG917511:KSI917511 LCC917511:LCE917511 LLY917511:LMA917511 LVU917511:LVW917511 MFQ917511:MFS917511 MPM917511:MPO917511 MZI917511:MZK917511 NJE917511:NJG917511 NTA917511:NTC917511 OCW917511:OCY917511 OMS917511:OMU917511 OWO917511:OWQ917511 PGK917511:PGM917511 PQG917511:PQI917511 QAC917511:QAE917511 QJY917511:QKA917511 QTU917511:QTW917511 RDQ917511:RDS917511 RNM917511:RNO917511 RXI917511:RXK917511 SHE917511:SHG917511 SRA917511:SRC917511 TAW917511:TAY917511 TKS917511:TKU917511 TUO917511:TUQ917511 UEK917511:UEM917511 UOG917511:UOI917511 UYC917511:UYE917511 VHY917511:VIA917511 VRU917511:VRW917511 WBQ917511:WBS917511 WLM917511:WLO917511 WVI917511:WVK917511 H983047:L983047 IW983047:IY983047 SS983047:SU983047 ACO983047:ACQ983047 AMK983047:AMM983047 AWG983047:AWI983047 BGC983047:BGE983047 BPY983047:BQA983047 BZU983047:BZW983047 CJQ983047:CJS983047 CTM983047:CTO983047 DDI983047:DDK983047 DNE983047:DNG983047 DXA983047:DXC983047 EGW983047:EGY983047 EQS983047:EQU983047 FAO983047:FAQ983047 FKK983047:FKM983047 FUG983047:FUI983047 GEC983047:GEE983047 GNY983047:GOA983047 GXU983047:GXW983047 HHQ983047:HHS983047 HRM983047:HRO983047 IBI983047:IBK983047 ILE983047:ILG983047 IVA983047:IVC983047 JEW983047:JEY983047 JOS983047:JOU983047 JYO983047:JYQ983047 KIK983047:KIM983047 KSG983047:KSI983047 LCC983047:LCE983047 LLY983047:LMA983047 LVU983047:LVW983047 MFQ983047:MFS983047 MPM983047:MPO983047 MZI983047:MZK983047 NJE983047:NJG983047 NTA983047:NTC983047 OCW983047:OCY983047 OMS983047:OMU983047 OWO983047:OWQ983047 PGK983047:PGM983047 PQG983047:PQI983047 QAC983047:QAE983047 QJY983047:QKA983047 QTU983047:QTW983047 RDQ983047:RDS983047 RNM983047:RNO983047 RXI983047:RXK983047 SHE983047:SHG983047 SRA983047:SRC983047 TAW983047:TAY983047 TKS983047:TKU983047 TUO983047:TUQ983047 UEK983047:UEM983047 UOG983047:UOI983047 UYC983047:UYE983047 VHY983047:VIA983047 VRU983047:VRW983047 WBQ983047:WBS983047 WLM983047:WLO983047 WVI983047:WVK983047 IW8:IY8 IQ8:IR8 SM8:SN8 ACI8:ACJ8 AME8:AMF8 AWA8:AWB8 BFW8:BFX8 BPS8:BPT8 BZO8:BZP8 CJK8:CJL8 CTG8:CTH8 DDC8:DDD8 DMY8:DMZ8 DWU8:DWV8 EGQ8:EGR8 EQM8:EQN8 FAI8:FAJ8 FKE8:FKF8 FUA8:FUB8 GDW8:GDX8 GNS8:GNT8 GXO8:GXP8 HHK8:HHL8 HRG8:HRH8 IBC8:IBD8 IKY8:IKZ8 IUU8:IUV8 JEQ8:JER8 JOM8:JON8 JYI8:JYJ8 KIE8:KIF8 KSA8:KSB8 LBW8:LBX8 LLS8:LLT8 LVO8:LVP8 MFK8:MFL8 MPG8:MPH8 MZC8:MZD8 NIY8:NIZ8 NSU8:NSV8 OCQ8:OCR8 OMM8:OMN8 OWI8:OWJ8 PGE8:PGF8 PQA8:PQB8 PZW8:PZX8 QJS8:QJT8 QTO8:QTP8 RDK8:RDL8 RNG8:RNH8 RXC8:RXD8 SGY8:SGZ8 SQU8:SQV8 TAQ8:TAR8 TKM8:TKN8 TUI8:TUJ8 UEE8:UEF8 UOA8:UOB8 UXW8:UXX8 VHS8:VHT8 VRO8:VRP8 WBK8:WBL8 WLG8:WLH8 WVC8:WVD8 E65543:F65543 IQ65543:IR65543 SM65543:SN65543 ACI65543:ACJ65543 AME65543:AMF65543 AWA65543:AWB65543 BFW65543:BFX65543 BPS65543:BPT65543 BZO65543:BZP65543 CJK65543:CJL65543 CTG65543:CTH65543 DDC65543:DDD65543 DMY65543:DMZ65543 DWU65543:DWV65543 EGQ65543:EGR65543 EQM65543:EQN65543 FAI65543:FAJ65543 FKE65543:FKF65543 FUA65543:FUB65543 GDW65543:GDX65543 GNS65543:GNT65543 GXO65543:GXP65543 HHK65543:HHL65543 HRG65543:HRH65543 IBC65543:IBD65543 IKY65543:IKZ65543 IUU65543:IUV65543 JEQ65543:JER65543 JOM65543:JON65543 JYI65543:JYJ65543 KIE65543:KIF65543 KSA65543:KSB65543 LBW65543:LBX65543 LLS65543:LLT65543 LVO65543:LVP65543 MFK65543:MFL65543 MPG65543:MPH65543 MZC65543:MZD65543 NIY65543:NIZ65543 NSU65543:NSV65543 OCQ65543:OCR65543 OMM65543:OMN65543 OWI65543:OWJ65543 PGE65543:PGF65543 PQA65543:PQB65543 PZW65543:PZX65543 QJS65543:QJT65543 QTO65543:QTP65543 RDK65543:RDL65543 RNG65543:RNH65543 RXC65543:RXD65543 SGY65543:SGZ65543 SQU65543:SQV65543 TAQ65543:TAR65543 TKM65543:TKN65543 TUI65543:TUJ65543 UEE65543:UEF65543 UOA65543:UOB65543 UXW65543:UXX65543 VHS65543:VHT65543 VRO65543:VRP65543 WBK65543:WBL65543 WLG65543:WLH65543 WVC65543:WVD65543 E131079:F131079 IQ131079:IR131079 SM131079:SN131079 ACI131079:ACJ131079 AME131079:AMF131079 AWA131079:AWB131079 BFW131079:BFX131079 BPS131079:BPT131079 BZO131079:BZP131079 CJK131079:CJL131079 CTG131079:CTH131079 DDC131079:DDD131079 DMY131079:DMZ131079 DWU131079:DWV131079 EGQ131079:EGR131079 EQM131079:EQN131079 FAI131079:FAJ131079 FKE131079:FKF131079 FUA131079:FUB131079 GDW131079:GDX131079 GNS131079:GNT131079 GXO131079:GXP131079 HHK131079:HHL131079 HRG131079:HRH131079 IBC131079:IBD131079 IKY131079:IKZ131079 IUU131079:IUV131079 JEQ131079:JER131079 JOM131079:JON131079 JYI131079:JYJ131079 KIE131079:KIF131079 KSA131079:KSB131079 LBW131079:LBX131079 LLS131079:LLT131079 LVO131079:LVP131079 MFK131079:MFL131079 MPG131079:MPH131079 MZC131079:MZD131079 NIY131079:NIZ131079 NSU131079:NSV131079 OCQ131079:OCR131079 OMM131079:OMN131079 OWI131079:OWJ131079 PGE131079:PGF131079 PQA131079:PQB131079 PZW131079:PZX131079 QJS131079:QJT131079 QTO131079:QTP131079 RDK131079:RDL131079 RNG131079:RNH131079 RXC131079:RXD131079 SGY131079:SGZ131079 SQU131079:SQV131079 TAQ131079:TAR131079 TKM131079:TKN131079 TUI131079:TUJ131079 UEE131079:UEF131079 UOA131079:UOB131079 UXW131079:UXX131079 VHS131079:VHT131079 VRO131079:VRP131079 WBK131079:WBL131079 WLG131079:WLH131079 WVC131079:WVD131079 E196615:F196615 IQ196615:IR196615 SM196615:SN196615 ACI196615:ACJ196615 AME196615:AMF196615 AWA196615:AWB196615 BFW196615:BFX196615 BPS196615:BPT196615 BZO196615:BZP196615 CJK196615:CJL196615 CTG196615:CTH196615 DDC196615:DDD196615 DMY196615:DMZ196615 DWU196615:DWV196615 EGQ196615:EGR196615 EQM196615:EQN196615 FAI196615:FAJ196615 FKE196615:FKF196615 FUA196615:FUB196615 GDW196615:GDX196615 GNS196615:GNT196615 GXO196615:GXP196615 HHK196615:HHL196615 HRG196615:HRH196615 IBC196615:IBD196615 IKY196615:IKZ196615 IUU196615:IUV196615 JEQ196615:JER196615 JOM196615:JON196615 JYI196615:JYJ196615 KIE196615:KIF196615 KSA196615:KSB196615 LBW196615:LBX196615 LLS196615:LLT196615 LVO196615:LVP196615 MFK196615:MFL196615 MPG196615:MPH196615 MZC196615:MZD196615 NIY196615:NIZ196615 NSU196615:NSV196615 OCQ196615:OCR196615 OMM196615:OMN196615 OWI196615:OWJ196615 PGE196615:PGF196615 PQA196615:PQB196615 PZW196615:PZX196615 QJS196615:QJT196615 QTO196615:QTP196615 RDK196615:RDL196615 RNG196615:RNH196615 RXC196615:RXD196615 SGY196615:SGZ196615 SQU196615:SQV196615 TAQ196615:TAR196615 TKM196615:TKN196615 TUI196615:TUJ196615 UEE196615:UEF196615 UOA196615:UOB196615 UXW196615:UXX196615 VHS196615:VHT196615 VRO196615:VRP196615 WBK196615:WBL196615 WLG196615:WLH196615 WVC196615:WVD196615 E262151:F262151 IQ262151:IR262151 SM262151:SN262151 ACI262151:ACJ262151 AME262151:AMF262151 AWA262151:AWB262151 BFW262151:BFX262151 BPS262151:BPT262151 BZO262151:BZP262151 CJK262151:CJL262151 CTG262151:CTH262151 DDC262151:DDD262151 DMY262151:DMZ262151 DWU262151:DWV262151 EGQ262151:EGR262151 EQM262151:EQN262151 FAI262151:FAJ262151 FKE262151:FKF262151 FUA262151:FUB262151 GDW262151:GDX262151 GNS262151:GNT262151 GXO262151:GXP262151 HHK262151:HHL262151 HRG262151:HRH262151 IBC262151:IBD262151 IKY262151:IKZ262151 IUU262151:IUV262151 JEQ262151:JER262151 JOM262151:JON262151 JYI262151:JYJ262151 KIE262151:KIF262151 KSA262151:KSB262151 LBW262151:LBX262151 LLS262151:LLT262151 LVO262151:LVP262151 MFK262151:MFL262151 MPG262151:MPH262151 MZC262151:MZD262151 NIY262151:NIZ262151 NSU262151:NSV262151 OCQ262151:OCR262151 OMM262151:OMN262151 OWI262151:OWJ262151 PGE262151:PGF262151 PQA262151:PQB262151 PZW262151:PZX262151 QJS262151:QJT262151 QTO262151:QTP262151 RDK262151:RDL262151 RNG262151:RNH262151 RXC262151:RXD262151 SGY262151:SGZ262151 SQU262151:SQV262151 TAQ262151:TAR262151 TKM262151:TKN262151 TUI262151:TUJ262151 UEE262151:UEF262151 UOA262151:UOB262151 UXW262151:UXX262151 VHS262151:VHT262151 VRO262151:VRP262151 WBK262151:WBL262151 WLG262151:WLH262151 WVC262151:WVD262151 E327687:F327687 IQ327687:IR327687 SM327687:SN327687 ACI327687:ACJ327687 AME327687:AMF327687 AWA327687:AWB327687 BFW327687:BFX327687 BPS327687:BPT327687 BZO327687:BZP327687 CJK327687:CJL327687 CTG327687:CTH327687 DDC327687:DDD327687 DMY327687:DMZ327687 DWU327687:DWV327687 EGQ327687:EGR327687 EQM327687:EQN327687 FAI327687:FAJ327687 FKE327687:FKF327687 FUA327687:FUB327687 GDW327687:GDX327687 GNS327687:GNT327687 GXO327687:GXP327687 HHK327687:HHL327687 HRG327687:HRH327687 IBC327687:IBD327687 IKY327687:IKZ327687 IUU327687:IUV327687 JEQ327687:JER327687 JOM327687:JON327687 JYI327687:JYJ327687 KIE327687:KIF327687 KSA327687:KSB327687 LBW327687:LBX327687 LLS327687:LLT327687 LVO327687:LVP327687 MFK327687:MFL327687 MPG327687:MPH327687 MZC327687:MZD327687 NIY327687:NIZ327687 NSU327687:NSV327687 OCQ327687:OCR327687 OMM327687:OMN327687 OWI327687:OWJ327687 PGE327687:PGF327687 PQA327687:PQB327687 PZW327687:PZX327687 QJS327687:QJT327687 QTO327687:QTP327687 RDK327687:RDL327687 RNG327687:RNH327687 RXC327687:RXD327687 SGY327687:SGZ327687 SQU327687:SQV327687 TAQ327687:TAR327687 TKM327687:TKN327687 TUI327687:TUJ327687 UEE327687:UEF327687 UOA327687:UOB327687 UXW327687:UXX327687 VHS327687:VHT327687 VRO327687:VRP327687 WBK327687:WBL327687 WLG327687:WLH327687 WVC327687:WVD327687 E393223:F393223 IQ393223:IR393223 SM393223:SN393223 ACI393223:ACJ393223 AME393223:AMF393223 AWA393223:AWB393223 BFW393223:BFX393223 BPS393223:BPT393223 BZO393223:BZP393223 CJK393223:CJL393223 CTG393223:CTH393223 DDC393223:DDD393223 DMY393223:DMZ393223 DWU393223:DWV393223 EGQ393223:EGR393223 EQM393223:EQN393223 FAI393223:FAJ393223 FKE393223:FKF393223 FUA393223:FUB393223 GDW393223:GDX393223 GNS393223:GNT393223 GXO393223:GXP393223 HHK393223:HHL393223 HRG393223:HRH393223 IBC393223:IBD393223 IKY393223:IKZ393223 IUU393223:IUV393223 JEQ393223:JER393223 JOM393223:JON393223 JYI393223:JYJ393223 KIE393223:KIF393223 KSA393223:KSB393223 LBW393223:LBX393223 LLS393223:LLT393223 LVO393223:LVP393223 MFK393223:MFL393223 MPG393223:MPH393223 MZC393223:MZD393223 NIY393223:NIZ393223 NSU393223:NSV393223 OCQ393223:OCR393223 OMM393223:OMN393223 OWI393223:OWJ393223 PGE393223:PGF393223 PQA393223:PQB393223 PZW393223:PZX393223 QJS393223:QJT393223 QTO393223:QTP393223 RDK393223:RDL393223 RNG393223:RNH393223 RXC393223:RXD393223 SGY393223:SGZ393223 SQU393223:SQV393223 TAQ393223:TAR393223 TKM393223:TKN393223 TUI393223:TUJ393223 UEE393223:UEF393223 UOA393223:UOB393223 UXW393223:UXX393223 VHS393223:VHT393223 VRO393223:VRP393223 WBK393223:WBL393223 WLG393223:WLH393223 WVC393223:WVD393223 E458759:F458759 IQ458759:IR458759 SM458759:SN458759 ACI458759:ACJ458759 AME458759:AMF458759 AWA458759:AWB458759 BFW458759:BFX458759 BPS458759:BPT458759 BZO458759:BZP458759 CJK458759:CJL458759 CTG458759:CTH458759 DDC458759:DDD458759 DMY458759:DMZ458759 DWU458759:DWV458759 EGQ458759:EGR458759 EQM458759:EQN458759 FAI458759:FAJ458759 FKE458759:FKF458759 FUA458759:FUB458759 GDW458759:GDX458759 GNS458759:GNT458759 GXO458759:GXP458759 HHK458759:HHL458759 HRG458759:HRH458759 IBC458759:IBD458759 IKY458759:IKZ458759 IUU458759:IUV458759 JEQ458759:JER458759 JOM458759:JON458759 JYI458759:JYJ458759 KIE458759:KIF458759 KSA458759:KSB458759 LBW458759:LBX458759 LLS458759:LLT458759 LVO458759:LVP458759 MFK458759:MFL458759 MPG458759:MPH458759 MZC458759:MZD458759 NIY458759:NIZ458759 NSU458759:NSV458759 OCQ458759:OCR458759 OMM458759:OMN458759 OWI458759:OWJ458759 PGE458759:PGF458759 PQA458759:PQB458759 PZW458759:PZX458759 QJS458759:QJT458759 QTO458759:QTP458759 RDK458759:RDL458759 RNG458759:RNH458759 RXC458759:RXD458759 SGY458759:SGZ458759 SQU458759:SQV458759 TAQ458759:TAR458759 TKM458759:TKN458759 TUI458759:TUJ458759 UEE458759:UEF458759 UOA458759:UOB458759 UXW458759:UXX458759 VHS458759:VHT458759 VRO458759:VRP458759 WBK458759:WBL458759 WLG458759:WLH458759 WVC458759:WVD458759 E524295:F524295 IQ524295:IR524295 SM524295:SN524295 ACI524295:ACJ524295 AME524295:AMF524295 AWA524295:AWB524295 BFW524295:BFX524295 BPS524295:BPT524295 BZO524295:BZP524295 CJK524295:CJL524295 CTG524295:CTH524295 DDC524295:DDD524295 DMY524295:DMZ524295 DWU524295:DWV524295 EGQ524295:EGR524295 EQM524295:EQN524295 FAI524295:FAJ524295 FKE524295:FKF524295 FUA524295:FUB524295 GDW524295:GDX524295 GNS524295:GNT524295 GXO524295:GXP524295 HHK524295:HHL524295 HRG524295:HRH524295 IBC524295:IBD524295 IKY524295:IKZ524295 IUU524295:IUV524295 JEQ524295:JER524295 JOM524295:JON524295 JYI524295:JYJ524295 KIE524295:KIF524295 KSA524295:KSB524295 LBW524295:LBX524295 LLS524295:LLT524295 LVO524295:LVP524295 MFK524295:MFL524295 MPG524295:MPH524295 MZC524295:MZD524295 NIY524295:NIZ524295 NSU524295:NSV524295 OCQ524295:OCR524295 OMM524295:OMN524295 OWI524295:OWJ524295 PGE524295:PGF524295 PQA524295:PQB524295 PZW524295:PZX524295 QJS524295:QJT524295 QTO524295:QTP524295 RDK524295:RDL524295 RNG524295:RNH524295 RXC524295:RXD524295 SGY524295:SGZ524295 SQU524295:SQV524295 TAQ524295:TAR524295 TKM524295:TKN524295 TUI524295:TUJ524295 UEE524295:UEF524295 UOA524295:UOB524295 UXW524295:UXX524295 VHS524295:VHT524295 VRO524295:VRP524295 WBK524295:WBL524295 WLG524295:WLH524295 WVC524295:WVD524295 E589831:F589831 IQ589831:IR589831 SM589831:SN589831 ACI589831:ACJ589831 AME589831:AMF589831 AWA589831:AWB589831 BFW589831:BFX589831 BPS589831:BPT589831 BZO589831:BZP589831 CJK589831:CJL589831 CTG589831:CTH589831 DDC589831:DDD589831 DMY589831:DMZ589831 DWU589831:DWV589831 EGQ589831:EGR589831 EQM589831:EQN589831 FAI589831:FAJ589831 FKE589831:FKF589831 FUA589831:FUB589831 GDW589831:GDX589831 GNS589831:GNT589831 GXO589831:GXP589831 HHK589831:HHL589831 HRG589831:HRH589831 IBC589831:IBD589831 IKY589831:IKZ589831 IUU589831:IUV589831 JEQ589831:JER589831 JOM589831:JON589831 JYI589831:JYJ589831 KIE589831:KIF589831 KSA589831:KSB589831 LBW589831:LBX589831 LLS589831:LLT589831 LVO589831:LVP589831 MFK589831:MFL589831 MPG589831:MPH589831 MZC589831:MZD589831 NIY589831:NIZ589831 NSU589831:NSV589831 OCQ589831:OCR589831 OMM589831:OMN589831 OWI589831:OWJ589831 PGE589831:PGF589831 PQA589831:PQB589831 PZW589831:PZX589831 QJS589831:QJT589831 QTO589831:QTP589831 RDK589831:RDL589831 RNG589831:RNH589831 RXC589831:RXD589831 SGY589831:SGZ589831 SQU589831:SQV589831 TAQ589831:TAR589831 TKM589831:TKN589831 TUI589831:TUJ589831 UEE589831:UEF589831 UOA589831:UOB589831 UXW589831:UXX589831 VHS589831:VHT589831 VRO589831:VRP589831 WBK589831:WBL589831 WLG589831:WLH589831 WVC589831:WVD589831 E655367:F655367 IQ655367:IR655367 SM655367:SN655367 ACI655367:ACJ655367 AME655367:AMF655367 AWA655367:AWB655367 BFW655367:BFX655367 BPS655367:BPT655367 BZO655367:BZP655367 CJK655367:CJL655367 CTG655367:CTH655367 DDC655367:DDD655367 DMY655367:DMZ655367 DWU655367:DWV655367 EGQ655367:EGR655367 EQM655367:EQN655367 FAI655367:FAJ655367 FKE655367:FKF655367 FUA655367:FUB655367 GDW655367:GDX655367 GNS655367:GNT655367 GXO655367:GXP655367 HHK655367:HHL655367 HRG655367:HRH655367 IBC655367:IBD655367 IKY655367:IKZ655367 IUU655367:IUV655367 JEQ655367:JER655367 JOM655367:JON655367 JYI655367:JYJ655367 KIE655367:KIF655367 KSA655367:KSB655367 LBW655367:LBX655367 LLS655367:LLT655367 LVO655367:LVP655367 MFK655367:MFL655367 MPG655367:MPH655367 MZC655367:MZD655367 NIY655367:NIZ655367 NSU655367:NSV655367 OCQ655367:OCR655367 OMM655367:OMN655367 OWI655367:OWJ655367 PGE655367:PGF655367 PQA655367:PQB655367 PZW655367:PZX655367 QJS655367:QJT655367 QTO655367:QTP655367 RDK655367:RDL655367 RNG655367:RNH655367 RXC655367:RXD655367 SGY655367:SGZ655367 SQU655367:SQV655367 TAQ655367:TAR655367 TKM655367:TKN655367 TUI655367:TUJ655367 UEE655367:UEF655367 UOA655367:UOB655367 UXW655367:UXX655367 VHS655367:VHT655367 VRO655367:VRP655367 WBK655367:WBL655367 WLG655367:WLH655367 WVC655367:WVD655367 E720903:F720903 IQ720903:IR720903 SM720903:SN720903 ACI720903:ACJ720903 AME720903:AMF720903 AWA720903:AWB720903 BFW720903:BFX720903 BPS720903:BPT720903 BZO720903:BZP720903 CJK720903:CJL720903 CTG720903:CTH720903 DDC720903:DDD720903 DMY720903:DMZ720903 DWU720903:DWV720903 EGQ720903:EGR720903 EQM720903:EQN720903 FAI720903:FAJ720903 FKE720903:FKF720903 FUA720903:FUB720903 GDW720903:GDX720903 GNS720903:GNT720903 GXO720903:GXP720903 HHK720903:HHL720903 HRG720903:HRH720903 IBC720903:IBD720903 IKY720903:IKZ720903 IUU720903:IUV720903 JEQ720903:JER720903 JOM720903:JON720903 JYI720903:JYJ720903 KIE720903:KIF720903 KSA720903:KSB720903 LBW720903:LBX720903 LLS720903:LLT720903 LVO720903:LVP720903 MFK720903:MFL720903 MPG720903:MPH720903 MZC720903:MZD720903 NIY720903:NIZ720903 NSU720903:NSV720903 OCQ720903:OCR720903 OMM720903:OMN720903 OWI720903:OWJ720903 PGE720903:PGF720903 PQA720903:PQB720903 PZW720903:PZX720903 QJS720903:QJT720903 QTO720903:QTP720903 RDK720903:RDL720903 RNG720903:RNH720903 RXC720903:RXD720903 SGY720903:SGZ720903 SQU720903:SQV720903 TAQ720903:TAR720903 TKM720903:TKN720903 TUI720903:TUJ720903 UEE720903:UEF720903 UOA720903:UOB720903 UXW720903:UXX720903 VHS720903:VHT720903 VRO720903:VRP720903 WBK720903:WBL720903 WLG720903:WLH720903 WVC720903:WVD720903 E786439:F786439 IQ786439:IR786439 SM786439:SN786439 ACI786439:ACJ786439 AME786439:AMF786439 AWA786439:AWB786439 BFW786439:BFX786439 BPS786439:BPT786439 BZO786439:BZP786439 CJK786439:CJL786439 CTG786439:CTH786439 DDC786439:DDD786439 DMY786439:DMZ786439 DWU786439:DWV786439 EGQ786439:EGR786439 EQM786439:EQN786439 FAI786439:FAJ786439 FKE786439:FKF786439 FUA786439:FUB786439 GDW786439:GDX786439 GNS786439:GNT786439 GXO786439:GXP786439 HHK786439:HHL786439 HRG786439:HRH786439 IBC786439:IBD786439 IKY786439:IKZ786439 IUU786439:IUV786439 JEQ786439:JER786439 JOM786439:JON786439 JYI786439:JYJ786439 KIE786439:KIF786439 KSA786439:KSB786439 LBW786439:LBX786439 LLS786439:LLT786439 LVO786439:LVP786439 MFK786439:MFL786439 MPG786439:MPH786439 MZC786439:MZD786439 NIY786439:NIZ786439 NSU786439:NSV786439 OCQ786439:OCR786439 OMM786439:OMN786439 OWI786439:OWJ786439 PGE786439:PGF786439 PQA786439:PQB786439 PZW786439:PZX786439 QJS786439:QJT786439 QTO786439:QTP786439 RDK786439:RDL786439 RNG786439:RNH786439 RXC786439:RXD786439 SGY786439:SGZ786439 SQU786439:SQV786439 TAQ786439:TAR786439 TKM786439:TKN786439 TUI786439:TUJ786439 UEE786439:UEF786439 UOA786439:UOB786439 UXW786439:UXX786439 VHS786439:VHT786439 VRO786439:VRP786439 WBK786439:WBL786439 WLG786439:WLH786439 WVC786439:WVD786439 E851975:F851975 IQ851975:IR851975 SM851975:SN851975 ACI851975:ACJ851975 AME851975:AMF851975 AWA851975:AWB851975 BFW851975:BFX851975 BPS851975:BPT851975 BZO851975:BZP851975 CJK851975:CJL851975 CTG851975:CTH851975 DDC851975:DDD851975 DMY851975:DMZ851975 DWU851975:DWV851975 EGQ851975:EGR851975 EQM851975:EQN851975 FAI851975:FAJ851975 FKE851975:FKF851975 FUA851975:FUB851975 GDW851975:GDX851975 GNS851975:GNT851975 GXO851975:GXP851975 HHK851975:HHL851975 HRG851975:HRH851975 IBC851975:IBD851975 IKY851975:IKZ851975 IUU851975:IUV851975 JEQ851975:JER851975 JOM851975:JON851975 JYI851975:JYJ851975 KIE851975:KIF851975 KSA851975:KSB851975 LBW851975:LBX851975 LLS851975:LLT851975 LVO851975:LVP851975 MFK851975:MFL851975 MPG851975:MPH851975 MZC851975:MZD851975 NIY851975:NIZ851975 NSU851975:NSV851975 OCQ851975:OCR851975 OMM851975:OMN851975 OWI851975:OWJ851975 PGE851975:PGF851975 PQA851975:PQB851975 PZW851975:PZX851975 QJS851975:QJT851975 QTO851975:QTP851975 RDK851975:RDL851975 RNG851975:RNH851975 RXC851975:RXD851975 SGY851975:SGZ851975 SQU851975:SQV851975 TAQ851975:TAR851975 TKM851975:TKN851975 TUI851975:TUJ851975 UEE851975:UEF851975 UOA851975:UOB851975 UXW851975:UXX851975 VHS851975:VHT851975 VRO851975:VRP851975 WBK851975:WBL851975 WLG851975:WLH851975 WVC851975:WVD851975 E917511:F917511 IQ917511:IR917511 SM917511:SN917511 ACI917511:ACJ917511 AME917511:AMF917511 AWA917511:AWB917511 BFW917511:BFX917511 BPS917511:BPT917511 BZO917511:BZP917511 CJK917511:CJL917511 CTG917511:CTH917511 DDC917511:DDD917511 DMY917511:DMZ917511 DWU917511:DWV917511 EGQ917511:EGR917511 EQM917511:EQN917511 FAI917511:FAJ917511 FKE917511:FKF917511 FUA917511:FUB917511 GDW917511:GDX917511 GNS917511:GNT917511 GXO917511:GXP917511 HHK917511:HHL917511 HRG917511:HRH917511 IBC917511:IBD917511 IKY917511:IKZ917511 IUU917511:IUV917511 JEQ917511:JER917511 JOM917511:JON917511 JYI917511:JYJ917511 KIE917511:KIF917511 KSA917511:KSB917511 LBW917511:LBX917511 LLS917511:LLT917511 LVO917511:LVP917511 MFK917511:MFL917511 MPG917511:MPH917511 MZC917511:MZD917511 NIY917511:NIZ917511 NSU917511:NSV917511 OCQ917511:OCR917511 OMM917511:OMN917511 OWI917511:OWJ917511 PGE917511:PGF917511 PQA917511:PQB917511 PZW917511:PZX917511 QJS917511:QJT917511 QTO917511:QTP917511 RDK917511:RDL917511 RNG917511:RNH917511 RXC917511:RXD917511 SGY917511:SGZ917511 SQU917511:SQV917511 TAQ917511:TAR917511 TKM917511:TKN917511 TUI917511:TUJ917511 UEE917511:UEF917511 UOA917511:UOB917511 UXW917511:UXX917511 VHS917511:VHT917511 VRO917511:VRP917511 WBK917511:WBL917511 WLG917511:WLH917511 WVC917511:WVD917511 E983047:F983047 IQ983047:IR983047 SM983047:SN983047 ACI983047:ACJ983047 AME983047:AMF983047 AWA983047:AWB983047 BFW983047:BFX983047 BPS983047:BPT983047 BZO983047:BZP983047 CJK983047:CJL983047 CTG983047:CTH983047 DDC983047:DDD983047 DMY983047:DMZ983047 DWU983047:DWV983047 EGQ983047:EGR983047 EQM983047:EQN983047 FAI983047:FAJ983047 FKE983047:FKF983047 FUA983047:FUB983047 GDW983047:GDX983047 GNS983047:GNT983047 GXO983047:GXP983047 HHK983047:HHL983047 HRG983047:HRH983047 IBC983047:IBD983047 IKY983047:IKZ983047 IUU983047:IUV983047 JEQ983047:JER983047 JOM983047:JON983047 JYI983047:JYJ983047 KIE983047:KIF983047 KSA983047:KSB983047 LBW983047:LBX983047 LLS983047:LLT983047 LVO983047:LVP983047 MFK983047:MFL983047 MPG983047:MPH983047 MZC983047:MZD983047 NIY983047:NIZ983047 NSU983047:NSV983047 OCQ983047:OCR983047 OMM983047:OMN983047 OWI983047:OWJ983047 PGE983047:PGF983047 PQA983047:PQB983047 PZW983047:PZX983047 QJS983047:QJT983047 QTO983047:QTP983047 RDK983047:RDL983047 RNG983047:RNH983047 RXC983047:RXD983047 SGY983047:SGZ983047 SQU983047:SQV983047 TAQ983047:TAR983047 TKM983047:TKN983047 TUI983047:TUJ983047 UEE983047:UEF983047 UOA983047:UOB983047 UXW983047:UXX983047 VHS983047:VHT983047 VRO983047:VRP983047 WBK983047:WBL983047 WLG983047:WLH983047 WVC983047:WVD983047 WLL983047:WLL983049 IS8:IS10 SO8:SO10 ACK8:ACK10 AMG8:AMG10 AWC8:AWC10 BFY8:BFY10 BPU8:BPU10 BZQ8:BZQ10 CJM8:CJM10 CTI8:CTI10 DDE8:DDE10 DNA8:DNA10 DWW8:DWW10 EGS8:EGS10 EQO8:EQO10 FAK8:FAK10 FKG8:FKG10 FUC8:FUC10 GDY8:GDY10 GNU8:GNU10 GXQ8:GXQ10 HHM8:HHM10 HRI8:HRI10 IBE8:IBE10 ILA8:ILA10 IUW8:IUW10 JES8:JES10 JOO8:JOO10 JYK8:JYK10 KIG8:KIG10 KSC8:KSC10 LBY8:LBY10 LLU8:LLU10 LVQ8:LVQ10 MFM8:MFM10 MPI8:MPI10 MZE8:MZE10 NJA8:NJA10 NSW8:NSW10 OCS8:OCS10 OMO8:OMO10 OWK8:OWK10 PGG8:PGG10 PQC8:PQC10 PZY8:PZY10 QJU8:QJU10 QTQ8:QTQ10 RDM8:RDM10 RNI8:RNI10 RXE8:RXE10 SHA8:SHA10 SQW8:SQW10 TAS8:TAS10 TKO8:TKO10 TUK8:TUK10 UEG8:UEG10 UOC8:UOC10 UXY8:UXY10 VHU8:VHU10 VRQ8:VRQ10 WBM8:WBM10 WLI8:WLI10 WVE8:WVE10 G65543:G65545 IS65543:IS65545 SO65543:SO65545 ACK65543:ACK65545 AMG65543:AMG65545 AWC65543:AWC65545 BFY65543:BFY65545 BPU65543:BPU65545 BZQ65543:BZQ65545 CJM65543:CJM65545 CTI65543:CTI65545 DDE65543:DDE65545 DNA65543:DNA65545 DWW65543:DWW65545 EGS65543:EGS65545 EQO65543:EQO65545 FAK65543:FAK65545 FKG65543:FKG65545 FUC65543:FUC65545 GDY65543:GDY65545 GNU65543:GNU65545 GXQ65543:GXQ65545 HHM65543:HHM65545 HRI65543:HRI65545 IBE65543:IBE65545 ILA65543:ILA65545 IUW65543:IUW65545 JES65543:JES65545 JOO65543:JOO65545 JYK65543:JYK65545 KIG65543:KIG65545 KSC65543:KSC65545 LBY65543:LBY65545 LLU65543:LLU65545 LVQ65543:LVQ65545 MFM65543:MFM65545 MPI65543:MPI65545 MZE65543:MZE65545 NJA65543:NJA65545 NSW65543:NSW65545 OCS65543:OCS65545 OMO65543:OMO65545 OWK65543:OWK65545 PGG65543:PGG65545 PQC65543:PQC65545 PZY65543:PZY65545 QJU65543:QJU65545 QTQ65543:QTQ65545 RDM65543:RDM65545 RNI65543:RNI65545 RXE65543:RXE65545 SHA65543:SHA65545 SQW65543:SQW65545 TAS65543:TAS65545 TKO65543:TKO65545 TUK65543:TUK65545 UEG65543:UEG65545 UOC65543:UOC65545 UXY65543:UXY65545 VHU65543:VHU65545 VRQ65543:VRQ65545 WBM65543:WBM65545 WLI65543:WLI65545 WVE65543:WVE65545 G131079:G131081 IS131079:IS131081 SO131079:SO131081 ACK131079:ACK131081 AMG131079:AMG131081 AWC131079:AWC131081 BFY131079:BFY131081 BPU131079:BPU131081 BZQ131079:BZQ131081 CJM131079:CJM131081 CTI131079:CTI131081 DDE131079:DDE131081 DNA131079:DNA131081 DWW131079:DWW131081 EGS131079:EGS131081 EQO131079:EQO131081 FAK131079:FAK131081 FKG131079:FKG131081 FUC131079:FUC131081 GDY131079:GDY131081 GNU131079:GNU131081 GXQ131079:GXQ131081 HHM131079:HHM131081 HRI131079:HRI131081 IBE131079:IBE131081 ILA131079:ILA131081 IUW131079:IUW131081 JES131079:JES131081 JOO131079:JOO131081 JYK131079:JYK131081 KIG131079:KIG131081 KSC131079:KSC131081 LBY131079:LBY131081 LLU131079:LLU131081 LVQ131079:LVQ131081 MFM131079:MFM131081 MPI131079:MPI131081 MZE131079:MZE131081 NJA131079:NJA131081 NSW131079:NSW131081 OCS131079:OCS131081 OMO131079:OMO131081 OWK131079:OWK131081 PGG131079:PGG131081 PQC131079:PQC131081 PZY131079:PZY131081 QJU131079:QJU131081 QTQ131079:QTQ131081 RDM131079:RDM131081 RNI131079:RNI131081 RXE131079:RXE131081 SHA131079:SHA131081 SQW131079:SQW131081 TAS131079:TAS131081 TKO131079:TKO131081 TUK131079:TUK131081 UEG131079:UEG131081 UOC131079:UOC131081 UXY131079:UXY131081 VHU131079:VHU131081 VRQ131079:VRQ131081 WBM131079:WBM131081 WLI131079:WLI131081 WVE131079:WVE131081 G196615:G196617 IS196615:IS196617 SO196615:SO196617 ACK196615:ACK196617 AMG196615:AMG196617 AWC196615:AWC196617 BFY196615:BFY196617 BPU196615:BPU196617 BZQ196615:BZQ196617 CJM196615:CJM196617 CTI196615:CTI196617 DDE196615:DDE196617 DNA196615:DNA196617 DWW196615:DWW196617 EGS196615:EGS196617 EQO196615:EQO196617 FAK196615:FAK196617 FKG196615:FKG196617 FUC196615:FUC196617 GDY196615:GDY196617 GNU196615:GNU196617 GXQ196615:GXQ196617 HHM196615:HHM196617 HRI196615:HRI196617 IBE196615:IBE196617 ILA196615:ILA196617 IUW196615:IUW196617 JES196615:JES196617 JOO196615:JOO196617 JYK196615:JYK196617 KIG196615:KIG196617 KSC196615:KSC196617 LBY196615:LBY196617 LLU196615:LLU196617 LVQ196615:LVQ196617 MFM196615:MFM196617 MPI196615:MPI196617 MZE196615:MZE196617 NJA196615:NJA196617 NSW196615:NSW196617 OCS196615:OCS196617 OMO196615:OMO196617 OWK196615:OWK196617 PGG196615:PGG196617 PQC196615:PQC196617 PZY196615:PZY196617 QJU196615:QJU196617 QTQ196615:QTQ196617 RDM196615:RDM196617 RNI196615:RNI196617 RXE196615:RXE196617 SHA196615:SHA196617 SQW196615:SQW196617 TAS196615:TAS196617 TKO196615:TKO196617 TUK196615:TUK196617 UEG196615:UEG196617 UOC196615:UOC196617 UXY196615:UXY196617 VHU196615:VHU196617 VRQ196615:VRQ196617 WBM196615:WBM196617 WLI196615:WLI196617 WVE196615:WVE196617 G262151:G262153 IS262151:IS262153 SO262151:SO262153 ACK262151:ACK262153 AMG262151:AMG262153 AWC262151:AWC262153 BFY262151:BFY262153 BPU262151:BPU262153 BZQ262151:BZQ262153 CJM262151:CJM262153 CTI262151:CTI262153 DDE262151:DDE262153 DNA262151:DNA262153 DWW262151:DWW262153 EGS262151:EGS262153 EQO262151:EQO262153 FAK262151:FAK262153 FKG262151:FKG262153 FUC262151:FUC262153 GDY262151:GDY262153 GNU262151:GNU262153 GXQ262151:GXQ262153 HHM262151:HHM262153 HRI262151:HRI262153 IBE262151:IBE262153 ILA262151:ILA262153 IUW262151:IUW262153 JES262151:JES262153 JOO262151:JOO262153 JYK262151:JYK262153 KIG262151:KIG262153 KSC262151:KSC262153 LBY262151:LBY262153 LLU262151:LLU262153 LVQ262151:LVQ262153 MFM262151:MFM262153 MPI262151:MPI262153 MZE262151:MZE262153 NJA262151:NJA262153 NSW262151:NSW262153 OCS262151:OCS262153 OMO262151:OMO262153 OWK262151:OWK262153 PGG262151:PGG262153 PQC262151:PQC262153 PZY262151:PZY262153 QJU262151:QJU262153 QTQ262151:QTQ262153 RDM262151:RDM262153 RNI262151:RNI262153 RXE262151:RXE262153 SHA262151:SHA262153 SQW262151:SQW262153 TAS262151:TAS262153 TKO262151:TKO262153 TUK262151:TUK262153 UEG262151:UEG262153 UOC262151:UOC262153 UXY262151:UXY262153 VHU262151:VHU262153 VRQ262151:VRQ262153 WBM262151:WBM262153 WLI262151:WLI262153 WVE262151:WVE262153 G327687:G327689 IS327687:IS327689 SO327687:SO327689 ACK327687:ACK327689 AMG327687:AMG327689 AWC327687:AWC327689 BFY327687:BFY327689 BPU327687:BPU327689 BZQ327687:BZQ327689 CJM327687:CJM327689 CTI327687:CTI327689 DDE327687:DDE327689 DNA327687:DNA327689 DWW327687:DWW327689 EGS327687:EGS327689 EQO327687:EQO327689 FAK327687:FAK327689 FKG327687:FKG327689 FUC327687:FUC327689 GDY327687:GDY327689 GNU327687:GNU327689 GXQ327687:GXQ327689 HHM327687:HHM327689 HRI327687:HRI327689 IBE327687:IBE327689 ILA327687:ILA327689 IUW327687:IUW327689 JES327687:JES327689 JOO327687:JOO327689 JYK327687:JYK327689 KIG327687:KIG327689 KSC327687:KSC327689 LBY327687:LBY327689 LLU327687:LLU327689 LVQ327687:LVQ327689 MFM327687:MFM327689 MPI327687:MPI327689 MZE327687:MZE327689 NJA327687:NJA327689 NSW327687:NSW327689 OCS327687:OCS327689 OMO327687:OMO327689 OWK327687:OWK327689 PGG327687:PGG327689 PQC327687:PQC327689 PZY327687:PZY327689 QJU327687:QJU327689 QTQ327687:QTQ327689 RDM327687:RDM327689 RNI327687:RNI327689 RXE327687:RXE327689 SHA327687:SHA327689 SQW327687:SQW327689 TAS327687:TAS327689 TKO327687:TKO327689 TUK327687:TUK327689 UEG327687:UEG327689 UOC327687:UOC327689 UXY327687:UXY327689 VHU327687:VHU327689 VRQ327687:VRQ327689 WBM327687:WBM327689 WLI327687:WLI327689 WVE327687:WVE327689 G393223:G393225 IS393223:IS393225 SO393223:SO393225 ACK393223:ACK393225 AMG393223:AMG393225 AWC393223:AWC393225 BFY393223:BFY393225 BPU393223:BPU393225 BZQ393223:BZQ393225 CJM393223:CJM393225 CTI393223:CTI393225 DDE393223:DDE393225 DNA393223:DNA393225 DWW393223:DWW393225 EGS393223:EGS393225 EQO393223:EQO393225 FAK393223:FAK393225 FKG393223:FKG393225 FUC393223:FUC393225 GDY393223:GDY393225 GNU393223:GNU393225 GXQ393223:GXQ393225 HHM393223:HHM393225 HRI393223:HRI393225 IBE393223:IBE393225 ILA393223:ILA393225 IUW393223:IUW393225 JES393223:JES393225 JOO393223:JOO393225 JYK393223:JYK393225 KIG393223:KIG393225 KSC393223:KSC393225 LBY393223:LBY393225 LLU393223:LLU393225 LVQ393223:LVQ393225 MFM393223:MFM393225 MPI393223:MPI393225 MZE393223:MZE393225 NJA393223:NJA393225 NSW393223:NSW393225 OCS393223:OCS393225 OMO393223:OMO393225 OWK393223:OWK393225 PGG393223:PGG393225 PQC393223:PQC393225 PZY393223:PZY393225 QJU393223:QJU393225 QTQ393223:QTQ393225 RDM393223:RDM393225 RNI393223:RNI393225 RXE393223:RXE393225 SHA393223:SHA393225 SQW393223:SQW393225 TAS393223:TAS393225 TKO393223:TKO393225 TUK393223:TUK393225 UEG393223:UEG393225 UOC393223:UOC393225 UXY393223:UXY393225 VHU393223:VHU393225 VRQ393223:VRQ393225 WBM393223:WBM393225 WLI393223:WLI393225 WVE393223:WVE393225 G458759:G458761 IS458759:IS458761 SO458759:SO458761 ACK458759:ACK458761 AMG458759:AMG458761 AWC458759:AWC458761 BFY458759:BFY458761 BPU458759:BPU458761 BZQ458759:BZQ458761 CJM458759:CJM458761 CTI458759:CTI458761 DDE458759:DDE458761 DNA458759:DNA458761 DWW458759:DWW458761 EGS458759:EGS458761 EQO458759:EQO458761 FAK458759:FAK458761 FKG458759:FKG458761 FUC458759:FUC458761 GDY458759:GDY458761 GNU458759:GNU458761 GXQ458759:GXQ458761 HHM458759:HHM458761 HRI458759:HRI458761 IBE458759:IBE458761 ILA458759:ILA458761 IUW458759:IUW458761 JES458759:JES458761 JOO458759:JOO458761 JYK458759:JYK458761 KIG458759:KIG458761 KSC458759:KSC458761 LBY458759:LBY458761 LLU458759:LLU458761 LVQ458759:LVQ458761 MFM458759:MFM458761 MPI458759:MPI458761 MZE458759:MZE458761 NJA458759:NJA458761 NSW458759:NSW458761 OCS458759:OCS458761 OMO458759:OMO458761 OWK458759:OWK458761 PGG458759:PGG458761 PQC458759:PQC458761 PZY458759:PZY458761 QJU458759:QJU458761 QTQ458759:QTQ458761 RDM458759:RDM458761 RNI458759:RNI458761 RXE458759:RXE458761 SHA458759:SHA458761 SQW458759:SQW458761 TAS458759:TAS458761 TKO458759:TKO458761 TUK458759:TUK458761 UEG458759:UEG458761 UOC458759:UOC458761 UXY458759:UXY458761 VHU458759:VHU458761 VRQ458759:VRQ458761 WBM458759:WBM458761 WLI458759:WLI458761 WVE458759:WVE458761 G524295:G524297 IS524295:IS524297 SO524295:SO524297 ACK524295:ACK524297 AMG524295:AMG524297 AWC524295:AWC524297 BFY524295:BFY524297 BPU524295:BPU524297 BZQ524295:BZQ524297 CJM524295:CJM524297 CTI524295:CTI524297 DDE524295:DDE524297 DNA524295:DNA524297 DWW524295:DWW524297 EGS524295:EGS524297 EQO524295:EQO524297 FAK524295:FAK524297 FKG524295:FKG524297 FUC524295:FUC524297 GDY524295:GDY524297 GNU524295:GNU524297 GXQ524295:GXQ524297 HHM524295:HHM524297 HRI524295:HRI524297 IBE524295:IBE524297 ILA524295:ILA524297 IUW524295:IUW524297 JES524295:JES524297 JOO524295:JOO524297 JYK524295:JYK524297 KIG524295:KIG524297 KSC524295:KSC524297 LBY524295:LBY524297 LLU524295:LLU524297 LVQ524295:LVQ524297 MFM524295:MFM524297 MPI524295:MPI524297 MZE524295:MZE524297 NJA524295:NJA524297 NSW524295:NSW524297 OCS524295:OCS524297 OMO524295:OMO524297 OWK524295:OWK524297 PGG524295:PGG524297 PQC524295:PQC524297 PZY524295:PZY524297 QJU524295:QJU524297 QTQ524295:QTQ524297 RDM524295:RDM524297 RNI524295:RNI524297 RXE524295:RXE524297 SHA524295:SHA524297 SQW524295:SQW524297 TAS524295:TAS524297 TKO524295:TKO524297 TUK524295:TUK524297 UEG524295:UEG524297 UOC524295:UOC524297 UXY524295:UXY524297 VHU524295:VHU524297 VRQ524295:VRQ524297 WBM524295:WBM524297 WLI524295:WLI524297 WVE524295:WVE524297 G589831:G589833 IS589831:IS589833 SO589831:SO589833 ACK589831:ACK589833 AMG589831:AMG589833 AWC589831:AWC589833 BFY589831:BFY589833 BPU589831:BPU589833 BZQ589831:BZQ589833 CJM589831:CJM589833 CTI589831:CTI589833 DDE589831:DDE589833 DNA589831:DNA589833 DWW589831:DWW589833 EGS589831:EGS589833 EQO589831:EQO589833 FAK589831:FAK589833 FKG589831:FKG589833 FUC589831:FUC589833 GDY589831:GDY589833 GNU589831:GNU589833 GXQ589831:GXQ589833 HHM589831:HHM589833 HRI589831:HRI589833 IBE589831:IBE589833 ILA589831:ILA589833 IUW589831:IUW589833 JES589831:JES589833 JOO589831:JOO589833 JYK589831:JYK589833 KIG589831:KIG589833 KSC589831:KSC589833 LBY589831:LBY589833 LLU589831:LLU589833 LVQ589831:LVQ589833 MFM589831:MFM589833 MPI589831:MPI589833 MZE589831:MZE589833 NJA589831:NJA589833 NSW589831:NSW589833 OCS589831:OCS589833 OMO589831:OMO589833 OWK589831:OWK589833 PGG589831:PGG589833 PQC589831:PQC589833 PZY589831:PZY589833 QJU589831:QJU589833 QTQ589831:QTQ589833 RDM589831:RDM589833 RNI589831:RNI589833 RXE589831:RXE589833 SHA589831:SHA589833 SQW589831:SQW589833 TAS589831:TAS589833 TKO589831:TKO589833 TUK589831:TUK589833 UEG589831:UEG589833 UOC589831:UOC589833 UXY589831:UXY589833 VHU589831:VHU589833 VRQ589831:VRQ589833 WBM589831:WBM589833 WLI589831:WLI589833 WVE589831:WVE589833 G655367:G655369 IS655367:IS655369 SO655367:SO655369 ACK655367:ACK655369 AMG655367:AMG655369 AWC655367:AWC655369 BFY655367:BFY655369 BPU655367:BPU655369 BZQ655367:BZQ655369 CJM655367:CJM655369 CTI655367:CTI655369 DDE655367:DDE655369 DNA655367:DNA655369 DWW655367:DWW655369 EGS655367:EGS655369 EQO655367:EQO655369 FAK655367:FAK655369 FKG655367:FKG655369 FUC655367:FUC655369 GDY655367:GDY655369 GNU655367:GNU655369 GXQ655367:GXQ655369 HHM655367:HHM655369 HRI655367:HRI655369 IBE655367:IBE655369 ILA655367:ILA655369 IUW655367:IUW655369 JES655367:JES655369 JOO655367:JOO655369 JYK655367:JYK655369 KIG655367:KIG655369 KSC655367:KSC655369 LBY655367:LBY655369 LLU655367:LLU655369 LVQ655367:LVQ655369 MFM655367:MFM655369 MPI655367:MPI655369 MZE655367:MZE655369 NJA655367:NJA655369 NSW655367:NSW655369 OCS655367:OCS655369 OMO655367:OMO655369 OWK655367:OWK655369 PGG655367:PGG655369 PQC655367:PQC655369 PZY655367:PZY655369 QJU655367:QJU655369 QTQ655367:QTQ655369 RDM655367:RDM655369 RNI655367:RNI655369 RXE655367:RXE655369 SHA655367:SHA655369 SQW655367:SQW655369 TAS655367:TAS655369 TKO655367:TKO655369 TUK655367:TUK655369 UEG655367:UEG655369 UOC655367:UOC655369 UXY655367:UXY655369 VHU655367:VHU655369 VRQ655367:VRQ655369 WBM655367:WBM655369 WLI655367:WLI655369 WVE655367:WVE655369 G720903:G720905 IS720903:IS720905 SO720903:SO720905 ACK720903:ACK720905 AMG720903:AMG720905 AWC720903:AWC720905 BFY720903:BFY720905 BPU720903:BPU720905 BZQ720903:BZQ720905 CJM720903:CJM720905 CTI720903:CTI720905 DDE720903:DDE720905 DNA720903:DNA720905 DWW720903:DWW720905 EGS720903:EGS720905 EQO720903:EQO720905 FAK720903:FAK720905 FKG720903:FKG720905 FUC720903:FUC720905 GDY720903:GDY720905 GNU720903:GNU720905 GXQ720903:GXQ720905 HHM720903:HHM720905 HRI720903:HRI720905 IBE720903:IBE720905 ILA720903:ILA720905 IUW720903:IUW720905 JES720903:JES720905 JOO720903:JOO720905 JYK720903:JYK720905 KIG720903:KIG720905 KSC720903:KSC720905 LBY720903:LBY720905 LLU720903:LLU720905 LVQ720903:LVQ720905 MFM720903:MFM720905 MPI720903:MPI720905 MZE720903:MZE720905 NJA720903:NJA720905 NSW720903:NSW720905 OCS720903:OCS720905 OMO720903:OMO720905 OWK720903:OWK720905 PGG720903:PGG720905 PQC720903:PQC720905 PZY720903:PZY720905 QJU720903:QJU720905 QTQ720903:QTQ720905 RDM720903:RDM720905 RNI720903:RNI720905 RXE720903:RXE720905 SHA720903:SHA720905 SQW720903:SQW720905 TAS720903:TAS720905 TKO720903:TKO720905 TUK720903:TUK720905 UEG720903:UEG720905 UOC720903:UOC720905 UXY720903:UXY720905 VHU720903:VHU720905 VRQ720903:VRQ720905 WBM720903:WBM720905 WLI720903:WLI720905 WVE720903:WVE720905 G786439:G786441 IS786439:IS786441 SO786439:SO786441 ACK786439:ACK786441 AMG786439:AMG786441 AWC786439:AWC786441 BFY786439:BFY786441 BPU786439:BPU786441 BZQ786439:BZQ786441 CJM786439:CJM786441 CTI786439:CTI786441 DDE786439:DDE786441 DNA786439:DNA786441 DWW786439:DWW786441 EGS786439:EGS786441 EQO786439:EQO786441 FAK786439:FAK786441 FKG786439:FKG786441 FUC786439:FUC786441 GDY786439:GDY786441 GNU786439:GNU786441 GXQ786439:GXQ786441 HHM786439:HHM786441 HRI786439:HRI786441 IBE786439:IBE786441 ILA786439:ILA786441 IUW786439:IUW786441 JES786439:JES786441 JOO786439:JOO786441 JYK786439:JYK786441 KIG786439:KIG786441 KSC786439:KSC786441 LBY786439:LBY786441 LLU786439:LLU786441 LVQ786439:LVQ786441 MFM786439:MFM786441 MPI786439:MPI786441 MZE786439:MZE786441 NJA786439:NJA786441 NSW786439:NSW786441 OCS786439:OCS786441 OMO786439:OMO786441 OWK786439:OWK786441 PGG786439:PGG786441 PQC786439:PQC786441 PZY786439:PZY786441 QJU786439:QJU786441 QTQ786439:QTQ786441 RDM786439:RDM786441 RNI786439:RNI786441 RXE786439:RXE786441 SHA786439:SHA786441 SQW786439:SQW786441 TAS786439:TAS786441 TKO786439:TKO786441 TUK786439:TUK786441 UEG786439:UEG786441 UOC786439:UOC786441 UXY786439:UXY786441 VHU786439:VHU786441 VRQ786439:VRQ786441 WBM786439:WBM786441 WLI786439:WLI786441 WVE786439:WVE786441 G851975:G851977 IS851975:IS851977 SO851975:SO851977 ACK851975:ACK851977 AMG851975:AMG851977 AWC851975:AWC851977 BFY851975:BFY851977 BPU851975:BPU851977 BZQ851975:BZQ851977 CJM851975:CJM851977 CTI851975:CTI851977 DDE851975:DDE851977 DNA851975:DNA851977 DWW851975:DWW851977 EGS851975:EGS851977 EQO851975:EQO851977 FAK851975:FAK851977 FKG851975:FKG851977 FUC851975:FUC851977 GDY851975:GDY851977 GNU851975:GNU851977 GXQ851975:GXQ851977 HHM851975:HHM851977 HRI851975:HRI851977 IBE851975:IBE851977 ILA851975:ILA851977 IUW851975:IUW851977 JES851975:JES851977 JOO851975:JOO851977 JYK851975:JYK851977 KIG851975:KIG851977 KSC851975:KSC851977 LBY851975:LBY851977 LLU851975:LLU851977 LVQ851975:LVQ851977 MFM851975:MFM851977 MPI851975:MPI851977 MZE851975:MZE851977 NJA851975:NJA851977 NSW851975:NSW851977 OCS851975:OCS851977 OMO851975:OMO851977 OWK851975:OWK851977 PGG851975:PGG851977 PQC851975:PQC851977 PZY851975:PZY851977 QJU851975:QJU851977 QTQ851975:QTQ851977 RDM851975:RDM851977 RNI851975:RNI851977 RXE851975:RXE851977 SHA851975:SHA851977 SQW851975:SQW851977 TAS851975:TAS851977 TKO851975:TKO851977 TUK851975:TUK851977 UEG851975:UEG851977 UOC851975:UOC851977 UXY851975:UXY851977 VHU851975:VHU851977 VRQ851975:VRQ851977 WBM851975:WBM851977 WLI851975:WLI851977 WVE851975:WVE851977 G917511:G917513 IS917511:IS917513 SO917511:SO917513 ACK917511:ACK917513 AMG917511:AMG917513 AWC917511:AWC917513 BFY917511:BFY917513 BPU917511:BPU917513 BZQ917511:BZQ917513 CJM917511:CJM917513 CTI917511:CTI917513 DDE917511:DDE917513 DNA917511:DNA917513 DWW917511:DWW917513 EGS917511:EGS917513 EQO917511:EQO917513 FAK917511:FAK917513 FKG917511:FKG917513 FUC917511:FUC917513 GDY917511:GDY917513 GNU917511:GNU917513 GXQ917511:GXQ917513 HHM917511:HHM917513 HRI917511:HRI917513 IBE917511:IBE917513 ILA917511:ILA917513 IUW917511:IUW917513 JES917511:JES917513 JOO917511:JOO917513 JYK917511:JYK917513 KIG917511:KIG917513 KSC917511:KSC917513 LBY917511:LBY917513 LLU917511:LLU917513 LVQ917511:LVQ917513 MFM917511:MFM917513 MPI917511:MPI917513 MZE917511:MZE917513 NJA917511:NJA917513 NSW917511:NSW917513 OCS917511:OCS917513 OMO917511:OMO917513 OWK917511:OWK917513 PGG917511:PGG917513 PQC917511:PQC917513 PZY917511:PZY917513 QJU917511:QJU917513 QTQ917511:QTQ917513 RDM917511:RDM917513 RNI917511:RNI917513 RXE917511:RXE917513 SHA917511:SHA917513 SQW917511:SQW917513 TAS917511:TAS917513 TKO917511:TKO917513 TUK917511:TUK917513 UEG917511:UEG917513 UOC917511:UOC917513 UXY917511:UXY917513 VHU917511:VHU917513 VRQ917511:VRQ917513 WBM917511:WBM917513 WLI917511:WLI917513 WVE917511:WVE917513 G983047:G983049 IS983047:IS983049 SO983047:SO983049 ACK983047:ACK983049 AMG983047:AMG983049 AWC983047:AWC983049 BFY983047:BFY983049 BPU983047:BPU983049 BZQ983047:BZQ983049 CJM983047:CJM983049 CTI983047:CTI983049 DDE983047:DDE983049 DNA983047:DNA983049 DWW983047:DWW983049 EGS983047:EGS983049 EQO983047:EQO983049 FAK983047:FAK983049 FKG983047:FKG983049 FUC983047:FUC983049 GDY983047:GDY983049 GNU983047:GNU983049 GXQ983047:GXQ983049 HHM983047:HHM983049 HRI983047:HRI983049 IBE983047:IBE983049 ILA983047:ILA983049 IUW983047:IUW983049 JES983047:JES983049 JOO983047:JOO983049 JYK983047:JYK983049 KIG983047:KIG983049 KSC983047:KSC983049 LBY983047:LBY983049 LLU983047:LLU983049 LVQ983047:LVQ983049 MFM983047:MFM983049 MPI983047:MPI983049 MZE983047:MZE983049 NJA983047:NJA983049 NSW983047:NSW983049 OCS983047:OCS983049 OMO983047:OMO983049 OWK983047:OWK983049 PGG983047:PGG983049 PQC983047:PQC983049 PZY983047:PZY983049 QJU983047:QJU983049 QTQ983047:QTQ983049 RDM983047:RDM983049 RNI983047:RNI983049 RXE983047:RXE983049 SHA983047:SHA983049 SQW983047:SQW983049 TAS983047:TAS983049 TKO983047:TKO983049 TUK983047:TUK983049 UEG983047:UEG983049 UOC983047:UOC983049 UXY983047:UXY983049 VHU983047:VHU983049 VRQ983047:VRQ983049 WBM983047:WBM983049 WLI983047:WLI983049 WVE983047:WVE983049 IT8:IU8 SP8:SQ8 ACL8:ACM8 AMH8:AMI8 AWD8:AWE8 BFZ8:BGA8 BPV8:BPW8 BZR8:BZS8 CJN8:CJO8 CTJ8:CTK8 DDF8:DDG8 DNB8:DNC8 DWX8:DWY8 EGT8:EGU8 EQP8:EQQ8 FAL8:FAM8 FKH8:FKI8 FUD8:FUE8 GDZ8:GEA8 GNV8:GNW8 GXR8:GXS8 HHN8:HHO8 HRJ8:HRK8 IBF8:IBG8 ILB8:ILC8 IUX8:IUY8 JET8:JEU8 JOP8:JOQ8 JYL8:JYM8 KIH8:KII8 KSD8:KSE8 LBZ8:LCA8 LLV8:LLW8 LVR8:LVS8 MFN8:MFO8 MPJ8:MPK8 MZF8:MZG8 NJB8:NJC8 NSX8:NSY8 OCT8:OCU8 OMP8:OMQ8 OWL8:OWM8 PGH8:PGI8 PQD8:PQE8 PZZ8:QAA8 QJV8:QJW8 QTR8:QTS8 RDN8:RDO8 RNJ8:RNK8 RXF8:RXG8 SHB8:SHC8 SQX8:SQY8 TAT8:TAU8 TKP8:TKQ8 TUL8:TUM8 UEH8:UEI8 UOD8:UOE8 UXZ8:UYA8 VHV8:VHW8 VRR8:VRS8 WBN8:WBO8 WLJ8:WLK8 WVF8:WVG8 IT65543:IU65543 SP65543:SQ65543 ACL65543:ACM65543 AMH65543:AMI65543 AWD65543:AWE65543 BFZ65543:BGA65543 BPV65543:BPW65543 BZR65543:BZS65543 CJN65543:CJO65543 CTJ65543:CTK65543 DDF65543:DDG65543 DNB65543:DNC65543 DWX65543:DWY65543 EGT65543:EGU65543 EQP65543:EQQ65543 FAL65543:FAM65543 FKH65543:FKI65543 FUD65543:FUE65543 GDZ65543:GEA65543 GNV65543:GNW65543 GXR65543:GXS65543 HHN65543:HHO65543 HRJ65543:HRK65543 IBF65543:IBG65543 ILB65543:ILC65543 IUX65543:IUY65543 JET65543:JEU65543 JOP65543:JOQ65543 JYL65543:JYM65543 KIH65543:KII65543 KSD65543:KSE65543 LBZ65543:LCA65543 LLV65543:LLW65543 LVR65543:LVS65543 MFN65543:MFO65543 MPJ65543:MPK65543 MZF65543:MZG65543 NJB65543:NJC65543 NSX65543:NSY65543 OCT65543:OCU65543 OMP65543:OMQ65543 OWL65543:OWM65543 PGH65543:PGI65543 PQD65543:PQE65543 PZZ65543:QAA65543 QJV65543:QJW65543 QTR65543:QTS65543 RDN65543:RDO65543 RNJ65543:RNK65543 RXF65543:RXG65543 SHB65543:SHC65543 SQX65543:SQY65543 TAT65543:TAU65543 TKP65543:TKQ65543 TUL65543:TUM65543 UEH65543:UEI65543 UOD65543:UOE65543 UXZ65543:UYA65543 VHV65543:VHW65543 VRR65543:VRS65543 WBN65543:WBO65543 WLJ65543:WLK65543 WVF65543:WVG65543 IT131079:IU131079 SP131079:SQ131079 ACL131079:ACM131079 AMH131079:AMI131079 AWD131079:AWE131079 BFZ131079:BGA131079 BPV131079:BPW131079 BZR131079:BZS131079 CJN131079:CJO131079 CTJ131079:CTK131079 DDF131079:DDG131079 DNB131079:DNC131079 DWX131079:DWY131079 EGT131079:EGU131079 EQP131079:EQQ131079 FAL131079:FAM131079 FKH131079:FKI131079 FUD131079:FUE131079 GDZ131079:GEA131079 GNV131079:GNW131079 GXR131079:GXS131079 HHN131079:HHO131079 HRJ131079:HRK131079 IBF131079:IBG131079 ILB131079:ILC131079 IUX131079:IUY131079 JET131079:JEU131079 JOP131079:JOQ131079 JYL131079:JYM131079 KIH131079:KII131079 KSD131079:KSE131079 LBZ131079:LCA131079 LLV131079:LLW131079 LVR131079:LVS131079 MFN131079:MFO131079 MPJ131079:MPK131079 MZF131079:MZG131079 NJB131079:NJC131079 NSX131079:NSY131079 OCT131079:OCU131079 OMP131079:OMQ131079 OWL131079:OWM131079 PGH131079:PGI131079 PQD131079:PQE131079 PZZ131079:QAA131079 QJV131079:QJW131079 QTR131079:QTS131079 RDN131079:RDO131079 RNJ131079:RNK131079 RXF131079:RXG131079 SHB131079:SHC131079 SQX131079:SQY131079 TAT131079:TAU131079 TKP131079:TKQ131079 TUL131079:TUM131079 UEH131079:UEI131079 UOD131079:UOE131079 UXZ131079:UYA131079 VHV131079:VHW131079 VRR131079:VRS131079 WBN131079:WBO131079 WLJ131079:WLK131079 WVF131079:WVG131079 IT196615:IU196615 SP196615:SQ196615 ACL196615:ACM196615 AMH196615:AMI196615 AWD196615:AWE196615 BFZ196615:BGA196615 BPV196615:BPW196615 BZR196615:BZS196615 CJN196615:CJO196615 CTJ196615:CTK196615 DDF196615:DDG196615 DNB196615:DNC196615 DWX196615:DWY196615 EGT196615:EGU196615 EQP196615:EQQ196615 FAL196615:FAM196615 FKH196615:FKI196615 FUD196615:FUE196615 GDZ196615:GEA196615 GNV196615:GNW196615 GXR196615:GXS196615 HHN196615:HHO196615 HRJ196615:HRK196615 IBF196615:IBG196615 ILB196615:ILC196615 IUX196615:IUY196615 JET196615:JEU196615 JOP196615:JOQ196615 JYL196615:JYM196615 KIH196615:KII196615 KSD196615:KSE196615 LBZ196615:LCA196615 LLV196615:LLW196615 LVR196615:LVS196615 MFN196615:MFO196615 MPJ196615:MPK196615 MZF196615:MZG196615 NJB196615:NJC196615 NSX196615:NSY196615 OCT196615:OCU196615 OMP196615:OMQ196615 OWL196615:OWM196615 PGH196615:PGI196615 PQD196615:PQE196615 PZZ196615:QAA196615 QJV196615:QJW196615 QTR196615:QTS196615 RDN196615:RDO196615 RNJ196615:RNK196615 RXF196615:RXG196615 SHB196615:SHC196615 SQX196615:SQY196615 TAT196615:TAU196615 TKP196615:TKQ196615 TUL196615:TUM196615 UEH196615:UEI196615 UOD196615:UOE196615 UXZ196615:UYA196615 VHV196615:VHW196615 VRR196615:VRS196615 WBN196615:WBO196615 WLJ196615:WLK196615 WVF196615:WVG196615 IT262151:IU262151 SP262151:SQ262151 ACL262151:ACM262151 AMH262151:AMI262151 AWD262151:AWE262151 BFZ262151:BGA262151 BPV262151:BPW262151 BZR262151:BZS262151 CJN262151:CJO262151 CTJ262151:CTK262151 DDF262151:DDG262151 DNB262151:DNC262151 DWX262151:DWY262151 EGT262151:EGU262151 EQP262151:EQQ262151 FAL262151:FAM262151 FKH262151:FKI262151 FUD262151:FUE262151 GDZ262151:GEA262151 GNV262151:GNW262151 GXR262151:GXS262151 HHN262151:HHO262151 HRJ262151:HRK262151 IBF262151:IBG262151 ILB262151:ILC262151 IUX262151:IUY262151 JET262151:JEU262151 JOP262151:JOQ262151 JYL262151:JYM262151 KIH262151:KII262151 KSD262151:KSE262151 LBZ262151:LCA262151 LLV262151:LLW262151 LVR262151:LVS262151 MFN262151:MFO262151 MPJ262151:MPK262151 MZF262151:MZG262151 NJB262151:NJC262151 NSX262151:NSY262151 OCT262151:OCU262151 OMP262151:OMQ262151 OWL262151:OWM262151 PGH262151:PGI262151 PQD262151:PQE262151 PZZ262151:QAA262151 QJV262151:QJW262151 QTR262151:QTS262151 RDN262151:RDO262151 RNJ262151:RNK262151 RXF262151:RXG262151 SHB262151:SHC262151 SQX262151:SQY262151 TAT262151:TAU262151 TKP262151:TKQ262151 TUL262151:TUM262151 UEH262151:UEI262151 UOD262151:UOE262151 UXZ262151:UYA262151 VHV262151:VHW262151 VRR262151:VRS262151 WBN262151:WBO262151 WLJ262151:WLK262151 WVF262151:WVG262151 IT327687:IU327687 SP327687:SQ327687 ACL327687:ACM327687 AMH327687:AMI327687 AWD327687:AWE327687 BFZ327687:BGA327687 BPV327687:BPW327687 BZR327687:BZS327687 CJN327687:CJO327687 CTJ327687:CTK327687 DDF327687:DDG327687 DNB327687:DNC327687 DWX327687:DWY327687 EGT327687:EGU327687 EQP327687:EQQ327687 FAL327687:FAM327687 FKH327687:FKI327687 FUD327687:FUE327687 GDZ327687:GEA327687 GNV327687:GNW327687 GXR327687:GXS327687 HHN327687:HHO327687 HRJ327687:HRK327687 IBF327687:IBG327687 ILB327687:ILC327687 IUX327687:IUY327687 JET327687:JEU327687 JOP327687:JOQ327687 JYL327687:JYM327687 KIH327687:KII327687 KSD327687:KSE327687 LBZ327687:LCA327687 LLV327687:LLW327687 LVR327687:LVS327687 MFN327687:MFO327687 MPJ327687:MPK327687 MZF327687:MZG327687 NJB327687:NJC327687 NSX327687:NSY327687 OCT327687:OCU327687 OMP327687:OMQ327687 OWL327687:OWM327687 PGH327687:PGI327687 PQD327687:PQE327687 PZZ327687:QAA327687 QJV327687:QJW327687 QTR327687:QTS327687 RDN327687:RDO327687 RNJ327687:RNK327687 RXF327687:RXG327687 SHB327687:SHC327687 SQX327687:SQY327687 TAT327687:TAU327687 TKP327687:TKQ327687 TUL327687:TUM327687 UEH327687:UEI327687 UOD327687:UOE327687 UXZ327687:UYA327687 VHV327687:VHW327687 VRR327687:VRS327687 WBN327687:WBO327687 WLJ327687:WLK327687 WVF327687:WVG327687 IT393223:IU393223 SP393223:SQ393223 ACL393223:ACM393223 AMH393223:AMI393223 AWD393223:AWE393223 BFZ393223:BGA393223 BPV393223:BPW393223 BZR393223:BZS393223 CJN393223:CJO393223 CTJ393223:CTK393223 DDF393223:DDG393223 DNB393223:DNC393223 DWX393223:DWY393223 EGT393223:EGU393223 EQP393223:EQQ393223 FAL393223:FAM393223 FKH393223:FKI393223 FUD393223:FUE393223 GDZ393223:GEA393223 GNV393223:GNW393223 GXR393223:GXS393223 HHN393223:HHO393223 HRJ393223:HRK393223 IBF393223:IBG393223 ILB393223:ILC393223 IUX393223:IUY393223 JET393223:JEU393223 JOP393223:JOQ393223 JYL393223:JYM393223 KIH393223:KII393223 KSD393223:KSE393223 LBZ393223:LCA393223 LLV393223:LLW393223 LVR393223:LVS393223 MFN393223:MFO393223 MPJ393223:MPK393223 MZF393223:MZG393223 NJB393223:NJC393223 NSX393223:NSY393223 OCT393223:OCU393223 OMP393223:OMQ393223 OWL393223:OWM393223 PGH393223:PGI393223 PQD393223:PQE393223 PZZ393223:QAA393223 QJV393223:QJW393223 QTR393223:QTS393223 RDN393223:RDO393223 RNJ393223:RNK393223 RXF393223:RXG393223 SHB393223:SHC393223 SQX393223:SQY393223 TAT393223:TAU393223 TKP393223:TKQ393223 TUL393223:TUM393223 UEH393223:UEI393223 UOD393223:UOE393223 UXZ393223:UYA393223 VHV393223:VHW393223 VRR393223:VRS393223 WBN393223:WBO393223 WLJ393223:WLK393223 WVF393223:WVG393223 IT458759:IU458759 SP458759:SQ458759 ACL458759:ACM458759 AMH458759:AMI458759 AWD458759:AWE458759 BFZ458759:BGA458759 BPV458759:BPW458759 BZR458759:BZS458759 CJN458759:CJO458759 CTJ458759:CTK458759 DDF458759:DDG458759 DNB458759:DNC458759 DWX458759:DWY458759 EGT458759:EGU458759 EQP458759:EQQ458759 FAL458759:FAM458759 FKH458759:FKI458759 FUD458759:FUE458759 GDZ458759:GEA458759 GNV458759:GNW458759 GXR458759:GXS458759 HHN458759:HHO458759 HRJ458759:HRK458759 IBF458759:IBG458759 ILB458759:ILC458759 IUX458759:IUY458759 JET458759:JEU458759 JOP458759:JOQ458759 JYL458759:JYM458759 KIH458759:KII458759 KSD458759:KSE458759 LBZ458759:LCA458759 LLV458759:LLW458759 LVR458759:LVS458759 MFN458759:MFO458759 MPJ458759:MPK458759 MZF458759:MZG458759 NJB458759:NJC458759 NSX458759:NSY458759 OCT458759:OCU458759 OMP458759:OMQ458759 OWL458759:OWM458759 PGH458759:PGI458759 PQD458759:PQE458759 PZZ458759:QAA458759 QJV458759:QJW458759 QTR458759:QTS458759 RDN458759:RDO458759 RNJ458759:RNK458759 RXF458759:RXG458759 SHB458759:SHC458759 SQX458759:SQY458759 TAT458759:TAU458759 TKP458759:TKQ458759 TUL458759:TUM458759 UEH458759:UEI458759 UOD458759:UOE458759 UXZ458759:UYA458759 VHV458759:VHW458759 VRR458759:VRS458759 WBN458759:WBO458759 WLJ458759:WLK458759 WVF458759:WVG458759 IT524295:IU524295 SP524295:SQ524295 ACL524295:ACM524295 AMH524295:AMI524295 AWD524295:AWE524295 BFZ524295:BGA524295 BPV524295:BPW524295 BZR524295:BZS524295 CJN524295:CJO524295 CTJ524295:CTK524295 DDF524295:DDG524295 DNB524295:DNC524295 DWX524295:DWY524295 EGT524295:EGU524295 EQP524295:EQQ524295 FAL524295:FAM524295 FKH524295:FKI524295 FUD524295:FUE524295 GDZ524295:GEA524295 GNV524295:GNW524295 GXR524295:GXS524295 HHN524295:HHO524295 HRJ524295:HRK524295 IBF524295:IBG524295 ILB524295:ILC524295 IUX524295:IUY524295 JET524295:JEU524295 JOP524295:JOQ524295 JYL524295:JYM524295 KIH524295:KII524295 KSD524295:KSE524295 LBZ524295:LCA524295 LLV524295:LLW524295 LVR524295:LVS524295 MFN524295:MFO524295 MPJ524295:MPK524295 MZF524295:MZG524295 NJB524295:NJC524295 NSX524295:NSY524295 OCT524295:OCU524295 OMP524295:OMQ524295 OWL524295:OWM524295 PGH524295:PGI524295 PQD524295:PQE524295 PZZ524295:QAA524295 QJV524295:QJW524295 QTR524295:QTS524295 RDN524295:RDO524295 RNJ524295:RNK524295 RXF524295:RXG524295 SHB524295:SHC524295 SQX524295:SQY524295 TAT524295:TAU524295 TKP524295:TKQ524295 TUL524295:TUM524295 UEH524295:UEI524295 UOD524295:UOE524295 UXZ524295:UYA524295 VHV524295:VHW524295 VRR524295:VRS524295 WBN524295:WBO524295 WLJ524295:WLK524295 WVF524295:WVG524295 IT589831:IU589831 SP589831:SQ589831 ACL589831:ACM589831 AMH589831:AMI589831 AWD589831:AWE589831 BFZ589831:BGA589831 BPV589831:BPW589831 BZR589831:BZS589831 CJN589831:CJO589831 CTJ589831:CTK589831 DDF589831:DDG589831 DNB589831:DNC589831 DWX589831:DWY589831 EGT589831:EGU589831 EQP589831:EQQ589831 FAL589831:FAM589831 FKH589831:FKI589831 FUD589831:FUE589831 GDZ589831:GEA589831 GNV589831:GNW589831 GXR589831:GXS589831 HHN589831:HHO589831 HRJ589831:HRK589831 IBF589831:IBG589831 ILB589831:ILC589831 IUX589831:IUY589831 JET589831:JEU589831 JOP589831:JOQ589831 JYL589831:JYM589831 KIH589831:KII589831 KSD589831:KSE589831 LBZ589831:LCA589831 LLV589831:LLW589831 LVR589831:LVS589831 MFN589831:MFO589831 MPJ589831:MPK589831 MZF589831:MZG589831 NJB589831:NJC589831 NSX589831:NSY589831 OCT589831:OCU589831 OMP589831:OMQ589831 OWL589831:OWM589831 PGH589831:PGI589831 PQD589831:PQE589831 PZZ589831:QAA589831 QJV589831:QJW589831 QTR589831:QTS589831 RDN589831:RDO589831 RNJ589831:RNK589831 RXF589831:RXG589831 SHB589831:SHC589831 SQX589831:SQY589831 TAT589831:TAU589831 TKP589831:TKQ589831 TUL589831:TUM589831 UEH589831:UEI589831 UOD589831:UOE589831 UXZ589831:UYA589831 VHV589831:VHW589831 VRR589831:VRS589831 WBN589831:WBO589831 WLJ589831:WLK589831 WVF589831:WVG589831 IT655367:IU655367 SP655367:SQ655367 ACL655367:ACM655367 AMH655367:AMI655367 AWD655367:AWE655367 BFZ655367:BGA655367 BPV655367:BPW655367 BZR655367:BZS655367 CJN655367:CJO655367 CTJ655367:CTK655367 DDF655367:DDG655367 DNB655367:DNC655367 DWX655367:DWY655367 EGT655367:EGU655367 EQP655367:EQQ655367 FAL655367:FAM655367 FKH655367:FKI655367 FUD655367:FUE655367 GDZ655367:GEA655367 GNV655367:GNW655367 GXR655367:GXS655367 HHN655367:HHO655367 HRJ655367:HRK655367 IBF655367:IBG655367 ILB655367:ILC655367 IUX655367:IUY655367 JET655367:JEU655367 JOP655367:JOQ655367 JYL655367:JYM655367 KIH655367:KII655367 KSD655367:KSE655367 LBZ655367:LCA655367 LLV655367:LLW655367 LVR655367:LVS655367 MFN655367:MFO655367 MPJ655367:MPK655367 MZF655367:MZG655367 NJB655367:NJC655367 NSX655367:NSY655367 OCT655367:OCU655367 OMP655367:OMQ655367 OWL655367:OWM655367 PGH655367:PGI655367 PQD655367:PQE655367 PZZ655367:QAA655367 QJV655367:QJW655367 QTR655367:QTS655367 RDN655367:RDO655367 RNJ655367:RNK655367 RXF655367:RXG655367 SHB655367:SHC655367 SQX655367:SQY655367 TAT655367:TAU655367 TKP655367:TKQ655367 TUL655367:TUM655367 UEH655367:UEI655367 UOD655367:UOE655367 UXZ655367:UYA655367 VHV655367:VHW655367 VRR655367:VRS655367 WBN655367:WBO655367 WLJ655367:WLK655367 WVF655367:WVG655367 IT720903:IU720903 SP720903:SQ720903 ACL720903:ACM720903 AMH720903:AMI720903 AWD720903:AWE720903 BFZ720903:BGA720903 BPV720903:BPW720903 BZR720903:BZS720903 CJN720903:CJO720903 CTJ720903:CTK720903 DDF720903:DDG720903 DNB720903:DNC720903 DWX720903:DWY720903 EGT720903:EGU720903 EQP720903:EQQ720903 FAL720903:FAM720903 FKH720903:FKI720903 FUD720903:FUE720903 GDZ720903:GEA720903 GNV720903:GNW720903 GXR720903:GXS720903 HHN720903:HHO720903 HRJ720903:HRK720903 IBF720903:IBG720903 ILB720903:ILC720903 IUX720903:IUY720903 JET720903:JEU720903 JOP720903:JOQ720903 JYL720903:JYM720903 KIH720903:KII720903 KSD720903:KSE720903 LBZ720903:LCA720903 LLV720903:LLW720903 LVR720903:LVS720903 MFN720903:MFO720903 MPJ720903:MPK720903 MZF720903:MZG720903 NJB720903:NJC720903 NSX720903:NSY720903 OCT720903:OCU720903 OMP720903:OMQ720903 OWL720903:OWM720903 PGH720903:PGI720903 PQD720903:PQE720903 PZZ720903:QAA720903 QJV720903:QJW720903 QTR720903:QTS720903 RDN720903:RDO720903 RNJ720903:RNK720903 RXF720903:RXG720903 SHB720903:SHC720903 SQX720903:SQY720903 TAT720903:TAU720903 TKP720903:TKQ720903 TUL720903:TUM720903 UEH720903:UEI720903 UOD720903:UOE720903 UXZ720903:UYA720903 VHV720903:VHW720903 VRR720903:VRS720903 WBN720903:WBO720903 WLJ720903:WLK720903 WVF720903:WVG720903 IT786439:IU786439 SP786439:SQ786439 ACL786439:ACM786439 AMH786439:AMI786439 AWD786439:AWE786439 BFZ786439:BGA786439 BPV786439:BPW786439 BZR786439:BZS786439 CJN786439:CJO786439 CTJ786439:CTK786439 DDF786439:DDG786439 DNB786439:DNC786439 DWX786439:DWY786439 EGT786439:EGU786439 EQP786439:EQQ786439 FAL786439:FAM786439 FKH786439:FKI786439 FUD786439:FUE786439 GDZ786439:GEA786439 GNV786439:GNW786439 GXR786439:GXS786439 HHN786439:HHO786439 HRJ786439:HRK786439 IBF786439:IBG786439 ILB786439:ILC786439 IUX786439:IUY786439 JET786439:JEU786439 JOP786439:JOQ786439 JYL786439:JYM786439 KIH786439:KII786439 KSD786439:KSE786439 LBZ786439:LCA786439 LLV786439:LLW786439 LVR786439:LVS786439 MFN786439:MFO786439 MPJ786439:MPK786439 MZF786439:MZG786439 NJB786439:NJC786439 NSX786439:NSY786439 OCT786439:OCU786439 OMP786439:OMQ786439 OWL786439:OWM786439 PGH786439:PGI786439 PQD786439:PQE786439 PZZ786439:QAA786439 QJV786439:QJW786439 QTR786439:QTS786439 RDN786439:RDO786439 RNJ786439:RNK786439 RXF786439:RXG786439 SHB786439:SHC786439 SQX786439:SQY786439 TAT786439:TAU786439 TKP786439:TKQ786439 TUL786439:TUM786439 UEH786439:UEI786439 UOD786439:UOE786439 UXZ786439:UYA786439 VHV786439:VHW786439 VRR786439:VRS786439 WBN786439:WBO786439 WLJ786439:WLK786439 WVF786439:WVG786439 IT851975:IU851975 SP851975:SQ851975 ACL851975:ACM851975 AMH851975:AMI851975 AWD851975:AWE851975 BFZ851975:BGA851975 BPV851975:BPW851975 BZR851975:BZS851975 CJN851975:CJO851975 CTJ851975:CTK851975 DDF851975:DDG851975 DNB851975:DNC851975 DWX851975:DWY851975 EGT851975:EGU851975 EQP851975:EQQ851975 FAL851975:FAM851975 FKH851975:FKI851975 FUD851975:FUE851975 GDZ851975:GEA851975 GNV851975:GNW851975 GXR851975:GXS851975 HHN851975:HHO851975 HRJ851975:HRK851975 IBF851975:IBG851975 ILB851975:ILC851975 IUX851975:IUY851975 JET851975:JEU851975 JOP851975:JOQ851975 JYL851975:JYM851975 KIH851975:KII851975 KSD851975:KSE851975 LBZ851975:LCA851975 LLV851975:LLW851975 LVR851975:LVS851975 MFN851975:MFO851975 MPJ851975:MPK851975 MZF851975:MZG851975 NJB851975:NJC851975 NSX851975:NSY851975 OCT851975:OCU851975 OMP851975:OMQ851975 OWL851975:OWM851975 PGH851975:PGI851975 PQD851975:PQE851975 PZZ851975:QAA851975 QJV851975:QJW851975 QTR851975:QTS851975 RDN851975:RDO851975 RNJ851975:RNK851975 RXF851975:RXG851975 SHB851975:SHC851975 SQX851975:SQY851975 TAT851975:TAU851975 TKP851975:TKQ851975 TUL851975:TUM851975 UEH851975:UEI851975 UOD851975:UOE851975 UXZ851975:UYA851975 VHV851975:VHW851975 VRR851975:VRS851975 WBN851975:WBO851975 WLJ851975:WLK851975 WVF851975:WVG851975 IT917511:IU917511 SP917511:SQ917511 ACL917511:ACM917511 AMH917511:AMI917511 AWD917511:AWE917511 BFZ917511:BGA917511 BPV917511:BPW917511 BZR917511:BZS917511 CJN917511:CJO917511 CTJ917511:CTK917511 DDF917511:DDG917511 DNB917511:DNC917511 DWX917511:DWY917511 EGT917511:EGU917511 EQP917511:EQQ917511 FAL917511:FAM917511 FKH917511:FKI917511 FUD917511:FUE917511 GDZ917511:GEA917511 GNV917511:GNW917511 GXR917511:GXS917511 HHN917511:HHO917511 HRJ917511:HRK917511 IBF917511:IBG917511 ILB917511:ILC917511 IUX917511:IUY917511 JET917511:JEU917511 JOP917511:JOQ917511 JYL917511:JYM917511 KIH917511:KII917511 KSD917511:KSE917511 LBZ917511:LCA917511 LLV917511:LLW917511 LVR917511:LVS917511 MFN917511:MFO917511 MPJ917511:MPK917511 MZF917511:MZG917511 NJB917511:NJC917511 NSX917511:NSY917511 OCT917511:OCU917511 OMP917511:OMQ917511 OWL917511:OWM917511 PGH917511:PGI917511 PQD917511:PQE917511 PZZ917511:QAA917511 QJV917511:QJW917511 QTR917511:QTS917511 RDN917511:RDO917511 RNJ917511:RNK917511 RXF917511:RXG917511 SHB917511:SHC917511 SQX917511:SQY917511 TAT917511:TAU917511 TKP917511:TKQ917511 TUL917511:TUM917511 UEH917511:UEI917511 UOD917511:UOE917511 UXZ917511:UYA917511 VHV917511:VHW917511 VRR917511:VRS917511 WBN917511:WBO917511 WLJ917511:WLK917511 WVF917511:WVG917511 IT983047:IU983047 SP983047:SQ983047 ACL983047:ACM983047 AMH983047:AMI983047 AWD983047:AWE983047 BFZ983047:BGA983047 BPV983047:BPW983047 BZR983047:BZS983047 CJN983047:CJO983047 CTJ983047:CTK983047 DDF983047:DDG983047 DNB983047:DNC983047 DWX983047:DWY983047 EGT983047:EGU983047 EQP983047:EQQ983047 FAL983047:FAM983047 FKH983047:FKI983047 FUD983047:FUE983047 GDZ983047:GEA983047 GNV983047:GNW983047 GXR983047:GXS983047 HHN983047:HHO983047 HRJ983047:HRK983047 IBF983047:IBG983047 ILB983047:ILC983047 IUX983047:IUY983047 JET983047:JEU983047 JOP983047:JOQ983047 JYL983047:JYM983047 KIH983047:KII983047 KSD983047:KSE983047 LBZ983047:LCA983047 LLV983047:LLW983047 LVR983047:LVS983047 MFN983047:MFO983047 MPJ983047:MPK983047 MZF983047:MZG983047 NJB983047:NJC983047 NSX983047:NSY983047 OCT983047:OCU983047 OMP983047:OMQ983047 OWL983047:OWM983047 PGH983047:PGI983047 PQD983047:PQE983047 PZZ983047:QAA983047 QJV983047:QJW983047 QTR983047:QTS983047 RDN983047:RDO983047 RNJ983047:RNK983047 RXF983047:RXG983047 SHB983047:SHC983047 SQX983047:SQY983047 TAT983047:TAU983047 TKP983047:TKQ983047 TUL983047:TUM983047 UEH983047:UEI983047 UOD983047:UOE983047 UXZ983047:UYA983047 VHV983047:VHW983047 VRR983047:VRS983047 WBN983047:WBO983047 WLJ983047:WLK983047 WVF983047:WVG983047 IV8:IV10 SR8:SR10 ACN8:ACN10 AMJ8:AMJ10 AWF8:AWF10 BGB8:BGB10 BPX8:BPX10 BZT8:BZT10 CJP8:CJP10 CTL8:CTL10 DDH8:DDH10 DND8:DND10 DWZ8:DWZ10 EGV8:EGV10 EQR8:EQR10 FAN8:FAN10 FKJ8:FKJ10 FUF8:FUF10 GEB8:GEB10 GNX8:GNX10 GXT8:GXT10 HHP8:HHP10 HRL8:HRL10 IBH8:IBH10 ILD8:ILD10 IUZ8:IUZ10 JEV8:JEV10 JOR8:JOR10 JYN8:JYN10 KIJ8:KIJ10 KSF8:KSF10 LCB8:LCB10 LLX8:LLX10 LVT8:LVT10 MFP8:MFP10 MPL8:MPL10 MZH8:MZH10 NJD8:NJD10 NSZ8:NSZ10 OCV8:OCV10 OMR8:OMR10 OWN8:OWN10 PGJ8:PGJ10 PQF8:PQF10 QAB8:QAB10 QJX8:QJX10 QTT8:QTT10 RDP8:RDP10 RNL8:RNL10 RXH8:RXH10 SHD8:SHD10 SQZ8:SQZ10 TAV8:TAV10 TKR8:TKR10 TUN8:TUN10 UEJ8:UEJ10 UOF8:UOF10 UYB8:UYB10 VHX8:VHX10 VRT8:VRT10 WBP8:WBP10 WLL8:WLL10 WVH8:WVH10 IV65543:IV65545 SR65543:SR65545 ACN65543:ACN65545 AMJ65543:AMJ65545 AWF65543:AWF65545 BGB65543:BGB65545 BPX65543:BPX65545 BZT65543:BZT65545 CJP65543:CJP65545 CTL65543:CTL65545 DDH65543:DDH65545 DND65543:DND65545 DWZ65543:DWZ65545 EGV65543:EGV65545 EQR65543:EQR65545 FAN65543:FAN65545 FKJ65543:FKJ65545 FUF65543:FUF65545 GEB65543:GEB65545 GNX65543:GNX65545 GXT65543:GXT65545 HHP65543:HHP65545 HRL65543:HRL65545 IBH65543:IBH65545 ILD65543:ILD65545 IUZ65543:IUZ65545 JEV65543:JEV65545 JOR65543:JOR65545 JYN65543:JYN65545 KIJ65543:KIJ65545 KSF65543:KSF65545 LCB65543:LCB65545 LLX65543:LLX65545 LVT65543:LVT65545 MFP65543:MFP65545 MPL65543:MPL65545 MZH65543:MZH65545 NJD65543:NJD65545 NSZ65543:NSZ65545 OCV65543:OCV65545 OMR65543:OMR65545 OWN65543:OWN65545 PGJ65543:PGJ65545 PQF65543:PQF65545 QAB65543:QAB65545 QJX65543:QJX65545 QTT65543:QTT65545 RDP65543:RDP65545 RNL65543:RNL65545 RXH65543:RXH65545 SHD65543:SHD65545 SQZ65543:SQZ65545 TAV65543:TAV65545 TKR65543:TKR65545 TUN65543:TUN65545 UEJ65543:UEJ65545 UOF65543:UOF65545 UYB65543:UYB65545 VHX65543:VHX65545 VRT65543:VRT65545 WBP65543:WBP65545 WLL65543:WLL65545 WVH65543:WVH65545 IV131079:IV131081 SR131079:SR131081 ACN131079:ACN131081 AMJ131079:AMJ131081 AWF131079:AWF131081 BGB131079:BGB131081 BPX131079:BPX131081 BZT131079:BZT131081 CJP131079:CJP131081 CTL131079:CTL131081 DDH131079:DDH131081 DND131079:DND131081 DWZ131079:DWZ131081 EGV131079:EGV131081 EQR131079:EQR131081 FAN131079:FAN131081 FKJ131079:FKJ131081 FUF131079:FUF131081 GEB131079:GEB131081 GNX131079:GNX131081 GXT131079:GXT131081 HHP131079:HHP131081 HRL131079:HRL131081 IBH131079:IBH131081 ILD131079:ILD131081 IUZ131079:IUZ131081 JEV131079:JEV131081 JOR131079:JOR131081 JYN131079:JYN131081 KIJ131079:KIJ131081 KSF131079:KSF131081 LCB131079:LCB131081 LLX131079:LLX131081 LVT131079:LVT131081 MFP131079:MFP131081 MPL131079:MPL131081 MZH131079:MZH131081 NJD131079:NJD131081 NSZ131079:NSZ131081 OCV131079:OCV131081 OMR131079:OMR131081 OWN131079:OWN131081 PGJ131079:PGJ131081 PQF131079:PQF131081 QAB131079:QAB131081 QJX131079:QJX131081 QTT131079:QTT131081 RDP131079:RDP131081 RNL131079:RNL131081 RXH131079:RXH131081 SHD131079:SHD131081 SQZ131079:SQZ131081 TAV131079:TAV131081 TKR131079:TKR131081 TUN131079:TUN131081 UEJ131079:UEJ131081 UOF131079:UOF131081 UYB131079:UYB131081 VHX131079:VHX131081 VRT131079:VRT131081 WBP131079:WBP131081 WLL131079:WLL131081 WVH131079:WVH131081 IV196615:IV196617 SR196615:SR196617 ACN196615:ACN196617 AMJ196615:AMJ196617 AWF196615:AWF196617 BGB196615:BGB196617 BPX196615:BPX196617 BZT196615:BZT196617 CJP196615:CJP196617 CTL196615:CTL196617 DDH196615:DDH196617 DND196615:DND196617 DWZ196615:DWZ196617 EGV196615:EGV196617 EQR196615:EQR196617 FAN196615:FAN196617 FKJ196615:FKJ196617 FUF196615:FUF196617 GEB196615:GEB196617 GNX196615:GNX196617 GXT196615:GXT196617 HHP196615:HHP196617 HRL196615:HRL196617 IBH196615:IBH196617 ILD196615:ILD196617 IUZ196615:IUZ196617 JEV196615:JEV196617 JOR196615:JOR196617 JYN196615:JYN196617 KIJ196615:KIJ196617 KSF196615:KSF196617 LCB196615:LCB196617 LLX196615:LLX196617 LVT196615:LVT196617 MFP196615:MFP196617 MPL196615:MPL196617 MZH196615:MZH196617 NJD196615:NJD196617 NSZ196615:NSZ196617 OCV196615:OCV196617 OMR196615:OMR196617 OWN196615:OWN196617 PGJ196615:PGJ196617 PQF196615:PQF196617 QAB196615:QAB196617 QJX196615:QJX196617 QTT196615:QTT196617 RDP196615:RDP196617 RNL196615:RNL196617 RXH196615:RXH196617 SHD196615:SHD196617 SQZ196615:SQZ196617 TAV196615:TAV196617 TKR196615:TKR196617 TUN196615:TUN196617 UEJ196615:UEJ196617 UOF196615:UOF196617 UYB196615:UYB196617 VHX196615:VHX196617 VRT196615:VRT196617 WBP196615:WBP196617 WLL196615:WLL196617 WVH196615:WVH196617 IV262151:IV262153 SR262151:SR262153 ACN262151:ACN262153 AMJ262151:AMJ262153 AWF262151:AWF262153 BGB262151:BGB262153 BPX262151:BPX262153 BZT262151:BZT262153 CJP262151:CJP262153 CTL262151:CTL262153 DDH262151:DDH262153 DND262151:DND262153 DWZ262151:DWZ262153 EGV262151:EGV262153 EQR262151:EQR262153 FAN262151:FAN262153 FKJ262151:FKJ262153 FUF262151:FUF262153 GEB262151:GEB262153 GNX262151:GNX262153 GXT262151:GXT262153 HHP262151:HHP262153 HRL262151:HRL262153 IBH262151:IBH262153 ILD262151:ILD262153 IUZ262151:IUZ262153 JEV262151:JEV262153 JOR262151:JOR262153 JYN262151:JYN262153 KIJ262151:KIJ262153 KSF262151:KSF262153 LCB262151:LCB262153 LLX262151:LLX262153 LVT262151:LVT262153 MFP262151:MFP262153 MPL262151:MPL262153 MZH262151:MZH262153 NJD262151:NJD262153 NSZ262151:NSZ262153 OCV262151:OCV262153 OMR262151:OMR262153 OWN262151:OWN262153 PGJ262151:PGJ262153 PQF262151:PQF262153 QAB262151:QAB262153 QJX262151:QJX262153 QTT262151:QTT262153 RDP262151:RDP262153 RNL262151:RNL262153 RXH262151:RXH262153 SHD262151:SHD262153 SQZ262151:SQZ262153 TAV262151:TAV262153 TKR262151:TKR262153 TUN262151:TUN262153 UEJ262151:UEJ262153 UOF262151:UOF262153 UYB262151:UYB262153 VHX262151:VHX262153 VRT262151:VRT262153 WBP262151:WBP262153 WLL262151:WLL262153 WVH262151:WVH262153 IV327687:IV327689 SR327687:SR327689 ACN327687:ACN327689 AMJ327687:AMJ327689 AWF327687:AWF327689 BGB327687:BGB327689 BPX327687:BPX327689 BZT327687:BZT327689 CJP327687:CJP327689 CTL327687:CTL327689 DDH327687:DDH327689 DND327687:DND327689 DWZ327687:DWZ327689 EGV327687:EGV327689 EQR327687:EQR327689 FAN327687:FAN327689 FKJ327687:FKJ327689 FUF327687:FUF327689 GEB327687:GEB327689 GNX327687:GNX327689 GXT327687:GXT327689 HHP327687:HHP327689 HRL327687:HRL327689 IBH327687:IBH327689 ILD327687:ILD327689 IUZ327687:IUZ327689 JEV327687:JEV327689 JOR327687:JOR327689 JYN327687:JYN327689 KIJ327687:KIJ327689 KSF327687:KSF327689 LCB327687:LCB327689 LLX327687:LLX327689 LVT327687:LVT327689 MFP327687:MFP327689 MPL327687:MPL327689 MZH327687:MZH327689 NJD327687:NJD327689 NSZ327687:NSZ327689 OCV327687:OCV327689 OMR327687:OMR327689 OWN327687:OWN327689 PGJ327687:PGJ327689 PQF327687:PQF327689 QAB327687:QAB327689 QJX327687:QJX327689 QTT327687:QTT327689 RDP327687:RDP327689 RNL327687:RNL327689 RXH327687:RXH327689 SHD327687:SHD327689 SQZ327687:SQZ327689 TAV327687:TAV327689 TKR327687:TKR327689 TUN327687:TUN327689 UEJ327687:UEJ327689 UOF327687:UOF327689 UYB327687:UYB327689 VHX327687:VHX327689 VRT327687:VRT327689 WBP327687:WBP327689 WLL327687:WLL327689 WVH327687:WVH327689 IV393223:IV393225 SR393223:SR393225 ACN393223:ACN393225 AMJ393223:AMJ393225 AWF393223:AWF393225 BGB393223:BGB393225 BPX393223:BPX393225 BZT393223:BZT393225 CJP393223:CJP393225 CTL393223:CTL393225 DDH393223:DDH393225 DND393223:DND393225 DWZ393223:DWZ393225 EGV393223:EGV393225 EQR393223:EQR393225 FAN393223:FAN393225 FKJ393223:FKJ393225 FUF393223:FUF393225 GEB393223:GEB393225 GNX393223:GNX393225 GXT393223:GXT393225 HHP393223:HHP393225 HRL393223:HRL393225 IBH393223:IBH393225 ILD393223:ILD393225 IUZ393223:IUZ393225 JEV393223:JEV393225 JOR393223:JOR393225 JYN393223:JYN393225 KIJ393223:KIJ393225 KSF393223:KSF393225 LCB393223:LCB393225 LLX393223:LLX393225 LVT393223:LVT393225 MFP393223:MFP393225 MPL393223:MPL393225 MZH393223:MZH393225 NJD393223:NJD393225 NSZ393223:NSZ393225 OCV393223:OCV393225 OMR393223:OMR393225 OWN393223:OWN393225 PGJ393223:PGJ393225 PQF393223:PQF393225 QAB393223:QAB393225 QJX393223:QJX393225 QTT393223:QTT393225 RDP393223:RDP393225 RNL393223:RNL393225 RXH393223:RXH393225 SHD393223:SHD393225 SQZ393223:SQZ393225 TAV393223:TAV393225 TKR393223:TKR393225 TUN393223:TUN393225 UEJ393223:UEJ393225 UOF393223:UOF393225 UYB393223:UYB393225 VHX393223:VHX393225 VRT393223:VRT393225 WBP393223:WBP393225 WLL393223:WLL393225 WVH393223:WVH393225 IV458759:IV458761 SR458759:SR458761 ACN458759:ACN458761 AMJ458759:AMJ458761 AWF458759:AWF458761 BGB458759:BGB458761 BPX458759:BPX458761 BZT458759:BZT458761 CJP458759:CJP458761 CTL458759:CTL458761 DDH458759:DDH458761 DND458759:DND458761 DWZ458759:DWZ458761 EGV458759:EGV458761 EQR458759:EQR458761 FAN458759:FAN458761 FKJ458759:FKJ458761 FUF458759:FUF458761 GEB458759:GEB458761 GNX458759:GNX458761 GXT458759:GXT458761 HHP458759:HHP458761 HRL458759:HRL458761 IBH458759:IBH458761 ILD458759:ILD458761 IUZ458759:IUZ458761 JEV458759:JEV458761 JOR458759:JOR458761 JYN458759:JYN458761 KIJ458759:KIJ458761 KSF458759:KSF458761 LCB458759:LCB458761 LLX458759:LLX458761 LVT458759:LVT458761 MFP458759:MFP458761 MPL458759:MPL458761 MZH458759:MZH458761 NJD458759:NJD458761 NSZ458759:NSZ458761 OCV458759:OCV458761 OMR458759:OMR458761 OWN458759:OWN458761 PGJ458759:PGJ458761 PQF458759:PQF458761 QAB458759:QAB458761 QJX458759:QJX458761 QTT458759:QTT458761 RDP458759:RDP458761 RNL458759:RNL458761 RXH458759:RXH458761 SHD458759:SHD458761 SQZ458759:SQZ458761 TAV458759:TAV458761 TKR458759:TKR458761 TUN458759:TUN458761 UEJ458759:UEJ458761 UOF458759:UOF458761 UYB458759:UYB458761 VHX458759:VHX458761 VRT458759:VRT458761 WBP458759:WBP458761 WLL458759:WLL458761 WVH458759:WVH458761 IV524295:IV524297 SR524295:SR524297 ACN524295:ACN524297 AMJ524295:AMJ524297 AWF524295:AWF524297 BGB524295:BGB524297 BPX524295:BPX524297 BZT524295:BZT524297 CJP524295:CJP524297 CTL524295:CTL524297 DDH524295:DDH524297 DND524295:DND524297 DWZ524295:DWZ524297 EGV524295:EGV524297 EQR524295:EQR524297 FAN524295:FAN524297 FKJ524295:FKJ524297 FUF524295:FUF524297 GEB524295:GEB524297 GNX524295:GNX524297 GXT524295:GXT524297 HHP524295:HHP524297 HRL524295:HRL524297 IBH524295:IBH524297 ILD524295:ILD524297 IUZ524295:IUZ524297 JEV524295:JEV524297 JOR524295:JOR524297 JYN524295:JYN524297 KIJ524295:KIJ524297 KSF524295:KSF524297 LCB524295:LCB524297 LLX524295:LLX524297 LVT524295:LVT524297 MFP524295:MFP524297 MPL524295:MPL524297 MZH524295:MZH524297 NJD524295:NJD524297 NSZ524295:NSZ524297 OCV524295:OCV524297 OMR524295:OMR524297 OWN524295:OWN524297 PGJ524295:PGJ524297 PQF524295:PQF524297 QAB524295:QAB524297 QJX524295:QJX524297 QTT524295:QTT524297 RDP524295:RDP524297 RNL524295:RNL524297 RXH524295:RXH524297 SHD524295:SHD524297 SQZ524295:SQZ524297 TAV524295:TAV524297 TKR524295:TKR524297 TUN524295:TUN524297 UEJ524295:UEJ524297 UOF524295:UOF524297 UYB524295:UYB524297 VHX524295:VHX524297 VRT524295:VRT524297 WBP524295:WBP524297 WLL524295:WLL524297 WVH524295:WVH524297 IV589831:IV589833 SR589831:SR589833 ACN589831:ACN589833 AMJ589831:AMJ589833 AWF589831:AWF589833 BGB589831:BGB589833 BPX589831:BPX589833 BZT589831:BZT589833 CJP589831:CJP589833 CTL589831:CTL589833 DDH589831:DDH589833 DND589831:DND589833 DWZ589831:DWZ589833 EGV589831:EGV589833 EQR589831:EQR589833 FAN589831:FAN589833 FKJ589831:FKJ589833 FUF589831:FUF589833 GEB589831:GEB589833 GNX589831:GNX589833 GXT589831:GXT589833 HHP589831:HHP589833 HRL589831:HRL589833 IBH589831:IBH589833 ILD589831:ILD589833 IUZ589831:IUZ589833 JEV589831:JEV589833 JOR589831:JOR589833 JYN589831:JYN589833 KIJ589831:KIJ589833 KSF589831:KSF589833 LCB589831:LCB589833 LLX589831:LLX589833 LVT589831:LVT589833 MFP589831:MFP589833 MPL589831:MPL589833 MZH589831:MZH589833 NJD589831:NJD589833 NSZ589831:NSZ589833 OCV589831:OCV589833 OMR589831:OMR589833 OWN589831:OWN589833 PGJ589831:PGJ589833 PQF589831:PQF589833 QAB589831:QAB589833 QJX589831:QJX589833 QTT589831:QTT589833 RDP589831:RDP589833 RNL589831:RNL589833 RXH589831:RXH589833 SHD589831:SHD589833 SQZ589831:SQZ589833 TAV589831:TAV589833 TKR589831:TKR589833 TUN589831:TUN589833 UEJ589831:UEJ589833 UOF589831:UOF589833 UYB589831:UYB589833 VHX589831:VHX589833 VRT589831:VRT589833 WBP589831:WBP589833 WLL589831:WLL589833 WVH589831:WVH589833 IV655367:IV655369 SR655367:SR655369 ACN655367:ACN655369 AMJ655367:AMJ655369 AWF655367:AWF655369 BGB655367:BGB655369 BPX655367:BPX655369 BZT655367:BZT655369 CJP655367:CJP655369 CTL655367:CTL655369 DDH655367:DDH655369 DND655367:DND655369 DWZ655367:DWZ655369 EGV655367:EGV655369 EQR655367:EQR655369 FAN655367:FAN655369 FKJ655367:FKJ655369 FUF655367:FUF655369 GEB655367:GEB655369 GNX655367:GNX655369 GXT655367:GXT655369 HHP655367:HHP655369 HRL655367:HRL655369 IBH655367:IBH655369 ILD655367:ILD655369 IUZ655367:IUZ655369 JEV655367:JEV655369 JOR655367:JOR655369 JYN655367:JYN655369 KIJ655367:KIJ655369 KSF655367:KSF655369 LCB655367:LCB655369 LLX655367:LLX655369 LVT655367:LVT655369 MFP655367:MFP655369 MPL655367:MPL655369 MZH655367:MZH655369 NJD655367:NJD655369 NSZ655367:NSZ655369 OCV655367:OCV655369 OMR655367:OMR655369 OWN655367:OWN655369 PGJ655367:PGJ655369 PQF655367:PQF655369 QAB655367:QAB655369 QJX655367:QJX655369 QTT655367:QTT655369 RDP655367:RDP655369 RNL655367:RNL655369 RXH655367:RXH655369 SHD655367:SHD655369 SQZ655367:SQZ655369 TAV655367:TAV655369 TKR655367:TKR655369 TUN655367:TUN655369 UEJ655367:UEJ655369 UOF655367:UOF655369 UYB655367:UYB655369 VHX655367:VHX655369 VRT655367:VRT655369 WBP655367:WBP655369 WLL655367:WLL655369 WVH655367:WVH655369 IV720903:IV720905 SR720903:SR720905 ACN720903:ACN720905 AMJ720903:AMJ720905 AWF720903:AWF720905 BGB720903:BGB720905 BPX720903:BPX720905 BZT720903:BZT720905 CJP720903:CJP720905 CTL720903:CTL720905 DDH720903:DDH720905 DND720903:DND720905 DWZ720903:DWZ720905 EGV720903:EGV720905 EQR720903:EQR720905 FAN720903:FAN720905 FKJ720903:FKJ720905 FUF720903:FUF720905 GEB720903:GEB720905 GNX720903:GNX720905 GXT720903:GXT720905 HHP720903:HHP720905 HRL720903:HRL720905 IBH720903:IBH720905 ILD720903:ILD720905 IUZ720903:IUZ720905 JEV720903:JEV720905 JOR720903:JOR720905 JYN720903:JYN720905 KIJ720903:KIJ720905 KSF720903:KSF720905 LCB720903:LCB720905 LLX720903:LLX720905 LVT720903:LVT720905 MFP720903:MFP720905 MPL720903:MPL720905 MZH720903:MZH720905 NJD720903:NJD720905 NSZ720903:NSZ720905 OCV720903:OCV720905 OMR720903:OMR720905 OWN720903:OWN720905 PGJ720903:PGJ720905 PQF720903:PQF720905 QAB720903:QAB720905 QJX720903:QJX720905 QTT720903:QTT720905 RDP720903:RDP720905 RNL720903:RNL720905 RXH720903:RXH720905 SHD720903:SHD720905 SQZ720903:SQZ720905 TAV720903:TAV720905 TKR720903:TKR720905 TUN720903:TUN720905 UEJ720903:UEJ720905 UOF720903:UOF720905 UYB720903:UYB720905 VHX720903:VHX720905 VRT720903:VRT720905 WBP720903:WBP720905 WLL720903:WLL720905 WVH720903:WVH720905 IV786439:IV786441 SR786439:SR786441 ACN786439:ACN786441 AMJ786439:AMJ786441 AWF786439:AWF786441 BGB786439:BGB786441 BPX786439:BPX786441 BZT786439:BZT786441 CJP786439:CJP786441 CTL786439:CTL786441 DDH786439:DDH786441 DND786439:DND786441 DWZ786439:DWZ786441 EGV786439:EGV786441 EQR786439:EQR786441 FAN786439:FAN786441 FKJ786439:FKJ786441 FUF786439:FUF786441 GEB786439:GEB786441 GNX786439:GNX786441 GXT786439:GXT786441 HHP786439:HHP786441 HRL786439:HRL786441 IBH786439:IBH786441 ILD786439:ILD786441 IUZ786439:IUZ786441 JEV786439:JEV786441 JOR786439:JOR786441 JYN786439:JYN786441 KIJ786439:KIJ786441 KSF786439:KSF786441 LCB786439:LCB786441 LLX786439:LLX786441 LVT786439:LVT786441 MFP786439:MFP786441 MPL786439:MPL786441 MZH786439:MZH786441 NJD786439:NJD786441 NSZ786439:NSZ786441 OCV786439:OCV786441 OMR786439:OMR786441 OWN786439:OWN786441 PGJ786439:PGJ786441 PQF786439:PQF786441 QAB786439:QAB786441 QJX786439:QJX786441 QTT786439:QTT786441 RDP786439:RDP786441 RNL786439:RNL786441 RXH786439:RXH786441 SHD786439:SHD786441 SQZ786439:SQZ786441 TAV786439:TAV786441 TKR786439:TKR786441 TUN786439:TUN786441 UEJ786439:UEJ786441 UOF786439:UOF786441 UYB786439:UYB786441 VHX786439:VHX786441 VRT786439:VRT786441 WBP786439:WBP786441 WLL786439:WLL786441 WVH786439:WVH786441 IV851975:IV851977 SR851975:SR851977 ACN851975:ACN851977 AMJ851975:AMJ851977 AWF851975:AWF851977 BGB851975:BGB851977 BPX851975:BPX851977 BZT851975:BZT851977 CJP851975:CJP851977 CTL851975:CTL851977 DDH851975:DDH851977 DND851975:DND851977 DWZ851975:DWZ851977 EGV851975:EGV851977 EQR851975:EQR851977 FAN851975:FAN851977 FKJ851975:FKJ851977 FUF851975:FUF851977 GEB851975:GEB851977 GNX851975:GNX851977 GXT851975:GXT851977 HHP851975:HHP851977 HRL851975:HRL851977 IBH851975:IBH851977 ILD851975:ILD851977 IUZ851975:IUZ851977 JEV851975:JEV851977 JOR851975:JOR851977 JYN851975:JYN851977 KIJ851975:KIJ851977 KSF851975:KSF851977 LCB851975:LCB851977 LLX851975:LLX851977 LVT851975:LVT851977 MFP851975:MFP851977 MPL851975:MPL851977 MZH851975:MZH851977 NJD851975:NJD851977 NSZ851975:NSZ851977 OCV851975:OCV851977 OMR851975:OMR851977 OWN851975:OWN851977 PGJ851975:PGJ851977 PQF851975:PQF851977 QAB851975:QAB851977 QJX851975:QJX851977 QTT851975:QTT851977 RDP851975:RDP851977 RNL851975:RNL851977 RXH851975:RXH851977 SHD851975:SHD851977 SQZ851975:SQZ851977 TAV851975:TAV851977 TKR851975:TKR851977 TUN851975:TUN851977 UEJ851975:UEJ851977 UOF851975:UOF851977 UYB851975:UYB851977 VHX851975:VHX851977 VRT851975:VRT851977 WBP851975:WBP851977 WLL851975:WLL851977 WVH851975:WVH851977 IV917511:IV917513 SR917511:SR917513 ACN917511:ACN917513 AMJ917511:AMJ917513 AWF917511:AWF917513 BGB917511:BGB917513 BPX917511:BPX917513 BZT917511:BZT917513 CJP917511:CJP917513 CTL917511:CTL917513 DDH917511:DDH917513 DND917511:DND917513 DWZ917511:DWZ917513 EGV917511:EGV917513 EQR917511:EQR917513 FAN917511:FAN917513 FKJ917511:FKJ917513 FUF917511:FUF917513 GEB917511:GEB917513 GNX917511:GNX917513 GXT917511:GXT917513 HHP917511:HHP917513 HRL917511:HRL917513 IBH917511:IBH917513 ILD917511:ILD917513 IUZ917511:IUZ917513 JEV917511:JEV917513 JOR917511:JOR917513 JYN917511:JYN917513 KIJ917511:KIJ917513 KSF917511:KSF917513 LCB917511:LCB917513 LLX917511:LLX917513 LVT917511:LVT917513 MFP917511:MFP917513 MPL917511:MPL917513 MZH917511:MZH917513 NJD917511:NJD917513 NSZ917511:NSZ917513 OCV917511:OCV917513 OMR917511:OMR917513 OWN917511:OWN917513 PGJ917511:PGJ917513 PQF917511:PQF917513 QAB917511:QAB917513 QJX917511:QJX917513 QTT917511:QTT917513 RDP917511:RDP917513 RNL917511:RNL917513 RXH917511:RXH917513 SHD917511:SHD917513 SQZ917511:SQZ917513 TAV917511:TAV917513 TKR917511:TKR917513 TUN917511:TUN917513 UEJ917511:UEJ917513 UOF917511:UOF917513 UYB917511:UYB917513 VHX917511:VHX917513 VRT917511:VRT917513 WBP917511:WBP917513 WLL917511:WLL917513 WVH917511:WVH917513 IV983047:IV983049 SR983047:SR983049 ACN983047:ACN983049 AMJ983047:AMJ983049 AWF983047:AWF983049 BGB983047:BGB983049 BPX983047:BPX983049 BZT983047:BZT983049 CJP983047:CJP983049 CTL983047:CTL983049 DDH983047:DDH983049 DND983047:DND983049 DWZ983047:DWZ983049 EGV983047:EGV983049 EQR983047:EQR983049 FAN983047:FAN983049 FKJ983047:FKJ983049 FUF983047:FUF983049 GEB983047:GEB983049 GNX983047:GNX983049 GXT983047:GXT983049 HHP983047:HHP983049 HRL983047:HRL983049 IBH983047:IBH983049 ILD983047:ILD983049 IUZ983047:IUZ983049 JEV983047:JEV983049 JOR983047:JOR983049 JYN983047:JYN983049 KIJ983047:KIJ983049 KSF983047:KSF983049 LCB983047:LCB983049 LLX983047:LLX983049 LVT983047:LVT983049 MFP983047:MFP983049 MPL983047:MPL983049 MZH983047:MZH983049 NJD983047:NJD983049 NSZ983047:NSZ983049 OCV983047:OCV983049 OMR983047:OMR983049 OWN983047:OWN983049 PGJ983047:PGJ983049 PQF983047:PQF983049 QAB983047:QAB983049 QJX983047:QJX983049 QTT983047:QTT983049 RDP983047:RDP983049 RNL983047:RNL983049 RXH983047:RXH983049 SHD983047:SHD983049 SQZ983047:SQZ983049 TAV983047:TAV983049 TKR983047:TKR983049 TUN983047:TUN983049 UEJ983047:UEJ983049 UOF983047:UOF983049 UYB983047:UYB983049 VHX983047:VHX983049 VRT983047:VRT983049 WBP983047:WBP983049">
+      <formula1>INDIRECT($D$7)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.51181102362204722"/>
@@ -5036,8 +5030,7 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="21" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5572,334 +5565,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B1" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="B1" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="126"/>
+      <c r="H2" s="128" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16.7" customHeight="1">
+      <c r="B3" s="125"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="G3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="129"/>
+    </row>
+    <row r="4" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+    </row>
+    <row r="7" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B8" s="42"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B9" s="42"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B10" s="42"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B11" s="42"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B12" s="42"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B13" s="42"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B14" s="42"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B15" s="42"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="49"/>
+    </row>
+    <row r="16" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B16" s="42"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B17" s="42"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B18" s="42"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B19" s="42"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B20" s="42"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B21" s="42"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B22" s="42"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B23" s="42"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B24" s="42"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="49"/>
+    </row>
+    <row r="25" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B25" s="42"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="49"/>
+    </row>
+    <row r="26" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B26" s="42"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="49"/>
+    </row>
+    <row r="27" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B27" s="42"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="49"/>
+    </row>
+    <row r="28" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B28" s="42"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="49"/>
+    </row>
+    <row r="29" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B29" s="42"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="49"/>
+    </row>
+    <row r="30" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B30" s="42"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="49"/>
+    </row>
+    <row r="31" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B31" s="42"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="49"/>
+    </row>
+    <row r="32" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B32" s="42"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="49"/>
+    </row>
+    <row r="33" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B33" s="42"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="49"/>
+    </row>
+    <row r="34" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B35" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="130"/>
-      <c r="H2" s="132" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B3" s="129"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="133"/>
-    </row>
-    <row r="4" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-    </row>
-    <row r="5" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="51"/>
-    </row>
-    <row r="8" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B8" s="44"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="51"/>
-    </row>
-    <row r="9" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B9" s="44"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B10" s="44"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B11" s="44"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B12" s="44"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B13" s="44"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B14" s="44"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B15" s="44"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B16" s="44"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-    </row>
-    <row r="17" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B17" s="44"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B18" s="44"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-    </row>
-    <row r="19" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B19" s="44"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B20" s="44"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B21" s="44"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="44"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
-    </row>
-    <row r="23" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B23" s="44"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
-    </row>
-    <row r="24" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B24" s="44"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-    </row>
-    <row r="25" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B25" s="44"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-    </row>
-    <row r="26" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B26" s="44"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-    </row>
-    <row r="27" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B27" s="44"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-    </row>
-    <row r="28" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B28" s="44"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="51"/>
-    </row>
-    <row r="29" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B29" s="44"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="51"/>
-    </row>
-    <row r="30" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B30" s="44"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="51"/>
-    </row>
-    <row r="31" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B31" s="44"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51"/>
-    </row>
-    <row r="32" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B32" s="44"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
-    </row>
-    <row r="33" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B33" s="44"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="51"/>
-    </row>
-    <row r="34" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="55"/>
-    </row>
-    <row r="35" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B35" s="142" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="14">
         <f>SUM(F4:F34)</f>
         <v>0</v>
@@ -5913,6 +5906,28 @@
     <row r="36" spans="2:8" ht="6.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -5929,32 +5944,10 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -7435,30 +7428,30 @@
   <sheetData>
     <row r="2" spans="2:23">
       <c r="B2" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
@@ -7478,13 +7471,13 @@
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -7508,16 +7501,16 @@
     </row>
     <row r="5" spans="2:23">
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="7"/>
@@ -7540,13 +7533,13 @@
     </row>
     <row r="6" spans="2:23" ht="13.5" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -7570,13 +7563,13 @@
     </row>
     <row r="7" spans="2:23">
       <c r="B7" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -7600,13 +7593,13 @@
     </row>
     <row r="8" spans="2:23">
       <c r="B8" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -7630,13 +7623,13 @@
     </row>
     <row r="9" spans="2:23" ht="11.25" customHeight="1">
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -7660,16 +7653,16 @@
     </row>
     <row r="10" spans="2:23">
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -7692,16 +7685,16 @@
     </row>
     <row r="11" spans="2:23">
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -7724,16 +7717,16 @@
     </row>
     <row r="12" spans="2:23">
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -7756,22 +7749,22 @@
     </row>
     <row r="13" spans="2:23">
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -7792,22 +7785,22 @@
     </row>
     <row r="14" spans="2:23">
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -7815,22 +7808,22 @@
     </row>
     <row r="15" spans="2:23">
       <c r="B15" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -7838,22 +7831,22 @@
     </row>
     <row r="16" spans="2:23">
       <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7861,16 +7854,16 @@
     </row>
     <row r="17" spans="2:23">
       <c r="B17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -7893,22 +7886,22 @@
     </row>
     <row r="18" spans="2:23">
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -7919,39 +7912,39 @@
     </row>
     <row r="20" spans="2:23">
       <c r="B20" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="2:23">
       <c r="B21" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="39">
+        <v>97</v>
+      </c>
+      <c r="E21" s="37">
         <v>1</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H21" s="24">
         <v>50</v>
@@ -7959,19 +7952,19 @@
     </row>
     <row r="22" spans="2:23">
       <c r="B22" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="39">
+        <v>85</v>
+      </c>
+      <c r="E22" s="37">
         <v>1</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H22" s="24">
         <v>75</v>
@@ -7979,19 +7972,19 @@
     </row>
     <row r="23" spans="2:23">
       <c r="B23" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="39">
+        <v>84</v>
+      </c>
+      <c r="E23" s="37">
         <v>0.5</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H23" s="24">
         <v>100</v>
@@ -7999,15 +7992,15 @@
     </row>
     <row r="24" spans="2:23">
       <c r="B24" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="39">
+        <v>86</v>
+      </c>
+      <c r="E24" s="37">
         <v>1.5</v>
       </c>
       <c r="F24" s="17"/>
@@ -8017,12 +8010,12 @@
     </row>
     <row r="25" spans="2:23">
       <c r="B25" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="39">
+        <v>91</v>
+      </c>
+      <c r="E25" s="37">
         <v>0.75</v>
       </c>
       <c r="H25" s="24">
@@ -8031,9 +8024,9 @@
     </row>
     <row r="26" spans="2:23">
       <c r="D26" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="39">
+        <v>87</v>
+      </c>
+      <c r="E26" s="37">
         <v>0.5</v>
       </c>
       <c r="H26" s="24">
@@ -8042,9 +8035,9 @@
     </row>
     <row r="27" spans="2:23">
       <c r="D27" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="39">
+        <v>88</v>
+      </c>
+      <c r="E27" s="37">
         <v>1</v>
       </c>
       <c r="H27" s="24">
@@ -8053,9 +8046,9 @@
     </row>
     <row r="28" spans="2:23">
       <c r="D28" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="39">
+        <v>89</v>
+      </c>
+      <c r="E28" s="37">
         <v>0.75</v>
       </c>
       <c r="H28" s="24">
@@ -8064,9 +8057,9 @@
     </row>
     <row r="29" spans="2:23" ht="15" customHeight="1">
       <c r="D29" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="39">
+        <v>90</v>
+      </c>
+      <c r="E29" s="37">
         <v>1.5</v>
       </c>
     </row>

--- a/controller/src/main/resources/jxls_templates/jingneijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingneijingsuanshu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newtouch\SVN\07_P_FANS\05Dev\01Source\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,30 +18,30 @@
   </sheets>
   <definedNames>
     <definedName name="LSIソリューション開発グループ">設定!$C$11:$E$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$U$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">公务电话费!$A$1:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$U$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定!$A$1:$J$32</definedName>
     <definedName name="SYJH">#REF!</definedName>
     <definedName name="アーキ推進室">設定!$C$15:$G$15</definedName>
     <definedName name="ソフトウェア開発力強化推進室">設定!$C$9:$D$9</definedName>
-    <definedName name="移动时间">設定!$D$21:$D$29</definedName>
-    <definedName name="快適機器開発グループ">設定!$C$6:$D$6</definedName>
-    <definedName name="開発企画推進室">設定!$C$5:$E$5</definedName>
+    <definedName name="部門">設定!$B$3:$B$18</definedName>
+    <definedName name="財務推進室">設定!$C$4:$D$4</definedName>
+    <definedName name="産業システム開発グループ">設定!$C$17:$E$17</definedName>
+    <definedName name="車載LSI開発グループ">設定!$C$14:$G$14</definedName>
+    <definedName name="車載商品開発グループ">設定!$C$13:$G$13</definedName>
     <definedName name="活动内容">設定!$B$21:$B$25</definedName>
     <definedName name="基盤技術応用グループ">設定!$C$7:$D$7</definedName>
     <definedName name="交通工具">設定!$C$21:$C$24</definedName>
-    <definedName name="財務推進室">設定!$C$4:$D$4</definedName>
-    <definedName name="産業システム開発グループ">設定!$C$17:$E$17</definedName>
+    <definedName name="開発企画推進室">設定!$C$5:$E$5</definedName>
+    <definedName name="快適機器開発グループ">設定!$C$6:$D$6</definedName>
+    <definedName name="设施类型">設定!$F$21:$F$23</definedName>
     <definedName name="社会システム開発グループ">設定!$C$18:$G$18</definedName>
-    <definedName name="車載LSI開発グループ">設定!$C$14:$G$14</definedName>
-    <definedName name="車載商品開発グループ">設定!$C$13:$G$13</definedName>
+    <definedName name="移动时间">設定!$D$21:$D$29</definedName>
+    <definedName name="制御システム開発グループ">設定!$C$8:$D$8</definedName>
+    <definedName name="助成推進室">設定!$C$3:$H$3</definedName>
     <definedName name="住空間·業務空間開発グループ">設定!$C$16:$G$16</definedName>
     <definedName name="住空間端末開発グループ">設定!$C$10:$E$10</definedName>
-    <definedName name="助成推進室">設定!$C$3:$H$3</definedName>
-    <definedName name="制御システム開発グループ">設定!$C$8:$D$8</definedName>
     <definedName name="組込基盤技術開発グループ">設定!$C$12:$E$12</definedName>
-    <definedName name="部門">設定!$B$3:$B$18</definedName>
-    <definedName name="设施类型">設定!$F$21:$F$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="1" shapeId="0">
+    <comment ref="D30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="1" shapeId="0">
+    <comment ref="F30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q24" authorId="0" shapeId="0">
+    <comment ref="Q30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S24" authorId="0" shapeId="0">
+    <comment ref="S30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +821,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -930,7 +930,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -995,6 +995,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1692,7 +1698,7 @@
     </xf>
     <xf numFmtId="6" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1862,237 +1868,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2113,111 +1904,356 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="5" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="5" fontId="14" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="40" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="40" fontId="14" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="通貨 2" xfId="3"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="通貨 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2617,15 +2653,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI39"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="21" width="5.75" style="25" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="25" customWidth="1"/>
+    <col min="2" max="21" width="5.75" style="25" customWidth="1"/>
     <col min="22" max="47" width="9" style="25" customWidth="1"/>
     <col min="48" max="247" width="9" style="25"/>
     <col min="248" max="248" width="1.625" style="25" customWidth="1"/>
@@ -4080,247 +4117,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
     </row>
     <row r="2" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
     </row>
     <row r="3" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
     </row>
     <row r="4" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+    </row>
+    <row r="5" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+    </row>
+    <row r="6" spans="1:35" ht="19.899999999999999" customHeight="1">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+    </row>
+    <row r="7" spans="1:35" ht="36" customHeight="1">
+      <c r="B7" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="54" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54" t="s">
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="2" t="s">
+      <c r="H7" s="54"/>
+      <c r="I7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="26" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O7" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-    </row>
-    <row r="5" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B5" s="56" t="s">
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+    </row>
+    <row r="8" spans="1:35" ht="36" customHeight="1">
+      <c r="B8" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="134" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="26" t="s">
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="108" t="s">
+      <c r="N8" s="26"/>
+      <c r="O8" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="28" t="s">
+      <c r="P8" s="114"/>
+      <c r="Q8" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="131" t="s">
+      <c r="R8" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="131"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="29"/>
-      <c r="W5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-    </row>
-    <row r="6" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B6" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="134" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="111" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="137" t="s">
-        <v>143</v>
-      </c>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="W6" s="34"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-    </row>
-    <row r="7" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B7" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="140" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="130"/>
-      <c r="O7" s="138" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="W7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-    </row>
-    <row r="8" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="29"/>
       <c r="W8" s="30"/>
       <c r="AE8" s="30"/>
       <c r="AF8" s="30"/>
@@ -4328,216 +4329,196 @@
       <c r="AH8" s="30"/>
       <c r="AI8" s="30"/>
     </row>
-    <row r="9" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="109" t="s">
-        <v>14</v>
+    <row r="9" spans="1:35" ht="36" customHeight="1">
+      <c r="B9" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="110" t="s">
+        <v>141</v>
       </c>
       <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="112"/>
+      <c r="O9" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
       <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
       <c r="AF9" s="30"/>
       <c r="AG9" s="30"/>
       <c r="AH9" s="30"/>
       <c r="AI9" s="30"/>
     </row>
-    <row r="10" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="101"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
+    <row r="10" spans="1:35" ht="36" customHeight="1">
+      <c r="B10" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="110"/>
+      <c r="O10" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="W10" s="30"/>
       <c r="AE10" s="30"/>
       <c r="AF10" s="30"/>
       <c r="AG10" s="30"/>
       <c r="AH10" s="30"/>
       <c r="AI10" s="30"/>
     </row>
-    <row r="11" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="V11" s="35"/>
+    <row r="11" spans="1:35" ht="36" customHeight="1">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
       <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
       <c r="AE11" s="30"/>
       <c r="AF11" s="30"/>
       <c r="AG11" s="30"/>
       <c r="AH11" s="30"/>
       <c r="AI11" s="30"/>
     </row>
-    <row r="12" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B12" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="92"/>
-      <c r="V12" s="35"/>
+    <row r="12" spans="1:35" ht="36" customHeight="1">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
       <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
       <c r="AE12" s="30"/>
       <c r="AF12" s="30"/>
       <c r="AG12" s="30"/>
       <c r="AH12" s="30"/>
       <c r="AI12" s="30"/>
     </row>
-    <row r="13" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="94"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="105"/>
-      <c r="V13" s="35"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-    </row>
-    <row r="14" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="V14" s="35"/>
+    <row r="13" spans="1:35" ht="36" customHeight="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="111"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+    </row>
+    <row r="14" spans="1:35" ht="36" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="118"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
       <c r="AA14" s="30"/>
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
@@ -4548,39 +4529,30 @@
       <c r="AH14" s="30"/>
       <c r="AI14" s="30"/>
     </row>
-    <row r="15" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B15" s="168" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" s="84"/>
-      <c r="L15" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" s="97"/>
-      <c r="N15" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="81"/>
-      <c r="T15" s="85"/>
-      <c r="V15" s="35"/>
+    <row r="15" spans="1:35" ht="36" customHeight="1">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
       <c r="AA15" s="30"/>
       <c r="AB15" s="30"/>
       <c r="AC15" s="30"/>
@@ -4591,439 +4563,650 @@
       <c r="AH15" s="30"/>
       <c r="AI15" s="30"/>
     </row>
-    <row r="16" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="B16" s="170" t="s">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+    </row>
+    <row r="17" spans="2:35" ht="36" customHeight="1">
+      <c r="B17" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="132"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+    </row>
+    <row r="18" spans="2:35" ht="36" customHeight="1">
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="125"/>
+      <c r="V18" s="35"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+    </row>
+    <row r="19" spans="2:35" ht="36" customHeight="1">
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="V19" s="35"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+    </row>
+    <row r="20" spans="2:35" ht="36" customHeight="1">
+      <c r="B20" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="75"/>
+      <c r="L20" s="136" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="135"/>
+      <c r="N20" s="134" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="74"/>
+      <c r="T20" s="126"/>
+      <c r="V20" s="35"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+    </row>
+    <row r="21" spans="2:35" ht="36" customHeight="1">
+      <c r="B21" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="65" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="69" t="s">
+      <c r="K21" s="156"/>
+      <c r="L21" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="70"/>
-      <c r="N16" s="71" t="s">
+      <c r="M21" s="158"/>
+      <c r="N21" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="59" t="s">
+      <c r="O21" s="159"/>
+      <c r="P21" s="159"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="S16" s="59"/>
-      <c r="T16" s="60"/>
-      <c r="V16" s="35"/>
-    </row>
-    <row r="17" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B17" s="62" t="s">
+      <c r="S21" s="86"/>
+      <c r="T21" s="87"/>
+      <c r="V21" s="35"/>
+    </row>
+    <row r="22" spans="2:35" ht="36" customHeight="1">
+      <c r="B22" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="67" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="68"/>
-      <c r="L17" s="73" t="s">
+      <c r="K22" s="90"/>
+      <c r="L22" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="M17" s="74"/>
-      <c r="N17" s="75" t="s">
+      <c r="M22" s="92"/>
+      <c r="N22" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="59" t="s">
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="S17" s="59"/>
-      <c r="T17" s="60"/>
-      <c r="V17" s="35"/>
-    </row>
-    <row r="18" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="60"/>
-      <c r="V18" s="35"/>
-    </row>
-    <row r="19" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B19" s="62" t="s">
+      <c r="S22" s="86"/>
+      <c r="T22" s="87"/>
+      <c r="V22" s="35"/>
+    </row>
+    <row r="23" spans="2:35" ht="36" customHeight="1">
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="87"/>
+      <c r="V23" s="35"/>
+    </row>
+    <row r="24" spans="2:35" ht="36" customHeight="1">
+      <c r="B24" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="60"/>
-      <c r="V19" s="35"/>
-    </row>
-    <row r="20" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B20" s="82" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="87"/>
+      <c r="V24" s="35"/>
+    </row>
+    <row r="25" spans="2:35" ht="36" customHeight="1">
+      <c r="B25" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="149"/>
-      <c r="V20" s="35"/>
-    </row>
-    <row r="21" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B21" s="168" t="s">
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="100"/>
+      <c r="V25" s="35"/>
+    </row>
+    <row r="26" spans="2:35" ht="36" customHeight="1">
+      <c r="B26" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="152">
-        <f>SUM(M16:Q17)</f>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="151">
+        <f>SUM(M21:Q22)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="153"/>
-      <c r="N21" s="154" t="s">
+      <c r="M26" s="152"/>
+      <c r="N26" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="157" t="s">
+      <c r="O26" s="149"/>
+      <c r="P26" s="149"/>
+      <c r="Q26" s="150"/>
+      <c r="R26" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="S21" s="157"/>
-      <c r="T21" s="158"/>
-      <c r="V21" s="35"/>
-    </row>
-    <row r="22" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="V22" s="35"/>
-    </row>
-    <row r="23" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B23" s="159" t="s">
+      <c r="S26" s="146"/>
+      <c r="T26" s="147"/>
+      <c r="V26" s="35"/>
+    </row>
+    <row r="27" spans="2:35" ht="36" customHeight="1">
+      <c r="B27" s="182"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="V27" s="35"/>
+    </row>
+    <row r="28" spans="2:35" ht="36" customHeight="1">
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="V28" s="35"/>
+    </row>
+    <row r="29" spans="2:35" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91" t="s">
+      <c r="C29" s="131"/>
+      <c r="D29" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91" t="s">
+      <c r="E29" s="131"/>
+      <c r="F29" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="159" t="s">
+      <c r="G29" s="132"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91" t="s">
+      <c r="R29" s="131"/>
+      <c r="S29" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="T23" s="92"/>
-      <c r="V23" s="35"/>
-    </row>
-    <row r="24" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B24" s="160"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="161"/>
-      <c r="T24" s="162"/>
-      <c r="V24" s="35"/>
-    </row>
-    <row r="25" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B25" s="160"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="161"/>
-      <c r="S25" s="161"/>
-      <c r="T25" s="162"/>
-      <c r="V25" s="35"/>
-    </row>
-    <row r="26" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164"/>
-      <c r="T26" s="165"/>
-      <c r="V26" s="35"/>
-    </row>
-    <row r="27" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="V27" s="35"/>
-    </row>
-    <row r="28" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="V28" s="35"/>
-    </row>
-    <row r="29" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="25" t="s">
+      <c r="T29" s="132"/>
+      <c r="V29" s="35"/>
+    </row>
+    <row r="30" spans="2:35" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="140"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="140"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="141"/>
+      <c r="T30" s="144"/>
+      <c r="V30" s="35"/>
+    </row>
+    <row r="31" spans="2:35" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="140"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="141"/>
+      <c r="T31" s="144"/>
+      <c r="V31" s="35"/>
+    </row>
+    <row r="32" spans="2:35" ht="19.899999999999999" customHeight="1">
+      <c r="B32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="143"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="145"/>
+      <c r="V32" s="35"/>
+    </row>
+    <row r="33" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="V33" s="35"/>
+    </row>
+    <row r="34" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="V34" s="35"/>
+    </row>
+    <row r="35" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B35" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D35" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="V29" s="35"/>
-    </row>
-    <row r="30" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="D30" s="25" t="s">
+      <c r="V35" s="35"/>
+    </row>
+    <row r="36" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="D36" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="V30" s="35"/>
-    </row>
-    <row r="31" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="D31" s="25" t="s">
+      <c r="V36" s="35"/>
+    </row>
+    <row r="37" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="D37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="V31" s="35"/>
-    </row>
-    <row r="32" spans="2:22" ht="19.899999999999999" customHeight="1">
-      <c r="D32" s="25" t="s">
+      <c r="V37" s="35"/>
+    </row>
+    <row r="38" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="D38" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="V32" s="35"/>
-    </row>
-    <row r="33" spans="22:22" ht="19.899999999999999" customHeight="1">
-      <c r="V33" s="35"/>
-    </row>
-    <row r="34" spans="22:22">
-      <c r="V34" s="35"/>
-    </row>
-    <row r="35" spans="22:22">
-      <c r="V35" s="35"/>
-    </row>
-    <row r="36" spans="22:22">
-      <c r="V36" s="35"/>
-    </row>
-    <row r="37" spans="22:22">
-      <c r="V37" s="35"/>
-    </row>
-    <row r="38" spans="22:22">
       <c r="V38" s="35"/>
     </row>
-    <row r="39" spans="22:22">
+    <row r="39" spans="2:22" ht="19.899999999999999" customHeight="1">
       <c r="V39" s="35"/>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="V40" s="35"/>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="V41" s="35"/>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="V42" s="35"/>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="V43" s="35"/>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="V44" s="35"/>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="V45" s="35"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="76">
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B28:T28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R32"/>
+    <mergeCell ref="S30:T32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E32"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="B19:T19"/>
+    <mergeCell ref="B17:F18"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="B2:T3"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G25:I25"/>
     <mergeCell ref="R20:T20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="B11:T11"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="B14:T14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B22:T22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R26"/>
-    <mergeCell ref="S24:T26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E26"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G26"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVC983045:WVJ983045 WLG983045:WLN983045 WBK983045:WBR983045 VRO983045:VRV983045 VHS983045:VHZ983045 UXW983045:UYD983045 UOA983045:UOH983045 UEE983045:UEL983045 TUI983045:TUP983045 TKM983045:TKT983045 TAQ983045:TAX983045 SQU983045:SRB983045 SGY983045:SHF983045 RXC983045:RXJ983045 RNG983045:RNN983045 RDK983045:RDR983045 QTO983045:QTV983045 QJS983045:QJZ983045 PZW983045:QAD983045 PQA983045:PQH983045 PGE983045:PGL983045 OWI983045:OWP983045 OMM983045:OMT983045 OCQ983045:OCX983045 NSU983045:NTB983045 NIY983045:NJF983045 MZC983045:MZJ983045 MPG983045:MPN983045 MFK983045:MFR983045 LVO983045:LVV983045 LLS983045:LLZ983045 LBW983045:LCD983045 KSA983045:KSH983045 KIE983045:KIL983045 JYI983045:JYP983045 JOM983045:JOT983045 JEQ983045:JEX983045 IUU983045:IVB983045 IKY983045:ILF983045 IBC983045:IBJ983045 HRG983045:HRN983045 HHK983045:HHR983045 GXO983045:GXV983045 GNS983045:GNZ983045 GDW983045:GED983045 FUA983045:FUH983045 FKE983045:FKL983045 FAI983045:FAP983045 EQM983045:EQT983045 EGQ983045:EGX983045 DWU983045:DXB983045 DMY983045:DNF983045 DDC983045:DDJ983045 CTG983045:CTN983045 CJK983045:CJR983045 BZO983045:BZV983045 BPS983045:BPZ983045 BFW983045:BGD983045 AWA983045:AWH983045 AME983045:AML983045 ACI983045:ACP983045 SM983045:ST983045 IQ983045:IX983045 E983045:K983045 WVC917509:WVJ917509 WLG917509:WLN917509 WBK917509:WBR917509 VRO917509:VRV917509 VHS917509:VHZ917509 UXW917509:UYD917509 UOA917509:UOH917509 UEE917509:UEL917509 TUI917509:TUP917509 TKM917509:TKT917509 TAQ917509:TAX917509 SQU917509:SRB917509 SGY917509:SHF917509 RXC917509:RXJ917509 RNG917509:RNN917509 RDK917509:RDR917509 QTO917509:QTV917509 QJS917509:QJZ917509 PZW917509:QAD917509 PQA917509:PQH917509 PGE917509:PGL917509 OWI917509:OWP917509 OMM917509:OMT917509 OCQ917509:OCX917509 NSU917509:NTB917509 NIY917509:NJF917509 MZC917509:MZJ917509 MPG917509:MPN917509 MFK917509:MFR917509 LVO917509:LVV917509 LLS917509:LLZ917509 LBW917509:LCD917509 KSA917509:KSH917509 KIE917509:KIL917509 JYI917509:JYP917509 JOM917509:JOT917509 JEQ917509:JEX917509 IUU917509:IVB917509 IKY917509:ILF917509 IBC917509:IBJ917509 HRG917509:HRN917509 HHK917509:HHR917509 GXO917509:GXV917509 GNS917509:GNZ917509 GDW917509:GED917509 FUA917509:FUH917509 FKE917509:FKL917509 FAI917509:FAP917509 EQM917509:EQT917509 EGQ917509:EGX917509 DWU917509:DXB917509 DMY917509:DNF917509 DDC917509:DDJ917509 CTG917509:CTN917509 CJK917509:CJR917509 BZO917509:BZV917509 BPS917509:BPZ917509 BFW917509:BGD917509 AWA917509:AWH917509 AME917509:AML917509 ACI917509:ACP917509 SM917509:ST917509 IQ917509:IX917509 E917509:K917509 WVC851973:WVJ851973 WLG851973:WLN851973 WBK851973:WBR851973 VRO851973:VRV851973 VHS851973:VHZ851973 UXW851973:UYD851973 UOA851973:UOH851973 UEE851973:UEL851973 TUI851973:TUP851973 TKM851973:TKT851973 TAQ851973:TAX851973 SQU851973:SRB851973 SGY851973:SHF851973 RXC851973:RXJ851973 RNG851973:RNN851973 RDK851973:RDR851973 QTO851973:QTV851973 QJS851973:QJZ851973 PZW851973:QAD851973 PQA851973:PQH851973 PGE851973:PGL851973 OWI851973:OWP851973 OMM851973:OMT851973 OCQ851973:OCX851973 NSU851973:NTB851973 NIY851973:NJF851973 MZC851973:MZJ851973 MPG851973:MPN851973 MFK851973:MFR851973 LVO851973:LVV851973 LLS851973:LLZ851973 LBW851973:LCD851973 KSA851973:KSH851973 KIE851973:KIL851973 JYI851973:JYP851973 JOM851973:JOT851973 JEQ851973:JEX851973 IUU851973:IVB851973 IKY851973:ILF851973 IBC851973:IBJ851973 HRG851973:HRN851973 HHK851973:HHR851973 GXO851973:GXV851973 GNS851973:GNZ851973 GDW851973:GED851973 FUA851973:FUH851973 FKE851973:FKL851973 FAI851973:FAP851973 EQM851973:EQT851973 EGQ851973:EGX851973 DWU851973:DXB851973 DMY851973:DNF851973 DDC851973:DDJ851973 CTG851973:CTN851973 CJK851973:CJR851973 BZO851973:BZV851973 BPS851973:BPZ851973 BFW851973:BGD851973 AWA851973:AWH851973 AME851973:AML851973 ACI851973:ACP851973 SM851973:ST851973 IQ851973:IX851973 E851973:K851973 WVC786437:WVJ786437 WLG786437:WLN786437 WBK786437:WBR786437 VRO786437:VRV786437 VHS786437:VHZ786437 UXW786437:UYD786437 UOA786437:UOH786437 UEE786437:UEL786437 TUI786437:TUP786437 TKM786437:TKT786437 TAQ786437:TAX786437 SQU786437:SRB786437 SGY786437:SHF786437 RXC786437:RXJ786437 RNG786437:RNN786437 RDK786437:RDR786437 QTO786437:QTV786437 QJS786437:QJZ786437 PZW786437:QAD786437 PQA786437:PQH786437 PGE786437:PGL786437 OWI786437:OWP786437 OMM786437:OMT786437 OCQ786437:OCX786437 NSU786437:NTB786437 NIY786437:NJF786437 MZC786437:MZJ786437 MPG786437:MPN786437 MFK786437:MFR786437 LVO786437:LVV786437 LLS786437:LLZ786437 LBW786437:LCD786437 KSA786437:KSH786437 KIE786437:KIL786437 JYI786437:JYP786437 JOM786437:JOT786437 JEQ786437:JEX786437 IUU786437:IVB786437 IKY786437:ILF786437 IBC786437:IBJ786437 HRG786437:HRN786437 HHK786437:HHR786437 GXO786437:GXV786437 GNS786437:GNZ786437 GDW786437:GED786437 FUA786437:FUH786437 FKE786437:FKL786437 FAI786437:FAP786437 EQM786437:EQT786437 EGQ786437:EGX786437 DWU786437:DXB786437 DMY786437:DNF786437 DDC786437:DDJ786437 CTG786437:CTN786437 CJK786437:CJR786437 BZO786437:BZV786437 BPS786437:BPZ786437 BFW786437:BGD786437 AWA786437:AWH786437 AME786437:AML786437 ACI786437:ACP786437 SM786437:ST786437 IQ786437:IX786437 E786437:K786437 WVC720901:WVJ720901 WLG720901:WLN720901 WBK720901:WBR720901 VRO720901:VRV720901 VHS720901:VHZ720901 UXW720901:UYD720901 UOA720901:UOH720901 UEE720901:UEL720901 TUI720901:TUP720901 TKM720901:TKT720901 TAQ720901:TAX720901 SQU720901:SRB720901 SGY720901:SHF720901 RXC720901:RXJ720901 RNG720901:RNN720901 RDK720901:RDR720901 QTO720901:QTV720901 QJS720901:QJZ720901 PZW720901:QAD720901 PQA720901:PQH720901 PGE720901:PGL720901 OWI720901:OWP720901 OMM720901:OMT720901 OCQ720901:OCX720901 NSU720901:NTB720901 NIY720901:NJF720901 MZC720901:MZJ720901 MPG720901:MPN720901 MFK720901:MFR720901 LVO720901:LVV720901 LLS720901:LLZ720901 LBW720901:LCD720901 KSA720901:KSH720901 KIE720901:KIL720901 JYI720901:JYP720901 JOM720901:JOT720901 JEQ720901:JEX720901 IUU720901:IVB720901 IKY720901:ILF720901 IBC720901:IBJ720901 HRG720901:HRN720901 HHK720901:HHR720901 GXO720901:GXV720901 GNS720901:GNZ720901 GDW720901:GED720901 FUA720901:FUH720901 FKE720901:FKL720901 FAI720901:FAP720901 EQM720901:EQT720901 EGQ720901:EGX720901 DWU720901:DXB720901 DMY720901:DNF720901 DDC720901:DDJ720901 CTG720901:CTN720901 CJK720901:CJR720901 BZO720901:BZV720901 BPS720901:BPZ720901 BFW720901:BGD720901 AWA720901:AWH720901 AME720901:AML720901 ACI720901:ACP720901 SM720901:ST720901 IQ720901:IX720901 E720901:K720901 WVC655365:WVJ655365 WLG655365:WLN655365 WBK655365:WBR655365 VRO655365:VRV655365 VHS655365:VHZ655365 UXW655365:UYD655365 UOA655365:UOH655365 UEE655365:UEL655365 TUI655365:TUP655365 TKM655365:TKT655365 TAQ655365:TAX655365 SQU655365:SRB655365 SGY655365:SHF655365 RXC655365:RXJ655365 RNG655365:RNN655365 RDK655365:RDR655365 QTO655365:QTV655365 QJS655365:QJZ655365 PZW655365:QAD655365 PQA655365:PQH655365 PGE655365:PGL655365 OWI655365:OWP655365 OMM655365:OMT655365 OCQ655365:OCX655365 NSU655365:NTB655365 NIY655365:NJF655365 MZC655365:MZJ655365 MPG655365:MPN655365 MFK655365:MFR655365 LVO655365:LVV655365 LLS655365:LLZ655365 LBW655365:LCD655365 KSA655365:KSH655365 KIE655365:KIL655365 JYI655365:JYP655365 JOM655365:JOT655365 JEQ655365:JEX655365 IUU655365:IVB655365 IKY655365:ILF655365 IBC655365:IBJ655365 HRG655365:HRN655365 HHK655365:HHR655365 GXO655365:GXV655365 GNS655365:GNZ655365 GDW655365:GED655365 FUA655365:FUH655365 FKE655365:FKL655365 FAI655365:FAP655365 EQM655365:EQT655365 EGQ655365:EGX655365 DWU655365:DXB655365 DMY655365:DNF655365 DDC655365:DDJ655365 CTG655365:CTN655365 CJK655365:CJR655365 BZO655365:BZV655365 BPS655365:BPZ655365 BFW655365:BGD655365 AWA655365:AWH655365 AME655365:AML655365 ACI655365:ACP655365 SM655365:ST655365 IQ655365:IX655365 E655365:K655365 WVC589829:WVJ589829 WLG589829:WLN589829 WBK589829:WBR589829 VRO589829:VRV589829 VHS589829:VHZ589829 UXW589829:UYD589829 UOA589829:UOH589829 UEE589829:UEL589829 TUI589829:TUP589829 TKM589829:TKT589829 TAQ589829:TAX589829 SQU589829:SRB589829 SGY589829:SHF589829 RXC589829:RXJ589829 RNG589829:RNN589829 RDK589829:RDR589829 QTO589829:QTV589829 QJS589829:QJZ589829 PZW589829:QAD589829 PQA589829:PQH589829 PGE589829:PGL589829 OWI589829:OWP589829 OMM589829:OMT589829 OCQ589829:OCX589829 NSU589829:NTB589829 NIY589829:NJF589829 MZC589829:MZJ589829 MPG589829:MPN589829 MFK589829:MFR589829 LVO589829:LVV589829 LLS589829:LLZ589829 LBW589829:LCD589829 KSA589829:KSH589829 KIE589829:KIL589829 JYI589829:JYP589829 JOM589829:JOT589829 JEQ589829:JEX589829 IUU589829:IVB589829 IKY589829:ILF589829 IBC589829:IBJ589829 HRG589829:HRN589829 HHK589829:HHR589829 GXO589829:GXV589829 GNS589829:GNZ589829 GDW589829:GED589829 FUA589829:FUH589829 FKE589829:FKL589829 FAI589829:FAP589829 EQM589829:EQT589829 EGQ589829:EGX589829 DWU589829:DXB589829 DMY589829:DNF589829 DDC589829:DDJ589829 CTG589829:CTN589829 CJK589829:CJR589829 BZO589829:BZV589829 BPS589829:BPZ589829 BFW589829:BGD589829 AWA589829:AWH589829 AME589829:AML589829 ACI589829:ACP589829 SM589829:ST589829 IQ589829:IX589829 E589829:K589829 WVC524293:WVJ524293 WLG524293:WLN524293 WBK524293:WBR524293 VRO524293:VRV524293 VHS524293:VHZ524293 UXW524293:UYD524293 UOA524293:UOH524293 UEE524293:UEL524293 TUI524293:TUP524293 TKM524293:TKT524293 TAQ524293:TAX524293 SQU524293:SRB524293 SGY524293:SHF524293 RXC524293:RXJ524293 RNG524293:RNN524293 RDK524293:RDR524293 QTO524293:QTV524293 QJS524293:QJZ524293 PZW524293:QAD524293 PQA524293:PQH524293 PGE524293:PGL524293 OWI524293:OWP524293 OMM524293:OMT524293 OCQ524293:OCX524293 NSU524293:NTB524293 NIY524293:NJF524293 MZC524293:MZJ524293 MPG524293:MPN524293 MFK524293:MFR524293 LVO524293:LVV524293 LLS524293:LLZ524293 LBW524293:LCD524293 KSA524293:KSH524293 KIE524293:KIL524293 JYI524293:JYP524293 JOM524293:JOT524293 JEQ524293:JEX524293 IUU524293:IVB524293 IKY524293:ILF524293 IBC524293:IBJ524293 HRG524293:HRN524293 HHK524293:HHR524293 GXO524293:GXV524293 GNS524293:GNZ524293 GDW524293:GED524293 FUA524293:FUH524293 FKE524293:FKL524293 FAI524293:FAP524293 EQM524293:EQT524293 EGQ524293:EGX524293 DWU524293:DXB524293 DMY524293:DNF524293 DDC524293:DDJ524293 CTG524293:CTN524293 CJK524293:CJR524293 BZO524293:BZV524293 BPS524293:BPZ524293 BFW524293:BGD524293 AWA524293:AWH524293 AME524293:AML524293 ACI524293:ACP524293 SM524293:ST524293 IQ524293:IX524293 E524293:K524293 WVC458757:WVJ458757 WLG458757:WLN458757 WBK458757:WBR458757 VRO458757:VRV458757 VHS458757:VHZ458757 UXW458757:UYD458757 UOA458757:UOH458757 UEE458757:UEL458757 TUI458757:TUP458757 TKM458757:TKT458757 TAQ458757:TAX458757 SQU458757:SRB458757 SGY458757:SHF458757 RXC458757:RXJ458757 RNG458757:RNN458757 RDK458757:RDR458757 QTO458757:QTV458757 QJS458757:QJZ458757 PZW458757:QAD458757 PQA458757:PQH458757 PGE458757:PGL458757 OWI458757:OWP458757 OMM458757:OMT458757 OCQ458757:OCX458757 NSU458757:NTB458757 NIY458757:NJF458757 MZC458757:MZJ458757 MPG458757:MPN458757 MFK458757:MFR458757 LVO458757:LVV458757 LLS458757:LLZ458757 LBW458757:LCD458757 KSA458757:KSH458757 KIE458757:KIL458757 JYI458757:JYP458757 JOM458757:JOT458757 JEQ458757:JEX458757 IUU458757:IVB458757 IKY458757:ILF458757 IBC458757:IBJ458757 HRG458757:HRN458757 HHK458757:HHR458757 GXO458757:GXV458757 GNS458757:GNZ458757 GDW458757:GED458757 FUA458757:FUH458757 FKE458757:FKL458757 FAI458757:FAP458757 EQM458757:EQT458757 EGQ458757:EGX458757 DWU458757:DXB458757 DMY458757:DNF458757 DDC458757:DDJ458757 CTG458757:CTN458757 CJK458757:CJR458757 BZO458757:BZV458757 BPS458757:BPZ458757 BFW458757:BGD458757 AWA458757:AWH458757 AME458757:AML458757 ACI458757:ACP458757 SM458757:ST458757 IQ458757:IX458757 E458757:K458757 WVC393221:WVJ393221 WLG393221:WLN393221 WBK393221:WBR393221 VRO393221:VRV393221 VHS393221:VHZ393221 UXW393221:UYD393221 UOA393221:UOH393221 UEE393221:UEL393221 TUI393221:TUP393221 TKM393221:TKT393221 TAQ393221:TAX393221 SQU393221:SRB393221 SGY393221:SHF393221 RXC393221:RXJ393221 RNG393221:RNN393221 RDK393221:RDR393221 QTO393221:QTV393221 QJS393221:QJZ393221 PZW393221:QAD393221 PQA393221:PQH393221 PGE393221:PGL393221 OWI393221:OWP393221 OMM393221:OMT393221 OCQ393221:OCX393221 NSU393221:NTB393221 NIY393221:NJF393221 MZC393221:MZJ393221 MPG393221:MPN393221 MFK393221:MFR393221 LVO393221:LVV393221 LLS393221:LLZ393221 LBW393221:LCD393221 KSA393221:KSH393221 KIE393221:KIL393221 JYI393221:JYP393221 JOM393221:JOT393221 JEQ393221:JEX393221 IUU393221:IVB393221 IKY393221:ILF393221 IBC393221:IBJ393221 HRG393221:HRN393221 HHK393221:HHR393221 GXO393221:GXV393221 GNS393221:GNZ393221 GDW393221:GED393221 FUA393221:FUH393221 FKE393221:FKL393221 FAI393221:FAP393221 EQM393221:EQT393221 EGQ393221:EGX393221 DWU393221:DXB393221 DMY393221:DNF393221 DDC393221:DDJ393221 CTG393221:CTN393221 CJK393221:CJR393221 BZO393221:BZV393221 BPS393221:BPZ393221 BFW393221:BGD393221 AWA393221:AWH393221 AME393221:AML393221 ACI393221:ACP393221 SM393221:ST393221 IQ393221:IX393221 E393221:K393221 WVC327685:WVJ327685 WLG327685:WLN327685 WBK327685:WBR327685 VRO327685:VRV327685 VHS327685:VHZ327685 UXW327685:UYD327685 UOA327685:UOH327685 UEE327685:UEL327685 TUI327685:TUP327685 TKM327685:TKT327685 TAQ327685:TAX327685 SQU327685:SRB327685 SGY327685:SHF327685 RXC327685:RXJ327685 RNG327685:RNN327685 RDK327685:RDR327685 QTO327685:QTV327685 QJS327685:QJZ327685 PZW327685:QAD327685 PQA327685:PQH327685 PGE327685:PGL327685 OWI327685:OWP327685 OMM327685:OMT327685 OCQ327685:OCX327685 NSU327685:NTB327685 NIY327685:NJF327685 MZC327685:MZJ327685 MPG327685:MPN327685 MFK327685:MFR327685 LVO327685:LVV327685 LLS327685:LLZ327685 LBW327685:LCD327685 KSA327685:KSH327685 KIE327685:KIL327685 JYI327685:JYP327685 JOM327685:JOT327685 JEQ327685:JEX327685 IUU327685:IVB327685 IKY327685:ILF327685 IBC327685:IBJ327685 HRG327685:HRN327685 HHK327685:HHR327685 GXO327685:GXV327685 GNS327685:GNZ327685 GDW327685:GED327685 FUA327685:FUH327685 FKE327685:FKL327685 FAI327685:FAP327685 EQM327685:EQT327685 EGQ327685:EGX327685 DWU327685:DXB327685 DMY327685:DNF327685 DDC327685:DDJ327685 CTG327685:CTN327685 CJK327685:CJR327685 BZO327685:BZV327685 BPS327685:BPZ327685 BFW327685:BGD327685 AWA327685:AWH327685 AME327685:AML327685 ACI327685:ACP327685 SM327685:ST327685 IQ327685:IX327685 E327685:K327685 WVC262149:WVJ262149 WLG262149:WLN262149 WBK262149:WBR262149 VRO262149:VRV262149 VHS262149:VHZ262149 UXW262149:UYD262149 UOA262149:UOH262149 UEE262149:UEL262149 TUI262149:TUP262149 TKM262149:TKT262149 TAQ262149:TAX262149 SQU262149:SRB262149 SGY262149:SHF262149 RXC262149:RXJ262149 RNG262149:RNN262149 RDK262149:RDR262149 QTO262149:QTV262149 QJS262149:QJZ262149 PZW262149:QAD262149 PQA262149:PQH262149 PGE262149:PGL262149 OWI262149:OWP262149 OMM262149:OMT262149 OCQ262149:OCX262149 NSU262149:NTB262149 NIY262149:NJF262149 MZC262149:MZJ262149 MPG262149:MPN262149 MFK262149:MFR262149 LVO262149:LVV262149 LLS262149:LLZ262149 LBW262149:LCD262149 KSA262149:KSH262149 KIE262149:KIL262149 JYI262149:JYP262149 JOM262149:JOT262149 JEQ262149:JEX262149 IUU262149:IVB262149 IKY262149:ILF262149 IBC262149:IBJ262149 HRG262149:HRN262149 HHK262149:HHR262149 GXO262149:GXV262149 GNS262149:GNZ262149 GDW262149:GED262149 FUA262149:FUH262149 FKE262149:FKL262149 FAI262149:FAP262149 EQM262149:EQT262149 EGQ262149:EGX262149 DWU262149:DXB262149 DMY262149:DNF262149 DDC262149:DDJ262149 CTG262149:CTN262149 CJK262149:CJR262149 BZO262149:BZV262149 BPS262149:BPZ262149 BFW262149:BGD262149 AWA262149:AWH262149 AME262149:AML262149 ACI262149:ACP262149 SM262149:ST262149 IQ262149:IX262149 E262149:K262149 WVC196613:WVJ196613 WLG196613:WLN196613 WBK196613:WBR196613 VRO196613:VRV196613 VHS196613:VHZ196613 UXW196613:UYD196613 UOA196613:UOH196613 UEE196613:UEL196613 TUI196613:TUP196613 TKM196613:TKT196613 TAQ196613:TAX196613 SQU196613:SRB196613 SGY196613:SHF196613 RXC196613:RXJ196613 RNG196613:RNN196613 RDK196613:RDR196613 QTO196613:QTV196613 QJS196613:QJZ196613 PZW196613:QAD196613 PQA196613:PQH196613 PGE196613:PGL196613 OWI196613:OWP196613 OMM196613:OMT196613 OCQ196613:OCX196613 NSU196613:NTB196613 NIY196613:NJF196613 MZC196613:MZJ196613 MPG196613:MPN196613 MFK196613:MFR196613 LVO196613:LVV196613 LLS196613:LLZ196613 LBW196613:LCD196613 KSA196613:KSH196613 KIE196613:KIL196613 JYI196613:JYP196613 JOM196613:JOT196613 JEQ196613:JEX196613 IUU196613:IVB196613 IKY196613:ILF196613 IBC196613:IBJ196613 HRG196613:HRN196613 HHK196613:HHR196613 GXO196613:GXV196613 GNS196613:GNZ196613 GDW196613:GED196613 FUA196613:FUH196613 FKE196613:FKL196613 FAI196613:FAP196613 EQM196613:EQT196613 EGQ196613:EGX196613 DWU196613:DXB196613 DMY196613:DNF196613 DDC196613:DDJ196613 CTG196613:CTN196613 CJK196613:CJR196613 BZO196613:BZV196613 BPS196613:BPZ196613 BFW196613:BGD196613 AWA196613:AWH196613 AME196613:AML196613 ACI196613:ACP196613 SM196613:ST196613 IQ196613:IX196613 E196613:K196613 WVC131077:WVJ131077 WLG131077:WLN131077 WBK131077:WBR131077 VRO131077:VRV131077 VHS131077:VHZ131077 UXW131077:UYD131077 UOA131077:UOH131077 UEE131077:UEL131077 TUI131077:TUP131077 TKM131077:TKT131077 TAQ131077:TAX131077 SQU131077:SRB131077 SGY131077:SHF131077 RXC131077:RXJ131077 RNG131077:RNN131077 RDK131077:RDR131077 QTO131077:QTV131077 QJS131077:QJZ131077 PZW131077:QAD131077 PQA131077:PQH131077 PGE131077:PGL131077 OWI131077:OWP131077 OMM131077:OMT131077 OCQ131077:OCX131077 NSU131077:NTB131077 NIY131077:NJF131077 MZC131077:MZJ131077 MPG131077:MPN131077 MFK131077:MFR131077 LVO131077:LVV131077 LLS131077:LLZ131077 LBW131077:LCD131077 KSA131077:KSH131077 KIE131077:KIL131077 JYI131077:JYP131077 JOM131077:JOT131077 JEQ131077:JEX131077 IUU131077:IVB131077 IKY131077:ILF131077 IBC131077:IBJ131077 HRG131077:HRN131077 HHK131077:HHR131077 GXO131077:GXV131077 GNS131077:GNZ131077 GDW131077:GED131077 FUA131077:FUH131077 FKE131077:FKL131077 FAI131077:FAP131077 EQM131077:EQT131077 EGQ131077:EGX131077 DWU131077:DXB131077 DMY131077:DNF131077 DDC131077:DDJ131077 CTG131077:CTN131077 CJK131077:CJR131077 BZO131077:BZV131077 BPS131077:BPZ131077 BFW131077:BGD131077 AWA131077:AWH131077 AME131077:AML131077 ACI131077:ACP131077 SM131077:ST131077 IQ131077:IX131077 E131077:K131077 WVC65541:WVJ65541 WLG65541:WLN65541 WBK65541:WBR65541 VRO65541:VRV65541 VHS65541:VHZ65541 UXW65541:UYD65541 UOA65541:UOH65541 UEE65541:UEL65541 TUI65541:TUP65541 TKM65541:TKT65541 TAQ65541:TAX65541 SQU65541:SRB65541 SGY65541:SHF65541 RXC65541:RXJ65541 RNG65541:RNN65541 RDK65541:RDR65541 QTO65541:QTV65541 QJS65541:QJZ65541 PZW65541:QAD65541 PQA65541:PQH65541 PGE65541:PGL65541 OWI65541:OWP65541 OMM65541:OMT65541 OCQ65541:OCX65541 NSU65541:NTB65541 NIY65541:NJF65541 MZC65541:MZJ65541 MPG65541:MPN65541 MFK65541:MFR65541 LVO65541:LVV65541 LLS65541:LLZ65541 LBW65541:LCD65541 KSA65541:KSH65541 KIE65541:KIL65541 JYI65541:JYP65541 JOM65541:JOT65541 JEQ65541:JEX65541 IUU65541:IVB65541 IKY65541:ILF65541 IBC65541:IBJ65541 HRG65541:HRN65541 HHK65541:HHR65541 GXO65541:GXV65541 GNS65541:GNZ65541 GDW65541:GED65541 FUA65541:FUH65541 FKE65541:FKL65541 FAI65541:FAP65541 EQM65541:EQT65541 EGQ65541:EGX65541 DWU65541:DXB65541 DMY65541:DNF65541 DDC65541:DDJ65541 CTG65541:CTN65541 CJK65541:CJR65541 BZO65541:BZV65541 BPS65541:BPZ65541 BFW65541:BGD65541 AWA65541:AWH65541 AME65541:AML65541 ACI65541:ACP65541 SM65541:ST65541 IQ65541:IX65541 E65541:K65541 WVC6:WVJ6 WLG6:WLN6 WBK6:WBR6 VRO6:VRV6 VHS6:VHZ6 UXW6:UYD6 UOA6:UOH6 UEE6:UEL6 TUI6:TUP6 TKM6:TKT6 TAQ6:TAX6 SQU6:SRB6 SGY6:SHF6 RXC6:RXJ6 RNG6:RNN6 RDK6:RDR6 QTO6:QTV6 QJS6:QJZ6 PZW6:QAD6 PQA6:PQH6 PGE6:PGL6 OWI6:OWP6 OMM6:OMT6 OCQ6:OCX6 NSU6:NTB6 NIY6:NJF6 MZC6:MZJ6 MPG6:MPN6 MFK6:MFR6 LVO6:LVV6 LLS6:LLZ6 LBW6:LCD6 KSA6:KSH6 KIE6:KIL6 JYI6:JYP6 JOM6:JOT6 JEQ6:JEX6 IUU6:IVB6 IKY6:ILF6 IBC6:IBJ6 HRG6:HRN6 HHK6:HHR6 GXO6:GXV6 GNS6:GNZ6 GDW6:GED6 FUA6:FUH6 FKE6:FKL6 FAI6:FAP6 EQM6:EQT6 EGQ6:EGX6 DWU6:DXB6 DMY6:DNF6 DDC6:DDJ6 CTG6:CTN6 CJK6:CJR6 BZO6:BZV6 BPS6:BPZ6 BFW6:BGD6 AWA6:AWH6 AME6:AML6 ACI6:ACP6 SM6:ST6 IQ6:IX6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVC983051:WVJ983051 WLG983051:WLN983051 WBK983051:WBR983051 VRO983051:VRV983051 VHS983051:VHZ983051 UXW983051:UYD983051 UOA983051:UOH983051 UEE983051:UEL983051 TUI983051:TUP983051 TKM983051:TKT983051 TAQ983051:TAX983051 SQU983051:SRB983051 SGY983051:SHF983051 RXC983051:RXJ983051 RNG983051:RNN983051 RDK983051:RDR983051 QTO983051:QTV983051 QJS983051:QJZ983051 PZW983051:QAD983051 PQA983051:PQH983051 PGE983051:PGL983051 OWI983051:OWP983051 OMM983051:OMT983051 OCQ983051:OCX983051 NSU983051:NTB983051 NIY983051:NJF983051 MZC983051:MZJ983051 MPG983051:MPN983051 MFK983051:MFR983051 LVO983051:LVV983051 LLS983051:LLZ983051 LBW983051:LCD983051 KSA983051:KSH983051 KIE983051:KIL983051 JYI983051:JYP983051 JOM983051:JOT983051 JEQ983051:JEX983051 IUU983051:IVB983051 IKY983051:ILF983051 IBC983051:IBJ983051 HRG983051:HRN983051 HHK983051:HHR983051 GXO983051:GXV983051 GNS983051:GNZ983051 GDW983051:GED983051 FUA983051:FUH983051 FKE983051:FKL983051 FAI983051:FAP983051 EQM983051:EQT983051 EGQ983051: